--- a/kabum_produtos.xlsx
+++ b/kabum_produtos.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="583">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="571">
   <si>
     <t>Produto</t>
   </si>
@@ -226,7 +226,7 @@
     <t>Notebook Acer Aspire 3 Intel Core I3 11ª Gen, RAM 4GB, SSD 512GB, 15.6 Polegadas Full HD - Windows 11 Home</t>
   </si>
   <si>
-    <t>R$2229.9</t>
+    <t>R$2314.4</t>
   </si>
   <si>
     <t>Notebook LG UltraSlim Intel Core i5, 8GB RAM, SSD 256GB, 15.6" Full HD IPS Iris Xe, Windows 11 Home, Preto - 15U50Q-L</t>
@@ -436,9 +436,6 @@
     <t>Notebook vaio fe15 15.6 fhd i5-1135g7 8gb ssd 512gb windows 11 home cinza escuro - vjfe55f11x-b0211h&lt;br /&gt;&lt;br /&gt;  Mais desempenho&lt;br /&gt; Aumente sua produtividade e faça  multitarefas sem se preocupar. O novo vaio vem equipado com  processadores intel de 11º geração&lt;br /&gt;&lt;br /&gt;  Precisão nos detalhes&lt;br /&gt;  A tela full hd proporciona um visual mais imersivo  e com menos distrações para os olhos. Aproveite  todo o poder gráfico das novas gpu intel xe graphics e desfrute de toda qualidade de imagem,  seja num filme, numa edição de fotos ou em  qualquer outro visual&lt;br /&gt;&lt;br /&gt;  Leveza e autonomia combinados&lt;br /&gt; Tenha autonomia para sair de casa sem  preocupações, o novo vaio fe15 possui bateria de até 10 horas de duração, design  compacto, leve, pesando apenas 1,75 kg, e fino, com 19,8 mm&lt;br /&gt; O tempo de duração da bateria pode variar de acordo com o uso--&lt;br /&gt;&lt;br /&gt; A qualidade e privacidade que você precisa&lt;br /&gt; A webcam hd e os dois microfones digitais com noise cancellation surpreendem a todos na videoconferência. Não seja surpreendido com a invasão de privacidade, a nossa webcam shutter (bloqueador mecânico da câmera) te mantém sempre seguro&lt;br /&gt;&lt;br /&gt;  Comfort key e tecnologia ergolift&lt;br /&gt;  Com a tecnologia do teclado ergolift o notebook possui uma leve inclinação sendo mais confortável na hora de digitar, reduzindo o estresse do pulso e das mãos para usar à vontade. E não se preocupe, porque com o comfort key as teclas são maiores, possibilitando muito conforto na digitação além de ser robusto (teclado suporta até 10 milhões de ciclos)</t>
   </si>
   <si>
-    <t>R$2949.9</t>
-  </si>
-  <si>
     <t>Notebook Samsung Book Go, Snapdragon 7c, 4GB RAM, SSD 128GB, Tela 14 Polegadas Full HD, W11 Home, Cinza, Com Office 365 Personal - Np340xla-k03br</t>
   </si>
   <si>
@@ -1615,13 +1612,13 @@
     <t>R$1899.0</t>
   </si>
   <si>
-    <t>Notebook Acer A314, Intel Celeron N4500, 4GB, SSD 128GB, Tela 14 Full HD, Linux</t>
-  </si>
-  <si>
-    <t>&lt;strong&gt;notebook acer a314 intel celeron n4500&lt;/strong&gt;&lt;strong&gt;dando conta em grande estilo:&lt;/strong&gt;desenvolvido para não deixar você parar, o aspire 3 tem a tecnologia que acompanha seu estilo de vida. Equipado com o processador intel&amp;nbspceleron&amp;nbsp- n4500 serie n, estudar, trabalhar e se divertir ficam mais fácil.&lt;strong&gt;imagens impressionantes:&lt;/strong&gt;assistir vídeos, filmes e séries será como estar no cinema com a tela de 14&amp;nbspfhd (1920 x 1080). A tecnologia acer comfyview&amp;nbspotimiza o conforto, refletindo menos luz e garantindo uma visualização mais confortável.&lt;strong&gt;bateria que não te deixa na mão:&lt;/strong&gt;o aspire 3 foi feito para aguentar todas as necessidades do dia. Dependendo do uso, sua bateria pode durar até 8 horas*, permitindo que você complete todas as suas tarefas!&lt;strong&gt;o poder da conectividade:&lt;/strong&gt;com entrada hdmi, portas usb 2.0, usb 3.2 e ethernet (rj-45), você tem diversas opções para estar sempre conectado recebendo e distribuindo informação.&lt;strong&gt;especificações técnicas&lt;/strong&gt;:&lt;strong&gt;marca:&lt;/strong&gt; acer&lt;strong&gt;modelo:&lt;/strong&gt; a314&lt;strong&gt;processador:&lt;/strong&gt; intel celeron&amp;nbspn4500 (1.1ghz até2.80ghz, cache 4mb)&lt;strong&gt;memória:&lt;/strong&gt; 4gb&amp;nbspddr4 2933mhz (4 gb modulo + slot livre) ddr4-2933mhz&amp;nbspexpansível até 16 gb&lt;strong&gt;armazenamento:&lt;/strong&gt; ssd 128gbslot livre m.2 2280, compatível com unidades ssd pcie 3.0 nvme x2/x4 de até 1tb (não acompanha o produto).slot ocupado sata 3, compatível com hdd ou ssd sata 3 2.5&amp;rdquo de até 2tb (não acompanha o produto)&lt;strong&gt;sistema operacional:&lt;/strong&gt; linux&lt;strong&gt;tela:&lt;/strong&gt; 14&amp;nbspled full hd(1920x1080), antirreflexo&lt;strong&gt;placa de vídeo:&lt;/strong&gt;&amp;nbspintel&amp;nbspuhd graphics&lt;strong&gt;portas e slots:&lt;/strong&gt; entrada de energia| rj-45| hdmi 2.0| 2xusb 3.2| trava kensington| usb2.0| entrada padrão combo microfone e alto falante&lt;strong&gt;dimensão:&lt;/strong&gt; altura:&amp;nbsp2cm| largura: 33cm| profundidade: 24 cm| peso: 1,65kg&lt;br&gt;&lt;br&gt;&lt;strong&gt;especificações técnicas&lt;/strong&gt;&lt;br&gt;notebook acer a314 intel celeron n4500 nx.awbal.001| entregas para todo o brasil</t>
-  </si>
-  <si>
-    <t>R$2015.0</t>
+    <t>Bateria Notebook Dell Ultrabook, 47wh, E7440, 7.6v - 34gkr</t>
+  </si>
+  <si>
+    <t>Bateria substituta notebook dell para notebook ultrabook e7440 tipo 34gkr.&lt;strong&gt;especificações técnicas:&lt;/strong&gt;capacidade: 47whvoltagem: 7.4vtipo: bateria de li-ionnúmero de células: 4&lt;strong&gt;códigos alternativos:j60j534gkr909h5g0g2m.&lt;/strong&gt;</t>
+  </si>
+  <si>
+    <t>R$1093.9</t>
   </si>
   <si>
     <t>Notebook Soyo 14 Polegadas, Core I3 10°g, 8GB, 240GB, Windows 10 Pro</t>
@@ -1633,15 +1630,6 @@
     <t>R$2482.93</t>
   </si>
   <si>
-    <t>Bateria Notebook Dell Ultrabook, 47wh, E7440, 7.6v - 34gkr</t>
-  </si>
-  <si>
-    <t>Bateria substituta notebook dell para notebook ultrabook e7440 tipo 34gkr.&lt;strong&gt;especificações técnicas:&lt;/strong&gt;capacidade: 47whvoltagem: 7.4vtipo: bateria de li-ionnúmero de células: 4&lt;strong&gt;códigos alternativos:j60j534gkr909h5g0g2m.&lt;/strong&gt;</t>
-  </si>
-  <si>
-    <t>R$1093.9</t>
-  </si>
-  <si>
     <t>Usado - Notebook Lenovo Ideapad 3-15iml05, Intel Core I5-10210u, 8GB, SSD 256GB, Tela 15.6p, Linux - 82bss00200 - Seminovo</t>
   </si>
   <si>
@@ -1651,15 +1639,6 @@
     <t>R$2279.54</t>
   </si>
   <si>
-    <t>Notebook Soyo, 14 Polegadas, Intel Core I3 10, 8GB, 480GB, Windows 10</t>
-  </si>
-  <si>
-    <t>&lt;strong&gt;notebook 14´´ intel core i3 10°, 8gb, 480gb, windows 10, soyo&lt;/strong&gt;nós somos a everex, comprometidos com o desenvolvimento de produtos de alta tecnologia e qualidade para você!alto desempenho, com os processador intel® core™ i3-10110uos notebooks soyo, utilizam os processadores intel® core™ i3, que combinam desempenho, segurança e versatilidade em um design compacto e exclusivo.permite verificar e-mails, estudar, navegar nas redes sociais ou fazer streaming de música e filmes.plugue no seu monitor ou na tv, através de um cabo hdmi (não incluso).projetado para se adaptar ao escritório ou em casa.ajuste flexível: ultracompacto e moderno, se encaixa perfeitamente em qualquer ambiente de trabalho ou residencial.desempenho de alto nívelprocessamento mais avançado: processadores intel® core™ i3 de10° geração, para que sua rotina seja mais eficiente.&lt;strong&gt;memória ddr4:&lt;/strong&gt;oferece mais desempenho e tecnologia: realize várias tarefas ao mesmo tempo com mais eficiência, com memória ddr4.alcance +,todos os diasconecte-se de qualquer lugar: portátil e leve, com fonte de energia bivolt, wi-fi integrado e tecnologia de última geração,que oferece velocidades mais rápidas e melhor desempenho, onde quer que você decida trabalhar, estudar ou se divertir!&lt;strong&gt;especificaçoes técnicas:&lt;/strong&gt;marca:soyomodelo: notebook 14”tela: 14´´ high definition, alta resolução 1366x768bateria: íon de lítio 7.6v 6000mahprocessador: intel® core™ i3-10110umemória ram: 8gbarmazenamento: 480gb ssdsistema operacional:windows 10 professionaltipo de memória: sodimm ddr4rede:10/100/1000 mbpswi-fi: 802.11 ac / bluetooth® 4.2 - suporte para redes 2.4, 5 ghzfonte:bivolt (entrada: 100 - 240vac 60hz / saída: 19v 2.1a)unidade optica: n?o possuigarantia: 12 mesespeso: 1,5 kg.dimensões:20,5x223,4x332,5 mmhomologacão anatel:06609-17-10516&lt;br&gt;&lt;br&gt;&lt;strong&gt;especificações técnicas&lt;/strong&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;marca:&lt;/strong&gt; soyo&lt;br&gt;&lt;strong&gt;sistema operacional:&lt;/strong&gt; windows 10 professional&lt;br&gt;&lt;strong&gt;modelo:&lt;/strong&gt; sonbci3cm848w&lt;br&gt;&lt;strong&gt;processador:&lt;/strong&gt; intel core i3-10110u&lt;br&gt;&lt;strong&gt;memória ram:&lt;/strong&gt; 8gb&lt;br&gt;&lt;strong&gt;gráficos:&lt;/strong&gt; 1366x768 (hd)&lt;br&gt;&lt;strong&gt;armazenamento:&lt;/strong&gt; 480gb ssd&lt;br&gt;&lt;strong&gt;unidade optica:&lt;/strong&gt; não&lt;br&gt;&lt;strong&gt;energia:&lt;/strong&gt; entrada: 100 - 240vac 60hz / saída: 19v 2.1a&lt;br&gt;&lt;strong&gt;wi-fi:&lt;/strong&gt; 802.11 ac / bluetooth® 4.2 - redes 2.4 e. 5 ghz&lt;br&gt;&lt;strong&gt;rede:&lt;/strong&gt; 10/100/1000 mbps&lt;br&gt;&lt;strong&gt;garantia:&lt;/strong&gt; 12 meses&lt;br&gt;&lt;strong&gt;tela:&lt;/strong&gt; 14´´ high definition&lt;br&gt;&lt;strong&gt;anatel:&lt;/strong&gt; 06609-17-10516</t>
-  </si>
-  <si>
-    <t>R$2595.79</t>
-  </si>
-  <si>
     <t>Usado - Notebook Lenovo Ideapad S145, Intel Core I5-1035g1, 4GB, 1TB, Tela 15.6p, Windows 10, Prata - 82dj0005br - Vitrine</t>
   </si>
   <si>
@@ -1687,6 +1666,90 @@
     <t>R$1809.99</t>
   </si>
   <si>
+    <t>Notebook Asus, Intel Dual Core, 4GB, 500hd, Tela 15,6 Polegadas,Windows 10 - X543na</t>
+  </si>
+  <si>
+    <t>O notebook asus vivobook x543na tem design clássico, com acabamento escovado em cinza escuro, superelegante e o melhor de tudo, tem apenas 1,9kg, perfeito para você que precisa sair e levar o computador, mas também quer tela grande para aumentar a produtividade.&lt;br /&gt;&lt;br /&gt;  com o asus vivobook x543, você não será mais um na multidão. Se o seu objetivo é relaxar, aproveite o sistema de som superpoderoso do asus vivobook x543na.&lt;br /&gt;&lt;br /&gt;  ele usa cada milímetro do seu chassis para reproduzir graves mais impactantes e sem ruídos. A caixa de ressonância de 19,4cc torna o som cristalino e incrivelmente realista.&lt;br /&gt;&lt;br /&gt;  se você já teve a experiência de digitar em um teclado pequeno, sabe que não é confortável, não é produtivo e é isso que te faz parar. Então, se o seu objetivo for trabalhar, o asus vivobook será seu parceiro incansável. Ele tem teclado completo, com teclas grandes e com curso de 1,8 milímetros, que é ideal para tornar a digitação ágil, precisa e confortável.&lt;br /&gt;&lt;br /&gt;  &lt;br /&gt;&lt;br /&gt;  características: &lt;br /&gt;&lt;br /&gt;  modelo: x543na-gq342t&lt;br /&gt;&lt;br /&gt;  processador: intel® celeron dual core n3350 1,1 ghz, 2 mb cache.&lt;br /&gt;&lt;br /&gt;  memória ram: 4 gb (4 gb onboard + 0 gb offboard)&lt;br /&gt;&lt;br /&gt;  armazenamento: 500 gb sata 5400 rpm&lt;br /&gt;&lt;br /&gt;  tela: 15,60 led-backlit anti-glare&lt;br /&gt;&lt;br /&gt;  resolução da tela: 1366 x 768&lt;br /&gt;&lt;br /&gt;  placa de vídeo: intel® hd graphics 500&lt;br /&gt;&lt;br /&gt;  tela sensível ao toque: não&lt;br /&gt;&lt;br /&gt;  clock de memória: 1333 mhz&lt;br /&gt;&lt;br /&gt;  wi-fi: 802.11ac&lt;br /&gt;&lt;br /&gt;  teclado retro iluminado: não&lt;br /&gt;&lt;br /&gt;  câmera frontal: vga&lt;br /&gt;&lt;br /&gt;  bluetooth: bluetooth 4,1&lt;br /&gt;&lt;br /&gt;  cartão de memória; micro sd&lt;br /&gt;&lt;br /&gt;  áudio; built-in speaker built-in microphone áudio by icepower® sonic master.&lt;br /&gt;&lt;br /&gt;  saídas: 2x usb 2.0 1x usb 3.0 1x headphone-out  audio-in combo jack 1x hdmi 1x micro sd card reader&lt;br /&gt;&lt;br /&gt;  adaptador de energia: 45,00 w&lt;br /&gt;&lt;br /&gt;  bateria; 3 cells / 2200 mah&lt;br /&gt;&lt;br /&gt;  software: asus live update asus product registration program asus giftbox asus smart gesture asus splendid asus webstorage sync agent asus icesound&lt;br /&gt;&lt;br /&gt;  sistema operacional: windows 10 home&lt;br /&gt;&lt;br /&gt;  * a memória disponível para uso pode sofrer variações conforme versão do sistema operacional, apps, conteúdo e dados instalados.&lt;br /&gt;&lt;br /&gt;  &lt;br /&gt;&lt;br /&gt;  dimensões: &lt;br /&gt;&lt;br /&gt;  altura: 25,2 cm&lt;br /&gt;&lt;br /&gt;  largura: 38,1 cm&lt;br /&gt;&lt;br /&gt;  profundidade: 2,72 cm&lt;br /&gt;&lt;br /&gt;  peso: 1,9 kg&lt;br /&gt;&lt;br /&gt;  &lt;br /&gt;&lt;br /&gt;  garantia do fornecedor de 12 meses.</t>
+  </si>
+  <si>
+    <t>R$2305.99</t>
+  </si>
+  <si>
+    <t>Usado - Notebook HP Probook 640 G2, Intel Core I5-6300u, 8GB, SSD 256GB, Tela 14p, Windows 10 Pro - L8u43av8gb - Seminovo</t>
+  </si>
+  <si>
+    <t>Notebook HP Probook L8U43AV8GB, processador Intel Core i5 de sexta geração, memoria RAM de 8GB, armazenamento SSD de 256GB e sistema operacional Windows 10 Pro.&lt;br /&gt;&lt;br /&gt;Modelo/Referencia: L8U43AV#8GB&lt;br /&gt;&lt;br /&gt;Certificação: Recertificado&lt;br /&gt;&lt;br /&gt;Medalha: Prata&lt;br /&gt;&lt;br /&gt;FICHA TÉCNICA:&lt;br /&gt;&lt;br /&gt;Sistema operacional: Windows 10 &lt;br /&gt;&lt;br /&gt;Processador: Intel Core i5-6300U – Dual core (4 Threads)– frequência de (2.40 GHz até 3.0GHz) - 3 MB de cache&lt;br /&gt;&lt;br /&gt;Memoria: 8 GB RAM &lt;br /&gt;&lt;br /&gt;Armazenamento: 256 GB SSD &lt;br /&gt;&lt;br /&gt;Tela: 14” &lt;br /&gt;Conteúdo da embalagem: Notebook, Fonte carregadora do notebook&lt;br /&gt;&lt;br /&gt;Observação: O produto não acompanha manual de instruções&lt;br /&gt;&lt;br /&gt;Garantia: 3 meses&lt;br /&gt;&lt;br /&gt;ATENÇÃO: VOCÊ ESTÁ ADQUIRINDO UM PRODUTO RECERTIFICADO!!!! &lt;br /&gt;&lt;br /&gt;&lt;br /&gt;O produto não acompanha caixa original, manual ou qualquer outro acessório. Apenas fonte de alimentação do notebook&lt;br /&gt;&lt;br /&gt;&lt;br /&gt;Entenda o que é um produto recertificado:&lt;br /&gt;&lt;br /&gt;É um produto que volta do mercado disponível para venda nas mesmas condições de um produto novo, com suas funcionalidades e características originais. O produto passa por um rigoroso processo de análise onde todas as suas funcionalidades são testadas e o produto liberado para venda. &lt;br /&gt;&lt;br /&gt;O produto recertificado é classificado em medalhas de acordo com o estado estético e superficial do produto, sendo: OURO, PRATA E BRONZE.&lt;br /&gt; &lt;br /&gt;Recertificado Prata: Produto tem características similares ao Ouro, pode apresentar mínimos riscos quase imperceptíveis. &lt;br /&gt;&lt;br /&gt;Atenção: O Saldão da Informática não enviará fotos reais dos produtos para os clientes, como também não reservaremos produtos. As imagens exibidas são meramente ilustrativas.</t>
+  </si>
+  <si>
+    <t>Usado - Notebook Lenovo Ideapad S145, Intel Core I5-1035g1, 4GB, 1TB, Tela 15.6p, Windows 10 - 82dj0005br - Seminovo</t>
+  </si>
+  <si>
+    <t>Notebook Lenovo IdeaPad S145 82DJ0005BR, na cor prata, processador de 10º geração Intel Core i5-1035G1 de 1.00GHz até 3.60GHz, memória RAM de 4GB DDR4, HD de 1TB, tela de 15.6 polegadas e sistema operacional Windows 10.&lt;br /&gt;&lt;br /&gt;Modelo/Referencia: S145-15IIL-82DJ0005BR&lt;br /&gt;&lt;br /&gt;Certificação: Recertificado&lt;br /&gt;&lt;br /&gt;Medalha: Prata&lt;br /&gt;&lt;br /&gt;FICHA TÉCNICA:&lt;br /&gt;&lt;br /&gt;Sistema operacional: Windows 10 Home &lt;br /&gt;&lt;br /&gt;Processador: Intel Core i5-1035G1– Quad Care ( 8 Threads)- Frequência: 1.00GHz até 3.60GHz – 6 MB de Cache. &lt;br /&gt;&lt;br /&gt;Memoria: 4 GB RAM – DDR4- 2666MHz &lt;br /&gt;&lt;br /&gt;Armazenamento: 1 TB&lt;br /&gt;&lt;br /&gt;Tela: 15.6” (1366x768)&lt;br /&gt;&lt;br /&gt;Placa Gráfica: Intel UHD Graphics G1– Integrada &lt;br /&gt;&lt;br /&gt;Conectividade: Bluetooth 5.0– WiFi 802.11ac&lt;br /&gt;&lt;br /&gt;Teclado: Teclado português Brasil (ABNT) – teclado independente numérico&lt;br /&gt; &lt;br /&gt;Observação: Este produto não possui leitor de CD/DVD&lt;br /&gt;&lt;br /&gt;Entrada: Entrada para fonte de alimentação, 1x USB 2.0, 2x USB 3.1 ,1x HDMI, Leitor de cartões 4 em 1 (SD, SDHC, SDXC, MMC).&lt;br /&gt;&lt;br /&gt;Conteúdo da embalagem: Notebook, Fonte carregadora do notebook&lt;br /&gt;&lt;br /&gt;Observação: O produto não acompanha manual de instruções&lt;br /&gt;&lt;br /&gt;Garantia: 3 meses&lt;br /&gt;&lt;br /&gt;ATENÇÃO: VOCÊ ESTÁ ADQUIRINDO UM PRODUTO RECERTIFICADO!!!! &lt;br /&gt;&lt;br /&gt;O produto não acompanha caixa original, manual ou qualquer outro acessório. Apenas fonte de alimentação do notebook&lt;br /&gt;&lt;br /&gt;Entenda o que é um produto recertificado:&lt;br /&gt;&lt;br /&gt;É um produto que volta do mercado disponível para venda nas mesmas condições de um produto novo, com suas funcionalidades e características originais. O produto passa por um rigoroso processo de análise onde todas as suas funcionalidades são testadas e o produto liberado para venda. &lt;br /&gt;&lt;br /&gt;O produto recertificado é classificado em medalhas de acordo com o estado estético e superficial do produto, sendo: OURO, PRATA E BRONZE.&lt;br /&gt;&lt;br /&gt;Recertificado Prata: Produto tem características similares ao Ouro, pode apresentar mínimos riscos quase imperceptíveis. &lt;br /&gt;&lt;br /&gt;Atenção: O Saldão da Informática não enviará fotos reais dos produtos para os clientes, como também não reservaremos produtos. As imagens exibidas são meramente ilustrativas.</t>
+  </si>
+  <si>
+    <t>USADO: Notebook Lenovo Ideapad 3 Core I3 10110u, 4GB RAM, SSD 256GB, Windows 10 Pro</t>
+  </si>
+  <si>
+    <t>A voke oferece ao mercado a venda de computadores, notebooks, monitores, smartphones e tablets seminovos das marcas líderes do mercado com o objetivo de levar tecnologia e preço acessível. Bem vindos ao futuro da tecnologia!         informações principais:&lt;br&gt;- marca: lenovo&lt;br&gt;- sku: p004297-v1&lt;br&gt;- modelo: ideapad 3    - processador: intel core i3 10110u&lt;br&gt;- núcleos: 2&lt;br&gt;- threads: 4&lt;br&gt;- clock base: 2.10ghz&lt;br&gt;- clock turbo: 4.10ghz&lt;br&gt;- cache: 4mb&lt;br&gt;- tecnologia hyper-threading&lt;br&gt;- arquitetura comet lake&lt;br&gt;- fabricação em 10nm&lt;br&gt;&lt;br&gt;- placa gráfica: intel uhd graphics&lt;br&gt;- memória placa gráfica: 2gb&lt;br&gt;- suporte a directx 12&lt;br&gt;- suporte a opengl 4.5&lt;br&gt;- suporte a opencl 3.0&lt;br&gt;- suporte a api vulkan&lt;br&gt;- intel clear video hd, intel quick sync video, intel wireless display (widi)    - memória ram: 4gb&lt;br&gt;- tipo: ddr4&lt;br&gt;- clock: 2666mhz&lt;br&gt;- slots de memória: 1x dimm (expansível até 12gb)    - armazenamento: ssd 256gb    - sistema operacional: windows 10 pro    - tamanho da tela: 15,6´´&lt;br&gt;- tipo de tela: lcd&lt;br&gt;- revestimento anti-reflexo&lt;br&gt;- resolução da tela: 1280x720    - conexões:&lt;br&gt;- 1x usb 2.0&lt;br&gt;- 1x usb 3.0&lt;br&gt;- 1x hdmi&lt;br&gt;- 1x porta p3    - mais informações: consulte ficha técnica do anuncio ou entre em contato         - multímidia:&lt;br&gt;- alto falantes,&lt;br&gt;- microfone,&lt;br&gt;- entrada fone de ouvido,&lt;br&gt;- entrada microfone,&lt;br&gt;- webcam hd.         itens testados:&lt;br&gt;- teclado,&lt;br&gt;- tela,&lt;br&gt;- fonte,&lt;br&gt;- entradas,&lt;br&gt;- memória.         conteúdo da embalagem:&lt;br&gt;- 1x notebook&lt;br&gt;- 1x fonte (original ou genérica),&lt;br&gt;- não acompanha manual de instruções         obs sobre a bateria:&lt;br&gt;a autonomia da bateria poderá variar dependendo da configuração, dos aplicativos carregados, das configurações de energia e dos recursos utilizados. Os equipamentos podem trazer baterias proprio ou genéricas, testadas e revisadas por nossa equipe técnica. Ressaltamos que a bateria poderá não apresentar a mesma vida útil de um produto fechado.         sobre o produto:&lt;br&gt;- produto seminovo,&lt;br&gt;- acompanha nota fiscal,&lt;br&gt;- imagens ilustrativas,&lt;br&gt;- testado, configurado e higienizado,&lt;br&gt;- enviado nas embalagens da voke garantindo a proteção do produto,&lt;br&gt;- a voke não envia/comercializa produtos com tela quebrada e botões quebrados,&lt;br&gt;- as imagens são meramente ilustrativas. Podem ocorrer variação de formato, tamanho, cor e condição de uso.&lt;br&gt;- não nos responsabilizamos por sistema operacional, podendo existir ou não possibilidade de atualização.&lt;br&gt;- item sujeito a alteração. Para recursos como entrada de cd room, memória e informações adicionais não descritos no anuncio por favor entre em contato para confirmação         garantia:&lt;br&gt;****6 meses de garantia diretamente com a nossa loja voke***   &lt;br&gt;&lt;br&gt;&lt;strong&gt;especificações técnicas&lt;/strong&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;memória ram:&lt;/strong&gt; 4gb&lt;br&gt;&lt;strong&gt;special price from date:&lt;/strong&gt; 2022-11-16 00:00:00&lt;br&gt;&lt;strong&gt;conectividade:&lt;/strong&gt; wifi&lt;br&gt;&lt;strong&gt;tipo de teclado:&lt;/strong&gt; abnt2&lt;br&gt;&lt;strong&gt;código anatel:&lt;/strong&gt; 041361904423&lt;br&gt;&lt;strong&gt;garantia:&lt;/strong&gt; 6 meses&lt;br&gt;&lt;strong&gt;estado:&lt;/strong&gt; seminovo&lt;br&gt;&lt;strong&gt;ean:&lt;/strong&gt; 7895145747247&lt;br&gt;&lt;strong&gt;tamanho da tela:&lt;/strong&gt; 15,6´´&lt;br&gt;&lt;strong&gt;memória interna:&lt;/strong&gt; 256gb&lt;br&gt;&lt;strong&gt;condição:&lt;/strong&gt; muito bom&lt;br&gt;&lt;strong&gt;correios height:&lt;/strong&gt; 27&lt;br&gt;&lt;strong&gt;modelo:&lt;/strong&gt; ideapad 3&lt;br&gt;&lt;strong&gt;conteúdo da embalagem:&lt;/strong&gt; 1x notebook1x fonte de energia&lt;br&gt;&lt;strong&gt;correios width:&lt;/strong&gt; 27&lt;br&gt;&lt;strong&gt;processador:&lt;/strong&gt; intel core i3 10110u&lt;br&gt;&lt;strong&gt;sistema operacional:&lt;/strong&gt; windows 10 pro&lt;br&gt;&lt;strong&gt;categories:&lt;/strong&gt; [2, 493, 494, 495, 496, 498, 500, 502, 504, 506, 531, 539]</t>
+  </si>
+  <si>
+    <t>USADO: Notebook Hp Probook 640 G2 Core I5 6300u, 4GB RAM, SSD 120GB - Windows 10 Pro</t>
+  </si>
+  <si>
+    <t>Bem vindos ao futuro da tecnologia - agasus agora é voke. Da união entre agasus e microcity, nos tornamos voke.&lt;br&gt;a voke oferece ao mercado a venda de computadores, notebooks, monitores, smartphones e tablets seminovos das marcas líderes do mercado com o objetivo de levar tecnologia e preço acessível.         informações principais:&lt;br&gt;- marca: hp&lt;br&gt;- sku: p004169-v1&lt;br&gt;- modelo: probook 640 g2&lt;br&gt;- processador: intel core i5 6300u&lt;br&gt;- placa gráfica: intel hd graphics 520&lt;br&gt;- memória ram: 4gb&lt;br&gt;- disco rígido: ssd 256gb&lt;br&gt;- sistema operacional: windows 10 pro &lt;br&gt;- tamanho da tela: 14 polegadas&lt;br&gt;- tela: antireflexo&lt;br&gt;- resolução da tela: 1366x768 pixels&lt;br&gt;- conexões: vga/displayport/bluetooth 4.1/usb 3.0/ethernet&lt;br&gt;- mais informações: consulte ficha técnica do anuncio ou entre em contato         multimídia:&lt;br&gt;- alto falantes,&lt;br&gt;- microfone,&lt;br&gt;- entrada fone de ouvido,&lt;br&gt;- entrada microfone,&lt;br&gt;- webcam hd 720p.         unidades opticas:&lt;br&gt;- sata 9,5 mm fixa&lt;br&gt;- unidade dvd-rom&lt;br&gt;- dvd+/-rw supermulti dl&lt;br&gt;- blu-ray rom dvd+/-rw supermulti dl&lt;br&gt;- economizador de peso         itens testados:&lt;br&gt;- teclado,&lt;br&gt;- tela,&lt;br&gt;- fonte,&lt;br&gt;- entradas,&lt;br&gt;- memória.         conteúdo da embalagem:&lt;br&gt;- 1x notebook&lt;br&gt;- 1x fonte (original ou genérica),&lt;br&gt;- não acompanha manual de instruções         &lt;br&gt;obs sobre a bateria:&lt;br&gt;a autonomia da bateria poderá variar dependendo da configuração, dos aplicativos carregados, das configurações de energia e dos recursos utilizados. Os equipamentos podem trazer baterias proprio ou genéricas, testadas e revisadas por nossa equipe técnica. Ressaltamos que a bateria poderá não apresentar a mesma vida útil de um produto fechado.         sobre o produto:&lt;br&gt;- produto seminovo,&lt;br&gt;- acompanha nota fiscal,&lt;br&gt;- imagens ilustrativas,&lt;br&gt;- testado, configurado e higienizado,&lt;br&gt;- enviado nas embalagens da agasus garantindo a proteção do produto,&lt;br&gt;- a agasus não envia/comercializa produtos com tela quebrada e botões quebrados,&lt;br&gt;- as imagens são meramente ilustrativas. Podem ocorrer variação de formato, tamanho, cor e condição de uso.&lt;br&gt;- não nos responsabilizamos por sistema operacional, podendo existir ou não possibilidade de atualização.&lt;br&gt;- item sujeito a alteração. Para recursos como entrada de cd room, memória e informações adicionais não descritos no anuncio por favor entre em contato para confirmação         garantia:&lt;br&gt;****6 meses de garantia diretamente com a nossa loja voke***   &lt;br&gt;&lt;br&gt;&lt;strong&gt;especificações técnicas&lt;/strong&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;conteúdo da embalagem:&lt;/strong&gt; 1x notebook 1x fonte&lt;br&gt;&lt;strong&gt;special price from date:&lt;/strong&gt; 2022-10-03 00:00:00&lt;br&gt;&lt;strong&gt;ean:&lt;/strong&gt; 7895145742525&lt;br&gt;&lt;strong&gt;correios height:&lt;/strong&gt; 27&lt;br&gt;&lt;strong&gt;correios width:&lt;/strong&gt; 27&lt;br&gt;&lt;strong&gt;modelo:&lt;/strong&gt; probook 640 g2&lt;br&gt;&lt;strong&gt;sistema operacional:&lt;/strong&gt; windows 10 pro&lt;br&gt;&lt;strong&gt;processador:&lt;/strong&gt; intel core i5&lt;br&gt;&lt;strong&gt;conectividade:&lt;/strong&gt; wifi&lt;br&gt;&lt;strong&gt;memória ram:&lt;/strong&gt; 4gb&lt;br&gt;&lt;strong&gt;código anatel:&lt;/strong&gt; 026071502198&lt;br&gt;&lt;strong&gt;garantia:&lt;/strong&gt; 6 meses&lt;br&gt;&lt;strong&gt;tipo de teclado:&lt;/strong&gt; abnt2&lt;br&gt;&lt;strong&gt;condição:&lt;/strong&gt; muito bom&lt;br&gt;&lt;strong&gt;tamanho da tela:&lt;/strong&gt; 14´´&lt;br&gt;&lt;strong&gt;estado:&lt;/strong&gt; seminovo&lt;br&gt;&lt;strong&gt;categories:&lt;/strong&gt; [2, 493, 494, 495, 496, 498, 499, 500, 502, 515, 539, 506, 792]&lt;br&gt;&lt;strong&gt;memória interna:&lt;/strong&gt; 256gb</t>
+  </si>
+  <si>
+    <t>R$1749.0</t>
+  </si>
+  <si>
+    <t>Notebook Asus Vivobook, Intel Core I3-1220p 3.3GHz, 4GB, SSD 256GB, Intel UHD Graphics, Tela 15.6 LED Full HD, Windows 11 Home, Prata Metálico - X1502za-Ej1764w</t>
+  </si>
+  <si>
+    <t>O asus vivobook 15 &amp;eacute, o seu companheiro di&amp;aacute,rio que est&amp;aacute, sempre pronto para a a&amp;ccedil,&amp;atilde,o, seja no escrit&amp;oacute,rio ou em casa. Capaz de encarar as tarefas mais exigentes, este vivobook vem equipado com at&amp;eacute, o mais recente processador intel core i3-1220p de 12&amp;ordf, gera&amp;ccedil,&amp;atilde,o, significativamente mais r&amp;aacute,pido do que a gera&amp;ccedil,&amp;atilde,o anterior. E com 4gb de mem&amp;oacute,ria ram e 256gb de armazenamento ssd, &amp;eacute, capaz de ir al&amp;eacute,m e entregar toda a produtividade que voc&amp;ecirc, necessita.part number: 90nb0vx2-m02jh0sku asus: x1502za-ej1764wean code: 7898573299463c&amp;oacute,digo de homologa&amp;ccedil,&amp;atilde,o anatel: 06446-16-04076processador intel core i3 1220p 3,3 ghz, 12 mb cachemem&amp;oacute,ria ram: 4 gb (4 gb onboard + 0 gb offboard)armazenamento: 256 gb ssd pcie g3x2tela 15,60´´ led-backlit anti-glareresolu&amp;ccedil,&amp;atilde,o da tela: 1920 x 1080placa de v&amp;iacute,deo: intel uhd graphicsgarantia: 12 mesestela sens&amp;iacute,vel ao toque: n&amp;atilde,oclock de mem&amp;oacute,ria: 3200 mhzwi-fi 5tipo da placa de v&amp;iacute,deo: integradateclado retro iluminado: n&amp;atilde,oc&amp;acirc,mera frontal: hdbluetooth 5,1cart&amp;atilde,o de mem&amp;oacute,ria: n&amp;atilde,o&amp;aacute,udio:sonicmasteralto-falantes embutidosmicrofone embutidosa&amp;iacute,das:1x hdmi 1.41x 3.5mm combo audio jack1x dc-in1x usb 2.0 type-a1x usb 3.2 gen 1 type-c2x usb 3.2 gen 1 type-aadaptador de energia65,00 wbateria3 cells / 4000 mahsistema operacional windows 11 homecaracter&amp;iacute,sticas:especifica&amp;ccedil,&amp;otilde,es militares us mil-std 810hprote&amp;ccedil,&amp;atilde,o antibacterianatampa de privacidade para a webcampeso do produto: 1,7 kgdimens&amp;otilde,es: 35,97 cm x 23,25 cm x 1,99 ~ 1,99 cm&lt;br&gt;&lt;br&gt;&lt;strong&gt;especificações técnicas&lt;/strong&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;tela:&lt;/strong&gt; 15,60´´ led-backlit anti-glare&lt;br&gt;&lt;strong&gt;wi-fi:&lt;/strong&gt; wi-fi 5(802.11ac) (dual band) 1*1 + bluetooth® 5.1&lt;br&gt;&lt;strong&gt;saídas:&lt;/strong&gt; 1x hdmi 1.41x 3.5mm combo audio jack1x dc-in1x usb 2.0 type-a1x usb 3.2 gen 1 type-c2x usb 3.2 gen 1 type-a&lt;br&gt;&lt;strong&gt;sku asus:&lt;/strong&gt; x1502za-ej1764w&lt;br&gt;&lt;strong&gt;clock de memória:&lt;/strong&gt; 3200 mhz&lt;br&gt;&lt;strong&gt;ean code:&lt;/strong&gt; 7898573299463&lt;br&gt;&lt;strong&gt;tela sensível ao toque:&lt;/strong&gt; não&lt;br&gt;&lt;strong&gt;câmera frontal:&lt;/strong&gt; hd&lt;br&gt;&lt;strong&gt;cartão de memória:&lt;/strong&gt; não&lt;br&gt;&lt;strong&gt;bateria:&lt;/strong&gt; 3 cells / 4000 mah&lt;br&gt;&lt;strong&gt;garantia:&lt;/strong&gt; 12 meses&lt;br&gt;&lt;strong&gt;adaptador de energia:&lt;/strong&gt; 65,00 w.&lt;br&gt;&lt;strong&gt;bluetooth:&lt;/strong&gt; bluetooth 5,1&lt;br&gt;&lt;strong&gt;áudio:&lt;/strong&gt; sonicmasteralto-falantes embutidosmicrofone embutido&lt;br&gt;&lt;strong&gt;teclado retro iluminado:&lt;/strong&gt; não&lt;br&gt;&lt;strong&gt;sistema operacional:&lt;/strong&gt; windows 11 home&lt;br&gt;&lt;strong&gt;armazenamento:&lt;/strong&gt; 256 gb ssd pcie g3x2&lt;br&gt;&lt;strong&gt;peso do produto:&lt;/strong&gt; 1,7 kg&lt;br&gt;&lt;strong&gt;resolução da tela:&lt;/strong&gt; 1920 x. 1080&lt;br&gt;&lt;strong&gt;software:&lt;/strong&gt; system diagnosisbattery health charging fan profilesplendidtru2lifefunction key lockwifi smartconnect link to myasustaskfirstlive updateasus intelligent performance technologyai noise cancelingmyasusscreenxpertglidex&lt;br&gt;&lt;strong&gt;dimensões:&lt;/strong&gt; 35,97 cm x. 23,25 cm x. 1,99 ~. 1,99 cm&lt;br&gt;&lt;strong&gt;características:&lt;/strong&gt; especificações militares us mil-std 810hproteção antibacterianatampa de privacidade para a. Webcam&lt;br&gt;&lt;strong&gt;placa de vídeo:&lt;/strong&gt; intel® uhd graphics&lt;br&gt;&lt;strong&gt;memória ram:&lt;/strong&gt; 4 gb (4 gb onboard + 0 gb offboard)&lt;br&gt;&lt;strong&gt;cor:&lt;/strong&gt; prata metálico&lt;br&gt;&lt;strong&gt;processador:&lt;/strong&gt; intel® core™ i3 1220p 3,3 ghz, 12 mb cache&lt;br&gt;&lt;strong&gt;codigo de homologação anatel:&lt;/strong&gt; 06446-16-04076</t>
+  </si>
+  <si>
+    <t>R$2948.21</t>
+  </si>
+  <si>
+    <t>R$2348.13</t>
+  </si>
+  <si>
+    <t>Notebook Ultra Multilaser, Core I5 8Gb, 1Tb, 14.1'' Polegadas, Windows 10 - Ub531</t>
+  </si>
+  <si>
+    <t>Notebook Ultra conta com Windows 10 Home, para quem busca mais performance para realizar suas tarefas. O desempenho notável do Notebook Ultra é possível graças ao processador Intel Core i5, e o Windows 10 Home. Ideal para tarefas do dia a dia e navegação na internet.   Além disso ele vem com: 1TB HDD e 8GB de RAM. Para mais espaço. Design leve e fino, com tela HD e imagens mais nítidas.</t>
+  </si>
+  <si>
+    <t>R$2518.9</t>
+  </si>
+  <si>
+    <t>Notebook Asus Vivobook Go E1504fa, AMD Ryzen 5 7520u, 8GB RAM, 256GB SSD, Windows 11, Tela 15,6 Polegadas, FULL HD, Black - Nj825w</t>
+  </si>
+  <si>
+    <t>&amp;eacute, leve. &amp;eacute, compacto. &amp;eacute, o asus vivobook go 15. Projetado para torn&amp;aacute,-lo produtivo e mant&amp;ecirc,-lo entretido onde quer que voc&amp;ecirc, v&amp;aacute,! Com processador amd ryzen 5 7520u de excelente desempenho, 8gb de mem&amp;oacute,ria ram lpddr51 e 256 gb de ssd2 , ele &amp;eacute, perfeito para seu dia a dia. Ainda conta com uma dobradi&amp;ccedil,a plana de 180&amp;deg,, tampa f&amp;iacute,sica protetora na webcam e muitos recursos de design bem pensados &amp;mdash, incluindo uma tela de 15 polegadas antirreflexo full hd &amp;mdash, tudo para que voc&amp;ecirc, v&amp;aacute, al&amp;eacute,m!part number: 90nb0zr2-m01by0sku asus: e1504fa-nj825wean code: 7898573299647c&amp;oacute,digo de homologa&amp;ccedil,&amp;atilde,o anatel: 06446-16-04076processador amd ryzen 5 7520u 2,8 ghz, 4 mb cachemem&amp;oacute,ria ram: 8 gb (8 gb onboard + 0 gb offboard)armazenamento: 256 gb ssd pcie g3x2tela 15,60´´ led-backlit anti-glareresolu&amp;ccedil,&amp;atilde,o da tela: 1920x1080placa de v&amp;iacute,deo: amd radeon graphicsgarantia: 12 mesestela sens&amp;iacute,vel ao toque: n&amp;atilde,oclock de mem&amp;oacute,ria: 5500 mhzwi-fi 5(802.11ac) (dual band) 1*1 + bluetooth 5.1tipo da placa de v&amp;iacute,deo: integradateclado retro iluminado: n&amp;atilde,oc&amp;acirc,mera frontal: hdbluetooth 5,1cart&amp;atilde,o de mem&amp;oacute,ria: n&amp;atilde,oaudio:sonicmasteralto-falantes embutidosmicrofone embutidosaidas:1x usb 2.0 type-a1x usb 3.2 gen 1 type-a1x usb 3.2 gen 1 type-c1x hdmi 1.41x 3.5mm combo audio jack1x dc-inadaptador de energia 45,00 wbateria 3 cells / 4000 mahsistema operacional windows 11 homecaracter&amp;iacute,sticas:especifica&amp;ccedil,&amp;otilde,es militares us mil-std 810htampa de privacidade para a webcampeso do produto: 1,63 kgdimens&amp;otilde,es: 36,03 cm x 23,25 cm x 1,79 ~ 1,79 cm&lt;br&gt;&lt;br&gt;&lt;strong&gt;especificações técnicas&lt;/strong&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;software:&lt;/strong&gt; system diagnosisbattery health chargingfan profilesplendidfunction key lockwifi smartconnect link to myasustaskfirstlive updateai noise canceling&lt;br&gt;&lt;strong&gt;clock de memória:&lt;/strong&gt; 5500 mhz&lt;br&gt;&lt;strong&gt;adaptador de energia:&lt;/strong&gt; 45,00 w.&lt;br&gt;&lt;strong&gt;teclado retro iluminado:&lt;/strong&gt; não&lt;br&gt;&lt;strong&gt;tela sensível ao toque:&lt;/strong&gt; não&lt;br&gt;&lt;strong&gt;saídas:&lt;/strong&gt; 1x usb 2.0 type-a1x usb 3.2 gen 1 type-a1x usb 3.2 gen 1 type-c1x hdmi 1.41x 3.5mm combo audio jack1x dc-in&lt;br&gt;&lt;strong&gt;dimensões:&lt;/strong&gt; 36,03 cm x. 23,25 cm x. 1,79 ~. 1,79 cm&lt;br&gt;&lt;strong&gt;código de homologação anatel:&lt;/strong&gt; 06446-16-04076&lt;br&gt;&lt;strong&gt;câmera frontal:&lt;/strong&gt; hd&lt;br&gt;&lt;strong&gt;áudio:&lt;/strong&gt; sonicmasteralto-falantes embutidosmicrofone embutido&lt;br&gt;&lt;strong&gt;bluetooth:&lt;/strong&gt; bluetooth 5,1&lt;br&gt;&lt;strong&gt;sku asus:&lt;/strong&gt; e1504fa-nj825w&lt;br&gt;&lt;strong&gt;wi-fi:&lt;/strong&gt; wi-fi 5(802.11ac) (dual band) 1*1 + bluetooth® 5.1&lt;br&gt;&lt;strong&gt;ean code:&lt;/strong&gt; 7898573299647&lt;br&gt;&lt;strong&gt;bateria:&lt;/strong&gt; 3 cells / 4000 mah&lt;br&gt;&lt;strong&gt;garantia:&lt;/strong&gt; 12 meses&lt;br&gt;&lt;strong&gt;sistema operacional:&lt;/strong&gt; windows 11 home&lt;br&gt;&lt;strong&gt;cor:&lt;/strong&gt; preto&lt;br&gt;&lt;strong&gt;memória ram:&lt;/strong&gt; 8 gb (8 gb onboard + 0 gb offboard)&lt;br&gt;&lt;strong&gt;processador:&lt;/strong&gt; amd ryzen™ 5 7520u 2,8 ghz, 4 mb cache&lt;br&gt;&lt;strong&gt;armazenamento:&lt;/strong&gt; 256 gb ssd pcie g3x2&lt;br&gt;&lt;strong&gt;tela:&lt;/strong&gt; 15,60´´ led-backlit anti-glare&lt;br&gt;&lt;strong&gt;peso do produto:&lt;/strong&gt; 1,63 kg&lt;br&gt;&lt;strong&gt;resolução da tela:&lt;/strong&gt; 1920x1080&lt;br&gt;&lt;strong&gt;cartão de memória:&lt;/strong&gt; não&lt;br&gt;&lt;strong&gt;placa de vídeo:&lt;/strong&gt; amd radeon™ graphics&lt;br&gt;&lt;strong&gt;características:&lt;/strong&gt; especificações militares us mil-std 810htampa de privacidade para a. Webcam&lt;br&gt;&lt;strong&gt;manufacturer:&lt;/strong&gt; asus&lt;br&gt;&lt;strong&gt;mfrpartnumber:&lt;/strong&gt; e1504fa-nj825w&lt;br&gt;&lt;strong&gt;harddrivesize:&lt;/strong&gt; 256 gb ssd pcie g3x2&lt;br&gt;&lt;strong&gt;operatingsystem:&lt;/strong&gt; windows 11 home&lt;br&gt;&lt;strong&gt;processorbrand:&lt;/strong&gt; amd&lt;br&gt;&lt;strong&gt;processorspeed:&lt;/strong&gt; 2,8 ghz&lt;br&gt;&lt;strong&gt;ramsize:&lt;/strong&gt; 8 gb</t>
+  </si>
+  <si>
+    <t>Notebook Ultra Linux Intel I3, 256GB, 8GB RAM, 14,1 Polegadas, FULL HD,Preto - Ul151lx</t>
+  </si>
+  <si>
+    <t>Notebook ultra linux intel i3 256gb 8gb ram 14,1 pol. Full hd preto - ul151lx&lt;br /&gt;&lt;br /&gt;  &lt;br /&gt;&lt;br /&gt;  notebook ultra, vem com linux, para você aproveitar ao máximo todos os recursos disponíveis. &lt;br /&gt;&lt;br /&gt;  &lt;br /&gt;&lt;br /&gt;  com ssd m.2 de 256gb de armazenamento. Muito mais espaço para seus vídeos, músicas e fotos ou que é mais essencial para você.&lt;br /&gt;&lt;br /&gt;  &lt;br /&gt;&lt;br /&gt;  conta com 8gb de ram para você ter mais velocidade no recebimento de informações, tela de 14.1 hd para você ter imagens nítidas e vivas para uma experiência completa e surpreendente. Desenvolvida com bateria de longa duração, processador  intel core i3 de décima geração com alta velocidade e desempenho, da produtividade ao entretenimento, com o armazenamento de alta performance você terá muito mais rapidez no acesso a seus arquivos. Possui design ultraleve e superfino para você levar em qualquer lugar, transferência rápida de arquivos pelo usb 3.0 e usb tipo c.&lt;br /&gt;&lt;br /&gt;  &lt;br /&gt;&lt;br /&gt;  ficha técnica&lt;br /&gt;&lt;br /&gt;  &lt;br /&gt;&lt;br /&gt;  marca: ultra&lt;br /&gt;&lt;br /&gt;  modelo: notebook ultra linux intel i3 256gb 8gb ram 14,1 pol. Full hd preto - ul151lx&lt;br /&gt;&lt;br /&gt;  cor: preto&lt;br /&gt;&lt;br /&gt;  tela: 14,1 pol&lt;br /&gt;&lt;br /&gt;  sistema operacional: linux&lt;br /&gt;&lt;br /&gt;  processador: intel core i3&lt;br /&gt;&lt;br /&gt;  conexão: usb, bluetooth, p2sd&lt;br /&gt;&lt;br /&gt;  memória ram: 8gb&lt;br /&gt;&lt;br /&gt;  armazenamento: ssd m.2 de 256gb&lt;br /&gt;&lt;br /&gt;  câmera principal: 1mp&lt;br /&gt;&lt;br /&gt;  bateria: 4500mah 11,1v, 50whr carregador ac/dc bi-volt (110v-240v-50hz-60hz) com cabo de alimentação elétrica padrão brasileiro nbr14136:2002&lt;br /&gt;&lt;br /&gt;  áudio: hd áudio com controladora de som integrada a placa-mãe amplificada 2x alto-falantes 1w&lt;br /&gt;&lt;br /&gt;  entradas: 1x usb 3.0 gen 1, 1x usb 2.0, 1x usb type-c, 1x hdmi, 1xdc-in, 1x áudio combo, 1x rj45 ethernet, 1x microsd card reader&lt;br /&gt;&lt;br /&gt;  dimensões (lxaxc): 37 x 9 x 43cm&lt;br /&gt;&lt;br /&gt;  peso: 3500g&lt;br /&gt;&lt;br /&gt;  certificado anatel: 02143-18-04423&lt;br /&gt;&lt;br /&gt;  garantia: 1 ano&lt;br /&gt;&lt;br /&gt;  &lt;br /&gt;&lt;br /&gt;  imagens meramente ilustrativas.</t>
+  </si>
+  <si>
+    <t>Notebook Ultra Intel Core I3, 8GB, SSD 256GB M.2, Tela 14.1 Full HD, Windows 11 Pro, Preto - Ul151l</t>
+  </si>
+  <si>
+    <t>Notebook ultra windows 11 pro intel i3 256gb 8gb ram 14,1 pol. Full hd preto - ul151l&lt;br /&gt;&lt;br /&gt;  &lt;br /&gt;&lt;br /&gt;  notebook ultra, vem com o windows 11 pro, para você aproveitar ao máximo todos os recursos disponíveis. &lt;br /&gt;&lt;br /&gt;  &lt;br /&gt;&lt;br /&gt;  com ssd m.2 de 256gb de armazenamento. Muito mais espaço para seus vídeos, músicas e fotos ou que é mais essencial para você.&lt;br /&gt;&lt;br /&gt;  &lt;br /&gt;&lt;br /&gt;  conta com 8gb de ram para você ter mais velocidade no recebimento de informações, tela de 14.1 hd para você ter imagens nítidas e vivas para uma experiência completa e surpreendente.&lt;br /&gt;&lt;br /&gt;  &lt;br /&gt;&lt;br /&gt;  desenvolvida com bateria de longa duração, processador intel core i3 de décima geração com alta velocidade e desempenho, da produtividade ao entretenimento, com o armazenamento de alta performance você terá muito mais rapidez no acesso a seus arquivos. Possui design ultraleve e superfino para você levar em qualquer lugar, transferência rápida de arquivos pelo usb 3.0 e usb tipo c.&lt;br /&gt;&lt;br /&gt;  &lt;br /&gt;&lt;br /&gt;  ficha técnica&lt;br /&gt;&lt;br /&gt;  &lt;br /&gt;&lt;br /&gt;  marca: ultra&lt;br /&gt;&lt;br /&gt;  modelo: notebook ultra windows 11 pro intel i3 256gb 8gb ram 14,1 pol. Full hd preto - ul151l&lt;br /&gt;&lt;br /&gt;  cor: preto&lt;br /&gt;&lt;br /&gt;  tela: 14,1 polegadas&lt;br /&gt;&lt;br /&gt;  resolução: 1366 x 768&lt;br /&gt;&lt;br /&gt;  memória ram: 8gb ddr &lt;br /&gt;&lt;br /&gt;  memória interna: 256gb ssd&lt;br /&gt;&lt;br /&gt;  processador: intel core i3&lt;br /&gt;&lt;br /&gt;  sistema operacional: windows 11 pro &lt;br /&gt;&lt;br /&gt;  bateria: 4000 mah&lt;br /&gt;&lt;br /&gt;  áudio: hd com controladora de som integrada a placa mãe amplificada&lt;br /&gt;&lt;br /&gt;  portas: 1x usb 3.0, 1x usb 2.0, 1x usb tipo c, 1x áudio combo (microfone/fone) jack, 1x rj, 1x micro sd, 1x hdmi, 1x dc&lt;br /&gt;&lt;br /&gt;  teclado: padrão abnt2&lt;br /&gt;&lt;br /&gt;  câmera: frontal hd 1m&lt;br /&gt;&lt;br /&gt;  microfone: 2x d-mic integrados a câmera&lt;br /&gt;&lt;br /&gt;  dimensões (lxaxc): 32,26 x 2,08 x 22,35 cm&lt;br /&gt;&lt;br /&gt;  peso: 1,510kg&lt;br /&gt;&lt;br /&gt;  anatel: 02143-18-04423&lt;br /&gt;&lt;br /&gt;  garantia: 1 ano&lt;br /&gt;&lt;br /&gt;  &lt;br /&gt;&lt;br /&gt;  imagens meramente ilustrativas.</t>
+  </si>
+  <si>
+    <t>R$2456.9</t>
+  </si>
+  <si>
+    <t>Notebook Positivo Vision C14, Intel Celeron Dual Core, 8GB, SSD 240GB, Tela 14 HD, Linux, Lumina Bar, Cinza</t>
+  </si>
+  <si>
+    <t>Descubra a nova linha de notebooks positivo vision, perfeito para todas as suas atividades diárias! Desenvolvido com foco em praticidade, ele é ideal para tarefas leves como planilhas, edição de texto e navegação na web. Além disso, você poderá desfrutar de videochamadas com sua câmera de alta definição. Suporta softwares de ensino e ferramentas básicas de trabalho, o positivo vision garante que você esteja sempre pronto para alcançar seus objetivos. Não perca tempo, experimente o poder da nova linha positivo vision e eleve suas atividades diárias a um novo nível de eficiência. &lt;br /&gt;&lt;br /&gt;A positivo tecnologia inova no mercado ao lançar a primeira linha de notebooks do mundo com a tecnologia lumina bar, oferecendo uma experiência superior aos usuários. Os notebooks possuem barras de led com ajuste de 3 níveis de intensidade, proporcionando uma iluminação ideal para a webcam, resultando em uma captura de imagem excepcional mesmo em ambientes com pouca iluminação. Tecla link exclusiva para conectar o celular ao notebook de uma forma mais simples. Sincronização de fotos, salvamento de imagens com facilidade, visualização de mensagens sms, status da bateria, entre outras funcionalidades com apenas um toque. &lt;br /&gt;&lt;br /&gt;Além disso, as teclas serigrafadas são um destaque adicional. Com letras nítidas e visíveis, projetadas para facilitar a digitação e auxiliar você em todas as suas tarefas diárias. Agora você pode digitar com confiança, mesmo em ambientes com pouca luz. Para acompanhar seu estilo de vida em movimento, o dispositivo é alimentado por uma bateria de longa duração, com uma média de 7 horas* de autonomia. Isso o torna ideal para atividades fora de casa, como levar para a escola ou faculdade, permitindo que você trabalhe ou estude sem se preocupar em encontrar uma tomada. Afinal, o vision c14 é leve, fino e portátil, pesando apenas 1,4 kg e espessura de 18,7 mm. Isso significa que você pode levá-lo para qualquer lugar com facilidade.</t>
+  </si>
+  <si>
     <t>Notebook Positivo Motion C, Intel Celeron, Dual-Core, 4GB, SSD 120GB, 14'' LED - Windows 11</t>
   </si>
   <si>
@@ -1696,100 +1759,22 @@
     <t>R$2173.99</t>
   </si>
   <si>
-    <t>Notebook Asus, Intel Dual Core, 4GB, 500hd, Tela 15,6 Polegadas,Windows 10 - X543na</t>
-  </si>
-  <si>
-    <t>O notebook asus vivobook x543na tem design clássico, com acabamento escovado em cinza escuro, superelegante e o melhor de tudo, tem apenas 1,9kg, perfeito para você que precisa sair e levar o computador, mas também quer tela grande para aumentar a produtividade.&lt;br /&gt;&lt;br /&gt;  com o asus vivobook x543, você não será mais um na multidão. Se o seu objetivo é relaxar, aproveite o sistema de som superpoderoso do asus vivobook x543na.&lt;br /&gt;&lt;br /&gt;  ele usa cada milímetro do seu chassis para reproduzir graves mais impactantes e sem ruídos. A caixa de ressonância de 19,4cc torna o som cristalino e incrivelmente realista.&lt;br /&gt;&lt;br /&gt;  se você já teve a experiência de digitar em um teclado pequeno, sabe que não é confortável, não é produtivo e é isso que te faz parar. Então, se o seu objetivo for trabalhar, o asus vivobook será seu parceiro incansável. Ele tem teclado completo, com teclas grandes e com curso de 1,8 milímetros, que é ideal para tornar a digitação ágil, precisa e confortável.&lt;br /&gt;&lt;br /&gt;  &lt;br /&gt;&lt;br /&gt;  características: &lt;br /&gt;&lt;br /&gt;  modelo: x543na-gq342t&lt;br /&gt;&lt;br /&gt;  processador: intel® celeron dual core n3350 1,1 ghz, 2 mb cache.&lt;br /&gt;&lt;br /&gt;  memória ram: 4 gb (4 gb onboard + 0 gb offboard)&lt;br /&gt;&lt;br /&gt;  armazenamento: 500 gb sata 5400 rpm&lt;br /&gt;&lt;br /&gt;  tela: 15,60 led-backlit anti-glare&lt;br /&gt;&lt;br /&gt;  resolução da tela: 1366 x 768&lt;br /&gt;&lt;br /&gt;  placa de vídeo: intel® hd graphics 500&lt;br /&gt;&lt;br /&gt;  tela sensível ao toque: não&lt;br /&gt;&lt;br /&gt;  clock de memória: 1333 mhz&lt;br /&gt;&lt;br /&gt;  wi-fi: 802.11ac&lt;br /&gt;&lt;br /&gt;  teclado retro iluminado: não&lt;br /&gt;&lt;br /&gt;  câmera frontal: vga&lt;br /&gt;&lt;br /&gt;  bluetooth: bluetooth 4,1&lt;br /&gt;&lt;br /&gt;  cartão de memória; micro sd&lt;br /&gt;&lt;br /&gt;  áudio; built-in speaker built-in microphone áudio by icepower® sonic master.&lt;br /&gt;&lt;br /&gt;  saídas: 2x usb 2.0 1x usb 3.0 1x headphone-out  audio-in combo jack 1x hdmi 1x micro sd card reader&lt;br /&gt;&lt;br /&gt;  adaptador de energia: 45,00 w&lt;br /&gt;&lt;br /&gt;  bateria; 3 cells / 2200 mah&lt;br /&gt;&lt;br /&gt;  software: asus live update asus product registration program asus giftbox asus smart gesture asus splendid asus webstorage sync agent asus icesound&lt;br /&gt;&lt;br /&gt;  sistema operacional: windows 10 home&lt;br /&gt;&lt;br /&gt;  * a memória disponível para uso pode sofrer variações conforme versão do sistema operacional, apps, conteúdo e dados instalados.&lt;br /&gt;&lt;br /&gt;  &lt;br /&gt;&lt;br /&gt;  dimensões: &lt;br /&gt;&lt;br /&gt;  altura: 25,2 cm&lt;br /&gt;&lt;br /&gt;  largura: 38,1 cm&lt;br /&gt;&lt;br /&gt;  profundidade: 2,72 cm&lt;br /&gt;&lt;br /&gt;  peso: 1,9 kg&lt;br /&gt;&lt;br /&gt;  &lt;br /&gt;&lt;br /&gt;  garantia do fornecedor de 12 meses.</t>
-  </si>
-  <si>
-    <t>R$2305.99</t>
-  </si>
-  <si>
-    <t>Usado - Notebook HP Probook 640 G2, Intel Core I5-6300u, 8GB, SSD 256GB, Tela 14p, Windows 10 Pro - L8u43av8gb - Seminovo</t>
-  </si>
-  <si>
-    <t>Notebook HP Probook L8U43AV8GB, processador Intel Core i5 de sexta geração, memoria RAM de 8GB, armazenamento SSD de 256GB e sistema operacional Windows 10 Pro.&lt;br /&gt;&lt;br /&gt;Modelo/Referencia: L8U43AV#8GB&lt;br /&gt;&lt;br /&gt;Certificação: Recertificado&lt;br /&gt;&lt;br /&gt;Medalha: Prata&lt;br /&gt;&lt;br /&gt;FICHA TÉCNICA:&lt;br /&gt;&lt;br /&gt;Sistema operacional: Windows 10 &lt;br /&gt;&lt;br /&gt;Processador: Intel Core i5-6300U – Dual core (4 Threads)– frequência de (2.40 GHz até 3.0GHz) - 3 MB de cache&lt;br /&gt;&lt;br /&gt;Memoria: 8 GB RAM &lt;br /&gt;&lt;br /&gt;Armazenamento: 256 GB SSD &lt;br /&gt;&lt;br /&gt;Tela: 14” &lt;br /&gt;Conteúdo da embalagem: Notebook, Fonte carregadora do notebook&lt;br /&gt;&lt;br /&gt;Observação: O produto não acompanha manual de instruções&lt;br /&gt;&lt;br /&gt;Garantia: 3 meses&lt;br /&gt;&lt;br /&gt;ATENÇÃO: VOCÊ ESTÁ ADQUIRINDO UM PRODUTO RECERTIFICADO!!!! &lt;br /&gt;&lt;br /&gt;&lt;br /&gt;O produto não acompanha caixa original, manual ou qualquer outro acessório. Apenas fonte de alimentação do notebook&lt;br /&gt;&lt;br /&gt;&lt;br /&gt;Entenda o que é um produto recertificado:&lt;br /&gt;&lt;br /&gt;É um produto que volta do mercado disponível para venda nas mesmas condições de um produto novo, com suas funcionalidades e características originais. O produto passa por um rigoroso processo de análise onde todas as suas funcionalidades são testadas e o produto liberado para venda. &lt;br /&gt;&lt;br /&gt;O produto recertificado é classificado em medalhas de acordo com o estado estético e superficial do produto, sendo: OURO, PRATA E BRONZE.&lt;br /&gt; &lt;br /&gt;Recertificado Prata: Produto tem características similares ao Ouro, pode apresentar mínimos riscos quase imperceptíveis. &lt;br /&gt;&lt;br /&gt;Atenção: O Saldão da Informática não enviará fotos reais dos produtos para os clientes, como também não reservaremos produtos. As imagens exibidas são meramente ilustrativas.</t>
-  </si>
-  <si>
-    <t>Usado - Notebook Lenovo Ideapad S145, Intel Core I5-1035g1, 4GB, 1TB, Tela 15.6p, Windows 10 - 82dj0005br - Seminovo</t>
-  </si>
-  <si>
-    <t>Notebook Lenovo IdeaPad S145 82DJ0005BR, na cor prata, processador de 10º geração Intel Core i5-1035G1 de 1.00GHz até 3.60GHz, memória RAM de 4GB DDR4, HD de 1TB, tela de 15.6 polegadas e sistema operacional Windows 10.&lt;br /&gt;&lt;br /&gt;Modelo/Referencia: S145-15IIL-82DJ0005BR&lt;br /&gt;&lt;br /&gt;Certificação: Recertificado&lt;br /&gt;&lt;br /&gt;Medalha: Prata&lt;br /&gt;&lt;br /&gt;FICHA TÉCNICA:&lt;br /&gt;&lt;br /&gt;Sistema operacional: Windows 10 Home &lt;br /&gt;&lt;br /&gt;Processador: Intel Core i5-1035G1– Quad Care ( 8 Threads)- Frequência: 1.00GHz até 3.60GHz – 6 MB de Cache. &lt;br /&gt;&lt;br /&gt;Memoria: 4 GB RAM – DDR4- 2666MHz &lt;br /&gt;&lt;br /&gt;Armazenamento: 1 TB&lt;br /&gt;&lt;br /&gt;Tela: 15.6” (1366x768)&lt;br /&gt;&lt;br /&gt;Placa Gráfica: Intel UHD Graphics G1– Integrada &lt;br /&gt;&lt;br /&gt;Conectividade: Bluetooth 5.0– WiFi 802.11ac&lt;br /&gt;&lt;br /&gt;Teclado: Teclado português Brasil (ABNT) – teclado independente numérico&lt;br /&gt; &lt;br /&gt;Observação: Este produto não possui leitor de CD/DVD&lt;br /&gt;&lt;br /&gt;Entrada: Entrada para fonte de alimentação, 1x USB 2.0, 2x USB 3.1 ,1x HDMI, Leitor de cartões 4 em 1 (SD, SDHC, SDXC, MMC).&lt;br /&gt;&lt;br /&gt;Conteúdo da embalagem: Notebook, Fonte carregadora do notebook&lt;br /&gt;&lt;br /&gt;Observação: O produto não acompanha manual de instruções&lt;br /&gt;&lt;br /&gt;Garantia: 3 meses&lt;br /&gt;&lt;br /&gt;ATENÇÃO: VOCÊ ESTÁ ADQUIRINDO UM PRODUTO RECERTIFICADO!!!! &lt;br /&gt;&lt;br /&gt;O produto não acompanha caixa original, manual ou qualquer outro acessório. Apenas fonte de alimentação do notebook&lt;br /&gt;&lt;br /&gt;Entenda o que é um produto recertificado:&lt;br /&gt;&lt;br /&gt;É um produto que volta do mercado disponível para venda nas mesmas condições de um produto novo, com suas funcionalidades e características originais. O produto passa por um rigoroso processo de análise onde todas as suas funcionalidades são testadas e o produto liberado para venda. &lt;br /&gt;&lt;br /&gt;O produto recertificado é classificado em medalhas de acordo com o estado estético e superficial do produto, sendo: OURO, PRATA E BRONZE.&lt;br /&gt;&lt;br /&gt;Recertificado Prata: Produto tem características similares ao Ouro, pode apresentar mínimos riscos quase imperceptíveis. &lt;br /&gt;&lt;br /&gt;Atenção: O Saldão da Informática não enviará fotos reais dos produtos para os clientes, como também não reservaremos produtos. As imagens exibidas são meramente ilustrativas.</t>
-  </si>
-  <si>
-    <t>USADO: Notebook Lenovo Ideapad 3 Core I3 10110u, 4GB RAM, SSD 256GB, Windows 10 Pro</t>
-  </si>
-  <si>
-    <t>A voke oferece ao mercado a venda de computadores, notebooks, monitores, smartphones e tablets seminovos das marcas líderes do mercado com o objetivo de levar tecnologia e preço acessível. Bem vindos ao futuro da tecnologia!         informações principais:&lt;br&gt;- marca: lenovo&lt;br&gt;- sku: p004297-v1&lt;br&gt;- modelo: ideapad 3    - processador: intel core i3 10110u&lt;br&gt;- núcleos: 2&lt;br&gt;- threads: 4&lt;br&gt;- clock base: 2.10ghz&lt;br&gt;- clock turbo: 4.10ghz&lt;br&gt;- cache: 4mb&lt;br&gt;- tecnologia hyper-threading&lt;br&gt;- arquitetura comet lake&lt;br&gt;- fabricação em 10nm&lt;br&gt;&lt;br&gt;- placa gráfica: intel uhd graphics&lt;br&gt;- memória placa gráfica: 2gb&lt;br&gt;- suporte a directx 12&lt;br&gt;- suporte a opengl 4.5&lt;br&gt;- suporte a opencl 3.0&lt;br&gt;- suporte a api vulkan&lt;br&gt;- intel clear video hd, intel quick sync video, intel wireless display (widi)    - memória ram: 4gb&lt;br&gt;- tipo: ddr4&lt;br&gt;- clock: 2666mhz&lt;br&gt;- slots de memória: 1x dimm (expansível até 12gb)    - armazenamento: ssd 256gb    - sistema operacional: windows 10 pro    - tamanho da tela: 15,6´´&lt;br&gt;- tipo de tela: lcd&lt;br&gt;- revestimento anti-reflexo&lt;br&gt;- resolução da tela: 1280x720    - conexões:&lt;br&gt;- 1x usb 2.0&lt;br&gt;- 1x usb 3.0&lt;br&gt;- 1x hdmi&lt;br&gt;- 1x porta p3    - mais informações: consulte ficha técnica do anuncio ou entre em contato         - multímidia:&lt;br&gt;- alto falantes,&lt;br&gt;- microfone,&lt;br&gt;- entrada fone de ouvido,&lt;br&gt;- entrada microfone,&lt;br&gt;- webcam hd.         itens testados:&lt;br&gt;- teclado,&lt;br&gt;- tela,&lt;br&gt;- fonte,&lt;br&gt;- entradas,&lt;br&gt;- memória.         conteúdo da embalagem:&lt;br&gt;- 1x notebook&lt;br&gt;- 1x fonte (original ou genérica),&lt;br&gt;- não acompanha manual de instruções         obs sobre a bateria:&lt;br&gt;a autonomia da bateria poderá variar dependendo da configuração, dos aplicativos carregados, das configurações de energia e dos recursos utilizados. Os equipamentos podem trazer baterias proprio ou genéricas, testadas e revisadas por nossa equipe técnica. Ressaltamos que a bateria poderá não apresentar a mesma vida útil de um produto fechado.         sobre o produto:&lt;br&gt;- produto seminovo,&lt;br&gt;- acompanha nota fiscal,&lt;br&gt;- imagens ilustrativas,&lt;br&gt;- testado, configurado e higienizado,&lt;br&gt;- enviado nas embalagens da voke garantindo a proteção do produto,&lt;br&gt;- a voke não envia/comercializa produtos com tela quebrada e botões quebrados,&lt;br&gt;- as imagens são meramente ilustrativas. Podem ocorrer variação de formato, tamanho, cor e condição de uso.&lt;br&gt;- não nos responsabilizamos por sistema operacional, podendo existir ou não possibilidade de atualização.&lt;br&gt;- item sujeito a alteração. Para recursos como entrada de cd room, memória e informações adicionais não descritos no anuncio por favor entre em contato para confirmação         garantia:&lt;br&gt;****6 meses de garantia diretamente com a nossa loja voke***   &lt;br&gt;&lt;br&gt;&lt;strong&gt;especificações técnicas&lt;/strong&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;memória ram:&lt;/strong&gt; 4gb&lt;br&gt;&lt;strong&gt;special price from date:&lt;/strong&gt; 2022-11-16 00:00:00&lt;br&gt;&lt;strong&gt;conectividade:&lt;/strong&gt; wifi&lt;br&gt;&lt;strong&gt;tipo de teclado:&lt;/strong&gt; abnt2&lt;br&gt;&lt;strong&gt;código anatel:&lt;/strong&gt; 041361904423&lt;br&gt;&lt;strong&gt;garantia:&lt;/strong&gt; 6 meses&lt;br&gt;&lt;strong&gt;estado:&lt;/strong&gt; seminovo&lt;br&gt;&lt;strong&gt;ean:&lt;/strong&gt; 7895145747247&lt;br&gt;&lt;strong&gt;tamanho da tela:&lt;/strong&gt; 15,6´´&lt;br&gt;&lt;strong&gt;memória interna:&lt;/strong&gt; 256gb&lt;br&gt;&lt;strong&gt;condição:&lt;/strong&gt; muito bom&lt;br&gt;&lt;strong&gt;correios height:&lt;/strong&gt; 27&lt;br&gt;&lt;strong&gt;modelo:&lt;/strong&gt; ideapad 3&lt;br&gt;&lt;strong&gt;conteúdo da embalagem:&lt;/strong&gt; 1x notebook1x fonte de energia&lt;br&gt;&lt;strong&gt;correios width:&lt;/strong&gt; 27&lt;br&gt;&lt;strong&gt;processador:&lt;/strong&gt; intel core i3 10110u&lt;br&gt;&lt;strong&gt;sistema operacional:&lt;/strong&gt; windows 10 pro&lt;br&gt;&lt;strong&gt;categories:&lt;/strong&gt; [2, 493, 494, 495, 496, 498, 500, 502, 504, 506, 531, 539]</t>
-  </si>
-  <si>
-    <t>USADO: Notebook Hp Probook 640 G2 Core I5 6300u, 4GB RAM, SSD 120GB - Windows 10 Pro</t>
-  </si>
-  <si>
-    <t>Bem vindos ao futuro da tecnologia - agasus agora é voke. Da união entre agasus e microcity, nos tornamos voke.&lt;br&gt;a voke oferece ao mercado a venda de computadores, notebooks, monitores, smartphones e tablets seminovos das marcas líderes do mercado com o objetivo de levar tecnologia e preço acessível.         informações principais:&lt;br&gt;- marca: hp&lt;br&gt;- sku: p004169-v1&lt;br&gt;- modelo: probook 640 g2&lt;br&gt;- processador: intel core i5 6300u&lt;br&gt;- placa gráfica: intel hd graphics 520&lt;br&gt;- memória ram: 4gb&lt;br&gt;- disco rígido: ssd 256gb&lt;br&gt;- sistema operacional: windows 10 pro &lt;br&gt;- tamanho da tela: 14 polegadas&lt;br&gt;- tela: antireflexo&lt;br&gt;- resolução da tela: 1366x768 pixels&lt;br&gt;- conexões: vga/displayport/bluetooth 4.1/usb 3.0/ethernet&lt;br&gt;- mais informações: consulte ficha técnica do anuncio ou entre em contato         multimídia:&lt;br&gt;- alto falantes,&lt;br&gt;- microfone,&lt;br&gt;- entrada fone de ouvido,&lt;br&gt;- entrada microfone,&lt;br&gt;- webcam hd 720p.         unidades opticas:&lt;br&gt;- sata 9,5 mm fixa&lt;br&gt;- unidade dvd-rom&lt;br&gt;- dvd+/-rw supermulti dl&lt;br&gt;- blu-ray rom dvd+/-rw supermulti dl&lt;br&gt;- economizador de peso         itens testados:&lt;br&gt;- teclado,&lt;br&gt;- tela,&lt;br&gt;- fonte,&lt;br&gt;- entradas,&lt;br&gt;- memória.         conteúdo da embalagem:&lt;br&gt;- 1x notebook&lt;br&gt;- 1x fonte (original ou genérica),&lt;br&gt;- não acompanha manual de instruções         &lt;br&gt;obs sobre a bateria:&lt;br&gt;a autonomia da bateria poderá variar dependendo da configuração, dos aplicativos carregados, das configurações de energia e dos recursos utilizados. Os equipamentos podem trazer baterias proprio ou genéricas, testadas e revisadas por nossa equipe técnica. Ressaltamos que a bateria poderá não apresentar a mesma vida útil de um produto fechado.         sobre o produto:&lt;br&gt;- produto seminovo,&lt;br&gt;- acompanha nota fiscal,&lt;br&gt;- imagens ilustrativas,&lt;br&gt;- testado, configurado e higienizado,&lt;br&gt;- enviado nas embalagens da agasus garantindo a proteção do produto,&lt;br&gt;- a agasus não envia/comercializa produtos com tela quebrada e botões quebrados,&lt;br&gt;- as imagens são meramente ilustrativas. Podem ocorrer variação de formato, tamanho, cor e condição de uso.&lt;br&gt;- não nos responsabilizamos por sistema operacional, podendo existir ou não possibilidade de atualização.&lt;br&gt;- item sujeito a alteração. Para recursos como entrada de cd room, memória e informações adicionais não descritos no anuncio por favor entre em contato para confirmação         garantia:&lt;br&gt;****6 meses de garantia diretamente com a nossa loja voke***   &lt;br&gt;&lt;br&gt;&lt;strong&gt;especificações técnicas&lt;/strong&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;conteúdo da embalagem:&lt;/strong&gt; 1x notebook 1x fonte&lt;br&gt;&lt;strong&gt;special price from date:&lt;/strong&gt; 2022-10-03 00:00:00&lt;br&gt;&lt;strong&gt;ean:&lt;/strong&gt; 7895145742525&lt;br&gt;&lt;strong&gt;correios height:&lt;/strong&gt; 27&lt;br&gt;&lt;strong&gt;correios width:&lt;/strong&gt; 27&lt;br&gt;&lt;strong&gt;modelo:&lt;/strong&gt; probook 640 g2&lt;br&gt;&lt;strong&gt;sistema operacional:&lt;/strong&gt; windows 10 pro&lt;br&gt;&lt;strong&gt;processador:&lt;/strong&gt; intel core i5&lt;br&gt;&lt;strong&gt;conectividade:&lt;/strong&gt; wifi&lt;br&gt;&lt;strong&gt;memória ram:&lt;/strong&gt; 4gb&lt;br&gt;&lt;strong&gt;código anatel:&lt;/strong&gt; 026071502198&lt;br&gt;&lt;strong&gt;garantia:&lt;/strong&gt; 6 meses&lt;br&gt;&lt;strong&gt;tipo de teclado:&lt;/strong&gt; abnt2&lt;br&gt;&lt;strong&gt;condição:&lt;/strong&gt; muito bom&lt;br&gt;&lt;strong&gt;tamanho da tela:&lt;/strong&gt; 14´´&lt;br&gt;&lt;strong&gt;estado:&lt;/strong&gt; seminovo&lt;br&gt;&lt;strong&gt;categories:&lt;/strong&gt; [2, 493, 494, 495, 496, 498, 499, 500, 502, 515, 539, 506, 792]&lt;br&gt;&lt;strong&gt;memória interna:&lt;/strong&gt; 256gb</t>
-  </si>
-  <si>
-    <t>R$1749.0</t>
-  </si>
-  <si>
-    <t>Notebook Lenovo Ideapad 1 R3-7320u, 8GB, 256GB, SSD, Windows 11</t>
-  </si>
-  <si>
-    <t>Esecifica&amp;ccedil,&amp;otilde,es:marca: lenovonome do produto: ideapad 1nome do modelo: ideapad 1 15amn7part number: 82x50000brcor: cloud greycategoria: notebooksegmento: ultrafinoprocessador: amd ryzen 3 7320u (cores / threads) quadcore / 8 threads (cache) 2mb l2 / 4mb l3 (clock) 2.4ghz (4.1ghz max turbo)mem&amp;oacute,ria ram: 8gb 5500mhzdetalhe mem&amp;oacute,ria ram: 8gb soldado lpddr5-5500m&amp;aacute,xima expans&amp;atilde,o da mem&amp;oacute,ria: mem&amp;oacute,ria m&amp;aacute,xima 8gb soldado lpddr5-5500armazenamento (ssd): ssd de 256gb pcie nvme m.2m&amp;aacute,xima expans&amp;atilde,o de armazenamento: um slot, at&amp;eacute, 1tb m.2 2242 ssdchipset: amd socplaca de v&amp;iacute,deo: integrada amd radeon? 610m graphicssistema operacional: windows 11tela: 15.6´´resolu&amp;ccedil,&amp;atilde,o de tela: hd (1366x768) antirreflexoformato de tela: 16:9 widescreenbrilho da tela: 220 nitstipo de painel: tnabertura de tela: 169&amp;deg,wi-fi: wifi 2x2 accamera: hd-720p com privacidademicrofone: microfone tipo dual arraybluetooth: bluetooth 5.0audio (alto-falantes): alto-falantes com certifica&amp;ccedil,&amp;atilde,o dolby&amp;reg, audio? (2 x 1.5w)audio (porta combo para headset/headphone): 1usb (3.2) gen 1: 1usb (2.0): 1usb tipo c (3.2 gen1): 1leitor de cart&amp;otilde,es: leitor de cart&amp;otilde,es 4 em 1 (sd, sdhc, sdxc, mmc)sa&amp;iacute,da hdmi ( 1.4b): 1ptp touchpad: 1teclado padr&amp;atilde,o brasileiro: 1teclado num&amp;eacute,rico: 1bateria: 3 c&amp;eacute,lulas 42whbateria remov&amp;iacute,vel: n&amp;atilde,oadaptador ac: 65wdimens&amp;otilde,es produto aprox. Largura: 360.2 mmdimens&amp;otilde,es produto aprox. Profundidade: 236 mmdimens&amp;otilde,es produto aprox. Altura: 17.9 mmpeso produto aprox. : 1.58 kgdimens&amp;otilde,es embalagem aprox. Largura: 533 mmdimens&amp;otilde,es embalagem aprox. Profundidade: 333 mmdimens&amp;otilde,es embalagem aprox. Altura: 74 mmpeso embalagem aprox.: 2.42 kg&lt;br&gt;&lt;br&gt;&lt;strong&gt;especificações técnicas&lt;/strong&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;infadicional:&lt;/strong&gt; notebook lenovo ideapad 1 r3-7320u 8gb 256gb ssd windows 11 home 15,6</t>
-  </si>
-  <si>
-    <t>Notebook Asus Vivobook, Intel Core I3-1220p 3.3GHz, 4GB, SSD 256GB, Intel UHD Graphics, Tela 15.6 LED Full HD, Windows 11 Home, Prata Metálico - X1502za-Ej1764w</t>
-  </si>
-  <si>
-    <t>O asus vivobook 15 &amp;eacute, o seu companheiro di&amp;aacute,rio que est&amp;aacute, sempre pronto para a a&amp;ccedil,&amp;atilde,o, seja no escrit&amp;oacute,rio ou em casa. Capaz de encarar as tarefas mais exigentes, este vivobook vem equipado com at&amp;eacute, o mais recente processador intel core i3-1220p de 12&amp;ordf, gera&amp;ccedil,&amp;atilde,o, significativamente mais r&amp;aacute,pido do que a gera&amp;ccedil,&amp;atilde,o anterior. E com 4gb de mem&amp;oacute,ria ram e 256gb de armazenamento ssd, &amp;eacute, capaz de ir al&amp;eacute,m e entregar toda a produtividade que voc&amp;ecirc, necessita.part number: 90nb0vx2-m02jh0sku asus: x1502za-ej1764wean code: 7898573299463c&amp;oacute,digo de homologa&amp;ccedil,&amp;atilde,o anatel: 06446-16-04076processador intel core i3 1220p 3,3 ghz, 12 mb cachemem&amp;oacute,ria ram: 4 gb (4 gb onboard + 0 gb offboard)armazenamento: 256 gb ssd pcie g3x2tela 15,60´´ led-backlit anti-glareresolu&amp;ccedil,&amp;atilde,o da tela: 1920 x 1080placa de v&amp;iacute,deo: intel uhd graphicsgarantia: 12 mesestela sens&amp;iacute,vel ao toque: n&amp;atilde,oclock de mem&amp;oacute,ria: 3200 mhzwi-fi 5tipo da placa de v&amp;iacute,deo: integradateclado retro iluminado: n&amp;atilde,oc&amp;acirc,mera frontal: hdbluetooth 5,1cart&amp;atilde,o de mem&amp;oacute,ria: n&amp;atilde,o&amp;aacute,udio:sonicmasteralto-falantes embutidosmicrofone embutidosa&amp;iacute,das:1x hdmi 1.41x 3.5mm combo audio jack1x dc-in1x usb 2.0 type-a1x usb 3.2 gen 1 type-c2x usb 3.2 gen 1 type-aadaptador de energia65,00 wbateria3 cells / 4000 mahsistema operacional windows 11 homecaracter&amp;iacute,sticas:especifica&amp;ccedil,&amp;otilde,es militares us mil-std 810hprote&amp;ccedil,&amp;atilde,o antibacterianatampa de privacidade para a webcampeso do produto: 1,7 kgdimens&amp;otilde,es: 35,97 cm x 23,25 cm x 1,99 ~ 1,99 cm&lt;br&gt;&lt;br&gt;&lt;strong&gt;especificações técnicas&lt;/strong&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;tela:&lt;/strong&gt; 15,60´´ led-backlit anti-glare&lt;br&gt;&lt;strong&gt;wi-fi:&lt;/strong&gt; wi-fi 5(802.11ac) (dual band) 1*1 + bluetooth® 5.1&lt;br&gt;&lt;strong&gt;saídas:&lt;/strong&gt; 1x hdmi 1.41x 3.5mm combo audio jack1x dc-in1x usb 2.0 type-a1x usb 3.2 gen 1 type-c2x usb 3.2 gen 1 type-a&lt;br&gt;&lt;strong&gt;sku asus:&lt;/strong&gt; x1502za-ej1764w&lt;br&gt;&lt;strong&gt;clock de memória:&lt;/strong&gt; 3200 mhz&lt;br&gt;&lt;strong&gt;ean code:&lt;/strong&gt; 7898573299463&lt;br&gt;&lt;strong&gt;tela sensível ao toque:&lt;/strong&gt; não&lt;br&gt;&lt;strong&gt;câmera frontal:&lt;/strong&gt; hd&lt;br&gt;&lt;strong&gt;cartão de memória:&lt;/strong&gt; não&lt;br&gt;&lt;strong&gt;bateria:&lt;/strong&gt; 3 cells / 4000 mah&lt;br&gt;&lt;strong&gt;garantia:&lt;/strong&gt; 12 meses&lt;br&gt;&lt;strong&gt;adaptador de energia:&lt;/strong&gt; 65,00 w.&lt;br&gt;&lt;strong&gt;bluetooth:&lt;/strong&gt; bluetooth 5,1&lt;br&gt;&lt;strong&gt;áudio:&lt;/strong&gt; sonicmasteralto-falantes embutidosmicrofone embutido&lt;br&gt;&lt;strong&gt;teclado retro iluminado:&lt;/strong&gt; não&lt;br&gt;&lt;strong&gt;sistema operacional:&lt;/strong&gt; windows 11 home&lt;br&gt;&lt;strong&gt;armazenamento:&lt;/strong&gt; 256 gb ssd pcie g3x2&lt;br&gt;&lt;strong&gt;peso do produto:&lt;/strong&gt; 1,7 kg&lt;br&gt;&lt;strong&gt;resolução da tela:&lt;/strong&gt; 1920 x. 1080&lt;br&gt;&lt;strong&gt;software:&lt;/strong&gt; system diagnosisbattery health charging fan profilesplendidtru2lifefunction key lockwifi smartconnect link to myasustaskfirstlive updateasus intelligent performance technologyai noise cancelingmyasusscreenxpertglidex&lt;br&gt;&lt;strong&gt;dimensões:&lt;/strong&gt; 35,97 cm x. 23,25 cm x. 1,99 ~. 1,99 cm&lt;br&gt;&lt;strong&gt;características:&lt;/strong&gt; especificações militares us mil-std 810hproteção antibacterianatampa de privacidade para a. Webcam&lt;br&gt;&lt;strong&gt;placa de vídeo:&lt;/strong&gt; intel® uhd graphics&lt;br&gt;&lt;strong&gt;memória ram:&lt;/strong&gt; 4 gb (4 gb onboard + 0 gb offboard)&lt;br&gt;&lt;strong&gt;cor:&lt;/strong&gt; prata metálico&lt;br&gt;&lt;strong&gt;processador:&lt;/strong&gt; intel® core™ i3 1220p 3,3 ghz, 12 mb cache&lt;br&gt;&lt;strong&gt;codigo de homologação anatel:&lt;/strong&gt; 06446-16-04076</t>
-  </si>
-  <si>
-    <t>R$2948.21</t>
-  </si>
-  <si>
-    <t>R$2348.13</t>
-  </si>
-  <si>
-    <t>Notebook Positivo Vision C14, Intel Celeron Dual Core, 8GB, SSD 240GB, Tela 14 HD, Linux, Lumina Bar, Cinza</t>
-  </si>
-  <si>
-    <t>Descubra a nova linha de notebooks positivo vision, perfeito para todas as suas atividades diárias! Desenvolvido com foco em praticidade, ele é ideal para tarefas leves como planilhas, edição de texto e navegação na web. Além disso, você poderá desfrutar de videochamadas com sua câmera de alta definição. Suporta softwares de ensino e ferramentas básicas de trabalho, o positivo vision garante que você esteja sempre pronto para alcançar seus objetivos. Não perca tempo, experimente o poder da nova linha positivo vision e eleve suas atividades diárias a um novo nível de eficiência. &lt;br /&gt;&lt;br /&gt;A positivo tecnologia inova no mercado ao lançar a primeira linha de notebooks do mundo com a tecnologia lumina bar, oferecendo uma experiência superior aos usuários. Os notebooks possuem barras de led com ajuste de 3 níveis de intensidade, proporcionando uma iluminação ideal para a webcam, resultando em uma captura de imagem excepcional mesmo em ambientes com pouca iluminação. Tecla link exclusiva para conectar o celular ao notebook de uma forma mais simples. Sincronização de fotos, salvamento de imagens com facilidade, visualização de mensagens sms, status da bateria, entre outras funcionalidades com apenas um toque. &lt;br /&gt;&lt;br /&gt;Além disso, as teclas serigrafadas são um destaque adicional. Com letras nítidas e visíveis, projetadas para facilitar a digitação e auxiliar você em todas as suas tarefas diárias. Agora você pode digitar com confiança, mesmo em ambientes com pouca luz. Para acompanhar seu estilo de vida em movimento, o dispositivo é alimentado por uma bateria de longa duração, com uma média de 7 horas* de autonomia. Isso o torna ideal para atividades fora de casa, como levar para a escola ou faculdade, permitindo que você trabalhe ou estude sem se preocupar em encontrar uma tomada. Afinal, o vision c14 é leve, fino e portátil, pesando apenas 1,4 kg e espessura de 18,7 mm. Isso significa que você pode levá-lo para qualquer lugar com facilidade.</t>
-  </si>
-  <si>
-    <t>Notebook Asus Vivobook Go E1504fa, AMD Ryzen 5 7520u, 8GB RAM, 256GB SSD, Windows 11, Tela 15,6 Polegadas, FULL HD, Black - Nj825w</t>
-  </si>
-  <si>
-    <t>&amp;eacute, leve. &amp;eacute, compacto. &amp;eacute, o asus vivobook go 15. Projetado para torn&amp;aacute,-lo produtivo e mant&amp;ecirc,-lo entretido onde quer que voc&amp;ecirc, v&amp;aacute,! Com processador amd ryzen 5 7520u de excelente desempenho, 8gb de mem&amp;oacute,ria ram lpddr51 e 256 gb de ssd2 , ele &amp;eacute, perfeito para seu dia a dia. Ainda conta com uma dobradi&amp;ccedil,a plana de 180&amp;deg,, tampa f&amp;iacute,sica protetora na webcam e muitos recursos de design bem pensados &amp;mdash, incluindo uma tela de 15 polegadas antirreflexo full hd &amp;mdash, tudo para que voc&amp;ecirc, v&amp;aacute, al&amp;eacute,m!part number: 90nb0zr2-m01by0sku asus: e1504fa-nj825wean code: 7898573299647c&amp;oacute,digo de homologa&amp;ccedil,&amp;atilde,o anatel: 06446-16-04076processador amd ryzen 5 7520u 2,8 ghz, 4 mb cachemem&amp;oacute,ria ram: 8 gb (8 gb onboard + 0 gb offboard)armazenamento: 256 gb ssd pcie g3x2tela 15,60´´ led-backlit anti-glareresolu&amp;ccedil,&amp;atilde,o da tela: 1920x1080placa de v&amp;iacute,deo: amd radeon graphicsgarantia: 12 mesestela sens&amp;iacute,vel ao toque: n&amp;atilde,oclock de mem&amp;oacute,ria: 5500 mhzwi-fi 5(802.11ac) (dual band) 1*1 + bluetooth 5.1tipo da placa de v&amp;iacute,deo: integradateclado retro iluminado: n&amp;atilde,oc&amp;acirc,mera frontal: hdbluetooth 5,1cart&amp;atilde,o de mem&amp;oacute,ria: n&amp;atilde,oaudio:sonicmasteralto-falantes embutidosmicrofone embutidosaidas:1x usb 2.0 type-a1x usb 3.2 gen 1 type-a1x usb 3.2 gen 1 type-c1x hdmi 1.41x 3.5mm combo audio jack1x dc-inadaptador de energia 45,00 wbateria 3 cells / 4000 mahsistema operacional windows 11 homecaracter&amp;iacute,sticas:especifica&amp;ccedil,&amp;otilde,es militares us mil-std 810htampa de privacidade para a webcampeso do produto: 1,63 kgdimens&amp;otilde,es: 36,03 cm x 23,25 cm x 1,79 ~ 1,79 cm&lt;br&gt;&lt;br&gt;&lt;strong&gt;especificações técnicas&lt;/strong&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;software:&lt;/strong&gt; system diagnosisbattery health chargingfan profilesplendidfunction key lockwifi smartconnect link to myasustaskfirstlive updateai noise canceling&lt;br&gt;&lt;strong&gt;clock de memória:&lt;/strong&gt; 5500 mhz&lt;br&gt;&lt;strong&gt;adaptador de energia:&lt;/strong&gt; 45,00 w.&lt;br&gt;&lt;strong&gt;teclado retro iluminado:&lt;/strong&gt; não&lt;br&gt;&lt;strong&gt;tela sensível ao toque:&lt;/strong&gt; não&lt;br&gt;&lt;strong&gt;saídas:&lt;/strong&gt; 1x usb 2.0 type-a1x usb 3.2 gen 1 type-a1x usb 3.2 gen 1 type-c1x hdmi 1.41x 3.5mm combo audio jack1x dc-in&lt;br&gt;&lt;strong&gt;dimensões:&lt;/strong&gt; 36,03 cm x. 23,25 cm x. 1,79 ~. 1,79 cm&lt;br&gt;&lt;strong&gt;código de homologação anatel:&lt;/strong&gt; 06446-16-04076&lt;br&gt;&lt;strong&gt;câmera frontal:&lt;/strong&gt; hd&lt;br&gt;&lt;strong&gt;áudio:&lt;/strong&gt; sonicmasteralto-falantes embutidosmicrofone embutido&lt;br&gt;&lt;strong&gt;bluetooth:&lt;/strong&gt; bluetooth 5,1&lt;br&gt;&lt;strong&gt;sku asus:&lt;/strong&gt; e1504fa-nj825w&lt;br&gt;&lt;strong&gt;wi-fi:&lt;/strong&gt; wi-fi 5(802.11ac) (dual band) 1*1 + bluetooth® 5.1&lt;br&gt;&lt;strong&gt;ean code:&lt;/strong&gt; 7898573299647&lt;br&gt;&lt;strong&gt;bateria:&lt;/strong&gt; 3 cells / 4000 mah&lt;br&gt;&lt;strong&gt;garantia:&lt;/strong&gt; 12 meses&lt;br&gt;&lt;strong&gt;sistema operacional:&lt;/strong&gt; windows 11 home&lt;br&gt;&lt;strong&gt;cor:&lt;/strong&gt; preto&lt;br&gt;&lt;strong&gt;memória ram:&lt;/strong&gt; 8 gb (8 gb onboard + 0 gb offboard)&lt;br&gt;&lt;strong&gt;processador:&lt;/strong&gt; amd ryzen™ 5 7520u 2,8 ghz, 4 mb cache&lt;br&gt;&lt;strong&gt;armazenamento:&lt;/strong&gt; 256 gb ssd pcie g3x2&lt;br&gt;&lt;strong&gt;tela:&lt;/strong&gt; 15,60´´ led-backlit anti-glare&lt;br&gt;&lt;strong&gt;peso do produto:&lt;/strong&gt; 1,63 kg&lt;br&gt;&lt;strong&gt;resolução da tela:&lt;/strong&gt; 1920x1080&lt;br&gt;&lt;strong&gt;cartão de memória:&lt;/strong&gt; não&lt;br&gt;&lt;strong&gt;placa de vídeo:&lt;/strong&gt; amd radeon™ graphics&lt;br&gt;&lt;strong&gt;características:&lt;/strong&gt; especificações militares us mil-std 810htampa de privacidade para a. Webcam&lt;br&gt;&lt;strong&gt;manufacturer:&lt;/strong&gt; asus&lt;br&gt;&lt;strong&gt;mfrpartnumber:&lt;/strong&gt; e1504fa-nj825w&lt;br&gt;&lt;strong&gt;harddrivesize:&lt;/strong&gt; 256 gb ssd pcie g3x2&lt;br&gt;&lt;strong&gt;operatingsystem:&lt;/strong&gt; windows 11 home&lt;br&gt;&lt;strong&gt;processorbrand:&lt;/strong&gt; amd&lt;br&gt;&lt;strong&gt;processorspeed:&lt;/strong&gt; 2,8 ghz&lt;br&gt;&lt;strong&gt;ramsize:&lt;/strong&gt; 8 gb</t>
-  </si>
-  <si>
-    <t>Notebook Ultra Linux Intel I3, 256GB, 8GB RAM, 14,1 Polegadas, FULL HD,Preto - Ul151lx</t>
-  </si>
-  <si>
-    <t>Notebook ultra linux intel i3 256gb 8gb ram 14,1 pol. Full hd preto - ul151lx&lt;br /&gt;&lt;br /&gt;  &lt;br /&gt;&lt;br /&gt;  notebook ultra, vem com linux, para você aproveitar ao máximo todos os recursos disponíveis. &lt;br /&gt;&lt;br /&gt;  &lt;br /&gt;&lt;br /&gt;  com ssd m.2 de 256gb de armazenamento. Muito mais espaço para seus vídeos, músicas e fotos ou que é mais essencial para você.&lt;br /&gt;&lt;br /&gt;  &lt;br /&gt;&lt;br /&gt;  conta com 8gb de ram para você ter mais velocidade no recebimento de informações, tela de 14.1 hd para você ter imagens nítidas e vivas para uma experiência completa e surpreendente. Desenvolvida com bateria de longa duração, processador  intel core i3 de décima geração com alta velocidade e desempenho, da produtividade ao entretenimento, com o armazenamento de alta performance você terá muito mais rapidez no acesso a seus arquivos. Possui design ultraleve e superfino para você levar em qualquer lugar, transferência rápida de arquivos pelo usb 3.0 e usb tipo c.&lt;br /&gt;&lt;br /&gt;  &lt;br /&gt;&lt;br /&gt;  ficha técnica&lt;br /&gt;&lt;br /&gt;  &lt;br /&gt;&lt;br /&gt;  marca: ultra&lt;br /&gt;&lt;br /&gt;  modelo: notebook ultra linux intel i3 256gb 8gb ram 14,1 pol. Full hd preto - ul151lx&lt;br /&gt;&lt;br /&gt;  cor: preto&lt;br /&gt;&lt;br /&gt;  tela: 14,1 pol&lt;br /&gt;&lt;br /&gt;  sistema operacional: linux&lt;br /&gt;&lt;br /&gt;  processador: intel core i3&lt;br /&gt;&lt;br /&gt;  conexão: usb, bluetooth, p2sd&lt;br /&gt;&lt;br /&gt;  memória ram: 8gb&lt;br /&gt;&lt;br /&gt;  armazenamento: ssd m.2 de 256gb&lt;br /&gt;&lt;br /&gt;  câmera principal: 1mp&lt;br /&gt;&lt;br /&gt;  bateria: 4500mah 11,1v, 50whr carregador ac/dc bi-volt (110v-240v-50hz-60hz) com cabo de alimentação elétrica padrão brasileiro nbr14136:2002&lt;br /&gt;&lt;br /&gt;  áudio: hd áudio com controladora de som integrada a placa-mãe amplificada 2x alto-falantes 1w&lt;br /&gt;&lt;br /&gt;  entradas: 1x usb 3.0 gen 1, 1x usb 2.0, 1x usb type-c, 1x hdmi, 1xdc-in, 1x áudio combo, 1x rj45 ethernet, 1x microsd card reader&lt;br /&gt;&lt;br /&gt;  dimensões (lxaxc): 37 x 9 x 43cm&lt;br /&gt;&lt;br /&gt;  peso: 3500g&lt;br /&gt;&lt;br /&gt;  certificado anatel: 02143-18-04423&lt;br /&gt;&lt;br /&gt;  garantia: 1 ano&lt;br /&gt;&lt;br /&gt;  &lt;br /&gt;&lt;br /&gt;  imagens meramente ilustrativas.</t>
-  </si>
-  <si>
-    <t>Notebook Ultra Intel Core I3, 8GB, SSD 256GB M.2, Tela 14.1 Full HD, Windows 11 Pro, Preto - Ul151l</t>
-  </si>
-  <si>
-    <t>Notebook ultra windows 11 pro intel i3 256gb 8gb ram 14,1 pol. Full hd preto - ul151l&lt;br /&gt;&lt;br /&gt;  &lt;br /&gt;&lt;br /&gt;  notebook ultra, vem com o windows 11 pro, para você aproveitar ao máximo todos os recursos disponíveis. &lt;br /&gt;&lt;br /&gt;  &lt;br /&gt;&lt;br /&gt;  com ssd m.2 de 256gb de armazenamento. Muito mais espaço para seus vídeos, músicas e fotos ou que é mais essencial para você.&lt;br /&gt;&lt;br /&gt;  &lt;br /&gt;&lt;br /&gt;  conta com 8gb de ram para você ter mais velocidade no recebimento de informações, tela de 14.1 hd para você ter imagens nítidas e vivas para uma experiência completa e surpreendente.&lt;br /&gt;&lt;br /&gt;  &lt;br /&gt;&lt;br /&gt;  desenvolvida com bateria de longa duração, processador intel core i3 de décima geração com alta velocidade e desempenho, da produtividade ao entretenimento, com o armazenamento de alta performance você terá muito mais rapidez no acesso a seus arquivos. Possui design ultraleve e superfino para você levar em qualquer lugar, transferência rápida de arquivos pelo usb 3.0 e usb tipo c.&lt;br /&gt;&lt;br /&gt;  &lt;br /&gt;&lt;br /&gt;  ficha técnica&lt;br /&gt;&lt;br /&gt;  &lt;br /&gt;&lt;br /&gt;  marca: ultra&lt;br /&gt;&lt;br /&gt;  modelo: notebook ultra windows 11 pro intel i3 256gb 8gb ram 14,1 pol. Full hd preto - ul151l&lt;br /&gt;&lt;br /&gt;  cor: preto&lt;br /&gt;&lt;br /&gt;  tela: 14,1 polegadas&lt;br /&gt;&lt;br /&gt;  resolução: 1366 x 768&lt;br /&gt;&lt;br /&gt;  memória ram: 8gb ddr &lt;br /&gt;&lt;br /&gt;  memória interna: 256gb ssd&lt;br /&gt;&lt;br /&gt;  processador: intel core i3&lt;br /&gt;&lt;br /&gt;  sistema operacional: windows 11 pro &lt;br /&gt;&lt;br /&gt;  bateria: 4000 mah&lt;br /&gt;&lt;br /&gt;  áudio: hd com controladora de som integrada a placa mãe amplificada&lt;br /&gt;&lt;br /&gt;  portas: 1x usb 3.0, 1x usb 2.0, 1x usb tipo c, 1x áudio combo (microfone/fone) jack, 1x rj, 1x micro sd, 1x hdmi, 1x dc&lt;br /&gt;&lt;br /&gt;  teclado: padrão abnt2&lt;br /&gt;&lt;br /&gt;  câmera: frontal hd 1m&lt;br /&gt;&lt;br /&gt;  microfone: 2x d-mic integrados a câmera&lt;br /&gt;&lt;br /&gt;  dimensões (lxaxc): 32,26 x 2,08 x 22,35 cm&lt;br /&gt;&lt;br /&gt;  peso: 1,510kg&lt;br /&gt;&lt;br /&gt;  anatel: 02143-18-04423&lt;br /&gt;&lt;br /&gt;  garantia: 1 ano&lt;br /&gt;&lt;br /&gt;  &lt;br /&gt;&lt;br /&gt;  imagens meramente ilustrativas.</t>
-  </si>
-  <si>
-    <t>R$2456.9</t>
-  </si>
-  <si>
-    <t>Notebook Positivo, 4GB, 64GB, Windows 11 Office - 3002497, Tela 14''  Cinza - Cel-n4020</t>
-  </si>
-  <si>
-    <t>O Notebook Positivo Motion C - 464D apresenta um design fino, elegante e compacto os novos Notebooks da Positivo disponibilizam o máximo em entretenimento e diversão! Com processador Intel Celeron o Notebook Positivo Motion C apresenta um baixo consumo de energia. Trabalhe e divirta-se o dia todo, sem precisar estar conectado a tomada, graças à bateria com mais de 7 horas de duração.</t>
-  </si>
-  <si>
-    <t>Tela 14 Polegadas Led Slim Notebook, 30 Pinos 1366x768</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;tela substituta 14" em led para notebook com resolução 1366x768 e conector de 30 pinos do canto direito inferior.&lt;br /&gt;&lt;br /&gt;&lt;strong&gt;especificações técnicas:&lt;br /&gt;&lt;br /&gt;&lt;/strong&gt;modelo nt140whm-n43&lt;br /&gt;tamanho: 14.0 pol&lt;br /&gt;formato padrão: wxga&lt;br /&gt;tipo de aparelho: notebook&lt;br /&gt;resolução 1366x768&lt;br /&gt;pinos conector 30 pinos&lt;br /&gt;posição conector direito inferior&lt;br /&gt;&lt;br /&gt;&lt;strong&gt;códigos alternativos: b140xtn07.2&lt;/strong&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>R$1133.95</t>
+    <t>Tampa Superior Com Teclado Para Notebook Hp Modelo 840 G8, Padrão Abnt Português - M36312-201</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;tampa superior com teclado para uso em notebook hp modelo 840 g8 padrão abnt português.&lt;br /&gt;&lt;br /&gt;&lt;strong&gt;especificações técnicas:&lt;/strong&gt; &lt;br /&gt;&lt;br /&gt;código: m36312-201&lt;br /&gt;marca: hp&lt;br /&gt;padrão: abnt2&lt;br /&gt;&lt;br /&gt;&lt;strong&gt;modelos compatíveis:&lt;/strong&gt; hp elitebook 840 g8 i5. &lt;br /&gt;&lt;br /&gt;&lt;br /&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>R$2260.56</t>
+  </si>
+  <si>
+    <t>Notebook Dell Inspiron 3511 Core I3-1115g4, 4GB RAM, SSD 256GB, Tela 15,6 Polegadas Led HD - Windows 11 Home</t>
+  </si>
+  <si>
+    <t>&lt;strong&gt;notebook dell inspiron 3511&amp;nbspa velocidade de que você precisa:&lt;/strong&gt;&amp;nbspum desempenho responsivo e silencioso, contando com opções de configuração que incluem processadores intel&amp;nbspcore&amp;nbspde 11ª geração e armazenamento ssd pci-e.&lt;strong&gt;perfeito para você:&lt;/strong&gt;&amp;nbsptenha um teclado expansivo com keypad numérico, teclas 6,4% maiores e um touchpad espaçoso que facilita a sua navegação.&lt;strong&gt;design pensado para seu dia a dia:&lt;/strong&gt;&amp;nbsptrabalhe confortavelmente graças a uma dobradiça de elevação que ergue seu notebook em um ângulo ergonômico, proporcionando um ângulo de digitação mais confortável.&lt;strong&gt;agradável aos olhos:&lt;/strong&gt;&amp;nbspas soluções de software low blue light do dell comfortview ajudam a reduzir as emissões nocivas de luz azul e otimizam o conforto ocular.&lt;strong&gt;há mais para ver:&lt;/strong&gt;&amp;nbspveja mais detalhes na tela em um notebook de 15,6&amp;quot full hd com bordas estreitas em três lados e tenha uma experiência de visualização mais imersiva.&lt;strong&gt;uma preocupação comum:&lt;/strong&gt;&amp;nbspprojetado para resistir ao uso regular, com pequenos pés de borracha e amortecedores na dobradiça que impedem a derrapagem e dão mais estabilidade em superfícies duras.&lt;strong&gt;especificações técnicas:&lt;/strong&gt;&lt;strong&gt;processador:&lt;/strong&gt; 11ª geração intel&amp;nbspcore&amp;nbspi3-1115g4 (2-core, cache de 6mb, até 4.1ghz)&lt;strong&gt;sistema operacional:&lt;/strong&gt; windows 11 home, português&lt;strong&gt;placa de vídeo:&amp;nbsp&lt;/strong&gt;intel&amp;nbspuhd com memória gráfica compartilhada&lt;strong&gt;tela:&amp;nbsp&lt;/strong&gt;full hd de 15.6&amp;quot (1920 x 1080) wva&lt;strong&gt;memória:&amp;nbsp&lt;/strong&gt;4gb ddr4 (1x4gb) 2666mhz expansível até 16gb (2 slots sodimm)&lt;strong&gt;armazenamento:&amp;nbsp&lt;/strong&gt;ssd de 256gb pcie nvme m.2&lt;strong&gt;cor:&amp;nbsp&lt;/strong&gt;apollo - preto carbono&amp;nbsp&amp;nbsp&lt;strong&gt;assistência técnica:&amp;nbsp&lt;/strong&gt;1 ano de garantia básica via correios&lt;strong&gt;teclado:&amp;nbsp&lt;/strong&gt;teclado padrão em português, com leitor de impressão digital (compatível apenas com windows)&lt;strong&gt;portas:&amp;nbsp&lt;/strong&gt;2 portas usb 3.2 de 1ª geração | 1 porta usb 2.0 | 1 conector de áudio&amp;nbsp| 1porta hdmi 1.4 |1 slot m.2 2230 para placa de wifi e bluetooth | 1 slot m.2 2230/2280 para unidade de estado sólido (ssd)/intel optane (não possui slot sata) | 1 slot de cartão sd&lt;strong&gt;câmera:&amp;nbsp&lt;/strong&gt;câmera hd de 720p a 30 fps com microfone único integrado&amp;nbsp&lt;strong&gt;áudio e alto-falantes:&amp;nbsp&lt;/strong&gt;alto-falantes estéreo, 2 de 2 w = 4 w no total&lt;strong&gt;wireless:&amp;nbsp&lt;/strong&gt;802.11ac 1x1 wi-fi, placa de rede wireless com bluetooth&lt;strong&gt;bateria principal:&amp;nbsp&lt;/strong&gt;bateria de 4 células e 54wh (integrada)&lt;strong&gt;energia:&amp;nbsp&lt;/strong&gt;adaptador ca 65 watts (bivolt)&lt;strong&gt;altura: &lt;/strong&gt;1,75 cm a 1,90 cm |&lt;strong&gt; largura:&lt;/strong&gt; 35,85 cm | &lt;strong&gt;profundidade:&lt;/strong&gt; 23,56 cm | &lt;strong&gt;peso:&lt;/strong&gt; 1,85 kg&lt;br&gt;&lt;br&gt;&lt;strong&gt;especificações técnicas&lt;/strong&gt;&lt;br&gt;notebook dell inspiron 3511 core i3-1115g4 | entregas para todo o brasil</t>
+  </si>
+  <si>
+    <t>R$2855.0</t>
   </si>
   <si>
     <t>Fonte Ac Adapter Hp, 65wm, USB-C, 20v, 1.8m - L32392-001</t>
@@ -1831,93 +1816,99 @@
     <t>Atenção ! Equipamento de mostruário.&lt;br /&gt;&lt;br /&gt;notebook custo beneficio, top de excelente marca,&lt;br /&gt;perfeito para diversas atividades do dia a dia,&lt;br /&gt;com ssd para aumentar sua velocidade.&lt;br /&gt;Possui garantia e nota fiscal, e ao realizar a compra enviamos o produto junto de seu carregador.&lt;br /&gt;&lt;br /&gt;caso tenha duvidas, pergunte no campo abaixo e responderemos em até 24h.  &lt;br /&gt;caso queira falar diretamente conosco, envie uma mensagem em nosso whatsapp oficial, pesquise nossa loja &lt;br /&gt;na internet imperiums informática e tire suas duvidas.  &lt;br /&gt;&lt;br /&gt;caso tenha duvidas, pergunte no campo de perguntas abaixo.&lt;br /&gt;&lt;br /&gt;modelo: hp elitebook notebook 840 g1&lt;br /&gt;processador: i5-4300u&lt;br /&gt;memoria ram: 8gb ram&lt;br /&gt;armazenamento: 480gb ssd&lt;br /&gt;tela: 14 polegadas hd+&lt;br /&gt;wifi e bluetooth&lt;br /&gt;windows 10 pró&lt;br /&gt;&lt;br /&gt;garantia do vendedor: 3 meses</t>
   </si>
   <si>
+    <t>Usado - Notebook Lenovo Ideapad 330, Intel Celeron N4000, 4GB, 500GB, Tela 15.6p, Linux - 81fns00000 - Seminovo</t>
+  </si>
+  <si>
+    <t>Notebook Lenovo Ideapad 330 81FNS00000, cor prata, processador Intel Celeron N4000 de 1.10GHz até 2.60GHz, memória RAM de 4GB DDR4, HD 500GB, tela de 15.6 polegadas e sistema operacional Linux&lt;br /&gt;Modelo/Referencia: 330-15IGM81FNS00000&lt;br /&gt;&lt;br /&gt;Certificação: Recertificado&lt;br /&gt;&lt;br /&gt;Medalha: Ouro&lt;br /&gt;&lt;br /&gt;FICHA TÉCNICA:&lt;br /&gt;&lt;br /&gt;Sistema operacional: Linux.&lt;br /&gt;&lt;br /&gt;Processador: Intel Celeron N4000– Dual Care ( 2Threads)- Frequência: 1.10GHz até 2.60GHz – 4 MB de Cache. &lt;br /&gt;&lt;br /&gt;Memoria: 4 GB RAM &lt;br /&gt; &lt;br /&gt;Armazenamento: 1 TB&lt;br /&gt;&lt;br /&gt;Tela: 15.6”&lt;br /&gt;&lt;br /&gt;Conteúdo da embalagem: Notebook, Fonte carregadora do notebook&lt;br /&gt;&lt;br /&gt;Observação: O produto não acompanha manual de instruções&lt;br /&gt;&lt;br /&gt;Garantia: 3 meses&lt;br /&gt;&lt;br /&gt;ATENÇÃO: VOCÊ ESTÁ ADQUIRINDO UM PRODUTO RECERTIFICADO!!!! &lt;br /&gt;&lt;br /&gt;O produto acompanha a caixa original de fábrica, não acompanha manual de instruções ou qualquer outro acessório&lt;br /&gt;&lt;br /&gt;Entenda o que é um produto recertificado:&lt;br /&gt;&lt;br /&gt;É um produto que volta do mercado disponível para venda nas mesmas condições de um produto novo, com suas funcionalidades e características originais. O produto passa por um rigoroso processo de análise onde todas as suas funcionalidades são testadas e o produto liberado para venda. &lt;br /&gt;&lt;br /&gt;O produto recertificado é classificado em medalhas de acordo com o estado estético e superficial do produto, sendo: OURO, PRATA E BRONZE.&lt;br /&gt;&lt;br /&gt;Recertificado Prata: Produto tem características similares ao Ouro, pode apresentar mínimos riscos quase imperceptíveis.&lt;br /&gt; &lt;br /&gt;Atenção: O Saldão da Informática não enviará fotos reais dos produtos para os clientes, como também não reservaremos produtos. As imagens exibidas são meramente ilustrativas.</t>
+  </si>
+  <si>
     <t>Notebook Intel Core I5, Tela 15.6” Full HD Ips, 8GB, 480 SSD E Windows 10 - Everex</t>
   </si>
   <si>
     <t>Notebook Intel Core I5, Tela 15.6” Full HD Ips, 8GB, 480 SSD E Windows 10 Pro - Everex</t>
   </si>
   <si>
+    <t>Notebook Asus Vivobook 15 X1500ea, Intel Pentium Gold 7505, 4 GB RAM, 128GB, SSD Windows 11, Tela 15,6 Polegadas, FULL HD</t>
+  </si>
+  <si>
+    <t>Seja para trabalho ou lazer, o asus vivobook 15 &amp;eacute, um notebook que oferece desempenho, praticidade e &amp;oacute,timos visuais. Sua tela nanoedge com bordas extremamente finas possui revestimento fosco antirreflexivo para uma experi&amp;ecirc,ncia verdadeiramente envolvente. Equipado com processador intel pentium gold e placa de v&amp;iacute,deo intel uhd graphics, o asus vivobook 15 &amp;eacute, superfino, leve e ainda conta com uma bateria de longa dura&amp;ccedil,&amp;atilde,o de 37 wh, o que o torna perfeito para sua utiliza&amp;ccedil,&amp;atilde,o di&amp;aacute,ria.part number: 90nb0ty6-m04nx0sku asus: x1500ea-ej4239wsean code: 7898573299449c&amp;oacute,digo de homologa&amp;ccedil,ao anatel: 00915-18-04423processador intel pentium gold 7505 2 ghz, 4 mb cachemem&amp;oacute,ria ram: 4 gb (4 gb onboard + 0 gb offboard)armazenamento: 128 gb ssdtela 15,60´´ led-backlit tft lcd anti-glareresolu&amp;ccedil,&amp;atilde,o da tela: 1920x1080placa de v&amp;iacute,deo: intel uhd graphicsgarantia 12 mesestela sens&amp;iacute,vel ao toque: n&amp;atilde,oclock de mem&amp;oacute,ria 2400 mhzwi-fi 5placa de v&amp;iacute,deo integradac&amp;acirc,mera frontal: vgabluetooth 5,1cart&amp;atilde,o de mem&amp;oacute,ria: n&amp;atilde,o&amp;aacute,udio:sonicmasteraudio by icepowerbuilt-in speakerbuilt-in microphonesa&amp;iacute,das:1x 3.5mm combo audio jack1x hdmi 1.41x usb 3.2 gen 1 type-a1x usb 3.2 gen 1 type-c2x usb 2.0 type-aadaptador de energia 45,00 wbateria 2 cells / 3300 mahmicrosoft 365 personal por 1 ano inclu&amp;iacute,do (necess&amp;aacute,rio ativar em at&amp;eacute, 6 meses ap&amp;oacute,s a ativa&amp;ccedil,&amp;atilde,o do windows)sistema operacional: windows 11 homecaracter&amp;iacute,sticas:tela nanoedgecarregamento r&amp;aacute,pido da bateriasecurity lockpeso do produto: 1,8 kgdimens&amp;otilde,es: 36 cm x 23,5 cm x 1,99 cm&lt;br&gt;&lt;br&gt;&lt;strong&gt;especificações técnicas&lt;/strong&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;sku asus:&lt;/strong&gt; x1500ea-ej4239ws&lt;br&gt;&lt;strong&gt;bluetooth:&lt;/strong&gt; bluetooth 5,1&lt;br&gt;&lt;strong&gt;câmera frontal:&lt;/strong&gt; vga&lt;br&gt;&lt;strong&gt;garantia:&lt;/strong&gt; 12 meses&lt;br&gt;&lt;strong&gt;placa de vídeo:&lt;/strong&gt; intel® uhd graphics&lt;br&gt;&lt;strong&gt;ean code:&lt;/strong&gt; 7898573299449&lt;br&gt;&lt;strong&gt;cor:&lt;/strong&gt; prata metálico&lt;br&gt;&lt;strong&gt;peso do produto:&lt;/strong&gt; 1,8 kg&lt;br&gt;&lt;strong&gt;resolução da tela:&lt;/strong&gt; 1920x1080&lt;br&gt;&lt;strong&gt;dimensões:&lt;/strong&gt; 36 cm x. 23,5 cm x. 1,99 ~. 1,99 cm&lt;br&gt;&lt;strong&gt;características:&lt;/strong&gt; tela nanoedgecarregamento rápido da bateriasecurity lock&lt;br&gt;&lt;strong&gt;software:&lt;/strong&gt; wi-fi smartconnect system diagnosis battery health chargingfan mode splendid tru2life function key lock wifiroamingoptimizationlink to myasus&lt;br&gt;&lt;strong&gt;clock de memória:&lt;/strong&gt; 2400 mhz&lt;br&gt;&lt;strong&gt;tela sensível ao toque:&lt;/strong&gt; não&lt;br&gt;&lt;strong&gt;sistema operacional:&lt;/strong&gt; windows 11 home&lt;br&gt;&lt;strong&gt;bateria:&lt;/strong&gt; 2 cells / 3300 mah&lt;br&gt;&lt;strong&gt;saídas:&lt;/strong&gt; 1x 3.5mm combo audio jack1x hdmi 1.41x usb 3.2 gen 1 type-a1x usb 3.2 gen 1 type-c2x usb 2.0 type-a&lt;br&gt;&lt;strong&gt;código de homologação anatel:&lt;/strong&gt; 00915-18-04423&lt;br&gt;&lt;strong&gt;adaptador de energia:&lt;/strong&gt; 45,00 w.&lt;br&gt;&lt;strong&gt;cartão de memória:&lt;/strong&gt; não&lt;br&gt;&lt;strong&gt;armazenamento:&lt;/strong&gt; 128 gb ssd&lt;br&gt;&lt;strong&gt;wi-fi:&lt;/strong&gt; wi-fi 5(802.11ac) (dual band) 1*1 + bluetooth® 5.1&lt;br&gt;&lt;strong&gt;tela:&lt;/strong&gt; 15,60´´ led-backlit tft lcd anti-glare&lt;br&gt;&lt;strong&gt;áudio:&lt;/strong&gt; sonicmasteraudio by icepower®built-in speakerbuilt-in microphone&lt;br&gt;&lt;strong&gt;processador:&lt;/strong&gt; intel® pentium gold 7505 2 ghz, 4 mb cache&lt;br&gt;&lt;strong&gt;memória ram:&lt;/strong&gt; 4 gb (4 gb onboard + 0 gb offboard)</t>
+  </si>
+  <si>
+    <t>Notebook Lenovo Ideapad 3i Celeron 4gb 500gb Linux 15.6´´ Prata</t>
+  </si>
+  <si>
+    <t>Notebook Lenovo IdeaPad 3i Celeron 4GB 500GB Linux 15.6´´ PrataLenovo IdeaPad 3i possui design leve e compacto. Com tela antirreflexo de 15.6´´ para mais conforto visual. Notebook ideal para todos os momentos. Conta com WiFi AC ultrarrá,pido e teclado numé,rico para trabalhar com mais agilidade nas suas planilhas. Possibilidade de utilizar o armazenamento de forma hí,brida e ganhar muito mais agilidade e produtividade no seu dia a dia. Com o slot disponí,vel, você, tem a opç,ã,o de adicionar um SSD NVMe M.2 para ter mais seguranç,a ao armazenar seus dados.CONECTIVIDADEBluetooth SimUSB (2.0) 1Leitor de Cartõ,es 4 em 1 (SD, SDHC, SDXC, MMC)USB (3.2) 2..</t>
+  </si>
+  <si>
+    <t>R$2935.9</t>
+  </si>
+  <si>
+    <t>Notebook Positivo Motion, Intel Cel-n4020, 4GB, SSD 240GB, Tela 14p LED HD, Linux, Cinza - 3002635</t>
+  </si>
+  <si>
+    <t>Processador intel® celeron® dual core 1,10 ghz com frequência de burst de até 2,80 ghz, 4mb cache, 2 núcleos, 2 threads &lt;br /&gt;fabricante do processador intel® &lt;br /&gt;linha do processador celeron® dual core &lt;br /&gt;modelo do processador n4020 &lt;br /&gt;geração do processador não se aplica &lt;br /&gt;arquitetura do processador 64 bitschipset da cpu não se aplica &lt;br /&gt;soquete da cpu fcbga1090 &lt;br /&gt;cache 4mb &lt;br /&gt;quantidade de núcleos 2 &lt;br /&gt;quantidade de threads 2 &lt;br /&gt;velocidade / frequência máxima do processador burst de até 2.80 ghz &lt;br /&gt;velocidade / frequência mínima do processador 1.10 ghz &lt;br /&gt;placa de vídeo processamento de vídeo integrado intel® graphics &lt;br /&gt;suporte microsoft® directx® e opengl &lt;br /&gt;modelo de placa de vídeo processamento de vídeo integrado intel® uhd 600 graphics &lt;br /&gt;marca do chipset de vídeo intel® &lt;br /&gt;tipo / interface de placa de vídeo integrada &lt;br /&gt;saída hdmi &lt;br /&gt;memória de placa de vídeo não se aplica &lt;br /&gt;barramento da memória de vídeo ddr4 &lt;br /&gt;placa mãe fabricante placa mãe positivo tecnologia &lt;br /&gt;marca do chipset da placa mãe intel® &lt;br /&gt;áudio áudio de alta definição (hd áudio), microfone e alto -falantes estéreo embutidos &lt;br /&gt;modos de som stereo &lt;br /&gt;memória 4gb (ddr4 onboard) &lt;br /&gt;memória ram 4gb &lt;br /&gt;tipo da memória ram ddr4 &lt;br /&gt;chip on board &lt;br /&gt;velocidade / clock da memória ram 2133mt/s &lt;br /&gt;barramento / tecnologia da memória ram ddr4 &lt;br /&gt;slot de memória disponível não se aplica &lt;br /&gt;quantidade de slots de memória ram não se aplica &lt;br /&gt;capacidade máxima de memória ram não se aplica &lt;br /&gt;memória optane não se aplica &lt;br /&gt;armazenamento tecnologia de armazenamento ssd &lt;br /&gt;armazenamento / tamanho do hd não se aplica &lt;br /&gt;armazenamento / tamanho do ssd 240gb &lt;br /&gt;armazenamento / tamanho do ufs não se aplica &lt;br /&gt;armazenamento / tamanho do emmc não se aplica &lt;br /&gt;velocidade de leitura do hd não se aplica &lt;br /&gt;velocidade de leitura do ssd 400mb/s &lt;br /&gt;velocidade de leitura do ufs não se aplica &lt;br /&gt;velocidade de leitura do emmc não se aplica &lt;br /&gt;quantidade de slots de armazenamento não se aplicacapacidade de expansão de armazenamento não se aplica &lt;br /&gt;tela 14.1\", led hd, widescreen, 1366 x 768, 16:9, antirreflexiv</t>
+  </si>
+  <si>
+    <t>R$2579.04</t>
+  </si>
+  <si>
+    <t>Notebook Concórdia C3115, Intel Core I3-1115g4, 8GB, SSD 512GB, Tela 15.6 HD, Linux</t>
+  </si>
+  <si>
+    <t>&lt;strong&gt;notebook concórdia c3115 i3 1115g4 8gb ssd 512gb tela 15,6&amp;quot hd linux&amp;nbsp &amp;nbsp&lt;/strong&gt;apresentamos o mais recente lançamento no mundo dos notebooks: o modelo que combina versatilidade, confiabilidade, modernidade e tecnologia&amp;nbspde&amp;nbspponta! &lt;strong&gt;notebook concórdia c3115.&lt;/strong&gt; com recursos adaptáveis ao seu estilo de vida, oferecendo alta qualidade, durabilidade e desempenho consistente. Sua aparência elegante com resolução hd e recursos avançados é o combo perfeito para tornar a experiência digital a mais&amp;nbspexcepcional.</t>
+  </si>
+  <si>
+    <t>R$2839.0</t>
+  </si>
+  <si>
+    <t>Usado - Notebook Lenovo Thinkpad T480 Core I5 8350u, 8GB RAM, SSD 256GB, Windows 10 Pro</t>
+  </si>
+  <si>
+    <t>A agasus oferece ao mercado a comercialização de computadores, notebooks, servidores, monitores, smartphones e periféricos seminovos das marcas líderes com o objetivo de levar tecnologia e preço acessível a todos os seus clientes.          informações principais:    - marca: lenovo       - sku: p003680-v1    - modelo: thinkpad t480    - marca processador: intel    - placa gráfica: uhd graphics 620    -  linha processador: core i5 8350ugº    - memória ram: 8gb    - capacidade hd: 500gb    - sistema operativo: windows     - versão do sistema operacional: 10 pro    - tamanho da tela: 14”    -  resolução da tela: ?1920 x 1080 pixels    - tipo de bateria: íon de lítio    - mais informações: consulte ficha técnica do anuncio ou entre em contato         itens testados:    - teclado,    - webcam,    - audio (microfone, saída, entrada de fone),    - fonte,    - tela,    - rede cabeada e wi-fi,    - portas usb,    - saidas de vídeo,    - slots de memória e hd.         conteúdo da embalagem:    - 1x notebook     - 1x fonte (original ou genérica),    - não acompanha manual de instruções         obs sobre a bateria:    a autonomia da bateria poderá variar dependendo da configuração, dos aplicativos carregados, das configurações de energia e dos recursos utilizados. Os equipamentos podem trazer baterias proprio ou genéricas, testadas e revisadas por nossa equipe técnica. Ressaltamos que a bateria poderá não apresentar a mesma vida útil de um produto fechado.         garantia:     ****6 meses de garantia diretamente com a nossa loja agasus***   &lt;br&gt;&lt;br&gt;&lt;strong&gt;especificações técnicas&lt;/strong&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;conteúdo da embalagem:&lt;/strong&gt; 1x notebook1x fonte (original ou genérica),&lt;br&gt;&lt;strong&gt;processador:&lt;/strong&gt; intel core i5 8350u&lt;br&gt;&lt;strong&gt;código anatel:&lt;/strong&gt; 010430802198&lt;br&gt;&lt;strong&gt;garantia:&lt;/strong&gt; 6 meses&lt;br&gt;&lt;strong&gt;conectividade:&lt;/strong&gt; wifi&lt;br&gt;&lt;strong&gt;memória ram:&lt;/strong&gt; 8gb&lt;br&gt;&lt;strong&gt;modelo:&lt;/strong&gt; thinkpad t480&lt;br&gt;&lt;strong&gt;ean:&lt;/strong&gt; 0192330094382&lt;br&gt;&lt;strong&gt;correios width:&lt;/strong&gt; 48&lt;br&gt;&lt;strong&gt;categories:&lt;/strong&gt; [493, 494, 495, 496, 498, 499, 500, 501, 502, 504, 2, 539]&lt;br&gt;&lt;strong&gt;tipo de teclado:&lt;/strong&gt; abnt&lt;br&gt;&lt;strong&gt;estado:&lt;/strong&gt; seminovo&lt;br&gt;&lt;strong&gt;special price from date:&lt;/strong&gt; 2022-01-06 00:00:00&lt;br&gt;&lt;strong&gt;condição:&lt;/strong&gt; muito bom&lt;br&gt;&lt;strong&gt;tamanho da tela:&lt;/strong&gt; 14´´&lt;br&gt;&lt;strong&gt;correios height:&lt;/strong&gt; 27&lt;br&gt;&lt;strong&gt;sistema operacional:&lt;/strong&gt; windows 10 pro&lt;br&gt;&lt;strong&gt;memória interna:&lt;/strong&gt; 256gb</t>
+  </si>
+  <si>
+    <t>Usado - Notebook Acer Aspire 5 A514-54-52ty, Intel Core I5-1135g7, 8GB, SSD 256GB, Tela 14 Polegadas, Windows 10 - Seminovo</t>
+  </si>
+  <si>
+    <t>Notebook Acer Aspire 5 A514-54-52Ty, processador de 11º geração Intel Core i5-1135G7 de 2.40GHz até 4.20GHz, memória RAM de 8GB DDR4, SSD de 256GB, tela de 14 polegadas e sistema operacional Windows 10&lt;br /&gt;&lt;br /&gt;Modelo/Referencia: A514-54-52Ty&lt;br /&gt;&lt;br /&gt;Certificação: Recertificado&lt;br /&gt;&lt;br /&gt;Medalha: Bronze&lt;br /&gt;&lt;br /&gt;FICHA TÉCNICA:&lt;br /&gt;Sistema operacional: Windows 11 home 64- bits&lt;br /&gt;&lt;br /&gt;Processador: Intel Core i5– 1135G7- Quad Core (8 threads) – Frequência: até 4.20 GHz - 8 MB Intel de SmartCache &lt;br /&gt;&lt;br /&gt;Memoria: 8 GB RAM DDR4 (4GB Soldada + 4GB Módulo) - DDR4-2666MHz – Expansível até 20GB&lt;br /&gt;&lt;br /&gt;Armazenamento: 256 GB SSD PCIe 3.0 x4 NVMe (M.2 2280)&lt;br /&gt;&lt;br /&gt;Tela: 14” IPS FHD (1920 x 1080)&lt;br /&gt;&lt;br /&gt;Placa Gráfica: Intel Iris Xe Graphics com memória compartilhada com a memória RAM&lt;br /&gt; &lt;br /&gt;Conectividade: Bluetooth 5.0 - Suporte a redes com frequência (2.4 GHz e 5 GHz) – Wireless LAN 802.11a/b/g/n/ac&lt;br /&gt;&lt;br /&gt;Teclado: português do Brasil (ABNT2) – Multi-gestual com dois botões- Teclado numérico independente&lt;br /&gt;&lt;br /&gt;Observação: Este produto não possui leitor de CD/DVD&lt;br /&gt;&lt;br /&gt;Upgrades: Slot ocupado M.2 2280, compatível com unidades SSD PCIe 3.0 NVMe x2/x4 de até 512 GB - Slot livre SATA 3, compatível com HDD ou SSD SATA 3 2.5” de até 2TB&lt;br /&gt;&lt;br /&gt;Entrada: Entrada para fonte de alimentação, Porta Ethernet (RJ-45), 2x portas USB 3.2 Gen 1 (5 Gbps), Entrada combo para alto falante e fone de ouvido, Porta USB Type-C® 3.2 Gen 1 (5 Gbps), Porta USB 2.0, Porta HDMI®2.0&lt;br /&gt;&lt;br /&gt;Conteúdo da embalagem: Notebook, Fonte carregadora do notebook&lt;br /&gt;&lt;br /&gt;Observação: O produto não acompanha manual de instruções&lt;br /&gt;&lt;br /&gt;Garantia: 3 meses&lt;br /&gt;&lt;br /&gt;ATENÇÃO: VOCÊ ESTÁ ADQUIRINDO UM PRODUTO RECERTIFICADO!!!! &lt;br /&gt;&lt;br /&gt;O produto acompanha a caixa original de fábrica, não acompanha manual de instruções ou qualquer outro acessório &lt;br /&gt;&lt;br /&gt;Entenda o que é um produto recertificado:&lt;br /&gt;&lt;br /&gt;É um produto que volta do mercado disponível para venda nas mesmas condições de um produto novo, com suas funcionalidades e características originais. O produto passa por um rigoroso processo de análise onde todas as suas funcionalidades são testadas e o produto liberado para venda. &lt;br /&gt;&lt;br /&gt;O produto recertificado é classificado em medalhas de acordo com o estado estético e superficial do produto, sendo: OURO, PRATA E BRONZE.&lt;br /&gt;&lt;br /&gt;Recertificado Ouro: Produto está em ótimas condições estéticas, similar a um produto novo. &lt;br /&gt;&lt;br /&gt;Recertificado Prata: Produto tem características similares ao Ouro, pode apresentar mínimos riscos quase imperceptíveis. &lt;br /&gt;&lt;br /&gt;Recertificado Bronze: Produto possuí riscos visíveis (nenhum risco apresentado é na tela do produto). Estes riscos não alteram o funcionamento do equipamento.&lt;br /&gt;&lt;br /&gt;Atenção: O Saldão da Informática não enviará fotos reais dos produtos para os clientes, como também não reservaremos produtos. As imagens exibidas são meramente ilustrativas.</t>
+  </si>
+  <si>
+    <t>R$2665.56</t>
+  </si>
+  <si>
+    <t>Notebook Lenovo Ideapad 3 15itl6, Intel I3-1115G4, 8GB, SSD 256GB, Tela de 15.6 Polegadas FULLHD, Windows 11 Home</t>
+  </si>
+  <si>
+    <t>Notebook lenovo ideapad 3 15itl6 15.6 fhd/ i3-1115g4/ 8gb/ 256gb ssd/ win 11 home&lt;br&gt;&lt;br&gt;armazenamento : ssd&lt;br&gt;cor : cinza artico&lt;br&gt;memoria : 8gb ddr4 3200&lt;br&gt;memoria maxima : 128gb&lt;br&gt;processador : i3-1115g4&lt;br&gt;rj 45 : nao&lt;br&gt;ssd : 256gb m.2 pcie nvme&lt;br&gt;tela : 15.6 full hd antirreflexo&lt;br&gt;garantia com o fabricante : 01 ano&lt;br&gt;precisa de pilhas ou baterias : sim&lt;br&gt;as pilhas ou baterias estao inclusas : sim&lt;br&gt;tipo de bateria ou pilha : lithium ion&lt;br&gt;dimensao da embalagem a / p / l : 19.9mm / 236.5mm / 359.2mm&lt;br&gt;ean : 197532097674&lt;br&gt;anatel : 05788-17-04423&lt;br&gt;ncm : 84713019&lt;br&gt;peso do produto com embalagem : 1.65kg&lt;br&gt;part number: 82md0010br&lt;br&gt;modelo: ideapad 3 15itl6&lt;br&gt;garantia com o seller: 7 dia/dias&lt;br&gt;&lt;br&gt;&lt;strong&gt;especificações técnicas&lt;/strong&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;armazenamento:&lt;/strong&gt; ssd&lt;br&gt;&lt;strong&gt;cor:&lt;/strong&gt; cinza a?rtico&lt;br&gt;&lt;strong&gt;memoria:&lt;/strong&gt; 8gb ddr4 3200&lt;br&gt;&lt;strong&gt;memoria maxima:&lt;/strong&gt; 128gb&lt;br&gt;&lt;strong&gt;processador:&lt;/strong&gt; i3 1115g4&lt;br&gt;&lt;strong&gt;rj 45:&lt;/strong&gt; na?o&lt;br&gt;&lt;strong&gt;ssd:&lt;/strong&gt; 256gb m.2 pcie nvme&lt;br&gt;&lt;strong&gt;tela:&lt;/strong&gt; 15.6 full hd antirreflexo&lt;br&gt;&lt;strong&gt;garantia com o. Fabricante:&lt;/strong&gt; 01 ano&lt;br&gt;&lt;strong&gt;precisa de pilhas ou baterias?:&lt;/strong&gt; sim&lt;br&gt;&lt;strong&gt;as pilhas ou baterias estao inclusas?:&lt;/strong&gt; sim&lt;br&gt;&lt;strong&gt;tipo de bateria ou pilha:&lt;/strong&gt; lithium ion&lt;br&gt;&lt;strong&gt;dimensao da embalagem a. / p. / l.:&lt;/strong&gt; 19.9mm / 236.5mm / 359.2mm&lt;br&gt;&lt;strong&gt;ean:&lt;/strong&gt; 197532097674&lt;br&gt;&lt;strong&gt;anatel:&lt;/strong&gt; 05788 17 04423&lt;br&gt;&lt;strong&gt;ncm:&lt;/strong&gt; 84713019&lt;br&gt;&lt;strong&gt;peso do produto com embalagem:&lt;/strong&gt; 1.65kg&lt;br&gt;&lt;strong&gt;garantia com o. Seller::&lt;/strong&gt; 7 dia/dias&lt;br&gt;&lt;strong&gt;part number:&lt;/strong&gt; 82md0010br</t>
+  </si>
+  <si>
+    <t>R$2893.12</t>
+  </si>
+  <si>
+    <t>Notebook Positivo Vision C15, Intel Celeron, 4GB, SSD 240GB, Tela Lumina 15 HD, Linux, Cinza</t>
+  </si>
+  <si>
+    <t>Notebook positivo vision c15 intel® celeron® linux 4gb 240gb ssd lumina bar 15” hd - cinzadescubra a nova linha de notebooks positivo vision, perfeito para todas as suas atividades diárias! Desenvolvido com foco em praticidade, ele é ideal para tarefas leves como planilhas, edição de texto e navegação na web. Além disso, você poderá desfrutar de vídeo chamadas com sua câmera de alta definição. Suporta softwares de ensino e ferramentas básicas de trabalho, o positivo vision c15 garante que você esteja sempre pronto para alcançar seus objetivos. Não perca tempo, experimente o poder da nova linha positivo vision e eleve suas atividades diárias a um novo nível de eficiência.quem confia na qualidade do seu produto oferece garantia ampliada. O positivo vision c15 conta com 2 anos de garantia de fábrica.a positivo tecnologia inova no mercado ao lançar a primeira linha de notebooks do mundo com a tecnologia lumina bar, oferecendo uma experiência superior aos usuários. Os notebooks possuem barras de led com ajuste de 3 níveis de intensidade, proporcionando uma iluminação ideal para a webcam, resultando em uma captura de imagem excepcional mesmo em ambientes com pouca iluminação.tecla link exclusiva para conectar o celular ao notebook de uma forma mais simples. Sincronização de fotos, salvamento de imagens com facilidade, visualização de mensagens sms, status da bateria, entre outras funcionalidades com apenas um toque.mais agilidade com o smart touch, composto por 3 botões na lateral do vision c15 para você criar atalhos com os aplicativos que mais usa. Escolha o que cada um vai abrir para aumentar a agilidade das suas tarefas.além disso, as teclas serigrafadas são um destaque adicional. Com letras nítidas e visíveis, projetadas para facilitar a digitação e auxiliar você em todas as suas tarefas diárias. Agora você pode digitar com confiança, mesmo em ambientes com pouca luz.para acompanhar seu estilo de vida em movimento, o notebook é alimentado por uma bateria de longa duração, com uma média de 8 horas* de autonomia. Isso o torna ideal para atividades fora de casa, como levar para a escola ou faculdade, permitindo que você trabalhe ou estude sem se preocupar em encontrar uma tomada. Afinal, o vision c é leve, fino e portátil, pesando apenas 1,7 kg e espessura de 19,9 mm. Isso significa que você pode levá-lo para qualquer lugar com facilidade.&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>R$1439.0</t>
+  </si>
+  <si>
+    <t>Notebook Soyo Intel Dual Core N4020, 8GB DDR4, SSD 240GB, Tela 14.1 HD, Windows 10 Pro</t>
+  </si>
+  <si>
+    <t>Notebook soyo - processadores intel® dual core n4020 - ddr4nós somos a everex, comprometidos com o desenvolvimento de produtos de alta tecnologia e qualidade para você!alto desempenho, com os processadores intel® dual core n4020.os notebooks soyo, utilizam os processadores intel® dual core, que combinam desempenho, segurança e versatilidade em um design compacto e exclusivo.permite verificar e-mails, estudar, navegar nas redes sociais ou fazer streaming de música e filmes.plugue no seu monitor ou na tv, através de um cabo hdmi (não incluso).projetado para se adaptar ao escritório ou residência.ajuste flexível: ultracompacto e moderno, se encaixa perfeitamente em qualquer ambiente de trabalho ou residencial.desempenho de alto nívelprocessamento mais avançado: processadores intel® dual core de última geração, para que sua rotina seja mais eficiente.memória ddr4oferece mais desempenho e tecnologia: realize várias tarefas ao mesmo tempo com mais eficiência, com memória ddr4.alcance +,todos os diasconecte-se de qualquer lugar: portátil e leve, com fonte de energia bivolt, wi-fi integrado e tecnologia de última geração, que oferece velocidades mais rápidas e melhor desempenho, onde quer que você decida trabalhar, estudar ou se divertir!especificaçoes técnicas:marca:soyomodelo: notebook 14.1”tela: 14.1´´ high definition, alta resolução 1366x768bateria: íon de lítio 7.6v 5000mah / 38whprocessador: intel® dual core n4020memória ram: permite utilizar até 2 slots de 8gb cadasistema operacional:windows 10 professionaltipo de memória:sodimm ddr4expansão de memória:16 gbrede:10/100/1000 mbpswi-fi:802.11a/b/g/n/acfonte:bivolt 100-240v ac - 60hx / saída: 12vdc 2a 24wunidade optica: n?o possuigarantia: 12 mesespeso: 1,8 kg.dimensões: 18,9 x 33,26 x 22,35 cm( produto) (axlxc)homologacão: anatel&lt;br&gt;&lt;br&gt;&lt;strong&gt;especificações técnicas&lt;/strong&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;notebook 14´1 soyo:&lt;/strong&gt; notebook&lt;br&gt;&lt;strong&gt;portatil:&lt;/strong&gt; 1,8 kg&lt;br&gt;&lt;strong&gt;windows:&lt;/strong&gt; 10 pro - soyofessional&lt;br&gt;&lt;strong&gt;memoria:&lt;/strong&gt; ddr4&lt;br&gt;&lt;strong&gt;tela:&lt;/strong&gt; 14.1´´ high definition resolução 1366x768&lt;br&gt;&lt;strong&gt;cor:&lt;/strong&gt; cinza</t>
+  </si>
+  <si>
+    <t>R$1818.31</t>
+  </si>
+  <si>
     <t>Usado - Notebook Lenovo Ideapad S145, AMD Ryzen 5-3500u, 8GB, 1TB, Tela 15.6p, Windows 10 - 81v70004br - Seminovo</t>
   </si>
   <si>
     <t>Notebook Lenovo Ideapad S145-81V70004BR, cor prata, processador AMD Ryzen 5-3500U de 2.1GHz até 3.7GHz, memória RAM de 8GB DDR4, HD de 1TB, tela de 15.6 polegadas e sistema operacional Windows 10.&lt;br /&gt;&lt;br /&gt;Modelo/Referencia: S145-15API-81V70004BR&lt;br /&gt;&lt;br /&gt;Certificação: Recertificado&lt;br /&gt;&lt;br /&gt;Medalha: Bronze&lt;br /&gt;&lt;br /&gt;FICHA TÉCNICA:&lt;br /&gt;&lt;br /&gt;Sistema operacional: Windows 10 &lt;br /&gt;&lt;br /&gt;Processador: AMD Ryzen 5 3500U– Quad Care ( 8 Threads)- Frequência: 2.1GHz até 3.7GHz– 4 MB de Cache. &lt;br /&gt;&lt;br /&gt;Memoria: 8 GB RAM DDR4- 2400MHz&lt;br /&gt;&lt;br /&gt;Armazenamento: 1 TB&lt;br /&gt;&lt;br /&gt;Tela: 15.6” (1366x768)&lt;br /&gt;&lt;br /&gt;Placa Gráfica: Radeon RX Vega 8 Graphics - Integrada &lt;br /&gt;&lt;br /&gt;Conectividade: Bluetooth 4.2 – WiFi 1x1 802.11 AC&lt;br /&gt;&lt;br /&gt;Teclado: Teclado português Brasil (ABNT) – teclado independente numérico &lt;br /&gt;&lt;br /&gt;Observação: Este produto não possui leitor de CD/DVD&lt;br /&gt;&lt;br /&gt;Entrada: Entrada para fonte de alimentação, 1x USB 2.0, 2x USB 3.1Gen 1 , 1x HDMI, Leitor de cartões 4 em 1 (SD, SDHC, SDXC, MMC).&lt;br /&gt;&lt;br /&gt;Conteúdo da embalagem: Notebook, Fonte carregadora do notebook&lt;br /&gt;&lt;br /&gt;Observação: O produto não acompanha manual de instruções&lt;br /&gt;&lt;br /&gt;Garantia: 3 meses&lt;br /&gt;&lt;br /&gt;ATENÇÃO: VOCÊ ESTÁ ADQUIRINDO UM PRODUTO RECERTIFICADO!!!! &lt;br /&gt;&lt;br /&gt;O produto não acompanha caixa original, manual ou qualquer outro acessório. Apenas fonte de alimentação do notebook&lt;br /&gt;&lt;br /&gt;Entenda o que é um produto recertificado:&lt;br /&gt;&lt;br /&gt;É um produto que volta do mercado disponível para venda nas mesmas condições de um produto novo, com suas funcionalidades e características originais. O produto passa por um rigoroso processo de análise onde todas as suas funcionalidades são testadas e o produto liberado para venda. &lt;br /&gt;&lt;br /&gt;O produto recertificado é classificado em medalhas de acordo com o estado estético e superficial do produto, sendo: OURO, PRATA E BRONZE.&lt;br /&gt;&lt;br /&gt;Recertificado Bronze: Produto possuí riscos visíveis (nenhum risco apresentado é na tela do produto). Estes riscos não alteram o funcionamento do equipamento.&lt;br /&gt;&lt;br /&gt;Atenção: O Saldão da Informática não enviará fotos reais dos produtos para os clientes, como também não reservaremos produtos. As imagens exibidas são meramente ilustrativas.</t>
   </si>
   <si>
-    <t>Notebook Lenovo Ideapad 3i Celeron 4gb 500gb Linux 15.6´´ Prata</t>
-  </si>
-  <si>
-    <t>Notebook Lenovo IdeaPad 3i Celeron 4GB 500GB Linux 15.6´´ PrataLenovo IdeaPad 3i possui design leve e compacto. Com tela antirreflexo de 15.6´´ para mais conforto visual. Notebook ideal para todos os momentos. Conta com WiFi AC ultrarrá,pido e teclado numé,rico para trabalhar com mais agilidade nas suas planilhas. Possibilidade de utilizar o armazenamento de forma hí,brida e ganhar muito mais agilidade e produtividade no seu dia a dia. Com o slot disponí,vel, você, tem a opç,ã,o de adicionar um SSD NVMe M.2 para ter mais seguranç,a ao armazenar seus dados.CONECTIVIDADEBluetooth SimUSB (2.0) 1Leitor de Cartõ,es 4 em 1 (SD, SDHC, SDXC, MMC)USB (3.2) 2..</t>
-  </si>
-  <si>
-    <t>R$2935.9</t>
-  </si>
-  <si>
-    <t>Notebook Concórdia C3115, Intel Core I3-1115g4, 8GB, SSD 256GB, Tela 15.6 HD, Linux</t>
-  </si>
-  <si>
-    <t>&lt;strong&gt;notebook concórdia c3115 i3 1115g4 8gb ssd 256gb tela 15,6&amp;quot hd&amp;nbsplinux ?&amp;nbsp&lt;/strong&gt;??????apresentamos o mais recente lançamento no mundo dos notebooks: o modelo que combina versatilidade, confiabilidade, modernidade e tecnologia&amp;nbspde&amp;nbspponta! &lt;strong&gt;notebook concórdia c3115.&lt;/strong&gt; com recursos adaptáveis ao seu estilo de vida, oferecendo alta qualidade, durabilidade e desempenho consistente. Sua aparência elegante com resolução hd e recursos avançados é o combo perfeito para tornar a experiência digital a mais&amp;nbspexcepcional.</t>
-  </si>
-  <si>
-    <t>R$2781.0</t>
-  </si>
-  <si>
-    <t>Usado - Notebook Acer Aspire 5, Intel Core I3-1115g4, 8GB, SSD 512GB, Tela 14 Full HD, Windows 10 - A514-54-37m1 - Vitrine</t>
-  </si>
-  <si>
-    <t>ATENÇÃO: VOCÊ ESTÁ ADQUIRINDO UM PRODUTO RECERTIFICADO!!!! &lt;br /&gt;&lt;br /&gt;O produto acompanha a caixa original de fábrica, não acompanha manual de instruções ou qualquer outro acessório  &lt;br /&gt;&lt;br /&gt;Entenda o que é um produto recertificado:&lt;br /&gt;&lt;br /&gt;É um produto que volta do mercado disponível para venda nas mesmas condições de um produto novo, com suas funcionalidades e características originais. O produto passa por um rigoroso processo de análise onde todas as suas funcionalidades são testadas e o produto liberado para venda. &lt;br /&gt;O produto recertificado é classificado em medalhas de acordo com o estado estético e superficial do produto, sendo: OURO, PRATA E BRONZE.&lt;br /&gt;&lt;br /&gt;Recertificado Ouro: Produto está em ótimas condições estéticas, similar a um produto novo.&lt;br /&gt;&lt;br /&gt;Atenção: O Saldão da Informática não enviará fotos reais dos produtos para os clientes, como também não reservaremos produtos. As imagens exibidas são meramente ilustrativas.&lt;br /&gt;&lt;br /&gt;Notebook Acer Aspire 5 A514-54-37M1, cor dourado, processador de 11º geração Intel Core i3-1115G4 de 3.00GHz até 4.10GHz, memória RAM de 8GB DDR4, SSD de 512GB, tela de 14 polegadas e sistema operacional Windows 10&lt;br /&gt;&lt;br /&gt;Modelo/Referencia: A514-54-37M1&lt;br /&gt;&lt;br /&gt;Certificação: Recertificado&lt;br /&gt;&lt;br /&gt;Medalha: Ouro&lt;br /&gt;&lt;br /&gt;FICHA TÉCNICA:&lt;br /&gt;&lt;br /&gt;Sistema operacional: Windows 10 Home 64-bits&lt;br /&gt;&lt;br /&gt;Processador: Intel Core i3-1115G4  - Dual Core (4 Threads) - Frequência: até 4.10 GHz - 6 MB  Smart Cache&lt;br /&gt;&lt;br /&gt;Memoria: 8 GB RAM (4 GB Soldada + 4 GB Módulo) - DDR4-2666 Mhz - Expansível até 20 GB&lt;br /&gt;&lt;br /&gt;Armazenamento: 512 GB SDD PCIe 3.0 x4 NVMe (M.2 2280)&lt;br /&gt;&lt;br /&gt;Tela: 14” IPS FHD (1920 x 1080)&lt;br /&gt;&lt;br /&gt;Gráfico: Intel UHD Graphics&lt;br /&gt;&lt;br /&gt;Conectividade: Bluetooth 5.0 - Suporte a redes com frequência de (2.4 GHz e 5 GHz) - Wireless IEE 802.11a/b/g/n/ac&lt;br /&gt;&lt;br /&gt;Teclado: português do Brasil (ABNT2)&lt;br /&gt;&lt;br /&gt;Observação: Este produto não possui leitor de CD/DVD&lt;br /&gt;&lt;br /&gt;Upgrades: Slot livre SATA 3, compatível com HDD ou SSD SATA 3 2.5” de até 2TB&lt;br /&gt;&lt;br /&gt;Entrada: Entrada para fonte de alimentação, Porta (RJ-45), Porta HDMI 2.0, 2x Portas USB 3.2 Gen 1 (5 Gbps), Porta USB Type-C 3.2 Gen 1 (5 Gbps), Porta USB 2.0&lt;br /&gt;&lt;br /&gt;Conteúdo da embalagem: Notebook, Fonte carregadora do notebook&lt;br /&gt;&lt;br /&gt;Observação: O produto não acompanha manual de instruções&lt;br /&gt;&lt;br /&gt;Garantia: 3 meses</t>
-  </si>
-  <si>
-    <t>R$2665.56</t>
-  </si>
-  <si>
-    <t>Notebook Concórdia C3115, Intel Core I3-1115g4, 8GB, SSD 512GB, Tela 15.6 HD, Linux</t>
-  </si>
-  <si>
-    <t>&lt;strong&gt;notebook concórdia c3115 i3 1115g4 8gb ssd 512gb tela 15,6&amp;quot hd linux&amp;nbsp &amp;nbsp&lt;/strong&gt;apresentamos o mais recente lançamento no mundo dos notebooks: o modelo que combina versatilidade, confiabilidade, modernidade e tecnologia&amp;nbspde&amp;nbspponta! &lt;strong&gt;notebook concórdia c3115.&lt;/strong&gt; com recursos adaptáveis ao seu estilo de vida, oferecendo alta qualidade, durabilidade e desempenho consistente. Sua aparência elegante com resolução hd e recursos avançados é o combo perfeito para tornar a experiência digital a mais&amp;nbspexcepcional.</t>
-  </si>
-  <si>
-    <t>R$2839.0</t>
-  </si>
-  <si>
-    <t>Usado - Notebook Lenovo Thinkpad T480 Core I5 8350u, 8GB RAM, SSD 256GB, Windows 10 Pro</t>
-  </si>
-  <si>
-    <t>A agasus oferece ao mercado a comercialização de computadores, notebooks, servidores, monitores, smartphones e periféricos seminovos das marcas líderes com o objetivo de levar tecnologia e preço acessível a todos os seus clientes.          informações principais:    - marca: lenovo       - sku: p003680-v1    - modelo: thinkpad t480    - marca processador: intel    - placa gráfica: uhd graphics 620    -  linha processador: core i5 8350ugº    - memória ram: 8gb    - capacidade hd: 500gb    - sistema operativo: windows     - versão do sistema operacional: 10 pro    - tamanho da tela: 14”    -  resolução da tela: ?1920 x 1080 pixels    - tipo de bateria: íon de lítio    - mais informações: consulte ficha técnica do anuncio ou entre em contato         itens testados:    - teclado,    - webcam,    - audio (microfone, saída, entrada de fone),    - fonte,    - tela,    - rede cabeada e wi-fi,    - portas usb,    - saidas de vídeo,    - slots de memória e hd.         conteúdo da embalagem:    - 1x notebook     - 1x fonte (original ou genérica),    - não acompanha manual de instruções         obs sobre a bateria:    a autonomia da bateria poderá variar dependendo da configuração, dos aplicativos carregados, das configurações de energia e dos recursos utilizados. Os equipamentos podem trazer baterias proprio ou genéricas, testadas e revisadas por nossa equipe técnica. Ressaltamos que a bateria poderá não apresentar a mesma vida útil de um produto fechado.         garantia:     ****6 meses de garantia diretamente com a nossa loja agasus***   &lt;br&gt;&lt;br&gt;&lt;strong&gt;especificações técnicas&lt;/strong&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;conteúdo da embalagem:&lt;/strong&gt; 1x notebook1x fonte (original ou genérica),&lt;br&gt;&lt;strong&gt;processador:&lt;/strong&gt; intel core i5 8350u&lt;br&gt;&lt;strong&gt;código anatel:&lt;/strong&gt; 010430802198&lt;br&gt;&lt;strong&gt;garantia:&lt;/strong&gt; 6 meses&lt;br&gt;&lt;strong&gt;conectividade:&lt;/strong&gt; wifi&lt;br&gt;&lt;strong&gt;memória ram:&lt;/strong&gt; 8gb&lt;br&gt;&lt;strong&gt;modelo:&lt;/strong&gt; thinkpad t480&lt;br&gt;&lt;strong&gt;ean:&lt;/strong&gt; 0192330094382&lt;br&gt;&lt;strong&gt;correios width:&lt;/strong&gt; 48&lt;br&gt;&lt;strong&gt;categories:&lt;/strong&gt; [493, 494, 495, 496, 498, 499, 500, 501, 502, 504, 2, 539]&lt;br&gt;&lt;strong&gt;tipo de teclado:&lt;/strong&gt; abnt&lt;br&gt;&lt;strong&gt;estado:&lt;/strong&gt; seminovo&lt;br&gt;&lt;strong&gt;special price from date:&lt;/strong&gt; 2022-01-06 00:00:00&lt;br&gt;&lt;strong&gt;condição:&lt;/strong&gt; muito bom&lt;br&gt;&lt;strong&gt;tamanho da tela:&lt;/strong&gt; 14´´&lt;br&gt;&lt;strong&gt;correios height:&lt;/strong&gt; 27&lt;br&gt;&lt;strong&gt;sistema operacional:&lt;/strong&gt; windows 10 pro&lt;br&gt;&lt;strong&gt;memória interna:&lt;/strong&gt; 256gb</t>
-  </si>
-  <si>
-    <t>Usado - Notebook Acer Aspire 5 A514-54-52ty, Intel Core I5-1135g7, 8GB, SSD 256GB, Tela 14 Polegadas, Windows 10 - Seminovo</t>
-  </si>
-  <si>
-    <t>Notebook Acer Aspire 5 A514-54-52Ty, processador de 11º geração Intel Core i5-1135G7 de 2.40GHz até 4.20GHz, memória RAM de 8GB DDR4, SSD de 256GB, tela de 14 polegadas e sistema operacional Windows 10&lt;br /&gt;&lt;br /&gt;Modelo/Referencia: A514-54-52Ty&lt;br /&gt;&lt;br /&gt;Certificação: Recertificado&lt;br /&gt;&lt;br /&gt;Medalha: Bronze&lt;br /&gt;&lt;br /&gt;FICHA TÉCNICA:&lt;br /&gt;Sistema operacional: Windows 11 home 64- bits&lt;br /&gt;&lt;br /&gt;Processador: Intel Core i5– 1135G7- Quad Core (8 threads) – Frequência: até 4.20 GHz - 8 MB Intel de SmartCache &lt;br /&gt;&lt;br /&gt;Memoria: 8 GB RAM DDR4 (4GB Soldada + 4GB Módulo) - DDR4-2666MHz – Expansível até 20GB&lt;br /&gt;&lt;br /&gt;Armazenamento: 256 GB SSD PCIe 3.0 x4 NVMe (M.2 2280)&lt;br /&gt;&lt;br /&gt;Tela: 14” IPS FHD (1920 x 1080)&lt;br /&gt;&lt;br /&gt;Placa Gráfica: Intel Iris Xe Graphics com memória compartilhada com a memória RAM&lt;br /&gt; &lt;br /&gt;Conectividade: Bluetooth 5.0 - Suporte a redes com frequência (2.4 GHz e 5 GHz) – Wireless LAN 802.11a/b/g/n/ac&lt;br /&gt;&lt;br /&gt;Teclado: português do Brasil (ABNT2) – Multi-gestual com dois botões- Teclado numérico independente&lt;br /&gt;&lt;br /&gt;Observação: Este produto não possui leitor de CD/DVD&lt;br /&gt;&lt;br /&gt;Upgrades: Slot ocupado M.2 2280, compatível com unidades SSD PCIe 3.0 NVMe x2/x4 de até 512 GB - Slot livre SATA 3, compatível com HDD ou SSD SATA 3 2.5” de até 2TB&lt;br /&gt;&lt;br /&gt;Entrada: Entrada para fonte de alimentação, Porta Ethernet (RJ-45), 2x portas USB 3.2 Gen 1 (5 Gbps), Entrada combo para alto falante e fone de ouvido, Porta USB Type-C® 3.2 Gen 1 (5 Gbps), Porta USB 2.0, Porta HDMI®2.0&lt;br /&gt;&lt;br /&gt;Conteúdo da embalagem: Notebook, Fonte carregadora do notebook&lt;br /&gt;&lt;br /&gt;Observação: O produto não acompanha manual de instruções&lt;br /&gt;&lt;br /&gt;Garantia: 3 meses&lt;br /&gt;&lt;br /&gt;ATENÇÃO: VOCÊ ESTÁ ADQUIRINDO UM PRODUTO RECERTIFICADO!!!! &lt;br /&gt;&lt;br /&gt;O produto acompanha a caixa original de fábrica, não acompanha manual de instruções ou qualquer outro acessório &lt;br /&gt;&lt;br /&gt;Entenda o que é um produto recertificado:&lt;br /&gt;&lt;br /&gt;É um produto que volta do mercado disponível para venda nas mesmas condições de um produto novo, com suas funcionalidades e características originais. O produto passa por um rigoroso processo de análise onde todas as suas funcionalidades são testadas e o produto liberado para venda. &lt;br /&gt;&lt;br /&gt;O produto recertificado é classificado em medalhas de acordo com o estado estético e superficial do produto, sendo: OURO, PRATA E BRONZE.&lt;br /&gt;&lt;br /&gt;Recertificado Ouro: Produto está em ótimas condições estéticas, similar a um produto novo. &lt;br /&gt;&lt;br /&gt;Recertificado Prata: Produto tem características similares ao Ouro, pode apresentar mínimos riscos quase imperceptíveis. &lt;br /&gt;&lt;br /&gt;Recertificado Bronze: Produto possuí riscos visíveis (nenhum risco apresentado é na tela do produto). Estes riscos não alteram o funcionamento do equipamento.&lt;br /&gt;&lt;br /&gt;Atenção: O Saldão da Informática não enviará fotos reais dos produtos para os clientes, como também não reservaremos produtos. As imagens exibidas são meramente ilustrativas.</t>
-  </si>
-  <si>
-    <t>Notebook Lenovo Ideapad 3 15itl6, Intel I3-1115G4, 8GB, SSD 256GB, Tela de 15.6 Polegadas FULLHD, Windows 11 Home</t>
-  </si>
-  <si>
-    <t>Notebook lenovo ideapad 3 15itl6 15.6 fhd/ i3-1115g4/ 8gb/ 256gb ssd/ win 11 home&lt;br&gt;&lt;br&gt;armazenamento : ssd&lt;br&gt;cor : cinza artico&lt;br&gt;memoria : 8gb ddr4 3200&lt;br&gt;memoria maxima : 128gb&lt;br&gt;processador : i3-1115g4&lt;br&gt;rj 45 : nao&lt;br&gt;ssd : 256gb m.2 pcie nvme&lt;br&gt;tela : 15.6 full hd antirreflexo&lt;br&gt;garantia com o fabricante : 01 ano&lt;br&gt;precisa de pilhas ou baterias : sim&lt;br&gt;as pilhas ou baterias estao inclusas : sim&lt;br&gt;tipo de bateria ou pilha : lithium ion&lt;br&gt;dimensao da embalagem a / p / l : 19.9mm / 236.5mm / 359.2mm&lt;br&gt;ean : 197532097674&lt;br&gt;anatel : 05788-17-04423&lt;br&gt;ncm : 84713019&lt;br&gt;peso do produto com embalagem : 1.65kg&lt;br&gt;part number: 82md0010br&lt;br&gt;modelo: ideapad 3 15itl6&lt;br&gt;garantia com o seller: 7 dia/dias&lt;br&gt;&lt;br&gt;&lt;strong&gt;especificações técnicas&lt;/strong&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;armazenamento:&lt;/strong&gt; ssd&lt;br&gt;&lt;strong&gt;cor:&lt;/strong&gt; cinza a?rtico&lt;br&gt;&lt;strong&gt;memoria:&lt;/strong&gt; 8gb ddr4 3200&lt;br&gt;&lt;strong&gt;memoria maxima:&lt;/strong&gt; 128gb&lt;br&gt;&lt;strong&gt;processador:&lt;/strong&gt; i3 1115g4&lt;br&gt;&lt;strong&gt;rj 45:&lt;/strong&gt; na?o&lt;br&gt;&lt;strong&gt;ssd:&lt;/strong&gt; 256gb m.2 pcie nvme&lt;br&gt;&lt;strong&gt;tela:&lt;/strong&gt; 15.6 full hd antirreflexo&lt;br&gt;&lt;strong&gt;garantia com o. Fabricante:&lt;/strong&gt; 01 ano&lt;br&gt;&lt;strong&gt;precisa de pilhas ou baterias?:&lt;/strong&gt; sim&lt;br&gt;&lt;strong&gt;as pilhas ou baterias estao inclusas?:&lt;/strong&gt; sim&lt;br&gt;&lt;strong&gt;tipo de bateria ou pilha:&lt;/strong&gt; lithium ion&lt;br&gt;&lt;strong&gt;dimensao da embalagem a. / p. / l.:&lt;/strong&gt; 19.9mm / 236.5mm / 359.2mm&lt;br&gt;&lt;strong&gt;ean:&lt;/strong&gt; 197532097674&lt;br&gt;&lt;strong&gt;anatel:&lt;/strong&gt; 05788 17 04423&lt;br&gt;&lt;strong&gt;ncm:&lt;/strong&gt; 84713019&lt;br&gt;&lt;strong&gt;peso do produto com embalagem:&lt;/strong&gt; 1.65kg&lt;br&gt;&lt;strong&gt;garantia com o. Seller::&lt;/strong&gt; 7 dia/dias&lt;br&gt;&lt;strong&gt;part number:&lt;/strong&gt; 82md0010br</t>
-  </si>
-  <si>
-    <t>R$2893.12</t>
-  </si>
-  <si>
-    <t>Notebook Positivo Vision C15, Intel Celeron, 4GB, SSD 240GB, Tela Lumina 15 HD, Linux, Cinza</t>
-  </si>
-  <si>
-    <t>Notebook positivo vision c15 intel® celeron® linux 4gb 240gb ssd lumina bar 15” hd - cinzadescubra a nova linha de notebooks positivo vision, perfeito para todas as suas atividades diárias! Desenvolvido com foco em praticidade, ele é ideal para tarefas leves como planilhas, edição de texto e navegação na web. Além disso, você poderá desfrutar de vídeo chamadas com sua câmera de alta definição. Suporta softwares de ensino e ferramentas básicas de trabalho, o positivo vision c15 garante que você esteja sempre pronto para alcançar seus objetivos. Não perca tempo, experimente o poder da nova linha positivo vision e eleve suas atividades diárias a um novo nível de eficiência.quem confia na qualidade do seu produto oferece garantia ampliada. O positivo vision c15 conta com 2 anos de garantia de fábrica.a positivo tecnologia inova no mercado ao lançar a primeira linha de notebooks do mundo com a tecnologia lumina bar, oferecendo uma experiência superior aos usuários. Os notebooks possuem barras de led com ajuste de 3 níveis de intensidade, proporcionando uma iluminação ideal para a webcam, resultando em uma captura de imagem excepcional mesmo em ambientes com pouca iluminação.tecla link exclusiva para conectar o celular ao notebook de uma forma mais simples. Sincronização de fotos, salvamento de imagens com facilidade, visualização de mensagens sms, status da bateria, entre outras funcionalidades com apenas um toque.mais agilidade com o smart touch, composto por 3 botões na lateral do vision c15 para você criar atalhos com os aplicativos que mais usa. Escolha o que cada um vai abrir para aumentar a agilidade das suas tarefas.além disso, as teclas serigrafadas são um destaque adicional. Com letras nítidas e visíveis, projetadas para facilitar a digitação e auxiliar você em todas as suas tarefas diárias. Agora você pode digitar com confiança, mesmo em ambientes com pouca luz.para acompanhar seu estilo de vida em movimento, o notebook é alimentado por uma bateria de longa duração, com uma média de 8 horas* de autonomia. Isso o torna ideal para atividades fora de casa, como levar para a escola ou faculdade, permitindo que você trabalhe ou estude sem se preocupar em encontrar uma tomada. Afinal, o vision c é leve, fino e portátil, pesando apenas 1,7 kg e espessura de 19,9 mm. Isso significa que você pode levá-lo para qualquer lugar com facilidade.&lt;br&gt;</t>
-  </si>
-  <si>
-    <t>R$1439.0</t>
-  </si>
-  <si>
-    <t>Notebook Soyo Intel Dual Core N4020, 8GB DDR4, SSD 240GB, Tela 14.1 HD, Windows 10 Pro</t>
-  </si>
-  <si>
-    <t>Notebook soyo - processadores intel® dual core n4020 - ddr4nós somos a everex, comprometidos com o desenvolvimento de produtos de alta tecnologia e qualidade para você!alto desempenho, com os processadores intel® dual core n4020.os notebooks soyo, utilizam os processadores intel® dual core, que combinam desempenho, segurança e versatilidade em um design compacto e exclusivo.permite verificar e-mails, estudar, navegar nas redes sociais ou fazer streaming de música e filmes.plugue no seu monitor ou na tv, através de um cabo hdmi (não incluso).projetado para se adaptar ao escritório ou residência.ajuste flexível: ultracompacto e moderno, se encaixa perfeitamente em qualquer ambiente de trabalho ou residencial.desempenho de alto nívelprocessamento mais avançado: processadores intel® dual core de última geração, para que sua rotina seja mais eficiente.memória ddr4oferece mais desempenho e tecnologia: realize várias tarefas ao mesmo tempo com mais eficiência, com memória ddr4.alcance +,todos os diasconecte-se de qualquer lugar: portátil e leve, com fonte de energia bivolt, wi-fi integrado e tecnologia de última geração, que oferece velocidades mais rápidas e melhor desempenho, onde quer que você decida trabalhar, estudar ou se divertir!especificaçoes técnicas:marca:soyomodelo: notebook 14.1”tela: 14.1´´ high definition, alta resolução 1366x768bateria: íon de lítio 7.6v 5000mah / 38whprocessador: intel® dual core n4020memória ram: permite utilizar até 2 slots de 8gb cadasistema operacional:windows 10 professionaltipo de memória:sodimm ddr4expansão de memória:16 gbrede:10/100/1000 mbpswi-fi:802.11a/b/g/n/acfonte:bivolt 100-240v ac - 60hx / saída: 12vdc 2a 24wunidade optica: n?o possuigarantia: 12 mesespeso: 1,8 kg.dimensões: 18,9 x 33,26 x 22,35 cm( produto) (axlxc)homologacão: anatel&lt;br&gt;&lt;br&gt;&lt;strong&gt;especificações técnicas&lt;/strong&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;notebook 14´1 soyo:&lt;/strong&gt; notebook&lt;br&gt;&lt;strong&gt;portatil:&lt;/strong&gt; 1,8 kg&lt;br&gt;&lt;strong&gt;windows:&lt;/strong&gt; 10 pro - soyofessional&lt;br&gt;&lt;strong&gt;memoria:&lt;/strong&gt; ddr4&lt;br&gt;&lt;strong&gt;tela:&lt;/strong&gt; 14.1´´ high definition resolução 1366x768&lt;br&gt;&lt;strong&gt;cor:&lt;/strong&gt; cinza</t>
-  </si>
-  <si>
-    <t>R$1818.31</t>
-  </si>
-  <si>
     <t>Compre Notebook M11w Prime 2 Em 1 Windows 11 Home E Ganhe Teclado + Mouse Sem Fio 2,4 Ghz 1600 Dpi Usb Preto  Tc202k</t>
   </si>
   <si>
@@ -1925,33 +1916,6 @@
   </si>
   <si>
     <t>R$1725.8</t>
-  </si>
-  <si>
-    <t>Notebook Positivo Vision C15 Intel Celeron Dual Core, 4GB RAM, 128GB Emmc, Tela 15 Polegadas HD, Lumina Bar - Cinza</t>
-  </si>
-  <si>
-    <t>Descrição &lt;br /&gt;tecla link &lt;br /&gt;tecla exclusiva para conectar o celular &lt;br /&gt;ao notebook de uma forma mais &lt;br /&gt;simples. Sincronização de fotos, &lt;br /&gt;transferência de imagens com facilidade, &lt;br /&gt;visualização de mensagens sms, status &lt;br /&gt;da bateria, entre outras funcionalidades &lt;br /&gt;com apenas um toque &lt;br /&gt;lumina bar &lt;br /&gt;a positivo inova no mercado ao lançar a &lt;br /&gt;primeira linha de notebooks do mundo com &lt;br /&gt;a tecnologia lumina bar, oferecendo uma &lt;br /&gt;experiência superior aos usuários. Esses &lt;br /&gt;notebooks possuem barras de led com &lt;br /&gt;ajuste de 3 níveis de intensidade, &lt;br /&gt;proporcionando uma iluminação ideal para a &lt;br /&gt;webcam, resultando em uma captura de &lt;br /&gt;imagem excepcional mesmo em ambientes &lt;br /&gt;com pouca iluminação. &lt;br /&gt;vision para qualquer lugar &lt;br /&gt;o design moderno com linhas mais &lt;br /&gt;retas e sutis. Produto com tela hd de &lt;br /&gt;15.6?? Combinada com a leveza do &lt;br /&gt;aparelho, somente 1,7kg e espessura &lt;br /&gt;de 19,9 mm. Fácil de levar na mochila &lt;br /&gt;ou na bolsa, acompanha para &lt;br /&gt;qualquer ambiente, lindo onde estiver. &lt;br /&gt;sistema fanless &lt;br /&gt;o positivo vision c 15 possui um &lt;br /&gt;sistema sem aquecimento e sem ruídos &lt;br /&gt;para um uso sem distrações. Tecnologia &lt;br /&gt;que faz com que as máquinas não &lt;br /&gt;precisem de ventoinhas para a &lt;br /&gt;refrigeração. &lt;br /&gt;armazenamento expansível com slot de ssd ou hd disponível &lt;br /&gt;caso precise de mais &lt;br /&gt;armazenamento, o positivo vision &lt;br /&gt;c15 conta com um slot disponível &lt;br /&gt;para um upgrade no seu &lt;br /&gt;notebook. &lt;br /&gt;smart touch &lt;br /&gt;o positivo vision c15 traz o exclusivo smart &lt;br /&gt;touch, que consiste em uma barra touch &lt;br /&gt;com 3 ícones retro-iluminados com funções &lt;br /&gt;customizáveis, através do software de &lt;br /&gt;customização integrado no produto, &lt;br /&gt;possibilitando mais liberdade ao usuário &lt;br /&gt;para criar acessos rápidos a aplicativos ou &lt;br /&gt;sites favoritos! &lt;br /&gt;especificações técnicas &lt;br /&gt;código de homologação anatel: 06446-16-04076 &lt;br /&gt;processador &lt;br /&gt;fabricante do processador: intel® &lt;br /&gt;linha do processador: celeron® dual core &lt;br /&gt;modelo do processador: n4020 &lt;br /&gt;arquitetura do processador :64 bits</t>
-  </si>
-  <si>
-    <t>R$1259.0</t>
-  </si>
-  <si>
-    <t>Notebook Lenovo Ideapad 1i I3-1215u, 4GB RAM, SSD 256GB Nvme, 15.6 polegadas, Windows 11, 82vy000tbr</t>
-  </si>
-  <si>
-    <t>O ideapad&amp;trade, 1i eleva sua categoria de notebooks com um processador intel&amp;reg, super eficiente de 12&amp;ordf, gera&amp;ccedil,&amp;atilde,o em um chassi fino e compacto de 17,9 mm que facilita a multitarefa enquanto aumenta a efici&amp;ecirc,ncia energ&amp;eacute,tica com at&amp;eacute, 11 horas de dura&amp;ccedil,&amp;atilde,o da bateria e carga r&amp;aacute,pida. Obtenha aproveitamento m&amp;aacute,ximo da tela com as molduras super estreitas, alto-falantes dolby audio&amp;trade, e flip to start para inicializa&amp;ccedil,&amp;atilde,o instant&amp;acirc,nea. Otimize sua experi&amp;ecirc,ncia de chamada de v&amp;iacute,deo com uma c&amp;acirc,mera de 1mp que vem com um obturador de privacidade para afastar os olhos curiosos e o cancelamento de ru&amp;iacute,do inteligente para cortar o ru&amp;iacute,do de fundo no seu microfone.dois alto-falantes dolby audio&amp;trade, tamb&amp;eacute,m transmitem &amp;aacute,udio rico e robusto. Com um processador intel&amp;reg, de 12&amp;ordf, gera&amp;ccedil,&amp;atilde,o em seu laptop, voc&amp;ecirc, pode, sem esfor&amp;ccedil,o, realizar multiplas tarefas simultaneamente, comunicar-se facilmente com amigos e familiares e levar todo o seu entretenimento favorito para onde for. Mantenha-se produtivo em qualquer lugar com uma longa vida &amp;uacute,til da bateria com apenas uma carga. Em seguida, recarregue sua bateria em 15 minutos com um r&amp;aacute,pido impulso de carga para us&amp;aacute,-lo por 2 horas. Sem wifi? N&amp;atilde,o se preocupe, com a op&amp;ccedil,&amp;atilde,o de armazenamento r&amp;aacute,pido ssd, voc&amp;ecirc, pode continuar acessando e editando arquivos offline.marca: lenovonome do produto: ideapad 1inome do modelo: ideapad 1 15iau7part number: 82vy000tbrcor: cloud greycategoria: notebooksegmento: ultrafinoprocessador: intel core i3-1215u (cores / threads) 6 cores / 8 threads (cache) 6mb (clock) 1.2ghz (4.4ghz max turbo)mem&amp;oacute,ria ram: 4gbdetalhe mem&amp;oacute,ria ram: 4gb soldado ddr4-3200barramento da mem&amp;oacute,ria: 3200mhzarmazenamento (ssd): ssd de 256gb pcie nvme m.2m&amp;aacute,xima expans&amp;atilde,o de armazenamento: um slot, at&amp;eacute, 1tb m.2 2242 ssd ou 512gb m.2 2280 ssdchipset: intel socplaca de v&amp;iacute,deo: intel uhd graphicssistema operacional: windows 11tela: 15.6´´resolu&amp;ccedil,&amp;atilde,o de tela: hd (1366 x 768) antirreflexoformato de tela: 16:9 widescreenbrilho da tela: 220 nitstipo de painel: tnabertura de tela: 169&amp;deg,wi-fi: wifi 2x2 acdrive &amp;oacute,ptico (leitor dvd): n&amp;atilde,ocamera: hd-720p com privacidademicrofone: microfone tipo dual arraybluetooth: bluetooth 5.0sintonizador de tv: n&amp;atilde,oaudio (alto-falantes): alto-falantes com certifica&amp;ccedil,&amp;atilde,o dolby&amp;reg, audio (2 x 1.5w)audio (porta combo para headset/headphone): 1usb (3.2) gen 1: 1usb (2.0): 1usb tipo c (3.2) gen 1: 1kensington lock: n&amp;atilde,oleitor de cart&amp;otilde,es: leitor de cart&amp;otilde,es 4 em 1 (sd, sdhc, sdxc, mmc)sa&amp;iacute,da hdmi ( 1.4b): 1sa&amp;iacute,da vga: n&amp;atilde,orj-45: n&amp;atilde,olan / rede: n&amp;atilde,oleitor de impress&amp;atilde,o digital: n&amp;atilde,optp touchpad: 1teclado padr&amp;atilde,o brasileiro: 1teclado backlit led: n&amp;atilde,oteclado num&amp;eacute,rico: 1bateria: 3 c&amp;eacute,lulas 42whbateria remov&amp;iacute,vel: n&amp;atilde,oadaptador ac: 65wdimens&amp;otilde,es produto aprox. Largura: 360.2 mmdimens&amp;otilde,es produto aprox. Profundidade: 236 mmdimens&amp;otilde,es produto aprox. Altura: 17.9mmpeso produto aprox.: 1.63 kgdimens&amp;otilde,es embalagem aprox. Largura: 533 mmdimens&amp;otilde,es embalagem aprox. Profundidade: 333 mmdimens&amp;otilde,es embalagem aprox. Altura: 74 mmpeso embalagem aprox.: 2.42 kg&lt;br&gt;&lt;br&gt;&lt;strong&gt;especificações técnicas&lt;/strong&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;anatel:&lt;/strong&gt; 057881704423&lt;br&gt;&lt;strong&gt;processador:&lt;/strong&gt; core i3&lt;br&gt;&lt;strong&gt;marca do processador:&lt;/strong&gt; intel&lt;br&gt;&lt;strong&gt;nome do sistema operacional:&lt;/strong&gt; windows 11&lt;br&gt;&lt;strong&gt;memória ram:&lt;/strong&gt; 4gb&lt;br&gt;&lt;strong&gt;capacidade do ssd:&lt;/strong&gt; 256gb&lt;br&gt;&lt;strong&gt;tela:&lt;/strong&gt; 15.6´´ hd (1366 x. 768)&lt;br&gt;&lt;strong&gt;cor:&lt;/strong&gt; cloud grey</t>
-  </si>
-  <si>
-    <t>R$2854.0</t>
-  </si>
-  <si>
-    <t>Notebook Positivo C4128ei Celeron N3350, 4GB DDR4, SSD 480GB, Tela 14 Polegadas, HD Led, Windows 10 Pro</t>
-  </si>
-  <si>
-    <t>&lt;strong&gt;notebook positivo motion i341tbi&amp;nbspintel core i3-7100u.&lt;/strong&gt;o notebook positivo motion i tem design moderno e fino, ele disponibiliza o máximo em entretenimento e diversão! O positivo motion série i, é o notebook para quem deseja um equipamento elegante e funcional. O notebook positivo motion i conta com processador intel 7100u de baixo consumo de energia, intel graphics que faz sua experiência visual ser incrível em alta definição, a memória ddr4 traz mais performance e menor consumo de bateria, além de tudo, também tem aplicativos para escritório (editor de texto, planilha eletrônica, gerenciador de apresentações, editor de imagens e editor html) e antivírus grátis. Seu touchpad teve suas dimensões e funcionalidades atualizadas! Basta um simples gesto para ativar o teclado numérico. Seus filmes, músicas e vídeos favoritos estão ainda mais perto! O teclado conta com teclas de acesso rápido netflix*, deezer* e youtube, que são entretenimento garantido ao simples toque de um botão. Trabalhe e divirta-se o dia todo, sem precisar estar conectado a tomada, graças à bateria com mais de 5 horas de duração.&lt;strong&gt;especificações:&lt;/strong&gt;marca: positivomodelo: motion&amp;nbspi341tbipart number: 3011794, 3011873cor: cinza escurowebcam, com webcam coverprocessador:&amp;nbspintel core i3-7100u (3m de cache, 2,40 ghz)sistema operacional: windows 10 pro, 64bits em português brasilmemória:&amp;nbspram 4 gbtipo de memória: on-board ddr4armazenamento: hd 1tb 5400rpmleitor de cartões micro sd, suporta os padrões sdhc e sdxctela:&amp;nbsplcd 14&amp;#39&amp;nbspwidescreen led&amp;nbspresolução 1366 x 768 de alta definição (hd)vídeo:&amp;nbspprocessamento de vídeo integrado intel graphicsáudio:&amp;nbspáudio de alta definição (hd áudio) |&amp;nbspmicrofone e alto-falantes estéreo embutidosconectividade:&amp;nbsprede sem fio ieee 802.11 b/g/ntm |&amp;nbspbluetooth 4.0conexão:1x usb 3.1 gen 12x usb 2.0, 1x hdmi1x áudio (para microfone e fone de ouvido)1x dc-in (carregador)teclado:&amp;nbspportuguês-brasil (84 teclas + tecla power + 3 teclas de acesso rápido)mouse:&amp;nbsptipo touchpad, com toque múltiplo, 2 botões integrados e função de teclado numéricocarregador:&amp;nbsp100~240v automáticobateria:&amp;nbsp38wh - integradadimensões do produto (lxpxa): 32,9cm |&amp;nbsp21,5cm |&amp;nbsp1,9cm | peso: 1,6kg&lt;br&gt;&lt;br&gt;&lt;strong&gt;especificações técnicas&lt;/strong&gt;&lt;br&gt;notebook positivo motion i341tbiintel core i3-7100u | entrega para todo o brasil</t>
-  </si>
-  <si>
-    <t>R$2322.0</t>
   </si>
   <si>
     <t>Notebook Multilaser Ultra, Intel Celeron, 4GB RAM, SSD 240GB, Tela 15.6 FULL HD, Windows 11 + Microsoft 365</t>
@@ -2307,7 +2271,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F223"/>
+  <dimension ref="A1:F215"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2725,32 +2689,32 @@
         <v>103</v>
       </c>
       <c r="C32" t="s">
-        <v>104</v>
+        <v>33</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" t="s">
+        <v>104</v>
+      </c>
+      <c r="B33" t="s">
         <v>105</v>
       </c>
-      <c r="B33" t="s">
+      <c r="C33" t="s">
         <v>106</v>
       </c>
-      <c r="C33" t="s">
+      <c r="E33" t="s">
         <v>107</v>
       </c>
-      <c r="E33" t="s">
-        <v>108</v>
-      </c>
       <c r="F33" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" t="s">
+        <v>108</v>
+      </c>
+      <c r="B34" t="s">
         <v>109</v>
-      </c>
-      <c r="B34" t="s">
-        <v>110</v>
       </c>
       <c r="C34" t="s">
         <v>29</v>
@@ -2758,21 +2722,21 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35" t="s">
+        <v>110</v>
+      </c>
+      <c r="B35" t="s">
         <v>111</v>
       </c>
-      <c r="B35" t="s">
+      <c r="C35" t="s">
         <v>112</v>
-      </c>
-      <c r="C35" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" t="s">
+        <v>113</v>
+      </c>
+      <c r="B36" t="s">
         <v>114</v>
-      </c>
-      <c r="B36" t="s">
-        <v>115</v>
       </c>
       <c r="C36" t="s">
         <v>37</v>
@@ -2780,49 +2744,49 @@
     </row>
     <row r="37" spans="1:6">
       <c r="A37" t="s">
+        <v>115</v>
+      </c>
+      <c r="B37" t="s">
         <v>116</v>
       </c>
-      <c r="B37" t="s">
+      <c r="C37" t="s">
         <v>117</v>
-      </c>
-      <c r="C37" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" t="s">
+        <v>118</v>
+      </c>
+      <c r="B38" t="s">
         <v>119</v>
       </c>
-      <c r="B38" t="s">
+      <c r="C38" t="s">
         <v>120</v>
       </c>
-      <c r="C38" t="s">
+      <c r="E38" t="s">
         <v>121</v>
       </c>
-      <c r="E38" t="s">
-        <v>122</v>
-      </c>
       <c r="F38" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" t="s">
+        <v>122</v>
+      </c>
+      <c r="B39" t="s">
         <v>123</v>
       </c>
-      <c r="B39" t="s">
-        <v>124</v>
-      </c>
       <c r="C39" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" t="s">
+        <v>124</v>
+      </c>
+      <c r="B40" t="s">
         <v>125</v>
-      </c>
-      <c r="B40" t="s">
-        <v>126</v>
       </c>
       <c r="C40" t="s">
         <v>33</v>
@@ -2830,27 +2794,27 @@
     </row>
     <row r="41" spans="1:6">
       <c r="A41" t="s">
+        <v>126</v>
+      </c>
+      <c r="B41" t="s">
         <v>127</v>
       </c>
-      <c r="B41" t="s">
+      <c r="C41" t="s">
         <v>128</v>
       </c>
-      <c r="C41" t="s">
+      <c r="E41" t="s">
         <v>129</v>
       </c>
-      <c r="E41" t="s">
+      <c r="F41" t="s">
         <v>130</v>
-      </c>
-      <c r="F41" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" t="s">
+        <v>131</v>
+      </c>
+      <c r="B42" t="s">
         <v>132</v>
-      </c>
-      <c r="B42" t="s">
-        <v>133</v>
       </c>
       <c r="C42" t="s">
         <v>42</v>
@@ -2858,13 +2822,13 @@
     </row>
     <row r="43" spans="1:6">
       <c r="A43" t="s">
+        <v>133</v>
+      </c>
+      <c r="B43" t="s">
         <v>134</v>
       </c>
-      <c r="B43" t="s">
+      <c r="C43" t="s">
         <v>135</v>
-      </c>
-      <c r="C43" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2872,7 +2836,7 @@
         <v>44</v>
       </c>
       <c r="B44" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C44" t="s">
         <v>33</v>
@@ -2880,93 +2844,93 @@
     </row>
     <row r="45" spans="1:6">
       <c r="A45" t="s">
+        <v>137</v>
+      </c>
+      <c r="B45" t="s">
         <v>138</v>
       </c>
-      <c r="B45" t="s">
+      <c r="C45" t="s">
         <v>139</v>
-      </c>
-      <c r="C45" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" t="s">
+        <v>140</v>
+      </c>
+      <c r="B46" t="s">
         <v>141</v>
       </c>
-      <c r="B46" t="s">
+      <c r="C46" t="s">
         <v>142</v>
       </c>
-      <c r="C46" t="s">
+      <c r="E46" t="s">
         <v>143</v>
       </c>
-      <c r="E46" t="s">
+      <c r="F46" t="s">
         <v>144</v>
-      </c>
-      <c r="F46" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" t="s">
+        <v>145</v>
+      </c>
+      <c r="B47" t="s">
         <v>146</v>
       </c>
-      <c r="B47" t="s">
+      <c r="C47" t="s">
         <v>147</v>
-      </c>
-      <c r="C47" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" t="s">
+        <v>148</v>
+      </c>
+      <c r="B48" t="s">
         <v>149</v>
       </c>
-      <c r="B48" t="s">
+      <c r="C48" t="s">
         <v>150</v>
-      </c>
-      <c r="C48" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
+        <v>151</v>
+      </c>
+      <c r="B49" t="s">
         <v>152</v>
       </c>
-      <c r="B49" t="s">
-        <v>153</v>
-      </c>
       <c r="C49" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
+        <v>153</v>
+      </c>
+      <c r="B50" t="s">
         <v>154</v>
       </c>
-      <c r="B50" t="s">
+      <c r="C50" t="s">
         <v>155</v>
-      </c>
-      <c r="C50" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
+        <v>156</v>
+      </c>
+      <c r="B51" t="s">
         <v>157</v>
       </c>
-      <c r="B51" t="s">
+      <c r="C51" t="s">
         <v>158</v>
-      </c>
-      <c r="C51" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
+        <v>159</v>
+      </c>
+      <c r="B52" t="s">
         <v>160</v>
-      </c>
-      <c r="B52" t="s">
-        <v>161</v>
       </c>
       <c r="C52" t="s">
         <v>29</v>
@@ -2974,10 +2938,10 @@
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
+        <v>161</v>
+      </c>
+      <c r="B53" t="s">
         <v>162</v>
-      </c>
-      <c r="B53" t="s">
-        <v>163</v>
       </c>
       <c r="C53" t="s">
         <v>9</v>
@@ -2985,43 +2949,43 @@
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
+        <v>163</v>
+      </c>
+      <c r="B54" t="s">
         <v>164</v>
       </c>
-      <c r="B54" t="s">
+      <c r="C54" t="s">
         <v>165</v>
-      </c>
-      <c r="C54" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
+        <v>166</v>
+      </c>
+      <c r="B55" t="s">
         <v>167</v>
       </c>
-      <c r="B55" t="s">
+      <c r="C55" t="s">
         <v>168</v>
-      </c>
-      <c r="C55" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
+        <v>169</v>
+      </c>
+      <c r="B56" t="s">
         <v>170</v>
       </c>
-      <c r="B56" t="s">
+      <c r="C56" t="s">
         <v>171</v>
-      </c>
-      <c r="C56" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
+        <v>172</v>
+      </c>
+      <c r="B57" t="s">
         <v>173</v>
-      </c>
-      <c r="B57" t="s">
-        <v>174</v>
       </c>
       <c r="C57" t="s">
         <v>33</v>
@@ -3029,54 +2993,54 @@
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
+        <v>174</v>
+      </c>
+      <c r="B58" t="s">
         <v>175</v>
       </c>
-      <c r="B58" t="s">
+      <c r="C58" t="s">
         <v>176</v>
-      </c>
-      <c r="C58" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
+        <v>177</v>
+      </c>
+      <c r="B59" t="s">
         <v>178</v>
       </c>
-      <c r="B59" t="s">
+      <c r="C59" t="s">
         <v>179</v>
-      </c>
-      <c r="C59" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
+        <v>180</v>
+      </c>
+      <c r="B60" t="s">
         <v>181</v>
       </c>
-      <c r="B60" t="s">
-        <v>182</v>
-      </c>
       <c r="C60" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
+        <v>182</v>
+      </c>
+      <c r="B61" t="s">
         <v>183</v>
       </c>
-      <c r="B61" t="s">
+      <c r="C61" t="s">
         <v>184</v>
-      </c>
-      <c r="C61" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B62" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C62" t="s">
         <v>73</v>
@@ -3084,10 +3048,10 @@
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
+        <v>186</v>
+      </c>
+      <c r="B63" t="s">
         <v>187</v>
-      </c>
-      <c r="B63" t="s">
-        <v>188</v>
       </c>
       <c r="C63" t="s">
         <v>83</v>
@@ -3095,186 +3059,186 @@
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
+        <v>188</v>
+      </c>
+      <c r="B64" t="s">
         <v>189</v>
       </c>
-      <c r="B64" t="s">
+      <c r="C64" t="s">
         <v>190</v>
-      </c>
-      <c r="C64" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
+        <v>191</v>
+      </c>
+      <c r="B65" t="s">
         <v>192</v>
       </c>
-      <c r="B65" t="s">
+      <c r="C65" t="s">
         <v>193</v>
-      </c>
-      <c r="C65" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
+        <v>194</v>
+      </c>
+      <c r="B66" t="s">
         <v>195</v>
       </c>
-      <c r="B66" t="s">
+      <c r="C66" t="s">
         <v>196</v>
-      </c>
-      <c r="C66" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
+        <v>197</v>
+      </c>
+      <c r="B67" t="s">
         <v>198</v>
       </c>
-      <c r="B67" t="s">
+      <c r="C67" t="s">
         <v>199</v>
-      </c>
-      <c r="C67" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
+        <v>200</v>
+      </c>
+      <c r="B68" t="s">
         <v>201</v>
       </c>
-      <c r="B68" t="s">
+      <c r="C68" t="s">
         <v>202</v>
-      </c>
-      <c r="C68" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
+        <v>203</v>
+      </c>
+      <c r="B69" t="s">
         <v>204</v>
       </c>
-      <c r="B69" t="s">
+      <c r="C69" t="s">
         <v>205</v>
-      </c>
-      <c r="C69" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
+        <v>206</v>
+      </c>
+      <c r="B70" t="s">
         <v>207</v>
       </c>
-      <c r="B70" t="s">
+      <c r="C70" t="s">
         <v>208</v>
-      </c>
-      <c r="C70" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
+        <v>209</v>
+      </c>
+      <c r="B71" t="s">
         <v>210</v>
       </c>
-      <c r="B71" t="s">
+      <c r="C71" t="s">
         <v>211</v>
-      </c>
-      <c r="C71" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="s">
+        <v>212</v>
+      </c>
+      <c r="B72" t="s">
         <v>213</v>
       </c>
-      <c r="B72" t="s">
+      <c r="C72" t="s">
         <v>214</v>
-      </c>
-      <c r="C72" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
+        <v>215</v>
+      </c>
+      <c r="B73" t="s">
         <v>216</v>
       </c>
-      <c r="B73" t="s">
+      <c r="C73" t="s">
         <v>217</v>
-      </c>
-      <c r="C73" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="s">
+        <v>218</v>
+      </c>
+      <c r="B74" t="s">
         <v>219</v>
       </c>
-      <c r="B74" t="s">
+      <c r="C74" t="s">
         <v>220</v>
-      </c>
-      <c r="C74" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
+        <v>221</v>
+      </c>
+      <c r="B75" t="s">
         <v>222</v>
       </c>
-      <c r="B75" t="s">
+      <c r="C75" t="s">
         <v>223</v>
-      </c>
-      <c r="C75" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="s">
+        <v>224</v>
+      </c>
+      <c r="B76" t="s">
         <v>225</v>
       </c>
-      <c r="B76" t="s">
+      <c r="C76" t="s">
         <v>226</v>
-      </c>
-      <c r="C76" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="s">
+        <v>227</v>
+      </c>
+      <c r="B77" t="s">
         <v>228</v>
       </c>
-      <c r="B77" t="s">
+      <c r="C77" t="s">
         <v>229</v>
-      </c>
-      <c r="C77" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="s">
+        <v>230</v>
+      </c>
+      <c r="B78" t="s">
         <v>231</v>
       </c>
-      <c r="B78" t="s">
-        <v>232</v>
-      </c>
       <c r="C78" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="s">
+        <v>232</v>
+      </c>
+      <c r="B79" t="s">
         <v>233</v>
       </c>
-      <c r="B79" t="s">
+      <c r="C79" t="s">
         <v>234</v>
-      </c>
-      <c r="C79" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B80" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C80" t="s">
         <v>33</v>
@@ -3282,54 +3246,54 @@
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="s">
+        <v>236</v>
+      </c>
+      <c r="B81" t="s">
         <v>237</v>
       </c>
-      <c r="B81" t="s">
+      <c r="C81" t="s">
         <v>238</v>
-      </c>
-      <c r="C81" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="s">
+        <v>239</v>
+      </c>
+      <c r="B82" t="s">
         <v>240</v>
       </c>
-      <c r="B82" t="s">
+      <c r="C82" t="s">
         <v>241</v>
-      </c>
-      <c r="C82" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="s">
+        <v>242</v>
+      </c>
+      <c r="B83" t="s">
         <v>243</v>
       </c>
-      <c r="B83" t="s">
+      <c r="C83" t="s">
         <v>244</v>
-      </c>
-      <c r="C83" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="s">
+        <v>245</v>
+      </c>
+      <c r="B84" t="s">
         <v>246</v>
       </c>
-      <c r="B84" t="s">
+      <c r="C84" t="s">
         <v>247</v>
-      </c>
-      <c r="C84" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="s">
+        <v>248</v>
+      </c>
+      <c r="B85" t="s">
         <v>249</v>
-      </c>
-      <c r="B85" t="s">
-        <v>250</v>
       </c>
       <c r="C85" t="s">
         <v>33</v>
@@ -3337,131 +3301,131 @@
     </row>
     <row r="86" spans="1:3">
       <c r="A86" t="s">
+        <v>250</v>
+      </c>
+      <c r="B86" t="s">
         <v>251</v>
       </c>
-      <c r="B86" t="s">
+      <c r="C86" t="s">
         <v>252</v>
-      </c>
-      <c r="C86" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" t="s">
+        <v>253</v>
+      </c>
+      <c r="B87" t="s">
         <v>254</v>
       </c>
-      <c r="B87" t="s">
+      <c r="C87" t="s">
         <v>255</v>
-      </c>
-      <c r="C87" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" t="s">
+        <v>256</v>
+      </c>
+      <c r="B88" t="s">
         <v>257</v>
       </c>
-      <c r="B88" t="s">
+      <c r="C88" t="s">
         <v>258</v>
-      </c>
-      <c r="C88" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" t="s">
+        <v>259</v>
+      </c>
+      <c r="B89" t="s">
         <v>260</v>
       </c>
-      <c r="B89" t="s">
-        <v>261</v>
-      </c>
       <c r="C89" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" t="s">
+        <v>261</v>
+      </c>
+      <c r="B90" t="s">
         <v>262</v>
       </c>
-      <c r="B90" t="s">
+      <c r="C90" t="s">
         <v>263</v>
-      </c>
-      <c r="C90" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" t="s">
+        <v>264</v>
+      </c>
+      <c r="B91" t="s">
         <v>265</v>
       </c>
-      <c r="B91" t="s">
+      <c r="C91" t="s">
         <v>266</v>
-      </c>
-      <c r="C91" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" t="s">
+        <v>267</v>
+      </c>
+      <c r="B92" t="s">
         <v>268</v>
       </c>
-      <c r="B92" t="s">
+      <c r="C92" t="s">
         <v>269</v>
-      </c>
-      <c r="C92" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B93" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C93" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" t="s">
+        <v>271</v>
+      </c>
+      <c r="B94" t="s">
         <v>272</v>
       </c>
-      <c r="B94" t="s">
-        <v>273</v>
-      </c>
       <c r="C94" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" t="s">
+        <v>273</v>
+      </c>
+      <c r="B95" t="s">
         <v>274</v>
       </c>
-      <c r="B95" t="s">
+      <c r="C95" t="s">
         <v>275</v>
-      </c>
-      <c r="C95" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" t="s">
+        <v>276</v>
+      </c>
+      <c r="B96" t="s">
         <v>277</v>
       </c>
-      <c r="B96" t="s">
+      <c r="C96" t="s">
         <v>278</v>
-      </c>
-      <c r="C96" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="97" spans="1:6">
       <c r="A97" t="s">
+        <v>279</v>
+      </c>
+      <c r="B97" t="s">
         <v>280</v>
-      </c>
-      <c r="B97" t="s">
-        <v>281</v>
       </c>
       <c r="C97" t="s">
         <v>37</v>
@@ -3469,137 +3433,137 @@
     </row>
     <row r="98" spans="1:6">
       <c r="A98" t="s">
+        <v>281</v>
+      </c>
+      <c r="B98" t="s">
         <v>282</v>
       </c>
-      <c r="B98" t="s">
-        <v>283</v>
-      </c>
       <c r="C98" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="99" spans="1:6">
       <c r="A99" t="s">
+        <v>283</v>
+      </c>
+      <c r="B99" t="s">
         <v>284</v>
       </c>
-      <c r="B99" t="s">
+      <c r="C99" t="s">
         <v>285</v>
-      </c>
-      <c r="C99" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="A100" t="s">
+        <v>286</v>
+      </c>
+      <c r="B100" t="s">
         <v>287</v>
       </c>
-      <c r="B100" t="s">
+      <c r="C100" t="s">
         <v>288</v>
       </c>
-      <c r="C100" t="s">
-        <v>289</v>
-      </c>
       <c r="E100" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F100" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="101" spans="1:6">
       <c r="A101" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B101" t="s">
         <v>67</v>
       </c>
       <c r="C101" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="A102" t="s">
+        <v>291</v>
+      </c>
+      <c r="B102" t="s">
         <v>292</v>
       </c>
-      <c r="B102" t="s">
+      <c r="C102" t="s">
         <v>293</v>
-      </c>
-      <c r="C102" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="103" spans="1:6">
       <c r="A103" t="s">
+        <v>294</v>
+      </c>
+      <c r="B103" t="s">
         <v>295</v>
       </c>
-      <c r="B103" t="s">
+      <c r="C103" t="s">
         <v>296</v>
-      </c>
-      <c r="C103" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="104" spans="1:6">
       <c r="A104" t="s">
+        <v>297</v>
+      </c>
+      <c r="B104" t="s">
         <v>298</v>
       </c>
-      <c r="B104" t="s">
-        <v>299</v>
-      </c>
       <c r="C104" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="105" spans="1:6">
       <c r="A105" t="s">
+        <v>299</v>
+      </c>
+      <c r="B105" t="s">
+        <v>299</v>
+      </c>
+      <c r="C105" t="s">
         <v>300</v>
-      </c>
-      <c r="B105" t="s">
-        <v>300</v>
-      </c>
-      <c r="C105" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="106" spans="1:6">
       <c r="A106" t="s">
+        <v>301</v>
+      </c>
+      <c r="B106" t="s">
         <v>302</v>
       </c>
-      <c r="B106" t="s">
+      <c r="C106" t="s">
         <v>303</v>
-      </c>
-      <c r="C106" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="107" spans="1:6">
       <c r="A107" t="s">
+        <v>304</v>
+      </c>
+      <c r="B107" t="s">
         <v>305</v>
       </c>
-      <c r="B107" t="s">
+      <c r="C107" t="s">
         <v>306</v>
-      </c>
-      <c r="C107" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="A108" t="s">
+        <v>307</v>
+      </c>
+      <c r="B108" t="s">
         <v>308</v>
       </c>
-      <c r="B108" t="s">
+      <c r="C108" t="s">
         <v>309</v>
-      </c>
-      <c r="C108" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="109" spans="1:6">
       <c r="A109" t="s">
+        <v>310</v>
+      </c>
+      <c r="B109" t="s">
         <v>311</v>
-      </c>
-      <c r="B109" t="s">
-        <v>312</v>
       </c>
       <c r="C109" t="s">
         <v>49</v>
@@ -3607,76 +3571,76 @@
     </row>
     <row r="110" spans="1:6">
       <c r="A110" t="s">
+        <v>312</v>
+      </c>
+      <c r="B110" t="s">
         <v>313</v>
       </c>
-      <c r="B110" t="s">
+      <c r="C110" t="s">
         <v>314</v>
-      </c>
-      <c r="C110" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="111" spans="1:6">
       <c r="A111" t="s">
+        <v>315</v>
+      </c>
+      <c r="B111" t="s">
         <v>316</v>
       </c>
-      <c r="B111" t="s">
+      <c r="C111" t="s">
         <v>317</v>
-      </c>
-      <c r="C111" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="112" spans="1:6">
       <c r="A112" t="s">
+        <v>318</v>
+      </c>
+      <c r="B112" t="s">
         <v>319</v>
       </c>
-      <c r="B112" t="s">
-        <v>320</v>
-      </c>
       <c r="C112" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" t="s">
+        <v>320</v>
+      </c>
+      <c r="B113" t="s">
         <v>321</v>
       </c>
-      <c r="B113" t="s">
-        <v>322</v>
-      </c>
       <c r="C113" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" t="s">
+        <v>322</v>
+      </c>
+      <c r="B114" t="s">
         <v>323</v>
       </c>
-      <c r="B114" t="s">
+      <c r="C114" t="s">
         <v>324</v>
-      </c>
-      <c r="C114" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" t="s">
+        <v>325</v>
+      </c>
+      <c r="B115" t="s">
         <v>326</v>
       </c>
-      <c r="B115" t="s">
+      <c r="C115" t="s">
         <v>327</v>
-      </c>
-      <c r="C115" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" t="s">
+        <v>328</v>
+      </c>
+      <c r="B116" t="s">
         <v>329</v>
-      </c>
-      <c r="B116" t="s">
-        <v>330</v>
       </c>
       <c r="C116" t="s">
         <v>46</v>
@@ -3684,65 +3648,65 @@
     </row>
     <row r="117" spans="1:3">
       <c r="A117" t="s">
+        <v>330</v>
+      </c>
+      <c r="B117" t="s">
         <v>331</v>
       </c>
-      <c r="B117" t="s">
+      <c r="C117" t="s">
         <v>332</v>
-      </c>
-      <c r="C117" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" t="s">
+        <v>333</v>
+      </c>
+      <c r="B118" t="s">
         <v>334</v>
       </c>
-      <c r="B118" t="s">
+      <c r="C118" t="s">
         <v>335</v>
-      </c>
-      <c r="C118" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" t="s">
+        <v>336</v>
+      </c>
+      <c r="B119" t="s">
         <v>337</v>
       </c>
-      <c r="B119" t="s">
+      <c r="C119" t="s">
         <v>338</v>
-      </c>
-      <c r="C119" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" t="s">
+        <v>339</v>
+      </c>
+      <c r="B120" t="s">
         <v>340</v>
       </c>
-      <c r="B120" t="s">
-        <v>341</v>
-      </c>
       <c r="C120" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" t="s">
+        <v>341</v>
+      </c>
+      <c r="B121" t="s">
         <v>342</v>
       </c>
-      <c r="B121" t="s">
+      <c r="C121" t="s">
         <v>343</v>
-      </c>
-      <c r="C121" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" t="s">
+        <v>344</v>
+      </c>
+      <c r="B122" t="s">
         <v>345</v>
-      </c>
-      <c r="B122" t="s">
-        <v>346</v>
       </c>
       <c r="C122" t="s">
         <v>83</v>
@@ -3750,21 +3714,21 @@
     </row>
     <row r="123" spans="1:3">
       <c r="A123" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B123" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C123" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" t="s">
+        <v>347</v>
+      </c>
+      <c r="B124" t="s">
         <v>348</v>
-      </c>
-      <c r="B124" t="s">
-        <v>349</v>
       </c>
       <c r="C124" t="s">
         <v>37</v>
@@ -3772,65 +3736,65 @@
     </row>
     <row r="125" spans="1:3">
       <c r="A125" t="s">
+        <v>349</v>
+      </c>
+      <c r="B125" t="s">
         <v>350</v>
       </c>
-      <c r="B125" t="s">
+      <c r="C125" t="s">
         <v>351</v>
-      </c>
-      <c r="C125" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" t="s">
+        <v>352</v>
+      </c>
+      <c r="B126" t="s">
         <v>353</v>
       </c>
-      <c r="B126" t="s">
+      <c r="C126" t="s">
         <v>354</v>
-      </c>
-      <c r="C126" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" t="s">
+        <v>355</v>
+      </c>
+      <c r="B127" t="s">
         <v>356</v>
       </c>
-      <c r="B127" t="s">
+      <c r="C127" t="s">
         <v>357</v>
-      </c>
-      <c r="C127" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" t="s">
+        <v>358</v>
+      </c>
+      <c r="B128" t="s">
         <v>359</v>
       </c>
-      <c r="B128" t="s">
+      <c r="C128" t="s">
         <v>360</v>
-      </c>
-      <c r="C128" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" t="s">
+        <v>361</v>
+      </c>
+      <c r="B129" t="s">
         <v>362</v>
       </c>
-      <c r="B129" t="s">
+      <c r="C129" t="s">
         <v>363</v>
-      </c>
-      <c r="C129" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" t="s">
+        <v>364</v>
+      </c>
+      <c r="B130" t="s">
         <v>365</v>
-      </c>
-      <c r="B130" t="s">
-        <v>366</v>
       </c>
       <c r="C130" t="s">
         <v>33</v>
@@ -3838,10 +3802,10 @@
     </row>
     <row r="131" spans="1:3">
       <c r="A131" t="s">
+        <v>366</v>
+      </c>
+      <c r="B131" t="s">
         <v>367</v>
-      </c>
-      <c r="B131" t="s">
-        <v>368</v>
       </c>
       <c r="C131" t="s">
         <v>64</v>
@@ -3849,109 +3813,109 @@
     </row>
     <row r="132" spans="1:3">
       <c r="A132" t="s">
+        <v>368</v>
+      </c>
+      <c r="B132" t="s">
+        <v>368</v>
+      </c>
+      <c r="C132" t="s">
         <v>369</v>
-      </c>
-      <c r="B132" t="s">
-        <v>369</v>
-      </c>
-      <c r="C132" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" t="s">
+        <v>370</v>
+      </c>
+      <c r="B133" t="s">
         <v>371</v>
       </c>
-      <c r="B133" t="s">
-        <v>372</v>
-      </c>
       <c r="C133" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" t="s">
+        <v>372</v>
+      </c>
+      <c r="B134" t="s">
         <v>373</v>
       </c>
-      <c r="B134" t="s">
+      <c r="C134" t="s">
         <v>374</v>
-      </c>
-      <c r="C134" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135" t="s">
+        <v>375</v>
+      </c>
+      <c r="B135" t="s">
         <v>376</v>
       </c>
-      <c r="B135" t="s">
+      <c r="C135" t="s">
         <v>377</v>
-      </c>
-      <c r="C135" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136" t="s">
+        <v>378</v>
+      </c>
+      <c r="B136" t="s">
         <v>379</v>
       </c>
-      <c r="B136" t="s">
+      <c r="C136" t="s">
         <v>380</v>
-      </c>
-      <c r="C136" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" t="s">
+        <v>381</v>
+      </c>
+      <c r="B137" t="s">
         <v>382</v>
       </c>
-      <c r="B137" t="s">
+      <c r="C137" t="s">
         <v>383</v>
-      </c>
-      <c r="C137" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="138" spans="1:3">
       <c r="A138" t="s">
+        <v>384</v>
+      </c>
+      <c r="B138" t="s">
         <v>385</v>
       </c>
-      <c r="B138" t="s">
+      <c r="C138" t="s">
         <v>386</v>
-      </c>
-      <c r="C138" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="139" spans="1:3">
       <c r="A139" t="s">
+        <v>387</v>
+      </c>
+      <c r="B139" t="s">
         <v>388</v>
       </c>
-      <c r="B139" t="s">
+      <c r="C139" t="s">
         <v>389</v>
-      </c>
-      <c r="C139" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="A140" t="s">
+        <v>390</v>
+      </c>
+      <c r="B140" t="s">
         <v>391</v>
       </c>
-      <c r="B140" t="s">
+      <c r="C140" t="s">
         <v>392</v>
-      </c>
-      <c r="C140" t="s">
-        <v>393</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" t="s">
+        <v>393</v>
+      </c>
+      <c r="B141" t="s">
         <v>394</v>
-      </c>
-      <c r="B141" t="s">
-        <v>395</v>
       </c>
       <c r="C141" t="s">
         <v>37</v>
@@ -3959,65 +3923,65 @@
     </row>
     <row r="142" spans="1:3">
       <c r="A142" t="s">
+        <v>395</v>
+      </c>
+      <c r="B142" t="s">
         <v>396</v>
       </c>
-      <c r="B142" t="s">
+      <c r="C142" t="s">
         <v>397</v>
-      </c>
-      <c r="C142" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" t="s">
+        <v>398</v>
+      </c>
+      <c r="B143" t="s">
         <v>399</v>
       </c>
-      <c r="B143" t="s">
+      <c r="C143" t="s">
         <v>400</v>
-      </c>
-      <c r="C143" t="s">
-        <v>401</v>
       </c>
     </row>
     <row r="144" spans="1:3">
       <c r="A144" t="s">
+        <v>401</v>
+      </c>
+      <c r="B144" t="s">
         <v>402</v>
       </c>
-      <c r="B144" t="s">
+      <c r="C144" t="s">
         <v>403</v>
-      </c>
-      <c r="C144" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="145" spans="1:3">
       <c r="A145" t="s">
+        <v>404</v>
+      </c>
+      <c r="B145" t="s">
         <v>405</v>
       </c>
-      <c r="B145" t="s">
+      <c r="C145" t="s">
         <v>406</v>
-      </c>
-      <c r="C145" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="146" spans="1:3">
       <c r="A146" t="s">
+        <v>407</v>
+      </c>
+      <c r="B146" t="s">
         <v>408</v>
       </c>
-      <c r="B146" t="s">
+      <c r="C146" t="s">
         <v>409</v>
-      </c>
-      <c r="C146" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="147" spans="1:3">
       <c r="A147" t="s">
+        <v>410</v>
+      </c>
+      <c r="B147" t="s">
         <v>411</v>
-      </c>
-      <c r="B147" t="s">
-        <v>412</v>
       </c>
       <c r="C147" t="s">
         <v>64</v>
@@ -4025,208 +3989,208 @@
     </row>
     <row r="148" spans="1:3">
       <c r="A148" t="s">
+        <v>412</v>
+      </c>
+      <c r="B148" t="s">
+        <v>412</v>
+      </c>
+      <c r="C148" t="s">
         <v>413</v>
-      </c>
-      <c r="B148" t="s">
-        <v>413</v>
-      </c>
-      <c r="C148" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="149" spans="1:3">
       <c r="A149" t="s">
+        <v>414</v>
+      </c>
+      <c r="B149" t="s">
+        <v>414</v>
+      </c>
+      <c r="C149" t="s">
         <v>415</v>
-      </c>
-      <c r="B149" t="s">
-        <v>415</v>
-      </c>
-      <c r="C149" t="s">
-        <v>416</v>
       </c>
     </row>
     <row r="150" spans="1:3">
       <c r="A150" t="s">
+        <v>416</v>
+      </c>
+      <c r="B150" t="s">
+        <v>331</v>
+      </c>
+      <c r="C150" t="s">
         <v>417</v>
-      </c>
-      <c r="B150" t="s">
-        <v>332</v>
-      </c>
-      <c r="C150" t="s">
-        <v>418</v>
       </c>
     </row>
     <row r="151" spans="1:3">
       <c r="A151" t="s">
+        <v>418</v>
+      </c>
+      <c r="B151" t="s">
         <v>419</v>
       </c>
-      <c r="B151" t="s">
+      <c r="C151" t="s">
         <v>420</v>
-      </c>
-      <c r="C151" t="s">
-        <v>421</v>
       </c>
     </row>
     <row r="152" spans="1:3">
       <c r="A152" t="s">
+        <v>421</v>
+      </c>
+      <c r="B152" t="s">
         <v>422</v>
       </c>
-      <c r="B152" t="s">
-        <v>423</v>
-      </c>
       <c r="C152" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="153" spans="1:3">
       <c r="A153" t="s">
+        <v>423</v>
+      </c>
+      <c r="B153" t="s">
         <v>424</v>
       </c>
-      <c r="B153" t="s">
+      <c r="C153" t="s">
         <v>425</v>
-      </c>
-      <c r="C153" t="s">
-        <v>426</v>
       </c>
     </row>
     <row r="154" spans="1:3">
       <c r="A154" t="s">
+        <v>426</v>
+      </c>
+      <c r="B154" t="s">
         <v>427</v>
       </c>
-      <c r="B154" t="s">
+      <c r="C154" t="s">
         <v>428</v>
-      </c>
-      <c r="C154" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="155" spans="1:3">
       <c r="A155" t="s">
+        <v>429</v>
+      </c>
+      <c r="B155" t="s">
         <v>430</v>
       </c>
-      <c r="B155" t="s">
+      <c r="C155" t="s">
         <v>431</v>
-      </c>
-      <c r="C155" t="s">
-        <v>432</v>
       </c>
     </row>
     <row r="156" spans="1:3">
       <c r="A156" t="s">
+        <v>432</v>
+      </c>
+      <c r="B156" t="s">
         <v>433</v>
       </c>
-      <c r="B156" t="s">
+      <c r="C156" t="s">
         <v>434</v>
-      </c>
-      <c r="C156" t="s">
-        <v>435</v>
       </c>
     </row>
     <row r="157" spans="1:3">
       <c r="A157" t="s">
+        <v>435</v>
+      </c>
+      <c r="B157" t="s">
         <v>436</v>
       </c>
-      <c r="B157" t="s">
+      <c r="C157" t="s">
         <v>437</v>
-      </c>
-      <c r="C157" t="s">
-        <v>438</v>
       </c>
     </row>
     <row r="158" spans="1:3">
       <c r="A158" t="s">
+        <v>438</v>
+      </c>
+      <c r="B158" t="s">
         <v>439</v>
       </c>
-      <c r="B158" t="s">
+      <c r="C158" t="s">
         <v>440</v>
-      </c>
-      <c r="C158" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="159" spans="1:3">
       <c r="A159" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B159" t="s">
+        <v>441</v>
+      </c>
+      <c r="C159" t="s">
         <v>442</v>
-      </c>
-      <c r="C159" t="s">
-        <v>443</v>
       </c>
     </row>
     <row r="160" spans="1:3">
       <c r="A160" t="s">
+        <v>443</v>
+      </c>
+      <c r="B160" t="s">
         <v>444</v>
       </c>
-      <c r="B160" t="s">
+      <c r="C160" t="s">
         <v>445</v>
-      </c>
-      <c r="C160" t="s">
-        <v>446</v>
       </c>
     </row>
     <row r="161" spans="1:3">
       <c r="A161" t="s">
+        <v>446</v>
+      </c>
+      <c r="B161" t="s">
         <v>447</v>
       </c>
-      <c r="B161" t="s">
+      <c r="C161" t="s">
         <v>448</v>
-      </c>
-      <c r="C161" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="162" spans="1:3">
       <c r="A162" t="s">
+        <v>449</v>
+      </c>
+      <c r="B162" t="s">
         <v>450</v>
       </c>
-      <c r="B162" t="s">
+      <c r="C162" t="s">
         <v>451</v>
-      </c>
-      <c r="C162" t="s">
-        <v>452</v>
       </c>
     </row>
     <row r="163" spans="1:3">
       <c r="A163" t="s">
+        <v>452</v>
+      </c>
+      <c r="B163" t="s">
         <v>453</v>
       </c>
-      <c r="B163" t="s">
+      <c r="C163" t="s">
         <v>454</v>
-      </c>
-      <c r="C163" t="s">
-        <v>455</v>
       </c>
     </row>
     <row r="164" spans="1:3">
       <c r="A164" t="s">
+        <v>455</v>
+      </c>
+      <c r="B164" t="s">
         <v>456</v>
       </c>
-      <c r="B164" t="s">
+      <c r="C164" t="s">
         <v>457</v>
-      </c>
-      <c r="C164" t="s">
-        <v>458</v>
       </c>
     </row>
     <row r="165" spans="1:3">
       <c r="A165" t="s">
+        <v>458</v>
+      </c>
+      <c r="B165" t="s">
         <v>459</v>
       </c>
-      <c r="B165" t="s">
+      <c r="C165" t="s">
         <v>460</v>
-      </c>
-      <c r="C165" t="s">
-        <v>461</v>
       </c>
     </row>
     <row r="166" spans="1:3">
       <c r="A166" t="s">
+        <v>461</v>
+      </c>
+      <c r="B166" t="s">
         <v>462</v>
-      </c>
-      <c r="B166" t="s">
-        <v>463</v>
       </c>
       <c r="C166" t="s">
         <v>73</v>
@@ -4234,178 +4198,190 @@
     </row>
     <row r="167" spans="1:3">
       <c r="A167" t="s">
+        <v>463</v>
+      </c>
+      <c r="B167" t="s">
         <v>464</v>
       </c>
-      <c r="B167" t="s">
+      <c r="C167" t="s">
         <v>465</v>
-      </c>
-      <c r="C167" t="s">
-        <v>466</v>
       </c>
     </row>
     <row r="168" spans="1:3">
       <c r="A168" t="s">
+        <v>466</v>
+      </c>
+      <c r="B168" t="s">
         <v>467</v>
       </c>
-      <c r="B168" t="s">
+      <c r="C168" t="s">
         <v>468</v>
-      </c>
-      <c r="C168" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="169" spans="1:3">
       <c r="A169" t="s">
+        <v>469</v>
+      </c>
+      <c r="B169" t="s">
         <v>470</v>
       </c>
-      <c r="B169" t="s">
+      <c r="C169" t="s">
         <v>471</v>
-      </c>
-      <c r="C169" t="s">
-        <v>472</v>
       </c>
     </row>
     <row r="170" spans="1:3">
       <c r="A170" t="s">
+        <v>472</v>
+      </c>
+      <c r="B170" t="s">
         <v>473</v>
       </c>
-      <c r="B170" t="s">
+      <c r="C170" t="s">
         <v>474</v>
-      </c>
-      <c r="C170" t="s">
-        <v>475</v>
       </c>
     </row>
     <row r="171" spans="1:3">
       <c r="A171" t="s">
+        <v>475</v>
+      </c>
+      <c r="B171" t="s">
         <v>476</v>
       </c>
-      <c r="B171" t="s">
+      <c r="C171" t="s">
         <v>477</v>
-      </c>
-      <c r="C171" t="s">
-        <v>478</v>
       </c>
     </row>
     <row r="172" spans="1:3">
       <c r="A172" t="s">
+        <v>478</v>
+      </c>
+      <c r="B172" t="s">
         <v>479</v>
       </c>
-      <c r="B172" t="s">
+      <c r="C172" t="s">
         <v>480</v>
-      </c>
-      <c r="C172" t="s">
-        <v>481</v>
       </c>
     </row>
     <row r="173" spans="1:3">
       <c r="A173" t="s">
+        <v>481</v>
+      </c>
+      <c r="B173" t="s">
         <v>482</v>
       </c>
-      <c r="B173" t="s">
+      <c r="C173" t="s">
         <v>483</v>
-      </c>
-      <c r="C173" t="s">
-        <v>484</v>
       </c>
     </row>
     <row r="174" spans="1:3">
       <c r="A174" t="s">
+        <v>484</v>
+      </c>
+      <c r="B174" t="s">
         <v>485</v>
       </c>
-      <c r="B174" t="s">
+      <c r="C174" t="s">
         <v>486</v>
-      </c>
-      <c r="C174" t="s">
-        <v>487</v>
       </c>
     </row>
     <row r="175" spans="1:3">
       <c r="A175" t="s">
+        <v>487</v>
+      </c>
+      <c r="B175" t="s">
         <v>488</v>
       </c>
-      <c r="B175" t="s">
-        <v>489</v>
-      </c>
       <c r="C175" t="s">
-        <v>490</v>
+        <v>97</v>
       </c>
     </row>
     <row r="176" spans="1:3">
       <c r="A176" t="s">
+        <v>487</v>
+      </c>
+      <c r="B176" t="s">
         <v>488</v>
       </c>
-      <c r="B176" t="s">
-        <v>489</v>
-      </c>
       <c r="C176" t="s">
-        <v>490</v>
+        <v>97</v>
       </c>
     </row>
     <row r="177" spans="1:6">
       <c r="A177" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="B177" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="C177" t="s">
-        <v>493</v>
+        <v>155</v>
       </c>
     </row>
     <row r="178" spans="1:6">
       <c r="A178" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="B178" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="C178" t="s">
-        <v>496</v>
+        <v>223</v>
       </c>
     </row>
     <row r="179" spans="1:6">
       <c r="A179" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="B179" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="C179" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="180" spans="1:6">
       <c r="A180" t="s">
+        <v>496</v>
+      </c>
+      <c r="B180" t="s">
         <v>497</v>
       </c>
-      <c r="B180" t="s">
+      <c r="C180" t="s">
         <v>498</v>
       </c>
-      <c r="C180" t="s">
-        <v>97</v>
+      <c r="E180" t="s">
+        <v>64</v>
+      </c>
+      <c r="F180" t="s">
+        <v>499</v>
       </c>
     </row>
     <row r="181" spans="1:6">
       <c r="A181" t="s">
+        <v>496</v>
+      </c>
+      <c r="B181" t="s">
+        <v>497</v>
+      </c>
+      <c r="C181" t="s">
+        <v>498</v>
+      </c>
+      <c r="E181" t="s">
+        <v>64</v>
+      </c>
+      <c r="F181" t="s">
         <v>499</v>
-      </c>
-      <c r="B181" t="s">
-        <v>500</v>
-      </c>
-      <c r="C181" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="182" spans="1:6">
       <c r="A182" t="s">
+        <v>500</v>
+      </c>
+      <c r="B182" t="s">
         <v>501</v>
       </c>
-      <c r="B182" t="s">
+      <c r="C182" t="s">
         <v>502</v>
-      </c>
-      <c r="C182" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4416,74 +4392,62 @@
         <v>504</v>
       </c>
       <c r="C183" t="s">
-        <v>505</v>
+        <v>33</v>
       </c>
     </row>
     <row r="184" spans="1:6">
       <c r="A184" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B184" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C184" t="s">
-        <v>156</v>
+        <v>502</v>
       </c>
     </row>
     <row r="185" spans="1:6">
       <c r="A185" t="s">
+        <v>505</v>
+      </c>
+      <c r="B185" t="s">
         <v>506</v>
       </c>
-      <c r="B185" t="s">
-        <v>507</v>
-      </c>
       <c r="C185" t="s">
-        <v>83</v>
+        <v>263</v>
       </c>
     </row>
     <row r="186" spans="1:6">
       <c r="A186" t="s">
+        <v>507</v>
+      </c>
+      <c r="B186" t="s">
         <v>508</v>
       </c>
-      <c r="B186" t="s">
+      <c r="C186" t="s">
         <v>509</v>
-      </c>
-      <c r="C186" t="s">
-        <v>510</v>
-      </c>
-      <c r="E186" t="s">
-        <v>64</v>
-      </c>
-      <c r="F186" t="s">
-        <v>511</v>
       </c>
     </row>
     <row r="187" spans="1:6">
       <c r="A187" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="B187" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="C187" t="s">
-        <v>83</v>
+        <v>354</v>
       </c>
     </row>
     <row r="188" spans="1:6">
       <c r="A188" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="B188" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="C188" t="s">
-        <v>510</v>
-      </c>
-      <c r="E188" t="s">
-        <v>64</v>
-      </c>
-      <c r="F188" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4494,194 +4458,194 @@
         <v>513</v>
       </c>
       <c r="C189" t="s">
-        <v>355</v>
+        <v>514</v>
       </c>
     </row>
     <row r="190" spans="1:6">
       <c r="A190" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B190" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C190" t="s">
-        <v>33</v>
+        <v>517</v>
       </c>
     </row>
     <row r="191" spans="1:6">
       <c r="A191" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="B191" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="C191" t="s">
-        <v>264</v>
+        <v>520</v>
       </c>
     </row>
     <row r="192" spans="1:6">
       <c r="A192" t="s">
-        <v>514</v>
+        <v>521</v>
       </c>
       <c r="B192" t="s">
-        <v>515</v>
+        <v>522</v>
       </c>
       <c r="C192" t="s">
-        <v>33</v>
+        <v>523</v>
       </c>
     </row>
     <row r="193" spans="1:3">
       <c r="A193" t="s">
-        <v>518</v>
+        <v>524</v>
       </c>
       <c r="B193" t="s">
-        <v>519</v>
+        <v>525</v>
       </c>
       <c r="C193" t="s">
-        <v>520</v>
+        <v>526</v>
       </c>
     </row>
     <row r="194" spans="1:3">
       <c r="A194" t="s">
-        <v>521</v>
+        <v>527</v>
       </c>
       <c r="B194" t="s">
-        <v>522</v>
+        <v>528</v>
       </c>
       <c r="C194" t="s">
-        <v>355</v>
+        <v>529</v>
       </c>
     </row>
     <row r="195" spans="1:3">
       <c r="A195" t="s">
-        <v>521</v>
+        <v>530</v>
       </c>
       <c r="B195" t="s">
-        <v>522</v>
+        <v>531</v>
       </c>
       <c r="C195" t="s">
-        <v>355</v>
+        <v>29</v>
       </c>
     </row>
     <row r="196" spans="1:3">
       <c r="A196" t="s">
-        <v>523</v>
+        <v>532</v>
       </c>
       <c r="B196" t="s">
-        <v>524</v>
+        <v>533</v>
       </c>
       <c r="C196" t="s">
-        <v>525</v>
+        <v>49</v>
       </c>
     </row>
     <row r="197" spans="1:3">
       <c r="A197" t="s">
-        <v>526</v>
+        <v>534</v>
       </c>
       <c r="B197" t="s">
-        <v>527</v>
+        <v>535</v>
       </c>
       <c r="C197" t="s">
-        <v>528</v>
+        <v>226</v>
       </c>
     </row>
     <row r="198" spans="1:3">
       <c r="A198" t="s">
-        <v>529</v>
+        <v>536</v>
       </c>
       <c r="B198" t="s">
-        <v>530</v>
+        <v>537</v>
       </c>
       <c r="C198" t="s">
-        <v>531</v>
+        <v>369</v>
       </c>
     </row>
     <row r="199" spans="1:3">
       <c r="A199" t="s">
-        <v>532</v>
+        <v>538</v>
       </c>
       <c r="B199" t="s">
-        <v>533</v>
+        <v>539</v>
       </c>
       <c r="C199" t="s">
-        <v>534</v>
+        <v>42</v>
       </c>
     </row>
     <row r="200" spans="1:3">
       <c r="A200" t="s">
-        <v>535</v>
+        <v>540</v>
       </c>
       <c r="B200" t="s">
-        <v>536</v>
+        <v>541</v>
       </c>
       <c r="C200" t="s">
-        <v>29</v>
+        <v>542</v>
       </c>
     </row>
     <row r="201" spans="1:3">
       <c r="A201" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="B201" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="C201" t="s">
-        <v>49</v>
+        <v>542</v>
       </c>
     </row>
     <row r="202" spans="1:3">
       <c r="A202" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B202" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="C202" t="s">
-        <v>370</v>
+        <v>542</v>
       </c>
     </row>
     <row r="203" spans="1:3">
       <c r="A203" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="B203" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="C203" t="s">
-        <v>297</v>
+        <v>545</v>
       </c>
     </row>
     <row r="204" spans="1:3">
       <c r="A204" t="s">
-        <v>541</v>
+        <v>546</v>
       </c>
       <c r="B204" t="s">
-        <v>542</v>
+        <v>547</v>
       </c>
       <c r="C204" t="s">
-        <v>297</v>
+        <v>548</v>
       </c>
     </row>
     <row r="205" spans="1:3">
       <c r="A205" t="s">
-        <v>539</v>
+        <v>549</v>
       </c>
       <c r="B205" t="s">
-        <v>540</v>
+        <v>550</v>
       </c>
       <c r="C205" t="s">
-        <v>370</v>
+        <v>190</v>
       </c>
     </row>
     <row r="206" spans="1:3">
       <c r="A206" t="s">
-        <v>543</v>
+        <v>551</v>
       </c>
       <c r="B206" t="s">
-        <v>544</v>
+        <v>552</v>
       </c>
       <c r="C206" t="s">
-        <v>545</v>
+        <v>553</v>
       </c>
     </row>
     <row r="207" spans="1:3">
@@ -4697,178 +4661,90 @@
     </row>
     <row r="208" spans="1:3">
       <c r="A208" t="s">
-        <v>549</v>
+        <v>554</v>
       </c>
       <c r="B208" t="s">
-        <v>550</v>
+        <v>555</v>
       </c>
       <c r="C208" t="s">
-        <v>551</v>
+        <v>556</v>
       </c>
     </row>
     <row r="209" spans="1:3">
       <c r="A209" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="B209" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="C209" t="s">
-        <v>554</v>
+        <v>190</v>
       </c>
     </row>
     <row r="210" spans="1:3">
       <c r="A210" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="B210" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="C210" t="s">
-        <v>191</v>
+        <v>559</v>
       </c>
     </row>
     <row r="211" spans="1:3">
       <c r="A211" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="B211" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="C211" t="s">
-        <v>551</v>
+        <v>562</v>
       </c>
     </row>
     <row r="212" spans="1:3">
       <c r="A212" t="s">
-        <v>552</v>
+        <v>560</v>
       </c>
       <c r="B212" t="s">
-        <v>553</v>
+        <v>561</v>
       </c>
       <c r="C212" t="s">
-        <v>554</v>
+        <v>562</v>
       </c>
     </row>
     <row r="213" spans="1:3">
       <c r="A213" t="s">
-        <v>557</v>
+        <v>563</v>
       </c>
       <c r="B213" t="s">
-        <v>558</v>
+        <v>564</v>
       </c>
       <c r="C213" t="s">
-        <v>551</v>
+        <v>296</v>
       </c>
     </row>
     <row r="214" spans="1:3">
       <c r="A214" t="s">
-        <v>559</v>
+        <v>565</v>
       </c>
       <c r="B214" t="s">
-        <v>560</v>
+        <v>566</v>
       </c>
       <c r="C214" t="s">
-        <v>561</v>
+        <v>567</v>
       </c>
     </row>
     <row r="215" spans="1:3">
       <c r="A215" t="s">
-        <v>562</v>
+        <v>568</v>
       </c>
       <c r="B215" t="s">
-        <v>563</v>
+        <v>569</v>
       </c>
       <c r="C215" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="216" spans="1:3">
-      <c r="A216" t="s">
-        <v>565</v>
-      </c>
-      <c r="B216" t="s">
-        <v>566</v>
-      </c>
-      <c r="C216" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="217" spans="1:3">
-      <c r="A217" t="s">
-        <v>568</v>
-      </c>
-      <c r="B217" t="s">
-        <v>569</v>
-      </c>
-      <c r="C217" t="s">
         <v>570</v>
-      </c>
-    </row>
-    <row r="218" spans="1:3">
-      <c r="A218" t="s">
-        <v>571</v>
-      </c>
-      <c r="B218" t="s">
-        <v>572</v>
-      </c>
-      <c r="C218" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="219" spans="1:3">
-      <c r="A219" t="s">
-        <v>571</v>
-      </c>
-      <c r="B219" t="s">
-        <v>572</v>
-      </c>
-      <c r="C219" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="220" spans="1:3">
-      <c r="A220" t="s">
-        <v>574</v>
-      </c>
-      <c r="B220" t="s">
-        <v>575</v>
-      </c>
-      <c r="C220" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="221" spans="1:3">
-      <c r="A221" t="s">
-        <v>577</v>
-      </c>
-      <c r="B221" t="s">
-        <v>578</v>
-      </c>
-      <c r="C221" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="222" spans="1:3">
-      <c r="A222" t="s">
-        <v>577</v>
-      </c>
-      <c r="B222" t="s">
-        <v>578</v>
-      </c>
-      <c r="C222" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="223" spans="1:3">
-      <c r="A223" t="s">
-        <v>580</v>
-      </c>
-      <c r="B223" t="s">
-        <v>581</v>
-      </c>
-      <c r="C223" t="s">
-        <v>582</v>
       </c>
     </row>
   </sheetData>

--- a/kabum_produtos.xlsx
+++ b/kabum_produtos.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="295">
   <si>
     <t>Produto</t>
   </si>
@@ -73,12 +73,6 @@
 &lt;p&gt;Sa&amp;iacute;da full HD (1920 X 1080) de 120Hz no PS5 &amp;amp; Xbox Series X/S&lt;/p&gt;</t>
   </si>
   <si>
-    <t>Monitor Concórdia Gamer Curvo 27'', Led Full, Hd, 165hz, Freesync - Cz270f</t>
-  </si>
-  <si>
-    <t>&lt;strong&gt;você na vantagem sempre!&amp;nbsp &amp;nbsp&amp;nbsp&lt;/strong&gt;o&amp;nbsp&lt;strong&gt;monitor concórdia gamer curvo cz270f 27&amp;quot led full hd 165hz freesync&lt;/strong&gt;&amp;nbspconta com resposta de 1ms e taxa de atualização de 165hz, permitindo a mais alta performance durante suas gameplays. Sua curvatura amplia o campo de visão relativo, concentrando toda a ação ao alcance dos olhos do usuário, sem perder resolução.&lt;strong&gt;monitor curvo&amp;nbsp &amp;nbsp&lt;/strong&gt;tenha mais imersão na sua gameplay com esse monitor curvo da concórdia. Observe seus adversários ainda mais de perto com essa imersão de 1500r de curvatura e um ângulo de visão de 178º.&lt;strong&gt;inclinável&amp;nbsp&lt;/strong&gt;ajuste de inclinação da tela de 5&amp;deg a 15&amp;deg. Ajuste seu monitor da maneira que quiser deixando sua visão ainda mais confortável e ampla!&lt;strong&gt;especificações:&lt;/strong&gt;&lt;strong&gt;tela:&lt;/strong&gt;painel: vaárea ativa: 596.736 &amp;times 335.664 mmângulo de visão: 178/178&amp;nbspcurvatura: r1500&amp;nbspresolução: 1920*1080165hzdot pitch: 0,3108cores do painel: 16.7m&amp;nbsp&amp;nbspbrilho(máximo): 250cd/m2tempo de resposta: 1ms&amp;nbspcontraste: 3000: 1taxa de heartz: 165hz&amp;nbsp &amp;nbsp&lt;strong&gt;conectividade:&amp;nbsp&lt;/strong&gt;hdmidisplayport 1.4dvientrada earphonedc (energia)&lt;strong&gt;alimentação:&lt;/strong&gt;tipo: adaptador externovoltagem: 12v/3.5aconsumo: 38w | stand by: 0.5w&amp;nbsp&lt;strong&gt;recursos do monitor:&lt;/strong&gt;- base de fácil desmontagem- freesync/g-sync&amp;nbsp&amp;nbsp- filtro de luz azul- flicker free- baixo consumo em modo stand by- overdriver&amp;nbsp- base fixa- sem bordas- auto falante interno: sim.- vesa: 100*100mm.&amp;nbsp&lt;strong&gt;acompanha:&lt;/strong&gt;&amp;nbspcabo displayport,&amp;nbspmanual do usuário e parafusos.&amp;nbsp&amp;nbsp&lt;strong&gt;dimensões da tela (cm)(axlxp):&lt;/strong&gt;&amp;nbsp36 | 61 | 4,5 | peso(kg): 4,734.&lt;strong&gt;dimensões da tela com base&amp;nbsp(cm)(axlxp)&lt;/strong&gt;: 43 | 61 | 17 | peso(kg): 4,734.&lt;br&gt;&lt;br&gt;&lt;strong&gt;especificações técnicas&lt;/strong&gt;&lt;br&gt;monitor concórdia gamer curvo cz270f 27´´ led full hd 165hz freesync | entregue para todo o brasil |</t>
-  </si>
-  <si>
     <t>Monitor Gamer Asus TUF 31.5 LED 2K QHD, 165Hz, 1ms, HDMI e DisplayPort,  HDR, 120% sRGB, FreeSync Premium, Som Integrado, VESA - VG32VQ1B</t>
   </si>
   <si>
@@ -140,6 +134,12 @@
 &lt;h3&gt;Aproveite essa oportunidade e adquira seu Monitor Gamer no KaBuM!&lt;/h3&gt;</t>
   </si>
   <si>
+    <t>Monitor Gamer AOC Hero 27 Full HD, Wide, 144 Hz, 1ms, IPS, HDMI e VGA, G-Sync, Ajuste de Ângulo - 27G2/BK</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;O monitor AOC Hero 27 &amp;eacute; compat&amp;iacute;vel com a tecnologia G-Sync e entrega aos gamers uma experi&amp;ecirc;ncia lisa, r&amp;aacute;pida e responsiva em todos os jogos. Experimente uma jogabilidade impec&amp;aacute;vel com a taxa de atualiza&amp;ccedil;&amp;atilde;o de tela 144 Hz que garante imagens r&amp;aacute;pidas, suaves e movimentos n&amp;iacute;tidos, para nenhum detalhe passar despercebido.&lt;/p&gt;</t>
+  </si>
+  <si>
     <t>Monitor Gamer Acer KG251Q Nitro 24.5" Full HD, 250Hz, 1ms, Displayport e HDMI, HDR10, FreeSync, Preto - UM.KX1AA.Z02</t>
   </si>
   <si>
@@ -155,12 +155,6 @@
 &lt;p&gt;&amp;Eacute; uma tecnologia de exibi&amp;ccedil;&amp;atilde;o que cria&lt;strong&gt; n&amp;iacute;veis mais profundos de contraste&lt;/strong&gt; em preto e branco, proporcionando uma imers&amp;atilde;o de n&amp;iacute;vel maior por meio da recria&amp;ccedil;&amp;atilde;o de imagem realista.&lt;/p&gt;
 &lt;p&gt;&amp;nbsp;&lt;/p&gt;
 &lt;h3&gt;Compre agora no KaBuM"&lt;/h3&gt;</t>
-  </si>
-  <si>
-    <t>Monitor Gamer AOC Hero 27 Full HD, Wide, 144 Hz, 1ms, IPS, HDMI e VGA, G-Sync, Ajuste de Ângulo - 27G2/BK</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;O monitor AOC Hero 27 &amp;eacute; compat&amp;iacute;vel com a tecnologia G-Sync e entrega aos gamers uma experi&amp;ecirc;ncia lisa, r&amp;aacute;pida e responsiva em todos os jogos. Experimente uma jogabilidade impec&amp;aacute;vel com a taxa de atualiza&amp;ccedil;&amp;atilde;o de tela 144 Hz que garante imagens r&amp;aacute;pidas, suaves e movimentos n&amp;iacute;tidos, para nenhum detalhe passar despercebido.&lt;/p&gt;</t>
   </si>
   <si>
     <t>Monitor Gamer AOC Legend 27' LED, Curvo, 240 Hz, Full HD, 0.5ms, FreeSync Premium, 120% sRGB, HDMI/DisplayPort - C27G2ZE</t>
@@ -192,12 +186,6 @@
 &lt;h3 style="text-align: justify;"&gt;Compre agora no KaBuM!&lt;/h3&gt;</t>
   </si>
   <si>
-    <t>Monitor Gamer AOC Hero 23.8 Full HD, Wide, 144 Hz, 1ms, FreeSync, HDMI e DisplayPort, IPS, Ajuste de Altura - 24G2/BK</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;O monitor Gamer AOC Hero &amp;eacute; compat&amp;iacute;vel com a tecnologia G-Sync e entrega aos gamers uma experi&amp;ecirc;ncia lisa, r&amp;aacute;pida e responsiva em todos os jogos. Experimente uma jogabilidade impec&amp;aacute;vel com a taxa de atualiza&amp;ccedil;&amp;atilde;o de tela 144 Hz que garante imagens r&amp;aacute;pidas, suaves e movimentos n&amp;iacute;tidos, para nenhum detalhe passar despercebido.&lt;/p&gt;</t>
-  </si>
-  <si>
     <t>Monitor Gamer LG UltraGear 24 Full HD, 144Hz, 1ms, IPS, HDMI e DisplayPort, 99% sRGB, HDR, FreeSync Premium, VESA - 24GN60R-B.AWZM</t>
   </si>
   <si>
@@ -208,6 +196,12 @@
 &lt;h2&gt;&lt;br /&gt;HDR10 com sRGB 99% (T&amp;iacute;p.)&lt;/h2&gt;
 &lt;p&gt;Este monitor suporta HDR10 com sRGB 99% (Tip.) permitindo uma imers&amp;atilde;o visual realista com contraste e cores de grande riqueza. Independentemente do campo de batalha, poder&amp;aacute; ajudar os jogadores a ver as cores dram&amp;aacute;ticas pretendidas pelos criadores do jogo.&lt;br /&gt;Com a tecnologia FreeSync Premium, os jogadores podem experimentar movimentos fluidos e cont&amp;iacute;nuos em jogos de alta resolu&amp;ccedil;&amp;atilde;o e em ritmo acelerado. Ele virtualmente minimiza a trepida&amp;ccedil;&amp;atilde;o e a trepida&amp;ccedil;&amp;atilde;o da tela.&lt;/p&gt;
 &lt;h3&gt;&lt;br /&gt;Monitor Gamer &amp;eacute; no KaBuM!&lt;/h3&gt;</t>
+  </si>
+  <si>
+    <t>Monitor Gamer AOC Hero 23.8 Full HD, Wide, 144 Hz, 1ms, FreeSync, HDMI e DisplayPort, IPS, Ajuste de Altura - 24G2/BK</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;O monitor Gamer AOC Hero &amp;eacute; compat&amp;iacute;vel com a tecnologia G-Sync e entrega aos gamers uma experi&amp;ecirc;ncia lisa, r&amp;aacute;pida e responsiva em todos os jogos. Experimente uma jogabilidade impec&amp;aacute;vel com a taxa de atualiza&amp;ccedil;&amp;atilde;o de tela 144 Hz que garante imagens r&amp;aacute;pidas, suaves e movimentos n&amp;iacute;tidos, para nenhum detalhe passar despercebido.&lt;/p&gt;</t>
   </si>
   <si>
     <t>Monitor Gamer AOC Viper 27 Full HD, 165Hz, 1ms, IPS, HDMI e DisplayPort, FreeSync - 27G2SE</t>
@@ -293,6 +287,15 @@
     <t>Monitor Gamer Samsung Odyssey G32A 27" Preto LS27AG320NLXZD &lt;br /&gt;Resolução FHD e painel IPS. Agora você pode ver os jogos como nunca antes. O painel IPS oferece cores claras e um amplo ângulo de visão de 178º para maior clareza a partir de qualquer posição. Com mais pixels e maior profundidade, os jogos estão mais próximos da realidade do que nunca. Compatível com Nvidia G-Sync. Jogabilidade fácil e sem esforço. A compatibilidade G-Sync mantém a placa de vídeo e o painel sincronizados para eliminar cortes, atraso de tela e rasgos de imagem. Cenas de jogo rápidas e complexas são estáveis e sem repetições com AMD FreeSync Premium aumentando sua vantagem competitiva.</t>
   </si>
   <si>
+    <t>Monitor Gamer Samsung Odyssey G4 25 IPS Full HD, 240Hz, 1ms, HDMI e DisplayPort,  99% sRGB, HDR, FreeSync Premium  - LS25BG400ELXZD</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Monitor Gamer Samsung Odyssey G4 25 IPS Full HD&lt;/h2&gt;
+&lt;p&gt;Resolu&amp;ccedil;&amp;atilde;o FHD e painel IPS. Agora voc&amp;ecirc; pode ver os jogos como nunca antes. O painel IPS oferece cores claras e um amplo &amp;acirc;ngulo de vis&amp;atilde;o de 178&amp;ordm; para maior clareza a partir de qualquer posi&amp;ccedil;&amp;atilde;o. Com mais pixels e maior profundidade, os jogos est&amp;atilde;o mais pr&amp;oacute;ximos da realidade do que nunca.&lt;br /&gt;240Hz de taxa de atualiza&amp;ccedil;&amp;atilde;o &amp;amp; 1ms de tempo de resposta. Velocidade nas cenas. A taxa de atualiza&amp;ccedil;&amp;atilde;o de 240Hz elimina o atraso para uma jogabilidade emocionante com a&amp;ccedil;&amp;atilde;o ultra-suave. Ataque os inimigos assim que os v&amp;ecirc;-los com um tempo de resposta de 1ms e quadros sem borr&amp;atilde;o.&lt;/p&gt;
+&lt;h2&gt;&lt;br /&gt;Foco sem nunca quebrar o fluxo&lt;/h2&gt;
+&lt;p&gt;Compat&amp;iacute;vel com Nvidia G-Sync. Jogabilidade f&amp;aacute;cil e sem esfor&amp;ccedil;o. A compatibilidade G-Sync mant&amp;eacute;m a placa de v&amp;iacute;deo e o painel sincronizados para eliminar cortes, atraso de tela e rasgos de imagem. Cenas de jogo r&amp;aacute;pidas e complexas s&amp;atilde;o est&amp;aacute;veis e sem repeti&amp;ccedil;&amp;otilde;es com AMD FreeSync Premium aumentando sua vantagem competitiva.&lt;br /&gt;Auto Source Switch+ Ligue e jogue instantaneamente. Com o Auto Source Switch+, seu monitor detecta quando os dispositivos conectados s&amp;atilde;o ligados e muda instantaneamente para o novo sinal de fonte. Isto o ajuda a chegar mais r&amp;aacute;pido &amp;agrave; a&amp;ccedil;&amp;atilde;o do jogo sem passar por v&amp;aacute;rias fontes de entrada.&lt;/p&gt;</t>
+  </si>
+  <si>
     <t>Monitor Gamer Gigabyte 27 Curvo, Full HD, HDMI/DisplayPort, FreeSync, 165Hz, 1ms, Altura Ajustável - G27FC-A-SA</t>
   </si>
   <si>
@@ -395,6 +398,26 @@
 &lt;h3&gt;Aproveite essa oportunidade e adquira seu Monitor Gamer Acer no KaBuM!&lt;/h3&gt;</t>
   </si>
   <si>
+    <t>Monitor Gamer Husky Hailstorm 31.5' LED, Curvo, 165 Hz, Full HD, 1ms, Adaptive Sync, HDMI/DisplayPort, Ajuste de Ângulo - HGMT002</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Monitor Gamer Husky Hailstorm 31.5' LED, Curvo, 165 Hz, Full HD, 1ms, Adaptive Sync, HDMI/DisplayPort, Ajuste de &amp;Acirc;ngulo&amp;nbsp;&lt;/h2&gt;
+&lt;h2&gt;&amp;nbsp;&lt;/h2&gt;
+&lt;h3&gt;Esteja um passo &amp;agrave; frente!&amp;nbsp;&lt;/h3&gt;
+&lt;p&gt;O Monitor Husky Hail Storm conta com resposta de 1ms e taxa de atualiza&amp;ccedil;&amp;atilde;o de &lt;strong&gt;165Hz&lt;/strong&gt;, permitindo a mais alta performance durante suas gameplays. Sua &lt;strong&gt;curvatura&lt;/strong&gt; amplia o campo de vis&amp;atilde;o relativo, concentrando toda a a&amp;ccedil;&amp;atilde;o ao alcance dos olhos do usu&amp;aacute;rio, sem perder resolu&amp;ccedil;&amp;atilde;o.&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h3&gt;Melhor Entrega de Imagens para sua Gameplay&lt;/h3&gt;
+&lt;p&gt;Compat&amp;iacute;vel com a tecnologia &lt;strong&gt;Adaptive Sync&lt;/strong&gt;, permite a sincroniza&amp;ccedil;&amp;atilde;o dos frames da placa de v&amp;iacute;deo, decretando o fim do input lag, bem como do tearing.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h3&gt;Conectividade&lt;/h3&gt;
+&lt;p&gt;O monitor Husky Hailstorm acompanha um cabo &lt;strong&gt;DisplayPort&lt;/strong&gt; que garante a melhor qualidade de imagem para seu jogo. Al&amp;eacute;m da conex&amp;atilde;o DP, o monitor ainda possui duas conex&amp;otilde;es &lt;strong&gt;HDMI&lt;/strong&gt; e uma &lt;strong&gt;conex&amp;atilde;o P2&lt;/strong&gt; para ouvir seu jogo diretamente do seu monitor.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h3&gt;Maior Ergonomia e Conforto para Uso Prolongado&amp;nbsp;&amp;nbsp;&lt;/h3&gt;
+&lt;p&gt;O Husky Hailstorm possui ajuste de &lt;strong&gt;inclina&amp;ccedil;&amp;atilde;o de 5&amp;deg; a 15&amp;deg;&lt;/strong&gt; que se ajusta ergonomicamente para o seu uso. O monitor tamb&amp;eacute;m conta com &lt;strong&gt;Redu&amp;ccedil;&amp;atilde;o de Luz Azul&lt;/strong&gt;, se tornando uma &amp;oacute;tima op&amp;ccedil;&amp;atilde;o para Gameplays prolongadas.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h3&gt;Seu Monitor Husky voc&amp;ecirc; encontra aqui no KaBuM!&lt;/h3&gt;</t>
+  </si>
+  <si>
     <t>Monitor Gamer AOC Sniper 27' IPS, Wide, 75 Hz, Full HD, 1ms, Adaptive Sync, 98% sRGB, HDMI/VGA, Ajuste de Ângulo - 27G2HE5</t>
   </si>
   <si>
@@ -468,12 +491,6 @@
 &lt;h3&gt;Compre j&amp;aacute; o seu no KaBuM&lt;/h3&gt;</t>
   </si>
   <si>
-    <t>Monitor Gamer Lg Ultragear 27 Polegadas,FULL  HdD144hz 1ms Ips, HDMI e Displayport</t>
-  </si>
-  <si>
-    <t>Monitor gamer lg ultragear, 27 full hd 144hz 1ms ips hdmi e displayport hdr 10 99% srgb, freesync premium vesa - 27gn65r o monitor gamer lg ultragear 27gn65r é uma opção de alta performance desenvolvida para atender às demandas dos jogadores mais exigentes. Com uma tela de 27 polegadas em resolução full hd (1920 x 1080), esse monitor oferece uma experiência visual imersiva com imagens nítidas e detalhadas. A velocidade é uma das principais características desse monitor, com um tempo de resposta ultra-rápido de 1ms (gtg), o que significa que as transições de cores são praticamente instantâneas, eliminando o efeito de arrasto nas imagens durante os jogos mais rápidos e intensos. Além disso, a taxa de atualização de 144hz proporciona uma jogabilidade mais fluida, permitindo que os jogadores vejam o próximo quadro rapidamente e tenham uma experiência de jogo mais suave. O painel ips do monitor garante ângulos de visão amplos e cores vibrantes, com suporte para 99% do espaço de cores srgb e tecnologia hdr10. Isso resulta em imagens mais realistas e ricas em detalhes, criando uma experiência de visualização imersiva para jogos, filmes e conteúdos em geral. O monitor gamer lg ultragear 27gn65r também é compatível com a tecnologia amd freesync premium e nvidia g-sync, que ajudam a eliminar o screen tearing e o stuttering durante os jogos, sincronizando a taxa de atualização do monitor com a taxa de quadros da placa gráfica para uma jogabilidade mais suave e sem interrupções. O design eletrizante e moderno do monitor complementa perfeitamente o setup gamer, enquanto a compatibilidade vesa permite a instalação em suportes ou braços para maior versatilidade. Se você busca uma experiência de jogo de alta performance com imagens fluidas, cores vívidas e tempos de resposta rápidos, o monitor gamer lg ultragear 27gn65r é uma escolha excelente para elevar seu entretenimento e desempenho nos jogos.   especificações: - marca: lg - modelo: 27gn65r     características: tela: - cor: preto - tamanho: 27” - tipo de tela: ips - ângulo de visão: 178º / 178º - resolução máxima: full hd (1920 x 1080) - brilho: 300 cd/m² - contraste: 1000:01 - tempo de resposta: 1ms (gtg) - taxa de atualização: 144hz - gama de cores: srgb 99% (típ.) - profundidade de cores (nº de cores): 16,7m - distância entre pixels: 0,3108 x 0,3108 mm - tratamento de tela: antirreflexivo   entradas e saídas: - hdmi: sim (v2.0) - displayport: sim (v1.4) - saída de fone de ouvido: sim   energia: - consumo de energia: 32w (típ.) - fonte: adaptador externo   ajustes: - ajustes de posição: inclinação, altura, pivô - tamanho da furação: 100 x 100 mm   recursos: - hdr: hdr10 - flicker safe: sim - amd freesync: freesync premium - nvidia g-sync: sim - modo leitura: sim - onscreen control: sim - motion blur reduction: sim - crosshair: sim - dynamic action sync: sim - black stabilizer: sim - plug &amp; play: sim</t>
-  </si>
-  <si>
     <t>Monitor Gamer Gigabyte, 27 Full HD, 180Hz, 1ms, DisplayPort e HDMI, 108% sRGB, HDR, Adaptive-Sync - GS27FC SA</t>
   </si>
   <si>
@@ -489,6 +506,12 @@
 &lt;p&gt;GS27FC pode exibir &lt;strong&gt;16,7 milh&amp;otilde;es de cores&lt;/strong&gt; e possui uma taxa de contraste de &lt;strong&gt;3000:1&lt;/strong&gt;. Ele permite que voc&amp;ecirc; desfrute de uma experi&amp;ecirc;ncia de jogo fluente com cores reais e vibrantes. O GS27FC est&amp;aacute; pronto para &lt;strong&gt;HDR&lt;/strong&gt;, o que desperta interesse em uma ampla gama de aplica&amp;ccedil;&amp;otilde;es, incluindo jogos, entretenimento cinematogr&amp;aacute;fico e cria&amp;ccedil;&amp;atilde;o de conte&amp;uacute;do multim&amp;iacute;dia.&lt;/p&gt;
 &lt;p&gt;&amp;nbsp;&lt;/p&gt;
 &lt;h3&gt;Compre j&amp;aacute; o seu no KaBuM!&lt;/h3&gt;</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Lg Ultragear 27 Polegadas,FULL  HdD144hz 1ms Ips, HDMI e Displayport</t>
+  </si>
+  <si>
+    <t>Monitor gamer lg ultragear, 27 full hd 144hz 1ms ips hdmi e displayport hdr 10 99% srgb, freesync premium vesa - 27gn65r o monitor gamer lg ultragear 27gn65r é uma opção de alta performance desenvolvida para atender às demandas dos jogadores mais exigentes. Com uma tela de 27 polegadas em resolução full hd (1920 x 1080), esse monitor oferece uma experiência visual imersiva com imagens nítidas e detalhadas. A velocidade é uma das principais características desse monitor, com um tempo de resposta ultra-rápido de 1ms (gtg), o que significa que as transições de cores são praticamente instantâneas, eliminando o efeito de arrasto nas imagens durante os jogos mais rápidos e intensos. Além disso, a taxa de atualização de 144hz proporciona uma jogabilidade mais fluida, permitindo que os jogadores vejam o próximo quadro rapidamente e tenham uma experiência de jogo mais suave. O painel ips do monitor garante ângulos de visão amplos e cores vibrantes, com suporte para 99% do espaço de cores srgb e tecnologia hdr10. Isso resulta em imagens mais realistas e ricas em detalhes, criando uma experiência de visualização imersiva para jogos, filmes e conteúdos em geral. O monitor gamer lg ultragear 27gn65r também é compatível com a tecnologia amd freesync premium e nvidia g-sync, que ajudam a eliminar o screen tearing e o stuttering durante os jogos, sincronizando a taxa de atualização do monitor com a taxa de quadros da placa gráfica para uma jogabilidade mais suave e sem interrupções. O design eletrizante e moderno do monitor complementa perfeitamente o setup gamer, enquanto a compatibilidade vesa permite a instalação em suportes ou braços para maior versatilidade. Se você busca uma experiência de jogo de alta performance com imagens fluidas, cores vívidas e tempos de resposta rápidos, o monitor gamer lg ultragear 27gn65r é uma escolha excelente para elevar seu entretenimento e desempenho nos jogos.   especificações: - marca: lg - modelo: 27gn65r     características: tela: - cor: preto - tamanho: 27” - tipo de tela: ips - ângulo de visão: 178º / 178º - resolução máxima: full hd (1920 x 1080) - brilho: 300 cd/m² - contraste: 1000:01 - tempo de resposta: 1ms (gtg) - taxa de atualização: 144hz - gama de cores: srgb 99% (típ.) - profundidade de cores (nº de cores): 16,7m - distância entre pixels: 0,3108 x 0,3108 mm - tratamento de tela: antirreflexivo   entradas e saídas: - hdmi: sim (v2.0) - displayport: sim (v1.4) - saída de fone de ouvido: sim   energia: - consumo de energia: 32w (típ.) - fonte: adaptador externo   ajustes: - ajustes de posição: inclinação, altura, pivô - tamanho da furação: 100 x 100 mm   recursos: - hdr: hdr10 - flicker safe: sim - amd freesync: freesync premium - nvidia g-sync: sim - modo leitura: sim - onscreen control: sim - motion blur reduction: sim - crosshair: sim - dynamic action sync: sim - black stabilizer: sim - plug &amp; play: sim</t>
   </si>
   <si>
     <t>Monitor Gamer AOC 27 2K QHD, 155hz, 1ms, HDMI e DisplayPort, FreeSync Premium, 121.5% sRGB, VESA - Q27G2</t>
@@ -511,6 +534,12 @@
     <t>Uma velocidade ultrarrápida de 240Hz e 1ms permite que os jogadores vejam o próximo quadro rapidamente e fazem com que a imagem apareça suavemente. Os jogadores podem responder rapidamente aos oponentes e mirar no alvo facilmente.</t>
   </si>
   <si>
+    <t>Monitor Concórdia Gamer Curvo Cz270f200 27'' LED FULL HD, 200hz, 1ms, HDMI, DP, DVI</t>
+  </si>
+  <si>
+    <t>o monitor concórdia gamer curvo 27" 200hz entrega aos gamers uma experiência lisa, rápida e responsiva em todos os jogos. Experimente uma jogabilidade impecável com a taxa de atualização de tela 200 hz que garante imagens rápidas, suaves e movimentos nítidos, para nenhum detalhe passar despercebido. Com tela de 27", ultrarrápido e cheio de ótimos recursos para todos os tipos de jogos, a partir de agora seus momentos serão ainda mais insanos e sua experiência, impecável.conectividadehdmi: sim v1.4display port v1.2: sim acompanha cabo v1.2dvi: simphone: sim</t>
+  </si>
+  <si>
     <t>Monitor Gamer Acer Nitro Edo, 27 Polegadas, Full HD, 1MS, Curvo, VA, 180Hz, - Ed270r-S3biip</t>
   </si>
   <si>
@@ -566,12 +595,6 @@
 &lt;h3&gt;Aproveite essa oportunidade e adquira seu Monitor Gamer Curvo no KaBuM!&lt;/h3&gt;</t>
   </si>
   <si>
-    <t>Monitor Concórdia Gamer Curvo Cz270f200 27'' LED FULL HD, 200hz, 1ms, HDMI, DP, DVI</t>
-  </si>
-  <si>
-    <t>o monitor concórdia gamer curvo 27" 200hz entrega aos gamers uma experiência lisa, rápida e responsiva em todos os jogos. Experimente uma jogabilidade impecável com a taxa de atualização de tela 200 hz que garante imagens rápidas, suaves e movimentos nítidos, para nenhum detalhe passar despercebido. Com tela de 27", ultrarrápido e cheio de ótimos recursos para todos os tipos de jogos, a partir de agora seus momentos serão ainda mais insanos e sua experiência, impecável.conectividadehdmi: sim v1.4display port v1.2: sim acompanha cabo v1.2dvi: simphone: sim</t>
-  </si>
-  <si>
     <t>Monitor Gamer Acer Nitro 31.5p Curvo, Full HD, 165Hz - Ed320qr S3biipx</t>
   </si>
   <si>
@@ -678,16 +701,16 @@
 &lt;p dir="ltr"&gt;Jogue todos os seus jogos no primeiro n&amp;iacute;vel, afinal voc&amp;ecirc; est&amp;aacute; adquirindo um super monitor. Todos os m&amp;iacute;nimos detalhes foram pensados no desenvolvimento deste produto.&lt;/p&gt;</t>
   </si>
   <si>
+    <t>Monitor Gamer Acer Nitro Qg270, 27 Polegadas, Full Hd, 180hz, 1ms Freesync</t>
+  </si>
+  <si>
+    <t>Monitor gamer acer nitro qg270 27 polegadas full hd 180hz 1ms freesync  &lt;br /&gt;&lt;br /&gt;  &lt;br /&gt;&lt;br /&gt;  com o monitor gamer nitro qg270 27 polegadas da acer você conseguirá jogar com muito mais clareza e foco! Ele conta com uma alta taxa de atualização de até 180hz e visual response boost (vrb) de até 1 ms. Além disso, o design zeroframe praticamente elimina as bordas e garante a sua imersão no jogo.&lt;br /&gt;&lt;br /&gt;  &lt;br /&gt;&lt;br /&gt;  confira as principais características do nitro qg270 27 polegadas:&lt;br /&gt;&lt;br /&gt;  tela de 27 polegadas full hd: o nitro qg270 entrega imagens mais nítidas, levando sua experiência visual e seu foco no jogo para um novo nível.&lt;br /&gt;&lt;br /&gt;  design zeroframe: monitor com tela led va e design zeroframe, que praticamente elimina as bordas para que você tenha uma verdadeira imersão no jogo.&lt;br /&gt;&lt;br /&gt;  taxa de atualização de até 180hz: esse monitor conta com uma alta taxa de atualização de até 180hz. Prepare-se para ver imagens mais suaves, sem rastros e sem rasgos.&lt;br /&gt;&lt;br /&gt;  tecnologia hdr10: a tela cria níveis mais profundos de contraste preto e branco. Conte com mais imersão no jogo por meio da recriação de imagens realistas.&lt;br /&gt;&lt;br /&gt;  visual response boost (vrb) de até 1 ms: o monitor reduz borrões, efeitos fantasmas e manchas nas imagens. Além disso, elimina o desfoque em objetos em movimento rápido.&lt;br /&gt;&lt;br /&gt;  &lt;br /&gt;&lt;br /&gt;  características:&lt;br /&gt;&lt;br /&gt;  marca: acer&lt;br /&gt;&lt;br /&gt;  modelo: nitro qg270&lt;br /&gt;&lt;br /&gt;  tecnologias: hdr10, md freesync premium, acervision care, flicker-less, low dimming, bluelightshield, acer display widget, game mode, adaptative contrast management&lt;br /&gt;&lt;br /&gt;  cor: preto&lt;br /&gt;&lt;br /&gt;  resolução de tela: full hd 1920 x 1080 180 hz&lt;br /&gt;&lt;br /&gt;  conexão: 1x hdmi (2.0) e 1x displayport(1.4)&lt;br /&gt;&lt;br /&gt;  brilho: 300 nits&lt;br /&gt;&lt;br /&gt;  tempo de resposta: 1 ms vrb visual response boost&lt;br /&gt;&lt;br /&gt;  contraste: 3000:1&lt;br /&gt;&lt;br /&gt;  atualização: até 180 hz&lt;br /&gt;&lt;br /&gt;  interfaces/portas: 1x hdmi(2.0), 1x displayport(1.4), 1x saída de áudio e entrada de alimentação&lt;br /&gt;&lt;br /&gt;  inclinação: -5 graus a 15 graus (aproximadamente)&lt;br /&gt;&lt;br /&gt;  cores: 16.7 milhões&lt;br /&gt;&lt;br /&gt;  ângulo de visão: 178 graus esquerda / direita e 178 graus cima / baixo&lt;br /&gt;&lt;br /&gt;  &lt;br /&gt;&lt;br /&gt;  itens inclusos:&lt;br /&gt;&lt;br /&gt;  monitor&lt;br /&gt;&lt;br /&gt;  suportes&lt;br /&gt;&lt;br /&gt;  manual em português&lt;br /&gt;&lt;br /&gt;  termo de garantia&lt;br /&gt;&lt;br /&gt;  1x cabo de energia&lt;br /&gt;&lt;br /&gt;  1x cabo hdmi&lt;br /&gt;&lt;br /&gt;  &lt;br /&gt;&lt;br /&gt;  garantia: 12 meses (diretamente com a fabricante)</t>
+  </si>
+  <si>
     <t>Monitor Gamer LG 23.8" Full HD, 144Hz, 1Ms, HDMI, DP, IPS, HDR Freesync - 24GN600-B</t>
   </si>
   <si>
     <t>Monitor Gamer LG 23,8 Full HD 144Hz 1MS HDMI DP IPS HDR Freesync 24GN600-B&lt;br /&gt;&lt;br /&gt;PROJETADO PARA VELOCIDADE INCRÍVEL&lt;br /&gt;Com IPS de 1ms comparável à velocidade TN, fornecendo a imagem residual minimizada e um tempo de resposta rápido, permite que você desfrute de um desempenho de jogo totalmente novo.&lt;br /&gt;&lt;br /&gt;MOVIMENTO DE JOGO FLUIDO&lt;br /&gt;Uma velocidade ultra-rápida de 144 Hz permite que os jogadores vejam o próximo quadro rapidamente e faz com que a imagem apareça suavemente. Os jogadores podem responder rapidamente aos oponentes e mirar no alvo facilmente.&lt;br /&gt;&lt;br /&gt;SINTA O COMBATE REAL COM CORES VERDADEIRAS&lt;br /&gt;Este monitor suporta HDR10 com sRGB 99 (Typ.) Permitindo imersão visual realista com cores ricas e contraste. Independentemente do campo de batalha, pode ajudar os jogadores a ver todas as cores dramáticas que os desenvolvedores do jogo pretendiam.&lt;br /&gt;&lt;br /&gt;REAJA MAIS RÁPIDO AOS OPONENTES&lt;br /&gt;Minimize o atraso de entrada com Dynamic Action Sync para que os jogadores possam capturar cada momento em tempo real.&lt;br /&gt;&lt;br /&gt;ATAQUE PRIMEIRO NO ESCURO&lt;br /&gt;Os jogadores podem evitar que os atiradores se escondam nos lugares mais escuros e escapar rapidamente das situações quando o flash explode.</t>
-  </si>
-  <si>
-    <t>Monitor Gamer Acer Nitro Qg270, 27 Polegadas, Full Hd, 180hz, 1ms Freesync</t>
-  </si>
-  <si>
-    <t>Monitor gamer acer nitro qg270 27 polegadas full hd 180hz 1ms freesync  &lt;br /&gt;&lt;br /&gt;  &lt;br /&gt;&lt;br /&gt;  com o monitor gamer nitro qg270 27 polegadas da acer você conseguirá jogar com muito mais clareza e foco! Ele conta com uma alta taxa de atualização de até 180hz e visual response boost (vrb) de até 1 ms. Além disso, o design zeroframe praticamente elimina as bordas e garante a sua imersão no jogo.&lt;br /&gt;&lt;br /&gt;  &lt;br /&gt;&lt;br /&gt;  confira as principais características do nitro qg270 27 polegadas:&lt;br /&gt;&lt;br /&gt;  tela de 27 polegadas full hd: o nitro qg270 entrega imagens mais nítidas, levando sua experiência visual e seu foco no jogo para um novo nível.&lt;br /&gt;&lt;br /&gt;  design zeroframe: monitor com tela led va e design zeroframe, que praticamente elimina as bordas para que você tenha uma verdadeira imersão no jogo.&lt;br /&gt;&lt;br /&gt;  taxa de atualização de até 180hz: esse monitor conta com uma alta taxa de atualização de até 180hz. Prepare-se para ver imagens mais suaves, sem rastros e sem rasgos.&lt;br /&gt;&lt;br /&gt;  tecnologia hdr10: a tela cria níveis mais profundos de contraste preto e branco. Conte com mais imersão no jogo por meio da recriação de imagens realistas.&lt;br /&gt;&lt;br /&gt;  visual response boost (vrb) de até 1 ms: o monitor reduz borrões, efeitos fantasmas e manchas nas imagens. Além disso, elimina o desfoque em objetos em movimento rápido.&lt;br /&gt;&lt;br /&gt;  &lt;br /&gt;&lt;br /&gt;  características:&lt;br /&gt;&lt;br /&gt;  marca: acer&lt;br /&gt;&lt;br /&gt;  modelo: nitro qg270&lt;br /&gt;&lt;br /&gt;  tecnologias: hdr10, md freesync premium, acervision care, flicker-less, low dimming, bluelightshield, acer display widget, game mode, adaptative contrast management&lt;br /&gt;&lt;br /&gt;  cor: preto&lt;br /&gt;&lt;br /&gt;  resolução de tela: full hd 1920 x 1080 180 hz&lt;br /&gt;&lt;br /&gt;  conexão: 1x hdmi (2.0) e 1x displayport(1.4)&lt;br /&gt;&lt;br /&gt;  brilho: 300 nits&lt;br /&gt;&lt;br /&gt;  tempo de resposta: 1 ms vrb visual response boost&lt;br /&gt;&lt;br /&gt;  contraste: 3000:1&lt;br /&gt;&lt;br /&gt;  atualização: até 180 hz&lt;br /&gt;&lt;br /&gt;  interfaces/portas: 1x hdmi(2.0), 1x displayport(1.4), 1x saída de áudio e entrada de alimentação&lt;br /&gt;&lt;br /&gt;  inclinação: -5 graus a 15 graus (aproximadamente)&lt;br /&gt;&lt;br /&gt;  cores: 16.7 milhões&lt;br /&gt;&lt;br /&gt;  ângulo de visão: 178 graus esquerda / direita e 178 graus cima / baixo&lt;br /&gt;&lt;br /&gt;  &lt;br /&gt;&lt;br /&gt;  itens inclusos:&lt;br /&gt;&lt;br /&gt;  monitor&lt;br /&gt;&lt;br /&gt;  suportes&lt;br /&gt;&lt;br /&gt;  manual em português&lt;br /&gt;&lt;br /&gt;  termo de garantia&lt;br /&gt;&lt;br /&gt;  1x cabo de energia&lt;br /&gt;&lt;br /&gt;  1x cabo hdmi&lt;br /&gt;&lt;br /&gt;  &lt;br /&gt;&lt;br /&gt;  garantia: 12 meses (diretamente com a fabricante)</t>
   </si>
   <si>
     <t>Monitor Gamer Cooler Master 23.8 Full HD, 144 Hz, 0.5ms, HDMI e DisplayPort, DCI-P3 de 90%, HDR - CMI-GM238-FFS-BR</t>
@@ -742,6 +765,12 @@
     <t>Desfrute de uma incrível qualidade de imagem com o monitor LG e se surpreenda com o HDR10. A alta gama de cores e com resolução 4k é facilmente superior quando comparado a monitores convencionais. Com a tecnologia AMD Radeon FreeSync você aproveitará ainda mais das imagens do Monitor LG, eliminando os cortes e repetições de imagem..</t>
   </si>
   <si>
+    <t>Monitor Gamer Redragon Pearl, 23.6 Polegadas, 165hz, Curvo, LED, FHD, HDMI - Gm24g3c</t>
+  </si>
+  <si>
+    <t>Características:&lt;br /&gt; - marca: redragon&lt;br /&gt; - modelo: gm24g3c&lt;br /&gt; especificações:&lt;br /&gt; - cor: preto&lt;br /&gt; - alta taxa de atualização até 144hz auxiliando na fluidez da gameplay.&lt;br /&gt; - design elegante e minimalista para se integrar a qualquer setup.&lt;br /&gt; - tecnologia freesync integrada para eliminar as quebras de imagem.&lt;br /&gt; - diversas opções de conexões de vídeo para maior praticidade e versatilidade.&lt;br /&gt; - tamanho: 23,6”&lt;br /&gt; - resolução: 1920 x 1080&lt;br /&gt; - tipo de painel: csot&lt;br /&gt; - taxa de atualização: 165 hz&lt;br /&gt; - número de cores: 16.7 m&lt;br /&gt; - brilho máximo: 250cd/m2 (typical)&lt;br /&gt; - taxa de contraste: 3000:1&lt;br /&gt; - conectividade: hdmi 1.4 x 2, dp x1, 1x 3.5mm áudio.&lt;br /&gt; - power range: 100-240v 50/60hz&lt;br /&gt; - peso bruto(g): 4750&lt;br /&gt; - peso liquido(g): 3450&lt;br /&gt; conteúdo da embalagem:&lt;br /&gt; - monitor gamer redragon</t>
+  </si>
+  <si>
     <t>Monitor Gamer Cooler Master 27 Full HD, 165 Hz, 0.5ms, HDMI e DisplayPort, DCI-P3 90%, HDR - CMI-GM27-FFS-BR</t>
   </si>
   <si>
@@ -768,13 +797,31 @@
     <t>O Monitor Kaizen traz um novo significado para a palavra imersão, a sua tela IPS Full HD proporciona realismo total para a sua jogatina. Tenha uma jogabilidade fluida com uma taxa de atualização de 144Hz, sem rastros e sem o efeito Ghosting. A tela de 27" FHD do Warrior Kaizen garante uma imersão total em seus games. Aproveite ao máximo a qualidade de imagem em alta resolução. Seu painel IPS garante maior fidelidade de cores e qualidade de imagem em seus jogos. A tecnologia FreeSync sincroniza os quadros gerados pela placa gráfica (GPU) com a taxa de atualização do monitor. Isso garante que eles fiquem sempre alinhados e proporcionem uma imagem fluida e sem cortes. Ele conta com um com tempo de resposta de 1ms, permitindo que você tenha a reação mais rápida para os seus desafios. Com iluminação RGB, seu setup gamer ainda melhor. Conta com base ajustável em altura e rotação com ajustes precisos e tempo de resposta ultra rápido para seus comandos. O monitor Warrior Kayzen se adapta perfeitamente ao seu setup.</t>
   </si>
   <si>
-    <t>Monitor Gamer Bluecase 24 Polegadas Full HD,  144HZ, 1ms, HDMI e DisplayPort, FreeSync - BM242GW</t>
-  </si>
-  <si>
-    <t>Monitor Gamer Full HD 144Hz de atualização para melhores gráficos. Com 1 conector DisplayPort e 1 conector HDMI. &lt;br /&gt;&lt;br /&gt;TAXA DE ATUALIZAÇÃO   &lt;br /&gt;Uma taxa de atualização de 144Hz deixa a sua tela sem nenhum borrão, serrilhado ou "ghosting". FLICKER-FREE   A função Flicker-Free regula o brilho para diminuir o cansaço dos olhos durante os jogos. &lt;br /&gt;&lt;br /&gt;APENAS 1MS TEMPO DE RESPOSTA (GTG)   &lt;br /&gt;Melhor desempenho e experiência de jogo nas ações de rápido movimento. &lt;br /&gt;&lt;br /&gt;TECNOLOGIA AMD FREESYNC   &lt;br /&gt;O AMD FREESYNC faz a sincronização entre a taxa de atualização de seu monitor e a taxa de quadros de sua placa de vídeo eliminando imagens quebradas.</t>
-  </si>
-  <si>
     <t>Monitor Gamer Acer 23.8 Polegadas Full HD, 165Hz, 1ms, HDR, FreeSync, HDMI e DisplayPort - QG241Y</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Curvo Concórdia 31.5" QHD R1500, 165Hz, 1ms, HDMI/DisplayPort, FreeSync, Ajuste de Altura, Som Integrado, Preto - C315Q</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Monitor Conc&amp;oacute;rdia Gamer Curvo C315Q 31,5'' ,2K, WQHD, 165hz, 1ms, 2 HDMI, DP, Ajuste de Altura e Rota&amp;ccedil;&amp;atilde;o&lt;/h2&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Curvatura Imersiva de 31,5 Polegadas&lt;/h2&gt;
+&lt;p&gt;O painel WQHD (2560 X 1440) de 31,5 polegadas do Monitor Conc&amp;oacute;rdia Gamer Curvo C315Q oferece visuais impressionantes de todos os &amp;acirc;ngulos com uma curvatura de 1500R que garante que cada ponto seja igualmente visto aos seus olhos. Isso contribui para um maior conforto de visualiza&amp;ccedil;&amp;atilde;o - mesmo durante o uso prolongado - e permite que voc&amp;ecirc; aproveite um amplo &amp;acirc;ngulo de visualiza&amp;ccedil;&amp;atilde;o com menos distor&amp;ccedil;&amp;atilde;o e mudan&amp;ccedil;a de cor ao jogar e assistir filmes.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Taxa de Atualiza&amp;ccedil;&amp;atilde;o de 165Hz&lt;/h2&gt;
+&lt;p&gt;A taxa de atualiza&amp;ccedil;&amp;atilde;o do Monitor Conc&amp;oacute;rdia Gamer Curvo C315Q diminui o atraso e o desfoque de movimento para dar a voc&amp;ecirc; vantagem todos os tipos de jogos.&amp;nbsp; Essa taxa de atualiza&amp;ccedil;&amp;atilde;o ultrarr&amp;aacute;pida permite que voc&amp;ecirc; jogue com as configura&amp;ccedil;&amp;otilde;es visuais mais altas e reaja instantaneamente ao que est&amp;aacute; na tela - para que voc&amp;ecirc; obtenha o primeiro ataque.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Design Ergon&amp;ocirc;mico&lt;/h2&gt;
+&lt;p&gt;Com um suporte ergonomicamente projetado, o Monitor Conc&amp;oacute;rdia Gamer Curvo C315Q oferece inclina&amp;ccedil;&amp;atilde;o, rota&amp;ccedil;&amp;atilde;o e giro da tela de 180&amp;deg; para que voc&amp;ecirc; possa encontrar facilmente sua posi&amp;ccedil;&amp;atilde;o de visualiza&amp;ccedil;&amp;atilde;o ideal.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Monitor Cooler Master Ga271, 27 Polegadas, Wqhd, Va, Hdr10, 100hz, 1ms, Srgb</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;strong&gt;mergulhe no mundo dos jogos&lt;/strong&gt;&lt;br /&gt;o ga271 é um monitor wqhd com taxa de atualização de até 100 hz com suporte para adaptive sync. Com todos os recursos e especificações necessários, o ga271 é um monitor orientado para o valor que oferece desempenho excepcional em aplicações de jogos e de trabalho.&lt;/p&gt;&lt;p&gt;&lt;strong&gt;encontre seu equilíbrio&lt;/strong&gt;&lt;br /&gt;o ga271 com um painel de 27" com resolução wqhd oferece visuais impressionantes para seus jogos e aplicativos relacionados ao trabalho. O ga271 pode ser seu monitor principal para lidar com planilhas durante o dia, bem como para jogar e desfrutar de entretenimento durante a noite.&lt;/p&gt;&lt;p&gt;&lt;strong&gt;100hz + 1ms&lt;/strong&gt;&lt;br /&gt;o ga271 oferece uma taxa de atualização fluida de 100 hz com tempo de resposta de 1 ms, proporcionando imagens mais nítidas e responsivas para jogos, bem como para uso geral de produtividade.&lt;/p&gt;&lt;p&gt;&lt;strong&gt;contraste mais profundo&lt;/strong&gt;&lt;br /&gt;o painel va do ga271 produz pretos mais profundos e escuros para um nível de contraste aprimorado, resultando em maior qualidade de imagem. Com uma relação de contraste de 4000:1, o painel va do ga271 é capaz de reproduzir um nível de contraste 4x superior ao de um painel ips padrão.&lt;/p&gt;&lt;p&gt;&lt;strong&gt;sincronização adaptativa&lt;/strong&gt;&lt;br /&gt;ga271 vem com suporte adaptive sync, proporcionando uma experiência extra suave e sem interrupções em seus jogos. Ganhe uma vantagem competitiva sobre seus oponentes com menos manchas de movimento e visuais mais claros nos jogos que você joga.&lt;/p&gt;&lt;p&gt;&lt;strong&gt;luz azul baixa e sem cintilação&lt;/strong&gt;&lt;br /&gt;ga271 não treme e possui um modo de luz azul baixa para proteger ainda mais seus olhos de emissões de luz azul potencialmente prejudiciais.&lt;/p&gt;&lt;p&gt;&lt;strong&gt;pronto para hdr&lt;/strong&gt;&lt;br /&gt;o ga271 não é ótimo apenas para jogos, mas também para desfrutar de entretenimento, pois aceita entrada hdr, permitindo visualizar conteúdo com maiores detalhes e cores em comparação com um monitor tradicional.&lt;/p&gt;&lt;p&gt;&lt;strong&gt;estética minimalista&lt;/strong&gt;&lt;br /&gt;ga271 segue o básico com um design prático com foco em uma estética minimalista. O design limpo certamente se encaixa perfeitamente em sua configuração de trabalho e lazer.&lt;/p&gt;&lt;p&gt;&lt;strong&gt;opções de conectividade&lt;/strong&gt;&lt;br /&gt;conecte seus dispositivos às portas de e/s que consistem em: 1 x porta de exibição,  2 x hdmi 2.0, 1 x conector de fone de ouvido de 3,5 mm&lt;/p&gt;&lt;p&gt; &lt;/p&gt;&lt;p&gt;&lt;strong&gt;especificações:&lt;/strong&gt;&lt;/p&gt;&lt;ul&gt;	&lt;li&gt;marca: cooler master&lt;/li&gt;	&lt;li&gt;modelo: cmi-ga271&lt;/li&gt;	&lt;li&gt;tipo de painel: série plana&lt;/li&gt;	&lt;li&gt;razão: 16:9&lt;/li&gt;	&lt;li&gt;tamanho da tela: 27"&lt;/li&gt;	&lt;li&gt;painel: va 1.07b&lt;/li&gt;	&lt;li&gt;resolução: 2k wqhd 2560x1440&lt;/li&gt;	&lt;li&gt;taxa de quadros: 100hz&lt;/li&gt;	&lt;li&gt;relação de contraste: 4000:1&lt;/li&gt;	&lt;li&gt;visão de angulo: 178°/178°&lt;/li&gt;	&lt;li&gt;brilho: 250 lêndeas&lt;/li&gt;	&lt;li&gt;gama de cores: srgb 95%&lt;/li&gt;	&lt;li&gt;entradas hdmi: 2&lt;/li&gt;	&lt;li&gt;entrada dp: 1&lt;/li&gt;	&lt;li&gt;tecnologia vrr: adaptive sync, faixa freesync: sim, faixa g-sync: sim&lt;/li&gt;	&lt;li&gt;tempo de resposta: 1ms (mprt) &lt;/li&gt;	&lt;li&gt;proteção de luz azul: sim &lt;/li&gt;	&lt;li&gt;consumo: 18w&lt;/li&gt;	&lt;li&gt;ajuste de inclinação: -5°~+20°&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>Monitor 29 Lg 29wk500 - Tela Ips Full Hd Ultrawide Freesync - Modo Gamer - Screen Split 2.0 - 5ms</t>
   </si>
   <si>
     <t>Monitor Samsung Odyssey, 27pol., Full HD, 165Hz, 1MS, HDMI, Display Port, FreeSync</t>
@@ -789,18 +836,6 @@
     <t>Para você que é fanático por games, precisa ter equipamentos que leve você aos mais altos níveis de habilidade e jogabilidade. A Samsung apresenta o monitor gamer Odyssey G30 LS24BG300ELMZD de 24".
 Com resolução FHD, ele possui frequência de atualização de 144Hz atualiza as imagens da tela com mais frequência a cada segundo, permitindo uma jogabilidade mais suave que acompanha até mesmo os jogadores mais rápidos, painel VA, tempo de resposta de 1ms onde os pixels da tela respondem de maneira quase instantânea, permitindo que a ação rápida flua com precisão do mundo real. Seu desempenho na tela é tão rápido quanto seus próprios reflexos e conexões como 1 Display Port, EA Display Port Version: 1.2, 1 HDMI, EA HDMI Version: 1.4, HDCP Version (HDMI): 2.2, Headphone.
 E ainda, conta com várias características que te ajudam ainda mais como AMD FreeSync Premium que apresenta tecnologia de sincronização adaptativa que reduz atraso de tela, rasgos de imagem e a latência de entrada, assegurando assim que cada cena flua sem interrupções, ajuste de altura, design sem bordas em 3 lados que revela o espaço máximo para uma jogabilidade maior e mais ousada.</t>
-  </si>
-  <si>
-    <t>Monitor Gamer Curvo Duex Dx 270zg, 27 Polegadas, FULL HD (1920x1080), 240hz, Preto</t>
-  </si>
-  <si>
-    <t>Marca: duex&lt;br /&gt;modelo: dx 270zg &lt;br /&gt;&lt;br /&gt;especificações: &lt;br /&gt;&lt;br /&gt;tamanho da tela: 27" &lt;br /&gt;área de display: 527.4 (h) x 296.4 (v) &lt;br /&gt;resolução: 1920x1080 (240hz) &lt;br /&gt;pixel pitch: 0.27mm &lt;br /&gt;ângulo de visão: h:178 / v:178 &lt;br /&gt;brilho: 250cd/m² &lt;br /&gt;tempo de resposta: 1ms &lt;br /&gt;número de cores: 16.7m &lt;br /&gt;&lt;br /&gt;conectores: &lt;br /&gt;2x hdmi &lt;br /&gt;1x displayport &lt;br /&gt;1x usb &lt;br /&gt;1x áudio &lt;br /&gt;&lt;br /&gt;conteúdo da caixa: &lt;br /&gt;monitor &lt;br /&gt;base&lt;br /&gt;cabo hdmi&lt;br /&gt;fonte de energia&lt;br /&gt;&lt;br /&gt;garantia: 365 dias</t>
-  </si>
-  <si>
-    <t>Monitor Gamer Draxen 23.8'' resolução de 1920 x 1080 tempo de resposta de 1 MS 165HZ Full HD, Sem Borda</t>
-  </si>
-  <si>
-    <t>o monitor gamer draxen 165hz full hd é tudo o que você precisa para completar o seu setup. desenvolvido pensando no seu estilo de vida, oferecendo qualidade, desempenho e um design mais moderno do que nunca. a sua tela 23.8 lhe dará comodidade para estudar, trabalhar ou assistir sua série ou filme favoritos no seu tempo de lazer. além disso, sua alta resolução de 1920 x 1080 permite que você desfrute de momentos únicos graças a uma imagem nítida, cores realistas e contraste incrível. exibição de vídeo perfeita com tempo de resposta de 1 ms e mais de 16,7 milhões de cores que transformam as imagens em uma experiência muito fiel à realidade.&lt;br&gt;aprimore sua configuração com estilo. a furação padrão vesa 75x75 permite que você fixe o monitor em uma parede ou em um suporte.</t>
   </si>
   <si>
     <t>Monitor Gamer Bluecase, 27", 2.5k, 75hz, 5ms, Preto - BM2716GW</t>
@@ -818,539 +853,16 @@
 Além disso, ainda conta com HDR10, Flicker Safe, AMD FreeSync para maior fluídez durante seus jogos competitivos, Motion Blur Reduction, Crosshair, Dynamic Action Sync, Black Stabilizer, Plug &amp; Play, Modo Leitura e OnScreen Control. Ajuste de inclinação para adequar ao seu estilo de jogo e design de 3 lados praticamente sem bordas.</t>
   </si>
   <si>
-    <t>Monitor Cooler Master Ga271, 27 Polegadas, Wqhd, Va, Hdr10, 100hz, 1ms, Srgb</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;&lt;strong&gt;mergulhe no mundo dos jogos&lt;/strong&gt;&lt;br /&gt;o ga271 é um monitor wqhd com taxa de atualização de até 100 hz com suporte para adaptive sync. Com todos os recursos e especificações necessários, o ga271 é um monitor orientado para o valor que oferece desempenho excepcional em aplicações de jogos e de trabalho.&lt;/p&gt;&lt;p&gt;&lt;strong&gt;encontre seu equilíbrio&lt;/strong&gt;&lt;br /&gt;o ga271 com um painel de 27" com resolução wqhd oferece visuais impressionantes para seus jogos e aplicativos relacionados ao trabalho. O ga271 pode ser seu monitor principal para lidar com planilhas durante o dia, bem como para jogar e desfrutar de entretenimento durante a noite.&lt;/p&gt;&lt;p&gt;&lt;strong&gt;100hz + 1ms&lt;/strong&gt;&lt;br /&gt;o ga271 oferece uma taxa de atualização fluida de 100 hz com tempo de resposta de 1 ms, proporcionando imagens mais nítidas e responsivas para jogos, bem como para uso geral de produtividade.&lt;/p&gt;&lt;p&gt;&lt;strong&gt;contraste mais profundo&lt;/strong&gt;&lt;br /&gt;o painel va do ga271 produz pretos mais profundos e escuros para um nível de contraste aprimorado, resultando em maior qualidade de imagem. Com uma relação de contraste de 4000:1, o painel va do ga271 é capaz de reproduzir um nível de contraste 4x superior ao de um painel ips padrão.&lt;/p&gt;&lt;p&gt;&lt;strong&gt;sincronização adaptativa&lt;/strong&gt;&lt;br /&gt;ga271 vem com suporte adaptive sync, proporcionando uma experiência extra suave e sem interrupções em seus jogos. Ganhe uma vantagem competitiva sobre seus oponentes com menos manchas de movimento e visuais mais claros nos jogos que você joga.&lt;/p&gt;&lt;p&gt;&lt;strong&gt;luz azul baixa e sem cintilação&lt;/strong&gt;&lt;br /&gt;ga271 não treme e possui um modo de luz azul baixa para proteger ainda mais seus olhos de emissões de luz azul potencialmente prejudiciais.&lt;/p&gt;&lt;p&gt;&lt;strong&gt;pronto para hdr&lt;/strong&gt;&lt;br /&gt;o ga271 não é ótimo apenas para jogos, mas também para desfrutar de entretenimento, pois aceita entrada hdr, permitindo visualizar conteúdo com maiores detalhes e cores em comparação com um monitor tradicional.&lt;/p&gt;&lt;p&gt;&lt;strong&gt;estética minimalista&lt;/strong&gt;&lt;br /&gt;ga271 segue o básico com um design prático com foco em uma estética minimalista. O design limpo certamente se encaixa perfeitamente em sua configuração de trabalho e lazer.&lt;/p&gt;&lt;p&gt;&lt;strong&gt;opções de conectividade&lt;/strong&gt;&lt;br /&gt;conecte seus dispositivos às portas de e/s que consistem em: 1 x porta de exibição,  2 x hdmi 2.0, 1 x conector de fone de ouvido de 3,5 mm&lt;/p&gt;&lt;p&gt; &lt;/p&gt;&lt;p&gt;&lt;strong&gt;especificações:&lt;/strong&gt;&lt;/p&gt;&lt;ul&gt;	&lt;li&gt;marca: cooler master&lt;/li&gt;	&lt;li&gt;modelo: cmi-ga271&lt;/li&gt;	&lt;li&gt;tipo de painel: série plana&lt;/li&gt;	&lt;li&gt;razão: 16:9&lt;/li&gt;	&lt;li&gt;tamanho da tela: 27"&lt;/li&gt;	&lt;li&gt;painel: va 1.07b&lt;/li&gt;	&lt;li&gt;resolução: 2k wqhd 2560x1440&lt;/li&gt;	&lt;li&gt;taxa de quadros: 100hz&lt;/li&gt;	&lt;li&gt;relação de contraste: 4000:1&lt;/li&gt;	&lt;li&gt;visão de angulo: 178°/178°&lt;/li&gt;	&lt;li&gt;brilho: 250 lêndeas&lt;/li&gt;	&lt;li&gt;gama de cores: srgb 95%&lt;/li&gt;	&lt;li&gt;entradas hdmi: 2&lt;/li&gt;	&lt;li&gt;entrada dp: 1&lt;/li&gt;	&lt;li&gt;tecnologia vrr: adaptive sync, faixa freesync: sim, faixa g-sync: sim&lt;/li&gt;	&lt;li&gt;tempo de resposta: 1ms (mprt) &lt;/li&gt;	&lt;li&gt;proteção de luz azul: sim &lt;/li&gt;	&lt;li&gt;consumo: 18w&lt;/li&gt;	&lt;li&gt;ajuste de inclinação: -5°~+20°&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
     <t>Monitor Gamer AOC Entusiasta Monitor 27 Polegadas, FULL HD, Wide, Ips, 1ms, 75hz, Adaptive G-sync</t>
   </si>
   <si>
     <t>Monitor Gamer AOC. Desenvolvidos para suportar todas as emoções dos jogos, o tempo de resposta de 1ms oferece alta velocidade, definição e muita suavidade em todos os movimentos. A avançada tecnologia Painel IPS esclarece automaticamente as áreas escuras do mundo do jogo, entregando mais cor, brilho e contraste, melhorando a visualização com amplos ângulos de visão. Game Mode, Esta função possui predefinições de fábrica para otimizar cada tipo de jogo. Assim, os níveis de gama preto, proporções de contraste e nitidez são instantaneamente calibrados</t>
   </si>
   <si>
-    <t>USADO: Monitor Gamer LG, Tela 29 Polegadas, 75Hz, 1ms, Dynamic Action Sync, AMD FreeSync - 29UM69G-B.AWZM - Bronze Recer</t>
-  </si>
-  <si>
-    <t>Monitor Gamer LG 29UM69G-B.AWZM, com tela de 29? polegadas com resolução Full HD (2560 x 1080), uma taxa de atualização de 75Hz, e um tempo de resposta de 1ms com tecnologia que todo gamer precisa como Dynamic action Sync e AMD FreeSync&lt;br /&gt;&lt;br /&gt;ATENÇÃO: este produto é RECERTIFICADO.&lt;br /&gt;Os eletrônicos são originais e acompanham Nota Fiscal. Os produtos passam por uma avaliação de qualidade rigorosa, que certifica as condições técnicas e estéticas do aparelho, categorizadas de acordo com os selos ouro, prata ou bronze. Você ainda conta com garantia de três meses contra problemas e pode fazer a devolução do produto em até sete dias.&lt;br /&gt;SAIBA O QUE É UM PRODUTO RECERTIFICADO (BRONZE)&lt;br /&gt;O produto recertificado em condições de fábrica é um produto que volta para o mercado, disponível para vendas, nas mesmas condições de um produto novo, com todas as funcionalidades e características originais, beneficiando o comprador e possibilitando economizar dinheiro na compra.&lt;br /&gt;O produto recertificado em condições de fábrica passa por um processo rigoroso de análise, onde todas as funcionalidades são testadas e após constatação de 100% de funcionamento o produto é liberado como recertificado.&lt;br /&gt;Depois de atingir 100% da certificação técnica de operação em suas funcionalidades, os produtos do Saldão da Informática são classificados em 3 certificações, de acordo com seu estado estético e superficial, sendo assim classificados como: Ouro, Prata e Bronze.&lt;br /&gt;Esse produto é recertificado Bronze: Produto têm alguns riscos. Estes riscos não alteram ao perfeito funcionamento do equipamento.</t>
-  </si>
-  <si>
-    <t>Monitor 27" LED/IPS Acer Gamer Ultra Fino, 75Hz, 1Ms, HDMI + VGA - SA270</t>
-  </si>
-  <si>
-    <t>&lt;b&gt;Monitor Gamer Acer LCD 27 SA270 Bbix Full HD 75Hz 1ms IPS FreeSync HDMI Preto UM.HS0AA.B02&lt;/b&gt;&lt;br /&gt;&lt;br /&gt;NÃO PERCA NENHUM DETALHE DO SEU JOGO&lt;br /&gt;Veja tudo em alta definição com a resolução de 1920 x 1080 Full HD.&lt;br /&gt;E com as 27 da tela, seus jogos terão um campo de visão privilegiado.&lt;br /&gt;&lt;br /&gt;ENTRE NO UNIVERSO GAMER&lt;br /&gt;Garanta uma ótima performance de cor em seus jogos favoritos. O painel In Plane Switching (IPS) promove cores mais vibrantes e nítidas de qualquer ângulo, sem deixar rastros.&lt;br /&gt;&lt;br /&gt;ESTEJA PRONTO PARA JOGAR&lt;br /&gt;A taxa de atualização de 75Hz leva a renderização dos seus jogos a outro nível.&lt;br /&gt;E o tempo de resposta de 1ms acelera as transições e não trava durante a ação.</t>
-  </si>
-  <si>
-    <t>Monitor Gamer Bluecase 23.6 Polegadas, Curvo, LED FULL HD, 180Hz, HDMI,VGA, Preto - Bm24ffd1gc</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;&lt;b&gt;monitor gamer full hd curvo led 23,6" bluecase 180hz hdmi vga preto - bm24ffd1gc&lt;/b&gt;&lt;/p&gt;&lt;p&gt;&lt;br /&gt;o monitor gamer bm24ffd1gc possui um tamanho de 23,6", proporcionando uma resolu&amp;ccedil;&amp;atilde;o m&amp;aacute;xima de 1920x1080 pixels full hd. Sua taxa de atualiza&amp;ccedil;&amp;atilde;o m&amp;aacute;xima &amp;eacute; de 180 hz atrav&amp;eacute;s das conex&amp;otilde;es hdmi e dp, oferece imagens mais suaves e fluidas.&amp;nbsp;equipado com ilumina&amp;ccedil;&amp;atilde;o led, o monitor possui um brilho de 300 cd/m&amp;sup2; e um contraste t&amp;iacute;pico de 4.000:1, resultando em cores vibrantes e imagens detalhadas. O monitor gamer bm24ffd1gc &amp;eacute; uma &amp;oacute;tima escolha para jogos, trabalho e entretenimento, proporcionando uma experi&amp;ecirc;ncia visual envolvente e de alta qualidade.&lt;/p&gt;&lt;p&gt;&lt;br /&gt;&lt;b&gt;caracter&amp;iacute;sticas monitor gamer led full hd bluecase 23,6" 180hz - preto&lt;/b&gt;&lt;br /&gt;- marca: bluecase&lt;br /&gt;- modelo: bm24ffd1gcbx&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>Monitor Gamer Gigabyte 27 Full HD, 165Hz, 1ms, IPS, HDMI e DisplayPort, 130% sRGB, HDR, FreeSync, Altura Ajustável - G27F2BR</t>
-  </si>
-  <si>
-    <t>&lt;h2&gt;Monitor Gamer Gigabyte 27 Full HD&lt;/h2&gt;
-&lt;h2&gt;&amp;nbsp;&lt;/h2&gt;
-&lt;h2&gt;A &amp;Uacute;ltima Milha para o seu Sistema de Jogo&lt;/h2&gt;
-&lt;p&gt;Como um jogador invis&amp;iacute;vel, o monitor costuma ser subestimado. A verdade &amp;eacute; que os monitores se formam como um efeito sin&amp;eacute;rgico e trazem o melhor desempenho dos componentes do PC. Os monitores de jogos GIGABYTE oferecem &lt;strong&gt;as especifica&amp;ccedil;&amp;otilde;es e qualidade mais recentes&lt;/strong&gt;, os usu&amp;aacute;rios podem realmente desfrutar de um &lt;strong&gt;desempenho de alto n&amp;iacute;vel&lt;/strong&gt; sem a necessidade de extravag&amp;acirc;ncia.&lt;/p&gt;
-&lt;p&gt;Suporta tecnologia&amp;nbsp;&lt;strong&gt;Adaptive-Sync&lt;/strong&gt;&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h2&gt;Tempo de resposta MPRT de 1ms&lt;/h2&gt;
-&lt;p&gt;&lt;strong&gt;Tempo de resposta super r&amp;aacute;pido de 1ms&lt;/strong&gt;&amp;nbsp;para a experi&amp;ecirc;ncia de jogo mais suave de todos os tempos!&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h2&gt;FHD com 165 Hz (OC 180 Hz)&lt;/h2&gt;
-&lt;p&gt;&lt;strong&gt;Alta resolu&amp;ccedil;&amp;atilde;o&lt;/strong&gt;&amp;nbsp;e taxa de atualiza&amp;ccedil;&amp;atilde;o r&amp;aacute;pida, oferecendo qualidade de exibi&amp;ccedil;&amp;atilde;o detalhada e experi&amp;ecirc;ncia de jogo fluida!&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h2&gt;95% DCI-P3&lt;/h2&gt;
-&lt;p&gt;Fant&amp;aacute;stica&lt;strong&gt;&amp;nbsp;tela colorida e 130%&lt;/strong&gt;&amp;nbsp;DCI-P3 super ampla gama de cores.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h2&gt;Simples e Estiloso&lt;/h2&gt;
-&lt;p&gt;A&amp;nbsp;&lt;strong&gt;apar&amp;ecirc;ncia simplificada&lt;/strong&gt;&amp;nbsp;representa a simplicidade da filosofia de design da s&amp;eacute;rie de jogos GIGABYTE, &lt;strong&gt;suporte robusto e acabamento fosco&lt;/strong&gt; constru&amp;iacute;do para recursos funcionais e est&amp;eacute;ticos adicionando mais &amp;agrave;s caracter&amp;iacute;sticas.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h2&gt;OSD Sidekick&lt;/h2&gt;
-&lt;p&gt;O GIGABYTE&amp;nbsp;&lt;strong&gt;OSD Sidekick&lt;/strong&gt;&amp;nbsp;permite que voc&amp;ecirc; defina as op&amp;ccedil;&amp;otilde;es de exibi&amp;ccedil;&amp;atilde;o com teclado e mouse, oferecendo a maneira mais &lt;strong&gt;f&amp;aacute;cil de ajustar&lt;/strong&gt; as configura&amp;ccedil;&amp;otilde;es do monitor.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h2&gt;Painel&lt;/h2&gt;
-&lt;p&gt;O painel revela suas&amp;nbsp;&lt;strong&gt;informa&amp;ccedil;&amp;otilde;es de hardware em tempo real&lt;/strong&gt;, incluindo&amp;nbsp;&lt;strong&gt;voltagens da CPU, velocidade do clock, temperaturas, etc.&lt;/strong&gt;&amp;nbsp;A melhor parte &amp;eacute; que n&amp;atilde;o ser&amp;aacute; bloqueado por nenhum jogo.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h2&gt;Equalizador Preto&lt;/h2&gt;
-&lt;p&gt;Esse recurso permite que voc&amp;ecirc; tenha mais&amp;nbsp;&lt;strong&gt;detalhes do lado escuro&lt;/strong&gt;&amp;nbsp;sem superexpor o lado claro ao mesmo tempo.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h2&gt;Atualiza&amp;ccedil;&amp;atilde;o autom&amp;aacute;tica&lt;/h2&gt;
-&lt;p&gt;Os usu&amp;aacute;rios podem &lt;strong&gt;desfrutar sem esfor&amp;ccedil;o da melhor experi&amp;ecirc;ncia de jogo&lt;/strong&gt; com recursos que a GIGABYTE continua a desenvolver e atualizar enquanto oferece&amp;nbsp;&lt;strong&gt;prote&amp;ccedil;&amp;atilde;o extra ao seu monitor&lt;/strong&gt;.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h2&gt;&amp;Acirc;NGULO DE VIS&amp;Atilde;O PERFEITO&lt;/h2&gt;
-&lt;p&gt;O monitor Gaming GIGABYTE possui um suporte exclusivo projetado ergonomicamente para oferecer&amp;nbsp;&lt;strong&gt;ampla gama de ajustes de altura e inclina&amp;ccedil;&amp;atilde;o&lt;/strong&gt;.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h3&gt;Compre agora no KaBuM!&lt;/h3&gt;</t>
-  </si>
-  <si>
-    <t>Monitor Gamer KBM! GAMING MG330 31.5' Led, Curvo, 165 Hz, Full Hd, 1ms, Adaptive Sync, Hdmi/Displayport, Ajuste De Ângulo - KGMG33031PT</t>
-  </si>
-  <si>
-    <t>&lt;h2&gt;Monitor Gamer KBM! GAMING MG330 31.5' LED, Curvo, 165 Hz, Full HD, 1ms, Adaptive Sync, HDMI/DisplayPort, Ajuste de&amp;nbsp; ngulo - KGMG330&lt;/h2&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h2&gt;Esteja um passo &amp;agrave; frente!&lt;/h2&gt;
-&lt;p&gt;O Monitor Gamer KBM! GAMING MG330 conta com resposta de &lt;strong&gt;1ms&lt;/strong&gt; e taxa de atualiza&amp;ccedil;&amp;atilde;o de &lt;strong&gt;165Hz&lt;/strong&gt;, permitindo a mais alta performance durante suas gameplays. Sua curvatura amplia o campo de vis&amp;atilde;o relativo, concentrando toda a a&amp;ccedil;&amp;atilde;o ao alcance dos olhos do usu&amp;aacute;rio, sem perder resolu&amp;ccedil;&amp;atilde;o.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h2&gt;Melhor Entrega de Imagens para sua Gameplay&lt;/h2&gt;
-&lt;p&gt;Compat&amp;iacute;vel com a tecnologia &lt;strong&gt;Adaptive Sync&lt;/strong&gt;, permite a sincroniza&amp;ccedil;&amp;atilde;o dos frames da placa de v&amp;iacute;deo, decretando o fim do input lag, bem como do tearing.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h2&gt;Conectividade&lt;/h2&gt;
-&lt;p&gt;O Monitor Gamer KBM! GAMING MG330 acompanha um cabo &lt;strong&gt;DisplayPort&lt;/strong&gt; que garante a melhor qualidade de imagem para seu jogo. Al&amp;eacute;m da conex&amp;atilde;o DP, o monitor ainda possui duas conex&amp;otilde;es &lt;strong&gt;HDMI&lt;/strong&gt; e uma conex&amp;atilde;o &lt;strong&gt;P2&lt;/strong&gt; para ouvir seu jogo diretamente do seu monitor.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h2&gt;Maior Ergonomia e Conforto para Uso Prolongado&lt;/h2&gt;
-&lt;p&gt;O Monitor Gamer KBM! GAMING MG330 possui ajuste de inclina&amp;ccedil;&amp;atilde;o &lt;strong&gt;de 5&amp;deg; a 15&amp;deg;&lt;/strong&gt; que se ajusta ergonomicamente para o seu uso. O monitor tamb&amp;eacute;m conta com &lt;strong&gt;Redu&amp;ccedil;&amp;atilde;o de Luz Azul&lt;/strong&gt;, se tornando uma &amp;oacute;tima op&amp;ccedil;&amp;atilde;o para Gameplays prolongadas.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h3&gt;Seu Monitor KBM! GAMING voc&amp;ecirc; encontra aqui no KaBuM!&lt;/h3&gt;</t>
-  </si>
-  <si>
-    <t>Monitor Gamer Redragon Pearl, 23.6 Polegadas, 165hz, Curvo, LED, FHD, HDMI - Gm24g3c</t>
-  </si>
-  <si>
-    <t>Características:&lt;br /&gt; - marca: redragon&lt;br /&gt; - modelo: gm24g3c&lt;br /&gt; especificações:&lt;br /&gt; - cor: preto&lt;br /&gt; - alta taxa de atualização até 144hz auxiliando na fluidez da gameplay.&lt;br /&gt; - design elegante e minimalista para se integrar a qualquer setup.&lt;br /&gt; - tecnologia freesync integrada para eliminar as quebras de imagem.&lt;br /&gt; - diversas opções de conexões de vídeo para maior praticidade e versatilidade.&lt;br /&gt; - tamanho: 23,6”&lt;br /&gt; - resolução: 1920 x 1080&lt;br /&gt; - tipo de painel: csot&lt;br /&gt; - taxa de atualização: 165 hz&lt;br /&gt; - número de cores: 16.7 m&lt;br /&gt; - brilho máximo: 250cd/m2 (typical)&lt;br /&gt; - taxa de contraste: 3000:1&lt;br /&gt; - conectividade: hdmi 1.4 x 2, dp x1, 1x 3.5mm áudio.&lt;br /&gt; - power range: 100-240v 50/60hz&lt;br /&gt; - peso bruto(g): 4750&lt;br /&gt; - peso liquido(g): 3450&lt;br /&gt; conteúdo da embalagem:&lt;br /&gt; - monitor gamer redragon</t>
-  </si>
-  <si>
-    <t>Monitor Gamer Redragon Amber, Tela de 27 Polegadas FHD, 165HZ, Curvo, LED, HDMI, Preto - GM27H10C</t>
-  </si>
-  <si>
-    <t>Características:&lt;br /&gt; - marca: redragon&lt;br /&gt; - modelo: gm27h10c&lt;br /&gt; especificações:&lt;br /&gt; - cor: preto&lt;br /&gt; - tamanho: 27”&lt;br /&gt; - resolução: 1920 x 1080 16:9&lt;br /&gt; - tipo de painel: va&lt;br /&gt; - taxa de atualização: 165 hz&lt;br /&gt; - número de cores: 16.7 m&lt;br /&gt; - brilho máximo: 250cd/m2 (typical)&lt;br /&gt; - taxa de contraste: 3000:1&lt;br /&gt; - conectividade: dp x1, hdmi x2, dc in x1&lt;br /&gt; - power range: 100-240v 50/60hz&lt;br /&gt; - tempo de resposta: 1ms&lt;br /&gt; - peso bruto(g): 5960g&lt;br /&gt; - peso liquido(g): 4830g&lt;br /&gt; conteúdo da embalagem:&lt;br /&gt; - monitor gamer redragon</t>
-  </si>
-  <si>
-    <t>Monitor 29 Lg 29wk500 - Tela Ips Full Hd Ultrawide Freesync - Modo Gamer - Screen Split 2.0 - 5ms</t>
-  </si>
-  <si>
-    <t>Monitor Gamer Curvo Concórdia 31.5" QHD R1500, 165Hz, 1ms, HDMI/DisplayPort, FreeSync, Ajuste de Altura, Som Integrado, Preto - C315Q</t>
-  </si>
-  <si>
-    <t>&lt;h2&gt;Monitor Conc&amp;oacute;rdia Gamer Curvo C315Q 31,5'' ,2K, WQHD, 165hz, 1ms, 2 HDMI, DP, Ajuste de Altura e Rota&amp;ccedil;&amp;atilde;o&lt;/h2&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h2&gt;Curvatura Imersiva de 31,5 Polegadas&lt;/h2&gt;
-&lt;p&gt;O painel WQHD (2560 X 1440) de 31,5 polegadas do Monitor Conc&amp;oacute;rdia Gamer Curvo C315Q oferece visuais impressionantes de todos os &amp;acirc;ngulos com uma curvatura de 1500R que garante que cada ponto seja igualmente visto aos seus olhos. Isso contribui para um maior conforto de visualiza&amp;ccedil;&amp;atilde;o - mesmo durante o uso prolongado - e permite que voc&amp;ecirc; aproveite um amplo &amp;acirc;ngulo de visualiza&amp;ccedil;&amp;atilde;o com menos distor&amp;ccedil;&amp;atilde;o e mudan&amp;ccedil;a de cor ao jogar e assistir filmes.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h2&gt;Taxa de Atualiza&amp;ccedil;&amp;atilde;o de 165Hz&lt;/h2&gt;
-&lt;p&gt;A taxa de atualiza&amp;ccedil;&amp;atilde;o do Monitor Conc&amp;oacute;rdia Gamer Curvo C315Q diminui o atraso e o desfoque de movimento para dar a voc&amp;ecirc; vantagem todos os tipos de jogos.&amp;nbsp; Essa taxa de atualiza&amp;ccedil;&amp;atilde;o ultrarr&amp;aacute;pida permite que voc&amp;ecirc; jogue com as configura&amp;ccedil;&amp;otilde;es visuais mais altas e reaja instantaneamente ao que est&amp;aacute; na tela - para que voc&amp;ecirc; obtenha o primeiro ataque.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h2&gt;Design Ergon&amp;ocirc;mico&lt;/h2&gt;
-&lt;p&gt;Com um suporte ergonomicamente projetado, o Monitor Conc&amp;oacute;rdia Gamer Curvo C315Q oferece inclina&amp;ccedil;&amp;atilde;o, rota&amp;ccedil;&amp;atilde;o e giro da tela de 180&amp;deg; para que voc&amp;ecirc; possa encontrar facilmente sua posi&amp;ccedil;&amp;atilde;o de visualiza&amp;ccedil;&amp;atilde;o ideal.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>Monitor Gamer HQ 27 Polegadas, FULL HD 144HZ A 240HZ 1MS HDMI Display Port, Curvo LED, Alto Falantes Iluminação RGB - Battle 27h240g</t>
-  </si>
-  <si>
-    <t>Monitor gamer hq battle&lt;br /&gt;&lt;br /&gt;A jogatina perfeita&lt;br /&gt;Com o monitor hq battle, os seus movimentos serão instantâneos e o seu tempo de reação ocorrerá em tempo real em qualquer tipo de jogo.&lt;br /&gt;Sem atrasos, você jogará com desempenho profissional.&lt;br /&gt;Graças a combinação de tempo de resposta ultrarápido + alta taxa de atualização, você sairá na frente dos seus oponentes:&lt;br /&gt;&lt;br /&gt;Tempo de resposta: 1ms&lt;br /&gt;Desempenho sem igual, imagens nítidas e sem espera. Enxergue toda a cena no milésimo de segundo em que ela acontece. Não desperdice nenhum movimento. O seu reflexo convertido em vitórias!&lt;br /&gt;&lt;br /&gt;Taxa de atualização: 240hz&lt;br /&gt;Nada de rastros nem imagens desfocadas. Tenha uma incrível vantagem sobre o seu adversário, principalmente em cenas rápidas. A altíssima taxa de atualização permitirá a você perceber cada sensível mudança no ambiente. E diferente dos demais modelos da linha battle, o 27h240g possui incríveis 240hz. É a garantia de uma experiência sublime.&lt;br /&gt;&lt;br /&gt;Amd freesync e nvidia g-sync&lt;br /&gt;E para completar o time, o monitor hq battle conta com as tecnologias amd freesync e nvidia g-sync. Incríveis ferramentas que impedem imagens serrilhadas e cortadas.&lt;br /&gt;Elas apresentam a tecnologia de sincronização adaptável, que reduz o travamento de tela, oscilação e atrasos.&lt;br /&gt;&lt;br /&gt;Enxergue no escuro&lt;br /&gt;Graças ao painel va utilizado nos monitores hq battle, você se dará bem em qualquer tipo de ambiente, mesmo em situações de baixa luminosidade.&lt;br /&gt;Encontre seus inimigos escondidos em qualquer lugar, mesmo os mais escuros.&lt;br /&gt;&lt;br /&gt;Mais sobre o painel va&lt;br /&gt;Quando falamos em tipo de painel para monitores gamer, existem três opções disponíveis no mercado.&lt;br /&gt;E por que a hq escolheu o tipo va para o monitor battle?&lt;br /&gt;A resposta é simples. Pois essa opção oferece a maior gama de vantagens para o jogador:&lt;br /&gt;1- ângulo de visão de 178x178 graus, enxergue bem em qualquer ângulo&lt;br /&gt;2- alto nível de contraste, imagens nítidas mesmo em cenas muito claras ou muito escuras&lt;br /&gt;3- tempo de resposta real de 1ms mprt&lt;br /&gt;4- cores vivas e nítidas&lt;br /&gt;5- permite as mais altas taxas de atualização&lt;br /&gt;&lt;br /&gt;Design único&lt;br /&gt;Além de todos os recursos apresentados, ainda temos o fato do monitor hq battle ter um visual sensacional.&lt;br /&gt;Desenvolvido com uma tela curva, isso já seria o bastante para deixar o seu setup gamer ainda mais moderno. Mas além disso, ele ainda possui a tecnologia ´´frameless´´, sem bordas, que garantirão a você uma imersão total. Aproveite 100% da tela.&lt;br /&gt;&lt;br /&gt;Conectividade e recursos&lt;br /&gt;Para garantir uma experiência perfeita, equipamos o battle com tudo o que você precisa.&lt;br /&gt;Dupla saída de vídeo hdmi e display port, além de uma conexão usb.&lt;br /&gt;E para deixar tudo ainda melhor, ele vem acompanhado com dois alto falantes surround e iluminação em rgb.</t>
-  </si>
-  <si>
-    <t>Monitor Gamer Duex 24´ Full HD (1920x1080), 144Hz, Preto - Dx 240zg</t>
-  </si>
-  <si>
-    <t>Marca: duex&lt;br /&gt;modelo: dx 240zg &lt;br /&gt;&lt;br /&gt;especificações: &lt;br /&gt;&lt;br /&gt;tamanho da tela: 24" &lt;br /&gt;área de display: 527.4 (h) x 296.4 (v) &lt;br /&gt;resolução: 1920x1080 (144hz) &lt;br /&gt;pixel pitch: 0.27mm &lt;br /&gt;ângulo de visão: h:178 / v:178 &lt;br /&gt;brilho: 250cd/m² &lt;br /&gt;tempo de resposta: 1ms &lt;br /&gt;número de cores: 16.7m &lt;br /&gt;&lt;br /&gt;conectores: &lt;br /&gt;1x hdmi &lt;br /&gt;1x displayport &lt;br /&gt;1x usb &lt;br /&gt;1x saída de áudio &lt;br /&gt;&lt;br /&gt;conteúdo da caixa: &lt;br /&gt;monitor &lt;br /&gt;base &lt;br /&gt;cabo hdmi &lt;br /&gt;cabo displayport &lt;br /&gt;fonte de energia &lt;br /&gt;guia do usuário&lt;br /&gt;&lt;br /&gt;garantia: 365 dias</t>
-  </si>
-  <si>
-    <t>Monitor Gamer Bluecase 27" 2.5K, 75Hz, HDMI / Displayport, Vesa - BM2713GW</t>
-  </si>
-  <si>
-    <t>Explore um nível superior de qualidade gráfica do seu gameplay com o monitor gamer Bluecase - BM2713GW   &lt;br /&gt;&lt;br /&gt;Esse monitor possui um painel TN ultrarrápido com frequência máxima de até 75 Hz e baixíssimo tempo de resposta de 5(cinco) milissegundos.    &lt;br /&gt;Ideal para seus jogos AAA, o monitor conta com alta definição em resolução Quad HD (2560x1440) que proporciona uma imagem rica em detalhes.    &lt;br /&gt;O monitor Bluecase BM2713GW é compatível com suportes VESA e também conta com conexões DisplayPort e HDMI.</t>
-  </si>
-  <si>
-    <t>Monitor Gamer Samsung 27Pol, Full HD, 75Hz, IPS, HDMI, Vesa, Freesync - Lf27t350fhlmzd</t>
-  </si>
-  <si>
-    <t>Para compor a sua mesa e computador, precisa de um monitor de linha, não acha? Com o Monitor Gamer T350 Samsung você terá uma ótima visualização de tudo que fizer! Com a tela IPS, LED, em formato plano e de 27'' na horizontal, resolução Full HD 1920x1080. Possui conexões HDMI e VGA e tecnologia FreeSync da AMD, assim você pode assistir filmes e jogar tranquilamente sem interrupções na sua imagem. Além disso, possui o Game Mode, que ajusta qualquer jogo para preencher sua tela visualizando todos os detalhes, sendo possível detectar inimigos escondidos nas sombras através do contraste ideal, mais nitidez e cenas com cores mais vivas. Agora, a imagem é reproduzida sem falhas. A taxa de atualização de 75Hz oferece cenas mais fluidas. Seu momento de diversão não tem lag ou efeito fantasma, quer você esteja assistindo a um vídeo ou jogando um jogo. Vai deixar essa beleza passar? Garanta já seu Monitor Gamer T350 Samsung e aproveite com a melhor imagem!</t>
-  </si>
-  <si>
-    <t>Monitor Gamer Curvo HQ 24 LED Full HD, 165 Hz, 1ms, HDMI, DisplayPort, FreeSync, Som Integrado, Preto - 24GHQ-Black</t>
-  </si>
-  <si>
-    <t>&lt;h2&gt;Monitor Gamer Curvo HQ 24 LED Full HD, 165 Hz, 1ms, HDMI, DisplayPort, FreeSync, Som Integrado, Preto&lt;/h2&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h2&gt;Tela Curva&lt;/h2&gt;
-&lt;p&gt;A curvatura da tela de R3000 oferece imers&amp;atilde;o total, voc&amp;ecirc; ser&amp;aacute; capaz de apreciar imagens panor&amp;acirc;micas grandes, em alta resolu&amp;ccedil;&amp;atilde;o e com todas as especifica&amp;ccedil;&amp;otilde;es que um monitor Gamer de ponta exige.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h2&gt;Baixo tempo de Resposta&lt;/h2&gt;
-&lt;p&gt;A HQ levou a s&amp;eacute;rio o desenvolvimento desta linha, trazendo ao p&amp;uacute;blico mais exigente um produto completo e de alto n&amp;iacute;vel. N&amp;atilde;o fique atras, reaja em tempo real e tenha os movimentos do teclado refletidos sem atrasos com o tempo de resposta de 1ms.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h2&gt;Atualiza&amp;ccedil;&amp;atilde;o de 165Hz&lt;/h2&gt;
-&lt;p&gt;Sem borr&amp;otilde;es e sem perda de imagem. A INCR&amp;Iacute;VEL taxa de atualiza&amp;ccedil;&amp;atilde;o de 165hz garante que voc&amp;ecirc; tenha uma experi&amp;ecirc;ncia acima dos seus advers&amp;aacute;rios.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h2&gt;Imagens em alta resolu&amp;ccedil;&amp;atilde;o + Visual incr&amp;iacute;vel&lt;/h2&gt;
-&lt;p&gt;A tela Full HD de alta resolu&amp;ccedil;&amp;atilde;o aliada ao design futurista e moderno do monitor garantem n&amp;atilde;o s&amp;oacute; imagens perfeitas como um visual incr&amp;iacute;vel de todo o seu conjunto.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h3&gt;Aproveite essa oportunidade e adquira seu Monitor Gamer Curvo no KaBuM!&lt;/h3&gt;</t>
-  </si>
-  <si>
-    <t>Monitor Gamer Redragon, 23Pol, Full HD, 144Hz, 1MS, IPS, HDMI, DP, VGA, Freesync - M2444ph</t>
-  </si>
-  <si>
-    <t>O monitor Redragon Sapphire apresenta um design ultrafino, alinhado com o que há de mais moderno no mercado. Gamers de jogos competitivos podem obter vantagem sobre seus adversários ao utilizar uma tela com a alta taxa de atualização de 144 Hz. A tecnologia AMD FreeSync põe fim à jogabilidade travada e ao corte dos quadros com um desempenho fluido e livre de artefatos com praticamente qualquer taxa de quadros. Contemple a próxima inovação na experiência de jogos para PC e console. O Redragon Sapphire possui um visual moderno e elegante, que combina com qualquer setup, pela sua simplicidade e minimalismo.&lt;br /&gt;&lt;br /&gt;- Alta taxa de atualização até 144Hz auxiliando na fluidez da gameplay.&lt;br /&gt;- Design elegante e minimalista para se integrar a qualquer setup.&lt;br /&gt;- Painel do tipo IPS para maior fidelidade de cores.&lt;br /&gt;- Tecnologia Freesync integrada para eliminar as quebras de imagem.&lt;br /&gt;- Diversas opções de conexões de vídeo para maior praticidade e versatilidade.&lt;br /&gt;&lt;br /&gt;O monitor tem tela de 24 polegadas, um ótimo tamanho para o consumo de jogos e filmes, assim como navegar na internet e trabalhar.</t>
-  </si>
-  <si>
-    <t>Monitor Gamer LG LED 23.8 Polegadas FHD, 60Hz, 5Ms, IPS, VGA/HDMI/DP, Pivot - 24BL550J</t>
-  </si>
-  <si>
-    <t>Monitor Gamer LG LED 23.8 FHD IPS 60Hz 5ms VGA HDMI DP Pivot - 24BL550J CONTE COM SUA MELHOR EXIBIÇÃO A qualidade de imagem do LG 24BL550J é a melhor possível para um monitor Full HD, já que usa a elogiada tela IPS. Suas cores são vibrantes e nítidas, sem qualquer problema em replicar as cores reais em software e jogos. Sua tela de 23.9 faz com que ele esteja no tamanho ideal para a resolução Full HD (1920x1080p), apresentando ótimo nível de densidade de pixel (PPI 0,27 mm). Com isso, você não terá a impressão de imagem borrada ou com serrilhados, principalmente em jogos, vídeos e fotos. FLUIDEZ Tem baixo input lag e tempo de resposta de 5ms, suficiente para eliminar rastros. A taxa de atualização de 75hz da boa fluência aos jogos, ajudando ainda no conforto ocular. MELHOR RESOLUÇÃO Sua incrível tela em Full HD com tecnologia IPS e seu tratamento anti reflexivo conta com a exibição de imagens excepcionais cores mais realistas de qualquer ângulo, sem a interferência de qualquer luz. MODELO PIVOTANTE Permite ajuste de altura, inclinação, rotação e pivô. Esse monitor apresenta um design moderno, com bordas mais finas e base retangular com ótima estabilidade. Porém, seu grande trunfo é o ajuste de altura e giro em 90º (pivô), o que o torna ideal para trabalhar com o monitor na vertical (em pé)..</t>
-  </si>
-  <si>
-    <t>Monitor Gamer Curvo Bright 27p, Full HD, 165Hz, 1Ms, HDMI/VGA, Preto</t>
-  </si>
-  <si>
-    <t>Monitor gamer curvo 27" polegadas 165hz full hd lcd/led preto mt007 bright&lt;br /&gt;  &lt;br /&gt; mergulhe no mundo dos games com estilo e velocidade!&lt;br /&gt;  &lt;br /&gt; ei, camarada gamer, já sentiu como se estivesse preso no passado com um monitor lento e sem graça? Deixe-me apresentar uma passagem direta para o futuro dos jogos: o monitor gamer curvo 27 polegadas 165 hz dp hdmi usb preto bright. Prepare-se para uma experiência visual de tirar o fôlego!&lt;br /&gt;  &lt;br /&gt; este monitor é como uma viagem ao paraíso dos gamers. Com suas 27 polegadas de tela imersiva e curva, ele envolve você em um abraço eletrizante de jogabilidade. E a taxa de atualização de 165 hz? É praticamente uma máquina do tempo para o futuro dos jogos!&lt;br /&gt;  &lt;br /&gt; e como se isso não fosse suficiente, este monitor oferece conectividade versátil com dp, hdmi e usb. Você pode se conectar facilmente aos seus dispositivos e mergulhar diretamente na ação. Sem complicações, apenas jogos de alta qualidade.&lt;br /&gt;  &lt;br /&gt; mas aqui está a cereja no topo do bolo: a resolução deslumbrante e as cores vibrantes. Este monitor faz com que cada detalhe dos seus jogos ganhe vida. Adeus a imagens borradas e cores apagadas. Prepare-se para gráficos que vão explodir sua mente!&lt;br /&gt;  &lt;br /&gt; ao comprar este monitor gamer curvo, você não está apenas adquirindo um pedaço de tecnologia. Você está se dando o presente de uma experiência de jogo que vai te levar a novos patamares de diversão e desempenho. É a sua passagem para o futuro dos jogos - uma jornada sem volta para a vitória!&lt;br /&gt;  &lt;br /&gt; então, o que você está esperando? Pegue seu ingresso para o futuro e adquira o monitor gamer curvo 27 polegadas 165 hz dp hdmi usb preto bright hoje. Jogue com estilo, velocidade e vitória garantida! Sua jornada começa agora!&lt;br /&gt;  &lt;br /&gt; especificações:&lt;br /&gt; dimensões(axlxp): 615 x 453 x 79 mm &lt;br /&gt; peso: 3,9&lt;br /&gt; área de visualização 683 × 128 × 445(mm2)&lt;br /&gt; ângulo de visão h:178°v:178°&lt;br /&gt; resolução(tip.) 1920x1080 60hz&lt;br /&gt; cores 16,7m&lt;br /&gt; brilho (tip.) 250cd/m2&lt;br /&gt; tela curva: 2800r&lt;br /&gt; frequência de resposta: 165 hz&lt;br /&gt; relação de contraste (tip.) 1000:1&lt;br /&gt; conector dp + hdmi + usb&lt;br /&gt;  &lt;br /&gt; conteúdo da embalagem: &lt;br /&gt; 01 monitor bright &lt;br /&gt; 01 cabo hdmi&lt;br /&gt; 01 manual&lt;br /&gt;  &lt;br /&gt; modelo:&lt;br /&gt; mt007&lt;br /&gt;  &lt;br /&gt; marca:&lt;br /&gt; bright&lt;br /&gt;  &lt;br /&gt; garantia 1 ano bright</t>
-  </si>
-  <si>
-    <t>Monitor Goldentec Gamer 27'' Led Full Hd, 75hz, 1ms</t>
-  </si>
-  <si>
-    <t>Monitor gamer 27´´ led full hd 75hz 1ms especificações técnicas  marcagoldentec  ean7899555687261  tamanho de tela27´´  framelesssim  resolução1920x1080 (full hd)  tempo de resposta1 ms  frequência75 hz  brilho250 cd/m²  contraste100 milhões: 1  ângulo de visão180° (h) 180° (v)  cores16,7 milhões  inclinação ajustável 20°  tecnologia freesyncelimina falhas e intermitências  tecnologia lowbluelightreduz a luz azul para mais conforto e segurança  100% flicker freesuaviza a ondulação do monitor  conexõeshdmi  conteúdo da embalagem1x monitor gamer 27´´ led full hd 75hz 1ms &lt;br&gt;cabos e fonte &lt;br&gt;&lt;br&gt;&lt;strong&gt;especificações técnicas&lt;/strong&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;marca :&lt;/strong&gt; goldentec&lt;br&gt;&lt;strong&gt;tipo de uso :&lt;/strong&gt; gamer&lt;br&gt;&lt;strong&gt;tamanho da tela :&lt;/strong&gt; 27´´&lt;br&gt;&lt;strong&gt;tipo de tela :&lt;/strong&gt; led&lt;br&gt;&lt;strong&gt;resolução :&lt;/strong&gt; full hd&lt;br&gt;&lt;strong&gt;design de tela :&lt;/strong&gt; tela plana&lt;br&gt;&lt;strong&gt;tempo de resposta :&lt;/strong&gt; 1 ms&lt;br&gt;&lt;strong&gt;taxa de atualização :&lt;/strong&gt; 75 hz&lt;br&gt;&lt;strong&gt;estrutura :&lt;/strong&gt; padrão&lt;br&gt;&lt;strong&gt;voltagem :&lt;/strong&gt; bivolt&lt;br&gt;&lt;strong&gt;polegadas :&lt;/strong&gt; 27 ´´&lt;br&gt;&lt;br&gt;&lt;strong&gt;garantia : &lt;/strong&gt;12</t>
-  </si>
-  <si>
-    <t>Monitor Gamer Redragon Azur, 23.8 Polegadas, 165hz, LED, FHD, HDMI - Gm24x5ips</t>
-  </si>
-  <si>
-    <t>Características:&lt;br /&gt; - marca: redragon&lt;br /&gt; - modelo: gm24x5ips&lt;br /&gt; especificações:&lt;br /&gt; - cor: preto&lt;br /&gt; - alta taxa de atualização até 165hz auxiliando na fluidez da gameplay.&lt;br /&gt; - design elegante e minimalista para se integrar a qualquer setup.&lt;br /&gt; - tecnologia freesync integrada para eliminar as quebras de imagem.&lt;br /&gt; - diversas opções de conexões de vídeo para maior praticidade e versatilidade.&lt;br /&gt; - tamanho: 23,8”&lt;br /&gt; - resolução: 1920 x 1080&lt;br /&gt; - tipo de painel: ips&lt;br /&gt; - taxa de atualização: 165 hz&lt;br /&gt; - número de cores: 16.7 m&lt;br /&gt; - brilho máximo: 250cd/m2 (typical)&lt;br /&gt; - taxa de contraste: 1000:1&lt;br /&gt; - conectividade: hdmi 1.4 x 2, dp 1.2  x1, dc x 1, 1x 3.5mm áudio.&lt;br /&gt; - power range: 100-240v 50/60hz&lt;br /&gt; - peso bruto(g): 4728&lt;br /&gt; - peso líquido(g): 3520&lt;br /&gt; conteúdo da embalagem:&lt;br /&gt; - monitor gamer redragon</t>
-  </si>
-  <si>
-    <t>Monitor Gamer Cooler Master 23.8 Pol. Full HD (1920x1080), 0.5MS, 144Hz, IPS, HDMI, Hdr10, Vesa - Gm238-Ffs</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;&lt;b&gt;monitor gamer gm238-ffs cooler master full hd hdmi 1920x1080 vesa 144hz 23,8"&lt;/b&gt;&lt;/p&gt;&lt;p&gt;&lt;br /&gt;o monitor gamer gm238-ffs possui tela full hd de 144 hz e 23,8" combinada com uma ampla gama de cores dci-p3 de 90% oferece versatilidade not&amp;aacute;vel. Com recursos essenciais para jogos e produtividade, permite uma experi&amp;ecirc;ncia de jogo suave ou foco no trabalho diurno. A densidade de pixels de 92,6 por polegada (ppi) em um monitor de 23,8 polegadas e resolu&amp;ccedil;&amp;atilde;o full hd, o gm238-ffs equilibra de forma excelente a fidelidade visual e o desempenho. O monitor gamer fornece um display fhd de 23,8" com um painel ultraspeed ips de 144 hz, com recursos como dynamic overdrive, adaptive sync e uma cobertura dci-p3 de 90%, atende a todas as suas necessidades. &amp;eacute; ideal tanto para jogos quanto para produtividade, tornando-o uma adi&amp;ccedil;&amp;atilde;o valiosa &amp;agrave; sua configura&amp;ccedil;&amp;atilde;o de trabalho e entretenimento.&lt;/p&gt;&lt;p&gt;&lt;br /&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>USADO: Monitor Gamer 24 Polegadas Acer Nitro, 165Hz, 0.5ms, Freesync, HDMI, DisplayPort, Preto, Recertificado Prata - VG252Q</t>
-  </si>
-  <si>
-    <t>Monitor Gamer Acer Nitro Vg252q, na cor preta com detalhes em vermelho, tela de 24 polegadas, taxa de atualização de 165hz, tempo de resposta de 0.5ms, amd freesync premium, 1 entrada hdmi e 1 entrada display port&lt;br /&gt;&lt;br /&gt;Atenção: este produto é recertificado.&lt;br /&gt;Os eletrônicos são originais e acompanham nota fiscal. Os produtos passam por uma avaliação de qualidade rigorosa, que certifica as condições técnicas e estéticas do aparelho, categorizadas de acordo com os selos ouro, prata ou bronze. Você ainda conta com garantia de três meses contra problemas e pode fazer a devolução do produto em até sete dias.</t>
-  </si>
-  <si>
-    <t>Monitor Gamer KBM! GAMING MG700 27' Led Full Hd, 240hz, 1ms, Hdmi E Displayport, 96% Srgb, Adaptive Sync, Ajuste De Altura - KGMG70027PT</t>
-  </si>
-  <si>
-    <t>&lt;h2&gt;Monitor Gamer KBM! GAMING MG700: Imers&amp;atilde;o e desempenho para seus jogos&lt;/h2&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;O Monitor Gamer KBM! GAMING MG700 &amp;eacute; a escolha perfeita para quem busca imers&amp;atilde;o e desempenho nos jogos. Com &lt;strong&gt;tela curva de 27 polegadas&lt;/strong&gt;, resolu&amp;ccedil;&amp;atilde;o &lt;strong&gt;Full HD&lt;/strong&gt; e taxa de atualiza&amp;ccedil;&amp;atilde;o de &lt;strong&gt;240 Hz,&lt;/strong&gt; o MG700 oferece uma experi&amp;ecirc;ncia visual incr&amp;iacute;vel.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;O tempo de resposta de &lt;strong&gt;1 ms&lt;/strong&gt; garante que voc&amp;ecirc; n&amp;atilde;o perca nenhum detalhe da a&amp;ccedil;&amp;atilde;o, mesmo nos jogos mais r&amp;aacute;pidos. Al&amp;eacute;m disso, o recurso &lt;strong&gt;AdaptiveSync&lt;/strong&gt; elimina o tearing e o stuttering, garantindo uma imagem suave e fluida.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;Para proteger a sua vis&amp;atilde;o, o MG700 conta com &lt;strong&gt;redu&amp;ccedil;&amp;atilde;o de luz azul&lt;/strong&gt; e &lt;strong&gt;Modo Game Plus&lt;/strong&gt;, que reduzem o cansa&amp;ccedil;o visual. O som integrado &amp;eacute; de alta qualidade, mas voc&amp;ecirc; tamb&amp;eacute;m pode conectar o seu headset atrav&amp;eacute;s das portas plug and play.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;Com o Monitor Gamer KBM! GAMING MG700, voc&amp;ecirc; ter&amp;aacute; tudo o que precisa para jogar seus games favoritos com o m&amp;aacute;ximo de desempenho e imers&amp;atilde;o.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;O Monitor Gamer KBM! GAMING MG700 &amp;eacute; a escolha perfeita para quem busca um monitor gamer de alta qualidade. Com recursos avan&amp;ccedil;ados e uma excelente rela&amp;ccedil;&amp;atilde;o custo-benef&amp;iacute;cio, o MG700 &amp;eacute; a garantia de uma experi&amp;ecirc;ncia de jogo inesquec&amp;iacute;vel.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>Monitor Gamer Primetek, 27 Polegadas, 180hz Ips Qhd HDMI/dp</t>
-  </si>
-  <si>
-    <t>Caracteristicas: - marca: primetek - modelo: 27a2r  especificações técnicas: - tamanho do painel (diagonal) 27 - tipo de painel ips rápido - plana/ curva plana proporção 16:9 resolução 2560x1440 - tipo de moldura moldura sem moldura 3 - distância do pixel (h)*(v) (mm) 0,2331 (h) × 0,2331(v - brilho (cd/m2 )(tipo.) 250(min) 300(tipo) brilho (nits)(máx.)? 250(min) 300(tipo) - ângulo de visão (h/v) 178°(h)/178°(v) - profundidade de bits do painel verdadeiro 8 bits - cores da tela 16,7m - tempo de resposta do painel sem od 5ms tempo de resposta 1ms - taxa de atualização (máx.) 180 hz - hdmi 2.0 2 (máx. 144 hz) dp 1.4 2 (máx. 180 hz) saída de áudio 1 - design de suporte de exibição has inclinação (ângulo) 5°±2°,20°±2° giro (ângulo) 20°±2° - pivô (ângulo/direção) pviot: 90° ajuste de altura 120±5mm montagem vesa 75*75mm tecla do botão liga/desliga roker - tecla do botão osd roker contracapa design rgb - consumo de energia 48w modo de economia de energia ?0,5w modo de desligamento desligado &amp;lt,0,3 w tipo de energia adaptador de energia fonte de alimentação dc 12v, 4a - acessorios: cabo de alimentação (1,5m) 1,5m cabo dp versão 1.2 quantidade de cabo dp (1,5 m/1,8 m) 1,5 m - temperatura da cor (fria, quente, usuário) controle de luz azul baixa modo de cena dcr idiomas (23 idiomas) ajuste da luz de fundo sem oscilações freesync over drive fps/rts jogo mais modo de controle do efeito de iluminação (nenhum/mistura de cores rgb/seleção colorida) laranja - dimensão com suporte (l*a*p)(mm) 619x269,2x554,6 mm - dimensão sem suporte (lxaxp)(mm) 619x63,7x365,5 mm - dimensão da caixa (lxaxp)(mm) 715x213x471mm - peso líquido (kg) 6,3kg - peso bruto (kg) 8,3kg - garantia 1 ano &lt;br&gt;&lt;br&gt;&lt;strong&gt;especificações técnicas&lt;/strong&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;tamanho da tela:&lt;/strong&gt; 27&lt;br&gt;&lt;strong&gt;marca:&lt;/strong&gt; primetek&lt;br&gt;&lt;strong&gt;modelo:&lt;/strong&gt; 27a2r</t>
-  </si>
-  <si>
-    <t>Monitor Gamer Redragon Mirror, Tela de 27 Polegadas FHD, 165HZ, LED, HDMI - GM27X5IPS</t>
-  </si>
-  <si>
-    <t>Características:&lt;br /&gt; - marca: redragon&lt;br /&gt; - modelo: gm27x5ips&lt;br /&gt; especificações:&lt;br /&gt; - cor: preto&lt;br /&gt; - tamanho: 27”&lt;br /&gt; - resolução: 1920 x 1080 16:9&lt;br /&gt; - tipo de painel: ips&lt;br /&gt; - taxa de atualização: 165 hz&lt;br /&gt; - número de cores: 16.7 m&lt;br /&gt; - brilho máximo: 250cd/m2 (typical)&lt;br /&gt; - taxa de contraste: 1000:1&lt;br /&gt; - conectividade: dp 1.2 x1, hdmi 1.4 x2, dc in x1&lt;br /&gt; - power range: 100-240v 50/60hz&lt;br /&gt; - tempo de resposta: 1ms&lt;br /&gt; - peso bruto(g): 5900g&lt;br /&gt; - peso liquido(g): 4200g&lt;br /&gt; conteúdo da embalagem:&lt;br /&gt; - monitor gamer redragon</t>
-  </si>
-  <si>
-    <t>Monitor Gamer 27 Polegadas, 240hz Curvo FULL HD, HDMI/dp</t>
-  </si>
-  <si>
-    <t>Caracteristicas:  - marca: primetek  - modelo: 27c1h  se você está procurando um monitor para jogos, nossas ofertas primetek te oferece uma ótima opção de modelo e um bom preço. Monitor gamer 27curvo 240hz dp/hdmi fhd primetek 27c1h que entrega imagens mais nítidas, levando sua experiência visual e seu foco no jogo para um novo nível.  especificações técnicas:  - tamanho 27´´ painel tipo va  - fonte do painel csot curva plana/ curva  - suporte hdr n resolução 1920 x 1080  - tipo de moldura moldura sem moldura 3 área de visualização da tela (a*v) (mm) 597,888 (a) x 336,312 (v) tipo de luz de fundo do painel e-led  - distância do pixel (a)(v) (mm) 0,1038(a) x 0,3114(v) brilho (nits) (máx.) 280 nits (min)  - taxa de contraste (típico) 3000:1 taxa de contraste dinâmico milhões  - ângulo de visão (h/v) 178°(h)/178°(v)  - profundidade de bits do painel 8 bits cores da tela 16,7m  - tempo de resposta do painel sem od 21ms tempo de resposta 8 ms (alta) taxa de atualização do painel (máx.) 240 hz taxa de atualização da tela (máx.) 48hz-240hz scaler pn hdmi 1.4 n/a faixa freesync n/a hdmi 2.0 2 faixa freesync 48-240 hz  - saída de áudio  - botão liga/desliga cinco botão osd cinco  - contracapa design rgb  - consumo de energia 25w tipo.,54w máx. Modo de economia de energia?0,5w modo de desligamento ?0,3w  - tipo de energia adaptador de energia fonte de alimentação 12v 4a  - acessorios: cabo de alimentação (1,5 m) 1 (1,5 m) cabo dp versão 1.2 qtd de cabo dp (1,5 m/1,8 m) 1 (1,5 m)  - temperatura da cor (fria, quente, usuário) controle de baixa luz azul modos de cenários dcr menu de idiomas 23 idiomas  - nenhum ajuste de luz de fundo intermitente sincronização adaptável freesync  - over drive fps/rts jogo mais pip/pbp qp efeito de luz laranja  - dimensão com suporte (l/a/p)(mm) 616,2x453,1x195,7 mm  - dimensão sem suporte (lxaxp)(mm) 616,2x367,2x96,3 mm  - dimensão da caixa (lxaxp)(mm) 699x169x440mm  - peso líquido (kg) 4,85kg  - peso bruto (kg) 6,72kg  - garantia 1 ano &lt;br&gt;&lt;br&gt;&lt;strong&gt;especificações técnicas&lt;/strong&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;marca:&lt;/strong&gt; primetek&lt;br&gt;&lt;strong&gt;modelo:&lt;/strong&gt; 25c1h&lt;br&gt;&lt;strong&gt;tamanho da tela:&lt;/strong&gt; 25</t>
-  </si>
-  <si>
-    <t>Monitor Gamer Goldentec, 24 Polegadas, LED, Full HD, 144hz, 1ms</t>
-  </si>
-  <si>
-    <t>Monitor gamer goldentec 24´´ led full hd 144hz 1ms | gt gamer conta com tecnologia freesync, capaz de eliminar falhas e intermitências. Além disso, possui tecnologia lowbluelight, capaz de reduzir a luz azul do monitor proporcionando mais conforto e segurança. Conta também com 100% flicker free, suavizando a ondulação do monitor.   especificações técnicas  marcagoldentec  tamanho de tela24´´  framelesssim  resolução1920x1080 (full hd)  tempo de resposta 1ms  frequência 144hz  brilho250 cd/m²  contraste 100 milhões: 1  ângulo de visão180° (h) 180° (v)  cores16,7 milhões  inclinação ajustavel15°  tecnologia freesyncsim, elimina falhas e intermitências  tecnlogia lowbluelightsim, reduz a luz azul para mais conforto e segurança  100% flicker freesim, suaviza a ondulação do monitor  conexõeshdmi + vga  conteúdo da embalagemmonitor 24´´&lt;br&gt;fonte adaptadora&lt;br&gt;cabo hdmi&lt;br&gt;manual de instruções   &lt;br&gt;&lt;br&gt;&lt;strong&gt;especificações técnicas&lt;/strong&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;marca :&lt;/strong&gt; goldentec&lt;br&gt;&lt;strong&gt;tipo :&lt;/strong&gt; gamer&lt;br&gt;&lt;strong&gt;polegadas :&lt;/strong&gt; 24 ´´&lt;br&gt;&lt;br&gt;&lt;strong&gt;garantia : &lt;/strong&gt;12</t>
-  </si>
-  <si>
-    <t>Monitor Gamer Grasep 27 Polegadas Led, FHD, HDMI, Som Integrado - 1920P</t>
-  </si>
-  <si>
-    <t>PRONTA ENTREGA&lt;br /&gt;3 meses de garantia com o vendedor!&lt;br /&gt;6 meses de garantia com o fabricante!&lt;br /&gt;&lt;br /&gt;Monitor PC Gamer Led Full HD Som integrado 27 pol 75Hz&lt;br /&gt;&lt;br /&gt;Eleve a qualidade visual do seu computador com este incrível monitor PC de alta definição. Projetado para oferecer uma experiência visual imersiva e nítida, este monitor é perfeito para trabalhar, jogar, assistir a filmes e muito mais.&lt;br /&gt;&lt;br /&gt;Com uma tela de alta resolução, cada detalhe ganha vida, proporcionando imagens vibrantes e cores realistas. Seja para editar fotos e vídeos, jogar seus games favoritos ou assistir a filmes em alta definição, este monitor oferece uma qualidade de imagem impressionante, com alto contraste e brilho intenso.&lt;br /&gt;&lt;br /&gt;Além disso, o monitor possui um tamanho de 27 polegadas para acomodar várias janelas e facilitar a multitarefa. Você poderá abrir e trabalhar em diferentes aplicativos ao mesmo tempo, aumentando sua produtividade e tornando seu fluxo de trabalho mais eficiente.&lt;br /&gt;&lt;br /&gt;Dimensões: 4x56x33cm&lt;br /&gt;Peso: 3.6kg&lt;br /&gt;&lt;br /&gt;Especificações:&lt;br /&gt;Tela: 27"&lt;br /&gt;Tipo: LED&lt;br /&gt;Resolução: 1920x1080&lt;br /&gt;IPS&lt;br /&gt;Tempo de resposta: 1ms&lt;br /&gt;Brilho máxima: 250cd/m&lt;br /&gt;Interfaces: HDMI/VGA/AUDIO IN&lt;br /&gt;Frequência horizontal: 67.200KHz&lt;br /&gt;Frequência vertical: 75Hz&lt;br /&gt;Consumo de potência: 35W&lt;br /&gt;Consumo Potência em Standby: 0,5&lt;br /&gt;Não possui som integrado&lt;br /&gt;Visão expansiva&lt;br /&gt;&lt;br /&gt;Itens Inclusos:&lt;br /&gt;1 Monitor 27&lt;br /&gt;1 Cabo DisplayPort&lt;br /&gt;1 Fonte AC/DC&lt;br /&gt;1 Manual</t>
-  </si>
-  <si>
-    <t>Monitor Gamer Acer VG240Y FHD 165hz FreeSync ZeroFrame 0,5ms.</t>
-  </si>
-  <si>
-    <t>A tecnologia AMDFreeSync Premium elimina a tela ?'rasgada', minimiza atrasos e latência durante os jogos, apresentando uma sincronização dos quadros do monitor muito mais eficiente. Sua experiência visual será mais suave, fluida e responsiva. O Nitro VG240Y conta com uma alta taxa de atualização de 144Hz até 165Hz. Prepare-se para ver imagens mais suaves, sem rastros e sem rasgos. Monitor é igual exp: quanto mais, melhor. Jogue com múltiplos monitores sem problemas, o design ZeroFrame praticamente elimina as bordas para que você tenha uma verdadeira imersão no jogo. Com Display Acer HDR, o VG240Y cria níveis mais profundos do contraste preto e branco. Nas cenas mais escuras, os pretos ricos são preservados e os detalhes aprimorados, gerando maior luminosidade. A tela de 23.8 polegadas IPS Full HD potencializa seu poder de imersão nas batalhas. A latência ultrabaixa deste monitor oferece respostas rápidas além das expectativas. Você terá controle total em jogos de corrida ou esporte, devido à redução do atraso de quadro. O tempo de resposta do Nitro é de 2ms até 0,5ms.</t>
-  </si>
-  <si>
-    <t>Monitor Gamer 27 Asus Vg279q1r Tuf Gaming - Full Hd Ips - 144hz - 1ms - Freesync - Hdmi/displayport</t>
-  </si>
-  <si>
-    <t>TUF Gaming VG279Q1RO TUF Gaming VG279Q1R é uma tela Full HD (1920x1080) de 27 polegadas com uma taxa de atualização ultrarrápida de 144 Hz projetada para jogadores profissionais e aqueles que buscam jogabilidade envolvente. Ele também possui a tecnologia Adaptive-Sync (FreeSync ™), para uma jogabilidade extremamente fluida sem tearing e stuttering.MONITOR GAMING ULTRA SLIM DE 27 POLEGADASO painel Full HD (1920 X 1080) de 27 polegadas do TUF Gaming VG279Q1R oferece visuais impressionantes de ângulos de visão amplos de 178 °. Também ocupa muito pouco espaço na área de trabalho e se encaixa bem em qualquer configuração. Seu perfil ultrafino mede apenas 7,5 mm em seu ponto mais fino, também apresenta o novo Turbo Rim baseado que combina com a configuração de jogo perfeita.Refresh rate de 144hzO TUF Gaming VG279Q1R tem uma taxa de atualização super rápida de 144 Hz, garantindo que mesmo os jogos mais rápidos, jogados nas configurações visuais mais altas, tenham uma aparência suave e completamente livre de atrasos. Obtenha a vantagem em jogos de tiro em primeira pessoa, corrida, estratégia em tempo real e títulos de esportes.EXTREME LOW MOTION BLURA tecnologia Extreme Low Motion Blur exclusiva da ASUS alcança 1 ms MPRT para eliminar manchas e desfoque de movimento. Também faz com que os objetos em movimento pareçam ainda mais nítidos, para que a jogabilidade seja mais fluida e ágil.Shadow BoostA tecnologia ASUS Shadow Boost esclarece as áreas escuras do jogo sem superexpor as áreas mais brilhantes, melhorando a visualização geral, ao mesmo tempo que torna mais fácil localizar inimigos escondidos em áreas escuras do mapa.</t>
-  </si>
-  <si>
-    <t>Monitor Goldentec, 24" Led Gt Gamer Fhd, Hdmi, 75hz</t>
-  </si>
-  <si>
-    <t>Monitor Gamer Bluecase, 21.5" Full HD, 75Hz, Rako - BM221GW</t>
-  </si>
-  <si>
-    <t>Monitor Gamer Husky Storm 27' LED, Curvo, 165 Hz, Full HD, 1ms, Adaptive Sync, HDMI/DisplayPort, Ajuste de Ângulo - HGMT001</t>
-  </si>
-  <si>
-    <t>&lt;h2&gt;Monitor Gamer Husky Storm 27' LED, Curvo, 165 Hz, Full HD, 1ms, Adaptive Sync, HDMI/DisplayPort, Ajuste de &amp;Acirc;ngulo&lt;/h2&gt;
-&lt;h3&gt;&lt;br /&gt;Esteja um passo &amp;agrave; frente!&lt;/h3&gt;
-&lt;p&gt;O Monitor Husky Storm conta com resposta de 1ms e taxa de atualiza&amp;ccedil;&amp;atilde;o de 165Hz, permitindo a mais alta performance durante suas gameplays. Sua curvatura amplia o campo de vis&amp;atilde;o relativo, concentrando toda a a&amp;ccedil;&amp;atilde;o ao alcance dos olhos do usu&amp;aacute;rio, sem perder resolu&amp;ccedil;&amp;atilde;o.&lt;/p&gt;
-&lt;h3&gt;&lt;br /&gt;Tecnologia Adaptive Sync&amp;nbsp;&lt;/h3&gt;
-&lt;p&gt;Compat&amp;iacute;vel com a tecnologia Adaptive Sync, permite a sincroniza&amp;ccedil;&amp;atilde;o dos frames da placa de v&amp;iacute;deo, decretando o fim do input lag, bem como do tearing.&lt;/p&gt;
-&lt;h3&gt;&lt;br /&gt;Monitor Curvo&amp;nbsp;&lt;/h3&gt;
-&lt;p&gt;Tenha mais imers&amp;atilde;o na sua gaming player com esse monitor curvo da Husky. Observe seus advers&amp;aacute;rios ainda mais de perto com essa imers&amp;atilde;o de 1500r de curvatura e um &amp;acirc;ngulo de vis&amp;atilde;o de 178&amp;ordm;.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h3&gt;Adaptive Sync&lt;/h3&gt;
-&lt;p&gt;Evita o imput lag e combate o problema da quebra de quadros durante a reprodu&amp;ccedil;&amp;atilde;o dos frames. Essa Tecnologia evita o travamento do jogo para uma jogabilidade mais suave poss&amp;iacute;vel. Explore novas paisagens e capture seus inimigos em movimentos suaves e cont&amp;iacute;nuos.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h3&gt;Inclin&amp;aacute;vel&lt;/h3&gt;
-&lt;p&gt;Ajuste de inclina&amp;ccedil;&amp;atilde;o da tela de 5&amp;deg; a 15&amp;deg;. Ajuste seu monitor da maneira que quiser deixando sua vis&amp;atilde;o ainda mais confort&amp;aacute;vel e ampla&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h3&gt;Monitor Husky &amp;eacute; no KaBuM!&amp;nbsp;&lt;/h3&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;&lt;strong&gt;&lt;a href="https://kabum.com.br/hotsite/manuais/115384-Monitor-Gamer-Husky-Storm-HGMT001.pdf" target="_blank"&gt;MANUAL DE INSTRU&amp;Ccedil;&amp;Otilde;ES&lt;/a&gt;&lt;/strong&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>Monitor Asus TUF Gaming 27 Full HD, 165Hz, 1ms, IPS, HDMI e DisplayPort, FreeSync Premium, VESA - VG279Q1A</t>
-  </si>
-  <si>
-    <t>&lt;h2&gt;TUF Gaming VG279Q1A Gaming Monitor Full HD de 27 polegadas (1920x1080), IPS, 165Hz (acima de 144Hz), Extreme Low Motion Blur, Adaptive-sync, FreeSync Premium, 1ms (MPRT)&lt;/h2&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;Monitor de jogos &lt;strong&gt;IPS Full HD (1920 x 1080)&lt;/strong&gt; de 27 polegadas com &lt;strong&gt;taxa de atualiza&amp;ccedil;&amp;atilde;o ultrarr&amp;aacute;pida de 165 Hz&lt;/strong&gt;, projetado para jogadores profissionais e jogabilidade envolvente.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;A tecnologia &lt;strong&gt;ASUS Extreme Low Motion Blur (ELMB)&lt;/strong&gt; permite um &lt;strong&gt;tempo de resposta de 1 ms (MPRT)&lt;/strong&gt; junto com a sincroniza&amp;ccedil;&amp;atilde;o adaptativa, eliminando fantasmas e rasgos para visuais de jogos n&amp;iacute;tidos com altas taxas de quadros.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;&lt;strong&gt;Tecnologia FreeSync Premium&lt;/strong&gt; para eliminar rasgos na tela e taxas de quadros inst&amp;aacute;veis.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;Suporta &lt;strong&gt;Adaptive-Sync&lt;/strong&gt; com placas gr&amp;aacute;ficas &lt;strong&gt;NVIDIA GeForce e FreeSync&lt;/strong&gt; com placas gr&amp;aacute;ficas AMD Radeon Compat&amp;iacute;vel com NVIDIA GeForce s&amp;eacute;rie GTX 10, s&amp;eacute;rie GTX 16, s&amp;eacute;rie RTX 20 e placas gr&amp;aacute;ficas mais recentes.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;O &lt;strong&gt;Shadow Boost aprimora os detalhes da imagem&lt;/strong&gt; em &amp;aacute;reas escuras, iluminando as cenas sem super expor as &amp;aacute;reas claras.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;Sa&amp;iacute;da &lt;strong&gt;Full HD (1920 x 1080) a 120 Hz no PS5 e Xbox&lt;/strong&gt; Series X/S.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h3&gt;Todos os elementos essenciais para jogos&lt;/h3&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;O TUF Gaming VG279Q1A &amp;eacute; um monitor IPS Full HD (1920 x 1080) de 27 polegadas com uma taxa de atualiza&amp;ccedil;&amp;atilde;o ultrarr&amp;aacute;pida de 165 Hz. Projetado para jogadores e outros que buscam uma jogabilidade envolvente, ele oferece algumas especifica&amp;ccedil;&amp;otilde;es s&amp;eacute;rias. Mas h&amp;aacute; mais...&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;Sua fun&amp;ccedil;&amp;atilde;o exclusiva ELMB apresenta um tempo de resposta MPRT de 1ms e tecnologia Adaptive-Sync (FreeSync Premium), para uma jogabilidade extremamente fluida sem tearing e gagueira.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h3&gt;Tela IPS de 27 polegadas para melhor reprodu&amp;ccedil;&amp;atilde;o de cores&lt;/h3&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;O painel IPS Full HD (1920 x 1080) de 27 polegadas do TUF Gaming VG279Q1A oferece visuais impressionantes de todos os &amp;acirc;ngulos com amplos &amp;acirc;ngulos de vis&amp;atilde;o de 178 graus, garantindo distor&amp;ccedil;&amp;atilde;o m&amp;iacute;nima e mudan&amp;ccedil;a de cor mesmo quando voc&amp;ecirc; est&amp;aacute; visualizando de posi&amp;ccedil;&amp;otilde;es extremas.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h3&gt;Taxa de atualiza&amp;ccedil;&amp;atilde;o super-r&amp;aacute;pida de 165 Hz&lt;/h3&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;Uma impressionante taxa de atualiza&amp;ccedil;&amp;atilde;o de 165 Hz elimina o atraso e o desfoque de movimento para dar a voc&amp;ecirc; vantagem em jogos de tiro em primeira pessoa, corrida, estrat&amp;eacute;gia em tempo real e t&amp;iacute;tulos esportivos. Essa taxa de atualiza&amp;ccedil;&amp;atilde;o ultrarr&amp;aacute;pida permite que voc&amp;ecirc; jogue nas configura&amp;ccedil;&amp;otilde;es visuais mais altas e reaja instantaneamente ao que est&amp;aacute; na tela.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h3&gt;Desfrute de uma jogabilidade super suave&lt;/h3&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;Apresenta a mais recente tecnologia Extreme Low Motion Blur exclusiva da ASUS, que atinge 1ms MPRT para eliminar manchas e desfoque de movimento, e torna os objetos em movimento mais n&amp;iacute;tidos, para que a jogabilidade seja mais fluida e responsiva.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>Monitor Gamer Duex 27 Full HD Curvo, 240Hz, 1ms, IPS, HDMI e DisplayPort, 99% sRGB, VESA - 270ZG</t>
-  </si>
-  <si>
-    <t>&lt;h2&gt;Monitor Gamer Duex 27 Full HD&lt;/h2&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;Uma velocidade ultrarr&amp;aacute;pida de&amp;nbsp;&lt;strong&gt;240Hz e 1ms&lt;/strong&gt;&amp;nbsp;permite que os jogadores vejam o pr&amp;oacute;ximo quadro rapidamente e fazem com que a imagem apare&amp;ccedil;a suavemente. Os jogadores podem responder rapidamente aos oponentes e mirar no alvo facilmente.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h3&gt;Compre agora no KaBuM!&lt;/h3&gt;</t>
-  </si>
-  <si>
-    <t>Monitor Gamer Husky 700  27 LED, Curvo Wide, WQHD, 165Hz, 1ms, HDMI e DisplayPort, Adaptive Sync, VESA - HGMT008</t>
-  </si>
-  <si>
-    <t>&lt;h2&gt;Monitor Gamer Husky Gaming Storm 700&lt;/h2&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;N&amp;atilde;o precisa mais se perguntar qual monitor gamer comprar! A Husky Gaming ajuda voc&amp;ecirc; a &lt;strong&gt;atualizar seu setup&lt;/strong&gt;, seja para partidas no PC ou v&amp;iacute;deo game. Sempre oferecemos &lt;strong&gt;o melhor para voc&amp;ecirc;!&lt;/strong&gt;&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;Monitor Gamer Husky Gaming Storm 700 tem uma alta &lt;strong&gt;taxa de atualiza&amp;ccedil;&amp;atilde;o de 165 Hz&lt;/strong&gt; com &lt;strong&gt;tempo de resposta de 1 ms&lt;/strong&gt;, que possibilita um tempo de rea&amp;ccedil;&amp;atilde;o mais r&amp;aacute;pido para suas partidas insanas.&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;Sua&lt;strong&gt; tela curva Quad HD de 27"&lt;/strong&gt;, com&lt;strong&gt; resolu&amp;ccedil;&amp;atilde;o de 2560 x 1440P&lt;/strong&gt; que garante imagem mais n&amp;iacute;tida e detalhada. Proporcionando&lt;strong&gt; jogabilidade fluida&lt;/strong&gt;, &lt;strong&gt;sem distor&amp;ccedil;&amp;otilde;es&lt;/strong&gt; e uma &lt;strong&gt;experi&amp;ecirc;ncia mais imersiva&lt;/strong&gt; para voc&amp;ecirc; n&amp;atilde;o perder nenhum detalhe importante, do seu programa de esporte, filme, s&amp;eacute;rie ou jogo preferido.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h3&gt;Aproveite e garanta j&amp;aacute; o seu Monitor Gamer Husky Gaming Storm 700! no KaBuM!&lt;/h3&gt;</t>
-  </si>
-  <si>
-    <t>Monitor Gamer Gigabyte, 27 QHD, 170Hz, 1ms, DisplayPort e HDMI, 108% sRGB, HDR, Adaptive-Sync - GS27QC SA</t>
-  </si>
-  <si>
-    <t>&lt;h2&gt;Monitor Gamer Gigabyte 27 QHD&lt;/h2&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h2&gt;A Mais Alta Qualidade&lt;/h2&gt;
-&lt;p&gt;Equipado com uma taxa de atualiza&amp;ccedil;&amp;atilde;o de &lt;strong&gt;165 Hz&lt;/strong&gt; que suporta a tecnologia &lt;strong&gt;Adaptive-Sync&lt;/strong&gt; (FreeSync Premium), que p&amp;otilde;e fim &amp;agrave; jogabilidade inst&amp;aacute;vel e aos frames quebrados e cria um desempenho fluido e livre de artefatos em qualquer taxa de quadros. GS27QC com um tempo de resposta extremamente r&amp;aacute;pido de &lt;strong&gt;1 ms&lt;/strong&gt; para eliminar totalmente o atraso e o rasgo da imagem.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h2&gt;Mais Curva e Mais Imers&amp;atilde;o&lt;/h2&gt;
-&lt;p&gt;Um painel VA nativo de &lt;strong&gt;1500 Raios&lt;/strong&gt; que apresenta uma vis&amp;atilde;o mais pr&amp;oacute;xima do olho humano do que um monitor plano, proporcionando uma sensa&amp;ccedil;&amp;atilde;o mais envolvente e ao mesmo tempo oferecendo mais conforto visual.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h2&gt;Milh&amp;otilde;es de Cores&lt;/h2&gt;
-&lt;p&gt;O GS27QC pode exibir &lt;strong&gt;16,7 milh&amp;otilde;es de cores&lt;/strong&gt; e possui uma taxa de contraste de &lt;strong&gt;4000:1&lt;/strong&gt;. Ele permite que voc&amp;ecirc; desfrute de uma experi&amp;ecirc;ncia de jogo fluente com cores reais e vibrantes. O GS27QC est&amp;aacute; pronto para &lt;strong&gt;HDR&lt;/strong&gt;, o que desperta interesse em uma ampla gama de aplica&amp;ccedil;&amp;otilde;es, incluindo jogos, entretenimento cinematogr&amp;aacute;fico e cria&amp;ccedil;&amp;atilde;o de conte&amp;uacute;do multim&amp;iacute;dia.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h3&gt;Compre j&amp;aacute; o seu no KaBuM!&lt;/h3&gt;</t>
-  </si>
-  <si>
-    <t>Monitor Gamer Husky Hailstorm 31.5' LED, Curvo, 165 Hz, Full HD, 1ms, Adaptive Sync, HDMI/DisplayPort, Ajuste de Ângulo - HGMT002</t>
-  </si>
-  <si>
-    <t>&lt;h2&gt;Monitor Gamer Husky Hailstorm 31.5' LED, Curvo, 165 Hz, Full HD, 1ms, Adaptive Sync, HDMI/DisplayPort, Ajuste de &amp;Acirc;ngulo&amp;nbsp;&lt;/h2&gt;
-&lt;h2&gt;&amp;nbsp;&lt;/h2&gt;
-&lt;h3&gt;Esteja um passo &amp;agrave; frente!&amp;nbsp;&lt;/h3&gt;
-&lt;p&gt;O Monitor Husky Hail Storm conta com resposta de 1ms e taxa de atualiza&amp;ccedil;&amp;atilde;o de &lt;strong&gt;165Hz&lt;/strong&gt;, permitindo a mais alta performance durante suas gameplays. Sua &lt;strong&gt;curvatura&lt;/strong&gt; amplia o campo de vis&amp;atilde;o relativo, concentrando toda a a&amp;ccedil;&amp;atilde;o ao alcance dos olhos do usu&amp;aacute;rio, sem perder resolu&amp;ccedil;&amp;atilde;o.&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h3&gt;Melhor Entrega de Imagens para sua Gameplay&lt;/h3&gt;
-&lt;p&gt;Compat&amp;iacute;vel com a tecnologia &lt;strong&gt;Adaptive Sync&lt;/strong&gt;, permite a sincroniza&amp;ccedil;&amp;atilde;o dos frames da placa de v&amp;iacute;deo, decretando o fim do input lag, bem como do tearing.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h3&gt;Conectividade&lt;/h3&gt;
-&lt;p&gt;O monitor Husky Hailstorm acompanha um cabo &lt;strong&gt;DisplayPort&lt;/strong&gt; que garante a melhor qualidade de imagem para seu jogo. Al&amp;eacute;m da conex&amp;atilde;o DP, o monitor ainda possui duas conex&amp;otilde;es &lt;strong&gt;HDMI&lt;/strong&gt; e uma &lt;strong&gt;conex&amp;atilde;o P2&lt;/strong&gt; para ouvir seu jogo diretamente do seu monitor.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h3&gt;Maior Ergonomia e Conforto para Uso Prolongado&amp;nbsp;&amp;nbsp;&lt;/h3&gt;
-&lt;p&gt;O Husky Hailstorm possui ajuste de &lt;strong&gt;inclina&amp;ccedil;&amp;atilde;o de 5&amp;deg; a 15&amp;deg;&lt;/strong&gt; que se ajusta ergonomicamente para o seu uso. O monitor tamb&amp;eacute;m conta com &lt;strong&gt;Redu&amp;ccedil;&amp;atilde;o de Luz Azul&lt;/strong&gt;, se tornando uma &amp;oacute;tima op&amp;ccedil;&amp;atilde;o para Gameplays prolongadas.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h3&gt;Seu Monitor Husky voc&amp;ecirc; encontra aqui no KaBuM!&lt;/h3&gt;</t>
-  </si>
-  <si>
-    <t>Monitor Gamer Gigabyte 27 IPS, QHD , 144Hz, 1ms, 120% sRGB, HDR 400, FreeSync Premium, Altura Ajustável - G27Q-SA</t>
-  </si>
-  <si>
-    <t>JUNTE-SE À LUTA com o Monitor Gamer de 27" G27Q-SA da Gigabyte com 1ms de tempo de resposta, freesync premium, 144 Hz e com uma taxa de cor de 8 bits, 92% DCI-P3 A ÚLTIMA MILHA PARA O SEU SISTEMA DE JOGO Como um jogador invisível, o monitor é frequentemente subestimado. A verdade é que os monitores se formam como um efeito sinérgico e trazem o melhor desempenho dos componentes do PC. Os monitores de jogos GIGABYTE oferecem as últimas especificações e qualidade, os usuários podem realmente desfrutar de um desempenho de alto nível sem a necessidade de extravagância. Tempo de Resposta de 1 ms Tempo de resposta super rápido de 1 ms para a experiência de jogo mais suave de todos os tempos! QHD e 144Hz Alta resolução e taxa de atualização rápida, proporcionando qualidade de exibição detalhada e experiência de jogo fluida! Cor de 8 bits, 92% DCI-P3 Fantástico visor colorido e 92% de cores DCI-P3 de gama super ampla. SIMPLES MAS ESTILOSO A aparência aerodinâmica representa a simplicidade da filosofia de design da série de jogos GIGABYTE, suporte robusto e acabamento fosco construído para características funcionais e estéticas adicionando mais características. ÂNGULO DE VISÃO PERFEITO O monitor de jogos GIGABYTE possui um suporte exclusivo ergonomicamente projetado para oferecer uma ampla gama de ajustes de altura e inclinação.</t>
-  </si>
-  <si>
-    <t>Monitor Gamer Acer 31.5 LED Full HD, Curvo, 165 Hz, 1ms, HDMI e DisplayPort, FreeSync Premium, VESA - ED320QR</t>
-  </si>
-  <si>
-    <t>&lt;h2&gt;Monitor Gamer Acer 31.5 LED Full HD, Curvo, 165 Hz, 1ms, HDMI e DisplayPort, FreeSync Premium, VESA&lt;/h2&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h2&gt;Tela Curva e Imersiva&lt;/h2&gt;
-&lt;p&gt;Tenha uma experi&amp;ecirc;ncia visual imersiva e confort&amp;aacute;vel com uma&lt;strong&gt; tela curva&lt;/strong&gt; com raio de 1800 mm de visualiza&amp;ccedil;&amp;atilde;o. Essa tecnologia mant&amp;eacute;m os cantos da tela &amp;agrave; mesma dist&amp;acirc;ncia de seus olhos. S&amp;atilde;o &lt;strong&gt;31,5&amp;rdquo;&lt;/strong&gt; e resolu&amp;ccedil;&amp;atilde;o &lt;strong&gt;Full HD&lt;/strong&gt;, promovendo imagens n&amp;iacute;tidas, que levam seu foco no jogo a outro n&amp;iacute;vel.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h2&gt;Design ZeroFrame&lt;/h2&gt;
-&lt;p&gt;Monitor com tela &lt;strong&gt;LED VA&lt;/strong&gt; e design ZeroFrame, que praticamente elimina as bordas para que voc&amp;ecirc; tenha uma verdadeira imers&amp;atilde;o no jogo.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h2&gt;De olho em cada Frame&lt;/h2&gt;
-&lt;p&gt;O Nitro Series ED0 conta com uma taxa de atualiza&amp;ccedil;&amp;atilde;o de at&amp;eacute; &lt;strong&gt;165Hz.&lt;/strong&gt; Prepare-se para ver imagens mais suaves, sem rastros e sem rasgos.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h2&gt;Foque no Movimento&lt;/h2&gt;
-&lt;p&gt;Com o Visual Response Boost (VRB) de 1 ms, o monitor reduz borr&amp;otilde;es, efeitos fantasmas e manchas nas imagens. Al&amp;eacute;m disso, elimina o desfoque em objetos em movimento r&amp;aacute;pido.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h2&gt;Jogue em Perfeita Sincronia&lt;/h2&gt;
-&lt;p&gt;A tecnologi&lt;strong&gt;a AMD FreeSync Premium&lt;/strong&gt; elimina a tela &amp;ldquo;rasgada&amp;rdquo;, minimiza atrasos e lat&amp;ecirc;ncia durante os jogos, apresentando uma sincroniza&amp;ccedil;&amp;atilde;o dos quadros do monitor muito mais eficiente. Sua experi&amp;ecirc;ncia visual ser&amp;aacute; mais&lt;strong&gt; suave, fluida e responsiva.&lt;/strong&gt;&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h2&gt;Contrastes Impressionantes&lt;/h2&gt;
-&lt;p&gt;O contraste de 100 milh&amp;otilde;es:1 &amp;eacute; alcan&amp;ccedil;ado atrav&amp;eacute;s da tecnologia Acer Adaptive Contrast Management. Ela proporciona um&lt;strong&gt; visual mais cristalino&lt;/strong&gt; e real&amp;ccedil;a a qualidade das cores do monitor.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h3&gt;Aproveite essa oportunidade e adquira seu Monitor Acer no KaBuM!&lt;/h3&gt;</t>
-  </si>
-  <si>
-    <t>Monitor Gamer Samsung 22' IPS, 75 Hz, Full HD, FreeSync, HDMI/VGA, VESA -  LF22T350FHLMZD</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Monitor Gamer Samsung LED 22, IPS, Full HD, Vesa, Free Sync, Modo Gaming, Preto Vis&amp;atilde;o totalmente expansiva Design minimalista, concentra&amp;ccedil;&amp;atilde;o m&amp;aacute;xima. A tela com 3 lados sem borda traz uma est&amp;eacute;tica limpa e moderna para qualquer ambiente de trabalho. Em um setup com v&amp;aacute;rios monitores, se alinham perfeitamente para uma visualiza&amp;ccedil;&amp;atilde;o praticamente sem espa&amp;ccedil;os e sem distra&amp;ccedil;&amp;otilde;es. Imagens perfeitas e suaves Agora, a imagem &amp;eacute; reproduzida sem falhas. A taxa de atualiza&amp;ccedil;&amp;atilde;o de 75Hz oferece cenas mais fluidas. Seu momento de divers&amp;atilde;o n&amp;atilde;o tem lag ou efeito fantasma, quer voc&amp;ecirc; esteja acompanhando seu programa de TV favorito, assistindo a um v&amp;iacute;deo ou jogando um jogo. A&amp;ccedil;&amp;atilde;o Sincronizada Experi&amp;ecirc;ncia de entretenimento super fluida. AMD Radeon FreeSync mant&amp;eacute;m a taxa de atualiza&amp;ccedil;&amp;atilde;o do monitor e da placa gr&amp;aacute;fica em sincronia para reduzir a quebra de imagem. Assista a filmes e jogue sem interrup&amp;ccedil;&amp;otilde;es. At&amp;eacute; mesmo as cenas r&amp;aacute;pidas s&amp;atilde;o perfeitas e suaves. Veja de qualquer &amp;acirc;ngulo Sente-se em qualquer lugar e tenha uma experi&amp;ecirc;ncia completa sem distor&amp;ccedil;&amp;atilde;o de cores. O painel IPS preserva a nitidez e a vivacidade das cores em cada cent&amp;iacute;metro da tela. Mesmo em uma tela t&amp;atilde;o ampla, os tons e sombras s&amp;atilde;o completamente precisos de praticamente qualquer &amp;acirc;ngulo, sem altera&amp;ccedil;&amp;atilde;o de cor. Mais poder de jogo As configura&amp;ccedil;&amp;otilde;es de jogo ideais proporcionam uma vantagem instant&amp;acirc;nea. Detecte inimigos escondidos nas sombras atrav&amp;eacute;s do contraste ideal, mais nitidez e cenas com cores mais vivas. O Modo de Jogo ajusta qualquer jogo para preencher sua tela visualizando todos os detalhes. Mais conforto para os olhos Proteja seus olhos e fa&amp;ccedil;a mais. A avan&amp;ccedil;ada tecnologia de conforto visual reduz a fadiga ocular para uma experi&amp;ecirc;ncia prolongada menos cansativa. A tecnologia Flicker Free remove continuamente a tremula&amp;ccedil;&amp;atilde;o cansativa e irritante da tela, enquanto o Eye Saver Mode minimiza a emiss&amp;atilde;o de luz azul. Seus olhos ficam descansados por mais tempo. Versatilidade de verdade Conecte-se a mais. Com as portas HDMI e D-sub, v&amp;aacute;rios dispositivos podem ser conectados diretamente ao seu monitor para total flexibilidade. Agora, seu ambiente de computa&amp;ccedil;&amp;atilde;o &amp;eacute; ainda mais conveniente com possibilidades de entrada adicionais.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>Monitor Gamer AOC Agon 31.5' LED, Curvo, 165 Hz, Full HD, 1ms, FreeSync Premium, HDMI/DisplayPort, RGB Light FX - AG323FCXE</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Com tela de alta qualidade, amplo &amp;acirc;ngulo de vis&amp;atilde;o e comando em tempo real, prepare-se para obter uma experi&amp;ecirc;ncia muito mais imersiva em todos os g&amp;ecirc;neros de jogos. Projetado para gamers, o monitor Agon permite movimentos muito mais flu&amp;iacute;dos nos jogos devido a alt&amp;iacute;ssima taxa de atualiza&amp;ccedil;&amp;atilde;o de 165 Hz. O tempo de resposta de 1 ms proporciona movimentos instant&amp;acirc;neos e naturais para voc&amp;ecirc; ser o melhor, e com o painel VA, voc&amp;ecirc; tem mais brilho e contraste para enxergar onde os seus inimigos est&amp;atilde;o, mesmo em cenas com pouca ilumina&amp;ccedil;&amp;atilde;o. Al&amp;eacute;m disso, o design exclusivo com LEDs em diferentes configura&amp;ccedil;&amp;otilde;es de cores RGB deixam a sua maratona de jogos ainda mais emocionante.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>Monitor Gamer LG Ultra Gear 27 Full HD, 144 Hz, 1ms, IPS, HDMI e DisplayPort, sRGB 99%, HDR10, FreeSync, VESA, Altura Ajustável - 27GL650F-B</t>
-  </si>
-  <si>
-    <t>&lt;h2&gt;Monitor Gamer LG Ultra Gear 27 Full HD&lt;/h2&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h2&gt;Evolua o Jogo Antes do Seu Rival:&lt;/h2&gt;
-&lt;p&gt;Tenha incr&amp;iacute;vel qualidade de imagens e decis&amp;otilde;es imediatas aos seus jogos com o Monitor Gamer LG 27GL650F.&lt;br /&gt;Os &lt;strong&gt;frames ultra-r&amp;aacute;pidos&lt;/strong&gt; de &lt;strong&gt;144Hz&lt;/strong&gt; permite os jogadores a reagirem imediatamente aos seus advers&amp;aacute;rios e mudar a hist&amp;oacute;ria do jogo para a sua vit&amp;oacute;ria.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h2&gt;1ms Motion Blur Reduction&lt;/h2&gt;
-&lt;p&gt;Tenha imagens sem rastros e a&amp;ccedil;&amp;otilde;es mais r&amp;aacute;pidos com o &lt;strong&gt;tempo de resposta de 1ms&lt;/strong&gt; com &lt;strong&gt;Motion Blur Reduction.&lt;br /&gt;&lt;/strong&gt;O LG 27GL650F exibe &lt;strong&gt;precis&amp;atilde;o de cores impec&amp;aacute;vel&lt;/strong&gt; com um &amp;acirc;ngulo de vis&amp;atilde;o ampliado de 178&amp;deg;.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h2&gt;Compat&amp;iacute;vel com G-SYNC certificado pela NVIDIA&lt;/h2&gt;
-&lt;p&gt;Ap&amp;oacute;s ser testado pela NVIDIA, o monitor LG 27GL650F &amp;eacute; oficialmente compat&amp;iacute;vel com &lt;strong&gt;G-SYNC&lt;/strong&gt;, eliminando cortes e minimizando as repeti&amp;ccedil;&amp;otilde;es de imagem para uma experi&amp;ecirc;ncia mais fluida nos seus jogos.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h2&gt;Incr&amp;iacute;vel qualidade de imagem&lt;/h2&gt;
-&lt;p&gt;Tenha&lt;strong&gt; imagens supreendentes&lt;/strong&gt; com &lt;strong&gt;HDR10&lt;/strong&gt;, que reproduz alto brilho e maior gama de cores quando comparado a monitores convencionais deixando as imagens com maior qualidade em situa&amp;ccedil;&amp;otilde;es mais brilhantes ou de maior contraste.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h2&gt;Imagens sem falhas&lt;/h2&gt;
-&lt;p&gt;A tecnologia &lt;strong&gt;AMD FreeSync&lt;/strong&gt; reduz corte e repeti&amp;ccedil;&amp;otilde;es de imagens que ocorrem devido a diferen&amp;ccedil;a entre os quadros gr&amp;aacute;ficos e a taxa de atualiza&amp;ccedil;&amp;atilde;o do monitor. Com o FreeSync, os jogadores podem experimentar &lt;strong&gt;movimentos perfeitos e fluidos durante os jogo&lt;/strong&gt; de altas configura&amp;ccedil;&amp;otilde;es visuais.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h3&gt;Compre agora no KaBuM!&lt;/h3&gt;</t>
-  </si>
-  <si>
-    <t>Monitor Gamer Samsung Odyssey G3, 24 Full HD, 144Hz, 1ms, FreeSync Premium, HDMI/Displayport, Ajuste de altura, Preto - LF24G35TFWLXZD</t>
-  </si>
-  <si>
-    <t>&lt;h2&gt;Monitor Gamer Samsung Odyssey G3, 24 Full HD, 144Hz, 1ms, FreeSync Premium, HDMI/Displayport, Ajuste de altura, Preto&amp;nbsp;&lt;/h2&gt;
-&lt;p&gt;&lt;br /&gt;Monitor Gamer Samsung Odyssey G3 24&amp;rdquo;, FHD, 144 Hz, 1ms, com ajuste de altura, HDMI, DP, VGA, Freesync, Preto, S&amp;eacute;rie G3 Taxa de atualiza&amp;ccedil;&amp;atilde;o de 144Hz Domine todos os inimigos, mesmo em cenas muito r&amp;aacute;pidas. A taxa de atualiza&amp;ccedil;&amp;atilde;o de 144Hz elimina atrasos e desfoque de movimento para uma jogabilidade emocionante com a&amp;ccedil;&amp;atilde;o ultra suave.&lt;/p&gt;
-&lt;h3&gt;&lt;br /&gt;Tempo de resposta de 1ms&lt;/h3&gt;
-&lt;p&gt;Fa&amp;ccedil;a cada movimento contar com um tempo de resposta de 1ms. Ataque seus inimigos assim que os vir e fique &amp;agrave; frente com movimentos precisos do mouse. Seu desempenho na tela &amp;eacute; t&amp;atilde;o r&amp;aacute;pido quanto seus pr&amp;oacute;prios reflexos.&lt;/p&gt;
-&lt;h3&gt;&lt;br /&gt;AMD FreeSync Premium&lt;/h3&gt;
-&lt;p&gt;Jogabilidade suave sem esfor&amp;ccedil;o. O AMD FreeSync Premium apresenta tecnologia de sincroniza&amp;ccedil;&amp;atilde;o adapt&amp;aacute;vel, que reduz o travamento de tela, oscila&amp;ccedil;&amp;atilde;o e atrasos. Veja o jogo do seu jeito Gire, incline e ajuste seu monitor at&amp;eacute; que todos os inimigos estejam perfeitamente vis&amp;iacute;veis. Sua tela pode ser movida livremente para que voc&amp;ecirc; encontre conforto total no jogo. Design de tela cheia O design sem borda de 3 lados revela espa&amp;ccedil;o m&amp;aacute;ximo para uma jogabilidade maior e mais ousada. Alinhe dois monitores com precis&amp;atilde;o em uma configura&amp;ccedil;&amp;atilde;o de monitor duplo sem que nenhum inimigo fique escondido na jun&amp;ccedil;&amp;atilde;o.&lt;/p&gt;
-&lt;h3&gt;&lt;br /&gt;Mais conforto para os olhos&lt;/h3&gt;
-&lt;p&gt;Jogue por mais tempo sem incomodo visual. O Eye Saver Mode minimiza a emiss&amp;atilde;o de luz azul para manter seus olhos relaxados e confort&amp;aacute;veis enquanto joga por muitas horas. A tecnologia Flicker Free remove continuamente a tremula&amp;ccedil;&amp;atilde;o cansativa e irritante da tela para que voc&amp;ecirc; possa jogar por mais tempo sem distra&amp;ccedil;&amp;otilde;es ou fadiga ocular.&lt;/p&gt;
-&lt;h3&gt;&lt;br /&gt;Garanta o seu no KaBuM!&lt;/h3&gt;</t>
-  </si>
-  <si>
-    <t>Monitor Gamer Concórdia 27" LED Full HD, 165Hz, 1ms, HDMI/DisplayPort, FreeSync, Preto - G5s</t>
-  </si>
-  <si>
-    <t>&lt;h2&gt;Monitor Conc&amp;oacute;rdia Gamer G5s 27" Led Full Hd 165hz Freesync Hdmi Display Port&lt;/h2&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;O Monitor Conc&amp;oacute;rdia Gamer G5s de 27" 144Hz/165Hz apresenta tecnologia para tornar sua experi&amp;ecirc;ncia com games ainda mais intensa. Sem rastros, sem atraso, sem imagens tremidas! Tudo isso possibilitado pela sua taxa de atualiza&amp;ccedil;&amp;atilde;o de 144Hz/165Hz e tecnologia Freesync que juntos tornam esse monitor a sua melhor escolha. Com som embutido, conex&amp;atilde;o para fones, ele ainda facilita a sua vida com duas&amp;nbsp; conex&amp;otilde;es HDMI.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h3&gt;Alto desempenho com conveni&amp;ecirc;ncia a um pre&amp;ccedil;o justo nesse excelente painel PVA.&lt;/h3&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>Monitor Gamer LG 25' IPS, Ultra Wide, 75 Hz, Full HD,  99% sRGB, HDMI, VESA - 25UM58-G</t>
-  </si>
-  <si>
-    <t>&lt;h2&gt;Monitor Gamer LG UltraWide&lt;/h2&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h3&gt;1ms Motion Blur Reduction&lt;/h3&gt;
-&lt;p&gt;Tenha &lt;strong&gt;imagens sem rastros&lt;/strong&gt; e &lt;strong&gt;a&amp;ccedil;&amp;otilde;es mais r&amp;aacute;pidas&lt;/strong&gt; com o &lt;strong&gt;tempo de resposta de 1ms&lt;/strong&gt; com &lt;strong&gt;Motion Blur Reduction&lt;/strong&gt;.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h3&gt;UltraWide&lt;/h3&gt;
-&lt;p&gt;A propor&amp;ccedil;&amp;atilde;o da imagem do monitor UltraWide torna os jogos e filmes mais envolventes do que nunca. A &lt;strong&gt;nitidez da resolu&amp;ccedil;&amp;atilde;o Full HD&lt;/strong&gt; de &lt;strong&gt;1080P com IPS&lt;/strong&gt; faz a diferen&amp;ccedil;a. Simplificando, de qualquer &amp;acirc;ngulo de vis&amp;atilde;o, tudo fica mais n&amp;iacute;tido e detalhado em FULL HD .&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h3&gt;Recursos Avan&amp;ccedil;ados para Jogos&lt;/h3&gt;
-&lt;p&gt;Ative o &lt;strong&gt;Dynamic Action Sync&lt;/strong&gt; para que o monitor acompanhe a velocidade das suas habilidades e veja os inimigos nos lugares mais escuros com o &lt;strong&gt;Black Stabilizer.&amp;nbsp;&lt;/strong&gt;Defina as condi&amp;ccedil;&amp;otilde;es ideais de jogo no Modo de Jogo. H&amp;aacute; &lt;strong&gt;3 modos&lt;/strong&gt; &lt;strong&gt;para jogadores&lt;/strong&gt;: &lt;strong&gt;2 modos de tiro&lt;/strong&gt; &lt;strong&gt;em primeira pessoa&lt;/strong&gt; e at&amp;eacute; mesmo um &lt;strong&gt;modo predefinido&lt;/strong&gt; &lt;strong&gt;de estrat&amp;eacute;gia em tempo real&lt;/strong&gt;.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h3&gt;On-Screen Control&lt;/h3&gt;
-&lt;p&gt;O Controle On-Screen coloca uma s&amp;eacute;rie de &lt;strong&gt;configura&amp;ccedil;&amp;otilde;es essenciais em uma pr&amp;aacute;tica janela para acesso f&amp;aacute;cil&lt;/strong&gt;. As &lt;strong&gt;configura&amp;ccedil;&amp;otilde;es de volume, brilho, predefini&amp;ccedil;&amp;otilde;es de modo de imagem&lt;/strong&gt;, &lt;strong&gt;Screen Split 2.0 e Dual Controller&lt;/strong&gt;, al&amp;eacute;m de muitas outras, podem agora ser ajustadas com apenas alguns cliques do mouse, em vez dos bot&amp;otilde;es f&amp;iacute;sicos do monitor.&amp;nbsp;&lt;strong&gt;Personalize o layout de seu monitor&lt;/strong&gt; para multitarefas com a &amp;uacute;ltima vers&amp;atilde;o do LG Screen Split. &lt;strong&gt;Redimensione e exiba v&amp;aacute;rias janelas ao mesmo tempo&lt;/strong&gt;, com 14 op&amp;ccedil;&amp;otilde;es que incluem quatro escolhas diferentes de picture-in-picture (&lt;strong&gt;PIP&lt;/strong&gt;).&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;Compre no &lt;strong&gt;KaBuM!&lt;/strong&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>Monitor Gamer Asus TUF 27' IPS, 165 Hz, Full HD, 1ms, Adaptive Sync, HDMI/DisplayPort, Ajuste de Altura, Vesa, Som Integrado - VG279QR</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Monitor de jogos Full HD (1920 x 1080) de 27 polegadas com taxa de atualiza&amp;ccedil;&amp;atilde;o ultrarr&amp;aacute;pida de 165 Hz projetado para jogadores profissionais e jogabilidade envolvente. A tecnologia ASUS Extreme Low Motion Blur (ELMB ?) permite um tempo de resposta de 1 ms (MPRT), eliminando fantasmas para visuais n&amp;iacute;tidos de jogos. O Shadow Boost aprimora os detalhes da imagem em &amp;aacute;reas escuras, iluminando cenas sem expor demais as &amp;aacute;reas claras. Processamento compat&amp;iacute;vel com G-SYNC, proporcionando uma experi&amp;ecirc;ncia de jogo perfeita e sem problemas ao habilitar VRR (taxa de atualiza&amp;ccedil;&amp;atilde;o vari&amp;aacute;vel) por padr&amp;atilde;o. Apresenta um suporte ergonomicamente projetado para oferecer extensos ajustes de rota&amp;ccedil;&amp;atilde;o, inclina&amp;ccedil;&amp;atilde;o, rota&amp;ccedil;&amp;atilde;o e altura.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>Monitor Gamer Concórdia C240 23.8, LED, HDMI, Full HD, Curvo, 75Hz, 2ms, Vermelho - 40511</t>
-  </si>
-  <si>
-    <t>Monitor Concórdia Gamer Curvo C240 23.8" Led Full HD HDMI VGA A tecnologia do novo C240 garante uma imersão total em seus jogos. Prepare-se para uma nova experiência com seus games! Agora você pode escolher ele em duas versões:todo preto ou preto com detalhe em vermelho.</t>
-  </si>
-  <si>
-    <t>Monitor Gamer LG Ultra Gear 23.8' IPS, 144 Hz, Full HD, 1ms, FreeSync, HDR 10, 99% sRGB, HDMI/DisplayPort, Ajuste de Ângulo - 24GN600-B</t>
-  </si>
-  <si>
-    <t>&lt;h2&gt;Monitor Gamer LG Ultra Gear 23.8 Full HD, 144Hz, 1ms, IPS, DMI, DisplayPort, 99% sRGB, Ajuste de &amp;Acirc;ngulo, FreeSync, HDR10, Preto&lt;/h2&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h2&gt;Inova&amp;ccedil;&amp;atilde;o sem fronteiras para jogos&lt;/h2&gt;
-&lt;p&gt;Complete seu setup Gamer com o monitor LG UltraGear premium. Desenvolvido para o Gamer, com os recursos mais avan&amp;ccedil;ados, aliados a ergonomia e &lt;strong&gt;design eletrizante&lt;/strong&gt;, entregando a experi&amp;ecirc;ncia imersiva! Seja o melhor com os melhores recursos feitos para apoiar sua vit&amp;oacute;ria, tempo de resposta de &lt;strong&gt;1ms Real&lt;/strong&gt; (GtG), em um painel com cores vislumbrantes IPS.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h2&gt;Jogabilidade fluida com frames instantaneos&lt;/h2&gt;
-&lt;p&gt;Os frames ultra-r&amp;aacute;pidos de 144Hz permite os jogadores a reagirem imediatamente aos seus advers&amp;aacute;rios e mudar a hist&amp;oacute;ria do jogo para a sua vit&amp;oacute;ria.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h2&gt;Aproveite os v&amp;iacute;deos e jogos HDR mais modernos&lt;/h2&gt;
-&lt;p&gt;O HDR10 melhora a qualidade da imagem com imers&amp;atilde;o visual mais din&amp;acirc;mica e cores aprimoradas do conte&amp;uacute;do HDR. &lt;strong&gt;HDR10&lt;/strong&gt; &amp;eacute; o padr&amp;atilde;o HDR digital baseado na gama de cores&lt;strong&gt; sRGB 99%&lt;/strong&gt;. Uma diferen&amp;ccedil;a real de cor e brilho.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h2&gt;Mais clara, suave e r&amp;aacute;pida&lt;/h2&gt;
-&lt;p&gt;Com a tecnologia &lt;strong&gt;FreeSync&lt;/strong&gt; os jogos t&amp;ecirc;m movimentos perfeitos e fluidos, balanceada com o processamento da placa de v&amp;iacute;deo, acabando com as imagens emba&amp;ccedil;adas e frames engasgados.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h2&gt;Design elegante&lt;/h2&gt;
-&lt;p&gt;Uma experi&amp;ecirc;ncia incr&amp;iacute;vel com imers&amp;atilde;o total. Design exuberante com&lt;strong&gt; bordas infinitas&lt;/strong&gt; (3-Side Bordeless) permitem uma imagem perfeita com incr&amp;iacute;vel imers&amp;atilde;o&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h3&gt;Aproveite essa oportunidade e adquira seu Monitor Gamer LG Ultra Gear no KaBuM!&lt;/h3&gt;</t>
+    <t>Monitor Gamer HQ Premium 25 Pol. Full HD, 1MS, 240Hz, IPS, AMD Freesync, HDMI, DP - Gp25i124</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;::: HQ Premium :::&lt;/b&gt;&lt;br /&gt;&lt;br /&gt;Revolucionário, assim é definido este monitor!&lt;br /&gt;&lt;br /&gt;&lt;b&gt;Última geração:&lt;/b&gt; monitor de ponta, com uma vasta gama de tecnologias embarcadas. A melhor qualidade de imagem com um preço justo.&lt;br /&gt;&lt;br /&gt;&lt;b&gt;Saia na frente: &lt;/b&gt;extraia o máximo de suas habilidades com uma tela pronta para qualquer tipo de desafio.&lt;br /&gt;&lt;br /&gt;&lt;b&gt;Gamer de verdade: &lt;/b&gt;graças ao baixo tempo de resposta de 1ms, a alta taxa de atualização e a tecnologia amd freesync, jogue como um profissional!&lt;br /&gt;&lt;br /&gt;&lt;b&gt;Longas jornadas: &lt;/b&gt;um grande diferencial: com as tecnologias flicker-free e low blue light, você pode encarar horas de jogatina sem cansar a vista.&lt;br /&gt;&lt;br /&gt;&lt;b&gt;Alta resolução com alta definição: &lt;/b&gt;não basta apenas ser full hd. Você, merece mais! Viva momentos únicos com imagens de tirar o fôlego. Além de jogar em 1080p, você, perceberá, cada mínimo detalhe em qualquer tipo de cena. Saia na frente dos seus adversários, mesmo em situações de baixa luminosidade. Sinta-se dentro do jogo, a imersão é, total!&lt;br /&gt;&lt;br /&gt;&lt;b&gt;Aproveitamento total: &lt;/b&gt;com a tela frameless, você, conta com bordas ultrafinas e aproveita todo o espaço da tela.&lt;br /&gt;&lt;br /&gt;&lt;b&gt;Sem reflexos: &lt;/b&gt;com a tela antireflexiva, você, pode embarcar nos seus desafios gamer em qualquer condição de luminosidade.</t>
   </si>
   <si>
     <t>Monitor Gamer Husky Snow 23.6 LED Full HD, Curvo, 165Hz, 1ms, HDMI e DisplayPort, Adaptive Sync, Ajuste de Ângulo - HGMT000</t>
@@ -1368,69 +880,99 @@
 &lt;p style="text-align: justify;"&gt;&lt;strong&gt;&lt;a href="https://kabum.com.br/hotsite/manuais/115383-Monitor-Gamer-Husky-Snow-HGMT000.pdf" target="_blank"&gt;MANUAL DE INSTRU&amp;Ccedil;&amp;Otilde;ES&lt;/a&gt;&lt;/strong&gt;&lt;/p&gt;</t>
   </si>
   <si>
-    <t>Monitor Gamer Acer 27 ZeroFrame Full HD, 165Hz, 0.5ms, IPS, HDMI e DisplayPort, FreeSync Premium, VESA, Preto - VG272 S</t>
-  </si>
-  <si>
-    <t>&lt;h2&gt;Monitor Gamer Acer 27 Full HD, 165Hz, 0.5ms, IPS, HDMI/DisplayPort, FreeSync Premium, VESA, Preto&lt;/h2&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;Com tela de 27" FHD E2E (IPS) com resolu&amp;ccedil;&amp;atilde;o Full HD e uma taxa de atualiza&amp;ccedil;&amp;atilde;o no modo normal: 144Hz e modo de overclock 165Hz, com alta taxa de atualiza&amp;ccedil;&amp;atilde;o com 165Hz. Brilho 400 cd/m2 e um tempo de respostas baix&amp;iacute;ssimo de 2ms, ainda para aproveitar voc&amp;ecirc; poder&amp;aacute; desfrutar de uma conectividade HDMI (2.0), DisplayPort.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>Monitor Gamer Bluecase 27 LED, 75 Hz, 2K QHD, 99%sRGB, HDMI/DisplayPort - BM2713GWCASE</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Explore um n&amp;iacute;vel superior de qualidade gr&amp;aacute;fica do seu gameplay com o monitor gamer Bluecase BM2713GW Esse monitor possui um painel TN ultrarr&amp;aacute;pido com frequ&amp;ecirc;ncia m&amp;aacute;xima de at&amp;eacute; 75 Hz e baix&amp;iacute;ssimo tempo de resposta de 5(cinco) milissegundos. Ideal para seus jogos AAA, o monitor conta com alta defini&amp;ccedil;&amp;atilde;o em resolu&amp;ccedil;&amp;atilde;o Quad HD (2560x1440) que proporciona uma imagem rica em detalhes. O monitor Bluecase BM2713GW &amp;eacute; compat&amp;iacute;vel com suportes VESA e tamb&amp;eacute;m conta com conex&amp;otilde;es DisplayPort e HDMI.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>Monitor Gamer Acer Nitro 23.6 LED, Curvo, 165 Hz, Full HD, 1ms, FreeSync Premium, HDMI/DisplayPort - EI242QR</t>
-  </si>
-  <si>
-    <t>&lt;h2&gt;Monitor Gamer Acer Nitro 23.6 LED, Curvo, 165 Hz, Full HD, 1ms, FreeSync Premium, HDMI/DisplayPort&lt;/h2&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h2&gt;Tecnologia da Tela&lt;/h2&gt;
-&lt;p&gt;A Tela do Acer Nitro EI242QR possui campo de vis&amp;atilde;o de 23.6 Polegadas com um &lt;strong&gt;Resolu&amp;ccedil;&amp;atilde;o de 1920 x 1080 Full HD&lt;/strong&gt;, Painel VA de propor&amp;ccedil;&amp;atilde;o 16:9 com design &lt;strong&gt;curvo 1200R&lt;/strong&gt;, Taxa de atualiza&amp;ccedil;&amp;atilde;o de &lt;strong&gt;165Hz&lt;/strong&gt; (Utilizando Displayport), e Tempo de Resposta &lt;strong&gt;1ms&lt;/strong&gt; VRB (Visual Response Boost) para desempenhos profissionais nos seus gameplays.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h2&gt;ZeroFrame&lt;/h2&gt;
-&lt;p&gt;Oferece um novo &lt;strong&gt;design de quadro zero&lt;/strong&gt;, remove virtualmente a caixa delimitadora da tela e oferece todas as imagens, prazer visual cont&amp;iacute;nuo.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h2&gt;Desing de tela curvo 1200 R&lt;/h2&gt;
-&lt;p&gt;Proporciona uma experi&amp;ecirc;ncia de visualiza&amp;ccedil;&amp;atilde;o uniforme e &lt;strong&gt;reduz o cansa&amp;ccedil;o visual&lt;/strong&gt; durante longos per&amp;iacute;odos de utiliza&amp;ccedil;&amp;atilde;o. Ele tamb&amp;eacute;m apresenta uma experi&amp;ecirc;ncia mais envolvente com um campo de vis&amp;atilde;o mais amplo e &amp;aacute;rea de vis&amp;atilde;o perif&amp;eacute;rica aumentada em compara&amp;ccedil;&amp;atilde;o com uma tela plana do mesmo&lt;/p&gt;
-&lt;p&gt;tamanho.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h2&gt;Tempo de resposta de 1ms&lt;/h2&gt;
-&lt;p&gt;O t&lt;strong&gt;empo de resposta r&amp;aacute;pido de 1 ms&lt;/strong&gt; melhora experi&amp;ecirc;ncia do jogador. N&amp;atilde;o importa a a&amp;ccedil;&amp;atilde;o em movimento r&amp;aacute;pido ou quaisquer transi&amp;ccedil;&amp;otilde;es dram&amp;aacute;ticas, tudo ser&amp;aacute; reproduzido suavemente, sem os efeitos irritantes de manchas ou fantasmas.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h2&gt;Taxa de atualiza&amp;ccedil;&amp;atilde;o de 165Hz&lt;/h2&gt;
-&lt;p&gt;Acelera os quadros por segundo para fornecer cenas de movimento ultra suaves. Com uma taxa de &lt;strong&gt;atualiza&amp;ccedil;&amp;atilde;o r&amp;aacute;pida de 165 Hz&lt;/strong&gt;, os monitores de jogos da Acer encurtam o tempo necess&amp;aacute;rio para a renderiza&amp;ccedil;&amp;atilde;o de quadros, diminuem o atraso de entrada e fornecem aos jogadores uma excelente experi&amp;ecirc;ncia no jogo.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h3&gt;Aproveite essa oportunidade e adquira seu Monitor Gamer Acer Nitro 23.6 no KaBuM!&lt;/h3&gt;</t>
-  </si>
-  <si>
-    <t>Monitor Gamer Acer Nitro 23.8 LED Full HD, 165Hz, 1ms, HDMI/DisplayPort, FreeSync Premium, Preto - QG241Y</t>
-  </si>
-  <si>
-    <t>&lt;h2&gt;Monitor Gamer Acer Nitro 23.8 LED Full HD, 165Hz, 1ms, HDMI/DisplayPort, FreeSync Premium, Preto&lt;/h2&gt;
-&lt;p&gt;Com uma tela de&lt;strong&gt; 23,8&amp;rdquo; FHD&lt;/strong&gt;, o &lt;strong&gt;Nitro QG241Y&lt;/strong&gt; entrega imagens mais n&amp;iacute;tidas, levando sua experi&amp;ecirc;ncia visual e seu foco no jogo para um novo n&amp;iacute;vel.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h2&gt;AMD FreeSync Premium&lt;/h2&gt;
-&lt;p&gt;Com o AMD FreeSync Premium, a taxa de quadros do jogo &amp;eacute; determinada pela sua placa de v&amp;iacute;deo, n&amp;atilde;o pela taxa de atualiza&amp;ccedil;&amp;atilde;o fixa do&amp;nbsp; monitor. Isso significa que os quadros do monitor s&amp;atilde;o sincronizados com os quadros da placa&amp;nbsp; gr&amp;aacute;fica, o que &lt;strong&gt;elimina a tela quebrada&lt;/strong&gt; e oferece &lt;strong&gt;experi&amp;ecirc;ncias de jogo muito suaves&lt;/strong&gt;.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h2&gt;Resolu&amp;ccedil;&amp;atilde;o FHD&lt;/h2&gt;
-&lt;p&gt;Traga os usu&amp;aacute;rios para um mundo colorido perfeito com &lt;strong&gt;FHD 1920 x 1080&lt;/strong&gt; e oferece a melhor qualidade original natural e n&amp;iacute;tida&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h2&gt;1ms Visual Response Boost&lt;/h2&gt;
-&lt;p&gt;O &lt;strong&gt;Visual Response Boost (VRB)&lt;/strong&gt; de 1ms funciona desligando rapidamente a luz de fundo ou inserindo uma imagem em branco e preta entre os quadros, tamb&amp;eacute;m conhecida como &amp;ldquo;piscando&amp;rdquo;. Isso resulta em um &lt;strong&gt;desfoque menos percept&amp;iacute;vel&lt;/strong&gt; em imagens em movimento r&amp;aacute;pido porque os cristais l&amp;iacute;quidos n&amp;atilde;o precisam dobrar nos quadros &amp;agrave; medida que sobem e descem.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h2&gt;Reduz a fadiga&lt;/h2&gt;
-&lt;p&gt;Fique na luta por horas com a tecnologia &lt;strong&gt;Flicker-less, Blue-light Filter.&lt;/strong&gt;&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h3&gt;Aproveite essa oportunidade e adquira seu Monitor Gamer Acer no KaBuM!&lt;/h3&gt;</t>
-  </si>
-  <si>
-    <t>Monitor Gamer Gigabyte 23.8 IPS, Full HD, 170Hz, 1ms, 120% sRGB, HDR, FreeSync Premium, Altura Ajustável - G24F-SA</t>
-  </si>
-  <si>
-    <t>JUNTE-SE À LUTA com o Monitor Gamer G24F da Gigabyte com 1ms de tempo de resposta, freesync premium, 165 Hz (170 Hz OC) e com uma taxa de cor de 8 bits, 90% DCI-P3 A ÚLTIMA MILHA PARA O SEU SISTEMA DE JOGO Como um jogador invisível, o monitor é frequentemente subestimado. A verdade é que os monitores se formam como um efeito sinérgico e trazem o melhor desempenho dos componentes do PC. Os monitores de jogos GIGABYTE oferecem as últimas especificações e qualidade, os usuários podem realmente desfrutar de um desempenho de alto nível sem a necessidade de extravagância. Tempo de resposta de 1 ms MPRT Tempo de resposta super rápido de 1 ms para a experiência de jogo mais suave de todos os tempos! FHD com 165 Hz (OC 170 Hz) Alta resolução e taxa de atualização rápida, proporcionando qualidade de exibição detalhada e experiência de jogo fluida! Cor de 8 bits, 90% DCI-P3 Fantástico visor a cores e 90% de cores DCI-P3 de gama super ampla. SIMPLES MAS ESTILOSO A aparência aerodinâmica representa a simplicidade da filosofia de design da série de jogos GIGABYTE, suporte robusto e acabamento fosco construído para características funcionais e estéticas adicionando mais características. OSD Sidekick GIGABYTE OSD Sidekick permite que você defina as opções de exibição com teclado e mouse, oferecendo a maneira mais fácil de ajustar as configurações do monitor. ÂNGULO DE VISÃO PERFEITO O monitor de jogos GIGABYTE possui um suporte exclusivo ergonomicamente projetado para oferecer uma ampla gama de ajustes de altura e inclinação.</t>
+    <t>Monitor Gamer Draxen 23.8'' resolução de 1920 x 1080 tempo de resposta de 1 MS 165HZ Full HD, Sem Borda</t>
+  </si>
+  <si>
+    <t>o monitor gamer draxen 165hz full hd é tudo o que você precisa para completar o seu setup. desenvolvido pensando no seu estilo de vida, oferecendo qualidade, desempenho e um design mais moderno do que nunca. a sua tela 23.8 lhe dará comodidade para estudar, trabalhar ou assistir sua série ou filme favoritos no seu tempo de lazer. além disso, sua alta resolução de 1920 x 1080 permite que você desfrute de momentos únicos graças a uma imagem nítida, cores realistas e contraste incrível. exibição de vídeo perfeita com tempo de resposta de 1 ms e mais de 16,7 milhões de cores que transformam as imagens em uma experiência muito fiel à realidade.&lt;br&gt;aprimore sua configuração com estilo. a furação padrão vesa 75x75 permite que você fixe o monitor em uma parede ou em um suporte.</t>
+  </si>
+  <si>
+    <t>Monitor Gamer KBM! GAMING MG330 31.5' Led, Curvo, 165 Hz, Full Hd, 1ms, Adaptive Sync, Hdmi/Displayport, Ajuste De Ângulo - KGMG33031PT</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Monitor Gamer KBM! GAMING MG330 31.5' LED, Curvo, 165 Hz, Full HD, 1ms, Adaptive Sync, HDMI/DisplayPort, Ajuste de&amp;nbsp; ngulo - KGMG330&lt;/h2&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Esteja um passo &amp;agrave; frente!&lt;/h2&gt;
+&lt;p&gt;O Monitor Gamer KBM! GAMING MG330 conta com resposta de &lt;strong&gt;1ms&lt;/strong&gt; e taxa de atualiza&amp;ccedil;&amp;atilde;o de &lt;strong&gt;165Hz&lt;/strong&gt;, permitindo a mais alta performance durante suas gameplays. Sua curvatura amplia o campo de vis&amp;atilde;o relativo, concentrando toda a a&amp;ccedil;&amp;atilde;o ao alcance dos olhos do usu&amp;aacute;rio, sem perder resolu&amp;ccedil;&amp;atilde;o.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Melhor Entrega de Imagens para sua Gameplay&lt;/h2&gt;
+&lt;p&gt;Compat&amp;iacute;vel com a tecnologia &lt;strong&gt;Adaptive Sync&lt;/strong&gt;, permite a sincroniza&amp;ccedil;&amp;atilde;o dos frames da placa de v&amp;iacute;deo, decretando o fim do input lag, bem como do tearing.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Conectividade&lt;/h2&gt;
+&lt;p&gt;O Monitor Gamer KBM! GAMING MG330 acompanha um cabo &lt;strong&gt;DisplayPort&lt;/strong&gt; que garante a melhor qualidade de imagem para seu jogo. Al&amp;eacute;m da conex&amp;atilde;o DP, o monitor ainda possui duas conex&amp;otilde;es &lt;strong&gt;HDMI&lt;/strong&gt; e uma conex&amp;atilde;o &lt;strong&gt;P2&lt;/strong&gt; para ouvir seu jogo diretamente do seu monitor.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Maior Ergonomia e Conforto para Uso Prolongado&lt;/h2&gt;
+&lt;p&gt;O Monitor Gamer KBM! GAMING MG330 possui ajuste de inclina&amp;ccedil;&amp;atilde;o &lt;strong&gt;de 5&amp;deg; a 15&amp;deg;&lt;/strong&gt; que se ajusta ergonomicamente para o seu uso. O monitor tamb&amp;eacute;m conta com &lt;strong&gt;Redu&amp;ccedil;&amp;atilde;o de Luz Azul&lt;/strong&gt;, se tornando uma &amp;oacute;tima op&amp;ccedil;&amp;atilde;o para Gameplays prolongadas.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h3&gt;Seu Monitor KBM! GAMING voc&amp;ecirc; encontra aqui no KaBuM!&lt;/h3&gt;</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Gigabyte 27 Full HD, 165Hz, 1ms, IPS, HDMI e DisplayPort, 130% sRGB, HDR, FreeSync, Altura Ajustável - G27F2BR</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Monitor Gamer Gigabyte 27 Full HD&lt;/h2&gt;
+&lt;h2&gt;&amp;nbsp;&lt;/h2&gt;
+&lt;h2&gt;A &amp;Uacute;ltima Milha para o seu Sistema de Jogo&lt;/h2&gt;
+&lt;p&gt;Como um jogador invis&amp;iacute;vel, o monitor costuma ser subestimado. A verdade &amp;eacute; que os monitores se formam como um efeito sin&amp;eacute;rgico e trazem o melhor desempenho dos componentes do PC. Os monitores de jogos GIGABYTE oferecem &lt;strong&gt;as especifica&amp;ccedil;&amp;otilde;es e qualidade mais recentes&lt;/strong&gt;, os usu&amp;aacute;rios podem realmente desfrutar de um &lt;strong&gt;desempenho de alto n&amp;iacute;vel&lt;/strong&gt; sem a necessidade de extravag&amp;acirc;ncia.&lt;/p&gt;
+&lt;p&gt;Suporta tecnologia&amp;nbsp;&lt;strong&gt;Adaptive-Sync&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Tempo de resposta MPRT de 1ms&lt;/h2&gt;
+&lt;p&gt;&lt;strong&gt;Tempo de resposta super r&amp;aacute;pido de 1ms&lt;/strong&gt;&amp;nbsp;para a experi&amp;ecirc;ncia de jogo mais suave de todos os tempos!&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;FHD com 165 Hz (OC 180 Hz)&lt;/h2&gt;
+&lt;p&gt;&lt;strong&gt;Alta resolu&amp;ccedil;&amp;atilde;o&lt;/strong&gt;&amp;nbsp;e taxa de atualiza&amp;ccedil;&amp;atilde;o r&amp;aacute;pida, oferecendo qualidade de exibi&amp;ccedil;&amp;atilde;o detalhada e experi&amp;ecirc;ncia de jogo fluida!&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;95% DCI-P3&lt;/h2&gt;
+&lt;p&gt;Fant&amp;aacute;stica&lt;strong&gt;&amp;nbsp;tela colorida e 130%&lt;/strong&gt;&amp;nbsp;DCI-P3 super ampla gama de cores.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Simples e Estiloso&lt;/h2&gt;
+&lt;p&gt;A&amp;nbsp;&lt;strong&gt;apar&amp;ecirc;ncia simplificada&lt;/strong&gt;&amp;nbsp;representa a simplicidade da filosofia de design da s&amp;eacute;rie de jogos GIGABYTE, &lt;strong&gt;suporte robusto e acabamento fosco&lt;/strong&gt; constru&amp;iacute;do para recursos funcionais e est&amp;eacute;ticos adicionando mais &amp;agrave;s caracter&amp;iacute;sticas.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;OSD Sidekick&lt;/h2&gt;
+&lt;p&gt;O GIGABYTE&amp;nbsp;&lt;strong&gt;OSD Sidekick&lt;/strong&gt;&amp;nbsp;permite que voc&amp;ecirc; defina as op&amp;ccedil;&amp;otilde;es de exibi&amp;ccedil;&amp;atilde;o com teclado e mouse, oferecendo a maneira mais &lt;strong&gt;f&amp;aacute;cil de ajustar&lt;/strong&gt; as configura&amp;ccedil;&amp;otilde;es do monitor.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Painel&lt;/h2&gt;
+&lt;p&gt;O painel revela suas&amp;nbsp;&lt;strong&gt;informa&amp;ccedil;&amp;otilde;es de hardware em tempo real&lt;/strong&gt;, incluindo&amp;nbsp;&lt;strong&gt;voltagens da CPU, velocidade do clock, temperaturas, etc.&lt;/strong&gt;&amp;nbsp;A melhor parte &amp;eacute; que n&amp;atilde;o ser&amp;aacute; bloqueado por nenhum jogo.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Equalizador Preto&lt;/h2&gt;
+&lt;p&gt;Esse recurso permite que voc&amp;ecirc; tenha mais&amp;nbsp;&lt;strong&gt;detalhes do lado escuro&lt;/strong&gt;&amp;nbsp;sem superexpor o lado claro ao mesmo tempo.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Atualiza&amp;ccedil;&amp;atilde;o autom&amp;aacute;tica&lt;/h2&gt;
+&lt;p&gt;Os usu&amp;aacute;rios podem &lt;strong&gt;desfrutar sem esfor&amp;ccedil;o da melhor experi&amp;ecirc;ncia de jogo&lt;/strong&gt; com recursos que a GIGABYTE continua a desenvolver e atualizar enquanto oferece&amp;nbsp;&lt;strong&gt;prote&amp;ccedil;&amp;atilde;o extra ao seu monitor&lt;/strong&gt;.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;&amp;Acirc;NGULO DE VIS&amp;Atilde;O PERFEITO&lt;/h2&gt;
+&lt;p&gt;O monitor Gaming GIGABYTE possui um suporte exclusivo projetado ergonomicamente para oferecer&amp;nbsp;&lt;strong&gt;ampla gama de ajustes de altura e inclina&amp;ccedil;&amp;atilde;o&lt;/strong&gt;.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h3&gt;Compre agora no KaBuM!&lt;/h3&gt;</t>
+  </si>
+  <si>
+    <t>Monitor 27" LED/IPS Acer Gamer Ultra Fino, 75Hz, 1Ms, HDMI + VGA - SA270</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Monitor Gamer Acer LCD 27 SA270 Bbix Full HD 75Hz 1ms IPS FreeSync HDMI Preto UM.HS0AA.B02&lt;/b&gt;&lt;br /&gt;&lt;br /&gt;NÃO PERCA NENHUM DETALHE DO SEU JOGO&lt;br /&gt;Veja tudo em alta definição com a resolução de 1920 x 1080 Full HD.&lt;br /&gt;E com as 27 da tela, seus jogos terão um campo de visão privilegiado.&lt;br /&gt;&lt;br /&gt;ENTRE NO UNIVERSO GAMER&lt;br /&gt;Garanta uma ótima performance de cor em seus jogos favoritos. O painel In Plane Switching (IPS) promove cores mais vibrantes e nítidas de qualquer ângulo, sem deixar rastros.&lt;br /&gt;&lt;br /&gt;ESTEJA PRONTO PARA JOGAR&lt;br /&gt;A taxa de atualização de 75Hz leva a renderização dos seus jogos a outro nível.&lt;br /&gt;E o tempo de resposta de 1ms acelera as transições e não trava durante a ação.</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Bluecase 23.6 Polegadas, Curvo, LED FULL HD, 180Hz, HDMI,VGA, Preto - Bm24ffd1gc</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;monitor gamer full hd curvo led 23,6" bluecase 180hz hdmi vga preto - bm24ffd1gc&lt;/b&gt;&lt;/p&gt;&lt;p&gt;&lt;br /&gt;o monitor gamer bm24ffd1gc possui um tamanho de 23,6", proporcionando uma resolu&amp;ccedil;&amp;atilde;o m&amp;aacute;xima de 1920x1080 pixels full hd. Sua taxa de atualiza&amp;ccedil;&amp;atilde;o m&amp;aacute;xima &amp;eacute; de 180 hz atrav&amp;eacute;s das conex&amp;otilde;es hdmi e dp, oferece imagens mais suaves e fluidas.&amp;nbsp;equipado com ilumina&amp;ccedil;&amp;atilde;o led, o monitor possui um brilho de 300 cd/m&amp;sup2; e um contraste t&amp;iacute;pico de 4.000:1, resultando em cores vibrantes e imagens detalhadas. O monitor gamer bm24ffd1gc &amp;eacute; uma &amp;oacute;tima escolha para jogos, trabalho e entretenimento, proporcionando uma experi&amp;ecirc;ncia visual envolvente e de alta qualidade.&lt;/p&gt;&lt;p&gt;&lt;br /&gt;&lt;b&gt;caracter&amp;iacute;sticas monitor gamer led full hd bluecase 23,6" 180hz - preto&lt;/b&gt;&lt;br /&gt;- marca: bluecase&lt;br /&gt;- modelo: bm24ffd1gcbx&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Bluecase 24 Polegadas Full HD,  144HZ, 1ms, HDMI e DisplayPort, FreeSync - BM242GW</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Full HD 144Hz de atualização para melhores gráficos. Com 1 conector DisplayPort e 1 conector HDMI. &lt;br /&gt;&lt;br /&gt;TAXA DE ATUALIZAÇÃO   &lt;br /&gt;Uma taxa de atualização de 144Hz deixa a sua tela sem nenhum borrão, serrilhado ou "ghosting". FLICKER-FREE   A função Flicker-Free regula o brilho para diminuir o cansaço dos olhos durante os jogos. &lt;br /&gt;&lt;br /&gt;APENAS 1MS TEMPO DE RESPOSTA (GTG)   &lt;br /&gt;Melhor desempenho e experiência de jogo nas ações de rápido movimento. &lt;br /&gt;&lt;br /&gt;TECNOLOGIA AMD FREESYNC   &lt;br /&gt;O AMD FREESYNC faz a sincronização entre a taxa de atualização de seu monitor e a taxa de quadros de sua placa de vídeo eliminando imagens quebradas.</t>
+  </si>
+  <si>
+    <t>Monitor Gamer HQ 27 Polegadas, FULL HD 144HZ A 240HZ 1MS HDMI Display Port, Curvo LED, Alto Falantes Iluminação RGB - Battle 27h240g</t>
+  </si>
+  <si>
+    <t>Monitor gamer hq battle&lt;br /&gt;&lt;br /&gt;A jogatina perfeita&lt;br /&gt;Com o monitor hq battle, os seus movimentos serão instantâneos e o seu tempo de reação ocorrerá em tempo real em qualquer tipo de jogo.&lt;br /&gt;Sem atrasos, você jogará com desempenho profissional.&lt;br /&gt;Graças a combinação de tempo de resposta ultrarápido + alta taxa de atualização, você sairá na frente dos seus oponentes:&lt;br /&gt;&lt;br /&gt;Tempo de resposta: 1ms&lt;br /&gt;Desempenho sem igual, imagens nítidas e sem espera. Enxergue toda a cena no milésimo de segundo em que ela acontece. Não desperdice nenhum movimento. O seu reflexo convertido em vitórias!&lt;br /&gt;&lt;br /&gt;Taxa de atualização: 240hz&lt;br /&gt;Nada de rastros nem imagens desfocadas. Tenha uma incrível vantagem sobre o seu adversário, principalmente em cenas rápidas. A altíssima taxa de atualização permitirá a você perceber cada sensível mudança no ambiente. E diferente dos demais modelos da linha battle, o 27h240g possui incríveis 240hz. É a garantia de uma experiência sublime.&lt;br /&gt;&lt;br /&gt;Amd freesync e nvidia g-sync&lt;br /&gt;E para completar o time, o monitor hq battle conta com as tecnologias amd freesync e nvidia g-sync. Incríveis ferramentas que impedem imagens serrilhadas e cortadas.&lt;br /&gt;Elas apresentam a tecnologia de sincronização adaptável, que reduz o travamento de tela, oscilação e atrasos.&lt;br /&gt;&lt;br /&gt;Enxergue no escuro&lt;br /&gt;Graças ao painel va utilizado nos monitores hq battle, você se dará bem em qualquer tipo de ambiente, mesmo em situações de baixa luminosidade.&lt;br /&gt;Encontre seus inimigos escondidos em qualquer lugar, mesmo os mais escuros.&lt;br /&gt;&lt;br /&gt;Mais sobre o painel va&lt;br /&gt;Quando falamos em tipo de painel para monitores gamer, existem três opções disponíveis no mercado.&lt;br /&gt;E por que a hq escolheu o tipo va para o monitor battle?&lt;br /&gt;A resposta é simples. Pois essa opção oferece a maior gama de vantagens para o jogador:&lt;br /&gt;1- ângulo de visão de 178x178 graus, enxergue bem em qualquer ângulo&lt;br /&gt;2- alto nível de contraste, imagens nítidas mesmo em cenas muito claras ou muito escuras&lt;br /&gt;3- tempo de resposta real de 1ms mprt&lt;br /&gt;4- cores vivas e nítidas&lt;br /&gt;5- permite as mais altas taxas de atualização&lt;br /&gt;&lt;br /&gt;Design único&lt;br /&gt;Além de todos os recursos apresentados, ainda temos o fato do monitor hq battle ter um visual sensacional.&lt;br /&gt;Desenvolvido com uma tela curva, isso já seria o bastante para deixar o seu setup gamer ainda mais moderno. Mas além disso, ele ainda possui a tecnologia ´´frameless´´, sem bordas, que garantirão a você uma imersão total. Aproveite 100% da tela.&lt;br /&gt;&lt;br /&gt;Conectividade e recursos&lt;br /&gt;Para garantir uma experiência perfeita, equipamos o battle com tudo o que você precisa.&lt;br /&gt;Dupla saída de vídeo hdmi e display port, além de uma conexão usb.&lt;br /&gt;E para deixar tudo ainda melhor, ele vem acompanhado com dois alto falantes surround e iluminação em rgb.</t>
+  </si>
+  <si>
+    <t>USADO: Monitor Gamer LG, Tela 29 Polegadas, 75Hz, 1ms, Dynamic Action Sync, AMD FreeSync - 29UM69G-B.AWZM - Bronze Recer</t>
+  </si>
+  <si>
+    <t>Monitor Gamer LG 29UM69G-B.AWZM, com tela de 29? polegadas com resolução Full HD (2560 x 1080), uma taxa de atualização de 75Hz, e um tempo de resposta de 1ms com tecnologia que todo gamer precisa como Dynamic action Sync e AMD FreeSync&lt;br /&gt;&lt;br /&gt;ATENÇÃO: este produto é RECERTIFICADO.&lt;br /&gt;Os eletrônicos são originais e acompanham Nota Fiscal. Os produtos passam por uma avaliação de qualidade rigorosa, que certifica as condições técnicas e estéticas do aparelho, categorizadas de acordo com os selos ouro, prata ou bronze. Você ainda conta com garantia de três meses contra problemas e pode fazer a devolução do produto em até sete dias.&lt;br /&gt;SAIBA O QUE É UM PRODUTO RECERTIFICADO (BRONZE)&lt;br /&gt;O produto recertificado em condições de fábrica é um produto que volta para o mercado, disponível para vendas, nas mesmas condições de um produto novo, com todas as funcionalidades e características originais, beneficiando o comprador e possibilitando economizar dinheiro na compra.&lt;br /&gt;O produto recertificado em condições de fábrica passa por um processo rigoroso de análise, onde todas as funcionalidades são testadas e após constatação de 100% de funcionamento o produto é liberado como recertificado.&lt;br /&gt;Depois de atingir 100% da certificação técnica de operação em suas funcionalidades, os produtos do Saldão da Informática são classificados em 3 certificações, de acordo com seu estado estético e superficial, sendo assim classificados como: Ouro, Prata e Bronze.&lt;br /&gt;Esse produto é recertificado Bronze: Produto têm alguns riscos. Estes riscos não alteram ao perfeito funcionamento do equipamento.</t>
   </si>
   <si>
     <t>Monitor Gamer Gigabyte 24 Full HD, 165Hz, 1ms, IPS, HDMI e DisplayPort, 125% sRGB, HDR, FreeSync, Altura Ajustável - G24F2BR</t>
@@ -1470,6 +1012,485 @@
 &lt;p&gt;O monitor Gaming GIGABYTE possui um suporte exclusivo projetado ergonomicamente para oferecer &lt;strong&gt;ampla gama de ajustes de altura e inclina&amp;ccedil;&amp;atilde;o&lt;/strong&gt;.&lt;/p&gt;
 &lt;p&gt;&amp;nbsp;&lt;/p&gt;
 &lt;h3&gt;Compre agora no KaBuM!&lt;/h3&gt;</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Duex 24´ Full HD (1920x1080), 144Hz, Preto - Dx 240zg</t>
+  </si>
+  <si>
+    <t>Marca: duex&lt;br /&gt;modelo: dx 240zg &lt;br /&gt;&lt;br /&gt;especificações: &lt;br /&gt;&lt;br /&gt;tamanho da tela: 24" &lt;br /&gt;área de display: 527.4 (h) x 296.4 (v) &lt;br /&gt;resolução: 1920x1080 (144hz) &lt;br /&gt;pixel pitch: 0.27mm &lt;br /&gt;ângulo de visão: h:178 / v:178 &lt;br /&gt;brilho: 250cd/m² &lt;br /&gt;tempo de resposta: 1ms &lt;br /&gt;número de cores: 16.7m &lt;br /&gt;&lt;br /&gt;conectores: &lt;br /&gt;1x hdmi &lt;br /&gt;1x displayport &lt;br /&gt;1x usb &lt;br /&gt;1x saída de áudio &lt;br /&gt;&lt;br /&gt;conteúdo da caixa: &lt;br /&gt;monitor &lt;br /&gt;base &lt;br /&gt;cabo hdmi &lt;br /&gt;cabo displayport &lt;br /&gt;fonte de energia &lt;br /&gt;guia do usuário&lt;br /&gt;&lt;br /&gt;garantia: 365 dias</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Curvo Duex Dx 270zg, 27 Polegadas, FULL HD (1920x1080), 240hz, Preto</t>
+  </si>
+  <si>
+    <t>Marca: duex&lt;br /&gt;modelo: dx 270zg &lt;br /&gt;&lt;br /&gt;especificações: &lt;br /&gt;&lt;br /&gt;tamanho da tela: 27" &lt;br /&gt;área de display: 527.4 (h) x 296.4 (v) &lt;br /&gt;resolução: 1920x1080 (240hz) &lt;br /&gt;pixel pitch: 0.27mm &lt;br /&gt;ângulo de visão: h:178 / v:178 &lt;br /&gt;brilho: 250cd/m² &lt;br /&gt;tempo de resposta: 1ms &lt;br /&gt;número de cores: 16.7m &lt;br /&gt;&lt;br /&gt;conectores: &lt;br /&gt;2x hdmi &lt;br /&gt;1x displayport &lt;br /&gt;1x usb &lt;br /&gt;1x áudio &lt;br /&gt;&lt;br /&gt;conteúdo da caixa: &lt;br /&gt;monitor &lt;br /&gt;base&lt;br /&gt;cabo hdmi&lt;br /&gt;fonte de energia&lt;br /&gt;&lt;br /&gt;garantia: 365 dias</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Redragon Amber, Tela de 27 Polegadas FHD, 165HZ, Curvo, LED, HDMI, Preto - GM27H10C</t>
+  </si>
+  <si>
+    <t>Características:&lt;br /&gt; - marca: redragon&lt;br /&gt; - modelo: gm27h10c&lt;br /&gt; especificações:&lt;br /&gt; - cor: preto&lt;br /&gt; - tamanho: 27”&lt;br /&gt; - resolução: 1920 x 1080 16:9&lt;br /&gt; - tipo de painel: va&lt;br /&gt; - taxa de atualização: 165 hz&lt;br /&gt; - número de cores: 16.7 m&lt;br /&gt; - brilho máximo: 250cd/m2 (typical)&lt;br /&gt; - taxa de contraste: 3000:1&lt;br /&gt; - conectividade: dp x1, hdmi x2, dc in x1&lt;br /&gt; - power range: 100-240v 50/60hz&lt;br /&gt; - tempo de resposta: 1ms&lt;br /&gt; - peso bruto(g): 5960g&lt;br /&gt; - peso liquido(g): 4830g&lt;br /&gt; conteúdo da embalagem:&lt;br /&gt; - monitor gamer redragon</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Bluecase 27" 2.5K, 75Hz, HDMI / Displayport, Vesa - BM2713GW</t>
+  </si>
+  <si>
+    <t>Explore um nível superior de qualidade gráfica do seu gameplay com o monitor gamer Bluecase - BM2713GW   &lt;br /&gt;&lt;br /&gt;Esse monitor possui um painel TN ultrarrápido com frequência máxima de até 75 Hz e baixíssimo tempo de resposta de 5(cinco) milissegundos.    &lt;br /&gt;Ideal para seus jogos AAA, o monitor conta com alta definição em resolução Quad HD (2560x1440) que proporciona uma imagem rica em detalhes.    &lt;br /&gt;O monitor Bluecase BM2713GW é compatível com suportes VESA e também conta com conexões DisplayPort e HDMI.</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Samsung 27Pol, Full HD, 75Hz, IPS, HDMI, Vesa, Freesync - Lf27t350fhlmzd</t>
+  </si>
+  <si>
+    <t>Para compor a sua mesa e computador, precisa de um monitor de linha, não acha? Com o Monitor Gamer T350 Samsung você terá uma ótima visualização de tudo que fizer! Com a tela IPS, LED, em formato plano e de 27'' na horizontal, resolução Full HD 1920x1080. Possui conexões HDMI e VGA e tecnologia FreeSync da AMD, assim você pode assistir filmes e jogar tranquilamente sem interrupções na sua imagem. Além disso, possui o Game Mode, que ajusta qualquer jogo para preencher sua tela visualizando todos os detalhes, sendo possível detectar inimigos escondidos nas sombras através do contraste ideal, mais nitidez e cenas com cores mais vivas. Agora, a imagem é reproduzida sem falhas. A taxa de atualização de 75Hz oferece cenas mais fluidas. Seu momento de diversão não tem lag ou efeito fantasma, quer você esteja assistindo a um vídeo ou jogando um jogo. Vai deixar essa beleza passar? Garanta já seu Monitor Gamer T350 Samsung e aproveite com a melhor imagem!</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Curvo HQ 24 LED Full HD, 165 Hz, 1ms, HDMI, DisplayPort, FreeSync, Som Integrado, Preto - 24GHQ-Black</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Monitor Gamer Curvo HQ 24 LED Full HD, 165 Hz, 1ms, HDMI, DisplayPort, FreeSync, Som Integrado, Preto&lt;/h2&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Tela Curva&lt;/h2&gt;
+&lt;p&gt;A curvatura da tela de R3000 oferece imers&amp;atilde;o total, voc&amp;ecirc; ser&amp;aacute; capaz de apreciar imagens panor&amp;acirc;micas grandes, em alta resolu&amp;ccedil;&amp;atilde;o e com todas as especifica&amp;ccedil;&amp;otilde;es que um monitor Gamer de ponta exige.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Baixo tempo de Resposta&lt;/h2&gt;
+&lt;p&gt;A HQ levou a s&amp;eacute;rio o desenvolvimento desta linha, trazendo ao p&amp;uacute;blico mais exigente um produto completo e de alto n&amp;iacute;vel. N&amp;atilde;o fique atras, reaja em tempo real e tenha os movimentos do teclado refletidos sem atrasos com o tempo de resposta de 1ms.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Atualiza&amp;ccedil;&amp;atilde;o de 165Hz&lt;/h2&gt;
+&lt;p&gt;Sem borr&amp;otilde;es e sem perda de imagem. A INCR&amp;Iacute;VEL taxa de atualiza&amp;ccedil;&amp;atilde;o de 165hz garante que voc&amp;ecirc; tenha uma experi&amp;ecirc;ncia acima dos seus advers&amp;aacute;rios.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Imagens em alta resolu&amp;ccedil;&amp;atilde;o + Visual incr&amp;iacute;vel&lt;/h2&gt;
+&lt;p&gt;A tela Full HD de alta resolu&amp;ccedil;&amp;atilde;o aliada ao design futurista e moderno do monitor garantem n&amp;atilde;o s&amp;oacute; imagens perfeitas como um visual incr&amp;iacute;vel de todo o seu conjunto.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h3&gt;Aproveite essa oportunidade e adquira seu Monitor Gamer Curvo no KaBuM!&lt;/h3&gt;</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Redragon, 23Pol, Full HD, 144Hz, 1MS, IPS, HDMI, DP, VGA, Freesync - M2444ph</t>
+  </si>
+  <si>
+    <t>O monitor Redragon Sapphire apresenta um design ultrafino, alinhado com o que há de mais moderno no mercado. Gamers de jogos competitivos podem obter vantagem sobre seus adversários ao utilizar uma tela com a alta taxa de atualização de 144 Hz. A tecnologia AMD FreeSync põe fim à jogabilidade travada e ao corte dos quadros com um desempenho fluido e livre de artefatos com praticamente qualquer taxa de quadros. Contemple a próxima inovação na experiência de jogos para PC e console. O Redragon Sapphire possui um visual moderno e elegante, que combina com qualquer setup, pela sua simplicidade e minimalismo.&lt;br /&gt;&lt;br /&gt;- Alta taxa de atualização até 144Hz auxiliando na fluidez da gameplay.&lt;br /&gt;- Design elegante e minimalista para se integrar a qualquer setup.&lt;br /&gt;- Painel do tipo IPS para maior fidelidade de cores.&lt;br /&gt;- Tecnologia Freesync integrada para eliminar as quebras de imagem.&lt;br /&gt;- Diversas opções de conexões de vídeo para maior praticidade e versatilidade.&lt;br /&gt;&lt;br /&gt;O monitor tem tela de 24 polegadas, um ótimo tamanho para o consumo de jogos e filmes, assim como navegar na internet e trabalhar.</t>
+  </si>
+  <si>
+    <t>Monitor Gamer LG LED 23.8 Polegadas FHD, 60Hz, 5Ms, IPS, VGA/HDMI/DP, Pivot - 24BL550J</t>
+  </si>
+  <si>
+    <t>Monitor Gamer LG LED 23.8 FHD IPS 60Hz 5ms VGA HDMI DP Pivot - 24BL550J CONTE COM SUA MELHOR EXIBIÇÃO A qualidade de imagem do LG 24BL550J é a melhor possível para um monitor Full HD, já que usa a elogiada tela IPS. Suas cores são vibrantes e nítidas, sem qualquer problema em replicar as cores reais em software e jogos. Sua tela de 23.9 faz com que ele esteja no tamanho ideal para a resolução Full HD (1920x1080p), apresentando ótimo nível de densidade de pixel (PPI 0,27 mm). Com isso, você não terá a impressão de imagem borrada ou com serrilhados, principalmente em jogos, vídeos e fotos. FLUIDEZ Tem baixo input lag e tempo de resposta de 5ms, suficiente para eliminar rastros. A taxa de atualização de 75hz da boa fluência aos jogos, ajudando ainda no conforto ocular. MELHOR RESOLUÇÃO Sua incrível tela em Full HD com tecnologia IPS e seu tratamento anti reflexivo conta com a exibição de imagens excepcionais cores mais realistas de qualquer ângulo, sem a interferência de qualquer luz. MODELO PIVOTANTE Permite ajuste de altura, inclinação, rotação e pivô. Esse monitor apresenta um design moderno, com bordas mais finas e base retangular com ótima estabilidade. Porém, seu grande trunfo é o ajuste de altura e giro em 90º (pivô), o que o torna ideal para trabalhar com o monitor na vertical (em pé)..</t>
+  </si>
+  <si>
+    <t>Monitor Goldentec Gamer 27'' Led Full Hd, 75hz, 1ms</t>
+  </si>
+  <si>
+    <t>Monitor gamer 27´´ led full hd 75hz 1ms especificações técnicas  marcagoldentec  ean7899555687261  tamanho de tela27´´  framelesssim  resolução1920x1080 (full hd)  tempo de resposta1 ms  frequência75 hz  brilho250 cd/m²  contraste100 milhões: 1  ângulo de visão180° (h) 180° (v)  cores16,7 milhões  inclinação ajustável 20°  tecnologia freesyncelimina falhas e intermitências  tecnologia lowbluelightreduz a luz azul para mais conforto e segurança  100% flicker freesuaviza a ondulação do monitor  conexõeshdmi  conteúdo da embalagem1x monitor gamer 27´´ led full hd 75hz 1ms &lt;br&gt;cabos e fonte &lt;br&gt;&lt;br&gt;&lt;strong&gt;especificações técnicas&lt;/strong&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;marca :&lt;/strong&gt; goldentec&lt;br&gt;&lt;strong&gt;tipo de uso :&lt;/strong&gt; gamer&lt;br&gt;&lt;strong&gt;tamanho da tela :&lt;/strong&gt; 27´´&lt;br&gt;&lt;strong&gt;tipo de tela :&lt;/strong&gt; led&lt;br&gt;&lt;strong&gt;resolução :&lt;/strong&gt; full hd&lt;br&gt;&lt;strong&gt;design de tela :&lt;/strong&gt; tela plana&lt;br&gt;&lt;strong&gt;tempo de resposta :&lt;/strong&gt; 1 ms&lt;br&gt;&lt;strong&gt;taxa de atualização :&lt;/strong&gt; 75 hz&lt;br&gt;&lt;strong&gt;estrutura :&lt;/strong&gt; padrão&lt;br&gt;&lt;strong&gt;voltagem :&lt;/strong&gt; bivolt&lt;br&gt;&lt;strong&gt;polegadas :&lt;/strong&gt; 27 ´´&lt;br&gt;&lt;br&gt;&lt;strong&gt;garantia : &lt;/strong&gt;12</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Redragon Azur, 23.8 Polegadas, 165hz, LED, FHD, HDMI - Gm24x5ips</t>
+  </si>
+  <si>
+    <t>Características:&lt;br /&gt; - marca: redragon&lt;br /&gt; - modelo: gm24x5ips&lt;br /&gt; especificações:&lt;br /&gt; - cor: preto&lt;br /&gt; - alta taxa de atualização até 165hz auxiliando na fluidez da gameplay.&lt;br /&gt; - design elegante e minimalista para se integrar a qualquer setup.&lt;br /&gt; - tecnologia freesync integrada para eliminar as quebras de imagem.&lt;br /&gt; - diversas opções de conexões de vídeo para maior praticidade e versatilidade.&lt;br /&gt; - tamanho: 23,8”&lt;br /&gt; - resolução: 1920 x 1080&lt;br /&gt; - tipo de painel: ips&lt;br /&gt; - taxa de atualização: 165 hz&lt;br /&gt; - número de cores: 16.7 m&lt;br /&gt; - brilho máximo: 250cd/m2 (typical)&lt;br /&gt; - taxa de contraste: 1000:1&lt;br /&gt; - conectividade: hdmi 1.4 x 2, dp 1.2  x1, dc x 1, 1x 3.5mm áudio.&lt;br /&gt; - power range: 100-240v 50/60hz&lt;br /&gt; - peso bruto(g): 4728&lt;br /&gt; - peso líquido(g): 3520&lt;br /&gt; conteúdo da embalagem:&lt;br /&gt; - monitor gamer redragon</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Curvo Bright 27p, Full HD, 165Hz, 1Ms, HDMI/VGA, Preto</t>
+  </si>
+  <si>
+    <t>Monitor gamer curvo 27" polegadas 165hz full hd lcd/led preto mt007 bright&lt;br /&gt;  &lt;br /&gt; mergulhe no mundo dos games com estilo e velocidade!&lt;br /&gt;  &lt;br /&gt; ei, camarada gamer, já sentiu como se estivesse preso no passado com um monitor lento e sem graça? Deixe-me apresentar uma passagem direta para o futuro dos jogos: o monitor gamer curvo 27 polegadas 165 hz dp hdmi usb preto bright. Prepare-se para uma experiência visual de tirar o fôlego!&lt;br /&gt;  &lt;br /&gt; este monitor é como uma viagem ao paraíso dos gamers. Com suas 27 polegadas de tela imersiva e curva, ele envolve você em um abraço eletrizante de jogabilidade. E a taxa de atualização de 165 hz? É praticamente uma máquina do tempo para o futuro dos jogos!&lt;br /&gt;  &lt;br /&gt; e como se isso não fosse suficiente, este monitor oferece conectividade versátil com dp, hdmi e usb. Você pode se conectar facilmente aos seus dispositivos e mergulhar diretamente na ação. Sem complicações, apenas jogos de alta qualidade.&lt;br /&gt;  &lt;br /&gt; mas aqui está a cereja no topo do bolo: a resolução deslumbrante e as cores vibrantes. Este monitor faz com que cada detalhe dos seus jogos ganhe vida. Adeus a imagens borradas e cores apagadas. Prepare-se para gráficos que vão explodir sua mente!&lt;br /&gt;  &lt;br /&gt; ao comprar este monitor gamer curvo, você não está apenas adquirindo um pedaço de tecnologia. Você está se dando o presente de uma experiência de jogo que vai te levar a novos patamares de diversão e desempenho. É a sua passagem para o futuro dos jogos - uma jornada sem volta para a vitória!&lt;br /&gt;  &lt;br /&gt; então, o que você está esperando? Pegue seu ingresso para o futuro e adquira o monitor gamer curvo 27 polegadas 165 hz dp hdmi usb preto bright hoje. Jogue com estilo, velocidade e vitória garantida! Sua jornada começa agora!&lt;br /&gt;  &lt;br /&gt; especificações:&lt;br /&gt; dimensões(axlxp): 615 x 453 x 79 mm &lt;br /&gt; peso: 3,9&lt;br /&gt; área de visualização 683 × 128 × 445(mm2)&lt;br /&gt; ângulo de visão h:178°v:178°&lt;br /&gt; resolução(tip.) 1920x1080 60hz&lt;br /&gt; cores 16,7m&lt;br /&gt; brilho (tip.) 250cd/m2&lt;br /&gt; tela curva: 2800r&lt;br /&gt; frequência de resposta: 165 hz&lt;br /&gt; relação de contraste (tip.) 1000:1&lt;br /&gt; conector dp + hdmi + usb&lt;br /&gt;  &lt;br /&gt; conteúdo da embalagem: &lt;br /&gt; 01 monitor bright &lt;br /&gt; 01 cabo hdmi&lt;br /&gt; 01 manual&lt;br /&gt;  &lt;br /&gt; modelo:&lt;br /&gt; mt007&lt;br /&gt;  &lt;br /&gt; marca:&lt;br /&gt; bright&lt;br /&gt;  &lt;br /&gt; garantia 1 ano bright</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Cooler Master 23.8 Pol. Full HD (1920x1080), 0.5MS, 144Hz, IPS, HDMI, Hdr10, Vesa - Gm238-Ffs</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;monitor gamer gm238-ffs cooler master full hd hdmi 1920x1080 vesa 144hz 23,8"&lt;/b&gt;&lt;/p&gt;&lt;p&gt;&lt;br /&gt;o monitor gamer gm238-ffs possui tela full hd de 144 hz e 23,8" combinada com uma ampla gama de cores dci-p3 de 90% oferece versatilidade not&amp;aacute;vel. Com recursos essenciais para jogos e produtividade, permite uma experi&amp;ecirc;ncia de jogo suave ou foco no trabalho diurno. A densidade de pixels de 92,6 por polegada (ppi) em um monitor de 23,8 polegadas e resolu&amp;ccedil;&amp;atilde;o full hd, o gm238-ffs equilibra de forma excelente a fidelidade visual e o desempenho. O monitor gamer fornece um display fhd de 23,8" com um painel ultraspeed ips de 144 hz, com recursos como dynamic overdrive, adaptive sync e uma cobertura dci-p3 de 90%, atende a todas as suas necessidades. &amp;eacute; ideal tanto para jogos quanto para produtividade, tornando-o uma adi&amp;ccedil;&amp;atilde;o valiosa &amp;agrave; sua configura&amp;ccedil;&amp;atilde;o de trabalho e entretenimento.&lt;/p&gt;&lt;p&gt;&lt;br /&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Monitor Gamer KBM! GAMING MG700 27' Led Full Hd, 240hz, 1ms, Hdmi E Displayport, 96% Srgb, Adaptive Sync, Ajuste De Altura - KGMG70027PT</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Monitor Gamer KBM! GAMING MG700: Imers&amp;atilde;o e desempenho para seus jogos&lt;/h2&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;O Monitor Gamer KBM! GAMING MG700 &amp;eacute; a escolha perfeita para quem busca imers&amp;atilde;o e desempenho nos jogos. Com &lt;strong&gt;tela curva de 27 polegadas&lt;/strong&gt;, resolu&amp;ccedil;&amp;atilde;o &lt;strong&gt;Full HD&lt;/strong&gt; e taxa de atualiza&amp;ccedil;&amp;atilde;o de &lt;strong&gt;240 Hz,&lt;/strong&gt; o MG700 oferece uma experi&amp;ecirc;ncia visual incr&amp;iacute;vel.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;O tempo de resposta de &lt;strong&gt;1 ms&lt;/strong&gt; garante que voc&amp;ecirc; n&amp;atilde;o perca nenhum detalhe da a&amp;ccedil;&amp;atilde;o, mesmo nos jogos mais r&amp;aacute;pidos. Al&amp;eacute;m disso, o recurso &lt;strong&gt;AdaptiveSync&lt;/strong&gt; elimina o tearing e o stuttering, garantindo uma imagem suave e fluida.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;Para proteger a sua vis&amp;atilde;o, o MG700 conta com &lt;strong&gt;redu&amp;ccedil;&amp;atilde;o de luz azul&lt;/strong&gt; e &lt;strong&gt;Modo Game Plus&lt;/strong&gt;, que reduzem o cansa&amp;ccedil;o visual. O som integrado &amp;eacute; de alta qualidade, mas voc&amp;ecirc; tamb&amp;eacute;m pode conectar o seu headset atrav&amp;eacute;s das portas plug and play.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;Com o Monitor Gamer KBM! GAMING MG700, voc&amp;ecirc; ter&amp;aacute; tudo o que precisa para jogar seus games favoritos com o m&amp;aacute;ximo de desempenho e imers&amp;atilde;o.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;O Monitor Gamer KBM! GAMING MG700 &amp;eacute; a escolha perfeita para quem busca um monitor gamer de alta qualidade. Com recursos avan&amp;ccedil;ados e uma excelente rela&amp;ccedil;&amp;atilde;o custo-benef&amp;iacute;cio, o MG700 &amp;eacute; a garantia de uma experi&amp;ecirc;ncia de jogo inesquec&amp;iacute;vel.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>USADO: Monitor Gamer 24 Polegadas Acer Nitro, 165Hz, 0.5ms, Freesync, HDMI, DisplayPort, Preto, Recertificado Prata - VG252Q</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Acer Nitro Vg252q, na cor preta com detalhes em vermelho, tela de 24 polegadas, taxa de atualização de 165hz, tempo de resposta de 0.5ms, amd freesync premium, 1 entrada hdmi e 1 entrada display port&lt;br /&gt;&lt;br /&gt;Atenção: este produto é recertificado.&lt;br /&gt;Os eletrônicos são originais e acompanham nota fiscal. Os produtos passam por uma avaliação de qualidade rigorosa, que certifica as condições técnicas e estéticas do aparelho, categorizadas de acordo com os selos ouro, prata ou bronze. Você ainda conta com garantia de três meses contra problemas e pode fazer a devolução do produto em até sete dias.</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Primetek, 27 Polegadas, 180hz Ips Qhd HDMI/dp</t>
+  </si>
+  <si>
+    <t>Caracteristicas: - marca: primetek - modelo: 27a2r  especificações técnicas: - tamanho do painel (diagonal) 27 - tipo de painel ips rápido - plana/ curva plana proporção 16:9 resolução 2560x1440 - tipo de moldura moldura sem moldura 3 - distância do pixel (h)*(v) (mm) 0,2331 (h) × 0,2331(v - brilho (cd/m2 )(tipo.) 250(min) 300(tipo) brilho (nits)(máx.)? 250(min) 300(tipo) - ângulo de visão (h/v) 178°(h)/178°(v) - profundidade de bits do painel verdadeiro 8 bits - cores da tela 16,7m - tempo de resposta do painel sem od 5ms tempo de resposta 1ms - taxa de atualização (máx.) 180 hz - hdmi 2.0 2 (máx. 144 hz) dp 1.4 2 (máx. 180 hz) saída de áudio 1 - design de suporte de exibição has inclinação (ângulo) 5°±2°,20°±2° giro (ângulo) 20°±2° - pivô (ângulo/direção) pviot: 90° ajuste de altura 120±5mm montagem vesa 75*75mm tecla do botão liga/desliga roker - tecla do botão osd roker contracapa design rgb - consumo de energia 48w modo de economia de energia ?0,5w modo de desligamento desligado &amp;lt,0,3 w tipo de energia adaptador de energia fonte de alimentação dc 12v, 4a - acessorios: cabo de alimentação (1,5m) 1,5m cabo dp versão 1.2 quantidade de cabo dp (1,5 m/1,8 m) 1,5 m - temperatura da cor (fria, quente, usuário) controle de luz azul baixa modo de cena dcr idiomas (23 idiomas) ajuste da luz de fundo sem oscilações freesync over drive fps/rts jogo mais modo de controle do efeito de iluminação (nenhum/mistura de cores rgb/seleção colorida) laranja - dimensão com suporte (l*a*p)(mm) 619x269,2x554,6 mm - dimensão sem suporte (lxaxp)(mm) 619x63,7x365,5 mm - dimensão da caixa (lxaxp)(mm) 715x213x471mm - peso líquido (kg) 6,3kg - peso bruto (kg) 8,3kg - garantia 1 ano &lt;br&gt;&lt;br&gt;&lt;strong&gt;especificações técnicas&lt;/strong&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;tamanho da tela:&lt;/strong&gt; 27&lt;br&gt;&lt;strong&gt;marca:&lt;/strong&gt; primetek&lt;br&gt;&lt;strong&gt;modelo:&lt;/strong&gt; 27a2r</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Redragon Mirror, Tela de 27 Polegadas FHD, 165HZ, LED, HDMI - GM27X5IPS</t>
+  </si>
+  <si>
+    <t>Características:&lt;br /&gt; - marca: redragon&lt;br /&gt; - modelo: gm27x5ips&lt;br /&gt; especificações:&lt;br /&gt; - cor: preto&lt;br /&gt; - tamanho: 27”&lt;br /&gt; - resolução: 1920 x 1080 16:9&lt;br /&gt; - tipo de painel: ips&lt;br /&gt; - taxa de atualização: 165 hz&lt;br /&gt; - número de cores: 16.7 m&lt;br /&gt; - brilho máximo: 250cd/m2 (typical)&lt;br /&gt; - taxa de contraste: 1000:1&lt;br /&gt; - conectividade: dp 1.2 x1, hdmi 1.4 x2, dc in x1&lt;br /&gt; - power range: 100-240v 50/60hz&lt;br /&gt; - tempo de resposta: 1ms&lt;br /&gt; - peso bruto(g): 5900g&lt;br /&gt; - peso liquido(g): 4200g&lt;br /&gt; conteúdo da embalagem:&lt;br /&gt; - monitor gamer redragon</t>
+  </si>
+  <si>
+    <t>Monitor Gamer 27 Polegadas, 240hz Curvo FULL HD, HDMI/dp</t>
+  </si>
+  <si>
+    <t>Caracteristicas:  - marca: primetek  - modelo: 27c1h  se você está procurando um monitor para jogos, nossas ofertas primetek te oferece uma ótima opção de modelo e um bom preço. Monitor gamer 27curvo 240hz dp/hdmi fhd primetek 27c1h que entrega imagens mais nítidas, levando sua experiência visual e seu foco no jogo para um novo nível.  especificações técnicas:  - tamanho 27´´ painel tipo va  - fonte do painel csot curva plana/ curva  - suporte hdr n resolução 1920 x 1080  - tipo de moldura moldura sem moldura 3 área de visualização da tela (a*v) (mm) 597,888 (a) x 336,312 (v) tipo de luz de fundo do painel e-led  - distância do pixel (a)(v) (mm) 0,1038(a) x 0,3114(v) brilho (nits) (máx.) 280 nits (min)  - taxa de contraste (típico) 3000:1 taxa de contraste dinâmico milhões  - ângulo de visão (h/v) 178°(h)/178°(v)  - profundidade de bits do painel 8 bits cores da tela 16,7m  - tempo de resposta do painel sem od 21ms tempo de resposta 8 ms (alta) taxa de atualização do painel (máx.) 240 hz taxa de atualização da tela (máx.) 48hz-240hz scaler pn hdmi 1.4 n/a faixa freesync n/a hdmi 2.0 2 faixa freesync 48-240 hz  - saída de áudio  - botão liga/desliga cinco botão osd cinco  - contracapa design rgb  - consumo de energia 25w tipo.,54w máx. Modo de economia de energia?0,5w modo de desligamento ?0,3w  - tipo de energia adaptador de energia fonte de alimentação 12v 4a  - acessorios: cabo de alimentação (1,5 m) 1 (1,5 m) cabo dp versão 1.2 qtd de cabo dp (1,5 m/1,8 m) 1 (1,5 m)  - temperatura da cor (fria, quente, usuário) controle de baixa luz azul modos de cenários dcr menu de idiomas 23 idiomas  - nenhum ajuste de luz de fundo intermitente sincronização adaptável freesync  - over drive fps/rts jogo mais pip/pbp qp efeito de luz laranja  - dimensão com suporte (l/a/p)(mm) 616,2x453,1x195,7 mm  - dimensão sem suporte (lxaxp)(mm) 616,2x367,2x96,3 mm  - dimensão da caixa (lxaxp)(mm) 699x169x440mm  - peso líquido (kg) 4,85kg  - peso bruto (kg) 6,72kg  - garantia 1 ano &lt;br&gt;&lt;br&gt;&lt;strong&gt;especificações técnicas&lt;/strong&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;marca:&lt;/strong&gt; primetek&lt;br&gt;&lt;strong&gt;modelo:&lt;/strong&gt; 25c1h&lt;br&gt;&lt;strong&gt;tamanho da tela:&lt;/strong&gt; 25</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Goldentec, 24 Polegadas, LED, Full HD, 144hz, 1ms</t>
+  </si>
+  <si>
+    <t>Monitor gamer goldentec 24´´ led full hd 144hz 1ms | gt gamer conta com tecnologia freesync, capaz de eliminar falhas e intermitências. Além disso, possui tecnologia lowbluelight, capaz de reduzir a luz azul do monitor proporcionando mais conforto e segurança. Conta também com 100% flicker free, suavizando a ondulação do monitor.   especificações técnicas  marcagoldentec  tamanho de tela24´´  framelesssim  resolução1920x1080 (full hd)  tempo de resposta 1ms  frequência 144hz  brilho250 cd/m²  contraste 100 milhões: 1  ângulo de visão180° (h) 180° (v)  cores16,7 milhões  inclinação ajustavel15°  tecnologia freesyncsim, elimina falhas e intermitências  tecnlogia lowbluelightsim, reduz a luz azul para mais conforto e segurança  100% flicker freesim, suaviza a ondulação do monitor  conexõeshdmi + vga  conteúdo da embalagemmonitor 24´´&lt;br&gt;fonte adaptadora&lt;br&gt;cabo hdmi&lt;br&gt;manual de instruções   &lt;br&gt;&lt;br&gt;&lt;strong&gt;especificações técnicas&lt;/strong&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;marca :&lt;/strong&gt; goldentec&lt;br&gt;&lt;strong&gt;tipo :&lt;/strong&gt; gamer&lt;br&gt;&lt;strong&gt;polegadas :&lt;/strong&gt; 24 ´´&lt;br&gt;&lt;br&gt;&lt;strong&gt;garantia : &lt;/strong&gt;12</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Grasep 27 Polegadas Led, FHD, HDMI, Som Integrado - 1920P</t>
+  </si>
+  <si>
+    <t>PRONTA ENTREGA&lt;br /&gt;3 meses de garantia com o vendedor!&lt;br /&gt;6 meses de garantia com o fabricante!&lt;br /&gt;&lt;br /&gt;Monitor PC Gamer Led Full HD Som integrado 27 pol 75Hz&lt;br /&gt;&lt;br /&gt;Eleve a qualidade visual do seu computador com este incrível monitor PC de alta definição. Projetado para oferecer uma experiência visual imersiva e nítida, este monitor é perfeito para trabalhar, jogar, assistir a filmes e muito mais.&lt;br /&gt;&lt;br /&gt;Com uma tela de alta resolução, cada detalhe ganha vida, proporcionando imagens vibrantes e cores realistas. Seja para editar fotos e vídeos, jogar seus games favoritos ou assistir a filmes em alta definição, este monitor oferece uma qualidade de imagem impressionante, com alto contraste e brilho intenso.&lt;br /&gt;&lt;br /&gt;Além disso, o monitor possui um tamanho de 27 polegadas para acomodar várias janelas e facilitar a multitarefa. Você poderá abrir e trabalhar em diferentes aplicativos ao mesmo tempo, aumentando sua produtividade e tornando seu fluxo de trabalho mais eficiente.&lt;br /&gt;&lt;br /&gt;Dimensões: 4x56x33cm&lt;br /&gt;Peso: 3.6kg&lt;br /&gt;&lt;br /&gt;Especificações:&lt;br /&gt;Tela: 27"&lt;br /&gt;Tipo: LED&lt;br /&gt;Resolução: 1920x1080&lt;br /&gt;IPS&lt;br /&gt;Tempo de resposta: 1ms&lt;br /&gt;Brilho máxima: 250cd/m&lt;br /&gt;Interfaces: HDMI/VGA/AUDIO IN&lt;br /&gt;Frequência horizontal: 67.200KHz&lt;br /&gt;Frequência vertical: 75Hz&lt;br /&gt;Consumo de potência: 35W&lt;br /&gt;Consumo Potência em Standby: 0,5&lt;br /&gt;Não possui som integrado&lt;br /&gt;Visão expansiva&lt;br /&gt;&lt;br /&gt;Itens Inclusos:&lt;br /&gt;1 Monitor 27&lt;br /&gt;1 Cabo DisplayPort&lt;br /&gt;1 Fonte AC/DC&lt;br /&gt;1 Manual</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Acer VG240Y FHD 165hz FreeSync ZeroFrame 0,5ms.</t>
+  </si>
+  <si>
+    <t>A tecnologia AMDFreeSync Premium elimina a tela ?'rasgada', minimiza atrasos e latência durante os jogos, apresentando uma sincronização dos quadros do monitor muito mais eficiente. Sua experiência visual será mais suave, fluida e responsiva. O Nitro VG240Y conta com uma alta taxa de atualização de 144Hz até 165Hz. Prepare-se para ver imagens mais suaves, sem rastros e sem rasgos. Monitor é igual exp: quanto mais, melhor. Jogue com múltiplos monitores sem problemas, o design ZeroFrame praticamente elimina as bordas para que você tenha uma verdadeira imersão no jogo. Com Display Acer HDR, o VG240Y cria níveis mais profundos do contraste preto e branco. Nas cenas mais escuras, os pretos ricos são preservados e os detalhes aprimorados, gerando maior luminosidade. A tela de 23.8 polegadas IPS Full HD potencializa seu poder de imersão nas batalhas. A latência ultrabaixa deste monitor oferece respostas rápidas além das expectativas. Você terá controle total em jogos de corrida ou esporte, devido à redução do atraso de quadro. O tempo de resposta do Nitro é de 2ms até 0,5ms.</t>
+  </si>
+  <si>
+    <t>Monitor Gamer 27 Asus Vg279q1r Tuf Gaming - Full Hd Ips - 144hz - 1ms - Freesync - Hdmi/displayport</t>
+  </si>
+  <si>
+    <t>TUF Gaming VG279Q1RO TUF Gaming VG279Q1R é uma tela Full HD (1920x1080) de 27 polegadas com uma taxa de atualização ultrarrápida de 144 Hz projetada para jogadores profissionais e aqueles que buscam jogabilidade envolvente. Ele também possui a tecnologia Adaptive-Sync (FreeSync ™), para uma jogabilidade extremamente fluida sem tearing e stuttering.MONITOR GAMING ULTRA SLIM DE 27 POLEGADASO painel Full HD (1920 X 1080) de 27 polegadas do TUF Gaming VG279Q1R oferece visuais impressionantes de ângulos de visão amplos de 178 °. Também ocupa muito pouco espaço na área de trabalho e se encaixa bem em qualquer configuração. Seu perfil ultrafino mede apenas 7,5 mm em seu ponto mais fino, também apresenta o novo Turbo Rim baseado que combina com a configuração de jogo perfeita.Refresh rate de 144hzO TUF Gaming VG279Q1R tem uma taxa de atualização super rápida de 144 Hz, garantindo que mesmo os jogos mais rápidos, jogados nas configurações visuais mais altas, tenham uma aparência suave e completamente livre de atrasos. Obtenha a vantagem em jogos de tiro em primeira pessoa, corrida, estratégia em tempo real e títulos de esportes.EXTREME LOW MOTION BLURA tecnologia Extreme Low Motion Blur exclusiva da ASUS alcança 1 ms MPRT para eliminar manchas e desfoque de movimento. Também faz com que os objetos em movimento pareçam ainda mais nítidos, para que a jogabilidade seja mais fluida e ágil.Shadow BoostA tecnologia ASUS Shadow Boost esclarece as áreas escuras do jogo sem superexpor as áreas mais brilhantes, melhorando a visualização geral, ao mesmo tempo que torna mais fácil localizar inimigos escondidos em áreas escuras do mapa.</t>
+  </si>
+  <si>
+    <t>Monitor Goldentec, 24" Led Gt Gamer Fhd, Hdmi, 75hz</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Bluecase, 21.5" Full HD, 75Hz, Rako - BM221GW</t>
+  </si>
+  <si>
+    <t>Monitor Concórdia Gamer Curvo 27'', Led Full, Hd, 165hz, Freesync - Cz270f</t>
+  </si>
+  <si>
+    <t>&lt;strong&gt;você na vantagem sempre!&amp;nbsp &amp;nbsp&amp;nbsp&lt;/strong&gt;o&amp;nbsp&lt;strong&gt;monitor concórdia gamer curvo cz270f 27&amp;quot led full hd 165hz freesync&lt;/strong&gt;&amp;nbspconta com resposta de 1ms e taxa de atualização de 165hz, permitindo a mais alta performance durante suas gameplays. Sua curvatura amplia o campo de visão relativo, concentrando toda a ação ao alcance dos olhos do usuário, sem perder resolução.&lt;strong&gt;monitor curvo&amp;nbsp &amp;nbsp&lt;/strong&gt;tenha mais imersão na sua gameplay com esse monitor curvo da concórdia. Observe seus adversários ainda mais de perto com essa imersão de 1500r de curvatura e um ângulo de visão de 178º.&lt;strong&gt;inclinável&amp;nbsp&lt;/strong&gt;ajuste de inclinação da tela de 5&amp;deg a 15&amp;deg. Ajuste seu monitor da maneira que quiser deixando sua visão ainda mais confortável e ampla!&lt;strong&gt;especificações:&lt;/strong&gt;&lt;strong&gt;tela:&lt;/strong&gt;painel: vaárea ativa: 596.736 &amp;times 335.664 mmângulo de visão: 178/178&amp;nbspcurvatura: r1500&amp;nbspresolução: 1920*1080165hzdot pitch: 0,3108cores do painel: 16.7m&amp;nbsp&amp;nbspbrilho(máximo): 250cd/m2tempo de resposta: 1ms&amp;nbspcontraste: 3000: 1taxa de heartz: 165hz&amp;nbsp &amp;nbsp&lt;strong&gt;conectividade:&amp;nbsp&lt;/strong&gt;hdmidisplayport 1.4dvientrada earphonedc (energia)&lt;strong&gt;alimentação:&lt;/strong&gt;tipo: adaptador externovoltagem: 12v/3.5aconsumo: 38w | stand by: 0.5w&amp;nbsp&lt;strong&gt;recursos do monitor:&lt;/strong&gt;- base de fácil desmontagem- freesync/g-sync&amp;nbsp&amp;nbsp- filtro de luz azul- flicker free- baixo consumo em modo stand by- overdriver&amp;nbsp- base fixa- sem bordas- auto falante interno: sim.- vesa: 100*100mm.&amp;nbsp&lt;strong&gt;acompanha:&lt;/strong&gt;&amp;nbspcabo displayport,&amp;nbspmanual do usuário e parafusos.&amp;nbsp&amp;nbsp&lt;strong&gt;dimensões da tela (cm)(axlxp):&lt;/strong&gt;&amp;nbsp36 | 61 | 4,5 | peso(kg): 4,734.&lt;strong&gt;dimensões da tela com base&amp;nbsp(cm)(axlxp)&lt;/strong&gt;: 43 | 61 | 17 | peso(kg): 4,734.&lt;br&gt;&lt;br&gt;&lt;strong&gt;especificações técnicas&lt;/strong&gt;&lt;br&gt;monitor concórdia gamer curvo cz270f 27´´ led full hd 165hz freesync | entregue para todo o brasil |</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Husky Storm 27' LED, Curvo, 165 Hz, Full HD, 1ms, Adaptive Sync, HDMI/DisplayPort, Ajuste de Ângulo - HGMT001</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Monitor Gamer Husky Storm 27' LED, Curvo, 165 Hz, Full HD, 1ms, Adaptive Sync, HDMI/DisplayPort, Ajuste de &amp;Acirc;ngulo&lt;/h2&gt;
+&lt;h3&gt;&lt;br /&gt;Esteja um passo &amp;agrave; frente!&lt;/h3&gt;
+&lt;p&gt;O Monitor Husky Storm conta com resposta de 1ms e taxa de atualiza&amp;ccedil;&amp;atilde;o de 165Hz, permitindo a mais alta performance durante suas gameplays. Sua curvatura amplia o campo de vis&amp;atilde;o relativo, concentrando toda a a&amp;ccedil;&amp;atilde;o ao alcance dos olhos do usu&amp;aacute;rio, sem perder resolu&amp;ccedil;&amp;atilde;o.&lt;/p&gt;
+&lt;h3&gt;&lt;br /&gt;Tecnologia Adaptive Sync&amp;nbsp;&lt;/h3&gt;
+&lt;p&gt;Compat&amp;iacute;vel com a tecnologia Adaptive Sync, permite a sincroniza&amp;ccedil;&amp;atilde;o dos frames da placa de v&amp;iacute;deo, decretando o fim do input lag, bem como do tearing.&lt;/p&gt;
+&lt;h3&gt;&lt;br /&gt;Monitor Curvo&amp;nbsp;&lt;/h3&gt;
+&lt;p&gt;Tenha mais imers&amp;atilde;o na sua gaming player com esse monitor curvo da Husky. Observe seus advers&amp;aacute;rios ainda mais de perto com essa imers&amp;atilde;o de 1500r de curvatura e um &amp;acirc;ngulo de vis&amp;atilde;o de 178&amp;ordm;.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h3&gt;Adaptive Sync&lt;/h3&gt;
+&lt;p&gt;Evita o imput lag e combate o problema da quebra de quadros durante a reprodu&amp;ccedil;&amp;atilde;o dos frames. Essa Tecnologia evita o travamento do jogo para uma jogabilidade mais suave poss&amp;iacute;vel. Explore novas paisagens e capture seus inimigos em movimentos suaves e cont&amp;iacute;nuos.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h3&gt;Inclin&amp;aacute;vel&lt;/h3&gt;
+&lt;p&gt;Ajuste de inclina&amp;ccedil;&amp;atilde;o da tela de 5&amp;deg; a 15&amp;deg;. Ajuste seu monitor da maneira que quiser deixando sua vis&amp;atilde;o ainda mais confort&amp;aacute;vel e ampla&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h3&gt;Monitor Husky &amp;eacute; no KaBuM!&amp;nbsp;&lt;/h3&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;&lt;a href="https://kabum.com.br/hotsite/manuais/115384-Monitor-Gamer-Husky-Storm-HGMT001.pdf" target="_blank"&gt;MANUAL DE INSTRU&amp;Ccedil;&amp;Otilde;ES&lt;/a&gt;&lt;/strong&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Monitor Asus TUF Gaming 27 Full HD, 165Hz, 1ms, IPS, HDMI e DisplayPort, FreeSync Premium, VESA - VG279Q1A</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;TUF Gaming VG279Q1A Gaming Monitor Full HD de 27 polegadas (1920x1080), IPS, 165Hz (acima de 144Hz), Extreme Low Motion Blur, Adaptive-sync, FreeSync Premium, 1ms (MPRT)&lt;/h2&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;Monitor de jogos &lt;strong&gt;IPS Full HD (1920 x 1080)&lt;/strong&gt; de 27 polegadas com &lt;strong&gt;taxa de atualiza&amp;ccedil;&amp;atilde;o ultrarr&amp;aacute;pida de 165 Hz&lt;/strong&gt;, projetado para jogadores profissionais e jogabilidade envolvente.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;A tecnologia &lt;strong&gt;ASUS Extreme Low Motion Blur (ELMB)&lt;/strong&gt; permite um &lt;strong&gt;tempo de resposta de 1 ms (MPRT)&lt;/strong&gt; junto com a sincroniza&amp;ccedil;&amp;atilde;o adaptativa, eliminando fantasmas e rasgos para visuais de jogos n&amp;iacute;tidos com altas taxas de quadros.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Tecnologia FreeSync Premium&lt;/strong&gt; para eliminar rasgos na tela e taxas de quadros inst&amp;aacute;veis.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;Suporta &lt;strong&gt;Adaptive-Sync&lt;/strong&gt; com placas gr&amp;aacute;ficas &lt;strong&gt;NVIDIA GeForce e FreeSync&lt;/strong&gt; com placas gr&amp;aacute;ficas AMD Radeon Compat&amp;iacute;vel com NVIDIA GeForce s&amp;eacute;rie GTX 10, s&amp;eacute;rie GTX 16, s&amp;eacute;rie RTX 20 e placas gr&amp;aacute;ficas mais recentes.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;O &lt;strong&gt;Shadow Boost aprimora os detalhes da imagem&lt;/strong&gt; em &amp;aacute;reas escuras, iluminando as cenas sem super expor as &amp;aacute;reas claras.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;Sa&amp;iacute;da &lt;strong&gt;Full HD (1920 x 1080) a 120 Hz no PS5 e Xbox&lt;/strong&gt; Series X/S.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h3&gt;Todos os elementos essenciais para jogos&lt;/h3&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;O TUF Gaming VG279Q1A &amp;eacute; um monitor IPS Full HD (1920 x 1080) de 27 polegadas com uma taxa de atualiza&amp;ccedil;&amp;atilde;o ultrarr&amp;aacute;pida de 165 Hz. Projetado para jogadores e outros que buscam uma jogabilidade envolvente, ele oferece algumas especifica&amp;ccedil;&amp;otilde;es s&amp;eacute;rias. Mas h&amp;aacute; mais...&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;Sua fun&amp;ccedil;&amp;atilde;o exclusiva ELMB apresenta um tempo de resposta MPRT de 1ms e tecnologia Adaptive-Sync (FreeSync Premium), para uma jogabilidade extremamente fluida sem tearing e gagueira.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h3&gt;Tela IPS de 27 polegadas para melhor reprodu&amp;ccedil;&amp;atilde;o de cores&lt;/h3&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;O painel IPS Full HD (1920 x 1080) de 27 polegadas do TUF Gaming VG279Q1A oferece visuais impressionantes de todos os &amp;acirc;ngulos com amplos &amp;acirc;ngulos de vis&amp;atilde;o de 178 graus, garantindo distor&amp;ccedil;&amp;atilde;o m&amp;iacute;nima e mudan&amp;ccedil;a de cor mesmo quando voc&amp;ecirc; est&amp;aacute; visualizando de posi&amp;ccedil;&amp;otilde;es extremas.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h3&gt;Taxa de atualiza&amp;ccedil;&amp;atilde;o super-r&amp;aacute;pida de 165 Hz&lt;/h3&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;Uma impressionante taxa de atualiza&amp;ccedil;&amp;atilde;o de 165 Hz elimina o atraso e o desfoque de movimento para dar a voc&amp;ecirc; vantagem em jogos de tiro em primeira pessoa, corrida, estrat&amp;eacute;gia em tempo real e t&amp;iacute;tulos esportivos. Essa taxa de atualiza&amp;ccedil;&amp;atilde;o ultrarr&amp;aacute;pida permite que voc&amp;ecirc; jogue nas configura&amp;ccedil;&amp;otilde;es visuais mais altas e reaja instantaneamente ao que est&amp;aacute; na tela.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h3&gt;Desfrute de uma jogabilidade super suave&lt;/h3&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;Apresenta a mais recente tecnologia Extreme Low Motion Blur exclusiva da ASUS, que atinge 1ms MPRT para eliminar manchas e desfoque de movimento, e torna os objetos em movimento mais n&amp;iacute;tidos, para que a jogabilidade seja mais fluida e responsiva.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Duex 27 Full HD Curvo, 240Hz, 1ms, IPS, HDMI e DisplayPort, 99% sRGB, VESA - 270ZG</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Monitor Gamer Duex 27 Full HD&lt;/h2&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;Uma velocidade ultrarr&amp;aacute;pida de&amp;nbsp;&lt;strong&gt;240Hz e 1ms&lt;/strong&gt;&amp;nbsp;permite que os jogadores vejam o pr&amp;oacute;ximo quadro rapidamente e fazem com que a imagem apare&amp;ccedil;a suavemente. Os jogadores podem responder rapidamente aos oponentes e mirar no alvo facilmente.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h3&gt;Compre agora no KaBuM!&lt;/h3&gt;</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Husky 700  27 LED, Curvo Wide, WQHD, 165Hz, 1ms, HDMI e DisplayPort, Adaptive Sync, VESA - HGMT008</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Monitor Gamer Husky Gaming Storm 700&lt;/h2&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;N&amp;atilde;o precisa mais se perguntar qual monitor gamer comprar! A Husky Gaming ajuda voc&amp;ecirc; a &lt;strong&gt;atualizar seu setup&lt;/strong&gt;, seja para partidas no PC ou v&amp;iacute;deo game. Sempre oferecemos &lt;strong&gt;o melhor para voc&amp;ecirc;!&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;Monitor Gamer Husky Gaming Storm 700 tem uma alta &lt;strong&gt;taxa de atualiza&amp;ccedil;&amp;atilde;o de 165 Hz&lt;/strong&gt; com &lt;strong&gt;tempo de resposta de 1 ms&lt;/strong&gt;, que possibilita um tempo de rea&amp;ccedil;&amp;atilde;o mais r&amp;aacute;pido para suas partidas insanas.&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;Sua&lt;strong&gt; tela curva Quad HD de 27"&lt;/strong&gt;, com&lt;strong&gt; resolu&amp;ccedil;&amp;atilde;o de 2560 x 1440P&lt;/strong&gt; que garante imagem mais n&amp;iacute;tida e detalhada. Proporcionando&lt;strong&gt; jogabilidade fluida&lt;/strong&gt;, &lt;strong&gt;sem distor&amp;ccedil;&amp;otilde;es&lt;/strong&gt; e uma &lt;strong&gt;experi&amp;ecirc;ncia mais imersiva&lt;/strong&gt; para voc&amp;ecirc; n&amp;atilde;o perder nenhum detalhe importante, do seu programa de esporte, filme, s&amp;eacute;rie ou jogo preferido.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h3&gt;Aproveite e garanta j&amp;aacute; o seu Monitor Gamer Husky Gaming Storm 700! no KaBuM!&lt;/h3&gt;</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Gigabyte, 27 QHD, 170Hz, 1ms, DisplayPort e HDMI, 108% sRGB, HDR, Adaptive-Sync - GS27QC SA</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Monitor Gamer Gigabyte 27 QHD&lt;/h2&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;A Mais Alta Qualidade&lt;/h2&gt;
+&lt;p&gt;Equipado com uma taxa de atualiza&amp;ccedil;&amp;atilde;o de &lt;strong&gt;165 Hz&lt;/strong&gt; que suporta a tecnologia &lt;strong&gt;Adaptive-Sync&lt;/strong&gt; (FreeSync Premium), que p&amp;otilde;e fim &amp;agrave; jogabilidade inst&amp;aacute;vel e aos frames quebrados e cria um desempenho fluido e livre de artefatos em qualquer taxa de quadros. GS27QC com um tempo de resposta extremamente r&amp;aacute;pido de &lt;strong&gt;1 ms&lt;/strong&gt; para eliminar totalmente o atraso e o rasgo da imagem.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Mais Curva e Mais Imers&amp;atilde;o&lt;/h2&gt;
+&lt;p&gt;Um painel VA nativo de &lt;strong&gt;1500 Raios&lt;/strong&gt; que apresenta uma vis&amp;atilde;o mais pr&amp;oacute;xima do olho humano do que um monitor plano, proporcionando uma sensa&amp;ccedil;&amp;atilde;o mais envolvente e ao mesmo tempo oferecendo mais conforto visual.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Milh&amp;otilde;es de Cores&lt;/h2&gt;
+&lt;p&gt;O GS27QC pode exibir &lt;strong&gt;16,7 milh&amp;otilde;es de cores&lt;/strong&gt; e possui uma taxa de contraste de &lt;strong&gt;4000:1&lt;/strong&gt;. Ele permite que voc&amp;ecirc; desfrute de uma experi&amp;ecirc;ncia de jogo fluente com cores reais e vibrantes. O GS27QC est&amp;aacute; pronto para &lt;strong&gt;HDR&lt;/strong&gt;, o que desperta interesse em uma ampla gama de aplica&amp;ccedil;&amp;otilde;es, incluindo jogos, entretenimento cinematogr&amp;aacute;fico e cria&amp;ccedil;&amp;atilde;o de conte&amp;uacute;do multim&amp;iacute;dia.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h3&gt;Compre j&amp;aacute; o seu no KaBuM!&lt;/h3&gt;</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Gigabyte 27 IPS, QHD , 144Hz, 1ms, 120% sRGB, HDR 400, FreeSync Premium, Altura Ajustável - G27Q-SA</t>
+  </si>
+  <si>
+    <t>JUNTE-SE À LUTA com o Monitor Gamer de 27" G27Q-SA da Gigabyte com 1ms de tempo de resposta, freesync premium, 144 Hz e com uma taxa de cor de 8 bits, 92% DCI-P3 A ÚLTIMA MILHA PARA O SEU SISTEMA DE JOGO Como um jogador invisível, o monitor é frequentemente subestimado. A verdade é que os monitores se formam como um efeito sinérgico e trazem o melhor desempenho dos componentes do PC. Os monitores de jogos GIGABYTE oferecem as últimas especificações e qualidade, os usuários podem realmente desfrutar de um desempenho de alto nível sem a necessidade de extravagância. Tempo de Resposta de 1 ms Tempo de resposta super rápido de 1 ms para a experiência de jogo mais suave de todos os tempos! QHD e 144Hz Alta resolução e taxa de atualização rápida, proporcionando qualidade de exibição detalhada e experiência de jogo fluida! Cor de 8 bits, 92% DCI-P3 Fantástico visor colorido e 92% de cores DCI-P3 de gama super ampla. SIMPLES MAS ESTILOSO A aparência aerodinâmica representa a simplicidade da filosofia de design da série de jogos GIGABYTE, suporte robusto e acabamento fosco construído para características funcionais e estéticas adicionando mais características. ÂNGULO DE VISÃO PERFEITO O monitor de jogos GIGABYTE possui um suporte exclusivo ergonomicamente projetado para oferecer uma ampla gama de ajustes de altura e inclinação.</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Acer 31.5 LED Full HD, Curvo, 165 Hz, 1ms, HDMI e DisplayPort, FreeSync Premium, VESA - ED320QR</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Monitor Gamer Acer 31.5 LED Full HD, Curvo, 165 Hz, 1ms, HDMI e DisplayPort, FreeSync Premium, VESA&lt;/h2&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Tela Curva e Imersiva&lt;/h2&gt;
+&lt;p&gt;Tenha uma experi&amp;ecirc;ncia visual imersiva e confort&amp;aacute;vel com uma&lt;strong&gt; tela curva&lt;/strong&gt; com raio de 1800 mm de visualiza&amp;ccedil;&amp;atilde;o. Essa tecnologia mant&amp;eacute;m os cantos da tela &amp;agrave; mesma dist&amp;acirc;ncia de seus olhos. S&amp;atilde;o &lt;strong&gt;31,5&amp;rdquo;&lt;/strong&gt; e resolu&amp;ccedil;&amp;atilde;o &lt;strong&gt;Full HD&lt;/strong&gt;, promovendo imagens n&amp;iacute;tidas, que levam seu foco no jogo a outro n&amp;iacute;vel.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Design ZeroFrame&lt;/h2&gt;
+&lt;p&gt;Monitor com tela &lt;strong&gt;LED VA&lt;/strong&gt; e design ZeroFrame, que praticamente elimina as bordas para que voc&amp;ecirc; tenha uma verdadeira imers&amp;atilde;o no jogo.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;De olho em cada Frame&lt;/h2&gt;
+&lt;p&gt;O Nitro Series ED0 conta com uma taxa de atualiza&amp;ccedil;&amp;atilde;o de at&amp;eacute; &lt;strong&gt;165Hz.&lt;/strong&gt; Prepare-se para ver imagens mais suaves, sem rastros e sem rasgos.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Foque no Movimento&lt;/h2&gt;
+&lt;p&gt;Com o Visual Response Boost (VRB) de 1 ms, o monitor reduz borr&amp;otilde;es, efeitos fantasmas e manchas nas imagens. Al&amp;eacute;m disso, elimina o desfoque em objetos em movimento r&amp;aacute;pido.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Jogue em Perfeita Sincronia&lt;/h2&gt;
+&lt;p&gt;A tecnologi&lt;strong&gt;a AMD FreeSync Premium&lt;/strong&gt; elimina a tela &amp;ldquo;rasgada&amp;rdquo;, minimiza atrasos e lat&amp;ecirc;ncia durante os jogos, apresentando uma sincroniza&amp;ccedil;&amp;atilde;o dos quadros do monitor muito mais eficiente. Sua experi&amp;ecirc;ncia visual ser&amp;aacute; mais&lt;strong&gt; suave, fluida e responsiva.&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Contrastes Impressionantes&lt;/h2&gt;
+&lt;p&gt;O contraste de 100 milh&amp;otilde;es:1 &amp;eacute; alcan&amp;ccedil;ado atrav&amp;eacute;s da tecnologia Acer Adaptive Contrast Management. Ela proporciona um&lt;strong&gt; visual mais cristalino&lt;/strong&gt; e real&amp;ccedil;a a qualidade das cores do monitor.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h3&gt;Aproveite essa oportunidade e adquira seu Monitor Acer no KaBuM!&lt;/h3&gt;</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Samsung 22' IPS, 75 Hz, Full HD, FreeSync, HDMI/VGA, VESA -  LF22T350FHLMZD</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Monitor Gamer Samsung LED 22, IPS, Full HD, Vesa, Free Sync, Modo Gaming, Preto Vis&amp;atilde;o totalmente expansiva Design minimalista, concentra&amp;ccedil;&amp;atilde;o m&amp;aacute;xima. A tela com 3 lados sem borda traz uma est&amp;eacute;tica limpa e moderna para qualquer ambiente de trabalho. Em um setup com v&amp;aacute;rios monitores, se alinham perfeitamente para uma visualiza&amp;ccedil;&amp;atilde;o praticamente sem espa&amp;ccedil;os e sem distra&amp;ccedil;&amp;otilde;es. Imagens perfeitas e suaves Agora, a imagem &amp;eacute; reproduzida sem falhas. A taxa de atualiza&amp;ccedil;&amp;atilde;o de 75Hz oferece cenas mais fluidas. Seu momento de divers&amp;atilde;o n&amp;atilde;o tem lag ou efeito fantasma, quer voc&amp;ecirc; esteja acompanhando seu programa de TV favorito, assistindo a um v&amp;iacute;deo ou jogando um jogo. A&amp;ccedil;&amp;atilde;o Sincronizada Experi&amp;ecirc;ncia de entretenimento super fluida. AMD Radeon FreeSync mant&amp;eacute;m a taxa de atualiza&amp;ccedil;&amp;atilde;o do monitor e da placa gr&amp;aacute;fica em sincronia para reduzir a quebra de imagem. Assista a filmes e jogue sem interrup&amp;ccedil;&amp;otilde;es. At&amp;eacute; mesmo as cenas r&amp;aacute;pidas s&amp;atilde;o perfeitas e suaves. Veja de qualquer &amp;acirc;ngulo Sente-se em qualquer lugar e tenha uma experi&amp;ecirc;ncia completa sem distor&amp;ccedil;&amp;atilde;o de cores. O painel IPS preserva a nitidez e a vivacidade das cores em cada cent&amp;iacute;metro da tela. Mesmo em uma tela t&amp;atilde;o ampla, os tons e sombras s&amp;atilde;o completamente precisos de praticamente qualquer &amp;acirc;ngulo, sem altera&amp;ccedil;&amp;atilde;o de cor. Mais poder de jogo As configura&amp;ccedil;&amp;otilde;es de jogo ideais proporcionam uma vantagem instant&amp;acirc;nea. Detecte inimigos escondidos nas sombras atrav&amp;eacute;s do contraste ideal, mais nitidez e cenas com cores mais vivas. O Modo de Jogo ajusta qualquer jogo para preencher sua tela visualizando todos os detalhes. Mais conforto para os olhos Proteja seus olhos e fa&amp;ccedil;a mais. A avan&amp;ccedil;ada tecnologia de conforto visual reduz a fadiga ocular para uma experi&amp;ecirc;ncia prolongada menos cansativa. A tecnologia Flicker Free remove continuamente a tremula&amp;ccedil;&amp;atilde;o cansativa e irritante da tela, enquanto o Eye Saver Mode minimiza a emiss&amp;atilde;o de luz azul. Seus olhos ficam descansados por mais tempo. Versatilidade de verdade Conecte-se a mais. Com as portas HDMI e D-sub, v&amp;aacute;rios dispositivos podem ser conectados diretamente ao seu monitor para total flexibilidade. Agora, seu ambiente de computa&amp;ccedil;&amp;atilde;o &amp;eacute; ainda mais conveniente com possibilidades de entrada adicionais.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Monitor Gamer AOC Agon 31.5' LED, Curvo, 165 Hz, Full HD, 1ms, FreeSync Premium, HDMI/DisplayPort, RGB Light FX - AG323FCXE</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Com tela de alta qualidade, amplo &amp;acirc;ngulo de vis&amp;atilde;o e comando em tempo real, prepare-se para obter uma experi&amp;ecirc;ncia muito mais imersiva em todos os g&amp;ecirc;neros de jogos. Projetado para gamers, o monitor Agon permite movimentos muito mais flu&amp;iacute;dos nos jogos devido a alt&amp;iacute;ssima taxa de atualiza&amp;ccedil;&amp;atilde;o de 165 Hz. O tempo de resposta de 1 ms proporciona movimentos instant&amp;acirc;neos e naturais para voc&amp;ecirc; ser o melhor, e com o painel VA, voc&amp;ecirc; tem mais brilho e contraste para enxergar onde os seus inimigos est&amp;atilde;o, mesmo em cenas com pouca ilumina&amp;ccedil;&amp;atilde;o. Al&amp;eacute;m disso, o design exclusivo com LEDs em diferentes configura&amp;ccedil;&amp;otilde;es de cores RGB deixam a sua maratona de jogos ainda mais emocionante.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Monitor Gamer LG Ultra Gear 27 Full HD, 144 Hz, 1ms, IPS, HDMI e DisplayPort, sRGB 99%, HDR10, FreeSync, VESA, Altura Ajustável - 27GL650F-B</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Monitor Gamer LG Ultra Gear 27 Full HD&lt;/h2&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Evolua o Jogo Antes do Seu Rival:&lt;/h2&gt;
+&lt;p&gt;Tenha incr&amp;iacute;vel qualidade de imagens e decis&amp;otilde;es imediatas aos seus jogos com o Monitor Gamer LG 27GL650F.&lt;br /&gt;Os &lt;strong&gt;frames ultra-r&amp;aacute;pidos&lt;/strong&gt; de &lt;strong&gt;144Hz&lt;/strong&gt; permite os jogadores a reagirem imediatamente aos seus advers&amp;aacute;rios e mudar a hist&amp;oacute;ria do jogo para a sua vit&amp;oacute;ria.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;1ms Motion Blur Reduction&lt;/h2&gt;
+&lt;p&gt;Tenha imagens sem rastros e a&amp;ccedil;&amp;otilde;es mais r&amp;aacute;pidos com o &lt;strong&gt;tempo de resposta de 1ms&lt;/strong&gt; com &lt;strong&gt;Motion Blur Reduction.&lt;br /&gt;&lt;/strong&gt;O LG 27GL650F exibe &lt;strong&gt;precis&amp;atilde;o de cores impec&amp;aacute;vel&lt;/strong&gt; com um &amp;acirc;ngulo de vis&amp;atilde;o ampliado de 178&amp;deg;.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Compat&amp;iacute;vel com G-SYNC certificado pela NVIDIA&lt;/h2&gt;
+&lt;p&gt;Ap&amp;oacute;s ser testado pela NVIDIA, o monitor LG 27GL650F &amp;eacute; oficialmente compat&amp;iacute;vel com &lt;strong&gt;G-SYNC&lt;/strong&gt;, eliminando cortes e minimizando as repeti&amp;ccedil;&amp;otilde;es de imagem para uma experi&amp;ecirc;ncia mais fluida nos seus jogos.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Incr&amp;iacute;vel qualidade de imagem&lt;/h2&gt;
+&lt;p&gt;Tenha&lt;strong&gt; imagens supreendentes&lt;/strong&gt; com &lt;strong&gt;HDR10&lt;/strong&gt;, que reproduz alto brilho e maior gama de cores quando comparado a monitores convencionais deixando as imagens com maior qualidade em situa&amp;ccedil;&amp;otilde;es mais brilhantes ou de maior contraste.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Imagens sem falhas&lt;/h2&gt;
+&lt;p&gt;A tecnologia &lt;strong&gt;AMD FreeSync&lt;/strong&gt; reduz corte e repeti&amp;ccedil;&amp;otilde;es de imagens que ocorrem devido a diferen&amp;ccedil;a entre os quadros gr&amp;aacute;ficos e a taxa de atualiza&amp;ccedil;&amp;atilde;o do monitor. Com o FreeSync, os jogadores podem experimentar &lt;strong&gt;movimentos perfeitos e fluidos durante os jogo&lt;/strong&gt; de altas configura&amp;ccedil;&amp;otilde;es visuais.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h3&gt;Compre agora no KaBuM!&lt;/h3&gt;</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Samsung Odyssey G3, 24 Full HD, 144Hz, 1ms, FreeSync Premium, HDMI/Displayport, Ajuste de altura, Preto - LF24G35TFWLXZD</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Monitor Gamer Samsung Odyssey G3, 24 Full HD, 144Hz, 1ms, FreeSync Premium, HDMI/Displayport, Ajuste de altura, Preto&amp;nbsp;&lt;/h2&gt;
+&lt;p&gt;&lt;br /&gt;Monitor Gamer Samsung Odyssey G3 24&amp;rdquo;, FHD, 144 Hz, 1ms, com ajuste de altura, HDMI, DP, VGA, Freesync, Preto, S&amp;eacute;rie G3 Taxa de atualiza&amp;ccedil;&amp;atilde;o de 144Hz Domine todos os inimigos, mesmo em cenas muito r&amp;aacute;pidas. A taxa de atualiza&amp;ccedil;&amp;atilde;o de 144Hz elimina atrasos e desfoque de movimento para uma jogabilidade emocionante com a&amp;ccedil;&amp;atilde;o ultra suave.&lt;/p&gt;
+&lt;h3&gt;&lt;br /&gt;Tempo de resposta de 1ms&lt;/h3&gt;
+&lt;p&gt;Fa&amp;ccedil;a cada movimento contar com um tempo de resposta de 1ms. Ataque seus inimigos assim que os vir e fique &amp;agrave; frente com movimentos precisos do mouse. Seu desempenho na tela &amp;eacute; t&amp;atilde;o r&amp;aacute;pido quanto seus pr&amp;oacute;prios reflexos.&lt;/p&gt;
+&lt;h3&gt;&lt;br /&gt;AMD FreeSync Premium&lt;/h3&gt;
+&lt;p&gt;Jogabilidade suave sem esfor&amp;ccedil;o. O AMD FreeSync Premium apresenta tecnologia de sincroniza&amp;ccedil;&amp;atilde;o adapt&amp;aacute;vel, que reduz o travamento de tela, oscila&amp;ccedil;&amp;atilde;o e atrasos. Veja o jogo do seu jeito Gire, incline e ajuste seu monitor at&amp;eacute; que todos os inimigos estejam perfeitamente vis&amp;iacute;veis. Sua tela pode ser movida livremente para que voc&amp;ecirc; encontre conforto total no jogo. Design de tela cheia O design sem borda de 3 lados revela espa&amp;ccedil;o m&amp;aacute;ximo para uma jogabilidade maior e mais ousada. Alinhe dois monitores com precis&amp;atilde;o em uma configura&amp;ccedil;&amp;atilde;o de monitor duplo sem que nenhum inimigo fique escondido na jun&amp;ccedil;&amp;atilde;o.&lt;/p&gt;
+&lt;h3&gt;&lt;br /&gt;Mais conforto para os olhos&lt;/h3&gt;
+&lt;p&gt;Jogue por mais tempo sem incomodo visual. O Eye Saver Mode minimiza a emiss&amp;atilde;o de luz azul para manter seus olhos relaxados e confort&amp;aacute;veis enquanto joga por muitas horas. A tecnologia Flicker Free remove continuamente a tremula&amp;ccedil;&amp;atilde;o cansativa e irritante da tela para que voc&amp;ecirc; possa jogar por mais tempo sem distra&amp;ccedil;&amp;otilde;es ou fadiga ocular.&lt;/p&gt;
+&lt;h3&gt;&lt;br /&gt;Garanta o seu no KaBuM!&lt;/h3&gt;</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Concórdia 27" LED Full HD, 165Hz, 1ms, HDMI/DisplayPort, FreeSync, Preto - G5s</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Monitor Conc&amp;oacute;rdia Gamer G5s 27" Led Full Hd 165hz Freesync Hdmi Display Port&lt;/h2&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;O Monitor Conc&amp;oacute;rdia Gamer G5s de 27" 144Hz/165Hz apresenta tecnologia para tornar sua experi&amp;ecirc;ncia com games ainda mais intensa. Sem rastros, sem atraso, sem imagens tremidas! Tudo isso possibilitado pela sua taxa de atualiza&amp;ccedil;&amp;atilde;o de 144Hz/165Hz e tecnologia Freesync que juntos tornam esse monitor a sua melhor escolha. Com som embutido, conex&amp;atilde;o para fones, ele ainda facilita a sua vida com duas&amp;nbsp; conex&amp;otilde;es HDMI.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h3&gt;Alto desempenho com conveni&amp;ecirc;ncia a um pre&amp;ccedil;o justo nesse excelente painel PVA.&lt;/h3&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Monitor Gamer LG 25' IPS, Ultra Wide, 75 Hz, Full HD,  99% sRGB, HDMI, VESA - 25UM58-G</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Monitor Gamer LG UltraWide&lt;/h2&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h3&gt;1ms Motion Blur Reduction&lt;/h3&gt;
+&lt;p&gt;Tenha &lt;strong&gt;imagens sem rastros&lt;/strong&gt; e &lt;strong&gt;a&amp;ccedil;&amp;otilde;es mais r&amp;aacute;pidas&lt;/strong&gt; com o &lt;strong&gt;tempo de resposta de 1ms&lt;/strong&gt; com &lt;strong&gt;Motion Blur Reduction&lt;/strong&gt;.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h3&gt;UltraWide&lt;/h3&gt;
+&lt;p&gt;A propor&amp;ccedil;&amp;atilde;o da imagem do monitor UltraWide torna os jogos e filmes mais envolventes do que nunca. A &lt;strong&gt;nitidez da resolu&amp;ccedil;&amp;atilde;o Full HD&lt;/strong&gt; de &lt;strong&gt;1080P com IPS&lt;/strong&gt; faz a diferen&amp;ccedil;a. Simplificando, de qualquer &amp;acirc;ngulo de vis&amp;atilde;o, tudo fica mais n&amp;iacute;tido e detalhado em FULL HD .&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h3&gt;Recursos Avan&amp;ccedil;ados para Jogos&lt;/h3&gt;
+&lt;p&gt;Ative o &lt;strong&gt;Dynamic Action Sync&lt;/strong&gt; para que o monitor acompanhe a velocidade das suas habilidades e veja os inimigos nos lugares mais escuros com o &lt;strong&gt;Black Stabilizer.&amp;nbsp;&lt;/strong&gt;Defina as condi&amp;ccedil;&amp;otilde;es ideais de jogo no Modo de Jogo. H&amp;aacute; &lt;strong&gt;3 modos&lt;/strong&gt; &lt;strong&gt;para jogadores&lt;/strong&gt;: &lt;strong&gt;2 modos de tiro&lt;/strong&gt; &lt;strong&gt;em primeira pessoa&lt;/strong&gt; e at&amp;eacute; mesmo um &lt;strong&gt;modo predefinido&lt;/strong&gt; &lt;strong&gt;de estrat&amp;eacute;gia em tempo real&lt;/strong&gt;.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h3&gt;On-Screen Control&lt;/h3&gt;
+&lt;p&gt;O Controle On-Screen coloca uma s&amp;eacute;rie de &lt;strong&gt;configura&amp;ccedil;&amp;otilde;es essenciais em uma pr&amp;aacute;tica janela para acesso f&amp;aacute;cil&lt;/strong&gt;. As &lt;strong&gt;configura&amp;ccedil;&amp;otilde;es de volume, brilho, predefini&amp;ccedil;&amp;otilde;es de modo de imagem&lt;/strong&gt;, &lt;strong&gt;Screen Split 2.0 e Dual Controller&lt;/strong&gt;, al&amp;eacute;m de muitas outras, podem agora ser ajustadas com apenas alguns cliques do mouse, em vez dos bot&amp;otilde;es f&amp;iacute;sicos do monitor.&amp;nbsp;&lt;strong&gt;Personalize o layout de seu monitor&lt;/strong&gt; para multitarefas com a &amp;uacute;ltima vers&amp;atilde;o do LG Screen Split. &lt;strong&gt;Redimensione e exiba v&amp;aacute;rias janelas ao mesmo tempo&lt;/strong&gt;, com 14 op&amp;ccedil;&amp;otilde;es que incluem quatro escolhas diferentes de picture-in-picture (&lt;strong&gt;PIP&lt;/strong&gt;).&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;Compre no &lt;strong&gt;KaBuM!&lt;/strong&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Asus TUF 27' IPS, 165 Hz, Full HD, 1ms, Adaptive Sync, HDMI/DisplayPort, Ajuste de Altura, Vesa, Som Integrado - VG279QR</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Monitor de jogos Full HD (1920 x 1080) de 27 polegadas com taxa de atualiza&amp;ccedil;&amp;atilde;o ultrarr&amp;aacute;pida de 165 Hz projetado para jogadores profissionais e jogabilidade envolvente. A tecnologia ASUS Extreme Low Motion Blur (ELMB ?) permite um tempo de resposta de 1 ms (MPRT), eliminando fantasmas para visuais n&amp;iacute;tidos de jogos. O Shadow Boost aprimora os detalhes da imagem em &amp;aacute;reas escuras, iluminando cenas sem expor demais as &amp;aacute;reas claras. Processamento compat&amp;iacute;vel com G-SYNC, proporcionando uma experi&amp;ecirc;ncia de jogo perfeita e sem problemas ao habilitar VRR (taxa de atualiza&amp;ccedil;&amp;atilde;o vari&amp;aacute;vel) por padr&amp;atilde;o. Apresenta um suporte ergonomicamente projetado para oferecer extensos ajustes de rota&amp;ccedil;&amp;atilde;o, inclina&amp;ccedil;&amp;atilde;o, rota&amp;ccedil;&amp;atilde;o e altura.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Concórdia C240 23.8, LED, HDMI, Full HD, Curvo, 75Hz, 2ms, Vermelho - 40511</t>
+  </si>
+  <si>
+    <t>Monitor Concórdia Gamer Curvo C240 23.8" Led Full HD HDMI VGA A tecnologia do novo C240 garante uma imersão total em seus jogos. Prepare-se para uma nova experiência com seus games! Agora você pode escolher ele em duas versões:todo preto ou preto com detalhe em vermelho.</t>
+  </si>
+  <si>
+    <t>Monitor Gamer LG Ultra Gear 23.8' IPS, 144 Hz, Full HD, 1ms, FreeSync, HDR 10, 99% sRGB, HDMI/DisplayPort, Ajuste de Ângulo - 24GN600-B</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Monitor Gamer LG Ultra Gear 23.8 Full HD, 144Hz, 1ms, IPS, DMI, DisplayPort, 99% sRGB, Ajuste de &amp;Acirc;ngulo, FreeSync, HDR10, Preto&lt;/h2&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Inova&amp;ccedil;&amp;atilde;o sem fronteiras para jogos&lt;/h2&gt;
+&lt;p&gt;Complete seu setup Gamer com o monitor LG UltraGear premium. Desenvolvido para o Gamer, com os recursos mais avan&amp;ccedil;ados, aliados a ergonomia e &lt;strong&gt;design eletrizante&lt;/strong&gt;, entregando a experi&amp;ecirc;ncia imersiva! Seja o melhor com os melhores recursos feitos para apoiar sua vit&amp;oacute;ria, tempo de resposta de &lt;strong&gt;1ms Real&lt;/strong&gt; (GtG), em um painel com cores vislumbrantes IPS.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Jogabilidade fluida com frames instantaneos&lt;/h2&gt;
+&lt;p&gt;Os frames ultra-r&amp;aacute;pidos de 144Hz permite os jogadores a reagirem imediatamente aos seus advers&amp;aacute;rios e mudar a hist&amp;oacute;ria do jogo para a sua vit&amp;oacute;ria.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Aproveite os v&amp;iacute;deos e jogos HDR mais modernos&lt;/h2&gt;
+&lt;p&gt;O HDR10 melhora a qualidade da imagem com imers&amp;atilde;o visual mais din&amp;acirc;mica e cores aprimoradas do conte&amp;uacute;do HDR. &lt;strong&gt;HDR10&lt;/strong&gt; &amp;eacute; o padr&amp;atilde;o HDR digital baseado na gama de cores&lt;strong&gt; sRGB 99%&lt;/strong&gt;. Uma diferen&amp;ccedil;a real de cor e brilho.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Mais clara, suave e r&amp;aacute;pida&lt;/h2&gt;
+&lt;p&gt;Com a tecnologia &lt;strong&gt;FreeSync&lt;/strong&gt; os jogos t&amp;ecirc;m movimentos perfeitos e fluidos, balanceada com o processamento da placa de v&amp;iacute;deo, acabando com as imagens emba&amp;ccedil;adas e frames engasgados.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Design elegante&lt;/h2&gt;
+&lt;p&gt;Uma experi&amp;ecirc;ncia incr&amp;iacute;vel com imers&amp;atilde;o total. Design exuberante com&lt;strong&gt; bordas infinitas&lt;/strong&gt; (3-Side Bordeless) permitem uma imagem perfeita com incr&amp;iacute;vel imers&amp;atilde;o&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h3&gt;Aproveite essa oportunidade e adquira seu Monitor Gamer LG Ultra Gear no KaBuM!&lt;/h3&gt;</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Acer 27 ZeroFrame Full HD, 165Hz, 0.5ms, IPS, HDMI e DisplayPort, FreeSync Premium, VESA, Preto - VG272 S</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Monitor Gamer Acer 27 Full HD, 165Hz, 0.5ms, IPS, HDMI/DisplayPort, FreeSync Premium, VESA, Preto&lt;/h2&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;Com tela de 27" FHD E2E (IPS) com resolu&amp;ccedil;&amp;atilde;o Full HD e uma taxa de atualiza&amp;ccedil;&amp;atilde;o no modo normal: 144Hz e modo de overclock 165Hz, com alta taxa de atualiza&amp;ccedil;&amp;atilde;o com 165Hz. Brilho 400 cd/m2 e um tempo de respostas baix&amp;iacute;ssimo de 2ms, ainda para aproveitar voc&amp;ecirc; poder&amp;aacute; desfrutar de uma conectividade HDMI (2.0), DisplayPort.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Bluecase 27 LED, 75 Hz, 2K QHD, 99%sRGB, HDMI/DisplayPort - BM2713GWCASE</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Explore um n&amp;iacute;vel superior de qualidade gr&amp;aacute;fica do seu gameplay com o monitor gamer Bluecase BM2713GW Esse monitor possui um painel TN ultrarr&amp;aacute;pido com frequ&amp;ecirc;ncia m&amp;aacute;xima de at&amp;eacute; 75 Hz e baix&amp;iacute;ssimo tempo de resposta de 5(cinco) milissegundos. Ideal para seus jogos AAA, o monitor conta com alta defini&amp;ccedil;&amp;atilde;o em resolu&amp;ccedil;&amp;atilde;o Quad HD (2560x1440) que proporciona uma imagem rica em detalhes. O monitor Bluecase BM2713GW &amp;eacute; compat&amp;iacute;vel com suportes VESA e tamb&amp;eacute;m conta com conex&amp;otilde;es DisplayPort e HDMI.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Acer Nitro 23.6 LED, Curvo, 165 Hz, Full HD, 1ms, FreeSync Premium, HDMI/DisplayPort - EI242QR</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Monitor Gamer Acer Nitro 23.6 LED, Curvo, 165 Hz, Full HD, 1ms, FreeSync Premium, HDMI/DisplayPort&lt;/h2&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Tecnologia da Tela&lt;/h2&gt;
+&lt;p&gt;A Tela do Acer Nitro EI242QR possui campo de vis&amp;atilde;o de 23.6 Polegadas com um &lt;strong&gt;Resolu&amp;ccedil;&amp;atilde;o de 1920 x 1080 Full HD&lt;/strong&gt;, Painel VA de propor&amp;ccedil;&amp;atilde;o 16:9 com design &lt;strong&gt;curvo 1200R&lt;/strong&gt;, Taxa de atualiza&amp;ccedil;&amp;atilde;o de &lt;strong&gt;165Hz&lt;/strong&gt; (Utilizando Displayport), e Tempo de Resposta &lt;strong&gt;1ms&lt;/strong&gt; VRB (Visual Response Boost) para desempenhos profissionais nos seus gameplays.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;ZeroFrame&lt;/h2&gt;
+&lt;p&gt;Oferece um novo &lt;strong&gt;design de quadro zero&lt;/strong&gt;, remove virtualmente a caixa delimitadora da tela e oferece todas as imagens, prazer visual cont&amp;iacute;nuo.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Desing de tela curvo 1200 R&lt;/h2&gt;
+&lt;p&gt;Proporciona uma experi&amp;ecirc;ncia de visualiza&amp;ccedil;&amp;atilde;o uniforme e &lt;strong&gt;reduz o cansa&amp;ccedil;o visual&lt;/strong&gt; durante longos per&amp;iacute;odos de utiliza&amp;ccedil;&amp;atilde;o. Ele tamb&amp;eacute;m apresenta uma experi&amp;ecirc;ncia mais envolvente com um campo de vis&amp;atilde;o mais amplo e &amp;aacute;rea de vis&amp;atilde;o perif&amp;eacute;rica aumentada em compara&amp;ccedil;&amp;atilde;o com uma tela plana do mesmo&lt;/p&gt;
+&lt;p&gt;tamanho.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Tempo de resposta de 1ms&lt;/h2&gt;
+&lt;p&gt;O t&lt;strong&gt;empo de resposta r&amp;aacute;pido de 1 ms&lt;/strong&gt; melhora experi&amp;ecirc;ncia do jogador. N&amp;atilde;o importa a a&amp;ccedil;&amp;atilde;o em movimento r&amp;aacute;pido ou quaisquer transi&amp;ccedil;&amp;otilde;es dram&amp;aacute;ticas, tudo ser&amp;aacute; reproduzido suavemente, sem os efeitos irritantes de manchas ou fantasmas.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Taxa de atualiza&amp;ccedil;&amp;atilde;o de 165Hz&lt;/h2&gt;
+&lt;p&gt;Acelera os quadros por segundo para fornecer cenas de movimento ultra suaves. Com uma taxa de &lt;strong&gt;atualiza&amp;ccedil;&amp;atilde;o r&amp;aacute;pida de 165 Hz&lt;/strong&gt;, os monitores de jogos da Acer encurtam o tempo necess&amp;aacute;rio para a renderiza&amp;ccedil;&amp;atilde;o de quadros, diminuem o atraso de entrada e fornecem aos jogadores uma excelente experi&amp;ecirc;ncia no jogo.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h3&gt;Aproveite essa oportunidade e adquira seu Monitor Gamer Acer Nitro 23.6 no KaBuM!&lt;/h3&gt;</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Acer Nitro 23.8 LED Full HD, 165Hz, 1ms, HDMI/DisplayPort, FreeSync Premium, Preto - QG241Y</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Monitor Gamer Acer Nitro 23.8 LED Full HD, 165Hz, 1ms, HDMI/DisplayPort, FreeSync Premium, Preto&lt;/h2&gt;
+&lt;p&gt;Com uma tela de&lt;strong&gt; 23,8&amp;rdquo; FHD&lt;/strong&gt;, o &lt;strong&gt;Nitro QG241Y&lt;/strong&gt; entrega imagens mais n&amp;iacute;tidas, levando sua experi&amp;ecirc;ncia visual e seu foco no jogo para um novo n&amp;iacute;vel.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;AMD FreeSync Premium&lt;/h2&gt;
+&lt;p&gt;Com o AMD FreeSync Premium, a taxa de quadros do jogo &amp;eacute; determinada pela sua placa de v&amp;iacute;deo, n&amp;atilde;o pela taxa de atualiza&amp;ccedil;&amp;atilde;o fixa do&amp;nbsp; monitor. Isso significa que os quadros do monitor s&amp;atilde;o sincronizados com os quadros da placa&amp;nbsp; gr&amp;aacute;fica, o que &lt;strong&gt;elimina a tela quebrada&lt;/strong&gt; e oferece &lt;strong&gt;experi&amp;ecirc;ncias de jogo muito suaves&lt;/strong&gt;.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Resolu&amp;ccedil;&amp;atilde;o FHD&lt;/h2&gt;
+&lt;p&gt;Traga os usu&amp;aacute;rios para um mundo colorido perfeito com &lt;strong&gt;FHD 1920 x 1080&lt;/strong&gt; e oferece a melhor qualidade original natural e n&amp;iacute;tida&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;1ms Visual Response Boost&lt;/h2&gt;
+&lt;p&gt;O &lt;strong&gt;Visual Response Boost (VRB)&lt;/strong&gt; de 1ms funciona desligando rapidamente a luz de fundo ou inserindo uma imagem em branco e preta entre os quadros, tamb&amp;eacute;m conhecida como &amp;ldquo;piscando&amp;rdquo;. Isso resulta em um &lt;strong&gt;desfoque menos percept&amp;iacute;vel&lt;/strong&gt; em imagens em movimento r&amp;aacute;pido porque os cristais l&amp;iacute;quidos n&amp;atilde;o precisam dobrar nos quadros &amp;agrave; medida que sobem e descem.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Reduz a fadiga&lt;/h2&gt;
+&lt;p&gt;Fique na luta por horas com a tecnologia &lt;strong&gt;Flicker-less, Blue-light Filter.&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h3&gt;Aproveite essa oportunidade e adquira seu Monitor Gamer Acer no KaBuM!&lt;/h3&gt;</t>
+  </si>
+  <si>
+    <t>Monitor Gamer 27" 144Hz, 1Ms, Bluecase, Full HD, Freesync, Borda Ultra Fina - BM2710GW</t>
+  </si>
+  <si>
+    <t>O Monitor Gamer BM2710GW entrega aos gamers uma experiência lisa, rápida e responsiva em todos os jogos. Experimente uma jogabilidade impecável com a taxa de atualização de tela 144 Hz que garante imagens rápidas, suaves e movimentos nítidos, para nenhum detalhe passar despercebido.</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Gigabyte 23.8 IPS, Full HD, 170Hz, 1ms, 120% sRGB, HDR, FreeSync Premium, Altura Ajustável - G24F-SA</t>
+  </si>
+  <si>
+    <t>JUNTE-SE À LUTA com o Monitor Gamer G24F da Gigabyte com 1ms de tempo de resposta, freesync premium, 165 Hz (170 Hz OC) e com uma taxa de cor de 8 bits, 90% DCI-P3 A ÚLTIMA MILHA PARA O SEU SISTEMA DE JOGO Como um jogador invisível, o monitor é frequentemente subestimado. A verdade é que os monitores se formam como um efeito sinérgico e trazem o melhor desempenho dos componentes do PC. Os monitores de jogos GIGABYTE oferecem as últimas especificações e qualidade, os usuários podem realmente desfrutar de um desempenho de alto nível sem a necessidade de extravagância. Tempo de resposta de 1 ms MPRT Tempo de resposta super rápido de 1 ms para a experiência de jogo mais suave de todos os tempos! FHD com 165 Hz (OC 170 Hz) Alta resolução e taxa de atualização rápida, proporcionando qualidade de exibição detalhada e experiência de jogo fluida! Cor de 8 bits, 90% DCI-P3 Fantástico visor a cores e 90% de cores DCI-P3 de gama super ampla. SIMPLES MAS ESTILOSO A aparência aerodinâmica representa a simplicidade da filosofia de design da série de jogos GIGABYTE, suporte robusto e acabamento fosco construído para características funcionais e estéticas adicionando mais características. OSD Sidekick GIGABYTE OSD Sidekick permite que você defina as opções de exibição com teclado e mouse, oferecendo a maneira mais fácil de ajustar as configurações do monitor. ÂNGULO DE VISÃO PERFEITO O monitor de jogos GIGABYTE possui um suporte exclusivo ergonomicamente projetado para oferecer uma ampla gama de ajustes de altura e inclinação.</t>
   </si>
   <si>
     <t>Monitor Gamer Ozone 24,5 LED, 144 Hz, Full HD, 1ms, FreeSync, HDMI/DisplayPort - OZDSP25FHD</t>
@@ -1644,6 +1665,12 @@
   </si>
   <si>
     <t>Monitor Gamer Full HD 165Hz de atualização para melhores gráficos. Curvatura R3000 para maior imersão. Com 1 conector DisplayPort e 1 conector HDMI. Monitor na cor branca para combinar com o estilo do seu setup.</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Acer Aopen 25MH1Q, 24,5´, 144Hz, 1ms, Full HD, HDMI/ Display Port, AMD Radeon Freesync, Anti Reflexo, Preto - UM.KM1AA.P02</t>
+  </si>
+  <si>
+    <t>Embarque em uma nova realidade de visualização! O Monitor AOPEN 25MH1Q é ideal para jogos de tiros e aventuras, proporcionando imagens mais realistas e limpas. Sinta-se dentro do jogo!</t>
   </si>
 </sst>
 </file>
@@ -1990,7 +2017,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F146"/>
+  <dimension ref="A1:F151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2064,7 +2091,10 @@
         <v>11</v>
       </c>
       <c r="C4">
-        <v>1599</v>
+        <v>1947</v>
+      </c>
+      <c r="D4">
+        <v>1757</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2075,10 +2105,16 @@
         <v>13</v>
       </c>
       <c r="C5">
-        <v>1947</v>
+        <v>1055</v>
       </c>
       <c r="D5">
-        <v>1757</v>
+        <v>788</v>
+      </c>
+      <c r="E5">
+        <v>922</v>
+      </c>
+      <c r="F5">
+        <v>829</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2089,10 +2125,10 @@
         <v>15</v>
       </c>
       <c r="C6">
-        <v>1055</v>
+        <v>1736</v>
       </c>
       <c r="D6">
-        <v>902</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2103,10 +2139,16 @@
         <v>17</v>
       </c>
       <c r="C7">
-        <v>1631</v>
+        <v>1684</v>
       </c>
       <c r="D7">
-        <v>1472</v>
+        <v>1139</v>
+      </c>
+      <c r="E7">
+        <v>1263</v>
+      </c>
+      <c r="F7">
+        <v>1199</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2117,13 +2159,10 @@
         <v>19</v>
       </c>
       <c r="C8">
-        <v>1684</v>
-      </c>
-      <c r="E8">
-        <v>1368</v>
-      </c>
-      <c r="F8">
-        <v>1299</v>
+        <v>1221</v>
+      </c>
+      <c r="D8">
+        <v>1101</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2137,7 +2176,13 @@
         <v>1221</v>
       </c>
       <c r="D9">
-        <v>1101</v>
+        <v>1073</v>
+      </c>
+      <c r="E9">
+        <v>1189</v>
+      </c>
+      <c r="F9">
+        <v>1129</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2162,16 +2207,16 @@
         <v>25</v>
       </c>
       <c r="C11">
-        <v>1221</v>
+        <v>1789</v>
       </c>
       <c r="D11">
-        <v>1073</v>
+        <v>1519</v>
       </c>
       <c r="E11">
-        <v>1189</v>
+        <v>1684</v>
       </c>
       <c r="F11">
-        <v>1129</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -2182,10 +2227,16 @@
         <v>27</v>
       </c>
       <c r="C12">
-        <v>1789</v>
+        <v>1177</v>
       </c>
       <c r="D12">
-        <v>1614</v>
+        <v>930</v>
+      </c>
+      <c r="E12">
+        <v>1088</v>
+      </c>
+      <c r="F12">
+        <v>979</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -2196,16 +2247,10 @@
         <v>29</v>
       </c>
       <c r="C13">
-        <v>1177</v>
+        <v>1210</v>
       </c>
       <c r="D13">
-        <v>930</v>
-      </c>
-      <c r="E13">
-        <v>1088</v>
-      </c>
-      <c r="F13">
-        <v>979</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -2216,10 +2261,13 @@
         <v>31</v>
       </c>
       <c r="C14">
-        <v>1111</v>
-      </c>
-      <c r="D14">
-        <v>949</v>
+        <v>1052</v>
+      </c>
+      <c r="E14">
+        <v>894</v>
+      </c>
+      <c r="F14">
+        <v>849</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -2230,10 +2278,7 @@
         <v>33</v>
       </c>
       <c r="C15">
-        <v>1210</v>
-      </c>
-      <c r="D15">
-        <v>1092</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -2244,7 +2289,16 @@
         <v>35</v>
       </c>
       <c r="C16">
-        <v>1198</v>
+        <v>1684</v>
+      </c>
+      <c r="D16">
+        <v>1329</v>
+      </c>
+      <c r="E16">
+        <v>1473</v>
+      </c>
+      <c r="F16">
+        <v>1399</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -2255,10 +2309,13 @@
         <v>37</v>
       </c>
       <c r="C17">
-        <v>1684</v>
-      </c>
-      <c r="D17">
-        <v>1519</v>
+        <v>1199</v>
+      </c>
+      <c r="E17">
+        <v>1098</v>
+      </c>
+      <c r="F17">
+        <v>989</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -2269,13 +2326,16 @@
         <v>39</v>
       </c>
       <c r="C18">
-        <v>1199</v>
+        <v>1578</v>
+      </c>
+      <c r="D18">
+        <v>1329</v>
       </c>
       <c r="E18">
-        <v>1098</v>
+        <v>1473</v>
       </c>
       <c r="F18">
-        <v>989</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -2286,16 +2346,7 @@
         <v>41</v>
       </c>
       <c r="C19">
-        <v>1368</v>
-      </c>
-      <c r="D19">
-        <v>1158</v>
-      </c>
-      <c r="E19">
-        <v>1284</v>
-      </c>
-      <c r="F19">
-        <v>1219</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -2306,7 +2357,16 @@
         <v>43</v>
       </c>
       <c r="C20">
-        <v>1776</v>
+        <v>1263</v>
+      </c>
+      <c r="D20">
+        <v>854</v>
+      </c>
+      <c r="E20">
+        <v>947</v>
+      </c>
+      <c r="F20">
+        <v>899</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -2317,16 +2377,10 @@
         <v>45</v>
       </c>
       <c r="C21">
-        <v>1263</v>
+        <v>1974</v>
       </c>
       <c r="D21">
-        <v>892</v>
-      </c>
-      <c r="E21">
-        <v>989</v>
-      </c>
-      <c r="F21">
-        <v>939</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -2337,10 +2391,7 @@
         <v>47</v>
       </c>
       <c r="C22">
-        <v>1974</v>
-      </c>
-      <c r="D22">
-        <v>1782</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -2351,7 +2402,7 @@
         <v>49</v>
       </c>
       <c r="C23">
-        <v>1840</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -2362,7 +2413,10 @@
         <v>51</v>
       </c>
       <c r="C24">
-        <v>1251</v>
+        <v>1968</v>
+      </c>
+      <c r="D24">
+        <v>1813</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -2454,10 +2508,10 @@
         <v>65</v>
       </c>
       <c r="C31">
-        <v>1066</v>
+        <v>1368</v>
       </c>
       <c r="D31">
-        <v>912</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -2468,7 +2522,16 @@
         <v>67</v>
       </c>
       <c r="C32">
-        <v>1044</v>
+        <v>1066</v>
+      </c>
+      <c r="D32">
+        <v>760</v>
+      </c>
+      <c r="E32">
+        <v>888</v>
+      </c>
+      <c r="F32">
+        <v>799</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -2479,10 +2542,7 @@
         <v>69</v>
       </c>
       <c r="C33">
-        <v>1349</v>
-      </c>
-      <c r="D33">
-        <v>1243</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -2493,10 +2553,10 @@
         <v>71</v>
       </c>
       <c r="C34">
-        <v>1193</v>
+        <v>1349</v>
       </c>
       <c r="D34">
-        <v>1099</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -2507,10 +2567,10 @@
         <v>73</v>
       </c>
       <c r="C35">
-        <v>1424</v>
+        <v>1193</v>
       </c>
       <c r="D35">
-        <v>1312</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -2521,7 +2581,10 @@
         <v>75</v>
       </c>
       <c r="C36">
-        <v>1233</v>
+        <v>1424</v>
+      </c>
+      <c r="D36">
+        <v>1312</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -2552,10 +2615,7 @@
         <v>79</v>
       </c>
       <c r="C38">
-        <v>1894</v>
-      </c>
-      <c r="D38">
-        <v>1709</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -2566,7 +2626,10 @@
         <v>81</v>
       </c>
       <c r="C39">
-        <v>1359</v>
+        <v>1894</v>
+      </c>
+      <c r="D39">
+        <v>1709</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -2577,7 +2640,7 @@
         <v>83</v>
       </c>
       <c r="C40">
-        <v>1299</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -2588,7 +2651,13 @@
         <v>85</v>
       </c>
       <c r="C41">
-        <v>1899</v>
+        <v>1079</v>
+      </c>
+      <c r="E41">
+        <v>1054</v>
+      </c>
+      <c r="F41">
+        <v>949</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -2599,10 +2668,7 @@
         <v>87</v>
       </c>
       <c r="C42">
-        <v>1055</v>
-      </c>
-      <c r="D42">
-        <v>769</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2613,10 +2679,7 @@
         <v>89</v>
       </c>
       <c r="C43">
-        <v>1771</v>
-      </c>
-      <c r="D43">
-        <v>1598</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2627,13 +2690,16 @@
         <v>91</v>
       </c>
       <c r="C44">
-        <v>1122</v>
+        <v>1055</v>
+      </c>
+      <c r="D44">
+        <v>769</v>
       </c>
       <c r="E44">
-        <v>1054</v>
+        <v>899</v>
       </c>
       <c r="F44">
-        <v>949</v>
+        <v>809</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2644,7 +2710,10 @@
         <v>93</v>
       </c>
       <c r="C45">
-        <v>1548</v>
+        <v>1771</v>
+      </c>
+      <c r="D45">
+        <v>1598</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2655,38 +2724,35 @@
         <v>95</v>
       </c>
       <c r="C46">
-        <v>1052</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" t="s">
-        <v>66</v>
+        <v>96</v>
       </c>
       <c r="B47" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C47">
-        <v>1155</v>
-      </c>
-      <c r="D47">
-        <v>1065</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" t="s">
-        <v>97</v>
+        <v>68</v>
       </c>
       <c r="B48" t="s">
         <v>98</v>
       </c>
       <c r="C48">
-        <v>1111</v>
+        <v>1155</v>
       </c>
       <c r="D48">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" t="s">
         <v>99</v>
       </c>
@@ -2694,13 +2760,16 @@
         <v>100</v>
       </c>
       <c r="C49">
-        <v>1252</v>
-      </c>
-      <c r="D49">
-        <v>1130</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>1111</v>
+      </c>
+      <c r="E49">
+        <v>888</v>
+      </c>
+      <c r="F49">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" t="s">
         <v>101</v>
       </c>
@@ -2708,10 +2777,13 @@
         <v>102</v>
       </c>
       <c r="C50">
-        <v>1666</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>1031</v>
+      </c>
+      <c r="D50">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" t="s">
         <v>103</v>
       </c>
@@ -2719,10 +2791,10 @@
         <v>104</v>
       </c>
       <c r="C51">
-        <v>1210</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>1666</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" t="s">
         <v>105</v>
       </c>
@@ -2730,13 +2802,10 @@
         <v>106</v>
       </c>
       <c r="C52">
-        <v>1594</v>
-      </c>
-      <c r="D52">
-        <v>1439</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" t="s">
         <v>107</v>
       </c>
@@ -2744,10 +2813,13 @@
         <v>108</v>
       </c>
       <c r="C53">
-        <v>1433</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>1594</v>
+      </c>
+      <c r="D53">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" t="s">
         <v>109</v>
       </c>
@@ -2755,13 +2827,10 @@
         <v>110</v>
       </c>
       <c r="C54">
-        <v>1305</v>
-      </c>
-      <c r="D54">
-        <v>1177</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>1433</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" t="s">
         <v>111</v>
       </c>
@@ -2769,10 +2838,13 @@
         <v>112</v>
       </c>
       <c r="C55">
-        <v>1075</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>1305</v>
+      </c>
+      <c r="D55">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" t="s">
         <v>113</v>
       </c>
@@ -2783,7 +2855,7 @@
         <v>1199</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:6">
       <c r="A57" t="s">
         <v>115</v>
       </c>
@@ -2791,13 +2863,10 @@
         <v>116</v>
       </c>
       <c r="C57">
-        <v>1669</v>
-      </c>
-      <c r="D57">
-        <v>1506</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" t="s">
         <v>117</v>
       </c>
@@ -2805,13 +2874,13 @@
         <v>118</v>
       </c>
       <c r="C58">
-        <v>1311</v>
+        <v>1669</v>
       </c>
       <c r="D58">
-        <v>1183</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" t="s">
         <v>119</v>
       </c>
@@ -2819,10 +2888,13 @@
         <v>120</v>
       </c>
       <c r="C59">
-        <v>1349</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>1311</v>
+      </c>
+      <c r="D59">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" t="s">
         <v>121</v>
       </c>
@@ -2830,13 +2902,10 @@
         <v>122</v>
       </c>
       <c r="C60">
-        <v>1987</v>
-      </c>
-      <c r="D60">
-        <v>1793</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>1349</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" t="s">
         <v>123</v>
       </c>
@@ -2844,10 +2913,10 @@
         <v>124</v>
       </c>
       <c r="C61">
-        <v>1205</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" t="s">
         <v>125</v>
       </c>
@@ -2855,29 +2924,32 @@
         <v>126</v>
       </c>
       <c r="C62">
-        <v>1129</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>1987</v>
+      </c>
+      <c r="D62">
+        <v>1793</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" t="s">
         <v>127</v>
       </c>
       <c r="B63" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C63">
-        <v>1969</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B64" t="s">
         <v>129</v>
       </c>
       <c r="C64">
-        <v>1279</v>
+        <v>1969</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -2888,7 +2960,10 @@
         <v>131</v>
       </c>
       <c r="C65">
-        <v>1599</v>
+        <v>1976</v>
+      </c>
+      <c r="D65">
+        <v>1784</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -2899,7 +2974,7 @@
         <v>133</v>
       </c>
       <c r="C66">
-        <v>1616</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -2907,21 +2982,21 @@
         <v>134</v>
       </c>
       <c r="B67" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C67">
-        <v>1199</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B68" t="s">
         <v>136</v>
       </c>
       <c r="C68">
-        <v>1149</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -2932,18 +3007,18 @@
         <v>138</v>
       </c>
       <c r="C69">
-        <v>1099</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" t="s">
-        <v>32</v>
+        <v>139</v>
       </c>
       <c r="B70" t="s">
         <v>139</v>
       </c>
       <c r="C70">
-        <v>1199</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -2954,73 +3029,73 @@
         <v>141</v>
       </c>
       <c r="C71">
-        <v>1217</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" t="s">
+        <v>28</v>
+      </c>
+      <c r="B72" t="s">
         <v>142</v>
       </c>
-      <c r="B72" t="s">
-        <v>143</v>
-      </c>
       <c r="C72">
-        <v>1799</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" t="s">
+        <v>143</v>
+      </c>
+      <c r="B73" t="s">
         <v>144</v>
       </c>
-      <c r="B73" t="s">
-        <v>145</v>
-      </c>
       <c r="C73">
-        <v>1311</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" t="s">
+        <v>145</v>
+      </c>
+      <c r="B74" t="s">
         <v>146</v>
       </c>
-      <c r="B74" t="s">
-        <v>147</v>
-      </c>
       <c r="C74">
-        <v>1649</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" t="s">
+        <v>147</v>
+      </c>
+      <c r="B75" t="s">
         <v>148</v>
       </c>
-      <c r="B75" t="s">
-        <v>149</v>
-      </c>
       <c r="C75">
-        <v>1049</v>
+        <v>1263</v>
+      </c>
+      <c r="D75">
+        <v>1139</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" t="s">
+        <v>149</v>
+      </c>
+      <c r="B76" t="s">
         <v>150</v>
       </c>
-      <c r="B76" t="s">
-        <v>151</v>
-      </c>
       <c r="C76">
-        <v>1971</v>
-      </c>
-      <c r="D76">
-        <v>1779</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" t="s">
+        <v>151</v>
+      </c>
+      <c r="B77" t="s">
         <v>152</v>
-      </c>
-      <c r="B77" t="s">
-        <v>153</v>
       </c>
       <c r="C77">
         <v>1578</v>
@@ -3028,35 +3103,38 @@
     </row>
     <row r="78" spans="1:4">
       <c r="A78" t="s">
+        <v>153</v>
+      </c>
+      <c r="B78" t="s">
         <v>154</v>
       </c>
-      <c r="B78" t="s">
-        <v>155</v>
-      </c>
       <c r="C78">
-        <v>1083</v>
+        <v>1971</v>
+      </c>
+      <c r="D78">
+        <v>1779</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" t="s">
+        <v>155</v>
+      </c>
+      <c r="B79" t="s">
         <v>156</v>
       </c>
-      <c r="B79" t="s">
-        <v>157</v>
-      </c>
       <c r="C79">
-        <v>1275</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B80" t="s">
         <v>158</v>
       </c>
       <c r="C80">
-        <v>1524</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -3067,10 +3145,7 @@
         <v>160</v>
       </c>
       <c r="C81">
-        <v>1976</v>
-      </c>
-      <c r="D81">
-        <v>1784</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -3092,7 +3167,7 @@
         <v>164</v>
       </c>
       <c r="C83">
-        <v>1196</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -3103,7 +3178,10 @@
         <v>166</v>
       </c>
       <c r="C84">
-        <v>1899</v>
+        <v>1649</v>
+      </c>
+      <c r="D84">
+        <v>1488</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -3114,7 +3192,7 @@
         <v>168</v>
       </c>
       <c r="C85">
-        <v>1279</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -3125,10 +3203,7 @@
         <v>170</v>
       </c>
       <c r="C86">
-        <v>1465</v>
-      </c>
-      <c r="D86">
-        <v>1322</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -3139,7 +3214,7 @@
         <v>172</v>
       </c>
       <c r="C87">
-        <v>1129</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -3150,7 +3225,7 @@
         <v>174</v>
       </c>
       <c r="C88">
-        <v>1150</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -3161,7 +3236,7 @@
         <v>176</v>
       </c>
       <c r="C89">
-        <v>1419</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -3172,7 +3247,10 @@
         <v>178</v>
       </c>
       <c r="C90">
-        <v>1190</v>
+        <v>1465</v>
+      </c>
+      <c r="D90">
+        <v>1322</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -3183,7 +3261,7 @@
         <v>180</v>
       </c>
       <c r="C91">
-        <v>1139</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -3194,7 +3272,7 @@
         <v>182</v>
       </c>
       <c r="C92">
-        <v>1514</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -3205,7 +3283,7 @@
         <v>184</v>
       </c>
       <c r="C93">
-        <v>1786</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -3216,7 +3294,7 @@
         <v>186</v>
       </c>
       <c r="C94">
-        <v>1473</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -3227,7 +3305,7 @@
         <v>188</v>
       </c>
       <c r="C95">
-        <v>1611</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -3238,7 +3316,7 @@
         <v>190</v>
       </c>
       <c r="C96">
-        <v>1275</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -3249,7 +3327,7 @@
         <v>192</v>
       </c>
       <c r="C97">
-        <v>1289</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -3260,7 +3338,7 @@
         <v>194</v>
       </c>
       <c r="C98">
-        <v>1011</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -3271,7 +3349,7 @@
         <v>196</v>
       </c>
       <c r="C99">
-        <v>1049</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -3282,40 +3360,40 @@
         <v>198</v>
       </c>
       <c r="C100">
-        <v>1499</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B101" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C101">
-        <v>1989</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B102" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C102">
-        <v>1699</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B103" t="s">
         <v>202</v>
       </c>
       <c r="C103">
-        <v>1719</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -3326,10 +3404,7 @@
         <v>204</v>
       </c>
       <c r="C104">
-        <v>1088</v>
-      </c>
-      <c r="D104">
-        <v>931</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -3340,10 +3415,7 @@
         <v>206</v>
       </c>
       <c r="C105">
-        <v>1242</v>
-      </c>
-      <c r="D105">
-        <v>1120</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -3354,10 +3426,7 @@
         <v>208</v>
       </c>
       <c r="C106">
-        <v>1109</v>
-      </c>
-      <c r="D106">
-        <v>949</v>
+        <v>1989</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -3365,80 +3434,71 @@
         <v>209</v>
       </c>
       <c r="B107" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C107">
-        <v>1473</v>
-      </c>
-      <c r="D107">
-        <v>1329</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B108" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C108">
-        <v>1446</v>
-      </c>
-      <c r="D108">
-        <v>1305</v>
+        <v>1719</v>
       </c>
     </row>
     <row r="109" spans="1:4">
       <c r="A109" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B109" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C109">
-        <v>1368</v>
-      </c>
-      <c r="D109">
-        <v>1234</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="110" spans="1:4">
       <c r="A110" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B110" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C110">
-        <v>1953</v>
+        <v>1088</v>
       </c>
       <c r="D110">
-        <v>1763</v>
+        <v>931</v>
       </c>
     </row>
     <row r="111" spans="1:4">
       <c r="A111" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B111" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C111">
-        <v>1777</v>
+        <v>1242</v>
       </c>
       <c r="D111">
-        <v>1519</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="112" spans="1:4">
       <c r="A112" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B112" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C112">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="D112">
         <v>949</v>
@@ -3446,69 +3506,69 @@
     </row>
     <row r="113" spans="1:4">
       <c r="A113" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B113" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C113">
-        <v>1831</v>
+        <v>1473</v>
       </c>
       <c r="D113">
-        <v>1687</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="114" spans="1:4">
       <c r="A114" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B114" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C114">
-        <v>1795</v>
+        <v>1446</v>
       </c>
       <c r="D114">
-        <v>1500</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="115" spans="1:4">
       <c r="A115" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B115" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C115">
-        <v>1635</v>
+        <v>1953</v>
       </c>
       <c r="D115">
-        <v>1398</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="116" spans="1:4">
       <c r="A116" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B116" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C116">
-        <v>1444</v>
+        <v>1777</v>
       </c>
       <c r="D116">
-        <v>1234</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="117" spans="1:4">
       <c r="A117" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B117" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C117">
-        <v>1136</v>
+        <v>1111</v>
       </c>
       <c r="D117">
         <v>949</v>
@@ -3516,346 +3576,343 @@
     </row>
     <row r="118" spans="1:4">
       <c r="A118" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B118" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C118">
-        <v>1733</v>
+        <v>1831</v>
       </c>
       <c r="D118">
-        <v>1481</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="119" spans="1:4">
       <c r="A119" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B119" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C119">
-        <v>1372</v>
+        <v>1795</v>
       </c>
       <c r="D119">
-        <v>1173</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="120" spans="1:4">
       <c r="A120" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B120" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C120">
-        <v>1590</v>
+        <v>1635</v>
       </c>
       <c r="D120">
-        <v>1330</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="121" spans="1:4">
       <c r="A121" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B121" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C121">
-        <v>1263</v>
+        <v>1444</v>
       </c>
       <c r="D121">
-        <v>1139</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="122" spans="1:4">
       <c r="A122" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B122" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C122">
-        <v>1666</v>
+        <v>1136</v>
       </c>
       <c r="D122">
-        <v>1425</v>
+        <v>949</v>
       </c>
     </row>
     <row r="123" spans="1:4">
       <c r="A123" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B123" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C123">
-        <v>1555</v>
+        <v>1733</v>
       </c>
       <c r="D123">
-        <v>1329</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="124" spans="1:4">
       <c r="A124" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B124" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C124">
-        <v>1611</v>
+        <v>1372</v>
       </c>
       <c r="D124">
-        <v>1377</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="125" spans="1:4">
       <c r="A125" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B125" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C125">
-        <v>1402</v>
+        <v>1590</v>
       </c>
       <c r="D125">
-        <v>1198</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="126" spans="1:4">
       <c r="A126" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B126" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C126">
-        <v>1444</v>
+        <v>1666</v>
       </c>
       <c r="D126">
-        <v>1234</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="127" spans="1:4">
       <c r="A127" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B127" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C127">
-        <v>1649</v>
+        <v>1555</v>
       </c>
       <c r="D127">
-        <v>1488</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="128" spans="1:4">
       <c r="A128" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B128" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C128">
-        <v>1222</v>
+        <v>1611</v>
       </c>
       <c r="D128">
-        <v>1044</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="129" spans="1:4">
       <c r="A129" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B129" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C129">
-        <v>1868</v>
+        <v>1402</v>
       </c>
       <c r="D129">
-        <v>1597</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="130" spans="1:4">
       <c r="A130" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B130" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C130">
-        <v>1518</v>
-      </c>
-      <c r="D130">
-        <v>1298</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="131" spans="1:4">
       <c r="A131" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B131" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C131">
-        <v>1888</v>
+        <v>1444</v>
       </c>
       <c r="D131">
-        <v>1614</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="132" spans="1:4">
       <c r="A132" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B132" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C132">
-        <v>1635</v>
+        <v>1222</v>
       </c>
       <c r="D132">
-        <v>1398</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="133" spans="1:4">
       <c r="A133" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B133" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C133">
-        <v>1333</v>
+        <v>1868</v>
       </c>
       <c r="D133">
-        <v>1139</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="134" spans="1:4">
       <c r="A134" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B134" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C134">
-        <v>1285</v>
+        <v>1518</v>
       </c>
       <c r="D134">
-        <v>1099</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="135" spans="1:4">
       <c r="A135" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B135" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C135">
-        <v>1722</v>
+        <v>1888</v>
+      </c>
+      <c r="D135">
+        <v>1614</v>
       </c>
     </row>
     <row r="136" spans="1:4">
       <c r="A136" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B136" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C136">
-        <v>1455</v>
+        <v>1635</v>
+      </c>
+      <c r="D136">
+        <v>1398</v>
       </c>
     </row>
     <row r="137" spans="1:4">
       <c r="A137" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B137" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C137">
-        <v>1672</v>
+        <v>1333</v>
       </c>
       <c r="D137">
-        <v>1429</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="138" spans="1:4">
       <c r="A138" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B138" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C138">
-        <v>1815</v>
+        <v>1285</v>
       </c>
       <c r="D138">
-        <v>1552</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="139" spans="1:4">
       <c r="A139" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B139" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C139">
-        <v>1999</v>
-      </c>
-      <c r="D139">
-        <v>1614</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="140" spans="1:4">
       <c r="A140" t="s">
+        <v>273</v>
+      </c>
+      <c r="B140" t="s">
         <v>274</v>
       </c>
-      <c r="B140" t="s">
-        <v>275</v>
-      </c>
       <c r="C140">
-        <v>1999</v>
-      </c>
-      <c r="D140">
-        <v>1709</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="141" spans="1:4">
       <c r="A141" t="s">
+        <v>275</v>
+      </c>
+      <c r="B141" t="s">
         <v>276</v>
       </c>
-      <c r="B141" t="s">
-        <v>277</v>
-      </c>
       <c r="C141">
-        <v>1660</v>
+        <v>1672</v>
       </c>
       <c r="D141">
-        <v>1419</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="142" spans="1:4">
       <c r="A142" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B142" t="s">
         <v>278</v>
       </c>
       <c r="C142">
-        <v>1754</v>
+        <v>1815</v>
       </c>
       <c r="D142">
-        <v>1499</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -3863,55 +3920,125 @@
         <v>279</v>
       </c>
       <c r="B143" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C143">
-        <v>1604</v>
+        <v>1999</v>
       </c>
       <c r="D143">
-        <v>1371</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="144" spans="1:4">
       <c r="A144" t="s">
+        <v>280</v>
+      </c>
+      <c r="B144" t="s">
         <v>281</v>
       </c>
-      <c r="B144" t="s">
-        <v>282</v>
-      </c>
       <c r="C144">
-        <v>1777</v>
+        <v>1999</v>
       </c>
       <c r="D144">
-        <v>1519</v>
+        <v>1709</v>
       </c>
     </row>
     <row r="145" spans="1:4">
       <c r="A145" t="s">
+        <v>282</v>
+      </c>
+      <c r="B145" t="s">
         <v>283</v>
       </c>
-      <c r="B145" t="s">
-        <v>284</v>
-      </c>
       <c r="C145">
-        <v>1999</v>
+        <v>1660</v>
       </c>
       <c r="D145">
-        <v>1709</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="146" spans="1:4">
       <c r="A146" t="s">
+        <v>284</v>
+      </c>
+      <c r="B146" t="s">
+        <v>284</v>
+      </c>
+      <c r="C146">
+        <v>1754</v>
+      </c>
+      <c r="D146">
+        <v>1499</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147" t="s">
         <v>285</v>
       </c>
-      <c r="B146" t="s">
+      <c r="B147" t="s">
         <v>286</v>
       </c>
-      <c r="C146">
+      <c r="C147">
+        <v>1604</v>
+      </c>
+      <c r="D147">
+        <v>1371</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148" t="s">
+        <v>287</v>
+      </c>
+      <c r="B148" t="s">
+        <v>288</v>
+      </c>
+      <c r="C148">
+        <v>1777</v>
+      </c>
+      <c r="D148">
+        <v>1519</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149" t="s">
+        <v>289</v>
+      </c>
+      <c r="B149" t="s">
+        <v>290</v>
+      </c>
+      <c r="C149">
+        <v>1999</v>
+      </c>
+      <c r="D149">
+        <v>1709</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150" t="s">
+        <v>291</v>
+      </c>
+      <c r="B150" t="s">
+        <v>292</v>
+      </c>
+      <c r="C150">
         <v>1888</v>
       </c>
-      <c r="D146">
+      <c r="D150">
         <v>1615</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4">
+      <c r="A151" t="s">
+        <v>293</v>
+      </c>
+      <c r="B151" t="s">
+        <v>294</v>
+      </c>
+      <c r="C151">
+        <v>1625</v>
+      </c>
+      <c r="D151">
+        <v>1389</v>
       </c>
     </row>
   </sheetData>

--- a/kabum_produtos.xlsx
+++ b/kabum_produtos.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="287">
   <si>
     <t>Produto</t>
   </si>
@@ -73,6 +73,12 @@
 &lt;p&gt;Sa&amp;iacute;da full HD (1920 X 1080) de 120Hz no PS5 &amp;amp; Xbox Series X/S&lt;/p&gt;</t>
   </si>
   <si>
+    <t>Monitor Concórdia Gamer Curvo 27'', Led Full, Hd, 165hz, Freesync - Cz270f</t>
+  </si>
+  <si>
+    <t>&lt;strong&gt;você na vantagem sempre!&amp;nbsp &amp;nbsp&amp;nbsp&lt;/strong&gt;o&amp;nbsp&lt;strong&gt;monitor concórdia gamer curvo cz270f 27&amp;quot led full hd 165hz freesync&lt;/strong&gt;&amp;nbspconta com resposta de 1ms e taxa de atualização de 165hz, permitindo a mais alta performance durante suas gameplays. Sua curvatura amplia o campo de visão relativo, concentrando toda a ação ao alcance dos olhos do usuário, sem perder resolução.&lt;strong&gt;monitor curvo&amp;nbsp &amp;nbsp&lt;/strong&gt;tenha mais imersão na sua gameplay com esse monitor curvo da concórdia. Observe seus adversários ainda mais de perto com essa imersão de 1500r de curvatura e um ângulo de visão de 178º.&lt;strong&gt;inclinável&amp;nbsp&lt;/strong&gt;ajuste de inclinação da tela de 5&amp;deg a 15&amp;deg. Ajuste seu monitor da maneira que quiser deixando sua visão ainda mais confortável e ampla!&lt;strong&gt;especificações:&lt;/strong&gt;&lt;strong&gt;tela:&lt;/strong&gt;painel: vaárea ativa: 596.736 &amp;times 335.664 mmângulo de visão: 178/178&amp;nbspcurvatura: r1500&amp;nbspresolução: 1920*1080165hzdot pitch: 0,3108cores do painel: 16.7m&amp;nbsp&amp;nbspbrilho(máximo): 250cd/m2tempo de resposta: 1ms&amp;nbspcontraste: 3000: 1taxa de heartz: 165hz&amp;nbsp &amp;nbsp&lt;strong&gt;conectividade:&amp;nbsp&lt;/strong&gt;hdmidisplayport 1.4dvientrada earphonedc (energia)&lt;strong&gt;alimentação:&lt;/strong&gt;tipo: adaptador externovoltagem: 12v/3.5aconsumo: 38w | stand by: 0.5w&amp;nbsp&lt;strong&gt;recursos do monitor:&lt;/strong&gt;- base de fácil desmontagem- freesync/g-sync&amp;nbsp&amp;nbsp- filtro de luz azul- flicker free- baixo consumo em modo stand by- overdriver&amp;nbsp- base fixa- sem bordas- auto falante interno: sim.- vesa: 100*100mm.&amp;nbsp&lt;strong&gt;acompanha:&lt;/strong&gt;&amp;nbspcabo displayport,&amp;nbspmanual do usuário e parafusos.&amp;nbsp&amp;nbsp&lt;strong&gt;dimensões da tela (cm)(axlxp):&lt;/strong&gt;&amp;nbsp36 | 61 | 4,5 | peso(kg): 4,734.&lt;strong&gt;dimensões da tela com base&amp;nbsp(cm)(axlxp)&lt;/strong&gt;: 43 | 61 | 17 | peso(kg): 4,734.&lt;br&gt;&lt;br&gt;&lt;strong&gt;especificações técnicas&lt;/strong&gt;&lt;br&gt;monitor concórdia gamer curvo cz270f 27´´ led full hd 165hz freesync | entregue para todo o brasil |</t>
+  </si>
+  <si>
     <t>Monitor Gamer Asus TUF 31.5 LED 2K QHD, 165Hz, 1ms, HDMI e DisplayPort,  HDR, 120% sRGB, FreeSync Premium, Som Integrado, VESA - VG32VQ1B</t>
   </si>
   <si>
@@ -134,12 +140,6 @@
 &lt;h3&gt;Aproveite essa oportunidade e adquira seu Monitor Gamer no KaBuM!&lt;/h3&gt;</t>
   </si>
   <si>
-    <t>Monitor Gamer AOC Hero 27 Full HD, Wide, 144 Hz, 1ms, IPS, HDMI e VGA, G-Sync, Ajuste de Ângulo - 27G2/BK</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;O monitor AOC Hero 27 &amp;eacute; compat&amp;iacute;vel com a tecnologia G-Sync e entrega aos gamers uma experi&amp;ecirc;ncia lisa, r&amp;aacute;pida e responsiva em todos os jogos. Experimente uma jogabilidade impec&amp;aacute;vel com a taxa de atualiza&amp;ccedil;&amp;atilde;o de tela 144 Hz que garante imagens r&amp;aacute;pidas, suaves e movimentos n&amp;iacute;tidos, para nenhum detalhe passar despercebido.&lt;/p&gt;</t>
-  </si>
-  <si>
     <t>Monitor Gamer Acer KG251Q Nitro 24.5" Full HD, 250Hz, 1ms, Displayport e HDMI, HDR10, FreeSync, Preto - UM.KX1AA.Z02</t>
   </si>
   <si>
@@ -155,6 +155,12 @@
 &lt;p&gt;&amp;Eacute; uma tecnologia de exibi&amp;ccedil;&amp;atilde;o que cria&lt;strong&gt; n&amp;iacute;veis mais profundos de contraste&lt;/strong&gt; em preto e branco, proporcionando uma imers&amp;atilde;o de n&amp;iacute;vel maior por meio da recria&amp;ccedil;&amp;atilde;o de imagem realista.&lt;/p&gt;
 &lt;p&gt;&amp;nbsp;&lt;/p&gt;
 &lt;h3&gt;Compre agora no KaBuM"&lt;/h3&gt;</t>
+  </si>
+  <si>
+    <t>Monitor Gamer AOC Hero 27 Full HD, Wide, 144 Hz, 1ms, IPS, HDMI e VGA, G-Sync, Ajuste de Ângulo - 27G2/BK</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;O monitor AOC Hero 27 &amp;eacute; compat&amp;iacute;vel com a tecnologia G-Sync e entrega aos gamers uma experi&amp;ecirc;ncia lisa, r&amp;aacute;pida e responsiva em todos os jogos. Experimente uma jogabilidade impec&amp;aacute;vel com a taxa de atualiza&amp;ccedil;&amp;atilde;o de tela 144 Hz que garante imagens r&amp;aacute;pidas, suaves e movimentos n&amp;iacute;tidos, para nenhum detalhe passar despercebido.&lt;/p&gt;</t>
   </si>
   <si>
     <t>Monitor Gamer AOC Legend 27' LED, Curvo, 240 Hz, Full HD, 0.5ms, FreeSync Premium, 120% sRGB, HDMI/DisplayPort - C27G2ZE</t>
@@ -186,6 +192,12 @@
 &lt;h3 style="text-align: justify;"&gt;Compre agora no KaBuM!&lt;/h3&gt;</t>
   </si>
   <si>
+    <t>Monitor Gamer AOC Hero 23.8 Full HD, Wide, 144 Hz, 1ms, FreeSync, HDMI e DisplayPort, IPS, Ajuste de Altura - 24G2/BK</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;O monitor Gamer AOC Hero &amp;eacute; compat&amp;iacute;vel com a tecnologia G-Sync e entrega aos gamers uma experi&amp;ecirc;ncia lisa, r&amp;aacute;pida e responsiva em todos os jogos. Experimente uma jogabilidade impec&amp;aacute;vel com a taxa de atualiza&amp;ccedil;&amp;atilde;o de tela 144 Hz que garante imagens r&amp;aacute;pidas, suaves e movimentos n&amp;iacute;tidos, para nenhum detalhe passar despercebido.&lt;/p&gt;</t>
+  </si>
+  <si>
     <t>Monitor Gamer LG UltraGear 24 Full HD, 144Hz, 1ms, IPS, HDMI e DisplayPort, 99% sRGB, HDR, FreeSync Premium, VESA - 24GN60R-B.AWZM</t>
   </si>
   <si>
@@ -196,12 +208,6 @@
 &lt;h2&gt;&lt;br /&gt;HDR10 com sRGB 99% (T&amp;iacute;p.)&lt;/h2&gt;
 &lt;p&gt;Este monitor suporta HDR10 com sRGB 99% (Tip.) permitindo uma imers&amp;atilde;o visual realista com contraste e cores de grande riqueza. Independentemente do campo de batalha, poder&amp;aacute; ajudar os jogadores a ver as cores dram&amp;aacute;ticas pretendidas pelos criadores do jogo.&lt;br /&gt;Com a tecnologia FreeSync Premium, os jogadores podem experimentar movimentos fluidos e cont&amp;iacute;nuos em jogos de alta resolu&amp;ccedil;&amp;atilde;o e em ritmo acelerado. Ele virtualmente minimiza a trepida&amp;ccedil;&amp;atilde;o e a trepida&amp;ccedil;&amp;atilde;o da tela.&lt;/p&gt;
 &lt;h3&gt;&lt;br /&gt;Monitor Gamer &amp;eacute; no KaBuM!&lt;/h3&gt;</t>
-  </si>
-  <si>
-    <t>Monitor Gamer AOC Hero 23.8 Full HD, Wide, 144 Hz, 1ms, FreeSync, HDMI e DisplayPort, IPS, Ajuste de Altura - 24G2/BK</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;O monitor Gamer AOC Hero &amp;eacute; compat&amp;iacute;vel com a tecnologia G-Sync e entrega aos gamers uma experi&amp;ecirc;ncia lisa, r&amp;aacute;pida e responsiva em todos os jogos. Experimente uma jogabilidade impec&amp;aacute;vel com a taxa de atualiza&amp;ccedil;&amp;atilde;o de tela 144 Hz que garante imagens r&amp;aacute;pidas, suaves e movimentos n&amp;iacute;tidos, para nenhum detalhe passar despercebido.&lt;/p&gt;</t>
   </si>
   <si>
     <t>Monitor Gamer AOC Viper 27 Full HD, 165Hz, 1ms, IPS, HDMI e DisplayPort, FreeSync - 27G2SE</t>
@@ -287,15 +293,6 @@
     <t>Monitor Gamer Samsung Odyssey G32A 27" Preto LS27AG320NLXZD &lt;br /&gt;Resolução FHD e painel IPS. Agora você pode ver os jogos como nunca antes. O painel IPS oferece cores claras e um amplo ângulo de visão de 178º para maior clareza a partir de qualquer posição. Com mais pixels e maior profundidade, os jogos estão mais próximos da realidade do que nunca. Compatível com Nvidia G-Sync. Jogabilidade fácil e sem esforço. A compatibilidade G-Sync mantém a placa de vídeo e o painel sincronizados para eliminar cortes, atraso de tela e rasgos de imagem. Cenas de jogo rápidas e complexas são estáveis e sem repetições com AMD FreeSync Premium aumentando sua vantagem competitiva.</t>
   </si>
   <si>
-    <t>Monitor Gamer Samsung Odyssey G4 25 IPS Full HD, 240Hz, 1ms, HDMI e DisplayPort,  99% sRGB, HDR, FreeSync Premium  - LS25BG400ELXZD</t>
-  </si>
-  <si>
-    <t>&lt;h2&gt;Monitor Gamer Samsung Odyssey G4 25 IPS Full HD&lt;/h2&gt;
-&lt;p&gt;Resolu&amp;ccedil;&amp;atilde;o FHD e painel IPS. Agora voc&amp;ecirc; pode ver os jogos como nunca antes. O painel IPS oferece cores claras e um amplo &amp;acirc;ngulo de vis&amp;atilde;o de 178&amp;ordm; para maior clareza a partir de qualquer posi&amp;ccedil;&amp;atilde;o. Com mais pixels e maior profundidade, os jogos est&amp;atilde;o mais pr&amp;oacute;ximos da realidade do que nunca.&lt;br /&gt;240Hz de taxa de atualiza&amp;ccedil;&amp;atilde;o &amp;amp; 1ms de tempo de resposta. Velocidade nas cenas. A taxa de atualiza&amp;ccedil;&amp;atilde;o de 240Hz elimina o atraso para uma jogabilidade emocionante com a&amp;ccedil;&amp;atilde;o ultra-suave. Ataque os inimigos assim que os v&amp;ecirc;-los com um tempo de resposta de 1ms e quadros sem borr&amp;atilde;o.&lt;/p&gt;
-&lt;h2&gt;&lt;br /&gt;Foco sem nunca quebrar o fluxo&lt;/h2&gt;
-&lt;p&gt;Compat&amp;iacute;vel com Nvidia G-Sync. Jogabilidade f&amp;aacute;cil e sem esfor&amp;ccedil;o. A compatibilidade G-Sync mant&amp;eacute;m a placa de v&amp;iacute;deo e o painel sincronizados para eliminar cortes, atraso de tela e rasgos de imagem. Cenas de jogo r&amp;aacute;pidas e complexas s&amp;atilde;o est&amp;aacute;veis e sem repeti&amp;ccedil;&amp;otilde;es com AMD FreeSync Premium aumentando sua vantagem competitiva.&lt;br /&gt;Auto Source Switch+ Ligue e jogue instantaneamente. Com o Auto Source Switch+, seu monitor detecta quando os dispositivos conectados s&amp;atilde;o ligados e muda instantaneamente para o novo sinal de fonte. Isto o ajuda a chegar mais r&amp;aacute;pido &amp;agrave; a&amp;ccedil;&amp;atilde;o do jogo sem passar por v&amp;aacute;rias fontes de entrada.&lt;/p&gt;</t>
-  </si>
-  <si>
     <t>Monitor Gamer Gigabyte 27 Curvo, Full HD, HDMI/DisplayPort, FreeSync, 165Hz, 1ms, Altura Ajustável - G27FC-A-SA</t>
   </si>
   <si>
@@ -398,26 +395,6 @@
 &lt;h3&gt;Aproveite essa oportunidade e adquira seu Monitor Gamer Acer no KaBuM!&lt;/h3&gt;</t>
   </si>
   <si>
-    <t>Monitor Gamer Husky Hailstorm 31.5' LED, Curvo, 165 Hz, Full HD, 1ms, Adaptive Sync, HDMI/DisplayPort, Ajuste de Ângulo - HGMT002</t>
-  </si>
-  <si>
-    <t>&lt;h2&gt;Monitor Gamer Husky Hailstorm 31.5' LED, Curvo, 165 Hz, Full HD, 1ms, Adaptive Sync, HDMI/DisplayPort, Ajuste de &amp;Acirc;ngulo&amp;nbsp;&lt;/h2&gt;
-&lt;h2&gt;&amp;nbsp;&lt;/h2&gt;
-&lt;h3&gt;Esteja um passo &amp;agrave; frente!&amp;nbsp;&lt;/h3&gt;
-&lt;p&gt;O Monitor Husky Hail Storm conta com resposta de 1ms e taxa de atualiza&amp;ccedil;&amp;atilde;o de &lt;strong&gt;165Hz&lt;/strong&gt;, permitindo a mais alta performance durante suas gameplays. Sua &lt;strong&gt;curvatura&lt;/strong&gt; amplia o campo de vis&amp;atilde;o relativo, concentrando toda a a&amp;ccedil;&amp;atilde;o ao alcance dos olhos do usu&amp;aacute;rio, sem perder resolu&amp;ccedil;&amp;atilde;o.&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h3&gt;Melhor Entrega de Imagens para sua Gameplay&lt;/h3&gt;
-&lt;p&gt;Compat&amp;iacute;vel com a tecnologia &lt;strong&gt;Adaptive Sync&lt;/strong&gt;, permite a sincroniza&amp;ccedil;&amp;atilde;o dos frames da placa de v&amp;iacute;deo, decretando o fim do input lag, bem como do tearing.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h3&gt;Conectividade&lt;/h3&gt;
-&lt;p&gt;O monitor Husky Hailstorm acompanha um cabo &lt;strong&gt;DisplayPort&lt;/strong&gt; que garante a melhor qualidade de imagem para seu jogo. Al&amp;eacute;m da conex&amp;atilde;o DP, o monitor ainda possui duas conex&amp;otilde;es &lt;strong&gt;HDMI&lt;/strong&gt; e uma &lt;strong&gt;conex&amp;atilde;o P2&lt;/strong&gt; para ouvir seu jogo diretamente do seu monitor.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h3&gt;Maior Ergonomia e Conforto para Uso Prolongado&amp;nbsp;&amp;nbsp;&lt;/h3&gt;
-&lt;p&gt;O Husky Hailstorm possui ajuste de &lt;strong&gt;inclina&amp;ccedil;&amp;atilde;o de 5&amp;deg; a 15&amp;deg;&lt;/strong&gt; que se ajusta ergonomicamente para o seu uso. O monitor tamb&amp;eacute;m conta com &lt;strong&gt;Redu&amp;ccedil;&amp;atilde;o de Luz Azul&lt;/strong&gt;, se tornando uma &amp;oacute;tima op&amp;ccedil;&amp;atilde;o para Gameplays prolongadas.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h3&gt;Seu Monitor Husky voc&amp;ecirc; encontra aqui no KaBuM!&lt;/h3&gt;</t>
-  </si>
-  <si>
     <t>Monitor Gamer AOC Sniper 27' IPS, Wide, 75 Hz, Full HD, 1ms, Adaptive Sync, 98% sRGB, HDMI/VGA, Ajuste de Ângulo - 27G2HE5</t>
   </si>
   <si>
@@ -491,6 +468,12 @@
 &lt;h3&gt;Compre j&amp;aacute; o seu no KaBuM&lt;/h3&gt;</t>
   </si>
   <si>
+    <t>Monitor Gamer Lg Ultragear 27 Polegadas,FULL  HdD144hz 1ms Ips, HDMI e Displayport</t>
+  </si>
+  <si>
+    <t>Monitor gamer lg ultragear, 27 full hd 144hz 1ms ips hdmi e displayport hdr 10 99% srgb, freesync premium vesa - 27gn65r o monitor gamer lg ultragear 27gn65r é uma opção de alta performance desenvolvida para atender às demandas dos jogadores mais exigentes. Com uma tela de 27 polegadas em resolução full hd (1920 x 1080), esse monitor oferece uma experiência visual imersiva com imagens nítidas e detalhadas. A velocidade é uma das principais características desse monitor, com um tempo de resposta ultra-rápido de 1ms (gtg), o que significa que as transições de cores são praticamente instantâneas, eliminando o efeito de arrasto nas imagens durante os jogos mais rápidos e intensos. Além disso, a taxa de atualização de 144hz proporciona uma jogabilidade mais fluida, permitindo que os jogadores vejam o próximo quadro rapidamente e tenham uma experiência de jogo mais suave. O painel ips do monitor garante ângulos de visão amplos e cores vibrantes, com suporte para 99% do espaço de cores srgb e tecnologia hdr10. Isso resulta em imagens mais realistas e ricas em detalhes, criando uma experiência de visualização imersiva para jogos, filmes e conteúdos em geral. O monitor gamer lg ultragear 27gn65r também é compatível com a tecnologia amd freesync premium e nvidia g-sync, que ajudam a eliminar o screen tearing e o stuttering durante os jogos, sincronizando a taxa de atualização do monitor com a taxa de quadros da placa gráfica para uma jogabilidade mais suave e sem interrupções. O design eletrizante e moderno do monitor complementa perfeitamente o setup gamer, enquanto a compatibilidade vesa permite a instalação em suportes ou braços para maior versatilidade. Se você busca uma experiência de jogo de alta performance com imagens fluidas, cores vívidas e tempos de resposta rápidos, o monitor gamer lg ultragear 27gn65r é uma escolha excelente para elevar seu entretenimento e desempenho nos jogos.   especificações: - marca: lg - modelo: 27gn65r     características: tela: - cor: preto - tamanho: 27” - tipo de tela: ips - ângulo de visão: 178º / 178º - resolução máxima: full hd (1920 x 1080) - brilho: 300 cd/m² - contraste: 1000:01 - tempo de resposta: 1ms (gtg) - taxa de atualização: 144hz - gama de cores: srgb 99% (típ.) - profundidade de cores (nº de cores): 16,7m - distância entre pixels: 0,3108 x 0,3108 mm - tratamento de tela: antirreflexivo   entradas e saídas: - hdmi: sim (v2.0) - displayport: sim (v1.4) - saída de fone de ouvido: sim   energia: - consumo de energia: 32w (típ.) - fonte: adaptador externo   ajustes: - ajustes de posição: inclinação, altura, pivô - tamanho da furação: 100 x 100 mm   recursos: - hdr: hdr10 - flicker safe: sim - amd freesync: freesync premium - nvidia g-sync: sim - modo leitura: sim - onscreen control: sim - motion blur reduction: sim - crosshair: sim - dynamic action sync: sim - black stabilizer: sim - plug &amp; play: sim</t>
+  </si>
+  <si>
     <t>Monitor Gamer Gigabyte, 27 Full HD, 180Hz, 1ms, DisplayPort e HDMI, 108% sRGB, HDR, Adaptive-Sync - GS27FC SA</t>
   </si>
   <si>
@@ -506,12 +489,6 @@
 &lt;p&gt;GS27FC pode exibir &lt;strong&gt;16,7 milh&amp;otilde;es de cores&lt;/strong&gt; e possui uma taxa de contraste de &lt;strong&gt;3000:1&lt;/strong&gt;. Ele permite que voc&amp;ecirc; desfrute de uma experi&amp;ecirc;ncia de jogo fluente com cores reais e vibrantes. O GS27FC est&amp;aacute; pronto para &lt;strong&gt;HDR&lt;/strong&gt;, o que desperta interesse em uma ampla gama de aplica&amp;ccedil;&amp;otilde;es, incluindo jogos, entretenimento cinematogr&amp;aacute;fico e cria&amp;ccedil;&amp;atilde;o de conte&amp;uacute;do multim&amp;iacute;dia.&lt;/p&gt;
 &lt;p&gt;&amp;nbsp;&lt;/p&gt;
 &lt;h3&gt;Compre j&amp;aacute; o seu no KaBuM!&lt;/h3&gt;</t>
-  </si>
-  <si>
-    <t>Monitor Gamer Lg Ultragear 27 Polegadas,FULL  HdD144hz 1ms Ips, HDMI e Displayport</t>
-  </si>
-  <si>
-    <t>Monitor gamer lg ultragear, 27 full hd 144hz 1ms ips hdmi e displayport hdr 10 99% srgb, freesync premium vesa - 27gn65r o monitor gamer lg ultragear 27gn65r é uma opção de alta performance desenvolvida para atender às demandas dos jogadores mais exigentes. Com uma tela de 27 polegadas em resolução full hd (1920 x 1080), esse monitor oferece uma experiência visual imersiva com imagens nítidas e detalhadas. A velocidade é uma das principais características desse monitor, com um tempo de resposta ultra-rápido de 1ms (gtg), o que significa que as transições de cores são praticamente instantâneas, eliminando o efeito de arrasto nas imagens durante os jogos mais rápidos e intensos. Além disso, a taxa de atualização de 144hz proporciona uma jogabilidade mais fluida, permitindo que os jogadores vejam o próximo quadro rapidamente e tenham uma experiência de jogo mais suave. O painel ips do monitor garante ângulos de visão amplos e cores vibrantes, com suporte para 99% do espaço de cores srgb e tecnologia hdr10. Isso resulta em imagens mais realistas e ricas em detalhes, criando uma experiência de visualização imersiva para jogos, filmes e conteúdos em geral. O monitor gamer lg ultragear 27gn65r também é compatível com a tecnologia amd freesync premium e nvidia g-sync, que ajudam a eliminar o screen tearing e o stuttering durante os jogos, sincronizando a taxa de atualização do monitor com a taxa de quadros da placa gráfica para uma jogabilidade mais suave e sem interrupções. O design eletrizante e moderno do monitor complementa perfeitamente o setup gamer, enquanto a compatibilidade vesa permite a instalação em suportes ou braços para maior versatilidade. Se você busca uma experiência de jogo de alta performance com imagens fluidas, cores vívidas e tempos de resposta rápidos, o monitor gamer lg ultragear 27gn65r é uma escolha excelente para elevar seu entretenimento e desempenho nos jogos.   especificações: - marca: lg - modelo: 27gn65r     características: tela: - cor: preto - tamanho: 27” - tipo de tela: ips - ângulo de visão: 178º / 178º - resolução máxima: full hd (1920 x 1080) - brilho: 300 cd/m² - contraste: 1000:01 - tempo de resposta: 1ms (gtg) - taxa de atualização: 144hz - gama de cores: srgb 99% (típ.) - profundidade de cores (nº de cores): 16,7m - distância entre pixels: 0,3108 x 0,3108 mm - tratamento de tela: antirreflexivo   entradas e saídas: - hdmi: sim (v2.0) - displayport: sim (v1.4) - saída de fone de ouvido: sim   energia: - consumo de energia: 32w (típ.) - fonte: adaptador externo   ajustes: - ajustes de posição: inclinação, altura, pivô - tamanho da furação: 100 x 100 mm   recursos: - hdr: hdr10 - flicker safe: sim - amd freesync: freesync premium - nvidia g-sync: sim - modo leitura: sim - onscreen control: sim - motion blur reduction: sim - crosshair: sim - dynamic action sync: sim - black stabilizer: sim - plug &amp; play: sim</t>
   </si>
   <si>
     <t>Monitor Gamer AOC 27 2K QHD, 155hz, 1ms, HDMI e DisplayPort, FreeSync Premium, 121.5% sRGB, VESA - Q27G2</t>
@@ -534,12 +511,6 @@
     <t>Uma velocidade ultrarrápida de 240Hz e 1ms permite que os jogadores vejam o próximo quadro rapidamente e fazem com que a imagem apareça suavemente. Os jogadores podem responder rapidamente aos oponentes e mirar no alvo facilmente.</t>
   </si>
   <si>
-    <t>Monitor Concórdia Gamer Curvo Cz270f200 27'' LED FULL HD, 200hz, 1ms, HDMI, DP, DVI</t>
-  </si>
-  <si>
-    <t>o monitor concórdia gamer curvo 27" 200hz entrega aos gamers uma experiência lisa, rápida e responsiva em todos os jogos. Experimente uma jogabilidade impecável com a taxa de atualização de tela 200 hz que garante imagens rápidas, suaves e movimentos nítidos, para nenhum detalhe passar despercebido. Com tela de 27", ultrarrápido e cheio de ótimos recursos para todos os tipos de jogos, a partir de agora seus momentos serão ainda mais insanos e sua experiência, impecável.conectividadehdmi: sim v1.4display port v1.2: sim acompanha cabo v1.2dvi: simphone: sim</t>
-  </si>
-  <si>
     <t>Monitor Gamer Acer Nitro Edo, 27 Polegadas, Full HD, 1MS, Curvo, VA, 180Hz, - Ed270r-S3biip</t>
   </si>
   <si>
@@ -595,6 +566,12 @@
 &lt;h3&gt;Aproveite essa oportunidade e adquira seu Monitor Gamer Curvo no KaBuM!&lt;/h3&gt;</t>
   </si>
   <si>
+    <t>Monitor Concórdia Gamer Curvo Cz270f200 27'' LED FULL HD, 200hz, 1ms, HDMI, DP, DVI</t>
+  </si>
+  <si>
+    <t>o monitor concórdia gamer curvo 27" 200hz entrega aos gamers uma experiência lisa, rápida e responsiva em todos os jogos. Experimente uma jogabilidade impecável com a taxa de atualização de tela 200 hz que garante imagens rápidas, suaves e movimentos nítidos, para nenhum detalhe passar despercebido. Com tela de 27", ultrarrápido e cheio de ótimos recursos para todos os tipos de jogos, a partir de agora seus momentos serão ainda mais insanos e sua experiência, impecável.conectividadehdmi: sim v1.4display port v1.2: sim acompanha cabo v1.2dvi: simphone: sim</t>
+  </si>
+  <si>
     <t>Monitor Gamer Acer Nitro 31.5p Curvo, Full HD, 165Hz - Ed320qr S3biipx</t>
   </si>
   <si>
@@ -701,16 +678,16 @@
 &lt;p dir="ltr"&gt;Jogue todos os seus jogos no primeiro n&amp;iacute;vel, afinal voc&amp;ecirc; est&amp;aacute; adquirindo um super monitor. Todos os m&amp;iacute;nimos detalhes foram pensados no desenvolvimento deste produto.&lt;/p&gt;</t>
   </si>
   <si>
+    <t>Monitor Gamer LG 23.8" Full HD, 144Hz, 1Ms, HDMI, DP, IPS, HDR Freesync - 24GN600-B</t>
+  </si>
+  <si>
+    <t>Monitor Gamer LG 23,8 Full HD 144Hz 1MS HDMI DP IPS HDR Freesync 24GN600-B&lt;br /&gt;&lt;br /&gt;PROJETADO PARA VELOCIDADE INCRÍVEL&lt;br /&gt;Com IPS de 1ms comparável à velocidade TN, fornecendo a imagem residual minimizada e um tempo de resposta rápido, permite que você desfrute de um desempenho de jogo totalmente novo.&lt;br /&gt;&lt;br /&gt;MOVIMENTO DE JOGO FLUIDO&lt;br /&gt;Uma velocidade ultra-rápida de 144 Hz permite que os jogadores vejam o próximo quadro rapidamente e faz com que a imagem apareça suavemente. Os jogadores podem responder rapidamente aos oponentes e mirar no alvo facilmente.&lt;br /&gt;&lt;br /&gt;SINTA O COMBATE REAL COM CORES VERDADEIRAS&lt;br /&gt;Este monitor suporta HDR10 com sRGB 99 (Typ.) Permitindo imersão visual realista com cores ricas e contraste. Independentemente do campo de batalha, pode ajudar os jogadores a ver todas as cores dramáticas que os desenvolvedores do jogo pretendiam.&lt;br /&gt;&lt;br /&gt;REAJA MAIS RÁPIDO AOS OPONENTES&lt;br /&gt;Minimize o atraso de entrada com Dynamic Action Sync para que os jogadores possam capturar cada momento em tempo real.&lt;br /&gt;&lt;br /&gt;ATAQUE PRIMEIRO NO ESCURO&lt;br /&gt;Os jogadores podem evitar que os atiradores se escondam nos lugares mais escuros e escapar rapidamente das situações quando o flash explode.</t>
+  </si>
+  <si>
     <t>Monitor Gamer Acer Nitro Qg270, 27 Polegadas, Full Hd, 180hz, 1ms Freesync</t>
   </si>
   <si>
     <t>Monitor gamer acer nitro qg270 27 polegadas full hd 180hz 1ms freesync  &lt;br /&gt;&lt;br /&gt;  &lt;br /&gt;&lt;br /&gt;  com o monitor gamer nitro qg270 27 polegadas da acer você conseguirá jogar com muito mais clareza e foco! Ele conta com uma alta taxa de atualização de até 180hz e visual response boost (vrb) de até 1 ms. Além disso, o design zeroframe praticamente elimina as bordas e garante a sua imersão no jogo.&lt;br /&gt;&lt;br /&gt;  &lt;br /&gt;&lt;br /&gt;  confira as principais características do nitro qg270 27 polegadas:&lt;br /&gt;&lt;br /&gt;  tela de 27 polegadas full hd: o nitro qg270 entrega imagens mais nítidas, levando sua experiência visual e seu foco no jogo para um novo nível.&lt;br /&gt;&lt;br /&gt;  design zeroframe: monitor com tela led va e design zeroframe, que praticamente elimina as bordas para que você tenha uma verdadeira imersão no jogo.&lt;br /&gt;&lt;br /&gt;  taxa de atualização de até 180hz: esse monitor conta com uma alta taxa de atualização de até 180hz. Prepare-se para ver imagens mais suaves, sem rastros e sem rasgos.&lt;br /&gt;&lt;br /&gt;  tecnologia hdr10: a tela cria níveis mais profundos de contraste preto e branco. Conte com mais imersão no jogo por meio da recriação de imagens realistas.&lt;br /&gt;&lt;br /&gt;  visual response boost (vrb) de até 1 ms: o monitor reduz borrões, efeitos fantasmas e manchas nas imagens. Além disso, elimina o desfoque em objetos em movimento rápido.&lt;br /&gt;&lt;br /&gt;  &lt;br /&gt;&lt;br /&gt;  características:&lt;br /&gt;&lt;br /&gt;  marca: acer&lt;br /&gt;&lt;br /&gt;  modelo: nitro qg270&lt;br /&gt;&lt;br /&gt;  tecnologias: hdr10, md freesync premium, acervision care, flicker-less, low dimming, bluelightshield, acer display widget, game mode, adaptative contrast management&lt;br /&gt;&lt;br /&gt;  cor: preto&lt;br /&gt;&lt;br /&gt;  resolução de tela: full hd 1920 x 1080 180 hz&lt;br /&gt;&lt;br /&gt;  conexão: 1x hdmi (2.0) e 1x displayport(1.4)&lt;br /&gt;&lt;br /&gt;  brilho: 300 nits&lt;br /&gt;&lt;br /&gt;  tempo de resposta: 1 ms vrb visual response boost&lt;br /&gt;&lt;br /&gt;  contraste: 3000:1&lt;br /&gt;&lt;br /&gt;  atualização: até 180 hz&lt;br /&gt;&lt;br /&gt;  interfaces/portas: 1x hdmi(2.0), 1x displayport(1.4), 1x saída de áudio e entrada de alimentação&lt;br /&gt;&lt;br /&gt;  inclinação: -5 graus a 15 graus (aproximadamente)&lt;br /&gt;&lt;br /&gt;  cores: 16.7 milhões&lt;br /&gt;&lt;br /&gt;  ângulo de visão: 178 graus esquerda / direita e 178 graus cima / baixo&lt;br /&gt;&lt;br /&gt;  &lt;br /&gt;&lt;br /&gt;  itens inclusos:&lt;br /&gt;&lt;br /&gt;  monitor&lt;br /&gt;&lt;br /&gt;  suportes&lt;br /&gt;&lt;br /&gt;  manual em português&lt;br /&gt;&lt;br /&gt;  termo de garantia&lt;br /&gt;&lt;br /&gt;  1x cabo de energia&lt;br /&gt;&lt;br /&gt;  1x cabo hdmi&lt;br /&gt;&lt;br /&gt;  &lt;br /&gt;&lt;br /&gt;  garantia: 12 meses (diretamente com a fabricante)</t>
-  </si>
-  <si>
-    <t>Monitor Gamer LG 23.8" Full HD, 144Hz, 1Ms, HDMI, DP, IPS, HDR Freesync - 24GN600-B</t>
-  </si>
-  <si>
-    <t>Monitor Gamer LG 23,8 Full HD 144Hz 1MS HDMI DP IPS HDR Freesync 24GN600-B&lt;br /&gt;&lt;br /&gt;PROJETADO PARA VELOCIDADE INCRÍVEL&lt;br /&gt;Com IPS de 1ms comparável à velocidade TN, fornecendo a imagem residual minimizada e um tempo de resposta rápido, permite que você desfrute de um desempenho de jogo totalmente novo.&lt;br /&gt;&lt;br /&gt;MOVIMENTO DE JOGO FLUIDO&lt;br /&gt;Uma velocidade ultra-rápida de 144 Hz permite que os jogadores vejam o próximo quadro rapidamente e faz com que a imagem apareça suavemente. Os jogadores podem responder rapidamente aos oponentes e mirar no alvo facilmente.&lt;br /&gt;&lt;br /&gt;SINTA O COMBATE REAL COM CORES VERDADEIRAS&lt;br /&gt;Este monitor suporta HDR10 com sRGB 99 (Typ.) Permitindo imersão visual realista com cores ricas e contraste. Independentemente do campo de batalha, pode ajudar os jogadores a ver todas as cores dramáticas que os desenvolvedores do jogo pretendiam.&lt;br /&gt;&lt;br /&gt;REAJA MAIS RÁPIDO AOS OPONENTES&lt;br /&gt;Minimize o atraso de entrada com Dynamic Action Sync para que os jogadores possam capturar cada momento em tempo real.&lt;br /&gt;&lt;br /&gt;ATAQUE PRIMEIRO NO ESCURO&lt;br /&gt;Os jogadores podem evitar que os atiradores se escondam nos lugares mais escuros e escapar rapidamente das situações quando o flash explode.</t>
   </si>
   <si>
     <t>Monitor Gamer Cooler Master 23.8 Full HD, 144 Hz, 0.5ms, HDMI e DisplayPort, DCI-P3 de 90%, HDR - CMI-GM238-FFS-BR</t>
@@ -765,12 +742,6 @@
     <t>Desfrute de uma incrível qualidade de imagem com o monitor LG e se surpreenda com o HDR10. A alta gama de cores e com resolução 4k é facilmente superior quando comparado a monitores convencionais. Com a tecnologia AMD Radeon FreeSync você aproveitará ainda mais das imagens do Monitor LG, eliminando os cortes e repetições de imagem..</t>
   </si>
   <si>
-    <t>Monitor Gamer Redragon Pearl, 23.6 Polegadas, 165hz, Curvo, LED, FHD, HDMI - Gm24g3c</t>
-  </si>
-  <si>
-    <t>Características:&lt;br /&gt; - marca: redragon&lt;br /&gt; - modelo: gm24g3c&lt;br /&gt; especificações:&lt;br /&gt; - cor: preto&lt;br /&gt; - alta taxa de atualização até 144hz auxiliando na fluidez da gameplay.&lt;br /&gt; - design elegante e minimalista para se integrar a qualquer setup.&lt;br /&gt; - tecnologia freesync integrada para eliminar as quebras de imagem.&lt;br /&gt; - diversas opções de conexões de vídeo para maior praticidade e versatilidade.&lt;br /&gt; - tamanho: 23,6”&lt;br /&gt; - resolução: 1920 x 1080&lt;br /&gt; - tipo de painel: csot&lt;br /&gt; - taxa de atualização: 165 hz&lt;br /&gt; - número de cores: 16.7 m&lt;br /&gt; - brilho máximo: 250cd/m2 (typical)&lt;br /&gt; - taxa de contraste: 3000:1&lt;br /&gt; - conectividade: hdmi 1.4 x 2, dp x1, 1x 3.5mm áudio.&lt;br /&gt; - power range: 100-240v 50/60hz&lt;br /&gt; - peso bruto(g): 4750&lt;br /&gt; - peso liquido(g): 3450&lt;br /&gt; conteúdo da embalagem:&lt;br /&gt; - monitor gamer redragon</t>
-  </si>
-  <si>
     <t>Monitor Gamer Cooler Master 27 Full HD, 165 Hz, 0.5ms, HDMI e DisplayPort, DCI-P3 90%, HDR - CMI-GM27-FFS-BR</t>
   </si>
   <si>
@@ -797,31 +768,13 @@
     <t>O Monitor Kaizen traz um novo significado para a palavra imersão, a sua tela IPS Full HD proporciona realismo total para a sua jogatina. Tenha uma jogabilidade fluida com uma taxa de atualização de 144Hz, sem rastros e sem o efeito Ghosting. A tela de 27" FHD do Warrior Kaizen garante uma imersão total em seus games. Aproveite ao máximo a qualidade de imagem em alta resolução. Seu painel IPS garante maior fidelidade de cores e qualidade de imagem em seus jogos. A tecnologia FreeSync sincroniza os quadros gerados pela placa gráfica (GPU) com a taxa de atualização do monitor. Isso garante que eles fiquem sempre alinhados e proporcionem uma imagem fluida e sem cortes. Ele conta com um com tempo de resposta de 1ms, permitindo que você tenha a reação mais rápida para os seus desafios. Com iluminação RGB, seu setup gamer ainda melhor. Conta com base ajustável em altura e rotação com ajustes precisos e tempo de resposta ultra rápido para seus comandos. O monitor Warrior Kayzen se adapta perfeitamente ao seu setup.</t>
   </si>
   <si>
+    <t>Monitor Gamer Bluecase 24 Polegadas Full HD,  144HZ, 1ms, HDMI e DisplayPort, FreeSync - BM242GW</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Full HD 144Hz de atualização para melhores gráficos. Com 1 conector DisplayPort e 1 conector HDMI. &lt;br /&gt;&lt;br /&gt;TAXA DE ATUALIZAÇÃO   &lt;br /&gt;Uma taxa de atualização de 144Hz deixa a sua tela sem nenhum borrão, serrilhado ou "ghosting". FLICKER-FREE   A função Flicker-Free regula o brilho para diminuir o cansaço dos olhos durante os jogos. &lt;br /&gt;&lt;br /&gt;APENAS 1MS TEMPO DE RESPOSTA (GTG)   &lt;br /&gt;Melhor desempenho e experiência de jogo nas ações de rápido movimento. &lt;br /&gt;&lt;br /&gt;TECNOLOGIA AMD FREESYNC   &lt;br /&gt;O AMD FREESYNC faz a sincronização entre a taxa de atualização de seu monitor e a taxa de quadros de sua placa de vídeo eliminando imagens quebradas.</t>
+  </si>
+  <si>
     <t>Monitor Gamer Acer 23.8 Polegadas Full HD, 165Hz, 1ms, HDR, FreeSync, HDMI e DisplayPort - QG241Y</t>
-  </si>
-  <si>
-    <t>Monitor Gamer Curvo Concórdia 31.5" QHD R1500, 165Hz, 1ms, HDMI/DisplayPort, FreeSync, Ajuste de Altura, Som Integrado, Preto - C315Q</t>
-  </si>
-  <si>
-    <t>&lt;h2&gt;Monitor Conc&amp;oacute;rdia Gamer Curvo C315Q 31,5'' ,2K, WQHD, 165hz, 1ms, 2 HDMI, DP, Ajuste de Altura e Rota&amp;ccedil;&amp;atilde;o&lt;/h2&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h2&gt;Curvatura Imersiva de 31,5 Polegadas&lt;/h2&gt;
-&lt;p&gt;O painel WQHD (2560 X 1440) de 31,5 polegadas do Monitor Conc&amp;oacute;rdia Gamer Curvo C315Q oferece visuais impressionantes de todos os &amp;acirc;ngulos com uma curvatura de 1500R que garante que cada ponto seja igualmente visto aos seus olhos. Isso contribui para um maior conforto de visualiza&amp;ccedil;&amp;atilde;o - mesmo durante o uso prolongado - e permite que voc&amp;ecirc; aproveite um amplo &amp;acirc;ngulo de visualiza&amp;ccedil;&amp;atilde;o com menos distor&amp;ccedil;&amp;atilde;o e mudan&amp;ccedil;a de cor ao jogar e assistir filmes.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h2&gt;Taxa de Atualiza&amp;ccedil;&amp;atilde;o de 165Hz&lt;/h2&gt;
-&lt;p&gt;A taxa de atualiza&amp;ccedil;&amp;atilde;o do Monitor Conc&amp;oacute;rdia Gamer Curvo C315Q diminui o atraso e o desfoque de movimento para dar a voc&amp;ecirc; vantagem todos os tipos de jogos.&amp;nbsp; Essa taxa de atualiza&amp;ccedil;&amp;atilde;o ultrarr&amp;aacute;pida permite que voc&amp;ecirc; jogue com as configura&amp;ccedil;&amp;otilde;es visuais mais altas e reaja instantaneamente ao que est&amp;aacute; na tela - para que voc&amp;ecirc; obtenha o primeiro ataque.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h2&gt;Design Ergon&amp;ocirc;mico&lt;/h2&gt;
-&lt;p&gt;Com um suporte ergonomicamente projetado, o Monitor Conc&amp;oacute;rdia Gamer Curvo C315Q oferece inclina&amp;ccedil;&amp;atilde;o, rota&amp;ccedil;&amp;atilde;o e giro da tela de 180&amp;deg; para que voc&amp;ecirc; possa encontrar facilmente sua posi&amp;ccedil;&amp;atilde;o de visualiza&amp;ccedil;&amp;atilde;o ideal.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>Monitor Cooler Master Ga271, 27 Polegadas, Wqhd, Va, Hdr10, 100hz, 1ms, Srgb</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;&lt;strong&gt;mergulhe no mundo dos jogos&lt;/strong&gt;&lt;br /&gt;o ga271 é um monitor wqhd com taxa de atualização de até 100 hz com suporte para adaptive sync. Com todos os recursos e especificações necessários, o ga271 é um monitor orientado para o valor que oferece desempenho excepcional em aplicações de jogos e de trabalho.&lt;/p&gt;&lt;p&gt;&lt;strong&gt;encontre seu equilíbrio&lt;/strong&gt;&lt;br /&gt;o ga271 com um painel de 27" com resolução wqhd oferece visuais impressionantes para seus jogos e aplicativos relacionados ao trabalho. O ga271 pode ser seu monitor principal para lidar com planilhas durante o dia, bem como para jogar e desfrutar de entretenimento durante a noite.&lt;/p&gt;&lt;p&gt;&lt;strong&gt;100hz + 1ms&lt;/strong&gt;&lt;br /&gt;o ga271 oferece uma taxa de atualização fluida de 100 hz com tempo de resposta de 1 ms, proporcionando imagens mais nítidas e responsivas para jogos, bem como para uso geral de produtividade.&lt;/p&gt;&lt;p&gt;&lt;strong&gt;contraste mais profundo&lt;/strong&gt;&lt;br /&gt;o painel va do ga271 produz pretos mais profundos e escuros para um nível de contraste aprimorado, resultando em maior qualidade de imagem. Com uma relação de contraste de 4000:1, o painel va do ga271 é capaz de reproduzir um nível de contraste 4x superior ao de um painel ips padrão.&lt;/p&gt;&lt;p&gt;&lt;strong&gt;sincronização adaptativa&lt;/strong&gt;&lt;br /&gt;ga271 vem com suporte adaptive sync, proporcionando uma experiência extra suave e sem interrupções em seus jogos. Ganhe uma vantagem competitiva sobre seus oponentes com menos manchas de movimento e visuais mais claros nos jogos que você joga.&lt;/p&gt;&lt;p&gt;&lt;strong&gt;luz azul baixa e sem cintilação&lt;/strong&gt;&lt;br /&gt;ga271 não treme e possui um modo de luz azul baixa para proteger ainda mais seus olhos de emissões de luz azul potencialmente prejudiciais.&lt;/p&gt;&lt;p&gt;&lt;strong&gt;pronto para hdr&lt;/strong&gt;&lt;br /&gt;o ga271 não é ótimo apenas para jogos, mas também para desfrutar de entretenimento, pois aceita entrada hdr, permitindo visualizar conteúdo com maiores detalhes e cores em comparação com um monitor tradicional.&lt;/p&gt;&lt;p&gt;&lt;strong&gt;estética minimalista&lt;/strong&gt;&lt;br /&gt;ga271 segue o básico com um design prático com foco em uma estética minimalista. O design limpo certamente se encaixa perfeitamente em sua configuração de trabalho e lazer.&lt;/p&gt;&lt;p&gt;&lt;strong&gt;opções de conectividade&lt;/strong&gt;&lt;br /&gt;conecte seus dispositivos às portas de e/s que consistem em: 1 x porta de exibição,  2 x hdmi 2.0, 1 x conector de fone de ouvido de 3,5 mm&lt;/p&gt;&lt;p&gt; &lt;/p&gt;&lt;p&gt;&lt;strong&gt;especificações:&lt;/strong&gt;&lt;/p&gt;&lt;ul&gt;	&lt;li&gt;marca: cooler master&lt;/li&gt;	&lt;li&gt;modelo: cmi-ga271&lt;/li&gt;	&lt;li&gt;tipo de painel: série plana&lt;/li&gt;	&lt;li&gt;razão: 16:9&lt;/li&gt;	&lt;li&gt;tamanho da tela: 27"&lt;/li&gt;	&lt;li&gt;painel: va 1.07b&lt;/li&gt;	&lt;li&gt;resolução: 2k wqhd 2560x1440&lt;/li&gt;	&lt;li&gt;taxa de quadros: 100hz&lt;/li&gt;	&lt;li&gt;relação de contraste: 4000:1&lt;/li&gt;	&lt;li&gt;visão de angulo: 178°/178°&lt;/li&gt;	&lt;li&gt;brilho: 250 lêndeas&lt;/li&gt;	&lt;li&gt;gama de cores: srgb 95%&lt;/li&gt;	&lt;li&gt;entradas hdmi: 2&lt;/li&gt;	&lt;li&gt;entrada dp: 1&lt;/li&gt;	&lt;li&gt;tecnologia vrr: adaptive sync, faixa freesync: sim, faixa g-sync: sim&lt;/li&gt;	&lt;li&gt;tempo de resposta: 1ms (mprt) &lt;/li&gt;	&lt;li&gt;proteção de luz azul: sim &lt;/li&gt;	&lt;li&gt;consumo: 18w&lt;/li&gt;	&lt;li&gt;ajuste de inclinação: -5°~+20°&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>Monitor 29 Lg 29wk500 - Tela Ips Full Hd Ultrawide Freesync - Modo Gamer - Screen Split 2.0 - 5ms</t>
   </si>
   <si>
     <t>Monitor Samsung Odyssey, 27pol., Full HD, 165Hz, 1MS, HDMI, Display Port, FreeSync</t>
@@ -836,6 +789,18 @@
     <t>Para você que é fanático por games, precisa ter equipamentos que leve você aos mais altos níveis de habilidade e jogabilidade. A Samsung apresenta o monitor gamer Odyssey G30 LS24BG300ELMZD de 24".
 Com resolução FHD, ele possui frequência de atualização de 144Hz atualiza as imagens da tela com mais frequência a cada segundo, permitindo uma jogabilidade mais suave que acompanha até mesmo os jogadores mais rápidos, painel VA, tempo de resposta de 1ms onde os pixels da tela respondem de maneira quase instantânea, permitindo que a ação rápida flua com precisão do mundo real. Seu desempenho na tela é tão rápido quanto seus próprios reflexos e conexões como 1 Display Port, EA Display Port Version: 1.2, 1 HDMI, EA HDMI Version: 1.4, HDCP Version (HDMI): 2.2, Headphone.
 E ainda, conta com várias características que te ajudam ainda mais como AMD FreeSync Premium que apresenta tecnologia de sincronização adaptativa que reduz atraso de tela, rasgos de imagem e a latência de entrada, assegurando assim que cada cena flua sem interrupções, ajuste de altura, design sem bordas em 3 lados que revela o espaço máximo para uma jogabilidade maior e mais ousada.</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Curvo Duex Dx 270zg, 27 Polegadas, FULL HD (1920x1080), 240hz, Preto</t>
+  </si>
+  <si>
+    <t>Marca: duex&lt;br /&gt;modelo: dx 270zg &lt;br /&gt;&lt;br /&gt;especificações: &lt;br /&gt;&lt;br /&gt;tamanho da tela: 27" &lt;br /&gt;área de display: 527.4 (h) x 296.4 (v) &lt;br /&gt;resolução: 1920x1080 (240hz) &lt;br /&gt;pixel pitch: 0.27mm &lt;br /&gt;ângulo de visão: h:178 / v:178 &lt;br /&gt;brilho: 250cd/m² &lt;br /&gt;tempo de resposta: 1ms &lt;br /&gt;número de cores: 16.7m &lt;br /&gt;&lt;br /&gt;conectores: &lt;br /&gt;2x hdmi &lt;br /&gt;1x displayport &lt;br /&gt;1x usb &lt;br /&gt;1x áudio &lt;br /&gt;&lt;br /&gt;conteúdo da caixa: &lt;br /&gt;monitor &lt;br /&gt;base&lt;br /&gt;cabo hdmi&lt;br /&gt;fonte de energia&lt;br /&gt;&lt;br /&gt;garantia: 365 dias</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Draxen 23.8'' resolução de 1920 x 1080 tempo de resposta de 1 MS 165HZ Full HD, Sem Borda</t>
+  </si>
+  <si>
+    <t>o monitor gamer draxen 165hz full hd é tudo o que você precisa para completar o seu setup. desenvolvido pensando no seu estilo de vida, oferecendo qualidade, desempenho e um design mais moderno do que nunca. a sua tela 23.8 lhe dará comodidade para estudar, trabalhar ou assistir sua série ou filme favoritos no seu tempo de lazer. além disso, sua alta resolução de 1920 x 1080 permite que você desfrute de momentos únicos graças a uma imagem nítida, cores realistas e contraste incrível. exibição de vídeo perfeita com tempo de resposta de 1 ms e mais de 16,7 milhões de cores que transformam as imagens em uma experiência muito fiel à realidade.&lt;br&gt;aprimore sua configuração com estilo. a furação padrão vesa 75x75 permite que você fixe o monitor em uma parede ou em um suporte.</t>
   </si>
   <si>
     <t>Monitor Gamer Bluecase, 27", 2.5k, 75hz, 5ms, Preto - BM2716GW</t>
@@ -853,16 +818,539 @@
 Além disso, ainda conta com HDR10, Flicker Safe, AMD FreeSync para maior fluídez durante seus jogos competitivos, Motion Blur Reduction, Crosshair, Dynamic Action Sync, Black Stabilizer, Plug &amp; Play, Modo Leitura e OnScreen Control. Ajuste de inclinação para adequar ao seu estilo de jogo e design de 3 lados praticamente sem bordas.</t>
   </si>
   <si>
+    <t>Monitor Cooler Master Ga271, 27 Polegadas, Wqhd, Va, Hdr10, 100hz, 1ms, Srgb</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;strong&gt;mergulhe no mundo dos jogos&lt;/strong&gt;&lt;br /&gt;o ga271 é um monitor wqhd com taxa de atualização de até 100 hz com suporte para adaptive sync. Com todos os recursos e especificações necessários, o ga271 é um monitor orientado para o valor que oferece desempenho excepcional em aplicações de jogos e de trabalho.&lt;/p&gt;&lt;p&gt;&lt;strong&gt;encontre seu equilíbrio&lt;/strong&gt;&lt;br /&gt;o ga271 com um painel de 27" com resolução wqhd oferece visuais impressionantes para seus jogos e aplicativos relacionados ao trabalho. O ga271 pode ser seu monitor principal para lidar com planilhas durante o dia, bem como para jogar e desfrutar de entretenimento durante a noite.&lt;/p&gt;&lt;p&gt;&lt;strong&gt;100hz + 1ms&lt;/strong&gt;&lt;br /&gt;o ga271 oferece uma taxa de atualização fluida de 100 hz com tempo de resposta de 1 ms, proporcionando imagens mais nítidas e responsivas para jogos, bem como para uso geral de produtividade.&lt;/p&gt;&lt;p&gt;&lt;strong&gt;contraste mais profundo&lt;/strong&gt;&lt;br /&gt;o painel va do ga271 produz pretos mais profundos e escuros para um nível de contraste aprimorado, resultando em maior qualidade de imagem. Com uma relação de contraste de 4000:1, o painel va do ga271 é capaz de reproduzir um nível de contraste 4x superior ao de um painel ips padrão.&lt;/p&gt;&lt;p&gt;&lt;strong&gt;sincronização adaptativa&lt;/strong&gt;&lt;br /&gt;ga271 vem com suporte adaptive sync, proporcionando uma experiência extra suave e sem interrupções em seus jogos. Ganhe uma vantagem competitiva sobre seus oponentes com menos manchas de movimento e visuais mais claros nos jogos que você joga.&lt;/p&gt;&lt;p&gt;&lt;strong&gt;luz azul baixa e sem cintilação&lt;/strong&gt;&lt;br /&gt;ga271 não treme e possui um modo de luz azul baixa para proteger ainda mais seus olhos de emissões de luz azul potencialmente prejudiciais.&lt;/p&gt;&lt;p&gt;&lt;strong&gt;pronto para hdr&lt;/strong&gt;&lt;br /&gt;o ga271 não é ótimo apenas para jogos, mas também para desfrutar de entretenimento, pois aceita entrada hdr, permitindo visualizar conteúdo com maiores detalhes e cores em comparação com um monitor tradicional.&lt;/p&gt;&lt;p&gt;&lt;strong&gt;estética minimalista&lt;/strong&gt;&lt;br /&gt;ga271 segue o básico com um design prático com foco em uma estética minimalista. O design limpo certamente se encaixa perfeitamente em sua configuração de trabalho e lazer.&lt;/p&gt;&lt;p&gt;&lt;strong&gt;opções de conectividade&lt;/strong&gt;&lt;br /&gt;conecte seus dispositivos às portas de e/s que consistem em: 1 x porta de exibição,  2 x hdmi 2.0, 1 x conector de fone de ouvido de 3,5 mm&lt;/p&gt;&lt;p&gt; &lt;/p&gt;&lt;p&gt;&lt;strong&gt;especificações:&lt;/strong&gt;&lt;/p&gt;&lt;ul&gt;	&lt;li&gt;marca: cooler master&lt;/li&gt;	&lt;li&gt;modelo: cmi-ga271&lt;/li&gt;	&lt;li&gt;tipo de painel: série plana&lt;/li&gt;	&lt;li&gt;razão: 16:9&lt;/li&gt;	&lt;li&gt;tamanho da tela: 27"&lt;/li&gt;	&lt;li&gt;painel: va 1.07b&lt;/li&gt;	&lt;li&gt;resolução: 2k wqhd 2560x1440&lt;/li&gt;	&lt;li&gt;taxa de quadros: 100hz&lt;/li&gt;	&lt;li&gt;relação de contraste: 4000:1&lt;/li&gt;	&lt;li&gt;visão de angulo: 178°/178°&lt;/li&gt;	&lt;li&gt;brilho: 250 lêndeas&lt;/li&gt;	&lt;li&gt;gama de cores: srgb 95%&lt;/li&gt;	&lt;li&gt;entradas hdmi: 2&lt;/li&gt;	&lt;li&gt;entrada dp: 1&lt;/li&gt;	&lt;li&gt;tecnologia vrr: adaptive sync, faixa freesync: sim, faixa g-sync: sim&lt;/li&gt;	&lt;li&gt;tempo de resposta: 1ms (mprt) &lt;/li&gt;	&lt;li&gt;proteção de luz azul: sim &lt;/li&gt;	&lt;li&gt;consumo: 18w&lt;/li&gt;	&lt;li&gt;ajuste de inclinação: -5°~+20°&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
     <t>Monitor Gamer AOC Entusiasta Monitor 27 Polegadas, FULL HD, Wide, Ips, 1ms, 75hz, Adaptive G-sync</t>
   </si>
   <si>
     <t>Monitor Gamer AOC. Desenvolvidos para suportar todas as emoções dos jogos, o tempo de resposta de 1ms oferece alta velocidade, definição e muita suavidade em todos os movimentos. A avançada tecnologia Painel IPS esclarece automaticamente as áreas escuras do mundo do jogo, entregando mais cor, brilho e contraste, melhorando a visualização com amplos ângulos de visão. Game Mode, Esta função possui predefinições de fábrica para otimizar cada tipo de jogo. Assim, os níveis de gama preto, proporções de contraste e nitidez são instantaneamente calibrados</t>
   </si>
   <si>
-    <t>Monitor Gamer HQ Premium 25 Pol. Full HD, 1MS, 240Hz, IPS, AMD Freesync, HDMI, DP - Gp25i124</t>
-  </si>
-  <si>
-    <t>&lt;b&gt;::: HQ Premium :::&lt;/b&gt;&lt;br /&gt;&lt;br /&gt;Revolucionário, assim é definido este monitor!&lt;br /&gt;&lt;br /&gt;&lt;b&gt;Última geração:&lt;/b&gt; monitor de ponta, com uma vasta gama de tecnologias embarcadas. A melhor qualidade de imagem com um preço justo.&lt;br /&gt;&lt;br /&gt;&lt;b&gt;Saia na frente: &lt;/b&gt;extraia o máximo de suas habilidades com uma tela pronta para qualquer tipo de desafio.&lt;br /&gt;&lt;br /&gt;&lt;b&gt;Gamer de verdade: &lt;/b&gt;graças ao baixo tempo de resposta de 1ms, a alta taxa de atualização e a tecnologia amd freesync, jogue como um profissional!&lt;br /&gt;&lt;br /&gt;&lt;b&gt;Longas jornadas: &lt;/b&gt;um grande diferencial: com as tecnologias flicker-free e low blue light, você pode encarar horas de jogatina sem cansar a vista.&lt;br /&gt;&lt;br /&gt;&lt;b&gt;Alta resolução com alta definição: &lt;/b&gt;não basta apenas ser full hd. Você, merece mais! Viva momentos únicos com imagens de tirar o fôlego. Além de jogar em 1080p, você, perceberá, cada mínimo detalhe em qualquer tipo de cena. Saia na frente dos seus adversários, mesmo em situações de baixa luminosidade. Sinta-se dentro do jogo, a imersão é, total!&lt;br /&gt;&lt;br /&gt;&lt;b&gt;Aproveitamento total: &lt;/b&gt;com a tela frameless, você, conta com bordas ultrafinas e aproveita todo o espaço da tela.&lt;br /&gt;&lt;br /&gt;&lt;b&gt;Sem reflexos: &lt;/b&gt;com a tela antireflexiva, você, pode embarcar nos seus desafios gamer em qualquer condição de luminosidade.</t>
+    <t>USADO: Monitor Gamer LG, Tela 29 Polegadas, 75Hz, 1ms, Dynamic Action Sync, AMD FreeSync - 29UM69G-B.AWZM - Bronze Recer</t>
+  </si>
+  <si>
+    <t>Monitor Gamer LG 29UM69G-B.AWZM, com tela de 29? polegadas com resolução Full HD (2560 x 1080), uma taxa de atualização de 75Hz, e um tempo de resposta de 1ms com tecnologia que todo gamer precisa como Dynamic action Sync e AMD FreeSync&lt;br /&gt;&lt;br /&gt;ATENÇÃO: este produto é RECERTIFICADO.&lt;br /&gt;Os eletrônicos são originais e acompanham Nota Fiscal. Os produtos passam por uma avaliação de qualidade rigorosa, que certifica as condições técnicas e estéticas do aparelho, categorizadas de acordo com os selos ouro, prata ou bronze. Você ainda conta com garantia de três meses contra problemas e pode fazer a devolução do produto em até sete dias.&lt;br /&gt;SAIBA O QUE É UM PRODUTO RECERTIFICADO (BRONZE)&lt;br /&gt;O produto recertificado em condições de fábrica é um produto que volta para o mercado, disponível para vendas, nas mesmas condições de um produto novo, com todas as funcionalidades e características originais, beneficiando o comprador e possibilitando economizar dinheiro na compra.&lt;br /&gt;O produto recertificado em condições de fábrica passa por um processo rigoroso de análise, onde todas as funcionalidades são testadas e após constatação de 100% de funcionamento o produto é liberado como recertificado.&lt;br /&gt;Depois de atingir 100% da certificação técnica de operação em suas funcionalidades, os produtos do Saldão da Informática são classificados em 3 certificações, de acordo com seu estado estético e superficial, sendo assim classificados como: Ouro, Prata e Bronze.&lt;br /&gt;Esse produto é recertificado Bronze: Produto têm alguns riscos. Estes riscos não alteram ao perfeito funcionamento do equipamento.</t>
+  </si>
+  <si>
+    <t>Monitor 27" LED/IPS Acer Gamer Ultra Fino, 75Hz, 1Ms, HDMI + VGA - SA270</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Monitor Gamer Acer LCD 27 SA270 Bbix Full HD 75Hz 1ms IPS FreeSync HDMI Preto UM.HS0AA.B02&lt;/b&gt;&lt;br /&gt;&lt;br /&gt;NÃO PERCA NENHUM DETALHE DO SEU JOGO&lt;br /&gt;Veja tudo em alta definição com a resolução de 1920 x 1080 Full HD.&lt;br /&gt;E com as 27 da tela, seus jogos terão um campo de visão privilegiado.&lt;br /&gt;&lt;br /&gt;ENTRE NO UNIVERSO GAMER&lt;br /&gt;Garanta uma ótima performance de cor em seus jogos favoritos. O painel In Plane Switching (IPS) promove cores mais vibrantes e nítidas de qualquer ângulo, sem deixar rastros.&lt;br /&gt;&lt;br /&gt;ESTEJA PRONTO PARA JOGAR&lt;br /&gt;A taxa de atualização de 75Hz leva a renderização dos seus jogos a outro nível.&lt;br /&gt;E o tempo de resposta de 1ms acelera as transições e não trava durante a ação.</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Bluecase 23.6 Polegadas, Curvo, LED FULL HD, 180Hz, HDMI,VGA, Preto - Bm24ffd1gc</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;monitor gamer full hd curvo led 23,6" bluecase 180hz hdmi vga preto - bm24ffd1gc&lt;/b&gt;&lt;/p&gt;&lt;p&gt;&lt;br /&gt;o monitor gamer bm24ffd1gc possui um tamanho de 23,6", proporcionando uma resolu&amp;ccedil;&amp;atilde;o m&amp;aacute;xima de 1920x1080 pixels full hd. Sua taxa de atualiza&amp;ccedil;&amp;atilde;o m&amp;aacute;xima &amp;eacute; de 180 hz atrav&amp;eacute;s das conex&amp;otilde;es hdmi e dp, oferece imagens mais suaves e fluidas.&amp;nbsp;equipado com ilumina&amp;ccedil;&amp;atilde;o led, o monitor possui um brilho de 300 cd/m&amp;sup2; e um contraste t&amp;iacute;pico de 4.000:1, resultando em cores vibrantes e imagens detalhadas. O monitor gamer bm24ffd1gc &amp;eacute; uma &amp;oacute;tima escolha para jogos, trabalho e entretenimento, proporcionando uma experi&amp;ecirc;ncia visual envolvente e de alta qualidade.&lt;/p&gt;&lt;p&gt;&lt;br /&gt;&lt;b&gt;caracter&amp;iacute;sticas monitor gamer led full hd bluecase 23,6" 180hz - preto&lt;/b&gt;&lt;br /&gt;- marca: bluecase&lt;br /&gt;- modelo: bm24ffd1gcbx&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Gigabyte 27 Full HD, 165Hz, 1ms, IPS, HDMI e DisplayPort, 130% sRGB, HDR, FreeSync, Altura Ajustável - G27F2BR</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Monitor Gamer Gigabyte 27 Full HD&lt;/h2&gt;
+&lt;h2&gt;&amp;nbsp;&lt;/h2&gt;
+&lt;h2&gt;A &amp;Uacute;ltima Milha para o seu Sistema de Jogo&lt;/h2&gt;
+&lt;p&gt;Como um jogador invis&amp;iacute;vel, o monitor costuma ser subestimado. A verdade &amp;eacute; que os monitores se formam como um efeito sin&amp;eacute;rgico e trazem o melhor desempenho dos componentes do PC. Os monitores de jogos GIGABYTE oferecem &lt;strong&gt;as especifica&amp;ccedil;&amp;otilde;es e qualidade mais recentes&lt;/strong&gt;, os usu&amp;aacute;rios podem realmente desfrutar de um &lt;strong&gt;desempenho de alto n&amp;iacute;vel&lt;/strong&gt; sem a necessidade de extravag&amp;acirc;ncia.&lt;/p&gt;
+&lt;p&gt;Suporta tecnologia&amp;nbsp;&lt;strong&gt;Adaptive-Sync&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Tempo de resposta MPRT de 1ms&lt;/h2&gt;
+&lt;p&gt;&lt;strong&gt;Tempo de resposta super r&amp;aacute;pido de 1ms&lt;/strong&gt;&amp;nbsp;para a experi&amp;ecirc;ncia de jogo mais suave de todos os tempos!&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;FHD com 165 Hz (OC 180 Hz)&lt;/h2&gt;
+&lt;p&gt;&lt;strong&gt;Alta resolu&amp;ccedil;&amp;atilde;o&lt;/strong&gt;&amp;nbsp;e taxa de atualiza&amp;ccedil;&amp;atilde;o r&amp;aacute;pida, oferecendo qualidade de exibi&amp;ccedil;&amp;atilde;o detalhada e experi&amp;ecirc;ncia de jogo fluida!&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;95% DCI-P3&lt;/h2&gt;
+&lt;p&gt;Fant&amp;aacute;stica&lt;strong&gt;&amp;nbsp;tela colorida e 130%&lt;/strong&gt;&amp;nbsp;DCI-P3 super ampla gama de cores.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Simples e Estiloso&lt;/h2&gt;
+&lt;p&gt;A&amp;nbsp;&lt;strong&gt;apar&amp;ecirc;ncia simplificada&lt;/strong&gt;&amp;nbsp;representa a simplicidade da filosofia de design da s&amp;eacute;rie de jogos GIGABYTE, &lt;strong&gt;suporte robusto e acabamento fosco&lt;/strong&gt; constru&amp;iacute;do para recursos funcionais e est&amp;eacute;ticos adicionando mais &amp;agrave;s caracter&amp;iacute;sticas.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;OSD Sidekick&lt;/h2&gt;
+&lt;p&gt;O GIGABYTE&amp;nbsp;&lt;strong&gt;OSD Sidekick&lt;/strong&gt;&amp;nbsp;permite que voc&amp;ecirc; defina as op&amp;ccedil;&amp;otilde;es de exibi&amp;ccedil;&amp;atilde;o com teclado e mouse, oferecendo a maneira mais &lt;strong&gt;f&amp;aacute;cil de ajustar&lt;/strong&gt; as configura&amp;ccedil;&amp;otilde;es do monitor.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Painel&lt;/h2&gt;
+&lt;p&gt;O painel revela suas&amp;nbsp;&lt;strong&gt;informa&amp;ccedil;&amp;otilde;es de hardware em tempo real&lt;/strong&gt;, incluindo&amp;nbsp;&lt;strong&gt;voltagens da CPU, velocidade do clock, temperaturas, etc.&lt;/strong&gt;&amp;nbsp;A melhor parte &amp;eacute; que n&amp;atilde;o ser&amp;aacute; bloqueado por nenhum jogo.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Equalizador Preto&lt;/h2&gt;
+&lt;p&gt;Esse recurso permite que voc&amp;ecirc; tenha mais&amp;nbsp;&lt;strong&gt;detalhes do lado escuro&lt;/strong&gt;&amp;nbsp;sem superexpor o lado claro ao mesmo tempo.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Atualiza&amp;ccedil;&amp;atilde;o autom&amp;aacute;tica&lt;/h2&gt;
+&lt;p&gt;Os usu&amp;aacute;rios podem &lt;strong&gt;desfrutar sem esfor&amp;ccedil;o da melhor experi&amp;ecirc;ncia de jogo&lt;/strong&gt; com recursos que a GIGABYTE continua a desenvolver e atualizar enquanto oferece&amp;nbsp;&lt;strong&gt;prote&amp;ccedil;&amp;atilde;o extra ao seu monitor&lt;/strong&gt;.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;&amp;Acirc;NGULO DE VIS&amp;Atilde;O PERFEITO&lt;/h2&gt;
+&lt;p&gt;O monitor Gaming GIGABYTE possui um suporte exclusivo projetado ergonomicamente para oferecer&amp;nbsp;&lt;strong&gt;ampla gama de ajustes de altura e inclina&amp;ccedil;&amp;atilde;o&lt;/strong&gt;.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h3&gt;Compre agora no KaBuM!&lt;/h3&gt;</t>
+  </si>
+  <si>
+    <t>Monitor Gamer KBM! GAMING MG330 31.5' Led, Curvo, 165 Hz, Full Hd, 1ms, Adaptive Sync, Hdmi/Displayport, Ajuste De Ângulo - KGMG33031PT</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Monitor Gamer KBM! GAMING MG330 31.5' LED, Curvo, 165 Hz, Full HD, 1ms, Adaptive Sync, HDMI/DisplayPort, Ajuste de&amp;nbsp; ngulo - KGMG330&lt;/h2&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Esteja um passo &amp;agrave; frente!&lt;/h2&gt;
+&lt;p&gt;O Monitor Gamer KBM! GAMING MG330 conta com resposta de &lt;strong&gt;1ms&lt;/strong&gt; e taxa de atualiza&amp;ccedil;&amp;atilde;o de &lt;strong&gt;165Hz&lt;/strong&gt;, permitindo a mais alta performance durante suas gameplays. Sua curvatura amplia o campo de vis&amp;atilde;o relativo, concentrando toda a a&amp;ccedil;&amp;atilde;o ao alcance dos olhos do usu&amp;aacute;rio, sem perder resolu&amp;ccedil;&amp;atilde;o.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Melhor Entrega de Imagens para sua Gameplay&lt;/h2&gt;
+&lt;p&gt;Compat&amp;iacute;vel com a tecnologia &lt;strong&gt;Adaptive Sync&lt;/strong&gt;, permite a sincroniza&amp;ccedil;&amp;atilde;o dos frames da placa de v&amp;iacute;deo, decretando o fim do input lag, bem como do tearing.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Conectividade&lt;/h2&gt;
+&lt;p&gt;O Monitor Gamer KBM! GAMING MG330 acompanha um cabo &lt;strong&gt;DisplayPort&lt;/strong&gt; que garante a melhor qualidade de imagem para seu jogo. Al&amp;eacute;m da conex&amp;atilde;o DP, o monitor ainda possui duas conex&amp;otilde;es &lt;strong&gt;HDMI&lt;/strong&gt; e uma conex&amp;atilde;o &lt;strong&gt;P2&lt;/strong&gt; para ouvir seu jogo diretamente do seu monitor.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Maior Ergonomia e Conforto para Uso Prolongado&lt;/h2&gt;
+&lt;p&gt;O Monitor Gamer KBM! GAMING MG330 possui ajuste de inclina&amp;ccedil;&amp;atilde;o &lt;strong&gt;de 5&amp;deg; a 15&amp;deg;&lt;/strong&gt; que se ajusta ergonomicamente para o seu uso. O monitor tamb&amp;eacute;m conta com &lt;strong&gt;Redu&amp;ccedil;&amp;atilde;o de Luz Azul&lt;/strong&gt;, se tornando uma &amp;oacute;tima op&amp;ccedil;&amp;atilde;o para Gameplays prolongadas.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h3&gt;Seu Monitor KBM! GAMING voc&amp;ecirc; encontra aqui no KaBuM!&lt;/h3&gt;</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Redragon Pearl, 23.6 Polegadas, 165hz, Curvo, LED, FHD, HDMI - Gm24g3c</t>
+  </si>
+  <si>
+    <t>Características:&lt;br /&gt; - marca: redragon&lt;br /&gt; - modelo: gm24g3c&lt;br /&gt; especificações:&lt;br /&gt; - cor: preto&lt;br /&gt; - alta taxa de atualização até 144hz auxiliando na fluidez da gameplay.&lt;br /&gt; - design elegante e minimalista para se integrar a qualquer setup.&lt;br /&gt; - tecnologia freesync integrada para eliminar as quebras de imagem.&lt;br /&gt; - diversas opções de conexões de vídeo para maior praticidade e versatilidade.&lt;br /&gt; - tamanho: 23,6”&lt;br /&gt; - resolução: 1920 x 1080&lt;br /&gt; - tipo de painel: csot&lt;br /&gt; - taxa de atualização: 165 hz&lt;br /&gt; - número de cores: 16.7 m&lt;br /&gt; - brilho máximo: 250cd/m2 (typical)&lt;br /&gt; - taxa de contraste: 3000:1&lt;br /&gt; - conectividade: hdmi 1.4 x 2, dp x1, 1x 3.5mm áudio.&lt;br /&gt; - power range: 100-240v 50/60hz&lt;br /&gt; - peso bruto(g): 4750&lt;br /&gt; - peso liquido(g): 3450&lt;br /&gt; conteúdo da embalagem:&lt;br /&gt; - monitor gamer redragon</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Redragon Amber, Tela de 27 Polegadas FHD, 165HZ, Curvo, LED, HDMI, Preto - GM27H10C</t>
+  </si>
+  <si>
+    <t>Características:&lt;br /&gt; - marca: redragon&lt;br /&gt; - modelo: gm27h10c&lt;br /&gt; especificações:&lt;br /&gt; - cor: preto&lt;br /&gt; - tamanho: 27”&lt;br /&gt; - resolução: 1920 x 1080 16:9&lt;br /&gt; - tipo de painel: va&lt;br /&gt; - taxa de atualização: 165 hz&lt;br /&gt; - número de cores: 16.7 m&lt;br /&gt; - brilho máximo: 250cd/m2 (typical)&lt;br /&gt; - taxa de contraste: 3000:1&lt;br /&gt; - conectividade: dp x1, hdmi x2, dc in x1&lt;br /&gt; - power range: 100-240v 50/60hz&lt;br /&gt; - tempo de resposta: 1ms&lt;br /&gt; - peso bruto(g): 5960g&lt;br /&gt; - peso liquido(g): 4830g&lt;br /&gt; conteúdo da embalagem:&lt;br /&gt; - monitor gamer redragon</t>
+  </si>
+  <si>
+    <t>Monitor 29 Lg 29wk500 - Tela Ips Full Hd Ultrawide Freesync - Modo Gamer - Screen Split 2.0 - 5ms</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Curvo Concórdia 31.5" QHD R1500, 165Hz, 1ms, HDMI/DisplayPort, FreeSync, Ajuste de Altura, Som Integrado, Preto - C315Q</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Monitor Conc&amp;oacute;rdia Gamer Curvo C315Q 31,5'' ,2K, WQHD, 165hz, 1ms, 2 HDMI, DP, Ajuste de Altura e Rota&amp;ccedil;&amp;atilde;o&lt;/h2&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Curvatura Imersiva de 31,5 Polegadas&lt;/h2&gt;
+&lt;p&gt;O painel WQHD (2560 X 1440) de 31,5 polegadas do Monitor Conc&amp;oacute;rdia Gamer Curvo C315Q oferece visuais impressionantes de todos os &amp;acirc;ngulos com uma curvatura de 1500R que garante que cada ponto seja igualmente visto aos seus olhos. Isso contribui para um maior conforto de visualiza&amp;ccedil;&amp;atilde;o - mesmo durante o uso prolongado - e permite que voc&amp;ecirc; aproveite um amplo &amp;acirc;ngulo de visualiza&amp;ccedil;&amp;atilde;o com menos distor&amp;ccedil;&amp;atilde;o e mudan&amp;ccedil;a de cor ao jogar e assistir filmes.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Taxa de Atualiza&amp;ccedil;&amp;atilde;o de 165Hz&lt;/h2&gt;
+&lt;p&gt;A taxa de atualiza&amp;ccedil;&amp;atilde;o do Monitor Conc&amp;oacute;rdia Gamer Curvo C315Q diminui o atraso e o desfoque de movimento para dar a voc&amp;ecirc; vantagem todos os tipos de jogos.&amp;nbsp; Essa taxa de atualiza&amp;ccedil;&amp;atilde;o ultrarr&amp;aacute;pida permite que voc&amp;ecirc; jogue com as configura&amp;ccedil;&amp;otilde;es visuais mais altas e reaja instantaneamente ao que est&amp;aacute; na tela - para que voc&amp;ecirc; obtenha o primeiro ataque.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Design Ergon&amp;ocirc;mico&lt;/h2&gt;
+&lt;p&gt;Com um suporte ergonomicamente projetado, o Monitor Conc&amp;oacute;rdia Gamer Curvo C315Q oferece inclina&amp;ccedil;&amp;atilde;o, rota&amp;ccedil;&amp;atilde;o e giro da tela de 180&amp;deg; para que voc&amp;ecirc; possa encontrar facilmente sua posi&amp;ccedil;&amp;atilde;o de visualiza&amp;ccedil;&amp;atilde;o ideal.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Monitor Gamer HQ 27 Polegadas, FULL HD 144HZ A 240HZ 1MS HDMI Display Port, Curvo LED, Alto Falantes Iluminação RGB - Battle 27h240g</t>
+  </si>
+  <si>
+    <t>Monitor gamer hq battle&lt;br /&gt;&lt;br /&gt;A jogatina perfeita&lt;br /&gt;Com o monitor hq battle, os seus movimentos serão instantâneos e o seu tempo de reação ocorrerá em tempo real em qualquer tipo de jogo.&lt;br /&gt;Sem atrasos, você jogará com desempenho profissional.&lt;br /&gt;Graças a combinação de tempo de resposta ultrarápido + alta taxa de atualização, você sairá na frente dos seus oponentes:&lt;br /&gt;&lt;br /&gt;Tempo de resposta: 1ms&lt;br /&gt;Desempenho sem igual, imagens nítidas e sem espera. Enxergue toda a cena no milésimo de segundo em que ela acontece. Não desperdice nenhum movimento. O seu reflexo convertido em vitórias!&lt;br /&gt;&lt;br /&gt;Taxa de atualização: 240hz&lt;br /&gt;Nada de rastros nem imagens desfocadas. Tenha uma incrível vantagem sobre o seu adversário, principalmente em cenas rápidas. A altíssima taxa de atualização permitirá a você perceber cada sensível mudança no ambiente. E diferente dos demais modelos da linha battle, o 27h240g possui incríveis 240hz. É a garantia de uma experiência sublime.&lt;br /&gt;&lt;br /&gt;Amd freesync e nvidia g-sync&lt;br /&gt;E para completar o time, o monitor hq battle conta com as tecnologias amd freesync e nvidia g-sync. Incríveis ferramentas que impedem imagens serrilhadas e cortadas.&lt;br /&gt;Elas apresentam a tecnologia de sincronização adaptável, que reduz o travamento de tela, oscilação e atrasos.&lt;br /&gt;&lt;br /&gt;Enxergue no escuro&lt;br /&gt;Graças ao painel va utilizado nos monitores hq battle, você se dará bem em qualquer tipo de ambiente, mesmo em situações de baixa luminosidade.&lt;br /&gt;Encontre seus inimigos escondidos em qualquer lugar, mesmo os mais escuros.&lt;br /&gt;&lt;br /&gt;Mais sobre o painel va&lt;br /&gt;Quando falamos em tipo de painel para monitores gamer, existem três opções disponíveis no mercado.&lt;br /&gt;E por que a hq escolheu o tipo va para o monitor battle?&lt;br /&gt;A resposta é simples. Pois essa opção oferece a maior gama de vantagens para o jogador:&lt;br /&gt;1- ângulo de visão de 178x178 graus, enxergue bem em qualquer ângulo&lt;br /&gt;2- alto nível de contraste, imagens nítidas mesmo em cenas muito claras ou muito escuras&lt;br /&gt;3- tempo de resposta real de 1ms mprt&lt;br /&gt;4- cores vivas e nítidas&lt;br /&gt;5- permite as mais altas taxas de atualização&lt;br /&gt;&lt;br /&gt;Design único&lt;br /&gt;Além de todos os recursos apresentados, ainda temos o fato do monitor hq battle ter um visual sensacional.&lt;br /&gt;Desenvolvido com uma tela curva, isso já seria o bastante para deixar o seu setup gamer ainda mais moderno. Mas além disso, ele ainda possui a tecnologia ´´frameless´´, sem bordas, que garantirão a você uma imersão total. Aproveite 100% da tela.&lt;br /&gt;&lt;br /&gt;Conectividade e recursos&lt;br /&gt;Para garantir uma experiência perfeita, equipamos o battle com tudo o que você precisa.&lt;br /&gt;Dupla saída de vídeo hdmi e display port, além de uma conexão usb.&lt;br /&gt;E para deixar tudo ainda melhor, ele vem acompanhado com dois alto falantes surround e iluminação em rgb.</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Duex 24´ Full HD (1920x1080), 144Hz, Preto - Dx 240zg</t>
+  </si>
+  <si>
+    <t>Marca: duex&lt;br /&gt;modelo: dx 240zg &lt;br /&gt;&lt;br /&gt;especificações: &lt;br /&gt;&lt;br /&gt;tamanho da tela: 24" &lt;br /&gt;área de display: 527.4 (h) x 296.4 (v) &lt;br /&gt;resolução: 1920x1080 (144hz) &lt;br /&gt;pixel pitch: 0.27mm &lt;br /&gt;ângulo de visão: h:178 / v:178 &lt;br /&gt;brilho: 250cd/m² &lt;br /&gt;tempo de resposta: 1ms &lt;br /&gt;número de cores: 16.7m &lt;br /&gt;&lt;br /&gt;conectores: &lt;br /&gt;1x hdmi &lt;br /&gt;1x displayport &lt;br /&gt;1x usb &lt;br /&gt;1x saída de áudio &lt;br /&gt;&lt;br /&gt;conteúdo da caixa: &lt;br /&gt;monitor &lt;br /&gt;base &lt;br /&gt;cabo hdmi &lt;br /&gt;cabo displayport &lt;br /&gt;fonte de energia &lt;br /&gt;guia do usuário&lt;br /&gt;&lt;br /&gt;garantia: 365 dias</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Bluecase 27" 2.5K, 75Hz, HDMI / Displayport, Vesa - BM2713GW</t>
+  </si>
+  <si>
+    <t>Explore um nível superior de qualidade gráfica do seu gameplay com o monitor gamer Bluecase - BM2713GW   &lt;br /&gt;&lt;br /&gt;Esse monitor possui um painel TN ultrarrápido com frequência máxima de até 75 Hz e baixíssimo tempo de resposta de 5(cinco) milissegundos.    &lt;br /&gt;Ideal para seus jogos AAA, o monitor conta com alta definição em resolução Quad HD (2560x1440) que proporciona uma imagem rica em detalhes.    &lt;br /&gt;O monitor Bluecase BM2713GW é compatível com suportes VESA e também conta com conexões DisplayPort e HDMI.</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Samsung 27Pol, Full HD, 75Hz, IPS, HDMI, Vesa, Freesync - Lf27t350fhlmzd</t>
+  </si>
+  <si>
+    <t>Para compor a sua mesa e computador, precisa de um monitor de linha, não acha? Com o Monitor Gamer T350 Samsung você terá uma ótima visualização de tudo que fizer! Com a tela IPS, LED, em formato plano e de 27'' na horizontal, resolução Full HD 1920x1080. Possui conexões HDMI e VGA e tecnologia FreeSync da AMD, assim você pode assistir filmes e jogar tranquilamente sem interrupções na sua imagem. Além disso, possui o Game Mode, que ajusta qualquer jogo para preencher sua tela visualizando todos os detalhes, sendo possível detectar inimigos escondidos nas sombras através do contraste ideal, mais nitidez e cenas com cores mais vivas. Agora, a imagem é reproduzida sem falhas. A taxa de atualização de 75Hz oferece cenas mais fluidas. Seu momento de diversão não tem lag ou efeito fantasma, quer você esteja assistindo a um vídeo ou jogando um jogo. Vai deixar essa beleza passar? Garanta já seu Monitor Gamer T350 Samsung e aproveite com a melhor imagem!</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Curvo HQ 24 LED Full HD, 165 Hz, 1ms, HDMI, DisplayPort, FreeSync, Som Integrado, Preto - 24GHQ-Black</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Monitor Gamer Curvo HQ 24 LED Full HD, 165 Hz, 1ms, HDMI, DisplayPort, FreeSync, Som Integrado, Preto&lt;/h2&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Tela Curva&lt;/h2&gt;
+&lt;p&gt;A curvatura da tela de R3000 oferece imers&amp;atilde;o total, voc&amp;ecirc; ser&amp;aacute; capaz de apreciar imagens panor&amp;acirc;micas grandes, em alta resolu&amp;ccedil;&amp;atilde;o e com todas as especifica&amp;ccedil;&amp;otilde;es que um monitor Gamer de ponta exige.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Baixo tempo de Resposta&lt;/h2&gt;
+&lt;p&gt;A HQ levou a s&amp;eacute;rio o desenvolvimento desta linha, trazendo ao p&amp;uacute;blico mais exigente um produto completo e de alto n&amp;iacute;vel. N&amp;atilde;o fique atras, reaja em tempo real e tenha os movimentos do teclado refletidos sem atrasos com o tempo de resposta de 1ms.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Atualiza&amp;ccedil;&amp;atilde;o de 165Hz&lt;/h2&gt;
+&lt;p&gt;Sem borr&amp;otilde;es e sem perda de imagem. A INCR&amp;Iacute;VEL taxa de atualiza&amp;ccedil;&amp;atilde;o de 165hz garante que voc&amp;ecirc; tenha uma experi&amp;ecirc;ncia acima dos seus advers&amp;aacute;rios.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Imagens em alta resolu&amp;ccedil;&amp;atilde;o + Visual incr&amp;iacute;vel&lt;/h2&gt;
+&lt;p&gt;A tela Full HD de alta resolu&amp;ccedil;&amp;atilde;o aliada ao design futurista e moderno do monitor garantem n&amp;atilde;o s&amp;oacute; imagens perfeitas como um visual incr&amp;iacute;vel de todo o seu conjunto.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h3&gt;Aproveite essa oportunidade e adquira seu Monitor Gamer Curvo no KaBuM!&lt;/h3&gt;</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Redragon, 23Pol, Full HD, 144Hz, 1MS, IPS, HDMI, DP, VGA, Freesync - M2444ph</t>
+  </si>
+  <si>
+    <t>O monitor Redragon Sapphire apresenta um design ultrafino, alinhado com o que há de mais moderno no mercado. Gamers de jogos competitivos podem obter vantagem sobre seus adversários ao utilizar uma tela com a alta taxa de atualização de 144 Hz. A tecnologia AMD FreeSync põe fim à jogabilidade travada e ao corte dos quadros com um desempenho fluido e livre de artefatos com praticamente qualquer taxa de quadros. Contemple a próxima inovação na experiência de jogos para PC e console. O Redragon Sapphire possui um visual moderno e elegante, que combina com qualquer setup, pela sua simplicidade e minimalismo.&lt;br /&gt;&lt;br /&gt;- Alta taxa de atualização até 144Hz auxiliando na fluidez da gameplay.&lt;br /&gt;- Design elegante e minimalista para se integrar a qualquer setup.&lt;br /&gt;- Painel do tipo IPS para maior fidelidade de cores.&lt;br /&gt;- Tecnologia Freesync integrada para eliminar as quebras de imagem.&lt;br /&gt;- Diversas opções de conexões de vídeo para maior praticidade e versatilidade.&lt;br /&gt;&lt;br /&gt;O monitor tem tela de 24 polegadas, um ótimo tamanho para o consumo de jogos e filmes, assim como navegar na internet e trabalhar.</t>
+  </si>
+  <si>
+    <t>Monitor Gamer LG LED 23.8 Polegadas FHD, 60Hz, 5Ms, IPS, VGA/HDMI/DP, Pivot - 24BL550J</t>
+  </si>
+  <si>
+    <t>Monitor Gamer LG LED 23.8 FHD IPS 60Hz 5ms VGA HDMI DP Pivot - 24BL550J CONTE COM SUA MELHOR EXIBIÇÃO A qualidade de imagem do LG 24BL550J é a melhor possível para um monitor Full HD, já que usa a elogiada tela IPS. Suas cores são vibrantes e nítidas, sem qualquer problema em replicar as cores reais em software e jogos. Sua tela de 23.9 faz com que ele esteja no tamanho ideal para a resolução Full HD (1920x1080p), apresentando ótimo nível de densidade de pixel (PPI 0,27 mm). Com isso, você não terá a impressão de imagem borrada ou com serrilhados, principalmente em jogos, vídeos e fotos. FLUIDEZ Tem baixo input lag e tempo de resposta de 5ms, suficiente para eliminar rastros. A taxa de atualização de 75hz da boa fluência aos jogos, ajudando ainda no conforto ocular. MELHOR RESOLUÇÃO Sua incrível tela em Full HD com tecnologia IPS e seu tratamento anti reflexivo conta com a exibição de imagens excepcionais cores mais realistas de qualquer ângulo, sem a interferência de qualquer luz. MODELO PIVOTANTE Permite ajuste de altura, inclinação, rotação e pivô. Esse monitor apresenta um design moderno, com bordas mais finas e base retangular com ótima estabilidade. Porém, seu grande trunfo é o ajuste de altura e giro em 90º (pivô), o que o torna ideal para trabalhar com o monitor na vertical (em pé)..</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Curvo Bright 27p, Full HD, 165Hz, 1Ms, HDMI/VGA, Preto</t>
+  </si>
+  <si>
+    <t>Monitor gamer curvo 27" polegadas 165hz full hd lcd/led preto mt007 bright&lt;br /&gt;  &lt;br /&gt; mergulhe no mundo dos games com estilo e velocidade!&lt;br /&gt;  &lt;br /&gt; ei, camarada gamer, já sentiu como se estivesse preso no passado com um monitor lento e sem graça? Deixe-me apresentar uma passagem direta para o futuro dos jogos: o monitor gamer curvo 27 polegadas 165 hz dp hdmi usb preto bright. Prepare-se para uma experiência visual de tirar o fôlego!&lt;br /&gt;  &lt;br /&gt; este monitor é como uma viagem ao paraíso dos gamers. Com suas 27 polegadas de tela imersiva e curva, ele envolve você em um abraço eletrizante de jogabilidade. E a taxa de atualização de 165 hz? É praticamente uma máquina do tempo para o futuro dos jogos!&lt;br /&gt;  &lt;br /&gt; e como se isso não fosse suficiente, este monitor oferece conectividade versátil com dp, hdmi e usb. Você pode se conectar facilmente aos seus dispositivos e mergulhar diretamente na ação. Sem complicações, apenas jogos de alta qualidade.&lt;br /&gt;  &lt;br /&gt; mas aqui está a cereja no topo do bolo: a resolução deslumbrante e as cores vibrantes. Este monitor faz com que cada detalhe dos seus jogos ganhe vida. Adeus a imagens borradas e cores apagadas. Prepare-se para gráficos que vão explodir sua mente!&lt;br /&gt;  &lt;br /&gt; ao comprar este monitor gamer curvo, você não está apenas adquirindo um pedaço de tecnologia. Você está se dando o presente de uma experiência de jogo que vai te levar a novos patamares de diversão e desempenho. É a sua passagem para o futuro dos jogos - uma jornada sem volta para a vitória!&lt;br /&gt;  &lt;br /&gt; então, o que você está esperando? Pegue seu ingresso para o futuro e adquira o monitor gamer curvo 27 polegadas 165 hz dp hdmi usb preto bright hoje. Jogue com estilo, velocidade e vitória garantida! Sua jornada começa agora!&lt;br /&gt;  &lt;br /&gt; especificações:&lt;br /&gt; dimensões(axlxp): 615 x 453 x 79 mm &lt;br /&gt; peso: 3,9&lt;br /&gt; área de visualização 683 × 128 × 445(mm2)&lt;br /&gt; ângulo de visão h:178°v:178°&lt;br /&gt; resolução(tip.) 1920x1080 60hz&lt;br /&gt; cores 16,7m&lt;br /&gt; brilho (tip.) 250cd/m2&lt;br /&gt; tela curva: 2800r&lt;br /&gt; frequência de resposta: 165 hz&lt;br /&gt; relação de contraste (tip.) 1000:1&lt;br /&gt; conector dp + hdmi + usb&lt;br /&gt;  &lt;br /&gt; conteúdo da embalagem: &lt;br /&gt; 01 monitor bright &lt;br /&gt; 01 cabo hdmi&lt;br /&gt; 01 manual&lt;br /&gt;  &lt;br /&gt; modelo:&lt;br /&gt; mt007&lt;br /&gt;  &lt;br /&gt; marca:&lt;br /&gt; bright&lt;br /&gt;  &lt;br /&gt; garantia 1 ano bright</t>
+  </si>
+  <si>
+    <t>Monitor Goldentec Gamer 27'' Led Full Hd, 75hz, 1ms</t>
+  </si>
+  <si>
+    <t>Monitor gamer 27´´ led full hd 75hz 1ms especificações técnicas  marcagoldentec  ean7899555687261  tamanho de tela27´´  framelesssim  resolução1920x1080 (full hd)  tempo de resposta1 ms  frequência75 hz  brilho250 cd/m²  contraste100 milhões: 1  ângulo de visão180° (h) 180° (v)  cores16,7 milhões  inclinação ajustável 20°  tecnologia freesyncelimina falhas e intermitências  tecnologia lowbluelightreduz a luz azul para mais conforto e segurança  100% flicker freesuaviza a ondulação do monitor  conexõeshdmi  conteúdo da embalagem1x monitor gamer 27´´ led full hd 75hz 1ms &lt;br&gt;cabos e fonte &lt;br&gt;&lt;br&gt;&lt;strong&gt;especificações técnicas&lt;/strong&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;marca :&lt;/strong&gt; goldentec&lt;br&gt;&lt;strong&gt;tipo de uso :&lt;/strong&gt; gamer&lt;br&gt;&lt;strong&gt;tamanho da tela :&lt;/strong&gt; 27´´&lt;br&gt;&lt;strong&gt;tipo de tela :&lt;/strong&gt; led&lt;br&gt;&lt;strong&gt;resolução :&lt;/strong&gt; full hd&lt;br&gt;&lt;strong&gt;design de tela :&lt;/strong&gt; tela plana&lt;br&gt;&lt;strong&gt;tempo de resposta :&lt;/strong&gt; 1 ms&lt;br&gt;&lt;strong&gt;taxa de atualização :&lt;/strong&gt; 75 hz&lt;br&gt;&lt;strong&gt;estrutura :&lt;/strong&gt; padrão&lt;br&gt;&lt;strong&gt;voltagem :&lt;/strong&gt; bivolt&lt;br&gt;&lt;strong&gt;polegadas :&lt;/strong&gt; 27 ´´&lt;br&gt;&lt;br&gt;&lt;strong&gt;garantia : &lt;/strong&gt;12</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Redragon Azur, 23.8 Polegadas, 165hz, LED, FHD, HDMI - Gm24x5ips</t>
+  </si>
+  <si>
+    <t>Características:&lt;br /&gt; - marca: redragon&lt;br /&gt; - modelo: gm24x5ips&lt;br /&gt; especificações:&lt;br /&gt; - cor: preto&lt;br /&gt; - alta taxa de atualização até 165hz auxiliando na fluidez da gameplay.&lt;br /&gt; - design elegante e minimalista para se integrar a qualquer setup.&lt;br /&gt; - tecnologia freesync integrada para eliminar as quebras de imagem.&lt;br /&gt; - diversas opções de conexões de vídeo para maior praticidade e versatilidade.&lt;br /&gt; - tamanho: 23,8”&lt;br /&gt; - resolução: 1920 x 1080&lt;br /&gt; - tipo de painel: ips&lt;br /&gt; - taxa de atualização: 165 hz&lt;br /&gt; - número de cores: 16.7 m&lt;br /&gt; - brilho máximo: 250cd/m2 (typical)&lt;br /&gt; - taxa de contraste: 1000:1&lt;br /&gt; - conectividade: hdmi 1.4 x 2, dp 1.2  x1, dc x 1, 1x 3.5mm áudio.&lt;br /&gt; - power range: 100-240v 50/60hz&lt;br /&gt; - peso bruto(g): 4728&lt;br /&gt; - peso líquido(g): 3520&lt;br /&gt; conteúdo da embalagem:&lt;br /&gt; - monitor gamer redragon</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Cooler Master 23.8 Pol. Full HD (1920x1080), 0.5MS, 144Hz, IPS, HDMI, Hdr10, Vesa - Gm238-Ffs</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;monitor gamer gm238-ffs cooler master full hd hdmi 1920x1080 vesa 144hz 23,8"&lt;/b&gt;&lt;/p&gt;&lt;p&gt;&lt;br /&gt;o monitor gamer gm238-ffs possui tela full hd de 144 hz e 23,8" combinada com uma ampla gama de cores dci-p3 de 90% oferece versatilidade not&amp;aacute;vel. Com recursos essenciais para jogos e produtividade, permite uma experi&amp;ecirc;ncia de jogo suave ou foco no trabalho diurno. A densidade de pixels de 92,6 por polegada (ppi) em um monitor de 23,8 polegadas e resolu&amp;ccedil;&amp;atilde;o full hd, o gm238-ffs equilibra de forma excelente a fidelidade visual e o desempenho. O monitor gamer fornece um display fhd de 23,8" com um painel ultraspeed ips de 144 hz, com recursos como dynamic overdrive, adaptive sync e uma cobertura dci-p3 de 90%, atende a todas as suas necessidades. &amp;eacute; ideal tanto para jogos quanto para produtividade, tornando-o uma adi&amp;ccedil;&amp;atilde;o valiosa &amp;agrave; sua configura&amp;ccedil;&amp;atilde;o de trabalho e entretenimento.&lt;/p&gt;&lt;p&gt;&lt;br /&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>USADO: Monitor Gamer 24 Polegadas Acer Nitro, 165Hz, 0.5ms, Freesync, HDMI, DisplayPort, Preto, Recertificado Prata - VG252Q</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Acer Nitro Vg252q, na cor preta com detalhes em vermelho, tela de 24 polegadas, taxa de atualização de 165hz, tempo de resposta de 0.5ms, amd freesync premium, 1 entrada hdmi e 1 entrada display port&lt;br /&gt;&lt;br /&gt;Atenção: este produto é recertificado.&lt;br /&gt;Os eletrônicos são originais e acompanham nota fiscal. Os produtos passam por uma avaliação de qualidade rigorosa, que certifica as condições técnicas e estéticas do aparelho, categorizadas de acordo com os selos ouro, prata ou bronze. Você ainda conta com garantia de três meses contra problemas e pode fazer a devolução do produto em até sete dias.</t>
+  </si>
+  <si>
+    <t>Monitor Gamer KBM! GAMING MG700 27' Led Full Hd, 240hz, 1ms, Hdmi E Displayport, 96% Srgb, Adaptive Sync, Ajuste De Altura - KGMG70027PT</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Monitor Gamer KBM! GAMING MG700: Imers&amp;atilde;o e desempenho para seus jogos&lt;/h2&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;O Monitor Gamer KBM! GAMING MG700 &amp;eacute; a escolha perfeita para quem busca imers&amp;atilde;o e desempenho nos jogos. Com &lt;strong&gt;tela curva de 27 polegadas&lt;/strong&gt;, resolu&amp;ccedil;&amp;atilde;o &lt;strong&gt;Full HD&lt;/strong&gt; e taxa de atualiza&amp;ccedil;&amp;atilde;o de &lt;strong&gt;240 Hz,&lt;/strong&gt; o MG700 oferece uma experi&amp;ecirc;ncia visual incr&amp;iacute;vel.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;O tempo de resposta de &lt;strong&gt;1 ms&lt;/strong&gt; garante que voc&amp;ecirc; n&amp;atilde;o perca nenhum detalhe da a&amp;ccedil;&amp;atilde;o, mesmo nos jogos mais r&amp;aacute;pidos. Al&amp;eacute;m disso, o recurso &lt;strong&gt;AdaptiveSync&lt;/strong&gt; elimina o tearing e o stuttering, garantindo uma imagem suave e fluida.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;Para proteger a sua vis&amp;atilde;o, o MG700 conta com &lt;strong&gt;redu&amp;ccedil;&amp;atilde;o de luz azul&lt;/strong&gt; e &lt;strong&gt;Modo Game Plus&lt;/strong&gt;, que reduzem o cansa&amp;ccedil;o visual. O som integrado &amp;eacute; de alta qualidade, mas voc&amp;ecirc; tamb&amp;eacute;m pode conectar o seu headset atrav&amp;eacute;s das portas plug and play.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;Com o Monitor Gamer KBM! GAMING MG700, voc&amp;ecirc; ter&amp;aacute; tudo o que precisa para jogar seus games favoritos com o m&amp;aacute;ximo de desempenho e imers&amp;atilde;o.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;O Monitor Gamer KBM! GAMING MG700 &amp;eacute; a escolha perfeita para quem busca um monitor gamer de alta qualidade. Com recursos avan&amp;ccedil;ados e uma excelente rela&amp;ccedil;&amp;atilde;o custo-benef&amp;iacute;cio, o MG700 &amp;eacute; a garantia de uma experi&amp;ecirc;ncia de jogo inesquec&amp;iacute;vel.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Primetek, 27 Polegadas, 180hz Ips Qhd HDMI/dp</t>
+  </si>
+  <si>
+    <t>Caracteristicas: - marca: primetek - modelo: 27a2r  especificações técnicas: - tamanho do painel (diagonal) 27 - tipo de painel ips rápido - plana/ curva plana proporção 16:9 resolução 2560x1440 - tipo de moldura moldura sem moldura 3 - distância do pixel (h)*(v) (mm) 0,2331 (h) × 0,2331(v - brilho (cd/m2 )(tipo.) 250(min) 300(tipo) brilho (nits)(máx.)? 250(min) 300(tipo) - ângulo de visão (h/v) 178°(h)/178°(v) - profundidade de bits do painel verdadeiro 8 bits - cores da tela 16,7m - tempo de resposta do painel sem od 5ms tempo de resposta 1ms - taxa de atualização (máx.) 180 hz - hdmi 2.0 2 (máx. 144 hz) dp 1.4 2 (máx. 180 hz) saída de áudio 1 - design de suporte de exibição has inclinação (ângulo) 5°±2°,20°±2° giro (ângulo) 20°±2° - pivô (ângulo/direção) pviot: 90° ajuste de altura 120±5mm montagem vesa 75*75mm tecla do botão liga/desliga roker - tecla do botão osd roker contracapa design rgb - consumo de energia 48w modo de economia de energia ?0,5w modo de desligamento desligado &amp;lt,0,3 w tipo de energia adaptador de energia fonte de alimentação dc 12v, 4a - acessorios: cabo de alimentação (1,5m) 1,5m cabo dp versão 1.2 quantidade de cabo dp (1,5 m/1,8 m) 1,5 m - temperatura da cor (fria, quente, usuário) controle de luz azul baixa modo de cena dcr idiomas (23 idiomas) ajuste da luz de fundo sem oscilações freesync over drive fps/rts jogo mais modo de controle do efeito de iluminação (nenhum/mistura de cores rgb/seleção colorida) laranja - dimensão com suporte (l*a*p)(mm) 619x269,2x554,6 mm - dimensão sem suporte (lxaxp)(mm) 619x63,7x365,5 mm - dimensão da caixa (lxaxp)(mm) 715x213x471mm - peso líquido (kg) 6,3kg - peso bruto (kg) 8,3kg - garantia 1 ano &lt;br&gt;&lt;br&gt;&lt;strong&gt;especificações técnicas&lt;/strong&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;tamanho da tela:&lt;/strong&gt; 27&lt;br&gt;&lt;strong&gt;marca:&lt;/strong&gt; primetek&lt;br&gt;&lt;strong&gt;modelo:&lt;/strong&gt; 27a2r</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Redragon Mirror, Tela de 27 Polegadas FHD, 165HZ, LED, HDMI - GM27X5IPS</t>
+  </si>
+  <si>
+    <t>Características:&lt;br /&gt; - marca: redragon&lt;br /&gt; - modelo: gm27x5ips&lt;br /&gt; especificações:&lt;br /&gt; - cor: preto&lt;br /&gt; - tamanho: 27”&lt;br /&gt; - resolução: 1920 x 1080 16:9&lt;br /&gt; - tipo de painel: ips&lt;br /&gt; - taxa de atualização: 165 hz&lt;br /&gt; - número de cores: 16.7 m&lt;br /&gt; - brilho máximo: 250cd/m2 (typical)&lt;br /&gt; - taxa de contraste: 1000:1&lt;br /&gt; - conectividade: dp 1.2 x1, hdmi 1.4 x2, dc in x1&lt;br /&gt; - power range: 100-240v 50/60hz&lt;br /&gt; - tempo de resposta: 1ms&lt;br /&gt; - peso bruto(g): 5900g&lt;br /&gt; - peso liquido(g): 4200g&lt;br /&gt; conteúdo da embalagem:&lt;br /&gt; - monitor gamer redragon</t>
+  </si>
+  <si>
+    <t>Monitor Gamer 27 Polegadas, 240hz Curvo FULL HD, HDMI/dp</t>
+  </si>
+  <si>
+    <t>Caracteristicas:  - marca: primetek  - modelo: 27c1h  se você está procurando um monitor para jogos, nossas ofertas primetek te oferece uma ótima opção de modelo e um bom preço. Monitor gamer 27curvo 240hz dp/hdmi fhd primetek 27c1h que entrega imagens mais nítidas, levando sua experiência visual e seu foco no jogo para um novo nível.  especificações técnicas:  - tamanho 27´´ painel tipo va  - fonte do painel csot curva plana/ curva  - suporte hdr n resolução 1920 x 1080  - tipo de moldura moldura sem moldura 3 área de visualização da tela (a*v) (mm) 597,888 (a) x 336,312 (v) tipo de luz de fundo do painel e-led  - distância do pixel (a)(v) (mm) 0,1038(a) x 0,3114(v) brilho (nits) (máx.) 280 nits (min)  - taxa de contraste (típico) 3000:1 taxa de contraste dinâmico milhões  - ângulo de visão (h/v) 178°(h)/178°(v)  - profundidade de bits do painel 8 bits cores da tela 16,7m  - tempo de resposta do painel sem od 21ms tempo de resposta 8 ms (alta) taxa de atualização do painel (máx.) 240 hz taxa de atualização da tela (máx.) 48hz-240hz scaler pn hdmi 1.4 n/a faixa freesync n/a hdmi 2.0 2 faixa freesync 48-240 hz  - saída de áudio  - botão liga/desliga cinco botão osd cinco  - contracapa design rgb  - consumo de energia 25w tipo.,54w máx. Modo de economia de energia?0,5w modo de desligamento ?0,3w  - tipo de energia adaptador de energia fonte de alimentação 12v 4a  - acessorios: cabo de alimentação (1,5 m) 1 (1,5 m) cabo dp versão 1.2 qtd de cabo dp (1,5 m/1,8 m) 1 (1,5 m)  - temperatura da cor (fria, quente, usuário) controle de baixa luz azul modos de cenários dcr menu de idiomas 23 idiomas  - nenhum ajuste de luz de fundo intermitente sincronização adaptável freesync  - over drive fps/rts jogo mais pip/pbp qp efeito de luz laranja  - dimensão com suporte (l/a/p)(mm) 616,2x453,1x195,7 mm  - dimensão sem suporte (lxaxp)(mm) 616,2x367,2x96,3 mm  - dimensão da caixa (lxaxp)(mm) 699x169x440mm  - peso líquido (kg) 4,85kg  - peso bruto (kg) 6,72kg  - garantia 1 ano &lt;br&gt;&lt;br&gt;&lt;strong&gt;especificações técnicas&lt;/strong&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;marca:&lt;/strong&gt; primetek&lt;br&gt;&lt;strong&gt;modelo:&lt;/strong&gt; 25c1h&lt;br&gt;&lt;strong&gt;tamanho da tela:&lt;/strong&gt; 25</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Goldentec, 24 Polegadas, LED, Full HD, 144hz, 1ms</t>
+  </si>
+  <si>
+    <t>Monitor gamer goldentec 24´´ led full hd 144hz 1ms | gt gamer conta com tecnologia freesync, capaz de eliminar falhas e intermitências. Além disso, possui tecnologia lowbluelight, capaz de reduzir a luz azul do monitor proporcionando mais conforto e segurança. Conta também com 100% flicker free, suavizando a ondulação do monitor.   especificações técnicas  marcagoldentec  tamanho de tela24´´  framelesssim  resolução1920x1080 (full hd)  tempo de resposta 1ms  frequência 144hz  brilho250 cd/m²  contraste 100 milhões: 1  ângulo de visão180° (h) 180° (v)  cores16,7 milhões  inclinação ajustavel15°  tecnologia freesyncsim, elimina falhas e intermitências  tecnlogia lowbluelightsim, reduz a luz azul para mais conforto e segurança  100% flicker freesim, suaviza a ondulação do monitor  conexõeshdmi + vga  conteúdo da embalagemmonitor 24´´&lt;br&gt;fonte adaptadora&lt;br&gt;cabo hdmi&lt;br&gt;manual de instruções   &lt;br&gt;&lt;br&gt;&lt;strong&gt;especificações técnicas&lt;/strong&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;marca :&lt;/strong&gt; goldentec&lt;br&gt;&lt;strong&gt;tipo :&lt;/strong&gt; gamer&lt;br&gt;&lt;strong&gt;polegadas :&lt;/strong&gt; 24 ´´&lt;br&gt;&lt;br&gt;&lt;strong&gt;garantia : &lt;/strong&gt;12</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Grasep 27 Polegadas Led, FHD, HDMI, Som Integrado - 1920P</t>
+  </si>
+  <si>
+    <t>PRONTA ENTREGA&lt;br /&gt;3 meses de garantia com o vendedor!&lt;br /&gt;6 meses de garantia com o fabricante!&lt;br /&gt;&lt;br /&gt;Monitor PC Gamer Led Full HD Som integrado 27 pol 75Hz&lt;br /&gt;&lt;br /&gt;Eleve a qualidade visual do seu computador com este incrível monitor PC de alta definição. Projetado para oferecer uma experiência visual imersiva e nítida, este monitor é perfeito para trabalhar, jogar, assistir a filmes e muito mais.&lt;br /&gt;&lt;br /&gt;Com uma tela de alta resolução, cada detalhe ganha vida, proporcionando imagens vibrantes e cores realistas. Seja para editar fotos e vídeos, jogar seus games favoritos ou assistir a filmes em alta definição, este monitor oferece uma qualidade de imagem impressionante, com alto contraste e brilho intenso.&lt;br /&gt;&lt;br /&gt;Além disso, o monitor possui um tamanho de 27 polegadas para acomodar várias janelas e facilitar a multitarefa. Você poderá abrir e trabalhar em diferentes aplicativos ao mesmo tempo, aumentando sua produtividade e tornando seu fluxo de trabalho mais eficiente.&lt;br /&gt;&lt;br /&gt;Dimensões: 4x56x33cm&lt;br /&gt;Peso: 3.6kg&lt;br /&gt;&lt;br /&gt;Especificações:&lt;br /&gt;Tela: 27"&lt;br /&gt;Tipo: LED&lt;br /&gt;Resolução: 1920x1080&lt;br /&gt;IPS&lt;br /&gt;Tempo de resposta: 1ms&lt;br /&gt;Brilho máxima: 250cd/m&lt;br /&gt;Interfaces: HDMI/VGA/AUDIO IN&lt;br /&gt;Frequência horizontal: 67.200KHz&lt;br /&gt;Frequência vertical: 75Hz&lt;br /&gt;Consumo de potência: 35W&lt;br /&gt;Consumo Potência em Standby: 0,5&lt;br /&gt;Não possui som integrado&lt;br /&gt;Visão expansiva&lt;br /&gt;&lt;br /&gt;Itens Inclusos:&lt;br /&gt;1 Monitor 27&lt;br /&gt;1 Cabo DisplayPort&lt;br /&gt;1 Fonte AC/DC&lt;br /&gt;1 Manual</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Acer VG240Y FHD 165hz FreeSync ZeroFrame 0,5ms.</t>
+  </si>
+  <si>
+    <t>A tecnologia AMDFreeSync Premium elimina a tela ?'rasgada', minimiza atrasos e latência durante os jogos, apresentando uma sincronização dos quadros do monitor muito mais eficiente. Sua experiência visual será mais suave, fluida e responsiva. O Nitro VG240Y conta com uma alta taxa de atualização de 144Hz até 165Hz. Prepare-se para ver imagens mais suaves, sem rastros e sem rasgos. Monitor é igual exp: quanto mais, melhor. Jogue com múltiplos monitores sem problemas, o design ZeroFrame praticamente elimina as bordas para que você tenha uma verdadeira imersão no jogo. Com Display Acer HDR, o VG240Y cria níveis mais profundos do contraste preto e branco. Nas cenas mais escuras, os pretos ricos são preservados e os detalhes aprimorados, gerando maior luminosidade. A tela de 23.8 polegadas IPS Full HD potencializa seu poder de imersão nas batalhas. A latência ultrabaixa deste monitor oferece respostas rápidas além das expectativas. Você terá controle total em jogos de corrida ou esporte, devido à redução do atraso de quadro. O tempo de resposta do Nitro é de 2ms até 0,5ms.</t>
+  </si>
+  <si>
+    <t>Monitor Gamer 27 Asus Vg279q1r Tuf Gaming - Full Hd Ips - 144hz - 1ms - Freesync - Hdmi/displayport</t>
+  </si>
+  <si>
+    <t>TUF Gaming VG279Q1RO TUF Gaming VG279Q1R é uma tela Full HD (1920x1080) de 27 polegadas com uma taxa de atualização ultrarrápida de 144 Hz projetada para jogadores profissionais e aqueles que buscam jogabilidade envolvente. Ele também possui a tecnologia Adaptive-Sync (FreeSync ™), para uma jogabilidade extremamente fluida sem tearing e stuttering.MONITOR GAMING ULTRA SLIM DE 27 POLEGADASO painel Full HD (1920 X 1080) de 27 polegadas do TUF Gaming VG279Q1R oferece visuais impressionantes de ângulos de visão amplos de 178 °. Também ocupa muito pouco espaço na área de trabalho e se encaixa bem em qualquer configuração. Seu perfil ultrafino mede apenas 7,5 mm em seu ponto mais fino, também apresenta o novo Turbo Rim baseado que combina com a configuração de jogo perfeita.Refresh rate de 144hzO TUF Gaming VG279Q1R tem uma taxa de atualização super rápida de 144 Hz, garantindo que mesmo os jogos mais rápidos, jogados nas configurações visuais mais altas, tenham uma aparência suave e completamente livre de atrasos. Obtenha a vantagem em jogos de tiro em primeira pessoa, corrida, estratégia em tempo real e títulos de esportes.EXTREME LOW MOTION BLURA tecnologia Extreme Low Motion Blur exclusiva da ASUS alcança 1 ms MPRT para eliminar manchas e desfoque de movimento. Também faz com que os objetos em movimento pareçam ainda mais nítidos, para que a jogabilidade seja mais fluida e ágil.Shadow BoostA tecnologia ASUS Shadow Boost esclarece as áreas escuras do jogo sem superexpor as áreas mais brilhantes, melhorando a visualização geral, ao mesmo tempo que torna mais fácil localizar inimigos escondidos em áreas escuras do mapa.</t>
+  </si>
+  <si>
+    <t>Monitor Goldentec, 24" Led Gt Gamer Fhd, Hdmi, 75hz</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Bluecase, 21.5" Full HD, 75Hz, Rako - BM221GW</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Husky Storm 27' LED, Curvo, 165 Hz, Full HD, 1ms, Adaptive Sync, HDMI/DisplayPort, Ajuste de Ângulo - HGMT001</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Monitor Gamer Husky Storm 27' LED, Curvo, 165 Hz, Full HD, 1ms, Adaptive Sync, HDMI/DisplayPort, Ajuste de &amp;Acirc;ngulo&lt;/h2&gt;
+&lt;h3&gt;&lt;br /&gt;Esteja um passo &amp;agrave; frente!&lt;/h3&gt;
+&lt;p&gt;O Monitor Husky Storm conta com resposta de 1ms e taxa de atualiza&amp;ccedil;&amp;atilde;o de 165Hz, permitindo a mais alta performance durante suas gameplays. Sua curvatura amplia o campo de vis&amp;atilde;o relativo, concentrando toda a a&amp;ccedil;&amp;atilde;o ao alcance dos olhos do usu&amp;aacute;rio, sem perder resolu&amp;ccedil;&amp;atilde;o.&lt;/p&gt;
+&lt;h3&gt;&lt;br /&gt;Tecnologia Adaptive Sync&amp;nbsp;&lt;/h3&gt;
+&lt;p&gt;Compat&amp;iacute;vel com a tecnologia Adaptive Sync, permite a sincroniza&amp;ccedil;&amp;atilde;o dos frames da placa de v&amp;iacute;deo, decretando o fim do input lag, bem como do tearing.&lt;/p&gt;
+&lt;h3&gt;&lt;br /&gt;Monitor Curvo&amp;nbsp;&lt;/h3&gt;
+&lt;p&gt;Tenha mais imers&amp;atilde;o na sua gaming player com esse monitor curvo da Husky. Observe seus advers&amp;aacute;rios ainda mais de perto com essa imers&amp;atilde;o de 1500r de curvatura e um &amp;acirc;ngulo de vis&amp;atilde;o de 178&amp;ordm;.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h3&gt;Adaptive Sync&lt;/h3&gt;
+&lt;p&gt;Evita o imput lag e combate o problema da quebra de quadros durante a reprodu&amp;ccedil;&amp;atilde;o dos frames. Essa Tecnologia evita o travamento do jogo para uma jogabilidade mais suave poss&amp;iacute;vel. Explore novas paisagens e capture seus inimigos em movimentos suaves e cont&amp;iacute;nuos.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h3&gt;Inclin&amp;aacute;vel&lt;/h3&gt;
+&lt;p&gt;Ajuste de inclina&amp;ccedil;&amp;atilde;o da tela de 5&amp;deg; a 15&amp;deg;. Ajuste seu monitor da maneira que quiser deixando sua vis&amp;atilde;o ainda mais confort&amp;aacute;vel e ampla&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h3&gt;Monitor Husky &amp;eacute; no KaBuM!&amp;nbsp;&lt;/h3&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;&lt;a href="https://kabum.com.br/hotsite/manuais/115384-Monitor-Gamer-Husky-Storm-HGMT001.pdf" target="_blank"&gt;MANUAL DE INSTRU&amp;Ccedil;&amp;Otilde;ES&lt;/a&gt;&lt;/strong&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Monitor Asus TUF Gaming 27 Full HD, 165Hz, 1ms, IPS, HDMI e DisplayPort, FreeSync Premium, VESA - VG279Q1A</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;TUF Gaming VG279Q1A Gaming Monitor Full HD de 27 polegadas (1920x1080), IPS, 165Hz (acima de 144Hz), Extreme Low Motion Blur, Adaptive-sync, FreeSync Premium, 1ms (MPRT)&lt;/h2&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;Monitor de jogos &lt;strong&gt;IPS Full HD (1920 x 1080)&lt;/strong&gt; de 27 polegadas com &lt;strong&gt;taxa de atualiza&amp;ccedil;&amp;atilde;o ultrarr&amp;aacute;pida de 165 Hz&lt;/strong&gt;, projetado para jogadores profissionais e jogabilidade envolvente.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;A tecnologia &lt;strong&gt;ASUS Extreme Low Motion Blur (ELMB)&lt;/strong&gt; permite um &lt;strong&gt;tempo de resposta de 1 ms (MPRT)&lt;/strong&gt; junto com a sincroniza&amp;ccedil;&amp;atilde;o adaptativa, eliminando fantasmas e rasgos para visuais de jogos n&amp;iacute;tidos com altas taxas de quadros.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Tecnologia FreeSync Premium&lt;/strong&gt; para eliminar rasgos na tela e taxas de quadros inst&amp;aacute;veis.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;Suporta &lt;strong&gt;Adaptive-Sync&lt;/strong&gt; com placas gr&amp;aacute;ficas &lt;strong&gt;NVIDIA GeForce e FreeSync&lt;/strong&gt; com placas gr&amp;aacute;ficas AMD Radeon Compat&amp;iacute;vel com NVIDIA GeForce s&amp;eacute;rie GTX 10, s&amp;eacute;rie GTX 16, s&amp;eacute;rie RTX 20 e placas gr&amp;aacute;ficas mais recentes.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;O &lt;strong&gt;Shadow Boost aprimora os detalhes da imagem&lt;/strong&gt; em &amp;aacute;reas escuras, iluminando as cenas sem super expor as &amp;aacute;reas claras.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;Sa&amp;iacute;da &lt;strong&gt;Full HD (1920 x 1080) a 120 Hz no PS5 e Xbox&lt;/strong&gt; Series X/S.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h3&gt;Todos os elementos essenciais para jogos&lt;/h3&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;O TUF Gaming VG279Q1A &amp;eacute; um monitor IPS Full HD (1920 x 1080) de 27 polegadas com uma taxa de atualiza&amp;ccedil;&amp;atilde;o ultrarr&amp;aacute;pida de 165 Hz. Projetado para jogadores e outros que buscam uma jogabilidade envolvente, ele oferece algumas especifica&amp;ccedil;&amp;otilde;es s&amp;eacute;rias. Mas h&amp;aacute; mais...&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;Sua fun&amp;ccedil;&amp;atilde;o exclusiva ELMB apresenta um tempo de resposta MPRT de 1ms e tecnologia Adaptive-Sync (FreeSync Premium), para uma jogabilidade extremamente fluida sem tearing e gagueira.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h3&gt;Tela IPS de 27 polegadas para melhor reprodu&amp;ccedil;&amp;atilde;o de cores&lt;/h3&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;O painel IPS Full HD (1920 x 1080) de 27 polegadas do TUF Gaming VG279Q1A oferece visuais impressionantes de todos os &amp;acirc;ngulos com amplos &amp;acirc;ngulos de vis&amp;atilde;o de 178 graus, garantindo distor&amp;ccedil;&amp;atilde;o m&amp;iacute;nima e mudan&amp;ccedil;a de cor mesmo quando voc&amp;ecirc; est&amp;aacute; visualizando de posi&amp;ccedil;&amp;otilde;es extremas.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h3&gt;Taxa de atualiza&amp;ccedil;&amp;atilde;o super-r&amp;aacute;pida de 165 Hz&lt;/h3&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;Uma impressionante taxa de atualiza&amp;ccedil;&amp;atilde;o de 165 Hz elimina o atraso e o desfoque de movimento para dar a voc&amp;ecirc; vantagem em jogos de tiro em primeira pessoa, corrida, estrat&amp;eacute;gia em tempo real e t&amp;iacute;tulos esportivos. Essa taxa de atualiza&amp;ccedil;&amp;atilde;o ultrarr&amp;aacute;pida permite que voc&amp;ecirc; jogue nas configura&amp;ccedil;&amp;otilde;es visuais mais altas e reaja instantaneamente ao que est&amp;aacute; na tela.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h3&gt;Desfrute de uma jogabilidade super suave&lt;/h3&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;Apresenta a mais recente tecnologia Extreme Low Motion Blur exclusiva da ASUS, que atinge 1ms MPRT para eliminar manchas e desfoque de movimento, e torna os objetos em movimento mais n&amp;iacute;tidos, para que a jogabilidade seja mais fluida e responsiva.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Duex 27 Full HD Curvo, 240Hz, 1ms, IPS, HDMI e DisplayPort, 99% sRGB, VESA - 270ZG</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Monitor Gamer Duex 27 Full HD&lt;/h2&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;Uma velocidade ultrarr&amp;aacute;pida de&amp;nbsp;&lt;strong&gt;240Hz e 1ms&lt;/strong&gt;&amp;nbsp;permite que os jogadores vejam o pr&amp;oacute;ximo quadro rapidamente e fazem com que a imagem apare&amp;ccedil;a suavemente. Os jogadores podem responder rapidamente aos oponentes e mirar no alvo facilmente.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h3&gt;Compre agora no KaBuM!&lt;/h3&gt;</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Husky 700  27 LED, Curvo Wide, WQHD, 165Hz, 1ms, HDMI e DisplayPort, Adaptive Sync, VESA - HGMT008</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Monitor Gamer Husky Gaming Storm 700&lt;/h2&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;N&amp;atilde;o precisa mais se perguntar qual monitor gamer comprar! A Husky Gaming ajuda voc&amp;ecirc; a &lt;strong&gt;atualizar seu setup&lt;/strong&gt;, seja para partidas no PC ou v&amp;iacute;deo game. Sempre oferecemos &lt;strong&gt;o melhor para voc&amp;ecirc;!&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;Monitor Gamer Husky Gaming Storm 700 tem uma alta &lt;strong&gt;taxa de atualiza&amp;ccedil;&amp;atilde;o de 165 Hz&lt;/strong&gt; com &lt;strong&gt;tempo de resposta de 1 ms&lt;/strong&gt;, que possibilita um tempo de rea&amp;ccedil;&amp;atilde;o mais r&amp;aacute;pido para suas partidas insanas.&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;Sua&lt;strong&gt; tela curva Quad HD de 27"&lt;/strong&gt;, com&lt;strong&gt; resolu&amp;ccedil;&amp;atilde;o de 2560 x 1440P&lt;/strong&gt; que garante imagem mais n&amp;iacute;tida e detalhada. Proporcionando&lt;strong&gt; jogabilidade fluida&lt;/strong&gt;, &lt;strong&gt;sem distor&amp;ccedil;&amp;otilde;es&lt;/strong&gt; e uma &lt;strong&gt;experi&amp;ecirc;ncia mais imersiva&lt;/strong&gt; para voc&amp;ecirc; n&amp;atilde;o perder nenhum detalhe importante, do seu programa de esporte, filme, s&amp;eacute;rie ou jogo preferido.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h3&gt;Aproveite e garanta j&amp;aacute; o seu Monitor Gamer Husky Gaming Storm 700! no KaBuM!&lt;/h3&gt;</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Gigabyte, 27 QHD, 170Hz, 1ms, DisplayPort e HDMI, 108% sRGB, HDR, Adaptive-Sync - GS27QC SA</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Monitor Gamer Gigabyte 27 QHD&lt;/h2&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;A Mais Alta Qualidade&lt;/h2&gt;
+&lt;p&gt;Equipado com uma taxa de atualiza&amp;ccedil;&amp;atilde;o de &lt;strong&gt;165 Hz&lt;/strong&gt; que suporta a tecnologia &lt;strong&gt;Adaptive-Sync&lt;/strong&gt; (FreeSync Premium), que p&amp;otilde;e fim &amp;agrave; jogabilidade inst&amp;aacute;vel e aos frames quebrados e cria um desempenho fluido e livre de artefatos em qualquer taxa de quadros. GS27QC com um tempo de resposta extremamente r&amp;aacute;pido de &lt;strong&gt;1 ms&lt;/strong&gt; para eliminar totalmente o atraso e o rasgo da imagem.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Mais Curva e Mais Imers&amp;atilde;o&lt;/h2&gt;
+&lt;p&gt;Um painel VA nativo de &lt;strong&gt;1500 Raios&lt;/strong&gt; que apresenta uma vis&amp;atilde;o mais pr&amp;oacute;xima do olho humano do que um monitor plano, proporcionando uma sensa&amp;ccedil;&amp;atilde;o mais envolvente e ao mesmo tempo oferecendo mais conforto visual.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Milh&amp;otilde;es de Cores&lt;/h2&gt;
+&lt;p&gt;O GS27QC pode exibir &lt;strong&gt;16,7 milh&amp;otilde;es de cores&lt;/strong&gt; e possui uma taxa de contraste de &lt;strong&gt;4000:1&lt;/strong&gt;. Ele permite que voc&amp;ecirc; desfrute de uma experi&amp;ecirc;ncia de jogo fluente com cores reais e vibrantes. O GS27QC est&amp;aacute; pronto para &lt;strong&gt;HDR&lt;/strong&gt;, o que desperta interesse em uma ampla gama de aplica&amp;ccedil;&amp;otilde;es, incluindo jogos, entretenimento cinematogr&amp;aacute;fico e cria&amp;ccedil;&amp;atilde;o de conte&amp;uacute;do multim&amp;iacute;dia.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h3&gt;Compre j&amp;aacute; o seu no KaBuM!&lt;/h3&gt;</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Husky Hailstorm 31.5' LED, Curvo, 165 Hz, Full HD, 1ms, Adaptive Sync, HDMI/DisplayPort, Ajuste de Ângulo - HGMT002</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Monitor Gamer Husky Hailstorm 31.5' LED, Curvo, 165 Hz, Full HD, 1ms, Adaptive Sync, HDMI/DisplayPort, Ajuste de &amp;Acirc;ngulo&amp;nbsp;&lt;/h2&gt;
+&lt;h2&gt;&amp;nbsp;&lt;/h2&gt;
+&lt;h3&gt;Esteja um passo &amp;agrave; frente!&amp;nbsp;&lt;/h3&gt;
+&lt;p&gt;O Monitor Husky Hail Storm conta com resposta de 1ms e taxa de atualiza&amp;ccedil;&amp;atilde;o de &lt;strong&gt;165Hz&lt;/strong&gt;, permitindo a mais alta performance durante suas gameplays. Sua &lt;strong&gt;curvatura&lt;/strong&gt; amplia o campo de vis&amp;atilde;o relativo, concentrando toda a a&amp;ccedil;&amp;atilde;o ao alcance dos olhos do usu&amp;aacute;rio, sem perder resolu&amp;ccedil;&amp;atilde;o.&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h3&gt;Melhor Entrega de Imagens para sua Gameplay&lt;/h3&gt;
+&lt;p&gt;Compat&amp;iacute;vel com a tecnologia &lt;strong&gt;Adaptive Sync&lt;/strong&gt;, permite a sincroniza&amp;ccedil;&amp;atilde;o dos frames da placa de v&amp;iacute;deo, decretando o fim do input lag, bem como do tearing.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h3&gt;Conectividade&lt;/h3&gt;
+&lt;p&gt;O monitor Husky Hailstorm acompanha um cabo &lt;strong&gt;DisplayPort&lt;/strong&gt; que garante a melhor qualidade de imagem para seu jogo. Al&amp;eacute;m da conex&amp;atilde;o DP, o monitor ainda possui duas conex&amp;otilde;es &lt;strong&gt;HDMI&lt;/strong&gt; e uma &lt;strong&gt;conex&amp;atilde;o P2&lt;/strong&gt; para ouvir seu jogo diretamente do seu monitor.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h3&gt;Maior Ergonomia e Conforto para Uso Prolongado&amp;nbsp;&amp;nbsp;&lt;/h3&gt;
+&lt;p&gt;O Husky Hailstorm possui ajuste de &lt;strong&gt;inclina&amp;ccedil;&amp;atilde;o de 5&amp;deg; a 15&amp;deg;&lt;/strong&gt; que se ajusta ergonomicamente para o seu uso. O monitor tamb&amp;eacute;m conta com &lt;strong&gt;Redu&amp;ccedil;&amp;atilde;o de Luz Azul&lt;/strong&gt;, se tornando uma &amp;oacute;tima op&amp;ccedil;&amp;atilde;o para Gameplays prolongadas.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h3&gt;Seu Monitor Husky voc&amp;ecirc; encontra aqui no KaBuM!&lt;/h3&gt;</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Gigabyte 27 IPS, QHD , 144Hz, 1ms, 120% sRGB, HDR 400, FreeSync Premium, Altura Ajustável - G27Q-SA</t>
+  </si>
+  <si>
+    <t>JUNTE-SE À LUTA com o Monitor Gamer de 27" G27Q-SA da Gigabyte com 1ms de tempo de resposta, freesync premium, 144 Hz e com uma taxa de cor de 8 bits, 92% DCI-P3 A ÚLTIMA MILHA PARA O SEU SISTEMA DE JOGO Como um jogador invisível, o monitor é frequentemente subestimado. A verdade é que os monitores se formam como um efeito sinérgico e trazem o melhor desempenho dos componentes do PC. Os monitores de jogos GIGABYTE oferecem as últimas especificações e qualidade, os usuários podem realmente desfrutar de um desempenho de alto nível sem a necessidade de extravagância. Tempo de Resposta de 1 ms Tempo de resposta super rápido de 1 ms para a experiência de jogo mais suave de todos os tempos! QHD e 144Hz Alta resolução e taxa de atualização rápida, proporcionando qualidade de exibição detalhada e experiência de jogo fluida! Cor de 8 bits, 92% DCI-P3 Fantástico visor colorido e 92% de cores DCI-P3 de gama super ampla. SIMPLES MAS ESTILOSO A aparência aerodinâmica representa a simplicidade da filosofia de design da série de jogos GIGABYTE, suporte robusto e acabamento fosco construído para características funcionais e estéticas adicionando mais características. ÂNGULO DE VISÃO PERFEITO O monitor de jogos GIGABYTE possui um suporte exclusivo ergonomicamente projetado para oferecer uma ampla gama de ajustes de altura e inclinação.</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Acer 31.5 LED Full HD, Curvo, 165 Hz, 1ms, HDMI e DisplayPort, FreeSync Premium, VESA - ED320QR</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Monitor Gamer Acer 31.5 LED Full HD, Curvo, 165 Hz, 1ms, HDMI e DisplayPort, FreeSync Premium, VESA&lt;/h2&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Tela Curva e Imersiva&lt;/h2&gt;
+&lt;p&gt;Tenha uma experi&amp;ecirc;ncia visual imersiva e confort&amp;aacute;vel com uma&lt;strong&gt; tela curva&lt;/strong&gt; com raio de 1800 mm de visualiza&amp;ccedil;&amp;atilde;o. Essa tecnologia mant&amp;eacute;m os cantos da tela &amp;agrave; mesma dist&amp;acirc;ncia de seus olhos. S&amp;atilde;o &lt;strong&gt;31,5&amp;rdquo;&lt;/strong&gt; e resolu&amp;ccedil;&amp;atilde;o &lt;strong&gt;Full HD&lt;/strong&gt;, promovendo imagens n&amp;iacute;tidas, que levam seu foco no jogo a outro n&amp;iacute;vel.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Design ZeroFrame&lt;/h2&gt;
+&lt;p&gt;Monitor com tela &lt;strong&gt;LED VA&lt;/strong&gt; e design ZeroFrame, que praticamente elimina as bordas para que voc&amp;ecirc; tenha uma verdadeira imers&amp;atilde;o no jogo.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;De olho em cada Frame&lt;/h2&gt;
+&lt;p&gt;O Nitro Series ED0 conta com uma taxa de atualiza&amp;ccedil;&amp;atilde;o de at&amp;eacute; &lt;strong&gt;165Hz.&lt;/strong&gt; Prepare-se para ver imagens mais suaves, sem rastros e sem rasgos.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Foque no Movimento&lt;/h2&gt;
+&lt;p&gt;Com o Visual Response Boost (VRB) de 1 ms, o monitor reduz borr&amp;otilde;es, efeitos fantasmas e manchas nas imagens. Al&amp;eacute;m disso, elimina o desfoque em objetos em movimento r&amp;aacute;pido.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Jogue em Perfeita Sincronia&lt;/h2&gt;
+&lt;p&gt;A tecnologi&lt;strong&gt;a AMD FreeSync Premium&lt;/strong&gt; elimina a tela &amp;ldquo;rasgada&amp;rdquo;, minimiza atrasos e lat&amp;ecirc;ncia durante os jogos, apresentando uma sincroniza&amp;ccedil;&amp;atilde;o dos quadros do monitor muito mais eficiente. Sua experi&amp;ecirc;ncia visual ser&amp;aacute; mais&lt;strong&gt; suave, fluida e responsiva.&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Contrastes Impressionantes&lt;/h2&gt;
+&lt;p&gt;O contraste de 100 milh&amp;otilde;es:1 &amp;eacute; alcan&amp;ccedil;ado atrav&amp;eacute;s da tecnologia Acer Adaptive Contrast Management. Ela proporciona um&lt;strong&gt; visual mais cristalino&lt;/strong&gt; e real&amp;ccedil;a a qualidade das cores do monitor.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h3&gt;Aproveite essa oportunidade e adquira seu Monitor Acer no KaBuM!&lt;/h3&gt;</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Samsung 22' IPS, 75 Hz, Full HD, FreeSync, HDMI/VGA, VESA -  LF22T350FHLMZD</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Monitor Gamer Samsung LED 22, IPS, Full HD, Vesa, Free Sync, Modo Gaming, Preto Vis&amp;atilde;o totalmente expansiva Design minimalista, concentra&amp;ccedil;&amp;atilde;o m&amp;aacute;xima. A tela com 3 lados sem borda traz uma est&amp;eacute;tica limpa e moderna para qualquer ambiente de trabalho. Em um setup com v&amp;aacute;rios monitores, se alinham perfeitamente para uma visualiza&amp;ccedil;&amp;atilde;o praticamente sem espa&amp;ccedil;os e sem distra&amp;ccedil;&amp;otilde;es. Imagens perfeitas e suaves Agora, a imagem &amp;eacute; reproduzida sem falhas. A taxa de atualiza&amp;ccedil;&amp;atilde;o de 75Hz oferece cenas mais fluidas. Seu momento de divers&amp;atilde;o n&amp;atilde;o tem lag ou efeito fantasma, quer voc&amp;ecirc; esteja acompanhando seu programa de TV favorito, assistindo a um v&amp;iacute;deo ou jogando um jogo. A&amp;ccedil;&amp;atilde;o Sincronizada Experi&amp;ecirc;ncia de entretenimento super fluida. AMD Radeon FreeSync mant&amp;eacute;m a taxa de atualiza&amp;ccedil;&amp;atilde;o do monitor e da placa gr&amp;aacute;fica em sincronia para reduzir a quebra de imagem. Assista a filmes e jogue sem interrup&amp;ccedil;&amp;otilde;es. At&amp;eacute; mesmo as cenas r&amp;aacute;pidas s&amp;atilde;o perfeitas e suaves. Veja de qualquer &amp;acirc;ngulo Sente-se em qualquer lugar e tenha uma experi&amp;ecirc;ncia completa sem distor&amp;ccedil;&amp;atilde;o de cores. O painel IPS preserva a nitidez e a vivacidade das cores em cada cent&amp;iacute;metro da tela. Mesmo em uma tela t&amp;atilde;o ampla, os tons e sombras s&amp;atilde;o completamente precisos de praticamente qualquer &amp;acirc;ngulo, sem altera&amp;ccedil;&amp;atilde;o de cor. Mais poder de jogo As configura&amp;ccedil;&amp;otilde;es de jogo ideais proporcionam uma vantagem instant&amp;acirc;nea. Detecte inimigos escondidos nas sombras atrav&amp;eacute;s do contraste ideal, mais nitidez e cenas com cores mais vivas. O Modo de Jogo ajusta qualquer jogo para preencher sua tela visualizando todos os detalhes. Mais conforto para os olhos Proteja seus olhos e fa&amp;ccedil;a mais. A avan&amp;ccedil;ada tecnologia de conforto visual reduz a fadiga ocular para uma experi&amp;ecirc;ncia prolongada menos cansativa. A tecnologia Flicker Free remove continuamente a tremula&amp;ccedil;&amp;atilde;o cansativa e irritante da tela, enquanto o Eye Saver Mode minimiza a emiss&amp;atilde;o de luz azul. Seus olhos ficam descansados por mais tempo. Versatilidade de verdade Conecte-se a mais. Com as portas HDMI e D-sub, v&amp;aacute;rios dispositivos podem ser conectados diretamente ao seu monitor para total flexibilidade. Agora, seu ambiente de computa&amp;ccedil;&amp;atilde;o &amp;eacute; ainda mais conveniente com possibilidades de entrada adicionais.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Monitor Gamer AOC Agon 31.5' LED, Curvo, 165 Hz, Full HD, 1ms, FreeSync Premium, HDMI/DisplayPort, RGB Light FX - AG323FCXE</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Com tela de alta qualidade, amplo &amp;acirc;ngulo de vis&amp;atilde;o e comando em tempo real, prepare-se para obter uma experi&amp;ecirc;ncia muito mais imersiva em todos os g&amp;ecirc;neros de jogos. Projetado para gamers, o monitor Agon permite movimentos muito mais flu&amp;iacute;dos nos jogos devido a alt&amp;iacute;ssima taxa de atualiza&amp;ccedil;&amp;atilde;o de 165 Hz. O tempo de resposta de 1 ms proporciona movimentos instant&amp;acirc;neos e naturais para voc&amp;ecirc; ser o melhor, e com o painel VA, voc&amp;ecirc; tem mais brilho e contraste para enxergar onde os seus inimigos est&amp;atilde;o, mesmo em cenas com pouca ilumina&amp;ccedil;&amp;atilde;o. Al&amp;eacute;m disso, o design exclusivo com LEDs em diferentes configura&amp;ccedil;&amp;otilde;es de cores RGB deixam a sua maratona de jogos ainda mais emocionante.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Monitor Gamer LG Ultra Gear 27 Full HD, 144 Hz, 1ms, IPS, HDMI e DisplayPort, sRGB 99%, HDR10, FreeSync, VESA, Altura Ajustável - 27GL650F-B</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Monitor Gamer LG Ultra Gear 27 Full HD&lt;/h2&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Evolua o Jogo Antes do Seu Rival:&lt;/h2&gt;
+&lt;p&gt;Tenha incr&amp;iacute;vel qualidade de imagens e decis&amp;otilde;es imediatas aos seus jogos com o Monitor Gamer LG 27GL650F.&lt;br /&gt;Os &lt;strong&gt;frames ultra-r&amp;aacute;pidos&lt;/strong&gt; de &lt;strong&gt;144Hz&lt;/strong&gt; permite os jogadores a reagirem imediatamente aos seus advers&amp;aacute;rios e mudar a hist&amp;oacute;ria do jogo para a sua vit&amp;oacute;ria.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;1ms Motion Blur Reduction&lt;/h2&gt;
+&lt;p&gt;Tenha imagens sem rastros e a&amp;ccedil;&amp;otilde;es mais r&amp;aacute;pidos com o &lt;strong&gt;tempo de resposta de 1ms&lt;/strong&gt; com &lt;strong&gt;Motion Blur Reduction.&lt;br /&gt;&lt;/strong&gt;O LG 27GL650F exibe &lt;strong&gt;precis&amp;atilde;o de cores impec&amp;aacute;vel&lt;/strong&gt; com um &amp;acirc;ngulo de vis&amp;atilde;o ampliado de 178&amp;deg;.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Compat&amp;iacute;vel com G-SYNC certificado pela NVIDIA&lt;/h2&gt;
+&lt;p&gt;Ap&amp;oacute;s ser testado pela NVIDIA, o monitor LG 27GL650F &amp;eacute; oficialmente compat&amp;iacute;vel com &lt;strong&gt;G-SYNC&lt;/strong&gt;, eliminando cortes e minimizando as repeti&amp;ccedil;&amp;otilde;es de imagem para uma experi&amp;ecirc;ncia mais fluida nos seus jogos.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Incr&amp;iacute;vel qualidade de imagem&lt;/h2&gt;
+&lt;p&gt;Tenha&lt;strong&gt; imagens supreendentes&lt;/strong&gt; com &lt;strong&gt;HDR10&lt;/strong&gt;, que reproduz alto brilho e maior gama de cores quando comparado a monitores convencionais deixando as imagens com maior qualidade em situa&amp;ccedil;&amp;otilde;es mais brilhantes ou de maior contraste.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Imagens sem falhas&lt;/h2&gt;
+&lt;p&gt;A tecnologia &lt;strong&gt;AMD FreeSync&lt;/strong&gt; reduz corte e repeti&amp;ccedil;&amp;otilde;es de imagens que ocorrem devido a diferen&amp;ccedil;a entre os quadros gr&amp;aacute;ficos e a taxa de atualiza&amp;ccedil;&amp;atilde;o do monitor. Com o FreeSync, os jogadores podem experimentar &lt;strong&gt;movimentos perfeitos e fluidos durante os jogo&lt;/strong&gt; de altas configura&amp;ccedil;&amp;otilde;es visuais.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h3&gt;Compre agora no KaBuM!&lt;/h3&gt;</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Samsung Odyssey G3, 24 Full HD, 144Hz, 1ms, FreeSync Premium, HDMI/Displayport, Ajuste de altura, Preto - LF24G35TFWLXZD</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Monitor Gamer Samsung Odyssey G3, 24 Full HD, 144Hz, 1ms, FreeSync Premium, HDMI/Displayport, Ajuste de altura, Preto&amp;nbsp;&lt;/h2&gt;
+&lt;p&gt;&lt;br /&gt;Monitor Gamer Samsung Odyssey G3 24&amp;rdquo;, FHD, 144 Hz, 1ms, com ajuste de altura, HDMI, DP, VGA, Freesync, Preto, S&amp;eacute;rie G3 Taxa de atualiza&amp;ccedil;&amp;atilde;o de 144Hz Domine todos os inimigos, mesmo em cenas muito r&amp;aacute;pidas. A taxa de atualiza&amp;ccedil;&amp;atilde;o de 144Hz elimina atrasos e desfoque de movimento para uma jogabilidade emocionante com a&amp;ccedil;&amp;atilde;o ultra suave.&lt;/p&gt;
+&lt;h3&gt;&lt;br /&gt;Tempo de resposta de 1ms&lt;/h3&gt;
+&lt;p&gt;Fa&amp;ccedil;a cada movimento contar com um tempo de resposta de 1ms. Ataque seus inimigos assim que os vir e fique &amp;agrave; frente com movimentos precisos do mouse. Seu desempenho na tela &amp;eacute; t&amp;atilde;o r&amp;aacute;pido quanto seus pr&amp;oacute;prios reflexos.&lt;/p&gt;
+&lt;h3&gt;&lt;br /&gt;AMD FreeSync Premium&lt;/h3&gt;
+&lt;p&gt;Jogabilidade suave sem esfor&amp;ccedil;o. O AMD FreeSync Premium apresenta tecnologia de sincroniza&amp;ccedil;&amp;atilde;o adapt&amp;aacute;vel, que reduz o travamento de tela, oscila&amp;ccedil;&amp;atilde;o e atrasos. Veja o jogo do seu jeito Gire, incline e ajuste seu monitor at&amp;eacute; que todos os inimigos estejam perfeitamente vis&amp;iacute;veis. Sua tela pode ser movida livremente para que voc&amp;ecirc; encontre conforto total no jogo. Design de tela cheia O design sem borda de 3 lados revela espa&amp;ccedil;o m&amp;aacute;ximo para uma jogabilidade maior e mais ousada. Alinhe dois monitores com precis&amp;atilde;o em uma configura&amp;ccedil;&amp;atilde;o de monitor duplo sem que nenhum inimigo fique escondido na jun&amp;ccedil;&amp;atilde;o.&lt;/p&gt;
+&lt;h3&gt;&lt;br /&gt;Mais conforto para os olhos&lt;/h3&gt;
+&lt;p&gt;Jogue por mais tempo sem incomodo visual. O Eye Saver Mode minimiza a emiss&amp;atilde;o de luz azul para manter seus olhos relaxados e confort&amp;aacute;veis enquanto joga por muitas horas. A tecnologia Flicker Free remove continuamente a tremula&amp;ccedil;&amp;atilde;o cansativa e irritante da tela para que voc&amp;ecirc; possa jogar por mais tempo sem distra&amp;ccedil;&amp;otilde;es ou fadiga ocular.&lt;/p&gt;
+&lt;h3&gt;&lt;br /&gt;Garanta o seu no KaBuM!&lt;/h3&gt;</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Concórdia 27" LED Full HD, 165Hz, 1ms, HDMI/DisplayPort, FreeSync, Preto - G5s</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Monitor Conc&amp;oacute;rdia Gamer G5s 27" Led Full Hd 165hz Freesync Hdmi Display Port&lt;/h2&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;O Monitor Conc&amp;oacute;rdia Gamer G5s de 27" 144Hz/165Hz apresenta tecnologia para tornar sua experi&amp;ecirc;ncia com games ainda mais intensa. Sem rastros, sem atraso, sem imagens tremidas! Tudo isso possibilitado pela sua taxa de atualiza&amp;ccedil;&amp;atilde;o de 144Hz/165Hz e tecnologia Freesync que juntos tornam esse monitor a sua melhor escolha. Com som embutido, conex&amp;atilde;o para fones, ele ainda facilita a sua vida com duas&amp;nbsp; conex&amp;otilde;es HDMI.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h3&gt;Alto desempenho com conveni&amp;ecirc;ncia a um pre&amp;ccedil;o justo nesse excelente painel PVA.&lt;/h3&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Monitor Gamer LG 25' IPS, Ultra Wide, 75 Hz, Full HD,  99% sRGB, HDMI, VESA - 25UM58-G</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Monitor Gamer LG UltraWide&lt;/h2&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h3&gt;1ms Motion Blur Reduction&lt;/h3&gt;
+&lt;p&gt;Tenha &lt;strong&gt;imagens sem rastros&lt;/strong&gt; e &lt;strong&gt;a&amp;ccedil;&amp;otilde;es mais r&amp;aacute;pidas&lt;/strong&gt; com o &lt;strong&gt;tempo de resposta de 1ms&lt;/strong&gt; com &lt;strong&gt;Motion Blur Reduction&lt;/strong&gt;.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h3&gt;UltraWide&lt;/h3&gt;
+&lt;p&gt;A propor&amp;ccedil;&amp;atilde;o da imagem do monitor UltraWide torna os jogos e filmes mais envolventes do que nunca. A &lt;strong&gt;nitidez da resolu&amp;ccedil;&amp;atilde;o Full HD&lt;/strong&gt; de &lt;strong&gt;1080P com IPS&lt;/strong&gt; faz a diferen&amp;ccedil;a. Simplificando, de qualquer &amp;acirc;ngulo de vis&amp;atilde;o, tudo fica mais n&amp;iacute;tido e detalhado em FULL HD .&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h3&gt;Recursos Avan&amp;ccedil;ados para Jogos&lt;/h3&gt;
+&lt;p&gt;Ative o &lt;strong&gt;Dynamic Action Sync&lt;/strong&gt; para que o monitor acompanhe a velocidade das suas habilidades e veja os inimigos nos lugares mais escuros com o &lt;strong&gt;Black Stabilizer.&amp;nbsp;&lt;/strong&gt;Defina as condi&amp;ccedil;&amp;otilde;es ideais de jogo no Modo de Jogo. H&amp;aacute; &lt;strong&gt;3 modos&lt;/strong&gt; &lt;strong&gt;para jogadores&lt;/strong&gt;: &lt;strong&gt;2 modos de tiro&lt;/strong&gt; &lt;strong&gt;em primeira pessoa&lt;/strong&gt; e at&amp;eacute; mesmo um &lt;strong&gt;modo predefinido&lt;/strong&gt; &lt;strong&gt;de estrat&amp;eacute;gia em tempo real&lt;/strong&gt;.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h3&gt;On-Screen Control&lt;/h3&gt;
+&lt;p&gt;O Controle On-Screen coloca uma s&amp;eacute;rie de &lt;strong&gt;configura&amp;ccedil;&amp;otilde;es essenciais em uma pr&amp;aacute;tica janela para acesso f&amp;aacute;cil&lt;/strong&gt;. As &lt;strong&gt;configura&amp;ccedil;&amp;otilde;es de volume, brilho, predefini&amp;ccedil;&amp;otilde;es de modo de imagem&lt;/strong&gt;, &lt;strong&gt;Screen Split 2.0 e Dual Controller&lt;/strong&gt;, al&amp;eacute;m de muitas outras, podem agora ser ajustadas com apenas alguns cliques do mouse, em vez dos bot&amp;otilde;es f&amp;iacute;sicos do monitor.&amp;nbsp;&lt;strong&gt;Personalize o layout de seu monitor&lt;/strong&gt; para multitarefas com a &amp;uacute;ltima vers&amp;atilde;o do LG Screen Split. &lt;strong&gt;Redimensione e exiba v&amp;aacute;rias janelas ao mesmo tempo&lt;/strong&gt;, com 14 op&amp;ccedil;&amp;otilde;es que incluem quatro escolhas diferentes de picture-in-picture (&lt;strong&gt;PIP&lt;/strong&gt;).&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;Compre no &lt;strong&gt;KaBuM!&lt;/strong&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Asus TUF 27' IPS, 165 Hz, Full HD, 1ms, Adaptive Sync, HDMI/DisplayPort, Ajuste de Altura, Vesa, Som Integrado - VG279QR</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Monitor de jogos Full HD (1920 x 1080) de 27 polegadas com taxa de atualiza&amp;ccedil;&amp;atilde;o ultrarr&amp;aacute;pida de 165 Hz projetado para jogadores profissionais e jogabilidade envolvente. A tecnologia ASUS Extreme Low Motion Blur (ELMB ?) permite um tempo de resposta de 1 ms (MPRT), eliminando fantasmas para visuais n&amp;iacute;tidos de jogos. O Shadow Boost aprimora os detalhes da imagem em &amp;aacute;reas escuras, iluminando cenas sem expor demais as &amp;aacute;reas claras. Processamento compat&amp;iacute;vel com G-SYNC, proporcionando uma experi&amp;ecirc;ncia de jogo perfeita e sem problemas ao habilitar VRR (taxa de atualiza&amp;ccedil;&amp;atilde;o vari&amp;aacute;vel) por padr&amp;atilde;o. Apresenta um suporte ergonomicamente projetado para oferecer extensos ajustes de rota&amp;ccedil;&amp;atilde;o, inclina&amp;ccedil;&amp;atilde;o, rota&amp;ccedil;&amp;atilde;o e altura.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Concórdia C240 23.8, LED, HDMI, Full HD, Curvo, 75Hz, 2ms, Vermelho - 40511</t>
+  </si>
+  <si>
+    <t>Monitor Concórdia Gamer Curvo C240 23.8" Led Full HD HDMI VGA A tecnologia do novo C240 garante uma imersão total em seus jogos. Prepare-se para uma nova experiência com seus games! Agora você pode escolher ele em duas versões:todo preto ou preto com detalhe em vermelho.</t>
+  </si>
+  <si>
+    <t>Monitor Gamer LG Ultra Gear 23.8' IPS, 144 Hz, Full HD, 1ms, FreeSync, HDR 10, 99% sRGB, HDMI/DisplayPort, Ajuste de Ângulo - 24GN600-B</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Monitor Gamer LG Ultra Gear 23.8 Full HD, 144Hz, 1ms, IPS, DMI, DisplayPort, 99% sRGB, Ajuste de &amp;Acirc;ngulo, FreeSync, HDR10, Preto&lt;/h2&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Inova&amp;ccedil;&amp;atilde;o sem fronteiras para jogos&lt;/h2&gt;
+&lt;p&gt;Complete seu setup Gamer com o monitor LG UltraGear premium. Desenvolvido para o Gamer, com os recursos mais avan&amp;ccedil;ados, aliados a ergonomia e &lt;strong&gt;design eletrizante&lt;/strong&gt;, entregando a experi&amp;ecirc;ncia imersiva! Seja o melhor com os melhores recursos feitos para apoiar sua vit&amp;oacute;ria, tempo de resposta de &lt;strong&gt;1ms Real&lt;/strong&gt; (GtG), em um painel com cores vislumbrantes IPS.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Jogabilidade fluida com frames instantaneos&lt;/h2&gt;
+&lt;p&gt;Os frames ultra-r&amp;aacute;pidos de 144Hz permite os jogadores a reagirem imediatamente aos seus advers&amp;aacute;rios e mudar a hist&amp;oacute;ria do jogo para a sua vit&amp;oacute;ria.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Aproveite os v&amp;iacute;deos e jogos HDR mais modernos&lt;/h2&gt;
+&lt;p&gt;O HDR10 melhora a qualidade da imagem com imers&amp;atilde;o visual mais din&amp;acirc;mica e cores aprimoradas do conte&amp;uacute;do HDR. &lt;strong&gt;HDR10&lt;/strong&gt; &amp;eacute; o padr&amp;atilde;o HDR digital baseado na gama de cores&lt;strong&gt; sRGB 99%&lt;/strong&gt;. Uma diferen&amp;ccedil;a real de cor e brilho.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Mais clara, suave e r&amp;aacute;pida&lt;/h2&gt;
+&lt;p&gt;Com a tecnologia &lt;strong&gt;FreeSync&lt;/strong&gt; os jogos t&amp;ecirc;m movimentos perfeitos e fluidos, balanceada com o processamento da placa de v&amp;iacute;deo, acabando com as imagens emba&amp;ccedil;adas e frames engasgados.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Design elegante&lt;/h2&gt;
+&lt;p&gt;Uma experi&amp;ecirc;ncia incr&amp;iacute;vel com imers&amp;atilde;o total. Design exuberante com&lt;strong&gt; bordas infinitas&lt;/strong&gt; (3-Side Bordeless) permitem uma imagem perfeita com incr&amp;iacute;vel imers&amp;atilde;o&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h3&gt;Aproveite essa oportunidade e adquira seu Monitor Gamer LG Ultra Gear no KaBuM!&lt;/h3&gt;</t>
   </si>
   <si>
     <t>Monitor Gamer Husky Snow 23.6 LED Full HD, Curvo, 165Hz, 1ms, HDMI e DisplayPort, Adaptive Sync, Ajuste de Ângulo - HGMT000</t>
@@ -880,99 +1368,69 @@
 &lt;p style="text-align: justify;"&gt;&lt;strong&gt;&lt;a href="https://kabum.com.br/hotsite/manuais/115383-Monitor-Gamer-Husky-Snow-HGMT000.pdf" target="_blank"&gt;MANUAL DE INSTRU&amp;Ccedil;&amp;Otilde;ES&lt;/a&gt;&lt;/strong&gt;&lt;/p&gt;</t>
   </si>
   <si>
-    <t>Monitor Gamer Draxen 23.8'' resolução de 1920 x 1080 tempo de resposta de 1 MS 165HZ Full HD, Sem Borda</t>
-  </si>
-  <si>
-    <t>o monitor gamer draxen 165hz full hd é tudo o que você precisa para completar o seu setup. desenvolvido pensando no seu estilo de vida, oferecendo qualidade, desempenho e um design mais moderno do que nunca. a sua tela 23.8 lhe dará comodidade para estudar, trabalhar ou assistir sua série ou filme favoritos no seu tempo de lazer. além disso, sua alta resolução de 1920 x 1080 permite que você desfrute de momentos únicos graças a uma imagem nítida, cores realistas e contraste incrível. exibição de vídeo perfeita com tempo de resposta de 1 ms e mais de 16,7 milhões de cores que transformam as imagens em uma experiência muito fiel à realidade.&lt;br&gt;aprimore sua configuração com estilo. a furação padrão vesa 75x75 permite que você fixe o monitor em uma parede ou em um suporte.</t>
-  </si>
-  <si>
-    <t>Monitor Gamer KBM! GAMING MG330 31.5' Led, Curvo, 165 Hz, Full Hd, 1ms, Adaptive Sync, Hdmi/Displayport, Ajuste De Ângulo - KGMG33031PT</t>
-  </si>
-  <si>
-    <t>&lt;h2&gt;Monitor Gamer KBM! GAMING MG330 31.5' LED, Curvo, 165 Hz, Full HD, 1ms, Adaptive Sync, HDMI/DisplayPort, Ajuste de&amp;nbsp; ngulo - KGMG330&lt;/h2&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h2&gt;Esteja um passo &amp;agrave; frente!&lt;/h2&gt;
-&lt;p&gt;O Monitor Gamer KBM! GAMING MG330 conta com resposta de &lt;strong&gt;1ms&lt;/strong&gt; e taxa de atualiza&amp;ccedil;&amp;atilde;o de &lt;strong&gt;165Hz&lt;/strong&gt;, permitindo a mais alta performance durante suas gameplays. Sua curvatura amplia o campo de vis&amp;atilde;o relativo, concentrando toda a a&amp;ccedil;&amp;atilde;o ao alcance dos olhos do usu&amp;aacute;rio, sem perder resolu&amp;ccedil;&amp;atilde;o.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h2&gt;Melhor Entrega de Imagens para sua Gameplay&lt;/h2&gt;
-&lt;p&gt;Compat&amp;iacute;vel com a tecnologia &lt;strong&gt;Adaptive Sync&lt;/strong&gt;, permite a sincroniza&amp;ccedil;&amp;atilde;o dos frames da placa de v&amp;iacute;deo, decretando o fim do input lag, bem como do tearing.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h2&gt;Conectividade&lt;/h2&gt;
-&lt;p&gt;O Monitor Gamer KBM! GAMING MG330 acompanha um cabo &lt;strong&gt;DisplayPort&lt;/strong&gt; que garante a melhor qualidade de imagem para seu jogo. Al&amp;eacute;m da conex&amp;atilde;o DP, o monitor ainda possui duas conex&amp;otilde;es &lt;strong&gt;HDMI&lt;/strong&gt; e uma conex&amp;atilde;o &lt;strong&gt;P2&lt;/strong&gt; para ouvir seu jogo diretamente do seu monitor.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h2&gt;Maior Ergonomia e Conforto para Uso Prolongado&lt;/h2&gt;
-&lt;p&gt;O Monitor Gamer KBM! GAMING MG330 possui ajuste de inclina&amp;ccedil;&amp;atilde;o &lt;strong&gt;de 5&amp;deg; a 15&amp;deg;&lt;/strong&gt; que se ajusta ergonomicamente para o seu uso. O monitor tamb&amp;eacute;m conta com &lt;strong&gt;Redu&amp;ccedil;&amp;atilde;o de Luz Azul&lt;/strong&gt;, se tornando uma &amp;oacute;tima op&amp;ccedil;&amp;atilde;o para Gameplays prolongadas.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h3&gt;Seu Monitor KBM! GAMING voc&amp;ecirc; encontra aqui no KaBuM!&lt;/h3&gt;</t>
-  </si>
-  <si>
-    <t>Monitor Gamer Gigabyte 27 Full HD, 165Hz, 1ms, IPS, HDMI e DisplayPort, 130% sRGB, HDR, FreeSync, Altura Ajustável - G27F2BR</t>
-  </si>
-  <si>
-    <t>&lt;h2&gt;Monitor Gamer Gigabyte 27 Full HD&lt;/h2&gt;
-&lt;h2&gt;&amp;nbsp;&lt;/h2&gt;
-&lt;h2&gt;A &amp;Uacute;ltima Milha para o seu Sistema de Jogo&lt;/h2&gt;
-&lt;p&gt;Como um jogador invis&amp;iacute;vel, o monitor costuma ser subestimado. A verdade &amp;eacute; que os monitores se formam como um efeito sin&amp;eacute;rgico e trazem o melhor desempenho dos componentes do PC. Os monitores de jogos GIGABYTE oferecem &lt;strong&gt;as especifica&amp;ccedil;&amp;otilde;es e qualidade mais recentes&lt;/strong&gt;, os usu&amp;aacute;rios podem realmente desfrutar de um &lt;strong&gt;desempenho de alto n&amp;iacute;vel&lt;/strong&gt; sem a necessidade de extravag&amp;acirc;ncia.&lt;/p&gt;
-&lt;p&gt;Suporta tecnologia&amp;nbsp;&lt;strong&gt;Adaptive-Sync&lt;/strong&gt;&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h2&gt;Tempo de resposta MPRT de 1ms&lt;/h2&gt;
-&lt;p&gt;&lt;strong&gt;Tempo de resposta super r&amp;aacute;pido de 1ms&lt;/strong&gt;&amp;nbsp;para a experi&amp;ecirc;ncia de jogo mais suave de todos os tempos!&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h2&gt;FHD com 165 Hz (OC 180 Hz)&lt;/h2&gt;
-&lt;p&gt;&lt;strong&gt;Alta resolu&amp;ccedil;&amp;atilde;o&lt;/strong&gt;&amp;nbsp;e taxa de atualiza&amp;ccedil;&amp;atilde;o r&amp;aacute;pida, oferecendo qualidade de exibi&amp;ccedil;&amp;atilde;o detalhada e experi&amp;ecirc;ncia de jogo fluida!&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h2&gt;95% DCI-P3&lt;/h2&gt;
-&lt;p&gt;Fant&amp;aacute;stica&lt;strong&gt;&amp;nbsp;tela colorida e 130%&lt;/strong&gt;&amp;nbsp;DCI-P3 super ampla gama de cores.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h2&gt;Simples e Estiloso&lt;/h2&gt;
-&lt;p&gt;A&amp;nbsp;&lt;strong&gt;apar&amp;ecirc;ncia simplificada&lt;/strong&gt;&amp;nbsp;representa a simplicidade da filosofia de design da s&amp;eacute;rie de jogos GIGABYTE, &lt;strong&gt;suporte robusto e acabamento fosco&lt;/strong&gt; constru&amp;iacute;do para recursos funcionais e est&amp;eacute;ticos adicionando mais &amp;agrave;s caracter&amp;iacute;sticas.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h2&gt;OSD Sidekick&lt;/h2&gt;
-&lt;p&gt;O GIGABYTE&amp;nbsp;&lt;strong&gt;OSD Sidekick&lt;/strong&gt;&amp;nbsp;permite que voc&amp;ecirc; defina as op&amp;ccedil;&amp;otilde;es de exibi&amp;ccedil;&amp;atilde;o com teclado e mouse, oferecendo a maneira mais &lt;strong&gt;f&amp;aacute;cil de ajustar&lt;/strong&gt; as configura&amp;ccedil;&amp;otilde;es do monitor.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h2&gt;Painel&lt;/h2&gt;
-&lt;p&gt;O painel revela suas&amp;nbsp;&lt;strong&gt;informa&amp;ccedil;&amp;otilde;es de hardware em tempo real&lt;/strong&gt;, incluindo&amp;nbsp;&lt;strong&gt;voltagens da CPU, velocidade do clock, temperaturas, etc.&lt;/strong&gt;&amp;nbsp;A melhor parte &amp;eacute; que n&amp;atilde;o ser&amp;aacute; bloqueado por nenhum jogo.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h2&gt;Equalizador Preto&lt;/h2&gt;
-&lt;p&gt;Esse recurso permite que voc&amp;ecirc; tenha mais&amp;nbsp;&lt;strong&gt;detalhes do lado escuro&lt;/strong&gt;&amp;nbsp;sem superexpor o lado claro ao mesmo tempo.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h2&gt;Atualiza&amp;ccedil;&amp;atilde;o autom&amp;aacute;tica&lt;/h2&gt;
-&lt;p&gt;Os usu&amp;aacute;rios podem &lt;strong&gt;desfrutar sem esfor&amp;ccedil;o da melhor experi&amp;ecirc;ncia de jogo&lt;/strong&gt; com recursos que a GIGABYTE continua a desenvolver e atualizar enquanto oferece&amp;nbsp;&lt;strong&gt;prote&amp;ccedil;&amp;atilde;o extra ao seu monitor&lt;/strong&gt;.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h2&gt;&amp;Acirc;NGULO DE VIS&amp;Atilde;O PERFEITO&lt;/h2&gt;
-&lt;p&gt;O monitor Gaming GIGABYTE possui um suporte exclusivo projetado ergonomicamente para oferecer&amp;nbsp;&lt;strong&gt;ampla gama de ajustes de altura e inclina&amp;ccedil;&amp;atilde;o&lt;/strong&gt;.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h3&gt;Compre agora no KaBuM!&lt;/h3&gt;</t>
-  </si>
-  <si>
-    <t>Monitor 27" LED/IPS Acer Gamer Ultra Fino, 75Hz, 1Ms, HDMI + VGA - SA270</t>
-  </si>
-  <si>
-    <t>&lt;b&gt;Monitor Gamer Acer LCD 27 SA270 Bbix Full HD 75Hz 1ms IPS FreeSync HDMI Preto UM.HS0AA.B02&lt;/b&gt;&lt;br /&gt;&lt;br /&gt;NÃO PERCA NENHUM DETALHE DO SEU JOGO&lt;br /&gt;Veja tudo em alta definição com a resolução de 1920 x 1080 Full HD.&lt;br /&gt;E com as 27 da tela, seus jogos terão um campo de visão privilegiado.&lt;br /&gt;&lt;br /&gt;ENTRE NO UNIVERSO GAMER&lt;br /&gt;Garanta uma ótima performance de cor em seus jogos favoritos. O painel In Plane Switching (IPS) promove cores mais vibrantes e nítidas de qualquer ângulo, sem deixar rastros.&lt;br /&gt;&lt;br /&gt;ESTEJA PRONTO PARA JOGAR&lt;br /&gt;A taxa de atualização de 75Hz leva a renderização dos seus jogos a outro nível.&lt;br /&gt;E o tempo de resposta de 1ms acelera as transições e não trava durante a ação.</t>
-  </si>
-  <si>
-    <t>Monitor Gamer Bluecase 23.6 Polegadas, Curvo, LED FULL HD, 180Hz, HDMI,VGA, Preto - Bm24ffd1gc</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;&lt;b&gt;monitor gamer full hd curvo led 23,6" bluecase 180hz hdmi vga preto - bm24ffd1gc&lt;/b&gt;&lt;/p&gt;&lt;p&gt;&lt;br /&gt;o monitor gamer bm24ffd1gc possui um tamanho de 23,6", proporcionando uma resolu&amp;ccedil;&amp;atilde;o m&amp;aacute;xima de 1920x1080 pixels full hd. Sua taxa de atualiza&amp;ccedil;&amp;atilde;o m&amp;aacute;xima &amp;eacute; de 180 hz atrav&amp;eacute;s das conex&amp;otilde;es hdmi e dp, oferece imagens mais suaves e fluidas.&amp;nbsp;equipado com ilumina&amp;ccedil;&amp;atilde;o led, o monitor possui um brilho de 300 cd/m&amp;sup2; e um contraste t&amp;iacute;pico de 4.000:1, resultando em cores vibrantes e imagens detalhadas. O monitor gamer bm24ffd1gc &amp;eacute; uma &amp;oacute;tima escolha para jogos, trabalho e entretenimento, proporcionando uma experi&amp;ecirc;ncia visual envolvente e de alta qualidade.&lt;/p&gt;&lt;p&gt;&lt;br /&gt;&lt;b&gt;caracter&amp;iacute;sticas monitor gamer led full hd bluecase 23,6" 180hz - preto&lt;/b&gt;&lt;br /&gt;- marca: bluecase&lt;br /&gt;- modelo: bm24ffd1gcbx&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>Monitor Gamer Bluecase 24 Polegadas Full HD,  144HZ, 1ms, HDMI e DisplayPort, FreeSync - BM242GW</t>
-  </si>
-  <si>
-    <t>Monitor Gamer Full HD 144Hz de atualização para melhores gráficos. Com 1 conector DisplayPort e 1 conector HDMI. &lt;br /&gt;&lt;br /&gt;TAXA DE ATUALIZAÇÃO   &lt;br /&gt;Uma taxa de atualização de 144Hz deixa a sua tela sem nenhum borrão, serrilhado ou "ghosting". FLICKER-FREE   A função Flicker-Free regula o brilho para diminuir o cansaço dos olhos durante os jogos. &lt;br /&gt;&lt;br /&gt;APENAS 1MS TEMPO DE RESPOSTA (GTG)   &lt;br /&gt;Melhor desempenho e experiência de jogo nas ações de rápido movimento. &lt;br /&gt;&lt;br /&gt;TECNOLOGIA AMD FREESYNC   &lt;br /&gt;O AMD FREESYNC faz a sincronização entre a taxa de atualização de seu monitor e a taxa de quadros de sua placa de vídeo eliminando imagens quebradas.</t>
-  </si>
-  <si>
-    <t>Monitor Gamer HQ 27 Polegadas, FULL HD 144HZ A 240HZ 1MS HDMI Display Port, Curvo LED, Alto Falantes Iluminação RGB - Battle 27h240g</t>
-  </si>
-  <si>
-    <t>Monitor gamer hq battle&lt;br /&gt;&lt;br /&gt;A jogatina perfeita&lt;br /&gt;Com o monitor hq battle, os seus movimentos serão instantâneos e o seu tempo de reação ocorrerá em tempo real em qualquer tipo de jogo.&lt;br /&gt;Sem atrasos, você jogará com desempenho profissional.&lt;br /&gt;Graças a combinação de tempo de resposta ultrarápido + alta taxa de atualização, você sairá na frente dos seus oponentes:&lt;br /&gt;&lt;br /&gt;Tempo de resposta: 1ms&lt;br /&gt;Desempenho sem igual, imagens nítidas e sem espera. Enxergue toda a cena no milésimo de segundo em que ela acontece. Não desperdice nenhum movimento. O seu reflexo convertido em vitórias!&lt;br /&gt;&lt;br /&gt;Taxa de atualização: 240hz&lt;br /&gt;Nada de rastros nem imagens desfocadas. Tenha uma incrível vantagem sobre o seu adversário, principalmente em cenas rápidas. A altíssima taxa de atualização permitirá a você perceber cada sensível mudança no ambiente. E diferente dos demais modelos da linha battle, o 27h240g possui incríveis 240hz. É a garantia de uma experiência sublime.&lt;br /&gt;&lt;br /&gt;Amd freesync e nvidia g-sync&lt;br /&gt;E para completar o time, o monitor hq battle conta com as tecnologias amd freesync e nvidia g-sync. Incríveis ferramentas que impedem imagens serrilhadas e cortadas.&lt;br /&gt;Elas apresentam a tecnologia de sincronização adaptável, que reduz o travamento de tela, oscilação e atrasos.&lt;br /&gt;&lt;br /&gt;Enxergue no escuro&lt;br /&gt;Graças ao painel va utilizado nos monitores hq battle, você se dará bem em qualquer tipo de ambiente, mesmo em situações de baixa luminosidade.&lt;br /&gt;Encontre seus inimigos escondidos em qualquer lugar, mesmo os mais escuros.&lt;br /&gt;&lt;br /&gt;Mais sobre o painel va&lt;br /&gt;Quando falamos em tipo de painel para monitores gamer, existem três opções disponíveis no mercado.&lt;br /&gt;E por que a hq escolheu o tipo va para o monitor battle?&lt;br /&gt;A resposta é simples. Pois essa opção oferece a maior gama de vantagens para o jogador:&lt;br /&gt;1- ângulo de visão de 178x178 graus, enxergue bem em qualquer ângulo&lt;br /&gt;2- alto nível de contraste, imagens nítidas mesmo em cenas muito claras ou muito escuras&lt;br /&gt;3- tempo de resposta real de 1ms mprt&lt;br /&gt;4- cores vivas e nítidas&lt;br /&gt;5- permite as mais altas taxas de atualização&lt;br /&gt;&lt;br /&gt;Design único&lt;br /&gt;Além de todos os recursos apresentados, ainda temos o fato do monitor hq battle ter um visual sensacional.&lt;br /&gt;Desenvolvido com uma tela curva, isso já seria o bastante para deixar o seu setup gamer ainda mais moderno. Mas além disso, ele ainda possui a tecnologia ´´frameless´´, sem bordas, que garantirão a você uma imersão total. Aproveite 100% da tela.&lt;br /&gt;&lt;br /&gt;Conectividade e recursos&lt;br /&gt;Para garantir uma experiência perfeita, equipamos o battle com tudo o que você precisa.&lt;br /&gt;Dupla saída de vídeo hdmi e display port, além de uma conexão usb.&lt;br /&gt;E para deixar tudo ainda melhor, ele vem acompanhado com dois alto falantes surround e iluminação em rgb.</t>
-  </si>
-  <si>
-    <t>USADO: Monitor Gamer LG, Tela 29 Polegadas, 75Hz, 1ms, Dynamic Action Sync, AMD FreeSync - 29UM69G-B.AWZM - Bronze Recer</t>
-  </si>
-  <si>
-    <t>Monitor Gamer LG 29UM69G-B.AWZM, com tela de 29? polegadas com resolução Full HD (2560 x 1080), uma taxa de atualização de 75Hz, e um tempo de resposta de 1ms com tecnologia que todo gamer precisa como Dynamic action Sync e AMD FreeSync&lt;br /&gt;&lt;br /&gt;ATENÇÃO: este produto é RECERTIFICADO.&lt;br /&gt;Os eletrônicos são originais e acompanham Nota Fiscal. Os produtos passam por uma avaliação de qualidade rigorosa, que certifica as condições técnicas e estéticas do aparelho, categorizadas de acordo com os selos ouro, prata ou bronze. Você ainda conta com garantia de três meses contra problemas e pode fazer a devolução do produto em até sete dias.&lt;br /&gt;SAIBA O QUE É UM PRODUTO RECERTIFICADO (BRONZE)&lt;br /&gt;O produto recertificado em condições de fábrica é um produto que volta para o mercado, disponível para vendas, nas mesmas condições de um produto novo, com todas as funcionalidades e características originais, beneficiando o comprador e possibilitando economizar dinheiro na compra.&lt;br /&gt;O produto recertificado em condições de fábrica passa por um processo rigoroso de análise, onde todas as funcionalidades são testadas e após constatação de 100% de funcionamento o produto é liberado como recertificado.&lt;br /&gt;Depois de atingir 100% da certificação técnica de operação em suas funcionalidades, os produtos do Saldão da Informática são classificados em 3 certificações, de acordo com seu estado estético e superficial, sendo assim classificados como: Ouro, Prata e Bronze.&lt;br /&gt;Esse produto é recertificado Bronze: Produto têm alguns riscos. Estes riscos não alteram ao perfeito funcionamento do equipamento.</t>
+    <t>Monitor Gamer Acer 27 ZeroFrame Full HD, 165Hz, 0.5ms, IPS, HDMI e DisplayPort, FreeSync Premium, VESA, Preto - VG272 S</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Monitor Gamer Acer 27 Full HD, 165Hz, 0.5ms, IPS, HDMI/DisplayPort, FreeSync Premium, VESA, Preto&lt;/h2&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;Com tela de 27" FHD E2E (IPS) com resolu&amp;ccedil;&amp;atilde;o Full HD e uma taxa de atualiza&amp;ccedil;&amp;atilde;o no modo normal: 144Hz e modo de overclock 165Hz, com alta taxa de atualiza&amp;ccedil;&amp;atilde;o com 165Hz. Brilho 400 cd/m2 e um tempo de respostas baix&amp;iacute;ssimo de 2ms, ainda para aproveitar voc&amp;ecirc; poder&amp;aacute; desfrutar de uma conectividade HDMI (2.0), DisplayPort.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Bluecase 27 LED, 75 Hz, 2K QHD, 99%sRGB, HDMI/DisplayPort - BM2713GWCASE</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Explore um n&amp;iacute;vel superior de qualidade gr&amp;aacute;fica do seu gameplay com o monitor gamer Bluecase BM2713GW Esse monitor possui um painel TN ultrarr&amp;aacute;pido com frequ&amp;ecirc;ncia m&amp;aacute;xima de at&amp;eacute; 75 Hz e baix&amp;iacute;ssimo tempo de resposta de 5(cinco) milissegundos. Ideal para seus jogos AAA, o monitor conta com alta defini&amp;ccedil;&amp;atilde;o em resolu&amp;ccedil;&amp;atilde;o Quad HD (2560x1440) que proporciona uma imagem rica em detalhes. O monitor Bluecase BM2713GW &amp;eacute; compat&amp;iacute;vel com suportes VESA e tamb&amp;eacute;m conta com conex&amp;otilde;es DisplayPort e HDMI.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Acer Nitro 23.6 LED, Curvo, 165 Hz, Full HD, 1ms, FreeSync Premium, HDMI/DisplayPort - EI242QR</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Monitor Gamer Acer Nitro 23.6 LED, Curvo, 165 Hz, Full HD, 1ms, FreeSync Premium, HDMI/DisplayPort&lt;/h2&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Tecnologia da Tela&lt;/h2&gt;
+&lt;p&gt;A Tela do Acer Nitro EI242QR possui campo de vis&amp;atilde;o de 23.6 Polegadas com um &lt;strong&gt;Resolu&amp;ccedil;&amp;atilde;o de 1920 x 1080 Full HD&lt;/strong&gt;, Painel VA de propor&amp;ccedil;&amp;atilde;o 16:9 com design &lt;strong&gt;curvo 1200R&lt;/strong&gt;, Taxa de atualiza&amp;ccedil;&amp;atilde;o de &lt;strong&gt;165Hz&lt;/strong&gt; (Utilizando Displayport), e Tempo de Resposta &lt;strong&gt;1ms&lt;/strong&gt; VRB (Visual Response Boost) para desempenhos profissionais nos seus gameplays.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;ZeroFrame&lt;/h2&gt;
+&lt;p&gt;Oferece um novo &lt;strong&gt;design de quadro zero&lt;/strong&gt;, remove virtualmente a caixa delimitadora da tela e oferece todas as imagens, prazer visual cont&amp;iacute;nuo.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Desing de tela curvo 1200 R&lt;/h2&gt;
+&lt;p&gt;Proporciona uma experi&amp;ecirc;ncia de visualiza&amp;ccedil;&amp;atilde;o uniforme e &lt;strong&gt;reduz o cansa&amp;ccedil;o visual&lt;/strong&gt; durante longos per&amp;iacute;odos de utiliza&amp;ccedil;&amp;atilde;o. Ele tamb&amp;eacute;m apresenta uma experi&amp;ecirc;ncia mais envolvente com um campo de vis&amp;atilde;o mais amplo e &amp;aacute;rea de vis&amp;atilde;o perif&amp;eacute;rica aumentada em compara&amp;ccedil;&amp;atilde;o com uma tela plana do mesmo&lt;/p&gt;
+&lt;p&gt;tamanho.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Tempo de resposta de 1ms&lt;/h2&gt;
+&lt;p&gt;O t&lt;strong&gt;empo de resposta r&amp;aacute;pido de 1 ms&lt;/strong&gt; melhora experi&amp;ecirc;ncia do jogador. N&amp;atilde;o importa a a&amp;ccedil;&amp;atilde;o em movimento r&amp;aacute;pido ou quaisquer transi&amp;ccedil;&amp;otilde;es dram&amp;aacute;ticas, tudo ser&amp;aacute; reproduzido suavemente, sem os efeitos irritantes de manchas ou fantasmas.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Taxa de atualiza&amp;ccedil;&amp;atilde;o de 165Hz&lt;/h2&gt;
+&lt;p&gt;Acelera os quadros por segundo para fornecer cenas de movimento ultra suaves. Com uma taxa de &lt;strong&gt;atualiza&amp;ccedil;&amp;atilde;o r&amp;aacute;pida de 165 Hz&lt;/strong&gt;, os monitores de jogos da Acer encurtam o tempo necess&amp;aacute;rio para a renderiza&amp;ccedil;&amp;atilde;o de quadros, diminuem o atraso de entrada e fornecem aos jogadores uma excelente experi&amp;ecirc;ncia no jogo.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h3&gt;Aproveite essa oportunidade e adquira seu Monitor Gamer Acer Nitro 23.6 no KaBuM!&lt;/h3&gt;</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Acer Nitro 23.8 LED Full HD, 165Hz, 1ms, HDMI/DisplayPort, FreeSync Premium, Preto - QG241Y</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Monitor Gamer Acer Nitro 23.8 LED Full HD, 165Hz, 1ms, HDMI/DisplayPort, FreeSync Premium, Preto&lt;/h2&gt;
+&lt;p&gt;Com uma tela de&lt;strong&gt; 23,8&amp;rdquo; FHD&lt;/strong&gt;, o &lt;strong&gt;Nitro QG241Y&lt;/strong&gt; entrega imagens mais n&amp;iacute;tidas, levando sua experi&amp;ecirc;ncia visual e seu foco no jogo para um novo n&amp;iacute;vel.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;AMD FreeSync Premium&lt;/h2&gt;
+&lt;p&gt;Com o AMD FreeSync Premium, a taxa de quadros do jogo &amp;eacute; determinada pela sua placa de v&amp;iacute;deo, n&amp;atilde;o pela taxa de atualiza&amp;ccedil;&amp;atilde;o fixa do&amp;nbsp; monitor. Isso significa que os quadros do monitor s&amp;atilde;o sincronizados com os quadros da placa&amp;nbsp; gr&amp;aacute;fica, o que &lt;strong&gt;elimina a tela quebrada&lt;/strong&gt; e oferece &lt;strong&gt;experi&amp;ecirc;ncias de jogo muito suaves&lt;/strong&gt;.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Resolu&amp;ccedil;&amp;atilde;o FHD&lt;/h2&gt;
+&lt;p&gt;Traga os usu&amp;aacute;rios para um mundo colorido perfeito com &lt;strong&gt;FHD 1920 x 1080&lt;/strong&gt; e oferece a melhor qualidade original natural e n&amp;iacute;tida&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;1ms Visual Response Boost&lt;/h2&gt;
+&lt;p&gt;O &lt;strong&gt;Visual Response Boost (VRB)&lt;/strong&gt; de 1ms funciona desligando rapidamente a luz de fundo ou inserindo uma imagem em branco e preta entre os quadros, tamb&amp;eacute;m conhecida como &amp;ldquo;piscando&amp;rdquo;. Isso resulta em um &lt;strong&gt;desfoque menos percept&amp;iacute;vel&lt;/strong&gt; em imagens em movimento r&amp;aacute;pido porque os cristais l&amp;iacute;quidos n&amp;atilde;o precisam dobrar nos quadros &amp;agrave; medida que sobem e descem.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Reduz a fadiga&lt;/h2&gt;
+&lt;p&gt;Fique na luta por horas com a tecnologia &lt;strong&gt;Flicker-less, Blue-light Filter.&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h3&gt;Aproveite essa oportunidade e adquira seu Monitor Gamer Acer no KaBuM!&lt;/h3&gt;</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Gigabyte 23.8 IPS, Full HD, 170Hz, 1ms, 120% sRGB, HDR, FreeSync Premium, Altura Ajustável - G24F-SA</t>
+  </si>
+  <si>
+    <t>JUNTE-SE À LUTA com o Monitor Gamer G24F da Gigabyte com 1ms de tempo de resposta, freesync premium, 165 Hz (170 Hz OC) e com uma taxa de cor de 8 bits, 90% DCI-P3 A ÚLTIMA MILHA PARA O SEU SISTEMA DE JOGO Como um jogador invisível, o monitor é frequentemente subestimado. A verdade é que os monitores se formam como um efeito sinérgico e trazem o melhor desempenho dos componentes do PC. Os monitores de jogos GIGABYTE oferecem as últimas especificações e qualidade, os usuários podem realmente desfrutar de um desempenho de alto nível sem a necessidade de extravagância. Tempo de resposta de 1 ms MPRT Tempo de resposta super rápido de 1 ms para a experiência de jogo mais suave de todos os tempos! FHD com 165 Hz (OC 170 Hz) Alta resolução e taxa de atualização rápida, proporcionando qualidade de exibição detalhada e experiência de jogo fluida! Cor de 8 bits, 90% DCI-P3 Fantástico visor a cores e 90% de cores DCI-P3 de gama super ampla. SIMPLES MAS ESTILOSO A aparência aerodinâmica representa a simplicidade da filosofia de design da série de jogos GIGABYTE, suporte robusto e acabamento fosco construído para características funcionais e estéticas adicionando mais características. OSD Sidekick GIGABYTE OSD Sidekick permite que você defina as opções de exibição com teclado e mouse, oferecendo a maneira mais fácil de ajustar as configurações do monitor. ÂNGULO DE VISÃO PERFEITO O monitor de jogos GIGABYTE possui um suporte exclusivo ergonomicamente projetado para oferecer uma ampla gama de ajustes de altura e inclinação.</t>
   </si>
   <si>
     <t>Monitor Gamer Gigabyte 24 Full HD, 165Hz, 1ms, IPS, HDMI e DisplayPort, 125% sRGB, HDR, FreeSync, Altura Ajustável - G24F2BR</t>
@@ -1012,485 +1470,6 @@
 &lt;p&gt;O monitor Gaming GIGABYTE possui um suporte exclusivo projetado ergonomicamente para oferecer &lt;strong&gt;ampla gama de ajustes de altura e inclina&amp;ccedil;&amp;atilde;o&lt;/strong&gt;.&lt;/p&gt;
 &lt;p&gt;&amp;nbsp;&lt;/p&gt;
 &lt;h3&gt;Compre agora no KaBuM!&lt;/h3&gt;</t>
-  </si>
-  <si>
-    <t>Monitor Gamer Duex 24´ Full HD (1920x1080), 144Hz, Preto - Dx 240zg</t>
-  </si>
-  <si>
-    <t>Marca: duex&lt;br /&gt;modelo: dx 240zg &lt;br /&gt;&lt;br /&gt;especificações: &lt;br /&gt;&lt;br /&gt;tamanho da tela: 24" &lt;br /&gt;área de display: 527.4 (h) x 296.4 (v) &lt;br /&gt;resolução: 1920x1080 (144hz) &lt;br /&gt;pixel pitch: 0.27mm &lt;br /&gt;ângulo de visão: h:178 / v:178 &lt;br /&gt;brilho: 250cd/m² &lt;br /&gt;tempo de resposta: 1ms &lt;br /&gt;número de cores: 16.7m &lt;br /&gt;&lt;br /&gt;conectores: &lt;br /&gt;1x hdmi &lt;br /&gt;1x displayport &lt;br /&gt;1x usb &lt;br /&gt;1x saída de áudio &lt;br /&gt;&lt;br /&gt;conteúdo da caixa: &lt;br /&gt;monitor &lt;br /&gt;base &lt;br /&gt;cabo hdmi &lt;br /&gt;cabo displayport &lt;br /&gt;fonte de energia &lt;br /&gt;guia do usuário&lt;br /&gt;&lt;br /&gt;garantia: 365 dias</t>
-  </si>
-  <si>
-    <t>Monitor Gamer Curvo Duex Dx 270zg, 27 Polegadas, FULL HD (1920x1080), 240hz, Preto</t>
-  </si>
-  <si>
-    <t>Marca: duex&lt;br /&gt;modelo: dx 270zg &lt;br /&gt;&lt;br /&gt;especificações: &lt;br /&gt;&lt;br /&gt;tamanho da tela: 27" &lt;br /&gt;área de display: 527.4 (h) x 296.4 (v) &lt;br /&gt;resolução: 1920x1080 (240hz) &lt;br /&gt;pixel pitch: 0.27mm &lt;br /&gt;ângulo de visão: h:178 / v:178 &lt;br /&gt;brilho: 250cd/m² &lt;br /&gt;tempo de resposta: 1ms &lt;br /&gt;número de cores: 16.7m &lt;br /&gt;&lt;br /&gt;conectores: &lt;br /&gt;2x hdmi &lt;br /&gt;1x displayport &lt;br /&gt;1x usb &lt;br /&gt;1x áudio &lt;br /&gt;&lt;br /&gt;conteúdo da caixa: &lt;br /&gt;monitor &lt;br /&gt;base&lt;br /&gt;cabo hdmi&lt;br /&gt;fonte de energia&lt;br /&gt;&lt;br /&gt;garantia: 365 dias</t>
-  </si>
-  <si>
-    <t>Monitor Gamer Redragon Amber, Tela de 27 Polegadas FHD, 165HZ, Curvo, LED, HDMI, Preto - GM27H10C</t>
-  </si>
-  <si>
-    <t>Características:&lt;br /&gt; - marca: redragon&lt;br /&gt; - modelo: gm27h10c&lt;br /&gt; especificações:&lt;br /&gt; - cor: preto&lt;br /&gt; - tamanho: 27”&lt;br /&gt; - resolução: 1920 x 1080 16:9&lt;br /&gt; - tipo de painel: va&lt;br /&gt; - taxa de atualização: 165 hz&lt;br /&gt; - número de cores: 16.7 m&lt;br /&gt; - brilho máximo: 250cd/m2 (typical)&lt;br /&gt; - taxa de contraste: 3000:1&lt;br /&gt; - conectividade: dp x1, hdmi x2, dc in x1&lt;br /&gt; - power range: 100-240v 50/60hz&lt;br /&gt; - tempo de resposta: 1ms&lt;br /&gt; - peso bruto(g): 5960g&lt;br /&gt; - peso liquido(g): 4830g&lt;br /&gt; conteúdo da embalagem:&lt;br /&gt; - monitor gamer redragon</t>
-  </si>
-  <si>
-    <t>Monitor Gamer Bluecase 27" 2.5K, 75Hz, HDMI / Displayport, Vesa - BM2713GW</t>
-  </si>
-  <si>
-    <t>Explore um nível superior de qualidade gráfica do seu gameplay com o monitor gamer Bluecase - BM2713GW   &lt;br /&gt;&lt;br /&gt;Esse monitor possui um painel TN ultrarrápido com frequência máxima de até 75 Hz e baixíssimo tempo de resposta de 5(cinco) milissegundos.    &lt;br /&gt;Ideal para seus jogos AAA, o monitor conta com alta definição em resolução Quad HD (2560x1440) que proporciona uma imagem rica em detalhes.    &lt;br /&gt;O monitor Bluecase BM2713GW é compatível com suportes VESA e também conta com conexões DisplayPort e HDMI.</t>
-  </si>
-  <si>
-    <t>Monitor Gamer Samsung 27Pol, Full HD, 75Hz, IPS, HDMI, Vesa, Freesync - Lf27t350fhlmzd</t>
-  </si>
-  <si>
-    <t>Para compor a sua mesa e computador, precisa de um monitor de linha, não acha? Com o Monitor Gamer T350 Samsung você terá uma ótima visualização de tudo que fizer! Com a tela IPS, LED, em formato plano e de 27'' na horizontal, resolução Full HD 1920x1080. Possui conexões HDMI e VGA e tecnologia FreeSync da AMD, assim você pode assistir filmes e jogar tranquilamente sem interrupções na sua imagem. Além disso, possui o Game Mode, que ajusta qualquer jogo para preencher sua tela visualizando todos os detalhes, sendo possível detectar inimigos escondidos nas sombras através do contraste ideal, mais nitidez e cenas com cores mais vivas. Agora, a imagem é reproduzida sem falhas. A taxa de atualização de 75Hz oferece cenas mais fluidas. Seu momento de diversão não tem lag ou efeito fantasma, quer você esteja assistindo a um vídeo ou jogando um jogo. Vai deixar essa beleza passar? Garanta já seu Monitor Gamer T350 Samsung e aproveite com a melhor imagem!</t>
-  </si>
-  <si>
-    <t>Monitor Gamer Curvo HQ 24 LED Full HD, 165 Hz, 1ms, HDMI, DisplayPort, FreeSync, Som Integrado, Preto - 24GHQ-Black</t>
-  </si>
-  <si>
-    <t>&lt;h2&gt;Monitor Gamer Curvo HQ 24 LED Full HD, 165 Hz, 1ms, HDMI, DisplayPort, FreeSync, Som Integrado, Preto&lt;/h2&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h2&gt;Tela Curva&lt;/h2&gt;
-&lt;p&gt;A curvatura da tela de R3000 oferece imers&amp;atilde;o total, voc&amp;ecirc; ser&amp;aacute; capaz de apreciar imagens panor&amp;acirc;micas grandes, em alta resolu&amp;ccedil;&amp;atilde;o e com todas as especifica&amp;ccedil;&amp;otilde;es que um monitor Gamer de ponta exige.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h2&gt;Baixo tempo de Resposta&lt;/h2&gt;
-&lt;p&gt;A HQ levou a s&amp;eacute;rio o desenvolvimento desta linha, trazendo ao p&amp;uacute;blico mais exigente um produto completo e de alto n&amp;iacute;vel. N&amp;atilde;o fique atras, reaja em tempo real e tenha os movimentos do teclado refletidos sem atrasos com o tempo de resposta de 1ms.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h2&gt;Atualiza&amp;ccedil;&amp;atilde;o de 165Hz&lt;/h2&gt;
-&lt;p&gt;Sem borr&amp;otilde;es e sem perda de imagem. A INCR&amp;Iacute;VEL taxa de atualiza&amp;ccedil;&amp;atilde;o de 165hz garante que voc&amp;ecirc; tenha uma experi&amp;ecirc;ncia acima dos seus advers&amp;aacute;rios.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h2&gt;Imagens em alta resolu&amp;ccedil;&amp;atilde;o + Visual incr&amp;iacute;vel&lt;/h2&gt;
-&lt;p&gt;A tela Full HD de alta resolu&amp;ccedil;&amp;atilde;o aliada ao design futurista e moderno do monitor garantem n&amp;atilde;o s&amp;oacute; imagens perfeitas como um visual incr&amp;iacute;vel de todo o seu conjunto.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h3&gt;Aproveite essa oportunidade e adquira seu Monitor Gamer Curvo no KaBuM!&lt;/h3&gt;</t>
-  </si>
-  <si>
-    <t>Monitor Gamer Redragon, 23Pol, Full HD, 144Hz, 1MS, IPS, HDMI, DP, VGA, Freesync - M2444ph</t>
-  </si>
-  <si>
-    <t>O monitor Redragon Sapphire apresenta um design ultrafino, alinhado com o que há de mais moderno no mercado. Gamers de jogos competitivos podem obter vantagem sobre seus adversários ao utilizar uma tela com a alta taxa de atualização de 144 Hz. A tecnologia AMD FreeSync põe fim à jogabilidade travada e ao corte dos quadros com um desempenho fluido e livre de artefatos com praticamente qualquer taxa de quadros. Contemple a próxima inovação na experiência de jogos para PC e console. O Redragon Sapphire possui um visual moderno e elegante, que combina com qualquer setup, pela sua simplicidade e minimalismo.&lt;br /&gt;&lt;br /&gt;- Alta taxa de atualização até 144Hz auxiliando na fluidez da gameplay.&lt;br /&gt;- Design elegante e minimalista para se integrar a qualquer setup.&lt;br /&gt;- Painel do tipo IPS para maior fidelidade de cores.&lt;br /&gt;- Tecnologia Freesync integrada para eliminar as quebras de imagem.&lt;br /&gt;- Diversas opções de conexões de vídeo para maior praticidade e versatilidade.&lt;br /&gt;&lt;br /&gt;O monitor tem tela de 24 polegadas, um ótimo tamanho para o consumo de jogos e filmes, assim como navegar na internet e trabalhar.</t>
-  </si>
-  <si>
-    <t>Monitor Gamer LG LED 23.8 Polegadas FHD, 60Hz, 5Ms, IPS, VGA/HDMI/DP, Pivot - 24BL550J</t>
-  </si>
-  <si>
-    <t>Monitor Gamer LG LED 23.8 FHD IPS 60Hz 5ms VGA HDMI DP Pivot - 24BL550J CONTE COM SUA MELHOR EXIBIÇÃO A qualidade de imagem do LG 24BL550J é a melhor possível para um monitor Full HD, já que usa a elogiada tela IPS. Suas cores são vibrantes e nítidas, sem qualquer problema em replicar as cores reais em software e jogos. Sua tela de 23.9 faz com que ele esteja no tamanho ideal para a resolução Full HD (1920x1080p), apresentando ótimo nível de densidade de pixel (PPI 0,27 mm). Com isso, você não terá a impressão de imagem borrada ou com serrilhados, principalmente em jogos, vídeos e fotos. FLUIDEZ Tem baixo input lag e tempo de resposta de 5ms, suficiente para eliminar rastros. A taxa de atualização de 75hz da boa fluência aos jogos, ajudando ainda no conforto ocular. MELHOR RESOLUÇÃO Sua incrível tela em Full HD com tecnologia IPS e seu tratamento anti reflexivo conta com a exibição de imagens excepcionais cores mais realistas de qualquer ângulo, sem a interferência de qualquer luz. MODELO PIVOTANTE Permite ajuste de altura, inclinação, rotação e pivô. Esse monitor apresenta um design moderno, com bordas mais finas e base retangular com ótima estabilidade. Porém, seu grande trunfo é o ajuste de altura e giro em 90º (pivô), o que o torna ideal para trabalhar com o monitor na vertical (em pé)..</t>
-  </si>
-  <si>
-    <t>Monitor Goldentec Gamer 27'' Led Full Hd, 75hz, 1ms</t>
-  </si>
-  <si>
-    <t>Monitor gamer 27´´ led full hd 75hz 1ms especificações técnicas  marcagoldentec  ean7899555687261  tamanho de tela27´´  framelesssim  resolução1920x1080 (full hd)  tempo de resposta1 ms  frequência75 hz  brilho250 cd/m²  contraste100 milhões: 1  ângulo de visão180° (h) 180° (v)  cores16,7 milhões  inclinação ajustável 20°  tecnologia freesyncelimina falhas e intermitências  tecnologia lowbluelightreduz a luz azul para mais conforto e segurança  100% flicker freesuaviza a ondulação do monitor  conexõeshdmi  conteúdo da embalagem1x monitor gamer 27´´ led full hd 75hz 1ms &lt;br&gt;cabos e fonte &lt;br&gt;&lt;br&gt;&lt;strong&gt;especificações técnicas&lt;/strong&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;marca :&lt;/strong&gt; goldentec&lt;br&gt;&lt;strong&gt;tipo de uso :&lt;/strong&gt; gamer&lt;br&gt;&lt;strong&gt;tamanho da tela :&lt;/strong&gt; 27´´&lt;br&gt;&lt;strong&gt;tipo de tela :&lt;/strong&gt; led&lt;br&gt;&lt;strong&gt;resolução :&lt;/strong&gt; full hd&lt;br&gt;&lt;strong&gt;design de tela :&lt;/strong&gt; tela plana&lt;br&gt;&lt;strong&gt;tempo de resposta :&lt;/strong&gt; 1 ms&lt;br&gt;&lt;strong&gt;taxa de atualização :&lt;/strong&gt; 75 hz&lt;br&gt;&lt;strong&gt;estrutura :&lt;/strong&gt; padrão&lt;br&gt;&lt;strong&gt;voltagem :&lt;/strong&gt; bivolt&lt;br&gt;&lt;strong&gt;polegadas :&lt;/strong&gt; 27 ´´&lt;br&gt;&lt;br&gt;&lt;strong&gt;garantia : &lt;/strong&gt;12</t>
-  </si>
-  <si>
-    <t>Monitor Gamer Redragon Azur, 23.8 Polegadas, 165hz, LED, FHD, HDMI - Gm24x5ips</t>
-  </si>
-  <si>
-    <t>Características:&lt;br /&gt; - marca: redragon&lt;br /&gt; - modelo: gm24x5ips&lt;br /&gt; especificações:&lt;br /&gt; - cor: preto&lt;br /&gt; - alta taxa de atualização até 165hz auxiliando na fluidez da gameplay.&lt;br /&gt; - design elegante e minimalista para se integrar a qualquer setup.&lt;br /&gt; - tecnologia freesync integrada para eliminar as quebras de imagem.&lt;br /&gt; - diversas opções de conexões de vídeo para maior praticidade e versatilidade.&lt;br /&gt; - tamanho: 23,8”&lt;br /&gt; - resolução: 1920 x 1080&lt;br /&gt; - tipo de painel: ips&lt;br /&gt; - taxa de atualização: 165 hz&lt;br /&gt; - número de cores: 16.7 m&lt;br /&gt; - brilho máximo: 250cd/m2 (typical)&lt;br /&gt; - taxa de contraste: 1000:1&lt;br /&gt; - conectividade: hdmi 1.4 x 2, dp 1.2  x1, dc x 1, 1x 3.5mm áudio.&lt;br /&gt; - power range: 100-240v 50/60hz&lt;br /&gt; - peso bruto(g): 4728&lt;br /&gt; - peso líquido(g): 3520&lt;br /&gt; conteúdo da embalagem:&lt;br /&gt; - monitor gamer redragon</t>
-  </si>
-  <si>
-    <t>Monitor Gamer Curvo Bright 27p, Full HD, 165Hz, 1Ms, HDMI/VGA, Preto</t>
-  </si>
-  <si>
-    <t>Monitor gamer curvo 27" polegadas 165hz full hd lcd/led preto mt007 bright&lt;br /&gt;  &lt;br /&gt; mergulhe no mundo dos games com estilo e velocidade!&lt;br /&gt;  &lt;br /&gt; ei, camarada gamer, já sentiu como se estivesse preso no passado com um monitor lento e sem graça? Deixe-me apresentar uma passagem direta para o futuro dos jogos: o monitor gamer curvo 27 polegadas 165 hz dp hdmi usb preto bright. Prepare-se para uma experiência visual de tirar o fôlego!&lt;br /&gt;  &lt;br /&gt; este monitor é como uma viagem ao paraíso dos gamers. Com suas 27 polegadas de tela imersiva e curva, ele envolve você em um abraço eletrizante de jogabilidade. E a taxa de atualização de 165 hz? É praticamente uma máquina do tempo para o futuro dos jogos!&lt;br /&gt;  &lt;br /&gt; e como se isso não fosse suficiente, este monitor oferece conectividade versátil com dp, hdmi e usb. Você pode se conectar facilmente aos seus dispositivos e mergulhar diretamente na ação. Sem complicações, apenas jogos de alta qualidade.&lt;br /&gt;  &lt;br /&gt; mas aqui está a cereja no topo do bolo: a resolução deslumbrante e as cores vibrantes. Este monitor faz com que cada detalhe dos seus jogos ganhe vida. Adeus a imagens borradas e cores apagadas. Prepare-se para gráficos que vão explodir sua mente!&lt;br /&gt;  &lt;br /&gt; ao comprar este monitor gamer curvo, você não está apenas adquirindo um pedaço de tecnologia. Você está se dando o presente de uma experiência de jogo que vai te levar a novos patamares de diversão e desempenho. É a sua passagem para o futuro dos jogos - uma jornada sem volta para a vitória!&lt;br /&gt;  &lt;br /&gt; então, o que você está esperando? Pegue seu ingresso para o futuro e adquira o monitor gamer curvo 27 polegadas 165 hz dp hdmi usb preto bright hoje. Jogue com estilo, velocidade e vitória garantida! Sua jornada começa agora!&lt;br /&gt;  &lt;br /&gt; especificações:&lt;br /&gt; dimensões(axlxp): 615 x 453 x 79 mm &lt;br /&gt; peso: 3,9&lt;br /&gt; área de visualização 683 × 128 × 445(mm2)&lt;br /&gt; ângulo de visão h:178°v:178°&lt;br /&gt; resolução(tip.) 1920x1080 60hz&lt;br /&gt; cores 16,7m&lt;br /&gt; brilho (tip.) 250cd/m2&lt;br /&gt; tela curva: 2800r&lt;br /&gt; frequência de resposta: 165 hz&lt;br /&gt; relação de contraste (tip.) 1000:1&lt;br /&gt; conector dp + hdmi + usb&lt;br /&gt;  &lt;br /&gt; conteúdo da embalagem: &lt;br /&gt; 01 monitor bright &lt;br /&gt; 01 cabo hdmi&lt;br /&gt; 01 manual&lt;br /&gt;  &lt;br /&gt; modelo:&lt;br /&gt; mt007&lt;br /&gt;  &lt;br /&gt; marca:&lt;br /&gt; bright&lt;br /&gt;  &lt;br /&gt; garantia 1 ano bright</t>
-  </si>
-  <si>
-    <t>Monitor Gamer Cooler Master 23.8 Pol. Full HD (1920x1080), 0.5MS, 144Hz, IPS, HDMI, Hdr10, Vesa - Gm238-Ffs</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;&lt;b&gt;monitor gamer gm238-ffs cooler master full hd hdmi 1920x1080 vesa 144hz 23,8"&lt;/b&gt;&lt;/p&gt;&lt;p&gt;&lt;br /&gt;o monitor gamer gm238-ffs possui tela full hd de 144 hz e 23,8" combinada com uma ampla gama de cores dci-p3 de 90% oferece versatilidade not&amp;aacute;vel. Com recursos essenciais para jogos e produtividade, permite uma experi&amp;ecirc;ncia de jogo suave ou foco no trabalho diurno. A densidade de pixels de 92,6 por polegada (ppi) em um monitor de 23,8 polegadas e resolu&amp;ccedil;&amp;atilde;o full hd, o gm238-ffs equilibra de forma excelente a fidelidade visual e o desempenho. O monitor gamer fornece um display fhd de 23,8" com um painel ultraspeed ips de 144 hz, com recursos como dynamic overdrive, adaptive sync e uma cobertura dci-p3 de 90%, atende a todas as suas necessidades. &amp;eacute; ideal tanto para jogos quanto para produtividade, tornando-o uma adi&amp;ccedil;&amp;atilde;o valiosa &amp;agrave; sua configura&amp;ccedil;&amp;atilde;o de trabalho e entretenimento.&lt;/p&gt;&lt;p&gt;&lt;br /&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>Monitor Gamer KBM! GAMING MG700 27' Led Full Hd, 240hz, 1ms, Hdmi E Displayport, 96% Srgb, Adaptive Sync, Ajuste De Altura - KGMG70027PT</t>
-  </si>
-  <si>
-    <t>&lt;h2&gt;Monitor Gamer KBM! GAMING MG700: Imers&amp;atilde;o e desempenho para seus jogos&lt;/h2&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;O Monitor Gamer KBM! GAMING MG700 &amp;eacute; a escolha perfeita para quem busca imers&amp;atilde;o e desempenho nos jogos. Com &lt;strong&gt;tela curva de 27 polegadas&lt;/strong&gt;, resolu&amp;ccedil;&amp;atilde;o &lt;strong&gt;Full HD&lt;/strong&gt; e taxa de atualiza&amp;ccedil;&amp;atilde;o de &lt;strong&gt;240 Hz,&lt;/strong&gt; o MG700 oferece uma experi&amp;ecirc;ncia visual incr&amp;iacute;vel.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;O tempo de resposta de &lt;strong&gt;1 ms&lt;/strong&gt; garante que voc&amp;ecirc; n&amp;atilde;o perca nenhum detalhe da a&amp;ccedil;&amp;atilde;o, mesmo nos jogos mais r&amp;aacute;pidos. Al&amp;eacute;m disso, o recurso &lt;strong&gt;AdaptiveSync&lt;/strong&gt; elimina o tearing e o stuttering, garantindo uma imagem suave e fluida.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;Para proteger a sua vis&amp;atilde;o, o MG700 conta com &lt;strong&gt;redu&amp;ccedil;&amp;atilde;o de luz azul&lt;/strong&gt; e &lt;strong&gt;Modo Game Plus&lt;/strong&gt;, que reduzem o cansa&amp;ccedil;o visual. O som integrado &amp;eacute; de alta qualidade, mas voc&amp;ecirc; tamb&amp;eacute;m pode conectar o seu headset atrav&amp;eacute;s das portas plug and play.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;Com o Monitor Gamer KBM! GAMING MG700, voc&amp;ecirc; ter&amp;aacute; tudo o que precisa para jogar seus games favoritos com o m&amp;aacute;ximo de desempenho e imers&amp;atilde;o.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;O Monitor Gamer KBM! GAMING MG700 &amp;eacute; a escolha perfeita para quem busca um monitor gamer de alta qualidade. Com recursos avan&amp;ccedil;ados e uma excelente rela&amp;ccedil;&amp;atilde;o custo-benef&amp;iacute;cio, o MG700 &amp;eacute; a garantia de uma experi&amp;ecirc;ncia de jogo inesquec&amp;iacute;vel.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>USADO: Monitor Gamer 24 Polegadas Acer Nitro, 165Hz, 0.5ms, Freesync, HDMI, DisplayPort, Preto, Recertificado Prata - VG252Q</t>
-  </si>
-  <si>
-    <t>Monitor Gamer Acer Nitro Vg252q, na cor preta com detalhes em vermelho, tela de 24 polegadas, taxa de atualização de 165hz, tempo de resposta de 0.5ms, amd freesync premium, 1 entrada hdmi e 1 entrada display port&lt;br /&gt;&lt;br /&gt;Atenção: este produto é recertificado.&lt;br /&gt;Os eletrônicos são originais e acompanham nota fiscal. Os produtos passam por uma avaliação de qualidade rigorosa, que certifica as condições técnicas e estéticas do aparelho, categorizadas de acordo com os selos ouro, prata ou bronze. Você ainda conta com garantia de três meses contra problemas e pode fazer a devolução do produto em até sete dias.</t>
-  </si>
-  <si>
-    <t>Monitor Gamer Primetek, 27 Polegadas, 180hz Ips Qhd HDMI/dp</t>
-  </si>
-  <si>
-    <t>Caracteristicas: - marca: primetek - modelo: 27a2r  especificações técnicas: - tamanho do painel (diagonal) 27 - tipo de painel ips rápido - plana/ curva plana proporção 16:9 resolução 2560x1440 - tipo de moldura moldura sem moldura 3 - distância do pixel (h)*(v) (mm) 0,2331 (h) × 0,2331(v - brilho (cd/m2 )(tipo.) 250(min) 300(tipo) brilho (nits)(máx.)? 250(min) 300(tipo) - ângulo de visão (h/v) 178°(h)/178°(v) - profundidade de bits do painel verdadeiro 8 bits - cores da tela 16,7m - tempo de resposta do painel sem od 5ms tempo de resposta 1ms - taxa de atualização (máx.) 180 hz - hdmi 2.0 2 (máx. 144 hz) dp 1.4 2 (máx. 180 hz) saída de áudio 1 - design de suporte de exibição has inclinação (ângulo) 5°±2°,20°±2° giro (ângulo) 20°±2° - pivô (ângulo/direção) pviot: 90° ajuste de altura 120±5mm montagem vesa 75*75mm tecla do botão liga/desliga roker - tecla do botão osd roker contracapa design rgb - consumo de energia 48w modo de economia de energia ?0,5w modo de desligamento desligado &amp;lt,0,3 w tipo de energia adaptador de energia fonte de alimentação dc 12v, 4a - acessorios: cabo de alimentação (1,5m) 1,5m cabo dp versão 1.2 quantidade de cabo dp (1,5 m/1,8 m) 1,5 m - temperatura da cor (fria, quente, usuário) controle de luz azul baixa modo de cena dcr idiomas (23 idiomas) ajuste da luz de fundo sem oscilações freesync over drive fps/rts jogo mais modo de controle do efeito de iluminação (nenhum/mistura de cores rgb/seleção colorida) laranja - dimensão com suporte (l*a*p)(mm) 619x269,2x554,6 mm - dimensão sem suporte (lxaxp)(mm) 619x63,7x365,5 mm - dimensão da caixa (lxaxp)(mm) 715x213x471mm - peso líquido (kg) 6,3kg - peso bruto (kg) 8,3kg - garantia 1 ano &lt;br&gt;&lt;br&gt;&lt;strong&gt;especificações técnicas&lt;/strong&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;tamanho da tela:&lt;/strong&gt; 27&lt;br&gt;&lt;strong&gt;marca:&lt;/strong&gt; primetek&lt;br&gt;&lt;strong&gt;modelo:&lt;/strong&gt; 27a2r</t>
-  </si>
-  <si>
-    <t>Monitor Gamer Redragon Mirror, Tela de 27 Polegadas FHD, 165HZ, LED, HDMI - GM27X5IPS</t>
-  </si>
-  <si>
-    <t>Características:&lt;br /&gt; - marca: redragon&lt;br /&gt; - modelo: gm27x5ips&lt;br /&gt; especificações:&lt;br /&gt; - cor: preto&lt;br /&gt; - tamanho: 27”&lt;br /&gt; - resolução: 1920 x 1080 16:9&lt;br /&gt; - tipo de painel: ips&lt;br /&gt; - taxa de atualização: 165 hz&lt;br /&gt; - número de cores: 16.7 m&lt;br /&gt; - brilho máximo: 250cd/m2 (typical)&lt;br /&gt; - taxa de contraste: 1000:1&lt;br /&gt; - conectividade: dp 1.2 x1, hdmi 1.4 x2, dc in x1&lt;br /&gt; - power range: 100-240v 50/60hz&lt;br /&gt; - tempo de resposta: 1ms&lt;br /&gt; - peso bruto(g): 5900g&lt;br /&gt; - peso liquido(g): 4200g&lt;br /&gt; conteúdo da embalagem:&lt;br /&gt; - monitor gamer redragon</t>
-  </si>
-  <si>
-    <t>Monitor Gamer 27 Polegadas, 240hz Curvo FULL HD, HDMI/dp</t>
-  </si>
-  <si>
-    <t>Caracteristicas:  - marca: primetek  - modelo: 27c1h  se você está procurando um monitor para jogos, nossas ofertas primetek te oferece uma ótima opção de modelo e um bom preço. Monitor gamer 27curvo 240hz dp/hdmi fhd primetek 27c1h que entrega imagens mais nítidas, levando sua experiência visual e seu foco no jogo para um novo nível.  especificações técnicas:  - tamanho 27´´ painel tipo va  - fonte do painel csot curva plana/ curva  - suporte hdr n resolução 1920 x 1080  - tipo de moldura moldura sem moldura 3 área de visualização da tela (a*v) (mm) 597,888 (a) x 336,312 (v) tipo de luz de fundo do painel e-led  - distância do pixel (a)(v) (mm) 0,1038(a) x 0,3114(v) brilho (nits) (máx.) 280 nits (min)  - taxa de contraste (típico) 3000:1 taxa de contraste dinâmico milhões  - ângulo de visão (h/v) 178°(h)/178°(v)  - profundidade de bits do painel 8 bits cores da tela 16,7m  - tempo de resposta do painel sem od 21ms tempo de resposta 8 ms (alta) taxa de atualização do painel (máx.) 240 hz taxa de atualização da tela (máx.) 48hz-240hz scaler pn hdmi 1.4 n/a faixa freesync n/a hdmi 2.0 2 faixa freesync 48-240 hz  - saída de áudio  - botão liga/desliga cinco botão osd cinco  - contracapa design rgb  - consumo de energia 25w tipo.,54w máx. Modo de economia de energia?0,5w modo de desligamento ?0,3w  - tipo de energia adaptador de energia fonte de alimentação 12v 4a  - acessorios: cabo de alimentação (1,5 m) 1 (1,5 m) cabo dp versão 1.2 qtd de cabo dp (1,5 m/1,8 m) 1 (1,5 m)  - temperatura da cor (fria, quente, usuário) controle de baixa luz azul modos de cenários dcr menu de idiomas 23 idiomas  - nenhum ajuste de luz de fundo intermitente sincronização adaptável freesync  - over drive fps/rts jogo mais pip/pbp qp efeito de luz laranja  - dimensão com suporte (l/a/p)(mm) 616,2x453,1x195,7 mm  - dimensão sem suporte (lxaxp)(mm) 616,2x367,2x96,3 mm  - dimensão da caixa (lxaxp)(mm) 699x169x440mm  - peso líquido (kg) 4,85kg  - peso bruto (kg) 6,72kg  - garantia 1 ano &lt;br&gt;&lt;br&gt;&lt;strong&gt;especificações técnicas&lt;/strong&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;marca:&lt;/strong&gt; primetek&lt;br&gt;&lt;strong&gt;modelo:&lt;/strong&gt; 25c1h&lt;br&gt;&lt;strong&gt;tamanho da tela:&lt;/strong&gt; 25</t>
-  </si>
-  <si>
-    <t>Monitor Gamer Goldentec, 24 Polegadas, LED, Full HD, 144hz, 1ms</t>
-  </si>
-  <si>
-    <t>Monitor gamer goldentec 24´´ led full hd 144hz 1ms | gt gamer conta com tecnologia freesync, capaz de eliminar falhas e intermitências. Além disso, possui tecnologia lowbluelight, capaz de reduzir a luz azul do monitor proporcionando mais conforto e segurança. Conta também com 100% flicker free, suavizando a ondulação do monitor.   especificações técnicas  marcagoldentec  tamanho de tela24´´  framelesssim  resolução1920x1080 (full hd)  tempo de resposta 1ms  frequência 144hz  brilho250 cd/m²  contraste 100 milhões: 1  ângulo de visão180° (h) 180° (v)  cores16,7 milhões  inclinação ajustavel15°  tecnologia freesyncsim, elimina falhas e intermitências  tecnlogia lowbluelightsim, reduz a luz azul para mais conforto e segurança  100% flicker freesim, suaviza a ondulação do monitor  conexõeshdmi + vga  conteúdo da embalagemmonitor 24´´&lt;br&gt;fonte adaptadora&lt;br&gt;cabo hdmi&lt;br&gt;manual de instruções   &lt;br&gt;&lt;br&gt;&lt;strong&gt;especificações técnicas&lt;/strong&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;marca :&lt;/strong&gt; goldentec&lt;br&gt;&lt;strong&gt;tipo :&lt;/strong&gt; gamer&lt;br&gt;&lt;strong&gt;polegadas :&lt;/strong&gt; 24 ´´&lt;br&gt;&lt;br&gt;&lt;strong&gt;garantia : &lt;/strong&gt;12</t>
-  </si>
-  <si>
-    <t>Monitor Gamer Grasep 27 Polegadas Led, FHD, HDMI, Som Integrado - 1920P</t>
-  </si>
-  <si>
-    <t>PRONTA ENTREGA&lt;br /&gt;3 meses de garantia com o vendedor!&lt;br /&gt;6 meses de garantia com o fabricante!&lt;br /&gt;&lt;br /&gt;Monitor PC Gamer Led Full HD Som integrado 27 pol 75Hz&lt;br /&gt;&lt;br /&gt;Eleve a qualidade visual do seu computador com este incrível monitor PC de alta definição. Projetado para oferecer uma experiência visual imersiva e nítida, este monitor é perfeito para trabalhar, jogar, assistir a filmes e muito mais.&lt;br /&gt;&lt;br /&gt;Com uma tela de alta resolução, cada detalhe ganha vida, proporcionando imagens vibrantes e cores realistas. Seja para editar fotos e vídeos, jogar seus games favoritos ou assistir a filmes em alta definição, este monitor oferece uma qualidade de imagem impressionante, com alto contraste e brilho intenso.&lt;br /&gt;&lt;br /&gt;Além disso, o monitor possui um tamanho de 27 polegadas para acomodar várias janelas e facilitar a multitarefa. Você poderá abrir e trabalhar em diferentes aplicativos ao mesmo tempo, aumentando sua produtividade e tornando seu fluxo de trabalho mais eficiente.&lt;br /&gt;&lt;br /&gt;Dimensões: 4x56x33cm&lt;br /&gt;Peso: 3.6kg&lt;br /&gt;&lt;br /&gt;Especificações:&lt;br /&gt;Tela: 27"&lt;br /&gt;Tipo: LED&lt;br /&gt;Resolução: 1920x1080&lt;br /&gt;IPS&lt;br /&gt;Tempo de resposta: 1ms&lt;br /&gt;Brilho máxima: 250cd/m&lt;br /&gt;Interfaces: HDMI/VGA/AUDIO IN&lt;br /&gt;Frequência horizontal: 67.200KHz&lt;br /&gt;Frequência vertical: 75Hz&lt;br /&gt;Consumo de potência: 35W&lt;br /&gt;Consumo Potência em Standby: 0,5&lt;br /&gt;Não possui som integrado&lt;br /&gt;Visão expansiva&lt;br /&gt;&lt;br /&gt;Itens Inclusos:&lt;br /&gt;1 Monitor 27&lt;br /&gt;1 Cabo DisplayPort&lt;br /&gt;1 Fonte AC/DC&lt;br /&gt;1 Manual</t>
-  </si>
-  <si>
-    <t>Monitor Gamer Acer VG240Y FHD 165hz FreeSync ZeroFrame 0,5ms.</t>
-  </si>
-  <si>
-    <t>A tecnologia AMDFreeSync Premium elimina a tela ?'rasgada', minimiza atrasos e latência durante os jogos, apresentando uma sincronização dos quadros do monitor muito mais eficiente. Sua experiência visual será mais suave, fluida e responsiva. O Nitro VG240Y conta com uma alta taxa de atualização de 144Hz até 165Hz. Prepare-se para ver imagens mais suaves, sem rastros e sem rasgos. Monitor é igual exp: quanto mais, melhor. Jogue com múltiplos monitores sem problemas, o design ZeroFrame praticamente elimina as bordas para que você tenha uma verdadeira imersão no jogo. Com Display Acer HDR, o VG240Y cria níveis mais profundos do contraste preto e branco. Nas cenas mais escuras, os pretos ricos são preservados e os detalhes aprimorados, gerando maior luminosidade. A tela de 23.8 polegadas IPS Full HD potencializa seu poder de imersão nas batalhas. A latência ultrabaixa deste monitor oferece respostas rápidas além das expectativas. Você terá controle total em jogos de corrida ou esporte, devido à redução do atraso de quadro. O tempo de resposta do Nitro é de 2ms até 0,5ms.</t>
-  </si>
-  <si>
-    <t>Monitor Gamer 27 Asus Vg279q1r Tuf Gaming - Full Hd Ips - 144hz - 1ms - Freesync - Hdmi/displayport</t>
-  </si>
-  <si>
-    <t>TUF Gaming VG279Q1RO TUF Gaming VG279Q1R é uma tela Full HD (1920x1080) de 27 polegadas com uma taxa de atualização ultrarrápida de 144 Hz projetada para jogadores profissionais e aqueles que buscam jogabilidade envolvente. Ele também possui a tecnologia Adaptive-Sync (FreeSync ™), para uma jogabilidade extremamente fluida sem tearing e stuttering.MONITOR GAMING ULTRA SLIM DE 27 POLEGADASO painel Full HD (1920 X 1080) de 27 polegadas do TUF Gaming VG279Q1R oferece visuais impressionantes de ângulos de visão amplos de 178 °. Também ocupa muito pouco espaço na área de trabalho e se encaixa bem em qualquer configuração. Seu perfil ultrafino mede apenas 7,5 mm em seu ponto mais fino, também apresenta o novo Turbo Rim baseado que combina com a configuração de jogo perfeita.Refresh rate de 144hzO TUF Gaming VG279Q1R tem uma taxa de atualização super rápida de 144 Hz, garantindo que mesmo os jogos mais rápidos, jogados nas configurações visuais mais altas, tenham uma aparência suave e completamente livre de atrasos. Obtenha a vantagem em jogos de tiro em primeira pessoa, corrida, estratégia em tempo real e títulos de esportes.EXTREME LOW MOTION BLURA tecnologia Extreme Low Motion Blur exclusiva da ASUS alcança 1 ms MPRT para eliminar manchas e desfoque de movimento. Também faz com que os objetos em movimento pareçam ainda mais nítidos, para que a jogabilidade seja mais fluida e ágil.Shadow BoostA tecnologia ASUS Shadow Boost esclarece as áreas escuras do jogo sem superexpor as áreas mais brilhantes, melhorando a visualização geral, ao mesmo tempo que torna mais fácil localizar inimigos escondidos em áreas escuras do mapa.</t>
-  </si>
-  <si>
-    <t>Monitor Goldentec, 24" Led Gt Gamer Fhd, Hdmi, 75hz</t>
-  </si>
-  <si>
-    <t>Monitor Gamer Bluecase, 21.5" Full HD, 75Hz, Rako - BM221GW</t>
-  </si>
-  <si>
-    <t>Monitor Concórdia Gamer Curvo 27'', Led Full, Hd, 165hz, Freesync - Cz270f</t>
-  </si>
-  <si>
-    <t>&lt;strong&gt;você na vantagem sempre!&amp;nbsp &amp;nbsp&amp;nbsp&lt;/strong&gt;o&amp;nbsp&lt;strong&gt;monitor concórdia gamer curvo cz270f 27&amp;quot led full hd 165hz freesync&lt;/strong&gt;&amp;nbspconta com resposta de 1ms e taxa de atualização de 165hz, permitindo a mais alta performance durante suas gameplays. Sua curvatura amplia o campo de visão relativo, concentrando toda a ação ao alcance dos olhos do usuário, sem perder resolução.&lt;strong&gt;monitor curvo&amp;nbsp &amp;nbsp&lt;/strong&gt;tenha mais imersão na sua gameplay com esse monitor curvo da concórdia. Observe seus adversários ainda mais de perto com essa imersão de 1500r de curvatura e um ângulo de visão de 178º.&lt;strong&gt;inclinável&amp;nbsp&lt;/strong&gt;ajuste de inclinação da tela de 5&amp;deg a 15&amp;deg. Ajuste seu monitor da maneira que quiser deixando sua visão ainda mais confortável e ampla!&lt;strong&gt;especificações:&lt;/strong&gt;&lt;strong&gt;tela:&lt;/strong&gt;painel: vaárea ativa: 596.736 &amp;times 335.664 mmângulo de visão: 178/178&amp;nbspcurvatura: r1500&amp;nbspresolução: 1920*1080165hzdot pitch: 0,3108cores do painel: 16.7m&amp;nbsp&amp;nbspbrilho(máximo): 250cd/m2tempo de resposta: 1ms&amp;nbspcontraste: 3000: 1taxa de heartz: 165hz&amp;nbsp &amp;nbsp&lt;strong&gt;conectividade:&amp;nbsp&lt;/strong&gt;hdmidisplayport 1.4dvientrada earphonedc (energia)&lt;strong&gt;alimentação:&lt;/strong&gt;tipo: adaptador externovoltagem: 12v/3.5aconsumo: 38w | stand by: 0.5w&amp;nbsp&lt;strong&gt;recursos do monitor:&lt;/strong&gt;- base de fácil desmontagem- freesync/g-sync&amp;nbsp&amp;nbsp- filtro de luz azul- flicker free- baixo consumo em modo stand by- overdriver&amp;nbsp- base fixa- sem bordas- auto falante interno: sim.- vesa: 100*100mm.&amp;nbsp&lt;strong&gt;acompanha:&lt;/strong&gt;&amp;nbspcabo displayport,&amp;nbspmanual do usuário e parafusos.&amp;nbsp&amp;nbsp&lt;strong&gt;dimensões da tela (cm)(axlxp):&lt;/strong&gt;&amp;nbsp36 | 61 | 4,5 | peso(kg): 4,734.&lt;strong&gt;dimensões da tela com base&amp;nbsp(cm)(axlxp)&lt;/strong&gt;: 43 | 61 | 17 | peso(kg): 4,734.&lt;br&gt;&lt;br&gt;&lt;strong&gt;especificações técnicas&lt;/strong&gt;&lt;br&gt;monitor concórdia gamer curvo cz270f 27´´ led full hd 165hz freesync | entregue para todo o brasil |</t>
-  </si>
-  <si>
-    <t>Monitor Gamer Husky Storm 27' LED, Curvo, 165 Hz, Full HD, 1ms, Adaptive Sync, HDMI/DisplayPort, Ajuste de Ângulo - HGMT001</t>
-  </si>
-  <si>
-    <t>&lt;h2&gt;Monitor Gamer Husky Storm 27' LED, Curvo, 165 Hz, Full HD, 1ms, Adaptive Sync, HDMI/DisplayPort, Ajuste de &amp;Acirc;ngulo&lt;/h2&gt;
-&lt;h3&gt;&lt;br /&gt;Esteja um passo &amp;agrave; frente!&lt;/h3&gt;
-&lt;p&gt;O Monitor Husky Storm conta com resposta de 1ms e taxa de atualiza&amp;ccedil;&amp;atilde;o de 165Hz, permitindo a mais alta performance durante suas gameplays. Sua curvatura amplia o campo de vis&amp;atilde;o relativo, concentrando toda a a&amp;ccedil;&amp;atilde;o ao alcance dos olhos do usu&amp;aacute;rio, sem perder resolu&amp;ccedil;&amp;atilde;o.&lt;/p&gt;
-&lt;h3&gt;&lt;br /&gt;Tecnologia Adaptive Sync&amp;nbsp;&lt;/h3&gt;
-&lt;p&gt;Compat&amp;iacute;vel com a tecnologia Adaptive Sync, permite a sincroniza&amp;ccedil;&amp;atilde;o dos frames da placa de v&amp;iacute;deo, decretando o fim do input lag, bem como do tearing.&lt;/p&gt;
-&lt;h3&gt;&lt;br /&gt;Monitor Curvo&amp;nbsp;&lt;/h3&gt;
-&lt;p&gt;Tenha mais imers&amp;atilde;o na sua gaming player com esse monitor curvo da Husky. Observe seus advers&amp;aacute;rios ainda mais de perto com essa imers&amp;atilde;o de 1500r de curvatura e um &amp;acirc;ngulo de vis&amp;atilde;o de 178&amp;ordm;.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h3&gt;Adaptive Sync&lt;/h3&gt;
-&lt;p&gt;Evita o imput lag e combate o problema da quebra de quadros durante a reprodu&amp;ccedil;&amp;atilde;o dos frames. Essa Tecnologia evita o travamento do jogo para uma jogabilidade mais suave poss&amp;iacute;vel. Explore novas paisagens e capture seus inimigos em movimentos suaves e cont&amp;iacute;nuos.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h3&gt;Inclin&amp;aacute;vel&lt;/h3&gt;
-&lt;p&gt;Ajuste de inclina&amp;ccedil;&amp;atilde;o da tela de 5&amp;deg; a 15&amp;deg;. Ajuste seu monitor da maneira que quiser deixando sua vis&amp;atilde;o ainda mais confort&amp;aacute;vel e ampla&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h3&gt;Monitor Husky &amp;eacute; no KaBuM!&amp;nbsp;&lt;/h3&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;&lt;strong&gt;&lt;a href="https://kabum.com.br/hotsite/manuais/115384-Monitor-Gamer-Husky-Storm-HGMT001.pdf" target="_blank"&gt;MANUAL DE INSTRU&amp;Ccedil;&amp;Otilde;ES&lt;/a&gt;&lt;/strong&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>Monitor Asus TUF Gaming 27 Full HD, 165Hz, 1ms, IPS, HDMI e DisplayPort, FreeSync Premium, VESA - VG279Q1A</t>
-  </si>
-  <si>
-    <t>&lt;h2&gt;TUF Gaming VG279Q1A Gaming Monitor Full HD de 27 polegadas (1920x1080), IPS, 165Hz (acima de 144Hz), Extreme Low Motion Blur, Adaptive-sync, FreeSync Premium, 1ms (MPRT)&lt;/h2&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;Monitor de jogos &lt;strong&gt;IPS Full HD (1920 x 1080)&lt;/strong&gt; de 27 polegadas com &lt;strong&gt;taxa de atualiza&amp;ccedil;&amp;atilde;o ultrarr&amp;aacute;pida de 165 Hz&lt;/strong&gt;, projetado para jogadores profissionais e jogabilidade envolvente.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;A tecnologia &lt;strong&gt;ASUS Extreme Low Motion Blur (ELMB)&lt;/strong&gt; permite um &lt;strong&gt;tempo de resposta de 1 ms (MPRT)&lt;/strong&gt; junto com a sincroniza&amp;ccedil;&amp;atilde;o adaptativa, eliminando fantasmas e rasgos para visuais de jogos n&amp;iacute;tidos com altas taxas de quadros.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;&lt;strong&gt;Tecnologia FreeSync Premium&lt;/strong&gt; para eliminar rasgos na tela e taxas de quadros inst&amp;aacute;veis.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;Suporta &lt;strong&gt;Adaptive-Sync&lt;/strong&gt; com placas gr&amp;aacute;ficas &lt;strong&gt;NVIDIA GeForce e FreeSync&lt;/strong&gt; com placas gr&amp;aacute;ficas AMD Radeon Compat&amp;iacute;vel com NVIDIA GeForce s&amp;eacute;rie GTX 10, s&amp;eacute;rie GTX 16, s&amp;eacute;rie RTX 20 e placas gr&amp;aacute;ficas mais recentes.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;O &lt;strong&gt;Shadow Boost aprimora os detalhes da imagem&lt;/strong&gt; em &amp;aacute;reas escuras, iluminando as cenas sem super expor as &amp;aacute;reas claras.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;Sa&amp;iacute;da &lt;strong&gt;Full HD (1920 x 1080) a 120 Hz no PS5 e Xbox&lt;/strong&gt; Series X/S.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h3&gt;Todos os elementos essenciais para jogos&lt;/h3&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;O TUF Gaming VG279Q1A &amp;eacute; um monitor IPS Full HD (1920 x 1080) de 27 polegadas com uma taxa de atualiza&amp;ccedil;&amp;atilde;o ultrarr&amp;aacute;pida de 165 Hz. Projetado para jogadores e outros que buscam uma jogabilidade envolvente, ele oferece algumas especifica&amp;ccedil;&amp;otilde;es s&amp;eacute;rias. Mas h&amp;aacute; mais...&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;Sua fun&amp;ccedil;&amp;atilde;o exclusiva ELMB apresenta um tempo de resposta MPRT de 1ms e tecnologia Adaptive-Sync (FreeSync Premium), para uma jogabilidade extremamente fluida sem tearing e gagueira.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h3&gt;Tela IPS de 27 polegadas para melhor reprodu&amp;ccedil;&amp;atilde;o de cores&lt;/h3&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;O painel IPS Full HD (1920 x 1080) de 27 polegadas do TUF Gaming VG279Q1A oferece visuais impressionantes de todos os &amp;acirc;ngulos com amplos &amp;acirc;ngulos de vis&amp;atilde;o de 178 graus, garantindo distor&amp;ccedil;&amp;atilde;o m&amp;iacute;nima e mudan&amp;ccedil;a de cor mesmo quando voc&amp;ecirc; est&amp;aacute; visualizando de posi&amp;ccedil;&amp;otilde;es extremas.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h3&gt;Taxa de atualiza&amp;ccedil;&amp;atilde;o super-r&amp;aacute;pida de 165 Hz&lt;/h3&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;Uma impressionante taxa de atualiza&amp;ccedil;&amp;atilde;o de 165 Hz elimina o atraso e o desfoque de movimento para dar a voc&amp;ecirc; vantagem em jogos de tiro em primeira pessoa, corrida, estrat&amp;eacute;gia em tempo real e t&amp;iacute;tulos esportivos. Essa taxa de atualiza&amp;ccedil;&amp;atilde;o ultrarr&amp;aacute;pida permite que voc&amp;ecirc; jogue nas configura&amp;ccedil;&amp;otilde;es visuais mais altas e reaja instantaneamente ao que est&amp;aacute; na tela.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h3&gt;Desfrute de uma jogabilidade super suave&lt;/h3&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;Apresenta a mais recente tecnologia Extreme Low Motion Blur exclusiva da ASUS, que atinge 1ms MPRT para eliminar manchas e desfoque de movimento, e torna os objetos em movimento mais n&amp;iacute;tidos, para que a jogabilidade seja mais fluida e responsiva.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>Monitor Gamer Duex 27 Full HD Curvo, 240Hz, 1ms, IPS, HDMI e DisplayPort, 99% sRGB, VESA - 270ZG</t>
-  </si>
-  <si>
-    <t>&lt;h2&gt;Monitor Gamer Duex 27 Full HD&lt;/h2&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;Uma velocidade ultrarr&amp;aacute;pida de&amp;nbsp;&lt;strong&gt;240Hz e 1ms&lt;/strong&gt;&amp;nbsp;permite que os jogadores vejam o pr&amp;oacute;ximo quadro rapidamente e fazem com que a imagem apare&amp;ccedil;a suavemente. Os jogadores podem responder rapidamente aos oponentes e mirar no alvo facilmente.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h3&gt;Compre agora no KaBuM!&lt;/h3&gt;</t>
-  </si>
-  <si>
-    <t>Monitor Gamer Husky 700  27 LED, Curvo Wide, WQHD, 165Hz, 1ms, HDMI e DisplayPort, Adaptive Sync, VESA - HGMT008</t>
-  </si>
-  <si>
-    <t>&lt;h2&gt;Monitor Gamer Husky Gaming Storm 700&lt;/h2&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;N&amp;atilde;o precisa mais se perguntar qual monitor gamer comprar! A Husky Gaming ajuda voc&amp;ecirc; a &lt;strong&gt;atualizar seu setup&lt;/strong&gt;, seja para partidas no PC ou v&amp;iacute;deo game. Sempre oferecemos &lt;strong&gt;o melhor para voc&amp;ecirc;!&lt;/strong&gt;&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;Monitor Gamer Husky Gaming Storm 700 tem uma alta &lt;strong&gt;taxa de atualiza&amp;ccedil;&amp;atilde;o de 165 Hz&lt;/strong&gt; com &lt;strong&gt;tempo de resposta de 1 ms&lt;/strong&gt;, que possibilita um tempo de rea&amp;ccedil;&amp;atilde;o mais r&amp;aacute;pido para suas partidas insanas.&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;Sua&lt;strong&gt; tela curva Quad HD de 27"&lt;/strong&gt;, com&lt;strong&gt; resolu&amp;ccedil;&amp;atilde;o de 2560 x 1440P&lt;/strong&gt; que garante imagem mais n&amp;iacute;tida e detalhada. Proporcionando&lt;strong&gt; jogabilidade fluida&lt;/strong&gt;, &lt;strong&gt;sem distor&amp;ccedil;&amp;otilde;es&lt;/strong&gt; e uma &lt;strong&gt;experi&amp;ecirc;ncia mais imersiva&lt;/strong&gt; para voc&amp;ecirc; n&amp;atilde;o perder nenhum detalhe importante, do seu programa de esporte, filme, s&amp;eacute;rie ou jogo preferido.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h3&gt;Aproveite e garanta j&amp;aacute; o seu Monitor Gamer Husky Gaming Storm 700! no KaBuM!&lt;/h3&gt;</t>
-  </si>
-  <si>
-    <t>Monitor Gamer Gigabyte, 27 QHD, 170Hz, 1ms, DisplayPort e HDMI, 108% sRGB, HDR, Adaptive-Sync - GS27QC SA</t>
-  </si>
-  <si>
-    <t>&lt;h2&gt;Monitor Gamer Gigabyte 27 QHD&lt;/h2&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h2&gt;A Mais Alta Qualidade&lt;/h2&gt;
-&lt;p&gt;Equipado com uma taxa de atualiza&amp;ccedil;&amp;atilde;o de &lt;strong&gt;165 Hz&lt;/strong&gt; que suporta a tecnologia &lt;strong&gt;Adaptive-Sync&lt;/strong&gt; (FreeSync Premium), que p&amp;otilde;e fim &amp;agrave; jogabilidade inst&amp;aacute;vel e aos frames quebrados e cria um desempenho fluido e livre de artefatos em qualquer taxa de quadros. GS27QC com um tempo de resposta extremamente r&amp;aacute;pido de &lt;strong&gt;1 ms&lt;/strong&gt; para eliminar totalmente o atraso e o rasgo da imagem.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h2&gt;Mais Curva e Mais Imers&amp;atilde;o&lt;/h2&gt;
-&lt;p&gt;Um painel VA nativo de &lt;strong&gt;1500 Raios&lt;/strong&gt; que apresenta uma vis&amp;atilde;o mais pr&amp;oacute;xima do olho humano do que um monitor plano, proporcionando uma sensa&amp;ccedil;&amp;atilde;o mais envolvente e ao mesmo tempo oferecendo mais conforto visual.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h2&gt;Milh&amp;otilde;es de Cores&lt;/h2&gt;
-&lt;p&gt;O GS27QC pode exibir &lt;strong&gt;16,7 milh&amp;otilde;es de cores&lt;/strong&gt; e possui uma taxa de contraste de &lt;strong&gt;4000:1&lt;/strong&gt;. Ele permite que voc&amp;ecirc; desfrute de uma experi&amp;ecirc;ncia de jogo fluente com cores reais e vibrantes. O GS27QC est&amp;aacute; pronto para &lt;strong&gt;HDR&lt;/strong&gt;, o que desperta interesse em uma ampla gama de aplica&amp;ccedil;&amp;otilde;es, incluindo jogos, entretenimento cinematogr&amp;aacute;fico e cria&amp;ccedil;&amp;atilde;o de conte&amp;uacute;do multim&amp;iacute;dia.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h3&gt;Compre j&amp;aacute; o seu no KaBuM!&lt;/h3&gt;</t>
-  </si>
-  <si>
-    <t>Monitor Gamer Gigabyte 27 IPS, QHD , 144Hz, 1ms, 120% sRGB, HDR 400, FreeSync Premium, Altura Ajustável - G27Q-SA</t>
-  </si>
-  <si>
-    <t>JUNTE-SE À LUTA com o Monitor Gamer de 27" G27Q-SA da Gigabyte com 1ms de tempo de resposta, freesync premium, 144 Hz e com uma taxa de cor de 8 bits, 92% DCI-P3 A ÚLTIMA MILHA PARA O SEU SISTEMA DE JOGO Como um jogador invisível, o monitor é frequentemente subestimado. A verdade é que os monitores se formam como um efeito sinérgico e trazem o melhor desempenho dos componentes do PC. Os monitores de jogos GIGABYTE oferecem as últimas especificações e qualidade, os usuários podem realmente desfrutar de um desempenho de alto nível sem a necessidade de extravagância. Tempo de Resposta de 1 ms Tempo de resposta super rápido de 1 ms para a experiência de jogo mais suave de todos os tempos! QHD e 144Hz Alta resolução e taxa de atualização rápida, proporcionando qualidade de exibição detalhada e experiência de jogo fluida! Cor de 8 bits, 92% DCI-P3 Fantástico visor colorido e 92% de cores DCI-P3 de gama super ampla. SIMPLES MAS ESTILOSO A aparência aerodinâmica representa a simplicidade da filosofia de design da série de jogos GIGABYTE, suporte robusto e acabamento fosco construído para características funcionais e estéticas adicionando mais características. ÂNGULO DE VISÃO PERFEITO O monitor de jogos GIGABYTE possui um suporte exclusivo ergonomicamente projetado para oferecer uma ampla gama de ajustes de altura e inclinação.</t>
-  </si>
-  <si>
-    <t>Monitor Gamer Acer 31.5 LED Full HD, Curvo, 165 Hz, 1ms, HDMI e DisplayPort, FreeSync Premium, VESA - ED320QR</t>
-  </si>
-  <si>
-    <t>&lt;h2&gt;Monitor Gamer Acer 31.5 LED Full HD, Curvo, 165 Hz, 1ms, HDMI e DisplayPort, FreeSync Premium, VESA&lt;/h2&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h2&gt;Tela Curva e Imersiva&lt;/h2&gt;
-&lt;p&gt;Tenha uma experi&amp;ecirc;ncia visual imersiva e confort&amp;aacute;vel com uma&lt;strong&gt; tela curva&lt;/strong&gt; com raio de 1800 mm de visualiza&amp;ccedil;&amp;atilde;o. Essa tecnologia mant&amp;eacute;m os cantos da tela &amp;agrave; mesma dist&amp;acirc;ncia de seus olhos. S&amp;atilde;o &lt;strong&gt;31,5&amp;rdquo;&lt;/strong&gt; e resolu&amp;ccedil;&amp;atilde;o &lt;strong&gt;Full HD&lt;/strong&gt;, promovendo imagens n&amp;iacute;tidas, que levam seu foco no jogo a outro n&amp;iacute;vel.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h2&gt;Design ZeroFrame&lt;/h2&gt;
-&lt;p&gt;Monitor com tela &lt;strong&gt;LED VA&lt;/strong&gt; e design ZeroFrame, que praticamente elimina as bordas para que voc&amp;ecirc; tenha uma verdadeira imers&amp;atilde;o no jogo.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h2&gt;De olho em cada Frame&lt;/h2&gt;
-&lt;p&gt;O Nitro Series ED0 conta com uma taxa de atualiza&amp;ccedil;&amp;atilde;o de at&amp;eacute; &lt;strong&gt;165Hz.&lt;/strong&gt; Prepare-se para ver imagens mais suaves, sem rastros e sem rasgos.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h2&gt;Foque no Movimento&lt;/h2&gt;
-&lt;p&gt;Com o Visual Response Boost (VRB) de 1 ms, o monitor reduz borr&amp;otilde;es, efeitos fantasmas e manchas nas imagens. Al&amp;eacute;m disso, elimina o desfoque em objetos em movimento r&amp;aacute;pido.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h2&gt;Jogue em Perfeita Sincronia&lt;/h2&gt;
-&lt;p&gt;A tecnologi&lt;strong&gt;a AMD FreeSync Premium&lt;/strong&gt; elimina a tela &amp;ldquo;rasgada&amp;rdquo;, minimiza atrasos e lat&amp;ecirc;ncia durante os jogos, apresentando uma sincroniza&amp;ccedil;&amp;atilde;o dos quadros do monitor muito mais eficiente. Sua experi&amp;ecirc;ncia visual ser&amp;aacute; mais&lt;strong&gt; suave, fluida e responsiva.&lt;/strong&gt;&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h2&gt;Contrastes Impressionantes&lt;/h2&gt;
-&lt;p&gt;O contraste de 100 milh&amp;otilde;es:1 &amp;eacute; alcan&amp;ccedil;ado atrav&amp;eacute;s da tecnologia Acer Adaptive Contrast Management. Ela proporciona um&lt;strong&gt; visual mais cristalino&lt;/strong&gt; e real&amp;ccedil;a a qualidade das cores do monitor.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h3&gt;Aproveite essa oportunidade e adquira seu Monitor Acer no KaBuM!&lt;/h3&gt;</t>
-  </si>
-  <si>
-    <t>Monitor Gamer Samsung 22' IPS, 75 Hz, Full HD, FreeSync, HDMI/VGA, VESA -  LF22T350FHLMZD</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Monitor Gamer Samsung LED 22, IPS, Full HD, Vesa, Free Sync, Modo Gaming, Preto Vis&amp;atilde;o totalmente expansiva Design minimalista, concentra&amp;ccedil;&amp;atilde;o m&amp;aacute;xima. A tela com 3 lados sem borda traz uma est&amp;eacute;tica limpa e moderna para qualquer ambiente de trabalho. Em um setup com v&amp;aacute;rios monitores, se alinham perfeitamente para uma visualiza&amp;ccedil;&amp;atilde;o praticamente sem espa&amp;ccedil;os e sem distra&amp;ccedil;&amp;otilde;es. Imagens perfeitas e suaves Agora, a imagem &amp;eacute; reproduzida sem falhas. A taxa de atualiza&amp;ccedil;&amp;atilde;o de 75Hz oferece cenas mais fluidas. Seu momento de divers&amp;atilde;o n&amp;atilde;o tem lag ou efeito fantasma, quer voc&amp;ecirc; esteja acompanhando seu programa de TV favorito, assistindo a um v&amp;iacute;deo ou jogando um jogo. A&amp;ccedil;&amp;atilde;o Sincronizada Experi&amp;ecirc;ncia de entretenimento super fluida. AMD Radeon FreeSync mant&amp;eacute;m a taxa de atualiza&amp;ccedil;&amp;atilde;o do monitor e da placa gr&amp;aacute;fica em sincronia para reduzir a quebra de imagem. Assista a filmes e jogue sem interrup&amp;ccedil;&amp;otilde;es. At&amp;eacute; mesmo as cenas r&amp;aacute;pidas s&amp;atilde;o perfeitas e suaves. Veja de qualquer &amp;acirc;ngulo Sente-se em qualquer lugar e tenha uma experi&amp;ecirc;ncia completa sem distor&amp;ccedil;&amp;atilde;o de cores. O painel IPS preserva a nitidez e a vivacidade das cores em cada cent&amp;iacute;metro da tela. Mesmo em uma tela t&amp;atilde;o ampla, os tons e sombras s&amp;atilde;o completamente precisos de praticamente qualquer &amp;acirc;ngulo, sem altera&amp;ccedil;&amp;atilde;o de cor. Mais poder de jogo As configura&amp;ccedil;&amp;otilde;es de jogo ideais proporcionam uma vantagem instant&amp;acirc;nea. Detecte inimigos escondidos nas sombras atrav&amp;eacute;s do contraste ideal, mais nitidez e cenas com cores mais vivas. O Modo de Jogo ajusta qualquer jogo para preencher sua tela visualizando todos os detalhes. Mais conforto para os olhos Proteja seus olhos e fa&amp;ccedil;a mais. A avan&amp;ccedil;ada tecnologia de conforto visual reduz a fadiga ocular para uma experi&amp;ecirc;ncia prolongada menos cansativa. A tecnologia Flicker Free remove continuamente a tremula&amp;ccedil;&amp;atilde;o cansativa e irritante da tela, enquanto o Eye Saver Mode minimiza a emiss&amp;atilde;o de luz azul. Seus olhos ficam descansados por mais tempo. Versatilidade de verdade Conecte-se a mais. Com as portas HDMI e D-sub, v&amp;aacute;rios dispositivos podem ser conectados diretamente ao seu monitor para total flexibilidade. Agora, seu ambiente de computa&amp;ccedil;&amp;atilde;o &amp;eacute; ainda mais conveniente com possibilidades de entrada adicionais.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>Monitor Gamer AOC Agon 31.5' LED, Curvo, 165 Hz, Full HD, 1ms, FreeSync Premium, HDMI/DisplayPort, RGB Light FX - AG323FCXE</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Com tela de alta qualidade, amplo &amp;acirc;ngulo de vis&amp;atilde;o e comando em tempo real, prepare-se para obter uma experi&amp;ecirc;ncia muito mais imersiva em todos os g&amp;ecirc;neros de jogos. Projetado para gamers, o monitor Agon permite movimentos muito mais flu&amp;iacute;dos nos jogos devido a alt&amp;iacute;ssima taxa de atualiza&amp;ccedil;&amp;atilde;o de 165 Hz. O tempo de resposta de 1 ms proporciona movimentos instant&amp;acirc;neos e naturais para voc&amp;ecirc; ser o melhor, e com o painel VA, voc&amp;ecirc; tem mais brilho e contraste para enxergar onde os seus inimigos est&amp;atilde;o, mesmo em cenas com pouca ilumina&amp;ccedil;&amp;atilde;o. Al&amp;eacute;m disso, o design exclusivo com LEDs em diferentes configura&amp;ccedil;&amp;otilde;es de cores RGB deixam a sua maratona de jogos ainda mais emocionante.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>Monitor Gamer LG Ultra Gear 27 Full HD, 144 Hz, 1ms, IPS, HDMI e DisplayPort, sRGB 99%, HDR10, FreeSync, VESA, Altura Ajustável - 27GL650F-B</t>
-  </si>
-  <si>
-    <t>&lt;h2&gt;Monitor Gamer LG Ultra Gear 27 Full HD&lt;/h2&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h2&gt;Evolua o Jogo Antes do Seu Rival:&lt;/h2&gt;
-&lt;p&gt;Tenha incr&amp;iacute;vel qualidade de imagens e decis&amp;otilde;es imediatas aos seus jogos com o Monitor Gamer LG 27GL650F.&lt;br /&gt;Os &lt;strong&gt;frames ultra-r&amp;aacute;pidos&lt;/strong&gt; de &lt;strong&gt;144Hz&lt;/strong&gt; permite os jogadores a reagirem imediatamente aos seus advers&amp;aacute;rios e mudar a hist&amp;oacute;ria do jogo para a sua vit&amp;oacute;ria.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h2&gt;1ms Motion Blur Reduction&lt;/h2&gt;
-&lt;p&gt;Tenha imagens sem rastros e a&amp;ccedil;&amp;otilde;es mais r&amp;aacute;pidos com o &lt;strong&gt;tempo de resposta de 1ms&lt;/strong&gt; com &lt;strong&gt;Motion Blur Reduction.&lt;br /&gt;&lt;/strong&gt;O LG 27GL650F exibe &lt;strong&gt;precis&amp;atilde;o de cores impec&amp;aacute;vel&lt;/strong&gt; com um &amp;acirc;ngulo de vis&amp;atilde;o ampliado de 178&amp;deg;.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h2&gt;Compat&amp;iacute;vel com G-SYNC certificado pela NVIDIA&lt;/h2&gt;
-&lt;p&gt;Ap&amp;oacute;s ser testado pela NVIDIA, o monitor LG 27GL650F &amp;eacute; oficialmente compat&amp;iacute;vel com &lt;strong&gt;G-SYNC&lt;/strong&gt;, eliminando cortes e minimizando as repeti&amp;ccedil;&amp;otilde;es de imagem para uma experi&amp;ecirc;ncia mais fluida nos seus jogos.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h2&gt;Incr&amp;iacute;vel qualidade de imagem&lt;/h2&gt;
-&lt;p&gt;Tenha&lt;strong&gt; imagens supreendentes&lt;/strong&gt; com &lt;strong&gt;HDR10&lt;/strong&gt;, que reproduz alto brilho e maior gama de cores quando comparado a monitores convencionais deixando as imagens com maior qualidade em situa&amp;ccedil;&amp;otilde;es mais brilhantes ou de maior contraste.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h2&gt;Imagens sem falhas&lt;/h2&gt;
-&lt;p&gt;A tecnologia &lt;strong&gt;AMD FreeSync&lt;/strong&gt; reduz corte e repeti&amp;ccedil;&amp;otilde;es de imagens que ocorrem devido a diferen&amp;ccedil;a entre os quadros gr&amp;aacute;ficos e a taxa de atualiza&amp;ccedil;&amp;atilde;o do monitor. Com o FreeSync, os jogadores podem experimentar &lt;strong&gt;movimentos perfeitos e fluidos durante os jogo&lt;/strong&gt; de altas configura&amp;ccedil;&amp;otilde;es visuais.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h3&gt;Compre agora no KaBuM!&lt;/h3&gt;</t>
-  </si>
-  <si>
-    <t>Monitor Gamer Samsung Odyssey G3, 24 Full HD, 144Hz, 1ms, FreeSync Premium, HDMI/Displayport, Ajuste de altura, Preto - LF24G35TFWLXZD</t>
-  </si>
-  <si>
-    <t>&lt;h2&gt;Monitor Gamer Samsung Odyssey G3, 24 Full HD, 144Hz, 1ms, FreeSync Premium, HDMI/Displayport, Ajuste de altura, Preto&amp;nbsp;&lt;/h2&gt;
-&lt;p&gt;&lt;br /&gt;Monitor Gamer Samsung Odyssey G3 24&amp;rdquo;, FHD, 144 Hz, 1ms, com ajuste de altura, HDMI, DP, VGA, Freesync, Preto, S&amp;eacute;rie G3 Taxa de atualiza&amp;ccedil;&amp;atilde;o de 144Hz Domine todos os inimigos, mesmo em cenas muito r&amp;aacute;pidas. A taxa de atualiza&amp;ccedil;&amp;atilde;o de 144Hz elimina atrasos e desfoque de movimento para uma jogabilidade emocionante com a&amp;ccedil;&amp;atilde;o ultra suave.&lt;/p&gt;
-&lt;h3&gt;&lt;br /&gt;Tempo de resposta de 1ms&lt;/h3&gt;
-&lt;p&gt;Fa&amp;ccedil;a cada movimento contar com um tempo de resposta de 1ms. Ataque seus inimigos assim que os vir e fique &amp;agrave; frente com movimentos precisos do mouse. Seu desempenho na tela &amp;eacute; t&amp;atilde;o r&amp;aacute;pido quanto seus pr&amp;oacute;prios reflexos.&lt;/p&gt;
-&lt;h3&gt;&lt;br /&gt;AMD FreeSync Premium&lt;/h3&gt;
-&lt;p&gt;Jogabilidade suave sem esfor&amp;ccedil;o. O AMD FreeSync Premium apresenta tecnologia de sincroniza&amp;ccedil;&amp;atilde;o adapt&amp;aacute;vel, que reduz o travamento de tela, oscila&amp;ccedil;&amp;atilde;o e atrasos. Veja o jogo do seu jeito Gire, incline e ajuste seu monitor at&amp;eacute; que todos os inimigos estejam perfeitamente vis&amp;iacute;veis. Sua tela pode ser movida livremente para que voc&amp;ecirc; encontre conforto total no jogo. Design de tela cheia O design sem borda de 3 lados revela espa&amp;ccedil;o m&amp;aacute;ximo para uma jogabilidade maior e mais ousada. Alinhe dois monitores com precis&amp;atilde;o em uma configura&amp;ccedil;&amp;atilde;o de monitor duplo sem que nenhum inimigo fique escondido na jun&amp;ccedil;&amp;atilde;o.&lt;/p&gt;
-&lt;h3&gt;&lt;br /&gt;Mais conforto para os olhos&lt;/h3&gt;
-&lt;p&gt;Jogue por mais tempo sem incomodo visual. O Eye Saver Mode minimiza a emiss&amp;atilde;o de luz azul para manter seus olhos relaxados e confort&amp;aacute;veis enquanto joga por muitas horas. A tecnologia Flicker Free remove continuamente a tremula&amp;ccedil;&amp;atilde;o cansativa e irritante da tela para que voc&amp;ecirc; possa jogar por mais tempo sem distra&amp;ccedil;&amp;otilde;es ou fadiga ocular.&lt;/p&gt;
-&lt;h3&gt;&lt;br /&gt;Garanta o seu no KaBuM!&lt;/h3&gt;</t>
-  </si>
-  <si>
-    <t>Monitor Gamer Concórdia 27" LED Full HD, 165Hz, 1ms, HDMI/DisplayPort, FreeSync, Preto - G5s</t>
-  </si>
-  <si>
-    <t>&lt;h2&gt;Monitor Conc&amp;oacute;rdia Gamer G5s 27" Led Full Hd 165hz Freesync Hdmi Display Port&lt;/h2&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;O Monitor Conc&amp;oacute;rdia Gamer G5s de 27" 144Hz/165Hz apresenta tecnologia para tornar sua experi&amp;ecirc;ncia com games ainda mais intensa. Sem rastros, sem atraso, sem imagens tremidas! Tudo isso possibilitado pela sua taxa de atualiza&amp;ccedil;&amp;atilde;o de 144Hz/165Hz e tecnologia Freesync que juntos tornam esse monitor a sua melhor escolha. Com som embutido, conex&amp;atilde;o para fones, ele ainda facilita a sua vida com duas&amp;nbsp; conex&amp;otilde;es HDMI.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h3&gt;Alto desempenho com conveni&amp;ecirc;ncia a um pre&amp;ccedil;o justo nesse excelente painel PVA.&lt;/h3&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>Monitor Gamer LG 25' IPS, Ultra Wide, 75 Hz, Full HD,  99% sRGB, HDMI, VESA - 25UM58-G</t>
-  </si>
-  <si>
-    <t>&lt;h2&gt;Monitor Gamer LG UltraWide&lt;/h2&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h3&gt;1ms Motion Blur Reduction&lt;/h3&gt;
-&lt;p&gt;Tenha &lt;strong&gt;imagens sem rastros&lt;/strong&gt; e &lt;strong&gt;a&amp;ccedil;&amp;otilde;es mais r&amp;aacute;pidas&lt;/strong&gt; com o &lt;strong&gt;tempo de resposta de 1ms&lt;/strong&gt; com &lt;strong&gt;Motion Blur Reduction&lt;/strong&gt;.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h3&gt;UltraWide&lt;/h3&gt;
-&lt;p&gt;A propor&amp;ccedil;&amp;atilde;o da imagem do monitor UltraWide torna os jogos e filmes mais envolventes do que nunca. A &lt;strong&gt;nitidez da resolu&amp;ccedil;&amp;atilde;o Full HD&lt;/strong&gt; de &lt;strong&gt;1080P com IPS&lt;/strong&gt; faz a diferen&amp;ccedil;a. Simplificando, de qualquer &amp;acirc;ngulo de vis&amp;atilde;o, tudo fica mais n&amp;iacute;tido e detalhado em FULL HD .&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h3&gt;Recursos Avan&amp;ccedil;ados para Jogos&lt;/h3&gt;
-&lt;p&gt;Ative o &lt;strong&gt;Dynamic Action Sync&lt;/strong&gt; para que o monitor acompanhe a velocidade das suas habilidades e veja os inimigos nos lugares mais escuros com o &lt;strong&gt;Black Stabilizer.&amp;nbsp;&lt;/strong&gt;Defina as condi&amp;ccedil;&amp;otilde;es ideais de jogo no Modo de Jogo. H&amp;aacute; &lt;strong&gt;3 modos&lt;/strong&gt; &lt;strong&gt;para jogadores&lt;/strong&gt;: &lt;strong&gt;2 modos de tiro&lt;/strong&gt; &lt;strong&gt;em primeira pessoa&lt;/strong&gt; e at&amp;eacute; mesmo um &lt;strong&gt;modo predefinido&lt;/strong&gt; &lt;strong&gt;de estrat&amp;eacute;gia em tempo real&lt;/strong&gt;.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h3&gt;On-Screen Control&lt;/h3&gt;
-&lt;p&gt;O Controle On-Screen coloca uma s&amp;eacute;rie de &lt;strong&gt;configura&amp;ccedil;&amp;otilde;es essenciais em uma pr&amp;aacute;tica janela para acesso f&amp;aacute;cil&lt;/strong&gt;. As &lt;strong&gt;configura&amp;ccedil;&amp;otilde;es de volume, brilho, predefini&amp;ccedil;&amp;otilde;es de modo de imagem&lt;/strong&gt;, &lt;strong&gt;Screen Split 2.0 e Dual Controller&lt;/strong&gt;, al&amp;eacute;m de muitas outras, podem agora ser ajustadas com apenas alguns cliques do mouse, em vez dos bot&amp;otilde;es f&amp;iacute;sicos do monitor.&amp;nbsp;&lt;strong&gt;Personalize o layout de seu monitor&lt;/strong&gt; para multitarefas com a &amp;uacute;ltima vers&amp;atilde;o do LG Screen Split. &lt;strong&gt;Redimensione e exiba v&amp;aacute;rias janelas ao mesmo tempo&lt;/strong&gt;, com 14 op&amp;ccedil;&amp;otilde;es que incluem quatro escolhas diferentes de picture-in-picture (&lt;strong&gt;PIP&lt;/strong&gt;).&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;Compre no &lt;strong&gt;KaBuM!&lt;/strong&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>Monitor Gamer Asus TUF 27' IPS, 165 Hz, Full HD, 1ms, Adaptive Sync, HDMI/DisplayPort, Ajuste de Altura, Vesa, Som Integrado - VG279QR</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Monitor de jogos Full HD (1920 x 1080) de 27 polegadas com taxa de atualiza&amp;ccedil;&amp;atilde;o ultrarr&amp;aacute;pida de 165 Hz projetado para jogadores profissionais e jogabilidade envolvente. A tecnologia ASUS Extreme Low Motion Blur (ELMB ?) permite um tempo de resposta de 1 ms (MPRT), eliminando fantasmas para visuais n&amp;iacute;tidos de jogos. O Shadow Boost aprimora os detalhes da imagem em &amp;aacute;reas escuras, iluminando cenas sem expor demais as &amp;aacute;reas claras. Processamento compat&amp;iacute;vel com G-SYNC, proporcionando uma experi&amp;ecirc;ncia de jogo perfeita e sem problemas ao habilitar VRR (taxa de atualiza&amp;ccedil;&amp;atilde;o vari&amp;aacute;vel) por padr&amp;atilde;o. Apresenta um suporte ergonomicamente projetado para oferecer extensos ajustes de rota&amp;ccedil;&amp;atilde;o, inclina&amp;ccedil;&amp;atilde;o, rota&amp;ccedil;&amp;atilde;o e altura.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>Monitor Gamer Concórdia C240 23.8, LED, HDMI, Full HD, Curvo, 75Hz, 2ms, Vermelho - 40511</t>
-  </si>
-  <si>
-    <t>Monitor Concórdia Gamer Curvo C240 23.8" Led Full HD HDMI VGA A tecnologia do novo C240 garante uma imersão total em seus jogos. Prepare-se para uma nova experiência com seus games! Agora você pode escolher ele em duas versões:todo preto ou preto com detalhe em vermelho.</t>
-  </si>
-  <si>
-    <t>Monitor Gamer LG Ultra Gear 23.8' IPS, 144 Hz, Full HD, 1ms, FreeSync, HDR 10, 99% sRGB, HDMI/DisplayPort, Ajuste de Ângulo - 24GN600-B</t>
-  </si>
-  <si>
-    <t>&lt;h2&gt;Monitor Gamer LG Ultra Gear 23.8 Full HD, 144Hz, 1ms, IPS, DMI, DisplayPort, 99% sRGB, Ajuste de &amp;Acirc;ngulo, FreeSync, HDR10, Preto&lt;/h2&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h2&gt;Inova&amp;ccedil;&amp;atilde;o sem fronteiras para jogos&lt;/h2&gt;
-&lt;p&gt;Complete seu setup Gamer com o monitor LG UltraGear premium. Desenvolvido para o Gamer, com os recursos mais avan&amp;ccedil;ados, aliados a ergonomia e &lt;strong&gt;design eletrizante&lt;/strong&gt;, entregando a experi&amp;ecirc;ncia imersiva! Seja o melhor com os melhores recursos feitos para apoiar sua vit&amp;oacute;ria, tempo de resposta de &lt;strong&gt;1ms Real&lt;/strong&gt; (GtG), em um painel com cores vislumbrantes IPS.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h2&gt;Jogabilidade fluida com frames instantaneos&lt;/h2&gt;
-&lt;p&gt;Os frames ultra-r&amp;aacute;pidos de 144Hz permite os jogadores a reagirem imediatamente aos seus advers&amp;aacute;rios e mudar a hist&amp;oacute;ria do jogo para a sua vit&amp;oacute;ria.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h2&gt;Aproveite os v&amp;iacute;deos e jogos HDR mais modernos&lt;/h2&gt;
-&lt;p&gt;O HDR10 melhora a qualidade da imagem com imers&amp;atilde;o visual mais din&amp;acirc;mica e cores aprimoradas do conte&amp;uacute;do HDR. &lt;strong&gt;HDR10&lt;/strong&gt; &amp;eacute; o padr&amp;atilde;o HDR digital baseado na gama de cores&lt;strong&gt; sRGB 99%&lt;/strong&gt;. Uma diferen&amp;ccedil;a real de cor e brilho.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h2&gt;Mais clara, suave e r&amp;aacute;pida&lt;/h2&gt;
-&lt;p&gt;Com a tecnologia &lt;strong&gt;FreeSync&lt;/strong&gt; os jogos t&amp;ecirc;m movimentos perfeitos e fluidos, balanceada com o processamento da placa de v&amp;iacute;deo, acabando com as imagens emba&amp;ccedil;adas e frames engasgados.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h2&gt;Design elegante&lt;/h2&gt;
-&lt;p&gt;Uma experi&amp;ecirc;ncia incr&amp;iacute;vel com imers&amp;atilde;o total. Design exuberante com&lt;strong&gt; bordas infinitas&lt;/strong&gt; (3-Side Bordeless) permitem uma imagem perfeita com incr&amp;iacute;vel imers&amp;atilde;o&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h3&gt;Aproveite essa oportunidade e adquira seu Monitor Gamer LG Ultra Gear no KaBuM!&lt;/h3&gt;</t>
-  </si>
-  <si>
-    <t>Monitor Gamer Acer 27 ZeroFrame Full HD, 165Hz, 0.5ms, IPS, HDMI e DisplayPort, FreeSync Premium, VESA, Preto - VG272 S</t>
-  </si>
-  <si>
-    <t>&lt;h2&gt;Monitor Gamer Acer 27 Full HD, 165Hz, 0.5ms, IPS, HDMI/DisplayPort, FreeSync Premium, VESA, Preto&lt;/h2&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;Com tela de 27" FHD E2E (IPS) com resolu&amp;ccedil;&amp;atilde;o Full HD e uma taxa de atualiza&amp;ccedil;&amp;atilde;o no modo normal: 144Hz e modo de overclock 165Hz, com alta taxa de atualiza&amp;ccedil;&amp;atilde;o com 165Hz. Brilho 400 cd/m2 e um tempo de respostas baix&amp;iacute;ssimo de 2ms, ainda para aproveitar voc&amp;ecirc; poder&amp;aacute; desfrutar de uma conectividade HDMI (2.0), DisplayPort.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>Monitor Gamer Bluecase 27 LED, 75 Hz, 2K QHD, 99%sRGB, HDMI/DisplayPort - BM2713GWCASE</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Explore um n&amp;iacute;vel superior de qualidade gr&amp;aacute;fica do seu gameplay com o monitor gamer Bluecase BM2713GW Esse monitor possui um painel TN ultrarr&amp;aacute;pido com frequ&amp;ecirc;ncia m&amp;aacute;xima de at&amp;eacute; 75 Hz e baix&amp;iacute;ssimo tempo de resposta de 5(cinco) milissegundos. Ideal para seus jogos AAA, o monitor conta com alta defini&amp;ccedil;&amp;atilde;o em resolu&amp;ccedil;&amp;atilde;o Quad HD (2560x1440) que proporciona uma imagem rica em detalhes. O monitor Bluecase BM2713GW &amp;eacute; compat&amp;iacute;vel com suportes VESA e tamb&amp;eacute;m conta com conex&amp;otilde;es DisplayPort e HDMI.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>Monitor Gamer Acer Nitro 23.6 LED, Curvo, 165 Hz, Full HD, 1ms, FreeSync Premium, HDMI/DisplayPort - EI242QR</t>
-  </si>
-  <si>
-    <t>&lt;h2&gt;Monitor Gamer Acer Nitro 23.6 LED, Curvo, 165 Hz, Full HD, 1ms, FreeSync Premium, HDMI/DisplayPort&lt;/h2&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h2&gt;Tecnologia da Tela&lt;/h2&gt;
-&lt;p&gt;A Tela do Acer Nitro EI242QR possui campo de vis&amp;atilde;o de 23.6 Polegadas com um &lt;strong&gt;Resolu&amp;ccedil;&amp;atilde;o de 1920 x 1080 Full HD&lt;/strong&gt;, Painel VA de propor&amp;ccedil;&amp;atilde;o 16:9 com design &lt;strong&gt;curvo 1200R&lt;/strong&gt;, Taxa de atualiza&amp;ccedil;&amp;atilde;o de &lt;strong&gt;165Hz&lt;/strong&gt; (Utilizando Displayport), e Tempo de Resposta &lt;strong&gt;1ms&lt;/strong&gt; VRB (Visual Response Boost) para desempenhos profissionais nos seus gameplays.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h2&gt;ZeroFrame&lt;/h2&gt;
-&lt;p&gt;Oferece um novo &lt;strong&gt;design de quadro zero&lt;/strong&gt;, remove virtualmente a caixa delimitadora da tela e oferece todas as imagens, prazer visual cont&amp;iacute;nuo.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h2&gt;Desing de tela curvo 1200 R&lt;/h2&gt;
-&lt;p&gt;Proporciona uma experi&amp;ecirc;ncia de visualiza&amp;ccedil;&amp;atilde;o uniforme e &lt;strong&gt;reduz o cansa&amp;ccedil;o visual&lt;/strong&gt; durante longos per&amp;iacute;odos de utiliza&amp;ccedil;&amp;atilde;o. Ele tamb&amp;eacute;m apresenta uma experi&amp;ecirc;ncia mais envolvente com um campo de vis&amp;atilde;o mais amplo e &amp;aacute;rea de vis&amp;atilde;o perif&amp;eacute;rica aumentada em compara&amp;ccedil;&amp;atilde;o com uma tela plana do mesmo&lt;/p&gt;
-&lt;p&gt;tamanho.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h2&gt;Tempo de resposta de 1ms&lt;/h2&gt;
-&lt;p&gt;O t&lt;strong&gt;empo de resposta r&amp;aacute;pido de 1 ms&lt;/strong&gt; melhora experi&amp;ecirc;ncia do jogador. N&amp;atilde;o importa a a&amp;ccedil;&amp;atilde;o em movimento r&amp;aacute;pido ou quaisquer transi&amp;ccedil;&amp;otilde;es dram&amp;aacute;ticas, tudo ser&amp;aacute; reproduzido suavemente, sem os efeitos irritantes de manchas ou fantasmas.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h2&gt;Taxa de atualiza&amp;ccedil;&amp;atilde;o de 165Hz&lt;/h2&gt;
-&lt;p&gt;Acelera os quadros por segundo para fornecer cenas de movimento ultra suaves. Com uma taxa de &lt;strong&gt;atualiza&amp;ccedil;&amp;atilde;o r&amp;aacute;pida de 165 Hz&lt;/strong&gt;, os monitores de jogos da Acer encurtam o tempo necess&amp;aacute;rio para a renderiza&amp;ccedil;&amp;atilde;o de quadros, diminuem o atraso de entrada e fornecem aos jogadores uma excelente experi&amp;ecirc;ncia no jogo.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h3&gt;Aproveite essa oportunidade e adquira seu Monitor Gamer Acer Nitro 23.6 no KaBuM!&lt;/h3&gt;</t>
-  </si>
-  <si>
-    <t>Monitor Gamer Acer Nitro 23.8 LED Full HD, 165Hz, 1ms, HDMI/DisplayPort, FreeSync Premium, Preto - QG241Y</t>
-  </si>
-  <si>
-    <t>&lt;h2&gt;Monitor Gamer Acer Nitro 23.8 LED Full HD, 165Hz, 1ms, HDMI/DisplayPort, FreeSync Premium, Preto&lt;/h2&gt;
-&lt;p&gt;Com uma tela de&lt;strong&gt; 23,8&amp;rdquo; FHD&lt;/strong&gt;, o &lt;strong&gt;Nitro QG241Y&lt;/strong&gt; entrega imagens mais n&amp;iacute;tidas, levando sua experi&amp;ecirc;ncia visual e seu foco no jogo para um novo n&amp;iacute;vel.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h2&gt;AMD FreeSync Premium&lt;/h2&gt;
-&lt;p&gt;Com o AMD FreeSync Premium, a taxa de quadros do jogo &amp;eacute; determinada pela sua placa de v&amp;iacute;deo, n&amp;atilde;o pela taxa de atualiza&amp;ccedil;&amp;atilde;o fixa do&amp;nbsp; monitor. Isso significa que os quadros do monitor s&amp;atilde;o sincronizados com os quadros da placa&amp;nbsp; gr&amp;aacute;fica, o que &lt;strong&gt;elimina a tela quebrada&lt;/strong&gt; e oferece &lt;strong&gt;experi&amp;ecirc;ncias de jogo muito suaves&lt;/strong&gt;.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h2&gt;Resolu&amp;ccedil;&amp;atilde;o FHD&lt;/h2&gt;
-&lt;p&gt;Traga os usu&amp;aacute;rios para um mundo colorido perfeito com &lt;strong&gt;FHD 1920 x 1080&lt;/strong&gt; e oferece a melhor qualidade original natural e n&amp;iacute;tida&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h2&gt;1ms Visual Response Boost&lt;/h2&gt;
-&lt;p&gt;O &lt;strong&gt;Visual Response Boost (VRB)&lt;/strong&gt; de 1ms funciona desligando rapidamente a luz de fundo ou inserindo uma imagem em branco e preta entre os quadros, tamb&amp;eacute;m conhecida como &amp;ldquo;piscando&amp;rdquo;. Isso resulta em um &lt;strong&gt;desfoque menos percept&amp;iacute;vel&lt;/strong&gt; em imagens em movimento r&amp;aacute;pido porque os cristais l&amp;iacute;quidos n&amp;atilde;o precisam dobrar nos quadros &amp;agrave; medida que sobem e descem.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h2&gt;Reduz a fadiga&lt;/h2&gt;
-&lt;p&gt;Fique na luta por horas com a tecnologia &lt;strong&gt;Flicker-less, Blue-light Filter.&lt;/strong&gt;&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h3&gt;Aproveite essa oportunidade e adquira seu Monitor Gamer Acer no KaBuM!&lt;/h3&gt;</t>
-  </si>
-  <si>
-    <t>Monitor Gamer 27" 144Hz, 1Ms, Bluecase, Full HD, Freesync, Borda Ultra Fina - BM2710GW</t>
-  </si>
-  <si>
-    <t>O Monitor Gamer BM2710GW entrega aos gamers uma experiência lisa, rápida e responsiva em todos os jogos. Experimente uma jogabilidade impecável com a taxa de atualização de tela 144 Hz que garante imagens rápidas, suaves e movimentos nítidos, para nenhum detalhe passar despercebido.</t>
-  </si>
-  <si>
-    <t>Monitor Gamer Gigabyte 23.8 IPS, Full HD, 170Hz, 1ms, 120% sRGB, HDR, FreeSync Premium, Altura Ajustável - G24F-SA</t>
-  </si>
-  <si>
-    <t>JUNTE-SE À LUTA com o Monitor Gamer G24F da Gigabyte com 1ms de tempo de resposta, freesync premium, 165 Hz (170 Hz OC) e com uma taxa de cor de 8 bits, 90% DCI-P3 A ÚLTIMA MILHA PARA O SEU SISTEMA DE JOGO Como um jogador invisível, o monitor é frequentemente subestimado. A verdade é que os monitores se formam como um efeito sinérgico e trazem o melhor desempenho dos componentes do PC. Os monitores de jogos GIGABYTE oferecem as últimas especificações e qualidade, os usuários podem realmente desfrutar de um desempenho de alto nível sem a necessidade de extravagância. Tempo de resposta de 1 ms MPRT Tempo de resposta super rápido de 1 ms para a experiência de jogo mais suave de todos os tempos! FHD com 165 Hz (OC 170 Hz) Alta resolução e taxa de atualização rápida, proporcionando qualidade de exibição detalhada e experiência de jogo fluida! Cor de 8 bits, 90% DCI-P3 Fantástico visor a cores e 90% de cores DCI-P3 de gama super ampla. SIMPLES MAS ESTILOSO A aparência aerodinâmica representa a simplicidade da filosofia de design da série de jogos GIGABYTE, suporte robusto e acabamento fosco construído para características funcionais e estéticas adicionando mais características. OSD Sidekick GIGABYTE OSD Sidekick permite que você defina as opções de exibição com teclado e mouse, oferecendo a maneira mais fácil de ajustar as configurações do monitor. ÂNGULO DE VISÃO PERFEITO O monitor de jogos GIGABYTE possui um suporte exclusivo ergonomicamente projetado para oferecer uma ampla gama de ajustes de altura e inclinação.</t>
   </si>
   <si>
     <t>Monitor Gamer Ozone 24,5 LED, 144 Hz, Full HD, 1ms, FreeSync, HDMI/DisplayPort - OZDSP25FHD</t>
@@ -1665,12 +1644,6 @@
   </si>
   <si>
     <t>Monitor Gamer Full HD 165Hz de atualização para melhores gráficos. Curvatura R3000 para maior imersão. Com 1 conector DisplayPort e 1 conector HDMI. Monitor na cor branca para combinar com o estilo do seu setup.</t>
-  </si>
-  <si>
-    <t>Monitor Gamer Acer Aopen 25MH1Q, 24,5´, 144Hz, 1ms, Full HD, HDMI/ Display Port, AMD Radeon Freesync, Anti Reflexo, Preto - UM.KM1AA.P02</t>
-  </si>
-  <si>
-    <t>Embarque em uma nova realidade de visualização! O Monitor AOPEN 25MH1Q é ideal para jogos de tiros e aventuras, proporcionando imagens mais realistas e limpas. Sinta-se dentro do jogo!</t>
   </si>
 </sst>
 </file>
@@ -2017,7 +1990,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F151"/>
+  <dimension ref="A1:F146"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2091,10 +2064,7 @@
         <v>11</v>
       </c>
       <c r="C4">
-        <v>1947</v>
-      </c>
-      <c r="D4">
-        <v>1757</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2105,16 +2075,10 @@
         <v>13</v>
       </c>
       <c r="C5">
-        <v>1055</v>
+        <v>1947</v>
       </c>
       <c r="D5">
-        <v>788</v>
-      </c>
-      <c r="E5">
-        <v>922</v>
-      </c>
-      <c r="F5">
-        <v>829</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2125,10 +2089,10 @@
         <v>15</v>
       </c>
       <c r="C6">
-        <v>1736</v>
+        <v>1055</v>
       </c>
       <c r="D6">
-        <v>1567</v>
+        <v>902</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2139,16 +2103,10 @@
         <v>17</v>
       </c>
       <c r="C7">
-        <v>1684</v>
+        <v>1631</v>
       </c>
       <c r="D7">
-        <v>1139</v>
-      </c>
-      <c r="E7">
-        <v>1263</v>
-      </c>
-      <c r="F7">
-        <v>1199</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2159,10 +2117,13 @@
         <v>19</v>
       </c>
       <c r="C8">
-        <v>1221</v>
-      </c>
-      <c r="D8">
-        <v>1101</v>
+        <v>1684</v>
+      </c>
+      <c r="E8">
+        <v>1368</v>
+      </c>
+      <c r="F8">
+        <v>1299</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2176,13 +2137,7 @@
         <v>1221</v>
       </c>
       <c r="D9">
-        <v>1073</v>
-      </c>
-      <c r="E9">
-        <v>1189</v>
-      </c>
-      <c r="F9">
-        <v>1129</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2207,16 +2162,16 @@
         <v>25</v>
       </c>
       <c r="C11">
-        <v>1789</v>
+        <v>1221</v>
       </c>
       <c r="D11">
-        <v>1519</v>
+        <v>1073</v>
       </c>
       <c r="E11">
-        <v>1684</v>
+        <v>1189</v>
       </c>
       <c r="F11">
-        <v>1599</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -2227,16 +2182,10 @@
         <v>27</v>
       </c>
       <c r="C12">
-        <v>1177</v>
+        <v>1789</v>
       </c>
       <c r="D12">
-        <v>930</v>
-      </c>
-      <c r="E12">
-        <v>1088</v>
-      </c>
-      <c r="F12">
-        <v>979</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -2247,10 +2196,16 @@
         <v>29</v>
       </c>
       <c r="C13">
-        <v>1210</v>
+        <v>1177</v>
       </c>
       <c r="D13">
-        <v>1092</v>
+        <v>930</v>
+      </c>
+      <c r="E13">
+        <v>1088</v>
+      </c>
+      <c r="F13">
+        <v>979</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -2261,13 +2216,10 @@
         <v>31</v>
       </c>
       <c r="C14">
-        <v>1052</v>
-      </c>
-      <c r="E14">
-        <v>894</v>
-      </c>
-      <c r="F14">
-        <v>849</v>
+        <v>1111</v>
+      </c>
+      <c r="D14">
+        <v>949</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -2278,7 +2230,10 @@
         <v>33</v>
       </c>
       <c r="C15">
-        <v>1109</v>
+        <v>1210</v>
+      </c>
+      <c r="D15">
+        <v>1092</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -2289,16 +2244,7 @@
         <v>35</v>
       </c>
       <c r="C16">
-        <v>1684</v>
-      </c>
-      <c r="D16">
-        <v>1329</v>
-      </c>
-      <c r="E16">
-        <v>1473</v>
-      </c>
-      <c r="F16">
-        <v>1399</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -2309,13 +2255,10 @@
         <v>37</v>
       </c>
       <c r="C17">
-        <v>1199</v>
-      </c>
-      <c r="E17">
-        <v>1098</v>
-      </c>
-      <c r="F17">
-        <v>989</v>
+        <v>1684</v>
+      </c>
+      <c r="D17">
+        <v>1519</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -2326,16 +2269,13 @@
         <v>39</v>
       </c>
       <c r="C18">
-        <v>1578</v>
-      </c>
-      <c r="D18">
-        <v>1329</v>
+        <v>1199</v>
       </c>
       <c r="E18">
-        <v>1473</v>
+        <v>1098</v>
       </c>
       <c r="F18">
-        <v>1399</v>
+        <v>989</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -2346,7 +2286,16 @@
         <v>41</v>
       </c>
       <c r="C19">
-        <v>1776</v>
+        <v>1368</v>
+      </c>
+      <c r="D19">
+        <v>1158</v>
+      </c>
+      <c r="E19">
+        <v>1284</v>
+      </c>
+      <c r="F19">
+        <v>1219</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -2357,16 +2306,7 @@
         <v>43</v>
       </c>
       <c r="C20">
-        <v>1263</v>
-      </c>
-      <c r="D20">
-        <v>854</v>
-      </c>
-      <c r="E20">
-        <v>947</v>
-      </c>
-      <c r="F20">
-        <v>899</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -2377,10 +2317,16 @@
         <v>45</v>
       </c>
       <c r="C21">
-        <v>1974</v>
+        <v>1263</v>
       </c>
       <c r="D21">
-        <v>1782</v>
+        <v>892</v>
+      </c>
+      <c r="E21">
+        <v>989</v>
+      </c>
+      <c r="F21">
+        <v>939</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -2391,7 +2337,10 @@
         <v>47</v>
       </c>
       <c r="C22">
-        <v>1840</v>
+        <v>1974</v>
+      </c>
+      <c r="D22">
+        <v>1782</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -2402,7 +2351,7 @@
         <v>49</v>
       </c>
       <c r="C23">
-        <v>1251</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -2413,10 +2362,7 @@
         <v>51</v>
       </c>
       <c r="C24">
-        <v>1968</v>
-      </c>
-      <c r="D24">
-        <v>1813</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -2508,10 +2454,10 @@
         <v>65</v>
       </c>
       <c r="C31">
-        <v>1368</v>
+        <v>1066</v>
       </c>
       <c r="D31">
-        <v>1234</v>
+        <v>912</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -2522,16 +2468,7 @@
         <v>67</v>
       </c>
       <c r="C32">
-        <v>1066</v>
-      </c>
-      <c r="D32">
-        <v>760</v>
-      </c>
-      <c r="E32">
-        <v>888</v>
-      </c>
-      <c r="F32">
-        <v>799</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -2542,7 +2479,10 @@
         <v>69</v>
       </c>
       <c r="C33">
-        <v>1044</v>
+        <v>1349</v>
+      </c>
+      <c r="D33">
+        <v>1243</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -2553,10 +2493,10 @@
         <v>71</v>
       </c>
       <c r="C34">
-        <v>1349</v>
+        <v>1193</v>
       </c>
       <c r="D34">
-        <v>1243</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -2567,10 +2507,10 @@
         <v>73</v>
       </c>
       <c r="C35">
-        <v>1193</v>
+        <v>1424</v>
       </c>
       <c r="D35">
-        <v>1099</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -2581,10 +2521,7 @@
         <v>75</v>
       </c>
       <c r="C36">
-        <v>1424</v>
-      </c>
-      <c r="D36">
-        <v>1312</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -2615,7 +2552,10 @@
         <v>79</v>
       </c>
       <c r="C38">
-        <v>1233</v>
+        <v>1894</v>
+      </c>
+      <c r="D38">
+        <v>1709</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -2626,10 +2566,7 @@
         <v>81</v>
       </c>
       <c r="C39">
-        <v>1894</v>
-      </c>
-      <c r="D39">
-        <v>1709</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -2640,7 +2577,7 @@
         <v>83</v>
       </c>
       <c r="C40">
-        <v>1359</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -2651,13 +2588,7 @@
         <v>85</v>
       </c>
       <c r="C41">
-        <v>1079</v>
-      </c>
-      <c r="E41">
-        <v>1054</v>
-      </c>
-      <c r="F41">
-        <v>949</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -2668,7 +2599,10 @@
         <v>87</v>
       </c>
       <c r="C42">
-        <v>1255</v>
+        <v>1055</v>
+      </c>
+      <c r="D42">
+        <v>769</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2679,7 +2613,10 @@
         <v>89</v>
       </c>
       <c r="C43">
-        <v>1899</v>
+        <v>1771</v>
+      </c>
+      <c r="D43">
+        <v>1598</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2690,16 +2627,13 @@
         <v>91</v>
       </c>
       <c r="C44">
-        <v>1055</v>
-      </c>
-      <c r="D44">
-        <v>769</v>
+        <v>1122</v>
       </c>
       <c r="E44">
-        <v>899</v>
+        <v>1054</v>
       </c>
       <c r="F44">
-        <v>809</v>
+        <v>949</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2710,10 +2644,7 @@
         <v>93</v>
       </c>
       <c r="C45">
-        <v>1771</v>
-      </c>
-      <c r="D45">
-        <v>1598</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2724,35 +2655,38 @@
         <v>95</v>
       </c>
       <c r="C46">
-        <v>1548</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" t="s">
+        <v>66</v>
+      </c>
+      <c r="B47" t="s">
         <v>96</v>
       </c>
-      <c r="B47" t="s">
-        <v>97</v>
-      </c>
       <c r="C47">
-        <v>1052</v>
+        <v>1155</v>
+      </c>
+      <c r="D47">
+        <v>1065</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" t="s">
-        <v>68</v>
+        <v>97</v>
       </c>
       <c r="B48" t="s">
         <v>98</v>
       </c>
       <c r="C48">
-        <v>1155</v>
+        <v>1111</v>
       </c>
       <c r="D48">
-        <v>1065</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" t="s">
         <v>99</v>
       </c>
@@ -2760,16 +2694,13 @@
         <v>100</v>
       </c>
       <c r="C49">
-        <v>1111</v>
-      </c>
-      <c r="E49">
-        <v>888</v>
-      </c>
-      <c r="F49">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
+        <v>1252</v>
+      </c>
+      <c r="D49">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" t="s">
         <v>101</v>
       </c>
@@ -2777,13 +2708,10 @@
         <v>102</v>
       </c>
       <c r="C50">
-        <v>1031</v>
-      </c>
-      <c r="D50">
-        <v>930</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>1666</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" t="s">
         <v>103</v>
       </c>
@@ -2791,10 +2719,10 @@
         <v>104</v>
       </c>
       <c r="C51">
-        <v>1666</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" t="s">
         <v>105</v>
       </c>
@@ -2802,10 +2730,13 @@
         <v>106</v>
       </c>
       <c r="C52">
-        <v>1210</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6">
+        <v>1594</v>
+      </c>
+      <c r="D52">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" t="s">
         <v>107</v>
       </c>
@@ -2813,13 +2744,10 @@
         <v>108</v>
       </c>
       <c r="C53">
-        <v>1594</v>
-      </c>
-      <c r="D53">
-        <v>1439</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>1433</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" t="s">
         <v>109</v>
       </c>
@@ -2827,10 +2755,13 @@
         <v>110</v>
       </c>
       <c r="C54">
-        <v>1433</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>1305</v>
+      </c>
+      <c r="D54">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" t="s">
         <v>111</v>
       </c>
@@ -2838,13 +2769,10 @@
         <v>112</v>
       </c>
       <c r="C55">
-        <v>1305</v>
-      </c>
-      <c r="D55">
-        <v>1177</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" t="s">
         <v>113</v>
       </c>
@@ -2855,7 +2783,7 @@
         <v>1199</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:4">
       <c r="A57" t="s">
         <v>115</v>
       </c>
@@ -2863,10 +2791,13 @@
         <v>116</v>
       </c>
       <c r="C57">
-        <v>1075</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>1669</v>
+      </c>
+      <c r="D57">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" t="s">
         <v>117</v>
       </c>
@@ -2874,13 +2805,13 @@
         <v>118</v>
       </c>
       <c r="C58">
-        <v>1669</v>
+        <v>1311</v>
       </c>
       <c r="D58">
-        <v>1506</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" t="s">
         <v>119</v>
       </c>
@@ -2888,13 +2819,10 @@
         <v>120</v>
       </c>
       <c r="C59">
-        <v>1311</v>
-      </c>
-      <c r="D59">
-        <v>1183</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>1349</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" t="s">
         <v>121</v>
       </c>
@@ -2902,10 +2830,13 @@
         <v>122</v>
       </c>
       <c r="C60">
-        <v>1349</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>1987</v>
+      </c>
+      <c r="D60">
+        <v>1793</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" t="s">
         <v>123</v>
       </c>
@@ -2913,10 +2844,10 @@
         <v>124</v>
       </c>
       <c r="C61">
-        <v>1083</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" t="s">
         <v>125</v>
       </c>
@@ -2924,32 +2855,29 @@
         <v>126</v>
       </c>
       <c r="C62">
-        <v>1987</v>
-      </c>
-      <c r="D62">
-        <v>1793</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" t="s">
         <v>127</v>
       </c>
       <c r="B63" t="s">
+        <v>127</v>
+      </c>
+      <c r="C63">
+        <v>1969</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" t="s">
         <v>128</v>
-      </c>
-      <c r="C63">
-        <v>1205</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
-      <c r="A64" t="s">
-        <v>129</v>
       </c>
       <c r="B64" t="s">
         <v>129</v>
       </c>
       <c r="C64">
-        <v>1969</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -2960,10 +2888,7 @@
         <v>131</v>
       </c>
       <c r="C65">
-        <v>1976</v>
-      </c>
-      <c r="D65">
-        <v>1784</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -2974,7 +2899,7 @@
         <v>133</v>
       </c>
       <c r="C66">
-        <v>1217</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -2982,21 +2907,21 @@
         <v>134</v>
       </c>
       <c r="B67" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C67">
-        <v>1524</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B68" t="s">
         <v>136</v>
       </c>
       <c r="C68">
-        <v>1279</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -3007,18 +2932,18 @@
         <v>138</v>
       </c>
       <c r="C69">
-        <v>1599</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" t="s">
-        <v>139</v>
+        <v>32</v>
       </c>
       <c r="B70" t="s">
         <v>139</v>
       </c>
       <c r="C70">
-        <v>1149</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -3029,73 +2954,73 @@
         <v>141</v>
       </c>
       <c r="C71">
-        <v>1099</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" t="s">
-        <v>28</v>
+        <v>142</v>
       </c>
       <c r="B72" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C72">
-        <v>1199</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B73" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C73">
-        <v>1799</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B74" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C74">
-        <v>1399</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B75" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C75">
-        <v>1263</v>
-      </c>
-      <c r="D75">
-        <v>1139</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B76" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C76">
-        <v>1199</v>
+        <v>1971</v>
+      </c>
+      <c r="D76">
+        <v>1779</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B77" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C77">
         <v>1578</v>
@@ -3103,38 +3028,35 @@
     </row>
     <row r="78" spans="1:4">
       <c r="A78" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B78" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C78">
-        <v>1971</v>
-      </c>
-      <c r="D78">
-        <v>1779</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B79" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C79">
-        <v>1649</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B80" t="s">
         <v>158</v>
       </c>
       <c r="C80">
-        <v>1049</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -3145,7 +3067,10 @@
         <v>160</v>
       </c>
       <c r="C81">
-        <v>1129</v>
+        <v>1976</v>
+      </c>
+      <c r="D81">
+        <v>1784</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -3167,7 +3092,7 @@
         <v>164</v>
       </c>
       <c r="C83">
-        <v>1311</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -3178,10 +3103,7 @@
         <v>166</v>
       </c>
       <c r="C84">
-        <v>1649</v>
-      </c>
-      <c r="D84">
-        <v>1488</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -3192,7 +3114,7 @@
         <v>168</v>
       </c>
       <c r="C85">
-        <v>1196</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -3203,7 +3125,10 @@
         <v>170</v>
       </c>
       <c r="C86">
-        <v>1616</v>
+        <v>1465</v>
+      </c>
+      <c r="D86">
+        <v>1322</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -3214,7 +3139,7 @@
         <v>172</v>
       </c>
       <c r="C87">
-        <v>1275</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -3225,7 +3150,7 @@
         <v>174</v>
       </c>
       <c r="C88">
-        <v>1899</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -3236,7 +3161,7 @@
         <v>176</v>
       </c>
       <c r="C89">
-        <v>1279</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -3247,10 +3172,7 @@
         <v>178</v>
       </c>
       <c r="C90">
-        <v>1465</v>
-      </c>
-      <c r="D90">
-        <v>1322</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -3261,7 +3183,7 @@
         <v>180</v>
       </c>
       <c r="C91">
-        <v>1129</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -3272,7 +3194,7 @@
         <v>182</v>
       </c>
       <c r="C92">
-        <v>1529</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -3283,7 +3205,7 @@
         <v>184</v>
       </c>
       <c r="C93">
-        <v>1190</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -3294,7 +3216,7 @@
         <v>186</v>
       </c>
       <c r="C94">
-        <v>1139</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -3305,7 +3227,7 @@
         <v>188</v>
       </c>
       <c r="C95">
-        <v>1419</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -3316,7 +3238,7 @@
         <v>190</v>
       </c>
       <c r="C96">
-        <v>1514</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -3327,7 +3249,7 @@
         <v>192</v>
       </c>
       <c r="C97">
-        <v>1473</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -3338,7 +3260,7 @@
         <v>194</v>
       </c>
       <c r="C98">
-        <v>1786</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -3349,7 +3271,7 @@
         <v>196</v>
       </c>
       <c r="C99">
-        <v>1558</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -3360,40 +3282,40 @@
         <v>198</v>
       </c>
       <c r="C100">
-        <v>1275</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B101" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C101">
-        <v>1275</v>
+        <v>1989</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B102" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C102">
-        <v>1235</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B103" t="s">
         <v>202</v>
       </c>
       <c r="C103">
-        <v>1011</v>
+        <v>1719</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -3404,7 +3326,10 @@
         <v>204</v>
       </c>
       <c r="C104">
-        <v>1049</v>
+        <v>1088</v>
+      </c>
+      <c r="D104">
+        <v>931</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -3415,7 +3340,10 @@
         <v>206</v>
       </c>
       <c r="C105">
-        <v>1499</v>
+        <v>1242</v>
+      </c>
+      <c r="D105">
+        <v>1120</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -3426,7 +3354,10 @@
         <v>208</v>
       </c>
       <c r="C106">
-        <v>1989</v>
+        <v>1109</v>
+      </c>
+      <c r="D106">
+        <v>949</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -3434,71 +3365,80 @@
         <v>209</v>
       </c>
       <c r="B107" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C107">
-        <v>1699</v>
+        <v>1473</v>
+      </c>
+      <c r="D107">
+        <v>1329</v>
       </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B108" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C108">
-        <v>1719</v>
+        <v>1446</v>
+      </c>
+      <c r="D108">
+        <v>1305</v>
       </c>
     </row>
     <row r="109" spans="1:4">
       <c r="A109" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B109" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C109">
-        <v>1599</v>
+        <v>1368</v>
+      </c>
+      <c r="D109">
+        <v>1234</v>
       </c>
     </row>
     <row r="110" spans="1:4">
       <c r="A110" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B110" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="C110">
-        <v>1088</v>
+        <v>1953</v>
       </c>
       <c r="D110">
-        <v>931</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="111" spans="1:4">
       <c r="A111" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B111" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C111">
-        <v>1242</v>
+        <v>1777</v>
       </c>
       <c r="D111">
-        <v>1120</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="112" spans="1:4">
       <c r="A112" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B112" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C112">
-        <v>1109</v>
+        <v>1111</v>
       </c>
       <c r="D112">
         <v>949</v>
@@ -3506,69 +3446,69 @@
     </row>
     <row r="113" spans="1:4">
       <c r="A113" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B113" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C113">
-        <v>1473</v>
+        <v>1831</v>
       </c>
       <c r="D113">
-        <v>1329</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="114" spans="1:4">
       <c r="A114" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B114" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C114">
-        <v>1446</v>
+        <v>1795</v>
       </c>
       <c r="D114">
-        <v>1305</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="115" spans="1:4">
       <c r="A115" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B115" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C115">
-        <v>1953</v>
+        <v>1635</v>
       </c>
       <c r="D115">
-        <v>1763</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="116" spans="1:4">
       <c r="A116" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B116" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C116">
-        <v>1777</v>
+        <v>1444</v>
       </c>
       <c r="D116">
-        <v>1519</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="117" spans="1:4">
       <c r="A117" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B117" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="C117">
-        <v>1111</v>
+        <v>1136</v>
       </c>
       <c r="D117">
         <v>949</v>
@@ -3576,343 +3516,346 @@
     </row>
     <row r="118" spans="1:4">
       <c r="A118" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B118" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C118">
-        <v>1831</v>
+        <v>1733</v>
       </c>
       <c r="D118">
-        <v>1687</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="119" spans="1:4">
       <c r="A119" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B119" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="C119">
-        <v>1795</v>
+        <v>1372</v>
       </c>
       <c r="D119">
-        <v>1500</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="120" spans="1:4">
       <c r="A120" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B120" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C120">
-        <v>1635</v>
+        <v>1590</v>
       </c>
       <c r="D120">
-        <v>1398</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="121" spans="1:4">
       <c r="A121" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B121" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C121">
-        <v>1444</v>
+        <v>1263</v>
       </c>
       <c r="D121">
-        <v>1234</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="122" spans="1:4">
       <c r="A122" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B122" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C122">
-        <v>1136</v>
+        <v>1666</v>
       </c>
       <c r="D122">
-        <v>949</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="123" spans="1:4">
       <c r="A123" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B123" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C123">
-        <v>1733</v>
+        <v>1555</v>
       </c>
       <c r="D123">
-        <v>1481</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="124" spans="1:4">
       <c r="A124" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B124" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="C124">
-        <v>1372</v>
+        <v>1611</v>
       </c>
       <c r="D124">
-        <v>1173</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="125" spans="1:4">
       <c r="A125" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B125" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C125">
-        <v>1590</v>
+        <v>1402</v>
       </c>
       <c r="D125">
-        <v>1330</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="126" spans="1:4">
       <c r="A126" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="B126" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C126">
-        <v>1666</v>
+        <v>1444</v>
       </c>
       <c r="D126">
-        <v>1425</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="127" spans="1:4">
       <c r="A127" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B127" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C127">
-        <v>1555</v>
+        <v>1649</v>
       </c>
       <c r="D127">
-        <v>1329</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="128" spans="1:4">
       <c r="A128" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B128" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="C128">
-        <v>1611</v>
+        <v>1222</v>
       </c>
       <c r="D128">
-        <v>1377</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="129" spans="1:4">
       <c r="A129" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="B129" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="C129">
-        <v>1402</v>
+        <v>1868</v>
       </c>
       <c r="D129">
-        <v>1198</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="130" spans="1:4">
       <c r="A130" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B130" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="C130">
-        <v>1482</v>
+        <v>1518</v>
+      </c>
+      <c r="D130">
+        <v>1298</v>
       </c>
     </row>
     <row r="131" spans="1:4">
       <c r="A131" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B131" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="C131">
-        <v>1444</v>
+        <v>1888</v>
       </c>
       <c r="D131">
-        <v>1234</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="132" spans="1:4">
       <c r="A132" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="B132" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="C132">
-        <v>1222</v>
+        <v>1635</v>
       </c>
       <c r="D132">
-        <v>1044</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="133" spans="1:4">
       <c r="A133" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B133" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="C133">
-        <v>1868</v>
+        <v>1333</v>
       </c>
       <c r="D133">
-        <v>1597</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="134" spans="1:4">
       <c r="A134" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B134" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="C134">
-        <v>1518</v>
+        <v>1285</v>
       </c>
       <c r="D134">
-        <v>1298</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="135" spans="1:4">
       <c r="A135" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="B135" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="C135">
-        <v>1888</v>
-      </c>
-      <c r="D135">
-        <v>1614</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="136" spans="1:4">
       <c r="A136" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="B136" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="C136">
-        <v>1635</v>
-      </c>
-      <c r="D136">
-        <v>1398</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="137" spans="1:4">
       <c r="A137" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B137" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="C137">
-        <v>1333</v>
+        <v>1672</v>
       </c>
       <c r="D137">
-        <v>1139</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="138" spans="1:4">
       <c r="A138" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="B138" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="C138">
-        <v>1285</v>
+        <v>1815</v>
       </c>
       <c r="D138">
-        <v>1099</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="139" spans="1:4">
       <c r="A139" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B139" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C139">
-        <v>1722</v>
+        <v>1999</v>
+      </c>
+      <c r="D139">
+        <v>1614</v>
       </c>
     </row>
     <row r="140" spans="1:4">
       <c r="A140" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B140" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C140">
-        <v>1455</v>
+        <v>1999</v>
+      </c>
+      <c r="D140">
+        <v>1709</v>
       </c>
     </row>
     <row r="141" spans="1:4">
       <c r="A141" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B141" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C141">
-        <v>1672</v>
+        <v>1660</v>
       </c>
       <c r="D141">
-        <v>1429</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="142" spans="1:4">
       <c r="A142" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B142" t="s">
         <v>278</v>
       </c>
       <c r="C142">
-        <v>1815</v>
+        <v>1754</v>
       </c>
       <c r="D142">
-        <v>1552</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -3920,125 +3863,55 @@
         <v>279</v>
       </c>
       <c r="B143" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C143">
-        <v>1999</v>
+        <v>1604</v>
       </c>
       <c r="D143">
-        <v>1614</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="144" spans="1:4">
       <c r="A144" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B144" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C144">
-        <v>1999</v>
+        <v>1777</v>
       </c>
       <c r="D144">
-        <v>1709</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="145" spans="1:4">
       <c r="A145" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B145" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C145">
-        <v>1660</v>
+        <v>1999</v>
       </c>
       <c r="D145">
-        <v>1419</v>
+        <v>1709</v>
       </c>
     </row>
     <row r="146" spans="1:4">
       <c r="A146" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B146" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="C146">
-        <v>1754</v>
+        <v>1888</v>
       </c>
       <c r="D146">
-        <v>1499</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4">
-      <c r="A147" t="s">
-        <v>285</v>
-      </c>
-      <c r="B147" t="s">
-        <v>286</v>
-      </c>
-      <c r="C147">
-        <v>1604</v>
-      </c>
-      <c r="D147">
-        <v>1371</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4">
-      <c r="A148" t="s">
-        <v>287</v>
-      </c>
-      <c r="B148" t="s">
-        <v>288</v>
-      </c>
-      <c r="C148">
-        <v>1777</v>
-      </c>
-      <c r="D148">
-        <v>1519</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4">
-      <c r="A149" t="s">
-        <v>289</v>
-      </c>
-      <c r="B149" t="s">
-        <v>290</v>
-      </c>
-      <c r="C149">
-        <v>1999</v>
-      </c>
-      <c r="D149">
-        <v>1709</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4">
-      <c r="A150" t="s">
-        <v>291</v>
-      </c>
-      <c r="B150" t="s">
-        <v>292</v>
-      </c>
-      <c r="C150">
-        <v>1888</v>
-      </c>
-      <c r="D150">
         <v>1615</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4">
-      <c r="A151" t="s">
-        <v>293</v>
-      </c>
-      <c r="B151" t="s">
-        <v>294</v>
-      </c>
-      <c r="C151">
-        <v>1625</v>
-      </c>
-      <c r="D151">
-        <v>1389</v>
       </c>
     </row>
   </sheetData>

--- a/kabum_produtos.xlsx
+++ b/kabum_produtos.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="625">
   <si>
     <t>Produto</t>
   </si>
@@ -73,22 +73,37 @@
 &lt;p&gt;Sa&amp;iacute;da full HD (1920 X 1080) de 120Hz no PS5 &amp;amp; Xbox Series X/S&lt;/p&gt;</t>
   </si>
   <si>
+    <t>Monitor Gamer LG UltraGear 32 LED, 165 Hz, QHD, 1ms, HDMI/DisplayPort, 95% sRGB, FreeSync Premium, HDR 10, VESA, Preto - 32GN600-B</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Monitor Gamer LG UltraGear 32 LED, 165 Hz, QHD&lt;/h2&gt;
+&lt;p&gt;&lt;br /&gt;Uma velocidade ultrarr&amp;aacute;pida de 165Hz permite que os jogadores vejam o pr&amp;oacute;ximo quadro rapidamente e fazem com que a imagem apare&amp;ccedil;a suavemente.&amp;nbsp;Os jogadores podem responder rapidamente aos oponentes e mirar no alvo facilmente.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;div id="title42-1616503388441"&gt;
+&lt;h2&gt;Projetado para velocidade incr&amp;iacute;vel&lt;/h2&gt;
+&lt;/div&gt;
+&lt;div&gt;Reimagine cada cena com&amp;nbsp;imagem v&amp;iacute;vida e responsiva.&amp;nbsp;Com propor&amp;ccedil;&amp;atilde;o de tela de 32" e 16:9 (2560 x 1440), a tela UltraGear QHD Nano da LG apresenta cores realistas e verdadeiras, contraste aprimorado, clareza e detalhes, enquanto oferece taxas de resposta ultrarr&amp;aacute;pidas de 1 ms. &amp;Eacute; o melhor dos dois mundos.&lt;/div&gt;
+&lt;div&gt;&lt;br /&gt;
+&lt;div id="title43-1616503388464"&gt;
+&lt;h2&gt;Compat&amp;iacute;vel com NVIDIA G-SYNC&lt;/h2&gt;
+&lt;/div&gt;
+&lt;div&gt;O monitor LG 32GP850-B &amp;eacute; um monitor compat&amp;iacute;vel com G-SYNC testado e oficialmente verificado pela NVIDIA, reduzindo o rasgo da tela e minimizando a gagueira para uma experi&amp;ecirc;ncia de jogo mais suave e r&amp;aacute;pida.&lt;/div&gt;
+&lt;div&gt;&lt;br /&gt;
+&lt;h3&gt;Monitor Gamer LG &amp;eacute; no KaBuM!, garanta j&amp;aacute; o seu&lt;/h3&gt;
+&lt;/div&gt;
+&lt;/div&gt;</t>
+  </si>
+  <si>
     <t>Monitor Concórdia Gamer Curvo 27'', Led Full, Hd, 165hz, Freesync - Cz270f</t>
   </si>
   <si>
     <t>&lt;strong&gt;você na vantagem sempre!&amp;nbsp &amp;nbsp&amp;nbsp&lt;/strong&gt;o&amp;nbsp&lt;strong&gt;monitor concórdia gamer curvo cz270f 27&amp;quot led full hd 165hz freesync&lt;/strong&gt;&amp;nbspconta com resposta de 1ms e taxa de atualização de 165hz, permitindo a mais alta performance durante suas gameplays. Sua curvatura amplia o campo de visão relativo, concentrando toda a ação ao alcance dos olhos do usuário, sem perder resolução.&lt;strong&gt;monitor curvo&amp;nbsp &amp;nbsp&lt;/strong&gt;tenha mais imersão na sua gameplay com esse monitor curvo da concórdia. Observe seus adversários ainda mais de perto com essa imersão de 1500r de curvatura e um ângulo de visão de 178º.&lt;strong&gt;inclinável&amp;nbsp&lt;/strong&gt;ajuste de inclinação da tela de 5&amp;deg a 15&amp;deg. Ajuste seu monitor da maneira que quiser deixando sua visão ainda mais confortável e ampla!&lt;strong&gt;especificações:&lt;/strong&gt;&lt;strong&gt;tela:&lt;/strong&gt;painel: vaárea ativa: 596.736 &amp;times 335.664 mmângulo de visão: 178/178&amp;nbspcurvatura: r1500&amp;nbspresolução: 1920*1080165hzdot pitch: 0,3108cores do painel: 16.7m&amp;nbsp&amp;nbspbrilho(máximo): 250cd/m2tempo de resposta: 1ms&amp;nbspcontraste: 3000: 1taxa de heartz: 165hz&amp;nbsp &amp;nbsp&lt;strong&gt;conectividade:&amp;nbsp&lt;/strong&gt;hdmidisplayport 1.4dvientrada earphonedc (energia)&lt;strong&gt;alimentação:&lt;/strong&gt;tipo: adaptador externovoltagem: 12v/3.5aconsumo: 38w | stand by: 0.5w&amp;nbsp&lt;strong&gt;recursos do monitor:&lt;/strong&gt;- base de fácil desmontagem- freesync/g-sync&amp;nbsp&amp;nbsp- filtro de luz azul- flicker free- baixo consumo em modo stand by- overdriver&amp;nbsp- base fixa- sem bordas- auto falante interno: sim.- vesa: 100*100mm.&amp;nbsp&lt;strong&gt;acompanha:&lt;/strong&gt;&amp;nbspcabo displayport,&amp;nbspmanual do usuário e parafusos.&amp;nbsp&amp;nbsp&lt;strong&gt;dimensões da tela (cm)(axlxp):&lt;/strong&gt;&amp;nbsp36 | 61 | 4,5 | peso(kg): 4,734.&lt;strong&gt;dimensões da tela com base&amp;nbsp(cm)(axlxp)&lt;/strong&gt;: 43 | 61 | 17 | peso(kg): 4,734.&lt;br&gt;&lt;br&gt;&lt;strong&gt;especificações técnicas&lt;/strong&gt;&lt;br&gt;monitor concórdia gamer curvo cz270f 27´´ led full hd 165hz freesync | entregue para todo o brasil |</t>
   </si>
   <si>
-    <t>Monitor Gamer Asus TUF 31.5 LED 2K QHD, 165Hz, 1ms, HDMI e DisplayPort,  HDR, 120% sRGB, FreeSync Premium, Som Integrado, VESA - VG32VQ1B</t>
-  </si>
-  <si>
-    <t>&lt;h2&gt;O Monitor Gamer Asus 31.5" TUF Gaming VG27WQ1B possui uma tela curva WQHD (2560x1440) de 31.5 polegadas com uma taxa de atualiza&amp;ccedil;&amp;atilde;o ultrarr&amp;aacute;pida de 165Hz projetada para jogadores profissionais e aqueles que procuram uma jogabilidade envolvente&lt;/h2&gt;
-&lt;p&gt;Seu impressionante display curvo apresenta uma &lt;strong&gt;taxa de atualiza&amp;ccedil;&amp;atilde;o de 165Hz&lt;/strong&gt; e &lt;strong&gt;tecnologia Adaptive-Sync (FreeSync Premium)&lt;/strong&gt;, para uma jogabilidade extremamente fluida sem tearing e stuttering. Curvatura imersiva de 31.5 polegadas O &lt;strong&gt;painel WQHD (2560 x 1440)&lt;/strong&gt; de 31.5 polegadas oferece visuais impressionantes a partir de todos os &amp;acirc;ngulos, com uma curvatura 1500R que garante que cada ponto seja equidistante aos seus olhos. Isso contribui para um maior conforto de visualiza&amp;ccedil;&amp;atilde;o mesmo durante o uso prolongado e permite desfrutar de um amplo &amp;acirc;ngulo de visualiza&amp;ccedil;&amp;atilde;o com menos distor&amp;ccedil;&amp;atilde;o e mudan&amp;ccedil;a de cor ao jogar e assistir filmes.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h2&gt;A taxa de atualiza&amp;ccedil;&amp;atilde;o de 165Hz do TUF Gaming VG27WQ1B diminui o lag e o desfoque de movimento para dar a voc&amp;ecirc; uma vantagem em jogos de tiro em primeira pessoa, corridas, estrat&amp;eacute;gia em tempo real e esportes&lt;/h2&gt;
-&lt;p&gt;Essa taxa de atualiza&amp;ccedil;&amp;atilde;o ultrarr&amp;aacute;pida permite que voc&amp;ecirc; jogue nas configura&amp;ccedil;&amp;otilde;es visuais mais altas e reaja instantaneamente ao que est&amp;aacute; na tela para voc&amp;ecirc; conseguir o primeiro ataque. Este Monitor Gamer Asus apresenta a mais recente &lt;strong&gt;tecnologia Extreme Low Motion Blur exclusiva da Asus&lt;/strong&gt;, que atinge &lt;strong&gt;1ms MPRT&lt;/strong&gt; para eliminar manchas e borr&amp;otilde;es de movimento, e torna os objetos em movimento mais n&amp;iacute;tidos, para que a jogabilidade seja mais fluida e responsiva. Agora voc&amp;ecirc; pode escolher entre &lt;strong&gt;v&amp;aacute;rios modos HDR&lt;/strong&gt; para ajustar o desempenho do monitor com base no cen&amp;aacute;rio de exibi&amp;ccedil;&amp;atilde;o atual.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h3&gt;Garanta j&amp;aacute; seu Monitor Gamer Asus aqui no KaBuM!&lt;/h3&gt;</t>
+    <t>Monitor Gamer LG UltraGear 27' IPS, Wide, 240 Hz, Full HD, 1ms, FreeSync Premium, HDR 10, 99% sRGB, HDMI/DisplayPort, VESA - 27GN750-B.AWZ</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Monitor Gamer LG 27&amp;acute; Detalhes visuais ao m&amp;aacute;ximo no seu Monitor para PC Garanta a vit&amp;oacute;ria com o novo Monitor Gamer LG UltraGear 27GN750. A tela IPS com 99% de gama de cores sRGB proporciona uma incr&amp;iacute;vel precis&amp;atilde;o de cores e um &amp;acirc;ngulo de visualiza&amp;ccedil;&amp;atilde;o muito mais amplo, criando cores com alta fidelidade e cenas mais realistas no campo de batalha e em seus filmes. Esse Monitor LG &amp;eacute; compat&amp;iacute;vel com HDR10, permitindo imers&amp;atilde;o visual realista com contraste e cores vivas. Tenha a sensa&amp;ccedil;&amp;atilde;o de estar no centro de qualquer campo de batalha com todas as cores e brilhos que podem proporcionar. Tempo de resposta surpreendente do 240Hz 1ms Conhe&amp;ccedil;a a supreendente tela IPS com 1ms (GTG), com a velocidade m&amp;aacute;xima do monitor ven&amp;ccedil;a seus inimigos facilmente. Os frames s&amp;atilde;o renderizados perfeitamente, permitindo a jogabilidade suave e fluidez visual surreal. Os jogadores conseguem ver at&amp;eacute; mesmo os objetos com movimento nitidamente no meio da a&amp;ccedil;&amp;atilde;o, garantido a a&amp;ccedil;&amp;atilde;o perfeita e na hora exata. Compat&amp;iacute;vel com NVIDIA G-SYNC O monitor LG UltraGear 27GN750 foi testado pela NVIDIA e recebe a compatibilidae com G-Sync, que permite uma jogabilidade mais r&amp;aacute;pida e suave, balanceada com o processamento da sua placa de v&amp;iacute;deo NVIDIA, acabando com as imagens emba&amp;ccedil;adas e frames travados. Com a tecnologia Adaptive-Sync (FreeSync Premium), os jogadores t&amp;ecirc;m movimentos perfeitos e fluidos, balanceada com o processamento da sua placa de v&amp;iacute;deo AMD, acabando com as imagens emba&amp;ccedil;adas e frames travados. Garanta j&amp;aacute; seu Monitor Gamer LG aqui no KaBuM!&lt;/p&gt;</t>
   </si>
   <si>
     <t>Monitor Gamer LG 27 Full HD, IPS, HDMI e VESA, FreeSync, Ajuste de Ângulo, Bordas Finas - 27MP400-B</t>
@@ -104,10 +119,16 @@
 &lt;h3&gt;&lt;br /&gt;Seu Monitor LG est&amp;aacute; no KaBuM!&amp;nbsp;&lt;/h3&gt;</t>
   </si>
   <si>
-    <t>Monitor Gamer LG UltraGear 27' IPS, Wide, 240 Hz, Full HD, 1ms, FreeSync Premium, HDR 10, 99% sRGB, HDMI/DisplayPort, VESA - 27GN750-B.AWZ</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Monitor Gamer LG 27&amp;acute; Detalhes visuais ao m&amp;aacute;ximo no seu Monitor para PC Garanta a vit&amp;oacute;ria com o novo Monitor Gamer LG UltraGear 27GN750. A tela IPS com 99% de gama de cores sRGB proporciona uma incr&amp;iacute;vel precis&amp;atilde;o de cores e um &amp;acirc;ngulo de visualiza&amp;ccedil;&amp;atilde;o muito mais amplo, criando cores com alta fidelidade e cenas mais realistas no campo de batalha e em seus filmes. Esse Monitor LG &amp;eacute; compat&amp;iacute;vel com HDR10, permitindo imers&amp;atilde;o visual realista com contraste e cores vivas. Tenha a sensa&amp;ccedil;&amp;atilde;o de estar no centro de qualquer campo de batalha com todas as cores e brilhos que podem proporcionar. Tempo de resposta surpreendente do 240Hz 1ms Conhe&amp;ccedil;a a supreendente tela IPS com 1ms (GTG), com a velocidade m&amp;aacute;xima do monitor ven&amp;ccedil;a seus inimigos facilmente. Os frames s&amp;atilde;o renderizados perfeitamente, permitindo a jogabilidade suave e fluidez visual surreal. Os jogadores conseguem ver at&amp;eacute; mesmo os objetos com movimento nitidamente no meio da a&amp;ccedil;&amp;atilde;o, garantido a a&amp;ccedil;&amp;atilde;o perfeita e na hora exata. Compat&amp;iacute;vel com NVIDIA G-SYNC O monitor LG UltraGear 27GN750 foi testado pela NVIDIA e recebe a compatibilidae com G-Sync, que permite uma jogabilidade mais r&amp;aacute;pida e suave, balanceada com o processamento da sua placa de v&amp;iacute;deo NVIDIA, acabando com as imagens emba&amp;ccedil;adas e frames travados. Com a tecnologia Adaptive-Sync (FreeSync Premium), os jogadores t&amp;ecirc;m movimentos perfeitos e fluidos, balanceada com o processamento da sua placa de v&amp;iacute;deo AMD, acabando com as imagens emba&amp;ccedil;adas e frames travados. Garanta j&amp;aacute; seu Monitor Gamer LG aqui no KaBuM!&lt;/p&gt;</t>
+    <t>Monitor Gamer Asus TUF 31.5 LED 2K QHD, 165Hz, 1ms, HDMI e DisplayPort,  HDR, 120% sRGB, FreeSync Premium, Som Integrado, VESA - VG32VQ1B</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;O Monitor Gamer Asus 31.5" TUF Gaming VG27WQ1B possui uma tela curva WQHD (2560x1440) de 31.5 polegadas com uma taxa de atualiza&amp;ccedil;&amp;atilde;o ultrarr&amp;aacute;pida de 165Hz projetada para jogadores profissionais e aqueles que procuram uma jogabilidade envolvente&lt;/h2&gt;
+&lt;p&gt;Seu impressionante display curvo apresenta uma &lt;strong&gt;taxa de atualiza&amp;ccedil;&amp;atilde;o de 165Hz&lt;/strong&gt; e &lt;strong&gt;tecnologia Adaptive-Sync (FreeSync Premium)&lt;/strong&gt;, para uma jogabilidade extremamente fluida sem tearing e stuttering. Curvatura imersiva de 31.5 polegadas O &lt;strong&gt;painel WQHD (2560 x 1440)&lt;/strong&gt; de 31.5 polegadas oferece visuais impressionantes a partir de todos os &amp;acirc;ngulos, com uma curvatura 1500R que garante que cada ponto seja equidistante aos seus olhos. Isso contribui para um maior conforto de visualiza&amp;ccedil;&amp;atilde;o mesmo durante o uso prolongado e permite desfrutar de um amplo &amp;acirc;ngulo de visualiza&amp;ccedil;&amp;atilde;o com menos distor&amp;ccedil;&amp;atilde;o e mudan&amp;ccedil;a de cor ao jogar e assistir filmes.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;A taxa de atualiza&amp;ccedil;&amp;atilde;o de 165Hz do TUF Gaming VG27WQ1B diminui o lag e o desfoque de movimento para dar a voc&amp;ecirc; uma vantagem em jogos de tiro em primeira pessoa, corridas, estrat&amp;eacute;gia em tempo real e esportes&lt;/h2&gt;
+&lt;p&gt;Essa taxa de atualiza&amp;ccedil;&amp;atilde;o ultrarr&amp;aacute;pida permite que voc&amp;ecirc; jogue nas configura&amp;ccedil;&amp;otilde;es visuais mais altas e reaja instantaneamente ao que est&amp;aacute; na tela para voc&amp;ecirc; conseguir o primeiro ataque. Este Monitor Gamer Asus apresenta a mais recente &lt;strong&gt;tecnologia Extreme Low Motion Blur exclusiva da Asus&lt;/strong&gt;, que atinge &lt;strong&gt;1ms MPRT&lt;/strong&gt; para eliminar manchas e borr&amp;otilde;es de movimento, e torna os objetos em movimento mais n&amp;iacute;tidos, para que a jogabilidade seja mais fluida e responsiva. Agora voc&amp;ecirc; pode escolher entre &lt;strong&gt;v&amp;aacute;rios modos HDR&lt;/strong&gt; para ajustar o desempenho do monitor com base no cen&amp;aacute;rio de exibi&amp;ccedil;&amp;atilde;o atual.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h3&gt;Garanta j&amp;aacute; seu Monitor Gamer Asus aqui no KaBuM!&lt;/h3&gt;</t>
   </si>
   <si>
     <t>Monitor Gamer Husky Blizzard 27' LED Full HD, 240Hz, 1ms, HDMI e DisplayPort, 96% sRGB, Adaptive Sync, Ajuste de Altura - HGMT006</t>
@@ -122,6 +143,48 @@
 &lt;h3&gt;Garanta j&amp;aacute; seu Monitor Gamer Husky aqui no KaBuM!&lt;/h3&gt;</t>
   </si>
   <si>
+    <t>Monitor Gamer Husky Tempest 34' VA, Ultrawide, 144 Hz, 2K QHD, 1ms, Adaptive Sync, 95% sRGB, HDMI/DisplayPort Som - HGMT005</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Monitor Gamer Husky Tempest 34' VA, Ultrawide, 144 Hz, 2K QHD, 1ms, Adaptive Sync, 95% sRGB, HDMI/DisplayPort, Ajuste de Altura, Som - HGMT005&lt;br /&gt;&lt;br /&gt;&lt;/h2&gt;
+&lt;p&gt;O Monitor Gamer Husky Gaming Tempest LED 34" UltraWide Curvo traz a experi&amp;ecirc;ncia de imers&amp;atilde;o completa para o seus jogos! A tela Curva UltraWide, formato 21:9, e Quad HD (QHD), com taxa de atualiza&amp;ccedil;&amp;atilde;o de 144Hz, confere maior campo de vis&amp;atilde;o e amplifica a experi&amp;ecirc;ncia de imers&amp;atilde;o durante seus jogos.&lt;/p&gt;
+&lt;h3&gt;Tecnologias&lt;/h3&gt;
+&lt;p&gt;Com as tecnologias AdaptiveSync e painel VA, mais o tempo de resposta de 1 ms, o monitor Monitor Gamer Husky Gaming Tempest LED 34" UltraWide Curvo proporciona um &amp;oacute;timo desempenho. Outra tecnologia que contribui para a experi&amp;ecirc;ncia de imers&amp;atilde;o completa &amp;eacute; a redu&amp;ccedil;&amp;atilde;o de luz azul, que diminui os efeitos negativos de ficar muito tempo olhando diretamente para a tela. Os modos Game Plus e o Jogo FPS / RTS s&amp;atilde;o diferenciais que elevam o n&amp;iacute;vel de suas gameplays.&lt;/p&gt;
+&lt;h3&gt;&lt;br /&gt;Mergulhe na realidade virtual&lt;/h3&gt;
+&lt;p&gt;Experi&amp;ecirc;ncia imersiva &amp;eacute; com o Monitor Gamer Husky Gaming Tempest LED 34" UltraWide Curvo!&lt;/p&gt;
+&lt;h3&gt;&lt;br /&gt;Garanta o seu no KaBuM!&lt;/h3&gt;</t>
+  </si>
+  <si>
+    <t>Monitor Gamer AOC Hero 23.8 Full HD, Wide, 144 Hz, 1ms, FreeSync, HDMI e DisplayPort, IPS, Ajuste de Altura - 24G2/BK</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;O monitor Gamer AOC Hero &amp;eacute; compat&amp;iacute;vel com a tecnologia G-Sync e entrega aos gamers uma experi&amp;ecirc;ncia lisa, r&amp;aacute;pida e responsiva em todos os jogos. Experimente uma jogabilidade impec&amp;aacute;vel com a taxa de atualiza&amp;ccedil;&amp;atilde;o de tela 144 Hz que garante imagens r&amp;aacute;pidas, suaves e movimentos n&amp;iacute;tidos, para nenhum detalhe passar despercebido.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Monitor Gamer AOC Legend 27' LED, Curvo, 240 Hz, Full HD, 0.5ms, FreeSync Premium, 120% sRGB, HDMI/DisplayPort - C27G2ZE</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Monitor Gamer AOC Legend 27' LED Esteja no Centro da Aventura O Monitor Legend C27G2ZE tem um painel VA de 27" e uma curvatura de 1500R. Possui uma taxa de atualiza&amp;ccedil;&amp;atilde;o de 240Hz e um incr&amp;iacute;vel tempo de resposta de 0,5ms. Perfeito para ter a m&amp;aacute;xima emo&amp;ccedil;&amp;atilde;o em Qualquer tipo de jogo. Tela Curva de 1500R Seja envolvido pelo design curvo que te coloca no centro da a&amp;ccedil;&amp;atilde;o e fornece uma experi&amp;ecirc;ncia diferenciada em cada movimento. Taxa de Atualiza&amp;ccedil;&amp;atilde;o de 240Hz Aproveite mais fluide na suas imagens. Cada detalhes &amp;eacute; colocado em foco de forma n&amp;iacute;tida e os movimentos s&amp;atilde;o mostrados com clareza, tudo para voc&amp;ecirc; sentir suas rea&amp;ccedil;&amp;otilde;es e a&amp;ccedil;&amp;otilde;es se tornarem uma s&amp;oacute; e elevar o seu jogo. 0,5Ms de Tempo de Resposta Acabe de vez com os efeitos fantasmas com o tempo de resposta de 0,5ms. Tenha uma experi&amp;ecirc;ncia aprimorada onde mesmo os movimentos mais r&amp;aacute;pidos e as trasi&amp;ccedil;&amp;otilde;es mais dram&amp;aacute;ticas s&amp;atilde;o reproduzidas suavemente.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Monitor Gamer LG UltraGear 24 Full HD, 144Hz, 1ms, IPS, HDMI e DisplayPort, 99% sRGB, HDR, FreeSync Premium, VESA - 24GN60R-B.AWZM</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Monitor Gamer LG UltraGear 24 Full HD, 144Hz, 1ms, FreeSync Premium - 24GN60R-B&lt;/h2&gt;
+&lt;p&gt;LG UltraGear, equipamento extremamente poderoso, aumenta as suas chances de vit&amp;oacute;ria.&lt;br /&gt;Com o IPS 1 ms compar&amp;aacute;vel &amp;agrave; Velocidade TN, com persist&amp;ecirc;ncia de imagem minimizada e um r&amp;aacute;pido tempo de resposta, poder&amp;aacute; desfrutar de um novo desempenho de jogo.&lt;br /&gt;Reduza a lat&amp;ecirc;ncia de entrada com a Dynamic Action Sync para ajudar os jogadores a visualizarem momentos cr&amp;iacute;ticos em tempo real.&lt;/p&gt;
+&lt;h2&gt;&lt;br /&gt;Refresh Rate de 144 Hz&lt;/h2&gt;
+&lt;p&gt;Uma velocidade ultrarr&amp;aacute;pida de 144 Hz permite aos jogadores ver o fotograma seguinte rapidamente e faz com que as imagens tenham uma apar&amp;ecirc;ncia mais suave. Os jogadores podem responder rapidamente aos advers&amp;aacute;rios e apontar com facilidade para os alvos.&lt;br /&gt;Melhore a sua experi&amp;ecirc;ncia de jogo com um design atrativo e praticamente sem moldura. A base pode ser ajustada para alterar a inclina&amp;ccedil;&amp;atilde;o do monitor, ajudando-o a jogar de forma mais confort&amp;aacute;vel.&lt;/p&gt;
+&lt;h2&gt;&lt;br /&gt;HDR10 com sRGB 99% (T&amp;iacute;p.)&lt;/h2&gt;
+&lt;p&gt;Este monitor suporta HDR10 com sRGB 99% (Tip.) permitindo uma imers&amp;atilde;o visual realista com contraste e cores de grande riqueza. Independentemente do campo de batalha, poder&amp;aacute; ajudar os jogadores a ver as cores dram&amp;aacute;ticas pretendidas pelos criadores do jogo.&lt;br /&gt;Com a tecnologia FreeSync Premium, os jogadores podem experimentar movimentos fluidos e cont&amp;iacute;nuos em jogos de alta resolu&amp;ccedil;&amp;atilde;o e em ritmo acelerado. Ele virtualmente minimiza a trepida&amp;ccedil;&amp;atilde;o e a trepida&amp;ccedil;&amp;atilde;o da tela.&lt;/p&gt;
+&lt;h3&gt;&lt;br /&gt;Monitor Gamer &amp;eacute; no KaBuM!&lt;/h3&gt;</t>
+  </si>
+  <si>
+    <t>Monitor Gamer AOC Hero 27 Full HD, Wide, 144 Hz, 1ms, IPS, HDMI e VGA, G-Sync, Ajuste de Ângulo - 27G2/BK</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;O monitor AOC Hero 27 &amp;eacute; compat&amp;iacute;vel com a tecnologia G-Sync e entrega aos gamers uma experi&amp;ecirc;ncia lisa, r&amp;aacute;pida e responsiva em todos os jogos. Experimente uma jogabilidade impec&amp;aacute;vel com a taxa de atualiza&amp;ccedil;&amp;atilde;o de tela 144 Hz que garante imagens r&amp;aacute;pidas, suaves e movimentos n&amp;iacute;tidos, para nenhum detalhe passar despercebido.&lt;/p&gt;</t>
+  </si>
+  <si>
     <t>Monitor Gamer LED Asus TUF Gaming 27´, Full HD, IPS, HDMI/DisplayPort, FreeSync, 144Hz, 1ms - VG279Q1R</t>
   </si>
   <si>
@@ -155,18 +218,6 @@
 &lt;p&gt;&amp;Eacute; uma tecnologia de exibi&amp;ccedil;&amp;atilde;o que cria&lt;strong&gt; n&amp;iacute;veis mais profundos de contraste&lt;/strong&gt; em preto e branco, proporcionando uma imers&amp;atilde;o de n&amp;iacute;vel maior por meio da recria&amp;ccedil;&amp;atilde;o de imagem realista.&lt;/p&gt;
 &lt;p&gt;&amp;nbsp;&lt;/p&gt;
 &lt;h3&gt;Compre agora no KaBuM"&lt;/h3&gt;</t>
-  </si>
-  <si>
-    <t>Monitor Gamer AOC Hero 27 Full HD, Wide, 144 Hz, 1ms, IPS, HDMI e VGA, G-Sync, Ajuste de Ângulo - 27G2/BK</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;O monitor AOC Hero 27 &amp;eacute; compat&amp;iacute;vel com a tecnologia G-Sync e entrega aos gamers uma experi&amp;ecirc;ncia lisa, r&amp;aacute;pida e responsiva em todos os jogos. Experimente uma jogabilidade impec&amp;aacute;vel com a taxa de atualiza&amp;ccedil;&amp;atilde;o de tela 144 Hz que garante imagens r&amp;aacute;pidas, suaves e movimentos n&amp;iacute;tidos, para nenhum detalhe passar despercebido.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>Monitor Gamer AOC Legend 27' LED, Curvo, 240 Hz, Full HD, 0.5ms, FreeSync Premium, 120% sRGB, HDMI/DisplayPort - C27G2ZE</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Monitor Gamer AOC Legend 27' LED Esteja no Centro da Aventura O Monitor Legend C27G2ZE tem um painel VA de 27" e uma curvatura de 1500R. Possui uma taxa de atualiza&amp;ccedil;&amp;atilde;o de 240Hz e um incr&amp;iacute;vel tempo de resposta de 0,5ms. Perfeito para ter a m&amp;aacute;xima emo&amp;ccedil;&amp;atilde;o em Qualquer tipo de jogo. Tela Curva de 1500R Seja envolvido pelo design curvo que te coloca no centro da a&amp;ccedil;&amp;atilde;o e fornece uma experi&amp;ecirc;ncia diferenciada em cada movimento. Taxa de Atualiza&amp;ccedil;&amp;atilde;o de 240Hz Aproveite mais fluide na suas imagens. Cada detalhes &amp;eacute; colocado em foco de forma n&amp;iacute;tida e os movimentos s&amp;atilde;o mostrados com clareza, tudo para voc&amp;ecirc; sentir suas rea&amp;ccedil;&amp;otilde;es e a&amp;ccedil;&amp;otilde;es se tornarem uma s&amp;oacute; e elevar o seu jogo. 0,5Ms de Tempo de Resposta Acabe de vez com os efeitos fantasmas com o tempo de resposta de 0,5ms. Tenha uma experi&amp;ecirc;ncia aprimorada onde mesmo os movimentos mais r&amp;aacute;pidos e as trasi&amp;ccedil;&amp;otilde;es mais dram&amp;aacute;ticas s&amp;atilde;o reproduzidas suavemente.&lt;/p&gt;</t>
   </si>
   <si>
     <t>Monitor Gamer Acer QG270 Nitro 27 Full HD, 180Hz, 1ms, HDMI e DisplayPort, 95% sRGB, HDR 10, FreeSync - UM.HQ0AA.304</t>
@@ -192,30 +243,6 @@
 &lt;h3 style="text-align: justify;"&gt;Compre agora no KaBuM!&lt;/h3&gt;</t>
   </si>
   <si>
-    <t>Monitor Gamer AOC Hero 23.8 Full HD, Wide, 144 Hz, 1ms, FreeSync, HDMI e DisplayPort, IPS, Ajuste de Altura - 24G2/BK</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;O monitor Gamer AOC Hero &amp;eacute; compat&amp;iacute;vel com a tecnologia G-Sync e entrega aos gamers uma experi&amp;ecirc;ncia lisa, r&amp;aacute;pida e responsiva em todos os jogos. Experimente uma jogabilidade impec&amp;aacute;vel com a taxa de atualiza&amp;ccedil;&amp;atilde;o de tela 144 Hz que garante imagens r&amp;aacute;pidas, suaves e movimentos n&amp;iacute;tidos, para nenhum detalhe passar despercebido.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>Monitor Gamer LG UltraGear 24 Full HD, 144Hz, 1ms, IPS, HDMI e DisplayPort, 99% sRGB, HDR, FreeSync Premium, VESA - 24GN60R-B.AWZM</t>
-  </si>
-  <si>
-    <t>&lt;h2&gt;Monitor Gamer LG UltraGear 24 Full HD, 144Hz, 1ms, FreeSync Premium - 24GN60R-B&lt;/h2&gt;
-&lt;p&gt;LG UltraGear, equipamento extremamente poderoso, aumenta as suas chances de vit&amp;oacute;ria.&lt;br /&gt;Com o IPS 1 ms compar&amp;aacute;vel &amp;agrave; Velocidade TN, com persist&amp;ecirc;ncia de imagem minimizada e um r&amp;aacute;pido tempo de resposta, poder&amp;aacute; desfrutar de um novo desempenho de jogo.&lt;br /&gt;Reduza a lat&amp;ecirc;ncia de entrada com a Dynamic Action Sync para ajudar os jogadores a visualizarem momentos cr&amp;iacute;ticos em tempo real.&lt;/p&gt;
-&lt;h2&gt;&lt;br /&gt;Refresh Rate de 144 Hz&lt;/h2&gt;
-&lt;p&gt;Uma velocidade ultrarr&amp;aacute;pida de 144 Hz permite aos jogadores ver o fotograma seguinte rapidamente e faz com que as imagens tenham uma apar&amp;ecirc;ncia mais suave. Os jogadores podem responder rapidamente aos advers&amp;aacute;rios e apontar com facilidade para os alvos.&lt;br /&gt;Melhore a sua experi&amp;ecirc;ncia de jogo com um design atrativo e praticamente sem moldura. A base pode ser ajustada para alterar a inclina&amp;ccedil;&amp;atilde;o do monitor, ajudando-o a jogar de forma mais confort&amp;aacute;vel.&lt;/p&gt;
-&lt;h2&gt;&lt;br /&gt;HDR10 com sRGB 99% (T&amp;iacute;p.)&lt;/h2&gt;
-&lt;p&gt;Este monitor suporta HDR10 com sRGB 99% (Tip.) permitindo uma imers&amp;atilde;o visual realista com contraste e cores de grande riqueza. Independentemente do campo de batalha, poder&amp;aacute; ajudar os jogadores a ver as cores dram&amp;aacute;ticas pretendidas pelos criadores do jogo.&lt;br /&gt;Com a tecnologia FreeSync Premium, os jogadores podem experimentar movimentos fluidos e cont&amp;iacute;nuos em jogos de alta resolu&amp;ccedil;&amp;atilde;o e em ritmo acelerado. Ele virtualmente minimiza a trepida&amp;ccedil;&amp;atilde;o e a trepida&amp;ccedil;&amp;atilde;o da tela.&lt;/p&gt;
-&lt;h3&gt;&lt;br /&gt;Monitor Gamer &amp;eacute; no KaBuM!&lt;/h3&gt;</t>
-  </si>
-  <si>
-    <t>Monitor Gamer AOC Viper 27 Full HD, 165Hz, 1ms, IPS, HDMI e DisplayPort, FreeSync - 27G2SE</t>
-  </si>
-  <si>
-    <t>Com o Monitor Viper 27, seus movimentos serão ainda mais incríveis e sua experiência de jogo muito mais confortável. Tudo isso graças à tela de 27", recursos que reduzem a fadiga ocular e desempenho ultrarrápido de 165Hz e 1ms. Com a taxa de atualização de 165Hz, sem rastros e efeitos fantasmas. O AMD FreeSync Premium Pro sincroniza a taxa de atualização da placa de vídeo e do monitor para eliminar a ocorrência de rupturas na imagem e travamentos.&lt;br /&gt;&lt;br /&gt;Com o painel VA, você tem mais brilho e contraste para enxergar onde os seus inimigos estão, mesmo em cenas com pouca iluminação. Com HDMI, você tem variedade de entretenimento com um único cabo, sem perder a qualidade. Conecte o seu monitor gamer a outros dispositivos em tempo real com a conexão VGA e tenha ainda mais qualidade de imagem e som em seus jogos com a conexão DisplayPort, que já vem com cabo incluso.&lt;br /&gt;&lt;br /&gt;&lt;b&gt;Taxa de atualização de 165Hz:&lt;/b&gt; experimente uma jogabilidade impecável com a taxa de atualização de 165Hz, sem rastros e efeitos fantasmas.&lt;br /&gt;&lt;br /&gt;&lt;b&gt;1ms de tempo de resposta:&lt;/b&gt; tenha em sua casa um monitor gamer com tempo de resposta de 1ms e aproveite um desempenho excepcional.&lt;br /&gt;&lt;br /&gt;&lt;b&gt;AMD FreeSync Premium Pro:&lt;/b&gt; o AMD FreeSync Premium Pro sincroniza a taxa de atualização da placa de vídeo e do monitor para eliminar a ocorrência de rupturas na imagem e travamentos.&lt;br /&gt;&lt;br /&gt;&lt;b&gt;Flicker-Free e Low Blue Light:&lt;/b&gt; as horas de jogatina vão ficar muito mais confortáveis com este monitor gamer! Proteja sua visão com a tecnologia Flicker-Free, que reduz a cintilação da tela sem sacrificar a qualidade das imagens, e diminua a fadiga ocular com o recurso Low Blue Light, que reduz a luz azul prejudicial aos olhos.</t>
-  </si>
-  <si>
     <t>Monitor Gamer AOC 24.5 LED Full HD, Wide, 240Hz, 0.5ms, HDMI e DisplayPort, 119,9% sRGB, HDR 10, FreeSync Premium, VESA - 25G3ZM</t>
   </si>
   <si>
@@ -227,12 +254,6 @@
 &lt;p&gt;&amp;nbsp;&lt;/p&gt;
 &lt;p&gt;&amp;nbsp;&lt;/p&gt;
 &lt;h3&gt;Compre agora no KaBuM!&lt;/h3&gt;</t>
-  </si>
-  <si>
-    <t>Monitor Concórdia Gamer 27'' 2k, WqHD, 165hz, 1ms, HDMI, Dp - K270q</t>
-  </si>
-  <si>
-    <t>&lt;strong&gt;&lt;/strong&gt;&lt;strong&gt;lançamento!!!&amp;nbsp&amp;nbsp&lt;/strong&gt;&lt;strong&gt;monitor gamer concórdia k270q165, 1ms, 165hz, qhd, dp,&lt;/strong&gt;o&amp;nbsp&lt;strong&gt;monitor concórdia gamer k270q 27&amp;#39&amp;#39 2k, wqhd, 165hz, 1ms, hdmi, dp&lt;/strong&gt;&amp;nbspé o que você precisa para colocar a realidade para dentro dos seus jogos. Com uma resolução&amp;nbsp&lt;strong&gt;wqdh va,&lt;/strong&gt;&amp;nbspele te oferece a melhor qualidade de imagem natural e nítida, deixando cada movimento mais real e preciso.com um response time de 1ms, o monitor alterna seus tons de cores rapidamente sem que você perceba e atrapalhe nos momentos mais épicos e excitantes da sua jogada!&lt;strong&gt;especificações:&lt;/strong&gt;&lt;strong&gt;tela:&amp;nbsp&lt;/strong&gt;painel: vaárea ativa: 596.736 &amp;times 335.664 mm (h&amp;timesv)ângulo de visão: 178/178&amp;nbspresolução: 2560*1440165hzdot pitch: 0,23&amp;nbspcores do painel: 16.7m&amp;nbsp &amp;nbsp&amp;nbspbrilho(máximo): 250cd/m2&amp;nbsp &amp;nbsptempo de resposta: 1mscontraste: 1000: 1&amp;nbsptaxa de heartz: 165hz wqhd&lt;strong&gt;conectividade:&amp;nbsp&lt;/strong&gt;displayport 1.42 hdmi 2.0saída de áudiousb&amp;nbspdc(energia)&lt;strong&gt;alimentação&amp;nbsp&lt;/strong&gt;tipo: adaptador externo&amp;nbsp&amp;nbspvoltagem: 12v/4aconsumo: 35w | stand by: 0.5w&lt;strong&gt;recursos do monitor:&amp;nbsp&amp;nbsp&lt;/strong&gt;- base de fácil montagem- filtro de luz azul- inclinação -5º~15º- vesa: 100x100mm- alto falante interno: sim&amp;nbsp &amp;nbsp &amp;nbsp&amp;nbsp- freesync/g-sync&amp;nbsp&lt;strong&gt;acompanha:&lt;/strong&gt;&amp;nbspcabo displayport, parafusos, manual do usuário.&amp;nbsp&amp;nbsp&lt;strong&gt;dimensões do monitor(cm) (axlxp):&lt;/strong&gt;&amp;nbsp36,0 | 61,5 | 4,0 |&amp;nbsp&lt;strong&gt;peso(kg):&lt;/strong&gt;&amp;nbsp4,718.&lt;strong&gt;dimensões do monitor com base(cm) (axlxp):&lt;/strong&gt;&amp;nbsp43,5 | 61,5 | 17,0 |&amp;nbsp&lt;strong&gt;peso(kg):&lt;/strong&gt;&amp;nbsp4,718.&lt;br&gt;&lt;br&gt;&lt;strong&gt;especificações técnicas&lt;/strong&gt;&lt;br&gt;monitor concórdia gamer k270q 27´´ 2k, wqhd, 165hz, 1ms, hdmi, dp | entregue para todo o brasil |</t>
   </si>
   <si>
     <t>Monitor Gamer Samsung Odyssey G32 27" LED Full HD, 165 Hz, 1ms, HDMI/DisplayPort, FreeSync Premium, Ajuste de Altura, Preto - LS27AG320NLXZD</t>
@@ -253,10 +274,30 @@
 &lt;h3&gt;&lt;br /&gt;Compre agora no KaBuM!&lt;/h3&gt;</t>
   </si>
   <si>
-    <t>Monitor Gamer Samsung 28Pol, 4K, 60Hz, IPS, HDMI, Vesa, Display Port, Freesync - Lu28r550uqlmzd</t>
-  </si>
-  <si>
-    <t>Revele cada detalhe&lt;br /&gt;É hora de ter uma visão completa da imagem. Assista, navegue e jogue com uma resolução quatro vezes mais alta que o full hd. Esse monitor uhd apresenta imagens deslumbrantes compostas por 8 milhões de pixels para obter detalhes ainda mais complexos. Experimente o realismo incomparável ao jogar ou assistir filmes.&lt;br /&gt;&lt;br /&gt;Um espectro de tons&lt;br /&gt;Um caleidoscópio de tons. O suporte hdr traz uma extensão dinâmica de luminosidade preta e branca à tela. As áreas escuras são mais ricas e profundas, enquanto as partes claras são ainda mais brilhantes. Experimente uma resolução excepcionalmente nítida e detalhada&lt;br /&gt;&lt;br /&gt;Movimento super fluido&lt;br /&gt;Diga adeus a oscilação da tela. A tecnologia amd freesync praticamente elimina imprecisões na tela para uma experiência visual completamente fluida.&lt;br /&gt;&lt;br /&gt;Tela sem bordas&lt;br /&gt;Design simplista, sofisticação total. O contorno requintado faz a diferença neste elegante monitor de tela plana de 28 polegadas com a tela minimalista com 3 lados sem borda. Em um setup de dois monitores, os monitores se alinham perfeitamente para que você possa desfrutar de um incrível conteúdo uhd - sem nenhuma lacuna que atrapalhe.</t>
+    <t>Monitor Gamer HyperX Armada 27 2K QHD, 165 Hz, 1ms, IPS, HDMI e DisplayPort, 95% DCI, HDR, FreeSync, Preto - 64V69AA</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Monitor Gamer HyperX Armada 27 2K QHD&lt;/h2&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Suporte de mesa incluso&lt;/h2&gt;
+&lt;p&gt;N&amp;atilde;o passe seus dias procurando por um suporte compat&amp;iacute;vel! O Armada cuida disso com seu &lt;strong&gt;bra&amp;ccedil;o ergon&amp;ocirc;mico&lt;/strong&gt; e &lt;strong&gt;suporte de mesa resistentes&lt;/strong&gt;. Basta tocar na parte traseira e elevar seu monitor para liberar espa&amp;ccedil;o na mesa!&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Maior resolu&amp;ccedil;&amp;atilde;o para uma experi&amp;ecirc;ncia de jogos imersiva&lt;/h2&gt;
+&lt;p&gt;O Armada 27 pode exibir com &lt;strong&gt;resolu&amp;ccedil;&amp;otilde;es Quad HD (QHD)&lt;/strong&gt;, oferecendo gr&amp;aacute;ficos incr&amp;iacute;veis para &lt;strong&gt;maior imers&amp;atilde;o em seus jogos&lt;/strong&gt;, filmes e v&amp;iacute;deos.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Qualidade de imagem mais n&amp;iacute;tida para uma experi&amp;ecirc;ncia fascinante&lt;/h2&gt;
+&lt;p&gt;Explorar esses mundos de jogos com clareza impec&amp;aacute;vel de elementos visuais e &lt;strong&gt;texturas detalhados&lt;/strong&gt; vira uma grande aventura!&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Taxa de atualiza&amp;ccedil;&amp;atilde;o de 165 Hz e tempo de resposta de 1 ms&lt;/h2&gt;
+&lt;p&gt;Desfrute de elementos visuais cristalinos com a &lt;strong&gt;taxa de atualiza&amp;ccedil;&amp;atilde;o de 165 Hz&lt;/strong&gt; e &lt;strong&gt;tempo de resposta de&lt;/strong&gt; &lt;strong&gt;1 ms&lt;/strong&gt; do HyperX Armada 27.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;VESA DisplayHDR 400&lt;/h2&gt;
+&lt;p&gt;O contraste de cores de tirar o f&amp;ocirc;lego do &lt;strong&gt;DisplayHDR 400&lt;/strong&gt; combinado com a &lt;strong&gt;brilhante luminosidade&lt;/strong&gt; do Armada 27 oferecem detalhes claros em diversos ambientes de ilumina&amp;ccedil;&amp;atilde;o.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Compat&amp;iacute;vel com NVIDIA G-SYNC&lt;/h2&gt;
+&lt;p&gt;Livre-se dos irritantes rasgos de tela e mantenha a lat&amp;ecirc;ncia de entrada e intermit&amp;ecirc;ncia baixa gra&amp;ccedil;as &amp;agrave; &lt;strong&gt;NVIDIA G-SYNC&lt;/strong&gt; e sua taxa de atualiza&amp;ccedil;&amp;atilde;o vari&amp;aacute;vel.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h3&gt;Compre agora no KaBuM!&lt;/h3&gt;</t>
   </si>
   <si>
     <t>Monitor Gamer Samsung Odyssey G3 24 LED Full HD, 144Hz, 1ms, HDMI e DisplayPort, FreeSync Premium, Ajuste de Altura, VESA - LS24BG300ELMZD</t>
@@ -269,6 +310,71 @@
 &lt;p&gt;Fa&amp;ccedil;a com que cada movimento conte com um tempo de resposta de 1ms. Os pixels da tela respondem de maneira quase instant&amp;acirc;nea, permitindo que a a&amp;ccedil;&amp;atilde;o r&amp;aacute;pida flua com precis&amp;atilde;o do mundo real. Seu desempenho na tela &amp;eacute; t&amp;atilde;o r&amp;aacute;pido quanto seus pr&amp;oacute;prios reflexos.&lt;/p&gt;</t>
   </si>
   <si>
+    <t>Monitor Concórdia Gamer 27'' 2k, WqHD, 165hz, 1ms, HDMI, Dp - K270q</t>
+  </si>
+  <si>
+    <t>&lt;strong&gt;&lt;/strong&gt;&lt;strong&gt;lançamento!!!&amp;nbsp&amp;nbsp&lt;/strong&gt;&lt;strong&gt;monitor gamer concórdia k270q165, 1ms, 165hz, qhd, dp,&lt;/strong&gt;o&amp;nbsp&lt;strong&gt;monitor concórdia gamer k270q 27&amp;#39&amp;#39 2k, wqhd, 165hz, 1ms, hdmi, dp&lt;/strong&gt;&amp;nbspé o que você precisa para colocar a realidade para dentro dos seus jogos. Com uma resolução&amp;nbsp&lt;strong&gt;wqdh va,&lt;/strong&gt;&amp;nbspele te oferece a melhor qualidade de imagem natural e nítida, deixando cada movimento mais real e preciso.com um response time de 1ms, o monitor alterna seus tons de cores rapidamente sem que você perceba e atrapalhe nos momentos mais épicos e excitantes da sua jogada!&lt;strong&gt;especificações:&lt;/strong&gt;&lt;strong&gt;tela:&amp;nbsp&lt;/strong&gt;painel: vaárea ativa: 596.736 &amp;times 335.664 mm (h&amp;timesv)ângulo de visão: 178/178&amp;nbspresolução: 2560*1440165hzdot pitch: 0,23&amp;nbspcores do painel: 16.7m&amp;nbsp &amp;nbsp&amp;nbspbrilho(máximo): 250cd/m2&amp;nbsp &amp;nbsptempo de resposta: 1mscontraste: 1000: 1&amp;nbsptaxa de heartz: 165hz wqhd&lt;strong&gt;conectividade:&amp;nbsp&lt;/strong&gt;displayport 1.42 hdmi 2.0saída de áudiousb&amp;nbspdc(energia)&lt;strong&gt;alimentação&amp;nbsp&lt;/strong&gt;tipo: adaptador externo&amp;nbsp&amp;nbspvoltagem: 12v/4aconsumo: 35w | stand by: 0.5w&lt;strong&gt;recursos do monitor:&amp;nbsp&amp;nbsp&lt;/strong&gt;- base de fácil montagem- filtro de luz azul- inclinação -5º~15º- vesa: 100x100mm- alto falante interno: sim&amp;nbsp &amp;nbsp &amp;nbsp&amp;nbsp- freesync/g-sync&amp;nbsp&lt;strong&gt;acompanha:&lt;/strong&gt;&amp;nbspcabo displayport, parafusos, manual do usuário.&amp;nbsp&amp;nbsp&lt;strong&gt;dimensões do monitor(cm) (axlxp):&lt;/strong&gt;&amp;nbsp36,0 | 61,5 | 4,0 |&amp;nbsp&lt;strong&gt;peso(kg):&lt;/strong&gt;&amp;nbsp4,718.&lt;strong&gt;dimensões do monitor com base(cm) (axlxp):&lt;/strong&gt;&amp;nbsp43,5 | 61,5 | 17,0 |&amp;nbsp&lt;strong&gt;peso(kg):&lt;/strong&gt;&amp;nbsp4,718.&lt;br&gt;&lt;br&gt;&lt;strong&gt;especificações técnicas&lt;/strong&gt;&lt;br&gt;monitor concórdia gamer k270q 27´´ 2k, wqhd, 165hz, 1ms, hdmi, dp | entregue para todo o brasil |</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Philco 32 LED Full HD, Curvo R1800, 165Hz, 1ms, HDMI e DisplayPort, HDR 10, FreeSync - PMG32C900FG</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Monitor Gamer Philco 32 LED&lt;/h2&gt;
+&lt;h2&gt;&amp;nbsp;&lt;/h2&gt;
+&lt;p&gt;Com excelente taxa de atualiza&amp;ccedil;&amp;atilde;o de &lt;strong&gt;165HZ&lt;/strong&gt;, voc&amp;ecirc; n&amp;atilde;o ter&amp;aacute; problemas com o indesejado "efeito fantasma". N&amp;atilde;o fique para tr&amp;aacute;s,&lt;strong&gt; tempo de resposta de 1 MS&lt;/strong&gt;.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Tela ELED&lt;/h2&gt;
+&lt;p&gt;Maior conforto visual com a tecnologia &lt;strong&gt;anti-glare&lt;/strong&gt;, sem distor&amp;ccedil;&amp;atilde;o de imagem, &lt;strong&gt;prote&amp;ccedil;&amp;atilde;o contra riscos e arranh&amp;otilde;es&lt;/strong&gt; em uma tela mais fina que garante economia de energia.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Flicker-Free&lt;/h2&gt;
+&lt;p&gt;Conforto visual &amp;eacute; essencial para longas partidas. A tecnologia Flicker-free suaviza a cintila&amp;ccedil;&amp;atilde;o de luz do monitor para voc&amp;ecirc; jogar por v&amp;aacute;rias horas, sem perder qualidade de imagem e protegendo a sa&amp;uacute;de dos seus olhos.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;FPS/RTS Game Profiles&lt;/h2&gt;
+&lt;p&gt;Crie perfis com presets espec&amp;iacute;ficos para &lt;strong&gt;melhorar o desempenho&lt;/strong&gt; do monitor em diferentes jogos.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Filter Blue Light&lt;/h2&gt;
+&lt;p&gt;Proteja seus olhos com o filtro de&lt;strong&gt; prote&amp;ccedil;&amp;atilde;o contra luz azul&lt;/strong&gt;.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h3&gt;Compre agora no KaBuM!&lt;/h3&gt;</t>
+  </si>
+  <si>
+    <t>Monitor Gamer LG ultra gear 34 LED Ultra Wide Curvo, 160 Hz, QHD, 1ms, HDMI/DisplayPort, 99% sRGB, FreeSync Premium, HDR 10, VESA, Preto - 34WP65C-B</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Monitor Gamer LG 34 LED Ultra Wide Curvo, 160 Hz, QHD, 1ms, HDMI/DisplayPort, 99% sRGB, FreeSync Premium, HDR 10, VESA, Preto - 34WP65C-B&lt;/h2&gt;
+&lt;p&gt;O monitor curvo &lt;strong&gt;UltraWide&lt;/strong&gt;&amp;trade; &lt;strong&gt;QHD (3440x1440)&lt;/strong&gt; VA oferece 33% &lt;strong&gt;mais espa&amp;ccedil;o de tela&lt;/strong&gt; em largura do que o monitor de &lt;strong&gt;resolu&amp;ccedil;&amp;atilde;o FHD (1920x1080),&lt;/strong&gt; oferecendo uma &lt;strong&gt;propor&amp;ccedil;&amp;atilde;o de 21:9&lt;/strong&gt;.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;div&gt;
+&lt;h2&gt;Aproveite os mais recentes v&amp;iacute;deos e jogos HDR&lt;/h2&gt;
+&lt;/div&gt;
+&lt;div&gt;O &lt;strong&gt;HDR10&lt;/strong&gt; eleva a qualidade da imagem para uma experi&amp;ecirc;ncia de imers&amp;atilde;o visual mais din&amp;acirc;mica e cores aprimoradas do conte&amp;uacute;do HDR.&amp;nbsp;&lt;strong&gt;HDR10&lt;/strong&gt; &amp;eacute; o padr&amp;atilde;o digital &lt;strong&gt;HDR&lt;/strong&gt; baseado na gama de cores &lt;strong&gt;sRGB&lt;/strong&gt; &lt;strong&gt;99%&lt;/strong&gt;.&amp;nbsp;Uma verdadeira diferen&amp;ccedil;a de cor e brilho.&lt;/div&gt;
+&lt;div&gt;&lt;br /&gt;
+&lt;div id="title55-1578655672755_1"&gt;
+&lt;h2&gt;Velocidade incr&amp;iacute;vel para a vit&amp;oacute;ria&lt;/h2&gt;
+&lt;/div&gt;
+&lt;div&gt;Com o tempo de redu&amp;ccedil;&amp;atilde;o de desfoque de movimento de&lt;strong&gt; 1 ms&lt;/strong&gt; combinado com qualidade de imagem aprimorada, os jogadores veem a a&amp;ccedil;&amp;atilde;o &lt;strong&gt;r&amp;aacute;pida&lt;/strong&gt; e os oponentes quase em tempo real para uma vantagem clara.&lt;/div&gt;
+&lt;div&gt;&lt;br /&gt;
+&lt;div id="title55-1578655672706_1"&gt;
+&lt;h2&gt;AMD FreeSync&amp;trade; Premium&lt;/h2&gt;
+&lt;/div&gt;
+&lt;div&gt;Com a tecnologia &lt;strong&gt;FreeSync&lt;/strong&gt;&amp;trade; &lt;strong&gt;Premium&lt;/strong&gt;, os jogadores podem experimentar movimentos fluidos e cont&amp;iacute;nuos em jogos de &lt;strong&gt;alta resolu&amp;ccedil;&amp;atilde;o&lt;/strong&gt; e ritmo acelerado.&amp;nbsp;Ele praticamente reduz o rasgo e a gagueira da tela.&lt;/div&gt;
+&lt;h3&gt;&lt;br /&gt;&lt;br /&gt;Monitor Gamer LG &amp;eacute; no KaBuM!, garanta j&amp;aacute; o seu&lt;/h3&gt;
+&lt;/div&gt;
+&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>Monitor Gamer LG 34 Ultrawide Full HD, 75Hz, 5Ms, HDMI, IPS, HDR10, Freesync - 34wp550-b</t>
+  </si>
+  <si>
+    <t>Monitor Gamer LG 34 UltraWide Full HD 75Hz 5ms HDMI IPS HDR10 Freesync - 34WP550-B&lt;br /&gt;&lt;br /&gt;Eleve o equipamento do seu home office &lt;br /&gt;O monitor LG UltraWide 21:9 tem resolução Full HD (2560x1080) e oferece 33 por cento mais espaço de tela comparado a monitores convencionais. Aproveite a tela para ver mais relatórios de uma vez durante a vídeo chamada.&lt;br /&gt;&lt;br /&gt;HDR10 - Incrível qualidade de imagem&lt;br /&gt;Incrível qualidade de imagem com o HDR10, pois reproduz alto brilho e ampla gama de cores quando comparado a monitores convencionais, deixando as imagens com maior qualidade em situações mais brilhantes ou de maior contraste.&lt;br /&gt;&lt;br /&gt;IPS com sRGB 95 por cento - Cores reais e viisualização ampliada&lt;br /&gt;O monitor IPS da LG exibe precisão de cores impecável. Com um angulo de visao ampliado, a exibição IPS ostenta 95 por cento de cobertura do espectro de cores sRGB.&lt;br /&gt;&lt;br /&gt;OnScreen Control - Fácil configuração o OnScreen Control permite alterar as configurações do monitor e customizar as janelas em até 14 modos diferentes, com o Screen Split 2.0.&lt;br /&gt;&lt;br /&gt;AMD FreeSync - Imagens fluidas e rápidas&lt;br /&gt;Tenha imagens sem cortes e falhas de repetições com a tecnologia AMD FreeSync, que ocorrem pela diferneça entre os quadros gráficos (FPS) e taxa de atualização do monitor.&lt;br /&gt;&lt;br /&gt;Dynamic Action Sync&lt;br /&gt;Experimente um jogo otimizado e com ritmo alucinante com o Dynamic Action Sync. Um recurso avançado para jogos de estratégia que torna o tempo de resposta ainda mais responsivo&lt;br /&gt;&lt;br /&gt;Black Stabilizer &lt;br /&gt;Mantenha a visibilidade mesmo em cenas escuras. O estabilizador de preto ajuda a tornar tudo mais claro, para que você possa encontrar os inimigos escondidos.</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Samsung 28Pol, 4K, 60Hz, IPS, HDMI, Vesa, Display Port, Freesync - Lu28r550uqlmzd</t>
+  </si>
+  <si>
+    <t>Revele cada detalhe&lt;br /&gt;É hora de ter uma visão completa da imagem. Assista, navegue e jogue com uma resolução quatro vezes mais alta que o full hd. Esse monitor uhd apresenta imagens deslumbrantes compostas por 8 milhões de pixels para obter detalhes ainda mais complexos. Experimente o realismo incomparável ao jogar ou assistir filmes.&lt;br /&gt;&lt;br /&gt;Um espectro de tons&lt;br /&gt;Um caleidoscópio de tons. O suporte hdr traz uma extensão dinâmica de luminosidade preta e branca à tela. As áreas escuras são mais ricas e profundas, enquanto as partes claras são ainda mais brilhantes. Experimente uma resolução excepcionalmente nítida e detalhada&lt;br /&gt;&lt;br /&gt;Movimento super fluido&lt;br /&gt;Diga adeus a oscilação da tela. A tecnologia amd freesync praticamente elimina imprecisões na tela para uma experiência visual completamente fluida.&lt;br /&gt;&lt;br /&gt;Tela sem bordas&lt;br /&gt;Design simplista, sofisticação total. O contorno requintado faz a diferença neste elegante monitor de tela plana de 28 polegadas com a tela minimalista com 3 lados sem borda. Em um setup de dois monitores, os monitores se alinham perfeitamente para que você possa desfrutar de um incrível conteúdo uhd - sem nenhuma lacuna que atrapalhe.</t>
+  </si>
+  <si>
     <t>Monitor Gamer Husky Avalanche 27' IPS, Wide, 144 Hz, Full HD, 1ms, Adaptive Sync, HDMI/DisplayPort, Ajuste de Altura, Som Integrado - HGMT004</t>
   </si>
   <si>
@@ -281,10 +387,25 @@
 &lt;h3&gt;Garanta j&amp;aacute; seu Monitor Gamer Husky aqui no KaBuM!&lt;/h3&gt;</t>
   </si>
   <si>
-    <t>Monitor Gamer LG 34 Ultrawide Full HD, 75Hz, 5Ms, HDMI, IPS, HDR10, Freesync - 34wp550-b</t>
-  </si>
-  <si>
-    <t>Monitor Gamer LG 34 UltraWide Full HD 75Hz 5ms HDMI IPS HDR10 Freesync - 34WP550-B&lt;br /&gt;&lt;br /&gt;Eleve o equipamento do seu home office &lt;br /&gt;O monitor LG UltraWide 21:9 tem resolução Full HD (2560x1080) e oferece 33 por cento mais espaço de tela comparado a monitores convencionais. Aproveite a tela para ver mais relatórios de uma vez durante a vídeo chamada.&lt;br /&gt;&lt;br /&gt;HDR10 - Incrível qualidade de imagem&lt;br /&gt;Incrível qualidade de imagem com o HDR10, pois reproduz alto brilho e ampla gama de cores quando comparado a monitores convencionais, deixando as imagens com maior qualidade em situações mais brilhantes ou de maior contraste.&lt;br /&gt;&lt;br /&gt;IPS com sRGB 95 por cento - Cores reais e viisualização ampliada&lt;br /&gt;O monitor IPS da LG exibe precisão de cores impecável. Com um angulo de visao ampliado, a exibição IPS ostenta 95 por cento de cobertura do espectro de cores sRGB.&lt;br /&gt;&lt;br /&gt;OnScreen Control - Fácil configuração o OnScreen Control permite alterar as configurações do monitor e customizar as janelas em até 14 modos diferentes, com o Screen Split 2.0.&lt;br /&gt;&lt;br /&gt;AMD FreeSync - Imagens fluidas e rápidas&lt;br /&gt;Tenha imagens sem cortes e falhas de repetições com a tecnologia AMD FreeSync, que ocorrem pela diferneça entre os quadros gráficos (FPS) e taxa de atualização do monitor.&lt;br /&gt;&lt;br /&gt;Dynamic Action Sync&lt;br /&gt;Experimente um jogo otimizado e com ritmo alucinante com o Dynamic Action Sync. Um recurso avançado para jogos de estratégia que torna o tempo de resposta ainda mais responsivo&lt;br /&gt;&lt;br /&gt;Black Stabilizer &lt;br /&gt;Mantenha a visibilidade mesmo em cenas escuras. O estabilizador de preto ajuda a tornar tudo mais claro, para que você possa encontrar os inimigos escondidos.</t>
+    <t>Monitor Gamer AOC Sniper 27' IPS, Wide, 75 Hz, Full HD, 1ms, Adaptive Sync, 98% sRGB, HDMI/VGA, Ajuste de Ângulo - 27G2HE5</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Monitor Gamer AOC. Desenvolvidos para suportar todas as emo&amp;ccedil;&amp;otilde;es dos jogos, o tempo de resposta de 1ms oferece alta velocidade, defini&amp;ccedil;&amp;atilde;o e muita suavidade em todos os movimentos. A avan&amp;ccedil;ada tecnologia Painel IPS esclarece automaticamente as &amp;aacute;reas escuras do mundo do jogo, entregando mais cor, brilho e contraste, melhorando a visualiza&amp;ccedil;&amp;atilde;o com amplos &amp;acirc;ngulos de vis&amp;atilde;o. Game Mode, Esta fun&amp;ccedil;&amp;atilde;o possui predefini&amp;ccedil;&amp;otilde;es de f&amp;aacute;brica para otimizar cada tipo de jogo. Assim, os n&amp;iacute;veis de gama preto, propor&amp;ccedil;&amp;otilde;es de contraste e nitidez s&amp;atilde;o instantaneamente calibrados.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Monitor Gamer AOC 27 Polegadas LED Full HD, 144hz, 1ms, IPS, HDMI, VGA, Display Port, VESA, G-sync - 27g2/bk</t>
+  </si>
+  <si>
+    <t>O Monitor Gamer AOC, Modelo Hero, possui uma jogabilidade impecável, graças a taxa de atualização de 144Hz, sem rastros e efeitos fantasmas.&lt;br /&gt;&lt;br /&gt;  O produto ainda oferece a tecnologia AMD FreeSync, que sincroniza a placa gráfica (GPU) e o monitor para que eles tenham a mesma taxa de atualização, fazendo com que a imagem chegue de uma forma mais pura aos seus olhos.&lt;br /&gt;&lt;br /&gt;  E mais! Com a base ajustável você terá controle preciso para o ajuste e adaptação conveniente da altura e ângulo do seu monitor, permitindo que você jogue por ainda mais tempo, sem nenhum desconforto.</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Samsung Odyssey G4 25 IPS Full HD, 240Hz, 1ms, HDMI e DisplayPort,  99% sRGB, HDR, FreeSync Premium  - LS25BG400ELXZD</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Monitor Gamer Samsung Odyssey G4 25 IPS Full HD&lt;/h2&gt;
+&lt;p&gt;Resolu&amp;ccedil;&amp;atilde;o FHD e painel IPS. Agora voc&amp;ecirc; pode ver os jogos como nunca antes. O painel IPS oferece cores claras e um amplo &amp;acirc;ngulo de vis&amp;atilde;o de 178&amp;ordm; para maior clareza a partir de qualquer posi&amp;ccedil;&amp;atilde;o. Com mais pixels e maior profundidade, os jogos est&amp;atilde;o mais pr&amp;oacute;ximos da realidade do que nunca.&lt;br /&gt;240Hz de taxa de atualiza&amp;ccedil;&amp;atilde;o &amp;amp; 1ms de tempo de resposta. Velocidade nas cenas. A taxa de atualiza&amp;ccedil;&amp;atilde;o de 240Hz elimina o atraso para uma jogabilidade emocionante com a&amp;ccedil;&amp;atilde;o ultra-suave. Ataque os inimigos assim que os v&amp;ecirc;-los com um tempo de resposta de 1ms e quadros sem borr&amp;atilde;o.&lt;/p&gt;
+&lt;h2&gt;&lt;br /&gt;Foco sem nunca quebrar o fluxo&lt;/h2&gt;
+&lt;p&gt;Compat&amp;iacute;vel com Nvidia G-Sync. Jogabilidade f&amp;aacute;cil e sem esfor&amp;ccedil;o. A compatibilidade G-Sync mant&amp;eacute;m a placa de v&amp;iacute;deo e o painel sincronizados para eliminar cortes, atraso de tela e rasgos de imagem. Cenas de jogo r&amp;aacute;pidas e complexas s&amp;atilde;o est&amp;aacute;veis e sem repeti&amp;ccedil;&amp;otilde;es com AMD FreeSync Premium aumentando sua vantagem competitiva.&lt;br /&gt;Auto Source Switch+ Ligue e jogue instantaneamente. Com o Auto Source Switch+, seu monitor detecta quando os dispositivos conectados s&amp;atilde;o ligados e muda instantaneamente para o novo sinal de fonte. Isto o ajuda a chegar mais r&amp;aacute;pido &amp;agrave; a&amp;ccedil;&amp;atilde;o do jogo sem passar por v&amp;aacute;rias fontes de entrada.&lt;/p&gt;</t>
   </si>
   <si>
     <t>Monitor Gamer Samsung 27 polegadas FHD, 165hz, 1ms, Com Ajuste De Altura, HDMI, Displayport, Freesync, Preto - Ls27ag320nlxzd</t>
@@ -293,6 +414,27 @@
     <t>Monitor Gamer Samsung Odyssey G32A 27" Preto LS27AG320NLXZD &lt;br /&gt;Resolução FHD e painel IPS. Agora você pode ver os jogos como nunca antes. O painel IPS oferece cores claras e um amplo ângulo de visão de 178º para maior clareza a partir de qualquer posição. Com mais pixels e maior profundidade, os jogos estão mais próximos da realidade do que nunca. Compatível com Nvidia G-Sync. Jogabilidade fácil e sem esforço. A compatibilidade G-Sync mantém a placa de vídeo e o painel sincronizados para eliminar cortes, atraso de tela e rasgos de imagem. Cenas de jogo rápidas e complexas são estáveis e sem repetições com AMD FreeSync Premium aumentando sua vantagem competitiva.</t>
   </si>
   <si>
+    <t>Monitor Gamer Asus ROG Swift 49' LED, Ultra Wide, 144 Hz, DFHD, FreeSync Premium, HDR 10, 100% sRGB, HDMI/DisplayPort, Som - XG49VQ</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;O XG49VQ &amp;eacute; um monitor gaming super ultra-panor&amp;acirc;mico de 49' com uma velocidade de atualiza&amp;ccedil;&amp;atilde;o suave de 144Hz que oferece a experi&amp;ecirc;ncia gaming mais envolvente. Disp&amp;otilde;e de tecnologias Radeon FreeSync 2 HDR, e High Dynamic Range (HDR) com gama de cores profissional DCI-P3 90% e certifica&amp;ccedil;&amp;atilde;o DisplayHDR 400. O monitor com curvatura 1800R fornece uma experi&amp;ecirc;ncia gaming envolvente e extra-flexibilidade para multitasking. A tela super ultra-panor&amp;acirc;mica fornece a mesma &amp;aacute;rea de visualiza&amp;ccedil;&amp;atilde;o como dois monitores de 27' lado-a-lado, sem o intervalo e a moldura a incomodar. Com uma velocidade de atualiza&amp;ccedil;&amp;atilde;o ultrarr&amp;aacute;pida de 144Hz, garante que at&amp;eacute; os jogos mais r&amp;aacute;pidos sejam jogados com as defini&amp;ccedil;&amp;otilde;es de imagem mais elevadas, permanecendo suaves e sem lentid&amp;atilde;o. As teclas de atalho GamePlus integradas exclusivas da ASUS oferecem melhoramentos que o ajudam a obter mais do seu jogo. Esta fun&amp;ccedil;&amp;atilde;o foi desenvolvida conjuntamente com as opini&amp;otilde;es de jogadores profissionais, permitindo-lhes praticar e melhorar as suas aptid&amp;otilde;es em gaming. Com a tecnologia ASUS Ultra Low Blue Light, certificada pela T&amp;Uuml;V Rheinland, voc&amp;ecirc; protege seus olhos e previne a tens&amp;atilde;o ocular causada pela luz azul prejudicial. O XG49VQ possui um suporte projetado para ser ergon&amp;ocirc;mico. Oferece extensos ajustes de rota&amp;ccedil;&amp;atilde;o, inclina&amp;ccedil;&amp;atilde;o e altura para garantir que seu &amp;acirc;ngulo de vis&amp;atilde;o ideal seja f&amp;aacute;cil de alcan&amp;ccedil;ar.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Samsung Odyssey G5 34' VA, Curvo, Wide, 165 Hz, 2K QHD, 1ms, FreeSync Premium, HDR10, HDMI/DisplayPort - LC34G55TWWLXZD</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Monitor Gamer Samsung Odyssey G5 34' VA, Curvo, Wide, 165 Hz, 2K QHD, 1ms, FreeSync Premium, HDR10, HDMI/DisplayPort&lt;/p&gt;
+&lt;p&gt;&lt;br /&gt;Cenas v&amp;iacute;vidas que te envolvem, abrangente tela com 1000R preenche toda a sua vis&amp;atilde;o perif&amp;eacute;rica e te coloca no lugar do personagem. Viva uma experi&amp;ecirc;ncia in&amp;eacute;dita de tirar o f&amp;ocirc;lego. Gr&amp;aacute;ficos que ultrapassam os limites, resolu&amp;ccedil;&amp;atilde;o Ultra-WQHD proporciona uma vis&amp;atilde;o vasta e abrangente do mundo dos seus jogos com detalhes verdadeiramente realistas.&lt;/p&gt;
+&lt;h3&gt;&lt;br /&gt;O amplo tamanho da tela oferece pura imers&amp;atilde;o&amp;nbsp;&lt;/h3&gt;
+&lt;p&gt;&lt;br /&gt;Eliminando a distra&amp;ccedil;&amp;atilde;o de bordas no meio e cabos bagun&amp;ccedil;ados de um setup com dois monitores. Pronto para conquistar os inimigos, sem atrasos e sem oscila&amp;ccedil;&amp;otilde;es.&lt;br /&gt;&lt;br /&gt;&lt;/p&gt;
+&lt;h3&gt;Taxa de Atualiza&amp;ccedil;&amp;atilde;o de 165 Hz&lt;/h3&gt;
+&lt;p&gt;A taxa de atualiza&amp;ccedil;&amp;atilde;o ultra-r&amp;aacute;pida de 165Hz consegue lidar at&amp;eacute; mesmo com as cenas mais emocionantes e imagens super r&amp;aacute;pidas. Cada movimento feito conta com o tempo de resposta de 1ms.&lt;/p&gt;
+&lt;h3&gt;&lt;br /&gt;Desempenho ultrarrapido&lt;/h3&gt;
+&lt;p&gt;&lt;br /&gt;Ataque os inimigos no momento em que os vir e fique &amp;agrave; frente com movimentos precisos do mouse. Seu desempenho na tela &amp;eacute; t&amp;atilde;o r&amp;aacute;pido quanto seus pr&amp;oacute;prios reflexos. Jogabilidade suave sem esfor&amp;ccedil;o.&lt;/p&gt;
+&lt;h3&gt;&lt;br /&gt;Tecnologia AMD FreesSync Premium&amp;nbsp;&lt;/h3&gt;
+&lt;p&gt;O AMD FreesSync Premium apresenta uma tecnologia de sincroniza&amp;ccedil;&amp;atilde;o adapt&amp;aacute;vel que reduz o travamento de tela, oscila&amp;ccedil;&amp;atilde;o e atrasos. Gr&amp;aacute;ficos inspiradores com HDR10. Um caleidosc&amp;oacute;pio de tonalidades d&amp;aacute; vida &amp;agrave;s cenas dos seus jogos de forma mais vibrante do que nunca. Revele os segredos que se escondem nas sombras com pretos profundamente escuros, brancos luminosos e uma resolu&amp;ccedil;&amp;atilde;o incrivelmente detalhada.&lt;/p&gt;</t>
+  </si>
+  <si>
     <t>Monitor Gamer Gigabyte 27 Curvo, Full HD, HDMI/DisplayPort, FreeSync, 165Hz, 1ms, Altura Ajustável - G27FC-A-SA</t>
   </si>
   <si>
@@ -333,16 +475,78 @@
 &lt;p&gt;O monitor de jogos GIGABYTE possui um suporte exclusivo ergonomicamente projetado para oferecer uma ampla gama de ajustes de altura e inclina&amp;ccedil;&amp;atilde;o.&lt;/p&gt;</t>
   </si>
   <si>
-    <t>Monitor Gamer AOC 27 Polegadas LED Full HD, 144hz, 1ms, IPS, HDMI, VGA, Display Port, VESA, G-sync - 27g2/bk</t>
-  </si>
-  <si>
-    <t>O Monitor Gamer AOC, Modelo Hero, possui uma jogabilidade impecável, graças a taxa de atualização de 144Hz, sem rastros e efeitos fantasmas.&lt;br /&gt;&lt;br /&gt;  O produto ainda oferece a tecnologia AMD FreeSync, que sincroniza a placa gráfica (GPU) e o monitor para que eles tenham a mesma taxa de atualização, fazendo com que a imagem chegue de uma forma mais pura aos seus olhos.&lt;br /&gt;&lt;br /&gt;  E mais! Com a base ajustável você terá controle preciso para o ajuste e adaptação conveniente da altura e ângulo do seu monitor, permitindo que você jogue por ainda mais tempo, sem nenhum desconforto.</t>
-  </si>
-  <si>
-    <t>Monitor Gamer Concórdia Curvo 27p, LED Full HD, 75Hz, HDMI/VGA - CZ270F</t>
-  </si>
-  <si>
-    <t>O monitor concórdia gamer curvo cz270f 27'', possui uma jogabilidade impecável, graças a taxa de atualização de 75hz.&lt;br /&gt;O produto ainda oferece a tecnologia amd freesync, que sincroniza a placa gráfica (gpu) e o monitor para que eles tenham a mesma taxa de atualização, fazendo com que a imagem chegue de uma forma mais pura aos seus olhos. E para melhor visualização, conta com um angulo de visão de h: 178º v: 178° e inclinação de -5º~ 15º.</t>
+    <t>Monitor Gamer Curvo Concórdia 27 Polegadas LED FULL HD, 200hz, 1ms, HDMI, DP, DVI -  Cz270f200</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;strong&gt;Monitor Conc&amp;oacute;rdia Gamer Curvo CZ270F200&amp;nbsp;27'' Led Full HD 200hz 1ms. &lt;/strong&gt;&lt;/p&gt;&lt;br /&gt;&lt;p&gt;O monitor Conc&amp;oacute;rdia Gamer Curvo 27" 200hz&amp;nbsp;entrega aos gamers uma experi&amp;ecirc;ncia lisa, r&amp;aacute;pida e responsiva em todos os jogos. Experimente uma jogabilidade impec&amp;aacute;vel com a taxa de atualiza&amp;ccedil;&amp;atilde;o de tela 200 Hz que garante imagens r&amp;aacute;pidas, suaves e movimentos n&amp;iacute;tidos, para nenhum detalhe passar despercebido. Com tela de 27", ultrarr&amp;aacute;pido e cheio de &amp;oacute;timos recursos para todos os tipos de jogos, a partir de agora seus momentos ser&amp;atilde;o ainda mais insanos e sua experi&amp;ecirc;ncia, impec&amp;aacute;vel.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Concórdia 27 Polegadas, LED Full HD, 165Hz, 1Ms, Freesync - H270F</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;O mais novo membro dos monitores da Conc&amp;oacute;rdia, o&amp;nbsp;&lt;strong&gt;Monitor Gamer H270F&lt;/strong&gt;&amp;nbsp;com painel VA, vem para deixar a nossa gama ainda mais completa, de material leve e super resistente, chega para entregar aos gamers uma experi&amp;ecirc;ncia lisa, r&amp;aacute;pida e responsiva em todos os jogos.&amp;nbsp;&amp;nbsp;&lt;/p&gt;&lt;br /&gt;&lt;p&gt;Experimente uma jogabilidade impec&amp;aacute;vel com a taxa de atualiza&amp;ccedil;&amp;atilde;o de tela &amp;nbsp;165 Hz que garante imagens r&amp;aacute;pidas, suaves e movimentos n&amp;iacute;tidos, para nenhum detalhe passar despercebidos.&amp;nbsp;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Acer Nitro ED320QR S3, 31.5 Curvo LED Full HD, 165Hz, 1ms, DisplayPort e HDMI,  HDR10 AMD FreeSync Premium, Preto - UM.JE0AA.3</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Monitor Gamer Acer Nitro ED320QR S3&lt;/h2&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Tela Curva&lt;/h2&gt;
+&lt;p&gt;A &lt;strong&gt;tela curva 16:9&lt;/strong&gt; envolve voc&amp;ecirc; em um mundo de entretenimento com todos os cantos da tela &amp;agrave; mesma dist&amp;acirc;ncia de seus olhos para uma experi&amp;ecirc;ncia de visualiza&amp;ccedil;&amp;atilde;o uniforme sem pontos cegos.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Taxa de atualiza&amp;ccedil;&amp;atilde;o&lt;/h2&gt;
+&lt;p&gt;A taxa de atualiza&amp;ccedil;&amp;atilde;o de &lt;strong&gt;at&amp;eacute; 165Hz&lt;/strong&gt; acelera os quadros por segundo para fornecer cenas de movimento ultrassuaves. Reduzem o tempo necess&amp;aacute;rio para renderiza&amp;ccedil;&amp;atilde;o de quadros, menor atraso de entrada e proporcionam aos jogadores uma excelente experi&amp;ecirc;ncia no jogo.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Visual Response Boost (VRB)&lt;/h2&gt;
+&lt;p&gt;O &lt;strong&gt;tempo de resposta r&amp;aacute;pido de 1 ms&lt;/strong&gt; melhora a experi&amp;ecirc;ncia do jogador. N&amp;atilde;o importa a a&amp;ccedil;&amp;atilde;o em movimento r&amp;aacute;pido ou quaisquer transi&amp;ccedil;&amp;otilde;es dram&amp;aacute;ticas, tudo ser&amp;aacute; reproduzido suavemente, sem os efeitos irritantes de manchas ou fantasmas.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Zero Frame&lt;/h2&gt;
+&lt;p&gt;Oferece um novo &lt;strong&gt;design de quadro zero&lt;/strong&gt;, remove virtualmente a caixa delimitadora da tela e oferece todas as imagens, prazer visual cont&amp;iacute;nuo.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h3&gt;Compre j&amp;aacute; o seu no KaBuM&lt;/h3&gt;</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Gigabyte, 27 Full HD, 180Hz, 1ms, DisplayPort e HDMI, 108% sRGB, HDR, Adaptive-Sync - GS27FC SA</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Monitor Gamer Gigabyte 27 Full HD&lt;/h2&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;A Mais Alta Qualidade&lt;/h2&gt;
+&lt;p&gt;Equipado com uma taxa de atualiza&amp;ccedil;&amp;atilde;o de &lt;strong&gt;180 Hz&lt;/strong&gt; que suporta a tecnologia &lt;strong&gt;Adaptive-Sync&lt;/strong&gt; (FreeSync Premium) que p&amp;otilde;e fim &amp;agrave; jogabilidade inst&amp;aacute;vel e frames quebrados e cria um desempenho fluido e livre de artefatos em qualquer taxa de quadros. Conta com um tempo de resposta extremamente r&amp;aacute;pido de &lt;strong&gt;1 ms&lt;/strong&gt; para eliminar totalmente o atraso e o rasgo da imagem.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Mais Curva e Mais Imers&amp;atilde;o&lt;/h2&gt;
+&lt;p&gt;Um painel VA nativo de &lt;strong&gt;1500 Raios&lt;/strong&gt; que apresenta uma vis&amp;atilde;o mais pr&amp;oacute;xima do olho humano do que um monitor plano, proporcionando uma sensa&amp;ccedil;&amp;atilde;o mais envolvente e ao mesmo tempo oferecendo mais conforto visual.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Milh&amp;otilde;es de Cores&lt;/h2&gt;
+&lt;p&gt;GS27FC pode exibir &lt;strong&gt;16,7 milh&amp;otilde;es de cores&lt;/strong&gt; e possui uma taxa de contraste de &lt;strong&gt;3000:1&lt;/strong&gt;. Ele permite que voc&amp;ecirc; desfrute de uma experi&amp;ecirc;ncia de jogo fluente com cores reais e vibrantes. O GS27FC est&amp;aacute; pronto para &lt;strong&gt;HDR&lt;/strong&gt;, o que desperta interesse em uma ampla gama de aplica&amp;ccedil;&amp;otilde;es, incluindo jogos, entretenimento cinematogr&amp;aacute;fico e cria&amp;ccedil;&amp;atilde;o de conte&amp;uacute;do multim&amp;iacute;dia.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h3&gt;Compre j&amp;aacute; o seu no KaBuM!&lt;/h3&gt;</t>
+  </si>
+  <si>
+    <t>Monitor Gamer HQ, 24 Polegadas, FULL HD 144HZ A 165HZ 1MS Curvo Led, HDMI Display Port, Alto Falantes Iluminação RGB - Battle 24h165g</t>
+  </si>
+  <si>
+    <t>A Jogatina Perfeita&lt;br /&gt;Com O Monitor Hq Battle, Os Seus Movimentos Serão Instantâneos E O Seu Tempo De Reação Ocorrerá Em Tempo Real Em Qualquer Tipo De Jogo.&lt;br /&gt;Sem Atrasos, Você Jogará Com Desempenho Profissional.&lt;br /&gt;Graças A Combinação De Tempo De Resposta Ultrarápido + Alta Taxa De Atualização, Você Sairá Na Frente Dos Seus Oponentes:&lt;br /&gt;&lt;br /&gt;Tempo De Resposta: 1ms&lt;br /&gt;Desempenho Sem Igual, Imagens Nítidas E Sem Espera. Enxergue Toda A Cena No Milésimo De Segundo Em Que Ela Acontece. Não Desperdice Nenhum Movimento. O Seu Reflexo Convertido Em Vitórias!&lt;br /&gt;&lt;br /&gt;Taxa De Atualização: 165hz&lt;br /&gt;Nada De Rastros Nem Imagens Desfocadas. Tenha Uma Incrível Vantagem Sobre O Seu Adversário, Principalmente Em Cenas Rápidas. A Altíssima Taxa De Atualização Permitirá A Você Perceber Cada Sensível Mudança No Ambiente.&lt;br /&gt;&lt;br /&gt;Amd Freesync E Nvidia G-sync&lt;br /&gt;E Para Completar O Time, O Monitor Hq Battle Conta Com As Tecnologias Amd Freesync E Nvidia G-sync. Incríveis Ferramentas Que Impedem Imagens Serrilhadas E Cortadas.&lt;br /&gt;Elas Apresentam A Tecnologia De Sincronização Adaptável, Que Reduz O Travamento De Tela, Oscilação E Atrasos.&lt;br /&gt;&lt;br /&gt;Enxergue No Escuro&lt;br /&gt;Graças Ao Painel Va Utilizado Nos Monitores Hq Battle, Você Se Dará Bem Em Qualquer Tipo De Ambiente, Mesmo Em Situações De Baixa Luminosidade.&lt;br /&gt;Encontre Seus Inimigos Escondidos Em Qualquer Lugar, Mesmo Os Mais Escuros.&lt;br /&gt;&lt;br /&gt;Mais Sobre O Painel Va&lt;br /&gt;Quando Falamos Em Tipo De Painel Para Monitores Gamer, Existem Três Opções Disponíveis No Mercado.&lt;br /&gt;E Por Que A Hq Escolheu O Tipo Va Para O Monitor Battle?&lt;br /&gt;A Resposta é Simples. Pois Essa Opção Oferece A Maior Gama De Vantagens Para O Jogador:&lt;br /&gt;1- âNgulo De Visão De 178x178 Graus, Enxergue Bem Em Qualquer âNgulo&lt;br /&gt;2- Alto Nível De Contraste, Imagens Nítidas Mesmo Em Cenas Muito Claras Ou Muito Escuras&lt;br /&gt;3- Tempo De Resposta Real De 1ms Mprt&lt;br /&gt;4- Cores Vivas E Nítidas&lt;br /&gt;5- Permite As Mais Altas Taxas De Atualização&lt;br /&gt;&lt;br /&gt;Design úNico&lt;br /&gt;Além De Todos Os Recursos Apresentados, Ainda Temos O Fato Do Monitor Hq Battle Ter Um Visual Sensacional.&lt;br /&gt;Desenvolvido Com Uma Tela Curva, Isso Já Seria O Bastante Para Deixar O Seu Setup Gamer Ainda Mais Moderno. Mas Além Disso, Ele Ainda Possui A Tecnologia ´´Frameless´´, Sem Bordas, Que Garantirão A Você Uma Imersão Total. Aproveite 100% Da Tela.&lt;br /&gt;&lt;br /&gt;Conectividade E Recursos&lt;br /&gt;Para Garantir Uma Experiência Perfeita, Equipamos O Battle Com Tudo O Que Você Precisa.&lt;br /&gt;Dupla Saída De Vídeo Hdmi E Display Port, Além De Uma Conexão Usb.&lt;br /&gt;E Para Deixar Tudo Ainda Melhor, Ele Vem Acompanhado Com Dois Alto Falantes Surround E Iluminação Em Rgb.</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Curvo Philco 30 LED, Full HD Ultra Wide, 144Hz, 1ms, HDMI e DisplayPort, HDR 10, FreeSync, Ajuste de Ângulo - PMG30C900WFG</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Monitor Curvo Gamer Philco 30 LED&lt;/h2&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;Resolu&amp;ccedil;&amp;atilde;o de 2560 x 1080 (pixels), que permite um melhor detalhamento da imagem, consequentemente uma melhor visualiza&amp;ccedil;&amp;atilde;o com mais nitidez e clareza.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Mais fina e muito mais econ&amp;ocirc;mica&lt;/h2&gt;
+&lt;p&gt;O monitor conta com uma taxa de &lt;strong&gt;atualiza&amp;ccedil;&amp;atilde;o de 200Hz&lt;/strong&gt; quando conectado atrav&amp;eacute;s do &lt;strong&gt;DisplayPort&lt;/strong&gt; e via cabo &lt;strong&gt;HDMI&lt;/strong&gt;*, trazendo maior fluidez nos seus jogos. *&lt;strong&gt;165Hz&lt;/strong&gt; em cabo &lt;strong&gt;HDMI vers&amp;atilde;o 2.0&lt;/strong&gt; &lt;strong&gt;ou acima&lt;/strong&gt;, frequ&amp;ecirc;ncia de 100Hz no cabo HDMI com vers&amp;otilde;es abaixo de 2.0.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;A tela UltraWide Curvo de 30&amp;rdquo;&lt;/h2&gt;
+&lt;p&gt;Oferece um melhor campo de vis&amp;atilde;o, com uma maior imers&amp;atilde;o visual atrav&amp;eacute;s do&lt;strong&gt; formato de tela 21:9&lt;/strong&gt; que permite ver &amp;aacute;reas maiores que dos monitores convencionais.&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Elimina a quebra de quadros&lt;/strong&gt; (&lt;strong&gt;screen tearing&lt;/strong&gt;) e os atrasos durante a reprodu&amp;ccedil;&amp;atilde;o dos frames de v&amp;iacute;deo, sincronizando a taxa de atualiza&amp;ccedil;&amp;atilde;o do monitor com a taxa de quadro da placa de v&amp;iacute;deo, trazendo como resultado uma maior fluidez na execu&amp;ccedil;&amp;atilde;o de jogos. Compat&amp;iacute;vel com placas de v&amp;iacute;deo AMD.&lt;/p&gt;
+&lt;p&gt;Compatibilidade com a tecnologia&lt;strong&gt; G-sync&lt;/strong&gt; que elimina a quebra de quadros (screen tearing) e os atrasos durante a reprodu&amp;ccedil;&amp;atilde;o dos frames de v&amp;iacute;deo, sincronizando a taxa de atualiza&amp;ccedil;&amp;atilde;o do monitor com a taxa de quadros da placa de v&amp;iacute;deo, compat&amp;iacute;vel com placas NVIDIA.&lt;/p&gt;
+&lt;p&gt;O monitor conta com o &lt;strong&gt;modo mira&lt;/strong&gt;, onde &amp;eacute; poss&amp;iacute;vel selecionar entre duas cores e formatos de mira, para uma melhor precis&amp;atilde;o durante jogos FPS.&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h3&gt;Compre agora no KaBuM!&lt;/h3&gt;</t>
   </si>
   <si>
     <t>Monitor Gamer Husky  23.8' LED, Wide, 165 Hz, Full HD, 1ms, Adaptive Sync, HDMI/DisplayPort, VESA - HGMT003</t>
@@ -369,42 +573,42 @@
 &lt;p style="margin: 0px; padding: 0px; border: none; list-style: none; box-sizing: border-box; font-size: 0.875rem; font-family: Poppins, sans-serif; line-height: 1.125rem; color: #565c69;"&gt;&amp;nbsp;&lt;/p&gt;</t>
   </si>
   <si>
-    <t>Monitor Gamer Concórdia 27'', LED Full HD, 165Hz, 1Ms, Freesync - H270f</t>
-  </si>
-  <si>
-    <t>O mais novo membro dos monitores da concórdia, o &lt;strong&gt;monitor gamer h270f &lt;/strong&gt;com painel va, vem para deixar a nossa gama ainda mais completa, de material leve e super resistente, chega para entregar aos gamers uma experiência lisa, rápida e responsiva em todos os jogos.&amp;nbsp&amp;nbspexperimente uma jogabilidade impecável com a taxa de atualização de tela 165hz que garante imagens rápidas, suaves e movimentos nítidos, para nenhum detalhe passar despercebidos.&lt;strong&gt;características:&lt;/strong&gt;marca: concórdiamodelo: h270f165&lt;strong&gt;especificações:&lt;/strong&gt;&lt;strong&gt;tela:&lt;/strong&gt;painel: varesolução: 1920x1080 led full hdtempo de resposta: 1msângulo de visão: h:178&amp;degv:178&amp;degcontraste: 5000000:1frequência: 165 heartz&lt;strong&gt;recursos do monitor:&lt;/strong&gt;som: sinal através do cabo&amp;nbspfuração: vesa 75 x 75mm (para fixação em suportes, utilizar os parafusos extensores que acompanham o monitor)suporte/base: feito de metal resistente e de fácil montagem (plug)ângulo de inclinação:-5&amp;deg~ 15&amp;degmira para jogos fps: simsem moldurafiltro de luz azul: simcertificações: cb &amp; energy star &amp; cebaixo consumo no modo stanby, 0,3 wtensão: bivolt&lt;strong&gt;entradas:&lt;/strong&gt;hdmidvidisplay portphonedc (alimentação)&lt;strong&gt;acompanha:&amp;nbsp&lt;/strong&gt;manual, cabo displayport, fonte de alimentação.&lt;strong&gt;dimensão da tela:&lt;/strong&gt; altura (cm): 36 | largura (cm) 61,5 | profundidade (cm) 2 | peso (kg): 3500&amp;nbsp&lt;strong&gt;dimensão com base:&lt;/strong&gt; altura (cm): 43,5 | largura (cm) 61 | profundidade (cm) 12 | peso (kg): 3700&lt;br&gt;&lt;br&gt;&lt;strong&gt;especificações técnicas&lt;/strong&gt;&lt;br&gt;monitor concórdia gamer h270f 27´´ led full hd 165hz freesync  hdmi  dp  | entrega para todo o brasil</t>
-  </si>
-  <si>
-    <t>Monitor Gamer Acer 27 LED Full HD Curvo, 165 Hz, 5ms, HDMI e DisplayPort, FreeSync Premium, VESA - ED270R</t>
-  </si>
-  <si>
-    <t>&lt;h2&gt;Monitor Gamer Acer 27 LED Full HD Curvo, 165Hz, 5ms, HDMI e DisplayPort, FreeSync Premium, VESA&lt;/h2&gt;
-&lt;h2&gt;&amp;nbsp;&lt;/h2&gt;
-&lt;h2&gt;Crie e Projete com Precis&amp;atilde;o&lt;/h2&gt;
-&lt;p&gt;Desfrute de uma experi&amp;ecirc;ncia visual excepcional com este monitor&lt;strong&gt; ZeroFrame&lt;/strong&gt;. Ele foi projetado pensando nos profissionais e consumidores que desejam um monitor ergon&amp;ocirc;mico e robusto.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h2&gt;Sincronia Perfeita&lt;/h2&gt;
-&lt;p&gt;Esque&amp;ccedil;a as rupturas da tela durante jogos ou transmiss&amp;otilde;es de v&amp;iacute;deos. Com o&lt;strong&gt; Radeon FreeSync,&lt;/strong&gt; a sincroniza&amp;ccedil;&amp;atilde;o dos quadros do monitor &amp;eacute; muito mais eficiente, proporcionando uma experi&amp;ecirc;ncia visual mais suave, fluida e responsiva.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h2&gt;Ergonomia para seu Dia a Dia&lt;/h2&gt;
-&lt;p&gt;A robustez deste monitor vem de seu suporte ergon&amp;ocirc;mico e forte. A base firme de a&amp;ccedil;o inoxid&amp;aacute;vel possibilita inclinar a tela em at&amp;eacute; 20&amp;deg;, girar 360&amp;deg; e fazer &lt;strong&gt;ajustes de altura at&amp;eacute; 120 mm&lt;/strong&gt; sempre que quiser.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h2&gt;Tecnologia Blue Light Shield&lt;/h2&gt;
-&lt;p&gt;Equipados com a tecnologia Acer BluelightShield&amp;trade;, os monitores CB2 reduzem a emiss&amp;atilde;o de luz azul em at&amp;eacute; 54%. Sua&lt;strong&gt; tela de 23,8"&lt;/strong&gt; com o recurso Acer &lt;strong&gt;ComfyView&lt;/strong&gt; reflete menos luz e garante uma visualiza&amp;ccedil;&amp;atilde;o mais confort&amp;aacute;vel mesmo durante longos per&amp;iacute;odos de uso.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h3&gt;Aproveite essa oportunidade e adquira seu Monitor Gamer Acer no KaBuM!&lt;/h3&gt;</t>
-  </si>
-  <si>
-    <t>Monitor Gamer AOC Sniper 27' IPS, Wide, 75 Hz, Full HD, 1ms, Adaptive Sync, 98% sRGB, HDMI/VGA, Ajuste de Ângulo - 27G2HE5</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Monitor Gamer AOC. Desenvolvidos para suportar todas as emo&amp;ccedil;&amp;otilde;es dos jogos, o tempo de resposta de 1ms oferece alta velocidade, defini&amp;ccedil;&amp;atilde;o e muita suavidade em todos os movimentos. A avan&amp;ccedil;ada tecnologia Painel IPS esclarece automaticamente as &amp;aacute;reas escuras do mundo do jogo, entregando mais cor, brilho e contraste, melhorando a visualiza&amp;ccedil;&amp;atilde;o com amplos &amp;acirc;ngulos de vis&amp;atilde;o. Game Mode, Esta fun&amp;ccedil;&amp;atilde;o possui predefini&amp;ccedil;&amp;otilde;es de f&amp;aacute;brica para otimizar cada tipo de jogo. Assim, os n&amp;iacute;veis de gama preto, propor&amp;ccedil;&amp;otilde;es de contraste e nitidez s&amp;atilde;o instantaneamente calibrados.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>Monitor Gamer LG 29' IPS, Ultra Wide, 75 Hz, Full HD, FreeSync, 99% sRGB, HDMI/DisplayPort, VESA - 29UM69G-B</t>
-  </si>
-  <si>
-    <t>Monitor Gamer LG 29UM69G-BAWZ Pro Gamer - 29” LED Full HD UltraWide IPS HDMI 75kHz 1ms. O monitor gamer UltraWide Pro Gamer LCD LED IPS Full HD da LG não vai te deixar na mão na hora de enfrentar os games mais cascudos. São 29 polegadas e ele te oferece 30% mais tela widescreen para uma incrível imersão visual, dando a vantagem que você precisa para ganhar de seus adversários. O recurso 1ms Motion Blur Reduction permite que você tenha movimentos instantâneos e com a maior precisão através do tempo de resposta de 1ms. Sem falar no AMD FreeSyncTM, que elimina falhas de imagem que surgem da diferença entre a taxa de quadro da placa de vídeo e a taxa de atualização do monitor.Jogar games escuros já não é mais um problema! O Black Stabilizer ajusta o brilho automaticamente e dá aos jogadores visibilidade total. Agora os campers não vão te pegar de surpresa!Ele não para por aí. O Dynamic Action Sync garante um processamento mais rápido, para acompanhar a velocidade das suas habilidades.E tudo isso é completo com o Game Mode, que oferece um ambiente de jogos personalizado. É ou não é um monitor perfeito!</t>
+    <t>Monitor Gamer Acer Predator 24.5' IPS, 280 Hz, Full HD, 0.5ms, G-Sync, HDR 400, 99% sRGB, HDMI/DisplayPort, VESA, Som Integrado - XB253Q GW</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Monitor Gamer Acer Predator XB253Q. A tecnologia NVIDIA G-SYNC cria uma experi&amp;ecirc;ncia &amp;uacute;nica e suave para jogos, atrav&amp;eacute;s da sincroniza&amp;ccedil;&amp;atilde;o dos frames criados pela GeForce com a taxa de atualiza&amp;ccedil;&amp;atilde;o do monitor. Adeus "screen tearing" e engasgos. O Predator XB253Q conta com alta taxa de atualiza&amp;ccedil;&amp;atilde;o de at&amp;eacute; 280Hz.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Gigabyte LED 28 4K UHD, 144Hz, 1ms, IPS, HDMI e DisplayPort, 120% sRGB, HDR, FreeSync, Altura Ajustável - M28U-SA</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Monitor Gamer Gigabyte LED 28 4K UHD&lt;/h2&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;A &amp;Uacute;ltima Milha para o seu sistema de Jogo&lt;/h2&gt;
+&lt;p&gt;Como um jogador invis&amp;iacute;vel, o monitor costuma ser subestimado. A verdade &amp;eacute; que os monitores se formam como um efeito sin&amp;eacute;rgico e trazem o melhor desempenho dos componentes do PC. Os monitores de jogos GIGABYTE oferecem as &lt;strong&gt;especifica&amp;ccedil;&amp;otilde;es e qualidade mais recentes,&lt;/strong&gt; os usu&amp;aacute;rios podem realmente desfrutar de um desempenho de alto n&amp;iacute;vel sem a necessidade de extravag&amp;acirc;ncia.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Um por todos&lt;/h2&gt;
+&lt;p&gt;O &lt;strong&gt;recurso KVM&lt;/strong&gt; permite &lt;strong&gt;controlar v&amp;aacute;rios dispositivos&lt;/strong&gt; por meio de um conjunto de teclado, v&amp;iacute;deo e mouse. Com nosso bot&amp;atilde;o KVM exclusivo, voc&amp;ecirc; descobrir&amp;aacute; que a troca de dispositivos n&amp;atilde;o pode ser mais f&amp;aacute;cil! R&amp;aacute;pido como um piscar de olhos!&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Tempo de resposta GTG de 1 ms&lt;/h2&gt;
+&lt;p&gt;A tecnologia &lt;strong&gt;SuperSpeed ??IPS&lt;/strong&gt; reduz o tempo de resposta para &lt;strong&gt;1ms&lt;/strong&gt;; enquanto isso, oferecendo a cor espl&amp;ecirc;ndida de grau &lt;strong&gt;IPS&lt;/strong&gt;!&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;UHD com 144 Hz&lt;/h2&gt;
+&lt;p&gt;&lt;strong&gt;Alta resolu&amp;ccedil;&amp;atilde;o e taxa de atualiza&amp;ccedil;&amp;atilde;o r&amp;aacute;pida&lt;/strong&gt;, oferecendo qualidade de exibi&amp;ccedil;&amp;atilde;o detalhada e experi&amp;ecirc;ncia de jogo fluida!&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Cor de 8 bits, 94% DCI-P3&lt;/h2&gt;
+&lt;p&gt;Fant&amp;aacute;stica tela colorida e &lt;strong&gt;94% DCI-P3&lt;/strong&gt; super &lt;strong&gt;ampla gama de cores&lt;/strong&gt;.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Alta Taxa de Bit 3&lt;/h2&gt;
+&lt;p&gt;O suporte &lt;strong&gt;DisplayPort High Bit Rate 3&lt;/strong&gt; (HBR3) fornece a largura de banda para oferecer a &lt;strong&gt;taxa de atualiza&amp;ccedil;&amp;atilde;o mais r&amp;aacute;pida&lt;/strong&gt; do monitor, profundidade total de cores e efeito HDR ao mesmo tempo!&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Simples e Estiloso&lt;/h2&gt;
+&lt;p&gt;A apar&amp;ecirc;ncia simplificada representa a simplicidade da filosofia de design da s&amp;eacute;rie de jogos GIGABYTE, suporte &lt;strong&gt;robusto&lt;/strong&gt; e &lt;strong&gt;acabamento fosco&lt;/strong&gt; constru&amp;iacute;do para recursos funcionais e est&amp;eacute;ticos adicionando mais &amp;agrave;s caracter&amp;iacute;sticas.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;&amp;Acirc;ngulo de Vis&amp;atilde;o Perfeito&lt;/h2&gt;
+&lt;p&gt;O monitor Gaming GIGABYTE &lt;strong&gt;possui um suporte exclusivo&lt;/strong&gt; projetado ergonomicamente para oferecer ampla gama de &lt;strong&gt;ajustes de altura e inclina&amp;ccedil;&amp;atilde;o&lt;/strong&gt;.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h3&gt;Compre agora no KaBuM!&lt;/h3&gt;</t>
   </si>
   <si>
     <t>Monitor Gamer Acer Nitro 23.8 LED Full HD, 165Hz, 1ms, HDMI e DisplayPort, HDR, FreeSync Premium, VESA - QG241Y Pbiip</t>
@@ -435,60 +639,10 @@
 &lt;p&gt;&lt;strong&gt;HDR 10:&lt;/strong&gt; &amp;Eacute; uma tecnologia de exibi&amp;ccedil;&amp;atilde;o que cria n&amp;iacute;veis mais profundos de contraste em preto e branco, proporcionando uma imers&amp;atilde;o de n&amp;iacute;vel maior por meio da recria&amp;ccedil;&amp;atilde;o de imagem realista. Os monitores Acer HDR suportam o formato HDR10.&lt;/p&gt;</t>
   </si>
   <si>
-    <t>Monitor Gamer Acer 23.8' LED, 75 Hz, Full HD, 1ms, FreeSync, HDMI/VGA, VESA - KA242Y A</t>
-  </si>
-  <si>
-    <t>&lt;h2&gt;Monitor Gamer Acer 23.8' LED&lt;/h2&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h2&gt;Acer Flicker-less&lt;/h2&gt;
-&lt;p&gt;A &lt;strong&gt;tela tr&amp;ecirc;mula&lt;/strong&gt; &amp;eacute; menos vis&amp;iacute;vel, mas causa fadiga ocular e at&amp;eacute; mesmo prejudica a sa&amp;uacute;de ocular, especialmente para os usu&amp;aacute;rios pesados de monitores, como programadores, escritores, estudantes ou designers gr&amp;aacute;ficos. &lt;strong&gt;Os monitores Acer Flicker-less&lt;/strong&gt; podem eliminar a tremula&amp;ccedil;&amp;atilde;o inc&amp;ocirc;moda da tela e fornecer uma experi&amp;ecirc;ncia de visualiza&amp;ccedil;&amp;atilde;o confort&amp;aacute;vel. 1ms &lt;strong&gt;Visual Response Boost (VRB)&lt;/strong&gt;, funciona desligando rapidamente a luz de fundo ou inserindo uma imagem em branco e preta entre os quadros, tamb&amp;eacute;m conhecida como (&lt;strong&gt;piscando&lt;/strong&gt;). Isso resulta em um desfoque menos percept&amp;iacute;vel em imagens em movimento r&amp;aacute;pido porque os cristais l&amp;iacute;quidos n&amp;atilde;o precisam dobrar nos quadros &amp;agrave; medida que sobem e descem.&lt;/p&gt;
-&lt;h2&gt;Possui Tecnologia Acer Ultra-Low Blue Light&lt;/h2&gt;
-&lt;p&gt;Com o &lt;strong&gt;AMD FreeSync&lt;/strong&gt;, a taxa de quadros do jogo &amp;eacute; determinada pela placa de v&amp;iacute;deo, n&amp;atilde;o pela taxa de atualiza&amp;ccedil;&amp;atilde;o fixa do monitor. Isso significa que os quadros do monitor s&amp;atilde;o sincronizados com os quadros da placa gr&amp;aacute;fica, o que elimina a tela quebrada e oferece experi&amp;ecirc;ncias de jogo muito suaves. A&lt;strong&gt; tecnologia Acer Ultra-Low Blue Light&lt;/strong&gt; reduz a quantidade de luz azul prejudicial emitida pelo painel &lt;strong&gt;LED&lt;/strong&gt;. Voc&amp;ecirc; pode acessar e selecionar quatro configura&amp;ccedil;&amp;otilde;es de filtro diferentes na tela facilmente por meio do menu &lt;strong&gt;OSD&lt;/strong&gt; para encontrar a melhor que se adapta &amp;agrave; tarefa em quest&amp;atilde;o.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h3&gt;Compre seu&amp;nbsp;Monitor Gamer Acer 23.8' LED aqui no KaBuM!&lt;/h3&gt;</t>
-  </si>
-  <si>
-    <t>Monitor Gamer Acer Nitro ED320QR S3, 31.5 Curvo LED Full HD, 165Hz, 1ms, DisplayPort e HDMI,  HDR10 AMD FreeSync Premium, Preto - UM.JE0AA.3</t>
-  </si>
-  <si>
-    <t>&lt;h2&gt;Monitor Gamer Acer Nitro ED320QR S3&lt;/h2&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h2&gt;Tela Curva&lt;/h2&gt;
-&lt;p&gt;A &lt;strong&gt;tela curva 16:9&lt;/strong&gt; envolve voc&amp;ecirc; em um mundo de entretenimento com todos os cantos da tela &amp;agrave; mesma dist&amp;acirc;ncia de seus olhos para uma experi&amp;ecirc;ncia de visualiza&amp;ccedil;&amp;atilde;o uniforme sem pontos cegos.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h2&gt;Taxa de atualiza&amp;ccedil;&amp;atilde;o&lt;/h2&gt;
-&lt;p&gt;A taxa de atualiza&amp;ccedil;&amp;atilde;o de &lt;strong&gt;at&amp;eacute; 165Hz&lt;/strong&gt; acelera os quadros por segundo para fornecer cenas de movimento ultrassuaves. Reduzem o tempo necess&amp;aacute;rio para renderiza&amp;ccedil;&amp;atilde;o de quadros, menor atraso de entrada e proporcionam aos jogadores uma excelente experi&amp;ecirc;ncia no jogo.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h2&gt;Visual Response Boost (VRB)&lt;/h2&gt;
-&lt;p&gt;O &lt;strong&gt;tempo de resposta r&amp;aacute;pido de 1 ms&lt;/strong&gt; melhora a experi&amp;ecirc;ncia do jogador. N&amp;atilde;o importa a a&amp;ccedil;&amp;atilde;o em movimento r&amp;aacute;pido ou quaisquer transi&amp;ccedil;&amp;otilde;es dram&amp;aacute;ticas, tudo ser&amp;aacute; reproduzido suavemente, sem os efeitos irritantes de manchas ou fantasmas.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h2&gt;Zero Frame&lt;/h2&gt;
-&lt;p&gt;Oferece um novo &lt;strong&gt;design de quadro zero&lt;/strong&gt;, remove virtualmente a caixa delimitadora da tela e oferece todas as imagens, prazer visual cont&amp;iacute;nuo.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h3&gt;Compre j&amp;aacute; o seu no KaBuM&lt;/h3&gt;</t>
-  </si>
-  <si>
-    <t>Monitor Gamer Lg Ultragear 27 Polegadas,FULL  HdD144hz 1ms Ips, HDMI e Displayport</t>
-  </si>
-  <si>
-    <t>Monitor gamer lg ultragear, 27 full hd 144hz 1ms ips hdmi e displayport hdr 10 99% srgb, freesync premium vesa - 27gn65r o monitor gamer lg ultragear 27gn65r é uma opção de alta performance desenvolvida para atender às demandas dos jogadores mais exigentes. Com uma tela de 27 polegadas em resolução full hd (1920 x 1080), esse monitor oferece uma experiência visual imersiva com imagens nítidas e detalhadas. A velocidade é uma das principais características desse monitor, com um tempo de resposta ultra-rápido de 1ms (gtg), o que significa que as transições de cores são praticamente instantâneas, eliminando o efeito de arrasto nas imagens durante os jogos mais rápidos e intensos. Além disso, a taxa de atualização de 144hz proporciona uma jogabilidade mais fluida, permitindo que os jogadores vejam o próximo quadro rapidamente e tenham uma experiência de jogo mais suave. O painel ips do monitor garante ângulos de visão amplos e cores vibrantes, com suporte para 99% do espaço de cores srgb e tecnologia hdr10. Isso resulta em imagens mais realistas e ricas em detalhes, criando uma experiência de visualização imersiva para jogos, filmes e conteúdos em geral. O monitor gamer lg ultragear 27gn65r também é compatível com a tecnologia amd freesync premium e nvidia g-sync, que ajudam a eliminar o screen tearing e o stuttering durante os jogos, sincronizando a taxa de atualização do monitor com a taxa de quadros da placa gráfica para uma jogabilidade mais suave e sem interrupções. O design eletrizante e moderno do monitor complementa perfeitamente o setup gamer, enquanto a compatibilidade vesa permite a instalação em suportes ou braços para maior versatilidade. Se você busca uma experiência de jogo de alta performance com imagens fluidas, cores vívidas e tempos de resposta rápidos, o monitor gamer lg ultragear 27gn65r é uma escolha excelente para elevar seu entretenimento e desempenho nos jogos.   especificações: - marca: lg - modelo: 27gn65r     características: tela: - cor: preto - tamanho: 27” - tipo de tela: ips - ângulo de visão: 178º / 178º - resolução máxima: full hd (1920 x 1080) - brilho: 300 cd/m² - contraste: 1000:01 - tempo de resposta: 1ms (gtg) - taxa de atualização: 144hz - gama de cores: srgb 99% (típ.) - profundidade de cores (nº de cores): 16,7m - distância entre pixels: 0,3108 x 0,3108 mm - tratamento de tela: antirreflexivo   entradas e saídas: - hdmi: sim (v2.0) - displayport: sim (v1.4) - saída de fone de ouvido: sim   energia: - consumo de energia: 32w (típ.) - fonte: adaptador externo   ajustes: - ajustes de posição: inclinação, altura, pivô - tamanho da furação: 100 x 100 mm   recursos: - hdr: hdr10 - flicker safe: sim - amd freesync: freesync premium - nvidia g-sync: sim - modo leitura: sim - onscreen control: sim - motion blur reduction: sim - crosshair: sim - dynamic action sync: sim - black stabilizer: sim - plug &amp; play: sim</t>
-  </si>
-  <si>
-    <t>Monitor Gamer Gigabyte, 27 Full HD, 180Hz, 1ms, DisplayPort e HDMI, 108% sRGB, HDR, Adaptive-Sync - GS27FC SA</t>
-  </si>
-  <si>
-    <t>&lt;h2&gt;Monitor Gamer Gigabyte 27 Full HD&lt;/h2&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h2&gt;A Mais Alta Qualidade&lt;/h2&gt;
-&lt;p&gt;Equipado com uma taxa de atualiza&amp;ccedil;&amp;atilde;o de &lt;strong&gt;180 Hz&lt;/strong&gt; que suporta a tecnologia &lt;strong&gt;Adaptive-Sync&lt;/strong&gt; (FreeSync Premium) que p&amp;otilde;e fim &amp;agrave; jogabilidade inst&amp;aacute;vel e frames quebrados e cria um desempenho fluido e livre de artefatos em qualquer taxa de quadros. Conta com um tempo de resposta extremamente r&amp;aacute;pido de &lt;strong&gt;1 ms&lt;/strong&gt; para eliminar totalmente o atraso e o rasgo da imagem.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h2&gt;Mais Curva e Mais Imers&amp;atilde;o&lt;/h2&gt;
-&lt;p&gt;Um painel VA nativo de &lt;strong&gt;1500 Raios&lt;/strong&gt; que apresenta uma vis&amp;atilde;o mais pr&amp;oacute;xima do olho humano do que um monitor plano, proporcionando uma sensa&amp;ccedil;&amp;atilde;o mais envolvente e ao mesmo tempo oferecendo mais conforto visual.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h2&gt;Milh&amp;otilde;es de Cores&lt;/h2&gt;
-&lt;p&gt;GS27FC pode exibir &lt;strong&gt;16,7 milh&amp;otilde;es de cores&lt;/strong&gt; e possui uma taxa de contraste de &lt;strong&gt;3000:1&lt;/strong&gt;. Ele permite que voc&amp;ecirc; desfrute de uma experi&amp;ecirc;ncia de jogo fluente com cores reais e vibrantes. O GS27FC est&amp;aacute; pronto para &lt;strong&gt;HDR&lt;/strong&gt;, o que desperta interesse em uma ampla gama de aplica&amp;ccedil;&amp;otilde;es, incluindo jogos, entretenimento cinematogr&amp;aacute;fico e cria&amp;ccedil;&amp;atilde;o de conte&amp;uacute;do multim&amp;iacute;dia.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h3&gt;Compre j&amp;aacute; o seu no KaBuM!&lt;/h3&gt;</t>
+    <t>Monitor Gamer Acer Nitro Edo, 27 Polegadas, Full HD, 1MS, Curvo, VA, 180Hz, - Ed270r-S3biip</t>
+  </si>
+  <si>
+    <t>Características:&lt;br /&gt;-Marca:ACER&lt;br /&gt;-Modelo:ED270R-S3BIIP&lt;br /&gt;-Gtin:4711121617829&lt;br /&gt;-NCM:85285200&lt;br /&gt;-Filial:DF&lt;br /&gt;&lt;br /&gt; Especificações:&lt;br /&gt;Tamanho da tela:    27"&lt;br /&gt;Panorâmico:    Sim&lt;br /&gt;Tipo de exibição:    HD&lt;br /&gt;Tecnologia de sincronização adaptativa:    FreeSync (AMD Adaptive Sync)&lt;br /&gt;Resolução recomendada:    1920 x 1080&lt;br /&gt;Ângulo de visão:    178° (H) / 178° (V)&lt;br /&gt;Brilho:    250cd/m2&lt;br /&gt;Taxa de contraste:    100.000.000:1 (ACM)&lt;br /&gt;Tempo de resposta:    1 ms&lt;br /&gt;Exibir cores:    16,7 milhões&lt;br /&gt;Taxa de atualização:    180 Hz&lt;br /&gt;Tela de superfície curva:    Curvado&lt;br /&gt;Entradas:    1 x DisplayPort,2 x HDMI&lt;br /&gt;Ajustes de suporte:    Inclinação -5°~ 20°&lt;br /&gt;Alto-falantes integrados:    Não&lt;br /&gt;Compatibilidade VESA:    Montável 75x75mm&lt;br /&gt;Garantia total: 12 meses (contra defeitos de fabricação), 3 meses referentes à garantia legal, nos termos do artigo 26, II, do Código de Defesa do Consumidor + 9 meses de garantia do fabricante.</t>
   </si>
   <si>
     <t>Monitor Gamer AOC 27 2K QHD, 155hz, 1ms, HDMI e DisplayPort, FreeSync Premium, 121.5% sRGB, VESA - Q27G2</t>
@@ -505,22 +659,191 @@
 &lt;h4 style="text-align: justify;"&gt;Compre agora no KaBuM!&lt;/h4&gt;</t>
   </si>
   <si>
+    <t>Monitor Gamer Curvo Samsung Odyssey 49" OLED WQHD, 240Hz, 0.03ms, DisplayPort e HDMI, HDR, Freesync Premium, prata - LS49CG930SLXZD</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Monitor Gamer Curvo Samsung Odyssey 49"&lt;/h2&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Tecnologia Samsung OLED&lt;/h2&gt;
+&lt;p&gt;Seu jogo com gr&amp;aacute;ficos ainda mais bonitos! O Odyssey &lt;strong&gt;OLED G9&lt;/strong&gt; proporciona imagens com contraste puro e ainda mais brilhantes e coloridas, gra&amp;ccedil;as a exclusiva &lt;strong&gt;Tecnologia de Pontos Qu&amp;acirc;nticos&lt;/strong&gt;.&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Tela Curva de 49"&amp;nbsp;Dual QHD&lt;/h2&gt;
+&lt;p&gt;Com uma tela &lt;strong&gt;Super Ultra-Wide&lt;/strong&gt; semelhante a dois monitores &lt;strong&gt;QHD lado a lado&lt;/strong&gt;, capte todos os detalhes do seu jogo com a m&amp;aacute;xima nitidez. A tela&lt;strong&gt; curva de&lt;/strong&gt; &lt;strong&gt;1800R&lt;/strong&gt; te coloca dentro do game proporcionando uma verdadeira imers&amp;atilde;o.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Display HDR e True Black 400&lt;/h2&gt;
+&lt;p&gt;O OLED G9 gera um preto puro na tela sem a fuga de luz dos pixels, para que voc&amp;ecirc; enxergue todos os detalhes do seu game mesmo nas cenas mais escuras.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Tempo de Resposta de 0.03ms e Taxa de Atualiza&amp;ccedil;&amp;atilde;o de 240Hz&lt;/h2&gt;
+&lt;p&gt;Desvie, ataque e contra-ataque mais r&amp;aacute;pido! A tecnologia OLED oferece um &lt;strong&gt;tempo de resposta de 0.03ms&lt;/strong&gt; para rea&amp;ccedil;&amp;otilde;es quase instant&amp;acirc;neas. As conex&amp;otilde;es &lt;strong&gt;HDMI 2.1&lt;/strong&gt; e &lt;strong&gt;DisplayPort&lt;/strong&gt; proporcionam maior performance com a taxa de &lt;strong&gt;240Hz&lt;/strong&gt; de atualiza&amp;ccedil;&amp;atilde;o.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;AMD FreeSync Premium Pro&lt;/h2&gt;
+&lt;p&gt;Cenas de jogo complexas e com a&amp;ccedil;&amp;otilde;es r&amp;aacute;pidas agora s&amp;atilde;o projetadas de forma &lt;strong&gt;est&amp;aacute;vel&lt;/strong&gt; e &lt;strong&gt;sem quebras de imagem&lt;/strong&gt;.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Conectividade Vers&amp;aacute;til&lt;/h2&gt;
+&lt;p&gt;Tenha &lt;strong&gt;diversas op&amp;ccedil;&amp;otilde;es de entrada&lt;/strong&gt;. Conecte os seus dispositivos favoritos com o HDMI 2.1, DisplayPort e o USB Hub.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Alto-falante Embutido&lt;/h2&gt;
+&lt;p&gt;Mantenha seu setup livre da confus&amp;atilde;o de fios e caixinhas de som externas. Escute todos os detalhes do seu jogo sem precisar conectar outros equipamentos.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h3&gt;Compre agora no KaBuM!&lt;/h3&gt;</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Acer 27 LED Full HD Curvo, 165 Hz, 5ms, HDMI e DisplayPort, FreeSync Premium, VESA - ED270R</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Monitor Gamer Acer 27 LED Full HD Curvo, 165Hz, 5ms, HDMI e DisplayPort, FreeSync Premium, VESA&lt;/h2&gt;
+&lt;h2&gt;&amp;nbsp;&lt;/h2&gt;
+&lt;h2&gt;Crie e Projete com Precis&amp;atilde;o&lt;/h2&gt;
+&lt;p&gt;Desfrute de uma experi&amp;ecirc;ncia visual excepcional com este monitor&lt;strong&gt; ZeroFrame&lt;/strong&gt;. Ele foi projetado pensando nos profissionais e consumidores que desejam um monitor ergon&amp;ocirc;mico e robusto.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Sincronia Perfeita&lt;/h2&gt;
+&lt;p&gt;Esque&amp;ccedil;a as rupturas da tela durante jogos ou transmiss&amp;otilde;es de v&amp;iacute;deos. Com o&lt;strong&gt; Radeon FreeSync,&lt;/strong&gt; a sincroniza&amp;ccedil;&amp;atilde;o dos quadros do monitor &amp;eacute; muito mais eficiente, proporcionando uma experi&amp;ecirc;ncia visual mais suave, fluida e responsiva.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Ergonomia para seu Dia a Dia&lt;/h2&gt;
+&lt;p&gt;A robustez deste monitor vem de seu suporte ergon&amp;ocirc;mico e forte. A base firme de a&amp;ccedil;o inoxid&amp;aacute;vel possibilita inclinar a tela em at&amp;eacute; 20&amp;deg;, girar 360&amp;deg; e fazer &lt;strong&gt;ajustes de altura at&amp;eacute; 120 mm&lt;/strong&gt; sempre que quiser.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Tecnologia Blue Light Shield&lt;/h2&gt;
+&lt;p&gt;Equipados com a tecnologia Acer BluelightShield&amp;trade;, os monitores CB2 reduzem a emiss&amp;atilde;o de luz azul em at&amp;eacute; 54%. Sua&lt;strong&gt; tela de 23,8"&lt;/strong&gt; com o recurso Acer &lt;strong&gt;ComfyView&lt;/strong&gt; reflete menos luz e garante uma visualiza&amp;ccedil;&amp;atilde;o mais confort&amp;aacute;vel mesmo durante longos per&amp;iacute;odos de uso.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h3&gt;Aproveite essa oportunidade e adquira seu Monitor Gamer Acer no KaBuM!&lt;/h3&gt;</t>
+  </si>
+  <si>
+    <t>Monitor Gamer LG 29' IPS, Ultra Wide, 75 Hz, Full HD, FreeSync, 99% sRGB, HDMI/DisplayPort, VESA - 29UM69G-B</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Monitor Gamer LG LED 29&amp;acute; Ultrawide, Full HD, IPS, HDMI/Display Port, FreeSync, Som Integrado, 1ms - 29UM69G-B&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Monitor Asus ROG Swift 27, 360Hz, 1ms, HDMI e DisplayPort, 135% sRGB, HDR, G-Sync, Altura Ajustável, VESA - PG27AQN</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;ROG Swift 360Hz PG27AQN NVIDIA G-SYNC esports Gaming Monitor QHD de 27 polegadas (2560 x 1440), NVIDIA Reflex Analyzer, Ultrafast IPS, esports dual-mode, 1 ms (GTG), DisplayHDR 600&lt;/h2&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h3&gt;Principais Recursos&lt;/h3&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;Monitor de jogos IPS ultrarr&amp;aacute;pido QHD (2560 x 1440) de 27 polegadas com taxa de atualiza&amp;ccedil;&amp;atilde;o de 360 ??Hz, projetado para jogadores profissionais.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;O processador NVIDIA G-SYNC oferece jogos suaves e sem falhas em at&amp;eacute; 360 Hz.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;O NVIDIA Reflex Analyzer oferece uma medi&amp;ccedil;&amp;atilde;o precisa da lat&amp;ecirc;ncia do sistema.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;A tecnologia ASUS Ultrafast IPS permite o tempo de resposta mais r&amp;aacute;pido de todos os monitores 1440p.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;O modo duplo Esports permite que o monitor redimensione os visuais para a familiar diagonal de 25 polegadas em 1080p ou 2368 x 1332 mais r&amp;aacute;pido do mundo 1440p Monitor de jogos esports.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;O ROG Swift 360Hz PG27AQN &amp;eacute; o monitor de jogos de esports perfeito para jogos FPS de ritmo acelerado como VALORANT, Fortnite, Apex Legends e CS: GO. Este monitor QHD (2560 x 1440) apresenta tecnologia de painel IPS ultrarr&amp;aacute;pida que suporta imagens de at&amp;eacute; 360 Hz e um processador NVIDIA G-SYNC para jogabilidade suave com realismo incompar&amp;aacute;vel.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h3&gt;Tela QHD de 27 polegadas com 3% de melhor mira&lt;/h3&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;Os pesquisadores da NVIDIA descobriram que, ao atirar em alvos pequenos, usar uma tela de 27 polegadas 1440p pode melhorar a mira em at&amp;eacute; 3% em compara&amp;ccedil;&amp;atilde;o com a reprodu&amp;ccedil;&amp;atilde;o em uma tela tradicional de 25 polegadas 1080p. Para jogadores competitivos, esses 3% podem significar a diferen&amp;ccedil;a entre vit&amp;oacute;ria e derrota.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h3&gt;Tecnologia IPS ultrarr&amp;aacute;pida&lt;/h3&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;Tr&amp;ecirc;s caracter&amp;iacute;sticas principais definem a tecnologia Ultrafast IPS que d&amp;aacute; ao PG27AQN o tempo de resposta mais r&amp;aacute;pido de qualquer monitor ROG j&amp;aacute; feito. Ele foi desenvolvido para acabar com o desfoque de movimento e oferecer aos jogadores uma clareza sem precedentes, mesmo nos campos de batalha din&amp;acirc;micos das competi&amp;ccedil;&amp;otilde;es atuais de e-sports.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Monitor Gamer HyperX Armada 25 Full HD, 240 Hz, 1ms, IPS, HDMI e DisplayPort, 99% DCI, HDR, G-Sync, Preto - 64V69AA</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Monitor Gamer HyperX Armada 25 Full HD&lt;/h2&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Taxa de atualiza&amp;ccedil;&amp;atilde;o de 240 Hz e tempo de resposta de 1 ms&lt;/h2&gt;
+&lt;p&gt;A r&amp;aacute;pida taxa de atualiza&amp;ccedil;&amp;atilde;o de &lt;strong&gt;240 Hz&lt;/strong&gt; e o tempo de resposta de &lt;strong&gt;1 ms&lt;/strong&gt; oferecem elementos gr&amp;aacute;ficos mais fluidos e mais responsivos, algo que pode dar a voc&amp;ecirc; uma vantagem na competi&amp;ccedil;&amp;atilde;o.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Suporte de mesa incluso&lt;/h2&gt;
+&lt;p&gt;N&amp;atilde;o passe seus dias procurando por um suporte compat&amp;iacute;vel! O Armada cuida disso com seu &lt;strong&gt;bra&amp;ccedil;o ergon&amp;ocirc;mico&lt;/strong&gt; e &lt;strong&gt;suporte de mesa resistentes&lt;/strong&gt;. Basta tocar na parte traseira e elevar seu monitor para liberar espa&amp;ccedil;o na mesa!&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Painel IPS de 1920x1080 e 24,5 polegadas&lt;/h2&gt;
+&lt;p&gt;Aproveite a incr&amp;iacute;vel qualidade de &lt;strong&gt;imagem full HD&lt;/strong&gt; com &lt;strong&gt;cores vibrantes&lt;/strong&gt; e precisas. O &lt;strong&gt;painel IPS&lt;/strong&gt; tem um visual incr&amp;iacute;vel mesmo em &amp;acirc;ngulos panor&amp;acirc;micos, tornando-o &amp;oacute;timo para setups com diversos monitores.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Compat&amp;iacute;vel com NVIDIA G-SYNC&lt;/h2&gt;
+&lt;p&gt;Livre-se dos irritantes rasgos de tela e mantenha a lat&amp;ecirc;ncia de entrada e intermit&amp;ecirc;ncia baixa gra&amp;ccedil;as &amp;agrave; &lt;strong&gt;NVIDIA G-SYNC&lt;/strong&gt; e sua taxa de atualiza&amp;ccedil;&amp;atilde;o vari&amp;aacute;vel.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h3&gt;Compre agora no KaBuM!&lt;/h3&gt;</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Asus ROG Swift 24.5' IPS, 360 Hz, Full HD, 1ms, G-Sync, Nvidia Reflex, ROG Desk Mount Kit, HDR 10, HDMI/DisplayPort - PG259QNR</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Monitor de jogos IPS r&amp;aacute;pido FHD (1920 x 1080) de 24,5 polegadas com taxa de atualiza&amp;ccedil;&amp;atilde;o de 360 ??Hz projetado para jogadores de esportes profissionais. O processador NVIDIA&amp;reg; G-SYNC&amp;reg; oferece jogos suaves e sem problemas com taxas de atualiza&amp;ccedil;&amp;atilde;o de at&amp;eacute; 360 Hz. O NVIDIA&amp;reg; Reflex Latency Analyzer oferece aos jogadores competitivos uma medi&amp;ccedil;&amp;atilde;o precisa da lat&amp;ecirc;ncia do sistema pela primeira vez. A tecnologia ASUS Fast IPS permite um tempo de resposta de 1 ms (GTG) para visuais n&amp;iacute;tidos de jogos com altas taxas de quadros. Inclui um kit de montagem em mesa ROG que pode ser preso na borda de qualquer superf&amp;iacute;cie de trabalho plana. Full HD (1920 X 1080) a sa&amp;iacute;da de 120 Hz no PS5 e Xbox Series X / S.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Acer 23.8' LED, 75 Hz, Full HD, 1ms, FreeSync, HDMI/VGA, VESA - KA242Y A</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Monitor Gamer Acer 23.8' LED&lt;/h2&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Acer Flicker-less&lt;/h2&gt;
+&lt;p&gt;A &lt;strong&gt;tela tr&amp;ecirc;mula&lt;/strong&gt; &amp;eacute; menos vis&amp;iacute;vel, mas causa fadiga ocular e at&amp;eacute; mesmo prejudica a sa&amp;uacute;de ocular, especialmente para os usu&amp;aacute;rios pesados de monitores, como programadores, escritores, estudantes ou designers gr&amp;aacute;ficos. &lt;strong&gt;Os monitores Acer Flicker-less&lt;/strong&gt; podem eliminar a tremula&amp;ccedil;&amp;atilde;o inc&amp;ocirc;moda da tela e fornecer uma experi&amp;ecirc;ncia de visualiza&amp;ccedil;&amp;atilde;o confort&amp;aacute;vel. 1ms &lt;strong&gt;Visual Response Boost (VRB)&lt;/strong&gt;, funciona desligando rapidamente a luz de fundo ou inserindo uma imagem em branco e preta entre os quadros, tamb&amp;eacute;m conhecida como (&lt;strong&gt;piscando&lt;/strong&gt;). Isso resulta em um desfoque menos percept&amp;iacute;vel em imagens em movimento r&amp;aacute;pido porque os cristais l&amp;iacute;quidos n&amp;atilde;o precisam dobrar nos quadros &amp;agrave; medida que sobem e descem.&lt;/p&gt;
+&lt;h2&gt;Possui Tecnologia Acer Ultra-Low Blue Light&lt;/h2&gt;
+&lt;p&gt;Com o &lt;strong&gt;AMD FreeSync&lt;/strong&gt;, a taxa de quadros do jogo &amp;eacute; determinada pela placa de v&amp;iacute;deo, n&amp;atilde;o pela taxa de atualiza&amp;ccedil;&amp;atilde;o fixa do monitor. Isso significa que os quadros do monitor s&amp;atilde;o sincronizados com os quadros da placa gr&amp;aacute;fica, o que elimina a tela quebrada e oferece experi&amp;ecirc;ncias de jogo muito suaves. A&lt;strong&gt; tecnologia Acer Ultra-Low Blue Light&lt;/strong&gt; reduz a quantidade de luz azul prejudicial emitida pelo painel &lt;strong&gt;LED&lt;/strong&gt;. Voc&amp;ecirc; pode acessar e selecionar quatro configura&amp;ccedil;&amp;otilde;es de filtro diferentes na tela facilmente por meio do menu &lt;strong&gt;OSD&lt;/strong&gt; para encontrar a melhor que se adapta &amp;agrave; tarefa em quest&amp;atilde;o.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h3&gt;Compre seu&amp;nbsp;Monitor Gamer Acer 23.8' LED aqui no KaBuM!&lt;/h3&gt;</t>
+  </si>
+  <si>
+    <t>Monitor Gamer AOC 27 Polegadas, Full HD, 240hz, 0.5ms, HDMI, DisplayPort, Freesync - C27G2ZE</t>
+  </si>
+  <si>
+    <t>Esteja no Centro da Aventura &lt;br /&gt;O Monitor Legend C27G2ZE tem um painel VA de 27'' e uma curvatura de 1500R. Possui uma taxa de atualização de 240Hz e um incrível tempo de resposta de 0.5ms. Perfeito para ter a máxima emoção em Qualquer tipo de jogo. &lt;br /&gt;&lt;br /&gt;Tela Curva de 1500R &lt;br /&gt;Seja envolvido pelo design curvo que te coloca no centro da ação e fornece uma experiência diferenciada em cada movimento. &lt;br /&gt;&lt;br /&gt;Taxa de Atualização de 240Hz &lt;br /&gt;Aproveite mais fluide na suas imagens. Cada detalhes é colocado em foco de forma nítida e os movimentos são mostrados com clareza, tudo para você sentir suas reações e ações se tornarem uma só e elevar o seu jogo. 0.5Ms de Tempo de Resposta Acabe de vez com os efeitos fantasmas com o tempo de resposta de 0.5ms. Tenha uma experiência aprimorada onde mesmo os movimentos mais rápidos e as trasições mais dramáticas são reproduzidas suavemente.</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Lg Ultragear 27 Polegadas,FULL  HdD144hz 1ms Ips, HDMI e Displayport</t>
+  </si>
+  <si>
+    <t>Monitor gamer lg ultragear, 27 full hd 144hz 1ms ips hdmi e displayport hdr 10 99% srgb, freesync premium vesa - 27gn65r o monitor gamer lg ultragear 27gn65r é uma opção de alta performance desenvolvida para atender às demandas dos jogadores mais exigentes. Com uma tela de 27 polegadas em resolução full hd (1920 x 1080), esse monitor oferece uma experiência visual imersiva com imagens nítidas e detalhadas. A velocidade é uma das principais características desse monitor, com um tempo de resposta ultra-rápido de 1ms (gtg), o que significa que as transições de cores são praticamente instantâneas, eliminando o efeito de arrasto nas imagens durante os jogos mais rápidos e intensos. Além disso, a taxa de atualização de 144hz proporciona uma jogabilidade mais fluida, permitindo que os jogadores vejam o próximo quadro rapidamente e tenham uma experiência de jogo mais suave. O painel ips do monitor garante ângulos de visão amplos e cores vibrantes, com suporte para 99% do espaço de cores srgb e tecnologia hdr10. Isso resulta em imagens mais realistas e ricas em detalhes, criando uma experiência de visualização imersiva para jogos, filmes e conteúdos em geral. O monitor gamer lg ultragear 27gn65r também é compatível com a tecnologia amd freesync premium e nvidia g-sync, que ajudam a eliminar o screen tearing e o stuttering durante os jogos, sincronizando a taxa de atualização do monitor com a taxa de quadros da placa gráfica para uma jogabilidade mais suave e sem interrupções. O design eletrizante e moderno do monitor complementa perfeitamente o setup gamer, enquanto a compatibilidade vesa permite a instalação em suportes ou braços para maior versatilidade. Se você busca uma experiência de jogo de alta performance com imagens fluidas, cores vívidas e tempos de resposta rápidos, o monitor gamer lg ultragear 27gn65r é uma escolha excelente para elevar seu entretenimento e desempenho nos jogos.   especificações: - marca: lg - modelo: 27gn65r     características: tela: - cor: preto - tamanho: 27” - tipo de tela: ips - ângulo de visão: 178º / 178º - resolução máxima: full hd (1920 x 1080) - brilho: 300 cd/m² - contraste: 1000:01 - tempo de resposta: 1ms (gtg) - taxa de atualização: 144hz - gama de cores: srgb 99% (típ.) - profundidade de cores (nº de cores): 16,7m - distância entre pixels: 0,3108 x 0,3108 mm - tratamento de tela: antirreflexivo   entradas e saídas: - hdmi: sim (v2.0) - displayport: sim (v1.4) - saída de fone de ouvido: sim   energia: - consumo de energia: 32w (típ.) - fonte: adaptador externo   ajustes: - ajustes de posição: inclinação, altura, pivô - tamanho da furação: 100 x 100 mm   recursos: - hdr: hdr10 - flicker safe: sim - amd freesync: freesync premium - nvidia g-sync: sim - modo leitura: sim - onscreen control: sim - motion blur reduction: sim - crosshair: sim - dynamic action sync: sim - black stabilizer: sim - plug &amp; play: sim</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Curvo Samsung Odyssey 34 Polegadas ultra WQHD, 165Hz, 1ms, HDMI, DP, Freesync, G5</t>
+  </si>
+  <si>
+    <t>A abrangente tela 1000R preenche toda a sua visão periférica e te coloca no lugar do personagem. A resolução Ultra-WQHD proporciona uma visão vasta e abrangente do mundo dos seus jogos com detalhes verdadeiramente realistas. O amplo tamanho da tela oferece pura imersão - eliminando a distração de bordas no meio e cabos bagunçados de um setup com dois monitores.A taxa de atualização ultra-rápida de 165Hz consegue lidar até mesmo com as cenas mais emocionantes e imagens super rápidas. AMD FreesSync Premium apresenta uma tecnologia de sincronização adaptável que reduz o travamento de tela, oscilação e atrasos. Um caleidoscópio de tonalidades dá vida às cenas dos seus jogos de forma mais vibrante do que nunca. Revele os segredos que se escondem nas sombras com pretos profundamente escuros, brancos luminosos e uma resolução incrivelmente detalhada.</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Asus TUF 23.6 Curvo Full HD, 165Hz, 1ms, HDMI e DisplayPort, Adaptive Sync, VESA - VG24VQE</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;O Monitor Gamer Asus 23.6&amp;acute; TUF Gaming VG24VQE &amp;eacute; uma tela curva Full HD (1920x1080) de 23,6 polegadas com uma taxa de atualiza&amp;ccedil;&amp;atilde;o ultrarr&amp;aacute;pida de 165Hz projetada para jogadores profissionais e aqueles que buscam uma jogabilidade envolvente&lt;/h2&gt;
+&lt;p&gt;Seu impressionante display curvo apresenta a &lt;strong&gt;tecnologia Adaptive-Sync (FreeSync Premium)&lt;/strong&gt;, para uma jogabilidade extremamente fluida sem tearing ou imagem tremida. Com Curvatura imersiva de 31.5 polegadas o Monitor &lt;strong&gt;Full HD de 23,6 polegadas (1920 x 1080)&lt;/strong&gt; do TUF Gaming VG24VQE oferece visuais impressionantes de todos os &amp;acirc;ngulos com uma curvatura de 1500R que fornece ao usu&amp;aacute;rio uma experi&amp;ecirc;ncia de jogo envolvente e cativante. Isso contribui para um maior conforto de visualiza&amp;ccedil;&amp;atilde;o, mesmo durante o uso prolongado e permite que voc&amp;ecirc; desfrute de um amplo &amp;acirc;ngulo de visualiza&amp;ccedil;&amp;atilde;o com menos distor&amp;ccedil;&amp;atilde;o e mudan&amp;ccedil;a de cor ao jogar e assistir filmes.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Taxa de Atualiza&amp;ccedil;&amp;atilde;o de 165Hz O Monitor Gamer Asus tem uma taxa de atualiza&amp;ccedil;&amp;atilde;o super-r&amp;aacute;pida de 165Hz, garantindo que mesmo os jogos mais r&amp;aacute;pidos jogados nas configura&amp;ccedil;&amp;otilde;es visuais mais altas tenham uma apar&amp;ecirc;ncia suave e completamente livre de lag&lt;/h2&gt;
+&lt;p&gt;Obtenha a vantagem em jogos de tiro em primeira pessoa, corrida, estrat&amp;eacute;gia em tempo real e t&amp;iacute;tulos de esportes. A mais recente &lt;strong&gt;tecnologia Extreme&lt;/strong&gt; &lt;strong&gt;Low Motion Blur&lt;/strong&gt; exclusiva da ASUS, que atinge 1ms de MPRT para eliminar manchas e borr&amp;otilde;es de movimento, e torna os objetos em movimento mais n&amp;iacute;tidos, para que a jogabilidade seja mais fluida e responsiva. Com a tecnologia &lt;strong&gt;ASUS Shadow Boost&lt;/strong&gt; esclarece as &amp;aacute;reas escuras do jogo sem superexpor as &amp;aacute;reas mais brilhantes, melhorando a visualiza&amp;ccedil;&amp;atilde;o geral enquanto facilita localizar inimigos escondidos em &amp;aacute;reas escuras do mapa.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h3&gt;Garanta j&amp;aacute; seu Monitor Gamer Asus aqui no KaBuM!&lt;/h3&gt;</t>
+  </si>
+  <si>
     <t>Monitor Gamer Duex 27 Polegadas, FULL HD, 1MS, 240Hz, Curvo, VA, Freesync, HDMI/Display Port, USB - Dx270zg</t>
   </si>
   <si>
     <t>Uma velocidade ultrarrápida de 240Hz e 1ms permite que os jogadores vejam o próximo quadro rapidamente e fazem com que a imagem apareça suavemente. Os jogadores podem responder rapidamente aos oponentes e mirar no alvo facilmente.</t>
   </si>
   <si>
-    <t>Monitor Gamer Acer Nitro Edo, 27 Polegadas, Full HD, 1MS, Curvo, VA, 180Hz, - Ed270r-S3biip</t>
-  </si>
-  <si>
-    <t>Características:&lt;br /&gt;-Marca:ACER&lt;br /&gt;-Modelo:ED270R-S3BIIP&lt;br /&gt;-Gtin:4711121617829&lt;br /&gt;-NCM:85285200&lt;br /&gt;-Filial:DF&lt;br /&gt;&lt;br /&gt; Especificações:&lt;br /&gt;Tamanho da tela:    27"&lt;br /&gt;Panorâmico:    Sim&lt;br /&gt;Tipo de exibição:    HD&lt;br /&gt;Tecnologia de sincronização adaptativa:    FreeSync (AMD Adaptive Sync)&lt;br /&gt;Resolução recomendada:    1920 x 1080&lt;br /&gt;Ângulo de visão:    178° (H) / 178° (V)&lt;br /&gt;Brilho:    250cd/m2&lt;br /&gt;Taxa de contraste:    100.000.000:1 (ACM)&lt;br /&gt;Tempo de resposta:    1 ms&lt;br /&gt;Exibir cores:    16,7 milhões&lt;br /&gt;Taxa de atualização:    180 Hz&lt;br /&gt;Tela de superfície curva:    Curvado&lt;br /&gt;Entradas:    1 x DisplayPort,2 x HDMI&lt;br /&gt;Ajustes de suporte:    Inclinação -5°~ 20°&lt;br /&gt;Alto-falantes integrados:    Não&lt;br /&gt;Compatibilidade VESA:    Montável 75x75mm&lt;br /&gt;Garantia total: 12 meses (contra defeitos de fabricação), 3 meses referentes à garantia legal, nos termos do artigo 26, II, do Código de Defesa do Consumidor + 9 meses de garantia do fabricante.</t>
-  </si>
-  <si>
-    <t>Monitor Gamer AOC 27 Polegadas, Full HD, 240hz, 0.5ms, HDMI, DisplayPort, Freesync - C27G2ZE</t>
-  </si>
-  <si>
-    <t>Esteja no Centro da Aventura &lt;br /&gt;O Monitor Legend C27G2ZE tem um painel VA de 27'' e uma curvatura de 1500R. Possui uma taxa de atualização de 240Hz e um incrível tempo de resposta de 0.5ms. Perfeito para ter a máxima emoção em Qualquer tipo de jogo. &lt;br /&gt;&lt;br /&gt;Tela Curva de 1500R &lt;br /&gt;Seja envolvido pelo design curvo que te coloca no centro da ação e fornece uma experiência diferenciada em cada movimento. &lt;br /&gt;&lt;br /&gt;Taxa de Atualização de 240Hz &lt;br /&gt;Aproveite mais fluide na suas imagens. Cada detalhes é colocado em foco de forma nítida e os movimentos são mostrados com clareza, tudo para você sentir suas reações e ações se tornarem uma só e elevar o seu jogo. 0.5Ms de Tempo de Resposta Acabe de vez com os efeitos fantasmas com o tempo de resposta de 0.5ms. Tenha uma experiência aprimorada onde mesmo os movimentos mais rápidos e as trasições mais dramáticas são reproduzidas suavemente.</t>
+    <t>Monitor Asus ROG Strix 29.5, IPS, 220Hz, 1ms, HDMI e DisplayPort, 110% sRGB, HDR, FreeSync Premium, Altura e Ângulo Ajustável, VESA - XG309CM</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Monitor Gaming ROG Strix XG309CM 29.5 polegadas 2560x1080, overclocking 220Hz (Acima de 144Hz), 1ms (GTG), Fast IPS, Extreme Low Motion Blur Sync, USB Type-C, 110% sRGB, compat&amp;iacute;vel com G-Sync, suporte KVM, Trip&amp;eacute; soquete&lt;/h2&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;Monitor de jogos HDR de 2560 x 1080 de 29.5" com taxa de atualiza&amp;ccedil;&amp;atilde;o ultrarr&amp;aacute;pida de 220 Hz (overclocking) projetado para jogadores profissionais e jogabilidade envolvente.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;A tecnologia ASUS Fast IPS permite um tempo de resposta de 1 ms (GTG) para visuais de jogos n&amp;iacute;tidos com altas taxas de quadros.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;A tecnologia ASUS Extreme Low Motion Blur Sync (ELMB SYNC) permite ELMB junto com taxa de atualiza&amp;ccedil;&amp;atilde;o vari&amp;aacute;vel, eliminando fantasmas e rasgos para visuais de jogos n&amp;iacute;tidos com altas taxas de quadros.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;O switch KVM permite controlar os dois dispositivos conectados usando apenas um teclado e mouse.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;Hub USB Type-C suporta transmiss&amp;atilde;o de v&amp;iacute;deo em sinal DisplayPort; pode servir como um hub USB, o que significa que voc&amp;ecirc; pode conectar seu dispositivo a seus perif&amp;eacute;ricos com fio com configura&amp;ccedil;&amp;atilde;o descomplicada.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h3&gt;Experimente a ultralarga&lt;/h3&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;O monitor de jogos ROG Strix XG309CM possui um painel ultra amplo de 29,5 polegadas 2560 x 1080 para que voc&amp;ecirc; desfrute de mais detalhes ao jogar ou assistir a filmes. Seu painel de formato 21:9 ultra amplo oferece mais espa&amp;ccedil;o na &amp;aacute;rea de trabalho na tela do que um monitor 16:9, portanto, h&amp;aacute; ainda mais espa&amp;ccedil;o para as v&amp;aacute;rias janelas de aplicativos na hora de trabalhar.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h3&gt;Tela GTG R&amp;Aacute;PIDA, RESPONSIVA E V&amp;Iacute;VIDA de 1 ms&lt;/h3&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;A tecnologia ASUS Fast IPS permite que o monitor ligue e desligue at&amp;eacute; quatro vezes mais r&amp;aacute;pido do que os pain&amp;eacute;is IPS convencionais, dando ao XG309CM um tempo de resposta GTG de 1 ms e pouca ou nenhuma mancha ou desfoque de movimento.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h3&gt;TAXA DE ATUALIZA&amp;Ccedil;&amp;Atilde;O INCRIVELMENTE R&amp;Aacute;PIDA DE 220 Hz (OC)&lt;/h3&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;Voc&amp;ecirc; experimentar&amp;aacute; visuais de jogo incrivelmente fluidos, dando a voc&amp;ecirc; vantagem em jogos de tiro em primeira pessoa, corrida, estrat&amp;eacute;gia em tempo real e t&amp;iacute;tulos esportivos.&lt;/p&gt;</t>
   </si>
   <si>
     <t>Monitor Acer 23.8 LED Full HD, 75Hz, 1ms, HDMI e VGA, Ajuste de Ângulo, FreeSync, VESA - CB242Y</t>
@@ -543,6 +866,178 @@
 &lt;h3&gt;Aproveite essa oportunidade e adquira seu Monitor Acer no KaBuM!&lt;/h3&gt;</t>
   </si>
   <si>
+    <t>Monitor Gamer Dahua Ultrawide 30 Polegadas, WFHD, 1ms, 200HZ,  DCR Inteligente Adaptive-sync, HDMI, Dp, Va, Preto - Dhi-lm30-e330ca</t>
+  </si>
+  <si>
+    <t>Monitor gamer ultrawide 30 wfhd 200hz 1ms dcr inteligente adaptive-sync hdmi dp va preto - dhi-lm30-e330ca&lt;br /&gt;&lt;br /&gt;  &lt;br /&gt;&lt;br /&gt;  curvatura r1500&lt;br /&gt;&lt;br /&gt;  ela oferece benefícios notáveis ao criar uma experiência de visualização mais envolvente para jogos, filmes e outras atividades multimídia. Ao envolver sutilmente o campo de visão do usuário, a curvatura r1500 contribui para uma sensação de profundidade e presença, criando uma experiência visual que vai além das limitações de um monitor plano tradicional.&lt;br /&gt;&lt;br /&gt;   &lt;br /&gt;&lt;br /&gt;  uma visão imersiva e impactante: &lt;br /&gt;&lt;br /&gt;  experimente a diferença com a tela curva r1500 de 30 polegadas, proporcionando uma experiência visual envolvente que eleva o entretenimento a um novo patamar. Cada detalhe ganha vida, tornando cada cena mais real e impactante.&lt;br /&gt;&lt;br /&gt;  &lt;br /&gt;&lt;br /&gt;  alto desempenho para jogos de elite: &lt;br /&gt;&lt;br /&gt;  seja o mestre do seu jogo com uma taxa de atualização incrível de 200hz e um tempo de resposta ultrarrápido de 1ms mprt. Não perca nenhum detalhe, capture cada movimento e aumente suas chances de vitória a cada jogada.&lt;br /&gt;&lt;br /&gt;  &lt;br /&gt;&lt;br /&gt;  chip dcr inteligente&lt;br /&gt;&lt;br /&gt;  o chip dcr inteligente no monitor lm30-e330ca oferece uma experiência visual avançada, ajustando-se dinamicamente para proporcionar contrastes vívidos, cores vibrantes e detalhes aprimorados. Essa tecnologia inovadora coloca a qualidade de imagem em um novo patamar, garantindo uma imersão visual excepcional em todas as suas atividades, desde jogos intensos até a visualização de conteúdo multimídia.&lt;br /&gt;&lt;br /&gt;  &lt;br /&gt;&lt;br /&gt;  tecnologia adaptive-sync&lt;br /&gt;&lt;br /&gt;  suavidade visual sem compromissos: &lt;br /&gt;&lt;br /&gt;  reduza a perda de qualidade de imagem e melhore a fluidez visual com a tecnologia adaptive-sync. Jogue sem interrupções, experimentando transições suaves e uma performance imbatível.&lt;br /&gt;&lt;br /&gt;  &lt;br /&gt;&lt;br /&gt;  proporção de tela 21:9&lt;br /&gt;&lt;br /&gt;  uma experiência imersiva como nunca antes: &lt;br /&gt;&lt;br /&gt;  com uma proporção de tela de 21:9, mergulhe em uma experiência cinematográfica enquanto joga ou assiste aos seus filmes favoritos. Cada momento se desenrola em um panorama espetacular.&lt;br /&gt;&lt;br /&gt;  &lt;br /&gt;&lt;br /&gt;  conectividade versátil para seu setup ideal:&lt;br /&gt;&lt;br /&gt;  equipado com portas displayport 1.2 x2 e hdmi x2, o lm30-e330ca oferece uma conectividade versátil para atender às suas necessidades de entretenimento e produtividade.&lt;br /&gt;&lt;br /&gt;  &lt;br /&gt;&lt;br /&gt;  flexibilidade de visualização &lt;br /&gt;&lt;br /&gt;  ajuste conforme sua preferência: &lt;br /&gt;&lt;br /&gt;  incline o monitor de -5° a +20° para encontrar o ângulo perfeito que se adapte ao seu espaço e estilo de vida. Para maior versatilidade, a furação vesa 75x75mm permite a montagem na parede.&lt;br /&gt;&lt;br /&gt;  &lt;br /&gt;&lt;br /&gt;  &lt;br /&gt;&lt;br /&gt;  &lt;br /&gt;&lt;br /&gt;  especificações:&lt;br /&gt;&lt;br /&gt;  &lt;br /&gt;&lt;br /&gt;  resolução&lt;br /&gt;&lt;br /&gt;  30  2560x1080 va&lt;br /&gt;&lt;br /&gt;  &lt;br /&gt;&lt;br /&gt;  curvatura&lt;br /&gt;&lt;br /&gt;  1500r&lt;br /&gt;&lt;br /&gt;  &lt;br /&gt;&lt;br /&gt;  taxa de atualização&lt;br /&gt;&lt;br /&gt;  200hz&lt;br /&gt;&lt;br /&gt;  &lt;br /&gt;&lt;br /&gt;  recursos&lt;br /&gt;&lt;br /&gt;  adaptive-sync&lt;br /&gt;&lt;br /&gt;  &lt;br /&gt;&lt;br /&gt;  interfaces/portas&lt;br /&gt;&lt;br /&gt;  displayport 1.2 x2, hdmi x2&lt;br /&gt;&lt;br /&gt;  &lt;br /&gt;&lt;br /&gt;  inclinação&lt;br /&gt;&lt;br /&gt;  -5°+/-2° - 20°+/-2&lt;br /&gt;&lt;br /&gt;  &lt;br /&gt;&lt;br /&gt;  ângulo de visão&lt;br /&gt;&lt;br /&gt;  178°(h)/178°(v)&lt;br /&gt;&lt;br /&gt;  &lt;br /&gt;&lt;br /&gt;  brilho&lt;br /&gt;&lt;br /&gt;  250 nits&lt;br /&gt;&lt;br /&gt;  &lt;br /&gt;&lt;br /&gt;  backlight&lt;br /&gt;&lt;br /&gt;  led&lt;br /&gt;&lt;br /&gt;  &lt;br /&gt;&lt;br /&gt;  tempo de resposta&lt;br /&gt;&lt;br /&gt;  mprt 1ms&lt;br /&gt;&lt;br /&gt;  &lt;br /&gt;&lt;br /&gt;  furação vesa&lt;br /&gt;&lt;br /&gt;  75x75mm&lt;br /&gt;&lt;br /&gt;  &lt;br /&gt;&lt;br /&gt;  imagens de caráter ilustrativo&lt;br /&gt;&lt;br /&gt;  &lt;br /&gt;&lt;br /&gt;  informações divulgadas de acordo com o manual do fabricante&lt;br /&gt;&lt;br /&gt;  &lt;br /&gt;&lt;br /&gt;  produto novo na caixa, lacrado com nf e garantia do fabricante de 3 anos.&lt;br /&gt;&lt;br /&gt;  &lt;br /&gt;&lt;br /&gt;  em caso de dúvidas sobre informações técnicas, utilização, limitações e manuseio do produto, verifique o manual do fabricante.&lt;br /&gt;&lt;br /&gt;  &lt;br /&gt;&lt;br /&gt;  nac012091&lt;br /&gt;&lt;br /&gt;  ean6923172579119</t>
+  </si>
+  <si>
+    <t>Monitor Gamer AOC Speed 23.8' IPS, Wide, 75 Hz, Full HD, 1ms, Adaptive Sync, VESA, HDMI/VGA - 24G2HE5</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Monitor Gamer AOC Speed 23,8&amp;acute; Monitor Gamer te d&amp;aacute; detalhes Jogue para valer com o monitor Speed 24, com uma taxa de atualiza&amp;ccedil;&amp;atilde;o que elimina a possibilidade de borr&amp;otilde;es na tela e Painel IPS que oferece cores mais fi&amp;eacute;is e &amp;oacute;timo &amp;acirc;ngulo de vis&amp;atilde;o. Desenvolvido para suportar todas as emo&amp;ccedil;&amp;otilde;es dos seus jogos, o incr&amp;iacute;vel tempo de resposta de 1ms oferece alta velocidade, defini&amp;ccedil;&amp;atilde;o e muita suavidade em todos os seus movimentos. Elimine a possibilidade de borr&amp;otilde;es e lags na tela e atinja todo o potencial em seus jogos com uma taxa de atualiza&amp;ccedil;&amp;atilde;o de 75Hz. Suas maratonas ser&amp;atilde;o livres de tremores, com uma suavidade surpreendente. Recursos centrados nos jogadores A tecnologia Adaptive Sync reduz cortes e repeti&amp;ccedil;&amp;otilde;es de imagens, que ocorrem devido a diferen&amp;ccedil;a entre quadros gr&amp;aacute;ficos e a taxa de atualiza&amp;ccedil;&amp;atilde;o do monitor. Assim, voc&amp;ecirc; vai experimentar movimentos fluidos e enxergar&amp;aacute; as cenas de uma forma muito mais pura. Aproveite as vantagens de ter um Painel IPS em seu monitor gamer e enxergue os inimigos mesmo em cenas com pouca ilumina&amp;ccedil;&amp;atilde;o. Essa avan&amp;ccedil;ada tecnologia oferece as melhores cores sem comprometer a velocidade, al&amp;eacute;m de entregar um &amp;oacute;timo &amp;acirc;ngulo de vis&amp;atilde;o para voc&amp;ecirc; curtir ainda mais seus jogos. Este diferencial controla os n&amp;iacute;veis de cinza no menu do monitor para melhorar a rela&amp;ccedil;&amp;atilde;o de contraste em telas escuras e proporcionar as melhores cenas, sempre. Melhore a precis&amp;atilde;o e a velocidade das suas jogadas com o recurso modo mira: uma mira vermelha posicionada no centro da tela para voc&amp;ecirc; se tornar o melhor atirador da partida. Garanta j&amp;aacute; seu Monitor Gamer AOC aqui no KaBuM!&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Samsung Odyssey G6 Curvo 27 LED 2K QHD, 240 Hz, 1ms, HDMI e DisplayPort, HDR, FreeSync Premium - LS27BG650ELXZD</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Monitor Gamer Curvo Samsung Odyssey 27", Plataforma Tizen, Resolu&amp;ccedil;&amp;atilde;o QHD e um Display HDR 600, Taxa de atualiza&amp;ccedil;&amp;atilde;o de 240 Hz com tempo de resposta de 1 ms e AMD FreeSync Premium Pro&lt;/h2&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h3&gt;Impulsione sua realidade com a resolu&amp;ccedil;&amp;atilde;o QHD&lt;/h3&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;Seu mundo dos jogos mais realista do que nunca. 1.7 vezes mais pixels do que uma tela Full HD, a resolu&amp;ccedil;&amp;atilde;o QHD apresenta imagens incrivelmente detalhadas. Experimente uma vis&amp;atilde;o mais completa com mais espa&amp;ccedil;o para todos os seus jogos.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h3&gt;Revele todos os detalhes ocultos com display HDR 600&lt;/h3&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;Revele todos os detalhes. DisplayHDR 600 proporciona mais contraste, com pretos mais profundos e brancos mais brilhantes para ajud&amp;aacute;-lo a descobrir inimigos ou segredos escondidos nas sombras. Mesmo em cenas escuras, cada detalhe brilha com clareza.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h3&gt;Reaja em tempo real - Taxa de atualiza&amp;ccedil;&amp;atilde;o de 240 Hz &amp;amp; tempo de resposta de 1ms&lt;/h3&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;Velocidade nas cenas. A taxa de atualiza&amp;ccedil;&amp;atilde;o de 240 Hz elimina o atraso para uma jogabilidade emocionante com a&amp;ccedil;&amp;atilde;o ultra-suave. Ataque os inimigos logo ao v&amp;ecirc;-los com um tempo de resposta de 1ms e quadros sem borr&amp;atilde;o.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h3&gt;Foco sem nunca quebrar o fluxo - FreeSync Premium Pro&lt;/h3&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;Jogabilidade sem esfor&amp;ccedil;o e suave. O AMD FreeSync Premium Pro apresenta tecnologia de sincroniza&amp;ccedil;&amp;atilde;o adaptativa que reduz o rasgo da tela, a quebra de imagem e a lat&amp;ecirc;ncia de entrada. A compensa&amp;ccedil;&amp;atilde;o de baixa taxa de quadros garante que cada cena flua sem problemas.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h3&gt;Onde os jogos se unem no Samsung Gaming Hub&lt;/h3&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;O melhor dos jogos, tudo em um s&amp;oacute; lugar. O Samsung Gaming Hub permite acesso instant&amp;acirc;neo aos melhores servi&amp;ccedil;os de jogos na nuvem, seus consoles favoritos e seu PC. Visuais suaves e jogabilidade responsiva s&amp;atilde;o alimentados pela avan&amp;ccedil;ada tecnologia de streaming de jogos sem downloads ou limites de armazenamento - basta ligar e jogar.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h3&gt;Seus shows favoritos em seu espa&amp;ccedil;o - Experi&amp;ecirc;ncia de Smart TV&lt;/h3&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;Fa&amp;ccedil;a uma pausa nas sess&amp;otilde;es de maratona de jogos e se atualize nas suas s&amp;eacute;ries favoritas, com apenas uma simples conex&amp;atilde;o Wi-Fi. A Samsung TV Plus oferece conte&amp;uacute;do ao vivo gratuito, sem downloads ou inscri&amp;ccedil;&amp;otilde;es, bem como recomenda&amp;ccedil;&amp;otilde;es de conte&amp;uacute;do personalizado do Guia Universal.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h3&gt;Extrapole seus sentidos - Curvatura de 1000R&lt;/h3&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;Seja envolvido pela a&amp;ccedil;&amp;atilde;o. Experimente o pr&amp;oacute;ximo n&amp;iacute;vel de jogo que &amp;eacute; superior a qualquer coisa que voc&amp;ecirc; j&amp;aacute; tenha visto antes. A tela 1000R preenche sua vis&amp;atilde;o perif&amp;eacute;rica e o coloca no lugar do personagem.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Monitor LG Ergo DualUp 28 SDQHD, 60Hz, Nano IPS, HDMI e USB-C, HDR 10, Ajuste de Altura, Som Integrado, VESA, PBP  - 28MQ780</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Monitor LG Ergo DualUp 28&amp;nbsp;SDQHD&lt;/h2&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Perfeito para co-working!&lt;/h2&gt;
+&lt;p&gt;Com o novo monitor &lt;strong&gt;LG Ergo&lt;/strong&gt; &lt;strong&gt;DualUp 28MQ780&lt;/strong&gt; voc&amp;ecirc; &amp;eacute; capaz de visualizar a imagem de at&amp;eacute; 2 dispositivos diferentes na mesma tela, simult&amp;acirc;neamente, usando o recurso PBP (Picture by picture). Aumente a produtividade e sinergia do seu local de trabalho.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Equipado com Alto-Falantes est&amp;eacute;reo&lt;/h2&gt;
+&lt;p&gt;Desfrute de uma experi&amp;ecirc;ncia imersiva com os alto-falantes integrados de 7W MaxxAudio&amp;reg;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Amplos Ajustes de Posi&amp;ccedil;&amp;atilde;o&lt;/h2&gt;
+&lt;p&gt;A m&amp;aacute;xima flexibilidade do suporte Ergo* oferece a &lt;strong&gt;possibilidade de ajustes amplos&lt;/strong&gt; de posi&amp;ccedil;&amp;atilde;o como extens&amp;atilde;o, retra&amp;ccedil;&amp;atilde;o, rota&amp;ccedil;&amp;atilde;o, piv&amp;ocirc;, altura e inclina&amp;ccedil;&amp;atilde;o, proporcionando a posi&amp;ccedil;&amp;atilde;o perfeita da tela para uma experi&amp;ecirc;ncia mais confort&amp;aacute;vel de uso.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;F&amp;aacute;cil controle e conectividade&lt;/h2&gt;
+&lt;p&gt;A porta &lt;strong&gt;USB Tipo-C&lt;/strong&gt; permite desde a visualiza&amp;ccedil;&amp;atilde;o e transfer&amp;ecirc;ncia de dados at&amp;eacute; o carregamento do dispositivo conectado (&lt;strong&gt;at&amp;eacute; 90W&lt;/strong&gt;), oferecendo suporte para seu laptop ao mesmo tempo, em um &amp;uacute;nico cabo.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h3&gt;Compre agora no KaBuM!&lt;/h3&gt;</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Samsung Odyssey 49 QLED, 120 Hz, Ultra Wide, DQHD, HDMI/DisplayPort, 125% sRGB, HDR 1000, Ajuste de Ângulo - LC49RG90SSLXZD</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Monitor Gamer Curvo Samsung Odyssey RG90 49", DQHD, tela super ultrawide, 120Hz, HDMI, DP, USB, Freesync, com ajuste de altura, preto, s&amp;eacute;rie RG90&lt;/h2&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;A resolu&amp;ccedil;&amp;atilde;o dual QHD 5120 x 1440 da CRG9 fornece uma propor&amp;ccedil;&amp;atilde;o de tela super ampla que lhe permite visualizar mais conte&amp;uacute;do em detalhes minuciosos. Com espa&amp;ccedil;o de tela equivalente a duas telas QHD de 27 polegadas lado a lado, o monitor curvo de 49 polegadas proporciona uma vis&amp;atilde;o mais ampla para ganhar o jogo.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;Com uma propor&amp;ccedil;&amp;atilde;o super ultra-wide de 32:9, o CRG9 se curva em torno de seu campo de vis&amp;atilde;o para imergir voc&amp;ecirc; em toda a a&amp;ccedil;&amp;atilde;o de jogo na tela. HDR1000 suporta um brilho m&amp;aacute;ximo de 1.000 nits para um verdadeiro high dynamic range (conte&amp;uacute;do HDR). E com a tecnologia QLED da Samsung fornecendo DCI-P3 95%, as cores s&amp;atilde;o mais puras, mais brilhantes e mais pr&amp;oacute;ximas a realidade do que nunca.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;Jogabilidade f&amp;aacute;cil e sem esfor&amp;ccedil;o. AMD FreeSync Premium apresenta tecnologia de sincroniza&amp;ccedil;&amp;atilde;o adaptativa que reduz atraso da tela, rasgos de imagem e a lat&amp;ecirc;ncia de entrada, assegurando assim que cada cena flua sem interrup&amp;ccedil;&amp;otilde;es. A r&amp;aacute;pida taxa de atualiza&amp;ccedil;&amp;atilde;o da tela de 120Hz minimiza o atraso da imagem e o desfoque do movimento para um jogo mais suave. As configura&amp;ccedil;&amp;otilde;es de 60 Hz de f&amp;aacute;cil utiliza&amp;ccedil;&amp;atilde;o permitem otimizar rapidamente o desempenho atrav&amp;eacute;s do display na tela sem ter que acessar o menu de configura&amp;ccedil;&amp;atilde;o do display.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;O monitor otimizado para jogos &amp;eacute; projetado para permitir que voc&amp;ecirc; jogue para vencer. Ative o Modo de Jogo para ajustar instantaneamente as configura&amp;ccedil;&amp;otilde;es de contraste e cor para qualquer g&amp;ecirc;nero de jogo, mude para o Modo Low Input Lag para tempos de resposta ainda mais r&amp;aacute;pidos e mire seus inimigos com mais precis&amp;atilde;o com o Virtual Aim Point na mira da tela.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Asus TUF 23.8 LED Full HD, 1ms, 165 Hz, FreeSync Premium, HDMI/DisplayPort, Som Integrado, Extreme Low Motion Blue - VG247Q1A</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Monitor de jogos TUF Gaming VG247Q1A&amp;nbsp;&lt;/h2&gt;
+&lt;p&gt;Monitor&amp;nbsp;Gamer &lt;strong&gt;Full HD&lt;/strong&gt; (1920x1080) de &lt;strong&gt;23.8"&lt;/strong&gt; com &lt;strong&gt;taxa de atualiza&amp;ccedil;&amp;atilde;o ultrarr&amp;aacute;pida de 165 Hz&lt;/strong&gt; projetado para jogadores profissionais e jogabilidade envolvente.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;A tecnologia &lt;strong&gt;ASUS Extreme Low Motion Blur&lt;/strong&gt; (ELMB) permite um tempo de resposta de &lt;strong&gt;1 ms&lt;/strong&gt; (MPRT) junto com a sincroniza&amp;ccedil;&amp;atilde;o adaptativa,&lt;strong&gt; eliminando fantasmas&lt;/strong&gt; e tearing para &lt;strong&gt;visuais n&amp;iacute;tido&lt;/strong&gt;s de jogos com &lt;strong&gt;altas taxas de quadros&lt;/strong&gt;.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Todos os fundamentos para jogos&lt;/h2&gt;
+&lt;p&gt;O &lt;strong&gt;TUF Gaming VG247Q1A&lt;/strong&gt; &amp;eacute; um monitor &lt;strong&gt;Full HD de 23,8 polegadas&lt;/strong&gt; (1920 x 1080) com uma taxa de &lt;strong&gt;atualiza&amp;ccedil;&amp;atilde;o ultrarr&amp;aacute;pida&lt;/strong&gt; de &lt;strong&gt;165Hz&lt;/strong&gt;.&amp;nbsp;Projetado para jogadores e outros que buscam uma jogabilidade imersiva, oferece algumas especifica&amp;ccedil;&amp;otilde;es s&amp;eacute;rias.&amp;nbsp;Mas h&amp;aacute; mais...&lt;br /&gt;A sua fun&amp;ccedil;&amp;atilde;o &lt;strong&gt;ELMB&lt;/strong&gt; exclusiva apresenta um &lt;strong&gt;tempo de resposta&lt;/strong&gt; &lt;strong&gt;MPRT de 1 ms&lt;/strong&gt; e &lt;strong&gt;tecnologia FreeSync Premium&lt;/strong&gt;, para uma jogabilidade extremamente fluida sem travas&lt;/p&gt;
+&lt;h2&gt;&lt;br /&gt;Tela Full HD de 23,8 Polegadas&lt;/h2&gt;
+&lt;p&gt;O &lt;strong&gt;Full HD de 23,8 polegadas&lt;/strong&gt; (1920 x 1080) do &lt;strong&gt;TUF Gaming VG247Q1A&lt;/strong&gt; oferece visuais impressionantes de todos os &amp;acirc;ngulos com amplos &lt;strong&gt;&amp;acirc;ngulos de vis&amp;atilde;o de 178 graus&lt;/strong&gt;, garantindo distor&amp;ccedil;&amp;atilde;o e mudan&amp;ccedil;a de cor m&amp;iacute;nimas, mesmo quando voc&amp;ecirc; estiver visualizando de posi&amp;ccedil;&amp;otilde;es extremas.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;div&gt;
+&lt;h2&gt;Taxa de atualiza&amp;ccedil;&amp;atilde;o super-r&amp;aacute;pida de 165Hz&lt;/h2&gt;
+&lt;/div&gt;
+&lt;p&gt;A &lt;strong&gt;taxa de atualiza&amp;ccedil;&amp;atilde;o de 165Hz&lt;/strong&gt; &lt;strong&gt;elimina o atraso&lt;/strong&gt; e o desfoque de movimento para dar a voc&amp;ecirc; a vantagem em jogos de tiro em primeira pessoa, corridas, estrat&amp;eacute;gia em tempo real e t&amp;iacute;tulos esportivos.&amp;nbsp;Essa taxa de atualiza&amp;ccedil;&amp;atilde;o ultrarr&amp;aacute;pida permite que voc&amp;ecirc; jogue nas configura&amp;ccedil;&amp;otilde;es visuais mais altas e reaja instantaneamente ao que est&amp;aacute; na tela.&lt;/p&gt;
+&lt;p&gt;* Algumas placas gr&amp;aacute;ficas/GPUs podem suportar sa&amp;iacute;da de fonte gr&amp;aacute;fica de &lt;strong&gt;165Hz&lt;/strong&gt; (via DisplayPort).&amp;nbsp;Observe que esse desempenho depende da GPU ou do conte&amp;uacute;do exibido.&amp;nbsp;O desempenho real no mundo real depende do hardware.&lt;/p&gt;
+&lt;h3&gt;&lt;br /&gt;&lt;a href="https://www.kabum.com.br/computadores/monitores/gamers"&gt;Monitor Gamer&lt;/a&gt;&amp;nbsp;&amp;eacute; no KaBuM!&lt;/h3&gt;</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Acer Nitro 31.5p Curvo, Full HD, 165Hz - Ed320qr S3biipx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;b&gt;Monitor Gamer Acer Nitro Ed0 31,5" Led 165hz 1ms Hdmi Vesa Displayport Preto - Um.Je0aa.302&lt;/b&gt;  &lt;br /&gt;&lt;br /&gt;O monitor gamer acer 31,5" led é uma escolha excepcional para entusiastas de jogos que buscam uma experiência imersiva e reativa. Com um tamanho generoso de 31,5 polegadas e um raio de visualização de 1500mm, este monitor curvo da série nitro ed320qr s3biipx oferece uma tela envolvente, proporcionando uma verdadeira sensação de imersão em seus jogos favoritos. Com uma resolução máxima de full hd 1920 x 1080 e uma taxa de atualização de impressionantes 165hz, este monitor garante uma reprodução de imagem suave e sem interrupções, permitindo que você aproveite jogos intensos com movimentos rápidos. O tempo de resposta de 1 ms vrb (visual response boost) elimina o desfoque de movimento, garantindo que cada ação seja representada com precisão na tela. Além de seu desempenho impressionante, o monitor apresenta um design elegante com uma moldura zero frame, proporcionando uma experiência de visualização sem distrações. Com uma tela antirreflexa e um amplo ângulo de visão de 178° tanto na horizontal quanto na vertical, você pode desfrutar de imagens nítidas e claras de praticamente qualquer posição. Este monitor é equipado com várias opções de conectividade, incluindo 2x portas hdmi (2.0), 1x porta displayport (1.2), além de uma saída de áudio e entrada de alimentação. A montagem vesa de 100 x 100 mm oferece a flexibilidade de montar o monitor na parede, liberando espaço em sua mesa. Embora não tenha ajuste de altura, pivô ou rotação, o monitor pode ser inclinado de -5° a aproximadamente 20° para encontrar o ângulo de visão ideal para sua configuração. Com seu desempenho robusto, taxa de atualização incrivelmente rápida e design elegante, o monitor gamer acer 31,5" led é uma escolha excelente para gamers que buscam qualidade e inclusão em um único pacote.       </t>
+  </si>
+  <si>
+    <t>Monitor Gamer Acer Nitro, 34 curva Quad HD, 165Hz, 1ms, DisplayPort e HDMI, HDR400, FreeSync - XZ342CU</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Monitor Gamer Curvo Acer Nitro, 34"&lt;/h2&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;Tempo de resposta &lt;strong&gt;1ms&lt;/strong&gt; VRB Visual Response Boost com baixa lat&amp;ecirc;ncia 1 ms VRB com &lt;strong&gt;baixa lat&amp;ecirc;ncia sem ru&amp;iacute;dos&lt;/strong&gt; no tempo de resposta das imagens, melhora a experi&amp;ecirc;ncia do jogador. N&amp;atilde;o importa a a&amp;ccedil;&amp;atilde;o em movimento r&amp;aacute;pido ou quaisquer transi&amp;ccedil;&amp;otilde;es dram&amp;aacute;ticas, tudo ser&amp;aacute; reproduzido suavemente, sem os efeitos irritantes de manchas ou fantasmas.&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Tela Curva&lt;/h2&gt;
+&lt;p&gt;A&lt;strong&gt; tela curva 21:9&lt;/strong&gt; envolve voc&amp;ecirc; em um mundo de entretenimento com todos os cantos da tela &amp;agrave; mesma dist&amp;acirc;ncia de seus olhos para uma experi&amp;ecirc;ncia de visualiza&amp;ccedil;&amp;atilde;o uniforme sem pontos cegos.&lt;/p&gt;
+&lt;p&gt;Taxa de atualiza&amp;ccedil;&amp;atilde;o de at&amp;eacute; &lt;strong&gt;165 Hz&lt;/strong&gt; (modo overclock utilizando DisplayPort) A taxa de atualiza&amp;ccedil;&amp;atilde;o de at&amp;eacute; 165Hz acelera os quadros por segundo para fornecer cenas de movimento ultrassuaves. Com uma taxa de atualiza&amp;ccedil;&amp;atilde;o r&amp;aacute;pida de at&amp;eacute; 165Hz, os Monitores Acer reduzem o tempo necess&amp;aacute;rio para renderiza&amp;ccedil;&amp;atilde;o de quadros, menor atraso de entrada e proporcionam aos jogadores uma excelente experi&amp;ecirc;ncia no jogo.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Tela Curva&lt;/h2&gt;
+&lt;p&gt;A tela curva 21:9 envolve voc&amp;ecirc; em um mundo de entretenimento com todos os cantos da tela &amp;agrave; mesma dist&amp;acirc;ncia de seus olhos para uma experi&amp;ecirc;ncia de visualiza&amp;ccedil;&amp;atilde;o uniforme sem pontos cegos.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Picture in Picture&lt;/h2&gt;
+&lt;p&gt;A&lt;strong&gt; fun&amp;ccedil;&amp;atilde;o PIP (Picture in Picture)&lt;/strong&gt; separa a tela em duas partes, mostrando dois conte&amp;uacute;dos distintos, por&amp;eacute;m vindos de um &amp;uacute;nico dispositivo de origem.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h3&gt;Compre agora no KaBuM!&lt;/h3&gt;</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Concordia PCFort 27 LED Full HD, 165Hz, 1ms, HDMI e DisplayPort, DVI, FreeSync, Ajuste de Ângulo - T2701</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Monitor Gamer Concordia PCFort 27 LED Full HD&lt;/h2&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;O mais novo Monitor Gamer PCFort T2701-165 &amp;eacute; a melhor escolha para seus games!&lt;/h2&gt;
+&lt;p&gt;Com taxa de atualiza&amp;ccedil;&amp;atilde;o de &lt;strong&gt;165Hz&lt;/strong&gt; e tempo de resposta de 1ms, tudo isso em uma incr&amp;iacute;vel tela de &lt;strong&gt;27&amp;rdquo;&lt;/strong&gt;, resolu&amp;ccedil;&amp;atilde;o &lt;strong&gt;FullHD de 1920x1080&lt;/strong&gt;, com painel VA e &lt;strong&gt;tecnologia FreeSync&lt;/strong&gt; para entregar imagens sincronizadas e com excelente qualidade.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;O Monitor Gamer PCFort T2701-165 &amp;eacute; preparado para atender todas as suas necessidades, podendo ser utilizado com sua base ou em suportes devido a possuir &lt;strong&gt;VESA 75mm&lt;/strong&gt;, al&amp;eacute;m disto para tornar o monitor ainda mais completo, o mesmo possui conex&amp;atilde;o &lt;strong&gt;HDMI, DISPLAYPORT, DVI&lt;/strong&gt; e conex&amp;atilde;o para fones.&lt;/p&gt;
+&lt;p&gt;Com a sua sa&amp;iacute;da de &amp;aacute;udio o monitor se torna perfeito para uso em video-games al&amp;eacute;m de facilitar o uso em desktops.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h3&gt;Compre agora no KaBuM!&lt;/h3&gt;</t>
+  </si>
+  <si>
+    <t>Monitor Gamer BenQ Zowie XL2566K 24.5 Full HD, 360Hz, 1ms, HDMI e DisplayPort, Tecnologia DyAc - 9H.LKRLB.QBL</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Monitor Gamer BenQ Zowie XL2566K 24.5&lt;/h2&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;O XL2566K &amp;eacute; o modelo topo de linha que oferece aos jogadores competitivos uma &lt;strong&gt;suavidade otimizada&lt;/strong&gt; e uma &lt;strong&gt;resposta r&amp;aacute;pida&lt;/strong&gt;, bem como muitos recursos personaliz&amp;aacute;veis que ajudar&amp;atilde;o f&amp;atilde;s e profissionais a atingir o m&amp;aacute;ximo de suas capacidades. Com a &lt;strong&gt;tecnologia exclusiva DyAc&lt;/strong&gt;, al&amp;eacute;m de uma taxa de atualiza&amp;ccedil;&amp;atilde;o de &lt;strong&gt;360 Hz&lt;/strong&gt; em um painel TN, o XL2566K oferece uma clareza de movimento geral mais clara do que as ofertas de mercado em sua classe.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Claridade de Movimento&lt;/h2&gt;
+&lt;p&gt;O DyAc no XL2566K torna as a&amp;ccedil;&amp;otilde;es vigorosas no jogo, como movimenta&amp;ccedil;&amp;atilde;o mais claras. A clareza ajuda os jogadores a ver a posi&amp;ccedil;&amp;atilde;o do inimigo durante os movimentos r&amp;aacute;pidos ou objetivos que se movem rapidamente com mais facilidade e a notar a trajet&amp;oacute;ria da bala com melhor clareza, o que pode ajudar com o controle do recuo e da mira.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h3&gt;Compre agora no KaBuM!&lt;/h3&gt;</t>
+  </si>
+  <si>
+    <t>Monitor Gamer LG 27 polegadas Full HD, 240Hz, 1ms, IPS, DisplayPort, HDMI, USB, HDR10, Freesync, sRGB - 27GN750-B.AWZ</t>
+  </si>
+  <si>
+    <t>Monitor Gamer LG 27 UltraGear Full HD 240Hz 1ms HDMI DP IPS HDR10 Freesync - 27GN750-B.AWZ&lt;br /&gt;&lt;br /&gt;  ATENÇÃO: o produto não se trata de um monitor curvo e sim, de um monitor plano, com as mesmas especificações.&lt;br /&gt;&lt;br /&gt;Garanta a vitória com o novo Monitor Gamer LG UltraGear 27GN750. Tenha uma imersão de tirar o fôlego em uma tela IPS com tempo de resposta de 1ms única e 240Hz de frequência.  &lt;br /&gt;&lt;br /&gt;TEMPO DE RESPOSTA SURPREENDENTE&lt;br /&gt;Conheça a supreendente tela IPS com 1ms (GTG), com a velocidade máxima do monitor vença seus inimigos facilmente.  &lt;br /&gt;&lt;br /&gt;SEUS JOGOS COM MOVIMENTAÇÃO FLUIDA&lt;br /&gt;Os frames são renderizados perfeitamente, permitindo a jogabilidade suave e fluidez visual surreal. Os jogadores conseguem ver até mesmo os objetos com movimento nitidamente no meio da ação, garantido a ação perfeita e na hora exata.&lt;br /&gt;&lt;br /&gt;ALTA PERFOMANCE E QUALIDADE DE CORES SUPERIOR&lt;br /&gt;A tela IPS com 99 de gama de cores sRGB proporciona uma incrível precisão de cores e um ângulo de visualização muito mais amplo, criando cores com alta fidelidade e cenas mais realistas no campo de batalha e em seus filmes.  &lt;br /&gt;&lt;br /&gt;COMPATÍVEL COM NVIDIA G-SYNC&lt;br /&gt;O monitor LG UltraGear 27GN750 foi testado pela NVIDIA e recebe a compatibilidae com G-Sync, que permite uma jogabilidade mais rápida e suave, balanceada com o processamento da sua placa de vídeo NVIDIA, acabando com as imagens embaçadas e frames travados.&lt;br /&gt;  &lt;br /&gt;BLACK STABILIZER&lt;br /&gt;Com o Black Stabilizer, ataque ou se defenda dos seus inimigos nos esconderijos escuros. Ele permite uma experiência de jogo com nitidez melhorada nos locais escuros e também em situações com alta luminosidade como uma flashbang.</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Redragon Aquamarine 27 Polegadas, Full HD, 165hz, 1ms, HDMI e DisplayPort, FreeSync - GM27H2G</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Redragon Aquamarine Full HD 27" 165Hz 1ms - GM27H2G&lt;br /&gt;&lt;br /&gt;Características:&lt;br /&gt;- Marca: Redragon&lt;br /&gt;- Modelo: GM27H2G&lt;br /&gt;&lt;br /&gt;Especificações:&lt;br /&gt;- Tamanho da Tela: 27"&lt;br /&gt;- Tipo de Tela: VA &lt;br /&gt;- Contraste: 4000:1&lt;br /&gt;- Resolução: Full HD 1920 x 1080&lt;br /&gt;- Proporção da Tela: 16:9 (Widescreen)&lt;br /&gt;- Tempo de Resposta: 1ms&lt;br /&gt;- Taxa de Atualização: 165Hz&lt;br /&gt;- Voltagem: Bivolt Automático&lt;br /&gt;- Ângulo de Visão Horizontal: 178°&lt;br /&gt;- Ângulo de Visão Vertical: 178°&lt;br /&gt;&lt;br /&gt;Entradas:&lt;br /&gt;- HDMI&lt;br /&gt;- Display Port&lt;br /&gt;- Audio&lt;br /&gt;- USB&lt;br /&gt;&lt;br /&gt;Informações Ambientais:&lt;br /&gt;- Temperatura de Operação: 0°C ~ 40°C&lt;br /&gt;- Umidade Relativa de Operação: 10% ~ 90% (Não condensado)&lt;br /&gt;&lt;br /&gt;Informações Adicionais:&lt;br /&gt;- Adaptive-SYNC09:59 13/10/2022&lt;br /&gt;- Modo Game&lt;br /&gt;- EyeSaver&lt;br /&gt;- Luz Ambiente&lt;br /&gt;&lt;br /&gt;Conteúdo da Embalagem:&lt;br /&gt;- Monitor Gamer Redragon Aquamarine 27" 165Hz - GM27H2G&lt;br /&gt;- Fonte de Alimentação Bivolt&lt;br /&gt;- Cabo Display Port&lt;br /&gt;- Manual&lt;br /&gt;&lt;br /&gt;Obs: Não possuí alto-falantes</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Samsung With Quantum, DqHD Mini-led, 49 Polegadas - ls49ag950nlxzd</t>
+  </si>
+  <si>
+    <t>Aclamado pela crítica gamer“o visor quantum mini led no Samsung odyssey neo g9 é de longe um dos melhores que eu já vi em um monitor de jogos até hoje” - techaeris.aclamado pela crítica. Premiado. Reconhecido mundialmente. Inovação mundial em jogos aperfeiçoada pelo Samsung odyssey neo g9. Veja do que se trata o burburinho.uma nova era de imersão. Tecnologia quantum matrixuma experiência visual inigualável. a revolucionária tecnologia quantum matrix com quantum mini leds cria um brilho controlado e contraste perfeito para uma definição refinada. As zonas locais de escurecimento foram aumentadas para 2.048 e combinadas com os mais altos níveis de preto de 12 bits para criar uma qualidade de imagem única. Veja os detalhes, derrote seus inimigos quantum HDR 2000veja cada detalhe em toda a sua glória. De sombras a cenas esculpidas pelo sol, 2.000 nits de brilho e relação de contraste de 1.000.000:1 permitem uma melhor expressão de cores e profundidade. Obtenha uma vantagem competitiva enquanto joga jogos de Ray Tracing ao detectar inimigos ocultos usando seus reflexos. Double qhdo mundo do jogo de sua imaginação se tornou real. A tela de 49 polegadas com resolução dqHD traz uma tela tão ampla quanto dois monitores qHD lado a lado, com imagens incrivelmente detalhadas. Experimente uma visão abrangente com o máximo de espaço para realizar toda a ação.</t>
+  </si>
+  <si>
     <t>Monitor Gamer Philco 27 LED, Curvo R1800, 165 Hz, Full HD, 1ms, FreeSync, HDR 10, HDMI/DisplayPort - PMG27C900FG</t>
   </si>
   <si>
@@ -566,51 +1061,157 @@
 &lt;h3&gt;Aproveite essa oportunidade e adquira seu Monitor Gamer Curvo no KaBuM!&lt;/h3&gt;</t>
   </si>
   <si>
-    <t>Monitor Concórdia Gamer Curvo Cz270f200 27'' LED FULL HD, 200hz, 1ms, HDMI, DP, DVI</t>
-  </si>
-  <si>
-    <t>o monitor concórdia gamer curvo 27" 200hz entrega aos gamers uma experiência lisa, rápida e responsiva em todos os jogos. Experimente uma jogabilidade impecável com a taxa de atualização de tela 200 hz que garante imagens rápidas, suaves e movimentos nítidos, para nenhum detalhe passar despercebido. Com tela de 27", ultrarrápido e cheio de ótimos recursos para todos os tipos de jogos, a partir de agora seus momentos serão ainda mais insanos e sua experiência, impecável.conectividadehdmi: sim v1.4display port v1.2: sim acompanha cabo v1.2dvi: simphone: sim</t>
-  </si>
-  <si>
-    <t>Monitor Gamer Acer Nitro 31.5p Curvo, Full HD, 165Hz - Ed320qr S3biipx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;b&gt;Monitor Gamer Acer Nitro Ed0 31,5" Led 165hz 1ms Hdmi Vesa Displayport Preto - Um.Je0aa.302&lt;/b&gt;  &lt;br /&gt;&lt;br /&gt;O monitor gamer acer 31,5" led é uma escolha excepcional para entusiastas de jogos que buscam uma experiência imersiva e reativa. Com um tamanho generoso de 31,5 polegadas e um raio de visualização de 1500mm, este monitor curvo da série nitro ed320qr s3biipx oferece uma tela envolvente, proporcionando uma verdadeira sensação de imersão em seus jogos favoritos. Com uma resolução máxima de full hd 1920 x 1080 e uma taxa de atualização de impressionantes 165hz, este monitor garante uma reprodução de imagem suave e sem interrupções, permitindo que você aproveite jogos intensos com movimentos rápidos. O tempo de resposta de 1 ms vrb (visual response boost) elimina o desfoque de movimento, garantindo que cada ação seja representada com precisão na tela. Além de seu desempenho impressionante, o monitor apresenta um design elegante com uma moldura zero frame, proporcionando uma experiência de visualização sem distrações. Com uma tela antirreflexa e um amplo ângulo de visão de 178° tanto na horizontal quanto na vertical, você pode desfrutar de imagens nítidas e claras de praticamente qualquer posição. Este monitor é equipado com várias opções de conectividade, incluindo 2x portas hdmi (2.0), 1x porta displayport (1.2), além de uma saída de áudio e entrada de alimentação. A montagem vesa de 100 x 100 mm oferece a flexibilidade de montar o monitor na parede, liberando espaço em sua mesa. Embora não tenha ajuste de altura, pivô ou rotação, o monitor pode ser inclinado de -5° a aproximadamente 20° para encontrar o ângulo de visão ideal para sua configuração. Com seu desempenho robusto, taxa de atualização incrivelmente rápida e design elegante, o monitor gamer acer 31,5" led é uma escolha excelente para gamers que buscam qualidade e inclusão em um único pacote.       </t>
-  </si>
-  <si>
-    <t>Monitor Gamer Redragon Aquamarine 27 Polegadas, Full HD, 165hz, 1ms, HDMI e DisplayPort, FreeSync - GM27H2G</t>
-  </si>
-  <si>
-    <t>Monitor Gamer Redragon Aquamarine Full HD 27" 165Hz 1ms - GM27H2G&lt;br /&gt;&lt;br /&gt;Características:&lt;br /&gt;- Marca: Redragon&lt;br /&gt;- Modelo: GM27H2G&lt;br /&gt;&lt;br /&gt;Especificações:&lt;br /&gt;- Tamanho da Tela: 27"&lt;br /&gt;- Tipo de Tela: VA &lt;br /&gt;- Contraste: 4000:1&lt;br /&gt;- Resolução: Full HD 1920 x 1080&lt;br /&gt;- Proporção da Tela: 16:9 (Widescreen)&lt;br /&gt;- Tempo de Resposta: 1ms&lt;br /&gt;- Taxa de Atualização: 165Hz&lt;br /&gt;- Voltagem: Bivolt Automático&lt;br /&gt;- Ângulo de Visão Horizontal: 178°&lt;br /&gt;- Ângulo de Visão Vertical: 178°&lt;br /&gt;&lt;br /&gt;Entradas:&lt;br /&gt;- HDMI&lt;br /&gt;- Display Port&lt;br /&gt;- Audio&lt;br /&gt;- USB&lt;br /&gt;&lt;br /&gt;Informações Ambientais:&lt;br /&gt;- Temperatura de Operação: 0°C ~ 40°C&lt;br /&gt;- Umidade Relativa de Operação: 10% ~ 90% (Não condensado)&lt;br /&gt;&lt;br /&gt;Informações Adicionais:&lt;br /&gt;- Adaptive-SYNC09:59 13/10/2022&lt;br /&gt;- Modo Game&lt;br /&gt;- EyeSaver&lt;br /&gt;- Luz Ambiente&lt;br /&gt;&lt;br /&gt;Conteúdo da Embalagem:&lt;br /&gt;- Monitor Gamer Redragon Aquamarine 27" 165Hz - GM27H2G&lt;br /&gt;- Fonte de Alimentação Bivolt&lt;br /&gt;- Cabo Display Port&lt;br /&gt;- Manual&lt;br /&gt;&lt;br /&gt;Obs: Não possuí alto-falantes</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Monitor Gamer LG LED 29&amp;acute; Ultrawide, Full HD, IPS, HDMI/Display Port, FreeSync, Som Integrado, 1ms - 29UM69G-B&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>Monitor Gamer AOC Speed 23.8' IPS, Wide, 75 Hz, Full HD, 1ms, Adaptive Sync, VESA, HDMI/VGA - 24G2HE5</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Monitor Gamer AOC Speed 23,8&amp;acute; Monitor Gamer te d&amp;aacute; detalhes Jogue para valer com o monitor Speed 24, com uma taxa de atualiza&amp;ccedil;&amp;atilde;o que elimina a possibilidade de borr&amp;otilde;es na tela e Painel IPS que oferece cores mais fi&amp;eacute;is e &amp;oacute;timo &amp;acirc;ngulo de vis&amp;atilde;o. Desenvolvido para suportar todas as emo&amp;ccedil;&amp;otilde;es dos seus jogos, o incr&amp;iacute;vel tempo de resposta de 1ms oferece alta velocidade, defini&amp;ccedil;&amp;atilde;o e muita suavidade em todos os seus movimentos. Elimine a possibilidade de borr&amp;otilde;es e lags na tela e atinja todo o potencial em seus jogos com uma taxa de atualiza&amp;ccedil;&amp;atilde;o de 75Hz. Suas maratonas ser&amp;atilde;o livres de tremores, com uma suavidade surpreendente. Recursos centrados nos jogadores A tecnologia Adaptive Sync reduz cortes e repeti&amp;ccedil;&amp;otilde;es de imagens, que ocorrem devido a diferen&amp;ccedil;a entre quadros gr&amp;aacute;ficos e a taxa de atualiza&amp;ccedil;&amp;atilde;o do monitor. Assim, voc&amp;ecirc; vai experimentar movimentos fluidos e enxergar&amp;aacute; as cenas de uma forma muito mais pura. Aproveite as vantagens de ter um Painel IPS em seu monitor gamer e enxergue os inimigos mesmo em cenas com pouca ilumina&amp;ccedil;&amp;atilde;o. Essa avan&amp;ccedil;ada tecnologia oferece as melhores cores sem comprometer a velocidade, al&amp;eacute;m de entregar um &amp;oacute;timo &amp;acirc;ngulo de vis&amp;atilde;o para voc&amp;ecirc; curtir ainda mais seus jogos. Este diferencial controla os n&amp;iacute;veis de cinza no menu do monitor para melhorar a rela&amp;ccedil;&amp;atilde;o de contraste em telas escuras e proporcionar as melhores cenas, sempre. Melhore a precis&amp;atilde;o e a velocidade das suas jogadas com o recurso modo mira: uma mira vermelha posicionada no centro da tela para voc&amp;ecirc; se tornar o melhor atirador da partida. Garanta j&amp;aacute; seu Monitor Gamer AOC aqui no KaBuM!&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>Monitor Gamer Concordia PCFort 27 LED Full HD, 165Hz, 1ms, HDMI e DisplayPort, DVI, FreeSync, Ajuste de Ângulo - T2701</t>
-  </si>
-  <si>
-    <t>&lt;h2&gt;Monitor Gamer Concordia PCFort 27 LED Full HD&lt;/h2&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h2&gt;O mais novo Monitor Gamer PCFort T2701-165 &amp;eacute; a melhor escolha para seus games!&lt;/h2&gt;
-&lt;p&gt;Com taxa de atualiza&amp;ccedil;&amp;atilde;o de &lt;strong&gt;165Hz&lt;/strong&gt; e tempo de resposta de 1ms, tudo isso em uma incr&amp;iacute;vel tela de &lt;strong&gt;27&amp;rdquo;&lt;/strong&gt;, resolu&amp;ccedil;&amp;atilde;o &lt;strong&gt;FullHD de 1920x1080&lt;/strong&gt;, com painel VA e &lt;strong&gt;tecnologia FreeSync&lt;/strong&gt; para entregar imagens sincronizadas e com excelente qualidade.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;O Monitor Gamer PCFort T2701-165 &amp;eacute; preparado para atender todas as suas necessidades, podendo ser utilizado com sua base ou em suportes devido a possuir &lt;strong&gt;VESA 75mm&lt;/strong&gt;, al&amp;eacute;m disto para tornar o monitor ainda mais completo, o mesmo possui conex&amp;atilde;o &lt;strong&gt;HDMI, DISPLAYPORT, DVI&lt;/strong&gt; e conex&amp;atilde;o para fones.&lt;/p&gt;
-&lt;p&gt;Com a sua sa&amp;iacute;da de &amp;aacute;udio o monitor se torna perfeito para uso em video-games al&amp;eacute;m de facilitar o uso em desktops.&lt;/p&gt;
+    <t>Monitor Gamer Samsung Odyssey G40 25” Preto Ls25bg400elxzd, FHD, 240 Hz, 1ms, Com Ajuste De Altura, Hdmi, Dp, Gsync, Freesync</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Samsung Odyssey G40 25´´ Preto LS25BG400ELXZD&lt;br /&gt;Agora você pode ver os jogos como nunca antes. O painel IPS oferece cores claras e um amplo ângulo de visão de 178º para maior clareza a partir de qualquer posição. Com mais pixels e maior profundidade, os jogos estão mais próximos da realidade do que nunca. 240Hz de taxa de atualização &amp; 1ms de tempo de resposta. Velocidade nas cenas. A taxa de atualização de 240Hz elimina o atraso para uma jogabilidade emocionante com ação ultra-suave. Ataque os inimigos assim que os vê-los com um tempo de resposta de 1ms e quadros sem borrão.</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Asus TUF 31.5 LED 2K QHD, Curvo, 144Hz, 1ms, HDMI e DisplayPort, FreeSync, HDR, 92% sRGB, Ajuste de Altura, Som, VESA - VG32VQ</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Monitor Asus TUF Gaming VG32VQ&lt;/h2&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;O &lt;strong&gt;TUF Gaming VG32V&lt;/strong&gt; &amp;eacute; uma &lt;strong&gt;tela Curva HDR WQHD&lt;/strong&gt; (2560x1440) de &lt;strong&gt;31.5&amp;rdquo;&lt;/strong&gt; com velocidade de atualiza&amp;ccedil;&amp;atilde;o de &lt;strong&gt;144Hz&lt;/strong&gt;* ultrarr&amp;aacute;pidos concebido para jogadores profissionais e para aqueles que procuram uma jogabilidade envolvente. Estas s&amp;atilde;o algumas especifica&amp;ccedil;&amp;otilde;es de topo, mas nem s&amp;atilde;o as mais excitantes que o &lt;strong&gt;VG32V&lt;/strong&gt; tem reservadas.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Adaptive Sync da Pr&amp;oacute;xima Gera&amp;ccedil;&amp;atilde;o&lt;/h2&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;Pela primeira vez em qualquer &lt;strong&gt;monitor gaming&lt;/strong&gt;, podem ser ativadas as tecnologias &lt;strong&gt;Motion Blur Reduction&lt;/strong&gt; e &lt;strong&gt;Adaptive-sync&lt;/strong&gt; em simult&amp;acirc;neo. Esta nova tecnologia chama-se &lt;strong&gt;ASUS Extreme Low Motion Blur Sync (ELMB SYNC)&lt;/strong&gt;. O ELMB SYNC trabalha com FreeSync e outros tipos de Adaptive-Sync, permitindo aos jogadores desfrutar de velocidades elevadas e precisas.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Monitor Gamer Curvo de 31.5&amp;rdquo;&lt;/h2&gt;
+&lt;h2&gt;&amp;nbsp;&lt;/h2&gt;
+&lt;p&gt;O painel de &lt;strong&gt;31.5&amp;rdquo; WQHD (2560 x 1440)&lt;/strong&gt; do &lt;strong&gt;TUF Gaming VG32VQ&lt;/strong&gt; fornece imagens deslumbrantes a partir de todos os &amp;acirc;ngulos, com uma &lt;strong&gt;curvatura 1800R&lt;/strong&gt; que garante que cada ponto est&amp;aacute; equidistante dos seus olhos. Isto contribui para um maior conforto de visualiza&amp;ccedil;&amp;atilde;o - mesmo durante um uso extenso - e permite desfrutar de &amp;acirc;ngulos de visualiza&amp;ccedil;&amp;atilde;o amplos com menos distor&amp;ccedil;&amp;atilde;o e altera&amp;ccedil;&amp;atilde;o das cores, ao jogar e ao ver filmes!&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Velocidade de Atualiza&amp;ccedil;&amp;atilde;o de 144Hz&lt;/h2&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;O &lt;strong&gt;TUF Gaming VG32VQ&lt;/strong&gt; disp&amp;otilde;e de uma velocidade de atualiza&amp;ccedil;&amp;atilde;o de&lt;strong&gt; 144Hz&lt;/strong&gt;, que garante que at&amp;eacute; os jogos mais r&amp;aacute;pidos s&amp;atilde;o jogados com as defini&amp;ccedil;&amp;otilde;es de imagem mais elevadas, permanecendo suaves e sem lentid&amp;atilde;o. Assim voc&amp;ecirc; ganha vantagens nos FPS, jogos de corridas, RTS e jogos de esportes&lt;/p&gt;
+&lt;h3&gt;&amp;nbsp;&lt;/h3&gt;
+&lt;h3&gt;Garanta j&amp;aacute; seu Monitor Asus aqui no KaBuM!&lt;/h3&gt;</t>
+  </si>
+  <si>
+    <t>Monitor Gamer 34 Polegadas, 180hz Curvo, Wqhd HDMI/dp</t>
+  </si>
+  <si>
+    <t>Caracteristicas:  - marca: primetek  - modelo: 34gsr  se você está procurando um monitor para jogos, nossas ofertas primetek te oferece uma ótima opção de modelo e um bom preço. Monitor gamer 34curvo 180hz dp/hdmi wqhd primetek 34gsr que entrega imagens mais nítidas, levando sua experiência visual e seu foco no jogo para um novo nível.  especificações técnicas:  - tamanho do painel (diagonal) 34  - tipo de painel va rápido  - fonte do painel csot curva plana/ curva raio de curvatura r1500  - suporte hdr hdr ready resolução 3440x1440  - tipo de moldura moldura sem moldura 3  - distância do pixel (h)*(v) (mm) 0,2318*0,2318mm brilho (cd/m2 )(typ.) 350nits(typ), 300nits (min) taxa de contraste (típico) 4000:1 (típico) relação de contraste dinâmico milhões  - ângulo de visão (h/v) 178°(h)/178°(v) profundidade de bits do painel 8 bits + frc cores de exibição 1.07b (8 bits + frc) tempo de resposta do painel sem od od 1 ms tempo de resposta mprt 1ms  - taxa de atualização (máx.) 180 hz hdmi 2.0 2  - faixa freesync 48 - 100 hz (3440*1440 máximo 100 hz, fhd qhd máximo 120 hz) freesync 48-180 hz  - saída de áudio 1  - suporte ajustável de design de suporte de exibição inclinação (ângulo) -5°—20°?2  - ajuste de altura 100mm,5mm montagem vesa 75x75 com montagem vesa  - botão liga/desliga cinco botões botão osd cinco botões contracapa rgb design (vermelho)  - consumo de energia tipo.64w,máx.78w modo de economia de energia ?0,5w modo de desligamento ?0,3w tipo de energia psu integrado  - acessorios: cabo de alimentação (1,5m) sim (1pcs)cabo dp versão 1,4 cabo dp qtd.(1,5m/1,8m) 1(1,5m)  - temperatura da cor (frio, quente, usuário), (frio, quente, usuário, natural) controle de baixa luz azul modo de configuração (6 modos) 6 modos dcr menu 23 idiomas  - dimensão com suporte(lxaxp)(mm) 808,7x513,5x245,6mm  - dimensão sem suporte (lxaxp)(mm) 808,7x363,3x129,6mm  - dimensão da caixa (lxaxp)(mm) 916x230x466mm  - peso líquido (kg) 7,6kg  - peso bruto (kg) 10,63kg  - garantia 1 ano &lt;br&gt;&lt;br&gt;&lt;strong&gt;especificações técnicas&lt;/strong&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;marca:&lt;/strong&gt; primetek&lt;br&gt;&lt;strong&gt;modelo:&lt;/strong&gt; 34gsr&lt;br&gt;&lt;strong&gt;tamanho da tela:&lt;/strong&gt; 34</t>
+  </si>
+  <si>
+    <t>Monitor gamer Corsair Xeneon 32" UHD IPS, 144Hz, 1ms, DisplayPort e HDMI, HDR, FreeSync Premium, Sincronização adaptável - CM-902003-NA</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Monitor gamer Corsair Xeneon&lt;/h2&gt;
+&lt;p&gt;O CORSAIR XENEON 32UHD144 d&amp;aacute; vida aos seus jogos e multim&amp;eacute;dia no seu vibrante e ultrafino monitor 4K UHD de 32 pol. (&lt;strong&gt;3840 x 2160&lt;/strong&gt;) com tecnologia &lt;strong&gt;LED IPS.&lt;/strong&gt; A taxa de atualiza&amp;ccedil;&amp;atilde;o de &lt;strong&gt;144 Hz&lt;/strong&gt; diminui a desfocagem de movimentos e assegura que &amp;eacute; poss&amp;iacute;vel visualizar cada fotograma produzido pelo PC. Al&amp;eacute;m disso, a compatibilidade com as tecnologias &lt;strong&gt;NVIDIA G-SYNC e o AMD FreeSync Premium&lt;/strong&gt; fornecem imagens suaves e sem artefactos. Desfrute de colorimetrias sRGB e Adobe RGB de 100% e com alto contraste, gra&amp;ccedil;as &amp;agrave; tecnologia Quantum Dot e ao suporte para HDR600. Com um suporte premium em alum&amp;iacute;nio fundido e v&amp;aacute;rias op&amp;ccedil;&amp;otilde;es de conex&amp;atilde;o que incluem &lt;strong&gt;USB Tipo C&lt;/strong&gt;, 2&lt;strong&gt;x HDMI 2.1&lt;/strong&gt;, &lt;strong&gt;1x DisplayPort 1.4&lt;/strong&gt; e um concentrador integrado com portas USB Tipo C e Tipo A, o CORSAIR XENEON 32UHD144 proporciona uma visualiza&amp;ccedil;&amp;atilde;o verdadeiramente impressionante.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Exibi&amp;ccedil;&amp;atilde;o IPS r&amp;aacute;pida de pontos qu&amp;acirc;nticos:&lt;/h2&gt;
+&lt;p&gt;A tecnologia de pontos qu&amp;acirc;nticos e um painel Fast IPS fornecem ao monitor XENEON cobertura de gama de cores &lt;strong&gt;100% sRGB&lt;/strong&gt;, &lt;strong&gt;100% Adobe RGB&lt;/strong&gt; e &lt;strong&gt;98% DCI-P3&lt;/strong&gt; para cores mais vivas e naturais e um realismo surpreendente.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Tecnologias avan&amp;ccedil;adas:&lt;/h2&gt;
+&lt;p&gt;Esteja voc&amp;ecirc; assistindo a um lindo conte&amp;uacute;do HDR, fazendo um trabalho de produ&amp;ccedil;&amp;atilde;o com cores precisas ou jogando jogos em ritmo acelerado, voc&amp;ecirc; precisa de um monitor que possa acompanhar. O XENEON re&amp;uacute;ne toda a tecnologia que voc&amp;ecirc; precisa para estar na vanguarda de tudo o que faz.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h3&gt;Compre j&amp;aacute; o seu no KaBuM!&lt;/h3&gt;</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Gigabyte 31.5 LED 4K UHD Curvo, 144Hz, 1ms, HDR, HDMI e DisplayPort, 123% sRGB, FreeSync Premium, VESA - M32UC-SA</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Monitor Gamer Gigabyte 31.5&lt;/h2&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;UHD com 144Hz (OC 160HZ - DP)&lt;/h2&gt;
+&lt;p&gt;Alta resolu&amp;ccedil;&amp;atilde;o e &lt;strong&gt;taxa&lt;/strong&gt; &lt;strong&gt;de atualiza&amp;ccedil;&amp;atilde;o r&amp;aacute;pida&lt;/strong&gt;, oferecendo qualidade de exibi&amp;ccedil;&amp;atilde;o detalhada e experi&amp;ecirc;ncia de jogo fluida!&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Tempo de resposta de 1ms&lt;/h2&gt;
+&lt;p&gt;A tecnologia &lt;strong&gt;SuperSpeed&lt;/strong&gt; &lt;strong&gt;VA&lt;/strong&gt; reduz o tempo de resposta para 1ms MPRT/2ms GTG para a experi&amp;ecirc;ncia de jogo mais suave de sempre!&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Aim Stabilizer&lt;/h2&gt;
+&lt;p&gt;Esse recurso reduzir&amp;aacute; o desfoque de movimento para que voc&amp;ecirc; tenha uma melhor &lt;strong&gt;clareza&lt;/strong&gt; &lt;strong&gt;visual&lt;/strong&gt;.&lt;/p&gt;
 &lt;p&gt;&amp;nbsp;&lt;/p&gt;
 &lt;h3&gt;Compre agora no KaBuM!&lt;/h3&gt;</t>
   </si>
   <si>
-    <t>Monitor Gamer Dahua Ultrawide 30 Polegadas, WFHD, 1ms, 200HZ,  DCR Inteligente Adaptive-sync, HDMI, Dp, Va, Preto - Dhi-lm30-e330ca</t>
-  </si>
-  <si>
-    <t>Monitor gamer ultrawide 30 wfhd 200hz 1ms dcr inteligente adaptive-sync hdmi dp va preto - dhi-lm30-e330ca&lt;br /&gt;&lt;br /&gt;  &lt;br /&gt;&lt;br /&gt;  curvatura r1500&lt;br /&gt;&lt;br /&gt;  ela oferece benefícios notáveis ao criar uma experiência de visualização mais envolvente para jogos, filmes e outras atividades multimídia. Ao envolver sutilmente o campo de visão do usuário, a curvatura r1500 contribui para uma sensação de profundidade e presença, criando uma experiência visual que vai além das limitações de um monitor plano tradicional.&lt;br /&gt;&lt;br /&gt;   &lt;br /&gt;&lt;br /&gt;  uma visão imersiva e impactante: &lt;br /&gt;&lt;br /&gt;  experimente a diferença com a tela curva r1500 de 30 polegadas, proporcionando uma experiência visual envolvente que eleva o entretenimento a um novo patamar. Cada detalhe ganha vida, tornando cada cena mais real e impactante.&lt;br /&gt;&lt;br /&gt;  &lt;br /&gt;&lt;br /&gt;  alto desempenho para jogos de elite: &lt;br /&gt;&lt;br /&gt;  seja o mestre do seu jogo com uma taxa de atualização incrível de 200hz e um tempo de resposta ultrarrápido de 1ms mprt. Não perca nenhum detalhe, capture cada movimento e aumente suas chances de vitória a cada jogada.&lt;br /&gt;&lt;br /&gt;  &lt;br /&gt;&lt;br /&gt;  chip dcr inteligente&lt;br /&gt;&lt;br /&gt;  o chip dcr inteligente no monitor lm30-e330ca oferece uma experiência visual avançada, ajustando-se dinamicamente para proporcionar contrastes vívidos, cores vibrantes e detalhes aprimorados. Essa tecnologia inovadora coloca a qualidade de imagem em um novo patamar, garantindo uma imersão visual excepcional em todas as suas atividades, desde jogos intensos até a visualização de conteúdo multimídia.&lt;br /&gt;&lt;br /&gt;  &lt;br /&gt;&lt;br /&gt;  tecnologia adaptive-sync&lt;br /&gt;&lt;br /&gt;  suavidade visual sem compromissos: &lt;br /&gt;&lt;br /&gt;  reduza a perda de qualidade de imagem e melhore a fluidez visual com a tecnologia adaptive-sync. Jogue sem interrupções, experimentando transições suaves e uma performance imbatível.&lt;br /&gt;&lt;br /&gt;  &lt;br /&gt;&lt;br /&gt;  proporção de tela 21:9&lt;br /&gt;&lt;br /&gt;  uma experiência imersiva como nunca antes: &lt;br /&gt;&lt;br /&gt;  com uma proporção de tela de 21:9, mergulhe em uma experiência cinematográfica enquanto joga ou assiste aos seus filmes favoritos. Cada momento se desenrola em um panorama espetacular.&lt;br /&gt;&lt;br /&gt;  &lt;br /&gt;&lt;br /&gt;  conectividade versátil para seu setup ideal:&lt;br /&gt;&lt;br /&gt;  equipado com portas displayport 1.2 x2 e hdmi x2, o lm30-e330ca oferece uma conectividade versátil para atender às suas necessidades de entretenimento e produtividade.&lt;br /&gt;&lt;br /&gt;  &lt;br /&gt;&lt;br /&gt;  flexibilidade de visualização &lt;br /&gt;&lt;br /&gt;  ajuste conforme sua preferência: &lt;br /&gt;&lt;br /&gt;  incline o monitor de -5° a +20° para encontrar o ângulo perfeito que se adapte ao seu espaço e estilo de vida. Para maior versatilidade, a furação vesa 75x75mm permite a montagem na parede.&lt;br /&gt;&lt;br /&gt;  &lt;br /&gt;&lt;br /&gt;  &lt;br /&gt;&lt;br /&gt;  &lt;br /&gt;&lt;br /&gt;  especificações:&lt;br /&gt;&lt;br /&gt;  &lt;br /&gt;&lt;br /&gt;  resolução&lt;br /&gt;&lt;br /&gt;  30  2560x1080 va&lt;br /&gt;&lt;br /&gt;  &lt;br /&gt;&lt;br /&gt;  curvatura&lt;br /&gt;&lt;br /&gt;  1500r&lt;br /&gt;&lt;br /&gt;  &lt;br /&gt;&lt;br /&gt;  taxa de atualização&lt;br /&gt;&lt;br /&gt;  200hz&lt;br /&gt;&lt;br /&gt;  &lt;br /&gt;&lt;br /&gt;  recursos&lt;br /&gt;&lt;br /&gt;  adaptive-sync&lt;br /&gt;&lt;br /&gt;  &lt;br /&gt;&lt;br /&gt;  interfaces/portas&lt;br /&gt;&lt;br /&gt;  displayport 1.2 x2, hdmi x2&lt;br /&gt;&lt;br /&gt;  &lt;br /&gt;&lt;br /&gt;  inclinação&lt;br /&gt;&lt;br /&gt;  -5°+/-2° - 20°+/-2&lt;br /&gt;&lt;br /&gt;  &lt;br /&gt;&lt;br /&gt;  ângulo de visão&lt;br /&gt;&lt;br /&gt;  178°(h)/178°(v)&lt;br /&gt;&lt;br /&gt;  &lt;br /&gt;&lt;br /&gt;  brilho&lt;br /&gt;&lt;br /&gt;  250 nits&lt;br /&gt;&lt;br /&gt;  &lt;br /&gt;&lt;br /&gt;  backlight&lt;br /&gt;&lt;br /&gt;  led&lt;br /&gt;&lt;br /&gt;  &lt;br /&gt;&lt;br /&gt;  tempo de resposta&lt;br /&gt;&lt;br /&gt;  mprt 1ms&lt;br /&gt;&lt;br /&gt;  &lt;br /&gt;&lt;br /&gt;  furação vesa&lt;br /&gt;&lt;br /&gt;  75x75mm&lt;br /&gt;&lt;br /&gt;  &lt;br /&gt;&lt;br /&gt;  imagens de caráter ilustrativo&lt;br /&gt;&lt;br /&gt;  &lt;br /&gt;&lt;br /&gt;  informações divulgadas de acordo com o manual do fabricante&lt;br /&gt;&lt;br /&gt;  &lt;br /&gt;&lt;br /&gt;  produto novo na caixa, lacrado com nf e garantia do fabricante de 3 anos.&lt;br /&gt;&lt;br /&gt;  &lt;br /&gt;&lt;br /&gt;  em caso de dúvidas sobre informações técnicas, utilização, limitações e manuseio do produto, verifique o manual do fabricante.&lt;br /&gt;&lt;br /&gt;  &lt;br /&gt;&lt;br /&gt;  nac012091&lt;br /&gt;&lt;br /&gt;  ean6923172579119</t>
+    <t>Monitor 24.5" Gamer Benq Zowie Xl2546k - Full HD - 240hz - 1ms - Tecnologia Dyac - HDMI/Displayport</t>
+  </si>
+  <si>
+    <t>Uma nova geração da série XL de monitores gamers para PC, com ajustes aprimorados para maior flexibilidade, conforto e conveniência aos jogadores, permitindo foco e desempenho durante o game. &lt;br /&gt;Base Reduzida – Mais Espaço para Jogar Nova base desenvolvida com o objetivo de liberar mais espaço ao jogador, sem perder a estabilidade do monitor. Isso permite espaço para mais movimento durante o jogo e ficar confortável com mais flexibilidade.&lt;br /&gt;&lt;br /&gt;Ajustes Flexíveis – Mais Conforto Durante os Jogos Entendemos que cada jogador(a) tem suas configurações preferidas. Uma combinação única da altura e do ângulo do monitor. Com ajuste de altura e inclinação livre, os players podem configurar rapidamente de acordo com suas necessidades para um resultado melhor, jogando de uma forma mais confortável. &lt;br /&gt;&lt;br /&gt;Configurações Compartilhadas do XL-K Compartilhe suas configurações com seu time, seus amigos ou fãs. Salve perfis de vídeo rapidamente e compartilhe de forma conveniente a partir da própria interface do usuário. &lt;br /&gt;&lt;br /&gt;Acesso Rápido às Configurações A alteração na interface do usuário e no S-Switch é muito mais do que apenas estético. Foram redesenhados com o objetivo de oferecer a capacidade de personalizar as configurações que preferir para FPS, acessando-as rapidamente, por meio de um menu, com apenas um toque. As configurações passam a ser muito mais convenientes.&lt;br /&gt;&lt;br /&gt;Tecnologia DyAc? – Uma Sensação de Spray Diferente O DyAc™ / DyAc? ajuda a não perder o foco durante o spray. Possibilita aos jogadores ver as posições da mira e pontos de impacto com mais clareza, ajudando a embaçar menos a imagem durante o recuo da arma. O DyAc+ é baseado na mesma tecnologia e, através da otimização da tela, oferece aos jogadores uma opção mais atualizada para melhores ações, como o controle do spray. Faça Ajustes Visuais com Base em Suas Necessidades de Jogo O Black eQualizer aumenta a visibilidade de cenas escuras, sem superexpor as áreas claras. Já o Color Vibrance ajusta as configurações e o tom das cores para diferenciar alvos inimigos no jogo, e por fim, o modo Game alterna entre as pré configurações para o jogo, de acordo com título do mesmo. Os três tipos de ajuste mencionados permitem que jogares usem suas configurações visuais favoritas para jogar com melhor desempenho.</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Aorus 31.5 IPS, 144 Hz, 4K UHD, 1ms, HDMI/DisplayPort/USB-C, HDR 400, 123% sRGB, Som Integrado by SABRE Hi-Fi - FI32U</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Monitor Gamer Aorus 31.5 IPS, 144 Hz, 4K UHD, 1ms, HDMI/DisplayPort/USB-C, HDR 400, 123% sRGB, Som Integrado by SABRE Hi-Fi - FI32U&lt;/h2&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h3&gt;4 K Transformando sua experi&amp;ecirc;ncia de jogo!&lt;/h3&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;AORUS FI32U, resolu&amp;ccedil;&amp;atilde;o UHD de 31,5 polegadas e equipado com o mais recente HDMI 2.1, taxa de atualiza&amp;ccedil;&amp;atilde;o de 144 Hz e 1 ms GTG para a experi&amp;ecirc;ncia de jogo mais fluida e qualidade de imagem incr&amp;iacute;vel.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;A cor de 10 bits e a gama de cores super ampla de 90% DCI-P3 / 123% sRGB oferecem excelente precis&amp;atilde;o e consist&amp;ecirc;ncia de cores. &amp;Eacute; certificado DisplayHDR400 para garantir uma qualidade de exibi&amp;ccedil;&amp;atilde;o espetacular, a melhor experi&amp;ecirc;ncia em jogos e entretenimento.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h3&gt;A Experi&amp;ecirc;ncia 4K&lt;/h3&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;Com mais conte&amp;uacute;do de jogo de resolu&amp;ccedil;&amp;atilde;o mais alta criado para ter a melhor experi&amp;ecirc;ncia visual, &amp;eacute; hora de voc&amp;ecirc; investir em uma tela 4K! Os monitores AORUS 4K oferecem um visual n&amp;iacute;tido e detalhado e oferece uma experi&amp;ecirc;ncia de visualiza&amp;ccedil;&amp;atilde;o mais realista!&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h3&gt;SS IPS com 1ms GTG&lt;/h3&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;O painel Super Speed ??IPS fornece cores espl&amp;ecirc;ndidas, enquanto os cristais reduzem o tempo de resposta para chegar a 1ms GTG.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h3&gt;Tela de 31,5&amp;rdquo;&lt;/h3&gt;
+&lt;p&gt;Painel UHD de 31,5 &amp;rdquo;(resolu&amp;ccedil;&amp;atilde;o de 3840 x 2160) em uma propor&amp;ccedil;&amp;atilde;o de 16: 9 com uma taxa de atualiza&amp;ccedil;&amp;atilde;o de 144 Hz para jogos fluidos.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h3&gt;HDMI 2.1&lt;/h3&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;O mais recente HDMI 2.1 pode melhorar sua experi&amp;ecirc;ncia de jogo, fornecendo uma largura de banda maior de 4K @ 144 Hz, oferecendo uma vantagem competitiva em uma variedade de jogos de aventura a atiradores. O novo padr&amp;atilde;o tamb&amp;eacute;m suporta os consoles de &amp;uacute;ltima gera&amp;ccedil;&amp;atilde;o.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h3&gt;10 bits com 90% DCI P3&lt;/h3&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;O AORUS FI32U &amp;eacute; um display de 10 bits (8 bits + FRC) com 90% do espa&amp;ccedil;o de cores DCI-P3, oferecendo uma variedade mais rica de gradua&amp;ccedil;&amp;otilde;es de cores e maior precis&amp;atilde;o.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h3&gt;VESA DisplayHDR 400&lt;/h3&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;High Dynamic Range (HDR) expande a faixa de luz de uma tela, o que &amp;eacute; melhor &amp;eacute; que voc&amp;ecirc; pode desfrutar dos modos HDR exclusivos que oferecemos para aumentar o n&amp;iacute;vel de sua experi&amp;ecirc;ncia de jogo e entretenimento!&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h3&gt;Som audi&amp;oacute;filo&lt;/h3&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;AORUS adota o conceito de um design de sistema de som audi&amp;oacute;filo de ponta em um micro sistema no monitor. O chip ESS SABRE integrado fornece um som puro, mas poderoso, ressonando sons orquestrais cl&amp;aacute;ssicos ou explos&amp;otilde;es em sua zona de guerra virtual. Desfrute da profundidade da m&amp;uacute;sica e do perfil de som envolvente.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Monitor Asus Rog Swift 41.5 OLED, 138Hz, 0,1ms, HDMI e DisplayPort, 133% sRGB, HDR, G-Sync, VESA - PG42UQ</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Monitor de jogos ROG Swift OLED 4K de 41,5 polegadas, OLED, 138 Hz (overclocked), 0,1 ms (GTG), compat&amp;iacute;vel com G-SYNC , revestimento de microtextura antirreflexo, dissipador de calor personalizado, brilho uniforme, 98% DCI-P3, true 10 bits, HDMI 2.1, DisplayPort 1.4&lt;/h2&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h3&gt;Principais Tecnologias&lt;/h3&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;- Monitor de jogos &lt;strong&gt;OLED 4K (3840 x 2160)&lt;/strong&gt; de 41,5 polegadas com taxa de atualiza&amp;ccedil;&amp;atilde;o de &lt;strong&gt;138 Hz (overclock)&lt;/strong&gt;, projetado para jogos imersivos.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;- Apresenta pretos extremos, alto brilho perceptivo e &lt;strong&gt;tempo de resposta ultrarr&amp;aacute;pido de 0,1 ms&lt;/strong&gt;, com gama de cores DCI-P3 de 98% e diferen&amp;ccedil;a de cor Delta E &amp;lt;2 para desempenho HDR surpreendente.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;- O &lt;strong&gt;dissipador de calor personalizado&lt;/strong&gt; permite temperaturas at&amp;eacute; 8% mais baixas para melhor desempenho OLED de longo prazo.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;- Configura&amp;ccedil;&amp;atilde;o de brilho uniforme opcional amig&amp;aacute;vel ao jogador para n&amp;iacute;veis de brilho uniformes.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;- O revestimento de microtextura antirreflexo reduz os reflexos para cores precisas e melhores experi&amp;ecirc;ncias de visualiza&amp;ccedil;&amp;atilde;o.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;- Extensas op&amp;ccedil;&amp;otilde;es de conectividade, incluindo &lt;strong&gt;DisplayPort 1.4 com Display Stream Compression (DSC), HDMI 2.1&lt;/strong&gt;, hub USB e um soquete de trip&amp;eacute; na parte superior do monitor.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h3&gt;O PRIMEIRO MONITOR GAMER OLED DE 42&amp;rdquo; DO MUNDO&lt;/h3&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;O ROG Swift OLED PG42UQ &amp;eacute; um monitor de jogos OLED 4K de 41,5 polegadas que apresenta um revestimento de microtextura antirreflexo para reduzir os reflexos e garantir que voc&amp;ecirc; veja as cores na tela com mais precis&amp;atilde;o. Sua taxa de atualiza&amp;ccedil;&amp;atilde;o super r&amp;aacute;pida de 138 Hz (com overclock) e tempo de resposta incr&amp;iacute;vel de 0,1 ms oferece jogos incrivelmente envolventes em uma escala maior. Al&amp;eacute;m disso, a gama DCI-P3 de 98%, cores verdadeiras de 10 bits e Delta E &amp;lt; 2 garantem cores realistas e os tons de preto mais escuros poss&amp;iacute;veis.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h3&gt;VISUAIS DETALHADOS E TEXTO CLARAMENTE DEFINIDO&lt;/h3&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;Os monitores de jogos ROG Swift OLED apresentam pain&amp;eacute;is OLED de &amp;uacute;ltima gera&amp;ccedil;&amp;atilde;o projetados para maior efici&amp;ecirc;ncia e brilho. O layout de subpixel fornece visuais extremamente detalhados e texto claramente definido para atualizar a experi&amp;ecirc;ncia de visualiza&amp;ccedil;&amp;atilde;o.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h3&gt;CORES ULTRA-REALISTAS&lt;/h3&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;O monitor de jogos PG42UQ apresenta verdadeira profundidade de cor de 10 bits e uma gama de 98% DCI-P3 com qualidade de cinema para oferecer realismo incompar&amp;aacute;vel. Cada monitor &amp;eacute; pr&amp;eacute;-calibrado para Delta E &amp;lt; 2 para garantir a melhor reprodu&amp;ccedil;&amp;atilde;o de cores em seu brilhante painel OLED.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h3&gt;MENOS BRILHO, MENOS DISTRA&amp;Ccedil;&amp;Otilde;ES&lt;/h3&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;Um revestimento fosco especial de microtextura na superf&amp;iacute;cie da tela reduz significativamente o brilho. Isso permite que o PG42UQ exiba cores mais precisas sem o brilho da tela que distrai.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Curvo Samsung Odyssey 49" DQHD, Série G9, 240Hz, 1Ms, HDMI + DP, G-sync, Freesync - Lc49g95tsslxzd</t>
+  </si>
+  <si>
+    <t>A revolução da curva 1000R, o novo ápice da tecnologia de tela curva, se ajusta ao campo de visão humano para um realismo inimaginável.&lt;br /&gt;&lt;br /&gt;Imagens fascinantes. Painel QLED, HDR1000 e uma resolução DQHD se reúnem trazendo cores espetaculares com total profundidade e detalhamento.&lt;br /&gt;O exterior branco brilhante se junta ao núcleo de iluminação infinito. Os dois se reúnem para criar um efeito futurista e trazer inspiração para que você brilhe junto!&lt;br /&gt;&lt;br /&gt;Com 240Hz de taxa de atualização, tempo de resposta de 1ms e compatibilidade com G-Sync elevam você ao topo do seu jogo.&lt;br /&gt;A proporção de 32:9 do painel curvo super ultrawide de 49 polegadas mantém os jogos vivos mesmo quando você precisa pausar o jogo. Abra várias janelas ao mesmo tempo e alterne entre tarefas diárias de computação e diferentes mundos. Jogue, assista, converse - tudo ao mesmo tempo. Com o PBP, visualize a entrada de duas fontes simultaneamente em sua resolução nativa. Use o PIP para redimensionar a segunda fonte em até 25 da tela. Coloque as janelas em qualquer lugar usando a função Easy Settting Box da Samsung. Encontre a sua posição vencedora. Gire, incline e ajuste a altura até estar preparado para a vitória. Totalmente compatível com suportes padrão VESA, a tela pode ser movida sem esforço para a sua posição ideal.</t>
   </si>
   <si>
     <t>Monitor Gamer KBM! GAMING MG320 27' Led, Curvo, 180 Hz, Full Hd, 1ms, Adaptive Sync, Hdmi/Displayport, Ajuste De Ângulo - KGMG32027PT</t>
@@ -633,91 +1234,25 @@
 &lt;p&gt;O Monitor Gamer KBM! GAMING MG320 &amp;eacute; &lt;strong&gt;a melhor op&amp;ccedil;&amp;atilde;o&lt;/strong&gt; para quem busca o melhor desempenho para suas gameplays. Com uma resposta r&amp;aacute;pida, taxa de atualiza&amp;ccedil;&amp;atilde;o de 165Hz, curvatura de 1500R e compatibilidade com &lt;strong&gt;Adaptive Sync&lt;/strong&gt;, este monitor oferece uma experi&amp;ecirc;ncia de jogo fluida, imersiva e sem problemas.&lt;/p&gt;</t>
   </si>
   <si>
-    <t>Monitor Gamer Curvo HQ 24 LED, RGB, Full HD, 165 Hz, 1ms, HDMI/DisplayPort, FreeSync, sRGB, Som Integrado, Pink - 24GHQ-PINKsRGB</t>
-  </si>
-  <si>
-    <t>&lt;h2&gt;&lt;span id="docs-internal-guid-434371ff-7fff-8415-2ef8-584db895281a"&gt;Monitor Gamer LED Curvo 24" HQ 24GHQ-White RGB R3000 Display Port HDMI PINK&lt;/span&gt;&lt;/h2&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;p dir="ltr"&gt;A curvatura da tela de R3000 oferece imers&amp;atilde;o total, voc&amp;ecirc; ser&amp;aacute; capaz de apreciar imagens panor&amp;acirc;micas grandes, em alta resolu&amp;ccedil;&amp;atilde;o e com todas as especifica&amp;ccedil;&amp;otilde;es que um monitor Gamer de ponta exige.&lt;/p&gt;
-&lt;p dir="ltr"&gt;&amp;nbsp;&lt;/p&gt;
-&lt;p dir="ltr"&gt;A HQ levou a s&amp;eacute;rio o desenvolvimento desta linha, trazendo ao p&amp;uacute;blico mais exigente um produto completo e de alto n&amp;iacute;vel.&amp;nbsp;&lt;/p&gt;
-&lt;p dir="ltr"&gt;N&amp;atilde;o fique atras, reaja em tempo real e tenha os movimentos do teclado refletidos sem atrasos com o tempo de resposta de 1ms.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;p dir="ltr"&gt;&amp;nbsp;&lt;/p&gt;
-&lt;p dir="ltr"&gt;Sem borr&amp;otilde;es e sem perda de imagem. A INCR&amp;Iacute;VEL taxa de atualiza&amp;ccedil;&amp;atilde;o de 165hz garante que voc&amp;ecirc; tenha uma experi&amp;ecirc;ncia acima dos seus advers&amp;aacute;rios.&lt;/p&gt;
-&lt;p dir="ltr"&gt;&amp;nbsp;&lt;/p&gt;
-&lt;p dir="ltr"&gt;Imagens em alta resolu&amp;ccedil;&amp;atilde;o + Visual incr&amp;iacute;vel. A tela Full HD de alta resolu&amp;ccedil;&amp;atilde;o aliada ao design futurista e moderno do monitor garantem n&amp;atilde;o s&amp;oacute; imagens perfeitas como um visual incr&amp;iacute;vel de todo o seu conjunto.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>Monitor Gamer Samsung 24Pol, Full HD, 144 Hz, 1MS, HDMI, Display Port, VGA, Freesync Premium, Regulagem De Altura - Lf24g35tfwlxzd</t>
-  </si>
-  <si>
-    <t>Monitor 24 Polegadas Samsung Gamer LED Lf24g35tfwlxzd&lt;br /&gt;&lt;br /&gt; Faça cada movimento contar com um tempo de resposta de 1ms. Ataque seus inimigos assim que os vir e fique à frente com movimentos precisos do mouse. Seu desempenho na tela é tão rápido quanto seus próprios reflexos. Jogabilidade suave sem esforço.&lt;br /&gt;&lt;br /&gt; O AMD FreeSync Premium apresenta tecnologia de sincronização adaptável, que reduz o travamento de tela, oscilação e atrasos. Gire, incline e ajuste seu monitor até que todos os inimigos estejam perfeitamente visíveis. Sua tela pode ser movida livremente para que você encontre conforto total no jogo. &lt;br /&gt;&lt;br /&gt;0 design sem borda de 3 lados revela espaço máximo para uma jogabilidade maior e mais ousada. Alinhe dois monitores com precisão em uma configuração de monitor duplo sem que nenhum inimigo fique escondido na junção. Jogue por mais tempo sem incomodo visual. &lt;br /&gt;&lt;br /&gt;O Eye Saver Mode minimiza a emissão de luz azul para manter seus olhos relaxados e confortáveis enquanto joga por muitas horas. A tecnologia Flicker Free remove continuamente a tremulação cansativa e irritante da tela para que você possa jogar por mais tempo sem distrações ou fadiga ocular.</t>
-  </si>
-  <si>
-    <t>Monitor Gamer Curvo HQ 24 LED, RGB, Full HD, 75 Hz, 1ms, HDMI/VGA, Borda Ultra Fina, Pink - 24GHQ-PINK</t>
-  </si>
-  <si>
-    <t>&lt;h2&gt;Monitor Gamer Curvo HQ 24 LED, RGB, Full HD, 75 Hz, 1ms, HDMI/VGA, Borda Ultra Fina, Pink - 24GHQ-PINK&lt;/h2&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;p dir="ltr"&gt;Imagens n&amp;iacute;tidas, imers&amp;atilde;o total, resposta r&amp;aacute;pida com apenas 1ms e alta taxa de atualiza&amp;ccedil;&amp;atilde;o de at&amp;eacute; 75hz para voc&amp;ecirc; ser o mestre dos games!&lt;/p&gt;
-&lt;p dir="ltr"&gt;Prepare-se para momentos incr&amp;iacute;veis, respostas em tempo real e imers&amp;atilde;o total na curvatura da tela&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;p dir="ltr"&gt;Voc&amp;ecirc; j&amp;aacute; possui um PC Gamer?&lt;/p&gt;
-&lt;p dir="ltr"&gt;Ent&amp;atilde;o chegou a hora de escolher o Monitor perfeito para voc&amp;ecirc;. Pois n&amp;atilde;o adianta um computador potente sem uma tela perfeita para jogos.&amp;nbsp;&lt;/p&gt;
-&lt;p dir="ltr"&gt;Tecnologias especiais e dedicadas a jogos comp&amp;otilde;em o HQ pink Curvo.&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;p dir="ltr"&gt;Eleve o n&amp;iacute;vel gr&amp;aacute;fico e a precis&amp;atilde;o dos seus movimentos com este monitor HQ.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;p dir="ltr"&gt;A alta taxa de atualiza&amp;ccedil;&amp;atilde;o de 75Hz de frequ&amp;ecirc;ncia e o tempo de resposta de 1ms garantem que seus movimentos sejam precisos e que tudo ocorra em tempo real. Voc&amp;ecirc; jamais encontrar&amp;aacute; problemas em jogos multiplayer online ou outros jogos de FPS.&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;p dir="ltr"&gt;Seus reflexos ser&amp;atilde;o perfeitos e isso te deixar&amp;aacute; sempre na frente dos seus advers&amp;aacute;rios.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;p dir="ltr"&gt;E para aumentar o seu poder e a sua experi&amp;ecirc;ncia voc&amp;ecirc; conta com uma tela CURVA de 24". Essa curvatura te leva para dentro do jogo, pois a imers&amp;atilde;o &amp;eacute; total.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;p dir="ltr"&gt;Jogue todos os seus jogos no primeiro n&amp;iacute;vel, afinal voc&amp;ecirc; est&amp;aacute; adquirindo um super monitor. Todos os m&amp;iacute;nimos detalhes foram pensados no desenvolvimento deste produto.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>Monitor Gamer LG 23.8" Full HD, 144Hz, 1Ms, HDMI, DP, IPS, HDR Freesync - 24GN600-B</t>
-  </si>
-  <si>
-    <t>Monitor Gamer LG 23,8 Full HD 144Hz 1MS HDMI DP IPS HDR Freesync 24GN600-B&lt;br /&gt;&lt;br /&gt;PROJETADO PARA VELOCIDADE INCRÍVEL&lt;br /&gt;Com IPS de 1ms comparável à velocidade TN, fornecendo a imagem residual minimizada e um tempo de resposta rápido, permite que você desfrute de um desempenho de jogo totalmente novo.&lt;br /&gt;&lt;br /&gt;MOVIMENTO DE JOGO FLUIDO&lt;br /&gt;Uma velocidade ultra-rápida de 144 Hz permite que os jogadores vejam o próximo quadro rapidamente e faz com que a imagem apareça suavemente. Os jogadores podem responder rapidamente aos oponentes e mirar no alvo facilmente.&lt;br /&gt;&lt;br /&gt;SINTA O COMBATE REAL COM CORES VERDADEIRAS&lt;br /&gt;Este monitor suporta HDR10 com sRGB 99 (Typ.) Permitindo imersão visual realista com cores ricas e contraste. Independentemente do campo de batalha, pode ajudar os jogadores a ver todas as cores dramáticas que os desenvolvedores do jogo pretendiam.&lt;br /&gt;&lt;br /&gt;REAJA MAIS RÁPIDO AOS OPONENTES&lt;br /&gt;Minimize o atraso de entrada com Dynamic Action Sync para que os jogadores possam capturar cada momento em tempo real.&lt;br /&gt;&lt;br /&gt;ATAQUE PRIMEIRO NO ESCURO&lt;br /&gt;Os jogadores podem evitar que os atiradores se escondam nos lugares mais escuros e escapar rapidamente das situações quando o flash explode.</t>
-  </si>
-  <si>
-    <t>Monitor Gamer Acer Nitro Qg270, 27 Polegadas, Full Hd, 180hz, 1ms Freesync</t>
-  </si>
-  <si>
-    <t>Monitor gamer acer nitro qg270 27 polegadas full hd 180hz 1ms freesync  &lt;br /&gt;&lt;br /&gt;  &lt;br /&gt;&lt;br /&gt;  com o monitor gamer nitro qg270 27 polegadas da acer você conseguirá jogar com muito mais clareza e foco! Ele conta com uma alta taxa de atualização de até 180hz e visual response boost (vrb) de até 1 ms. Além disso, o design zeroframe praticamente elimina as bordas e garante a sua imersão no jogo.&lt;br /&gt;&lt;br /&gt;  &lt;br /&gt;&lt;br /&gt;  confira as principais características do nitro qg270 27 polegadas:&lt;br /&gt;&lt;br /&gt;  tela de 27 polegadas full hd: o nitro qg270 entrega imagens mais nítidas, levando sua experiência visual e seu foco no jogo para um novo nível.&lt;br /&gt;&lt;br /&gt;  design zeroframe: monitor com tela led va e design zeroframe, que praticamente elimina as bordas para que você tenha uma verdadeira imersão no jogo.&lt;br /&gt;&lt;br /&gt;  taxa de atualização de até 180hz: esse monitor conta com uma alta taxa de atualização de até 180hz. Prepare-se para ver imagens mais suaves, sem rastros e sem rasgos.&lt;br /&gt;&lt;br /&gt;  tecnologia hdr10: a tela cria níveis mais profundos de contraste preto e branco. Conte com mais imersão no jogo por meio da recriação de imagens realistas.&lt;br /&gt;&lt;br /&gt;  visual response boost (vrb) de até 1 ms: o monitor reduz borrões, efeitos fantasmas e manchas nas imagens. Além disso, elimina o desfoque em objetos em movimento rápido.&lt;br /&gt;&lt;br /&gt;  &lt;br /&gt;&lt;br /&gt;  características:&lt;br /&gt;&lt;br /&gt;  marca: acer&lt;br /&gt;&lt;br /&gt;  modelo: nitro qg270&lt;br /&gt;&lt;br /&gt;  tecnologias: hdr10, md freesync premium, acervision care, flicker-less, low dimming, bluelightshield, acer display widget, game mode, adaptative contrast management&lt;br /&gt;&lt;br /&gt;  cor: preto&lt;br /&gt;&lt;br /&gt;  resolução de tela: full hd 1920 x 1080 180 hz&lt;br /&gt;&lt;br /&gt;  conexão: 1x hdmi (2.0) e 1x displayport(1.4)&lt;br /&gt;&lt;br /&gt;  brilho: 300 nits&lt;br /&gt;&lt;br /&gt;  tempo de resposta: 1 ms vrb visual response boost&lt;br /&gt;&lt;br /&gt;  contraste: 3000:1&lt;br /&gt;&lt;br /&gt;  atualização: até 180 hz&lt;br /&gt;&lt;br /&gt;  interfaces/portas: 1x hdmi(2.0), 1x displayport(1.4), 1x saída de áudio e entrada de alimentação&lt;br /&gt;&lt;br /&gt;  inclinação: -5 graus a 15 graus (aproximadamente)&lt;br /&gt;&lt;br /&gt;  cores: 16.7 milhões&lt;br /&gt;&lt;br /&gt;  ângulo de visão: 178 graus esquerda / direita e 178 graus cima / baixo&lt;br /&gt;&lt;br /&gt;  &lt;br /&gt;&lt;br /&gt;  itens inclusos:&lt;br /&gt;&lt;br /&gt;  monitor&lt;br /&gt;&lt;br /&gt;  suportes&lt;br /&gt;&lt;br /&gt;  manual em português&lt;br /&gt;&lt;br /&gt;  termo de garantia&lt;br /&gt;&lt;br /&gt;  1x cabo de energia&lt;br /&gt;&lt;br /&gt;  1x cabo hdmi&lt;br /&gt;&lt;br /&gt;  &lt;br /&gt;&lt;br /&gt;  garantia: 12 meses (diretamente com a fabricante)</t>
-  </si>
-  <si>
-    <t>Monitor Gamer Cooler Master 23.8 Full HD, 144 Hz, 0.5ms, HDMI e DisplayPort, DCI-P3 de 90%, HDR - CMI-GM238-FFS-BR</t>
-  </si>
-  <si>
-    <t>&lt;h2&gt;Monitor Gamer Cooler Master 23.8 Full HD&lt;/h2&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h2&gt;PRONTO PARA QUALQUER SITUA&amp;Ccedil;&amp;Atilde;O&lt;/h2&gt;
-&lt;p&gt;A &lt;strong&gt;tela Full HD de 144 Hz de 23,8&amp;rdquo;&lt;/strong&gt; combinada com uma ampla gama de cores DCI-P3 de 90% torna o GM238-FFS um monitor incrivelmente vers&amp;aacute;til. Com recursos essenciais para jogos e produtividade, voc&amp;ecirc; pode ter a liberdade de jogar seus jogos sem problemas durante a noite ou se concentrar em seu trabalho durante o dia.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h2&gt;ULTRAVELOCIDADE IPS COM DYNAMIC OVERDRIVE&lt;/h2&gt;
-&lt;p&gt;Equipado com o mais recente painel IPS Ultra-Speed, o GM238-FFS &amp;eacute;&lt;strong&gt; at&amp;eacute; 4x mais r&amp;aacute;pido&lt;/strong&gt; que os pain&amp;eacute;is IPS tradicionais. Os pixels mudam mais rapidamente para outras cores e cenas, levando a uma imagem excepcionalmente suave com significativamente menos desfoque de movimento ou manchas.&lt;/p&gt;
-&lt;p&gt;O &lt;strong&gt;Dynamic Overdrive&lt;/strong&gt; tamb&amp;eacute;m &amp;eacute; ajustado especificamente para o GM238-FFS, selecionando automaticamente as configura&amp;ccedil;&amp;otilde;es de overdrive mais ideais com base na taxa de atualiza&amp;ccedil;&amp;atilde;o para &lt;strong&gt;uma experi&amp;ecirc;ncia ainda mais suave&lt;/strong&gt;.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h2&gt;OPERADOR SUAVE&lt;/h2&gt;
-&lt;p&gt;O &lt;strong&gt;Adaptive Sync&lt;/strong&gt; oferece uma jogabilidade mais suave que reproduz com precis&amp;atilde;o um n&amp;iacute;vel de realismo em tudo o que voc&amp;ecirc; joga. Ao sincronizar os quadros de sa&amp;iacute;da de sua GPU com a taxa de atualiza&amp;ccedil;&amp;atilde;o do monitor, voc&amp;ecirc; pode experimentar uma jogabilidade sem rasgos que &amp;eacute; mais fluida do que nunca.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h2&gt;MUITOS DETALHES&lt;/h2&gt;
-&lt;p&gt;Oferecendo &lt;strong&gt;92,6 pixels&lt;/strong&gt; &lt;strong&gt;por polegada (PPI)&lt;/strong&gt; para um monitor de &lt;strong&gt;23,8 polegadas,&lt;/strong&gt; o GM238-FFS com sua resolu&amp;ccedil;&amp;atilde;o &lt;strong&gt;Full HD&lt;/strong&gt; oferece um &amp;oacute;timo equil&amp;iacute;brio entre fidelidade visual e desempenho.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h2&gt;FA&amp;Ccedil;A DO SEU JOGO&lt;/h2&gt;
-&lt;p&gt;Personalize &lt;strong&gt;at&amp;eacute; 5 perfis de cores diferentes&lt;/strong&gt; para diferentes casos de uso. Em jogos FPS, voc&amp;ecirc; pode querer aumentar a estabiliza&amp;ccedil;&amp;atilde;o do n&amp;iacute;vel de preto para ver melhor os inimigos no escuro, enquanto em um jogo de RPG ou filme, voc&amp;ecirc; prefere que os pretos fiquem mais escuros para maior imers&amp;atilde;o. A escolha &amp;eacute; sua e voc&amp;ecirc; pode personalizar 5 configura&amp;ccedil;&amp;otilde;es de perfil diferentes para qualquer situa&amp;ccedil;&amp;atilde;o que encontrar.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h2&gt;F&amp;Aacute;CIL PARA OS OLHOS&lt;/h2&gt;
-&lt;p&gt;&lt;strong&gt;Proteja seus olhos da luz azul&lt;/strong&gt; potencialmente prejudicial com nosso&lt;strong&gt; modo de luz azul baixa&lt;/strong&gt;. Nossos monitores tamb&amp;eacute;m s&amp;atilde;o &lt;strong&gt;Flicker Free&lt;/strong&gt;, reduzindo ainda mais o cansa&amp;ccedil;o visual e permitindo que voc&amp;ecirc; trabalhe ou jogue mais.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h2&gt;LIMPO E MINIMALISTA&lt;/h2&gt;
-&lt;p&gt;Um &lt;strong&gt;design simples e limpo&lt;/strong&gt; &amp;eacute; o que o GM238-FFS representa. Nenhuma marca sofisticada ou logotipos grandes colocados em qualquer lugar para que voc&amp;ecirc; possa usar este monitor como parte de uma configura&amp;ccedil;&amp;atilde;o profissional ou se misturar facilmente &amp;agrave; sua configura&amp;ccedil;&amp;atilde;o de jogo.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h3&gt;Compre agora no KaBuM!&lt;/h3&gt;</t>
+    <t>Monitor Gamer BenQ 24.5 Mobiuz EX2510S, 1ms, IPS, 165Hz, sRGB, HDR10, FreeSync Premium, Eye Care, Alto-Falante Duplo, Preto - 9H.LKELA.TBL</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Monitor Gamer BenQ 24.5 Mobiuz EX2510S&lt;/h2&gt;
+&lt;h3&gt;&amp;nbsp;&lt;/h3&gt;
+&lt;h3&gt;Explore as possibilidades&lt;/h3&gt;
+&lt;p&gt;Explore novos mundos e supere aventuras desafiadoras. Gr&amp;aacute;ficos deslumbrantes, &amp;aacute;udio incr&amp;iacute;vel e desempenho impec&amp;aacute;vel preparam voc&amp;ecirc; para emo&amp;ccedil;&amp;otilde;es ilimitadas.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h3&gt;Descubra os detalhes&lt;/h3&gt;
+&lt;p&gt;Explore o horizonte em busca de perigos futuros e recompensas ocultas, experimente a exibi&amp;ccedil;&amp;atilde;o clara e detalhada do EX2510S e as imagens suaves e sem rasgos.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h3&gt;Chamadas de aventura&lt;/h3&gt;
+&lt;p&gt;Fique alerta! Um &amp;aacute;udio excepcional avisa sobre a aproxima&amp;ccedil;&amp;atilde;o de inimigos e alerta sobre as pr&amp;oacute;ximas provas. A m&amp;uacute;sica de fundo flui claramente &amp;agrave; medida que sua aventura avan&amp;ccedil;a.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h3&gt;Preparado para jogos&lt;/h3&gt;
+&lt;p&gt;MOBIUZ foi projetado para coloc&amp;aacute;-lo no comando de seu jogo. Assuma o controle de sua experi&amp;ecirc;ncia de jogo ideal com configura&amp;ccedil;&amp;otilde;es intuitivas e selecion&amp;aacute;veis.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h3&gt;Eye-Care, jogue com seguran&amp;ccedil;a&lt;/h3&gt;
+&lt;p&gt;A tecnologia Eye-Care da BenQ cuida dos seus olhos enquanto eles est&amp;atilde;o focados na a&amp;ccedil;&amp;atilde;o. Pronto para outra rodada? Vamos l&amp;aacute;!&lt;/p&gt;</t>
   </si>
   <si>
     <t>Monitor Gamer Gigabyte, 27 Full HD, 170Hz, 1ms, IPS, DisplayPort e HDMI, 105% sRGB, HDR, Adaptive-Sync - GS27F SA</t>
@@ -736,116 +1271,282 @@
 &lt;p&gt;&amp;nbsp;&lt;/p&gt;</t>
   </si>
   <si>
+    <t>Monitor Gamer Cooler Master 27 LED Full HD, 240 Hz, 0.5ms, HDMI e DisplayPort, 98% DCI-P3, HDR, Adaptive Sync - CMI-GM27-CFX-BR</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Monitor Gamer Cooler Master 27 LED Full HD&lt;/h2&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Sinta a Curva&lt;/h2&gt;
+&lt;p&gt;Aproxime-se da a&amp;ccedil;&amp;atilde;o com o painel &lt;strong&gt;1500R VA&lt;/strong&gt;. Com um campo de vis&amp;atilde;o percebido maior, voc&amp;ecirc; economizar&amp;aacute; espa&amp;ccedil;o de configura&amp;ccedil;&amp;atilde;o, enfrentar&amp;aacute; menos distor&amp;ccedil;&amp;atilde;o e desfrutar&amp;aacute; de melhor conforto visual, em um ponto de vista verdadeiramente imersivo.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Contraste Aprimorado para Pretos mais Profundos&lt;/h2&gt;
+&lt;p&gt;Com uma &lt;strong&gt;tecnologia de painel VA aprimorada&lt;/strong&gt;, a possibilidade de vazamento de luz em toda a tela &amp;eacute; bastante minimizada. O GM27-CFX &amp;eacute; capaz de fornecer uma &lt;strong&gt;taxa de contraste est&amp;aacute;tica de 3000:1&lt;/strong&gt; para pretos profundos e brancos brilhantes, mesmo nas cenas mais escuras e claras.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Modos HDR Personalizados&lt;/h2&gt;
+&lt;p&gt;Depois de ativar o &lt;strong&gt;HDR&lt;/strong&gt;, voc&amp;ecirc; pode escolher entre tr&amp;ecirc;s modos HDR: &lt;strong&gt;Padr&amp;atilde;o, Jogo e Filme&lt;/strong&gt;. O modo HDR padr&amp;atilde;o permite ajustar os valores de cor R/G/B, bem como brilho e contraste para melhor atender &amp;agrave;s suas prefer&amp;ecirc;ncias. Os modos HDR de jogo e filme t&amp;ecirc;m configura&amp;ccedil;&amp;otilde;es predefinidas para otimizar a experi&amp;ecirc;ncia de visualiza&amp;ccedil;&amp;atilde;o HDR com base no seu conte&amp;uacute;do.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Sinta a Velocidade&lt;/h2&gt;
+&lt;p&gt;A taxa de atualiza&amp;ccedil;&amp;atilde;o r&amp;aacute;pida &amp;eacute; incrivelmente vital quando se trata de jogos e precis&amp;atilde;o. Nosso monitor GM27-CFX est&amp;aacute; bem equipado com uma &lt;strong&gt;taxa de atualiza&amp;ccedil;&amp;atilde;o de&lt;/strong&gt; &lt;strong&gt;240 Hz&lt;/strong&gt; e&lt;strong&gt; tempo de resposta de 0,5&lt;/strong&gt; &lt;strong&gt;ms (MPRT)&lt;/strong&gt; que o ajuda a rastrear e derrotar melhor seus inimigos no campo de batalha. Ative tamb&amp;eacute;m nosso modo de atraso de entrada baixa e voc&amp;ecirc; ter&amp;aacute; uma experi&amp;ecirc;ncia de jogo extremamente responsiva que oferece a vantagem competitiva de deixar seus oponentes comendo poeira.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Sincroniza&amp;ccedil;&amp;atilde;o Adapt&amp;aacute;vel para Jogabilidade Ultra Suave&lt;/h2&gt;
+&lt;p&gt;Nada &amp;eacute; pior do que ver rasgando e manchando enquanto voc&amp;ecirc; tenta dominar o campo de batalha. O CM27-CFX vem com &lt;strong&gt;suporte para&lt;/strong&gt; &lt;strong&gt;Adaptive Sync&lt;/strong&gt;, permitindo que voc&amp;ecirc; tenha visuais ainda mais suaves e evitando aqueles irritantes artefatos visuais durante os jogos.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Obtenha a Borda no Escuro&lt;/h2&gt;
+&lt;p&gt;Ganhe vantagem competitiva sobre seus oponentes com nosso &lt;strong&gt;modo Black Stabilization&lt;/strong&gt;. Em &amp;aacute;reas particularmente escuras dentro dos jogos, pode ser muito dif&amp;iacute;cil ver seus inimigos, deixando voc&amp;ecirc; vulner&amp;aacute;vel. Ativar a &lt;strong&gt;estabiliza&amp;ccedil;&amp;atilde;o de preto&lt;/strong&gt; permitir&amp;aacute; que voc&amp;ecirc; veja seus oponentes com muito mais facilidade e permita que voc&amp;ecirc; salte sobre eles.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Riqueza de Pontos Qu&amp;acirc;nticos&lt;/h2&gt;
+&lt;p&gt;Seus jogos e entretenimento ficar&amp;atilde;o melhores do que nunca com uma imagem mais n&amp;iacute;tida e detalhada no GM27-CFX. Utilizando um painel VA de pontos qu&amp;acirc;nticos, o GM27-CFX cobre 98% do espectro de cores DCI-P3. Experimente &lt;strong&gt;visuais realistas com cores ricas e contraste profundo&lt;/strong&gt;.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Modo de Luz Azul Baixa&lt;/h2&gt;
+&lt;p&gt;Especialmente &amp;uacute;til para sess&amp;otilde;es de jogos noturnos, o &lt;strong&gt;Low Blue Light Display&lt;/strong&gt; reduz a quantidade de luz azul potencialmente prejudicial e faz voc&amp;ecirc; se sentir &amp;agrave; vontade durante longas sess&amp;otilde;es de jogo. Tamb&amp;eacute;m &amp;uacute;til para reduzir o cansa&amp;ccedil;o visual e, em geral, permitir que voc&amp;ecirc; jogue ou trabalhe ainda mais.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Est&amp;eacute;tica Limpa e Minimalista&lt;/h2&gt;
+&lt;p&gt;Esteja voc&amp;ecirc; no escrit&amp;oacute;rio ou em sua caverna de jogos, o GM27-CFX tem um &lt;strong&gt;design limpo&lt;/strong&gt; com marca m&amp;iacute;nima que pode se encaixar perfeitamente em qualquer configura&amp;ccedil;&amp;atilde;o.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h3&gt;Compre agora no KaBuM!&lt;/h3&gt;</t>
+  </si>
+  <si>
+    <t>Monitor Gamer AOC Agon Curved, 31.5 Polegadas, LED, 165hz, 1MS, Widescreen - AG323FCXE</t>
+  </si>
+  <si>
+    <t>Com tela de alta qualidade, amplo ângulo de visão e comando em tempo real, prepare-se para obter uma experiência muito mais imersiva em todos os gêneros de jogos.  Destaques   Projetado para Gamers. O monitor Agon permite movimentos muito mais fluídos nos jogos devido à altíssima taxa de atualização de 165Hz. A Jogada Perfeita para a Vitória. O tempo de resposta de 1 ms proporciona movimentos instantâneos e naturais para você ser o melhor em qualquer tipo de jogo.   Veja Muito Veja Mais Com o Painel VA, você tem mais brilho e contraste para enxergar onde os seus inimigos estão, mesmo em cenas com pouca iluminação.   Para Onde Você Olha, Tem Jogo A curvatura da tela de 1500R expande o campo de visão para uma visualização muito mais ampla dos cenários, oferecendo mais imersão e profundidade em todos os seus jogos.</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Acer Nitro Qg270, 27 Polegadas, Full Hd, 180hz, 1ms Freesync</t>
+  </si>
+  <si>
+    <t>Monitor gamer acer nitro qg270 27 polegadas full hd 180hz 1ms freesync  &lt;br /&gt;&lt;br /&gt;  &lt;br /&gt;&lt;br /&gt;  com o monitor gamer nitro qg270 27 polegadas da acer você conseguirá jogar com muito mais clareza e foco! Ele conta com uma alta taxa de atualização de até 180hz e visual response boost (vrb) de até 1 ms. Além disso, o design zeroframe praticamente elimina as bordas e garante a sua imersão no jogo.&lt;br /&gt;&lt;br /&gt;  &lt;br /&gt;&lt;br /&gt;  confira as principais características do nitro qg270 27 polegadas:&lt;br /&gt;&lt;br /&gt;  tela de 27 polegadas full hd: o nitro qg270 entrega imagens mais nítidas, levando sua experiência visual e seu foco no jogo para um novo nível.&lt;br /&gt;&lt;br /&gt;  design zeroframe: monitor com tela led va e design zeroframe, que praticamente elimina as bordas para que você tenha uma verdadeira imersão no jogo.&lt;br /&gt;&lt;br /&gt;  taxa de atualização de até 180hz: esse monitor conta com uma alta taxa de atualização de até 180hz. Prepare-se para ver imagens mais suaves, sem rastros e sem rasgos.&lt;br /&gt;&lt;br /&gt;  tecnologia hdr10: a tela cria níveis mais profundos de contraste preto e branco. Conte com mais imersão no jogo por meio da recriação de imagens realistas.&lt;br /&gt;&lt;br /&gt;  visual response boost (vrb) de até 1 ms: o monitor reduz borrões, efeitos fantasmas e manchas nas imagens. Além disso, elimina o desfoque em objetos em movimento rápido.&lt;br /&gt;&lt;br /&gt;  &lt;br /&gt;&lt;br /&gt;  características:&lt;br /&gt;&lt;br /&gt;  marca: acer&lt;br /&gt;&lt;br /&gt;  modelo: nitro qg270&lt;br /&gt;&lt;br /&gt;  tecnologias: hdr10, md freesync premium, acervision care, flicker-less, low dimming, bluelightshield, acer display widget, game mode, adaptative contrast management&lt;br /&gt;&lt;br /&gt;  cor: preto&lt;br /&gt;&lt;br /&gt;  resolução de tela: full hd 1920 x 1080 180 hz&lt;br /&gt;&lt;br /&gt;  conexão: 1x hdmi (2.0) e 1x displayport(1.4)&lt;br /&gt;&lt;br /&gt;  brilho: 300 nits&lt;br /&gt;&lt;br /&gt;  tempo de resposta: 1 ms vrb visual response boost&lt;br /&gt;&lt;br /&gt;  contraste: 3000:1&lt;br /&gt;&lt;br /&gt;  atualização: até 180 hz&lt;br /&gt;&lt;br /&gt;  interfaces/portas: 1x hdmi(2.0), 1x displayport(1.4), 1x saída de áudio e entrada de alimentação&lt;br /&gt;&lt;br /&gt;  inclinação: -5 graus a 15 graus (aproximadamente)&lt;br /&gt;&lt;br /&gt;  cores: 16.7 milhões&lt;br /&gt;&lt;br /&gt;  ângulo de visão: 178 graus esquerda / direita e 178 graus cima / baixo&lt;br /&gt;&lt;br /&gt;  &lt;br /&gt;&lt;br /&gt;  itens inclusos:&lt;br /&gt;&lt;br /&gt;  monitor&lt;br /&gt;&lt;br /&gt;  suportes&lt;br /&gt;&lt;br /&gt;  manual em português&lt;br /&gt;&lt;br /&gt;  termo de garantia&lt;br /&gt;&lt;br /&gt;  1x cabo de energia&lt;br /&gt;&lt;br /&gt;  1x cabo hdmi&lt;br /&gt;&lt;br /&gt;  &lt;br /&gt;&lt;br /&gt;  garantia: 12 meses (diretamente com a fabricante)</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Alienware, 27 Polegadas QHD - Aw2724dm</t>
+  </si>
+  <si>
+    <t>&lt;br&gt;monitor de 27" otimizado para os jogos diários. Apresenta uma tela qhd com uma jogabilidade que parece real.&lt;/br&gt;&lt;br&gt;detalhes vibrantes: veja mais nos universos de todos os jogos em uma tela qhd de 27" que oferece imagens nítidas e detalhadas em ângulos de visão ampliados.&lt;/br&gt;&lt;br&gt;games realistas: não perca nenhum detalhe realista graças aos avançados recursos visuais de alto contraste da certificação vesa displayhdr™ 600 e à cinematográfica cobertura de cores com 95% dci-p3, tudo calibrado com precisão de delta e inferior a 2.&lt;/br&gt;&lt;br&gt;experiência de jogo mais tranquila: as tecnologias nvidia® g-sync®, amd freesync™ premium pro e vesa adaptivesync proporcionam uma experiência gamer sem interrupções nem complicações, mesmo durante os momentos épicos nos games.&lt;/br&gt;&lt;br&gt;pronto para a ação: visualize gráficos acelerados e sem desfoques com incrível suavidade graças às taxas de atualização de até 180 hz e ao tempo de resposta gtg (cinza a cinza) de 1 ms em um rápido painel ips.&lt;/br&gt;&lt;br&gt;conforto ocular certificado: com o comfortview plus, você pode jogar por mais tempo, graças a uma tecnologia de tela sempre ativa e integrada que reduz as emissões de luz azul sem afetar a precisão das cores.&lt;/br&gt;&lt;br&gt;design reformulado: com o mais recente id legend 2.0, este monitor foi cuidadosamente projetado com detalhes como a base hexagonal, o suporte totalmente ajustável e a iluminação personalizável alienfx, que proporcionam uma experiência gamer confortável.&lt;/br&gt;&lt;br&gt;tranquilidade incluida: este produto conta com 3 anos de garantia.&lt;/br&gt;&lt;br&gt;a dell reserva-se o direito de não concluir ou cancelar a venda se o(s) produto(s) for(em) adquirido(s) para revenda.&lt;/br&gt;&lt;br&gt;eventual desconto devido a forma de pagamento é fornecido pela(o) plataforma e não pela dell. A nota fiscal do produto adquirido será emitida sem considerar tal desconto.&lt;/br&gt;&lt;br&gt;&lt;br&gt;especificações tecnicas&lt;/br&gt;&lt;br&gt;tamanho da tela: 27”&lt;/br&gt;&lt;br&gt;conectividade: 1. Conector de alimentação | 2. Slot de trava de segurança (com base no kensington security slot) | 3. Joystick | 4. Porta usb superspeed type-a de 5 gbps para downstream (usb 3.2 de 1ª geração) com battery charging 1.2 | 5. Porta usb superspeed type-b de 5 gbps para downstream (usb 3.2 de 1ª geração) | 6. Porta usb superspeed type-b upstream de 5 gbit/s (usb 3.2 de 1ª geração) | 7. Porta hdmi | 8. Displayport (dp1) | 9. Displayport (dp2)&lt;/br&gt;&lt;br&gt;compatibilidade vesa: sim, 100x100mm&lt;/br&gt;&lt;br&gt;tipo de painel: ips&lt;/br&gt;&lt;br&gt;revestimento da tela: antirreflexo&lt;/br&gt;&lt;br&gt;resolução: 2560 x 1440 180hz (com overclock) / 165hz (nativo)&lt;/br&gt;&lt;br&gt;ângulo de visão: 178º/178º&lt;/br&gt;&lt;br&gt;distância entre pixels: 0,2331mm&lt;/br&gt;&lt;br&gt;pixels por polegada: 108,97&lt;/br&gt;&lt;br&gt;contraste: 1000:1 (típico)&lt;/br&gt;&lt;br&gt;taxa de proporção: 16:9&lt;/br&gt;&lt;br&gt;iluminação: led&lt;/br&gt;&lt;br&gt;brilho: 600 cd/m2 (hdr) e 400 cd/m2 (típico)&lt;/br&gt;&lt;br&gt;amd freesync: sim, suporta amd freesync premium pro com taxa de atualização até 165hz e rápido tempo de resposta de 1ms gray-to-gray em modo extremo&lt;/br&gt;&lt;br&gt;nvidia g-sync: sim, suporta nvidia g-sync compatível&lt;/br&gt;&lt;br&gt;ergonomia: altura (110mm), inclinação (-5º a 21º), giro (-20º a 20º), paisagem/retrato (-90º a 90º) e gerenciamento de cabos&lt;/br&gt;&lt;br&gt;dell display manager: sim&lt;/br&gt;&lt;br&gt;low blue light: sim, comfortview plus (hardware)&lt;/br&gt;&lt;br&gt;flicker-free: sim&lt;/br&gt;&lt;br&gt;garantia: 3 anos de serviço de troca avançada e troca de painel premium&lt;/br&gt;&lt;br&gt;suporte de cores:&lt;br&gt;       color gamut (típico): dci-p3 95%; 100% srgb&lt;/br&gt;&lt;br&gt;       color depth (típico): 1.07 bilhões de cores(true 10 bit)&lt;/br&gt;&lt;br&gt;dimensões: 408,68 x 611,44 x 243,71 mm&lt;/br&gt;&lt;br&gt;peso: 4.38 kg&lt;/br&gt;&lt;br&gt;o que vem na caixa: monitor, suporte e base, cabo de energia, 1x  cabo dp(1.8m), 1x cabo usb-c para dp1.4  (1m), 1x cabo usb3.2 gen 1 (5 gbps) upstream (1.8m), guia de início rápido, informações de segurança e adeviso aliewnare&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Cooler Master 34 QLED 2K QHD, 165Hz, 1ms, HDMI e DisplayPort, 95% DCI-P3, HDR, FreeSync - CMI-GM34-CW2-BR</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Monitor Gamer Cooler Master 34 QLED 2K QHD&lt;/h2&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Jogo sem Compromisso&lt;/h2&gt;
+&lt;p&gt;O GM34-CW foi projetado para que os usu&amp;aacute;rios tenham&amp;nbsp; uma &lt;strong&gt;jogabilidade incrivelmente suave&lt;/strong&gt; experi&amp;ecirc;ncia com exibi&amp;ccedil;&amp;atilde;o maximizada qualidade das cenas do jogo. voc&amp;ecirc; n&amp;atilde;o vai perder a beleza no detalhe ao jogar os &amp;uacute;ltimos jogos. Simplesmente mudando para o modo de jogo de poder, voc&amp;ecirc; est&amp;aacute; pronto para jogo sem qualquer compromisso.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;&amp;Agrave; Frente da sua Concorr&amp;ecirc;ncia&lt;/h2&gt;
+&lt;p&gt;Ao ter o modo de jogo de poder com at&amp;eacute; 1??65Hz* taxa de atualiza&amp;ccedil;&amp;atilde;o ultra alta, &lt;strong&gt;Tempo de resposta de 1 ms&lt;/strong&gt; e Display HDR400 suporte, voc&amp;ecirc; recebe o poder ultra para reagir mais r&amp;aacute;pido e localizar seus inimigos em o escuro. *&lt;strong&gt;144Hz&lt;/strong&gt; (Samsung), &lt;strong&gt;Overclock para 165Hz (AUO)&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Jogo Espetacular&lt;/h2&gt;
+&lt;p&gt;Os monitores GM34-CW usam um &lt;strong&gt;Ultra WQHD Painel&lt;/strong&gt; de &lt;strong&gt;3440*1440 VA&lt;/strong&gt; no &lt;strong&gt;ultrawide&lt;/strong&gt; &lt;strong&gt;taxa curvada de 1500R&lt;/strong&gt;, a largura projetada gama de cores e bisel ultra estreito, que trazem sua jogabilidade como em a realidade. Delicie-se com o melhor imers&amp;atilde;o poss&amp;iacute;vel, estar tudo no jogos.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Ganhe com Conforto&lt;/h2&gt;
+&lt;p&gt;Seus olhos e gestos s&amp;atilde;o levados cuidado pela &lt;strong&gt;prote&amp;ccedil;&amp;atilde;o do baixo azul modo de exibi&amp;ccedil;&amp;atilde;o de luz&lt;/strong&gt; e o benef&amp;iacute;cio de &lt;strong&gt;suporte ajust&amp;aacute;vel em altura&lt;/strong&gt; que lhe d&amp;aacute; sem preocupa&amp;ccedil;&amp;otilde;es, personalizado e jornada confort&amp;aacute;vel para vencer.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h3&gt;Compre agora no KaBuM!&lt;/h3&gt;</t>
+  </si>
+  <si>
+    <t>Monitor Gamer LG 23.8" Full HD, 144Hz, 1Ms, HDMI, DP, IPS, HDR Freesync - 24GN600-B</t>
+  </si>
+  <si>
+    <t>Monitor Gamer LG 23,8 Full HD 144Hz 1MS HDMI DP IPS HDR Freesync 24GN600-B&lt;br /&gt;&lt;br /&gt;PROJETADO PARA VELOCIDADE INCRÍVEL&lt;br /&gt;Com IPS de 1ms comparável à velocidade TN, fornecendo a imagem residual minimizada e um tempo de resposta rápido, permite que você desfrute de um desempenho de jogo totalmente novo.&lt;br /&gt;&lt;br /&gt;MOVIMENTO DE JOGO FLUIDO&lt;br /&gt;Uma velocidade ultra-rápida de 144 Hz permite que os jogadores vejam o próximo quadro rapidamente e faz com que a imagem apareça suavemente. Os jogadores podem responder rapidamente aos oponentes e mirar no alvo facilmente.&lt;br /&gt;&lt;br /&gt;SINTA O COMBATE REAL COM CORES VERDADEIRAS&lt;br /&gt;Este monitor suporta HDR10 com sRGB 99 (Typ.) Permitindo imersão visual realista com cores ricas e contraste. Independentemente do campo de batalha, pode ajudar os jogadores a ver todas as cores dramáticas que os desenvolvedores do jogo pretendiam.&lt;br /&gt;&lt;br /&gt;REAJA MAIS RÁPIDO AOS OPONENTES&lt;br /&gt;Minimize o atraso de entrada com Dynamic Action Sync para que os jogadores possam capturar cada momento em tempo real.&lt;br /&gt;&lt;br /&gt;ATAQUE PRIMEIRO NO ESCURO&lt;br /&gt;Os jogadores podem evitar que os atiradores se escondam nos lugares mais escuros e escapar rapidamente das situações quando o flash explode.</t>
+  </si>
+  <si>
+    <t>Monitor Gamer HQ Premium 25 Pol. Full HD, 1MS, 240Hz, IPS, AMD Freesync, HDMI, DP - Gp25i124</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;::: HQ Premium :::&lt;/b&gt;&lt;br /&gt;&lt;br /&gt;Revolucionário, assim é definido este monitor!&lt;br /&gt;&lt;br /&gt;&lt;b&gt;Última geração:&lt;/b&gt; monitor de ponta, com uma vasta gama de tecnologias embarcadas. A melhor qualidade de imagem com um preço justo.&lt;br /&gt;&lt;br /&gt;&lt;b&gt;Saia na frente: &lt;/b&gt;extraia o máximo de suas habilidades com uma tela pronta para qualquer tipo de desafio.&lt;br /&gt;&lt;br /&gt;&lt;b&gt;Gamer de verdade: &lt;/b&gt;graças ao baixo tempo de resposta de 1ms, a alta taxa de atualização e a tecnologia amd freesync, jogue como um profissional!&lt;br /&gt;&lt;br /&gt;&lt;b&gt;Longas jornadas: &lt;/b&gt;um grande diferencial: com as tecnologias flicker-free e low blue light, você pode encarar horas de jogatina sem cansar a vista.&lt;br /&gt;&lt;br /&gt;&lt;b&gt;Alta resolução com alta definição: &lt;/b&gt;não basta apenas ser full hd. Você, merece mais! Viva momentos únicos com imagens de tirar o fôlego. Além de jogar em 1080p, você, perceberá, cada mínimo detalhe em qualquer tipo de cena. Saia na frente dos seus adversários, mesmo em situações de baixa luminosidade. Sinta-se dentro do jogo, a imersão é, total!&lt;br /&gt;&lt;br /&gt;&lt;b&gt;Aproveitamento total: &lt;/b&gt;com a tela frameless, você, conta com bordas ultrafinas e aproveita todo o espaço da tela.&lt;br /&gt;&lt;br /&gt;&lt;b&gt;Sem reflexos: &lt;/b&gt;com a tela antireflexiva, você, pode embarcar nos seus desafios gamer em qualquer condição de luminosidade.</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Curvo HQ 24 LED, RGB, Full HD, 75 Hz, 1ms, HDMI/VGA, Borda Ultra Fina, Pink - 24GHQ-PINK</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Monitor Gamer Curvo HQ 24 LED, RGB, Full HD, 75 Hz, 1ms, HDMI/VGA, Borda Ultra Fina, Pink - 24GHQ-PINK&lt;/h2&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p dir="ltr"&gt;Imagens n&amp;iacute;tidas, imers&amp;atilde;o total, resposta r&amp;aacute;pida com apenas 1ms e alta taxa de atualiza&amp;ccedil;&amp;atilde;o de at&amp;eacute; 75hz para voc&amp;ecirc; ser o mestre dos games!&lt;/p&gt;
+&lt;p dir="ltr"&gt;Prepare-se para momentos incr&amp;iacute;veis, respostas em tempo real e imers&amp;atilde;o total na curvatura da tela&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p dir="ltr"&gt;Voc&amp;ecirc; j&amp;aacute; possui um PC Gamer?&lt;/p&gt;
+&lt;p dir="ltr"&gt;Ent&amp;atilde;o chegou a hora de escolher o Monitor perfeito para voc&amp;ecirc;. Pois n&amp;atilde;o adianta um computador potente sem uma tela perfeita para jogos.&amp;nbsp;&lt;/p&gt;
+&lt;p dir="ltr"&gt;Tecnologias especiais e dedicadas a jogos comp&amp;otilde;em o HQ pink Curvo.&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p dir="ltr"&gt;Eleve o n&amp;iacute;vel gr&amp;aacute;fico e a precis&amp;atilde;o dos seus movimentos com este monitor HQ.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p dir="ltr"&gt;A alta taxa de atualiza&amp;ccedil;&amp;atilde;o de 75Hz de frequ&amp;ecirc;ncia e o tempo de resposta de 1ms garantem que seus movimentos sejam precisos e que tudo ocorra em tempo real. Voc&amp;ecirc; jamais encontrar&amp;aacute; problemas em jogos multiplayer online ou outros jogos de FPS.&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p dir="ltr"&gt;Seus reflexos ser&amp;atilde;o perfeitos e isso te deixar&amp;aacute; sempre na frente dos seus advers&amp;aacute;rios.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p dir="ltr"&gt;E para aumentar o seu poder e a sua experi&amp;ecirc;ncia voc&amp;ecirc; conta com uma tela CURVA de 24". Essa curvatura te leva para dentro do jogo, pois a imers&amp;atilde;o &amp;eacute; total.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p dir="ltr"&gt;Jogue todos os seus jogos no primeiro n&amp;iacute;vel, afinal voc&amp;ecirc; est&amp;aacute; adquirindo um super monitor. Todos os m&amp;iacute;nimos detalhes foram pensados no desenvolvimento deste produto.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Cooler Master 23.8 Full HD, 144 Hz, 0.5ms, HDMI e DisplayPort, DCI-P3 de 90%, HDR - CMI-GM238-FFS-BR</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Monitor Gamer Cooler Master 23.8 Full HD&lt;/h2&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;PRONTO PARA QUALQUER SITUA&amp;Ccedil;&amp;Atilde;O&lt;/h2&gt;
+&lt;p&gt;A &lt;strong&gt;tela Full HD de 144 Hz de 23,8&amp;rdquo;&lt;/strong&gt; combinada com uma ampla gama de cores DCI-P3 de 90% torna o GM238-FFS um monitor incrivelmente vers&amp;aacute;til. Com recursos essenciais para jogos e produtividade, voc&amp;ecirc; pode ter a liberdade de jogar seus jogos sem problemas durante a noite ou se concentrar em seu trabalho durante o dia.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;ULTRAVELOCIDADE IPS COM DYNAMIC OVERDRIVE&lt;/h2&gt;
+&lt;p&gt;Equipado com o mais recente painel IPS Ultra-Speed, o GM238-FFS &amp;eacute;&lt;strong&gt; at&amp;eacute; 4x mais r&amp;aacute;pido&lt;/strong&gt; que os pain&amp;eacute;is IPS tradicionais. Os pixels mudam mais rapidamente para outras cores e cenas, levando a uma imagem excepcionalmente suave com significativamente menos desfoque de movimento ou manchas.&lt;/p&gt;
+&lt;p&gt;O &lt;strong&gt;Dynamic Overdrive&lt;/strong&gt; tamb&amp;eacute;m &amp;eacute; ajustado especificamente para o GM238-FFS, selecionando automaticamente as configura&amp;ccedil;&amp;otilde;es de overdrive mais ideais com base na taxa de atualiza&amp;ccedil;&amp;atilde;o para &lt;strong&gt;uma experi&amp;ecirc;ncia ainda mais suave&lt;/strong&gt;.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;OPERADOR SUAVE&lt;/h2&gt;
+&lt;p&gt;O &lt;strong&gt;Adaptive Sync&lt;/strong&gt; oferece uma jogabilidade mais suave que reproduz com precis&amp;atilde;o um n&amp;iacute;vel de realismo em tudo o que voc&amp;ecirc; joga. Ao sincronizar os quadros de sa&amp;iacute;da de sua GPU com a taxa de atualiza&amp;ccedil;&amp;atilde;o do monitor, voc&amp;ecirc; pode experimentar uma jogabilidade sem rasgos que &amp;eacute; mais fluida do que nunca.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;MUITOS DETALHES&lt;/h2&gt;
+&lt;p&gt;Oferecendo &lt;strong&gt;92,6 pixels&lt;/strong&gt; &lt;strong&gt;por polegada (PPI)&lt;/strong&gt; para um monitor de &lt;strong&gt;23,8 polegadas,&lt;/strong&gt; o GM238-FFS com sua resolu&amp;ccedil;&amp;atilde;o &lt;strong&gt;Full HD&lt;/strong&gt; oferece um &amp;oacute;timo equil&amp;iacute;brio entre fidelidade visual e desempenho.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;FA&amp;Ccedil;A DO SEU JOGO&lt;/h2&gt;
+&lt;p&gt;Personalize &lt;strong&gt;at&amp;eacute; 5 perfis de cores diferentes&lt;/strong&gt; para diferentes casos de uso. Em jogos FPS, voc&amp;ecirc; pode querer aumentar a estabiliza&amp;ccedil;&amp;atilde;o do n&amp;iacute;vel de preto para ver melhor os inimigos no escuro, enquanto em um jogo de RPG ou filme, voc&amp;ecirc; prefere que os pretos fiquem mais escuros para maior imers&amp;atilde;o. A escolha &amp;eacute; sua e voc&amp;ecirc; pode personalizar 5 configura&amp;ccedil;&amp;otilde;es de perfil diferentes para qualquer situa&amp;ccedil;&amp;atilde;o que encontrar.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;F&amp;Aacute;CIL PARA OS OLHOS&lt;/h2&gt;
+&lt;p&gt;&lt;strong&gt;Proteja seus olhos da luz azul&lt;/strong&gt; potencialmente prejudicial com nosso&lt;strong&gt; modo de luz azul baixa&lt;/strong&gt;. Nossos monitores tamb&amp;eacute;m s&amp;atilde;o &lt;strong&gt;Flicker Free&lt;/strong&gt;, reduzindo ainda mais o cansa&amp;ccedil;o visual e permitindo que voc&amp;ecirc; trabalhe ou jogue mais.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;LIMPO E MINIMALISTA&lt;/h2&gt;
+&lt;p&gt;Um &lt;strong&gt;design simples e limpo&lt;/strong&gt; &amp;eacute; o que o GM238-FFS representa. Nenhuma marca sofisticada ou logotipos grandes colocados em qualquer lugar para que voc&amp;ecirc; possa usar este monitor como parte de uma configura&amp;ccedil;&amp;atilde;o profissional ou se misturar facilmente &amp;agrave; sua configura&amp;ccedil;&amp;atilde;o de jogo.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h3&gt;Compre agora no KaBuM!&lt;/h3&gt;</t>
+  </si>
+  <si>
     <t>Monitor Gamer Lg 24'', Hdmi/displayport, Led Full Hd, 144hz, 1ms Mbr, Freesync, Ajuste De Inclinação</t>
   </si>
   <si>
     <t>Desfrute de uma incrível qualidade de imagem com o monitor LG e se surpreenda com o HDR10. A alta gama de cores e com resolução 4k é facilmente superior quando comparado a monitores convencionais. Com a tecnologia AMD Radeon FreeSync você aproveitará ainda mais das imagens do Monitor LG, eliminando os cortes e repetições de imagem..</t>
   </si>
   <si>
-    <t>Monitor Gamer Cooler Master 27 Full HD, 165 Hz, 0.5ms, HDMI e DisplayPort, DCI-P3 90%, HDR - CMI-GM27-FFS-BR</t>
-  </si>
-  <si>
-    <t>&lt;h2&gt;Monitor Gamer Cooler Master 27 Full HD&lt;/h2&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h2&gt;SUA SOLU&amp;Ccedil;&amp;Atilde;O PLAY-WORK-MOVIE&lt;/h2&gt;
-&lt;p&gt;O GM27-FFS &amp;eacute; uma ferramenta b&amp;aacute;sica de alta pot&amp;ecirc;ncia em sua vida di&amp;aacute;ria para jogos, trabalho e entretenimento. Ele oferece imagens superiores e cores precisas com uma experi&amp;ecirc;ncia geral mais responsiva. Acesse o modo de jogo ativando o &lt;strong&gt;Adaptive Sync&lt;/strong&gt; para visuais suaves e sem falhas.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h2&gt;&amp;Agrave; FRENTE DA SUA CONCORR&amp;Ecirc;NCIA&lt;/h2&gt;
-&lt;p&gt;Por ter uma&lt;strong&gt; taxa de atualiza&amp;ccedil;&amp;atilde;o ultra alta&lt;/strong&gt; de &lt;strong&gt;165 Hz&lt;/strong&gt;,&lt;strong&gt; tempo de resposta de 0,5 ms&lt;/strong&gt;, a vit&amp;oacute;ria est&amp;aacute; ao seu alcance enquanto as sess&amp;otilde;es de trabalho ou filme ter&amp;atilde;o menos desfoque de movimento e manchas.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h2&gt;QUALIDADE DE IMAGEM IMPRESSIONANTE&lt;/h2&gt;
-&lt;p&gt;Experimente cores vivas e excepcionais com ampla gama de cores de &lt;strong&gt;DCI-P3 90%&lt;/strong&gt; com surpreendente resolu&amp;ccedil;&amp;atilde;o FHD &lt;strong&gt;1920*1080 &lt;/strong&gt;no painel plano de bisel ultra estreito.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h2&gt;GANHE COM CONFORTO&lt;/h2&gt;
-&lt;p&gt;O &lt;strong&gt;modo de exibi&amp;ccedil;&amp;atilde;o de luz azul baixa&lt;/strong&gt; reduz a quantidade de luz azul potencialmente prejudicial e faz voc&amp;ecirc; se sentir &amp;agrave; vontade durante longas sess&amp;otilde;es de trabalho/jogo.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h2&gt;Compre agora no KaBuM!&lt;/h2&gt;</t>
-  </si>
-  <si>
-    <t>Monitor Gamer Multi Warrior Kaizen 27 Polegadas, Full HD IPS, 144Hz, 1ms, HDMI e DisplayPort, FreeSync - MN201</t>
-  </si>
-  <si>
-    <t>O Monitor Kaizen traz um novo significado para a palavra imersão, a sua tela IPS Full HD proporciona realismo total para a sua jogatina. Tenha uma jogabilidade fluida com uma taxa de atualização de 144Hz, sem rastros e sem o efeito Ghosting. A tela de 27" FHD do Warrior Kaizen garante uma imersão total em seus games. Aproveite ao máximo a qualidade de imagem em alta resolução. Seu painel IPS garante maior fidelidade de cores e qualidade de imagem em seus jogos. A tecnologia FreeSync sincroniza os quadros gerados pela placa gráfica (GPU) com a taxa de atualização do monitor. Isso garante que eles fiquem sempre alinhados e proporcionem uma imagem fluida e sem cortes. Ele conta com um com tempo de resposta de 1ms, permitindo que você tenha a reação mais rápida para os seus desafios. Com iluminação RGB, seu setup gamer ainda melhor. Conta com base ajustável em altura e rotação com ajustes precisos e tempo de resposta ultra rápido para seus comandos. O monitor Warrior Kayzen se adapta perfeitamente ao seu setup.</t>
-  </si>
-  <si>
-    <t>Monitor Gamer Bluecase 24 Polegadas Full HD,  144HZ, 1ms, HDMI e DisplayPort, FreeSync - BM242GW</t>
-  </si>
-  <si>
-    <t>Monitor Gamer Full HD 144Hz de atualização para melhores gráficos. Com 1 conector DisplayPort e 1 conector HDMI. &lt;br /&gt;&lt;br /&gt;TAXA DE ATUALIZAÇÃO   &lt;br /&gt;Uma taxa de atualização de 144Hz deixa a sua tela sem nenhum borrão, serrilhado ou "ghosting". FLICKER-FREE   A função Flicker-Free regula o brilho para diminuir o cansaço dos olhos durante os jogos. &lt;br /&gt;&lt;br /&gt;APENAS 1MS TEMPO DE RESPOSTA (GTG)   &lt;br /&gt;Melhor desempenho e experiência de jogo nas ações de rápido movimento. &lt;br /&gt;&lt;br /&gt;TECNOLOGIA AMD FREESYNC   &lt;br /&gt;O AMD FREESYNC faz a sincronização entre a taxa de atualização de seu monitor e a taxa de quadros de sua placa de vídeo eliminando imagens quebradas.</t>
-  </si>
-  <si>
-    <t>Monitor Gamer Acer 23.8 Polegadas Full HD, 165Hz, 1ms, HDR, FreeSync, HDMI e DisplayPort - QG241Y</t>
-  </si>
-  <si>
-    <t>Monitor Samsung Odyssey, 27pol., Full HD, 165Hz, 1MS, HDMI, Display Port, FreeSync</t>
-  </si>
-  <si>
-    <t>REAJA EM TEMPO REAL: TAXA DE ATUALIZAÇÃO DE 165HZ &lt;br /&gt;Vença todos os inimigos, mesmo em velocidades altíssimas. A taxa de atualização de 165Hz elimina o atraso e o desfoque do movimento para uma jogabilidade estimulante com ação ultra-suave. &lt;br /&gt;&lt;br /&gt;TEMPO DE RESPOSTA ULTRARRÁPIDO: 1MS DE TEMPO DE RESPOSTA (MPRT) &lt;br /&gt;Faça com que cada movimento conte com um tempo de resposta de 1ms. Os pixels da tela respondem de maneira quase instantânea, permitindo que a ação rápida flua com precisão do mundo real. Seu desempenho na tela é tão rápido quanto seus próprios reflexos. &lt;br /&gt;&lt;br /&gt;FLUXO DE JOGO ININTERRUPTO: AMD FREESYNC PREMIUM &lt;br /&gt;Jogabilidade fácil e sem esforço. AMD FreeSync Premium apresenta tecnologia de sincronização adaptativa que reduz atraso de tela, rasgos de imagem e a latência de entrada, assegurando assim que cada cena flua sem interrupções. &lt;br /&gt;&lt;br /&gt;VEJA O JOGO DO SEU JEITO: SUPORTE ERGONÔMICO &lt;br /&gt;Atinja o auge da vitória. Gire, incline e ajuste seu monitor até que todos os inimigos estejam em perfeita visão. Seu monitor pode ser movido livremente para que você possa encontrar o conforto total do jogo. &lt;br /&gt;&lt;br /&gt;VISÃO EXPANSIVA: DESIGN SEM BORDAS EM 3 LADOS &lt;br /&gt;Seu legado não tem limites. O design sem bordas em 3 lados revela o espaço máximo para uma jogabilidade maior e mais ousada. Alinhe duas telas precisamente em uma configuração de dois monitores e não perca nenhum inimigo de vista mesmo nas junções.</t>
-  </si>
-  <si>
-    <t>Monitor Gamer Samsung Odyssey G30 24” Full HD</t>
-  </si>
-  <si>
-    <t>Para você que é fanático por games, precisa ter equipamentos que leve você aos mais altos níveis de habilidade e jogabilidade. A Samsung apresenta o monitor gamer Odyssey G30 LS24BG300ELMZD de 24".
-Com resolução FHD, ele possui frequência de atualização de 144Hz atualiza as imagens da tela com mais frequência a cada segundo, permitindo uma jogabilidade mais suave que acompanha até mesmo os jogadores mais rápidos, painel VA, tempo de resposta de 1ms onde os pixels da tela respondem de maneira quase instantânea, permitindo que a ação rápida flua com precisão do mundo real. Seu desempenho na tela é tão rápido quanto seus próprios reflexos e conexões como 1 Display Port, EA Display Port Version: 1.2, 1 HDMI, EA HDMI Version: 1.4, HDCP Version (HDMI): 2.2, Headphone.
-E ainda, conta com várias características que te ajudam ainda mais como AMD FreeSync Premium que apresenta tecnologia de sincronização adaptativa que reduz atraso de tela, rasgos de imagem e a latência de entrada, assegurando assim que cada cena flua sem interrupções, ajuste de altura, design sem bordas em 3 lados que revela o espaço máximo para uma jogabilidade maior e mais ousada.</t>
-  </si>
-  <si>
-    <t>Monitor Gamer Curvo Duex Dx 270zg, 27 Polegadas, FULL HD (1920x1080), 240hz, Preto</t>
-  </si>
-  <si>
-    <t>Marca: duex&lt;br /&gt;modelo: dx 270zg &lt;br /&gt;&lt;br /&gt;especificações: &lt;br /&gt;&lt;br /&gt;tamanho da tela: 27" &lt;br /&gt;área de display: 527.4 (h) x 296.4 (v) &lt;br /&gt;resolução: 1920x1080 (240hz) &lt;br /&gt;pixel pitch: 0.27mm &lt;br /&gt;ângulo de visão: h:178 / v:178 &lt;br /&gt;brilho: 250cd/m² &lt;br /&gt;tempo de resposta: 1ms &lt;br /&gt;número de cores: 16.7m &lt;br /&gt;&lt;br /&gt;conectores: &lt;br /&gt;2x hdmi &lt;br /&gt;1x displayport &lt;br /&gt;1x usb &lt;br /&gt;1x áudio &lt;br /&gt;&lt;br /&gt;conteúdo da caixa: &lt;br /&gt;monitor &lt;br /&gt;base&lt;br /&gt;cabo hdmi&lt;br /&gt;fonte de energia&lt;br /&gt;&lt;br /&gt;garantia: 365 dias</t>
-  </si>
-  <si>
-    <t>Monitor Gamer Draxen 23.8'' resolução de 1920 x 1080 tempo de resposta de 1 MS 165HZ Full HD, Sem Borda</t>
-  </si>
-  <si>
-    <t>o monitor gamer draxen 165hz full hd é tudo o que você precisa para completar o seu setup. desenvolvido pensando no seu estilo de vida, oferecendo qualidade, desempenho e um design mais moderno do que nunca. a sua tela 23.8 lhe dará comodidade para estudar, trabalhar ou assistir sua série ou filme favoritos no seu tempo de lazer. além disso, sua alta resolução de 1920 x 1080 permite que você desfrute de momentos únicos graças a uma imagem nítida, cores realistas e contraste incrível. exibição de vídeo perfeita com tempo de resposta de 1 ms e mais de 16,7 milhões de cores que transformam as imagens em uma experiência muito fiel à realidade.&lt;br&gt;aprimore sua configuração com estilo. a furação padrão vesa 75x75 permite que você fixe o monitor em uma parede ou em um suporte.</t>
-  </si>
-  <si>
-    <t>Monitor Gamer Bluecase, 27", 2.5k, 75hz, 5ms, Preto - BM2716GW</t>
-  </si>
-  <si>
-    <t>Monitor Gamer HQ, 24 Polegadas, FULL HD 144HZ A 165HZ 1MS Curvo Led, HDMI Display Port, Alto Falantes Iluminação RGB - Battle 24h165g</t>
-  </si>
-  <si>
-    <t>A Jogatina Perfeita&lt;br /&gt;Com O Monitor Hq Battle, Os Seus Movimentos Serão Instantâneos E O Seu Tempo De Reação Ocorrerá Em Tempo Real Em Qualquer Tipo De Jogo.&lt;br /&gt;Sem Atrasos, Você Jogará Com Desempenho Profissional.&lt;br /&gt;Graças A Combinação De Tempo De Resposta Ultrarápido + Alta Taxa De Atualização, Você Sairá Na Frente Dos Seus Oponentes:&lt;br /&gt;&lt;br /&gt;Tempo De Resposta: 1ms&lt;br /&gt;Desempenho Sem Igual, Imagens Nítidas E Sem Espera. Enxergue Toda A Cena No Milésimo De Segundo Em Que Ela Acontece. Não Desperdice Nenhum Movimento. O Seu Reflexo Convertido Em Vitórias!&lt;br /&gt;&lt;br /&gt;Taxa De Atualização: 165hz&lt;br /&gt;Nada De Rastros Nem Imagens Desfocadas. Tenha Uma Incrível Vantagem Sobre O Seu Adversário, Principalmente Em Cenas Rápidas. A Altíssima Taxa De Atualização Permitirá A Você Perceber Cada Sensível Mudança No Ambiente.&lt;br /&gt;&lt;br /&gt;Amd Freesync E Nvidia G-sync&lt;br /&gt;E Para Completar O Time, O Monitor Hq Battle Conta Com As Tecnologias Amd Freesync E Nvidia G-sync. Incríveis Ferramentas Que Impedem Imagens Serrilhadas E Cortadas.&lt;br /&gt;Elas Apresentam A Tecnologia De Sincronização Adaptável, Que Reduz O Travamento De Tela, Oscilação E Atrasos.&lt;br /&gt;&lt;br /&gt;Enxergue No Escuro&lt;br /&gt;Graças Ao Painel Va Utilizado Nos Monitores Hq Battle, Você Se Dará Bem Em Qualquer Tipo De Ambiente, Mesmo Em Situações De Baixa Luminosidade.&lt;br /&gt;Encontre Seus Inimigos Escondidos Em Qualquer Lugar, Mesmo Os Mais Escuros.&lt;br /&gt;&lt;br /&gt;Mais Sobre O Painel Va&lt;br /&gt;Quando Falamos Em Tipo De Painel Para Monitores Gamer, Existem Três Opções Disponíveis No Mercado.&lt;br /&gt;E Por Que A Hq Escolheu O Tipo Va Para O Monitor Battle?&lt;br /&gt;A Resposta é Simples. Pois Essa Opção Oferece A Maior Gama De Vantagens Para O Jogador:&lt;br /&gt;1- âNgulo De Visão De 178x178 Graus, Enxergue Bem Em Qualquer âNgulo&lt;br /&gt;2- Alto Nível De Contraste, Imagens Nítidas Mesmo Em Cenas Muito Claras Ou Muito Escuras&lt;br /&gt;3- Tempo De Resposta Real De 1ms Mprt&lt;br /&gt;4- Cores Vivas E Nítidas&lt;br /&gt;5- Permite As Mais Altas Taxas De Atualização&lt;br /&gt;&lt;br /&gt;Design úNico&lt;br /&gt;Além De Todos Os Recursos Apresentados, Ainda Temos O Fato Do Monitor Hq Battle Ter Um Visual Sensacional.&lt;br /&gt;Desenvolvido Com Uma Tela Curva, Isso Já Seria O Bastante Para Deixar O Seu Setup Gamer Ainda Mais Moderno. Mas Além Disso, Ele Ainda Possui A Tecnologia ´´Frameless´´, Sem Bordas, Que Garantirão A Você Uma Imersão Total. Aproveite 100% Da Tela.&lt;br /&gt;&lt;br /&gt;Conectividade E Recursos&lt;br /&gt;Para Garantir Uma Experiência Perfeita, Equipamos O Battle Com Tudo O Que Você Precisa.&lt;br /&gt;Dupla Saída De Vídeo Hdmi E Display Port, Além De Uma Conexão Usb.&lt;br /&gt;E Para Deixar Tudo Ainda Melhor, Ele Vem Acompanhado Com Dois Alto Falantes Surround E Iluminação Em Rgb.</t>
-  </si>
-  <si>
-    <t>Para você que é fanático por games, precisa ter equipamentos que te impulsione aos mais altos níveis de jogabilidade.
-A LG apresenta o monitor gamer Widescreen UltraGear 24GN60R-B de 24".
-Ele possui resolução Full HD (1920x1080), frequência de atualização de 144Hz, painel IPS, tempo de resposta de 1ms e conexões HDMI e DisplayPort.
-Além disso, ainda conta com HDR10, Flicker Safe, AMD FreeSync para maior fluídez durante seus jogos competitivos, Motion Blur Reduction, Crosshair, Dynamic Action Sync, Black Stabilizer, Plug &amp; Play, Modo Leitura e OnScreen Control. Ajuste de inclinação para adequar ao seu estilo de jogo e design de 3 lados praticamente sem bordas.</t>
-  </si>
-  <si>
-    <t>Monitor Cooler Master Ga271, 27 Polegadas, Wqhd, Va, Hdr10, 100hz, 1ms, Srgb</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;&lt;strong&gt;mergulhe no mundo dos jogos&lt;/strong&gt;&lt;br /&gt;o ga271 é um monitor wqhd com taxa de atualização de até 100 hz com suporte para adaptive sync. Com todos os recursos e especificações necessários, o ga271 é um monitor orientado para o valor que oferece desempenho excepcional em aplicações de jogos e de trabalho.&lt;/p&gt;&lt;p&gt;&lt;strong&gt;encontre seu equilíbrio&lt;/strong&gt;&lt;br /&gt;o ga271 com um painel de 27" com resolução wqhd oferece visuais impressionantes para seus jogos e aplicativos relacionados ao trabalho. O ga271 pode ser seu monitor principal para lidar com planilhas durante o dia, bem como para jogar e desfrutar de entretenimento durante a noite.&lt;/p&gt;&lt;p&gt;&lt;strong&gt;100hz + 1ms&lt;/strong&gt;&lt;br /&gt;o ga271 oferece uma taxa de atualização fluida de 100 hz com tempo de resposta de 1 ms, proporcionando imagens mais nítidas e responsivas para jogos, bem como para uso geral de produtividade.&lt;/p&gt;&lt;p&gt;&lt;strong&gt;contraste mais profundo&lt;/strong&gt;&lt;br /&gt;o painel va do ga271 produz pretos mais profundos e escuros para um nível de contraste aprimorado, resultando em maior qualidade de imagem. Com uma relação de contraste de 4000:1, o painel va do ga271 é capaz de reproduzir um nível de contraste 4x superior ao de um painel ips padrão.&lt;/p&gt;&lt;p&gt;&lt;strong&gt;sincronização adaptativa&lt;/strong&gt;&lt;br /&gt;ga271 vem com suporte adaptive sync, proporcionando uma experiência extra suave e sem interrupções em seus jogos. Ganhe uma vantagem competitiva sobre seus oponentes com menos manchas de movimento e visuais mais claros nos jogos que você joga.&lt;/p&gt;&lt;p&gt;&lt;strong&gt;luz azul baixa e sem cintilação&lt;/strong&gt;&lt;br /&gt;ga271 não treme e possui um modo de luz azul baixa para proteger ainda mais seus olhos de emissões de luz azul potencialmente prejudiciais.&lt;/p&gt;&lt;p&gt;&lt;strong&gt;pronto para hdr&lt;/strong&gt;&lt;br /&gt;o ga271 não é ótimo apenas para jogos, mas também para desfrutar de entretenimento, pois aceita entrada hdr, permitindo visualizar conteúdo com maiores detalhes e cores em comparação com um monitor tradicional.&lt;/p&gt;&lt;p&gt;&lt;strong&gt;estética minimalista&lt;/strong&gt;&lt;br /&gt;ga271 segue o básico com um design prático com foco em uma estética minimalista. O design limpo certamente se encaixa perfeitamente em sua configuração de trabalho e lazer.&lt;/p&gt;&lt;p&gt;&lt;strong&gt;opções de conectividade&lt;/strong&gt;&lt;br /&gt;conecte seus dispositivos às portas de e/s que consistem em: 1 x porta de exibição,  2 x hdmi 2.0, 1 x conector de fone de ouvido de 3,5 mm&lt;/p&gt;&lt;p&gt; &lt;/p&gt;&lt;p&gt;&lt;strong&gt;especificações:&lt;/strong&gt;&lt;/p&gt;&lt;ul&gt;	&lt;li&gt;marca: cooler master&lt;/li&gt;	&lt;li&gt;modelo: cmi-ga271&lt;/li&gt;	&lt;li&gt;tipo de painel: série plana&lt;/li&gt;	&lt;li&gt;razão: 16:9&lt;/li&gt;	&lt;li&gt;tamanho da tela: 27"&lt;/li&gt;	&lt;li&gt;painel: va 1.07b&lt;/li&gt;	&lt;li&gt;resolução: 2k wqhd 2560x1440&lt;/li&gt;	&lt;li&gt;taxa de quadros: 100hz&lt;/li&gt;	&lt;li&gt;relação de contraste: 4000:1&lt;/li&gt;	&lt;li&gt;visão de angulo: 178°/178°&lt;/li&gt;	&lt;li&gt;brilho: 250 lêndeas&lt;/li&gt;	&lt;li&gt;gama de cores: srgb 95%&lt;/li&gt;	&lt;li&gt;entradas hdmi: 2&lt;/li&gt;	&lt;li&gt;entrada dp: 1&lt;/li&gt;	&lt;li&gt;tecnologia vrr: adaptive sync, faixa freesync: sim, faixa g-sync: sim&lt;/li&gt;	&lt;li&gt;tempo de resposta: 1ms (mprt) &lt;/li&gt;	&lt;li&gt;proteção de luz azul: sim &lt;/li&gt;	&lt;li&gt;consumo: 18w&lt;/li&gt;	&lt;li&gt;ajuste de inclinação: -5°~+20°&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>Monitor Gamer AOC Entusiasta Monitor 27 Polegadas, FULL HD, Wide, Ips, 1ms, 75hz, Adaptive G-sync</t>
-  </si>
-  <si>
-    <t>Monitor Gamer AOC. Desenvolvidos para suportar todas as emoções dos jogos, o tempo de resposta de 1ms oferece alta velocidade, definição e muita suavidade em todos os movimentos. A avançada tecnologia Painel IPS esclarece automaticamente as áreas escuras do mundo do jogo, entregando mais cor, brilho e contraste, melhorando a visualização com amplos ângulos de visão. Game Mode, Esta função possui predefinições de fábrica para otimizar cada tipo de jogo. Assim, os níveis de gama preto, proporções de contraste e nitidez são instantaneamente calibrados</t>
-  </si>
-  <si>
-    <t>USADO: Monitor Gamer LG, Tela 29 Polegadas, 75Hz, 1ms, Dynamic Action Sync, AMD FreeSync - 29UM69G-B.AWZM - Bronze Recer</t>
-  </si>
-  <si>
-    <t>Monitor Gamer LG 29UM69G-B.AWZM, com tela de 29? polegadas com resolução Full HD (2560 x 1080), uma taxa de atualização de 75Hz, e um tempo de resposta de 1ms com tecnologia que todo gamer precisa como Dynamic action Sync e AMD FreeSync&lt;br /&gt;&lt;br /&gt;ATENÇÃO: este produto é RECERTIFICADO.&lt;br /&gt;Os eletrônicos são originais e acompanham Nota Fiscal. Os produtos passam por uma avaliação de qualidade rigorosa, que certifica as condições técnicas e estéticas do aparelho, categorizadas de acordo com os selos ouro, prata ou bronze. Você ainda conta com garantia de três meses contra problemas e pode fazer a devolução do produto em até sete dias.&lt;br /&gt;SAIBA O QUE É UM PRODUTO RECERTIFICADO (BRONZE)&lt;br /&gt;O produto recertificado em condições de fábrica é um produto que volta para o mercado, disponível para vendas, nas mesmas condições de um produto novo, com todas as funcionalidades e características originais, beneficiando o comprador e possibilitando economizar dinheiro na compra.&lt;br /&gt;O produto recertificado em condições de fábrica passa por um processo rigoroso de análise, onde todas as funcionalidades são testadas e após constatação de 100% de funcionamento o produto é liberado como recertificado.&lt;br /&gt;Depois de atingir 100% da certificação técnica de operação em suas funcionalidades, os produtos do Saldão da Informática são classificados em 3 certificações, de acordo com seu estado estético e superficial, sendo assim classificados como: Ouro, Prata e Bronze.&lt;br /&gt;Esse produto é recertificado Bronze: Produto têm alguns riscos. Estes riscos não alteram ao perfeito funcionamento do equipamento.</t>
-  </si>
-  <si>
-    <t>Monitor 27" LED/IPS Acer Gamer Ultra Fino, 75Hz, 1Ms, HDMI + VGA - SA270</t>
-  </si>
-  <si>
-    <t>&lt;b&gt;Monitor Gamer Acer LCD 27 SA270 Bbix Full HD 75Hz 1ms IPS FreeSync HDMI Preto UM.HS0AA.B02&lt;/b&gt;&lt;br /&gt;&lt;br /&gt;NÃO PERCA NENHUM DETALHE DO SEU JOGO&lt;br /&gt;Veja tudo em alta definição com a resolução de 1920 x 1080 Full HD.&lt;br /&gt;E com as 27 da tela, seus jogos terão um campo de visão privilegiado.&lt;br /&gt;&lt;br /&gt;ENTRE NO UNIVERSO GAMER&lt;br /&gt;Garanta uma ótima performance de cor em seus jogos favoritos. O painel In Plane Switching (IPS) promove cores mais vibrantes e nítidas de qualquer ângulo, sem deixar rastros.&lt;br /&gt;&lt;br /&gt;ESTEJA PRONTO PARA JOGAR&lt;br /&gt;A taxa de atualização de 75Hz leva a renderização dos seus jogos a outro nível.&lt;br /&gt;E o tempo de resposta de 1ms acelera as transições e não trava durante a ação.</t>
-  </si>
-  <si>
-    <t>Monitor Gamer Bluecase 23.6 Polegadas, Curvo, LED FULL HD, 180Hz, HDMI,VGA, Preto - Bm24ffd1gc</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;&lt;b&gt;monitor gamer full hd curvo led 23,6" bluecase 180hz hdmi vga preto - bm24ffd1gc&lt;/b&gt;&lt;/p&gt;&lt;p&gt;&lt;br /&gt;o monitor gamer bm24ffd1gc possui um tamanho de 23,6", proporcionando uma resolu&amp;ccedil;&amp;atilde;o m&amp;aacute;xima de 1920x1080 pixels full hd. Sua taxa de atualiza&amp;ccedil;&amp;atilde;o m&amp;aacute;xima &amp;eacute; de 180 hz atrav&amp;eacute;s das conex&amp;otilde;es hdmi e dp, oferece imagens mais suaves e fluidas.&amp;nbsp;equipado com ilumina&amp;ccedil;&amp;atilde;o led, o monitor possui um brilho de 300 cd/m&amp;sup2; e um contraste t&amp;iacute;pico de 4.000:1, resultando em cores vibrantes e imagens detalhadas. O monitor gamer bm24ffd1gc &amp;eacute; uma &amp;oacute;tima escolha para jogos, trabalho e entretenimento, proporcionando uma experi&amp;ecirc;ncia visual envolvente e de alta qualidade.&lt;/p&gt;&lt;p&gt;&lt;br /&gt;&lt;b&gt;caracter&amp;iacute;sticas monitor gamer led full hd bluecase 23,6" 180hz - preto&lt;/b&gt;&lt;br /&gt;- marca: bluecase&lt;br /&gt;- modelo: bm24ffd1gcbx&lt;/p&gt;</t>
+    <t>Monitor Gamer Lenovo Y25-30, 24.5", FullHD, 240Hz, 0.5ms, HDMI, DP, FreeSync</t>
+  </si>
+  <si>
+    <t>Suave, rápido e dinâmico, o monitor Lenovo Legion Y25-30 tem energia para elevar sua experiência de jogos a um nível totalmente novo. Mantendo o conforto de todos em mente, esta tela FHD (1920 x 1080) de 24,5", foi cuidadosamente projetada com o tamanho perfeito que aumenta visualmente cada detalhe do quadro e também é, confortável acompanhar a ação na tela de ponta a ponta. Esta arquitetura brilhante é, complementada por um painel de alta taxa de atualização de 240 Hz, proporcionando uma experiência de jogos fluida. O tempo de resposta extremamente rápido da tecnologia VRR (AMD FreeSync, Premium) de 0,5 ms MPRT elimina tremulações e ghosting, tornando cada momento uma oportunidade de vencer. Com um painel de chaveamento para uso em aeronaves, espaço de cores 120% sRGB e suporte a HDR, experimente imagens reais com cores vivas, precisas e dinâmicas de todos os ângulos. A tecnologia de luz azul baixa natural permite que você, aproveite confortavelmente jogos de longa duração reduzindo automaticamente a luz azul de alta frequência do painel de vídeo sem nenhuma distorção de cores. Com o software Lenovo Artery, este monitor permite que você, assuma o controle. O software não apenas ajuda você, a gerenciar melhor o desempenho da tela e de outros dispositivos, mas também oferece ",ferramentas para jogos",, como Mostrar taxa de quadros, Mostrar timer, Mostrar ponto de vista e Configurações de teclas de atalho. Com recursos de ponta e redução da tensão ocular, o Legion Y25-30 é, agradável aos olhos de todas as maneiras possíveis.</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Asus TUF 27 LED Full HD, 1ms, 165 Hz, FreeSync Premium, 120% sRGB, HDMI, Som Integrado, ELMB - VG27VH1B</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Monitor gaming TUF Gaming VG27VH1B 27 polegadas Full HD (1920x1080), 165 Hz (acima de 144 Hz), Extreme Low Motion Blur, Adaptive-sync, FreeSync Premium, 1ms (MPRT), Curvo&lt;/h2&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;Monitor gaming 1500R Full HD (1920x1080) de 27 polegadas com taxa de atualiza&amp;ccedil;&amp;atilde;o ultrarr&amp;aacute;pida de 165 Hz projetado para jogadores profissionais e jogabilidade envolvente.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;A tecnologia ASUS Extreme Low Motion Blur (ELMB&amp;trade;) permite um tempo de resposta de 1 ms (MPRT) junto com a sincroniza&amp;ccedil;&amp;atilde;o adaptativa, eliminando fantasmas e tearing para visuais n&amp;iacute;tidos de jogos com altas taxas de quadros.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;Tecnologia FreeSync premium para eliminar tearing da tela e taxas de quadros inst&amp;aacute;veis.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;O Shadow Boost aprimora os detalhes da imagem em &amp;aacute;reas escuras, iluminando as cenas sem expor demais as &amp;aacute;reas claras.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;Full HD(1920 X 1080)@120Hz output on PS5 &amp;amp; Xbox Series X/S.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Asus TUF 24.5 Full HD, 165Hz, 1ms, IPS, HDMI e DisplayPort, Adaptive Sync, Ajuste de Altura, Som Integrado, VESA - VG259QR</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Monitor Gamer Asus TUF 24.5' IPS, 165 Hz, Full HD, 1ms, Adaptive Sync, HDMI/DisplayPort, Ajuste de Altura, Vesa, Som Integrado - VG259QR&lt;/h2&gt;
+&lt;p&gt;&lt;strong&gt;Monitor&amp;nbsp;gamer Full HD&lt;/strong&gt; (1920 x 1080) de&lt;strong&gt; 24,5 polegadas&lt;/strong&gt; com &lt;strong&gt;taxa de atualiza&amp;ccedil;&amp;atilde;o ultrarr&amp;aacute;pida&lt;/strong&gt; de &lt;strong&gt;165 Hz&lt;/strong&gt; projetado para jogadores profissionais e jogabilidade envolvente. A tecnologia&lt;strong&gt; ASUS Extreme Low Motion Blur&lt;/strong&gt; (ELMB) permite um &lt;strong&gt;tempo de resposta de 1 ms&lt;/strong&gt; (MPRT), eliminando fantasmas para visuais n&amp;iacute;tidos de jogos. O &lt;strong&gt;Shadow Boost&lt;/strong&gt; aprimora os detalhes da imagem em &amp;aacute;reas escuras, iluminando cenas sem expor demais as &amp;aacute;reas claras.&lt;/p&gt;
+&lt;p&gt;&lt;br /&gt;Processamento &lt;strong&gt;compat&amp;iacute;vel com G-SYNC&lt;/strong&gt;, proporcionando uma experi&amp;ecirc;ncia de jogo perfeita e sem problemas ao habilitar &lt;strong&gt;VRR&lt;/strong&gt; (taxa de atualiza&amp;ccedil;&amp;atilde;o vari&amp;aacute;vel) por padr&amp;atilde;o. Apresenta um suporte ergonomicamente projetado para oferecer extensos&lt;strong&gt; ajustes de rota&amp;ccedil;&amp;atilde;o, inclina&amp;ccedil;&amp;atilde;o, rota&amp;ccedil;&amp;atilde;o e altura.&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;div&gt;
+&lt;h2&gt;Taxa de atualiza&amp;ccedil;&amp;atilde;o de 165Hz&lt;/h2&gt;
+&lt;/div&gt;
+&lt;p&gt;O &lt;strong&gt;TUF G259 GamingR&lt;/strong&gt; tem uma &lt;strong&gt;taxa de atualiza&amp;ccedil;&amp;atilde;o ultrarr&amp;aacute;pida de 165Hz&lt;/strong&gt;, que mesmo os jogos mais r&amp;aacute;pidos foram criados, apresentando nas configura&amp;ccedil;&amp;otilde;es mais altas, uma apar&amp;ecirc;ncia e quase livre de&lt;strong&gt; 165Hz&lt;/strong&gt;.&amp;nbsp;Ganhe a vantagem em jogos de tiro em primeira pessoa, corrida, estrat&amp;eacute;gia em tempo real e t&amp;iacute;tulos de esportes.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;div&gt;
+&lt;h2&gt;Conectividade variada&lt;/h2&gt;
+&lt;/div&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;Extensas op&amp;ccedil;&amp;otilde;es de conectividade, incluindo &lt;strong&gt;1 DisplayPort 1.2, 2 HDMI&lt;/strong&gt; (v1.4) e &lt;strong&gt;fone de ouvido&lt;/strong&gt;, oferece suporte a uma ampla variedade de dispositivos multim&amp;iacute;dia.&lt;/p&gt;
+&lt;h3&gt;&lt;br /&gt;Garanta seu Monitor Gamer no KaBuM!&lt;/h3&gt;</t>
+  </si>
+  <si>
+    <t>Monitor Asus Rog Swift 47.5 OLED, 138Hz, 0,1ms, HDMI e DisplayPort, 133% sRGB, HDR, G-Sync, Som Integrado, VESA - PG48UQ</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Monitor de jogos ROG Swift OLED 4K de 47.5", OLED, 138 Hz (overclocked), 0,1 ms (GTG), compat&amp;iacute;vel com G-SYNC, revestimento de microtextura antirreflexo, dissipador de calor personalizado, brilho uniforme, 98% DCI-P3, true 10 bits, HDMI 2.1, DisplayPort 1.4&lt;/h2&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;- Monitor de jogos &lt;strong&gt;OLED 4K&lt;/strong&gt; (3840 x 2160) de 47,5" com taxa de atualiza&amp;ccedil;&amp;atilde;o de 138Hz (overclock), projetado para jogos imersivos&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;- Apresenta pretos extremos, alto brilho perceptivo e tempo de resposta ultrarr&amp;aacute;pido de &lt;strong&gt;0,1 ms&lt;/strong&gt;, com gama de cores &lt;strong&gt;DCI-P3 de 98%&lt;/strong&gt; e diferen&amp;ccedil;a de cor Delta E &amp;lt;2 para desempenho &lt;strong&gt;HDR&lt;/strong&gt; surpreendente.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;- O dissipador de calor personalizado permite temperaturas at&amp;eacute; 8% mais baixas para melhor desempenho &lt;strong&gt;OLED&lt;/strong&gt; de longo prazo.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;- Configura&amp;ccedil;&amp;atilde;o de &lt;strong&gt;brilho uniforme&lt;/strong&gt; opcional amig&amp;aacute;vel ao jogador para n&amp;iacute;veis de brilho uniformes.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;- O &lt;strong&gt;revestimento de microtextura antirreflexo&lt;/strong&gt; reduz os reflexos para cores precisas e melhores experi&amp;ecirc;ncias de visualiza&amp;ccedil;&amp;atilde;o.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;- Extensas op&amp;ccedil;&amp;otilde;es de conectividade, incluindo &lt;strong&gt;DisplayPort 1.4 com Display Stream Compression&lt;/strong&gt; &lt;strong&gt;(DSC), HDMI 2.1, hub USB&lt;/strong&gt; e um soquete de trip&amp;eacute; na parte superior do monitor.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h3&gt;CONSTRU&amp;Iacute;DO PARA JOGOS. &amp;Oacute;TIMO PARA TUDO&lt;/h3&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;O ROG Swift OLED PG48UQ &amp;eacute; um monitor de jogos OLED 4K de 47,5 polegadas que apresenta um revestimento de microtextura antirreflexo para reduzir os reflexos e garantir que voc&amp;ecirc; veja as cores na tela com mais precis&amp;atilde;o. Sua taxa de atualiza&amp;ccedil;&amp;atilde;o super r&amp;aacute;pida de 138 Hz (com overclock) e tempo de resposta incr&amp;iacute;vel de 0,1 ms oferece jogos incrivelmente envolventes em uma escala maior. Al&amp;eacute;m disso, a gama DCI-P3 de 98%, cores verdadeiras de 10 bits e Delta E &amp;lt; 2 garantem cores realistas e os tons de preto mais escuros poss&amp;iacute;veis.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h3&gt;VISUAIS DETALHADOS E TEXTO CLARAMENTE DEFINIDO&lt;/h3&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;Os monitores de jogos ROG Swift OLED apresentam pain&amp;eacute;is OLED de &amp;uacute;ltima gera&amp;ccedil;&amp;atilde;o projetados para maior efici&amp;ecirc;ncia e brilho. O layout de subpixel fornece visuais extremamente detalhados e texto claramente definido para atualizar a experi&amp;ecirc;ncia de visualiza&amp;ccedil;&amp;atilde;o.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h3&gt;CORES ULTRA-REALISTAS&lt;/h3&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;O monitor de jogos PG48UQ apresenta verdadeira profundidade de cor de 10 bits e uma gama de 98% DCI-P3 com qualidade de cinema para oferecer realismo incompar&amp;aacute;vel. Cada monitor &amp;eacute; pr&amp;eacute;-calibrado para Delta E &amp;lt; 2 para garantir a melhor reprodu&amp;ccedil;&amp;atilde;o de cores em seu brilhante painel OLED.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h3&gt;DESIGN DE RESFRIAMENTO INTELIGENTE PARA TEMPERATURAS 8% MAIS BAIXAS&lt;/h3&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;O dissipador de calor personalizado encontrado no PG48UQ oferece mais &amp;aacute;rea de superf&amp;iacute;cie para troca de calor para fornecer desempenho de resfriamento mais eficiente, mesmo em longos per&amp;iacute;odos de jogo. A temperatura mais baixa permite um melhor desempenho do OLED com menor probabilidade de ader&amp;ecirc;ncia da imagem. Este robusto sistema fanless opera silenciosamente para minimizar as distra&amp;ccedil;&amp;otilde;es.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Samsung Odyssey G32a, 24 Pol, Full HD, 165Hz, 1MS, HDMI, DislayPort, Freesync, Com Ajuste De Altura - Ls24ag320nlxzd</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Monitor Gamer Samsung Odyssey G32A 24" Preto - LS24AG320NLXZD&lt;/b&gt;&lt;br /&gt;&lt;br /&gt;Monitor Gamer Samsung Odyssey G32A 24", FHD, 165Hz, 1ms, com ajuste de altura, HDMI, DP, Freesync, Preto, Série G32. Taxa de atualização de 165Hz. Vença todos os inimigos, mesmo em velocidades altíssimas. A taxa de atualização de 165Hz elimina o atraso e o desfoque do movimento para uma jogabilidade estimulante com ação ultra-suave. 1ms de tempo de resposta (MPRT). Faça com que cada movimento conte com um tempo de resposta de 1ms. Os pixels da tela respondem de maneira quase instantânea, permitindo que a ação rápida flua com precisão do mundo real. Seu desempenho na tela é tão rápido quanto seus próprios reflexos.</t>
+  </si>
+  <si>
+    <t>Monitor Gamer AOC Porsche Design 27 LED QHD, 240Hz, 0.5ms, HDMI/DisplayPort, FreeSync Premium Pro, HDR 400, 119% sRGB, Preto e Prata - PD27</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Monitor Gamer AOC Porsche Design 27 LED QHD, 240Hz, 0.5ms, HDMI/DisplayPort, FreeSync Premium Pro, HDR 400, 119% sRGB, Preto e Prata&lt;/h2&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;PROJETADO PARA ENFRENTAR QUALQUER DESAFIO&lt;/h2&gt;
+&lt;p&gt;Este incr&amp;iacute;vel monitor de 27&amp;rdquo; com resolu&amp;ccedil;&amp;atilde;o QHD, tela curva de 1000R, taxa de atualiza&amp;ccedil;&amp;atilde;o de 240 Hz e &lt;strong&gt;tempo de resposta de 0,5 m&lt;/strong&gt;s foi criado para oferecer m&amp;aacute;xima &lt;strong&gt;performance&lt;/strong&gt;. Possui assinatura Porsche em um design exclusivo, com um suporte inspirado nas gaiolas de seguran&amp;ccedil;a dos carros de corrida. Impacte qualquer ambiente e destaque-se com o monitor AOC PD27&lt;strong&gt; Porsche Design.&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;RESOLU&amp;Ccedil;&amp;Atilde;O QHD&lt;/h2&gt;
+&lt;p&gt;Desfrute de uma qualidade de imagem superior e imagens incrivelmente n&amp;iacute;tidas com a resolu&amp;ccedil;&amp;atilde;o &lt;strong&gt;Quad HD de 2560 x 1440&lt;/strong&gt; px. O formato&lt;strong&gt; widescreen 16:9&lt;/strong&gt; tamb&amp;eacute;m oferece a possibilidade de trabalhar com uma tela espa&amp;ccedil;osa ou curtir jogos ou filmes em seu tamanho original.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;TELA CURVA DE 1000R&lt;/h2&gt;
+&lt;p&gt;A incr&amp;iacute;vel curvatura de 1000R proporciona sensa&amp;ccedil;&amp;atilde;o de imers&amp;atilde;o diferenciada, muito superior &amp;agrave; experi&amp;ecirc;ncia de um monitor curvo comum de 1800R. Al&amp;eacute;m de se sentir &lt;strong&gt;muito mais dentro&lt;/strong&gt; do jogo, ela permitir&amp;aacute; que voc&amp;ecirc; enxergue todo o conte&amp;uacute;do do game sem precisar mexer a cabe&amp;ccedil;a.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;TECNOLOGIAS 240 HZ, 0,5 MS E AMD FREESYNC PREMIUM PRO&lt;/h2&gt;
+&lt;p&gt;Desenvolvido para entregar as melhores tecnologias, este monitor conta com uma taxa de atualiza&amp;ccedil;&amp;atilde;o de 240 Hz para voc&amp;ecirc; aproveitar mais &lt;strong&gt;fluidez nas suas imagens&lt;/strong&gt; e se sentir numa verdadeira corrida de carros. Ainda, possui um incr&amp;iacute;vel tempo de resposta de 0,5 ms e tecnologia &lt;strong&gt;AMD FreeSync Premium&lt;/strong&gt; Pro. Acabe de vez com os efeitos fantasmas e sincronize as taxas de atualiza&amp;ccedil;&amp;atilde;o do monitor com a GPU para um desempenho sem igual.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;PAINEL IPS E DISPLAY HDR 400&lt;/h2&gt;
+&lt;p&gt;O Painel IPS oferece imagens incrivelmente n&amp;iacute;tidas com cores vivas e precisas, em um amplo &lt;strong&gt;&amp;acirc;ngulo de vis&amp;atilde;o de 178&amp;ordm;/178&lt;/strong&gt;&amp;ordm;. J&amp;aacute; o Display HDR 400 garante um pico de lumin&amp;acirc;ncia de 400 cd/m&amp;sup2; e permite imagens ainda mais aprimoradas, garantindo um espectro de cor e contraste diversificado e riqueza de detalhes.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;PROJE&amp;Ccedil;&amp;Atilde;O DE LOGO&lt;/h2&gt;
+&lt;p&gt;Com uma proje&amp;ccedil;&amp;atilde;o frontal dos logos AOC ou Porsche Design, uma barra de luz destaca a frente do monitor e muda de cor dependendo da situa&amp;ccedil;&amp;atilde;o do jogo dinamicamente na superf&amp;iacute;cie da mesa.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;ALTO-FALANTE EST&amp;Eacute;REO 2X 5W DTS&lt;/h2&gt;
+&lt;p&gt;Com o &lt;strong&gt;som DTS&lt;/strong&gt; integrado em duas sa&amp;iacute;das de alto-falantes est&amp;eacute;reos 5W voc&amp;ecirc; pode ouvir o barulho do motor como se estivesse em um carro esportivo ou desfrutar de um &amp;aacute;udio de qualidade em qualquer atividade.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;CONTROLE WIRELESS COM DESIGN PORSCHE&lt;/h2&gt;
+&lt;p&gt;Conte com um teclado de atalho sem fio para jogos desenvolvido com um design chave da Porsche. &lt;strong&gt;Extremamente pr&amp;aacute;tico&lt;/strong&gt;, ele alterna rapidamente as configura&amp;ccedil;&amp;otilde;es de exibi&amp;ccedil;&amp;atilde;o em diferentes g&amp;ecirc;neros de jogos, como corrida, FPS e outros.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Curvo HQ 24 LED, RGB, Full HD, 165 Hz, 1ms, HDMI/DisplayPort, FreeSync, sRGB, Som Integrado, Pink - 24GHQ-PINKsRGB</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;&lt;span id="docs-internal-guid-434371ff-7fff-8415-2ef8-584db895281a"&gt;Monitor Gamer LED Curvo 24" HQ 24GHQ-White RGB R3000 Display Port HDMI PINK&lt;/span&gt;&lt;/h2&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p dir="ltr"&gt;A curvatura da tela de R3000 oferece imers&amp;atilde;o total, voc&amp;ecirc; ser&amp;aacute; capaz de apreciar imagens panor&amp;acirc;micas grandes, em alta resolu&amp;ccedil;&amp;atilde;o e com todas as especifica&amp;ccedil;&amp;otilde;es que um monitor Gamer de ponta exige.&lt;/p&gt;
+&lt;p dir="ltr"&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p dir="ltr"&gt;A HQ levou a s&amp;eacute;rio o desenvolvimento desta linha, trazendo ao p&amp;uacute;blico mais exigente um produto completo e de alto n&amp;iacute;vel.&amp;nbsp;&lt;/p&gt;
+&lt;p dir="ltr"&gt;N&amp;atilde;o fique atras, reaja em tempo real e tenha os movimentos do teclado refletidos sem atrasos com o tempo de resposta de 1ms.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p dir="ltr"&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p dir="ltr"&gt;Sem borr&amp;otilde;es e sem perda de imagem. A INCR&amp;Iacute;VEL taxa de atualiza&amp;ccedil;&amp;atilde;o de 165hz garante que voc&amp;ecirc; tenha uma experi&amp;ecirc;ncia acima dos seus advers&amp;aacute;rios.&lt;/p&gt;
+&lt;p dir="ltr"&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p dir="ltr"&gt;Imagens em alta resolu&amp;ccedil;&amp;atilde;o + Visual incr&amp;iacute;vel. A tela Full HD de alta resolu&amp;ccedil;&amp;atilde;o aliada ao design futurista e moderno do monitor garantem n&amp;atilde;o s&amp;oacute; imagens perfeitas como um visual incr&amp;iacute;vel de todo o seu conjunto.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Samsung 24Pol, Full HD, 144 Hz, 1MS, HDMI, Display Port, VGA, Freesync Premium, Regulagem De Altura - Lf24g35tfwlxzd</t>
+  </si>
+  <si>
+    <t>Monitor 24 Polegadas Samsung Gamer LED Lf24g35tfwlxzd&lt;br /&gt;&lt;br /&gt; Faça cada movimento contar com um tempo de resposta de 1ms. Ataque seus inimigos assim que os vir e fique à frente com movimentos precisos do mouse. Seu desempenho na tela é tão rápido quanto seus próprios reflexos. Jogabilidade suave sem esforço.&lt;br /&gt;&lt;br /&gt; O AMD FreeSync Premium apresenta tecnologia de sincronização adaptável, que reduz o travamento de tela, oscilação e atrasos. Gire, incline e ajuste seu monitor até que todos os inimigos estejam perfeitamente visíveis. Sua tela pode ser movida livremente para que você encontre conforto total no jogo. &lt;br /&gt;&lt;br /&gt;0 design sem borda de 3 lados revela espaço máximo para uma jogabilidade maior e mais ousada. Alinhe dois monitores com precisão em uma configuração de monitor duplo sem que nenhum inimigo fique escondido na junção. Jogue por mais tempo sem incomodo visual. &lt;br /&gt;&lt;br /&gt;O Eye Saver Mode minimiza a emissão de luz azul para manter seus olhos relaxados e confortáveis enquanto joga por muitas horas. A tecnologia Flicker Free remove continuamente a tremulação cansativa e irritante da tela para que você possa jogar por mais tempo sem distrações ou fadiga ocular.</t>
   </si>
   <si>
     <t>Monitor Gamer Gigabyte 27 Full HD, 165Hz, 1ms, IPS, HDMI e DisplayPort, 130% sRGB, HDR, FreeSync, Altura Ajustável - G27F2BR</t>
@@ -887,6 +1588,390 @@
 &lt;h3&gt;Compre agora no KaBuM!&lt;/h3&gt;</t>
   </si>
   <si>
+    <t>Monitor Gamer KBM! GAMING MG800 34 Va, Ultrawide, 180 Hz, 2k Qhd, 1ms, Adaptive Sync, 95% Srgb, Hdmi/Displayport - KGMG80034PT</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Monitor Gamer KBM! GAMING MG800 34&amp;rdquo; VA, Ultrawide, 144 Hz, 2K QHD, 1ms, Adaptive Sync, 95% sRGB, HDMI/DisplayPort, Ajuste de Altura, Som - KGMG800&lt;/h2&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;O Monitor Gamer KBM! GAMING MG800 &lt;strong&gt;34"&lt;/strong&gt; UltraWide Curvo traz a experi&amp;ecirc;ncia de &lt;strong&gt;imers&amp;atilde;o completa&lt;/strong&gt; para o seus jogos! A &lt;strong&gt;tela Curva UltraWide&lt;/strong&gt;, formato 21:9, e Quad HD (QHD), com taxa de atualiza&amp;ccedil;&amp;atilde;o de &lt;strong&gt;144Hz&lt;/strong&gt;, confere maior campo de vis&amp;atilde;o e amplifica a experi&amp;ecirc;ncia de imers&amp;atilde;o durante seus jogos.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Tecnologias&lt;/h2&gt;
+&lt;p&gt;Com as tecnologias &lt;strong&gt;AdaptiveSync&lt;/strong&gt; e painel VA, mais o tempo de resposta de &lt;strong&gt;1 ms&lt;/strong&gt;, o monitor Monitor Gamer KBM! GAMING MG800 34" UltraWide Curvo proporciona um &amp;oacute;timo desempenho. Outra tecnologia que contribui para a experi&amp;ecirc;ncia de imers&amp;atilde;o completa &amp;eacute; a redu&amp;ccedil;&amp;atilde;o de luz azul, que diminui os efeitos negativos de ficar muito tempo olhando diretamente para a tela. Os modos &lt;strong&gt;Game Plu&lt;/strong&gt;s e o &lt;strong&gt;Jogo FPS / RTS&lt;/strong&gt; s&amp;atilde;o diferenciais que elevam o n&amp;iacute;vel de suas gameplays.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Mergulhe na realidade virtual&lt;/h2&gt;
+&lt;p&gt;Experi&amp;ecirc;ncia imersiva &amp;eacute; com o Monitor Gamer KBM! GAMING MG800 34" UltraWide Curvo!&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h3&gt;Garanta o seu no KaBuM!&lt;/h3&gt;</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Curvo Aorus 32 2K QHD, 240Hz, 1ms, IPS, HDMI e DisplayPort, 99% Adobe, HDR 600, FreeSync Premium, VESA - FI32Q-X</t>
+  </si>
+  <si>
+    <t>&lt;h2 style="text-align: justify;"&gt;Monitor Gamer Aorus 32 2K QHD, 240Hz, 1ms, IPS, HDMI e DisplayPort, 150% sRGB, HDR, FreeSync Premium, VESA - FI32Q-X&lt;/h2&gt;
+&lt;p style="text-align: justify;"&gt;&lt;br /&gt;O painel Super Speed ??IPS oferece cores espl&amp;ecirc;ndidas, enquanto os cristais Super Speed ??reduzem o tempo de resposta para 1ms GTG.&amp;nbsp;Super responsivo na tela glamorosa, o que mais voc&amp;ecirc; poderia pedir?&lt;br /&gt;O monitor AORUS Gaming usa os sistemas de LED mais avan&amp;ccedil;ados, combinados com o poder do RGB Fusion, voc&amp;ecirc; ter&amp;aacute; o sistema mais legal que todos invejam.&amp;nbsp;Atrav&amp;eacute;s do aplicativo RGB Fusion, voc&amp;ecirc; pode criar um ambiente de jogo &amp;uacute;nico!&lt;/p&gt;
+&lt;h2 style="text-align: justify;"&gt;&lt;br /&gt;Expanda a Gama de Cores&lt;/h2&gt;
+&lt;p style="text-align: justify;"&gt;High Dynamic Range (HDR) est&amp;aacute; ganhando interesse de uma ampla gama de aplica&amp;ccedil;&amp;otilde;es, incluindo jogos, entretenimento de filmes e cria&amp;ccedil;&amp;atilde;o de conte&amp;uacute;do multim&amp;iacute;dia.&amp;nbsp;Al&amp;eacute;m disso, este modelo suporta HLG (Hybrid Log-Gamma), permitindo que os usu&amp;aacute;rios desfrutem verdadeiramente do conte&amp;uacute;do originalmente criado pela plataforma de transmiss&amp;atilde;o!&lt;/p&gt;
+&lt;p style="text-align: justify;"&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2 style="text-align: justify;"&gt;N&amp;iacute;vel mais alto de ajuste de cor personalizado&lt;/h2&gt;
+&lt;p style="text-align: justify;"&gt;Com a ajuda do Six Axis Control, voc&amp;ecirc; controla seis cores (vermelho, verde, azul, ciano, magenta e amarelo) individualmente.&amp;nbsp;Voc&amp;ecirc; pode ajustar o monitor para perfis de cores espec&amp;iacute;ficos, o que permite exibir com mais precis&amp;atilde;o a gama de cores no monitor.&lt;br /&gt;O exclusivo AORUS OSD Sidekick permite que voc&amp;ecirc; defina rapidamente as op&amp;ccedil;&amp;otilde;es de exibi&amp;ccedil;&amp;atilde;o com teclado e mouse.&amp;nbsp;&amp;Eacute; ainda melhor agora que voc&amp;ecirc; pode aproveitar a experi&amp;ecirc;ncia de jogo atualizada por meio da mais recente fun&amp;ccedil;&amp;atilde;o exclusiva de atualiza&amp;ccedil;&amp;atilde;o autom&amp;aacute;tica!&lt;/p&gt;
+&lt;h3 style="text-align: justify;"&gt;&lt;br /&gt;Seu Monitor Gamer est&amp;aacute; no KaBuM!&lt;/h3&gt;</t>
+  </si>
+  <si>
+    <t>Monitor Gamer AOC Agon Pro 24.5 Full HD, 360Hz, IPS, 1ms, HDMI/DisplayPort, G-Sync, HDR 400, 120% sRGB, Som Integrado, Preto - AG254FG</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Monitor Gamer AOC Agon Pro 24.5 Full HD, 360Hz, IPS, 1ms, HDMI/DisplayPort, G-Sync, HDR 400, 120% sRGB, Som Integrado, Preto&lt;/h2&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;INVENC&amp;Iacute;VEL MONITOR AG254FG 24,5"&lt;/h2&gt;
+&lt;p&gt;Experimente uma &lt;strong&gt;imers&amp;atilde;o imbat&amp;iacute;vel&lt;/strong&gt; com um monitor premiado pelo Red Dot Design Award, que conta com as melhores tecnologias para voc&amp;ecirc; elevar o seu gameplay ao n&amp;iacute;vel profissional.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;TAXA DE ATUALIZA&amp;Ccedil;&amp;Atilde;O DE 360HZ&lt;/h2&gt;
+&lt;p&gt;Experimente um n&amp;iacute;vel de &lt;strong&gt;fluidez&lt;/strong&gt; nunca visto antes nas suas imagens com uma taxa de atualiza&amp;ccedil;&amp;atilde;o de 360Hz, uma das mais r&amp;aacute;pidas do mundo. Esteja &lt;strong&gt;um passo &amp;agrave; frente dos seus inimigos&lt;/strong&gt; gra&amp;ccedil;as a uma tecnologia de alto n&amp;iacute;vel!&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;G-SYNC + NVIDIA REFLEX ANALYZER&lt;/h2&gt;
+&lt;p&gt;A tecnologia NVIDIA G-Sync proporciona&lt;strong&gt; brilhos mais realistas&lt;/strong&gt; e uma reprodu&amp;ccedil;&amp;atilde;o de cores mais suaves, enquanto o NVIDIA Reflex Analyzer* mede e otimiza a lat&amp;ecirc;ncia do sistema e &lt;strong&gt;diminui o tempo de renderiza&amp;ccedil;&amp;atilde;o&lt;/strong&gt;, deixando suas rea&amp;ccedil;&amp;otilde;es e jogadas mais &amp;aacute;geis.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;1MS DE TEMPO DE RESPOSTA&lt;/h2&gt;
+&lt;p&gt;O tempo de resposta de 1ms proporciona &lt;strong&gt;suavidade&lt;/strong&gt; nos movimentos, reduzindo os efeitos fantasmas e oferecendo uma experi&amp;ecirc;ncia de jogo aprimorada.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;DISPLAY HDR 400&lt;/h2&gt;
+&lt;p&gt;O Display HDR 400 garante um pico de lumin&amp;acirc;ncia de&lt;strong&gt; 400 cd/m2&lt;/strong&gt; e permite imagens perfeitas, com pretos intensos e cenas luminosas &lt;strong&gt;incrivelmente realistas&lt;/strong&gt; para todos os seus jogos.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;PAINEL IPS&lt;/h2&gt;
+&lt;p&gt;Tenha imagens extremamente n&amp;iacute;tidas com cores mais vivas e fi&amp;eacute;is independente de onde estiver com o Painel IPS que, alinhado ao &lt;strong&gt;&amp;acirc;ngulo de vis&amp;atilde;o de 178&amp;ordm;/178&amp;ordm;&lt;/strong&gt;, n&amp;atilde;o deixar&amp;aacute; voc&amp;ecirc; perder nenhum movimento.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;PROJE&amp;Ccedil;&amp;Atilde;O DE LOGO RBG&lt;/h2&gt;
+&lt;p&gt;Com a proje&amp;ccedil;&amp;atilde;o do logo AGON agora voc&amp;ecirc; pode ter um &lt;strong&gt;estilo &amp;uacute;nico&lt;/strong&gt; no seu desktop gamer, com 2 &amp;iacute;cones projet&amp;aacute;veis e ajustes RGB. Uma barra de luz destaca a frente do monitor e muda de cor, dependendo da situa&amp;ccedil;&amp;atilde;o do jogo, dinamicamente na superf&amp;iacute;cie da mesa.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;ILUMINA&amp;Ccedil;&amp;Atilde;O TRASEIRA COM RGB&lt;/h2&gt;
+&lt;p&gt;Para completar a imers&amp;atilde;o da sua esta&amp;ccedil;&amp;atilde;o gamer, este monitor conta com uma &lt;strong&gt;bel&amp;iacute;ssima ilumina&amp;ccedil;&amp;atilde;o&lt;/strong&gt; traseira RGB, que deixa seu ambiente ainda mais estiloso e pronto para qualquer jogada.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;SPEAKERS STEREO 2X 5W DTS&lt;/h2&gt;
+&lt;p&gt;Com o &lt;strong&gt;som DTS&lt;/strong&gt; integrado em duas sa&amp;iacute;das de alto-falantes est&amp;eacute;reos 5W voc&amp;ecirc; pode ouvir qualquer som e desfrutar de um &lt;strong&gt;&amp;aacute;udio de qualidade&lt;/strong&gt; para suas batalhas &amp;eacute;picas.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Ozone 24.5 IPS, 360 Hz, Full HD, 0.6ms, FreeSync, 100% sRGB, HDMI/DisplayPort/USB, Ajuste de Altura - OZDSP25ULTRA</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Monitor Gamer Ozone 24.5 IPS&lt;/h2&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;O Ozone DSP25 Ultra &amp;eacute; o melhor monitor para jogos. Desenvolvido para competi&amp;ccedil;&amp;atilde;o de alto n&amp;iacute;vel, este monitor ir&amp;aacute; ajud&amp;aacute;-lo a desenvolver todo o seu potencial, possui um painel IPS Full HD de 1920x1080 com taxa de atualiza&amp;ccedil;&amp;atilde;o de 360 ??Hz e tempo de resposta de 0,6 milissegundos.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;Seu design praticamente sem bordas o torna perfeito para configura&amp;ccedil;&amp;otilde;es de v&amp;aacute;rios monitores e significa que voc&amp;ecirc; pode desfrutar de uma experi&amp;ecirc;ncia superior. O painel IPS de 24,5 polegadas oferece &amp;acirc;ngulos de vis&amp;atilde;o de at&amp;eacute; 178&amp;ordm;.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Monitor Gamer KBM! GAMING MG200 23.6 Led Full Hd, Curvo, 180hz, 1ms, Hdmi E Displayport, Adaptive Sync, Ajuste De Ângulo - KGMG20023PT</t>
+  </si>
+  <si>
+    <t>&lt;h3&gt;Monitor Gamer KBM! GAMING MG200: Qualidade e desempenho para seus jogos&lt;/h3&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;O Monitor Gamer KBM! GAMING MG200 &amp;eacute; a escolha perfeita para quem busca qualidade e desempenho nos jogos. Com tela plana de &lt;strong&gt;24 polegadas&lt;/strong&gt;, resolu&amp;ccedil;&amp;atilde;o Full HD e taxa de atualiza&amp;ccedil;&amp;atilde;o de &lt;strong&gt;165 Hz&lt;/strong&gt;, o MG200 oferece uma experi&amp;ecirc;ncia visual incr&amp;iacute;vel.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;O tempo de resposta de &lt;strong&gt;1 ms&lt;/strong&gt; garante que voc&amp;ecirc; n&amp;atilde;o perca nenhum detalhe da a&amp;ccedil;&amp;atilde;o, mesmo nos jogos mais r&amp;aacute;pidos. Al&amp;eacute;m disso, o recurso &lt;strong&gt;AdaptiveSync&lt;/strong&gt; elimina o tearing e o stuttering, garantindo uma imagem suave e fluida.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;Para proteger a sua vis&amp;atilde;o, o MG200 conta com &lt;strong&gt;redu&amp;ccedil;&amp;atilde;o de luz azul&lt;/strong&gt; e &lt;strong&gt;Modo Game Plus&lt;/strong&gt;, que reduzem o cansa&amp;ccedil;o visual. O som integrado &amp;eacute; de alta qualidade, mas voc&amp;ecirc; tamb&amp;eacute;m pode conectar o seu headset atrav&amp;eacute;s das portas plug and play.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;Com o Monitor Gamer KBM! GAMING MG200, voc&amp;ecirc; ter&amp;aacute; tudo o que precisa para jogar seus games favoritos com o m&amp;aacute;ximo de qualidade e desempenho.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Samsung Odyssey G8 34 OLED QHD, 175Hz, 0.1ms, HDMI e DisplayPort/USB-C, FreeSync Premium, HDR, VESA - LS34BG850SLXZD</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Monitor Gamer Samsung Odyssey G8 34 OLED QHD, 175Hz, 0.1ms, FreeSync Premium - LS34BG850SLXZD&lt;/h2&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;A tela OLED equipada com o Neo Quantum Processor traz brancos mais brilhantes, pretos mais profundos e contraste de cores quase infinito. &lt;br /&gt;Com um tempo de resposta de 0,1ms na tela de 175Hz, reaja a cada movimento do seu oponente mais r&amp;aacute;pido do que nunca no Odyssey mais r&amp;aacute;pida at&amp;eacute; agora.&lt;/p&gt;
+&lt;h2&gt;&lt;br /&gt;App de jogos sob demanda na nuvem&lt;/h2&gt;
+&lt;p&gt;Instantemente acesse servi&amp;ccedil;os de streaming e jogos de console com o Gaming Hub. A avan&amp;ccedil;ada tecnologia de streaming da Samsung proporciona um jogo suave com zero downloads e sem limites de armazenamento.&lt;br /&gt;A estrutura super fina com acabamento de metal premium e com a impressionante ilumina&amp;ccedil;&amp;atilde;o Core Lighting+ ir&amp;aacute; dar um upgrade no seu set up&lt;/p&gt;
+&lt;h2&gt;&lt;br /&gt;OLED &amp;amp; Neo Quantum Processor&lt;/h2&gt;
+&lt;p&gt;Com o avan&amp;ccedil;ado Neo Quantum Processor, cada quadro no painel OLED &amp;eacute; instantaneamente analisado e otimizado para obter a m&amp;aacute;xima qualidade. Cores, tonalidades e contraste se unificam para fornecer imagens brilhantes em todos os momentos.&lt;br /&gt;O Samsung Gaming Hub permite acesso instant&amp;acirc;neo aos melhores servi&amp;ccedil;os de jogos na nuvem, seus consoles favoritos e seu PC. Visuais suaves e jogabilidade responsiva s&amp;atilde;o alimentados pela avan&amp;ccedil;ada tecnologia de streaming de jogos sem downloads ou limites de armazenamento - basta ligar e jogar.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Cooler Master 27 Full HD, 165 Hz, 0.5ms, HDMI e DisplayPort, DCI-P3 90%, HDR - CMI-GM27-FFS-BR</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Monitor Gamer Cooler Master 27 Full HD&lt;/h2&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;SUA SOLU&amp;Ccedil;&amp;Atilde;O PLAY-WORK-MOVIE&lt;/h2&gt;
+&lt;p&gt;O GM27-FFS &amp;eacute; uma ferramenta b&amp;aacute;sica de alta pot&amp;ecirc;ncia em sua vida di&amp;aacute;ria para jogos, trabalho e entretenimento. Ele oferece imagens superiores e cores precisas com uma experi&amp;ecirc;ncia geral mais responsiva. Acesse o modo de jogo ativando o &lt;strong&gt;Adaptive Sync&lt;/strong&gt; para visuais suaves e sem falhas.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;&amp;Agrave; FRENTE DA SUA CONCORR&amp;Ecirc;NCIA&lt;/h2&gt;
+&lt;p&gt;Por ter uma&lt;strong&gt; taxa de atualiza&amp;ccedil;&amp;atilde;o ultra alta&lt;/strong&gt; de &lt;strong&gt;165 Hz&lt;/strong&gt;,&lt;strong&gt; tempo de resposta de 0,5 ms&lt;/strong&gt;, a vit&amp;oacute;ria est&amp;aacute; ao seu alcance enquanto as sess&amp;otilde;es de trabalho ou filme ter&amp;atilde;o menos desfoque de movimento e manchas.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;QUALIDADE DE IMAGEM IMPRESSIONANTE&lt;/h2&gt;
+&lt;p&gt;Experimente cores vivas e excepcionais com ampla gama de cores de &lt;strong&gt;DCI-P3 90%&lt;/strong&gt; com surpreendente resolu&amp;ccedil;&amp;atilde;o FHD &lt;strong&gt;1920*1080 &lt;/strong&gt;no painel plano de bisel ultra estreito.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;GANHE COM CONFORTO&lt;/h2&gt;
+&lt;p&gt;O &lt;strong&gt;modo de exibi&amp;ccedil;&amp;atilde;o de luz azul baixa&lt;/strong&gt; reduz a quantidade de luz azul potencialmente prejudicial e faz voc&amp;ecirc; se sentir &amp;agrave; vontade durante longas sess&amp;otilde;es de trabalho/jogo.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Compre agora no KaBuM!&lt;/h2&gt;</t>
+  </si>
+  <si>
+    <t>Monitor Gamer ViewSonic Omni 31.5 LED Full HD, Curvo, 165 Hz, 1ms, HDMI e DisplayPort, 103% sRGB, FreeSync Premium, Som Integrado - VX3218</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Monitor Gamer ViewSonic Omni 31.5 LED Full HD, Curvo, 165 Hz, 1ms, HDMI e DisplayPort, 103% sRGB, FreeSync Premium, Som Integrado&lt;/h2&gt;
+&lt;h2&gt;&amp;nbsp;&lt;/h2&gt;
+&lt;h2&gt;Imers&amp;atilde;o Total&lt;/h2&gt;
+&lt;p&gt;O ViewSonic VX3218-PC-MHDJ possui uma tela Full HD de 32&amp;rdquo; com uma &lt;strong&gt;curva de 1500R&lt;/strong&gt; para uma jogabilidade maior e mais imersiva. A taxa de atualiza&amp;ccedil;&amp;atilde;o de &lt;strong&gt;165Hz hiperresponsiva&lt;/strong&gt; renderiza seus jogos com gr&amp;aacute;ficos &lt;strong&gt;ultrassuaves&lt;/strong&gt;. Um design limpo remove a maior parte dos monitores maiores e uma tela sem bordas com dimens&amp;otilde;es elegantes aprimora essa experi&amp;ecirc;ncia de tela grande.&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Reaja instantaneamente&lt;/h2&gt;
+&lt;p&gt;O AMD FreeSync Premium praticamente elimina o rasgo e a gagueira da tela para uma jogabilidade fluida e o tempo de resposta MPRT de 1 ms permite que voc&amp;ecirc; reaja no jogo com velocidade e precis&amp;atilde;o. O VX3218-PC-MHDJ tamb&amp;eacute;m est&amp;aacute; equipado com as predefini&amp;ccedil;&amp;otilde;es &lt;strong&gt;ViewMode&lt;/strong&gt; exclusivas da ViewSonic, que oferecem desempenho de tela otimizado para uma variedade de necessidades, como jogos, edi&amp;ccedil;&amp;atilde;o ou assistir a filmes. Al&amp;eacute;m disso, as entradas &lt;strong&gt;DisplayPort e HDMI&lt;/strong&gt; oferecem conectividade flex&amp;iacute;vel para jogos e entretenimento.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Ajustes&lt;/h2&gt;
+&lt;p&gt;Este monitor leva a ergonomia para o pr&amp;oacute;ximo n&amp;iacute;vel. A inclina&amp;ccedil;&amp;atilde;o e a altura ajustam a tela sem esfor&amp;ccedil;o para um conforto ideal durante todas as suas sess&amp;otilde;es de jogo.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Contraste Mega Din&amp;acirc;mico&lt;/h2&gt;
+&lt;p&gt;Uma taxa de contraste mega din&amp;acirc;mica de 80M:1 cria profundidade nas imagens adicionando mais defini&amp;ccedil;&amp;atilde;o &amp;agrave;s cores mais escuras e brilhantes na tela para garantir que as imagens sejam&lt;strong&gt; exibidas com os&lt;/strong&gt; melhores detalhes.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Baixo consumo de energia&lt;/h2&gt;
+&lt;p&gt;O &lt;strong&gt;Eco-Mode&lt;/strong&gt; energeticamente eficiente da ViewSonic ajusta o brilho para a configura&amp;ccedil;&amp;atilde;o ideal para reduzir o &lt;strong&gt;consumo de energia&lt;/strong&gt; e a fadiga ocular, al&amp;eacute;m de prolongar a vida &amp;uacute;til do monitor.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Modo de jogo personalizado pelo usu&amp;aacute;rio&lt;/h2&gt;
+&lt;p&gt;O ViewMode exclusivo da ViewSonic oferece predefini&amp;ccedil;&amp;otilde;es especializadas para se adequar a diferentes cen&amp;aacute;rios de uso. Essas predefini&amp;ccedil;&amp;otilde;es oferecem as caracter&amp;iacute;sticas de visualiza&amp;ccedil;&amp;atilde;o ideais para cada cen&amp;aacute;rio. O &lt;strong&gt;Modo Jogo&lt;/strong&gt; integra configura&amp;ccedil;&amp;otilde;es de jogo FPS, RTS e MOBA pr&amp;eacute;-calibradas com testes e ajustes no jogo para a melhor combina&amp;ccedil;&amp;atilde;o de cores e tecnologia.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h3&gt;Aproveite essa oportunidade e adquira seu Monitor Gamer ViewSonic Omni no KaBuM!&lt;/h3&gt;</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Acer Predator 27' IPS, 240 Hz, Full HD, 1ms, G-Sync, HDR 400, 99% sRGB, HDMI/DisplayPort, VESA, Som Integrado - XB273 GX</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Acer Predator 27", Full HD, HDMI/DisplayPort, HDR 400, 1ms, GSync, 240Hz, XB273GX</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Acer 23.8 Polegadas Full HD, 165Hz, 1ms, HDR, FreeSync, HDMI e DisplayPort - QG241Y</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Redragon Tassos, 32 170hz, Curvo Led 2k HDMI - Gm32h2q</t>
+  </si>
+  <si>
+    <t>Características:&lt;br /&gt; - marca: redragon&lt;br /&gt; - modelo: gm32h2q&lt;br /&gt; especificações:&lt;br /&gt; - cor: preto&lt;br /&gt; - alta taxa de atualização até 170hz auxiliando na fluidez da gameplay.&lt;br /&gt; - painel com resolução quad hd que garante uma imagem mais definida&lt;br /&gt; - tecnologia g-sync e freesync integrada para eliminação de quebras de imagem.&lt;br /&gt; - diversas opções de conexões de vídeo para maior praticidade e versatilidade.&lt;br /&gt; - tamanho: 32”&lt;br /&gt; - resolução: 2560 x 1440 16:9&lt;br /&gt; - tipo de painel: va&lt;br /&gt; - taxa de atualização: 170 hz&lt;br /&gt; - número de cores: 16.7 m&lt;br /&gt; - brilho máximo: 400 nits&lt;br /&gt; - gama de cores: 90% dci-p3&lt;br /&gt; - taxa de contraste: 3000:1&lt;br /&gt; - suporte vesa: 75x75mm&lt;br /&gt; - conectividade: dp 1.4 x1, hdmi 2.0 x2, dc in x1, saída de audio p2 x1&lt;br /&gt; - power range: 100-240v 50/60hz&lt;br /&gt; - tempo de resposta: 1ms (mrpr) / 4ms (gtg)&lt;br /&gt; - backlight: sim: azul, vermelho, rgb ou desligado&lt;br /&gt; - ajuste de altura: 110 ± 5mm&lt;br /&gt; - ajuste giratório: -20°(+/-2°) ~ +20°(+/-2°)&lt;br /&gt; - ajuste de ângulo: -90°(+/-2°) ~ +90°(+/-2°)&lt;br /&gt; conteúdo da embalagem:&lt;br /&gt; - monitor gamer redragon</t>
+  </si>
+  <si>
+    <t>Monitor Gamer 27" Bluecase, 144Hz, Full HD, HDMI/DP - BM277GW</t>
+  </si>
+  <si>
+    <t>Uma taxa de atualização de 144Hz deixa a sua tela sem nenhum borrão, serrilhado ou "ghosting". A função Flicker-Free regula o brilho para diminuir o cansaço dos olhos durante os jogos. Melhor desempenho e experiência de jogo nas ações de rápido movimento. O AMD FREESYNC faz a sincronização entre a taxa de atualização de seu monitor e a taxa de quadros de sua placa de vídeo eliminando imagens quebradas.</t>
+  </si>
+  <si>
+    <t>Monitor Gamer 32 Curvo 2.5k QHD, 165Hz, Freesyng Gsync, Gamemax</t>
+  </si>
+  <si>
+    <t>O Caminho para o Game Perfeito! Aperte o cinto de segurança:&lt;br /&gt;&lt;br /&gt;Aperte o cinto de segurança: O monitor Gamemax GMX32C165Q de 31,5 polegadas com 1500R de curvatura e resolução WQHD (2560 * 1440) oferece uma incrível experiência para quem busca uma experiência perfeita de gameplay. Através da tecnologia AMD Radeon FreeSync e nVidia G-SYNC, a taxa de quadros do jogo é determinada pela sua placa gráfica, não pelo taxa de atualização fixa do monitor, proporcionando uma grande vantagem competitiva por lhe oferecer movimentos suaves e ótima fluidez. Imagens nítidas e realistas ganham vida com a incrível resolução de 2560 x 1440p, permitindo que você desfrute do entretenimento de alta definição no conforto da sua casa.</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Ozone 24 LED, 240 Hz, Full HD, 1ms, FreeSync, HDMI/DisplayPort - OZDSP24FHD240</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Monitor Gamer Ozone 24 LED&lt;/h2&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;Monitor Gamer Ozone 24&amp;acute; Jogos Confort&amp;aacute;veis Um Monitor Gamer projetado ergonomicamente em materiais robustos e de qualidade, possui uma excelente est&amp;eacute;tica, com quadros finos e modernos que atraem voc&amp;ecirc; e dimens&amp;otilde;es compactas que facilitam a configura&amp;ccedil;&amp;atilde;o de v&amp;aacute;rios monitores. Por outro lado, a sua base est&amp;aacute;vel permite inclinar e rodar o monitor, adaptando-o ao &amp;acirc;ngulo ideal, bem como regular a sua altura sem dificuldades, regulando-o para uma melhor visualiza&amp;ccedil;&amp;atilde;o e maior conforto.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;Al&amp;eacute;m disso, o DSP24 &amp;eacute; compat&amp;iacute;vel com o sistema de montagem VESA, permitindo que voc&amp;ecirc; o monte facilmente na parede, liberando a &amp;aacute;rea de trabalho. Taxa de Atualiza&amp;ccedil;&amp;atilde;o de 240Hz Entre no jogo com o monitor LED Ozone DSP24 240 de 24,5 polegadas com alta resolu&amp;ccedil;&amp;atilde;o de 1920 x 1080 pixels FULL HD, que garante a defini&amp;ccedil;&amp;atilde;o de que voc&amp;ecirc; precisa em todos os momentos. Para os jogadores mais exigentes e competitivos, sua taxa de atualiza&amp;ccedil;&amp;atilde;o de 240 Hz permite uma rea&amp;ccedil;&amp;atilde;o r&amp;aacute;pida, gra&amp;ccedil;as &amp;agrave;s imagens perfeitas. Ozone DSP24 240 &amp;eacute; um monitor que permite desfrutar da melhor experi&amp;ecirc;ncia visual poss&amp;iacute;vel, jogando, trabalhando ou assistindo s&amp;eacute;ries ou filmes, focando sua aten&amp;ccedil;&amp;atilde;o no que realmente importa.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;Low Blue Light e Flicker Free Tamb&amp;eacute;m n&amp;atilde;o esquecendo o conforto dos olhos, com as tecnologias Low Blue Light e Flicker Free, que liberam a imagem da cintila&amp;ccedil;&amp;atilde;o e oferecem prote&amp;ccedil;&amp;atilde;o contra a luz azul, reduzindo a fadiga ocular durante jogos longos, e significa que voc&amp;ecirc; pode desfrutar de uma experi&amp;ecirc;ncia de jogo completa na qual nada ir&amp;aacute; parar voc&amp;ecirc;. Entre no jogo com o monitor LED Ozone DSP24 de 24 polegadas com alta resolu&amp;ccedil;&amp;atilde;o de 1920 x 1080 pixels FULL HD, que garante a defini&amp;ccedil;&amp;atilde;o que voc&amp;ecirc; precisa o tempo todo.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h3&gt;Garanta j&amp;aacute; seu Monitor Gamer Ozone aqui no KaBuM!&lt;/h3&gt;</t>
+  </si>
+  <si>
+    <t>Monitor Samsung Odyssey, 27pol., Full HD, 165Hz, 1MS, HDMI, Display Port, FreeSync</t>
+  </si>
+  <si>
+    <t>REAJA EM TEMPO REAL: TAXA DE ATUALIZAÇÃO DE 165HZ &lt;br /&gt;Vença todos os inimigos, mesmo em velocidades altíssimas. A taxa de atualização de 165Hz elimina o atraso e o desfoque do movimento para uma jogabilidade estimulante com ação ultra-suave. &lt;br /&gt;&lt;br /&gt;TEMPO DE RESPOSTA ULTRARRÁPIDO: 1MS DE TEMPO DE RESPOSTA (MPRT) &lt;br /&gt;Faça com que cada movimento conte com um tempo de resposta de 1ms. Os pixels da tela respondem de maneira quase instantânea, permitindo que a ação rápida flua com precisão do mundo real. Seu desempenho na tela é tão rápido quanto seus próprios reflexos. &lt;br /&gt;&lt;br /&gt;FLUXO DE JOGO ININTERRUPTO: AMD FREESYNC PREMIUM &lt;br /&gt;Jogabilidade fácil e sem esforço. AMD FreeSync Premium apresenta tecnologia de sincronização adaptativa que reduz atraso de tela, rasgos de imagem e a latência de entrada, assegurando assim que cada cena flua sem interrupções. &lt;br /&gt;&lt;br /&gt;VEJA O JOGO DO SEU JEITO: SUPORTE ERGONÔMICO &lt;br /&gt;Atinja o auge da vitória. Gire, incline e ajuste seu monitor até que todos os inimigos estejam em perfeita visão. Seu monitor pode ser movido livremente para que você possa encontrar o conforto total do jogo. &lt;br /&gt;&lt;br /&gt;VISÃO EXPANSIVA: DESIGN SEM BORDAS EM 3 LADOS &lt;br /&gt;Seu legado não tem limites. O design sem bordas em 3 lados revela o espaço máximo para uma jogabilidade maior e mais ousada. Alinhe duas telas precisamente em uma configuração de dois monitores e não perca nenhum inimigo de vista mesmo nas junções.</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Samsung Odyssey G30 24” Full HD</t>
+  </si>
+  <si>
+    <t>Para você que é fanático por games, precisa ter equipamentos que leve você aos mais altos níveis de habilidade e jogabilidade. A Samsung apresenta o monitor gamer Odyssey G30 LS24BG300ELMZD de 24".
+Com resolução FHD, ele possui frequência de atualização de 144Hz atualiza as imagens da tela com mais frequência a cada segundo, permitindo uma jogabilidade mais suave que acompanha até mesmo os jogadores mais rápidos, painel VA, tempo de resposta de 1ms onde os pixels da tela respondem de maneira quase instantânea, permitindo que a ação rápida flua com precisão do mundo real. Seu desempenho na tela é tão rápido quanto seus próprios reflexos e conexões como 1 Display Port, EA Display Port Version: 1.2, 1 HDMI, EA HDMI Version: 1.4, HDCP Version (HDMI): 2.2, Headphone.
+E ainda, conta com várias características que te ajudam ainda mais como AMD FreeSync Premium que apresenta tecnologia de sincronização adaptativa que reduz atraso de tela, rasgos de imagem e a latência de entrada, assegurando assim que cada cena flua sem interrupções, ajuste de altura, design sem bordas em 3 lados que revela o espaço máximo para uma jogabilidade maior e mais ousada.</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Curvo Duex Dx 270zg, 27 Polegadas, FULL HD (1920x1080), 240hz, Preto</t>
+  </si>
+  <si>
+    <t>Marca: duex&lt;br /&gt;modelo: dx 270zg &lt;br /&gt;&lt;br /&gt;especificações: &lt;br /&gt;&lt;br /&gt;tamanho da tela: 27" &lt;br /&gt;área de display: 527.4 (h) x 296.4 (v) &lt;br /&gt;resolução: 1920x1080 (240hz) &lt;br /&gt;pixel pitch: 0.27mm &lt;br /&gt;ângulo de visão: h:178 / v:178 &lt;br /&gt;brilho: 250cd/m² &lt;br /&gt;tempo de resposta: 1ms &lt;br /&gt;número de cores: 16.7m &lt;br /&gt;&lt;br /&gt;conectores: &lt;br /&gt;2x hdmi &lt;br /&gt;1x displayport &lt;br /&gt;1x usb &lt;br /&gt;1x áudio &lt;br /&gt;&lt;br /&gt;conteúdo da caixa: &lt;br /&gt;monitor &lt;br /&gt;base&lt;br /&gt;cabo hdmi&lt;br /&gt;fonte de energia&lt;br /&gt;&lt;br /&gt;garantia: 365 dias</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Bluecase, 27", 2.5k, 75hz, 5ms, Preto - BM2716GW</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Redragon Pearl, 23.6 Polegadas, 165hz, Curvo, LED, FHD, HDMI - Gm24g3c</t>
+  </si>
+  <si>
+    <t>Características:&lt;br /&gt; - marca: redragon&lt;br /&gt; - modelo: gm24g3c&lt;br /&gt; especificações:&lt;br /&gt; - cor: preto&lt;br /&gt; - alta taxa de atualização até 144hz auxiliando na fluidez da gameplay.&lt;br /&gt; - design elegante e minimalista para se integrar a qualquer setup.&lt;br /&gt; - tecnologia freesync integrada para eliminar as quebras de imagem.&lt;br /&gt; - diversas opções de conexões de vídeo para maior praticidade e versatilidade.&lt;br /&gt; - tamanho: 23,6”&lt;br /&gt; - resolução: 1920 x 1080&lt;br /&gt; - tipo de painel: csot&lt;br /&gt; - taxa de atualização: 165 hz&lt;br /&gt; - número de cores: 16.7 m&lt;br /&gt; - brilho máximo: 250cd/m2 (typical)&lt;br /&gt; - taxa de contraste: 3000:1&lt;br /&gt; - conectividade: hdmi 1.4 x 2, dp x1, 1x 3.5mm áudio.&lt;br /&gt; - power range: 100-240v 50/60hz&lt;br /&gt; - peso bruto(g): 4750&lt;br /&gt; - peso liquido(g): 3450&lt;br /&gt; conteúdo da embalagem:&lt;br /&gt; - monitor gamer redragon</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Gigabyte LED 27´ Full HD, IPS, HDMI/DisplayPort, FreeSync, 144Hz, 1ms, Altura Ajustável - G27F-SA</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Como jogador invis&amp;iacute;vel, o monitor costuma ser subestimado. A verdade &amp;eacute; que os monitores se formam como um efeito sin&amp;eacute;rgico e trazem o melhor desempenho dos componentes do PC. Os monitores de jogos GIGABYTE oferecem as &amp;uacute;ltimas especifica&amp;ccedil;&amp;otilde;es e qualidade, os usu&amp;aacute;rios podem realmente desfrutar de um desempenho de alto n&amp;iacute;vel sem a necessidade de extravag&amp;acirc;ncia.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Samsung Odyssey 49 Polegadas,oled, Wqhd, 240hz, 0.03ms, Tela Super Ultrawide - Ls49cg930slxzd</t>
+  </si>
+  <si>
+    <t>Tecnologia samsung oled &lt;br /&gt;seu jogo com gráficos ainda mais bonitos! O odyssey oled g9 proporciona imagens com contraste puro e ainda mais brilhantes e coloridas, graças a exclusiva tecnologia de pontos quânticos. &lt;br /&gt;tela curva de 49\" dual qhd &lt;br /&gt;com uma tela super ultra - wide semelhante a dois monitores qhd lado a lado, capte todos os detalhes do seu jogo com a máxima nitidez. A tela curva de 1800r te coloca dentro do game proporcionando uma verdadeira imersão. &lt;br /&gt;veja os detalhes até no escuro &lt;br /&gt;display hdr e true black 400. &lt;br /&gt;o oled g9 gera um preto puro na tela sem a fuga de luz dos pixels, para que você enxergue todos os detalhes do seu game mesmo nas cenas mais escuras. &lt;br /&gt;máxima velocidade &lt;br /&gt;tempo de resposta de 0.03ms e taxa de atualização de 240hz &lt;br /&gt;desvie, ataque e contra-ataque mais rápido! A tecnologia oled oferece um tempo de resposta de 0.03ms para reações quase instantâneas. As conexões hdmi 2.1 e displayport proporcionam maior performance com a taxa de 240hz de atualização. &lt;br /&gt;especificações &lt;br /&gt;tela curva: 1800r; &lt;br /&gt;proporção de tela: 32:9; &lt;br /&gt;brilho (típico): 250 cd; &lt;br /&gt;resolução: 5,120 x 1,440; &lt;br /&gt;tempo de resposta: 0.03ms (gtg); &lt;br /&gt;característica geral &lt;br /&gt;eye saver mode: sim; &lt;br /&gt;flicker free: sim; &lt;br /&gt;picture-in-picture: sim; &lt;br /&gt;picture-by-picture: sim; &lt;br /&gt;quantum dot color: sim; &lt;br /&gt;image size: sim; &lt;br /&gt;certificação windows: windows 10; &lt;br /&gt;freesync: freesync premium pro; &lt;br /&gt;vesa adaptive-sync: sim; &lt;br /&gt;off timer plus: sim; &lt;br /&gt;black equalizer: sim; &lt;br /&gt;low input lag mode: sim; &lt;br /&gt;virtual aim point: sim; &lt;br /&gt;core sync: sim; &lt;br /&gt;super arena gaming ux: sim; &lt;br /&gt;auto source switch: auto source switch+ &lt;br /&gt;tela &lt;br /&gt;tamanho da tela ativa (hxv) (mm) :1,196.7x339.2; &lt;br /&gt;tela curva: 1800r; &lt;br /&gt;proporção de tela: 32:9; &lt;br /&gt;tipo de painel: oled; &lt;br /&gt;hdr10+: hdr10+ gaming; &lt;br /&gt;resolução: 5,120 x 1,440; &lt;br /&gt;ângulo de visão (horizontal / vertical): 178°(h)/178°(v). &lt;br /&gt;entrada de sinal &lt;br /&gt;display port: 1 ea; &lt;br /&gt;hdmi 2.1: 1 ea; &lt;br /&gt;micro hdmi: 1; &lt;br /&gt;display port version: 1.4; &lt;br /&gt;hdmi version: 2.1; &lt;br /&gt;usb ports: 3; &lt;br /&gt;usb hub version: 3.0. &lt;br /&gt;áudio &lt;br /&gt;speaker: sim; &lt;br /&gt;speaker output: 5w x 2ch. &lt;br /&gt;condições de operação &lt;br /&gt;temperatura: 10 ~ 40 graus celsius; &lt;br /&gt;umidade: 10 ~ 80 (non-condensing). &lt;br /&gt;alimentação &lt;br /&gt;consumo de energia (máximo): 220 w; &lt;br /&gt;tipo: external adaptor. &lt;br /&gt;dimensões &lt;br /&gt;produto com base (lxaxp, mm): 1194.7 x 529.3 x 284.1 mm; &lt;br /&gt;produto sem base (lxaxp, mm): 1194.7 x 365 x 180.8 mm. &lt;br /&gt;peso &lt;br /&gt;produto com base (kg): 12.6 kg; &lt;br /&gt;produto sem base (kg): 8.8 kg; &lt;br /&gt;peso bruto (kg): 18.1 kg. &lt;br /&gt;acessórios &lt;br /&gt;power cable length: 1.5 m;</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Gigabyte 27Polegadas, 1ms Gtg 165 Hz Freesync - M27FA</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;monitor gamer 27" gigabyte m27f a 1ms gtg 165 hz freesync&lt;/b&gt;&lt;/p&gt;&lt;p&gt;&lt;br /&gt;mergulhe no mundo dos jogos com qualidade visual e desempenho excepcionais e tenha uma experi&amp;ecirc;ncia de jogo imersiva com o monitor gamer gigabyte m27f a. Com um display de 27 polegadas, tempo de resposta de 1ms gtg e taxa de atualiza&amp;ccedil;&amp;atilde;o de 165 hz, este monitor oferece imagens n&amp;iacute;tidas, suaves e sem atrasos, permitindo que voc&amp;ecirc; reaja rapidamente aos eventos do jogo. A tecnologia freesync garante uma sincroniza&amp;ccedil;&amp;atilde;o perfeita entre a placa de v&amp;iacute;deo e o monitor, eliminando o screen tearing e stuttering. Com resolu&amp;ccedil;&amp;atilde;o full hd e cores vibrantes, cada detalhe ganha vida na tela. A base ajust&amp;aacute;vel e as op&amp;ccedil;&amp;otilde;es de conectividade completas garantem conforto e praticidade. Eleve seu desempenho nos jogos com o monitor gamer gigabyte m27f a.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Para você que é fanático por games, precisa ter equipamentos que te impulsione aos mais altos níveis de jogabilidade.
+A LG apresenta o monitor gamer Widescreen UltraGear 24GN60R-B de 24".
+Ele possui resolução Full HD (1920x1080), frequência de atualização de 144Hz, painel IPS, tempo de resposta de 1ms e conexões HDMI e DisplayPort.
+Além disso, ainda conta com HDR10, Flicker Safe, AMD FreeSync para maior fluídez durante seus jogos competitivos, Motion Blur Reduction, Crosshair, Dynamic Action Sync, Black Stabilizer, Plug &amp; Play, Modo Leitura e OnScreen Control. Ajuste de inclinação para adequar ao seu estilo de jogo e design de 3 lados praticamente sem bordas.</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Curvo, Samsung Odyssey Rg90 49'' Preto, DqHD, Tela Super Ultrawide, 120hz, HDMI, Dp, Usb, Freesync Com Ajuste De Altura</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Curvo Samsung Odyssey Rg90 49´´ Preto DqHD, Tela Super Ultrawide, 120hz, Hdmi, Dp, Usb, Freesync Com Ajuste De Altura</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Cooler Master 34 Pol. Curvo, Uwqhd (3440x1440), 0.5MS, 144Hz, Hdr400, Vesa - Gm34-Cwqa</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;monitor gamer gm34-cwqa cooler master curvo 3440x1440 vesa 144hz 34"&lt;/b&gt;&lt;/p&gt;&lt;p&gt;&lt;br /&gt;desfrute de uma experi&amp;ecirc;ncia envolvente com o painel curvo 1500r va de amplo campo de vis&amp;atilde;o que economiza espa&amp;ccedil;o no setup, reduz distor&amp;ccedil;&amp;otilde;es e proporciona conforto visual, oferecendo uma perspectiva verdadeiramente imersiva. A tecnologia de painel va, o gm34-cwqa reduz significativamente os vazamentos de luz em toda a tela. Com contraste est&amp;aacute;tico de 4000:1, ele oferece pretos intensos e brancos luminosos, mesmo em cenas escuras ou claras. Aproveite uma taxa de atualiza&amp;ccedil;&amp;atilde;o incrivelmente alta e cores vibrantes e ricas proporcionadas pela tecnologia de painel de pontos qu&amp;acirc;nticos. Experimente visuais realistas em todos os tipos de conte&amp;uacute;do e jogos.&lt;/p&gt;&lt;p&gt;&lt;br /&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Monitor Gamer AOC Entusiasta Monitor 27 Polegadas, FULL HD, Wide, Ips, 1ms, 75hz, Adaptive G-sync</t>
+  </si>
+  <si>
+    <t>Monitor Gamer AOC. Desenvolvidos para suportar todas as emoções dos jogos, o tempo de resposta de 1ms oferece alta velocidade, definição e muita suavidade em todos os movimentos. A avançada tecnologia Painel IPS esclarece automaticamente as áreas escuras do mundo do jogo, entregando mais cor, brilho e contraste, melhorando a visualização com amplos ângulos de visão. Game Mode, Esta função possui predefinições de fábrica para otimizar cada tipo de jogo. Assim, os níveis de gama preto, proporções de contraste e nitidez são instantaneamente calibrados</t>
+  </si>
+  <si>
+    <t>Monitor Gamer BenQ MOBIUZ EX2710S, 27 Full HD, 165Hz, 1ms, IPS, HDMI e DisplayPort, FreeSync Premium, HDRi, Color Vibrance,  Black eQualizer</t>
+  </si>
+  <si>
+    <t>&lt;p style="text-align: justify;"&gt;Monitor Gamer BenQ MOBIUZ EX2710S&lt;/p&gt;
+&lt;p style="text-align: justify;"&gt;&lt;strong&gt;Explore todas as possibilidades&lt;/strong&gt;&lt;/p&gt;
+&lt;p style="text-align: justify;"&gt;Explore novos mundos e alcance novos n&amp;iacute;veis com os incr&amp;iacute;veis &lt;strong&gt;gr&amp;aacute;ficos&lt;/strong&gt;, &lt;strong&gt;&amp;Aacute;udio imersivo da MOBIUZ e desempenho impec&amp;aacute;vel&lt;/strong&gt; preparam voc&amp;ecirc; para emo&amp;ccedil;&amp;otilde;es ilimitadas.&lt;/p&gt;
+&lt;p style="text-align: justify;"&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p style="text-align: justify;"&gt;N&amp;atilde;o perca nenhum detalhe&lt;/p&gt;
+&lt;p style="text-align: justify;"&gt;&lt;strong&gt;Experimente um painel claro e detalhado&lt;/strong&gt;, aproveite ao m&amp;aacute;ximo as imagens em movimento fluidas e cuide de seus olhos ao mesmo tempo.&lt;/p&gt;
+&lt;p style="text-align: justify;"&gt;&amp;Aacute;udio Excepcional&lt;/p&gt;
+&lt;p style="text-align: justify;"&gt;&lt;strong&gt;O som n&amp;iacute;tido e claro do EX2710S&lt;/strong&gt; permite que voc&amp;ecirc; fique alerta a quaisquer mudan&amp;ccedil;as ambientais em seus jogos.&lt;/p&gt;
+&lt;p style="text-align: justify;"&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p style="text-align: justify;"&gt;Compre agora no KaBuM!&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Benq Zowie 24.5 Polegadas FHD, HDMI, DP, TN Dyac, 240 Hz, 1ms, Altura Ajustável - XL2546</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Benq Zowie 24.5 FHD HDMI DP TN DyAc 240Hz 1ms Altura Ajustável - XL2546&lt;br /&gt;&lt;br /&gt;Tecnologia DyAc - Uma sensação diferente de spray&lt;br /&gt;A tecnologia exclusiva do ZOWIE - Dynamic Accuracy (DyAc) torna as ações vigorosas do jogo, como borrifar menos desfoque. Isso permite que os jogadores vejam a posição da mira e dos pontos de impacto com mais clareza, o que pode ajudar no controle do recuo.&lt;br /&gt;&lt;br /&gt;Taxa de atualização nativa de 240 Hz - Experiência de suavidade&lt;br /&gt;Capture cada detalhe do movimento e aproveite a jogabilidade fluida do monitor de taxa de atualização de 240 Hz nativo ZOWIE, que garante uma visualização suave de movimentos rápidos e transições dramáticas de forma consistente em todos os momentos. (Certifique-se de que o desempenho do PC está dentro do par para ativar totalmente 240 Hz)&lt;br /&gt;&lt;br /&gt;Requisito de placa de vídeo recomendado:&lt;br /&gt;NVIDIA GeForce GTX 980 ou melhor&lt;br /&gt;AMD Radeon RX 480 ou melhor&lt;br /&gt;&lt;br /&gt;Shield - Ajude você a se concentrar no jogo&lt;br /&gt;Escudo - revela a maneira de se concentrar nos jogos. O ângulo ajustável e o design removível permitem que o Shield adote vários ambientes de acordo com a preferência. Apenas se concentre em vencer o jogo.&lt;br /&gt;&lt;br /&gt;Acesse facilmente as configurações para diferentes cenários&lt;br /&gt;Para personalizar o XL com diferentes cenários de uso, o S-Switch foi projetado para facilitar o acesso ao menu do monitor, alternar entre os modos salvos e alternar rapidamente entre os dispositivos conectados. Para seguir suas configurações de exibição preferidas com modelos selecionados, o S-Switch permite salvar e transferir 3 perfis com design sem driver dentro do mesmo modelo.</t>
+  </si>
+  <si>
+    <t>Monitor Gamer 27'', Gigabyte G27fc-a-sa, Curvo, Full HD, 165hz, 1ms, Freesync - Hdmi/displayport</t>
+  </si>
+  <si>
+    <t>Monitor Gamer 27 Gigabyte G27fc-a-sa</t>
+  </si>
+  <si>
+    <t>Monitor 27" LED/IPS Acer Gamer Ultra Fino, 75Hz, 1Ms, HDMI + VGA - SA270</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Monitor Gamer Acer LCD 27 SA270 Bbix Full HD 75Hz 1ms IPS FreeSync HDMI Preto UM.HS0AA.B02&lt;/b&gt;&lt;br /&gt;&lt;br /&gt;NÃO PERCA NENHUM DETALHE DO SEU JOGO&lt;br /&gt;Veja tudo em alta definição com a resolução de 1920 x 1080 Full HD.&lt;br /&gt;E com as 27 da tela, seus jogos terão um campo de visão privilegiado.&lt;br /&gt;&lt;br /&gt;ENTRE NO UNIVERSO GAMER&lt;br /&gt;Garanta uma ótima performance de cor em seus jogos favoritos. O painel In Plane Switching (IPS) promove cores mais vibrantes e nítidas de qualquer ângulo, sem deixar rastros.&lt;br /&gt;&lt;br /&gt;ESTEJA PRONTO PARA JOGAR&lt;br /&gt;A taxa de atualização de 75Hz leva a renderização dos seus jogos a outro nível.&lt;br /&gt;E o tempo de resposta de 1ms acelera as transições e não trava durante a ação.</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Bluecase 24 Polegadas Full HD,  144HZ, 1ms, HDMI e DisplayPort, FreeSync - BM242GW</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Full HD 144Hz de atualização para melhores gráficos. Com 1 conector DisplayPort e 1 conector HDMI. &lt;br /&gt;&lt;br /&gt;TAXA DE ATUALIZAÇÃO   &lt;br /&gt;Uma taxa de atualização de 144Hz deixa a sua tela sem nenhum borrão, serrilhado ou "ghosting". FLICKER-FREE   A função Flicker-Free regula o brilho para diminuir o cansaço dos olhos durante os jogos. &lt;br /&gt;&lt;br /&gt;APENAS 1MS TEMPO DE RESPOSTA (GTG)   &lt;br /&gt;Melhor desempenho e experiência de jogo nas ações de rápido movimento. &lt;br /&gt;&lt;br /&gt;TECNOLOGIA AMD FREESYNC   &lt;br /&gt;O AMD FREESYNC faz a sincronização entre a taxa de atualização de seu monitor e a taxa de quadros de sua placa de vídeo eliminando imagens quebradas.</t>
+  </si>
+  <si>
+    <t>Monitor Gamer AOC Agon 31.5' LED, Curvo, 165 Hz, Full HD, 1ms, FreeSync Premium, HDMI/DisplayPort, RGB Light FX - AG323FCXE</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Com tela de alta qualidade, amplo &amp;acirc;ngulo de vis&amp;atilde;o e comando em tempo real, prepare-se para obter uma experi&amp;ecirc;ncia muito mais imersiva em todos os g&amp;ecirc;neros de jogos. Projetado para gamers, o monitor Agon permite movimentos muito mais flu&amp;iacute;dos nos jogos devido a alt&amp;iacute;ssima taxa de atualiza&amp;ccedil;&amp;atilde;o de 165 Hz. O tempo de resposta de 1 ms proporciona movimentos instant&amp;acirc;neos e naturais para voc&amp;ecirc; ser o melhor, e com o painel VA, voc&amp;ecirc; tem mais brilho e contraste para enxergar onde os seus inimigos est&amp;atilde;o, mesmo em cenas com pouca ilumina&amp;ccedil;&amp;atilde;o. Al&amp;eacute;m disso, o design exclusivo com LEDs em diferentes configura&amp;ccedil;&amp;otilde;es de cores RGB deixam a sua maratona de jogos ainda mais emocionante.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Monitor Gamer 27" 144Hz, 1Ms, Bluecase, Full HD, Freesync, Borda Ultra Fina - BM2710GW</t>
+  </si>
+  <si>
+    <t>O Monitor Gamer BM2710GW entrega aos gamers uma experiência lisa, rápida e responsiva em todos os jogos. Experimente uma jogabilidade impecável com a taxa de atualização de tela 144 Hz que garante imagens rápidas, suaves e movimentos nítidos, para nenhum detalhe passar despercebido.</t>
+  </si>
+  <si>
+    <t>Monitor Gamer BenQ 24 Polegadas, Full HD, 144Hz, 1Ms, DisplayPort e HDMI, Altura Ajustável - XL2411K</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Benq Zowie 24 HD HDMI DP TN DyAc 144Hz 1ms Altura Ajustável - XL2411K&lt;br /&gt;&lt;br /&gt;Uma nova geração da série XL de monitores gamers para PC, com ajustes aprimorados para maior flexibilidade, conforto e conveniência aos jogadores, permitindo foco e desempenho durante o game.&lt;br /&gt;&lt;br /&gt;BASE REDUZIDA - MAIS ESPAÇO PRA JOGAR&lt;br /&gt;Nova base desenvolvida com o objetivo de liberar mais espaço ao jogador, sem perder a estabilidade do monitor. Isso permite espaço para mais movimento durante o jogo e ficar confortável com mais flexibilidade.&lt;br /&gt;&lt;br /&gt;AJUSTES FLEXÍVEIS - MAIS CONFORTO DURANTE OS JOGOS&lt;br /&gt;Entendemos que cada jogador(a) tem suas configurações preferidas. Uma combinação única da altura e do ângulo do monitor. Com ajuste de altura e inclinação livre, os players podem configurar rapidamente de acordo com suas necessidades para um resultado melhor, jogando de uma forma mais confortável.&lt;br /&gt;&lt;br /&gt;ACESSO RÁPIDO ÀS CONFIGURAÇÕES&lt;br /&gt;A alteração na interface do usuário e no S-Switch é muito mais do que apenas estético. Foram redesenhados com o objetivo de oferecer a capacidade de personalizar as configurações que preferir para FPS, acessando-as rapidamente, por meio de um menu, com apenas um toque. As configurações passam a ser muito mais convenientes.&lt;br /&gt;&lt;br /&gt;TECNOLOGIA DYAX - UMA SENSAÇÃO DE SPAY DIFERENTE&lt;br /&gt;O DyAc ajuda a não perder o foco durante o spray. Possibilita aos jogadores ver as posições da mira e pontos de impacto com mais clareza, ajudando a embaçar menos a imagem durante  o recuo da arma. &lt;br /&gt;&lt;br /&gt;FAÇA AJUSTES VISUAIS COM BASE EM SUAS NECESSIDADES DE JOGO&lt;br /&gt;O Black eQualizer aumenta a visibilidade de cenas escuras, sem superexpor as áreas claras. Já o Color Vibrance ajusta as configurações e o tom das cores para diferenciar alvos inimigos no jogo, e por fim, o modo Game alterna entre as pré configurações para o jogo, de acordo com título do mesmo.</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Bluecase 23.6 Polegadas, Curvo, LED FULL HD, 180Hz, HDMI,VGA, Preto - Bm24ffd1gc</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;monitor gamer full hd curvo led 23,6" bluecase 180hz hdmi vga preto - bm24ffd1gc&lt;/b&gt;&lt;/p&gt;&lt;p&gt;&lt;br /&gt;o monitor gamer bm24ffd1gc possui um tamanho de 23,6", proporcionando uma resolu&amp;ccedil;&amp;atilde;o m&amp;aacute;xima de 1920x1080 pixels full hd. Sua taxa de atualiza&amp;ccedil;&amp;atilde;o m&amp;aacute;xima &amp;eacute; de 180 hz atrav&amp;eacute;s das conex&amp;otilde;es hdmi e dp, oferece imagens mais suaves e fluidas.&amp;nbsp;equipado com ilumina&amp;ccedil;&amp;atilde;o led, o monitor possui um brilho de 300 cd/m&amp;sup2; e um contraste t&amp;iacute;pico de 4.000:1, resultando em cores vibrantes e imagens detalhadas. O monitor gamer bm24ffd1gc &amp;eacute; uma &amp;oacute;tima escolha para jogos, trabalho e entretenimento, proporcionando uma experi&amp;ecirc;ncia visual envolvente e de alta qualidade.&lt;/p&gt;&lt;p&gt;&lt;br /&gt;&lt;b&gt;caracter&amp;iacute;sticas monitor gamer led full hd bluecase 23,6" 180hz - preto&lt;/b&gt;&lt;br /&gt;- marca: bluecase&lt;br /&gt;- modelo: bm24ffd1gcbx&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Monitor 29 Lg 29wk500 - Tela Ips Full Hd Ultrawide Freesync - Modo Gamer - Screen Split 2.0 - 5ms</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Multi Warrior Kaizen 27 Polegadas, Full HD IPS, 144Hz, 1ms, HDMI e DisplayPort, FreeSync - MN201</t>
+  </si>
+  <si>
+    <t>O Monitor Kaizen traz um novo significado para a palavra imersão, a sua tela IPS Full HD proporciona realismo total para a sua jogatina. Tenha uma jogabilidade fluida com uma taxa de atualização de 144Hz, sem rastros e sem o efeito Ghosting. A tela de 27" FHD do Warrior Kaizen garante uma imersão total em seus games. Aproveite ao máximo a qualidade de imagem em alta resolução. Seu painel IPS garante maior fidelidade de cores e qualidade de imagem em seus jogos. A tecnologia FreeSync sincroniza os quadros gerados pela placa gráfica (GPU) com a taxa de atualização do monitor. Isso garante que eles fiquem sempre alinhados e proporcionem uma imagem fluida e sem cortes. Ele conta com um com tempo de resposta de 1ms, permitindo que você tenha a reação mais rápida para os seus desafios. Com iluminação RGB, seu setup gamer ainda melhor. Conta com base ajustável em altura e rotação com ajustes precisos e tempo de resposta ultra rápido para seus comandos. O monitor Warrior Kayzen se adapta perfeitamente ao seu setup.</t>
+  </si>
+  <si>
+    <t>Monitor Acer 27 Polegada, 165 HZ, IPS, Led Gamer Predator, WQHD, HDMI, USB, Display Port G-Sync - Xb271hu</t>
+  </si>
+  <si>
+    <t>O primeiro monitor IPS a atingir taxas de atualização acima de 144Hz, eleito pelo site PCGamer.com como o melhor monitor para jogos.&lt;br /&gt;&lt;br /&gt;Os Cheaters vão dar rage quit&lt;br /&gt;Nunca mais perca um frag: seu reflexo e sua performance vão ficar ainda melhores com as incríveis taxas de atualização, que oferecem imagens sem rastros e engasgos. Não vai sobrar um cheater pra contar história.&lt;br /&gt;&lt;br /&gt;SUAVE NA NAVE&lt;br /&gt;Destrua sem perder a suavidade. &lt;br /&gt;A tecnologia NVIDIA G-SYNC elimina os problemas de screen tearing para uma experiência ainda mais perfeita</t>
+  </si>
+  <si>
+    <t>Monitor Gamer HQ 27 Polegadas, FULL HD 144HZ A 240HZ 1MS HDMI Display Port, Curvo LED, Alto Falantes Iluminação RGB - Battle 27h240g</t>
+  </si>
+  <si>
+    <t>Monitor gamer hq battle&lt;br /&gt;&lt;br /&gt;A jogatina perfeita&lt;br /&gt;Com o monitor hq battle, os seus movimentos serão instantâneos e o seu tempo de reação ocorrerá em tempo real em qualquer tipo de jogo.&lt;br /&gt;Sem atrasos, você jogará com desempenho profissional.&lt;br /&gt;Graças a combinação de tempo de resposta ultrarápido + alta taxa de atualização, você sairá na frente dos seus oponentes:&lt;br /&gt;&lt;br /&gt;Tempo de resposta: 1ms&lt;br /&gt;Desempenho sem igual, imagens nítidas e sem espera. Enxergue toda a cena no milésimo de segundo em que ela acontece. Não desperdice nenhum movimento. O seu reflexo convertido em vitórias!&lt;br /&gt;&lt;br /&gt;Taxa de atualização: 240hz&lt;br /&gt;Nada de rastros nem imagens desfocadas. Tenha uma incrível vantagem sobre o seu adversário, principalmente em cenas rápidas. A altíssima taxa de atualização permitirá a você perceber cada sensível mudança no ambiente. E diferente dos demais modelos da linha battle, o 27h240g possui incríveis 240hz. É a garantia de uma experiência sublime.&lt;br /&gt;&lt;br /&gt;Amd freesync e nvidia g-sync&lt;br /&gt;E para completar o time, o monitor hq battle conta com as tecnologias amd freesync e nvidia g-sync. Incríveis ferramentas que impedem imagens serrilhadas e cortadas.&lt;br /&gt;Elas apresentam a tecnologia de sincronização adaptável, que reduz o travamento de tela, oscilação e atrasos.&lt;br /&gt;&lt;br /&gt;Enxergue no escuro&lt;br /&gt;Graças ao painel va utilizado nos monitores hq battle, você se dará bem em qualquer tipo de ambiente, mesmo em situações de baixa luminosidade.&lt;br /&gt;Encontre seus inimigos escondidos em qualquer lugar, mesmo os mais escuros.&lt;br /&gt;&lt;br /&gt;Mais sobre o painel va&lt;br /&gt;Quando falamos em tipo de painel para monitores gamer, existem três opções disponíveis no mercado.&lt;br /&gt;E por que a hq escolheu o tipo va para o monitor battle?&lt;br /&gt;A resposta é simples. Pois essa opção oferece a maior gama de vantagens para o jogador:&lt;br /&gt;1- ângulo de visão de 178x178 graus, enxergue bem em qualquer ângulo&lt;br /&gt;2- alto nível de contraste, imagens nítidas mesmo em cenas muito claras ou muito escuras&lt;br /&gt;3- tempo de resposta real de 1ms mprt&lt;br /&gt;4- cores vivas e nítidas&lt;br /&gt;5- permite as mais altas taxas de atualização&lt;br /&gt;&lt;br /&gt;Design único&lt;br /&gt;Além de todos os recursos apresentados, ainda temos o fato do monitor hq battle ter um visual sensacional.&lt;br /&gt;Desenvolvido com uma tela curva, isso já seria o bastante para deixar o seu setup gamer ainda mais moderno. Mas além disso, ele ainda possui a tecnologia ´´frameless´´, sem bordas, que garantirão a você uma imersão total. Aproveite 100% da tela.&lt;br /&gt;&lt;br /&gt;Conectividade e recursos&lt;br /&gt;Para garantir uma experiência perfeita, equipamos o battle com tudo o que você precisa.&lt;br /&gt;Dupla saída de vídeo hdmi e display port, além de uma conexão usb.&lt;br /&gt;E para deixar tudo ainda melhor, ele vem acompanhado com dois alto falantes surround e iluminação em rgb.</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Zowie XL2411K 24, 144Hz, 1ms, HDMI, Tecnologia DyAc Ajuste de Altura - 9H.LJPLB.QBL</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Monitor Gamer Zowie XL2411K&lt;/h2&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Compat&amp;iacute;vel com PS5 e Xbox X S&amp;eacute;rie X at&amp;eacute; 120 Hz.&lt;/h2&gt;
+&lt;p&gt;Com a introdu&amp;ccedil;&amp;atilde;o do &lt;strong&gt;PS5 e Xbox Series X&lt;/strong&gt;, os jogadores de console podem finalmente tirar proveito de uma taxa de atualiza&amp;ccedil;&amp;atilde;o de&lt;strong&gt; 120Hz&lt;/strong&gt; (tamb&amp;eacute;m dependente do suporte de &lt;strong&gt;120fps&lt;/strong&gt; por t&amp;iacute;tulo de jogo). Esta &amp;eacute; uma atualiza&amp;ccedil;&amp;atilde;o significativa para jogadores FPS competitivos, pois o aumento da suavidade e clareza pode resultar em&lt;strong&gt; tempos de rea&amp;ccedil;&amp;atilde;o mais r&amp;aacute;pidos&lt;/strong&gt; e um &lt;strong&gt;rastreamento mais f&amp;aacute;cil dos inimigos&lt;/strong&gt;.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;DyAc Tecnologia - Uma sensa&amp;ccedil;&amp;atilde;o de pulveriza&amp;ccedil;&amp;atilde;o diferente&lt;/h2&gt;
+&lt;p&gt;&lt;strong&gt;DyAc&lt;/strong&gt; torna as a&amp;ccedil;&amp;otilde;es vigorosas dentro do jogo, como a pulveriza&amp;ccedil;&amp;atilde;o menos borrada. Isto permite que os jogadores vejam mais claramente a &lt;strong&gt;posi&amp;ccedil;&amp;atilde;o dos pontos de mira e de impacto que podem ajudar no controle de recuo&lt;/strong&gt;.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Diferentes modos de cor dentro do jogo - Jogue ao seu gosto&lt;/h2&gt;
+&lt;p&gt;Estamos lan&amp;ccedil;ando &lt;strong&gt;modos de jogo&lt;/strong&gt; &lt;strong&gt;sob medida&lt;/strong&gt; para atender a diferentes prefer&amp;ecirc;ncias e cen&amp;aacute;rios. Cada configura&amp;ccedil;&amp;atilde;o de cor leva em considera&amp;ccedil;&amp;atilde;o cuidadosamente, jogo por jogo, cena por cena, para garantir que as cores funcionem durante todo o jogo, e n&amp;atilde;o sejam comprometidas em mapas diferentes.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Fa&amp;ccedil;a ajustes visuais com base em suas necessidades dentro do jogo&lt;/h2&gt;
+&lt;p&gt;&lt;strong&gt;Black eQualizer&lt;/strong&gt; para aumentar a visibilidade em cenas escuras sem expor em excesso as &amp;aacute;reas brilhantes, &lt;strong&gt;Color Vibrance&lt;/strong&gt; para ajustar a configura&amp;ccedil;&amp;atilde;o de cores e o tom para diferenciar alvos inimigos no jogo, e &lt;strong&gt;Game modes&lt;/strong&gt; para alternar entre predefini&amp;ccedil;&amp;otilde;es para diferentes t&amp;iacute;tulos de jogo - todos estes s&amp;atilde;o ajustes que permitem que os jogadores joguem com &lt;strong&gt;suas configura&amp;ccedil;&amp;otilde;es visuais preferidas&lt;/strong&gt;.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;XL Setting to Share&lt;/h2&gt;
+&lt;p&gt;Compartilhe suas pr&amp;oacute;prias configura&amp;ccedil;&amp;otilde;es com um colega de equipe, um amigo ou seus f&amp;atilde;s. Salve perfis de v&amp;iacute;deo rapidamente e compartilhe convenientemente atrav&amp;eacute;s de uma &lt;strong&gt;interface de usu&amp;aacute;rio simples&lt;/strong&gt;.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Base menor - Mais espa&amp;ccedil;o para jogar&lt;/h2&gt;
+&lt;p&gt;A nova &lt;strong&gt;base &amp;eacute; projetada para ocupar menos espa&amp;ccedil;o&lt;/strong&gt;, mantendo a mesma estabilidade. Isto permite aos jogadores &lt;strong&gt;mais espa&amp;ccedil;o em sua configura&amp;ccedil;&amp;atilde;o para movimentos dentro do jogo&lt;/strong&gt; e lhes permite a flexibilidade de fazer ajustes e jogar confortavelmente.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h3&gt;Compre agora no KaBuM!&lt;/h3&gt;</t>
+  </si>
+  <si>
+    <t>Monitor Gamer, E-sports Benq Xl2546k - 24.5 Polegadas 240hz, Dyac+</t>
+  </si>
+  <si>
+    <t>Monitor ZOWIE e-Sports XL2546K 240Hz DyAc? 24.5 polegadas</t>
+  </si>
+  <si>
+    <t>USADO: Monitor Gamer LG, Tela 29 Polegadas, 75Hz, 1ms, Dynamic Action Sync, AMD FreeSync - 29UM69G-B.AWZM - Bronze Recer</t>
+  </si>
+  <si>
+    <t>ATENÇÃO: VOCÊ ESTÁ ADQUIRINDO UM PRODUTO RECERTIFICADO!!!! &lt;br /&gt;&lt;br /&gt;O produto acompanha a caixa original de fábrica, não acompanha manual de instruções ou qualquer outro.&lt;br /&gt;&lt;br /&gt;Entenda o que é um produto recertificado:&lt;br /&gt;&lt;br /&gt;É um produto que volta do mercado disponível para venda nas mesmas condições de um produto novo, com suas funcionalidades e características originais. O produto passa por um rigoroso processo de análise onde todas as suas funcionalidades são testadas e o produto liberado para venda. &lt;br /&gt;O produto recertificado é classificado em medalhas de acordo com o estado estético e superficial do produto, sendo: OURO, PRATA E BRONZE.&lt;br /&gt;&lt;br /&gt;Recertificado Ouro: Produto está em ótimas condições estéticas, similar a um produto novo.&lt;br /&gt; &lt;br /&gt;Recertificado Prata: Produto tem características similares ao Ouro, pode apresentar mínimos riscos quase imperceptíveis. &lt;br /&gt;&lt;br /&gt;Recertificado Bronze: Produto possuí riscos visíveis (nenhum risco apresentado é na tela do produto). Estes riscos não alteram o funcionamento do equipamento.&lt;br /&gt;&lt;br /&gt;Atenção: O Saldão da Informática não enviará fotos reais dos produtos para os clientes, como também não reservaremos produtos. As imagens exibidas são meramente ilustrativas.&lt;br /&gt;&lt;br /&gt;Monitor Gamer LG 29UM69G-B.AWZM, com tela de 29? polegadas com resolução Full HD (2560 x 1080), uma taxa de atualização de 75Hz, e um tempo de resposta de 1ms com tecnologia que todo gamer precisa como Dynamic action Sync e AMD FreeSync&lt;br /&gt;&lt;br /&gt;FICHA TÉCNICA&lt;br /&gt;&lt;br /&gt;Modelo/Referencia: 9UM69G-B.AWZM&lt;br /&gt;&lt;br /&gt;Certificação: Recertificado&lt;br /&gt;&lt;br /&gt;Medalha: Prata&lt;br /&gt;&lt;br /&gt;FICHA TÉCNICA:&lt;br /&gt;&lt;br /&gt;Tela: 29&lt;br /&gt;&lt;br /&gt;Taxa de atualização de 75Hz&lt;br /&gt;&lt;br /&gt;Tempo de resposta 1ms&lt;br /&gt;&lt;br /&gt;Tecnologia Dynamic action Sync e AMD FreeSync&lt;br /&gt;&lt;br /&gt;&lt;br /&gt;Conteúdo da embalagem: Monitor e fonte carregadora&lt;br /&gt;&lt;br /&gt;Observação: O produto não acompanha manual de instruções&lt;br /&gt;&lt;br /&gt;Garantia: 3 meses</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Redragon Amber, Tela de 27 Polegadas FHD, 165HZ, Curvo, LED, HDMI, Preto - GM27H10C</t>
+  </si>
+  <si>
+    <t>Características:&lt;br /&gt; - marca: redragon&lt;br /&gt; - modelo: gm27h10c&lt;br /&gt; especificações:&lt;br /&gt; - cor: preto&lt;br /&gt; - tamanho: 27”&lt;br /&gt; - resolução: 1920 x 1080 16:9&lt;br /&gt; - tipo de painel: va&lt;br /&gt; - taxa de atualização: 165 hz&lt;br /&gt; - número de cores: 16.7 m&lt;br /&gt; - brilho máximo: 250cd/m2 (typical)&lt;br /&gt; - taxa de contraste: 3000:1&lt;br /&gt; - conectividade: dp x1, hdmi x2, dc in x1&lt;br /&gt; - power range: 100-240v 50/60hz&lt;br /&gt; - tempo de resposta: 1ms&lt;br /&gt; - peso bruto(g): 5960g&lt;br /&gt; - peso liquido(g): 4830g&lt;br /&gt; conteúdo da embalagem:&lt;br /&gt; - monitor gamer redragon</t>
+  </si>
+  <si>
     <t>Monitor Gamer KBM! GAMING MG330 31.5' Led, Curvo, 165 Hz, Full Hd, 1ms, Adaptive Sync, Hdmi/Displayport, Ajuste De Ângulo - KGMG33031PT</t>
   </si>
   <si>
@@ -907,46 +1992,218 @@
 &lt;h3&gt;Seu Monitor KBM! GAMING voc&amp;ecirc; encontra aqui no KaBuM!&lt;/h3&gt;</t>
   </si>
   <si>
-    <t>Monitor Gamer Redragon Pearl, 23.6 Polegadas, 165hz, Curvo, LED, FHD, HDMI - Gm24g3c</t>
-  </si>
-  <si>
-    <t>Características:&lt;br /&gt; - marca: redragon&lt;br /&gt; - modelo: gm24g3c&lt;br /&gt; especificações:&lt;br /&gt; - cor: preto&lt;br /&gt; - alta taxa de atualização até 144hz auxiliando na fluidez da gameplay.&lt;br /&gt; - design elegante e minimalista para se integrar a qualquer setup.&lt;br /&gt; - tecnologia freesync integrada para eliminar as quebras de imagem.&lt;br /&gt; - diversas opções de conexões de vídeo para maior praticidade e versatilidade.&lt;br /&gt; - tamanho: 23,6”&lt;br /&gt; - resolução: 1920 x 1080&lt;br /&gt; - tipo de painel: csot&lt;br /&gt; - taxa de atualização: 165 hz&lt;br /&gt; - número de cores: 16.7 m&lt;br /&gt; - brilho máximo: 250cd/m2 (typical)&lt;br /&gt; - taxa de contraste: 3000:1&lt;br /&gt; - conectividade: hdmi 1.4 x 2, dp x1, 1x 3.5mm áudio.&lt;br /&gt; - power range: 100-240v 50/60hz&lt;br /&gt; - peso bruto(g): 4750&lt;br /&gt; - peso liquido(g): 3450&lt;br /&gt; conteúdo da embalagem:&lt;br /&gt; - monitor gamer redragon</t>
-  </si>
-  <si>
-    <t>Monitor Gamer Redragon Amber, Tela de 27 Polegadas FHD, 165HZ, Curvo, LED, HDMI, Preto - GM27H10C</t>
-  </si>
-  <si>
-    <t>Características:&lt;br /&gt; - marca: redragon&lt;br /&gt; - modelo: gm27h10c&lt;br /&gt; especificações:&lt;br /&gt; - cor: preto&lt;br /&gt; - tamanho: 27”&lt;br /&gt; - resolução: 1920 x 1080 16:9&lt;br /&gt; - tipo de painel: va&lt;br /&gt; - taxa de atualização: 165 hz&lt;br /&gt; - número de cores: 16.7 m&lt;br /&gt; - brilho máximo: 250cd/m2 (typical)&lt;br /&gt; - taxa de contraste: 3000:1&lt;br /&gt; - conectividade: dp x1, hdmi x2, dc in x1&lt;br /&gt; - power range: 100-240v 50/60hz&lt;br /&gt; - tempo de resposta: 1ms&lt;br /&gt; - peso bruto(g): 5960g&lt;br /&gt; - peso liquido(g): 4830g&lt;br /&gt; conteúdo da embalagem:&lt;br /&gt; - monitor gamer redragon</t>
-  </si>
-  <si>
-    <t>Monitor 29 Lg 29wk500 - Tela Ips Full Hd Ultrawide Freesync - Modo Gamer - Screen Split 2.0 - 5ms</t>
-  </si>
-  <si>
-    <t>Monitor Gamer Curvo Concórdia 31.5" QHD R1500, 165Hz, 1ms, HDMI/DisplayPort, FreeSync, Ajuste de Altura, Som Integrado, Preto - C315Q</t>
-  </si>
-  <si>
-    <t>&lt;h2&gt;Monitor Conc&amp;oacute;rdia Gamer Curvo C315Q 31,5'' ,2K, WQHD, 165hz, 1ms, 2 HDMI, DP, Ajuste de Altura e Rota&amp;ccedil;&amp;atilde;o&lt;/h2&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h2&gt;Curvatura Imersiva de 31,5 Polegadas&lt;/h2&gt;
-&lt;p&gt;O painel WQHD (2560 X 1440) de 31,5 polegadas do Monitor Conc&amp;oacute;rdia Gamer Curvo C315Q oferece visuais impressionantes de todos os &amp;acirc;ngulos com uma curvatura de 1500R que garante que cada ponto seja igualmente visto aos seus olhos. Isso contribui para um maior conforto de visualiza&amp;ccedil;&amp;atilde;o - mesmo durante o uso prolongado - e permite que voc&amp;ecirc; aproveite um amplo &amp;acirc;ngulo de visualiza&amp;ccedil;&amp;atilde;o com menos distor&amp;ccedil;&amp;atilde;o e mudan&amp;ccedil;a de cor ao jogar e assistir filmes.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h2&gt;Taxa de Atualiza&amp;ccedil;&amp;atilde;o de 165Hz&lt;/h2&gt;
-&lt;p&gt;A taxa de atualiza&amp;ccedil;&amp;atilde;o do Monitor Conc&amp;oacute;rdia Gamer Curvo C315Q diminui o atraso e o desfoque de movimento para dar a voc&amp;ecirc; vantagem todos os tipos de jogos.&amp;nbsp; Essa taxa de atualiza&amp;ccedil;&amp;atilde;o ultrarr&amp;aacute;pida permite que voc&amp;ecirc; jogue com as configura&amp;ccedil;&amp;otilde;es visuais mais altas e reaja instantaneamente ao que est&amp;aacute; na tela - para que voc&amp;ecirc; obtenha o primeiro ataque.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h2&gt;Design Ergon&amp;ocirc;mico&lt;/h2&gt;
-&lt;p&gt;Com um suporte ergonomicamente projetado, o Monitor Conc&amp;oacute;rdia Gamer Curvo C315Q oferece inclina&amp;ccedil;&amp;atilde;o, rota&amp;ccedil;&amp;atilde;o e giro da tela de 180&amp;deg; para que voc&amp;ecirc; possa encontrar facilmente sua posi&amp;ccedil;&amp;atilde;o de visualiza&amp;ccedil;&amp;atilde;o ideal.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>Monitor Gamer HQ 27 Polegadas, FULL HD 144HZ A 240HZ 1MS HDMI Display Port, Curvo LED, Alto Falantes Iluminação RGB - Battle 27h240g</t>
-  </si>
-  <si>
-    <t>Monitor gamer hq battle&lt;br /&gt;&lt;br /&gt;A jogatina perfeita&lt;br /&gt;Com o monitor hq battle, os seus movimentos serão instantâneos e o seu tempo de reação ocorrerá em tempo real em qualquer tipo de jogo.&lt;br /&gt;Sem atrasos, você jogará com desempenho profissional.&lt;br /&gt;Graças a combinação de tempo de resposta ultrarápido + alta taxa de atualização, você sairá na frente dos seus oponentes:&lt;br /&gt;&lt;br /&gt;Tempo de resposta: 1ms&lt;br /&gt;Desempenho sem igual, imagens nítidas e sem espera. Enxergue toda a cena no milésimo de segundo em que ela acontece. Não desperdice nenhum movimento. O seu reflexo convertido em vitórias!&lt;br /&gt;&lt;br /&gt;Taxa de atualização: 240hz&lt;br /&gt;Nada de rastros nem imagens desfocadas. Tenha uma incrível vantagem sobre o seu adversário, principalmente em cenas rápidas. A altíssima taxa de atualização permitirá a você perceber cada sensível mudança no ambiente. E diferente dos demais modelos da linha battle, o 27h240g possui incríveis 240hz. É a garantia de uma experiência sublime.&lt;br /&gt;&lt;br /&gt;Amd freesync e nvidia g-sync&lt;br /&gt;E para completar o time, o monitor hq battle conta com as tecnologias amd freesync e nvidia g-sync. Incríveis ferramentas que impedem imagens serrilhadas e cortadas.&lt;br /&gt;Elas apresentam a tecnologia de sincronização adaptável, que reduz o travamento de tela, oscilação e atrasos.&lt;br /&gt;&lt;br /&gt;Enxergue no escuro&lt;br /&gt;Graças ao painel va utilizado nos monitores hq battle, você se dará bem em qualquer tipo de ambiente, mesmo em situações de baixa luminosidade.&lt;br /&gt;Encontre seus inimigos escondidos em qualquer lugar, mesmo os mais escuros.&lt;br /&gt;&lt;br /&gt;Mais sobre o painel va&lt;br /&gt;Quando falamos em tipo de painel para monitores gamer, existem três opções disponíveis no mercado.&lt;br /&gt;E por que a hq escolheu o tipo va para o monitor battle?&lt;br /&gt;A resposta é simples. Pois essa opção oferece a maior gama de vantagens para o jogador:&lt;br /&gt;1- ângulo de visão de 178x178 graus, enxergue bem em qualquer ângulo&lt;br /&gt;2- alto nível de contraste, imagens nítidas mesmo em cenas muito claras ou muito escuras&lt;br /&gt;3- tempo de resposta real de 1ms mprt&lt;br /&gt;4- cores vivas e nítidas&lt;br /&gt;5- permite as mais altas taxas de atualização&lt;br /&gt;&lt;br /&gt;Design único&lt;br /&gt;Além de todos os recursos apresentados, ainda temos o fato do monitor hq battle ter um visual sensacional.&lt;br /&gt;Desenvolvido com uma tela curva, isso já seria o bastante para deixar o seu setup gamer ainda mais moderno. Mas além disso, ele ainda possui a tecnologia ´´frameless´´, sem bordas, que garantirão a você uma imersão total. Aproveite 100% da tela.&lt;br /&gt;&lt;br /&gt;Conectividade e recursos&lt;br /&gt;Para garantir uma experiência perfeita, equipamos o battle com tudo o que você precisa.&lt;br /&gt;Dupla saída de vídeo hdmi e display port, além de uma conexão usb.&lt;br /&gt;E para deixar tudo ainda melhor, ele vem acompanhado com dois alto falantes surround e iluminação em rgb.</t>
+    <t>Monitor Gamer Gigabyte 24 Full HD, 165Hz, 1ms, IPS, HDMI e DisplayPort, 125% sRGB, HDR, FreeSync, Altura Ajustável - G24F2BR</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Monitor Gamer Gigabyte 24 Full HD&lt;/h2&gt;
+&lt;h2&gt;&amp;nbsp;&lt;/h2&gt;
+&lt;h2&gt;A &amp;Uacute;LTIMA MILHA PARA O SEU SISTEMA DE JOGO&lt;/h2&gt;
+&lt;p&gt;Como um jogador invis&amp;iacute;vel, o monitor costuma ser subestimado. A verdade &amp;eacute; que os monitores se formam como um efeito sin&amp;eacute;rgico e trazem o &lt;strong&gt;melhor desempenho&lt;/strong&gt; dos componentes do PC. Os monitores de jogos GIGABYTE oferecem &lt;strong&gt;as especifica&amp;ccedil;&amp;otilde;es e qualidade mais recentes&lt;/strong&gt;, os usu&amp;aacute;rios podem realmente desfrutar de um &lt;strong&gt;desempenho de alto n&amp;iacute;vel&lt;/strong&gt; sem a necessidade de extravag&amp;acirc;ncia.&lt;/p&gt;
+&lt;p&gt;Suporta tecnologia &lt;strong&gt;Adaptive-Sync&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Tempo de resposta MPRT de 1ms&lt;/h2&gt;
+&lt;p&gt;&lt;strong&gt;Tempo de resposta super r&amp;aacute;pido de 1ms&lt;/strong&gt; para a experi&amp;ecirc;ncia de jogo mais suave de todos os tempos!&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;FHD com 165 Hz (OC 180 Hz)&lt;/h2&gt;
+&lt;p&gt;&lt;strong&gt;Alta resolu&amp;ccedil;&amp;atilde;o&lt;/strong&gt; e taxa de atualiza&amp;ccedil;&amp;atilde;o r&amp;aacute;pida, oferecendo qualidade de exibi&amp;ccedil;&amp;atilde;o detalhada e experi&amp;ecirc;ncia de jogo fluida!&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;95% DCI-P3&lt;/h2&gt;
+&lt;p&gt;Fant&amp;aacute;stica&lt;strong&gt; tela colorida e 95%&lt;/strong&gt; DCI-P3 super ampla gama de cores.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Simples e Estiloso&lt;/h2&gt;
+&lt;p&gt;A &lt;strong&gt;apar&amp;ecirc;ncia simplificada&lt;/strong&gt; representa a simplicidade da filosofia de design da s&amp;eacute;rie de jogos GIGABYTE, suporte robusto e acabamento fosco constru&amp;iacute;do para &lt;strong&gt;recursos funcionais e est&amp;eacute;ticos&lt;/strong&gt; adicionando mais &amp;agrave;s caracter&amp;iacute;sticas.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;OSD Sidekick&lt;/h2&gt;
+&lt;p&gt;O GIGABYTE &lt;strong&gt;OSD Sidekick&lt;/strong&gt; permite que voc&amp;ecirc; defina as op&amp;ccedil;&amp;otilde;es de exibi&amp;ccedil;&amp;atilde;o com teclado e mouse, oferecendo a maneira mais &lt;strong&gt;f&amp;aacute;cil de ajustar&lt;/strong&gt; as configura&amp;ccedil;&amp;otilde;es do monitor.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Painel&lt;/h2&gt;
+&lt;p&gt;O painel revela suas &lt;strong&gt;informa&amp;ccedil;&amp;otilde;es de hardware em tempo real&lt;/strong&gt;, incluindo &lt;strong&gt;voltagens da CPU, velocidade do clock, temperaturas, etc.&lt;/strong&gt; A melhor parte &amp;eacute; que n&amp;atilde;o ser&amp;aacute; bloqueado por nenhum jogo.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Equalizador Preto&lt;/h2&gt;
+&lt;p&gt;Esse recurso permite que voc&amp;ecirc; tenha mais &lt;strong&gt;detalhes do lado escuro&lt;/strong&gt; sem superexpor o lado claro ao mesmo tempo.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Atualiza&amp;ccedil;&amp;atilde;o autom&amp;aacute;tica&lt;/h2&gt;
+&lt;p&gt;Os usu&amp;aacute;rios podem desfrutar sem esfor&amp;ccedil;o da melhor experi&amp;ecirc;ncia de jogo com recursos que a GIGABYTE continua a desenvolver e atualizar enquanto oferece &lt;strong&gt;prote&amp;ccedil;&amp;atilde;o extra ao seu monitor&lt;/strong&gt;.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;&amp;Acirc;ngulo de Vis&amp;atilde;o Perfeito&lt;/h2&gt;
+&lt;p&gt;O monitor Gaming GIGABYTE possui um suporte exclusivo projetado ergonomicamente para oferecer &lt;strong&gt;ampla gama de ajustes de altura e inclina&amp;ccedil;&amp;atilde;o&lt;/strong&gt;.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h3&gt;Compre agora no KaBuM!&lt;/h3&gt;</t>
+  </si>
+  <si>
+    <t>Monitor Cooler Master Ga271, 27 Polegadas, Wqhd, Va, Hdr10, 100hz, 1ms, Srgb</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;strong&gt;mergulhe no mundo dos jogos&lt;/strong&gt;&lt;br /&gt;o ga271 é um monitor wqhd com taxa de atualização de até 100 hz com suporte para adaptive sync. Com todos os recursos e especificações necessários, o ga271 é um monitor orientado para o valor que oferece desempenho excepcional em aplicações de jogos e de trabalho.&lt;/p&gt;&lt;p&gt;&lt;strong&gt;encontre seu equilíbrio&lt;/strong&gt;&lt;br /&gt;o ga271 com um painel de 27" com resolução wqhd oferece visuais impressionantes para seus jogos e aplicativos relacionados ao trabalho. O ga271 pode ser seu monitor principal para lidar com planilhas durante o dia, bem como para jogar e desfrutar de entretenimento durante a noite.&lt;/p&gt;&lt;p&gt;&lt;strong&gt;100hz + 1ms&lt;/strong&gt;&lt;br /&gt;o ga271 oferece uma taxa de atualização fluida de 100 hz com tempo de resposta de 1 ms, proporcionando imagens mais nítidas e responsivas para jogos, bem como para uso geral de produtividade.&lt;/p&gt;&lt;p&gt;&lt;strong&gt;contraste mais profundo&lt;/strong&gt;&lt;br /&gt;o painel va do ga271 produz pretos mais profundos e escuros para um nível de contraste aprimorado, resultando em maior qualidade de imagem. Com uma relação de contraste de 4000:1, o painel va do ga271 é capaz de reproduzir um nível de contraste 4x superior ao de um painel ips padrão.&lt;/p&gt;&lt;p&gt;&lt;strong&gt;sincronização adaptativa&lt;/strong&gt;&lt;br /&gt;ga271 vem com suporte adaptive sync, proporcionando uma experiência extra suave e sem interrupções em seus jogos. Ganhe uma vantagem competitiva sobre seus oponentes com menos manchas de movimento e visuais mais claros nos jogos que você joga.&lt;/p&gt;&lt;p&gt;&lt;strong&gt;luz azul baixa e sem cintilação&lt;/strong&gt;&lt;br /&gt;ga271 não treme e possui um modo de luz azul baixa para proteger ainda mais seus olhos de emissões de luz azul potencialmente prejudiciais.&lt;/p&gt;&lt;p&gt;&lt;strong&gt;pronto para hdr&lt;/strong&gt;&lt;br /&gt;o ga271 não é ótimo apenas para jogos, mas também para desfrutar de entretenimento, pois aceita entrada hdr, permitindo visualizar conteúdo com maiores detalhes e cores em comparação com um monitor tradicional.&lt;/p&gt;&lt;p&gt;&lt;strong&gt;estética minimalista&lt;/strong&gt;&lt;br /&gt;ga271 segue o básico com um design prático com foco em uma estética minimalista. O design limpo certamente se encaixa perfeitamente em sua configuração de trabalho e lazer.&lt;/p&gt;&lt;p&gt;&lt;strong&gt;opções de conectividade&lt;/strong&gt;&lt;br /&gt;conecte seus dispositivos às portas de e/s que consistem em: 1 x porta de exibição,  2 x hdmi 2.0, 1 x conector de fone de ouvido de 3,5 mm&lt;/p&gt;&lt;p&gt; &lt;/p&gt;&lt;p&gt;&lt;strong&gt;especificações:&lt;/strong&gt;&lt;/p&gt;&lt;ul&gt;	&lt;li&gt;marca: cooler master&lt;/li&gt;	&lt;li&gt;modelo: cmi-ga271&lt;/li&gt;	&lt;li&gt;tipo de painel: série plana&lt;/li&gt;	&lt;li&gt;razão: 16:9&lt;/li&gt;	&lt;li&gt;tamanho da tela: 27"&lt;/li&gt;	&lt;li&gt;painel: va 1.07b&lt;/li&gt;	&lt;li&gt;resolução: 2k wqhd 2560x1440&lt;/li&gt;	&lt;li&gt;taxa de quadros: 100hz&lt;/li&gt;	&lt;li&gt;relação de contraste: 4000:1&lt;/li&gt;	&lt;li&gt;visão de angulo: 178°/178°&lt;/li&gt;	&lt;li&gt;brilho: 250 lêndeas&lt;/li&gt;	&lt;li&gt;gama de cores: srgb 95%&lt;/li&gt;	&lt;li&gt;entradas hdmi: 2&lt;/li&gt;	&lt;li&gt;entrada dp: 1&lt;/li&gt;	&lt;li&gt;tecnologia vrr: adaptive sync, faixa freesync: sim, faixa g-sync: sim&lt;/li&gt;	&lt;li&gt;tempo de resposta: 1ms (mprt) &lt;/li&gt;	&lt;li&gt;proteção de luz azul: sim &lt;/li&gt;	&lt;li&gt;consumo: 18w&lt;/li&gt;	&lt;li&gt;ajuste de inclinação: -5°~+20°&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Cooler Master 27", LCD Curvo, Widescreen, Full HD, HDMI, 165Hz, 3ms, FreeSync - GM27-CF</t>
+  </si>
+  <si>
+    <t>Com o Monitor Gamer Cooler Master GM27-CF você poderá usufruir de uma experiência de imersão e alta tecnologia nunca antes vista no mercado. Poderoso e revolucionário, ele conta com uma tela curva widescreen LCD de 27" capaz de surpreender até os jogadores mais exigentes, aproximando você da ação e garantindo um ponto de vista verdadeiramente envolvente. Tudo isso com uma resolução full HD, painel VA e alta taxa de contraste estática, que entregam imagens incrivelmente detalhadas e nítidas, além de níveis de pretos profundos e brancos brilhantes. O tempo de resposta de 3ms proporciona movimentos mais precisos sem quadros desfocados, enquanto que a frequência de atualização de 165Hz elimina o lag para uma jogabilidade emocionante com condições visuais ideais.Com os ajustes de inclinação, rotação e altura você poderá encontrar o posicionamento ideal do seu monitor e ter muito mais conforto mesmo em longos períodos de uso. A tecnologia AMD FreeSync Premium sincroniza os frames por segundo com a taxa de atualização do monitor, reproduzindo imagens mais fiéis e proporcionando uma jogabilidade mais fluída. Na parte das conexões estão disponíveis entradas DisplayPort e HDMI de fácil acesso. Além disso, o GM27-CF traz um design moderno com molduras super finas e suporte de alumínio fundido.</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Benq Mobiuz EX2510S, 24.5 Full HD, 165hz, 1ms, HDMI, USB, DisplayPort, IPS, SRGB, HDR10, Freesync Premium, Eye Care, Som Integrado, Preto - 9H.LKELA.TBL</t>
+  </si>
+  <si>
+    <t>O monitor gamer BenQ Mobiuz EX2510S é o equipamento ideal para gamers que procuram mais qualidade na imagem durante suas gameplays insanas. O EX2510S possui uma tela de 24,5” IPS com taxa de atualização de 165Hz, operando em conjunto com a tecnologia AMD FreeSync Premium, garantindo que cada frame da imagem seja reproduzido com fidelidade e sem qualquer tipo de atraso ou queda.Com o Mobiuz EX2510S encare qualquer desafio e explore qualquer possibilidade, tanto no PC como no console com resolução Full HD de 1920x1080. Explore ao máximo as configurações do monitor, tenha uma exibição mais nítida e com mais detalhes, sendo possível combinar padrões com HDRi. E para maior praticidade, conta com ajustes de inclinação, altura e sistema de áudio integrado para imersão total.</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Samsung Odyssey G40 27 polegadas FHD, 240 Hz, 1ms, IPS, HDMI, Displayport, Com Ajuste De Altura, Gsync, Freesync, Hdr10 - Ls27bg400elxzd</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Samsung Odyssey G40 27´´ Preto LS27BG400ELXZD PRINCIPAIS &lt;br /&gt;Impulsione sua realidade: Resolução FHD e painel IPS.Reaja em tempo real: 240Hz de taxa de atualização &amp; 1ms de tempo de resposta.Foco sem nunca quebrar o fluxo: Compatível com Nvidia G-Sync. Jogabilidade fácil e sem esforço. Revele os lados ocultos do jogo: Ultrawide Game View. Foco na vitória. Ajuste sua tela para 21:9 para descobrir áreas escondidas em cenas de jogo com a Vista de Jogo Ultrawide.&lt;br /&gt;Conecte-se automaticamente em um instante: Auto Source Switch+ Ligue e jogue instantaneamente. Veja seu jogo do seu jeito: Suporte Ergonômico. Atinja o auge da vitória.</t>
+  </si>
+  <si>
+    <t>Monitor Gamer LG, 32 Polegadas, QHD, 165Hz, 1ms, VA, HDMI x2, DisplayPort, G-Sync, SRGB 95, Antirreflexo - 32GN600-B</t>
+  </si>
+  <si>
+    <t>Monitor gamer lg ultragear 32 led qhd 165hz preto 32gn600-b uma velocidade ultrarrápida de 165hz permite que os jogadores vejam o próximo quadro rapidamente e fazem com que a imagem apareça suavemente. Os jogadores podem responder rapidamente aos oponentes e mirar no alvo facilmente. Projetado para velocidade incrível reimagine cada cena com imagem vívida e responsiva. Com proporção de tela de 32" e 16:9 (2560 x 1440), a tela ultragear qhd nano da lg apresenta cores realistas e verdadeiras, contraste aprimorado, clareza e detalhes, enquanto oferece taxas de resposta ultrarrápidas de 1 ms. É o melhor dos dois mundos. Compatível com nvidia g-sync o monitor lg 32gp850-b é um monitor compatível com g-sync testado e oficialmente verificado pela nvidia, reduzindo o rasgo da tela e minimizando a gagueira para uma experiência de jogo mais suave e rápida.   características: - marca: lg - modelo: 32gn600-b   especificações: - consumo de energia 60w (típ.) - fonte adaptador externo - ajustes de posição inclinação - tamanho furação vesa sim (100 x 100 mm) - dimensões sem embalagem (sem base) -lxaxp 714,7 x 428 x 77,5 mm - dimensões sem embalagem (com base) - lxaxp 714,7 x 515,1 x 224,8 mm - tamanho: 32" - tipo de tela:  va - ângulo de visão: 178o / 178o - resolução máxima qhd (2560 x 1440) - brilho 350 cd/m2 - contraste 3000:1 (típ). - tempo de resposta 1ms (mbr) - taxa de atualização 165hz - gama de cores (típ.) srgb 95% - profundidade de cores (no de cores) 16,7 milhões - distância entre pixels 0,274 x 0,274 mm - tratamento de tela: antirreflexo - hdmi sim (x2) - displayport sim (x1)</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Samsung  27Pol, Full HD, 144Hz, 1MS, HDMI, Displayport, VGA, Freesync, Ajuste De Altura - Lf27g35tfwl</t>
+  </si>
+  <si>
+    <t>Domine todos os inimigos, mesmo em cenas muito rápidas. A taxa de atualização de 144Hz elimina atrasos e desfoque de movimento para uma jogabilidade emocionante com ação ultra suave.&lt;br /&gt;  &lt;br /&gt;Tempo de resposta de 1ms&lt;br /&gt;Faça cada movimento contar com um tempo de resposta de 1ms. Ataque seus inimigos assim que os vir e fique à frente com movimentos precisos do mouse. Seu desempenho na tela é tão rápido quanto seus próprios reflexos.&lt;br /&gt;  &lt;br /&gt;AMD FreeSync Premium&lt;br /&gt;Jogabilidade suave sem esforço. O AMD FreeSync Premium apresenta tecnologia de sincronização adaptável, que reduz o travamento de tela, oscilação e atrasos. Veja o jogo do seu jeito Gire, incline e ajuste seu monitor até que todos os inimigos estejam perfeitamente visíveis. Sua tela pode ser movida livremente para que você encontre conforto total no jogo. Design de tela cheia O design sem borda de 3 lados revela espaço máximo para uma jogabilidade maior e mais ousada.&lt;br /&gt;  &lt;br /&gt;Jogue por mais tempo&lt;br /&gt;Alinhe dois monitores com precisão em uma configuração de monitor duplo sem que nenhum inimigo fique escondido na junção. Mais conforto para os olhos Jogue por mais tempo sem incomodo visual. O Eye Saver Mode minimiza a emissão de luz azul para manter seus olhos relaxados e confortáveis enquanto joga por muitas horas.&lt;br /&gt;  &lt;br /&gt;Tecnologia Flicker Free&lt;br /&gt;A tecnologia Flicker Free remove continuamente a tremulação cansativa e irritante da tela para que você possa jogar por mais tempo sem distrações ou fadiga ocular.</t>
+  </si>
+  <si>
+    <t>Monitor Gamer ViewSonic Omni 27 LED Full HD, Curvo, 165 Hz, 1ms, HDMI e DisplayPort, 102% sRGB, FreeSync Premium, Som Integrado - VX2718</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Monitor Gamer ViewSonic Omni 27 LED Full HD, Curvo, 165 Hz, 1ms, HDMI e DisplayPort, 102% sRGB, FreeSync Premium, Som Integrado&lt;/h2&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Jogabilidade perfeita&lt;/h2&gt;
+&lt;p&gt;Elimine o atraso e o desfoque de movimento com uma taxa de atualiza&amp;ccedil;&amp;atilde;o de&lt;strong&gt; 165Hz hiperresponsiva.&lt;/strong&gt; Experimente uma jogabilidade perfeita em uma variedade de g&amp;ecirc;neros, como jogos de tiro em primeira pessoa, corridas e estrat&amp;eacute;gia em tempo real. &lt;strong&gt;Jogabilidade fluida&lt;/strong&gt; e gr&amp;aacute;ficos perfeitos d&amp;atilde;o a voc&amp;ecirc; uma vantagem, n&amp;atilde;o importa a situa&amp;ccedil;&amp;atilde;o.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Experi&amp;ecirc;ncia de jogo imersiva final&lt;/h2&gt;
+&lt;p&gt;Com uma curvatura de t&lt;strong&gt;ela de 1500R&lt;/strong&gt;, o VX2718-PC-MHDJ oferece uma experi&amp;ecirc;ncia de visualiza&amp;ccedil;&amp;atilde;o &lt;strong&gt;verdadeiramente imersiva&lt;/strong&gt; que permite que voc&amp;ecirc; desfrute de vistas panor&amp;acirc;micas grandes, arrojadas e impressionantes.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Reaja instantaneamente&lt;/h2&gt;
+&lt;p&gt;Com um tempo de resposta r&amp;aacute;pido de&lt;strong&gt; 1 ms&lt;/strong&gt; (MPRT), voc&amp;ecirc; pode reagir t&amp;atilde;o r&amp;aacute;pido quanto a a&amp;ccedil;&amp;atilde;o se desenrola na tela. Desvie pelos cantos com facilidade e mire com &lt;strong&gt;precis&amp;atilde;o de n&amp;iacute;vel superior.&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Prevenir o rasgo da tela&lt;/h2&gt;
+&lt;p&gt;O &lt;strong&gt;AMD FreeSync Premium&lt;/strong&gt; sincroniza seu monitor com a taxa de quadros do conte&amp;uacute;do, permitindo uma jogabilidade suave ao eliminar o rasgo da tela.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h3&gt;Aproveite essa oportunidade e adquira seu Monitor Gamer ViewSonic Omni no KaBuM!&lt;/h3&gt;</t>
+  </si>
+  <si>
+    <t>Monitor Msi, Optix, Curved 31.5", Fhd 165hz - G32c4w</t>
+  </si>
+  <si>
+    <t>Monitor msi optix g32c4w curved 31.5´´ fhd 165hz</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Aorus 55 LED, 4K UHD, 120Hz, 2ms, HDMI e DisplayPort, 140% sRGB, HDR, FreeSync Premium - S55U</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;A GIGABYTE S55U &amp;eacute; uma tela QD de 54,6 polegadas com resolu&amp;ccedil;&amp;atilde;o UHD e equipada com a mais recente taxa de atualiza&amp;ccedil;&amp;atilde;o HDMI 2.1, 120Hz para a experi&amp;ecirc;ncia de jogo mais fluida e qualidade de imagem incr&amp;iacute;vel. A cor de 10 bits e a ampla gama de cores de 96% DCI-P3 oferecem excelente precis&amp;atilde;o e consist&amp;ecirc;ncia de cores&lt;/h2&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;Os servi&amp;ccedil;os de streaming integrados fornecem v&amp;aacute;rios filmes e programas de TV e tamb&amp;eacute;m &amp;eacute; personaliz&amp;aacute;vel para baixar seus aplicativos desej&amp;aacute;veis ??do sistema Android. N&amp;atilde;o importa se &amp;eacute; para jogos ou qualquer outra atividade de entretenimento, o S55U pode atender a todos eles!&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h3&gt;A experi&amp;ecirc;ncia 4K em um 50"+&lt;/h3&gt;
+&lt;p&gt;Com mais conte&amp;uacute;dos de jogos de alta resolu&amp;ccedil;&amp;atilde;o criados, &amp;eacute; hora de voc&amp;ecirc; investir em uma tela 4K! Os monitores 4K da GIGABYTE oferecem um visual n&amp;iacute;tido e detalhado e oferecem uma experi&amp;ecirc;ncia de visualiza&amp;ccedil;&amp;atilde;o mais realista! Esta resolu&amp;ccedil;&amp;atilde;o UHD de 54,6&amp;rdquo; com taxa de atualiza&amp;ccedil;&amp;atilde;o de 120Hz oferece jogabilidade fluida e impacto visual em uma tela grande.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h3&gt;Ponto qu&amp;acirc;ntico&lt;/h3&gt;
+&lt;p&gt;Com a tecnologia Quantum Dot, oferece uma tela mais vibrante com 96% de espa&amp;ccedil;o de cores DCI-P3 e maior brilho e efeitos HDR, oferecendo uma variedade mais rica de gradua&amp;ccedil;&amp;otilde;es de cores e maior precis&amp;atilde;o.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h3&gt;Escurecimento local de matriz completa&lt;/h3&gt;
+&lt;p&gt;A tecnologia de escurecimento local pode aumentar a taxa de contraste para fornecer uma imagem melhor, escurecendo a &amp;aacute;rea da tela que &amp;eacute; necess&amp;aacute;ria e, ao mesmo tempo, mantendo o lado claro da tela brilhante. Com um conjunto de 132 zonas, voc&amp;ecirc; pode obter as melhores imagens e os destaques intensos poss&amp;iacute;veis com conte&amp;uacute;do HDR.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h3&gt;VRR, ALLM e eARC&lt;/h3&gt;
+&lt;p&gt;Ideal para jogos de console 4K a 120Hz e os recursos - Taxa de Atualiza&amp;ccedil;&amp;atilde;o Vari&amp;aacute;vel e Modo Autom&amp;aacute;tico de Baixa Lat&amp;ecirc;ncia, proporcionando aos jogadores uma experi&amp;ecirc;ncia mais imersiva sem distra&amp;ccedil;&amp;otilde;es. Al&amp;eacute;m disso, a fun&amp;ccedil;&amp;atilde;o eARC simplifica a conectividade e oferece maior facilidade de uso para descoberta de v&amp;aacute;rios componentes e otimiza&amp;ccedil;&amp;atilde;o de &amp;aacute;udio.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Draxen 23.8'' resolução de 1920 x 1080 tempo de resposta de 1 MS 165HZ Full HD, Sem Borda</t>
+  </si>
+  <si>
+    <t>o monitor gamer draxen 165hz full hd é tudo o que você precisa para completar o seu setup. desenvolvido pensando no seu estilo de vida, oferecendo qualidade, desempenho e um design mais moderno do que nunca. a sua tela 23.8 lhe dará comodidade para estudar, trabalhar ou assistir sua série ou filme favoritos no seu tempo de lazer. além disso, sua alta resolução de 1920 x 1080 permite que você desfrute de momentos únicos graças a uma imagem nítida, cores realistas e contraste incrível. exibição de vídeo perfeita com tempo de resposta de 1 ms e mais de 16,7 milhões de cores que transformam as imagens em uma experiência muito fiel à realidade.&lt;br&gt;aprimore sua configuração com estilo. a furação padrão vesa 75x75 permite que você fixe o monitor em uma parede ou em um suporte.</t>
+  </si>
+  <si>
+    <t>Monitor 27" LED, Gt Gamer, FHD, HDMI, 75hz - Goldentec</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Gigabyte 27 Polegadas, Curvo, Qhd, 165hz, 1ms, HDMI E Displayport - G27qc-a-sa</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;monitor gamer curvo gigabyte 27" qhd ips g27qc-a-sa ajuste de altura e inclina&amp;ccedil;&amp;atilde;o 1ms 165hz hdmi dp usb&lt;/b&gt;&lt;br /&gt;&lt;br /&gt;eleve sua experi&amp;ecirc;ncia de jogo a um novo patamar com o monitor gamer gigabyte g27qc-a-sa. Com desempenho excepcional, cores deslumbrantes e uma curvatura envolvente, este monitor &amp;eacute; a escolha perfeita para jogadores s&amp;eacute;rios. Se voc&amp;ecirc; &amp;eacute; um verdadeiro jogador, sabe que um bom monitor faz toda a diferen&amp;ccedil;a. O monitor gamer gigabyte g27qc-a &amp;eacute; uma verdadeira obra-prima quando se trata de qualidade e desempenho. Projetado para jogadores exigentes, ele oferece uma experi&amp;ecirc;ncia de jogo incrivelmente suave e visualmente deslumbrante. Com um impressionante tempo de resposta de 1ms, este monitor garante que cada movimento seja reproduzido com precis&amp;atilde;o, eliminando qualquer borr&amp;atilde;o. A incr&amp;iacute;vel taxa de atualiza&amp;ccedil;&amp;atilde;o de 165hz proporciona uma jogabilidade ultrafluida e responsiva. A tela de 27" polegadas com resolu&amp;ccedil;&amp;atilde;o qhd de 2560 x 1440 pixels oferece imagens n&amp;iacute;tidas e detalhadas que colocam voc&amp;ecirc; no centro da a&amp;ccedil;&amp;atilde;o. A curvatura de 1500r aumenta ainda mais a imers&amp;atilde;o, cercando seu campo de vis&amp;atilde;o para uma experi&amp;ecirc;ncia envolvente.&lt;br /&gt;&lt;br /&gt;&lt;/p&gt;&lt;p&gt;&lt;b&gt;caracter&amp;iacute;sticas monitor curvo 27" gamer qhd ips g27qc-a-sa 1ms 165hz&amp;nbsp;&lt;/b&gt;&lt;br /&gt;- marca: gigabyte&lt;br /&gt;- modelo: g27qc-a-sa&lt;br /&gt;&amp;nbsp;&lt;/p&gt;</t>
   </si>
   <si>
     <t>Monitor Gamer Duex 24´ Full HD (1920x1080), 144Hz, Preto - Dx 240zg</t>
   </si>
   <si>
     <t>Marca: duex&lt;br /&gt;modelo: dx 240zg &lt;br /&gt;&lt;br /&gt;especificações: &lt;br /&gt;&lt;br /&gt;tamanho da tela: 24" &lt;br /&gt;área de display: 527.4 (h) x 296.4 (v) &lt;br /&gt;resolução: 1920x1080 (144hz) &lt;br /&gt;pixel pitch: 0.27mm &lt;br /&gt;ângulo de visão: h:178 / v:178 &lt;br /&gt;brilho: 250cd/m² &lt;br /&gt;tempo de resposta: 1ms &lt;br /&gt;número de cores: 16.7m &lt;br /&gt;&lt;br /&gt;conectores: &lt;br /&gt;1x hdmi &lt;br /&gt;1x displayport &lt;br /&gt;1x usb &lt;br /&gt;1x saída de áudio &lt;br /&gt;&lt;br /&gt;conteúdo da caixa: &lt;br /&gt;monitor &lt;br /&gt;base &lt;br /&gt;cabo hdmi &lt;br /&gt;cabo displayport &lt;br /&gt;fonte de energia &lt;br /&gt;guia do usuário&lt;br /&gt;&lt;br /&gt;garantia: 365 dias</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Asus TUF 23.8' IPS, Wide, 144 Hz, Full HD, 1ms, FreeSync, HDMI/DisplayPort, Ajuste de Altura, Vesa, Som Integrado - VG249Q</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Monitor Gaming TUF Gaming VG249Q 23,8 polegadas Full HD (1920x1080), 144Hz, IPS, Extreme Low Motion Blur, Adaptive-sync, FreeSync, 1ms (MPRT)&lt;/h2&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;TUF Gaming VG249Q &amp;eacute; um monitor IPS de 23,8 polegadas,&lt;strong&gt; Full HD (1920x1080)&lt;/strong&gt;, com taxa de atualiza&amp;ccedil;&amp;atilde;o r&amp;aacute;pida de 144Hz projetada para jogadores profissionais e jogabilidade r&amp;aacute;pida. Tamb&amp;eacute;m possui &lt;strong&gt;tempo de resposta de 1ms MPRT&lt;/strong&gt; e &lt;strong&gt;tecnologia Adaptive-Sync&lt;/strong&gt;, para jogabilidade extremamente fluida sem tearing e stuttering.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Tela IPS de 23,8 polegadas para amplo &amp;acirc;ngulo de visualiza&amp;ccedil;&amp;atilde;o e melhor reprodu&amp;ccedil;&amp;atilde;o de cores com tempo de Resposta de 144Hz&lt;/h2&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;O &lt;strong&gt;painel IPS&lt;/strong&gt; de 23,8 polegadas Full HD (1920 x 1080) do TUF Gaming VG249Q oferece visuais impressionantes em amplos &lt;strong&gt;&amp;acirc;ngulos de vis&amp;atilde;o de 178&amp;ordm;&lt;/strong&gt;, impedindo muitas distor&amp;ccedil;&amp;otilde;es e mudan&amp;ccedil;a de cor, mesmo quando voc&amp;ecirc; est&amp;aacute; visualizando de posi&amp;ccedil;&amp;otilde;es nas extremidades. O TUF Gaming VG249Q possui uma &lt;strong&gt;taxa de atualiza&amp;ccedil;&amp;atilde;o ultra-r&amp;aacute;pida de 144Hz&lt;/strong&gt;, garantindo que mesmos jogos em ritmo acelerado, reproduzidos nas mais altas configura&amp;ccedil;&amp;otilde;es visuais, pare&amp;ccedil;am suaves e completamente livres de lags. Obtenha vantagem em jogos de tiro em primeira pessoa, corridas, estrat&amp;eacute;gia em tempo real e esportes.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Tecnologia Extreme Low Motion Blur e Shadow Boost&lt;/h2&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;Apresenta a mais recente &lt;strong&gt;tecnologia Extreme Low Motion Blur&lt;/strong&gt; exclusiva da ASUS, que atinge 1ms MPRT para eliminar manchas e desfoque de movimento e faz com que os objetos em movimento pare&amp;ccedil;am mais n&amp;iacute;tidos, para que a jogabilidade seja mais fluida e responsiva. A &lt;strong&gt;tecnologia ASUS Shadow Boost&lt;/strong&gt; clareia &amp;aacute;reas escuras do jogo sem superexpor &amp;aacute;reas mais brilhantes, melhorando a visualiza&amp;ccedil;&amp;atilde;o geral, al&amp;eacute;m de facilitar a localiza&amp;ccedil;&amp;atilde;o de inimigos escondidos em &amp;aacute;reas escuras do mapa.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h3&gt;Adquira agora o seu monitor gamer da ASUS no KaBuM!.&lt;/h3&gt;</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Ultrawide Curvo Multi, 34 Polegadas, Wqhd, 165hz, 1ms, 1dp, 2 HDMI, 1 USB 1p2 - Mn301</t>
+  </si>
+  <si>
+    <t>Monitor gamer ultrawide curvo warrior 34 pol. Wqhd 165hz 1ms 1dp 2hdmi 1usb 1p2 - mn301&lt;br /&gt;&lt;br /&gt;  &lt;br /&gt;&lt;br /&gt;  cansado de perder ação nos seus jogos por causa de uma tela comum? Se você é um gamer ávido em busca de emoções intensas, sabe o quanto é frustrante perder um combate por um milissegundo de atraso na resposta do monitor. A warrior tem a solução definitiva para você! Apresentamos o monitor gamer ultrawide curvo de 34 polegadas, o produto premium e exclusivo que elevará sua experiência de jogo a um novo patamar.&lt;br /&gt;&lt;br /&gt;  &lt;br /&gt;&lt;br /&gt;  experiência imersiva total: com uma tela curva ampla de 34 polegadas, você sentirá como se estivesse dentro do jogo, cercado por ação em todos os lados. A imersão total irá transportá-lo para o centro da ação, tornando cada partida uma aventura única.&lt;br /&gt;&lt;br /&gt;  &lt;br /&gt;&lt;br /&gt;  taxa de atualização incrível: a taxa de atualização de 165hz garante movimentos suaves e imagens nítidas, eliminando qualquer borrão ou arrasto na tela. Seja qual for o jogo que você está jogando, terá uma experiência fluida e sem interrupções.&lt;br /&gt;&lt;br /&gt;  &lt;br /&gt;&lt;br /&gt;  desempenho inigualável: o tempo de resposta de 1ms é um verdadeiro trunfo competitivo. Você terá a rapidez necessária para reagir a cada movimento do jogo, o que é essencial para alcançar a vitória em jogos de alta intensidade.&lt;br /&gt;&lt;br /&gt;  &lt;br /&gt;&lt;br /&gt;  painel antirreflexo: nada mais frustrante do que lidar com reflexos na tela que atrapalham a visão do jogo. Com o painel antirreflexo do monitor gamer ultrawide curvo warrior, você terá uma visão clara e sem distrações, permitindo que se concentre totalmente na ação.&lt;br /&gt;&lt;br /&gt;  &lt;br /&gt;&lt;br /&gt;  design premium e moderno: além de todas as especificações técnicas impressionantes, o monitor gamer ultrawide curvo da warrior possui um design elegante e moderno que vai destacar-se em qualquer ambiente. Com iluminação rgb na traseira, o monitor acrescenta um toque de estilo ao seu setup gamer.&lt;br /&gt;&lt;br /&gt;  &lt;br /&gt;&lt;br /&gt;  não deixe essa oportunidade escapar! Adquira agora o monitor gamer ultrawide curvo 34 da warrior e mergulhe em uma jornada de jogos épica e envolvente. Garanta sua vantagem competitiva e experimente o poder da verdadeira imersão gamer!&lt;br /&gt;&lt;br /&gt;  &lt;br /&gt;&lt;br /&gt;  ficha técnica&lt;br /&gt;&lt;br /&gt;  &lt;br /&gt;&lt;br /&gt;  marca: warrior&lt;br /&gt;&lt;br /&gt;  modelo: monitor gamer ultrawide curvo warrior 34 pol. Wqhd 165hz 1ms 1dp 2hdmi 1usb 1p2 - mn301&lt;br /&gt;&lt;br /&gt;  cor: preto&lt;br /&gt;&lt;br /&gt;  tensão: bivolt&lt;br /&gt;&lt;br /&gt;  potência: 65w&lt;br /&gt;&lt;br /&gt;  brilho: 300 cd/m2&lt;br /&gt;&lt;br /&gt;  lan ethernet: não&lt;br /&gt;&lt;br /&gt;  resolução da tela: wqhd 3440x1440&lt;br /&gt;&lt;br /&gt;  frequência do painel: 165hz&lt;br /&gt;&lt;br /&gt;  ângulo de visão: v: 178° / h: 178°&lt;br /&gt;&lt;br /&gt;  quantidade de cores: 16.7m&lt;br /&gt;&lt;br /&gt;  contraste: 3000:1&lt;br /&gt;&lt;br /&gt;  consumo stand by: 0.5w&lt;br /&gt;&lt;br /&gt;  tratamento do painel: anti reflexo, 3h&lt;br /&gt;&lt;br /&gt;  modo de imagem: srgb, reading darkroom, user, standard, eco, graphics, movie&lt;br /&gt;&lt;br /&gt;  ajuste de atura: sim&lt;br /&gt;&lt;br /&gt;  modo contraste dinâmico: sim&lt;br /&gt;&lt;br /&gt;  vesa: 100x100mm&lt;br /&gt;&lt;br /&gt;  áudio: 2x2 wrms&lt;br /&gt;&lt;br /&gt;  entradas e saídas: 1x dp 1.4, 2x hdmi 2.0, 1x usb, 1x p2 2.5mm&lt;br /&gt;&lt;br /&gt;  dimensão com base: 80,77x45,46x22,89cm&lt;br /&gt;&lt;br /&gt;  dimensão sem base: 80,77x36,18x11,75cm&lt;br /&gt;&lt;br /&gt;  peso: 4600g&lt;br /&gt;&lt;br /&gt;  &lt;br /&gt;&lt;br /&gt;  imagens meramente ilustrativas.</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Asus 27 Polegadas, Vg279q1a Tuf Gaming, FULL HD, IPS, Freesync Premium, 165HZ, 1ms, Vesa, HDMI/dp</t>
+  </si>
+  <si>
+    <t>&lt;br&gt;&lt;br&gt; marca: asus&lt;br&gt; modelo: vg279q1a &lt;br&gt; cor: preto&lt;br&gt;&lt;br&gt;tela&lt;br&gt; - tamanho do painel (polegadas): 27&lt;br&gt; - proporção: 16:9&lt;br&gt; - área de visualização da tela (a x v): 597,888 x 336,312 mm&lt;br&gt; - superfície da tela: antirreflexo&lt;br&gt; - tipo de retroiluminação: led&lt;br&gt; - tipo de painel: ips&lt;br&gt; - ângulo de visão (cr?10, h/v): 178°/ 178°&lt;br&gt; - passo do pixel: 0,311 mm&lt;br&gt; - resolução: 1920x1080&lt;br&gt; - brilho (típico): 250cd/?&lt;br&gt; - taxa de contraste (típico): 1000:1&lt;br&gt; - cores da tela: 16,7m&lt;br&gt; - tempo de resposta: 1ms mprt&lt;br&gt; - taxa de atualização (máx.): 165 hz&lt;br&gt; - flicker-free: sim&lt;br&gt;&lt;br&gt;recurso de vídeo&lt;br&gt; - tecnologia livre de rastreamento: sim&lt;br&gt; - gamevisual: sim&lt;br&gt; - temperatura de cor seleção: sim (4 modos)&lt;br&gt; - gameplus: sim&lt;br&gt; - hdcp: sim&lt;br&gt; - desfoque de movimento extremamente baixo: sim&lt;br&gt; - tecnologia vrr: sim (adaptive-sync)&lt;br&gt; - tecnologia gamefast input: sim&lt;br&gt; - aumento de sombra: sim&lt;br&gt; - luz azul baixa: sim&lt;br&gt;&lt;br&gt;recurso de áudio&lt;br&gt; - alto-falante: sim (2wx2)&lt;br&gt;&lt;br&gt;portas i/o&lt;br&gt; - 1x displayport 1.2&lt;br&gt; - 2x hdmi(v2.0)&lt;br&gt; - saída para fone de ouvido&lt;br&gt;&lt;br&gt;frequencia de sinal&lt;br&gt; - frequência de sinal digital: displayport: 52~184khz (h) / 48~165 hz (v)&lt;br&gt; - hdmi: 52~184 khz (h) / 48~144hz (v)&lt;br&gt;&lt;br&gt;consumo de energia&lt;br&gt; - consumo de energia: &amp;lt,16w*&lt;br&gt; - modo power saving: &amp;lt,0.5w&lt;br&gt; - modo power off: &amp;lt,0.3w&lt;br&gt; - voltagem: 100-240v, 50/60hz&lt;br&gt;&lt;br&gt;design mecânico&lt;br&gt; - inclinação: sim (+20° ~ -5°)&lt;br&gt; - giro: sim (+16° ~ -16°)&lt;br&gt; - ajuste de altura: não&lt;br&gt; - montagem na parede vesa: 100x100mm&lt;br&gt; - trava kensington: sim&lt;br&gt;&lt;br&gt;dimensões&lt;br&gt; - física dimensão com suporte (l x a x p): 614,09 x 454,34 x 213,79 mm&lt;br&gt; - física dimensão sem suporte (l x a x p): 614,09 x 364 x 56,95 mm&lt;br&gt; - dimensão da caixa (l x a x p): 680 x 525 x 171 mm&lt;br&gt;&lt;br&gt;peso (esti.)&lt;br&gt; - peso líquido com suporte: 4.4 kg&lt;br&gt; - peso líquido sem suporte: 3.4 kg&lt;br&gt; - peso bruto: 7.4 kg&lt;br&gt;&lt;br&gt;acessórios (variam por região)&lt;br&gt; - cabo displayport&lt;br&gt; - cabo hdmi&lt;br&gt; - cabo de alimentação&lt;br&gt; - guia rápido&lt;br&gt; - cartão de garantia&lt;br&gt;&lt;br&gt;certificado&lt;br&gt; - tüv flicker-free&lt;br&gt; - tüv low blue light&lt;br&gt; - amd freesync premium&lt;br&gt;&lt;br&gt;&lt;strong&gt;especificações técnicas&lt;/strong&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;tamanho da tela:&lt;/strong&gt; 27</t>
+  </si>
+  <si>
+    <t>Monitor Gamer 28 4K Acer Nitro, 60Hz, 4ms, IPS, HDMI, DisplayPort, FreeSync - KG282K</t>
+  </si>
+  <si>
+    <t>Conforto protetor para os olhos   &lt;br /&gt;Ampla gama de cores O DCI-P3 permite uma faixa de cores mais ampla do que o sRGB, resultando em uma reprodução de cores mais realista. Este recurso foi desenvolvido para profissionais e entusiastas da fotografia, que buscam uma correspondência de cores precisa entre as impressões e o monitor.   &lt;br /&gt;&lt;br /&gt;Tecnologia HDR &lt;br /&gt;HDR é uma tecnologia de exibição que cria níveis mais profundos de contraste preto e branco, proporcionando um nível maior de imersão por meio da recriação de imagens realistas. Os monitores Acer HDR suportam o formato HDR10.   &lt;br /&gt;&lt;br /&gt;AMD FreeSync &lt;br /&gt;Com o AMD FreeSync, a taxa de quadros do jogo é determinada pela sua placa de vídeo, não pela taxa de atualização fixa do monitor. Isso significa que os quadros do monitor são sincronizados com os quadros da placa gráfica, o que elimina a tela quebrada e oferece experiências de jogo muito suaves.   &lt;br /&gt;&lt;br /&gt;Resolução 4K UHD &lt;br /&gt;A nítida tela 4K UHD é 16:9 em alta resolução 3840X2160, o que é quatro vezes maior do que as telas Full HD. A nitidez aprimorada agora pode ser facilmente vista e leva sua experiência visual a um novo nível.   &lt;br /&gt;&lt;br /&gt;*** As taxas de atualização reais podem variar dependendo do modelo</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Gigabyte, 28 Polegadas, Full HD, 144hz, HDMI e DisplayPort - M28u</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;monitor m28u gamer gigabyte curvo 28" 144 hz hdmi displayport freesync 1ms altura ajust&amp;aacute;vel&lt;/b&gt;&lt;/p&gt;&lt;p&gt;&lt;br /&gt;com as melhores especifica&amp;ccedil;&amp;otilde;es e qualidade que um monitor pode oferecer, o monitor gamer gigabyte possui uma grande &amp;aacute;rea de visualiza&amp;ccedil;&amp;atilde;o de tela. O m28u aumenta a efici&amp;ecirc;ncia e a produtividade. Gra&amp;ccedil;as ao tempo r&amp;aacute;pido de resposta de 1ms, o painel de 28 polegadas e resolu&amp;ccedil;&amp;atilde;o de 3840 x 2160, voc&amp;ecirc; tem a experi&amp;ecirc;ncia de estar imersivo no jogo para um aproveitamento muito melhor! Al&amp;eacute;m disso, as cores s&amp;atilde;o mais vivas e n&amp;iacute;tidas para voc&amp;ecirc; n&amp;atilde;o perder nenhum detalhe do jogo. O monitor gamer gigabyte conta com um design ergon&amp;ocirc;mico podendo ajustar a altura e a inclina&amp;ccedil;&amp;atilde;o, e tamb&amp;eacute;m oferece um som claro e de alta qualidade.&lt;/p&gt;&lt;p&gt;&lt;br /&gt;&lt;b&gt;caracter&amp;iacute;sticas monitor 28" gamer m28u gigabyte&lt;/b&gt;&lt;br /&gt;- marca: gigabyte&lt;br /&gt;- modelo: m28u&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Monitor Gamer AOC League of Legends 27 QHD, RGB, 165Hz, 1ms, IPS, HDMI/DisplayPort, G-Sync, 129% sRGB, HDR 400, Preto e Amarelo - AG275QXL</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Monitor Gamer AOC League of Legends 27 QHD, RGB, 165Hz, 1ms, IPS, HDMI/DisplayPort, G-Sync, 129% sRGB, HDR 400, Preto e Amarelo&lt;/h2&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;AGON PRO LEAGUE OF LEGENDS&lt;/h2&gt;
+&lt;p&gt;Os recursos incr&amp;iacute;veis deste monitor exclusivo AOC, feito para f&amp;atilde;s de League of Legends em parceria com a &lt;strong&gt;Riot Games&lt;/strong&gt;, fazem com que o visual do jogo atinja todo o seu potencial e o representem em todos os aspectos - desde o ic&amp;ocirc;nico design com &lt;strong&gt;ilumina&amp;ccedil;&amp;atilde;o Light FX Sync&lt;/strong&gt; at&amp;eacute; um modo de configura&amp;ccedil;&amp;atilde;o de jogo espec&amp;iacute;fico para suas batalhas.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;170HZ&lt;/h2&gt;
+&lt;p&gt;Nada deve atrapalhar sua jornada em dire&amp;ccedil;&amp;atilde;o ao topo do ranking ELO, especialmente gr&amp;aacute;ficos com lag. &amp;Eacute; por isso que o monitor conta com uma incr&amp;iacute;vel taxa de&lt;strong&gt; atualiza&amp;ccedil;&amp;atilde;o de 170Hz,&lt;/strong&gt; garantindo riqueza de &lt;strong&gt;detalhes na tela&lt;/strong&gt; e movimentos super n&amp;iacute;tidos.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;RESOLU&amp;Ccedil;&amp;Atilde;O QHD&lt;/h2&gt;
+&lt;p&gt;Para desfrutar do jogo mantendo uma vis&amp;atilde;o geral clara e n&amp;iacute;tida, a &lt;strong&gt;resolu&amp;ccedil;&amp;atilde;o QHD de 2560 x 1440 px&lt;/strong&gt; garante imagens impressionantes, cheias de detalhes. Assim voc&amp;ecirc; poder&amp;aacute; ver toda sua equipe com facilidade e manter a jogabilidade estrat&amp;eacute;gica de League of Legends.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;1MS&lt;/h2&gt;
+&lt;p&gt;O tempo de resposta de 1ms proporciona suavidade nos movimentos dos seus campe&amp;otilde;es, reduzindo os efeitos fantasmas e oferecendo uma &lt;strong&gt;experi&amp;ecirc;ncia de jogo aprimorada&lt;/strong&gt; para voc&amp;ecirc; e toda sua equipe!&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;DISPLAY HDR 400&amp;nbsp;&lt;/h2&gt;
+&lt;p&gt;Com o VESA Display HDR 400 a qualidade da imagem salta da tela e d&amp;aacute; vida aos campe&amp;otilde;es. Ele garante um pico de lumin&amp;acirc;ncia de 400 cd/m&amp;sup2; e permite i&lt;strong&gt;magens ainda mais aprimoradas&lt;/strong&gt;, garantindo um espectro de cor e contraste diversificado e riqueza de detalhes no jogo.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;ILUMINA&amp;Ccedil;&amp;Atilde;O RGB COM LIGHT FX SYNC&lt;/h2&gt;
+&lt;p&gt;Voc&amp;ecirc; e o jogo agora ir&amp;atilde;o se tornar um s&amp;oacute;, prepare-se para mergulhar totalmente na a&amp;ccedil;&amp;atilde;o em Summoner's Rift com a ilumina&amp;ccedil;&amp;atilde;o RGB c&lt;strong&gt;om Light FX Sync.&lt;/strong&gt; Ela sincroniza o monitor com o pr&amp;oacute;prio MOBA e acende os efeitos de luz em resposta a eventos no jogo. As lutas em equipe se tornar&amp;atilde;o ainda mais cheias de adrenalina!&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;PAINEL IPS (178&amp;deg;/178&amp;deg;)&lt;/h2&gt;
+&lt;p&gt;O Painel IPS &amp;eacute; o meio perfeito para exibir o jogo em toda a sua gl&amp;oacute;ria. Desfrute de um alto contraste e &lt;strong&gt;imagens extremamente vivas&lt;/strong&gt; e brilhantes, alinhadas a perfeitos &amp;acirc;ngulos de vis&amp;atilde;o de 178&amp;ordm;/178&amp;ordm;.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;CONTROLE TEM&amp;Aacute;TICO LEAGUE OF LEGENDS&lt;/h2&gt;
+&lt;p&gt;Este monitor destaca League of Legends em todos os aspectos, por isso n&amp;atilde;o poderia faltar um acess&amp;oacute;rio a mais para voc&amp;ecirc; se equipar: um controle remoto externo com um &lt;strong&gt;design diferenciado&lt;/strong&gt;, que permite alternar convenientemente entre os modos de jogo e ajustar os recursos de jogo em tempo real.&lt;/p&gt;</t>
   </si>
   <si>
     <t>Monitor Gamer Bluecase 27" 2.5K, 75Hz, HDMI / Displayport, Vesa - BM2713GW</t>
@@ -981,62 +2238,104 @@
 &lt;h3&gt;Aproveite essa oportunidade e adquira seu Monitor Gamer Curvo no KaBuM!&lt;/h3&gt;</t>
   </si>
   <si>
+    <t>Monitor Gamer Gigabyte, 34 Polegadas, 144HZ, 1MS, FULL HD, HDMI/displayport, Curvo 1500r, Flicker Free, Vesa - G34wqc-sa</t>
+  </si>
+  <si>
+    <t>Monitor gamer g34wqc a última milha para o seu sistema de jogo como um jogador invisível, o monitor é frequentemente subestimado. A verdade é que os monitores se formam como um efeito sinérgico e trazem o melhor desempenho dos componentes do pc. Os monitores de jogos gigabyte oferecem as últimas especificações e qualidade, os usuários podem realmente desfrutar de um desempenho sofisticado sem a necessidade de extravagâncias. Sua sensação superimersiva no jogo! O painel 1500r va de 34 ”apresenta uma visão mais próxima do olho humano do que um monitor plano, proporcionando uma sensação mais envolvente. Simples mas estiloso a aparência aerodinâmica representa a simplicidade da filosofia de design da série de jogos gigabyte, suporte robusto e acabamento fosco construído para características funcionais e estéticas adicionando mais características. Ângulo de visão perfeito o monitor de jogos gigabyte possui um suporte exclusivo ergonomicamente projetado para oferecer uma ampla gama de ajustes de altura e inclinação.</t>
+  </si>
+  <si>
     <t>Monitor Gamer Redragon, 23Pol, Full HD, 144Hz, 1MS, IPS, HDMI, DP, VGA, Freesync - M2444ph</t>
   </si>
   <si>
     <t>O monitor Redragon Sapphire apresenta um design ultrafino, alinhado com o que há de mais moderno no mercado. Gamers de jogos competitivos podem obter vantagem sobre seus adversários ao utilizar uma tela com a alta taxa de atualização de 144 Hz. A tecnologia AMD FreeSync põe fim à jogabilidade travada e ao corte dos quadros com um desempenho fluido e livre de artefatos com praticamente qualquer taxa de quadros. Contemple a próxima inovação na experiência de jogos para PC e console. O Redragon Sapphire possui um visual moderno e elegante, que combina com qualquer setup, pela sua simplicidade e minimalismo.&lt;br /&gt;&lt;br /&gt;- Alta taxa de atualização até 144Hz auxiliando na fluidez da gameplay.&lt;br /&gt;- Design elegante e minimalista para se integrar a qualquer setup.&lt;br /&gt;- Painel do tipo IPS para maior fidelidade de cores.&lt;br /&gt;- Tecnologia Freesync integrada para eliminar as quebras de imagem.&lt;br /&gt;- Diversas opções de conexões de vídeo para maior praticidade e versatilidade.&lt;br /&gt;&lt;br /&gt;O monitor tem tela de 24 polegadas, um ótimo tamanho para o consumo de jogos e filmes, assim como navegar na internet e trabalhar.</t>
   </si>
   <si>
+    <t>Monitor Gamer Acer Predator, 24.5" Full HD, 240Hz, 0.5Ms IPS, G-Sync - XB253Q GX</t>
+  </si>
+  <si>
+    <t>Nunca mais perca um frag seu reflexo e sua performance vão ficar ainda melhores com as incríveis taxas de atualização, que oferecem imagens sem rastros e engasgos. Não vai sobrar um cheater pra contar história.																									&lt;br /&gt;																							&lt;br /&gt;&lt;b&gt;Exclusiva tecnologia NVIDIA G-SYNC&lt;/b&gt;																								&lt;br /&gt;A tecnologia NVIDIA G-SYNC cria uma experiência única e suave para jogos, através da sincronização dos frames criados pela GeForce® com a taxa de atualização do monitor. Adeus screen tearing e engasgos.																									&lt;br /&gt;&lt;br /&gt;&lt;b&gt;Tecnologia IPS&lt;/b&gt;																									&lt;br /&gt;Seus jogos favoritos com cores mais vivas e nítidas de qualquer ângulo, sem comprometer a velocidade ou deixar rastros.																									&lt;br /&gt;																					&lt;br /&gt;&lt;b&gt;GameView&lt;/b&gt;																								&lt;br /&gt;Com o Predator GameView, você pode fazer ajustes finos nas cores, configurar níveis avançados de contraste para cenários mais escuros ou até um clock na taxa de atualização do monitor. Você pode salvar até três perfis diferentes de configuração.																									&lt;br /&gt;&lt;br /&gt;&lt;b&gt;Predator EyeProtect&lt;/b&gt;																							&lt;br /&gt;Deixe as lágrimas para os n00bs. Jogue por horas sem lacrimejar. Com o EyeProtect, você tem recursos de anticintilação, filtro para a luz azul e antirreflexo, que minimizam o esforço dos olhos para que você jogue por mais tempo.																									&lt;br /&gt;																									&lt;br /&gt;&lt;b&gt;Pronto para OverClock&lt;/b&gt;																										&lt;br /&gt;Os monitores Predator tem overlock integrado pra você aumentar as taxas de atualização e aproveitar seus jogos com mais frames por segundo.</t>
+  </si>
+  <si>
     <t>Monitor Gamer LG LED 23.8 Polegadas FHD, 60Hz, 5Ms, IPS, VGA/HDMI/DP, Pivot - 24BL550J</t>
   </si>
   <si>
     <t>Monitor Gamer LG LED 23.8 FHD IPS 60Hz 5ms VGA HDMI DP Pivot - 24BL550J CONTE COM SUA MELHOR EXIBIÇÃO A qualidade de imagem do LG 24BL550J é a melhor possível para um monitor Full HD, já que usa a elogiada tela IPS. Suas cores são vibrantes e nítidas, sem qualquer problema em replicar as cores reais em software e jogos. Sua tela de 23.9 faz com que ele esteja no tamanho ideal para a resolução Full HD (1920x1080p), apresentando ótimo nível de densidade de pixel (PPI 0,27 mm). Com isso, você não terá a impressão de imagem borrada ou com serrilhados, principalmente em jogos, vídeos e fotos. FLUIDEZ Tem baixo input lag e tempo de resposta de 5ms, suficiente para eliminar rastros. A taxa de atualização de 75hz da boa fluência aos jogos, ajudando ainda no conforto ocular. MELHOR RESOLUÇÃO Sua incrível tela em Full HD com tecnologia IPS e seu tratamento anti reflexivo conta com a exibição de imagens excepcionais cores mais realistas de qualquer ângulo, sem a interferência de qualquer luz. MODELO PIVOTANTE Permite ajuste de altura, inclinação, rotação e pivô. Esse monitor apresenta um design moderno, com bordas mais finas e base retangular com ótima estabilidade. Porém, seu grande trunfo é o ajuste de altura e giro em 90º (pivô), o que o torna ideal para trabalhar com o monitor na vertical (em pé)..</t>
   </si>
   <si>
+    <t>Monitor Gamer KBM! GAMING MG700 27' Led Full Hd, 240hz, 1ms, Hdmi E Displayport, 96% Srgb, Adaptive Sync, Ajuste De Altura - KGMG70027PT</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Monitor Gamer KBM! GAMING MG700: Imers&amp;atilde;o e desempenho para seus jogos&lt;/h2&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;O Monitor Gamer KBM! GAMING MG700 &amp;eacute; a escolha perfeita para quem busca imers&amp;atilde;o e desempenho nos jogos. Com &lt;strong&gt;tela curva de 27 polegadas&lt;/strong&gt;, resolu&amp;ccedil;&amp;atilde;o &lt;strong&gt;Full HD&lt;/strong&gt; e taxa de atualiza&amp;ccedil;&amp;atilde;o de &lt;strong&gt;240 Hz,&lt;/strong&gt; o MG700 oferece uma experi&amp;ecirc;ncia visual incr&amp;iacute;vel.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;O tempo de resposta de &lt;strong&gt;1 ms&lt;/strong&gt; garante que voc&amp;ecirc; n&amp;atilde;o perca nenhum detalhe da a&amp;ccedil;&amp;atilde;o, mesmo nos jogos mais r&amp;aacute;pidos. Al&amp;eacute;m disso, o recurso &lt;strong&gt;AdaptiveSync&lt;/strong&gt; elimina o tearing e o stuttering, garantindo uma imagem suave e fluida.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;Para proteger a sua vis&amp;atilde;o, o MG700 conta com &lt;strong&gt;redu&amp;ccedil;&amp;atilde;o de luz azul&lt;/strong&gt; e &lt;strong&gt;Modo Game Plus&lt;/strong&gt;, que reduzem o cansa&amp;ccedil;o visual. O som integrado &amp;eacute; de alta qualidade, mas voc&amp;ecirc; tamb&amp;eacute;m pode conectar o seu headset atrav&amp;eacute;s das portas plug and play.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;Com o Monitor Gamer KBM! GAMING MG700, voc&amp;ecirc; ter&amp;aacute; tudo o que precisa para jogar seus games favoritos com o m&amp;aacute;ximo de desempenho e imers&amp;atilde;o.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;O Monitor Gamer KBM! GAMING MG700 &amp;eacute; a escolha perfeita para quem busca um monitor gamer de alta qualidade. Com recursos avan&amp;ccedil;ados e uma excelente rela&amp;ccedil;&amp;atilde;o custo-benef&amp;iacute;cio, o MG700 &amp;eacute; a garantia de uma experi&amp;ecirc;ncia de jogo inesquec&amp;iacute;vel.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>USADO: Monitor Gamer 24 Polegadas Acer Nitro, 165Hz, 0.5ms, Freesync, HDMI, DisplayPort, Preto, Recertificado Prata - VG252Q</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Acer Nitro Vg252q, na cor preta com detalhes em vermelho, tela de 24 polegadas, taxa de atualização de 165hz, tempo de resposta de 0.5ms, amd freesync premium, 1 entrada hdmi e 1 entrada display port&lt;br /&gt;&lt;br /&gt;Atenção: este produto é recertificado.&lt;br /&gt;Os eletrônicos são originais e acompanham nota fiscal. Os produtos passam por uma avaliação de qualidade rigorosa, que certifica as condições técnicas e estéticas do aparelho, categorizadas de acordo com os selos ouro, prata ou bronze. Você ainda conta com garantia de três meses contra problemas e pode fazer a devolução do produto em até sete dias.</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Redragon Azur, 23.8 Polegadas, 165hz, LED, FHD, HDMI - Gm24x5ips</t>
+  </si>
+  <si>
+    <t>Características:&lt;br /&gt; - marca: redragon&lt;br /&gt; - modelo: gm24x5ips&lt;br /&gt; especificações:&lt;br /&gt; - cor: preto&lt;br /&gt; - alta taxa de atualização até 165hz auxiliando na fluidez da gameplay.&lt;br /&gt; - design elegante e minimalista para se integrar a qualquer setup.&lt;br /&gt; - tecnologia freesync integrada para eliminar as quebras de imagem.&lt;br /&gt; - diversas opções de conexões de vídeo para maior praticidade e versatilidade.&lt;br /&gt; - tamanho: 23,8”&lt;br /&gt; - resolução: 1920 x 1080&lt;br /&gt; - tipo de painel: ips&lt;br /&gt; - taxa de atualização: 165 hz&lt;br /&gt; - número de cores: 16.7 m&lt;br /&gt; - brilho máximo: 250cd/m2 (typical)&lt;br /&gt; - taxa de contraste: 1000:1&lt;br /&gt; - conectividade: hdmi 1.4 x 2, dp 1.2  x1, dc x 1, 1x 3.5mm áudio.&lt;br /&gt; - power range: 100-240v 50/60hz&lt;br /&gt; - peso bruto(g): 4728&lt;br /&gt; - peso líquido(g): 3520&lt;br /&gt; conteúdo da embalagem:&lt;br /&gt; - monitor gamer redragon</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Gigabyte 28 Polegadas, Uhd, M28u Ae Sa Pivot, Vesa, 144HZ, HDMI, DP, USB Tipo-c</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;monitor gamer m28u ae sa gigabyte 28" uhd vesa 144hz hdmi dp usb tipo-c&lt;/b&gt;&lt;/p&gt;&lt;p&gt;&lt;br /&gt;o monitor gamer m28u redefine a experi&amp;ecirc;ncia de jogo em 4k com um bra&amp;ccedil;o de monitor ergon&amp;ocirc;mico que se adapta a v&amp;aacute;rias configura&amp;ccedil;&amp;otilde;es de desktop. &amp;eacute; adequado para jogos de pc, consoles e streaming de m&amp;iacute;dia. Com um painel superspeed ips, oferece uma taxa de quadros de 144 hz, um tempo de resposta de 1 ms e excelente precis&amp;atilde;o de cores com profundidade de 8 bits, al&amp;eacute;m de ampla gama de cores dci-p3 de 94%. A tecnologia superspeed ips proporciona uma experi&amp;ecirc;ncia de entretenimento 4k de alta qualidade, combinando alta resolu&amp;ccedil;&amp;atilde;o e uma taxa de atualiza&amp;ccedil;&amp;atilde;o r&amp;aacute;pida para uma exibi&amp;ccedil;&amp;atilde;o detalhada e jogabilidade suave.&lt;/p&gt;&lt;p&gt;&lt;br /&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Gigabyte, 32 Polegadas, Curvo, FULL HD, HDMI, DP, USB - M32qc-sa</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;monitor gamer gigabyte 32" curvo full hd m32qc-sa ajuste de altura e inclina&amp;ccedil;&amp;atilde;o vesa 1ms 165hz hdmi dp usb&lt;/b&gt;&lt;br /&gt;&lt;br /&gt;esteja pronto para mergulhar em seus jogos favoritos como nunca antes com o monitor gamer gigabyte 32" curvo m32qc-sa. Om uma tela grande e curva, resolu&amp;ccedil;&amp;atilde;o qhd, taxa de atualiza&amp;ccedil;&amp;atilde;o ultra r&amp;aacute;pida e uma s&amp;eacute;rie de recursos de jogos avan&amp;ccedil;ados, este monitor foi projetado para elevar seus jogos a um n&amp;iacute;vel totalmente novo. Com uma tela va curva de 31,5 polegadas e uma curvatura de 1500r, este monitor envolve seu campo de vis&amp;atilde;o, proporcionando uma experi&amp;ecirc;ncia de jogo envolvente. A resolu&amp;ccedil;&amp;atilde;o de 2560 x 1440 pixels oferece imagens n&amp;iacute;tidas e detalhadas, permitindo que voc&amp;ecirc; veja cada detalhe de seus jogos favoritos. Om uma taxa de atualiza&amp;ccedil;&amp;atilde;o de 165hz (overclockable para 170hz), este monitor oferece imagens incrivelmente suaves, tornando-o ideal para jogos de alta a&amp;ccedil;&amp;atilde;o.&lt;/p&gt;&lt;p&gt;&lt;b&gt;caracter&amp;iacute;sticas monitor gamer 32" gigabyte curvo full hd m32qc-sa&lt;/b&gt;&lt;br /&gt;- marca: gigabyte&lt;br /&gt;- modelo: m32qc-sa&lt;/p&gt;</t>
+  </si>
+  <si>
     <t>Monitor Gamer Curvo Bright 27p, Full HD, 165Hz, 1Ms, HDMI/VGA, Preto</t>
   </si>
   <si>
     <t>Monitor gamer curvo 27" polegadas 165hz full hd lcd/led preto mt007 bright&lt;br /&gt;  &lt;br /&gt; mergulhe no mundo dos games com estilo e velocidade!&lt;br /&gt;  &lt;br /&gt; ei, camarada gamer, já sentiu como se estivesse preso no passado com um monitor lento e sem graça? Deixe-me apresentar uma passagem direta para o futuro dos jogos: o monitor gamer curvo 27 polegadas 165 hz dp hdmi usb preto bright. Prepare-se para uma experiência visual de tirar o fôlego!&lt;br /&gt;  &lt;br /&gt; este monitor é como uma viagem ao paraíso dos gamers. Com suas 27 polegadas de tela imersiva e curva, ele envolve você em um abraço eletrizante de jogabilidade. E a taxa de atualização de 165 hz? É praticamente uma máquina do tempo para o futuro dos jogos!&lt;br /&gt;  &lt;br /&gt; e como se isso não fosse suficiente, este monitor oferece conectividade versátil com dp, hdmi e usb. Você pode se conectar facilmente aos seus dispositivos e mergulhar diretamente na ação. Sem complicações, apenas jogos de alta qualidade.&lt;br /&gt;  &lt;br /&gt; mas aqui está a cereja no topo do bolo: a resolução deslumbrante e as cores vibrantes. Este monitor faz com que cada detalhe dos seus jogos ganhe vida. Adeus a imagens borradas e cores apagadas. Prepare-se para gráficos que vão explodir sua mente!&lt;br /&gt;  &lt;br /&gt; ao comprar este monitor gamer curvo, você não está apenas adquirindo um pedaço de tecnologia. Você está se dando o presente de uma experiência de jogo que vai te levar a novos patamares de diversão e desempenho. É a sua passagem para o futuro dos jogos - uma jornada sem volta para a vitória!&lt;br /&gt;  &lt;br /&gt; então, o que você está esperando? Pegue seu ingresso para o futuro e adquira o monitor gamer curvo 27 polegadas 165 hz dp hdmi usb preto bright hoje. Jogue com estilo, velocidade e vitória garantida! Sua jornada começa agora!&lt;br /&gt;  &lt;br /&gt; especificações:&lt;br /&gt; dimensões(axlxp): 615 x 453 x 79 mm &lt;br /&gt; peso: 3,9&lt;br /&gt; área de visualização 683 × 128 × 445(mm2)&lt;br /&gt; ângulo de visão h:178°v:178°&lt;br /&gt; resolução(tip.) 1920x1080 60hz&lt;br /&gt; cores 16,7m&lt;br /&gt; brilho (tip.) 250cd/m2&lt;br /&gt; tela curva: 2800r&lt;br /&gt; frequência de resposta: 165 hz&lt;br /&gt; relação de contraste (tip.) 1000:1&lt;br /&gt; conector dp + hdmi + usb&lt;br /&gt;  &lt;br /&gt; conteúdo da embalagem: &lt;br /&gt; 01 monitor bright &lt;br /&gt; 01 cabo hdmi&lt;br /&gt; 01 manual&lt;br /&gt;  &lt;br /&gt; modelo:&lt;br /&gt; mt007&lt;br /&gt;  &lt;br /&gt; marca:&lt;br /&gt; bright&lt;br /&gt;  &lt;br /&gt; garantia 1 ano bright</t>
   </si>
   <si>
+    <t>Monitor Benq Pd2705q, 27 Polegadas, Ips, QHD, SrGB, HDR, USB-C, Ajuste De Ângulo E Altura, Para Edição De Vídeos E Imagens</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;O monitor BenQ PD2700Q é um equipamento moderno com uma tela IPS ampla de 27 polegadas, resolução de 2K QHD em até 2560x1440 combinado com HDR10, que oferece uma extraordinária clareza nos detalhes finos e profundidade de texturas otimizadas para trabalhos visualmente intensivos em animação, efeitos visuais, gráficos e fotos.&lt;/p&gt;&lt;br /&gt;&lt;br /&gt;&lt;p&gt;O PD2705Q está equipado com exclusiva e inovadora tecnologia AQCOLOR que se dedica a atender um padrão de cores profissionais. Este é o monitor ideal para produção de conteúdo como ilustrações, tratamento de imagens e até mesmo vídeos se beneficiando do modo CAD/CAM que acentua os detalhes mais finos para produzir um incrível desempenho de exibição em Pro/E, SOLIDWORKS, AutoCAD, CATIA ou outro software de design.&lt;/p&gt;&lt;br /&gt;&lt;/div&gt;&lt;br /&gt;&lt;br /&gt;&lt;h2&gt;ESPECIFICAÇÕES&lt;/h2&gt;&lt;br /&gt;&lt;br /&gt;&lt;ul&gt;&lt;br /&gt;        &lt;li&gt;&lt;strong&gt;Fabricante:&lt;/strong&gt; BenQ&lt;/li&gt;&lt;br /&gt;        &lt;li&gt;&lt;strong&gt;Modelo:&lt;/strong&gt;? PD2705Q&lt;/li&gt;&lt;br /&gt;        &lt;li&gt;&lt;strong&gt;Tipo de Painel: &lt;/strong&gt;IPS&lt;/li&gt;&lt;br /&gt;        &lt;li&gt;&lt;strong&gt;Polegadas:&lt;/strong&gt; 27"&lt;/li&gt;&lt;br /&gt;        &lt;li&gt;&lt;strong&gt;Resolução:&lt;/strong&gt; 2560x1440 (2K)&lt;/li&gt;&lt;br /&gt;        &lt;li&gt;&lt;strong&gt;Taxa de Atualização: &lt;/strong&gt;60Hz&lt;/li&gt;&lt;br /&gt;        &lt;li&gt;&lt;strong&gt;Brilho:&lt;/strong&gt; 350 nits&lt;/li&gt;&lt;br /&gt;        &lt;li&gt;&lt;strong&gt;Tempo de Resposta:&lt;/strong&gt; 5ms&lt;/li&gt;&lt;br /&gt;        &lt;li&gt;&lt;strong&gt;Ângulo de Visão:&lt;/strong&gt; 178°/178°&lt;/li&gt;&lt;br /&gt;        &lt;li&gt;&lt;strong&gt;Proporção: &lt;/strong&gt;16:9&lt;/li&gt;&lt;br /&gt;        &lt;li&gt;&lt;strong&gt;Temperatura da Cor:&lt;/strong&gt; 5000K ,6500K ,9300K ,Defin. Utilizador&lt;/li&gt;&lt;br /&gt;        &lt;li&gt;&lt;strong&gt;Gamma: &lt;/strong&gt;1.8 - 2.6, sRGB&lt;/li&gt;&lt;br /&gt;        &lt;li&gt;&lt;strong&gt;HDCP:&lt;/strong&gt; 2.2&lt;/li&gt;&lt;br /&gt;        &lt;li&gt;&lt;strong&gt;Entrada 1: &lt;/strong&gt;Display Port&lt;/li&gt;&lt;br /&gt;        &lt;li&gt;&lt;strong&gt;Entrada 2:&lt;/strong&gt; HDMI&lt;/li&gt;&lt;br /&gt;        &lt;li&gt;&lt;strong&gt;Portas USB:&lt;/strong&gt; Sim&lt;/li&gt;&lt;br /&gt;        &lt;li&gt;&lt;strong&gt;Ajuste de Altura:&lt;/strong&gt; Sim&lt;/li&gt;&lt;br /&gt;        &lt;li&gt;&lt;strong&gt;Ajuste de Inclinação:&lt;/strong&gt; Sim&lt;/li&gt;&lt;br /&gt;        &lt;li&gt;&lt;strong&gt;Ajuste de Rotação:&lt;/strong&gt; Sim&lt;/li&gt;&lt;br /&gt;        &lt;li&gt;&lt;strong&gt;Cor:&lt;/strong&gt; Preto&lt;/li&gt;&lt;br /&gt;&lt;/ul&gt;&lt;br /&gt;&lt;br /&gt;&lt;h2&gt;RECURSOS&lt;/h2&gt;&lt;br /&gt;&lt;br /&gt;&lt;ul&gt;&lt;br /&gt;        &lt;li&gt;Modos de Cor: Animação, CAD/CAM, DarkRoom, HDR , Low Blue Light, M-Book, Rec.709, sRGB, Standard&lt;/li&gt;&lt;br /&gt;        &lt;li&gt;Escala de Cores: 100% Rec.709 ,100% sRGB&lt;/li&gt;&lt;br /&gt;        &lt;li&gt;HDR10&lt;/li&gt;&lt;br /&gt;        &lt;li&gt;Certificação: Low Blue Light, Solidworks, Pantone Validated, Calman Verified&lt;/li&gt;&lt;br /&gt;&lt;/ul&gt;&lt;br /&gt;&lt;br /&gt;&lt;h2&gt;ENERGIA&lt;/h2&gt;&lt;br /&gt;&lt;br /&gt;&lt;ul&gt;&lt;br /&gt;        &lt;li&gt;Voltagem:&lt;strong&gt; &lt;/strong&gt;100 - 240 V&lt;/li&gt;&lt;br /&gt;        &lt;li&gt;Fonte de Alimentação: Integrado&lt;/li&gt;&lt;br /&gt;        &lt;li&gt;Consumo de Energia (normal): 24L&lt;/li&gt;&lt;br /&gt;        &lt;li&gt;Consumo de Energia (máx): 155L&lt;/li&gt;&lt;br /&gt;        &lt;li&gt;Consumo Energético (modo de suspensão): &lt;0.5L&lt;/li&gt;&lt;br /&gt;        &lt;li&gt;Power Delivery(USB C / Thunderbolt 3): 65L&lt;/li&gt;&lt;br /&gt;&lt;/ul&gt;&lt;br /&gt;&lt;br /&gt;&lt;h2&gt;CONECTIVIDADE&lt;/h2&gt;&lt;br /&gt;&lt;br /&gt;&lt;ul&gt;&lt;br /&gt;        &lt;li&gt;HDMI (v2.0)&lt;/li&gt;&lt;br /&gt;        &lt;li&gt;DisplayPort (v1.4)&lt;/li&gt;&lt;br /&gt;        &lt;li&gt;USB C (PowerDelivery 65W, DisplayPort Alt Mode, Data)&lt;/li&gt;&lt;br /&gt;        &lt;li&gt;USB Type B ( Upstream )&lt;/li&gt;&lt;br /&gt;        &lt;li&gt;USB 3.1 ( Downstream )&lt;/li&gt;&lt;br /&gt;&lt;/ul&gt;&lt;br /&gt;&lt;br /&gt;&lt;h2&gt;ITENS INCLUSOS&lt;/h2&gt;&lt;br /&gt;&lt;br /&gt;&lt;ul&gt;&lt;br /&gt;        &lt;li&gt;Monitor&lt;/li&gt;&lt;br /&gt;        &lt;li&gt;Cabo de Força (1.8m)&lt;/li&gt;&lt;br /&gt;        &lt;li&gt;Cabo de Exibição: DP1.4, USB 3.0, USB C&lt;/li&gt;&lt;br /&gt;&lt;/ul&gt;&lt;br /&gt;&lt;br /&gt;&lt;h2&gt;GARANTIA&lt;/h2&gt;&lt;br /&gt;&lt;br /&gt;&lt;ul&gt;&lt;br /&gt;        &lt;li&gt;3 anos contra defeitos de fabricação (33 meses de garantia junto ao fabricante, mais 90 dias referentes à garantia legal, nos termos do artigo 26, II, do Código de Defesa do Consumidor).&lt;/li&gt;&lt;br /&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>Monitor Samsung Odyssey Crg9, 49 Polegadas, Dual QHD, Curvo, 120Hz, 4Ms - LC49RG90SSLXZD</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Tela de resolução DQHD super ultra-wide de 49" para uma bela imagem&lt;/b&gt;&lt;br /&gt;&lt;br /&gt;O grande display curvo 32:9 super ultra-amplo de 49´´ com alta resolução dual qhd (5120x1440) oferece imagens nítidas e detalhadas e oferece todo o espaço que você precisa para realizar multitarefas com eficiência, sem a necessidade de configurações inconvenientes de dois monitores. Tela ultracurva com taxa de contraste de 3.000:1&lt;br /&gt;&lt;br /&gt;O painel va supercurvo da samsung foi projetado para proporcionar conforto, produtividade e estilo. Com um raio de 1800mm, a distância da tela ao olho é uma distância mais uniforme, resultando em menos fadiga ocular ao trabalhar longas horas. Ângulos de visão amplos ajudam a garantir que a imagem não seja degradada em ângulos desfavoráveis. E uma taxa de contraste excepcional de 3000:1 permite que você veja detalhes e contraste incríveis, mesmo quando cores brilhantes aparecem junto com sombras e silhuetas profundas. Cor brilhante com qled.&lt;br /&gt;&lt;br /&gt;Este monitor suporta até 125% do espaço de cores srgb, 95% dci e 1,07 bilhão de cores graças à tecnologia quantum dot (qled). Assim, você obtém vermelhos e verdes excepcionalmente brilhantes, nítidos e naturais, além de transições de cores suaves e perfeitas. Além disso, cada monitor é calibrado de fábrica para consistência de cores. Hdr 1000.&lt;br /&gt;&lt;br /&gt;O hdr fornece um nível mais alto de contraste entre imagens claras e escuras na tela para criar uma imagem muito mais realista. O suporte a hdr significa que o conteúdo será reproduzido com precisão ao exibir jogos ou fotografias em hdr.</t>
+  </si>
+  <si>
     <t>Monitor Goldentec Gamer 27'' Led Full Hd, 75hz, 1ms</t>
   </si>
   <si>
     <t>Monitor gamer 27´´ led full hd 75hz 1ms especificações técnicas  marcagoldentec  ean7899555687261  tamanho de tela27´´  framelesssim  resolução1920x1080 (full hd)  tempo de resposta1 ms  frequência75 hz  brilho250 cd/m²  contraste100 milhões: 1  ângulo de visão180° (h) 180° (v)  cores16,7 milhões  inclinação ajustável 20°  tecnologia freesyncelimina falhas e intermitências  tecnologia lowbluelightreduz a luz azul para mais conforto e segurança  100% flicker freesuaviza a ondulação do monitor  conexõeshdmi  conteúdo da embalagem1x monitor gamer 27´´ led full hd 75hz 1ms &lt;br&gt;cabos e fonte &lt;br&gt;&lt;br&gt;&lt;strong&gt;especificações técnicas&lt;/strong&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;marca :&lt;/strong&gt; goldentec&lt;br&gt;&lt;strong&gt;tipo de uso :&lt;/strong&gt; gamer&lt;br&gt;&lt;strong&gt;tamanho da tela :&lt;/strong&gt; 27´´&lt;br&gt;&lt;strong&gt;tipo de tela :&lt;/strong&gt; led&lt;br&gt;&lt;strong&gt;resolução :&lt;/strong&gt; full hd&lt;br&gt;&lt;strong&gt;design de tela :&lt;/strong&gt; tela plana&lt;br&gt;&lt;strong&gt;tempo de resposta :&lt;/strong&gt; 1 ms&lt;br&gt;&lt;strong&gt;taxa de atualização :&lt;/strong&gt; 75 hz&lt;br&gt;&lt;strong&gt;estrutura :&lt;/strong&gt; padrão&lt;br&gt;&lt;strong&gt;voltagem :&lt;/strong&gt; bivolt&lt;br&gt;&lt;strong&gt;polegadas :&lt;/strong&gt; 27 ´´&lt;br&gt;&lt;br&gt;&lt;strong&gt;garantia : &lt;/strong&gt;12</t>
   </si>
   <si>
-    <t>Monitor Gamer Redragon Azur, 23.8 Polegadas, 165hz, LED, FHD, HDMI - Gm24x5ips</t>
-  </si>
-  <si>
-    <t>Características:&lt;br /&gt; - marca: redragon&lt;br /&gt; - modelo: gm24x5ips&lt;br /&gt; especificações:&lt;br /&gt; - cor: preto&lt;br /&gt; - alta taxa de atualização até 165hz auxiliando na fluidez da gameplay.&lt;br /&gt; - design elegante e minimalista para se integrar a qualquer setup.&lt;br /&gt; - tecnologia freesync integrada para eliminar as quebras de imagem.&lt;br /&gt; - diversas opções de conexões de vídeo para maior praticidade e versatilidade.&lt;br /&gt; - tamanho: 23,8”&lt;br /&gt; - resolução: 1920 x 1080&lt;br /&gt; - tipo de painel: ips&lt;br /&gt; - taxa de atualização: 165 hz&lt;br /&gt; - número de cores: 16.7 m&lt;br /&gt; - brilho máximo: 250cd/m2 (typical)&lt;br /&gt; - taxa de contraste: 1000:1&lt;br /&gt; - conectividade: hdmi 1.4 x 2, dp 1.2  x1, dc x 1, 1x 3.5mm áudio.&lt;br /&gt; - power range: 100-240v 50/60hz&lt;br /&gt; - peso bruto(g): 4728&lt;br /&gt; - peso líquido(g): 3520&lt;br /&gt; conteúdo da embalagem:&lt;br /&gt; - monitor gamer redragon</t>
-  </si>
-  <si>
     <t>Monitor Gamer Cooler Master 23.8 Pol. Full HD (1920x1080), 0.5MS, 144Hz, IPS, HDMI, Hdr10, Vesa - Gm238-Ffs</t>
   </si>
   <si>
     <t>&lt;p&gt;&lt;b&gt;monitor gamer gm238-ffs cooler master full hd hdmi 1920x1080 vesa 144hz 23,8"&lt;/b&gt;&lt;/p&gt;&lt;p&gt;&lt;br /&gt;o monitor gamer gm238-ffs possui tela full hd de 144 hz e 23,8" combinada com uma ampla gama de cores dci-p3 de 90% oferece versatilidade not&amp;aacute;vel. Com recursos essenciais para jogos e produtividade, permite uma experi&amp;ecirc;ncia de jogo suave ou foco no trabalho diurno. A densidade de pixels de 92,6 por polegada (ppi) em um monitor de 23,8 polegadas e resolu&amp;ccedil;&amp;atilde;o full hd, o gm238-ffs equilibra de forma excelente a fidelidade visual e o desempenho. O monitor gamer fornece um display fhd de 23,8" com um painel ultraspeed ips de 144 hz, com recursos como dynamic overdrive, adaptive sync e uma cobertura dci-p3 de 90%, atende a todas as suas necessidades. &amp;eacute; ideal tanto para jogos quanto para produtividade, tornando-o uma adi&amp;ccedil;&amp;atilde;o valiosa &amp;agrave; sua configura&amp;ccedil;&amp;atilde;o de trabalho e entretenimento.&lt;/p&gt;&lt;p&gt;&lt;br /&gt;&lt;/p&gt;</t>
   </si>
   <si>
-    <t>USADO: Monitor Gamer 24 Polegadas Acer Nitro, 165Hz, 0.5ms, Freesync, HDMI, DisplayPort, Preto, Recertificado Prata - VG252Q</t>
-  </si>
-  <si>
-    <t>Monitor Gamer Acer Nitro Vg252q, na cor preta com detalhes em vermelho, tela de 24 polegadas, taxa de atualização de 165hz, tempo de resposta de 0.5ms, amd freesync premium, 1 entrada hdmi e 1 entrada display port&lt;br /&gt;&lt;br /&gt;Atenção: este produto é recertificado.&lt;br /&gt;Os eletrônicos são originais e acompanham nota fiscal. Os produtos passam por uma avaliação de qualidade rigorosa, que certifica as condições técnicas e estéticas do aparelho, categorizadas de acordo com os selos ouro, prata ou bronze. Você ainda conta com garantia de três meses contra problemas e pode fazer a devolução do produto em até sete dias.</t>
-  </si>
-  <si>
-    <t>Monitor Gamer KBM! GAMING MG700 27' Led Full Hd, 240hz, 1ms, Hdmi E Displayport, 96% Srgb, Adaptive Sync, Ajuste De Altura - KGMG70027PT</t>
-  </si>
-  <si>
-    <t>&lt;h2&gt;Monitor Gamer KBM! GAMING MG700: Imers&amp;atilde;o e desempenho para seus jogos&lt;/h2&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;O Monitor Gamer KBM! GAMING MG700 &amp;eacute; a escolha perfeita para quem busca imers&amp;atilde;o e desempenho nos jogos. Com &lt;strong&gt;tela curva de 27 polegadas&lt;/strong&gt;, resolu&amp;ccedil;&amp;atilde;o &lt;strong&gt;Full HD&lt;/strong&gt; e taxa de atualiza&amp;ccedil;&amp;atilde;o de &lt;strong&gt;240 Hz,&lt;/strong&gt; o MG700 oferece uma experi&amp;ecirc;ncia visual incr&amp;iacute;vel.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;O tempo de resposta de &lt;strong&gt;1 ms&lt;/strong&gt; garante que voc&amp;ecirc; n&amp;atilde;o perca nenhum detalhe da a&amp;ccedil;&amp;atilde;o, mesmo nos jogos mais r&amp;aacute;pidos. Al&amp;eacute;m disso, o recurso &lt;strong&gt;AdaptiveSync&lt;/strong&gt; elimina o tearing e o stuttering, garantindo uma imagem suave e fluida.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;Para proteger a sua vis&amp;atilde;o, o MG700 conta com &lt;strong&gt;redu&amp;ccedil;&amp;atilde;o de luz azul&lt;/strong&gt; e &lt;strong&gt;Modo Game Plus&lt;/strong&gt;, que reduzem o cansa&amp;ccedil;o visual. O som integrado &amp;eacute; de alta qualidade, mas voc&amp;ecirc; tamb&amp;eacute;m pode conectar o seu headset atrav&amp;eacute;s das portas plug and play.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;Com o Monitor Gamer KBM! GAMING MG700, voc&amp;ecirc; ter&amp;aacute; tudo o que precisa para jogar seus games favoritos com o m&amp;aacute;ximo de desempenho e imers&amp;atilde;o.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;O Monitor Gamer KBM! GAMING MG700 &amp;eacute; a escolha perfeita para quem busca um monitor gamer de alta qualidade. Com recursos avan&amp;ccedil;ados e uma excelente rela&amp;ccedil;&amp;atilde;o custo-benef&amp;iacute;cio, o MG700 &amp;eacute; a garantia de uma experi&amp;ecirc;ncia de jogo inesquec&amp;iacute;vel.&lt;/p&gt;</t>
+    <t>Monitor Gigabyte M28u, 28 Polegadas, UHD 4k, Ips, 144hz, 1ms, Srgb</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;strong&gt;a última milha para o seu sistema de jogos&lt;/strong&gt;&lt;br /&gt;como jogador invisível, o monitor geralmente está sendo subestimado. A verdade é que os monitores se formam como um efeito sinérgico e trazem o melhor desempenho dos componentes do pc. Os monitores de jogos de gigabyte oferecem as especificações e a qualidade definitivas, os usuários podem realmente desfrutar de um desempenho de luxo sem a necessidade de extravagância.&lt;/p&gt;&lt;p&gt;&lt;strong&gt;tempo de resposta de 1ms gtg&lt;/strong&gt;&lt;br /&gt;a tecnologia ips superspeed reduz o tempo de resposta a 1ms enquanto isso, oferecendo a cor esplêndida de grau ips!&lt;/p&gt;&lt;p&gt;&lt;strong&gt;uhd com 144hz&lt;/strong&gt;&lt;br /&gt;alta resolução e taxa de atualização rápida, oferecendo a qualidade detalhada da exibição e a experiência de jogos fluidos!&lt;/p&gt;&lt;p&gt;&lt;strong&gt;cor de 8 bits, 94% dci-p3&lt;/strong&gt;&lt;br /&gt;exibição de cores fantásticas e 94% de cor super gamut.&lt;/p&gt;&lt;p&gt;&lt;strong&gt;high bit rate 3&lt;/strong&gt;&lt;br /&gt;o suporte da taxa de bits displayport high bit 3 (hbr3) fornece a largura de banda para oferecer a taxa de atualização mais rápida do monitor, profundidade de cor e efeito hdr ao mesmo tempo!&lt;/p&gt;&lt;p&gt;&lt;strong&gt;simples, mas elegante&lt;/strong&gt;&lt;br /&gt;a aparência do streamline representa a simplicidade da filosofia de design da série gigabyte gaming, suporte resistente e acabamento fosco construído para características funcionais e estéticas, adicionando mais às características.&lt;/p&gt;&lt;p&gt; &lt;/p&gt;&lt;p&gt;&lt;strong&gt;especificações:&lt;/strong&gt;&lt;/p&gt;&lt;ul&gt;	&lt;li&gt;tamanho do painel (diagonal): 28" ss ips&lt;/li&gt;	&lt;li&gt;área de visualização de exibição (hxv): 631.928 x 359,78 (mm)&lt;/li&gt;	&lt;li&gt;saturação de cores: 94% dci-p3/ 120% srgb&lt;/li&gt;	&lt;li&gt;resolução: 3840 x 2160 (uhd)&lt;/li&gt;	&lt;li&gt;pitch de pixel: 0,16 (h) x 0,16 (v)&lt;/li&gt;	&lt;li&gt;brilho: 300 cd/m2 (typ)&lt;/li&gt;	&lt;li&gt;taxa de contraste: 1000: 1&lt;/li&gt;	&lt;li&gt;ângulo de visão: 178 ° (h)/178 ° (v)&lt;/li&gt;	&lt;li&gt;8 bits&lt;/li&gt;	&lt;li&gt;tempo de resposta: 1ms gtg / 2ms mprt&lt;/li&gt;	&lt;li&gt;taxa de atualização: 144hz&lt;/li&gt;	&lt;li&gt;hdr&lt;/li&gt;	&lt;li&gt;vesa exibir hdr400&lt;/li&gt;	&lt;li&gt;hbr3&lt;/li&gt;	&lt;li&gt;entrada ca máx: 115w&lt;/li&gt;	&lt;li&gt;modo de economia de energia: 0,5w&lt;/li&gt;	&lt;li&gt;modo de desligamento de energia: 0,3w&lt;/li&gt;	&lt;li&gt;tensão: ac 100-240v ~ 50/60hz&lt;/li&gt;	&lt;li&gt;ângulo de inclinaçao): -5 ° ~ +20 °&lt;/li&gt;	&lt;li&gt;ajuste da altura (mm): 130mm&lt;/li&gt;	&lt;li&gt;montagem da parede vesa (mm): 100 x 100mm&lt;/li&gt;	&lt;li&gt;kensington lock: sim&lt;/li&gt;	&lt;li&gt;dimensão com stand (wxhxd): 636,5*534.2*193.6&lt;/li&gt;	&lt;li&gt;dimensão sem suporte (wxhxd): 636,5*372.3*63.1&lt;/li&gt;	&lt;li&gt;dimensão da caixa (wxhxd): 890*510*148&lt;/li&gt;	&lt;li&gt;peso líquido com suporte (esti.): 6.93 (kg)&lt;/li&gt;	&lt;li&gt;peso líquido sem suporte (esti.): 5.18 (kg)&lt;/li&gt;	&lt;li&gt;peso bruto (esti.): 9.7 (kg)&lt;/li&gt;&lt;/ul&gt;&lt;p&gt;&lt;strong&gt;conectividade&lt;/strong&gt;&lt;/p&gt;&lt;ul&gt;	&lt;li&gt;hdmi 2.1 (suporte 4k 144hz 4: 4: 4 a dsc ativado ou 4k 144hz 4: 2: 0) x2&lt;/li&gt;	&lt;li&gt;porta de exibição 1.4 (dsc) x1&lt;/li&gt;	&lt;li&gt;usb tipo c x1&lt;/li&gt;	&lt;li&gt;jack de fone de ouvido&lt;/li&gt;&lt;/ul&gt;</t>
   </si>
   <si>
     <t>Monitor Gamer Primetek, 27 Polegadas, 180hz Ips Qhd HDMI/dp</t>
@@ -1045,18 +2344,66 @@
     <t>Caracteristicas: - marca: primetek - modelo: 27a2r  especificações técnicas: - tamanho do painel (diagonal) 27 - tipo de painel ips rápido - plana/ curva plana proporção 16:9 resolução 2560x1440 - tipo de moldura moldura sem moldura 3 - distância do pixel (h)*(v) (mm) 0,2331 (h) × 0,2331(v - brilho (cd/m2 )(tipo.) 250(min) 300(tipo) brilho (nits)(máx.)? 250(min) 300(tipo) - ângulo de visão (h/v) 178°(h)/178°(v) - profundidade de bits do painel verdadeiro 8 bits - cores da tela 16,7m - tempo de resposta do painel sem od 5ms tempo de resposta 1ms - taxa de atualização (máx.) 180 hz - hdmi 2.0 2 (máx. 144 hz) dp 1.4 2 (máx. 180 hz) saída de áudio 1 - design de suporte de exibição has inclinação (ângulo) 5°±2°,20°±2° giro (ângulo) 20°±2° - pivô (ângulo/direção) pviot: 90° ajuste de altura 120±5mm montagem vesa 75*75mm tecla do botão liga/desliga roker - tecla do botão osd roker contracapa design rgb - consumo de energia 48w modo de economia de energia ?0,5w modo de desligamento desligado &amp;lt,0,3 w tipo de energia adaptador de energia fonte de alimentação dc 12v, 4a - acessorios: cabo de alimentação (1,5m) 1,5m cabo dp versão 1.2 quantidade de cabo dp (1,5 m/1,8 m) 1,5 m - temperatura da cor (fria, quente, usuário) controle de luz azul baixa modo de cena dcr idiomas (23 idiomas) ajuste da luz de fundo sem oscilações freesync over drive fps/rts jogo mais modo de controle do efeito de iluminação (nenhum/mistura de cores rgb/seleção colorida) laranja - dimensão com suporte (l*a*p)(mm) 619x269,2x554,6 mm - dimensão sem suporte (lxaxp)(mm) 619x63,7x365,5 mm - dimensão da caixa (lxaxp)(mm) 715x213x471mm - peso líquido (kg) 6,3kg - peso bruto (kg) 8,3kg - garantia 1 ano &lt;br&gt;&lt;br&gt;&lt;strong&gt;especificações técnicas&lt;/strong&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;tamanho da tela:&lt;/strong&gt; 27&lt;br&gt;&lt;strong&gt;marca:&lt;/strong&gt; primetek&lt;br&gt;&lt;strong&gt;modelo:&lt;/strong&gt; 27a2r</t>
   </si>
   <si>
+    <t>Monitor Gamer Benq 24.5 Polegadas, Mobiuz Ex2510, FULL HD, Ips, HDMI,displayport, Freesync, Hdr, Som Integrado, 144hz, 1ms, Dark Grey - 9h.ljjla.tbl</t>
+  </si>
+  <si>
+    <t>O EX2510 possui os recursos que você sempre sonhou. é um monitor gamer com a tecnologia HDRi, proprietária da BenQ, que otimiza imagens para melhorar suas cores, contraste e detalhes. Além disso, o áudio do treVolo envolve você completamente. Viva intensamente o jogo com o MOBIUZ EX2510. Saia da rotina e expanda sua realidade, com 144Hz, 1ms MPRT (tempo de resposta de imagem em movimento) e AMD FreeSync Premium os desfoques são reduzidos. A visualização do painel IPS permite cores impressionantes de qualquer ângulo. O HDRi mostra detalhes imersivos, com um sensor discreto que detecta os níveis de luz ambiente, os avalia e ajusta as imagens HDR na tela, para que você veja todos os detalhes. Desempenho de cor personalizado, contraste de detalhes e clareza de imagem para maior intensidade. Um sensor praticamente invisível detecta a luz ambiente e o conteúdo da tela, ajustando a exibição para apresentar a melhor imagem possível. O HDRi da BenQ melhora o contraste e a clareza das imagens para exibir mais detalhes. Em cantos mais escuros é possível ver o que tentam esconder, enquanto as áreas mais claras também não são superexpostas. O HDRi leva as cores a um outro nível de intensidade. O equilíbrio de cor e a saturação são adaptados para uma experiência visual surpreendente..O HDRi leva as cores a um outro nível de intensidade. O equilíbrio de cor e a saturação são adaptados para uma experiência visual surpreendente. Ganhe vantagem auditiva. Mudamos as regras de áudio, para nâo ser mais uma fuga para imagens estrelares. O monitor EX2510 possui dois alto-falantes de 2.5W e um DSP (Digital Signal Processor) com três modos de som personalizados. Selecione a configuração de áudio adequada ao seu cenário para imersão total. O DSP e os alto-falantes oferecem profundidade, emoção e intensidade como nunca antes visto. EX2510, ouvir para acreditar.</t>
+  </si>
+  <si>
     <t>Monitor Gamer Redragon Mirror, Tela de 27 Polegadas FHD, 165HZ, LED, HDMI - GM27X5IPS</t>
   </si>
   <si>
     <t>Características:&lt;br /&gt; - marca: redragon&lt;br /&gt; - modelo: gm27x5ips&lt;br /&gt; especificações:&lt;br /&gt; - cor: preto&lt;br /&gt; - tamanho: 27”&lt;br /&gt; - resolução: 1920 x 1080 16:9&lt;br /&gt; - tipo de painel: ips&lt;br /&gt; - taxa de atualização: 165 hz&lt;br /&gt; - número de cores: 16.7 m&lt;br /&gt; - brilho máximo: 250cd/m2 (typical)&lt;br /&gt; - taxa de contraste: 1000:1&lt;br /&gt; - conectividade: dp 1.2 x1, hdmi 1.4 x2, dc in x1&lt;br /&gt; - power range: 100-240v 50/60hz&lt;br /&gt; - tempo de resposta: 1ms&lt;br /&gt; - peso bruto(g): 5900g&lt;br /&gt; - peso liquido(g): 4200g&lt;br /&gt; conteúdo da embalagem:&lt;br /&gt; - monitor gamer redragon</t>
   </si>
   <si>
+    <t>Monitor Gamer Cooler Master, 27 Polegadas, Ultra Speed IPS UHD, 160HZ, 1MS - GP27-FUS</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;monitor cooler master gamer 27" ultra speed ips 2k uhd 3840x2160 160hz 1ms - gp27-fus&lt;/b&gt;&lt;br /&gt;&lt;br /&gt;experimente o pr&amp;oacute;ximo n&amp;iacute;vel de agilidade e qualidade de imagem com o monitor gamer cooler master gp27-fus. Este monitor de 27 polegadas apresenta uma tela plana ips de ultravelocidade, oferecendo uma resolu&amp;ccedil;&amp;atilde;o espetacular de 3840x2160 (2k uhd) para imagens incrivelmente n&amp;iacute;tidas. Com uma taxa de atualiza&amp;ccedil;&amp;atilde;o de 160hz e um tempo de resposta ultrarr&amp;aacute;pido de 1ms, voc&amp;ecirc; desfrutar&amp;aacute; de jogos suaves e sem atrasos. O cooler master gp27-fus &amp;eacute; mais do que apenas desempenho excepcional - seu design &amp;eacute; uma obra de arte. Com o anel halo como base do suporte, este monitor oferece um toque de eleg&amp;acirc;ncia &amp;agrave; sua configura&amp;ccedil;&amp;atilde;o. Se voc&amp;ecirc; valoriza uma est&amp;eacute;tica limpa e discreta, os monitores da s&amp;eacute;rie tempest mini led s&amp;atilde;o a escolha ideal. O gp27-fus &amp;eacute; equipado com tecnologia de ponta. Seu painel ips de ultravelocidade oferece &amp;acirc;ngulos de vis&amp;atilde;o amplos e cores vibrantes, com suporte para 1.07 bilh&amp;atilde;o de cores. Al&amp;eacute;m disso, o monitor &amp;eacute; compat&amp;iacute;vel com as tecnologias adaptive sync, freesync e g-sync, proporcionando uma experi&amp;ecirc;ncia de jogo suave e livre de rasgos.&lt;br /&gt;&lt;br /&gt;&lt;b&gt;caracter&amp;iacute;sticas monitor 27" cooler master gamer ips 2k uhd 3840x2160 160hz 1m&lt;/b&gt;&lt;br /&gt;- marca: cooler master&lt;br /&gt;- modelo: gp27-fus&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Gigabyte, 27 Polegadas, QHD, Ips M27q X-sa, 1ms, 165HZ, HDMI, DP, USB</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;monitor gamer m27q x-sa gigabyte 27" qhd ips 165hz 1ms hdmi dp usb&lt;/b&gt;&lt;/p&gt;&lt;p&gt;&lt;br /&gt;o monitor gamer oferece desempenho de alto n&amp;iacute;vel e qualidade excepcional, tem um efeito sin&amp;eacute;rgico que melhora o desempenho dos componentes do pc, tornando-os essenciais para jogadores invis&amp;iacute;veis. O recurso kvm permite controlar v&amp;aacute;rios dispositivos com facilidade, gra&amp;ccedil;as ao bot&amp;atilde;o kvm exclusivo. Al&amp;eacute;m disso, a tecnologia superspeed ips reduz o tempo de resposta para 1ms, oferecendo cores espl&amp;ecirc;ndidas. Com alta resolu&amp;ccedil;&amp;atilde;o e taxa de atualiza&amp;ccedil;&amp;atilde;o r&amp;aacute;pida, o monitor proporciona uma experi&amp;ecirc;ncia de jogo detalhada e fluida. Sua apar&amp;ecirc;ncia simplificada reflete a filosofia de design da s&amp;eacute;rie de jogos gigabyte, com suporte robusto e acabamento fosco para funcionalidade e est&amp;eacute;tica aprimoradas.&lt;/p&gt;&lt;p&gt;&lt;br /&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
     <t>Monitor Gamer 27 Polegadas, 240hz Curvo FULL HD, HDMI/dp</t>
   </si>
   <si>
     <t>Caracteristicas:  - marca: primetek  - modelo: 27c1h  se você está procurando um monitor para jogos, nossas ofertas primetek te oferece uma ótima opção de modelo e um bom preço. Monitor gamer 27curvo 240hz dp/hdmi fhd primetek 27c1h que entrega imagens mais nítidas, levando sua experiência visual e seu foco no jogo para um novo nível.  especificações técnicas:  - tamanho 27´´ painel tipo va  - fonte do painel csot curva plana/ curva  - suporte hdr n resolução 1920 x 1080  - tipo de moldura moldura sem moldura 3 área de visualização da tela (a*v) (mm) 597,888 (a) x 336,312 (v) tipo de luz de fundo do painel e-led  - distância do pixel (a)(v) (mm) 0,1038(a) x 0,3114(v) brilho (nits) (máx.) 280 nits (min)  - taxa de contraste (típico) 3000:1 taxa de contraste dinâmico milhões  - ângulo de visão (h/v) 178°(h)/178°(v)  - profundidade de bits do painel 8 bits cores da tela 16,7m  - tempo de resposta do painel sem od 21ms tempo de resposta 8 ms (alta) taxa de atualização do painel (máx.) 240 hz taxa de atualização da tela (máx.) 48hz-240hz scaler pn hdmi 1.4 n/a faixa freesync n/a hdmi 2.0 2 faixa freesync 48-240 hz  - saída de áudio  - botão liga/desliga cinco botão osd cinco  - contracapa design rgb  - consumo de energia 25w tipo.,54w máx. Modo de economia de energia?0,5w modo de desligamento ?0,3w  - tipo de energia adaptador de energia fonte de alimentação 12v 4a  - acessorios: cabo de alimentação (1,5 m) 1 (1,5 m) cabo dp versão 1.2 qtd de cabo dp (1,5 m/1,8 m) 1 (1,5 m)  - temperatura da cor (fria, quente, usuário) controle de baixa luz azul modos de cenários dcr menu de idiomas 23 idiomas  - nenhum ajuste de luz de fundo intermitente sincronização adaptável freesync  - over drive fps/rts jogo mais pip/pbp qp efeito de luz laranja  - dimensão com suporte (l/a/p)(mm) 616,2x453,1x195,7 mm  - dimensão sem suporte (lxaxp)(mm) 616,2x367,2x96,3 mm  - dimensão da caixa (lxaxp)(mm) 699x169x440mm  - peso líquido (kg) 4,85kg  - peso bruto (kg) 6,72kg  - garantia 1 ano &lt;br&gt;&lt;br&gt;&lt;strong&gt;especificações técnicas&lt;/strong&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;marca:&lt;/strong&gt; primetek&lt;br&gt;&lt;strong&gt;modelo:&lt;/strong&gt; 25c1h&lt;br&gt;&lt;strong&gt;tamanho da tela:&lt;/strong&gt; 25</t>
   </si>
   <si>
+    <t>Monitor Gamer Gigabyte, 31,5 Polegadas, QHD, Curvo, 165hz, HDMI e DisplayPort - G32qc A</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;monitor gigabyte 31,5" gamer curvo 165hz premium pro g32qc a&lt;/b&gt;&lt;/p&gt;&lt;p&gt;obtenha a vantagem competitiva que voc&amp;ecirc; precisa com o monitor gamer gigabyte g32qc a e desfrute de jogos fluidos, imagens impressionantes e imers&amp;atilde;o total em cada partida!&lt;/p&gt;&lt;p&gt;o monitor gamer gigabyte g32qc a foi projetado para proporcionar uma experi&amp;ecirc;ncia de jogo extraordin&amp;aacute;ria. Com uma tela curva de 31,5 polegadas e curvatura 1500r, ele envolve seu campo de vis&amp;atilde;o, mergulhando voc&amp;ecirc; em uma experi&amp;ecirc;ncia imersiva. A resolu&amp;ccedil;&amp;atilde;o qhd de 2560x1440 pixels oferece uma qualidade de imagem n&amp;iacute;tida e detalhada, trazendo seus jogos &amp;agrave; vida. A taxa de atualiza&amp;ccedil;&amp;atilde;o de 165 hz e o tempo de resposta de 1 ms (mprt) garantem que cada movimento seja exibido de forma suave e responsiva, sem borr&amp;otilde;es ou arrastos. A tecnologia amd freesync sincroniza a taxa de atualiza&amp;ccedil;&amp;atilde;o do monitor com a placa de v&amp;iacute;deo, eliminando cortes e travamentos, proporcionando uma jogabilidade fluida e sem interrup&amp;ccedil;&amp;otilde;es. Al&amp;eacute;m disso, o monitor gamer gigabyte g32qc a oferece um design ergon&amp;ocirc;mico que pode ser ajustado em altura, permitindo encontrar a posi&amp;ccedil;&amp;atilde;o mais confort&amp;aacute;vel para suas sess&amp;otilde;es de jogo prolongadas. Ele tamb&amp;eacute;m possui modos de exibi&amp;ccedil;&amp;atilde;o pr&amp;eacute;-definidos, permitindo personalizar as configura&amp;ccedil;&amp;otilde;es de imagem de acordo com suas prefer&amp;ecirc;ncias. Com as conex&amp;otilde;es hdmi e displayport, voc&amp;ecirc; pode conectar facilmente seus dispositivos, aproveitando a melhor qualidade de imagem e o desempenho excepcional do monitor. O recurso flicker-free reduz o cansa&amp;ccedil;o visual, proporcionando uma experi&amp;ecirc;ncia confort&amp;aacute;vel durante horas de jogo. Al&amp;eacute;m disso, o modo low blue light reduz a emiss&amp;atilde;o de luz azul prejudicial, protegendo seus olhos durante longas sess&amp;otilde;es de jogo.&lt;/p&gt;&lt;p&gt;&lt;br /&gt;&lt;b&gt;caracter&amp;iacute;sticas monitor 31,5" gamer gigabyte g32qc a&lt;/b&gt;&lt;br /&gt;- marca: gigabyte&lt;br /&gt;- modelo: g32qc a&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Gigabyte 31.5 Polegadas, UHD, M32u Ae As Pivot, Vesa, 144HZ, HDMI, DP, USB Tipo-c</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;monitor gamer m32u ae as gigabyte 31,5&amp;rdquo; uhd 144hz vesa pivot hdmi dp usb tipo-c&lt;/b&gt;&lt;/p&gt;&lt;p&gt;&lt;br /&gt;o monitor gamer m32u eleva a experi&amp;ecirc;ncia de jogo profissional em 4k a um novo n&amp;iacute;vel, ele possui um bra&amp;ccedil;o de monitor ergon&amp;ocirc;mico vers&amp;aacute;til para uso em v&amp;aacute;rias configura&amp;ccedil;&amp;otilde;es de desktop, incluindo jogos de pc, console e streaming de m&amp;iacute;dia. Com um painel superspeed ips, oferece uma taxa de quadros de 144 hz, um tempo de resposta de 1 ms e excelente precis&amp;atilde;o de cores com profundidade de 10 bits e ampla gama de cores dci-p3 de 90%. Essa tecnologia ips de alta velocidade proporciona uma experi&amp;ecirc;ncia de entretenimento 4k impressionante, combinando alta resolu&amp;ccedil;&amp;atilde;o com uma taxa de atualiza&amp;ccedil;&amp;atilde;o r&amp;aacute;pida para uma qualidade de exibi&amp;ccedil;&amp;atilde;o detalhada e jogabilidade suave.&lt;/p&gt;&lt;p&gt;&lt;br /&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Husky 34 Polegadas QHD Ultrawide  3440x1440, 144Hz, Tempest Curvo - Adaptive Sync - Hgmt005</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Husky 34 Polegadas QHD Ultrawide 3440x1440, 144Hz, Tempest Curvo - Adaptive Sync - Hgmt005</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Cooler Master 27 Pol. Curvo, Full HD, 0.5MS, 240Hz, HDMI, Vesa - Gm27-Cfx</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;monitor gamer gm27-cfx cooler master full hd hdmi 1920x1080 vesa 240hz 27"&lt;/b&gt;&lt;/p&gt;&lt;p&gt;&lt;br /&gt;desfrute de uma experi&amp;ecirc;ncia envolvente com o painel curvo 1500r va de amplo campo de vis&amp;atilde;o que economiza espa&amp;ccedil;o no setup, reduz distor&amp;ccedil;&amp;otilde;es e proporciona conforto visual, oferecendo uma perspectiva verdadeiramente imersiva. A tecnologia de painel va, o gm27-cfx reduz significativamente os vazamentos de luz em toda a tela. Com contraste est&amp;aacute;tico de 3000:1, ele oferece pretos intensos e brancos luminosos, mesmo em cenas escuras ou claras. Aproveite uma taxa de atualiza&amp;ccedil;&amp;atilde;o incrivelmente alta e cores vibrantes e ricas proporcionadas pela tecnologia de painel de pontos qu&amp;acirc;nticos. Experimente visuais realistas em todos os tipos de conte&amp;uacute;do e jogos.&lt;/p&gt;&lt;p&gt;&lt;br /&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Monitor Gigabyte M32uc, 32 Polegadas, UHD 4k, Curvo, 160hz, 1ms, Srgb</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;strong&gt;o primeiro monitor 32" uhd 4k do mundo&lt;/strong&gt;&lt;br /&gt;com a alta curvatura e a rápida taxa de atualização, os monitores de jogos de gigabytes trazem uma experiência totalmente nova para a melhor experiência aprofundada de jogos imersivos. Os usuários podem realmente desfrutar de desempenho de luxo sem a necessidade de extravagância.&lt;/p&gt;&lt;p&gt;&lt;strong&gt;1ms de tempo de resposta&lt;/strong&gt;&lt;br /&gt;a tecnologia superspeed va reduz o tempo de resposta a 1ms mprt/2ms gtg para a experiência de jogo mais suave de todos os tempos!&lt;/p&gt;&lt;p&gt;&lt;strong&gt;uhd com 144hz (oc 160 hz para dp)&lt;/strong&gt;&lt;br /&gt;alta resolução e taxa de atualização rápida, oferecendo a qualidade detalhada da exibição e a experiência de jogos fluidos!&lt;/p&gt;&lt;p&gt;&lt;strong&gt;é claramente rápido&lt;/strong&gt;&lt;br /&gt;o superspeed é uma tecnologia de ponta em materiais de cristal líquido adotado pela gigabyte para aumentar o tempo de resposta até 4x mais rápido que a solução convencional.&lt;/p&gt;&lt;p&gt;&lt;strong&gt;simples, mas elegante&lt;/strong&gt;&lt;br /&gt;a aparência do streamline representa a simplicidade da filosofia de design da série gigabyte gaming, suporte resistente e acabamento fosco construído para características funcionais e estéticas, adicionando mais às características.&lt;/p&gt;&lt;p&gt; &lt;/p&gt;&lt;p&gt;&lt;strong&gt;especificações:&lt;/strong&gt;&lt;/p&gt;&lt;ul&gt;	&lt;li&gt;tipo: curvado&lt;/li&gt;	&lt;li&gt;tamanho do painel (diagonal): 31,5” ss va&lt;/li&gt;	&lt;li&gt;área de visualização de exibição (hxv)&lt;/li&gt;	&lt;li&gt;697.306 x 392.234 mm&lt;/li&gt;	&lt;li&gt;saturação de cores: 93% dci-p3, 123% srgb&lt;/li&gt;	&lt;li&gt;resolução: 3840 x 2160 (uhd)&lt;/li&gt;	&lt;li&gt;pitch de pixel: 0,181 (h) x 0,181 (v) mm&lt;/li&gt;	&lt;li&gt;brilho: 350 cd/m2 (typ)&lt;/li&gt;	&lt;li&gt;taxa de contraste: 3000: 1&lt;/li&gt;	&lt;li&gt;ângulo de visão: 178 ° (h)/178 ° (v)&lt;/li&gt;	&lt;li&gt;exibir cores: 8 bits&lt;/li&gt;	&lt;li&gt;tempo de resposta: 1ms mprt/2ms gtg&lt;/li&gt;	&lt;li&gt;taxa de atualização: 144 hz/oc 160 hz (com dp 1.4)&lt;/li&gt;	&lt;li&gt;freesync premium pro&lt;/li&gt;	&lt;li&gt;hdr&lt;/li&gt;	&lt;li&gt;vesa displayhdr400&lt;/li&gt;	&lt;li&gt;hbr3: sim&lt;/li&gt;	&lt;li&gt;tipo de energia: adaptador&lt;/li&gt;	&lt;li&gt;consumo de energia: 47w&lt;/li&gt;	&lt;li&gt;modo de economia de energia: 0,5w&lt;/li&gt;	&lt;li&gt;modo de desligamento de energia: 0,3w&lt;/li&gt;	&lt;li&gt;tensão: 19vdc, 4.74a&lt;/li&gt;	&lt;li&gt;ângulo de inclinaçao): -5 ° ~ +20 °&lt;/li&gt;	&lt;li&gt;ajuste da altura (mm): 100 mm&lt;/li&gt;	&lt;li&gt;montagem da parede vesa (mm): 100 x 100 mm&lt;/li&gt;	&lt;li&gt;kensington lock: sim&lt;/li&gt;	&lt;li&gt;dimensão com stand (wxhxd): 710,5*555*183,9 mm&lt;/li&gt;	&lt;li&gt;dimensão sem suporte (wxhxd): 710,5*423,3*100,5 mm&lt;/li&gt;	&lt;li&gt;dimensão da caixa (wxhxd): 925 (w)*570 (h)*198 (d) mm&lt;/li&gt;	&lt;li&gt;peso líquido com suporte (esti.): 7,8 kg&lt;/li&gt;	&lt;li&gt;peso líquido sem suporte (esti.): 5,5 kg&lt;/li&gt;	&lt;li&gt;peso bruto (esti.): 11,98 kg&lt;/li&gt;&lt;/ul&gt;&lt;p&gt;&lt;strong&gt;conectividade&lt;/strong&gt;&lt;/p&gt;&lt;ul&gt;	&lt;li&gt;2 x hdmi 2.1 (suporte 4k 144hz 4: 4: 4  dsc ativado ou 4k 144hz 4: 2: 0)&lt;/li&gt;	&lt;li&gt;1 x displayport 1.4&lt;/li&gt;	&lt;li&gt;1 x usb tipo c (modo alternativo porta a montante entrega de energia até 18w)&lt;/li&gt;	&lt;li&gt;3 x usb 3.2 portas a jusante&lt;/li&gt;	&lt;li&gt;1 x usb 3.2 porta a montante&lt;/li&gt;	&lt;li&gt;1 x fone de ouvido&lt;/li&gt;	&lt;li&gt;3w x 2&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
     <t>Monitor Gamer Goldentec, 24 Polegadas, LED, Full HD, 144hz, 1ms</t>
   </si>
   <si>
@@ -1066,7 +2413,7 @@
     <t>Monitor Gamer Grasep 27 Polegadas Led, FHD, HDMI, Som Integrado - 1920P</t>
   </si>
   <si>
-    <t>PRONTA ENTREGA&lt;br /&gt;3 meses de garantia com o vendedor!&lt;br /&gt;6 meses de garantia com o fabricante!&lt;br /&gt;&lt;br /&gt;Monitor PC Gamer Led Full HD Som integrado 27 pol 75Hz&lt;br /&gt;&lt;br /&gt;Eleve a qualidade visual do seu computador com este incrível monitor PC de alta definição. Projetado para oferecer uma experiência visual imersiva e nítida, este monitor é perfeito para trabalhar, jogar, assistir a filmes e muito mais.&lt;br /&gt;&lt;br /&gt;Com uma tela de alta resolução, cada detalhe ganha vida, proporcionando imagens vibrantes e cores realistas. Seja para editar fotos e vídeos, jogar seus games favoritos ou assistir a filmes em alta definição, este monitor oferece uma qualidade de imagem impressionante, com alto contraste e brilho intenso.&lt;br /&gt;&lt;br /&gt;Além disso, o monitor possui um tamanho de 27 polegadas para acomodar várias janelas e facilitar a multitarefa. Você poderá abrir e trabalhar em diferentes aplicativos ao mesmo tempo, aumentando sua produtividade e tornando seu fluxo de trabalho mais eficiente.&lt;br /&gt;&lt;br /&gt;Dimensões: 4x56x33cm&lt;br /&gt;Peso: 3.6kg&lt;br /&gt;&lt;br /&gt;Especificações:&lt;br /&gt;Tela: 27"&lt;br /&gt;Tipo: LED&lt;br /&gt;Resolução: 1920x1080&lt;br /&gt;IPS&lt;br /&gt;Tempo de resposta: 1ms&lt;br /&gt;Brilho máxima: 250cd/m&lt;br /&gt;Interfaces: HDMI/VGA/AUDIO IN&lt;br /&gt;Frequência horizontal: 67.200KHz&lt;br /&gt;Frequência vertical: 75Hz&lt;br /&gt;Consumo de potência: 35W&lt;br /&gt;Consumo Potência em Standby: 0,5&lt;br /&gt;Não possui som integrado&lt;br /&gt;Visão expansiva&lt;br /&gt;&lt;br /&gt;Itens Inclusos:&lt;br /&gt;1 Monitor 27&lt;br /&gt;1 Cabo DisplayPort&lt;br /&gt;1 Fonte AC/DC&lt;br /&gt;1 Manual</t>
+    <t>PRONTA ENTREGA&lt;br /&gt;&lt;br /&gt;3 meses de garantia com o vendedor!&lt;br /&gt;6 meses de garantia com o fabricante!&lt;br /&gt;&lt;br /&gt;Monitor PC Gamer Led Full HD Som integrado 27 pol 75Hz&lt;br /&gt;&lt;br /&gt;Eleve a qualidade visual do seu computador com este incrível monitor PC de alta definição. Projetado para oferecer uma experiência visual imersiva e nítida, este monitor é perfeito para trabalhar, jogar, assistir a filmes e muito mais.&lt;br /&gt;&lt;br /&gt;Com uma tela de alta resolução, cada detalhe ganha vida, proporcionando imagens vibrantes e cores realistas. Seja para editar fotos e vídeos, jogar seus games favoritos ou assistir a filmes em alta definição, este monitor oferece uma qualidade de imagem impressionante, com alto contraste e brilho intenso.&lt;br /&gt;&lt;br /&gt;Além disso, o monitor possui um tamanho de 27 polegadas para acomodar várias janelas e facilitar a multitarefa. Você poderá abrir e trabalhar em diferentes aplicativos ao mesmo tempo, aumentando sua produtividade e tornando seu fluxo de trabalho mais eficiente.&lt;br /&gt;&lt;br /&gt;Dimensões: 4x56x33cm&lt;br /&gt;Peso: 3.6kg&lt;br /&gt;&lt;br /&gt;Especificações:&lt;br /&gt;Tela: 27"&lt;br /&gt;Tipo: LED&lt;br /&gt;Resolução: 1920x1080&lt;br /&gt;IPS&lt;br /&gt;Tempo de resposta: 1ms&lt;br /&gt;Brilho máxima: 250cd/m&lt;br /&gt;Interfaces: HDMI/VGA/AUDIO IN&lt;br /&gt;Frequência horizontal: 67.200KHz&lt;br /&gt;Frequência vertical: 75Hz&lt;br /&gt;Consumo de potência: 35W&lt;br /&gt;Consumo Potência em Standby: 0,5&lt;br /&gt;Não possui som integrado&lt;br /&gt;Visão expansiva&lt;br /&gt;&lt;br /&gt;Itens Inclusos:&lt;br /&gt;1 Monitor 27&lt;br /&gt;1 Cabo DisplayPort&lt;br /&gt;1 Fonte AC/DC&lt;br /&gt;1 Manual</t>
   </si>
   <si>
     <t>Monitor Gamer Acer VG240Y FHD 165hz FreeSync ZeroFrame 0,5ms.</t>
@@ -1075,6 +2422,15 @@
     <t>A tecnologia AMDFreeSync Premium elimina a tela ?'rasgada', minimiza atrasos e latência durante os jogos, apresentando uma sincronização dos quadros do monitor muito mais eficiente. Sua experiência visual será mais suave, fluida e responsiva. O Nitro VG240Y conta com uma alta taxa de atualização de 144Hz até 165Hz. Prepare-se para ver imagens mais suaves, sem rastros e sem rasgos. Monitor é igual exp: quanto mais, melhor. Jogue com múltiplos monitores sem problemas, o design ZeroFrame praticamente elimina as bordas para que você tenha uma verdadeira imersão no jogo. Com Display Acer HDR, o VG240Y cria níveis mais profundos do contraste preto e branco. Nas cenas mais escuras, os pretos ricos são preservados e os detalhes aprimorados, gerando maior luminosidade. A tela de 23.8 polegadas IPS Full HD potencializa seu poder de imersão nas batalhas. A latência ultrabaixa deste monitor oferece respostas rápidas além das expectativas. Você terá controle total em jogos de corrida ou esporte, devido à redução do atraso de quadro. O tempo de resposta do Nitro é de 2ms até 0,5ms.</t>
   </si>
   <si>
+    <t>Monitor Gamer, Benq Mobiuz, Ex2510, 24.5, Inch, 144HZ, IPS, HDRI, 1080P, 1MS, Freesync Premium Speakers.</t>
+  </si>
+  <si>
+    <t>MONITOR GAMER BENQ MOBIUZ EX2510 24.5 INCH 144HZ IPS, HDRI, 1080P 1MS, FREESYNC PREMIUM SPEAKERS  Viva o jogo com MOBIUZ EX2510. Saia da rotina e expanda sua realidade. Este monitor de 144 Hz possui MPRT (Tempo de resposta de imagem em movimento) ultrarrápido de 1 ms e AMD FreeSync ™ Premium para minimizar desfoque e artefatos. A visualização de grande angular IPS mostra cores impressionantes de qualquer ângulo.</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Asus, Tuf Gaming, Led, 23.8", Wides, Freesync, 144hz</t>
+  </si>
+  <si>
     <t>Monitor Gamer 27 Asus Vg279q1r Tuf Gaming - Full Hd Ips - 144hz - 1ms - Freesync - Hdmi/displayport</t>
   </si>
   <si>
@@ -1084,7 +2440,35 @@
     <t>Monitor Goldentec, 24" Led Gt Gamer Fhd, Hdmi, 75hz</t>
   </si>
   <si>
+    <t>Monitor Gamer BenQ, 23.8 Polegadas, FULL HD, 61-80HZ, HDMI/VGA, LED, Black - Gw2480</t>
+  </si>
+  <si>
+    <t>Monitor Gamer BenQ, 23.8", Led, Black - Gw2480</t>
+  </si>
+  <si>
     <t>Monitor Gamer Bluecase, 21.5" Full HD, 75Hz, Rako - BM221GW</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Gigabyte 23.8 Full Hd Ips 170hz 1ms G24fsa</t>
+  </si>
+  <si>
+    <t>JUNTE-SE À LUTA Com o Monitor Gamer G24F da Gigabyte com 1ms de tempo de resposta, freesync premium, 165 Hz (170 Hz OC) e com uma taxa de cor de 8 bits, 90% DCI-P3 A ÚLTIMA MILHA PARA O SEU SISTEMA DE JOGO! Como um jogador invisível, o monitor é frequentemente subestimado. A verdade é que os monitores se formam como um efeito sinérgico e trazem o melhor desempenho dos componentes do PC. Os monitores de jogos GIGABYTE oferecem as últimas especificações e qualidade, os usuários podem realmente desfrutar de um desempenho de alto nível sem a necessidade de extravagância. Tempo de resposta super rápido de 1 ms para a experiência de jogo mais suave de todos os tempos! FHD com 165 Hz (OC 170 Hz) Alta resolução e taxa de atualização rápida, proporcionando qualidade de exibição detalhada e experiência de jogo fluida! Cor de 8 bits, 90% DCI-P3 Fantástico visor a cores e 90% de cores DCI-P3 de gama super ampla. SIMPLES MAS ESTILOSO A aparência aerodinâmica, representa a simplicidade da filosofia de design da série de jogos GIGABYTE. Suporte robusto e acabamento fosco construído para características funcionais e estéticas adicionando mais características. OSD Sidekick GIGABYTE permite que você defina as opções de exibição com teclado e mouse, oferecendo a maneira mais fácil de ajustar as configurações do monitor. ÂNGULO DE VISÃO PERFEITO O monitor de jogos GIGABYTE possui um suporte exclusivo ergonomicamente projetado para oferecer uma ampla gama de ajustes de altura e inclinação.</t>
+  </si>
+  <si>
+    <t>Monitor Gamer LG UltraGear LG 34" Curvo LED WQHD, UltraWide, 160Hz, 1ms, DisplayPort e HDMI, AMD FreeSync Premium, HDR10, 99% sRGB - 34GP63A-B</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Monitor Gamer LG 34&lt;/h2&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;Se voc&amp;ecirc; est&amp;aacute; buscando uma experi&amp;ecirc;ncia imersiva nos mais variados tipos de jogos como estrat&amp;eacute;gia, &lt;strong&gt;RPS&lt;/strong&gt;, corrida, esse monitor &amp;eacute; ideal para voc&amp;ecirc;. Com a tela em resolu&amp;ccedil;&amp;atilde;o &lt;strong&gt;QHD UltraWide (resolu&amp;ccedil;&amp;atilde;o 3440x1440)&lt;/strong&gt;, voc&amp;ecirc; ganha 30% a mais de &amp;aacute;rea de tela e assim n&amp;atilde;o perde nenhum detalhe do jogo. E mais, o modelo ainda conta com o som est&amp;eacute;reo 7W com &lt;strong&gt;MaxxAudio&lt;/strong&gt;. Al&amp;eacute;m disso, com a tela na propor&amp;ccedil;&amp;atilde;o 21:9 voc&amp;ecirc; tamb&amp;eacute;m ganha mais produtividade, j&amp;aacute; que pode acessar dois conte&amp;uacute;dos simultaneamente na mesma tela, podendo assim jogar e stremar ou trabalhar ao mesmo tempo.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Taxa de Atualiza&amp;ccedil;&amp;atilde;o&lt;/h2&gt;
+&lt;p&gt;O monitor possui &lt;strong&gt;160Hz&lt;/strong&gt; o que garante uma jogabilidade incr&amp;iacute;vel durante a transi&amp;ccedil;&amp;atilde;o de quadros dos jogos. Com o&lt;strong&gt; tempo de resposta de 1ms&lt;/strong&gt; (MBR), voc&amp;ecirc; ir&amp;aacute; notar como o seu monitor se torna mais responsivo aos seus comandos.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Recursos&lt;/h2&gt;
+&lt;p&gt;Gamer para te dar ainda mais vantagem enquanto joga como o &lt;strong&gt;AMD FreeSync Premium&lt;/strong&gt;, Black Stabilizer, Crosshair, Dynamic Action Sync e &lt;strong&gt;Motion Blur Reduction&lt;/strong&gt;.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h3&gt;Compre agora no KaBuM!&lt;/h3&gt;</t>
   </si>
   <si>
     <t>Monitor Gamer Husky Storm 27' LED, Curvo, 165 Hz, Full HD, 1ms, Adaptive Sync, HDMI/DisplayPort, Ajuste de Ângulo - HGMT001</t>
@@ -1155,18 +2539,42 @@
 &lt;h3&gt;Compre agora no KaBuM!&lt;/h3&gt;</t>
   </si>
   <si>
-    <t>Monitor Gamer Husky 700  27 LED, Curvo Wide, WQHD, 165Hz, 1ms, HDMI e DisplayPort, Adaptive Sync, VESA - HGMT008</t>
-  </si>
-  <si>
-    <t>&lt;h2&gt;Monitor Gamer Husky Gaming Storm 700&lt;/h2&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;N&amp;atilde;o precisa mais se perguntar qual monitor gamer comprar! A Husky Gaming ajuda voc&amp;ecirc; a &lt;strong&gt;atualizar seu setup&lt;/strong&gt;, seja para partidas no PC ou v&amp;iacute;deo game. Sempre oferecemos &lt;strong&gt;o melhor para voc&amp;ecirc;!&lt;/strong&gt;&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;Monitor Gamer Husky Gaming Storm 700 tem uma alta &lt;strong&gt;taxa de atualiza&amp;ccedil;&amp;atilde;o de 165 Hz&lt;/strong&gt; com &lt;strong&gt;tempo de resposta de 1 ms&lt;/strong&gt;, que possibilita um tempo de rea&amp;ccedil;&amp;atilde;o mais r&amp;aacute;pido para suas partidas insanas.&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;Sua&lt;strong&gt; tela curva Quad HD de 27"&lt;/strong&gt;, com&lt;strong&gt; resolu&amp;ccedil;&amp;atilde;o de 2560 x 1440P&lt;/strong&gt; que garante imagem mais n&amp;iacute;tida e detalhada. Proporcionando&lt;strong&gt; jogabilidade fluida&lt;/strong&gt;, &lt;strong&gt;sem distor&amp;ccedil;&amp;otilde;es&lt;/strong&gt; e uma &lt;strong&gt;experi&amp;ecirc;ncia mais imersiva&lt;/strong&gt; para voc&amp;ecirc; n&amp;atilde;o perder nenhum detalhe importante, do seu programa de esporte, filme, s&amp;eacute;rie ou jogo preferido.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h3&gt;Aproveite e garanta j&amp;aacute; o seu Monitor Gamer Husky Gaming Storm 700! no KaBuM!&lt;/h3&gt;</t>
+    <t>Monitor Gamer LG 32" UHD 4K, 144Hz, HDMI, DisplayPort, HDR10, AMD FreeSync Premium - 32UQ750-W</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Monitor LG UHD 4K 32UQ750-W&lt;/h2&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;Desfrute de&amp;nbsp;conte&amp;uacute;dos em uma resolu&amp;ccedil;&amp;atilde;o 4 vezes mais alta que o full HD. Gra&amp;ccedil;as ao &lt;strong&gt;DCI-P3 90%&lt;/strong&gt; (CIE1976) e ao espectro de 1 bilh&amp;atilde;o de cores e , voc&amp;ecirc; poder&amp;aacute; desfrutar de imagens muito mais claras e com detalhes impressionantes, proporcionando uma imers&amp;atilde;o visual muito mais v&amp;iacute;vida e realista.&lt;/p&gt;
+&lt;p&gt;Ideal para quem usa aplicativos gr&amp;aacute;ficos 3D ou assistentes financeiros para planilhas, o novo monitor &lt;strong&gt;LG UHD 4K&lt;/strong&gt; possui a combina&amp;ccedil;&amp;atilde;o perfeita para aplicativos profissionais que requerem &lt;strong&gt;precis&amp;atilde;o de cores e brilho&lt;/strong&gt; constante.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Ajustes&lt;/h2&gt;
+&lt;p&gt;S&amp;atilde;o diversos ajustes de posi&amp;ccedil;&amp;atilde;o como&amp;nbsp;&lt;strong&gt;inclina&amp;ccedil;&amp;atilde;o&lt;/strong&gt;,&amp;nbsp;&lt;strong&gt;altura&lt;/strong&gt;&amp;nbsp;e&amp;nbsp;&lt;strong&gt;rota&amp;ccedil;&amp;atilde;o&lt;/strong&gt;&amp;nbsp;oferecem mais conforto e ergonomia, principalmente para quem fica horas na frente do computador.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h3&gt;Compre agora no KaBuM!&lt;/h3&gt;</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Asus TUF 27' IPS, 280 Hz, Full HD, 1ms, G-Sync, HDR 400, 99% sRGB, HDMI/DisplayPort, Ajuste de Altura, Vesa, Som - VG279QM</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Monitor TUF Gaming VG279QM HDR 27 polegadas Full HD (1920 x 1080), Fast IPS, Overclockable 280 Hz, 1ms (GTG), ELMB SYNC, G-SYNC compat&amp;iacute;vel, DisplayHDR&lt;/h2&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Taxa de atualiza&amp;ccedil;&amp;atilde;o incrivelmente r&amp;aacute;pida de 280 Hz&lt;/h2&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;A impressionante &lt;strong&gt;taxa de atualiza&amp;ccedil;&amp;atilde;o de 280 Hz&lt;/strong&gt; com overclock significa que a tela &amp;eacute; quase duas vezes mais r&amp;aacute;pida que os monitores convencionais de 144 Hz. Voc&amp;ecirc; experimentar&amp;aacute; visuais de jogo incrivelmente fluidos, dando a voc&amp;ecirc; a vantagem em jogos de tiro em primeira pessoa, corrida, estrat&amp;eacute;gia em tempo real e t&amp;iacute;tulos de esportes.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;ASUS Fast IPS Display 1ms (GTG) Response Time&lt;/h2&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;O &lt;strong&gt;ASUS Fast IPS Display permite que os elementos de cristal l&amp;iacute;quido da tela mudem at&amp;eacute; 4X mais r&amp;aacute;pido&lt;/strong&gt; do que os pain&amp;eacute;is IPS convencionais para uma resposta melhorada. Com um tempo de resposta cinza a cinza de 1 ms, manchas e desfoque de movimento s&amp;atilde;o virtualmente eliminados. Esta tela tamb&amp;eacute;m oferece imagens superiores com cores excelentes gra&amp;ccedil;as &amp;agrave; &lt;strong&gt;gama de cores DCI-P3 de 95%&lt;/strong&gt; e uma taxa de contraste surpreendente de 1.000:1. &lt;strong&gt;Amplos &amp;acirc;ngulos de vis&amp;atilde;o de 178 graus&lt;/strong&gt; garantem distor&amp;ccedil;&amp;atilde;o e mudan&amp;ccedil;a de cor m&amp;iacute;nimas, mesmo quando voc&amp;ecirc; est&amp;aacute; vendo de posi&amp;ccedil;&amp;otilde;es extremas.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Certifica&amp;ccedil;&amp;atilde;o de compatibilidade NVIDIA G-SYNC e Xtreme Low Motion Blur Sync&lt;/h2&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;Com a tecnologia de taxa de atualiza&amp;ccedil;&amp;atilde;o vari&amp;aacute;vel (VRR) habilitada por padr&amp;atilde;o, voc&amp;ecirc; tem a garantia de experi&amp;ecirc;ncias de jogo perfeitas e sem problemas com sua placa de v&amp;iacute;deo NVIDIA GeForce GTX 10 ou NVIDIA GeForce RTX s&amp;eacute;rie 20. Com &lt;strong&gt;ELMB SYNC&lt;/strong&gt;, voc&amp;ecirc; pode habilitar ELMB &lt;strong&gt;(tecnologia low-motion-blur)&lt;/strong&gt; e &lt;strong&gt;Adaptive-sync&lt;/strong&gt; em simult&amp;acirc;neo, eliminando fantasmas e tearing para visuais n&amp;iacute;tidos e altas taxas de quadro durante o jogo.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;High Dynamic Range (HDR) com DisplayHDR 400&lt;/h2&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;A tecnologia HDR oferece uma gama de cores mais ampla e contraste mais alto do que os monitores tradicionais. Os brancos mais brilhantes e os pretos mais escuros revelam detalhes como nunca. A tela tamb&amp;eacute;m &lt;strong&gt;pode atingir a 400 cd/m&amp;sup2;&lt;/strong&gt;, atendendo aos rigorosos requisitos para &lt;strong&gt;certifica&amp;ccedil;&amp;atilde;o DisplayHDR 400&lt;/strong&gt;.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h3&gt;Adquira agora o seu monitor gamer da ASUS no KaBuM!.&lt;/h3&gt;</t>
   </si>
   <si>
     <t>Monitor Gamer Gigabyte, 27 QHD, 170Hz, 1ms, DisplayPort e HDMI, 108% sRGB, HDR, Adaptive-Sync - GS27QC SA</t>
@@ -1206,10 +2614,52 @@
 &lt;h3&gt;Seu Monitor Husky voc&amp;ecirc; encontra aqui no KaBuM!&lt;/h3&gt;</t>
   </si>
   <si>
+    <t>Monitor Gamer Acer Predator 27 Full HD, 280 Hz, 1ms, IPS, HDMI e DisplayPort, HDR, Ajuste de Altura, VESA, Som Integrado, G-Sync - XB273</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Monitor Gamer Acer Predator 27 Full HD&lt;/h2&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Taxa de atualiza&amp;ccedil;&amp;atilde;o de at&amp;eacute; 280 Hz (Modo Overclock)&lt;/h2&gt;
+&lt;p&gt;Com uma taxa de atualiza&amp;ccedil;&amp;atilde;o com overclock de 280Hz, os Monitores Predator reduzem o tempo necess&amp;aacute;rio para renderiza&amp;ccedil;&amp;atilde;o de quadros, menor atraso de entrada e proporcionam aos jogadores uma excelente experi&amp;ecirc;ncia no jogo.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Design ergon&amp;ocirc;mico&lt;/h2&gt;
+&lt;p&gt;O Acer Predator XB273 Gzbmiiprx possui um suporte de &lt;strong&gt;design ergon&amp;ocirc;mico&lt;/strong&gt; &lt;strong&gt;com inclina&amp;ccedil;&amp;atilde;o&lt;/strong&gt; de -5&amp;deg; a ~20&amp;deg;, rota&amp;ccedil;&amp;atilde;o de +/- 20&amp;deg;e ajuste de altura, para que voc&amp;ecirc; possa sempre encontrar a posi&amp;ccedil;&amp;atilde;o de visualiza&amp;ccedil;&amp;atilde;o ideal, podendo ser montado na parede (&lt;strong&gt;Padr&amp;atilde;o VESA&lt;/strong&gt;).&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Visual Response Boost (VRB)&lt;/h2&gt;
+&lt;p&gt;O tempo de resposta r&amp;aacute;pido de &lt;strong&gt;1 ms&lt;/strong&gt; melhora a experi&amp;ecirc;ncia do jogador. N&amp;atilde;o importa a a&amp;ccedil;&amp;atilde;o em movimento r&amp;aacute;pido ou quaisquer transi&amp;ccedil;&amp;otilde;es dram&amp;aacute;ticas, tudo ser&amp;aacute; reproduzido suavemente, sem os efeitos irritantes de manchas ou fantasmas.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Zero Frame&lt;/h2&gt;
+&lt;p&gt;Oferece um novo &lt;strong&gt;design de quadro zero&lt;/strong&gt;, remove virtualmente a caixa delimitadora da tela e oferece todas as imagens, prazer visual cont&amp;iacute;nuo.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h3&gt;Compre agora no KaBuM!&lt;/h3&gt;</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Husky 700  27 LED, Curvo Wide, WQHD, 165Hz, 1ms, HDMI e DisplayPort, Adaptive Sync, VESA - HGMT008</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Monitor Gamer Husky Gaming Storm 700&lt;/h2&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;N&amp;atilde;o precisa mais se perguntar qual monitor gamer comprar! A Husky Gaming ajuda voc&amp;ecirc; a &lt;strong&gt;atualizar seu setup&lt;/strong&gt;, seja para partidas no PC ou v&amp;iacute;deo game. Sempre oferecemos &lt;strong&gt;o melhor para voc&amp;ecirc;!&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;Monitor Gamer Husky Gaming Storm 700 tem uma alta &lt;strong&gt;taxa de atualiza&amp;ccedil;&amp;atilde;o de 165 Hz&lt;/strong&gt; com &lt;strong&gt;tempo de resposta de 1 ms&lt;/strong&gt;, que possibilita um tempo de rea&amp;ccedil;&amp;atilde;o mais r&amp;aacute;pido para suas partidas insanas.&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;Sua&lt;strong&gt; tela curva Quad HD de 27"&lt;/strong&gt;, com&lt;strong&gt; resolu&amp;ccedil;&amp;atilde;o de 2560 x 1440P&lt;/strong&gt; que garante imagem mais n&amp;iacute;tida e detalhada. Proporcionando&lt;strong&gt; jogabilidade fluida&lt;/strong&gt;, &lt;strong&gt;sem distor&amp;ccedil;&amp;otilde;es&lt;/strong&gt; e uma &lt;strong&gt;experi&amp;ecirc;ncia mais imersiva&lt;/strong&gt; para voc&amp;ecirc; n&amp;atilde;o perder nenhum detalhe importante, do seu programa de esporte, filme, s&amp;eacute;rie ou jogo preferido.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h3&gt;Aproveite e garanta j&amp;aacute; o seu Monitor Gamer Husky Gaming Storm 700! no KaBuM!&lt;/h3&gt;</t>
+  </si>
+  <si>
     <t>Monitor Gamer Gigabyte 27 IPS, QHD , 144Hz, 1ms, 120% sRGB, HDR 400, FreeSync Premium, Altura Ajustável - G27Q-SA</t>
   </si>
   <si>
     <t>JUNTE-SE À LUTA com o Monitor Gamer de 27" G27Q-SA da Gigabyte com 1ms de tempo de resposta, freesync premium, 144 Hz e com uma taxa de cor de 8 bits, 92% DCI-P3 A ÚLTIMA MILHA PARA O SEU SISTEMA DE JOGO Como um jogador invisível, o monitor é frequentemente subestimado. A verdade é que os monitores se formam como um efeito sinérgico e trazem o melhor desempenho dos componentes do PC. Os monitores de jogos GIGABYTE oferecem as últimas especificações e qualidade, os usuários podem realmente desfrutar de um desempenho de alto nível sem a necessidade de extravagância. Tempo de Resposta de 1 ms Tempo de resposta super rápido de 1 ms para a experiência de jogo mais suave de todos os tempos! QHD e 144Hz Alta resolução e taxa de atualização rápida, proporcionando qualidade de exibição detalhada e experiência de jogo fluida! Cor de 8 bits, 92% DCI-P3 Fantástico visor colorido e 92% de cores DCI-P3 de gama super ampla. SIMPLES MAS ESTILOSO A aparência aerodinâmica representa a simplicidade da filosofia de design da série de jogos GIGABYTE, suporte robusto e acabamento fosco construído para características funcionais e estéticas adicionando mais características. ÂNGULO DE VISÃO PERFEITO O monitor de jogos GIGABYTE possui um suporte exclusivo ergonomicamente projetado para oferecer uma ampla gama de ajustes de altura e inclinação.</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Gigabyte 27 Curvo QHD, 165Hz, 1ms, HDMI e DisplayPort, FreeSync, Altura Ajustável - G27QC-A</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Monitor Gamer Gigabyte 27&amp;acute; Curvo, QHD, HDMI/DisplayPort, FreeSync, 165Hz, 1ms, Altura Ajust&amp;aacute;vel&amp;nbsp;&lt;/h2&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;Os monitores Gamer GIGABYTE oferecem as &amp;uacute;ltimas especifica&amp;ccedil;&amp;otilde;es e qualidade, os usu&amp;aacute;rios podem realmente desfrutar de um desempenho de alto n&amp;iacute;vel sem a necessidade de extravag&amp;acirc;ncia. O painel 1500R VA de 27 polegadas apresenta uma vis&amp;atilde;o mais pr&amp;oacute;xima do olho humano do que um monitor plano, proporcionando uma sensa&amp;ccedil;&amp;atilde;o mais envolvente&lt;/p&gt;</t>
   </si>
   <si>
     <t>Monitor Gamer Acer 31.5 LED Full HD, Curvo, 165 Hz, 1ms, HDMI e DisplayPort, FreeSync Premium, VESA - ED320QR</t>
@@ -1238,16 +2688,151 @@
 &lt;h3&gt;Aproveite essa oportunidade e adquira seu Monitor Acer no KaBuM!&lt;/h3&gt;</t>
   </si>
   <si>
+    <t>Monitor Gamer Asus TUF 27' IPS, 165 Hz, 2K QHD, 1ms, FreeSync Premium, HDR 400, 130% sRGB, HDMI/DisplayPort, VESA, Som - VG27AQL1A</t>
+  </si>
+  <si>
+    <t>&lt;h2 style="text-align: justify;"&gt;Monitor Gamer TUF VG27AQL1A 27 polegadas WQHD (2560 x 1440), IPS, 170Hz (acima de 144Hz), ELMB SYNC, G-Sync compat&amp;iacute;vel, FreeSync Premium, 1ms (MPRT), 130% sRGB, HDR&lt;/h2&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p style="padding-left: 30px; text-align: justify;"&gt;O TUF Gaming VG27AQL1A &amp;eacute; um monitor HDR IPS WQHD (2560 x 1440) de 27 polegadas com uma &lt;strong&gt;taxa de atualiza&amp;ccedil;&amp;atilde;o ultrarr&amp;aacute;pida de 170Hz&lt;/strong&gt;. Projetado para gamers ou qualquer pessoa que busca uma jogabilidade envolvente, ele oferece especifica&amp;ccedil;&amp;otilde;es importantes.&lt;/p&gt;
+&lt;p style="text-align: justify;"&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p style="text-align: justify;"&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p style="padding-left: 30px; text-align: justify;"&gt;Mas tem mais o TUF Gaming tamb&amp;eacute;m apresenta a&lt;strong&gt; tecnologia exclusiva&lt;/strong&gt; ASUS &lt;strong&gt;Extreme Low Motion Blur Sync (ELMB SYNC)&lt;/strong&gt; permitindo que as tecnologias de redu&amp;ccedil;&amp;atilde;o de desfoque de movimento e sincroniza&amp;ccedil;&amp;atilde;o adaptativa sejam executadas simultaneamente para uma jogabilidade super suave.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Detalhes extremos e cores precisas&lt;/h2&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;ul&gt;
+&lt;li style="text-align: justify;"&gt;O &lt;strong&gt;painel WQHD (2560 x 1440)&lt;/strong&gt; do TUF Gaming VG27AQL1A oferece at&amp;eacute; 77% mais espa&amp;ccedil;o na tela do que as telas Full HD padr&amp;atilde;o (1920 x 1080). Gra&amp;ccedil;as &amp;agrave; tecnologia IPS integrada, ele fornece imagens superiores com cores excelentes em &lt;strong&gt;130% da&lt;/strong&gt; &lt;strong&gt;gama sRGB&lt;/strong&gt;, uma rela&amp;ccedil;&amp;atilde;o de contraste surpreendente de 1.000:1 e &lt;strong&gt;&amp;acirc;ngulos de vis&amp;atilde;o de 178&amp;deg;&lt;/strong&gt; com distor&amp;ccedil;&amp;atilde;o e mudan&amp;ccedil;a de cor m&amp;iacute;nimas.&lt;/li&gt;
+&lt;/ul&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Taxa de atualiza&amp;ccedil;&amp;atilde;o super r&amp;aacute;pida 170Hz&lt;/h2&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;ul&gt;
+&lt;li style="text-align: justify;"&gt;Uma taxa de atualiza&amp;ccedil;&amp;atilde;o impressionante de 170 Hz elimina o lag e o desfoque de movimento para dar a voc&amp;ecirc; vantagem em jogos de tiro em primeira pessoa, corrida, estrat&amp;eacute;gia em tempo real e t&amp;iacute;tulos de eSportes. Essa &lt;strong&gt;taxa de atualiza&amp;ccedil;&amp;atilde;o ultrarr&amp;aacute;pida&lt;/strong&gt; permite que voc&amp;ecirc; jogue nas configura&amp;ccedil;&amp;otilde;es visuais mais altas e reaja instantaneamente ao que est&amp;aacute; na tela.&lt;/li&gt;
+&lt;/ul&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h3&gt;Adquira agora o seu&amp;nbsp;&lt;a href="https://www.kabum.com.br/computadores/monitores/gamers" target="_blank"&gt;monitor gamer&lt;/a&gt; da ASUS no KaBuM!.&lt;/h3&gt;</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Gigabyte 27 2K QHD, 170Hz, 0.5ms, IPS, HDMI e DisplayPort, HDR, 140% sRGB, FreeSync Premium, VESA - M27Q-SA</t>
+  </si>
+  <si>
+    <t>&lt;h2 style="text-align: justify;"&gt;Monitor Gamer Gigabyte 27 2K QHD, 170Hz.&lt;/h2&gt;
+&lt;p style="text-align: justify;"&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p style="text-align: justify;"&gt;&lt;strong&gt;A &amp;Uacute;LTIMA MILHA PARA O SEU SISTEMA DE JOGO&lt;/strong&gt;&lt;/p&gt;
+&lt;p style="text-align: justify;"&gt;Como um jogador invis&amp;iacute;vel, o monitor costuma ser subestimado. &lt;strong&gt;A verdade &amp;eacute; que os monitores se formam como um efeito sin&amp;eacute;rgico e trazem o melhor desempenho dos componentes do PC&lt;/strong&gt;. Os monitores de jogos GIGABYTE oferecem as especifica&amp;ccedil;&amp;otilde;es e qualidade mais recentes, os usu&amp;aacute;rios podem realmente desfrutar de um desempenho de &lt;strong&gt;alto n&amp;iacute;vel sem a necessidade de extravag&amp;acirc;ncia.&lt;/strong&gt;&lt;/p&gt;
+&lt;p style="text-align: justify;"&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p style="text-align: justify;"&gt;&lt;strong&gt;O recurso KVM&lt;/strong&gt; permite controlar v&amp;aacute;rios dispositivos por meio de um conjunto de teclado, v&amp;iacute;deo e mouse.&lt;strong&gt; Com nosso bot&amp;atilde;o KVM&lt;/strong&gt; exclusivo, voc&amp;ecirc; descobrir&amp;aacute; que a troca de dispositivos n&amp;atilde;o pode ser mais f&amp;aacute;cil! R&amp;aacute;pido como um piscar de olhos!&lt;/p&gt;
+&lt;p style="text-align: justify;"&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p style="text-align: justify;"&gt;&lt;strong&gt;SIMPLES, MAS ESTILOSO&lt;/strong&gt;&lt;/p&gt;
+&lt;p style="text-align: justify;"&gt;A apar&amp;ecirc;ncia simplificada representa a simplicidade da filosofia de design &lt;strong&gt;da s&amp;eacute;rie de jogos GIGABYTE&lt;/strong&gt;, suporte robusto e acabamento fosco constru&amp;iacute;do para recursos funcionais e est&amp;eacute;ticos adicionando mais &amp;agrave;s caracter&amp;iacute;sticas.&lt;/p&gt;
+&lt;p style="text-align: justify;"&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h3 style="text-align: justify;"&gt;Compre agora no KaBuM!&amp;nbsp;&lt;/h3&gt;</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Gigabyte 32' IPS, 144 Hz, 4K UHD, 1ms, FreeSync Premium, HDR 400, 123% sRGB, HDMI/DisplayPort, Ajuste de Altura - M32U-SA</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Monitor Gamer Gigabyte 32' IPS, 144 Hz, 4K UHD, 1ms, FreeSync Premium, HDR 400, 123% sRGB, HDMI/DisplayPort, Ajuste de Altura&lt;/h2&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Tempo de resposta de 1 ms UHD com 144Hz e Cor de 10 bits&lt;/h2&gt;
+&lt;p&gt;A &lt;strong&gt;tecnologia SuperSpeed IPS&lt;/strong&gt; reduz o tempo de resposta para &lt;strong&gt;1ms;&lt;/strong&gt; enquanto isso, oferece a espl&amp;ecirc;ndida cor de grau IPS! &lt;strong&gt;Alta resolu&amp;ccedil;&amp;atilde;o e taxa de atualiza&amp;ccedil;&amp;atilde;o r&amp;aacute;pida&lt;/strong&gt;, oferecendo qualidade de exibi&amp;ccedil;&amp;atilde;o detalhada e experi&amp;ecirc;ncia de jogo fluida! Fant&amp;aacute;stica tela colorida e &lt;strong&gt;90% de cores DCI-P3&lt;/strong&gt; de gama super ampla.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Design Funcional&lt;/h2&gt;
+&lt;p&gt;par&amp;ecirc;ncia aerodin&amp;acirc;mica representa a simplicidade da filosofia de design da s&amp;eacute;rie de jogos GIGABYTE, suporte robusto e&lt;strong&gt; acabamento fosco&lt;/strong&gt; constru&amp;iacute;do para&lt;strong&gt; recursos funcionais e est&amp;eacute;ticos&lt;/strong&gt; adicionando mais &amp;agrave;s caracter&amp;iacute;sticas.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Ajustes de Cor Personaliz&amp;aacute;veis&amp;nbsp;&lt;/h2&gt;
+&lt;p&gt;Com a ajuda do &lt;strong&gt;Six Axis Control&lt;/strong&gt;, &amp;eacute; poss&amp;iacute;vel controlar seis cores (vermelho, verde, azul, ciano, magenta e amarelo) individualmente. Ele permite exibir com&lt;strong&gt; mais precis&amp;atilde;o a gama de cores&lt;/strong&gt; no monitor.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Ajuste no Campo de Vis&amp;atilde;o&lt;/h2&gt;
+&lt;p&gt;O monitor GIGABYTE Gaming possui um suporte exclusivo&lt;strong&gt; projetado ergonomicamente&lt;/strong&gt; para oferecer uma ampla variedade de ajustes de altura e inclina&amp;ccedil;&amp;atilde;o.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h3&gt;Aproveite essa oportunidade e adquira seu Monitor Gamer Gigabyte no KaBuM!&lt;/h3&gt;</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Gigabyte LED 31.5, QHD, Curvo, HDMI/DisplayPort, FreeSync, G-Sync, 165Hz, 1ms, HDR400, Altura Ajustável - G32QC-SA</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;JUNTE-SE &amp;Agrave; LUTA com o Monitor Gamer de 31,5" G32QC-SA da Gigabyte com 1ms de tempo de resposta, freesync premium, 165 Hz e com uma taxa de cor de 8 bits, 94% DCI-P3 A &amp;Uacute;LTIMA MILHA PARA O SEU SISTEMA DE JOGO Como um jogador invis&amp;iacute;vel, o monitor &amp;eacute; frequentemente subestimado. A verdade &amp;eacute; que os monitores se formam como um efeito sin&amp;eacute;rgico e trazem o melhor desempenho dos componentes do PC. Os monitores de jogos GIGABYTE oferecem as &amp;uacute;ltimas especifica&amp;ccedil;&amp;otilde;es e qualidade, os usu&amp;aacute;rios podem realmente desfrutar de um desempenho de alto n&amp;iacute;vel sem a necessidade de extravag&amp;acirc;ncia. SUA SENSA&amp;Ccedil;&amp;Atilde;O SUPERIMERSIVA NO JOGO! O painel 1500R VA de 31,5&amp;rdquo; apresenta uma vis&amp;atilde;o mais pr&amp;oacute;xima do olho humano do que um monitor plano, proporcionando uma sensa&amp;ccedil;&amp;atilde;o mais envolvente. Tempo de Resposta de 1 ms Tempo de resposta super r&amp;aacute;pido de 1 ms para a experi&amp;ecirc;ncia de jogo mais suave de todos os tempos! QHD com 165Hz Alta resolu&amp;ccedil;&amp;atilde;o e taxa de atualiza&amp;ccedil;&amp;atilde;o r&amp;aacute;pida, proporcionando qualidade de exibi&amp;ccedil;&amp;atilde;o detalhada e experi&amp;ecirc;ncia de jogo fluida! Cor de 8 bits, 94% DCI-P3 Fant&amp;aacute;stico visor colorido e 94% DCI-P3 de super ampla gama de cores. SIMPLES MAS ESTILOSO A apar&amp;ecirc;ncia aerodin&amp;acirc;mica representa a simplicidade da filosofia de design da s&amp;eacute;rie de jogos GIGABYTE, suporte robusto e acabamento fosco constru&amp;iacute;do para caracter&amp;iacute;sticas funcionais e est&amp;eacute;ticas adicionando mais caracter&amp;iacute;sticas. &amp;Acirc;NGULO DE VIS&amp;Atilde;O PERFEITO O monitor de jogos GIGABYTE possui um suporte exclusivo ergonomicamente projetado para oferecer uma ampla gama de ajustes de altura e inclina&amp;ccedil;&amp;atilde;o.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Samsung Odyssey G9 49 Curvo DQHD, 240Hz, 1ms, HDMI e DisplayPort, FreeSync Premium, Ajuste de Altura - LC49G95TSSLXZD</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Odyssey G9 com HDR1000: imagens impressionantes e brilho consistente para explorar os jogos com os melhores gr&amp;aacute;ficos. Uma experi&amp;ecirc;ncia de gameplay perfeita e suave com at&amp;eacute; quatro vezes mais frames por segundo que uma tela tradicional. Velocidade que faz a diferen&amp;ccedil;a entre a sua destrui&amp;ccedil;&amp;atilde;o ou a do seu inimigo no jogo. Design futurista e ilumina&amp;ccedil;&amp;atilde;o Infinity Core com mais de 50 combina&amp;ccedil;&amp;otilde;es de cores.Tudo pra deixar seu setup no maior estilo&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Curvo Concórdia 31.5" QHD R1500, 165Hz, 1ms, HDMI/DisplayPort, FreeSync, Ajuste de Altura, Som Integrado, Preto - C315Q</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Monitor Conc&amp;oacute;rdia Gamer Curvo C315Q 31,5'' ,2K, WQHD, 165hz, 1ms, 2 HDMI, DP, Ajuste de Altura e Rota&amp;ccedil;&amp;atilde;o&lt;/h2&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Curvatura Imersiva de 31,5 Polegadas&lt;/h2&gt;
+&lt;p&gt;O painel WQHD (2560 X 1440) de 31,5 polegadas do Monitor Conc&amp;oacute;rdia Gamer Curvo C315Q oferece visuais impressionantes de todos os &amp;acirc;ngulos com uma curvatura de 1500R que garante que cada ponto seja igualmente visto aos seus olhos. Isso contribui para um maior conforto de visualiza&amp;ccedil;&amp;atilde;o - mesmo durante o uso prolongado - e permite que voc&amp;ecirc; aproveite um amplo &amp;acirc;ngulo de visualiza&amp;ccedil;&amp;atilde;o com menos distor&amp;ccedil;&amp;atilde;o e mudan&amp;ccedil;a de cor ao jogar e assistir filmes.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Taxa de Atualiza&amp;ccedil;&amp;atilde;o de 165Hz&lt;/h2&gt;
+&lt;p&gt;A taxa de atualiza&amp;ccedil;&amp;atilde;o do Monitor Conc&amp;oacute;rdia Gamer Curvo C315Q diminui o atraso e o desfoque de movimento para dar a voc&amp;ecirc; vantagem todos os tipos de jogos.&amp;nbsp; Essa taxa de atualiza&amp;ccedil;&amp;atilde;o ultrarr&amp;aacute;pida permite que voc&amp;ecirc; jogue com as configura&amp;ccedil;&amp;otilde;es visuais mais altas e reaja instantaneamente ao que est&amp;aacute; na tela - para que voc&amp;ecirc; obtenha o primeiro ataque.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Design Ergon&amp;ocirc;mico&lt;/h2&gt;
+&lt;p&gt;Com um suporte ergonomicamente projetado, o Monitor Conc&amp;oacute;rdia Gamer Curvo C315Q oferece inclina&amp;ccedil;&amp;atilde;o, rota&amp;ccedil;&amp;atilde;o e giro da tela de 180&amp;deg; para que voc&amp;ecirc; possa encontrar facilmente sua posi&amp;ccedil;&amp;atilde;o de visualiza&amp;ccedil;&amp;atilde;o ideal.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Gigabyte 27´, QHD, HDMI/Displayport, 170Hz, 0.5 ms, Altura e Angula Ajustável -  KVM - M27Q-SA.</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Monitor Gamer Gigabyte 27&amp;acute;&lt;/h2&gt;
+&lt;p&gt;A verdade &amp;eacute; que os monitores formam um efeito sin&amp;eacute;rgico e proporcionam o melhor desempenho dos componentes do PC. Os &lt;strong&gt;monitores de jogos GIGABYTE&lt;/strong&gt; oferecem as &amp;uacute;ltimas especifica&amp;ccedil;&amp;otilde;es e qualidade, os usu&amp;aacute;rios podem realmente desfrutar de um &lt;strong&gt;desempenho de alto n&amp;iacute;vel&lt;/strong&gt; sem a necessidade de extravag&amp;acirc;ncia. O &lt;strong&gt;recurso KVM&lt;/strong&gt; permite controlar v&amp;aacute;rios dispositivos por meio de um conjunto de teclado, v&amp;iacute;deo e mouse. Com nosso &lt;strong&gt;bot&amp;atilde;o KVM exclusivo&lt;/strong&gt;, voc&amp;ecirc; descobrir&amp;aacute; que a troca de dispositivos n&amp;atilde;o pode ser mais f&amp;aacute;cil!&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;R&amp;aacute;pido como um estalo! 170Hz para ver cada movimento&lt;/h2&gt;
+&lt;p&gt;A &lt;strong&gt;tecnologia SuperSpeed IPS&lt;/strong&gt; reduz o &lt;strong&gt;tempo de resposta para 0,5 ms&lt;/strong&gt;; entretanto, oferece uma cor espl&amp;ecirc;ndida de grau IPS! Alta resolu&amp;ccedil;&amp;atilde;o e taxa de atualiza&amp;ccedil;&amp;atilde;o r&amp;aacute;pida, proporcionando qualidade de exibi&amp;ccedil;&amp;atilde;o detalhada e experi&amp;ecirc;ncia de jogo fluida! Fant&amp;aacute;stico visor a cores e&lt;strong&gt; 92% DCI-P3&lt;/strong&gt; de cores de gama super ampla. A apar&amp;ecirc;ncia aerodin&amp;acirc;mica representa a simplicidade da filosofia de design da s&amp;eacute;rie de jogos &lt;strong&gt;GIGABYTE&lt;/strong&gt;, suporte robusto e acabamento fosco constru&amp;iacute;do para caracter&amp;iacute;sticas funcionais e est&amp;eacute;ticas adicionando mais caracter&amp;iacute;sticas.&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Como jogador invis&amp;iacute;vel, o monitor costuma ser subestimado.&amp;nbsp;&lt;/h2&gt;
+&lt;p&gt;&lt;strong&gt;GIGABYTE OSD Sidekick&lt;/strong&gt; permite que voc&amp;ecirc; defina as op&amp;ccedil;&amp;otilde;es de exibi&amp;ccedil;&amp;atilde;o com teclado e mouse, oferecendo a maneira mais f&amp;aacute;cil de &lt;strong&gt;ajustar as configura&amp;ccedil;&amp;otilde;es do monitor.&lt;/strong&gt; GIGABYTE OSD Sidekick permite que voc&amp;ecirc; defina as op&amp;ccedil;&amp;otilde;es de exibi&amp;ccedil;&amp;atilde;o com teclado e mouse, oferecendo a maneira mais f&amp;aacute;cil de ajustar as configura&amp;ccedil;&amp;otilde;es do monitor. O painel revela suas &lt;strong&gt;informa&amp;ccedil;&amp;otilde;es de hardware em tempo real&lt;/strong&gt;, incluindo voltagens da CPU, velocidade do clock, temperaturas, etc. A melhor parte &amp;eacute; que ele n&amp;atilde;o ser&amp;aacute; bloqueado por nenhum jogo. O painel revela suas informa&amp;ccedil;&amp;otilde;es de hardware em tempo real, incluindo voltagens da CPU, velocidade do clock, temperaturas, etc.&lt;/p&gt;
+&lt;h3&gt;&amp;nbsp;&lt;/h3&gt;
+&lt;h3&gt;Garanta j&amp;aacute; seu Monitor Gamer Gigabyte aqui no KaBuM!&lt;/h3&gt;</t>
+  </si>
+  <si>
     <t>Monitor Gamer Samsung 22' IPS, 75 Hz, Full HD, FreeSync, HDMI/VGA, VESA -  LF22T350FHLMZD</t>
   </si>
   <si>
     <t>&lt;p&gt;Monitor Gamer Samsung LED 22, IPS, Full HD, Vesa, Free Sync, Modo Gaming, Preto Vis&amp;atilde;o totalmente expansiva Design minimalista, concentra&amp;ccedil;&amp;atilde;o m&amp;aacute;xima. A tela com 3 lados sem borda traz uma est&amp;eacute;tica limpa e moderna para qualquer ambiente de trabalho. Em um setup com v&amp;aacute;rios monitores, se alinham perfeitamente para uma visualiza&amp;ccedil;&amp;atilde;o praticamente sem espa&amp;ccedil;os e sem distra&amp;ccedil;&amp;otilde;es. Imagens perfeitas e suaves Agora, a imagem &amp;eacute; reproduzida sem falhas. A taxa de atualiza&amp;ccedil;&amp;atilde;o de 75Hz oferece cenas mais fluidas. Seu momento de divers&amp;atilde;o n&amp;atilde;o tem lag ou efeito fantasma, quer voc&amp;ecirc; esteja acompanhando seu programa de TV favorito, assistindo a um v&amp;iacute;deo ou jogando um jogo. A&amp;ccedil;&amp;atilde;o Sincronizada Experi&amp;ecirc;ncia de entretenimento super fluida. AMD Radeon FreeSync mant&amp;eacute;m a taxa de atualiza&amp;ccedil;&amp;atilde;o do monitor e da placa gr&amp;aacute;fica em sincronia para reduzir a quebra de imagem. Assista a filmes e jogue sem interrup&amp;ccedil;&amp;otilde;es. At&amp;eacute; mesmo as cenas r&amp;aacute;pidas s&amp;atilde;o perfeitas e suaves. Veja de qualquer &amp;acirc;ngulo Sente-se em qualquer lugar e tenha uma experi&amp;ecirc;ncia completa sem distor&amp;ccedil;&amp;atilde;o de cores. O painel IPS preserva a nitidez e a vivacidade das cores em cada cent&amp;iacute;metro da tela. Mesmo em uma tela t&amp;atilde;o ampla, os tons e sombras s&amp;atilde;o completamente precisos de praticamente qualquer &amp;acirc;ngulo, sem altera&amp;ccedil;&amp;atilde;o de cor. Mais poder de jogo As configura&amp;ccedil;&amp;otilde;es de jogo ideais proporcionam uma vantagem instant&amp;acirc;nea. Detecte inimigos escondidos nas sombras atrav&amp;eacute;s do contraste ideal, mais nitidez e cenas com cores mais vivas. O Modo de Jogo ajusta qualquer jogo para preencher sua tela visualizando todos os detalhes. Mais conforto para os olhos Proteja seus olhos e fa&amp;ccedil;a mais. A avan&amp;ccedil;ada tecnologia de conforto visual reduz a fadiga ocular para uma experi&amp;ecirc;ncia prolongada menos cansativa. A tecnologia Flicker Free remove continuamente a tremula&amp;ccedil;&amp;atilde;o cansativa e irritante da tela, enquanto o Eye Saver Mode minimiza a emiss&amp;atilde;o de luz azul. Seus olhos ficam descansados por mais tempo. Versatilidade de verdade Conecte-se a mais. Com as portas HDMI e D-sub, v&amp;aacute;rios dispositivos podem ser conectados diretamente ao seu monitor para total flexibilidade. Agora, seu ambiente de computa&amp;ccedil;&amp;atilde;o &amp;eacute; ainda mais conveniente com possibilidades de entrada adicionais.&lt;/p&gt;</t>
   </si>
   <si>
-    <t>Monitor Gamer AOC Agon 31.5' LED, Curvo, 165 Hz, Full HD, 1ms, FreeSync Premium, HDMI/DisplayPort, RGB Light FX - AG323FCXE</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Com tela de alta qualidade, amplo &amp;acirc;ngulo de vis&amp;atilde;o e comando em tempo real, prepare-se para obter uma experi&amp;ecirc;ncia muito mais imersiva em todos os g&amp;ecirc;neros de jogos. Projetado para gamers, o monitor Agon permite movimentos muito mais flu&amp;iacute;dos nos jogos devido a alt&amp;iacute;ssima taxa de atualiza&amp;ccedil;&amp;atilde;o de 165 Hz. O tempo de resposta de 1 ms proporciona movimentos instant&amp;acirc;neos e naturais para voc&amp;ecirc; ser o melhor, e com o painel VA, voc&amp;ecirc; tem mais brilho e contraste para enxergar onde os seus inimigos est&amp;atilde;o, mesmo em cenas com pouca ilumina&amp;ccedil;&amp;atilde;o. Al&amp;eacute;m disso, o design exclusivo com LEDs em diferentes configura&amp;ccedil;&amp;otilde;es de cores RGB deixam a sua maratona de jogos ainda mais emocionante.&lt;/p&gt;</t>
+    <t>Monitor Asus Rog Swift 32 LED, 144Hz, 1ms, IPS, HDMI e DisplayPort, 160% sRGB, HDR, G-Sync, Altura Ajustável, VESA - PG32UQR</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;ROG Swift PG32UQR HDMI 2.1 Gaming Monitor 32&amp;rdquo;, 4K UHD (3840 x 2160), IPS, 144 Hz, 1 ms MPRT, NVIDIA G-SYNC compat&amp;iacute;vel, DSC, ELMB Sync, Variable Overdrive, DisplayHDR 600, 98% DCI-P3 , Tecnologia Quantum-Dot, DisplayPort 1.4&lt;/h2&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;Monitor de jogos profissional IPS 4K UHD (3840 x 2160) de 32 polegadas com taxa de atualiza&amp;ccedil;&amp;atilde;o de 144 Hz para PC imersivo e jogos de console.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;O HDMI 2.1 suporta jogos nativos em 4K 120 Hz sem subamostragem de croma (4:4:4) no PlayStation 5 e Xbox Series X.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;O ASUS Extreme Low Motion Blur Sync (ELMB Sync) funciona simultaneamente com a tecnologia de taxa de atualiza&amp;ccedil;&amp;atilde;o vari&amp;aacute;vel para eliminar fantasmas e rasgos para visuais de jogos n&amp;iacute;tidos com altas taxas de quadros.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;Compat&amp;iacute;vel com NVIDIA G-SYNC e tecnologia Variable Overdrive exclusiva, oferece jogos perfeitos e sem rasgos.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;Tecnologia de alta faixa din&amp;acirc;mica (HDR) com conformidade DisplayHDR 600 combinada com 98% da gama de cores DCI-P3 garante contraste excepcional e desempenho de cor.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h3&gt;BATALHA PRONTA PARA JOGOS DE PR&amp;Oacute;XIMA GERA&amp;Ccedil;&amp;Atilde;O&lt;/h3&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;O ROG Swift PG32UQR &amp;eacute; um monitor de jogos profissional 4K UHD IPS de 32" projetado para jogos de 144 Hz. Ele apresenta o mais recente padr&amp;atilde;o HDMI 2.1 para oferecer suporte a visuais nativos de 4K 120 Hz nos consoles mais recentes sem sub-amostragem, e a tecnologia Display Stream Compression (DSC) e compat&amp;iacute;vel com NVIDIA G-SYNC permitem experi&amp;ecirc;ncias supersuaves em PCs. Uma gama de cores DCI P3 de 98% e certifica&amp;ccedil;&amp;atilde;o DisplayHDR 600 completam o pacote, garantindo cores excepcionais para jogos incrivelmente imersivos e realistas.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h3&gt;JOGOS DE PR&amp;Oacute;XIMA GERA&amp;Ccedil;&amp;Atilde;O COM HDMI 2.1&lt;/h3&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;- Taxa de atualiza&amp;ccedil;&amp;atilde;o nativa de 4K a 120 Hz nos consoles mais recentes.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;- HDMI 2.1 com largura de banda total de 48 Gbps.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;- Taxa de atualiza&amp;ccedil;&amp;atilde;o vari&amp;aacute;vel (VRR).&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;- Baixa lat&amp;ecirc;ncia autom&amp;aacute;tica.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h3&gt;TAXA DE ATUALIZA&amp;Ccedil;&amp;Atilde;O ULTRA-R&amp;Aacute;PIDA E TEMPO DE RESPOSTA&lt;/h3&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;Complementando a taxa de atualiza&amp;ccedil;&amp;atilde;o ultrarr&amp;aacute;pida de 144 Hz, o Swift PG32UQR oferece tempo de resposta de imagem em movimento (MPRT) quase instant&amp;acirc;neo de 1 ms para visuais suaves sem manchas e desfoque de movimento.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h3&gt;COMPAT&amp;Iacute;VEL COM NVIDIA G-SYNC CERTIFICADO&lt;/h3&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;O Swift PG32UQR oferece uma experi&amp;ecirc;ncia de jogo perfeita e sem rasgos, permitindo a tecnologia de taxa de atualiza&amp;ccedil;&amp;atilde;o vari&amp;aacute;vel como padr&amp;atilde;o nas placas gr&amp;aacute;ficas NVIDIA GeForce.&lt;/p&gt;</t>
   </si>
   <si>
     <t>Monitor Gamer LG Ultra Gear 27 Full HD, 144 Hz, 1ms, IPS, HDMI e DisplayPort, sRGB 99%, HDR10, FreeSync, VESA, Altura Ajustável - 27GL650F-B</t>
@@ -1318,16 +2903,254 @@
 &lt;p&gt;Compre no &lt;strong&gt;KaBuM!&lt;/strong&gt;&lt;/p&gt;</t>
   </si>
   <si>
+    <t>Monitor Gamer ASRock 34 LED QHD Curvo, 165Hz, 1ms, HDMI e DisplayPort, 115% sRGB, HDR 400, FreeSync Premium, VESA - PG34WQ15R2B</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Monitor Gamer ASRock 34 LED QHD Curvo, 165Hz, 1ms, HDMI e DisplayPort, 115% sRGB, HDR 400, FreeSync Premium, VESA - PG34WQ15R2B&lt;/h2&gt;
+&lt;p&gt;O monitor Phantom Gaming est&amp;aacute; equipado com uma antena Wi-Fi integrada.&amp;nbsp;Assim, o sinal Wi-Fi n&amp;atilde;o ser&amp;aacute; mascarado pela mesa.&amp;nbsp;Agora, conecte a antena Wi-Fi ao seu PC e aproveite os jogos sem lat&amp;ecirc;ncia!&lt;br /&gt;O monitor curvo Phantom Gaming adota curvatura 1500R que oferece uma maior sensa&amp;ccedil;&amp;atilde;o de cobertura.&amp;nbsp;Deixe os jogadores aproveitarem a jogabilidade com visual imersivo de todos os &amp;acirc;ngulos.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Recurso de jogo&lt;/h2&gt;
+&lt;p&gt;O monitor Phantom Gaming possui tecnologia Flicker-free que pode reduzir a cintila&amp;ccedil;&amp;atilde;o, minimizar a fadiga ocular e proporcionar uma experi&amp;ecirc;ncia de visualiza&amp;ccedil;&amp;atilde;o confort&amp;aacute;vel.&lt;br /&gt;Uma porta de exibi&amp;ccedil;&amp;atilde;o 1.4 suporta uma taxa de atualiza&amp;ccedil;&amp;atilde;o de at&amp;eacute; 165 Hz.&amp;nbsp;Duas portas HDMI 2.0 adicionais est&amp;atilde;o dispon&amp;iacute;veis para monitores secund&amp;aacute;rios e consoles compat&amp;iacute;veis.&amp;nbsp;Al&amp;eacute;m disso, os dois alto-falantes embutidos e uma sa&amp;iacute;da de fone de ouvido de 3,5 mm oferecem aos jogadores uma melhor experi&amp;ecirc;ncia de jogo.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Monitor Gamer AOC Agon 24.5' LED, Wide, 240 Hz, Full HD, 1ms, G-Sync, HDMI/DisplayPort, Ajuste de Altura - AG251FG</t>
+  </si>
+  <si>
+    <t>A maior e mais alta taxa de atualização do mercado gamer: 240Hz. Tempo de resposta de 1ms GTG: mais velocidade, sem efeitos fantasma.</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Asus 24.5' LED, Wide, 165 Hz, Full HD, 0.5ms, FreeSync, HDMI/DisplayPort, Ajuste de Altura, Vesa, Som Integrado - VG258QR</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Monitor Gaming VG258QR 24.5&amp;rdquo;, Full HD, 0.5ms, 165Hz (acima de 144Hz), G-SYNC, compat&amp;iacute;vel com G-SYNC, FreeSync Premium&lt;/h2&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;Monitor Gaming &lt;strong&gt;Full HD de 24.5 polegadas&lt;/strong&gt; com uma taxa de atualiza&amp;ccedil;&amp;atilde;o ultra-r&amp;aacute;pida de &lt;strong&gt;165Hz&lt;/strong&gt; e tecnologia Adaptive-Sync para eliminar tearing e taxas de quadros inst&amp;aacute;veis. &lt;strong&gt;Certificado como compat&amp;iacute;vel com G-SYNC, a tecnologia FreeSync Premium&lt;/strong&gt; oferece uma experi&amp;ecirc;ncia de jogo perfeita e sem problemas ao habilitar VRR (taxa de atualiza&amp;ccedil;&amp;atilde;o vari&amp;aacute;vel) por padr&amp;atilde;o. &lt;strong&gt;Tempo de resposta de 0.5ms&lt;/strong&gt; para uma jogabilidade suave e tecnologia &lt;strong&gt;ASUS Extreme Motion Blur (ELMB)&lt;/strong&gt; para reduzir ainda mais os fantasmas e a desfocagem de movimento.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;A Tecnologia GameFast Input minimiza o lag de entrada e fornece uma entrega de muito mais r&amp;aacute;pida dos dispositivos ao monitor&lt;/h2&gt;
+&lt;p&gt;Tecla de atalho &lt;strong&gt;GamePlus&lt;/strong&gt; exclusiva da ASUS para aprimoramentos no jogo e &lt;strong&gt;GameVisual&lt;/strong&gt; para recursos visuais otimizados. Suporta Adaptive-Sync com placas de v&amp;iacute;deo NVIDIA GeForce e &lt;strong&gt;FreeSync&lt;/strong&gt; com placas de v&amp;iacute;deo AMD Radeon. Compat&amp;iacute;vel com NVIDIA GeForce GTX s&amp;eacute;rie 10, GTX 16, RTX 20 e placas de v&amp;iacute;deo mais recentes.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Os recursos centrados no jogador, como o ASUS GamePlus, aprimoram sua experi&amp;ecirc;ncia no jogo, enquanto o GameVisual oferece v&amp;aacute;rios modos de exibi&amp;ccedil;&amp;atilde;o predefinidos para otimizar visuais para diferentes tipos de jogos&lt;/h2&gt;
+&lt;p&gt;Projetado para jogos intensos e de ritmo acelerado, o ASUS VG258QR &amp;eacute; um monitor de &lt;strong&gt;24.5" Full HD&lt;/strong&gt; com um tempo de resposta ultra-r&amp;aacute;pido de 0.5ms e uma intensa&lt;strong&gt; taxa de atualiza&amp;ccedil;&amp;atilde;o de 165Hz&lt;/strong&gt; para lhe proporcionar uma jogabilidade super-suave. O VG258QR apresenta a &lt;strong&gt;tecnologia Adaptive-Sync (FreeSync)&lt;/strong&gt; para eliminar a distor&amp;ccedil;&amp;atilde;o de tela e a taxa de quadros inst&amp;aacute;vel.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h3&gt;Adquira agora o seu monitor gamer da ASUS no KaBuM!.&lt;/h3&gt;</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Asus 27 LED, Wide, 165 Hz, Full HD, 0.5ms, Adaptive Sync, HDMI/DisplayPort, Ajuste de Altura, Vesa, Som Integrado - VG278QR</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Monitor Gaming ASUS VG278QR 27 polegadas, Full HD, 0,5 ms, 165Hz, compat&amp;iacute;vel com G-SYNC, FreeSync Premium&lt;/h2&gt;
+&lt;p&gt;Monitor Full HD de 27&amp;rdquo; com uma velocidade de &lt;strong&gt;atualiza&amp;ccedil;&amp;atilde;o de ultrarr&amp;aacute;pida de 165Hz&lt;/strong&gt; e &lt;strong&gt;tecnologia Adaptive-Sync&lt;/strong&gt; para eliminar tearing e taxas de quadros inst&amp;aacute;veis. Certificada como &lt;strong&gt;compat&amp;iacute;vel com G-SYNC, a tecnologia FreeSync Premium&lt;/strong&gt; oferece uma experi&amp;ecirc;ncia de jogo perfeita e sem problemas ao habilitar VRR (taxa de atualiza&amp;ccedil;&amp;atilde;o vari&amp;aacute;vel) por padr&amp;atilde;o. &lt;strong&gt;Tempo de resposta de 0.5ms&lt;/strong&gt; para uma jogabilidade mais suave e tecnologia ASUS Extreme Motion Blur (ELMB) para reduzir ainda mais os fantasmas e a desfocagem de movimento.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Tempo de resposta extremamente r&amp;aacute;pido com 0.5ms e com a tecnologia ASUS Extreme Low Motion Blur&lt;/h2&gt;
+&lt;p&gt;O ASUS VG278QR &amp;eacute; o monitor mais r&amp;aacute;pido da sua classe, com um &lt;strong&gt;tempo de resposta de 0.5ms&lt;/strong&gt; que elimina manchas e borr&amp;otilde;es de movimento. Isto te permite reagir instantaneamente ao que observa na tela, especialmente em jogos r&amp;aacute;pidos permitindo-lhe fazer curvas como um piloto de corridas profissional, ou obter aquele headshot como verdadeiro sniper. Disp&amp;otilde;e tamb&amp;eacute;m da &lt;strong&gt;Tecnologia ASUS Extreme Low Motion Blur (ELMB)&lt;/strong&gt; para tornar os objetos em movimento mais n&amp;iacute;tidos, para que a jogabilidade seja mais fluida e responsiva.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Tecnologia GameFast Input porque os milissegundos contam&lt;/h2&gt;
+&lt;p&gt;O input lag (atraso de entrada) em um monitor LCD &amp;eacute; tipicamente muito menor do que em uma TV, e o ASUS VG278QR possui a &lt;strong&gt;Tecnologia GameFast&lt;/strong&gt; Input para minimizar ainda mais o atraso de entrada. Essa tecnologia oferece uma entrega de movimento muito mais r&amp;aacute;pida, para que voc&amp;ecirc; sempre acompanhe a a&amp;ccedil;&amp;atilde;o no jogo no momento exato em que precisa responder o mais r&amp;aacute;pido poss&amp;iacute;vel.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h3&gt;Garanta j&amp;aacute; seu Monitor Gamer Asus aqui no KaBuM!&lt;/h3&gt;</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Asus 23.8' IPS, Wide, 144 Hz, Full HD, 1ms, Adaptive Sync, HDMI/DisplayPort, Ajuste de Altura, Vesa, Som Integrado - VP249QGR</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Monitor Gamer Asus 23.8&lt;/h2&gt;
+&lt;p&gt;O &lt;strong&gt;monitor gaming ASUS VP249QGR&lt;/strong&gt; foi desenvolvido para a vit&amp;oacute;ria na arena de jogos profissionais. Com seu &lt;strong&gt;Full HD Painel IPS&lt;/strong&gt;, taxa de atualiza&amp;ccedil;&amp;atilde;o de &lt;strong&gt;144Hz&lt;/strong&gt; com &lt;strong&gt;Adaptive-Sync (FreeSync)&lt;/strong&gt; e &lt;strong&gt;1ms MPRT&lt;/strong&gt; para jogos super suaves visual, mistura o virtual e o real para atrair voc&amp;ecirc; para jogos realmente imersivos. Inclui ainda recursos centrados nos jogadores, como as &lt;strong&gt;tecnologias ASUS GamePlus&lt;/strong&gt;, para levar seus jogos experi&amp;ecirc;ncia para um n&amp;iacute;vel totalmente novo.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Desfrute de uma experi&amp;ecirc;ncia de jogo suave e sem interrup&amp;ccedil;&amp;otilde;es&lt;/h2&gt;
+&lt;p&gt;Taxa de &lt;strong&gt;atualiza&amp;ccedil;&amp;atilde;o de at&amp;eacute; 144Hz&lt;/strong&gt; com a tecnologia &lt;strong&gt;Adaptive-Sync (FreeSync)&lt;/strong&gt; e &lt;strong&gt;MPRT de 1ms&lt;/strong&gt; dizima o lag e &lt;strong&gt;motion blur&lt;/strong&gt; para lhe dar a vantagem em atiradores em primeira pessoa, pilotos, em tempo real estrat&amp;eacute;gia e t&amp;iacute;tulos esportivos. Essa &lt;strong&gt;taxa de atualiza&amp;ccedil;&amp;atilde;o ultrarr&amp;aacute;pida&lt;/strong&gt; permite que voc&amp;ecirc; jogue com as configura&amp;ccedil;&amp;otilde;es mais altas e permite que voc&amp;ecirc; reaja instantaneamente ao que est&amp;aacute; na tela!&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Tecnologia Ultra-Low Blue Light&lt;/h2&gt;
+&lt;p&gt;A &lt;strong&gt;tecnologia ASUS Ultra-Low Blue Light&lt;/strong&gt; reduz a quantidade de luz azul prejudicial emitido por &lt;strong&gt;VP249QGR&lt;/strong&gt;. Voc&amp;ecirc; pode acessar e selecionar quatro configura&amp;ccedil;&amp;otilde;es de filtro diferentes na tela facilmente atrav&amp;eacute;s do menu &lt;strong&gt;OSD&lt;/strong&gt; para encontrar o melhor que se adapte &amp;agrave; tarefa em quest&amp;atilde;o. O monitor de jogos &lt;strong&gt;VP249QGR&lt;/strong&gt; passou por rigorosos testes de desempenho e &amp;eacute; certificado pelos laborat&amp;oacute;rios &lt;strong&gt;T&amp;Uuml;V Rheinland&lt;/strong&gt;, um fornecedor global de servi&amp;ccedil;os t&amp;eacute;cnicos, de seguran&amp;ccedil;a e certifica&amp;ccedil;&amp;atilde;o, para ser livre de cintila&amp;ccedil;&amp;atilde;o e &lt;strong&gt;emitir baixos n&amp;iacute;veis de luz azul.&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h3&gt;Garanta j&amp;aacute; seu Monitor ASUS aqui no KaBuM!&lt;/h3&gt;</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Ozone 27 LED, 144 Hz, Quad HD, 1ms, FreeSync, HDR, sRGB, HDMI/DisplayPort - OZDSP27IPS</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Conforto garantido. O monitor LED DSP27IPS foi constru&amp;iacute;do para longas sess&amp;otilde;es de jogo. Com um design moderno, luz de fundo do ambiente em LED e proje&amp;ccedil;&amp;atilde;o inovadora do logotipo, moldura fina e quadros reduzidos, &amp;eacute; perfeito para um ambiente de tela m&amp;uacute;ltipla. Como alternativa, se preferir, voc&amp;ecirc; pode usar os sistemas VESA para mont&amp;aacute;-lo na parede e liberar mais espa&amp;ccedil;o para sua instala&amp;ccedil;&amp;atilde;o. Seu suporte s&amp;oacute;lido de tr&amp;ecirc;s pernas garante boa estabilidade, mesmo para os movimentos mais repentinos. E isso n&amp;atilde;o &amp;eacute; tudo. Gra&amp;ccedil;as &amp;agrave;s tecnologias Low Blue Light e Flicker Free que ele incorpora, voc&amp;ecirc; tamb&amp;eacute;m cuidar&amp;aacute; da sua vis&amp;atilde;o. IPS, puro espet&amp;aacute;culo visual. Projetado para a vit&amp;oacute;ria, com uma tela LCD IPS, oferece 27 polegadas de imagens n&amp;iacute;tidas e claras. Voc&amp;ecirc; sentir&amp;aacute; todos os detalhes como se estivesse l&amp;aacute;, gra&amp;ccedil;as &amp;agrave; sua resolu&amp;ccedil;&amp;atilde;o QHD 2K, 2560 x 1440 pixels que o envolver&amp;atilde;o em todas as cenas, com contraste de 1000: 1, tanto nos tons mais claros quanto nos mais escuros, gra&amp;ccedil;as &amp;agrave; sua compatibilidade com HDR tecnologia. Com a avan&amp;ccedil;ada tecnologia IPS, abrange 100% dos espa&amp;ccedil;os de cores sRGB e 96% dos espa&amp;ccedil;os DCI-P3, com uma paleta perfeita de 10 bits, oferecendo excelente textura de profundidade e satisfazendo at&amp;eacute; os designers mais exigentes. O DSP27IPS oferece tons suaves, naturais, vibrantes e soberbamente definidos com detalhes n&amp;iacute;tidos e precis&amp;atilde;o incr&amp;iacute;vel, gra&amp;ccedil;as aos mais recentes padr&amp;otilde;es de cores. Al&amp;eacute;m disso, oferece um &amp;acirc;ngulo de vis&amp;atilde;o de 178&amp;ordm; / 178&amp;ordm;, o que significa que voc&amp;ecirc; pode ver a imagem perfeitamente de frente, laterais, acima e abaixo, minimizando qualquer altera&amp;ccedil;&amp;atilde;o poss&amp;iacute;vel no tom. Facilmente configur&amp;aacute;veis, as configura&amp;ccedil;&amp;otilde;es est&amp;atilde;o localizadas na parte traseira, permitindo alterar o brilho ou o contraste em tempo real. Da mesma forma, voc&amp;ecirc; tamb&amp;eacute;m pode escolher entre os diferentes modos de cores inclu&amp;iacute;dos, como modo de jogo ou FPS. Conectividade. O Ozone DSP27IPS vem perfeitamente equipado com duas entradas HDMI, al&amp;eacute;m de uma entrada Display Port 1.2, um conector USB e uma entrada de &amp;aacute;udio para seus acess&amp;oacute;rios de som. Fluidez e sensibilidade absolutas. O DSP27IPS possui uma taxa de atualiza&amp;ccedil;&amp;atilde;o de 144Hz, duas vezes a taxa de atualiza&amp;ccedil;&amp;atilde;o que uma tela normal oferece. Por outro lado, seu tempo de resposta de 0.5 milissegundo oferece uma experi&amp;ecirc;ncia de jogo super suave que permite que voc&amp;ecirc; reaja em tempo real. Sincroniza&amp;ccedil;&amp;atilde;o completa. O monitor DSP27IPS &amp;eacute; compat&amp;iacute;vel com o AMD Freesync e o Nvidia G-Sync; portanto, esque&amp;ccedil;a as distor&amp;ccedil;&amp;otilde;es e interrup&amp;ccedil;&amp;otilde;es da tela e os atrasos desajeitados na imagem que impedem a vit&amp;oacute;ria.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Curvo Gigabyte G27QC-A 27´, 165Hz, 1ms, QHD, HDMI 2.0/DisplayPort, FreeSync, Ajuste de Altura, Preto</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Como um jogador invis&amp;iacute;vel, o monitor &amp;eacute; frequentemente subestimado. A verdade &amp;eacute; que os monitores se formam como um efeito sin&amp;eacute;rgico e trazem o melhor desempenho dos componentes do PC. Os monitores de jogos GIGABYTE oferecem as &amp;uacute;ltimas especifica&amp;ccedil;&amp;otilde;es e qualidade, os usu&amp;aacute;rios podem realmente desfrutar de um desempenho de alto n&amp;iacute;vel sem a necessidade de extravag&amp;acirc;ncia. O painel 1500R VA de 27 ?apresenta uma vis&amp;atilde;o mais pr&amp;oacute;xima do olho humano do que um monitor plano, proporcionando uma sensa&amp;ccedil;&amp;atilde;o mais envolvente. Alta resolu&amp;ccedil;&amp;atilde;o e taxa de atualiza&amp;ccedil;&amp;atilde;o r&amp;aacute;pida, proporcionando qualidade de exibi&amp;ccedil;&amp;atilde;o detalhada e experi&amp;ecirc;ncia de jogo fluida!&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Acer Nitro XV2 27' IPS, 165 Hz, Full HD, 0.5ms, FreeSync, 98% sRGB, HDMI/DisplayPort, VESA, Som Integrado - XV270 Pbmiiprx</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Monitor Gamer Acer Nitro XV270 P 27 Full HD &amp;bull; Resolu&amp;ccedil;&amp;atilde;o Full HD com ZeroFrame Design &amp;bull; Tecnologia AMD Radeon FreeSync &amp;bull; Overclock r&amp;aacute;pido para taxa de atualiza&amp;ccedil;&amp;atilde;o de 165 Hz &amp;bull; Tempo de resposta r&amp;aacute;pido de 2 ms &amp;bull; Suporta formato HDR10 &amp;bull; Aumento de resposta visual de 1 ms para jogos sem borr&amp;otilde;es &amp;bull; Lat&amp;ecirc;ncia ultrabaixa &amp;bull; Acer Display Widget &amp;bull; Tecnologia BlueLightShield &amp;amp; Flicker-less para reduzir a fadiga&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Aorus 48 OLED, 120 Hz, 4K UHD, 1ms, HDMI/DisplayPort/USB-C, FreeSync Premium, HDR 10, 130% sRGB, Som Integrado - FO48U</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Monitor Gamer Aorus 48 OLED, 120 Hz, 4K UHD, 1ms, HDMI/DisplayPort/USB-C, FreeSync Premium, HDR 10, 130% sRGB, Som Integrado - FO48U&lt;/h2&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h3&gt;4K Transformando sua experi&amp;ecirc;ncia de jogo!&lt;/h3&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;AORUS FO48U, resolu&amp;ccedil;&amp;atilde;o UHD de 47,53 polegadas e equipado com o mais recente HDMI 2.1, taxa de atualiza&amp;ccedil;&amp;atilde;o de 120 Hz e 1ms GTG para a experi&amp;ecirc;ncia de jogo mais fluida e qualidade de imagem incr&amp;iacute;vel.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;A cor de 10 bits e a gama de cores super ampla de 98% DCI-P3 / 130% sRGB oferecem excelente precis&amp;atilde;o e consist&amp;ecirc;ncia de cores.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h3&gt;A Experi&amp;ecirc;ncia 4K&lt;/h3&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;Com a cria&amp;ccedil;&amp;atilde;o de conte&amp;uacute;do de jogo com resolu&amp;ccedil;&amp;atilde;o mais alta, para ter a melhor experi&amp;ecirc;ncia visual, &amp;eacute; hora de voc&amp;ecirc; investir em um display 4K! Os monitores AORUS 4K oferecem um visual n&amp;iacute;tido e detalhado e oferece uma experi&amp;ecirc;ncia de visualiza&amp;ccedil;&amp;atilde;o mais realista!&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h3&gt;OLED&lt;/h3&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;Os monitores OLED s&amp;atilde;o capazes de fornecer cores reais e um preto perfeito. Devido &amp;agrave; natureza auto-emissiva, n&amp;atilde;o necessita de retro-ilumina&amp;ccedil;&amp;atilde;o e, portanto, reduz o tempo de resposta e, ao mesmo tempo, oferece cores com matizes, satura&amp;ccedil;&amp;atilde;o e contraste perfeitos.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h3&gt;47,53&amp;rdquo; com 4K&lt;/h3&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;Painel UHD de 47.53 &amp;rdquo;(resolu&amp;ccedil;&amp;atilde;o de 3840 x 2160) em uma propor&amp;ccedil;&amp;atilde;o de 16: 9 com uma taxa de atualiza&amp;ccedil;&amp;atilde;o de 120 Hz para jogos fluidos.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h3&gt;HDMI 2.1&lt;/h3&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;O mais novo HDMI 2.1 pode melhorar sua experi&amp;ecirc;ncia de jogo, fornecendo uma largura de banda maior de 4K @ 120 Hz, oferecendo uma vantagem competitiva em uma variedade de jogos de aventura a atiradores. O novo padr&amp;atilde;o tamb&amp;eacute;m suporta os consoles de &amp;uacute;ltima gera&amp;ccedil;&amp;atilde;o.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h3&gt;10 bits com 98% DCI P3&lt;/h3&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;O AORUS FO48U &amp;eacute; um display de 10 bits com 98% do espa&amp;ccedil;o de cores DCI-P3, oferecendo uma variedade mais rica de gradua&amp;ccedil;&amp;otilde;es de cores e maior precis&amp;atilde;o.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h3&gt;FreeSync Premium&lt;/h3&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;Ele equipa os jogadores com uma experi&amp;ecirc;ncia de jogo fluida e sem rasgos com desempenho m&amp;aacute;ximo.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h3&gt;&amp;Aacute;UDIO ESPACIAL&lt;/h3&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;Com t&amp;eacute;cnicas exclusivas de refor&amp;ccedil;o de som, AORUS FO48U apresenta a experi&amp;ecirc;ncia de som mais pura e mel&amp;oacute;dica e oferece modos extras para personalizar o jogo ou qualquer outro entretenimento.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Samsung Odyssey G3, 27 Full HD, 144Hz, 1ms, FreeSync Premium, HDMI/Displayport, Ajuste de altura, Preto - LF27G35TFWLXZD</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Monitor Gamer Samsung Odyssey G3, 27 Full HD, 144Hz, 1ms, FreeSync Premium, HDMI/Displayport, Ajuste de altura, Preto&lt;/h2&gt;
+&lt;p&gt;&lt;br /&gt;Monitor Gamer Samsung Odyssey G3 27&amp;rdquo;, FHD, 144 Hz, 1ms, com ajuste de altura, HDMI, DP, VGA, Freesync, Preto, S&amp;eacute;rie G3&lt;/p&gt;
+&lt;h3&gt;&lt;br /&gt; Taxa de atualiza&amp;ccedil;&amp;atilde;o de 144Hz&lt;/h3&gt;
+&lt;p&gt;Domine todos os inimigos, mesmo em cenas muito r&amp;aacute;pidas. A taxa de atualiza&amp;ccedil;&amp;atilde;o de 144Hz elimina atrasos e desfoque de movimento para uma jogabilidade emocionante com a&amp;ccedil;&amp;atilde;o ultra suave.&lt;/p&gt;
+&lt;h3&gt;&lt;br /&gt;Tempo de resposta de 1ms&lt;/h3&gt;
+&lt;p&gt;Fa&amp;ccedil;a cada movimento contar com um tempo de resposta de 1ms. Ataque seus inimigos assim que os vir e fique &amp;agrave; frente com movimentos precisos do mouse. Seu desempenho na tela &amp;eacute; t&amp;atilde;o r&amp;aacute;pido quanto seus pr&amp;oacute;prios reflexos.&lt;/p&gt;
+&lt;h3&gt;&lt;br /&gt;AMD FreeSync Premium&lt;/h3&gt;
+&lt;p&gt;Jogabilidade suave sem esfor&amp;ccedil;o. O AMD FreeSync Premium apresenta tecnologia de sincroniza&amp;ccedil;&amp;atilde;o adapt&amp;aacute;vel, que reduz o travamento de tela, oscila&amp;ccedil;&amp;atilde;o e atrasos. Veja o jogo do seu jeito Gire, incline e ajuste seu monitor at&amp;eacute; que todos os inimigos estejam perfeitamente vis&amp;iacute;veis. Sua tela pode ser movida livremente para que voc&amp;ecirc; encontre conforto total no jogo. Design de tela cheia O design sem borda de 3 lados revela espa&amp;ccedil;o m&amp;aacute;ximo para uma jogabilidade maior e mais ousada.&lt;/p&gt;
+&lt;h3&gt;&lt;br /&gt;Jogue por mais tempo&lt;/h3&gt;
+&lt;p&gt;Alinhe dois monitores com precis&amp;atilde;o em uma configura&amp;ccedil;&amp;atilde;o de monitor duplo sem que nenhum inimigo fique escondido na jun&amp;ccedil;&amp;atilde;o. Mais conforto para os olhos Jogue por mais tempo sem incomodo visual. O Eye Saver Mode minimiza a emiss&amp;atilde;o de luz azul para manter seus olhos relaxados e confort&amp;aacute;veis enquanto joga por muitas horas.&lt;/p&gt;
+&lt;h3&gt;&lt;br /&gt;Tecnologia Flicker Free&lt;/h3&gt;
+&lt;p&gt;A tecnologia Flicker Free remove continuamente a tremula&amp;ccedil;&amp;atilde;o cansativa e irritante da tela para que voc&amp;ecirc; possa jogar por mais tempo sem distra&amp;ccedil;&amp;otilde;es ou fadiga ocular.&lt;/p&gt;
+&lt;h3&gt;&lt;br /&gt;Monitor Gamer Samsung &amp;eacute; no KaBuM!&amp;nbsp;&lt;/h3&gt;</t>
+  </si>
+  <si>
     <t>Monitor Gamer Asus TUF 27' IPS, 165 Hz, Full HD, 1ms, Adaptive Sync, HDMI/DisplayPort, Ajuste de Altura, Vesa, Som Integrado - VG279QR</t>
   </si>
   <si>
     <t>&lt;p&gt;Monitor de jogos Full HD (1920 x 1080) de 27 polegadas com taxa de atualiza&amp;ccedil;&amp;atilde;o ultrarr&amp;aacute;pida de 165 Hz projetado para jogadores profissionais e jogabilidade envolvente. A tecnologia ASUS Extreme Low Motion Blur (ELMB ?) permite um tempo de resposta de 1 ms (MPRT), eliminando fantasmas para visuais n&amp;iacute;tidos de jogos. O Shadow Boost aprimora os detalhes da imagem em &amp;aacute;reas escuras, iluminando cenas sem expor demais as &amp;aacute;reas claras. Processamento compat&amp;iacute;vel com G-SYNC, proporcionando uma experi&amp;ecirc;ncia de jogo perfeita e sem problemas ao habilitar VRR (taxa de atualiza&amp;ccedil;&amp;atilde;o vari&amp;aacute;vel) por padr&amp;atilde;o. Apresenta um suporte ergonomicamente projetado para oferecer extensos ajustes de rota&amp;ccedil;&amp;atilde;o, inclina&amp;ccedil;&amp;atilde;o, rota&amp;ccedil;&amp;atilde;o e altura.&lt;/p&gt;</t>
   </si>
   <si>
+    <t>Monitor Gamer Aorus 34 IPS, 2K QHD, 144Hz, 1ms, HDMI e DisplayPort, 117% sRGB, HDR 400, FreeSync Premium, VESA - M34WQ</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Monitor Gamer Aorus 34 IPS, 2K QHD, 144Hz, 1ms, HDMI e DisplayPort, 117% sRGB, HDR 400, FreeSync Premium, VESA&lt;/h2&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h3&gt;MULTITAREFA COMO UM PROFISSIONAL&lt;/h3&gt;
+&lt;p&gt;Com a &amp;aacute;rea de visualiza&amp;ccedil;&amp;atilde;o extra, aumenta muito a efici&amp;ecirc;ncia e a produtividade!&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h3&gt;Um por todos&lt;/h3&gt;
+&lt;p&gt;O recurso KVM permite controlar v&amp;aacute;rios dispositivos por meio de um conjunto de teclado, v&amp;iacute;deo e mouse. Com nosso bot&amp;atilde;o KVM exclusivo, voc&amp;ecirc; descobrir&amp;aacute; que a comuta&amp;ccedil;&amp;atilde;o de dispositivos n&amp;atilde;o pode ser mais f&amp;aacute;cil! R&amp;aacute;pido como um piscar de olhos!&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h3&gt;Tempo de resposta MPRT de 1 ms&lt;/h3&gt;
+&lt;p&gt;Tempo de resposta super r&amp;aacute;pido de 1 ms para a experi&amp;ecirc;ncia de jogo mais suave de todos os tempos!&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h3&gt;WQHD com 144Hz&lt;/h3&gt;
+&lt;p&gt;Alta resolu&amp;ccedil;&amp;atilde;o e taxa de atualiza&amp;ccedil;&amp;atilde;o r&amp;aacute;pida, oferecendo qualidade de exibi&amp;ccedil;&amp;atilde;o detalhada e experi&amp;ecirc;ncia de jogo fluida!&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h3&gt;Cor de 8 bits, 91% DCI-P3&lt;/h3&gt;
+&lt;p&gt;Fant&amp;aacute;stica tela colorida e 91% de cores DCI-P3 de gama super ampla.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h3&gt;ALTA TAXA DE BIT 3&lt;/h3&gt;
+&lt;p&gt;O suporte de DisplayPort High Bit Rate 3 (HBR3) fornece a largura de banda para oferecer a taxa de atualiza&amp;ccedil;&amp;atilde;o mais r&amp;aacute;pida do monitor, profundidade de cor total e efeito HDR ao mesmo tempo!&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h3&gt;SIMPLES MAS ESTILOSO&lt;/h3&gt;
+&lt;p&gt;A apar&amp;ecirc;ncia aerodin&amp;acirc;mica representa a simplicidade da filosofia de design da s&amp;eacute;rie de jogos GIGABYTE, suporte robusto e acabamento fosco constru&amp;iacute;do para recursos funcionais e est&amp;eacute;ticos adicionando mais &amp;agrave;s caracter&amp;iacute;sticas.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h3&gt;Auxiliar OSD&lt;/h3&gt;
+&lt;p&gt;O GIGABYTE OSD Sidekick permite que voc&amp;ecirc; defina as op&amp;ccedil;&amp;otilde;es de exibi&amp;ccedil;&amp;atilde;o com teclado e mouse, oferecendo a maneira mais f&amp;aacute;cil de ajustar as configura&amp;ccedil;&amp;otilde;es do monitor.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h3&gt;Contador&lt;/h3&gt;
+&lt;p&gt;O contador de jogos ajudar&amp;aacute; voc&amp;ecirc; a calcular o tempo com mais facilidade.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h3&gt;PIP / PBP&lt;/h3&gt;
+&lt;p&gt;As fun&amp;ccedil;&amp;otilde;es PIP e PBP permitem que os usu&amp;aacute;rios visualizem diferentes fontes de v&amp;iacute;deo que s&amp;atilde;o apresentadas em uma tela ao mesmo tempo, voc&amp;ecirc; pode assistir aos guias do jogo ao mesmo tempo usando apenas um monitor!&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h3&gt;&amp;Acirc;NGULO DE VIS&amp;Atilde;O PERFEITO&lt;/h3&gt;
+&lt;p&gt;O monitor GIGABYTE Gaming possui um suporte exclusivo projetado ergonomicamente para oferecer uma ampla variedade de ajustes de altura e inclina&amp;ccedil;&amp;atilde;o.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Samsung Odyssey G7 27 LED Curvo 2K QHD, Wide, 240 Hz, 1ms, HDMI e DisplayPort, HDR 600, FreeSync Premium - LC27G75TQSLXZD</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Monitor Gamer Samsung Odyssey G7 27 LED Curvo 2K QHD&lt;/h2&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;A revolu&amp;ccedil;&amp;atilde;o da curva&lt;/h2&gt;
+&lt;p&gt;&lt;strong&gt;1000R&lt;/strong&gt;, o novo &amp;aacute;pice da tecnologia de &lt;strong&gt;tela curva&lt;/strong&gt;, se ajusta ao campo de vis&amp;atilde;o humano para um realismo inimagin&amp;aacute;vel.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Imagens fascinantes&lt;/h2&gt;
+&lt;p&gt;Painel &lt;strong&gt;QLED&lt;/strong&gt;, &lt;strong&gt;HDR600&lt;/strong&gt; e uma &lt;strong&gt;resolu&amp;ccedil;&amp;atilde;o WQHD&lt;/strong&gt; se re&amp;uacute;nem trazendo &lt;strong&gt;cores espetaculares&lt;/strong&gt; com total &lt;strong&gt;profundidade&lt;/strong&gt; &lt;strong&gt;e detalhamento&lt;/strong&gt;.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Design com n&amp;uacute;cleo de ilumina&amp;ccedil;&amp;atilde;o infinito&lt;/h2&gt;
+&lt;p&gt;O exterior preto fosco se junta ao &lt;strong&gt;n&amp;uacute;cleo de ilumina&amp;ccedil;&amp;atilde;o infinito&lt;/strong&gt;. Os dois se re&amp;uacute;nem para criar um &lt;strong&gt;efeito futurista&lt;/strong&gt; e trazer inspira&amp;ccedil;&amp;atilde;o para que voc&amp;ecirc; brilhe junto!&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Rea&amp;ccedil;&amp;otilde;es r&amp;aacute;pidas e precisas&lt;/h2&gt;
+&lt;p&gt;Derrote todos os inimigos, mesmo em alta velocidade. A &lt;strong&gt;taxa de atualiza&amp;ccedil;&amp;atilde;o de 240Hz&lt;/strong&gt; &lt;strong&gt;elimina o lag&lt;/strong&gt; para uma jogabilidade emocionante com a&amp;ccedil;&amp;atilde;o ultra suave. Ataque os inimigos no momento em que os vir com um&lt;strong&gt; tempo de resposta de 1ms&lt;/strong&gt;, tenha movimentos precisos do mouse e sem quadros desfocados.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Vastas tonalidades com HDR600&lt;/h2&gt;
+&lt;p&gt;Revele toda a imagem. O &lt;strong&gt;HDR600&lt;/strong&gt; oferece &lt;strong&gt;mais contraste&lt;/strong&gt;, com &lt;strong&gt;pretos mais profundos e brancos mais brilhantes&lt;/strong&gt;. &lt;strong&gt;Mesmo em cenas escuras&lt;/strong&gt;, &lt;strong&gt;cada detalhe brilha com clareza&lt;/strong&gt;.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Compat&amp;iacute;vel com G-Sync&lt;/h2&gt;
+&lt;p&gt;A compatibilidade com &lt;strong&gt;G-Sync&lt;/strong&gt; mant&amp;eacute;m a placa de v&amp;iacute;deo e o painel sincronizados para eliminar cortes, atraso na tela e instabilidades na imagem. As cenas de a&amp;ccedil;&amp;atilde;o r&amp;aacute;pidas e complexas s&amp;atilde;o est&amp;aacute;veis e sem travamentos com o &lt;strong&gt;AMD FreeSync&lt;/strong&gt; &lt;strong&gt;Premium&lt;/strong&gt; &lt;strong&gt;Pro&lt;/strong&gt; para sua vantagem competitiva.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h3&gt;Compre agora no KaBuM!&lt;/h3&gt;</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Gigabyte 27´, FHD, HDMI/Displayport, 144Hz, 1ms, Altura e Ângulo Ajustável -  KVM - M27F-AS</t>
+  </si>
+  <si>
+    <t>Como jogador invisível, o monitor costuma ser subestimado. A verdade é que os monitores formam um efeito sinérgico e proporcionam o melhor desempenho dos componentes do PC. Os monitores de jogos GIGABYTE oferecem as últimas especificações e qualidade, os usuários podem realmente desfrutar de um desempenho de alto nível sem a necessidade de extravagância. O recurso KVM permite controlar vários dispositivos por meio de um conjunto de teclado, vídeo e mouse. Com nosso botão KVM exclusivo, você descobrirá que a troca de dispositivos não pode ser mais fácil! Rápido como um estalo! Tempo de resposta super rápido de 1 ms para a experiência de jogo mais suave de todos os tempos! Alta resolução e taxa de atualização rápida, proporcionando qualidade de exibição detalhada e experiência de jogo fluida! Fantástico visor colorido e 95% DCI-P3 de super ampla gama de cores. GIGABYTE OSD Sidekick permite que você defina as opções de exibição com teclado e mouse, oferecendo a maneira mais fácil de ajustar as configurações do monitor. A função de alinhamento de exibição irá facilitar a configuração de vários monitores, os monitores irão se alinhar perfeitamente. O painel revela suas informações de hardware em tempo real, incluindo voltagens da CPU, velocidade do clock, temperaturas, etc. A melhor parte é que ele não será bloqueado por nenhum jogo. Este recurso permite que você tenha mais detalhes do lado escuro sem expor demais o lado brilhante ao mesmo tempo. Os usuários podem desfrutar sem esforço da melhor experiência de jogo com os recursos que a GIGABYTE continua a desenvolver e atualizar, oferecendo proteção extra ao seu monitor. O monitor de jogos GIGABYTE possui um suporte exclusivo ergonomicamente projetado para oferecer uma ampla gama de ajustes de altura e inclinação.</t>
+  </si>
+  <si>
     <t>Monitor Gamer Concórdia C240 23.8, LED, HDMI, Full HD, Curvo, 75Hz, 2ms, Vermelho - 40511</t>
   </si>
   <si>
     <t>Monitor Concórdia Gamer Curvo C240 23.8" Led Full HD HDMI VGA A tecnologia do novo C240 garante uma imersão total em seus jogos. Prepare-se para uma nova experiência com seus games! Agora você pode escolher ele em duas versões:todo preto ou preto com detalhe em vermelho.</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Samsung Odyssey 49' QLED, Curvo, 144 Hz, Full HD, 1ms, FreeSync, HDR 600, 125% sRGB, HDMI/DisplayPort - LC49HG90DMLXZD</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Samsung QLED 49´ Super Ultra Ampla Curvo, Full HD, HDMI/Display Port, FreeSync, 144Hz, 1ms, Altura Ajustável - LC49HG90DMLXZD</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Asus TUF 27' LED, Curvo, 165 Hz, 2K QHD, 1ms, FreeSync Premium, HDR 10, 120% sRGB, HDMI/DisplayPort, VESA, Som - VG27WQ1B</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Monitor Gamer Asus 27&amp;acute; TUF Gaming VG27WQ1B O TUF Gaming VG27WQ1B&lt;/h2&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;Com uma&amp;nbsp;tela curva &lt;strong&gt;WQHD&lt;/strong&gt; &lt;strong&gt;(2560x1440) de 27 polegadas&lt;/strong&gt; com uma taxa de &lt;strong&gt;atualiza&amp;ccedil;&amp;atilde;o ultrarr&amp;aacute;pida de 165Hz&lt;/strong&gt; projetada para jogadores profissionais e aqueles que procuram uma jogabilidade envolvente. Essas s&amp;atilde;o especifica&amp;ccedil;&amp;otilde;es importantes, mas nem mesmo o que este Monitor Asus tem de mais empolgante.&lt;/p&gt;
+&lt;p&gt;Seu impressionante display curvo apresenta uma taxa de atualiza&amp;ccedil;&amp;atilde;o de 165Hz e tecnologia &lt;strong&gt;Adaptive-Sync (FreeSync Premium)&lt;/strong&gt;, para uma jogabilidade extremamente fluida sem tearing e stuttering. Curvatura imersiva de 27 polegadas O painel WQHD (2560 X 1440) de 27 polegadas oferece visuais impressionantes a partir de todos os &amp;acirc;ngulos, com uma curvatura 1500R que garante que cada ponto seja equidistante aos seus olhos.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Um maior conforto de visualiza&amp;ccedil;&amp;atilde;o&lt;/h2&gt;
+&lt;p&gt;mesmo durante o uso prolongado permite desfrutar de um amplo &amp;acirc;ngulo de visualiza&amp;ccedil;&amp;atilde;o com menos distor&amp;ccedil;&amp;atilde;o e mudan&amp;ccedil;a de cor ao jogar e assistir filmes. Taxa de &lt;strong&gt;Atualiza&amp;ccedil;&amp;atilde;o de 165Hz&lt;/strong&gt; A taxa de atualiza&amp;ccedil;&amp;atilde;o de 165Hz* do TUF Gaming VG27WQ1B diminui o lag e o desfoque de movimento para dar a voc&amp;ecirc; uma vantagem em jogos de tiro em primeira pessoa, corridas, estrat&amp;eacute;gia em tempo real e esportes. Essa taxa de atualiza&amp;ccedil;&amp;atilde;o ultrarr&amp;aacute;pida permite que voc&amp;ecirc; &lt;strong&gt;jogue nas configura&amp;ccedil;&amp;otilde;es visuais mais altas&lt;/strong&gt; e reaja instantaneamente ao que est&amp;aacute; na tela.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Tecnologia Extreme Low Motion Blur&lt;/h2&gt;
+&lt;p&gt;Este Monitor Gamer Asus apresenta a mais recente tecnologia Extreme Low Motion Blur &lt;strong&gt;exclusiva da Asus&lt;/strong&gt;, que &lt;strong&gt;atinge 1ms MPRT&lt;/strong&gt; para eliminar manchas e borr&amp;otilde;es de movimento, e torna os objetos em movimento mais n&amp;iacute;tidos, para que a jogabilidade seja mais fluida e responsiva. Agora voc&amp;ecirc; pode escolher entre &lt;strong&gt;v&amp;aacute;rios modos HDR&lt;/strong&gt; para ajustar o desempenho do monitor com base no cen&amp;aacute;rio de exibi&amp;ccedil;&amp;atilde;o atual.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h3&gt;Garanta j&amp;aacute; seu Monitor Gamer Asus aqui no KaBuM!&lt;/h3&gt;</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Bluecase LED 27´, 2.5K Quad HD, HDMI/DisplayPort - BM278GWCASE</t>
+  </si>
+  <si>
+    <t>Monitor Gamer 2.5K Quad HD 75hz de atualização. Com 1 conector DisplayPort e 1 conector HDMI.</t>
   </si>
   <si>
     <t>Monitor Gamer LG Ultra Gear 23.8' IPS, 144 Hz, Full HD, 1ms, FreeSync, HDR 10, 99% sRGB, HDMI/DisplayPort, Ajuste de Ângulo - 24GN600-B</t>
@@ -1353,19 +3176,31 @@
 &lt;h3&gt;Aproveite essa oportunidade e adquira seu Monitor Gamer LG Ultra Gear no KaBuM!&lt;/h3&gt;</t>
   </si>
   <si>
-    <t>Monitor Gamer Husky Snow 23.6 LED Full HD, Curvo, 165Hz, 1ms, HDMI e DisplayPort, Adaptive Sync, Ajuste de Ângulo - HGMT000</t>
-  </si>
-  <si>
-    <t>&lt;h2 style="text-align: justify;"&gt;Monitor Gamer Husky Snow 23.6 LED Full HD, Curvo, 165Hz, 1ms, HDMI e DisplayPort, Adaptive Sync, Ajuste de &amp;Acirc;ngulo - HGMT000&lt;/h2&gt;
-&lt;p style="text-align: justify;"&gt;&lt;br /&gt;Esteja um passo &amp;agrave; frente! O Monitor Husky Snow conta com resposta de 1ms e taxa de atualiza&amp;ccedil;&amp;atilde;o de 165Hz, permitindo a mais alta performance durante suas gameplays.&lt;br /&gt;&lt;br /&gt;&lt;/p&gt;
-&lt;h3 style="text-align: justify;"&gt;Curvatura para melhor vis&amp;atilde;o&lt;/h3&gt;
-&lt;p style="text-align: justify;"&gt;Sua curvatura amplia o campo de vis&amp;atilde;o relativo, concentrando toda a a&amp;ccedil;&amp;atilde;o ao alcance dos olhos do usu&amp;aacute;rio, sem perder resolu&amp;ccedil;&amp;atilde;o.&lt;br /&gt;&lt;br /&gt;&lt;/p&gt;
-&lt;h3 style="text-align: justify;"&gt;Tecnologias&lt;/h3&gt;
-&lt;p style="text-align: justify;"&gt;Compat&amp;iacute;vel com a tecnologia Adaptive Sync, permite a sincroniza&amp;ccedil;&amp;atilde;o dos frames da placa de v&amp;iacute;deo, decretando o fim do input lag, bem como o tearing.&lt;br /&gt;&lt;br /&gt;&lt;/p&gt;
-&lt;h3 style="text-align: justify;"&gt;1ms MPRT&lt;/h3&gt;
-&lt;p style="text-align: justify;"&gt;Tecnologia para redu&amp;ccedil;&amp;atilde;o do&amp;nbsp;desfoque de movimento com&amp;nbsp;tempo de resposta menor que&amp;nbsp;um segundo!&lt;/p&gt;
-&lt;p style="text-align: justify;"&gt;&amp;nbsp;&lt;/p&gt;
-&lt;p style="text-align: justify;"&gt;&lt;strong&gt;&lt;a href="https://kabum.com.br/hotsite/manuais/115383-Monitor-Gamer-Husky-Snow-HGMT000.pdf" target="_blank"&gt;MANUAL DE INSTRU&amp;Ccedil;&amp;Otilde;ES&lt;/a&gt;&lt;/strong&gt;&lt;/p&gt;</t>
+    <t>Monitor Gamer Cooler Master 27 LED 2K QHD, 165 Hz, 1ms, HDMI e DisplayPort, 90% DCI-P3, HDR, FreeSync Premium - CMI-GM27-FQSA-BR</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Monitor Gamer Cooler Master 27 LED 2K QHD&lt;/h2&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;TRABALHO E DIVERS&amp;Atilde;O EQUILIBRADOS&lt;/h2&gt;
+&lt;p&gt;A tela QHD de &lt;strong&gt;27"&lt;/strong&gt; com ampla gama de cores &lt;strong&gt;DCI-P3 de 90%&lt;/strong&gt; permite que voc&amp;ecirc; se concentre em seu trabalho durante o dia, enquanto a taxa de atualiza&amp;ccedil;&amp;atilde;o de &lt;strong&gt;165Hz,&lt;/strong&gt; &lt;strong&gt;tempo de resposta de&lt;/strong&gt; &lt;strong&gt;1ms&lt;/strong&gt; e &lt;strong&gt;FreeSync&lt;/strong&gt; &lt;strong&gt;Premium&lt;/strong&gt; oferecem a liberdade de jogar seus jogos sem problemas durante a noite. Tamb&amp;eacute;m est&amp;aacute; inclu&amp;iacute;do um&lt;strong&gt; modo de&lt;/strong&gt; &lt;strong&gt;baixa luz azul&lt;/strong&gt; para quando &amp;eacute; hora de descontrair, relaxar e desfrutar de algum entretenimento durante a noite.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;RESOLU&amp;Ccedil;&amp;Atilde;O QHD&lt;/h2&gt;
+&lt;p&gt;Para produtividade e cria&amp;ccedil;&amp;atilde;o de conte&amp;uacute;do, a &lt;strong&gt;resolu&amp;ccedil;&amp;atilde;o QHD&lt;/strong&gt; oferece espa&amp;ccedil;o extra na tela para aumentar a efici&amp;ecirc;ncia de multitarefa. Esfregar cronogramas no Adobe Premiere ou simplesmente fazer planilhas &amp;eacute; mais f&amp;aacute;cil quando voc&amp;ecirc; tem mais espa&amp;ccedil;o na tela para trabalhar. Para jogos, a resolu&amp;ccedil;&amp;atilde;o QHD com um monitor de 27 polegadas atinge o equil&amp;iacute;brio perfeito entre fidelidade visual e jogos com&lt;strong&gt; alta taxa de atualiza&amp;ccedil;&amp;atilde;o.&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;PAINEL IPS DE ULTRAVELOCIDADE COM FREESYNC PREMIUM&lt;/h2&gt;
+&lt;p&gt;A utiliza&amp;ccedil;&amp;atilde;o de um&lt;strong&gt; painel IPS de ultravelocidade&lt;/strong&gt; permite que os pixels fa&amp;ccedil;am a transi&amp;ccedil;&amp;atilde;o mais rapidamente do que nos pain&amp;eacute;is IPS tradicionais, fornecendo um tempo de resposta de pixel de 1ms (GtG). Combinado com o FreeSync Premium, a jogabilidade &amp;eacute; ainda mais suave e sem rasgos para a &lt;strong&gt;melhor experi&amp;ecirc;ncia de visualiza&amp;ccedil;&amp;atilde;o&lt;/strong&gt; poss&amp;iacute;vel.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;AMPLA GAMA DE CORES DCI-P3&lt;/h2&gt;
+&lt;p&gt;Cobrindo 90% do espectro DCI-P3, o &lt;strong&gt;monitor GM27-FQS ARGB&lt;/strong&gt; &amp;eacute; um companheiro valioso para trabalhos sens&amp;iacute;veis a cores. Jogos e entretenimento tamb&amp;eacute;m t&amp;ecirc;m &lt;strong&gt;cores mais precisas e vivas&lt;/strong&gt;.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;MODO DE LUZ AZUL BAIXA&lt;/h2&gt;
+&lt;p&gt;Especialmente &amp;uacute;til para sess&amp;otilde;es de jogos noturnos, o &lt;strong&gt;modo de exibi&amp;ccedil;&amp;atilde;o de luz azul baixa&lt;/strong&gt; reduz a quantidade de luz azul potencialmente prejudicial e &lt;strong&gt;faz voc&amp;ecirc; se sentir &amp;agrave; vontade durante longas sess&amp;otilde;es de jogo&lt;/strong&gt;. Tamb&amp;eacute;m &amp;uacute;til para reduzir o cansa&amp;ccedil;o visual e, em geral, permitir que voc&amp;ecirc; jogue ou trabalhe ainda mais.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;AMPLA CONECTIVIDADE&lt;/h2&gt;
+&lt;p&gt;Conecte todos os seus dispositivos com a &lt;strong&gt;ampla gama de portas de E/S&lt;/strong&gt;.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h3&gt;Compre agora no KaBuM!&lt;/h3&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;</t>
   </si>
   <si>
     <t>Monitor Gamer Acer 27 ZeroFrame Full HD, 165Hz, 0.5ms, IPS, HDMI e DisplayPort, FreeSync Premium, VESA, Preto - VG272 S</t>
@@ -1380,6 +3215,12 @@
   </si>
   <si>
     <t>&lt;p&gt;Explore um n&amp;iacute;vel superior de qualidade gr&amp;aacute;fica do seu gameplay com o monitor gamer Bluecase BM2713GW Esse monitor possui um painel TN ultrarr&amp;aacute;pido com frequ&amp;ecirc;ncia m&amp;aacute;xima de at&amp;eacute; 75 Hz e baix&amp;iacute;ssimo tempo de resposta de 5(cinco) milissegundos. Ideal para seus jogos AAA, o monitor conta com alta defini&amp;ccedil;&amp;atilde;o em resolu&amp;ccedil;&amp;atilde;o Quad HD (2560x1440) que proporciona uma imagem rica em detalhes. O monitor Bluecase BM2713GW &amp;eacute; compat&amp;iacute;vel com suportes VESA e tamb&amp;eacute;m conta com conex&amp;otilde;es DisplayPort e HDMI.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Monitor Gamer AOC Agon 27' LED, Wide, 165 Hz, 2K QHD, G-Sync, HDMI/DisplayPort, Ajuste de Altura, Som Integrado - AG271QG</t>
+  </si>
+  <si>
+    <t>Monitor Gamer AOC Agon 27´ NVIDIA G-Sync 165Hz Overclock. Imagens nítidas com os melhores detalhes em um resolução de 2560x1440 e ângulo de visão de 178º/178º.</t>
   </si>
   <si>
     <t>Monitor Gamer Acer Nitro 23.6 LED, Curvo, 165 Hz, Full HD, 1ms, FreeSync Premium, HDMI/DisplayPort - EI242QR</t>
@@ -1427,55 +3268,202 @@
 &lt;h3&gt;Aproveite essa oportunidade e adquira seu Monitor Gamer Acer no KaBuM!&lt;/h3&gt;</t>
   </si>
   <si>
+    <t>Monitor Gamer Cooler Master 27 LED, Wide 2K QHD, 165Hz, 1ms, HDMI e DisplayPort, 90% DCI-P3, HDR, FreeSync Premium - CMI-GM27-FQSA30TH-BR</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Monitor Gamer Cooler Master 27 LED&lt;/h2&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;TRABALHO E DIVERS&amp;Atilde;O EQUILIBRADOS&lt;/h2&gt;
+&lt;p&gt;A &lt;strong&gt;tela QHD de 27"&lt;/strong&gt; com ampla &lt;strong&gt;gama de cores DCI-P3&lt;/strong&gt; &lt;strong&gt;de 90%&lt;/strong&gt; permite que voc&amp;ecirc; se concentre em seu trabalho durante o dia, enquanto a &lt;strong&gt;taxa de atualiza&amp;ccedil;&amp;atilde;o de 165Hz, tempo de resposta de 1ms e FreeSync Premium&lt;/strong&gt; oferecem a liberdade de jogar seus jogos sem problemas durante a noite. Tamb&amp;eacute;m est&amp;aacute; inclu&amp;iacute;do um &lt;strong&gt;modo de baixa luz azul&lt;/strong&gt; para quando &amp;eacute; hora de descontrair, relaxar e desfrutar de algum entretenimento durante a noite.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;RESOLU&amp;Ccedil;&amp;Atilde;O QHD&lt;/h2&gt;
+&lt;p&gt;Para produtividade e cria&amp;ccedil;&amp;atilde;o de conte&amp;uacute;do, a &lt;strong&gt;resolu&amp;ccedil;&amp;atilde;o QHD&lt;/strong&gt; oferece espa&amp;ccedil;o extra na tela para aumentar a efici&amp;ecirc;ncia de multitarefa. Esfregar cronogramas no Adobe Premiere ou simplesmente fazer planilhas &amp;eacute; mais f&amp;aacute;cil quando voc&amp;ecirc; tem mais espa&amp;ccedil;o na tela para trabalhar. Para jogos, a resolu&amp;ccedil;&amp;atilde;o QHD com um monitor de 27 polegadas atinge o &lt;strong&gt;equil&amp;iacute;brio perfeito entre fidelidade visual e jogos com alta taxa de atualiza&amp;ccedil;&amp;atilde;o&lt;/strong&gt;.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;PAINEL IPS DE ULTRAVELOCIDADE COM FREESYNC PREMIUM&lt;/h2&gt;
+&lt;p&gt;A utiliza&amp;ccedil;&amp;atilde;o de um &lt;strong&gt;painel IPS de ultravelocidade&lt;/strong&gt; permite que os pixels fa&amp;ccedil;am a transi&amp;ccedil;&amp;atilde;o mais rapidamente do que nos pain&amp;eacute;is IPS tradicionais, fornecendo um tempo de resposta de pixel de 1 ms (GtG). Combinado com o&lt;strong&gt; FreeSync Premium&lt;/strong&gt;, a jogabilidade &amp;eacute; ainda mais suave e sem rasgos para a melhor experi&amp;ecirc;ncia de visualiza&amp;ccedil;&amp;atilde;o poss&amp;iacute;vel.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;AMPLA GAMA DE CORES DCI-P3&lt;/h2&gt;
+&lt;p&gt;Cobrindo 90% do espectro DCI-P3, o monitor GM27-&lt;strong&gt;FQS ARGB&lt;/strong&gt; &amp;eacute; um companheiro valioso para trabalhos sens&amp;iacute;veis a cores. Jogos e entretenimento tamb&amp;eacute;m t&amp;ecirc;m cores mais precisas e vivas.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;MODO DE LUZ AZUL BAIXA&lt;/h2&gt;
+&lt;p&gt;Especialmente &amp;uacute;til para sess&amp;otilde;es de jogos noturnos, o &lt;strong&gt;modo de exibi&amp;ccedil;&amp;atilde;o de luz azul baixa&lt;/strong&gt; reduz a quantidade de luz azul potencialmente prejudicial e faz voc&amp;ecirc; se sentir &amp;agrave; vontade durante longas sess&amp;otilde;es de jogo. Tamb&amp;eacute;m &amp;uacute;til para reduzir o cansa&amp;ccedil;o visual e, em geral, permitir que voc&amp;ecirc; jogue ou trabalhe ainda mais.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h3&gt;Compre agora no KaBuM!&lt;/h3&gt;</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Samsung Odyssey Neo G9 49 MiniLED, 240Hz, 1ms, HDMI e DisplayPort, HDR, DQHD, FreeSync Premium PRO, Preto - LS49AG950NLXZD</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Monitor Gamer Samsung Odyssey Neo G9&lt;/h2&gt;
+&lt;p&gt;A fascinante qualidade de imagem &lt;strong&gt;Quantum Mini-LED&lt;/strong&gt;, que atinge a pr&amp;oacute;xima gera&amp;ccedil;&amp;atilde;o de profundidade com &lt;strong&gt;Quantum HDR2000&lt;/strong&gt;, proporciona uma qualidade de imagem excepcional, colocando o &lt;strong&gt;Odyssey Neo G9&lt;/strong&gt; em um patamar &amp;uacute;nico. Uma nova dimens&amp;atilde;o em design com &lt;strong&gt;curvatura de 1000R&lt;/strong&gt; inspirada no olho humano, uma propor&amp;ccedil;&amp;atilde;o de tela 32:9 e a exclusiva ilumina&amp;ccedil;&amp;atilde;o &lt;strong&gt;CoreSync da Samsung&lt;/strong&gt;, o &lt;strong&gt;Monitor Odyssey Neo G9&lt;/strong&gt; proporciona a m&amp;aacute;xima imers&amp;atilde;o.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Monitor 240hz que te leva a vit&amp;oacute;ria&lt;/h2&gt;
+&lt;p&gt;Desempenho &amp;uacute;nico. Um passo em falso pode ser a diferen&amp;ccedil;a entre a vit&amp;oacute;ria e a derrota, por isso esse &lt;strong&gt;monitor de 240hz&lt;/strong&gt;, entrega m&amp;aacute;xima velocidade em cada cena. Com uma &lt;strong&gt;taxa de atualiza&amp;ccedil;&amp;atilde;o de 240hz&lt;/strong&gt;, l&amp;iacute;der do setor, elimina o atraso para uma jogabilidade emocionante e um cen&amp;aacute;rio de a&amp;ccedil;&amp;atilde;o ultra-suave entre cada cena. Com &lt;strong&gt;tempo de resposta de 1ms&lt;/strong&gt; e uma tela sem borr&amp;otilde;es, os jogadores t&amp;ecirc;m uma vantagem competitiva com tecnologia otimizada a cada jogada. Com todas essa vantagens, &lt;strong&gt;G-Sync&lt;/strong&gt; e &lt;strong&gt;FreeSync Premium Pro&lt;/strong&gt;, prepare-se para vencer.&amp;nbsp;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Desfrute mais que um Full-HD&amp;nbsp;em um monitor curvo&amp;nbsp;&lt;/h2&gt;
+&lt;p&gt;Uma experi&amp;ecirc;ncia visual inigual&amp;aacute;vel. A revolucion&amp;aacute;ria &lt;strong&gt;Tecnologia Quantum Matrix&lt;/strong&gt;&amp;nbsp;cria um brilho controlado e contraste perfeito para uma defini&amp;ccedil;&amp;atilde;o refinada. As zonas locais de escurecimento foram aumentadas para 2.048 e combinadas com os mais altos &lt;strong&gt;n&amp;iacute;veis de preto de 12 bits&lt;/strong&gt; para criar uma qualidade de imagem &amp;uacute;nica. Veja cada detalhe em toda a sua gl&amp;oacute;ria. De sombras a cenas esculpidas pelo sol, &lt;strong&gt;2.000 nits de brilho&lt;/strong&gt; e rela&amp;ccedil;&amp;atilde;o de &lt;strong&gt;contraste de 1.000.000:1&lt;/strong&gt; permitem uma melhor express&amp;atilde;o de cores e profundidade. Tudo isso imerso no mundo, em seu &lt;strong&gt;monitor curvo.&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Saia na frente com Ray Tracing em um monitor ultra-wide&lt;/h2&gt;
+&lt;p&gt;Cenas v&amp;iacute;vidas envolvendo voc&amp;ecirc; ainda mais. Experimente o pr&amp;oacute;ximo n&amp;iacute;vel de jogo que &amp;eacute; superior a qualquer coisa que voc&amp;ecirc; j&amp;aacute; tenha visto antes. Obtenha uma&lt;strong&gt; vantagem competitiva&lt;/strong&gt; enquanto joga jogos de &lt;strong&gt;Ray Tracing&lt;/strong&gt; ao detectar inimigos ocultos usando seus reflexos al&amp;eacute;m da&lt;strong&gt; tela super ultra-wide de 1000R&lt;/strong&gt; de &lt;strong&gt;49 polegadas&lt;/strong&gt; preenche sua vis&amp;atilde;o perif&amp;eacute;rica e coloca voc&amp;ecirc; no lugar do personagem.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Monitor Gamer, Aclamado pela cr&amp;iacute;tica&lt;/h2&gt;
+&lt;p&gt;&amp;ldquo;O visor Quantum Mini LED no &lt;strong&gt;Samsung Odyssey Neo G9&lt;/strong&gt; &amp;eacute; de longe um dos&lt;strong&gt; melhores&lt;/strong&gt; que eu j&amp;aacute; vi em um &lt;strong&gt;monitor&amp;nbsp;gamer&lt;/strong&gt; at&amp;eacute; hoje" - Techaeris Aclamado pela cr&amp;iacute;tica. Premiado. Reconhecido mundialmente. Inova&amp;ccedil;&amp;atilde;o mundial em jogos aperfei&amp;ccedil;oada pelo &lt;strong&gt;Samsung Odyssey Neo G9&lt;/strong&gt;. O mundo do jogo de sua imagina&amp;ccedil;&amp;atilde;o se tornou real. A tela de &lt;strong&gt;49 polegadas&lt;/strong&gt; com &lt;strong&gt;resolu&amp;ccedil;&amp;atilde;o&lt;/strong&gt; &lt;strong&gt;DQHD&lt;/strong&gt; traz uma tela t&amp;atilde;o ampla quanto dois monitores QHD lado a lado, com imagens incrivelmente detalhadas. Experimente uma vis&amp;atilde;o abrangente com o m&amp;aacute;ximo de espa&amp;ccedil;o para realizar toda a a&amp;ccedil;&amp;atilde;o.&lt;/p&gt;
+&lt;h3&gt;&amp;nbsp;&lt;/h3&gt;
+&lt;h3&gt;Compre o seu Monitor Gamer Samsung aqui no KaBuM!&lt;/h3&gt;</t>
+  </si>
+  <si>
     <t>Monitor Gamer Gigabyte 23.8 IPS, Full HD, 170Hz, 1ms, 120% sRGB, HDR, FreeSync Premium, Altura Ajustável - G24F-SA</t>
   </si>
   <si>
     <t>JUNTE-SE À LUTA com o Monitor Gamer G24F da Gigabyte com 1ms de tempo de resposta, freesync premium, 165 Hz (170 Hz OC) e com uma taxa de cor de 8 bits, 90% DCI-P3 A ÚLTIMA MILHA PARA O SEU SISTEMA DE JOGO Como um jogador invisível, o monitor é frequentemente subestimado. A verdade é que os monitores se formam como um efeito sinérgico e trazem o melhor desempenho dos componentes do PC. Os monitores de jogos GIGABYTE oferecem as últimas especificações e qualidade, os usuários podem realmente desfrutar de um desempenho de alto nível sem a necessidade de extravagância. Tempo de resposta de 1 ms MPRT Tempo de resposta super rápido de 1 ms para a experiência de jogo mais suave de todos os tempos! FHD com 165 Hz (OC 170 Hz) Alta resolução e taxa de atualização rápida, proporcionando qualidade de exibição detalhada e experiência de jogo fluida! Cor de 8 bits, 90% DCI-P3 Fantástico visor a cores e 90% de cores DCI-P3 de gama super ampla. SIMPLES MAS ESTILOSO A aparência aerodinâmica representa a simplicidade da filosofia de design da série de jogos GIGABYTE, suporte robusto e acabamento fosco construído para características funcionais e estéticas adicionando mais características. OSD Sidekick GIGABYTE OSD Sidekick permite que você defina as opções de exibição com teclado e mouse, oferecendo a maneira mais fácil de ajustar as configurações do monitor. ÂNGULO DE VISÃO PERFEITO O monitor de jogos GIGABYTE possui um suporte exclusivo ergonomicamente projetado para oferecer uma ampla gama de ajustes de altura e inclinação.</t>
   </si>
   <si>
-    <t>Monitor Gamer Gigabyte 24 Full HD, 165Hz, 1ms, IPS, HDMI e DisplayPort, 125% sRGB, HDR, FreeSync, Altura Ajustável - G24F2BR</t>
-  </si>
-  <si>
-    <t>&lt;h2&gt;Monitor Gamer Gigabyte 24 Full HD&lt;/h2&gt;
-&lt;h2&gt;&amp;nbsp;&lt;/h2&gt;
-&lt;h2&gt;A &amp;Uacute;LTIMA MILHA PARA O SEU SISTEMA DE JOGO&lt;/h2&gt;
-&lt;p&gt;Como um jogador invis&amp;iacute;vel, o monitor costuma ser subestimado. A verdade &amp;eacute; que os monitores se formam como um efeito sin&amp;eacute;rgico e trazem o &lt;strong&gt;melhor desempenho&lt;/strong&gt; dos componentes do PC. Os monitores de jogos GIGABYTE oferecem &lt;strong&gt;as especifica&amp;ccedil;&amp;otilde;es e qualidade mais recentes&lt;/strong&gt;, os usu&amp;aacute;rios podem realmente desfrutar de um &lt;strong&gt;desempenho de alto n&amp;iacute;vel&lt;/strong&gt; sem a necessidade de extravag&amp;acirc;ncia.&lt;/p&gt;
-&lt;p&gt;Suporta tecnologia &lt;strong&gt;Adaptive-Sync&lt;/strong&gt;&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h2&gt;Tempo de resposta MPRT de 1ms&lt;/h2&gt;
-&lt;p&gt;&lt;strong&gt;Tempo de resposta super r&amp;aacute;pido de 1ms&lt;/strong&gt; para a experi&amp;ecirc;ncia de jogo mais suave de todos os tempos!&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h2&gt;FHD com 165 Hz (OC 180 Hz)&lt;/h2&gt;
-&lt;p&gt;&lt;strong&gt;Alta resolu&amp;ccedil;&amp;atilde;o&lt;/strong&gt; e taxa de atualiza&amp;ccedil;&amp;atilde;o r&amp;aacute;pida, oferecendo qualidade de exibi&amp;ccedil;&amp;atilde;o detalhada e experi&amp;ecirc;ncia de jogo fluida!&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h2&gt;95% DCI-P3&lt;/h2&gt;
-&lt;p&gt;Fant&amp;aacute;stica&lt;strong&gt; tela colorida e 95%&lt;/strong&gt; DCI-P3 super ampla gama de cores.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h2&gt;Simples e Estiloso&lt;/h2&gt;
-&lt;p&gt;A &lt;strong&gt;apar&amp;ecirc;ncia simplificada&lt;/strong&gt; representa a simplicidade da filosofia de design da s&amp;eacute;rie de jogos GIGABYTE, suporte robusto e acabamento fosco constru&amp;iacute;do para &lt;strong&gt;recursos funcionais e est&amp;eacute;ticos&lt;/strong&gt; adicionando mais &amp;agrave;s caracter&amp;iacute;sticas.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h2&gt;OSD Sidekick&lt;/h2&gt;
-&lt;p&gt;O GIGABYTE &lt;strong&gt;OSD Sidekick&lt;/strong&gt; permite que voc&amp;ecirc; defina as op&amp;ccedil;&amp;otilde;es de exibi&amp;ccedil;&amp;atilde;o com teclado e mouse, oferecendo a maneira mais &lt;strong&gt;f&amp;aacute;cil de ajustar&lt;/strong&gt; as configura&amp;ccedil;&amp;otilde;es do monitor.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h2&gt;Painel&lt;/h2&gt;
-&lt;p&gt;O painel revela suas &lt;strong&gt;informa&amp;ccedil;&amp;otilde;es de hardware em tempo real&lt;/strong&gt;, incluindo &lt;strong&gt;voltagens da CPU, velocidade do clock, temperaturas, etc.&lt;/strong&gt; A melhor parte &amp;eacute; que n&amp;atilde;o ser&amp;aacute; bloqueado por nenhum jogo.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h2&gt;Equalizador Preto&lt;/h2&gt;
-&lt;p&gt;Esse recurso permite que voc&amp;ecirc; tenha mais &lt;strong&gt;detalhes do lado escuro&lt;/strong&gt; sem superexpor o lado claro ao mesmo tempo.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h2&gt;Atualiza&amp;ccedil;&amp;atilde;o autom&amp;aacute;tica&lt;/h2&gt;
-&lt;p&gt;Os usu&amp;aacute;rios podem desfrutar sem esfor&amp;ccedil;o da melhor experi&amp;ecirc;ncia de jogo com recursos que a GIGABYTE continua a desenvolver e atualizar enquanto oferece &lt;strong&gt;prote&amp;ccedil;&amp;atilde;o extra ao seu monitor&lt;/strong&gt;.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h2&gt;&amp;Acirc;ngulo de Vis&amp;atilde;o Perfeito&lt;/h2&gt;
-&lt;p&gt;O monitor Gaming GIGABYTE possui um suporte exclusivo projetado ergonomicamente para oferecer &lt;strong&gt;ampla gama de ajustes de altura e inclina&amp;ccedil;&amp;atilde;o&lt;/strong&gt;.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h3&gt;Compre agora no KaBuM!&lt;/h3&gt;</t>
-  </si>
-  <si>
-    <t>Monitor Gamer Ozone 24,5 LED, 144 Hz, Full HD, 1ms, FreeSync, HDMI/DisplayPort - OZDSP25FHD</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Monitor Gamer LED Ozone 24.5&amp;acute;, Full HD, HDMI, 144Hz, 1ms - OZDSP25FHD.&lt;/p&gt;</t>
+    <t>Monitor Gamer Benq 24.5´ Mobiuz EX2510, FHD, IPS, HDMI/DisplayPort, FreeSync, HDR, Som Integrado, 144Hz, 1ms, Dark Grey - 9H.LJJLA.TBL</t>
+  </si>
+  <si>
+    <t>Monitor Gamer LG 34' IPS, Curvo Ultra Wide, 144 Hz, Full HD, 1ms, FreeSync, HDR 10, 99% sRGB, HDMI/DisplayPort, Ajuste de Altura - 34GL750</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Monitor Gamer LG LED 34&lt;/h2&gt;
+&lt;p&gt;&lt;strong&gt;Evolua o jogo&lt;/strong&gt; antes do seu rival O&lt;strong&gt; Monitor&lt;/strong&gt; &lt;strong&gt;LG Gamer&lt;/strong&gt; &amp;eacute; um poderoso equipamento de exibi&amp;ccedil;&amp;atilde;o de jogos integrado &amp;agrave;s fun&amp;ccedil;&amp;otilde;es de &lt;strong&gt;alto desempenho&lt;/strong&gt; que podem responder a qualquer jogo de grande sucesso.&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;Este monitor &amp;eacute; compat&amp;iacute;vel com &lt;strong&gt;HDR10&lt;/strong&gt; para representar detalhes em&lt;strong&gt; partes claras e escuras&lt;/strong&gt;, para que os jogadores desfrutem de um brilho mais intenso e destaques com sombras e&lt;strong&gt; silhuetas mais profundas&lt;/strong&gt;.&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;Compat&amp;iacute;vel com &lt;strong&gt;G-SYNC&lt;/strong&gt; &lt;strong&gt;certificado pela NVIDIA&lt;/strong&gt; Ap&amp;oacute;s ser testado pela NVIDIA, o monitor &lt;strong&gt;LG 34GL750&lt;/strong&gt; &amp;eacute; oficialmente compat&amp;iacute;vel com &lt;strong&gt;G-SYNC&lt;/strong&gt;, eliminando cortes e minimizando as repeti&amp;ccedil;&amp;otilde;es de imagem para uma experi&amp;ecirc;ncia mais fluida nos seus jogos. &lt;strong&gt;144Hz&lt;/strong&gt; e &lt;strong&gt;1ms Motion Blur Reduction&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;Com uma&lt;strong&gt; taxa de atualiza&amp;ccedil;&amp;atilde;o de 144Hz e 1ms&lt;/strong&gt;, os objetos s&amp;atilde;o renderizados claramente para uma jogabilidade mais suave e uma fluidez visual quase surreal. Os objetos mais din&amp;acirc;micos e de ritmo acelerado em meio a toda a a&amp;ccedil;&amp;atilde;o podem dar aos jogadores uma vantagem competitiva.&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;Voc&amp;ecirc; poder&amp;aacute; ver at&amp;eacute; os menores movimentos com &lt;strong&gt;clareza&lt;/strong&gt; e ter a&amp;ccedil;&amp;otilde;es antes dos seus advers&amp;aacute;rios. &lt;strong&gt;O Monitor Gamer LG&lt;/strong&gt; te d&amp;aacute; espa&amp;ccedil;o. Tenha 3&lt;strong&gt;0% mais campo de vis&amp;atilde;o&lt;/strong&gt; com uma tela &lt;strong&gt;UltraWide 21:9.&lt;/strong&gt; Com ela voc&amp;ecirc; poder&amp;aacute; ver &amp;aacute;reas que n&amp;atilde;o s&amp;atilde;o vistas em monitores convencionais 16:9, dando a vantagem que precisa para ganhar de seus advers&amp;aacute;rios.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Maior conforto nos jogos&lt;/strong&gt; A base e a tela praticamente sem bordas do &lt;strong&gt;34GL750&lt;/strong&gt; podem ser ajustadas em inclina&amp;ccedil;&amp;atilde;o e altura, para que voc&amp;ecirc; jogue de forma mais confort&amp;aacute;vel, garantindo&lt;strong&gt; maior estabilidade.&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Garanta j&amp;aacute; seu Monitor Gamer LG aqui no KaBuM!&lt;/strong&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Monitor Asus ROG Strix 27 LED, 170Hz, 1ms, IPS, HDMI e DisplayPort, 115% sRGB, HDR, Altura Ajustável, VESA - XG276Q</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Monitor Gaming ROG Strix XG276Q Full HD de 27 polegadas (1920 x 1080), IPS, 170Hz (Acima de 144Hz), 1ms GTG, Extreme Low Motion Blur, compat&amp;iacute;vel com G-Sync, tecnologia FreeSync Premium, DisplayHDR 400, entrada para trip&amp;eacute;&lt;/h2&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;Monitor de jogos IPS Full HD (1920 x 1080) de 27 polegadas com taxa de atualiza&amp;ccedil;&amp;atilde;o ultrarr&amp;aacute;pida de 170 Hz projetado para jogadores profissionais e jogabilidade envolvente.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;A tecnologia ASUS Fast IPS permite um tempo de resposta de 1 ms (GTG) para visuais de jogos n&amp;iacute;tidos com altas taxas de quadros.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;Tecnologia ASUS Extreme Low Motion Blur (ELMB) que elimina fantasmas e rasgos para visuais de jogos n&amp;iacute;tidos com altas taxas de quadros.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;Compat&amp;iacute;vel com G-SYNC, oferecendo uma experi&amp;ecirc;ncia de jogo perfeita e sem rasgos, ativando o VRR (taxa de atualiza&amp;ccedil;&amp;atilde;o vari&amp;aacute;vel) por padr&amp;atilde;o.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;A tecnologia High Dynamic Range (HDR) com gama de cores profissional oferece contraste e desempenho de cores que atendem &amp;agrave; certifica&amp;ccedil;&amp;atilde;o Display HDR 400.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h3&gt;ASUS FastIPS Display 1ms (GTG) Tempo de resposta&lt;/h3&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;O monitor ASUS FastIPS permite que os elementos de cristal l&amp;iacute;quido do monitor alternem at&amp;eacute; 4 vezes mais r&amp;aacute;pido do que os pain&amp;eacute;is IPS convencionais para melhorar a resposta. Com um tempo de resposta cinza a cinza de 1 ms, manchas e desfoque de movimento s&amp;atilde;o praticamente eliminados. Essa tela tamb&amp;eacute;m oferece imagens superiores e uma incr&amp;iacute;vel taxa de contraste de 1.000:1.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h3&gt;TAXA DE ATUALIZA&amp;Ccedil;&amp;Atilde;O INCRIVELMENTE R&amp;Aacute;PIDA DE 170 Hz&lt;/h3&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;Voc&amp;ecirc; experimentar&amp;aacute; visuais de jogo incrivelmente fluidos, dando a voc&amp;ecirc; vantagem em jogos de tiro em primeira pessoa, corrida, estrat&amp;eacute;gia em tempo real e t&amp;iacute;tulos esportivos.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h3&gt;Compat&amp;iacute;vel com NVIDIA G-SYNC&lt;/h3&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;A tecnologia compat&amp;iacute;vel com NVIDIA G-Sync fornece visuais excepcionais de alta faixa din&amp;acirc;mica, mantendo baixa lat&amp;ecirc;ncia.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h3&gt;Soquete do trip&amp;eacute; no topo&lt;/h3&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;O soquete do trip&amp;eacute; no topo do soquete do trip&amp;eacute; de &amp;frac14; de polegada no suporte do monitor permite que os usu&amp;aacute;rios montem uma c&amp;acirc;mera ou monitor adicional para uma configura&amp;ccedil;&amp;atilde;o exclusiva de jogos ou streaming.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h3&gt;Conectividade rica&lt;/h3&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;Extensas op&amp;ccedil;&amp;otilde;es de conectividade, incluindo E/S: DisplayPort1.2 e HDMI (v2.0)x2 suportam uma ampla variedade de dispositivos multim&amp;iacute;dia.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Gigabyte 31.5 4KUHD, 144Hz, 1ms, IPS, HDMI e DisplayPort, HDR, 123% sRGB, FreeSync Premium, VESA - M32U-SA</t>
+  </si>
+  <si>
+    <t>&lt;h2 style="text-align: justify;"&gt;Monitor Gamer Gigabyte 31.5 4KUHD.&lt;/h2&gt;
+&lt;p style="text-align: justify;"&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p style="text-align: justify;"&gt;&lt;strong&gt;A &amp;Uacute;LTIMA MILHA PARA O SEU SISTEMA DE JOGO&lt;/strong&gt;&lt;/p&gt;
+&lt;p style="text-align: justify;"&gt;Como um jogador invis&amp;iacute;vel, o monitor costuma ser subestimado. A verdade &amp;eacute; que os monitores se formam como um efeito sin&amp;eacute;rgico e trazem o melhor desempenho dos componentes do PC. &lt;strong&gt;Os monitores de jogos GIGABYTE oferecem as especifica&amp;ccedil;&amp;otilde;es e qualidade mais recentes&lt;/strong&gt;, os usu&amp;aacute;rios podem realmente desfrutar de um desempenho de alto n&amp;iacute;vel sem a necessidade de extravag&amp;acirc;ncia.&lt;/p&gt;
+&lt;p style="text-align: justify;"&gt;Um por todos&lt;/p&gt;
+&lt;p style="text-align: justify;"&gt;O recurso &lt;strong&gt;KVM permite controlar v&amp;aacute;rios dispositivos por meio de um conjunto de teclado, v&amp;iacute;deo e mouse&lt;/strong&gt;. Com nosso bot&amp;atilde;o KVM exclusivo, voc&amp;ecirc; descobrir&amp;aacute; que a troca de dispositivos n&amp;atilde;o pode ser mais f&amp;aacute;cil! R&amp;aacute;pido como um piscar de olhos!&lt;/p&gt;
+&lt;p style="text-align: justify;"&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h3 style="text-align: justify;"&gt;Compre agora no KaBuM!&lt;/h3&gt;</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Asus ROG Swift 43' LED, 144 Hz, 4K UHD, Adaptive Sync, HDR 1000, 90%  DCI-P3, HDMI/DisplayPort, VESA, Som Integrado - PG43UQ</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Monitor Gamer Asus ROG Swift 43' LED, 144 Hz, 4K UHD, Adaptive Sync, HDR 1000, 90%&amp;nbsp; DCI-P3, HDMI/DisplayPort, VESA, Som Integrado&lt;/h2&gt;
+&lt;p&gt;O ROG Swift PG43UQ &amp;eacute; o primeiro monitor gaming de 43 polegadas do mundo com tecnologia Display Stream Compression (DSC) que oferece &lt;strong&gt;visuais 4K suaves em at&amp;eacute; 144Hz&lt;/strong&gt;. Possui tecnologia high dynamic range (HDR) com 90% de cobertura de gama de cores profissional DCI-P3 e contraste excepcional para certifica&amp;ccedil;&amp;atilde;o DisplayHDR&amp;trade; 1000, al&amp;eacute;m de suporte para tecnologia &lt;strong&gt;NVIDIA G-SYNC&lt;/strong&gt;. O ROG Swift PG43UQ tamb&amp;eacute;m inclui a tecnologia GameFast Input para um controle mais responsivo e livre de atrasos que aumenta a experi&amp;ecirc;ncia de jogo e lhe d&amp;aacute; vantagem contra seus oponente&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Excelente Qualidade de Imagem com Tecnologia DSC&lt;/h2&gt;
+&lt;p&gt;A tecnologia Display Stream Compression (DSC) do ROG Swift PG43UQ* permite &lt;strong&gt;imagens 4K&lt;/strong&gt; por meio de uma &amp;uacute;nica c&lt;strong&gt;onex&amp;atilde;o DisplayPort 1.4,&lt;/strong&gt; compactando e descompactando cada quadro em tempo real, sem perda visual da qualidade da imagem.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;NVIDIA G-SYNC Compat&amp;iacute;vel&lt;/h2&gt;
+&lt;p&gt;Certificado como compat&amp;iacute;vel com&lt;strong&gt; G-SYNC&lt;/strong&gt;, o ROG Swift PG43UQ oferece uma experi&amp;ecirc;ncia de jogo perfeita e sem falhas ao habilitar VRR por padr&amp;atilde;o nas placas de v&amp;iacute;deo NVIDIA GeForce GTX 10-Series e NVIDIA GeForce RTX 20-Series.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;High Dynamic Range (HDR) CON DCI-P3 90% E DISPLAY HDR 1000&lt;/h2&gt;
+&lt;p&gt;O ROG Swift PG43UQ suporta tecnologia HDR atrav&amp;eacute;s de uma f&lt;strong&gt;aixa de lumin&amp;acirc;ncia (at&amp;eacute; 400cd/m2)&lt;/strong&gt;. Os brancos mais brilhantes e os pretos mais escuros revelam detalhes como nunca antes.&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h3&gt;Aproveite essa oportunidade e adquira seu Monitor Gamer no KaBuM!&lt;/h3&gt;</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Gigabyte 32' LED, Curvo, 165 Hz, 2K QHD, 1ms, FreeSync Premium, HDR 400, 123% sRGB, HDMI/DisplayPort, Ajuste de Altura - M32QC</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Monitor Gamer Gigabyte 32' LED, Curvo, 165 Hz, 2K QHD, 1ms, FreeSync Premium, HDR 400, 123% sRGB, HDMI/DisplayPort, Ajuste de Altura&lt;/h2&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Monitor Curvo de 1500R&lt;/h2&gt;
+&lt;p&gt;O p&lt;strong&gt;ainel 1500R VA de 31,5&amp;rdquo;&lt;/strong&gt; apresenta uma vis&amp;atilde;o mais pr&amp;oacute;xima do olho humano do que um monitor plano, proporcionando uma sensa&amp;ccedil;&amp;atilde;o mais &lt;strong&gt;imersiva&lt;/strong&gt;.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Recurso KVM&lt;/h2&gt;
+&lt;p&gt;O recurso KVM permite&lt;strong&gt; controlar v&amp;aacute;rios dispositivos&lt;/strong&gt; por meio de um conjunto de teclado, v&amp;iacute;deo e mouse. Com nosso bot&amp;atilde;o KVM exclusivo, voc&amp;ecirc; descobrir&amp;aacute; que a comuta&amp;ccedil;&amp;atilde;o de dispositivos n&amp;atilde;o pode ser mais f&amp;aacute;cil! R&amp;aacute;pido como um piscar de olhos!&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Tempo de Resposta de 1ms, 240Hz e Cor de 8 bits&lt;/h2&gt;
+&lt;p&gt;Tempo de resposta super r&amp;aacute;pido de &lt;strong&gt;1 ms&lt;/strong&gt; para a experi&amp;ecirc;ncia de jogo mais suave de todos os tempos! Alta resolu&amp;ccedil;&amp;atilde;o e &lt;strong&gt;taxa de atualiza&amp;ccedil;&amp;atilde;o r&amp;aacute;pida&lt;/strong&gt;, oferecendo qualidade de exibi&amp;ccedil;&amp;atilde;o detalhada e experi&amp;ecirc;ncia de jogo fluida! Fant&amp;aacute;stica tela colorida e &lt;strong&gt;94% de cores DCI-P3&lt;/strong&gt; de gama super ampla.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Design Funcional&lt;/h2&gt;
+&lt;p&gt;A apar&amp;ecirc;ncia aerodin&amp;acirc;mica representa a simplicidade da filosofia de design da s&amp;eacute;rie de jogos GIGABYTE, suporte robusto e &lt;strong&gt;acabamento fosco constru&amp;iacute;do&lt;/strong&gt; para recursos funcionais e est&amp;eacute;ticos adicionando mais &amp;agrave;s caracter&amp;iacute;sticas.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;&amp;Acirc;ngulo de Vis&amp;atilde;o&lt;/h2&gt;
+&lt;p&gt;O monitor GIGABYTE Gaming possui um suporte exclusivo &lt;strong&gt;projetado ergonomicamente&lt;/strong&gt; para oferecer uma ampla variedade de ajustes de altura e inclina&amp;ccedil;&amp;atilde;o.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h3&gt;Aproveite essa oportunidade e adquira seu Monitor Gamer Aorus no KaBuM!&lt;/h3&gt;</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Gigabyte 28 4K UHD, 144Hz, 1ms, HDR400, FreeSync Premium, 94% DCI-P3 IPS, KVM, DisplayPort/HDMI - M28U</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Monitor Gamer Gigabyte 28 4K HDR400, FreeSync Premium, DisplayPort / HDMI | Tempo de resposta GTG de 1 ms, Cor de 8 bits, 94% DCI-P3, UHD com 144 Hz, Alta taxa de BIT 3&lt;/h2&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h3&gt;A &amp;Uacute;LTIMA MILHA PARA O SEU SISTEMA DE JOGO&lt;/h3&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;Como um jogador invis&amp;iacute;vel, o monitor &amp;eacute; frequentemente subestimado. A verdade &amp;eacute; que os monitores se formam como um efeito sin&amp;eacute;rgico e trazem o melhor desempenho dos componentes do PC.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;Os monitores de jogos GIGABYTE oferecem as &amp;uacute;ltimas especifica&amp;ccedil;&amp;otilde;es e qualidade, os usu&amp;aacute;rios podem realmente desfrutar de um desempenho de alto n&amp;iacute;vel sem a necessidade de extravag&amp;acirc;ncia.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h3&gt;Um por todos&lt;/h3&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;O recurso KVM permite que voc&amp;ecirc; controle v&amp;aacute;rios dispositivos por meio de um conjunto de teclado, v&amp;iacute;deo e mouse. Com o nosso bot&amp;atilde;o KVM exclusivo, voc&amp;ecirc; descobrir&amp;aacute; que a comuta&amp;ccedil;&amp;atilde;o de dispositivos n&amp;atilde;o pode ser mais f&amp;aacute;cil! R&amp;aacute;pido como um piscar de olhos!&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h3&gt;Tempo de resposta GTG de 1 ms&lt;/h3&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;A tecnologia SuperSpeed ??IPS reduz o tempo de resposta para 1 ms; enquanto isso, oferece uma cor espl&amp;ecirc;ndida de grau IPS!&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h3&gt;UHD com 144 Hz&lt;/h3&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;Alta resolu&amp;ccedil;&amp;atilde;o e taxa de atualiza&amp;ccedil;&amp;atilde;o r&amp;aacute;pida, proporcionando qualidade de exibi&amp;ccedil;&amp;atilde;o detalhada e experi&amp;ecirc;ncia de jogo fluida!&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h3&gt;Cor de 8 bits, 94% DCI-P3&lt;/h3&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;Fant&amp;aacute;stico visor colorido e 94% DCI-P3 de super ampla gama de cores.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h3&gt;ALTA TAXA DE BIT 3&lt;/h3&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;O suporte de DisplayPort High Bit Rate 3 (HBR3) fornece a largura de banda para oferecer a taxa de atualiza&amp;ccedil;&amp;atilde;o mais r&amp;aacute;pida do monitor, profundidade de cor total e efeito HDR ao mesmo tempo!&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h3&gt;SIMPLES MAS ESTILOSO&lt;/h3&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;A apar&amp;ecirc;ncia aerodin&amp;acirc;mica representa a simplicidade da filosofia de design da s&amp;eacute;rie de jogos GIGABYTE, suporte robusto e acabamento fosco constru&amp;iacute;do para caracter&amp;iacute;sticas funcionais e est&amp;eacute;ticas adicionando mais caracter&amp;iacute;sticas.&lt;/p&gt;</t>
   </si>
   <si>
     <t>Monitor Gamer Samsung Odyssey G3 24 LED Full HD, 165 Hz, 1ms, HDMI/DisplayPort, FreeSync Premium, Ajuste de Altura, Preto - LS24AG320NLXZD</t>
@@ -1490,6 +3478,56 @@
 &lt;h3&gt;&lt;br /&gt;&lt;a href="https://www.kabum.com.br/computadores/monitores/monitor-gamer" target="_blank"&gt;Monitor Gamer&lt;/a&gt;&amp;nbsp;Samsung &amp;eacute; no KaBuM!&amp;nbsp;&lt;/h3&gt;</t>
   </si>
   <si>
+    <t>Monitor Gamer Gigabyte 34 4K WQHD, 144Hz, 1ms, IPS, HDMI e DisplayPort,HDR, 117% sRGB, FreeSync Premium, VESA, DCI-P 91%, HDR 400 - M34WQ-SA</t>
+  </si>
+  <si>
+    <t>&lt;h2 style="text-align: justify;"&gt;Monitor Gamer Gigabyte 34 4K WQHD, FreeSync Premium, VESA.&lt;/h2&gt;
+&lt;p style="text-align: justify;"&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p style="text-align: justify;"&gt;&lt;strong&gt;A &amp;Uacute;LTIMA MILHA PARA O SEU SISTEMA DE JOGO&lt;/strong&gt;&lt;/p&gt;
+&lt;p style="text-align: justify;"&gt;&lt;strong&gt;Como um jogador invis&amp;iacute;vel, o monitor costuma ser subestimad&lt;/strong&gt;o. A verdade &amp;eacute; que os monitores se formam como um efeito sin&amp;eacute;rgico e trazem o melhor desempenho dos componentes do PC.&lt;strong&gt; Os monitores de jogos GIGABYTE oferecem as especifica&amp;ccedil;&amp;otilde;es e qualidade mais recentes&lt;/strong&gt;, os usu&amp;aacute;rios podem realmente desfrutar de um desempenho de alto n&amp;iacute;vel sem a necessidade de extravag&amp;acirc;ncia.&lt;/p&gt;
+&lt;p style="text-align: justify;"&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p style="text-align: justify;"&gt;&lt;strong&gt;MULTITAREFA COMO UM PROFISSIONAL&lt;/strong&gt;&lt;/p&gt;
+&lt;p style="text-align: justify;"&gt;Com a &amp;aacute;rea de visualiza&amp;ccedil;&amp;atilde;o extra, &lt;strong&gt;aumenta muito a efici&amp;ecirc;ncia e a produtividade!&lt;/strong&gt;&lt;/p&gt;
+&lt;p style="text-align: justify;"&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h3 style="text-align: justify;"&gt;Compre agora no KaBuM!&lt;/h3&gt;</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Asus 23.8' IPS, Wide, 144 Hz, Full HD, 1ms, Adaptive Sync, HDMI/DisplayPort, Vesa, Som Integrado - VP249QGR</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;O Monitor Gamer Asus VP249QGR foi desenvolvido para a vit&amp;oacute;ria na arena de jogos profissionais&lt;/h2&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;Com seu &lt;strong&gt;Full HD Painel IPS&lt;/strong&gt;, taxa de atualiza&amp;ccedil;&amp;atilde;o de &lt;strong&gt;144Hz com Adaptive-Sync (FreeSync) e 1ms MPRT&lt;/strong&gt; para jogos super suaves visual, mistura o virtual e o real para atrair voc&amp;ecirc; para jogos realmente imersivos. Inclui ainda recursos centrados nos jogadores, como as &lt;strong&gt;tecnologias ASUS GamePlus&lt;/strong&gt;, para levar seus jogos experi&amp;ecirc;ncia para um n&amp;iacute;vel totalmente novo.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Tecnologia que um Monitor para PC pede, com a tecnologia ASUS Ultra-Low Blue Light que ajuda a reduzir a quantidade de luz azul prejudicial&lt;/h2&gt;
+&lt;p&gt;Voc&amp;ecirc; pode acessar e selecionar quatro configura&amp;ccedil;&amp;otilde;es de filtro diferentes na tela facilmente atrav&amp;eacute;s do menu OSD para encontrar o melhor que se adapte &amp;agrave; tarefa em quest&amp;atilde;o. O &lt;strong&gt;Monitor Gamer&lt;/strong&gt; passou por rigorosos testes de desempenho e &amp;eacute; certificado pelos laborat&amp;oacute;rios &lt;strong&gt;T&amp;Uuml;V Rheinland&lt;/strong&gt;, um fornecedor global de servi&amp;ccedil;os t&amp;eacute;cnicos, de seguran&amp;ccedil;a e certifica&amp;ccedil;&amp;atilde;o, para ser livre de cintila&amp;ccedil;&amp;atilde;o e &lt;strong&gt;emitir baixos n&amp;iacute;veis de luz azul&lt;/strong&gt;.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Taxa de atualiza&amp;ccedil;&amp;atilde;o de at&amp;eacute; 144Hz com a tecnologia Adaptive-Sync (FreeSync) e MPRT de 1ms dizima o lag e motion blur&lt;/h2&gt;
+&lt;p&gt;Para lhe dar a vantagem em atiradores em primeira pessoa, pilotos, em tempo real estrat&amp;eacute;gia e t&amp;iacute;tulos esportivos. Essa taxa de atualiza&amp;ccedil;&amp;atilde;o ultrarr&amp;aacute;pida permite que voc&amp;ecirc; jogue com as configura&amp;ccedil;&amp;otilde;es mais altas e permite que voc&amp;ecirc; reaja instantaneamente ao que est&amp;aacute; na tela! A &lt;strong&gt;tecnologia ASUS Shadow Boost&lt;/strong&gt; esclarece &amp;aacute;reas escuras do mundo dos jogos sem superexposi&amp;ccedil;&amp;atilde;o de &amp;aacute;reas mais brilhantes - melhorando a visualiza&amp;ccedil;&amp;atilde;o geral e facilitando a localiza&amp;ccedil;&amp;atilde;o de inimigos escondido em &amp;aacute;reas escuras do mapa.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;O Monitor Gamer Asus possui o GamePlus exclusivo da ASUS para fornecer aprimoramentos no jogo que ajudam voc&amp;ecirc; a tirar mais proveito do seu jogo&lt;/h2&gt;
+&lt;p&gt;Essas ferramentas permitem aos jogadores praticar e melhorar suas habilidades habilidades de jogo. Esta fun&amp;ccedil;&amp;atilde;o &amp;eacute; co-desenvolvida com a contribui&amp;ccedil;&amp;atilde;o de jogadores profissionais. A &lt;strong&gt;tecnologia Flicker-Free&lt;/strong&gt; reduz o flicker para oferecer a voc&amp;ecirc; um jogo confort&amp;aacute;vel experi&amp;ecirc;ncia. Isso minimiza casos de fadiga ocular e outras doen&amp;ccedil;as oculares potencialmente prejudiciais quando voc&amp;ecirc; se envolve em longas e prolongadas sess&amp;otilde;es de jogos.&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h3&gt;Garanta j&amp;aacute; seu Monitor Gamer Asus aqui no KaBuM!&lt;/h3&gt;</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Warrior Kaizen 27 IPS, 144 Hz, Full HD, 1ms, FreeSync, HDMI/DisplayPort - MN201</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Monitor Gamer Warrior Kaizen 27 IPS&lt;/h2&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;Torne seu setup gamer, ainda melhor com ilumina&amp;atilde;o RGB e tenha uma jogabilidade fluida com uma taxa de atualiza&amp;ccedil;&amp;atilde;o 144Hz, sem rastros e o efeito ghosting.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;A tela de 27" FHD do Warrior Kaizen garante uma imers&amp;atilde;o total em seus games, aproveite ao m&amp;aacute;ximo sua qualidade de imagem em alta resolu&amp;ccedil;&amp;atilde;o.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;A tecnologia FreeSync sincroniza os quadros gerados pela placa gr&amp;aacute;fica (GPU) com a taxa de atualiza&amp;ccedil;&amp;atilde;o do monitor, garantindo que eles fiquem sempre alinhados e proporcionem uma imagem fluida e sem cortes.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;Com ajustes precisos de altura e rota&amp;ccedil;&amp;atilde;o, o monitor Warrior Kaizen se adpata perfeitamente ao seu setup.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Acer Nitro 23.8' IPS, 165 Hz, Full HD, FreeSync Premium, HDR 10, HDMI/DisplayPort, VESA - RG241 Y</t>
+  </si>
+  <si>
     <t>Monitor Gamer Ozone 24,5 LED, 144 Hz, Full HD, 1ms, FreeSync, HDR, HDMI/DisplayPort, Ajuste de Altura - OZDSP25PRO</t>
   </si>
   <si>
@@ -1513,6 +3551,64 @@
 &lt;p&gt;Ele tamb&amp;eacute;m possui tecnologia &lt;strong&gt;Adaptive-Sync (FreeSync Premium)&lt;/strong&gt;, para uma jogabilidade extremamente fluida sem lacrimejamento e gagueira. O painel &lt;strong&gt;Full HD de 23,8 polegadas (1920 X 1080)&lt;/strong&gt; do TUF Gaming VG249Q1R oferece visuais impressionantes de &amp;acirc;ngulos de vis&amp;atilde;o amplos de 178&amp;deg;. Tamb&amp;eacute;m ocupa muito pouco espa&amp;ccedil;o na &amp;aacute;rea de trabalho e se encaixa bem em qualquer configura&amp;ccedil;&amp;atilde;o. Seu &lt;strong&gt;perfil ultrafino mede apenas 7,5 mm&lt;/strong&gt; em seu ponto mais fino, tamb&amp;eacute;m apresenta o novo Turbo Rim baseado que combina com a configura&amp;ccedil;&amp;atilde;o de jogo perfeita.&lt;/p&gt;
 &lt;p&gt;&amp;nbsp;&lt;/p&gt;
 &lt;h3&gt;Adquira agora o seu monitor gamer da ASUS no KaBuM!.&lt;/h3&gt;</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Gigabyte 34 LED 2K QHD Curvo, 144Hz, 1ms, HDMI e DisplayPort, FreeSync Premium, 90% sRGB, VESA,  DCI-P 90%, HDR 400 - G34WQC A-SA</t>
+  </si>
+  <si>
+    <t>&lt;h2 style="text-align: justify;"&gt;Monitor Gamer Gigabyte&amp;nbsp;&lt;/h2&gt;
+&lt;p style="text-align: justify;"&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p style="text-align: justify;"&gt;A &amp;Uacute;LTIMA MILHA PARA O SEU SISTEMA DE JOGO&lt;/p&gt;
+&lt;p style="text-align: justify;"&gt;Como um jogador invis&amp;iacute;vel, o monitor costuma ser subestimado. A verdade &amp;eacute; que os monitores se formam como um efeito sin&amp;eacute;rgico e trazem o melhor desempenho dos componentes do PC.&lt;strong&gt; Os monitores de jogos GIGABYTE oferecem as especifica&amp;ccedil;&amp;otilde;es e qualidade mais recentes&lt;/strong&gt;, os usu&amp;aacute;rios podem realmente desfrutar de um desempenho de alto n&amp;iacute;vel sem a necessidade de extravag&amp;acirc;ncia.&lt;/p&gt;
+&lt;p style="text-align: justify;"&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p style="text-align: justify;"&gt;MULTITAREFA COMO UM PROFISSIONAL&lt;/p&gt;
+&lt;p style="text-align: justify;"&gt;Com a &amp;aacute;rea de &lt;strong&gt;visualiza&amp;ccedil;&amp;atilde;o extra&lt;/strong&gt;, aumenta muito a efici&amp;ecirc;ncia e a produtividade!&lt;/p&gt;
+&lt;p style="text-align: justify;"&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p style="text-align: justify;"&gt;SUA SENSA&amp;Ccedil;&amp;Atilde;O SUPER IMERSIVA NO JOGO!&lt;/p&gt;
+&lt;p style="text-align: justify;"&gt;&lt;strong&gt;O painel VA 1500R de 34&amp;rdquo;&lt;/strong&gt; apresenta uma vis&amp;atilde;o mais pr&amp;oacute;xima do olho humano do que um monitor plano, proporcionando uma sensa&amp;ccedil;&amp;atilde;o mais envolvente.&lt;/p&gt;
+&lt;p style="text-align: justify;"&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h3 style="text-align: justify;"&gt;compre ja o seu!!!!&lt;/h3&gt;</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Asus TUF 24.5' IPS, Wide, 280 Hz, Full HD, 1ms, FreeSync, HDR, 99% sRGB, HDMI/DisplayPort, Ajuste de Altura, Vesa - VG259QM</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Monitor r&amp;aacute;;pido para jogos IPS de 24,5 polegadas Full HD com taxa de atualiza&amp;ccedil;;&amp;atilde;o ultra-r&amp;aacute;;pida, projetada para jogadores profissionais e jogabilidade envolvente. A tecnologia IPS r&amp;aacute;;pida permite um tempo de resposta de 1ms para visuais n&amp;iacute;;tidos de jogos com altas taxas de quadros.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Acer Nitro VG0 27' IPS, 165 Hz, Full HD, 0.5ms, FreeSync Premium, 98%sRGB, HDMI e DisplayPort, VESA, Som Integrado - KG272 S</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Monitor Gamer Acer Nitro 27 IPS, 165 Hz, Full HD, 0.5 ms, FreeSync Premium, HDR 10, 98% sRGB, HDMI / DisplayPort&amp;nbsp;&lt;/h2&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Taxa de atualiza&amp;ccedil;&amp;atilde;o de overclock para 165 Hz&amp;nbsp;&lt;/h2&gt;
+&lt;p&gt;A taxa de atualiza&amp;ccedil;&amp;atilde;o de overclock para 165 Hz &lt;strong&gt;acelera os quadros por segundo&lt;/strong&gt; para fornecer cenas de movimento 2D ultra-suaves. Com uma r&amp;aacute;pida taxa de atualiza&amp;ccedil;&amp;atilde;o de &lt;strong&gt;overclock de 165 Hz&lt;/strong&gt;, os monitores de jogos da Acer encurtam o tempo necess&amp;aacute;rio para a renderiza&amp;ccedil;&amp;atilde;o de quadros, diminuem o atraso de entrada e fornecem aos jogadores uma excelente experi&amp;ecirc;ncia no jogo.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Tecnologia HDR10&lt;/h2&gt;
+&lt;p&gt;HDR &amp;eacute; uma tecnologia de exibi&amp;ccedil;&amp;atilde;o que cria n&amp;iacute;veis mais profundos de &lt;strong&gt;contraste preto e branco&lt;/strong&gt;, proporcionando um &lt;strong&gt;n&amp;iacute;vel maior de imers&amp;atilde;o&lt;/strong&gt; por meio da recria&amp;ccedil;&amp;atilde;o de imagens realistas. Os monitores Acer HDR suportam o formato HDR10.&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Tempo de resposta&amp;nbsp;&lt;/h2&gt;
+&lt;p&gt;O r&amp;aacute;pido tempo de resposta de &lt;strong&gt;0,5 ms GTG&lt;/strong&gt; (cinza a cinza) aprimora a experi&amp;ecirc;ncia do jogador no jogo. N&amp;atilde;o importa se &amp;eacute; uma a&amp;ccedil;&amp;atilde;o em movimento r&amp;aacute;pido ou transi&amp;ccedil;&amp;otilde;es dram&amp;aacute;ticas, &lt;strong&gt;tudo ser&amp;aacute; renderizado suavemente&lt;/strong&gt;, sem os efeitos irritantes de manchas ou fantasmas.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Monitor LED Full HD&amp;nbsp;&lt;/h2&gt;
+&lt;p&gt;Traga os usu&amp;aacute;rios para um mundo colorido perfeito com&lt;strong&gt; FHD 1920 x 1080&lt;/strong&gt; e oferece a melhor qualidade original natural e n&amp;iacute;tida.&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Design Zeroframe&lt;/h2&gt;
+&lt;p&gt;Monitor &amp;eacute; igual exp: quanto mais, melhor. Jogue com m&amp;uacute;ltiplos monitores sem problemas, o design ZeroFrame praticamente &lt;strong&gt;elimina as bordas&lt;/strong&gt; para que voc&amp;ecirc; tenha uma verdadeira imers&amp;atilde;o no jogo.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h3&gt;Aproveite essa oportunidade e adquira seu Monitor Gamer Acer no KaBuM!&lt;/h3&gt;</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Zowie LED 24´ Widescreen, Full HD, HDMI/DVI/DisplayPort, 144Hz, 1ms, Altura Ajustável - XL2411P</t>
+  </si>
+  <si>
+    <t>A série XL da ZOWIE possui os monitores de e-Sports para jogadores de PC, afinados para garantir a experiência mais suave e receptiva e as imagens mais claras para armar você para competição.</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Ozone 24 LED, 240 Hz, Full HD, 1ms, FreeSync, HDR, HDMI/DisplayPort, Ajuste de Altura - OZDSP24240</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Jogue confortavelmente. Um monitor LED projetado ergonomicamente em materiais robustos e de qualidade, possui uma excelente est&amp;eacute;tica, com quadros finos e modernos que atraem voc&amp;ecirc; e dimens&amp;otilde;es compactas que facilitam a configura&amp;ccedil;&amp;atilde;o de v&amp;aacute;rios monitores. Por outro lado, sua base est&amp;aacute;vel significa que voc&amp;ecirc; &amp;eacute; capaz de inclinar e girar o monitor, adaptando-o ao &amp;acirc;ngulo ideal, al&amp;eacute;m de regular sua altura sem dificuldades, ajustando para melhor visualiza&amp;ccedil;&amp;atilde;o e conforto ideal. Al&amp;eacute;m disso, o OZDSP24240 &amp;eacute; compat&amp;iacute;vel com o sistema de montagem VESA, permitindo que voc&amp;ecirc; o monte facilmente na parede, liberando a &amp;aacute;rea de trabalho. Tamb&amp;eacute;m n&amp;atilde;o esquecendo o conforto dos olhos, com as tecnologias Low Blue Light e Flicker Free, que liberam a imagem da cintila&amp;ccedil;&amp;atilde;o e oferecem prote&amp;ccedil;&amp;atilde;o contra a luz azul, reduzindo a fadiga ocular durante jogos longos, e significa que voc&amp;ecirc; pode desfrutar de uma experi&amp;ecirc;ncia de jogo completa na qual nada ir&amp;aacute; parar voc&amp;ecirc;s. Uma imagem invej&amp;aacute;vel. Entre no jogo com o monitor LED Ozone DSP24240 de 24 polegadas com alta resolu&amp;ccedil;&amp;atilde;o de 1920 x 1080 pixels FULL HD, que garante a defini&amp;ccedil;&amp;atilde;o que voc&amp;ecirc; precisa o tempo todo. Com sua tecnologia HDR, nada passa despercebido, mesmo na escurid&amp;atilde;o total, gra&amp;ccedil;as &amp;agrave; sua taxa de contraste de 1000: 1 e suas v&amp;aacute;rias op&amp;ccedil;&amp;otilde;es de brilho, com um brilho excepcional de 350 cd / m2, adaptando-se a qualquer jogo e conte&amp;uacute;do multim&amp;iacute;dia. Sua excelente taxa de atualiza&amp;ccedil;&amp;atilde;o de 240 Hz tamb&amp;eacute;m o torna um monitor perfeito para designers, gra&amp;ccedil;as a uma maior defini&amp;ccedil;&amp;atilde;o e uma impressionante qualidade gr&amp;aacute;fica que atendem &amp;agrave;s expectativas dos profissionais mais exigentes. Voc&amp;ecirc; pode ajustar facilmente os v&amp;aacute;rios aspectos da configura&amp;ccedil;&amp;atilde;o em tempo real usando os bot&amp;otilde;es intuitivos na parte traseira da tela e deixar-se levar por uma imagem sens&amp;iacute;vel e com cores vivas o tempo todo. Conectividade vers&amp;aacute;til. Em termos de conectividade, o monitor DSP24240 possui um conector HDMI (cabo inclu&amp;iacute;do), um conector Display Port 1.2 (cabo inclu&amp;iacute;do) e uma conex&amp;atilde;o USB, al&amp;eacute;m de uma conex&amp;atilde;o de &amp;aacute;udio. Taxa de atualiza&amp;ccedil;&amp;atilde;o r&amp;aacute;pida e alta capacidade de resposta. Para os players mais exigentes e competitivos, sua taxa de atualiza&amp;ccedil;&amp;atilde;o de 240 Hz permite uma rea&amp;ccedil;&amp;atilde;o r&amp;aacute;pida, gra&amp;ccedil;as a imagens perfeitas. O DSP24240 possui um incr&amp;iacute;vel tempo de resposta de 1ms, quatro vezes mais r&amp;aacute;pido que um monitor convencional. Com impressionante clareza visual, oferece uma nitidez que ajuda voc&amp;ecirc; a atingir seus objetivos, dizendo adeus aos ghosting irritantes. Flu&amp;ecirc;ncia competitiva. Ele suporta a tecnologia Freesync para AMD e tamb&amp;eacute;m &amp;eacute; compat&amp;iacute;vel com o NVIDIA G-Sync. Sincronizando a taxa de quadros entre o monitor Ozone DSP24 240 e sua placa de v&amp;iacute;deo, oferece uma experi&amp;ecirc;ncia de jogo fant&amp;aacute;stica, eliminando os efeitos de rasg&amp;atilde;o e interrup&amp;ccedil;&amp;atilde;o da tela. O DSP24240 oferece fluidez, excelente foco e movimentos naturais, oferecendo uma grande vantagem competitiva.&lt;/p&gt;</t>
   </si>
   <si>
     <t>Monitor Gamer Multi Shin Kai 24 LED, Curvo, 165 Hz, Full HD, 1ms, FreeSync, HDMI/DisplayPort - MN103</t>
@@ -1535,6 +3631,89 @@
     <t>&lt;h2&gt;Monitor Gamer Philco 24 LED Full HD, 165 Hz, 1ms, HDMI, DisplayPort, HDR 10, FreeSync, Preto - PMG24P980FG&lt;/h2&gt;
 &lt;p&gt;&lt;br /&gt;Resolu&amp;ccedil;&amp;atilde;o de 1920 x 1080 (pixels), que permite um melhor detalhamento da imagem, consequentemente uma melhor visualiza&amp;ccedil;&amp;atilde;o com mais nitidez e clareza.&lt;/p&gt;
 &lt;p&gt;&lt;br /&gt;O monitor conta com uma taxa de atualiza&amp;ccedil;&amp;atilde;o de 165Hz quando conectado atrav&amp;eacute;s do DisplayPort e via cabo HDMI*, trazendo maior fluidez nos seus jogos. *165Hz em cabo HDMI vers&amp;atilde;o 2.0 ou acima, frequ&amp;ecirc;ncia de 144Hz no cabo HDMI com vers&amp;otilde;es abaixo de 2.0.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Gigabyte 31.5 IPS, QHD, 170Hz, 1ms, 120% sRGB, HDR, FreeSync Premium, KVM, Altura Ajustável -M32Q-SA</t>
+  </si>
+  <si>
+    <t>GIGABYTE M32Q é uma resolução QHD de tela plana de 32 polegadas e equipada com o mais recente painel SuperSpeed IPS para atingir um tempo de resposta GTG de 1ms com uma taxa de atualização de 165Hz (OC 170Hz) GIGABYTE Lança o Monitor Gamer M32Q - Aumentando o nível de trabalho e diversão em uma tela maior! A linha da série M foi projetada para aumentar a produtividade do trabalho, enquanto oferece uma experiência de jogo ultra-rápida e desejo de entretenimento. O botão KVM exclusivo na parte traseira permite que os usuários alternem rapidamente entre os dispositivos. A linha está equipada com portas USB Tipo C que fornecem exibição, dados e fornecimento de energia para dispositivos móveis. Ao conectar os dispositivos (suporte para modo alternativo DisplayPort) diretamente ao monitor, os usuários podem usar o teclado e o mouse para controlar esses dispositivos e carregá-los ao mesmo tempo. Ele traz diversos cenários de uso e aumenta muito a produtividade. Fornecendo imagens em movimento suave e qualidade de imagem incrível Para desempenho de cores, cores de 8 bits e gama de cores super ampla de 9 4 % DCI-P3 / 120% sRGB oferecendo excelente precisão e consistência de cores. Além disso, é DisplayHDR400 certificado pela VESA para garantir uma qualidade de exibição espetacular para a melhor experiência em jogos e filmes.</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Acer 27 IPS,165 Hz, Full HD, 1ms, FreeSync Premium, HDR 400, 99%sRGB, HDMI/DisplayPort, Som Integrado 2x2w- VG271</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Monitor Gamer Acer 27 IPS, 165 Hz, Full HD, 1ms, FreeSync Premium, HDR 400, 99%sRGB, HDMI/DisplayPort, Som Integrado 2x2w&lt;/h2&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Full HD 1920x1080&amp;nbsp;&lt;/h2&gt;
+&lt;p&gt;A s&amp;eacute;rie VG271 S leva os usu&amp;aacute;rios a um mundo colorido perfeito em &lt;strong&gt;Full HD 1920 x 1080&lt;/strong&gt; e oferece a melhor qualidade original, natural e n&amp;iacute;tida com o &lt;strong&gt;painel IPS&lt;/strong&gt; e rela&amp;ccedil;&amp;atilde;o de contraste de 100.000.000: 1.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;ZeroFrame&lt;/h2&gt;
+&lt;p&gt;Oferece um novo&lt;strong&gt; design de quadro zero&lt;/strong&gt;, remove virtualmente a caixa delimitadora da tela e oferece todas as imagens, prazer visual cont&amp;iacute;nuo.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Taxa de atualiza&amp;ccedil;&amp;atilde;o de 165Hz&lt;/h2&gt;
+&lt;p&gt;Acelera os quadros por segundo para fornecer cenas de movimento ultra suaves. Com uma taxa de atualiza&amp;ccedil;&amp;atilde;o r&amp;aacute;pida de&lt;strong&gt; 165 Hz&lt;/strong&gt;, os monitores de jogos da Acer encurtam o tempo necess&amp;aacute;rio para a renderiza&amp;ccedil;&amp;atilde;o de quadros, diminuem o atraso de entrada e fornecem aos jogadores uma excelente experi&amp;ecirc;ncia no jogo.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;In-Plane Switching&amp;nbsp;&lt;/h2&gt;
+&lt;p&gt;F&amp;oacute;rmula de cristal l&amp;iacute;quido avan&amp;ccedil;ado, com&lt;strong&gt; desempenho de cor premium&lt;/strong&gt;, que n&amp;atilde;o tem diferen&amp;ccedil;a em nenhum &amp;acirc;ngulo de vis&amp;atilde;o.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;AMD Radeon FreeSync&lt;/h2&gt;
+&lt;p&gt;"Diga adeus" &amp;agrave; gagueira e ao rasgo. Com o AMD Radeon FreeSync, os &lt;strong&gt;quadros do monitor s&amp;atilde;o sincronizados&lt;/strong&gt; com os quadros da placa gr&amp;aacute;fica, o que elimina a tela rasgada e fornece a experi&amp;ecirc;ncia de jogo mais suave.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;AcerVisionCare&lt;/h2&gt;
+&lt;p&gt;A tecnologia AcerVisionCare incorpora v&amp;aacute;rios recursos, por meio de sensores que elevam em considera&amp;ccedil;&amp;atilde;o o uso prolongado por usu&amp;aacute;rios pesados, como jogadores, programadores, escritores e designers gr&amp;aacute;ficos para &lt;strong&gt;reduzir o cansa&amp;ccedil;o visual&lt;/strong&gt; e fornecer uma experi&amp;ecirc;ncia de visualiza&amp;ccedil;&amp;atilde;o mais confort&amp;aacute;vel.&lt;/p&gt;
+&lt;h3&gt;Aproveite essa oportunidade e adquira seu Monitor Acer 21.5 LED no KaBuM!&lt;/h3&gt;</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Zowie XL2546K, 24.5 240Hz, 1ms, Tecnologia DyAc, headphone jack + Cabo HDMI Gold 2.1 PIX, 8K, 1.5m - 018-2121</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Monitor Gamer Zowie XL2546K&lt;/h2&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;Uma nova gera&amp;ccedil;&amp;atilde;o da s&amp;eacute;rie XL de monitores gamers para PC, com ajustes aprimorados para maior flexibilidade, conforto e conveni&amp;ecirc;ncia aos jogadores, permitindo foco e desempenho durante o game.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Cabo HDMI Gold 2.1 PIX, 8K, 1.5m&lt;/h2&gt;
+&lt;p&gt;Mais um produto com a qualidade PIX, acess&amp;oacute;rios de &amp;aacute;udio e v&amp;iacute;deo que proporcionam a imagem mais n&amp;iacute;tida e o som mais perfeito.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h3&gt;Compre agora no KaBuM!&lt;/h3&gt;</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Asus 27 LED, Wide, 165 Hz, Full HD, 0.5ms, Adaptive Sync, HDMI/DisplayPort + Cabo HDMI Gold 2.1 PIX, 8K, 1.5m - 018-2121</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Monitor Gamer Asus 27 LED&lt;/h2&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;Monitor Full HD de 27&amp;rdquo; com uma velocidade de atualiza&amp;ccedil;&amp;atilde;o de ultrarr&amp;aacute;pida de 165Hz e tecnologia Adaptive-Sync para eliminar tearing e taxas de quadros inst&amp;aacute;veis. Certificada como compat&amp;iacute;vel com G-SYNC, a tecnologia FreeSync Premium oferece uma experi&amp;ecirc;ncia de jogo perfeita e sem problemas ao habilitar VRR (taxa de atualiza&amp;ccedil;&amp;atilde;o vari&amp;aacute;vel) por padr&amp;atilde;o. Tempo de resposta de 0.5ms para uma jogabilidade mais suave e tecnologia ASUS Extreme Motion Blur (ELMB) para reduzir ainda mais os fantasmas e a desfocagem de movimento.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;Tempo de resposta extremamente r&amp;aacute;pido com 0.5ms e com a tecnologia ASUS Extreme Low Motion Blur&lt;/p&gt;
+&lt;p&gt;O ASUS VG278QR &amp;eacute; o monitor mais r&amp;aacute;pido da sua classe, com um tempo de resposta de 0.5ms que elimina manchas e borr&amp;otilde;es de movimento. Isto te permite reagir instantaneamente ao que observa na tela, especialmente em jogos r&amp;aacute;pidos permitindo-lhe fazer curvas como um piloto de corridas profissional, ou obter aquele headshot como verdadeiro sniper. Disp&amp;otilde;e tamb&amp;eacute;m da Tecnologia ASUS Extreme Low Motion Blur (ELMB) para tornar os objetos em movimento mais n&amp;iacute;tidos, para que a jogabilidade seja mais fluida e responsiva.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Tecnologia GameFast Input porque os milissegundos contam&lt;/h2&gt;
+&lt;p&gt;O input lag (atraso de entrada) em um monitor LCD &amp;eacute; tipicamente muito menor do que em uma TV, e o ASUS VG278QR possui a Tecnologia GameFast Input para minimizar ainda mais o atraso de entrada. Essa tecnologia oferece uma entrega de movimento muito mais r&amp;aacute;pida, para que voc&amp;ecirc; sempre acompanhe a a&amp;ccedil;&amp;atilde;o no jogo no momento exato em que precisa responder o mais r&amp;aacute;pido poss&amp;iacute;vel.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Cabo HDMI&lt;/h2&gt;
+&lt;p&gt;Mais um produto com a qualidade PIX, acess&amp;oacute;rios de &amp;aacute;udio e v&amp;iacute;deo que proporcionam a imagem mais n&amp;iacute;tida e o som mais perfeito.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h3&gt;Compre agora no KaBuM!&lt;/h3&gt;</t>
+  </si>
+  <si>
+    <t>Monitor Gamer LG 34 LED Ultra Wide Curvo, 160 Hz, QHD, 1ms, HDMI/DisplayPort + Cabo HDMI Gold 2.1 PIX, 8K, 1.5m - 018-2121</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Monitor Gamer LG 34 LED Ultra Wide Curvo&lt;/h2&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Aproveite os mais recentes v&amp;iacute;deos e jogos HDR&lt;/h2&gt;
+&lt;p&gt;O HDR10 eleva a qualidade da imagem para uma experi&amp;ecirc;ncia de imers&amp;atilde;o visual mais din&amp;acirc;mica e cores aprimoradas do conte&amp;uacute;do HDR. HDR10 &amp;eacute; o padr&amp;atilde;o digital HDR baseado na gama de cores sRGB 99%. Uma verdadeira diferen&amp;ccedil;a de cor e brilho.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Velocidade incr&amp;iacute;vel para a vit&amp;oacute;ria&lt;/h2&gt;
+&lt;p&gt;Com o tempo de redu&amp;ccedil;&amp;atilde;o de desfoque de movimento de 1 ms combinado com qualidade de imagem aprimorada, os jogadores veem a a&amp;ccedil;&amp;atilde;o r&amp;aacute;pida e os oponentes quase em tempo real para uma vantagem clara.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;AMD FreeSync Premium&lt;/h2&gt;
+&lt;p&gt;Com a tecnologia FreeSync&amp;trade; Premium, os jogadores podem experimentar movimentos fluidos e cont&amp;iacute;nuos em jogos de alta resolu&amp;ccedil;&amp;atilde;o e ritmo acelerado. Ele praticamente reduz o rasgo e a gagueira da tela.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Cabo HDMI&lt;/h2&gt;
+&lt;p&gt;Mais um produto com a qualidade PIX, acess&amp;oacute;rios de &amp;aacute;udio e v&amp;iacute;deo que proporcionam a imagem mais n&amp;iacute;tida e o som mais perfeito.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h3&gt;Compre agora no KaBuM!&lt;/h3&gt;</t>
   </si>
   <si>
     <t>Monitor Gamer LG Ultra Gear 27 Full HD, 144 Hz, 1ms, IPS, HDMI e DisplayPort + Cabo HDMI Gold 2.1 PIX, 8K, 1.5m - 018-2121</t>
@@ -1569,6 +3748,28 @@
 &lt;h3&gt;Compre agora no KaBuM!&lt;/h3&gt;</t>
   </si>
   <si>
+    <t>Monitor Gamer Gigabyte, 28 UHD, 144Hz, 1ms, IPS, DisplayPort e HDMI, 120% sRGB, HDR, Adaptive-Sync - M28U AE</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Monitor Gamer Gigabyte&amp;nbsp;M28U Arm Edition&lt;/h2&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;A experi&amp;ecirc;ncia de jogo &lt;strong&gt;4K&lt;/strong&gt; pro &amp;eacute; agora elevada a um n&amp;iacute;vel totalmente novo pela Arm Edition do aclamado monitor de jogos GIGABYTE M28U. O GIGABYTE M28U Arm Edition apresenta um &lt;strong&gt;bra&amp;ccedil;o de monitor ergon&amp;ocirc;mico&lt;/strong&gt; que se adapta a cada cen&amp;aacute;rio de desktop. Desde jogos de PC, jogos de console, at&amp;eacute; mesmo streaming de m&amp;iacute;dia. Equipado com o &lt;strong&gt;painel SuperSpeed IPS&lt;/strong&gt;, o GIGABYTE M28U Arm Edition oferece uma taxa de quadros fluida de &lt;strong&gt;144hz&lt;/strong&gt; com&lt;strong&gt; tempo de resposta de 1ms&lt;/strong&gt; e apresenta uma precis&amp;atilde;o de cor excepcional com profundidade de cor de &lt;strong&gt;8 bits&lt;/strong&gt; e ampla gama de cores DCI-P94 de 3%. Aqui vem a melhor realiza&amp;ccedil;&amp;atilde;o do verdadeiro entretenimento &lt;strong&gt;4K&lt;/strong&gt;.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Tempo de resposta GTG de 1ms&lt;/h2&gt;
+&lt;p&gt;A tecnologia SuperSpeed&lt;strong&gt; IPS&lt;/strong&gt; reduz o tempo de resposta para 1ms; enquanto isso, oferecendo a cor espl&amp;ecirc;ndida de grau IPS!&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;UHD com 144Hz&lt;/h2&gt;
+&lt;p&gt;Alta resolu&amp;ccedil;&amp;atilde;o e&lt;strong&gt; taxa de atualiza&amp;ccedil;&amp;atilde;o r&amp;aacute;pida&lt;/strong&gt;, dando-lhe a qualidade de exibi&amp;ccedil;&amp;atilde;o detalhada e experi&amp;ecirc;ncia de jogo fluida!&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;HDMI 2,1&lt;/h2&gt;
+&lt;p&gt;O mais novo HDMI 2.1 pode melhorar a sua experi&amp;ecirc;ncia de jogo, fornecendo uma maior largura de banda de&lt;strong&gt; 4K 144Hz&lt;/strong&gt; que suporta os consoles de pr&amp;oacute;xima gera&amp;ccedil;&amp;atilde;o, oferecendo uma vantagem competitiva em uma variedade de jogos, de aventura a jogos de tiro.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;&amp;Acirc;ngulo de Vis&amp;atilde;o Perfeito&lt;/h2&gt;
+&lt;p&gt;O GIGABYTE Arm Edition apresenta um &lt;strong&gt;bra&amp;ccedil;o exclusivo&lt;/strong&gt; ergonomicamente projetado para oferecer uma ampla gama de ajustes de altura e inclina&amp;ccedil;&amp;atilde;o.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h3&gt;Compre agora no KaBuM!&lt;/h3&gt;</t>
+  </si>
+  <si>
     <t>Monitor Gamer Samsung Odyssey 23.5´ LED, Curvo, 144 Hz, Full HD, FreeSync + Cabo HDMI Gold 2.1 PIX, 8K, 1.5m - 018-2121</t>
   </si>
   <si>
@@ -1592,58 +3793,163 @@
 &lt;h3&gt;Compre agora no KaBuM!&lt;/h3&gt;</t>
   </si>
   <si>
+    <t>Monitor Gamer MSI Optix LCD 27´ Widescreen Curvo, Full HD, HDMI/Display Port, FreeSync, 144Hz, 1ms - G27C2</t>
+  </si>
+  <si>
+    <t>Jogue em primeiro nível com o monitor gaming curvo Optix G27C2. Equipado com taxa de atualização de 144Hz tempo de resposta de 1ms e painel VA, o Optix G27C2 lhe ajudará a ver seus oponentes e apontar com facilidade. Com a tecnologia AMD Freesync, G27C2 pode sincronizar a taxa de atualização da tela com a taxa da GPU para um jogo ultra-fluido. Você poderá acertar o alvo perfeito com as mais recentes tecnologias integradas no monitor gaming curvo MSI Optix G27C2 para o melhor jogo competitivo.</t>
+  </si>
+  <si>
+    <t>Monitor Gamer MSI Optix LCD 24´ Widescreen Curvo, Full HD, HDMI/Display Port, 144Hz, 1ms, Altura Ajustável - MAG24C</t>
+  </si>
+  <si>
+    <t>Jogue no primeiro nível com o monitor curvo gaming Optix MAG24C. Equipado com taxa de atualização de 144Hz, tempo de resposta de 1ms e painel VA, o Optix MAG24C lhe vai ajudar a ver melhor seus oponentes e apontar com facilidade. Com a tecnologia Adaptive Sync, o monitor MAG24C pode sincronizar a taxa de atualização da tela com a taxa da GPU para um jogo ultra fluido. Você poderá apontar ao alvo perfeitamente com as últimas tecnologias integradas no monitor curvo gaming MSI para o melhor jogo competitivo.</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Gigabyte Aorus LED, 24.5´, Full HD, HDMI, Display Port, 240Hz, 0.5ms, Altura Ajustável - KD25F-SA</t>
+  </si>
+  <si>
+    <t>O Monitor Gamer Aorus é inspirado nas asas aerodinâmicas do falcão, incorporando um design de várias camadas que apresenta contornos em forma de asa e também se assemelha à ascensão em alta velocidade do falcão e mergulha nos céus. Com armadura elegante e metálica, o AORUS Core simboliza o avanço da tecnologia com seu estilo futurista. O monitor criado especialmente para jogos possui um suporte exclusivo, ergonomicamente projetado para oferecer uma ampla variedade de ajustes de altura, inclinação, pivô, curso e rotação. O AORUS KD25F possui uma resolução de 24,5" FHD e está equipado com um painel nativo de taxa de atualização de 240Hz, que garante uma jogabilidade extremamente fluida e rápida criação de imagens.</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Gigabyte Aorus LED, 27´, QHD, IPS, HDMI, Display Port, 165Hz, 1ms, Altura Ajustável - FI27Q-SA</t>
+  </si>
+  <si>
+    <t>O Aorus FI27Q-SA possui um painel QHD de 27" com uma taxa de atualização de 165 hz, oferece o dobro de detalhes e qualidade de exibição que o Full HD e permite que você aprecie jogos e filmes em seu tamanho original O falcão utiliza suas poderosas asas para voar pelos céus e prender suas presas. O Aorus se inspira nas asas aerodinâmicas do falcão, incorporando um design de várias camadas que apresenta contornos em forma de asa e também se assemelha à ascensão em alta velocidade do falcão e mergulha nos céus. Com armadura elegante e metálica, o Aorus simboliza o avanço da tecnologia com seu estilo futurista. O monitor para jogos possui um suporte exclusivo, ergonomicamente projetado para oferecer uma ampla variedade de ajustes de altura, inclinação, pivô e rotação.</t>
+  </si>
+  <si>
+    <t>Monitor Gamer MSI, LED, 27´, WQHD 2K, HDMI/DisplayPort, 165Hz, 1ms, Altura Ajustável - MAG272QR</t>
+  </si>
+  <si>
+    <t>O monitor Gaming da série MSI Optix possui uma resolução WQHD 2560x1440 de 27" que permite detalhes ainda mais refinados ao jogar os jogos mais recentes ou assistir a filmes ou vídeos. O monitor de jogos da série Optix elevará as texturas, os personagens e os ambientes do jogo ao próximo nível para uma experiência mais realista. Os monitores de jogos MSI estão equipados com um painel de LED VA de atualização de 165Hz, com maior benefício em gêneros de jogos em movimento rápido, como atiradores em primeira pessoa, lutadores, simuladores de corrida, estratégia em tempo real e esportes. Esse tipo de jogo exige movimentos muito rápidos e precisos, que um monitor com taxa de atualização ultra alta coloca você à frente da concorrência.</t>
+  </si>
+  <si>
+    <t>Monitor Gamer MSI LCD, 27´, Curvo, Full HD, 165Hz, Altura Ajustável - MAG270VC2</t>
+  </si>
+  <si>
+    <t>Visualize sua vitória com o monitor MSI Optix MAG270VC2 Curved Gaming ?. Equipado com 1920x1080, taxa de atualização de 165 Hz, painel de tempo de resposta de 1 ms, o Optix MAG270VC2 lhe dará a vantagem competitiva necessária para derrotar seus oponentes. Construído com sincronização adaptável, o Optix MAG270VC2 pode combinar a taxa de atualização da tela com sua GPU para uma jogabilidade ultra suave. Certifique-se de que você pode atingir sua marca com todas as tecnologias mais recentes integradas no monitor MSI Curved Gaming ? para jogo competitivo.</t>
+  </si>
+  <si>
+    <t>(DUPLICADO - 114349) Monitor Gamer Ozone DSP25 Pro, 24.5", Full HD, Freesync, G-SYNC, 144 Hz, 1 ms, Frameless - Altura Ajustável OZDSP25PRO-Fless</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Monitor Gamer Ozone DSP25 Pro&lt;/h2&gt;
+&lt;p&gt;O &lt;strong&gt;DSP25 Pro&lt;/strong&gt; &amp;eacute; um monitor extra fino sem moldura de &lt;strong&gt;24,5&lt;/strong&gt; " que incorpora&lt;strong&gt; retroilumina&amp;ccedil;&amp;atilde;o LED&lt;/strong&gt; . Projetado inteiramente em preto, seu design fino convida a uma imers&amp;atilde;o total no jogo. Seu tamanho tamb&amp;eacute;m o torna perfeito para uma configura&amp;ccedil;&amp;atilde;o de v&amp;aacute;rias telas e pode ser ancorado em a parede gra&amp;ccedil;as ao seu sistema de &lt;strong&gt;montagem VESA&lt;/strong&gt; , maximizando o espa&amp;ccedil;o da mesa de jogo ou mesa.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Taxa de Atualiza&amp;ccedil;&amp;atilde;o r&amp;aacute;pida de 144hz&lt;/h2&gt;
+&lt;p&gt;Este &lt;strong&gt;monitor Ozone&lt;/strong&gt; possui uma base robusta que permite rodar, rodar e inclinar, de forma a poder ser adaptado &amp;agrave; posi&amp;ccedil;&amp;atilde;o mais confort&amp;aacute;vel ou necess&amp;aacute;ria a qualquer momento. O &lt;strong&gt;DSP25 Pro&lt;/strong&gt; &amp;eacute; um monitor que pode ser inclinado e girado para os dois lados, podendo tamb&amp;eacute;m &lt;strong&gt;ajustar a altura&lt;/strong&gt;, ajustando-se no &amp;acirc;ngulo mais ideal para melhorar o desempenho. O &lt;strong&gt;DSP25 Pro&lt;/strong&gt; est&amp;aacute; se despedindo do tearing e desfoque de imagem , pois tem uma&lt;strong&gt; taxa de atualiza&amp;ccedil;&amp;atilde;o de 144 Hz&lt;/strong&gt; , que fornece uma imagem suave em qualquer jogo.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Resolu&amp;ccedil;&amp;atilde;o Full HD&lt;/h2&gt;
+&lt;p&gt;Al&amp;eacute;m disso, este elegante &lt;strong&gt;monitor Full HD&lt;/strong&gt; sem moldura &amp;eacute; perfeito para desfrutar da experi&amp;ecirc;ncia de jogo, envolvendo-o e levando-o para o campo de batalha, promovendo a concentra&amp;ccedil;&amp;atilde;o e atingindo a vis&amp;atilde;o m&amp;aacute;xima do campo de jogo.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h3&gt;Garanta j&amp;aacute; seu Monitor Gamer Ozone aqui no KaBuM!&lt;/h3&gt;</t>
+  </si>
+  <si>
+    <t>(DUPLICADO - CF 114411) Monitor Gamer Ozone DSP25, 24.5", Full HD, Freesync, G-SYNC, 144 Hz, 1 ms, Frameless, - OZDSP25FHD-Fless</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Este monitor Ozone incorpora as tecnologias AMD FreeSync e NVIDIA G-Sync , que facilitam a sincroniza&amp;ccedil;&amp;atilde;o total entre as imagens no gr&amp;aacute;fico e aquelas mostradas no monitor.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Acer VG240Y S Nitro 23.8 Full HD, Zero Frame, HDMI/Display Port, 165Hz 1ms, AMD FreeSync Premium - UM.QV0AA.S02</t>
+  </si>
+  <si>
+    <t>A tecnologia AMD FreeSync Premium elimina a tela ?rasgada?, minimiza atrasos e latência durante os jogos, apresentando uma sincronização dos quadros do monitor muito mais eficiente. Sua experiência visual será mais suave, fluida e responsiva. O Nitro VG240Y conta com uma alta taxa de atualização de 144Hz até 165Hz. Prepare-se para ver imagens mais suaves, sem rastros e sem rasgos. Monitor é igual exp: quanto mais, melhor. Jogue com múltiplos monitores sem problemas, o design ZeroFrame praticamente elimina as bordas para que você tenha uma verdadeira imersão no jogo. A latência ultrabaixa deste monitor oferece respostas rápidas além das expectativas. Você terá controle total em jogos de corrida ou esporte, devido à redução do atraso de quadro. O tempo de resposta do Nitro é de 2ms até 0,5ms.</t>
+  </si>
+  <si>
     <t>Monitor Gamer Bluecase R3000 24´, Curvo, Full HD, HDMI/Display Port, 165Hz 1ms - FreeSync - BM244GCCASE</t>
   </si>
   <si>
     <t>Monitor Gamer Full HD 165Hz de atualização para melhores gráficos. Curvatura R3000 para maior imersão. Com 1 conector DisplayPort e 1 conector HDMI.</t>
   </si>
   <si>
+    <t>Monitor Gamer Gamemax 27´ Curvo, 165Hz, 1ms, LED WQHD, DisplayPort, 2x HDMI, AMD Radeon FreeSync, Nvidia G-SYNC, Vesa: 100mm - GMX27C165QBR</t>
+  </si>
+  <si>
+    <t>O caminho certo para uma gameplay fluída e com muita qualidade! Aperte o cinto de segurança: chegaram os novos monitores GMX27C165Q de 27" com curvatura 1500R e resolução WQHD(2560 x 1440p). Através da tecnologia AMD Radeon FreeSync ou NVIDIA G-SYNC Modo Compatibilidade, a taxa de atualização dos Hz no monitor será determinada pela sua placa gráfica e não pelo taxa de atualização fixa do monitor, proporcionando uma grande vantagem competitiva. Cores nítidas e realistas ganham vida com a incrível resolução de 2560 x 1440p, permitindo que desfrute do entretenimento em alta definição no conforto da sua casa.</t>
+  </si>
+  <si>
     <t>Monitor Gamer 24´ BM246GW Bluecase Full HD, 1ms, 165HZ, HDMI/DisplayPort, LED RGB, 99% SRGB, VESA, FreeSync e Flicker-Free - BM246GWCASE</t>
   </si>
   <si>
     <t>Monitor Gamer Full HD 165Hz de atualização para melhores gráficos. O monitor conta com iluminação traseira RGB para dar um toque de estilo ao seu setup. Com 1 conector DisplayPort e 1 conector HDMI.</t>
   </si>
   <si>
+    <t>Monitor Gamer Acer Nitro 24' IPS, 165 Hz, Full HD, 0.5ms, FreeSync Premium, HDR 400, 99%sRGB, HDMI/DisplayPort, VESA - VG252Q S</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Monitor LED Full HD Leva os usu&amp;aacute;rios a um mundo colorido perfeito com FHD 1920 x 1080 e oferece a melhor qualidade original natural e n&amp;iacute;tida com painel IPS e rela&amp;ccedil;&amp;atilde;o de contraste de 100.000.000: AMD FreeSync Premium Com o AMD FreeSync Premium, a taxa de quadros do jogo &amp;eacute; determinada pela sua placa de v&amp;iacute;deo, n&amp;atilde;o pela taxa de atualiza&amp;ccedil;&amp;atilde;o fixa do monitor. Isso significa que os quadros do monitor s&amp;atilde;o sincronizados com os quadros da placa gr&amp;aacute;fica, o que elimina a tela quebrada e oferece experi&amp;ecirc;ncias de jogo muito suaves 165 Hz A taxa de atualiza&amp;ccedil;&amp;atilde;o de 165 Hz acelera os quadros por segundo para fornecer cenas de movimento 2D ultra-suaves. Com uma r&amp;aacute;pida taxa de atualiza&amp;ccedil;&amp;atilde;o de 165 Hz, nossos monitores reduzem o tempo necess&amp;aacute;rio para a renderiza&amp;ccedil;&amp;atilde;o de quadros, diminuem o atraso de entrada e fornecem aos jogadores uma excelente experi&amp;ecirc;ncia no jogo DisplayHDR400 DisplayHDR 400 requer apenas 400 nits e fornece gama de cores de 99% sRGB, ele tamb&amp;eacute;m pode fornecer o ajuste da gama de cores e suporta HDR10. O monitor HDR 400 certificado pela VESA mostra as cores como realmente s&amp;atilde;o.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Curvo Bluecase, 27 FHD, HDMI/Display Port, 165Hz, 1ms, FreeSync, RGB, Preto - BM2715GCCASE</t>
+  </si>
+  <si>
+    <t>Eleve-se ao nível de um proplayer com o monitor gamer Bluecase BM2715GC Esse monitor possui um painel VA com curvatura R1500 ultrarrápido com frequência máxima de até 165 Hz e baixíssimo tempo de resposta de 1 (um) milissegundo. Além disso, conta com tecnologias embarcadas como o FreeSync, Flicker-Free e Filtro de luz azul (Blue-light Filter), que possibilitam longas sessões de gameplay com maior conforto visual e sincronia das taxas de atualização com a GPU compatível. O monitor Bluecase BM2715GC é compatível com suportes VESA e também conta com conexões DisplayPort e HDMI, e um LED RGB para iluminação na parte de trás.</t>
+  </si>
+  <si>
     <t>Monitor Gamer Viewsonic LED 27´ Widescreen, Full HD, HDMI/Display Port, FreeSync, Som Integrado, 144Hz, 1ms, Altura Ajustável - XG2701</t>
   </si>
   <si>
+    <t>Monitor Gamer Acer 27' LED, 75 Hz, Full HD, 1ms, FreeSync, HDMI/VGA, VESA, Som Integrado - KG271 B</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Tempo de resposta r&amp;aacute;pido de 1ms GTG(Gray to Gray) habilita experi&amp;ecirc;ncias de imers&amp;atilde;o no jogo. N&amp;atilde;o importa o qu&amp;atilde;o r&amp;aacute;pido &amp;eacute; o movimento ou qu&amp;atilde;o dram&amp;aacute;tica s&amp;atilde;o as transi&amp;ccedil;&amp;otilde;es, o r&amp;aacute;pido tempo de resposta renderiza as imagens evitando arrasto ou fantasmas na imagem.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Zowie LED 24.5 Widescreen, Full HD, HDMI/DVI, 240Hz, 1ms, Altura Ajustável - XL2546</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Monitor Gamer Zowie LED 24.5 Widescreen&lt;/h2&gt;
+&lt;p&gt;A&lt;strong&gt; tecnologia exclusiva BenQ ZOWIE&lt;/strong&gt; - "Dynamic Accuracy" mant&amp;eacute;m uma not&amp;aacute;vel claridade visual durante o movimento no jogo, permitindo que os jogadores vejam rapidamente e atingam os alvos. A&amp;ccedil;&amp;otilde;es com movimentos r&amp;aacute;pidos da tela, como a spray de armas, ser&amp;atilde;o mais beneficiadas pelo DyAc, pois a capacidade de enxergar com mais clareza pode ajudar no controle de recoil.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Taxa de Atualiza&amp;ccedil;&amp;atilde;o Nativa de 240Hz - Evolu&amp;ccedil;&amp;atilde;o da Suavidade&lt;/h2&gt;
+&lt;p&gt;Capte todos os detalhes do movimento e desfrute da jogabilidade mais fluida do monitor nativo de &lt;strong&gt;taxa de atualiza&amp;ccedil;&amp;atilde;o 240Hz&lt;/strong&gt; &lt;strong&gt;BenQ ZOWIE&lt;/strong&gt;, que garante uma visualiza&amp;ccedil;&amp;atilde;o perfeita de movimento r&amp;aacute;pido de forma consistente em todos os momentos. (Por favor, certifique-se de que o desempenho do PC est&amp;aacute; no mesmo n&amp;iacute;vel para ativar totalmente 240Hz).&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Shield - Ajuda Voc&amp;ecirc; a se Concentrar no Jogo com Resolu&amp;ccedil;&amp;atilde;o Full HD&lt;/h2&gt;
+&lt;p&gt;Shield - revela o caminho para se concentrar nos jogos. O &lt;strong&gt;&amp;acirc;ngulo ajust&amp;aacute;vel e o design remov&amp;iacute;vel&lt;/strong&gt; permitem que o Escudo (shield) adote v&amp;aacute;rios ambientes de acordo com as prefer&amp;ecirc;ncias. Apenas se concentre em ganhar o jogo. Nunca seja v&amp;iacute;tima de um camper escondido em um canto escuro novamente. Black eQualizer aumenta a visibilidade em cenas escuras sem a superexposi&amp;ccedil;&amp;atilde;o das &amp;aacute;reas claras.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h3&gt;Garanta j&amp;aacute; seu Monitor Gamer Zowie aqui no KaBuM!&lt;/h3&gt;</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Bluecase LED 27´ Widescreen Curvo, Full HD, HDMI/Display Port, FreeSync, 144Hz, 1ms - BM275GC</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Curvo Full HD 144hz de atualização para melhores gráficos. Com 1 conector DisplayPort e 1 conector HDMI.</t>
+  </si>
+  <si>
     <t>Monitor Gamer Acer 27' IPS, Wide, 75 Hz, Full HD, 1ms, HDMI/VGA - SA270 BBIX</t>
   </si>
   <si>
     <t>&lt;p&gt;Com resolu&amp;ccedil;&amp;atilde;o Full HD, o monitor gamer Acer SA270 apresenta cores espetaculares, a presen&amp;ccedil;a da tecnologia IPS faz toda a diferen&amp;ccedil;a quando se trata de qualidade e performance, resultando em uma imagem perfeita, sem perda de cor independente do &amp;acirc;ngulo. Ultra fino e com bordas ZeroFrame tenha em sua mesa um monitor bonito e eficaz.&lt;/p&gt;</t>
   </si>
   <si>
+    <t>Monitor Gamer Gigabyte Aorus LED, 27´, QHD, HDMI, Display Port, 165Hz, 1ms, Altura Ajustável - CV27Q-SA</t>
+  </si>
+  <si>
+    <t>O Monitor Gamer Aorus é um lindo monitor curvo 1500R com design elegante que usa uma taxa de contraste de 3000:1 no painel VA de 8 bits. Possui todos os recursos táticos, o que o torna a escolha perfeita para jogadores que amam jogos e entretenimento de mídia AAA. O AORUS CV27Q Gaming possui um suporte exclusivo, projetado ergonomicamente para oferecer uma ampla gama de ajustes de altura, inclinação, pivô e rotação.</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Asus 27' IPS, Wide, 144 Hz, Full HD, 1ms, Adaptive Sync, 99% sRGB, HDMI/DisplayPort, Ajuste de Altura, Vesa, Som - VG279Q</t>
+  </si>
+  <si>
+    <t>Projetado para jogos intensos e de ritmo acelerado, o ASUS VG279Q é; um monitor IPS para jogos Full HD de 27" com um tempo de resposta ultrarrá;pido de 1ms (MPRT) e taxa de atualizaç;ão impressionante de 144Hz para oferecer uma jogabilidade super suave. O VG279Q possui a tecnologia Adaptive-Sync. Recursos projetados para os jogadores, como o ASUS GamePlus, aprimoram sua experiê;ncia no jogo, enquanto o GameVisual fornece vá;rios modos de exibiç;ão predefinidos para otimizar os recursos visuais para diferentes tipos de jogos.</t>
+  </si>
+  <si>
     <t>Monitor Gamer Bluecase LED 27´, Full HD, HDMI/DisplayPort, 144Hz, 1ms - BM277GWCASE</t>
   </si>
   <si>
     <t>Monitor Gamer Full HD 144Hz de atualização para melhores gráficos. Com conexão DisplayPort e HDMI.</t>
   </si>
   <si>
-    <t>Monitor Gamer Bluecase LED 24´, Full HD, HDMI, Branco - BM244GWW</t>
-  </si>
-  <si>
-    <t>Monitor Gamer 24,5´ BM251GW Bluecase, FULL HD / 75HZ / HDMI / VGA - 05683-IVB</t>
-  </si>
-  <si>
-    <t>Monitor Gamer 24,5´ BM251GW Bluecase, FULL HD / 75HZ / HDMI / VGA - 05683-IVB.</t>
-  </si>
-  <si>
-    <t>Monitor Gamer 24,5´ BM252GW Bluecase, FULL HD / 165HZ / HDMI / DP - 05684-IVB</t>
-  </si>
-  <si>
-    <t>Monitor Gamer 24,5´ BM252GW Bluecase, FULL HD / 165HZ / HDMI / DP - 05684-IVB.</t>
-  </si>
-  <si>
-    <t>Monitor Gamer 27´ BM2710GW Bluecase, 144HZ / Full HD / HDMI / DP - 05638-IVB</t>
-  </si>
-  <si>
-    <t>Monitor Gamer 27´ BM2710GW Bluecase, 144HZ / Full HD / HDMI / DP - 05638-IVB.</t>
-  </si>
-  <si>
-    <t>Monitor Gamer Bluecase R3000 24´, Curvo, Full HD, HDMI/Display Port, 165Hz 1ms, FreeSync - Branco - BM244GCWCASE</t>
-  </si>
-  <si>
-    <t>Monitor Gamer Full HD 165Hz de atualização para melhores gráficos. Curvatura R3000 para maior imersão. Com 1 conector DisplayPort e 1 conector HDMI. Monitor na cor branca para combinar com o estilo do seu setup.</t>
+    <t>Monitor Gamer Bluecase LED 27´, 2.5K Quad HD, HDMI/DisplayPort, Fita RGB - BM279GWCASE</t>
+  </si>
+  <si>
+    <t>Monitor Gamer 2.5K Quad HD 75hz de atualização. Com 1 conector DisplayPort, 1 conector HDMI e fita LED RGB na parte de trás.</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Samsung Odyssey 23.5' LED, Curvo, 144 Hz, Full HD, FreeSync, HDMI/DisplayPort - LC24RG50FQLMZD</t>
+  </si>
+  <si>
+    <t>Liderança em monitores curvos. A Samsung lidera o mercado de monitores curvos por ser a primeira a apresentar os displays inovadores ao mundo em 2015. Com tecnologia líder do setor em uma linha completa, os monitores curvos da Samsung são consistentemente o número um em participação de mercado e escolha do consumidor. A curva do vencedor. Tenha uma experiência completamente imersiva em todos os jogos com uma tela curva arredondada de 1800 R. Vença mais com o foco nítido da tela que permite maior concentração. Jogue por mais tempo com menos cansaço visual. Movimentos suaves e nítidos. A taxa de atualização de até 144 Hz lhe garante vantagens, mesmo nos jogos mais exigentes. Encontre o inimigo instantaneamente e perceba alterações minúsculas e essenciais em todas as cenas. Você pode alterá-la facilmente para 60 Hz, 100 Hz ou 120 Hz. Tenha as configurações ideais para seu jogo. O Game Mode otimiza os níveis de gama de preto, contraste, nitidez e cor de qualquer gênero de jogo. O Low Input Lag Mode minimiza os atrasos entre os dispositivos de entrada e o display. O Virtual Aim Point centraliza o alvo na tela para ataques mais precisos ao inimigo. Chega de jogos com atrasos. O AMD Radeon FreeSync elimina atrasos nas imagens para oferecer jogos suaves e rápidos. Com uma taxa de atualização do display adaptada dinamicamente, até as cenas mais complexas do jogo são perfeitas e praticamente sem atrasos. Jogue por ainda mais tempo. O Eye Saver Mode minimiza a luz azul o suficiente para manter os olhos relaxados e confortáveis ao jogar por longos períodos. A tecnologia Flicker Free remove continuamente a cintilação cansativa e irritante da tela para você focar durante mais tempo com menos distração ou cansaço visual.</t>
   </si>
 </sst>
 </file>
@@ -1990,7 +4296,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F146"/>
+  <dimension ref="A1:F316"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2027,13 +4333,13 @@
         <v>1473</v>
       </c>
       <c r="D2">
-        <v>997</v>
+        <v>1044</v>
       </c>
       <c r="E2">
-        <v>1105</v>
+        <v>1157</v>
       </c>
       <c r="F2">
-        <v>1049</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2064,7 +4370,16 @@
         <v>11</v>
       </c>
       <c r="C4">
-        <v>1599</v>
+        <v>2105</v>
+      </c>
+      <c r="D4">
+        <v>1614</v>
+      </c>
+      <c r="E4">
+        <v>1789</v>
+      </c>
+      <c r="F4">
+        <v>1699</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2075,10 +4390,7 @@
         <v>13</v>
       </c>
       <c r="C5">
-        <v>1947</v>
-      </c>
-      <c r="D5">
-        <v>1757</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2089,10 +4401,10 @@
         <v>15</v>
       </c>
       <c r="C6">
-        <v>1055</v>
+        <v>1736</v>
       </c>
       <c r="D6">
-        <v>902</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2103,10 +4415,16 @@
         <v>17</v>
       </c>
       <c r="C7">
-        <v>1631</v>
+        <v>1055</v>
       </c>
       <c r="D7">
-        <v>1472</v>
+        <v>854</v>
+      </c>
+      <c r="E7">
+        <v>999</v>
+      </c>
+      <c r="F7">
+        <v>899</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2117,13 +4435,10 @@
         <v>19</v>
       </c>
       <c r="C8">
-        <v>1684</v>
-      </c>
-      <c r="E8">
-        <v>1368</v>
-      </c>
-      <c r="F8">
-        <v>1299</v>
+        <v>1947</v>
+      </c>
+      <c r="D8">
+        <v>1757</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2134,10 +4449,16 @@
         <v>21</v>
       </c>
       <c r="C9">
-        <v>1221</v>
+        <v>1684</v>
       </c>
       <c r="D9">
-        <v>1101</v>
+        <v>1139</v>
+      </c>
+      <c r="E9">
+        <v>1263</v>
+      </c>
+      <c r="F9">
+        <v>1199</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2148,10 +4469,16 @@
         <v>23</v>
       </c>
       <c r="C10">
-        <v>1157</v>
+        <v>2526</v>
       </c>
       <c r="D10">
-        <v>1044</v>
+        <v>1804</v>
+      </c>
+      <c r="E10">
+        <v>1999</v>
+      </c>
+      <c r="F10">
+        <v>1899</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2162,16 +4489,16 @@
         <v>25</v>
       </c>
       <c r="C11">
-        <v>1221</v>
+        <v>1052</v>
       </c>
       <c r="D11">
-        <v>1073</v>
+        <v>824</v>
       </c>
       <c r="E11">
-        <v>1189</v>
+        <v>894</v>
       </c>
       <c r="F11">
-        <v>1129</v>
+        <v>849</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -2185,7 +4512,13 @@
         <v>1789</v>
       </c>
       <c r="D12">
-        <v>1614</v>
+        <v>1519</v>
+      </c>
+      <c r="E12">
+        <v>1684</v>
+      </c>
+      <c r="F12">
+        <v>1599</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -2196,16 +4529,16 @@
         <v>29</v>
       </c>
       <c r="C13">
-        <v>1177</v>
+        <v>1210</v>
       </c>
       <c r="D13">
-        <v>930</v>
+        <v>816</v>
       </c>
       <c r="E13">
-        <v>1088</v>
+        <v>905</v>
       </c>
       <c r="F13">
-        <v>979</v>
+        <v>859</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -2216,10 +4549,16 @@
         <v>31</v>
       </c>
       <c r="C14">
-        <v>1111</v>
+        <v>1221</v>
       </c>
       <c r="D14">
-        <v>949</v>
+        <v>1073</v>
+      </c>
+      <c r="E14">
+        <v>1189</v>
+      </c>
+      <c r="F14">
+        <v>1129</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -2230,10 +4569,10 @@
         <v>33</v>
       </c>
       <c r="C15">
-        <v>1210</v>
+        <v>1263</v>
       </c>
       <c r="D15">
-        <v>1092</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -2244,7 +4583,10 @@
         <v>35</v>
       </c>
       <c r="C16">
-        <v>1198</v>
+        <v>1157</v>
+      </c>
+      <c r="D16">
+        <v>1044</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -2255,10 +4597,16 @@
         <v>37</v>
       </c>
       <c r="C17">
-        <v>1684</v>
+        <v>1177</v>
       </c>
       <c r="D17">
-        <v>1519</v>
+        <v>950</v>
+      </c>
+      <c r="E17">
+        <v>1088</v>
+      </c>
+      <c r="F17">
+        <v>979</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -2269,13 +4617,16 @@
         <v>39</v>
       </c>
       <c r="C18">
-        <v>1199</v>
+        <v>1684</v>
+      </c>
+      <c r="D18">
+        <v>1329</v>
       </c>
       <c r="E18">
-        <v>1098</v>
+        <v>1473</v>
       </c>
       <c r="F18">
-        <v>989</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -2286,16 +4637,16 @@
         <v>41</v>
       </c>
       <c r="C19">
+        <v>1578</v>
+      </c>
+      <c r="D19">
+        <v>1234</v>
+      </c>
+      <c r="E19">
         <v>1368</v>
       </c>
-      <c r="D19">
-        <v>1158</v>
-      </c>
-      <c r="E19">
-        <v>1284</v>
-      </c>
       <c r="F19">
-        <v>1219</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -2306,7 +4657,10 @@
         <v>43</v>
       </c>
       <c r="C20">
-        <v>1776</v>
+        <v>2631</v>
+      </c>
+      <c r="D20">
+        <v>2374</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -2320,13 +4674,13 @@
         <v>1263</v>
       </c>
       <c r="D21">
-        <v>892</v>
+        <v>854</v>
       </c>
       <c r="E21">
-        <v>989</v>
+        <v>947</v>
       </c>
       <c r="F21">
-        <v>939</v>
+        <v>899</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -2337,10 +4691,13 @@
         <v>47</v>
       </c>
       <c r="C22">
-        <v>1974</v>
-      </c>
-      <c r="D22">
-        <v>1782</v>
+        <v>1199</v>
+      </c>
+      <c r="E22">
+        <v>1098</v>
+      </c>
+      <c r="F22">
+        <v>989</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -2351,7 +4708,10 @@
         <v>49</v>
       </c>
       <c r="C23">
-        <v>1840</v>
+        <v>2181</v>
+      </c>
+      <c r="D23">
+        <v>1968</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -2362,7 +4722,10 @@
         <v>51</v>
       </c>
       <c r="C24">
-        <v>1251</v>
+        <v>2842</v>
+      </c>
+      <c r="D24">
+        <v>2564</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -2373,10 +4736,7 @@
         <v>53</v>
       </c>
       <c r="C25">
-        <v>1601</v>
-      </c>
-      <c r="D25">
-        <v>1444</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -2387,7 +4747,7 @@
         <v>55</v>
       </c>
       <c r="C26">
-        <v>1259</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -2398,7 +4758,10 @@
         <v>57</v>
       </c>
       <c r="C27">
-        <v>1299</v>
+        <v>1974</v>
+      </c>
+      <c r="D27">
+        <v>1782</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -2409,10 +4772,16 @@
         <v>59</v>
       </c>
       <c r="C28">
-        <v>1136</v>
+        <v>1066</v>
       </c>
       <c r="D28">
-        <v>1025</v>
+        <v>760</v>
+      </c>
+      <c r="E28">
+        <v>888</v>
+      </c>
+      <c r="F28">
+        <v>799</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -2423,13 +4792,7 @@
         <v>61</v>
       </c>
       <c r="C29">
-        <v>1045</v>
-      </c>
-      <c r="E29">
-        <v>887</v>
-      </c>
-      <c r="F29">
-        <v>799</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -2440,10 +4803,10 @@
         <v>63</v>
       </c>
       <c r="C30">
-        <v>1678</v>
+        <v>2105</v>
       </c>
       <c r="D30">
-        <v>1547</v>
+        <v>1939</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -2454,10 +4817,7 @@
         <v>65</v>
       </c>
       <c r="C31">
-        <v>1066</v>
-      </c>
-      <c r="D31">
-        <v>912</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -2468,7 +4828,10 @@
         <v>67</v>
       </c>
       <c r="C32">
-        <v>1044</v>
+        <v>5947</v>
+      </c>
+      <c r="D32">
+        <v>5367</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -2479,10 +4842,16 @@
         <v>69</v>
       </c>
       <c r="C33">
-        <v>1349</v>
+        <v>3578</v>
       </c>
       <c r="D33">
-        <v>1243</v>
+        <v>2849</v>
+      </c>
+      <c r="E33">
+        <v>3157</v>
+      </c>
+      <c r="F33">
+        <v>2999</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -2493,10 +4862,10 @@
         <v>71</v>
       </c>
       <c r="C34">
-        <v>1193</v>
+        <v>1601</v>
       </c>
       <c r="D34">
-        <v>1099</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -2507,10 +4876,13 @@
         <v>73</v>
       </c>
       <c r="C35">
-        <v>1424</v>
-      </c>
-      <c r="D35">
-        <v>1312</v>
+        <v>1079</v>
+      </c>
+      <c r="E35">
+        <v>998</v>
+      </c>
+      <c r="F35">
+        <v>899</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -2521,7 +4893,13 @@
         <v>75</v>
       </c>
       <c r="C36">
-        <v>1233</v>
+        <v>1045</v>
+      </c>
+      <c r="E36">
+        <v>887</v>
+      </c>
+      <c r="F36">
+        <v>799</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -2532,16 +4910,10 @@
         <v>77</v>
       </c>
       <c r="C37">
-        <v>1157</v>
+        <v>1424</v>
       </c>
       <c r="D37">
-        <v>949</v>
-      </c>
-      <c r="E37">
-        <v>1052</v>
-      </c>
-      <c r="F37">
-        <v>999</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -2552,10 +4924,16 @@
         <v>79</v>
       </c>
       <c r="C38">
-        <v>1894</v>
+        <v>1157</v>
       </c>
       <c r="D38">
-        <v>1709</v>
+        <v>949</v>
+      </c>
+      <c r="E38">
+        <v>1052</v>
+      </c>
+      <c r="F38">
+        <v>999</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -2566,7 +4944,7 @@
         <v>81</v>
       </c>
       <c r="C39">
-        <v>1359</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -2577,7 +4955,10 @@
         <v>83</v>
       </c>
       <c r="C40">
-        <v>1299</v>
+        <v>2085</v>
+      </c>
+      <c r="D40">
+        <v>1881</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -2588,7 +4969,10 @@
         <v>85</v>
       </c>
       <c r="C41">
-        <v>1899</v>
+        <v>1136</v>
+      </c>
+      <c r="D41">
+        <v>1047</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -2599,10 +4983,16 @@
         <v>87</v>
       </c>
       <c r="C42">
-        <v>1055</v>
+        <v>2273</v>
       </c>
       <c r="D42">
-        <v>769</v>
+        <v>1918</v>
+      </c>
+      <c r="E42">
+        <v>2126</v>
+      </c>
+      <c r="F42">
+        <v>2019</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2613,10 +5003,10 @@
         <v>89</v>
       </c>
       <c r="C43">
-        <v>1771</v>
+        <v>4631</v>
       </c>
       <c r="D43">
-        <v>1598</v>
+        <v>4179</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2627,13 +5017,10 @@
         <v>91</v>
       </c>
       <c r="C44">
-        <v>1122</v>
-      </c>
-      <c r="E44">
-        <v>1054</v>
-      </c>
-      <c r="F44">
-        <v>949</v>
+        <v>1349</v>
+      </c>
+      <c r="D44">
+        <v>1243</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2644,7 +5031,7 @@
         <v>93</v>
       </c>
       <c r="C45">
-        <v>1548</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2655,1263 +5042,3478 @@
         <v>95</v>
       </c>
       <c r="C46">
-        <v>1052</v>
+        <v>1894</v>
+      </c>
+      <c r="D46">
+        <v>1709</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" t="s">
-        <v>66</v>
+        <v>96</v>
       </c>
       <c r="B47" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C47">
-        <v>1155</v>
+        <v>11578</v>
       </c>
       <c r="D47">
-        <v>1065</v>
+        <v>10449</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B48" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C48">
+        <v>1678</v>
+      </c>
+      <c r="D48">
+        <v>1547</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" t="s">
+        <v>100</v>
+      </c>
+      <c r="B49" t="s">
+        <v>101</v>
+      </c>
+      <c r="C49">
+        <v>1155</v>
+      </c>
+      <c r="D49">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" t="s">
+        <v>102</v>
+      </c>
+      <c r="B50" t="s">
+        <v>103</v>
+      </c>
+      <c r="C50">
+        <v>8156</v>
+      </c>
+      <c r="D50">
+        <v>7361</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" t="s">
+        <v>104</v>
+      </c>
+      <c r="B51" t="s">
+        <v>105</v>
+      </c>
+      <c r="C51">
+        <v>2105</v>
+      </c>
+      <c r="D51">
+        <v>1804</v>
+      </c>
+      <c r="E51">
+        <v>1999</v>
+      </c>
+      <c r="F51">
+        <v>1899</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" t="s">
+        <v>106</v>
+      </c>
+      <c r="B52" t="s">
+        <v>107</v>
+      </c>
+      <c r="C52">
+        <v>6219</v>
+      </c>
+      <c r="D52">
+        <v>5613</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" t="s">
+        <v>108</v>
+      </c>
+      <c r="B53" t="s">
+        <v>109</v>
+      </c>
+      <c r="C53">
+        <v>1193</v>
+      </c>
+      <c r="D53">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" t="s">
+        <v>110</v>
+      </c>
+      <c r="B54" t="s">
+        <v>111</v>
+      </c>
+      <c r="C54">
+        <v>1899</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" t="s">
+        <v>112</v>
+      </c>
+      <c r="B55" t="s">
+        <v>113</v>
+      </c>
+      <c r="C55">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" t="s">
+        <v>114</v>
+      </c>
+      <c r="B56" t="s">
+        <v>115</v>
+      </c>
+      <c r="C56">
+        <v>3367</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" t="s">
+        <v>116</v>
+      </c>
+      <c r="B57" t="s">
+        <v>117</v>
+      </c>
+      <c r="C57">
+        <v>2202</v>
+      </c>
+      <c r="D57">
+        <v>1987</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" t="s">
+        <v>118</v>
+      </c>
+      <c r="B58" t="s">
+        <v>119</v>
+      </c>
+      <c r="C58">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" t="s">
+        <v>120</v>
+      </c>
+      <c r="B59" t="s">
+        <v>121</v>
+      </c>
+      <c r="C59">
+        <v>3485</v>
+      </c>
+      <c r="D59">
+        <v>3145</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" t="s">
+        <v>122</v>
+      </c>
+      <c r="B60" t="s">
+        <v>123</v>
+      </c>
+      <c r="C60">
+        <v>1055</v>
+      </c>
+      <c r="D60">
+        <v>769</v>
+      </c>
+      <c r="E60">
+        <v>899</v>
+      </c>
+      <c r="F60">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" t="s">
+        <v>124</v>
+      </c>
+      <c r="B61" t="s">
+        <v>125</v>
+      </c>
+      <c r="C61">
+        <v>1666</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" t="s">
+        <v>126</v>
+      </c>
+      <c r="B62" t="s">
+        <v>127</v>
+      </c>
+      <c r="C62">
         <v>1111</v>
       </c>
-      <c r="D48">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
-      <c r="A49" t="s">
-        <v>99</v>
-      </c>
-      <c r="B49" t="s">
-        <v>100</v>
-      </c>
-      <c r="C49">
-        <v>1252</v>
-      </c>
-      <c r="D49">
-        <v>1130</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
-      <c r="A50" t="s">
-        <v>101</v>
-      </c>
-      <c r="B50" t="s">
-        <v>102</v>
-      </c>
-      <c r="C50">
-        <v>1666</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
-      <c r="A51" t="s">
-        <v>103</v>
-      </c>
-      <c r="B51" t="s">
-        <v>104</v>
-      </c>
-      <c r="C51">
-        <v>1210</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
-      <c r="A52" t="s">
-        <v>105</v>
-      </c>
-      <c r="B52" t="s">
-        <v>106</v>
-      </c>
-      <c r="C52">
-        <v>1594</v>
-      </c>
-      <c r="D52">
-        <v>1439</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
-      <c r="A53" t="s">
-        <v>107</v>
-      </c>
-      <c r="B53" t="s">
-        <v>108</v>
-      </c>
-      <c r="C53">
-        <v>1433</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
-      <c r="A54" t="s">
-        <v>109</v>
-      </c>
-      <c r="B54" t="s">
-        <v>110</v>
-      </c>
-      <c r="C54">
-        <v>1305</v>
-      </c>
-      <c r="D54">
-        <v>1177</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
-      <c r="A55" t="s">
-        <v>111</v>
-      </c>
-      <c r="B55" t="s">
-        <v>112</v>
-      </c>
-      <c r="C55">
-        <v>1075</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
-      <c r="A56" t="s">
-        <v>113</v>
-      </c>
-      <c r="B56" t="s">
-        <v>114</v>
-      </c>
-      <c r="C56">
-        <v>1199</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
-      <c r="A57" t="s">
-        <v>115</v>
-      </c>
-      <c r="B57" t="s">
-        <v>116</v>
-      </c>
-      <c r="C57">
-        <v>1669</v>
-      </c>
-      <c r="D57">
-        <v>1506</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
-      <c r="A58" t="s">
-        <v>117</v>
-      </c>
-      <c r="B58" t="s">
-        <v>118</v>
-      </c>
-      <c r="C58">
-        <v>1311</v>
-      </c>
-      <c r="D58">
-        <v>1183</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
-      <c r="A59" t="s">
-        <v>119</v>
-      </c>
-      <c r="B59" t="s">
-        <v>120</v>
-      </c>
-      <c r="C59">
-        <v>1349</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
-      <c r="A60" t="s">
-        <v>121</v>
-      </c>
-      <c r="B60" t="s">
-        <v>122</v>
-      </c>
-      <c r="C60">
-        <v>1987</v>
-      </c>
-      <c r="D60">
-        <v>1793</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
-      <c r="A61" t="s">
-        <v>123</v>
-      </c>
-      <c r="B61" t="s">
-        <v>124</v>
-      </c>
-      <c r="C61">
-        <v>1205</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
-      <c r="A62" t="s">
-        <v>125</v>
-      </c>
-      <c r="B62" t="s">
-        <v>126</v>
-      </c>
-      <c r="C62">
-        <v>1129</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="D62">
+        <v>775</v>
+      </c>
+      <c r="E62">
+        <v>888</v>
+      </c>
+      <c r="F62">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B63" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C63">
-        <v>1969</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>4210</v>
+      </c>
+      <c r="D63">
+        <v>3514</v>
+      </c>
+      <c r="E63">
+        <v>3894</v>
+      </c>
+      <c r="F63">
+        <v>3699</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B64" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C64">
-        <v>1279</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>4748</v>
+      </c>
+      <c r="D64">
+        <v>4375</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B65" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C65">
-        <v>1599</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>8421</v>
+      </c>
+      <c r="D65">
+        <v>7599</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B66" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C66">
-        <v>1616</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>2074</v>
+      </c>
+      <c r="D66">
+        <v>1872</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B67" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C67">
-        <v>1199</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>1548</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B68" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C68">
-        <v>1149</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>2736</v>
+      </c>
+      <c r="D68">
+        <v>2469</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B69" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C69">
-        <v>1099</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>1031</v>
+      </c>
+      <c r="D69">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" t="s">
-        <v>32</v>
+        <v>142</v>
       </c>
       <c r="B70" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="C70">
-        <v>1199</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>7946</v>
+      </c>
+      <c r="D70">
+        <v>7171</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B71" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="C71">
-        <v>1217</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>2999</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B72" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="C72">
-        <v>1799</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B73" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="C73">
-        <v>1311</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>8799</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B74" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="C74">
-        <v>1649</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>1771</v>
+      </c>
+      <c r="D74">
+        <v>1598</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B75" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="C75">
-        <v>1049</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>2167</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B76" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="C76">
-        <v>1971</v>
+        <v>4842</v>
       </c>
       <c r="D76">
-        <v>1779</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>4018</v>
+      </c>
+      <c r="E76">
+        <v>4452</v>
+      </c>
+      <c r="F76">
+        <v>4229</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B77" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="C77">
-        <v>1578</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>2364</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B78" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="C78">
-        <v>1083</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>8631</v>
+      </c>
+      <c r="D78">
+        <v>6649</v>
+      </c>
+      <c r="E78">
+        <v>7368</v>
+      </c>
+      <c r="F78">
+        <v>6999</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="B79" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C79">
-        <v>1275</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>5263</v>
+      </c>
+      <c r="D79">
+        <v>4749</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B80" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="C80">
-        <v>1524</v>
+        <v>4899</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="B81" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C81">
-        <v>1976</v>
+        <v>9310</v>
       </c>
       <c r="D81">
-        <v>1784</v>
+        <v>8402</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="B82" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="C82">
-        <v>1399</v>
+        <v>11421</v>
+      </c>
+      <c r="D82">
+        <v>10307</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="B83" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="C83">
-        <v>1196</v>
+        <v>13807</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="B84" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="C84">
-        <v>1899</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="B85" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="C85">
-        <v>1279</v>
+        <v>3509</v>
+      </c>
+      <c r="D85">
+        <v>3167</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="B86" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="C86">
-        <v>1465</v>
+        <v>1311</v>
       </c>
       <c r="D86">
-        <v>1322</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="B87" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="C87">
-        <v>1129</v>
+        <v>3021</v>
+      </c>
+      <c r="D87">
+        <v>2726</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="B88" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="C88">
-        <v>1150</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="B89" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="C89">
-        <v>1419</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="B90" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="C90">
-        <v>1190</v>
+        <v>3269</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="B91" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="C91">
-        <v>1139</v>
+        <v>4982</v>
+      </c>
+      <c r="D91">
+        <v>4496</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="B92" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="C92">
-        <v>1514</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="B93" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="C93">
-        <v>1786</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="B94" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="C94">
-        <v>1473</v>
+        <v>1305</v>
+      </c>
+      <c r="D94">
+        <v>1177</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="B95" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="C95">
-        <v>1611</v>
+        <v>1669</v>
+      </c>
+      <c r="D95">
+        <v>1506</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="B96" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="C96">
-        <v>1275</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="B97" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="C97">
-        <v>1289</v>
+        <v>2599</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="B98" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="C98">
-        <v>1011</v>
+        <v>2631</v>
+      </c>
+      <c r="D98">
+        <v>2424</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="B99" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="C99">
-        <v>1049</v>
+        <v>2924</v>
+      </c>
+      <c r="D99">
+        <v>2639</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="B100" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="C100">
-        <v>1499</v>
+        <v>12569</v>
+      </c>
+      <c r="D100">
+        <v>11343</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="B101" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="C101">
-        <v>1989</v>
+        <v>2159</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="B102" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="C102">
-        <v>1699</v>
+        <v>6541</v>
+      </c>
+      <c r="D102">
+        <v>6027</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="B103" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="C103">
-        <v>1719</v>
+        <v>1594</v>
+      </c>
+      <c r="D103">
+        <v>1439</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="B104" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="C104">
-        <v>1088</v>
-      </c>
-      <c r="D104">
-        <v>931</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="B105" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="C105">
-        <v>1242</v>
+        <v>2063</v>
       </c>
       <c r="D105">
-        <v>1120</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="B106" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="C106">
-        <v>1109</v>
-      </c>
-      <c r="D106">
-        <v>949</v>
+        <v>2631</v>
       </c>
     </row>
     <row r="107" spans="1:4">
       <c r="A107" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="B107" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="C107">
-        <v>1473</v>
+        <v>6315</v>
       </c>
       <c r="D107">
-        <v>1329</v>
+        <v>5699</v>
       </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="B108" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="C108">
-        <v>1446</v>
+        <v>7263</v>
       </c>
       <c r="D108">
-        <v>1305</v>
+        <v>6693</v>
       </c>
     </row>
     <row r="109" spans="1:4">
       <c r="A109" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="B109" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="C109">
-        <v>1368</v>
-      </c>
-      <c r="D109">
-        <v>1234</v>
+        <v>2736</v>
       </c>
     </row>
     <row r="110" spans="1:4">
       <c r="A110" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="B110" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="C110">
-        <v>1953</v>
-      </c>
-      <c r="D110">
-        <v>1763</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="111" spans="1:4">
       <c r="A111" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="B111" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="C111">
-        <v>1777</v>
+        <v>11578</v>
       </c>
       <c r="D111">
-        <v>1519</v>
+        <v>10669</v>
       </c>
     </row>
     <row r="112" spans="1:4">
       <c r="A112" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="B112" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="C112">
-        <v>1111</v>
+        <v>1987</v>
       </c>
       <c r="D112">
-        <v>949</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="113" spans="1:4">
       <c r="A113" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="B113" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="C113">
-        <v>1831</v>
+        <v>2793</v>
       </c>
       <c r="D113">
-        <v>1687</v>
+        <v>2521</v>
       </c>
     </row>
     <row r="114" spans="1:4">
       <c r="A114" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="B114" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="C114">
-        <v>1795</v>
-      </c>
-      <c r="D114">
-        <v>1500</v>
+        <v>3999</v>
       </c>
     </row>
     <row r="115" spans="1:4">
       <c r="A115" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="B115" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="C115">
-        <v>1635</v>
-      </c>
-      <c r="D115">
-        <v>1398</v>
+        <v>1969</v>
       </c>
     </row>
     <row r="116" spans="1:4">
       <c r="A116" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="B116" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="C116">
-        <v>1444</v>
-      </c>
-      <c r="D116">
-        <v>1234</v>
+        <v>2432</v>
       </c>
     </row>
     <row r="117" spans="1:4">
       <c r="A117" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="B117" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="C117">
-        <v>1136</v>
-      </c>
-      <c r="D117">
-        <v>949</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="118" spans="1:4">
       <c r="A118" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="B118" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="C118">
-        <v>1733</v>
-      </c>
-      <c r="D118">
-        <v>1481</v>
+        <v>5166</v>
       </c>
     </row>
     <row r="119" spans="1:4">
       <c r="A119" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="B119" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="C119">
-        <v>1372</v>
-      </c>
-      <c r="D119">
-        <v>1173</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="120" spans="1:4">
       <c r="A120" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="B120" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="C120">
-        <v>1590</v>
-      </c>
-      <c r="D120">
-        <v>1330</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="121" spans="1:4">
       <c r="A121" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="B121" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="C121">
-        <v>1263</v>
-      </c>
-      <c r="D121">
-        <v>1139</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="122" spans="1:4">
       <c r="A122" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="B122" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="C122">
-        <v>1666</v>
-      </c>
-      <c r="D122">
-        <v>1425</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="123" spans="1:4">
       <c r="A123" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="B123" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="C123">
-        <v>1555</v>
-      </c>
-      <c r="D123">
-        <v>1329</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="124" spans="1:4">
       <c r="A124" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="B124" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="C124">
-        <v>1611</v>
-      </c>
-      <c r="D124">
-        <v>1377</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="125" spans="1:4">
       <c r="A125" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="B125" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="C125">
-        <v>1402</v>
+        <v>2532</v>
       </c>
       <c r="D125">
-        <v>1198</v>
+        <v>2285</v>
       </c>
     </row>
     <row r="126" spans="1:4">
       <c r="A126" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="B126" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="C126">
-        <v>1444</v>
-      </c>
-      <c r="D126">
-        <v>1234</v>
+        <v>11577</v>
       </c>
     </row>
     <row r="127" spans="1:4">
       <c r="A127" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="B127" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="C127">
-        <v>1649</v>
-      </c>
-      <c r="D127">
-        <v>1488</v>
+        <v>2205</v>
       </c>
     </row>
     <row r="128" spans="1:4">
       <c r="A128" t="s">
-        <v>251</v>
+        <v>28</v>
       </c>
       <c r="B128" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="C128">
-        <v>1222</v>
-      </c>
-      <c r="D128">
-        <v>1044</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="129" spans="1:4">
       <c r="A129" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="B129" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="C129">
-        <v>1868</v>
-      </c>
-      <c r="D129">
-        <v>1597</v>
+        <v>7777</v>
       </c>
     </row>
     <row r="130" spans="1:4">
       <c r="A130" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="B130" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="C130">
-        <v>1518</v>
-      </c>
-      <c r="D130">
-        <v>1298</v>
+        <v>6219</v>
       </c>
     </row>
     <row r="131" spans="1:4">
       <c r="A131" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="B131" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C131">
-        <v>1888</v>
-      </c>
-      <c r="D131">
-        <v>1614</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="132" spans="1:4">
       <c r="A132" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="B132" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="C132">
-        <v>1635</v>
+        <v>3707</v>
       </c>
       <c r="D132">
-        <v>1398</v>
+        <v>3345</v>
       </c>
     </row>
     <row r="133" spans="1:4">
       <c r="A133" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="B133" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="C133">
-        <v>1333</v>
-      </c>
-      <c r="D133">
-        <v>1139</v>
+        <v>6599</v>
       </c>
     </row>
     <row r="134" spans="1:4">
       <c r="A134" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="B134" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="C134">
-        <v>1285</v>
-      </c>
-      <c r="D134">
-        <v>1099</v>
+        <v>2458</v>
       </c>
     </row>
     <row r="135" spans="1:4">
       <c r="A135" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="B135" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="C135">
-        <v>1722</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="136" spans="1:4">
       <c r="A136" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="B136" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="C136">
-        <v>1455</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="137" spans="1:4">
       <c r="A137" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="B137" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="C137">
-        <v>1672</v>
+        <v>1831</v>
       </c>
       <c r="D137">
-        <v>1429</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="138" spans="1:4">
       <c r="A138" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="B138" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="C138">
-        <v>1815</v>
-      </c>
-      <c r="D138">
-        <v>1552</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="139" spans="1:4">
       <c r="A139" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="B139" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="C139">
-        <v>1999</v>
-      </c>
-      <c r="D139">
-        <v>1614</v>
+        <v>2399</v>
       </c>
     </row>
     <row r="140" spans="1:4">
       <c r="A140" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="B140" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="C140">
-        <v>1999</v>
-      </c>
-      <c r="D140">
-        <v>1709</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="141" spans="1:4">
       <c r="A141" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="B141" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="C141">
-        <v>1660</v>
-      </c>
-      <c r="D141">
-        <v>1419</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="142" spans="1:4">
       <c r="A142" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="B142" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="C142">
-        <v>1754</v>
-      </c>
-      <c r="D142">
-        <v>1499</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="143" spans="1:4">
       <c r="A143" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="B143" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="C143">
-        <v>1604</v>
-      </c>
-      <c r="D143">
-        <v>1371</v>
+        <v>4029</v>
       </c>
     </row>
     <row r="144" spans="1:4">
       <c r="A144" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="B144" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="C144">
-        <v>1777</v>
-      </c>
-      <c r="D144">
-        <v>1519</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="145" spans="1:4">
       <c r="A145" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="B145" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="C145">
-        <v>1999</v>
+        <v>2522</v>
       </c>
       <c r="D145">
-        <v>1709</v>
+        <v>2276</v>
       </c>
     </row>
     <row r="146" spans="1:4">
       <c r="A146" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="B146" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="C146">
+        <v>7299</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147" t="s">
+        <v>292</v>
+      </c>
+      <c r="B147" t="s">
+        <v>293</v>
+      </c>
+      <c r="C147">
+        <v>1311</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148" t="s">
+        <v>294</v>
+      </c>
+      <c r="B148" t="s">
+        <v>295</v>
+      </c>
+      <c r="C148">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149" t="s">
+        <v>296</v>
+      </c>
+      <c r="B149" t="s">
+        <v>297</v>
+      </c>
+      <c r="C149">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150" t="s">
+        <v>298</v>
+      </c>
+      <c r="B150" t="s">
+        <v>299</v>
+      </c>
+      <c r="C150">
+        <v>1684</v>
+      </c>
+      <c r="D150">
+        <v>1519</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4">
+      <c r="A151" t="s">
+        <v>300</v>
+      </c>
+      <c r="B151" t="s">
+        <v>301</v>
+      </c>
+      <c r="C151">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4">
+      <c r="A152" t="s">
+        <v>302</v>
+      </c>
+      <c r="B152" t="s">
+        <v>303</v>
+      </c>
+      <c r="C152">
+        <v>3190</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4">
+      <c r="A153" t="s">
+        <v>304</v>
+      </c>
+      <c r="B153" t="s">
+        <v>305</v>
+      </c>
+      <c r="C153">
+        <v>3605</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4">
+      <c r="A154" t="s">
+        <v>306</v>
+      </c>
+      <c r="B154" t="s">
+        <v>307</v>
+      </c>
+      <c r="C154">
+        <v>3859</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4">
+      <c r="A155" t="s">
+        <v>308</v>
+      </c>
+      <c r="B155" t="s">
+        <v>309</v>
+      </c>
+      <c r="C155">
+        <v>2299</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4">
+      <c r="A156" t="s">
+        <v>310</v>
+      </c>
+      <c r="B156" t="s">
+        <v>311</v>
+      </c>
+      <c r="C156">
+        <v>2855</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4">
+      <c r="A157" t="s">
+        <v>312</v>
+      </c>
+      <c r="B157" t="s">
+        <v>313</v>
+      </c>
+      <c r="C157">
+        <v>2385</v>
+      </c>
+      <c r="D157">
+        <v>2152</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4">
+      <c r="A158" t="s">
+        <v>314</v>
+      </c>
+      <c r="B158" t="s">
+        <v>315</v>
+      </c>
+      <c r="C158">
+        <v>2999</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4">
+      <c r="A159" t="s">
+        <v>316</v>
+      </c>
+      <c r="B159" t="s">
+        <v>317</v>
+      </c>
+      <c r="C159">
+        <v>10333</v>
+      </c>
+      <c r="D159">
+        <v>9326</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4">
+      <c r="A160" t="s">
+        <v>318</v>
+      </c>
+      <c r="B160" t="s">
+        <v>319</v>
+      </c>
+      <c r="C160">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4">
+      <c r="A161" t="s">
+        <v>320</v>
+      </c>
+      <c r="B161" t="s">
+        <v>320</v>
+      </c>
+      <c r="C161">
+        <v>2199</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4">
+      <c r="A162" t="s">
+        <v>321</v>
+      </c>
+      <c r="B162" t="s">
+        <v>322</v>
+      </c>
+      <c r="C162">
+        <v>3375</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4">
+      <c r="A163" t="s">
+        <v>323</v>
+      </c>
+      <c r="B163" t="s">
+        <v>324</v>
+      </c>
+      <c r="C163">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4">
+      <c r="A164" t="s">
+        <v>325</v>
+      </c>
+      <c r="B164" t="s">
+        <v>326</v>
+      </c>
+      <c r="C164">
+        <v>2816</v>
+      </c>
+      <c r="D164">
+        <v>2542</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4">
+      <c r="A165" t="s">
+        <v>327</v>
+      </c>
+      <c r="B165" t="s">
+        <v>328</v>
+      </c>
+      <c r="C165">
+        <v>2460</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4">
+      <c r="A166" t="s">
+        <v>329</v>
+      </c>
+      <c r="B166" t="s">
+        <v>330</v>
+      </c>
+      <c r="C166">
+        <v>2239</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4">
+      <c r="A167" t="s">
+        <v>331</v>
+      </c>
+      <c r="B167" t="s">
+        <v>332</v>
+      </c>
+      <c r="C167">
+        <v>2599</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4">
+      <c r="A168" t="s">
+        <v>333</v>
+      </c>
+      <c r="B168" t="s">
+        <v>334</v>
+      </c>
+      <c r="C168">
+        <v>6059</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4">
+      <c r="A169" t="s">
+        <v>335</v>
+      </c>
+      <c r="B169" t="s">
+        <v>336</v>
+      </c>
+      <c r="C169">
+        <v>4878</v>
+      </c>
+      <c r="D169">
+        <v>4495</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4">
+      <c r="A170" t="s">
+        <v>337</v>
+      </c>
+      <c r="B170" t="s">
+        <v>338</v>
+      </c>
+      <c r="C170">
+        <v>1899</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4">
+      <c r="A171" t="s">
+        <v>339</v>
+      </c>
+      <c r="B171" t="s">
+        <v>340</v>
+      </c>
+      <c r="C171">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4">
+      <c r="A172" t="s">
+        <v>341</v>
+      </c>
+      <c r="B172" t="s">
+        <v>342</v>
+      </c>
+      <c r="C172">
+        <v>1465</v>
+      </c>
+      <c r="D172">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4">
+      <c r="A173" t="s">
+        <v>343</v>
+      </c>
+      <c r="B173" t="s">
+        <v>344</v>
+      </c>
+      <c r="C173">
+        <v>4099</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4">
+      <c r="A174" t="s">
+        <v>345</v>
+      </c>
+      <c r="B174" t="s">
+        <v>346</v>
+      </c>
+      <c r="C174">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4">
+      <c r="A175" t="s">
+        <v>347</v>
+      </c>
+      <c r="B175" t="s">
+        <v>348</v>
+      </c>
+      <c r="C175">
+        <v>2430</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4">
+      <c r="A176" t="s">
+        <v>349</v>
+      </c>
+      <c r="B176" t="s">
+        <v>350</v>
+      </c>
+      <c r="C176">
+        <v>1449</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3">
+      <c r="A177" t="s">
+        <v>351</v>
+      </c>
+      <c r="B177" t="s">
+        <v>352</v>
+      </c>
+      <c r="C177">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3">
+      <c r="A178" t="s">
+        <v>353</v>
+      </c>
+      <c r="B178" t="s">
+        <v>354</v>
+      </c>
+      <c r="C178">
+        <v>1786</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3">
+      <c r="A179" t="s">
+        <v>355</v>
+      </c>
+      <c r="B179" t="s">
+        <v>356</v>
+      </c>
+      <c r="C179">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3">
+      <c r="A180" t="s">
+        <v>357</v>
+      </c>
+      <c r="B180" t="s">
+        <v>358</v>
+      </c>
+      <c r="C180">
+        <v>6245</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3">
+      <c r="A181" t="s">
+        <v>359</v>
+      </c>
+      <c r="B181" t="s">
+        <v>360</v>
+      </c>
+      <c r="C181">
+        <v>3813</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3">
+      <c r="A182" t="s">
+        <v>361</v>
+      </c>
+      <c r="B182" t="s">
+        <v>362</v>
+      </c>
+      <c r="C182">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3">
+      <c r="A183" t="s">
+        <v>363</v>
+      </c>
+      <c r="B183" t="s">
+        <v>364</v>
+      </c>
+      <c r="C183">
+        <v>4598</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3">
+      <c r="A184" t="s">
+        <v>365</v>
+      </c>
+      <c r="B184" t="s">
+        <v>366</v>
+      </c>
+      <c r="C184">
+        <v>12599</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3">
+      <c r="A185" t="s">
+        <v>367</v>
+      </c>
+      <c r="B185" t="s">
+        <v>368</v>
+      </c>
+      <c r="C185">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3">
+      <c r="A186" t="s">
+        <v>369</v>
+      </c>
+      <c r="B186" t="s">
+        <v>370</v>
+      </c>
+      <c r="C186">
+        <v>1514</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3">
+      <c r="A187" t="s">
+        <v>371</v>
+      </c>
+      <c r="B187" t="s">
+        <v>372</v>
+      </c>
+      <c r="C187">
+        <v>9139</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3">
+      <c r="A188" t="s">
+        <v>373</v>
+      </c>
+      <c r="B188" t="s">
+        <v>374</v>
+      </c>
+      <c r="C188">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3">
+      <c r="A189" t="s">
+        <v>375</v>
+      </c>
+      <c r="B189" t="s">
+        <v>376</v>
+      </c>
+      <c r="C189">
+        <v>3990</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3">
+      <c r="A190" t="s">
+        <v>377</v>
+      </c>
+      <c r="B190" t="s">
+        <v>378</v>
+      </c>
+      <c r="C190">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3">
+      <c r="A191" t="s">
+        <v>379</v>
+      </c>
+      <c r="B191" t="s">
+        <v>380</v>
+      </c>
+      <c r="C191">
+        <v>7800</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3">
+      <c r="A192" t="s">
+        <v>381</v>
+      </c>
+      <c r="B192" t="s">
+        <v>382</v>
+      </c>
+      <c r="C192">
+        <v>5946</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3">
+      <c r="A193" t="s">
+        <v>383</v>
+      </c>
+      <c r="B193" t="s">
+        <v>384</v>
+      </c>
+      <c r="C193">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3">
+      <c r="A194" t="s">
+        <v>385</v>
+      </c>
+      <c r="B194" t="s">
+        <v>386</v>
+      </c>
+      <c r="C194">
+        <v>3960</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3">
+      <c r="A195" t="s">
+        <v>387</v>
+      </c>
+      <c r="B195" t="s">
+        <v>388</v>
+      </c>
+      <c r="C195">
+        <v>8013</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3">
+      <c r="A196" t="s">
+        <v>389</v>
+      </c>
+      <c r="B196" t="s">
+        <v>390</v>
+      </c>
+      <c r="C196">
+        <v>4319</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3">
+      <c r="A197" t="s">
+        <v>391</v>
+      </c>
+      <c r="B197" t="s">
+        <v>392</v>
+      </c>
+      <c r="C197">
+        <v>2684</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3">
+      <c r="A198" t="s">
+        <v>393</v>
+      </c>
+      <c r="B198" t="s">
+        <v>394</v>
+      </c>
+      <c r="C198">
+        <v>10419</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3">
+      <c r="A199" t="s">
+        <v>395</v>
+      </c>
+      <c r="B199" t="s">
+        <v>396</v>
+      </c>
+      <c r="C199">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3">
+      <c r="A200" t="s">
+        <v>397</v>
+      </c>
+      <c r="B200" t="s">
+        <v>398</v>
+      </c>
+      <c r="C200">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3">
+      <c r="A201" t="s">
+        <v>399</v>
+      </c>
+      <c r="B201" t="s">
+        <v>400</v>
+      </c>
+      <c r="C201">
+        <v>1499</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3">
+      <c r="A202" t="s">
+        <v>401</v>
+      </c>
+      <c r="B202" t="s">
+        <v>402</v>
+      </c>
+      <c r="C202">
+        <v>4390</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3">
+      <c r="A203" t="s">
+        <v>403</v>
+      </c>
+      <c r="B203" t="s">
+        <v>403</v>
+      </c>
+      <c r="C203">
+        <v>2459</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3">
+      <c r="A204" t="s">
+        <v>404</v>
+      </c>
+      <c r="B204" t="s">
+        <v>405</v>
+      </c>
+      <c r="C204">
+        <v>1989</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3">
+      <c r="A205" t="s">
+        <v>406</v>
+      </c>
+      <c r="B205" t="s">
+        <v>406</v>
+      </c>
+      <c r="C205">
+        <v>1699</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3">
+      <c r="A206" t="s">
+        <v>407</v>
+      </c>
+      <c r="B206" t="s">
+        <v>408</v>
+      </c>
+      <c r="C206">
+        <v>2449</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3">
+      <c r="A207" t="s">
+        <v>409</v>
+      </c>
+      <c r="B207" t="s">
+        <v>409</v>
+      </c>
+      <c r="C207">
+        <v>1719</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3">
+      <c r="A208" t="s">
+        <v>410</v>
+      </c>
+      <c r="B208" t="s">
+        <v>411</v>
+      </c>
+      <c r="C208">
+        <v>3039</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4">
+      <c r="A209" t="s">
+        <v>412</v>
+      </c>
+      <c r="B209" t="s">
+        <v>413</v>
+      </c>
+      <c r="C209">
+        <v>2315</v>
+      </c>
+      <c r="D209">
+        <v>2089</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4">
+      <c r="A210" t="s">
+        <v>414</v>
+      </c>
+      <c r="B210" t="s">
+        <v>415</v>
+      </c>
+      <c r="C210">
+        <v>1088</v>
+      </c>
+      <c r="D210">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4">
+      <c r="A211" t="s">
+        <v>416</v>
+      </c>
+      <c r="B211" t="s">
+        <v>417</v>
+      </c>
+      <c r="C211">
+        <v>1242</v>
+      </c>
+      <c r="D211">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4">
+      <c r="A212" t="s">
+        <v>418</v>
+      </c>
+      <c r="B212" t="s">
+        <v>419</v>
+      </c>
+      <c r="C212">
+        <v>1109</v>
+      </c>
+      <c r="D212">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4">
+      <c r="A213" t="s">
+        <v>420</v>
+      </c>
+      <c r="B213" t="s">
+        <v>421</v>
+      </c>
+      <c r="C213">
+        <v>2457</v>
+      </c>
+      <c r="D213">
+        <v>2264</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4">
+      <c r="A214" t="s">
+        <v>422</v>
+      </c>
+      <c r="B214" t="s">
+        <v>423</v>
+      </c>
+      <c r="C214">
+        <v>2095</v>
+      </c>
+      <c r="D214">
+        <v>1891</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4">
+      <c r="A215" t="s">
+        <v>424</v>
+      </c>
+      <c r="B215" t="s">
+        <v>425</v>
+      </c>
+      <c r="C215">
+        <v>1446</v>
+      </c>
+      <c r="D215">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4">
+      <c r="A216" t="s">
+        <v>426</v>
+      </c>
+      <c r="B216" t="s">
+        <v>427</v>
+      </c>
+      <c r="C216">
+        <v>1368</v>
+      </c>
+      <c r="D216">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4">
+      <c r="A217" t="s">
+        <v>428</v>
+      </c>
+      <c r="B217" t="s">
+        <v>429</v>
+      </c>
+      <c r="C217">
+        <v>2251</v>
+      </c>
+      <c r="D217">
+        <v>2074</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4">
+      <c r="A218" t="s">
+        <v>430</v>
+      </c>
+      <c r="B218" t="s">
+        <v>431</v>
+      </c>
+      <c r="C218">
+        <v>1473</v>
+      </c>
+      <c r="D218">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4">
+      <c r="A219" t="s">
+        <v>432</v>
+      </c>
+      <c r="B219" t="s">
+        <v>433</v>
+      </c>
+      <c r="C219">
+        <v>1953</v>
+      </c>
+      <c r="D219">
+        <v>1763</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4">
+      <c r="A220" t="s">
+        <v>434</v>
+      </c>
+      <c r="B220" t="s">
+        <v>435</v>
+      </c>
+      <c r="C220">
+        <v>2292</v>
+      </c>
+      <c r="D220">
+        <v>2069</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4">
+      <c r="A221" t="s">
+        <v>436</v>
+      </c>
+      <c r="B221" t="s">
+        <v>437</v>
+      </c>
+      <c r="C221">
+        <v>1777</v>
+      </c>
+      <c r="D221">
+        <v>1519</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4">
+      <c r="A222" t="s">
+        <v>438</v>
+      </c>
+      <c r="B222" t="s">
+        <v>439</v>
+      </c>
+      <c r="C222">
+        <v>4611</v>
+      </c>
+      <c r="D222">
+        <v>3942</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4">
+      <c r="A223" t="s">
+        <v>440</v>
+      </c>
+      <c r="B223" t="s">
+        <v>441</v>
+      </c>
+      <c r="C223">
+        <v>2485</v>
+      </c>
+      <c r="D223">
+        <v>2242</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4">
+      <c r="A224" t="s">
+        <v>442</v>
+      </c>
+      <c r="B224" t="s">
+        <v>443</v>
+      </c>
+      <c r="C224">
+        <v>6237</v>
+      </c>
+      <c r="D224">
+        <v>5629</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4">
+      <c r="A225" t="s">
+        <v>444</v>
+      </c>
+      <c r="B225" t="s">
+        <v>445</v>
+      </c>
+      <c r="C225">
+        <v>2884</v>
+      </c>
+      <c r="D225">
+        <v>2602</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4">
+      <c r="A226" t="s">
+        <v>446</v>
+      </c>
+      <c r="B226" t="s">
+        <v>447</v>
+      </c>
+      <c r="C226">
+        <v>11111</v>
+      </c>
+      <c r="D226">
+        <v>9499</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4">
+      <c r="A227" t="s">
+        <v>448</v>
+      </c>
+      <c r="B227" t="s">
+        <v>449</v>
+      </c>
+      <c r="C227">
+        <v>1976</v>
+      </c>
+      <c r="D227">
+        <v>1784</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4">
+      <c r="A228" t="s">
+        <v>450</v>
+      </c>
+      <c r="B228" t="s">
+        <v>451</v>
+      </c>
+      <c r="C228">
+        <v>4052</v>
+      </c>
+      <c r="D228">
+        <v>3464</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4">
+      <c r="A229" t="s">
+        <v>452</v>
+      </c>
+      <c r="B229" t="s">
+        <v>453</v>
+      </c>
+      <c r="C229">
+        <v>1111</v>
+      </c>
+      <c r="D229">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4">
+      <c r="A230" t="s">
+        <v>454</v>
+      </c>
+      <c r="B230" t="s">
+        <v>455</v>
+      </c>
+      <c r="C230">
+        <v>6510</v>
+      </c>
+      <c r="D230">
+        <v>5875</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4">
+      <c r="A231" t="s">
+        <v>456</v>
+      </c>
+      <c r="B231" t="s">
+        <v>457</v>
+      </c>
+      <c r="C231">
+        <v>1795</v>
+      </c>
+      <c r="D231">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4">
+      <c r="A232" t="s">
+        <v>458</v>
+      </c>
+      <c r="B232" t="s">
+        <v>459</v>
+      </c>
+      <c r="C232">
+        <v>1635</v>
+      </c>
+      <c r="D232">
+        <v>1398</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4">
+      <c r="A233" t="s">
+        <v>460</v>
+      </c>
+      <c r="B233" t="s">
+        <v>461</v>
+      </c>
+      <c r="C233">
+        <v>1444</v>
+      </c>
+      <c r="D233">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4">
+      <c r="A234" t="s">
+        <v>462</v>
+      </c>
+      <c r="B234" t="s">
+        <v>463</v>
+      </c>
+      <c r="C234">
+        <v>1136</v>
+      </c>
+      <c r="D234">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4">
+      <c r="A235" t="s">
+        <v>464</v>
+      </c>
+      <c r="B235" t="s">
+        <v>465</v>
+      </c>
+      <c r="C235">
+        <v>3666</v>
+      </c>
+      <c r="D235">
+        <v>3135</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4">
+      <c r="A236" t="s">
+        <v>466</v>
+      </c>
+      <c r="B236" t="s">
+        <v>467</v>
+      </c>
+      <c r="C236">
+        <v>5397</v>
+      </c>
+      <c r="D236">
+        <v>4615</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4">
+      <c r="A237" t="s">
+        <v>468</v>
+      </c>
+      <c r="B237" t="s">
+        <v>469</v>
+      </c>
+      <c r="C237">
+        <v>2218</v>
+      </c>
+      <c r="D237">
+        <v>1897</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4">
+      <c r="A238" t="s">
+        <v>470</v>
+      </c>
+      <c r="B238" t="s">
+        <v>471</v>
+      </c>
+      <c r="C238">
+        <v>2644</v>
+      </c>
+      <c r="D238">
+        <v>2260</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4">
+      <c r="A239" t="s">
+        <v>472</v>
+      </c>
+      <c r="B239" t="s">
+        <v>473</v>
+      </c>
+      <c r="C239">
+        <v>2412</v>
+      </c>
+      <c r="D239">
+        <v>2062</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4">
+      <c r="A240" t="s">
+        <v>474</v>
+      </c>
+      <c r="B240" t="s">
+        <v>475</v>
+      </c>
+      <c r="C240">
+        <v>2161</v>
+      </c>
+      <c r="D240">
+        <v>1847</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4">
+      <c r="A241" t="s">
+        <v>476</v>
+      </c>
+      <c r="B241" t="s">
+        <v>477</v>
+      </c>
+      <c r="C241">
+        <v>3269</v>
+      </c>
+      <c r="D241">
+        <v>2795</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4">
+      <c r="A242" t="s">
+        <v>478</v>
+      </c>
+      <c r="B242" t="s">
+        <v>479</v>
+      </c>
+      <c r="C242">
+        <v>3112</v>
+      </c>
+      <c r="D242">
+        <v>2660</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4">
+      <c r="A243" t="s">
+        <v>480</v>
+      </c>
+      <c r="B243" t="s">
+        <v>481</v>
+      </c>
+      <c r="C243">
+        <v>8421</v>
+      </c>
+      <c r="D243">
+        <v>7599</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4">
+      <c r="A244" t="s">
+        <v>482</v>
+      </c>
+      <c r="B244" t="s">
+        <v>483</v>
+      </c>
+      <c r="C244">
+        <v>2222</v>
+      </c>
+      <c r="D244">
+        <v>1899</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4">
+      <c r="A245" t="s">
+        <v>484</v>
+      </c>
+      <c r="B245" t="s">
+        <v>485</v>
+      </c>
+      <c r="C245">
+        <v>1733</v>
+      </c>
+      <c r="D245">
+        <v>1481</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4">
+      <c r="A246" t="s">
+        <v>486</v>
+      </c>
+      <c r="B246" t="s">
+        <v>487</v>
+      </c>
+      <c r="C246">
+        <v>5488</v>
+      </c>
+      <c r="D246">
+        <v>4693</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4">
+      <c r="A247" t="s">
+        <v>488</v>
+      </c>
+      <c r="B247" t="s">
+        <v>489</v>
+      </c>
+      <c r="C247">
+        <v>4222</v>
+      </c>
+      <c r="D247">
+        <v>3609</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4">
+      <c r="A248" t="s">
+        <v>490</v>
+      </c>
+      <c r="B248" t="s">
+        <v>491</v>
+      </c>
+      <c r="C248">
+        <v>3111</v>
+      </c>
+      <c r="D248">
+        <v>2660</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4">
+      <c r="A249" t="s">
+        <v>492</v>
+      </c>
+      <c r="B249" t="s">
+        <v>493</v>
+      </c>
+      <c r="C249">
+        <v>1372</v>
+      </c>
+      <c r="D249">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4">
+      <c r="A250" t="s">
+        <v>494</v>
+      </c>
+      <c r="B250" t="s">
+        <v>495</v>
+      </c>
+      <c r="C250">
+        <v>10365</v>
+      </c>
+      <c r="D250">
+        <v>8862</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4">
+      <c r="A251" t="s">
+        <v>496</v>
+      </c>
+      <c r="B251" t="s">
+        <v>497</v>
+      </c>
+      <c r="C251">
+        <v>3852</v>
+      </c>
+      <c r="D251">
+        <v>3293</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4">
+      <c r="A252" t="s">
+        <v>498</v>
+      </c>
+      <c r="B252" t="s">
+        <v>499</v>
+      </c>
+      <c r="C252">
+        <v>2222</v>
+      </c>
+      <c r="D252">
+        <v>1899</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4">
+      <c r="A253" t="s">
+        <v>500</v>
+      </c>
+      <c r="B253" t="s">
+        <v>501</v>
+      </c>
+      <c r="C253">
+        <v>1590</v>
+      </c>
+      <c r="D253">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4">
+      <c r="A254" t="s">
+        <v>502</v>
+      </c>
+      <c r="B254" t="s">
+        <v>503</v>
+      </c>
+      <c r="C254">
+        <v>3111</v>
+      </c>
+      <c r="D254">
+        <v>2660</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4">
+      <c r="A255" t="s">
+        <v>504</v>
+      </c>
+      <c r="B255" t="s">
+        <v>505</v>
+      </c>
+      <c r="C255">
+        <v>1666</v>
+      </c>
+      <c r="D255">
+        <v>1425</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4">
+      <c r="A256" t="s">
+        <v>506</v>
+      </c>
+      <c r="B256" t="s">
+        <v>507</v>
+      </c>
+      <c r="C256">
+        <v>1555</v>
+      </c>
+      <c r="D256">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4">
+      <c r="A257" t="s">
+        <v>508</v>
+      </c>
+      <c r="B257" t="s">
+        <v>509</v>
+      </c>
+      <c r="C257">
+        <v>4444</v>
+      </c>
+      <c r="D257">
+        <v>3799</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4">
+      <c r="A258" t="s">
+        <v>510</v>
+      </c>
+      <c r="B258" t="s">
+        <v>511</v>
+      </c>
+      <c r="C258">
+        <v>1611</v>
+      </c>
+      <c r="D258">
+        <v>1377</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4">
+      <c r="A259" t="s">
+        <v>512</v>
+      </c>
+      <c r="B259" t="s">
+        <v>513</v>
+      </c>
+      <c r="C259">
+        <v>1402</v>
+      </c>
+      <c r="D259">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4">
+      <c r="A260" t="s">
+        <v>514</v>
+      </c>
+      <c r="B260" t="s">
+        <v>515</v>
+      </c>
+      <c r="C260">
+        <v>3333</v>
+      </c>
+      <c r="D260">
+        <v>2849</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4">
+      <c r="A261" t="s">
+        <v>516</v>
+      </c>
+      <c r="B261" t="s">
+        <v>517</v>
+      </c>
+      <c r="C261">
+        <v>9999</v>
+      </c>
+      <c r="D261">
+        <v>9024</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4">
+      <c r="A262" t="s">
+        <v>518</v>
+      </c>
+      <c r="B262" t="s">
+        <v>519</v>
+      </c>
+      <c r="C262">
+        <v>1444</v>
+      </c>
+      <c r="D262">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4">
+      <c r="A263" t="s">
+        <v>520</v>
+      </c>
+      <c r="B263" t="s">
+        <v>376</v>
+      </c>
+      <c r="C263">
+        <v>3888</v>
+      </c>
+      <c r="D263">
+        <v>3325</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4">
+      <c r="A264" t="s">
+        <v>521</v>
+      </c>
+      <c r="B264" t="s">
+        <v>522</v>
+      </c>
+      <c r="C264">
+        <v>4295</v>
+      </c>
+      <c r="D264">
+        <v>3672</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4">
+      <c r="A265" t="s">
+        <v>523</v>
+      </c>
+      <c r="B265" t="s">
+        <v>524</v>
+      </c>
+      <c r="C265">
+        <v>2368</v>
+      </c>
+      <c r="D265">
+        <v>2137</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4">
+      <c r="A266" t="s">
+        <v>525</v>
+      </c>
+      <c r="B266" t="s">
+        <v>526</v>
+      </c>
+      <c r="C266">
+        <v>7666</v>
+      </c>
+      <c r="D266">
+        <v>6555</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4">
+      <c r="A267" t="s">
+        <v>527</v>
+      </c>
+      <c r="B267" t="s">
+        <v>528</v>
+      </c>
+      <c r="C267">
+        <v>14052</v>
+      </c>
+      <c r="D267">
+        <v>12014</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4">
+      <c r="A268" t="s">
+        <v>529</v>
+      </c>
+      <c r="B268" t="s">
+        <v>530</v>
+      </c>
+      <c r="C268">
+        <v>3222</v>
+      </c>
+      <c r="D268">
+        <v>2754</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4">
+      <c r="A269" t="s">
+        <v>531</v>
+      </c>
+      <c r="B269" t="s">
+        <v>532</v>
+      </c>
+      <c r="C269">
+        <v>6233</v>
+      </c>
+      <c r="D269">
+        <v>5329</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4">
+      <c r="A270" t="s">
+        <v>533</v>
+      </c>
+      <c r="B270" t="s">
+        <v>534</v>
+      </c>
+      <c r="C270">
+        <v>1868</v>
+      </c>
+      <c r="D270">
+        <v>1597</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4">
+      <c r="A271" t="s">
+        <v>535</v>
+      </c>
+      <c r="B271" t="s">
+        <v>536</v>
+      </c>
+      <c r="C271">
+        <v>3907</v>
+      </c>
+      <c r="D271">
+        <v>3526</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4">
+      <c r="A272" t="s">
+        <v>537</v>
+      </c>
+      <c r="B272" t="s">
+        <v>538</v>
+      </c>
+      <c r="C272">
+        <v>2555</v>
+      </c>
+      <c r="D272">
+        <v>2184</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4">
+      <c r="A273" t="s">
+        <v>539</v>
+      </c>
+      <c r="B273" t="s">
+        <v>540</v>
+      </c>
+      <c r="C273">
+        <v>2888</v>
+      </c>
+      <c r="D273">
+        <v>2470</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4">
+      <c r="A274" t="s">
+        <v>541</v>
+      </c>
+      <c r="B274" t="s">
+        <v>541</v>
+      </c>
+      <c r="C274">
+        <v>2101</v>
+      </c>
+      <c r="D274">
+        <v>1796</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4">
+      <c r="A275" t="s">
+        <v>542</v>
+      </c>
+      <c r="B275" t="s">
+        <v>543</v>
+      </c>
+      <c r="C275">
+        <v>1518</v>
+      </c>
+      <c r="D275">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4">
+      <c r="A276" t="s">
+        <v>544</v>
+      </c>
+      <c r="B276" t="s">
+        <v>545</v>
+      </c>
+      <c r="C276">
         <v>1888</v>
       </c>
-      <c r="D146">
-        <v>1615</v>
+      <c r="D276">
+        <v>1614</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4">
+      <c r="A277" t="s">
+        <v>546</v>
+      </c>
+      <c r="B277" t="s">
+        <v>547</v>
+      </c>
+      <c r="C277">
+        <v>1635</v>
+      </c>
+      <c r="D277">
+        <v>1398</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4">
+      <c r="A278" t="s">
+        <v>548</v>
+      </c>
+      <c r="B278" t="s">
+        <v>549</v>
+      </c>
+      <c r="C278">
+        <v>4157</v>
+      </c>
+      <c r="D278">
+        <v>3752</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4">
+      <c r="A279" t="s">
+        <v>550</v>
+      </c>
+      <c r="B279" t="s">
+        <v>551</v>
+      </c>
+      <c r="C279">
+        <v>4301</v>
+      </c>
+      <c r="D279">
+        <v>3677</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4">
+      <c r="A280" t="s">
+        <v>552</v>
+      </c>
+      <c r="B280" t="s">
+        <v>553</v>
+      </c>
+      <c r="C280">
+        <v>3367</v>
+      </c>
+      <c r="D280">
+        <v>2879</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4">
+      <c r="A281" t="s">
+        <v>554</v>
+      </c>
+      <c r="B281" t="s">
+        <v>555</v>
+      </c>
+      <c r="C281">
+        <v>3123</v>
+      </c>
+      <c r="D281">
+        <v>2670</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4">
+      <c r="A282" t="s">
+        <v>556</v>
+      </c>
+      <c r="B282" t="s">
+        <v>557</v>
+      </c>
+      <c r="C282">
+        <v>2222</v>
+      </c>
+      <c r="D282">
+        <v>1899</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4">
+      <c r="A283" t="s">
+        <v>558</v>
+      </c>
+      <c r="B283" t="s">
+        <v>559</v>
+      </c>
+      <c r="C283">
+        <v>1333</v>
+      </c>
+      <c r="D283">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4">
+      <c r="A284" t="s">
+        <v>560</v>
+      </c>
+      <c r="B284" t="s">
+        <v>561</v>
+      </c>
+      <c r="C284">
+        <v>1285</v>
+      </c>
+      <c r="D284">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4">
+      <c r="A285" t="s">
+        <v>562</v>
+      </c>
+      <c r="B285" t="s">
+        <v>563</v>
+      </c>
+      <c r="C285">
+        <v>5103</v>
+      </c>
+      <c r="D285">
+        <v>4363</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4">
+      <c r="A286" t="s">
+        <v>564</v>
+      </c>
+      <c r="B286" t="s">
+        <v>565</v>
+      </c>
+      <c r="C286">
+        <v>2191</v>
+      </c>
+      <c r="D286">
+        <v>1873</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4">
+      <c r="A287" t="s">
+        <v>566</v>
+      </c>
+      <c r="B287" t="s">
+        <v>567</v>
+      </c>
+      <c r="C287">
+        <v>5333</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4">
+      <c r="A288" t="s">
+        <v>568</v>
+      </c>
+      <c r="B288" t="s">
+        <v>569</v>
+      </c>
+      <c r="C288">
+        <v>2144</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4">
+      <c r="A289" t="s">
+        <v>570</v>
+      </c>
+      <c r="B289" t="s">
+        <v>571</v>
+      </c>
+      <c r="C289">
+        <v>3033</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4">
+      <c r="A290" t="s">
+        <v>572</v>
+      </c>
+      <c r="B290" t="s">
+        <v>573</v>
+      </c>
+      <c r="C290">
+        <v>1722</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4">
+      <c r="A291" t="s">
+        <v>574</v>
+      </c>
+      <c r="B291" t="s">
+        <v>575</v>
+      </c>
+      <c r="C291">
+        <v>5111</v>
+      </c>
+      <c r="D291">
+        <v>4370</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4">
+      <c r="A292" t="s">
+        <v>576</v>
+      </c>
+      <c r="B292" t="s">
+        <v>577</v>
+      </c>
+      <c r="C292">
+        <v>1455</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4">
+      <c r="A293" t="s">
+        <v>578</v>
+      </c>
+      <c r="B293" t="s">
+        <v>579</v>
+      </c>
+      <c r="C293">
+        <v>3166</v>
+      </c>
+      <c r="D293">
+        <v>2707</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4">
+      <c r="A294" t="s">
+        <v>580</v>
+      </c>
+      <c r="B294" t="s">
+        <v>581</v>
+      </c>
+      <c r="C294">
+        <v>2456</v>
+      </c>
+      <c r="D294">
+        <v>2099</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4">
+      <c r="A295" t="s">
+        <v>582</v>
+      </c>
+      <c r="B295" t="s">
+        <v>583</v>
+      </c>
+      <c r="C295">
+        <v>5555</v>
+      </c>
+      <c r="D295">
+        <v>4749</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4">
+      <c r="A296" t="s">
+        <v>584</v>
+      </c>
+      <c r="B296" t="s">
+        <v>585</v>
+      </c>
+      <c r="C296">
+        <v>5999</v>
+      </c>
+      <c r="D296">
+        <v>5129</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4">
+      <c r="A297" t="s">
+        <v>586</v>
+      </c>
+      <c r="B297" t="s">
+        <v>587</v>
+      </c>
+      <c r="C297">
+        <v>3999</v>
+      </c>
+      <c r="D297">
+        <v>3419</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4">
+      <c r="A298" t="s">
+        <v>588</v>
+      </c>
+      <c r="B298" t="s">
+        <v>589</v>
+      </c>
+      <c r="C298">
+        <v>3166</v>
+      </c>
+      <c r="D298">
+        <v>2707</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4">
+      <c r="A299" t="s">
+        <v>590</v>
+      </c>
+      <c r="B299" t="s">
+        <v>591</v>
+      </c>
+      <c r="C299">
+        <v>3078</v>
+      </c>
+      <c r="D299">
+        <v>2631</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4">
+      <c r="A300" t="s">
+        <v>592</v>
+      </c>
+      <c r="B300" t="s">
+        <v>593</v>
+      </c>
+      <c r="C300">
+        <v>2226</v>
+      </c>
+      <c r="D300">
+        <v>1903</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4">
+      <c r="A301" t="s">
+        <v>594</v>
+      </c>
+      <c r="B301" t="s">
+        <v>595</v>
+      </c>
+      <c r="C301">
+        <v>2171</v>
+      </c>
+      <c r="D301">
+        <v>1856</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4">
+      <c r="A302" t="s">
+        <v>596</v>
+      </c>
+      <c r="B302" t="s">
+        <v>597</v>
+      </c>
+      <c r="C302">
+        <v>1672</v>
+      </c>
+      <c r="D302">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4">
+      <c r="A303" t="s">
+        <v>598</v>
+      </c>
+      <c r="B303" t="s">
+        <v>599</v>
+      </c>
+      <c r="C303">
+        <v>3859</v>
+      </c>
+      <c r="D303">
+        <v>3299</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4">
+      <c r="A304" t="s">
+        <v>600</v>
+      </c>
+      <c r="B304" t="s">
+        <v>601</v>
+      </c>
+      <c r="C304">
+        <v>1815</v>
+      </c>
+      <c r="D304">
+        <v>1552</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4">
+      <c r="A305" t="s">
+        <v>602</v>
+      </c>
+      <c r="B305" t="s">
+        <v>603</v>
+      </c>
+      <c r="C305">
+        <v>2222</v>
+      </c>
+      <c r="D305">
+        <v>1899</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4">
+      <c r="A306" t="s">
+        <v>604</v>
+      </c>
+      <c r="B306" t="s">
+        <v>605</v>
+      </c>
+      <c r="C306">
+        <v>2111</v>
+      </c>
+      <c r="D306">
+        <v>1804</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4">
+      <c r="A307" t="s">
+        <v>606</v>
+      </c>
+      <c r="B307" t="s">
+        <v>606</v>
+      </c>
+      <c r="C307">
+        <v>1999</v>
+      </c>
+      <c r="D307">
+        <v>1614</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4">
+      <c r="A308" t="s">
+        <v>607</v>
+      </c>
+      <c r="B308" t="s">
+        <v>608</v>
+      </c>
+      <c r="C308">
+        <v>2270</v>
+      </c>
+      <c r="D308">
+        <v>1941</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4">
+      <c r="A309" t="s">
+        <v>609</v>
+      </c>
+      <c r="B309" t="s">
+        <v>610</v>
+      </c>
+      <c r="C309">
+        <v>6654</v>
+      </c>
+      <c r="D309">
+        <v>5689</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4">
+      <c r="A310" t="s">
+        <v>611</v>
+      </c>
+      <c r="B310" t="s">
+        <v>612</v>
+      </c>
+      <c r="C310">
+        <v>2333</v>
+      </c>
+      <c r="D310">
+        <v>1994</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4">
+      <c r="A311" t="s">
+        <v>613</v>
+      </c>
+      <c r="B311" t="s">
+        <v>614</v>
+      </c>
+      <c r="C311">
+        <v>1999</v>
+      </c>
+      <c r="D311">
+        <v>1709</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4">
+      <c r="A312" t="s">
+        <v>615</v>
+      </c>
+      <c r="B312" t="s">
+        <v>616</v>
+      </c>
+      <c r="C312">
+        <v>5333</v>
+      </c>
+      <c r="D312">
+        <v>4559</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4">
+      <c r="A313" t="s">
+        <v>617</v>
+      </c>
+      <c r="B313" t="s">
+        <v>618</v>
+      </c>
+      <c r="C313">
+        <v>2912</v>
+      </c>
+      <c r="D313">
+        <v>2489</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4">
+      <c r="A314" t="s">
+        <v>619</v>
+      </c>
+      <c r="B314" t="s">
+        <v>620</v>
+      </c>
+      <c r="C314">
+        <v>1660</v>
+      </c>
+      <c r="D314">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4">
+      <c r="A315" t="s">
+        <v>621</v>
+      </c>
+      <c r="B315" t="s">
+        <v>622</v>
+      </c>
+      <c r="C315">
+        <v>2105</v>
+      </c>
+      <c r="D315">
+        <v>1799</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4">
+      <c r="A316" t="s">
+        <v>623</v>
+      </c>
+      <c r="B316" t="s">
+        <v>624</v>
+      </c>
+      <c r="C316">
+        <v>2222</v>
+      </c>
+      <c r="D316">
+        <v>1899</v>
       </c>
     </row>
   </sheetData>

--- a/kabum_produtos.xlsx
+++ b/kabum_produtos.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="625">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="654">
   <si>
     <t>Produto</t>
   </si>
@@ -56,6 +56,22 @@
 &lt;p&gt;&amp;nbsp;&lt;/p&gt;
 &lt;h2&gt;Maior nitidez, suavidade e velocidade&lt;/h2&gt;
 &lt;p&gt;Com a tecnologia&lt;strong&gt; FreeSync Premium&lt;/strong&gt;, os jogadores experimentam movimentos cont&amp;iacute;nuos e fluidos em jogos de alta resolu&amp;ccedil;&amp;atilde;o e ritmo acelerado. Esse recurso minimiza as imagens emba&amp;ccedil;adas e frames rasgados.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h3&gt;Compre agora no KaBuM!&lt;/h3&gt;</t>
+  </si>
+  <si>
+    <t>Monitor Gamer LG UltraGear LG 34" Curvo LED WQHD, UltraWide, 160Hz, 1ms, DisplayPort e HDMI, AMD FreeSync Premium, HDR10, 99% sRGB - 34GP63A-B</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Monitor Gamer LG 34&lt;/h2&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;Se voc&amp;ecirc; est&amp;aacute; buscando uma experi&amp;ecirc;ncia imersiva nos mais variados tipos de jogos como estrat&amp;eacute;gia, &lt;strong&gt;RPS&lt;/strong&gt;, corrida, esse monitor &amp;eacute; ideal para voc&amp;ecirc;. Com a tela em resolu&amp;ccedil;&amp;atilde;o &lt;strong&gt;QHD UltraWide (resolu&amp;ccedil;&amp;atilde;o 3440x1440)&lt;/strong&gt;, voc&amp;ecirc; ganha 30% a mais de &amp;aacute;rea de tela e assim n&amp;atilde;o perde nenhum detalhe do jogo. E mais, o modelo ainda conta com o som est&amp;eacute;reo 7W com &lt;strong&gt;MaxxAudio&lt;/strong&gt;. Al&amp;eacute;m disso, com a tela na propor&amp;ccedil;&amp;atilde;o 21:9 voc&amp;ecirc; tamb&amp;eacute;m ganha mais produtividade, j&amp;aacute; que pode acessar dois conte&amp;uacute;dos simultaneamente na mesma tela, podendo assim jogar e stremar ou trabalhar ao mesmo tempo.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Taxa de Atualiza&amp;ccedil;&amp;atilde;o&lt;/h2&gt;
+&lt;p&gt;O monitor possui &lt;strong&gt;160Hz&lt;/strong&gt; o que garante uma jogabilidade incr&amp;iacute;vel durante a transi&amp;ccedil;&amp;atilde;o de quadros dos jogos. Com o&lt;strong&gt; tempo de resposta de 1ms&lt;/strong&gt; (MBR), voc&amp;ecirc; ir&amp;aacute; notar como o seu monitor se torna mais responsivo aos seus comandos.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Recursos&lt;/h2&gt;
+&lt;p&gt;Gamer para te dar ainda mais vantagem enquanto joga como o &lt;strong&gt;AMD FreeSync Premium&lt;/strong&gt;, Black Stabilizer, Crosshair, Dynamic Action Sync e &lt;strong&gt;Motion Blur Reduction&lt;/strong&gt;.&lt;/p&gt;
 &lt;p&gt;&amp;nbsp;&lt;/p&gt;
 &lt;h3&gt;Compre agora no KaBuM!&lt;/h3&gt;</t>
   </si>
@@ -94,12 +110,6 @@
 &lt;/div&gt;</t>
   </si>
   <si>
-    <t>Monitor Concórdia Gamer Curvo 27'', Led Full, Hd, 165hz, Freesync - Cz270f</t>
-  </si>
-  <si>
-    <t>&lt;strong&gt;você na vantagem sempre!&amp;nbsp &amp;nbsp&amp;nbsp&lt;/strong&gt;o&amp;nbsp&lt;strong&gt;monitor concórdia gamer curvo cz270f 27&amp;quot led full hd 165hz freesync&lt;/strong&gt;&amp;nbspconta com resposta de 1ms e taxa de atualização de 165hz, permitindo a mais alta performance durante suas gameplays. Sua curvatura amplia o campo de visão relativo, concentrando toda a ação ao alcance dos olhos do usuário, sem perder resolução.&lt;strong&gt;monitor curvo&amp;nbsp &amp;nbsp&lt;/strong&gt;tenha mais imersão na sua gameplay com esse monitor curvo da concórdia. Observe seus adversários ainda mais de perto com essa imersão de 1500r de curvatura e um ângulo de visão de 178º.&lt;strong&gt;inclinável&amp;nbsp&lt;/strong&gt;ajuste de inclinação da tela de 5&amp;deg a 15&amp;deg. Ajuste seu monitor da maneira que quiser deixando sua visão ainda mais confortável e ampla!&lt;strong&gt;especificações:&lt;/strong&gt;&lt;strong&gt;tela:&lt;/strong&gt;painel: vaárea ativa: 596.736 &amp;times 335.664 mmângulo de visão: 178/178&amp;nbspcurvatura: r1500&amp;nbspresolução: 1920*1080165hzdot pitch: 0,3108cores do painel: 16.7m&amp;nbsp&amp;nbspbrilho(máximo): 250cd/m2tempo de resposta: 1ms&amp;nbspcontraste: 3000: 1taxa de heartz: 165hz&amp;nbsp &amp;nbsp&lt;strong&gt;conectividade:&amp;nbsp&lt;/strong&gt;hdmidisplayport 1.4dvientrada earphonedc (energia)&lt;strong&gt;alimentação:&lt;/strong&gt;tipo: adaptador externovoltagem: 12v/3.5aconsumo: 38w | stand by: 0.5w&amp;nbsp&lt;strong&gt;recursos do monitor:&lt;/strong&gt;- base de fácil desmontagem- freesync/g-sync&amp;nbsp&amp;nbsp- filtro de luz azul- flicker free- baixo consumo em modo stand by- overdriver&amp;nbsp- base fixa- sem bordas- auto falante interno: sim.- vesa: 100*100mm.&amp;nbsp&lt;strong&gt;acompanha:&lt;/strong&gt;&amp;nbspcabo displayport,&amp;nbspmanual do usuário e parafusos.&amp;nbsp&amp;nbsp&lt;strong&gt;dimensões da tela (cm)(axlxp):&lt;/strong&gt;&amp;nbsp36 | 61 | 4,5 | peso(kg): 4,734.&lt;strong&gt;dimensões da tela com base&amp;nbsp(cm)(axlxp)&lt;/strong&gt;: 43 | 61 | 17 | peso(kg): 4,734.&lt;br&gt;&lt;br&gt;&lt;strong&gt;especificações técnicas&lt;/strong&gt;&lt;br&gt;monitor concórdia gamer curvo cz270f 27´´ led full hd 165hz freesync | entregue para todo o brasil |</t>
-  </si>
-  <si>
     <t>Monitor Gamer LG UltraGear 27' IPS, Wide, 240 Hz, Full HD, 1ms, FreeSync Premium, HDR 10, 99% sRGB, HDMI/DisplayPort, VESA - 27GN750-B.AWZ</t>
   </si>
   <si>
@@ -119,16 +129,10 @@
 &lt;h3&gt;&lt;br /&gt;Seu Monitor LG est&amp;aacute; no KaBuM!&amp;nbsp;&lt;/h3&gt;</t>
   </si>
   <si>
-    <t>Monitor Gamer Asus TUF 31.5 LED 2K QHD, 165Hz, 1ms, HDMI e DisplayPort,  HDR, 120% sRGB, FreeSync Premium, Som Integrado, VESA - VG32VQ1B</t>
-  </si>
-  <si>
-    <t>&lt;h2&gt;O Monitor Gamer Asus 31.5" TUF Gaming VG27WQ1B possui uma tela curva WQHD (2560x1440) de 31.5 polegadas com uma taxa de atualiza&amp;ccedil;&amp;atilde;o ultrarr&amp;aacute;pida de 165Hz projetada para jogadores profissionais e aqueles que procuram uma jogabilidade envolvente&lt;/h2&gt;
-&lt;p&gt;Seu impressionante display curvo apresenta uma &lt;strong&gt;taxa de atualiza&amp;ccedil;&amp;atilde;o de 165Hz&lt;/strong&gt; e &lt;strong&gt;tecnologia Adaptive-Sync (FreeSync Premium)&lt;/strong&gt;, para uma jogabilidade extremamente fluida sem tearing e stuttering. Curvatura imersiva de 31.5 polegadas O &lt;strong&gt;painel WQHD (2560 x 1440)&lt;/strong&gt; de 31.5 polegadas oferece visuais impressionantes a partir de todos os &amp;acirc;ngulos, com uma curvatura 1500R que garante que cada ponto seja equidistante aos seus olhos. Isso contribui para um maior conforto de visualiza&amp;ccedil;&amp;atilde;o mesmo durante o uso prolongado e permite desfrutar de um amplo &amp;acirc;ngulo de visualiza&amp;ccedil;&amp;atilde;o com menos distor&amp;ccedil;&amp;atilde;o e mudan&amp;ccedil;a de cor ao jogar e assistir filmes.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h2&gt;A taxa de atualiza&amp;ccedil;&amp;atilde;o de 165Hz do TUF Gaming VG27WQ1B diminui o lag e o desfoque de movimento para dar a voc&amp;ecirc; uma vantagem em jogos de tiro em primeira pessoa, corridas, estrat&amp;eacute;gia em tempo real e esportes&lt;/h2&gt;
-&lt;p&gt;Essa taxa de atualiza&amp;ccedil;&amp;atilde;o ultrarr&amp;aacute;pida permite que voc&amp;ecirc; jogue nas configura&amp;ccedil;&amp;otilde;es visuais mais altas e reaja instantaneamente ao que est&amp;aacute; na tela para voc&amp;ecirc; conseguir o primeiro ataque. Este Monitor Gamer Asus apresenta a mais recente &lt;strong&gt;tecnologia Extreme Low Motion Blur exclusiva da Asus&lt;/strong&gt;, que atinge &lt;strong&gt;1ms MPRT&lt;/strong&gt; para eliminar manchas e borr&amp;otilde;es de movimento, e torna os objetos em movimento mais n&amp;iacute;tidos, para que a jogabilidade seja mais fluida e responsiva. Agora voc&amp;ecirc; pode escolher entre &lt;strong&gt;v&amp;aacute;rios modos HDR&lt;/strong&gt; para ajustar o desempenho do monitor com base no cen&amp;aacute;rio de exibi&amp;ccedil;&amp;atilde;o atual.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h3&gt;Garanta j&amp;aacute; seu Monitor Gamer Asus aqui no KaBuM!&lt;/h3&gt;</t>
+    <t>Monitor Concórdia Gamer Curvo 27'', Led Full, Hd, 165hz, Freesync - Cz270f</t>
+  </si>
+  <si>
+    <t>&lt;strong&gt;você na vantagem sempre!&amp;nbsp &amp;nbsp&amp;nbsp&lt;/strong&gt;o&amp;nbsp&lt;strong&gt;monitor concórdia gamer curvo cz270f 27&amp;quot led full hd 165hz freesync&lt;/strong&gt;&amp;nbspconta com resposta de 1ms e taxa de atualização de 165hz, permitindo a mais alta performance durante suas gameplays. Sua curvatura amplia o campo de visão relativo, concentrando toda a ação ao alcance dos olhos do usuário, sem perder resolução.&lt;strong&gt;monitor curvo&amp;nbsp &amp;nbsp&lt;/strong&gt;tenha mais imersão na sua gameplay com esse monitor curvo da concórdia. Observe seus adversários ainda mais de perto com essa imersão de 1500r de curvatura e um ângulo de visão de 178º.&lt;strong&gt;inclinável&amp;nbsp&lt;/strong&gt;ajuste de inclinação da tela de 5&amp;deg a 15&amp;deg. Ajuste seu monitor da maneira que quiser deixando sua visão ainda mais confortável e ampla!&lt;strong&gt;especificações:&lt;/strong&gt;&lt;strong&gt;tela:&lt;/strong&gt;painel: vaárea ativa: 596.736 &amp;times 335.664 mmângulo de visão: 178/178&amp;nbspcurvatura: r1500&amp;nbspresolução: 1920*1080165hzdot pitch: 0,3108cores do painel: 16.7m&amp;nbsp&amp;nbspbrilho(máximo): 250cd/m2tempo de resposta: 1ms&amp;nbspcontraste: 3000: 1taxa de heartz: 165hz&amp;nbsp &amp;nbsp&lt;strong&gt;conectividade:&amp;nbsp&lt;/strong&gt;hdmidisplayport 1.4dvientrada earphonedc (energia)&lt;strong&gt;alimentação:&lt;/strong&gt;tipo: adaptador externovoltagem: 12v/3.5aconsumo: 38w | stand by: 0.5w&amp;nbsp&lt;strong&gt;recursos do monitor:&lt;/strong&gt;- base de fácil desmontagem- freesync/g-sync&amp;nbsp&amp;nbsp- filtro de luz azul- flicker free- baixo consumo em modo stand by- overdriver&amp;nbsp- base fixa- sem bordas- auto falante interno: sim.- vesa: 100*100mm.&amp;nbsp&lt;strong&gt;acompanha:&lt;/strong&gt;&amp;nbspcabo displayport,&amp;nbspmanual do usuário e parafusos.&amp;nbsp&amp;nbsp&lt;strong&gt;dimensões da tela (cm)(axlxp):&lt;/strong&gt;&amp;nbsp36 | 61 | 4,5 | peso(kg): 4,734.&lt;strong&gt;dimensões da tela com base&amp;nbsp(cm)(axlxp)&lt;/strong&gt;: 43 | 61 | 17 | peso(kg): 4,734.&lt;br&gt;&lt;br&gt;&lt;strong&gt;especificações técnicas&lt;/strong&gt;&lt;br&gt;monitor concórdia gamer curvo cz270f 27´´ led full hd 165hz freesync | entregue para todo o brasil |</t>
   </si>
   <si>
     <t>Monitor Gamer Husky Blizzard 27' LED Full HD, 240Hz, 1ms, HDMI e DisplayPort, 96% sRGB, Adaptive Sync, Ajuste de Altura - HGMT006</t>
@@ -143,6 +147,36 @@
 &lt;h3&gt;Garanta j&amp;aacute; seu Monitor Gamer Husky aqui no KaBuM!&lt;/h3&gt;</t>
   </si>
   <si>
+    <t>Monitor Gamer LG UltraGear 24 Full HD, 144Hz, 1ms, IPS, HDMI e DisplayPort, 99% sRGB, HDR, FreeSync Premium, VESA - 24GN60R-B.AWZM</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Monitor Gamer LG UltraGear 24 Full HD, 144Hz, 1ms, FreeSync Premium - 24GN60R-B&lt;/h2&gt;
+&lt;p&gt;LG UltraGear, equipamento extremamente poderoso, aumenta as suas chances de vit&amp;oacute;ria.&lt;br /&gt;Com o IPS 1 ms compar&amp;aacute;vel &amp;agrave; Velocidade TN, com persist&amp;ecirc;ncia de imagem minimizada e um r&amp;aacute;pido tempo de resposta, poder&amp;aacute; desfrutar de um novo desempenho de jogo.&lt;br /&gt;Reduza a lat&amp;ecirc;ncia de entrada com a Dynamic Action Sync para ajudar os jogadores a visualizarem momentos cr&amp;iacute;ticos em tempo real.&lt;/p&gt;
+&lt;h2&gt;&lt;br /&gt;Refresh Rate de 144 Hz&lt;/h2&gt;
+&lt;p&gt;Uma velocidade ultrarr&amp;aacute;pida de 144 Hz permite aos jogadores ver o fotograma seguinte rapidamente e faz com que as imagens tenham uma apar&amp;ecirc;ncia mais suave. Os jogadores podem responder rapidamente aos advers&amp;aacute;rios e apontar com facilidade para os alvos.&lt;br /&gt;Melhore a sua experi&amp;ecirc;ncia de jogo com um design atrativo e praticamente sem moldura. A base pode ser ajustada para alterar a inclina&amp;ccedil;&amp;atilde;o do monitor, ajudando-o a jogar de forma mais confort&amp;aacute;vel.&lt;/p&gt;
+&lt;h2&gt;&lt;br /&gt;HDR10 com sRGB 99% (T&amp;iacute;p.)&lt;/h2&gt;
+&lt;p&gt;Este monitor suporta HDR10 com sRGB 99% (Tip.) permitindo uma imers&amp;atilde;o visual realista com contraste e cores de grande riqueza. Independentemente do campo de batalha, poder&amp;aacute; ajudar os jogadores a ver as cores dram&amp;aacute;ticas pretendidas pelos criadores do jogo.&lt;br /&gt;Com a tecnologia FreeSync Premium, os jogadores podem experimentar movimentos fluidos e cont&amp;iacute;nuos em jogos de alta resolu&amp;ccedil;&amp;atilde;o e em ritmo acelerado. Ele virtualmente minimiza a trepida&amp;ccedil;&amp;atilde;o e a trepida&amp;ccedil;&amp;atilde;o da tela.&lt;/p&gt;
+&lt;h3&gt;&lt;br /&gt;Monitor Gamer &amp;eacute; no KaBuM!&lt;/h3&gt;</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Asus TUF 31.5 LED 2K QHD, 165Hz, 1ms, HDMI e DisplayPort,  HDR, 120% sRGB, FreeSync Premium, Som Integrado, VESA - VG32VQ1B</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;O Monitor Gamer Asus 31.5" TUF Gaming VG27WQ1B possui uma tela curva WQHD (2560x1440) de 31.5 polegadas com uma taxa de atualiza&amp;ccedil;&amp;atilde;o ultrarr&amp;aacute;pida de 165Hz projetada para jogadores profissionais e aqueles que procuram uma jogabilidade envolvente&lt;/h2&gt;
+&lt;p&gt;Seu impressionante display curvo apresenta uma &lt;strong&gt;taxa de atualiza&amp;ccedil;&amp;atilde;o de 165Hz&lt;/strong&gt; e &lt;strong&gt;tecnologia Adaptive-Sync (FreeSync Premium)&lt;/strong&gt;, para uma jogabilidade extremamente fluida sem tearing e stuttering. Curvatura imersiva de 31.5 polegadas O &lt;strong&gt;painel WQHD (2560 x 1440)&lt;/strong&gt; de 31.5 polegadas oferece visuais impressionantes a partir de todos os &amp;acirc;ngulos, com uma curvatura 1500R que garante que cada ponto seja equidistante aos seus olhos. Isso contribui para um maior conforto de visualiza&amp;ccedil;&amp;atilde;o mesmo durante o uso prolongado e permite desfrutar de um amplo &amp;acirc;ngulo de visualiza&amp;ccedil;&amp;atilde;o com menos distor&amp;ccedil;&amp;atilde;o e mudan&amp;ccedil;a de cor ao jogar e assistir filmes.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;A taxa de atualiza&amp;ccedil;&amp;atilde;o de 165Hz do TUF Gaming VG27WQ1B diminui o lag e o desfoque de movimento para dar a voc&amp;ecirc; uma vantagem em jogos de tiro em primeira pessoa, corridas, estrat&amp;eacute;gia em tempo real e esportes&lt;/h2&gt;
+&lt;p&gt;Essa taxa de atualiza&amp;ccedil;&amp;atilde;o ultrarr&amp;aacute;pida permite que voc&amp;ecirc; jogue nas configura&amp;ccedil;&amp;otilde;es visuais mais altas e reaja instantaneamente ao que est&amp;aacute; na tela para voc&amp;ecirc; conseguir o primeiro ataque. Este Monitor Gamer Asus apresenta a mais recente &lt;strong&gt;tecnologia Extreme Low Motion Blur exclusiva da Asus&lt;/strong&gt;, que atinge &lt;strong&gt;1ms MPRT&lt;/strong&gt; para eliminar manchas e borr&amp;otilde;es de movimento, e torna os objetos em movimento mais n&amp;iacute;tidos, para que a jogabilidade seja mais fluida e responsiva. Agora voc&amp;ecirc; pode escolher entre &lt;strong&gt;v&amp;aacute;rios modos HDR&lt;/strong&gt; para ajustar o desempenho do monitor com base no cen&amp;aacute;rio de exibi&amp;ccedil;&amp;atilde;o atual.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h3&gt;Garanta j&amp;aacute; seu Monitor Gamer Asus aqui no KaBuM!&lt;/h3&gt;</t>
+  </si>
+  <si>
+    <t>Monitor Gamer AOC Hero 23.8 Full HD, Wide, 144 Hz, 1ms, FreeSync, HDMI e DisplayPort, IPS, Ajuste de Altura - 24G2/BK</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;O monitor Gamer AOC Hero &amp;eacute; compat&amp;iacute;vel com a tecnologia G-Sync e entrega aos gamers uma experi&amp;ecirc;ncia lisa, r&amp;aacute;pida e responsiva em todos os jogos. Experimente uma jogabilidade impec&amp;aacute;vel com a taxa de atualiza&amp;ccedil;&amp;atilde;o de tela 144 Hz que garante imagens r&amp;aacute;pidas, suaves e movimentos n&amp;iacute;tidos, para nenhum detalhe passar despercebido.&lt;/p&gt;</t>
+  </si>
+  <si>
     <t>Monitor Gamer Husky Tempest 34' VA, Ultrawide, 144 Hz, 2K QHD, 1ms, Adaptive Sync, 95% sRGB, HDMI/DisplayPort Som - HGMT005</t>
   </si>
   <si>
@@ -155,28 +189,10 @@
 &lt;h3&gt;&lt;br /&gt;Garanta o seu no KaBuM!&lt;/h3&gt;</t>
   </si>
   <si>
-    <t>Monitor Gamer AOC Hero 23.8 Full HD, Wide, 144 Hz, 1ms, FreeSync, HDMI e DisplayPort, IPS, Ajuste de Altura - 24G2/BK</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;O monitor Gamer AOC Hero &amp;eacute; compat&amp;iacute;vel com a tecnologia G-Sync e entrega aos gamers uma experi&amp;ecirc;ncia lisa, r&amp;aacute;pida e responsiva em todos os jogos. Experimente uma jogabilidade impec&amp;aacute;vel com a taxa de atualiza&amp;ccedil;&amp;atilde;o de tela 144 Hz que garante imagens r&amp;aacute;pidas, suaves e movimentos n&amp;iacute;tidos, para nenhum detalhe passar despercebido.&lt;/p&gt;</t>
-  </si>
-  <si>
     <t>Monitor Gamer AOC Legend 27' LED, Curvo, 240 Hz, Full HD, 0.5ms, FreeSync Premium, 120% sRGB, HDMI/DisplayPort - C27G2ZE</t>
   </si>
   <si>
     <t>&lt;p&gt;Monitor Gamer AOC Legend 27' LED Esteja no Centro da Aventura O Monitor Legend C27G2ZE tem um painel VA de 27" e uma curvatura de 1500R. Possui uma taxa de atualiza&amp;ccedil;&amp;atilde;o de 240Hz e um incr&amp;iacute;vel tempo de resposta de 0,5ms. Perfeito para ter a m&amp;aacute;xima emo&amp;ccedil;&amp;atilde;o em Qualquer tipo de jogo. Tela Curva de 1500R Seja envolvido pelo design curvo que te coloca no centro da a&amp;ccedil;&amp;atilde;o e fornece uma experi&amp;ecirc;ncia diferenciada em cada movimento. Taxa de Atualiza&amp;ccedil;&amp;atilde;o de 240Hz Aproveite mais fluide na suas imagens. Cada detalhes &amp;eacute; colocado em foco de forma n&amp;iacute;tida e os movimentos s&amp;atilde;o mostrados com clareza, tudo para voc&amp;ecirc; sentir suas rea&amp;ccedil;&amp;otilde;es e a&amp;ccedil;&amp;otilde;es se tornarem uma s&amp;oacute; e elevar o seu jogo. 0,5Ms de Tempo de Resposta Acabe de vez com os efeitos fantasmas com o tempo de resposta de 0,5ms. Tenha uma experi&amp;ecirc;ncia aprimorada onde mesmo os movimentos mais r&amp;aacute;pidos e as trasi&amp;ccedil;&amp;otilde;es mais dram&amp;aacute;ticas s&amp;atilde;o reproduzidas suavemente.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>Monitor Gamer LG UltraGear 24 Full HD, 144Hz, 1ms, IPS, HDMI e DisplayPort, 99% sRGB, HDR, FreeSync Premium, VESA - 24GN60R-B.AWZM</t>
-  </si>
-  <si>
-    <t>&lt;h2&gt;Monitor Gamer LG UltraGear 24 Full HD, 144Hz, 1ms, FreeSync Premium - 24GN60R-B&lt;/h2&gt;
-&lt;p&gt;LG UltraGear, equipamento extremamente poderoso, aumenta as suas chances de vit&amp;oacute;ria.&lt;br /&gt;Com o IPS 1 ms compar&amp;aacute;vel &amp;agrave; Velocidade TN, com persist&amp;ecirc;ncia de imagem minimizada e um r&amp;aacute;pido tempo de resposta, poder&amp;aacute; desfrutar de um novo desempenho de jogo.&lt;br /&gt;Reduza a lat&amp;ecirc;ncia de entrada com a Dynamic Action Sync para ajudar os jogadores a visualizarem momentos cr&amp;iacute;ticos em tempo real.&lt;/p&gt;
-&lt;h2&gt;&lt;br /&gt;Refresh Rate de 144 Hz&lt;/h2&gt;
-&lt;p&gt;Uma velocidade ultrarr&amp;aacute;pida de 144 Hz permite aos jogadores ver o fotograma seguinte rapidamente e faz com que as imagens tenham uma apar&amp;ecirc;ncia mais suave. Os jogadores podem responder rapidamente aos advers&amp;aacute;rios e apontar com facilidade para os alvos.&lt;br /&gt;Melhore a sua experi&amp;ecirc;ncia de jogo com um design atrativo e praticamente sem moldura. A base pode ser ajustada para alterar a inclina&amp;ccedil;&amp;atilde;o do monitor, ajudando-o a jogar de forma mais confort&amp;aacute;vel.&lt;/p&gt;
-&lt;h2&gt;&lt;br /&gt;HDR10 com sRGB 99% (T&amp;iacute;p.)&lt;/h2&gt;
-&lt;p&gt;Este monitor suporta HDR10 com sRGB 99% (Tip.) permitindo uma imers&amp;atilde;o visual realista com contraste e cores de grande riqueza. Independentemente do campo de batalha, poder&amp;aacute; ajudar os jogadores a ver as cores dram&amp;aacute;ticas pretendidas pelos criadores do jogo.&lt;br /&gt;Com a tecnologia FreeSync Premium, os jogadores podem experimentar movimentos fluidos e cont&amp;iacute;nuos em jogos de alta resolu&amp;ccedil;&amp;atilde;o e em ritmo acelerado. Ele virtualmente minimiza a trepida&amp;ccedil;&amp;atilde;o e a trepida&amp;ccedil;&amp;atilde;o da tela.&lt;/p&gt;
-&lt;h3&gt;&lt;br /&gt;Monitor Gamer &amp;eacute; no KaBuM!&lt;/h3&gt;</t>
   </si>
   <si>
     <t>Monitor Gamer AOC Hero 27 Full HD, Wide, 144 Hz, 1ms, IPS, HDMI e VGA, G-Sync, Ajuste de Ângulo - 27G2/BK</t>
@@ -274,32 +290,6 @@
 &lt;h3&gt;&lt;br /&gt;Compre agora no KaBuM!&lt;/h3&gt;</t>
   </si>
   <si>
-    <t>Monitor Gamer HyperX Armada 27 2K QHD, 165 Hz, 1ms, IPS, HDMI e DisplayPort, 95% DCI, HDR, FreeSync, Preto - 64V69AA</t>
-  </si>
-  <si>
-    <t>&lt;h2&gt;Monitor Gamer HyperX Armada 27 2K QHD&lt;/h2&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h2&gt;Suporte de mesa incluso&lt;/h2&gt;
-&lt;p&gt;N&amp;atilde;o passe seus dias procurando por um suporte compat&amp;iacute;vel! O Armada cuida disso com seu &lt;strong&gt;bra&amp;ccedil;o ergon&amp;ocirc;mico&lt;/strong&gt; e &lt;strong&gt;suporte de mesa resistentes&lt;/strong&gt;. Basta tocar na parte traseira e elevar seu monitor para liberar espa&amp;ccedil;o na mesa!&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h2&gt;Maior resolu&amp;ccedil;&amp;atilde;o para uma experi&amp;ecirc;ncia de jogos imersiva&lt;/h2&gt;
-&lt;p&gt;O Armada 27 pode exibir com &lt;strong&gt;resolu&amp;ccedil;&amp;otilde;es Quad HD (QHD)&lt;/strong&gt;, oferecendo gr&amp;aacute;ficos incr&amp;iacute;veis para &lt;strong&gt;maior imers&amp;atilde;o em seus jogos&lt;/strong&gt;, filmes e v&amp;iacute;deos.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h2&gt;Qualidade de imagem mais n&amp;iacute;tida para uma experi&amp;ecirc;ncia fascinante&lt;/h2&gt;
-&lt;p&gt;Explorar esses mundos de jogos com clareza impec&amp;aacute;vel de elementos visuais e &lt;strong&gt;texturas detalhados&lt;/strong&gt; vira uma grande aventura!&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h2&gt;Taxa de atualiza&amp;ccedil;&amp;atilde;o de 165 Hz e tempo de resposta de 1 ms&lt;/h2&gt;
-&lt;p&gt;Desfrute de elementos visuais cristalinos com a &lt;strong&gt;taxa de atualiza&amp;ccedil;&amp;atilde;o de 165 Hz&lt;/strong&gt; e &lt;strong&gt;tempo de resposta de&lt;/strong&gt; &lt;strong&gt;1 ms&lt;/strong&gt; do HyperX Armada 27.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h2&gt;VESA DisplayHDR 400&lt;/h2&gt;
-&lt;p&gt;O contraste de cores de tirar o f&amp;ocirc;lego do &lt;strong&gt;DisplayHDR 400&lt;/strong&gt; combinado com a &lt;strong&gt;brilhante luminosidade&lt;/strong&gt; do Armada 27 oferecem detalhes claros em diversos ambientes de ilumina&amp;ccedil;&amp;atilde;o.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h2&gt;Compat&amp;iacute;vel com NVIDIA G-SYNC&lt;/h2&gt;
-&lt;p&gt;Livre-se dos irritantes rasgos de tela e mantenha a lat&amp;ecirc;ncia de entrada e intermit&amp;ecirc;ncia baixa gra&amp;ccedil;as &amp;agrave; &lt;strong&gt;NVIDIA G-SYNC&lt;/strong&gt; e sua taxa de atualiza&amp;ccedil;&amp;atilde;o vari&amp;aacute;vel.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h3&gt;Compre agora no KaBuM!&lt;/h3&gt;</t>
-  </si>
-  <si>
     <t>Monitor Gamer Samsung Odyssey G3 24 LED Full HD, 144Hz, 1ms, HDMI e DisplayPort, FreeSync Premium, Ajuste de Altura, VESA - LS24BG300ELMZD</t>
   </si>
   <si>
@@ -310,10 +300,10 @@
 &lt;p&gt;Fa&amp;ccedil;a com que cada movimento conte com um tempo de resposta de 1ms. Os pixels da tela respondem de maneira quase instant&amp;acirc;nea, permitindo que a a&amp;ccedil;&amp;atilde;o r&amp;aacute;pida flua com precis&amp;atilde;o do mundo real. Seu desempenho na tela &amp;eacute; t&amp;atilde;o r&amp;aacute;pido quanto seus pr&amp;oacute;prios reflexos.&lt;/p&gt;</t>
   </si>
   <si>
-    <t>Monitor Concórdia Gamer 27'' 2k, WqHD, 165hz, 1ms, HDMI, Dp - K270q</t>
-  </si>
-  <si>
-    <t>&lt;strong&gt;&lt;/strong&gt;&lt;strong&gt;lançamento!!!&amp;nbsp&amp;nbsp&lt;/strong&gt;&lt;strong&gt;monitor gamer concórdia k270q165, 1ms, 165hz, qhd, dp,&lt;/strong&gt;o&amp;nbsp&lt;strong&gt;monitor concórdia gamer k270q 27&amp;#39&amp;#39 2k, wqhd, 165hz, 1ms, hdmi, dp&lt;/strong&gt;&amp;nbspé o que você precisa para colocar a realidade para dentro dos seus jogos. Com uma resolução&amp;nbsp&lt;strong&gt;wqdh va,&lt;/strong&gt;&amp;nbspele te oferece a melhor qualidade de imagem natural e nítida, deixando cada movimento mais real e preciso.com um response time de 1ms, o monitor alterna seus tons de cores rapidamente sem que você perceba e atrapalhe nos momentos mais épicos e excitantes da sua jogada!&lt;strong&gt;especificações:&lt;/strong&gt;&lt;strong&gt;tela:&amp;nbsp&lt;/strong&gt;painel: vaárea ativa: 596.736 &amp;times 335.664 mm (h&amp;timesv)ângulo de visão: 178/178&amp;nbspresolução: 2560*1440165hzdot pitch: 0,23&amp;nbspcores do painel: 16.7m&amp;nbsp &amp;nbsp&amp;nbspbrilho(máximo): 250cd/m2&amp;nbsp &amp;nbsptempo de resposta: 1mscontraste: 1000: 1&amp;nbsptaxa de heartz: 165hz wqhd&lt;strong&gt;conectividade:&amp;nbsp&lt;/strong&gt;displayport 1.42 hdmi 2.0saída de áudiousb&amp;nbspdc(energia)&lt;strong&gt;alimentação&amp;nbsp&lt;/strong&gt;tipo: adaptador externo&amp;nbsp&amp;nbspvoltagem: 12v/4aconsumo: 35w | stand by: 0.5w&lt;strong&gt;recursos do monitor:&amp;nbsp&amp;nbsp&lt;/strong&gt;- base de fácil montagem- filtro de luz azul- inclinação -5º~15º- vesa: 100x100mm- alto falante interno: sim&amp;nbsp &amp;nbsp &amp;nbsp&amp;nbsp- freesync/g-sync&amp;nbsp&lt;strong&gt;acompanha:&lt;/strong&gt;&amp;nbspcabo displayport, parafusos, manual do usuário.&amp;nbsp&amp;nbsp&lt;strong&gt;dimensões do monitor(cm) (axlxp):&lt;/strong&gt;&amp;nbsp36,0 | 61,5 | 4,0 |&amp;nbsp&lt;strong&gt;peso(kg):&lt;/strong&gt;&amp;nbsp4,718.&lt;strong&gt;dimensões do monitor com base(cm) (axlxp):&lt;/strong&gt;&amp;nbsp43,5 | 61,5 | 17,0 |&amp;nbsp&lt;strong&gt;peso(kg):&lt;/strong&gt;&amp;nbsp4,718.&lt;br&gt;&lt;br&gt;&lt;strong&gt;especificações técnicas&lt;/strong&gt;&lt;br&gt;monitor concórdia gamer k270q 27´´ 2k, wqhd, 165hz, 1ms, hdmi, dp | entregue para todo o brasil |</t>
+    <t>Monitor Gamer Concórdia 27 Polegadas, 2K, WQHD, 165hz, 1ms, HDMI, DP - K270q</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;O&amp;nbsp;&lt;strong&gt;Monitor Conc&amp;oacute;rdia Gamer K270Q 27'' 2K, WQHD, 165hz, 1ms, HDMI, DP Freesync Premium HDR10&lt;/strong&gt;&amp;nbsp;&amp;eacute; o que voc&amp;ecirc; precisa para colocar a realidade para dentro dos seus jogos. Com uma resolu&amp;ccedil;&amp;atilde;o WQDH VA, ele te oferece a melhor qualidade de imagem natural e n&amp;iacute;tida, deixando cada movimento mais real e preciso.&lt;br /&gt;Com um response time de 1MS, o monitor alterna seus tons de cores rapidamente sem que voc&amp;ecirc; perceba e atrapalhe nos momentos mais &amp;eacute;picos e excitantes da sua jogada!&lt;/p&gt;</t>
   </si>
   <si>
     <t>Monitor Gamer Philco 32 LED Full HD, Curvo R1800, 165Hz, 1ms, HDMI e DisplayPort, HDR 10, FreeSync - PMG32C900FG</t>
@@ -336,6 +326,12 @@
 &lt;p&gt;Proteja seus olhos com o filtro de&lt;strong&gt; prote&amp;ccedil;&amp;atilde;o contra luz azul&lt;/strong&gt;.&lt;/p&gt;
 &lt;p&gt;&amp;nbsp;&lt;/p&gt;
 &lt;h3&gt;Compre agora no KaBuM!&lt;/h3&gt;</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Samsung Odissey G30 24 Pol. Full HD LCD, 144Hz, Ajuste De Altura, Freesync Premium, Preto - Ls24bg300elmzd</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Monitor Gamer Samsung Odissey G30 24" - Ls24bg300elmzd&lt;/b&gt;&lt;br /&gt;&lt;br /&gt;Uma taxa de atualização mais rápida atualiza as imagens da tela com mais freqüência a cada segundo, permitindo uma jogabilidade mais suave que acompanha até mesmo os jogadores mais rápidos. A taxa de atualização de 144hz elimina o lag e o desfoque do movimento para uma jogabilidade emocionante com ação ultra-suave. Faça com que cada movimento conte com um tempo de resposta de 1ms. Os pixels da tela respondem de maneira quase instantânea, permitindo que a ação rápida flua com precisão do mundo real. Seu desempenho na tela é tão rápido quanto seus próprios reflexos. Jogabilidade fácil e sem esforço. Amd freesync premium apresenta tecnologia de sincronização adaptativa que reduz atraso de tela, rasgos de imagem e a latência de entrada, assegurando assim que cada cena flua sem interrupções. Atinja o auge da vitória. Gire, incline e ajuste seu monitor até que todos os inimigos estejam em perfeita visão. Seu monitor pode ser movido livremente para que você possa encontrar o conforto total do jogo. Seu legado não tem limites. O design sem bordas em 3 lados revela o espaço máximo para uma jogabilidade maior e mais ousada. Alinhe duas telas precisamente em uma configuração de dois monitores e não perca nenhum inimigo de vista mesmo nas junções. Jogue por ainda mais tempo.&lt;br /&gt;&lt;br /&gt;&lt;b&gt;Taxa de atualização de 144hz&lt;/b&gt;&lt;br /&gt;Pronto para derrotar inimigos. Uma taxa de atualização mais rápida atualiza as imagens da tela com mais freqüência a cada segundo, permitindo uma jogabilidade mais suave que acompanha até mesmo os jogadores mais rápidos. A taxa de atualização de 144hz elimina o lag e o desfoque do movimento para uma jogabilidade emocionante com ação ultra-suave.&lt;br /&gt;&lt;br /&gt;&lt;b&gt;1ms de tempo de resposta (mprt)&lt;/b&gt;&lt;br /&gt;Faça com que cada movimento conte com um tempo de resposta de 1ms. Os pixels da tela respondem de maneira quase instantânea, permitindo que a ação rápida flua com precisão do mundo real. Seu desempenho na tela é tão rápido quanto seus próprios reflexos.&lt;br /&gt;&lt;br /&gt;&lt;b&gt;Amd freesync premium&lt;/b&gt;&lt;br /&gt;Jogabilidade fácil e sem esforço. Amd freesync premium apresenta tecnologia de sincronização adaptativa que reduz atraso de tela, rasgos de imagem e a latência de entrada, assegurando assim que cada cena flua sem interrupções.&lt;br /&gt;&lt;br /&gt;&lt;b&gt;Design sem bordas em 3 lados&lt;/b&gt;&lt;br /&gt;Seu legado não tem limites. O design sem bordas em 3 lados revela o espaço máximo para uma jogabilidade maior e mais ousada. Alinhe duas telas precisamente em uma configuração de dois monitores e não perca nenhum inimigo de vista mesmo nas junções.&lt;br /&gt;&lt;br /&gt;&lt;b&gt;Modo eye saver e flicker free&lt;/b&gt;&lt;br /&gt;Jogue por ainda mais tempo. O eye saver mode minimiza a luz azul o suficiente para manter os olhos relaxados e confortáveis para quando se joga por longos períodos. A tecnologia flicker freeplay remove continuamente a cansativa e irritante oscilação da tela para que você possa se concentrar por mais tempo com menos distração e tensão ocular.</t>
   </si>
   <si>
     <t>Monitor Gamer LG ultra gear 34 LED Ultra Wide Curvo, 160 Hz, QHD, 1ms, HDMI/DisplayPort, 99% sRGB, FreeSync Premium, HDR 10, VESA, Preto - 34WP65C-B</t>
@@ -399,25 +395,36 @@
     <t>O Monitor Gamer AOC, Modelo Hero, possui uma jogabilidade impecável, graças a taxa de atualização de 144Hz, sem rastros e efeitos fantasmas.&lt;br /&gt;&lt;br /&gt;  O produto ainda oferece a tecnologia AMD FreeSync, que sincroniza a placa gráfica (GPU) e o monitor para que eles tenham a mesma taxa de atualização, fazendo com que a imagem chegue de uma forma mais pura aos seus olhos.&lt;br /&gt;&lt;br /&gt;  E mais! Com a base ajustável você terá controle preciso para o ajuste e adaptação conveniente da altura e ângulo do seu monitor, permitindo que você jogue por ainda mais tempo, sem nenhum desconforto.</t>
   </si>
   <si>
-    <t>Monitor Gamer Samsung Odyssey G4 25 IPS Full HD, 240Hz, 1ms, HDMI e DisplayPort,  99% sRGB, HDR, FreeSync Premium  - LS25BG400ELXZD</t>
-  </si>
-  <si>
-    <t>&lt;h2&gt;Monitor Gamer Samsung Odyssey G4 25 IPS Full HD&lt;/h2&gt;
-&lt;p&gt;Resolu&amp;ccedil;&amp;atilde;o FHD e painel IPS. Agora voc&amp;ecirc; pode ver os jogos como nunca antes. O painel IPS oferece cores claras e um amplo &amp;acirc;ngulo de vis&amp;atilde;o de 178&amp;ordm; para maior clareza a partir de qualquer posi&amp;ccedil;&amp;atilde;o. Com mais pixels e maior profundidade, os jogos est&amp;atilde;o mais pr&amp;oacute;ximos da realidade do que nunca.&lt;br /&gt;240Hz de taxa de atualiza&amp;ccedil;&amp;atilde;o &amp;amp; 1ms de tempo de resposta. Velocidade nas cenas. A taxa de atualiza&amp;ccedil;&amp;atilde;o de 240Hz elimina o atraso para uma jogabilidade emocionante com a&amp;ccedil;&amp;atilde;o ultra-suave. Ataque os inimigos assim que os v&amp;ecirc;-los com um tempo de resposta de 1ms e quadros sem borr&amp;atilde;o.&lt;/p&gt;
-&lt;h2&gt;&lt;br /&gt;Foco sem nunca quebrar o fluxo&lt;/h2&gt;
-&lt;p&gt;Compat&amp;iacute;vel com Nvidia G-Sync. Jogabilidade f&amp;aacute;cil e sem esfor&amp;ccedil;o. A compatibilidade G-Sync mant&amp;eacute;m a placa de v&amp;iacute;deo e o painel sincronizados para eliminar cortes, atraso de tela e rasgos de imagem. Cenas de jogo r&amp;aacute;pidas e complexas s&amp;atilde;o est&amp;aacute;veis e sem repeti&amp;ccedil;&amp;otilde;es com AMD FreeSync Premium aumentando sua vantagem competitiva.&lt;br /&gt;Auto Source Switch+ Ligue e jogue instantaneamente. Com o Auto Source Switch+, seu monitor detecta quando os dispositivos conectados s&amp;atilde;o ligados e muda instantaneamente para o novo sinal de fonte. Isto o ajuda a chegar mais r&amp;aacute;pido &amp;agrave; a&amp;ccedil;&amp;atilde;o do jogo sem passar por v&amp;aacute;rias fontes de entrada.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>Monitor Gamer Samsung 27 polegadas FHD, 165hz, 1ms, Com Ajuste De Altura, HDMI, Displayport, Freesync, Preto - Ls27ag320nlxzd</t>
-  </si>
-  <si>
-    <t>Monitor Gamer Samsung Odyssey G32A 27" Preto LS27AG320NLXZD &lt;br /&gt;Resolução FHD e painel IPS. Agora você pode ver os jogos como nunca antes. O painel IPS oferece cores claras e um amplo ângulo de visão de 178º para maior clareza a partir de qualquer posição. Com mais pixels e maior profundidade, os jogos estão mais próximos da realidade do que nunca. Compatível com Nvidia G-Sync. Jogabilidade fácil e sem esforço. A compatibilidade G-Sync mantém a placa de vídeo e o painel sincronizados para eliminar cortes, atraso de tela e rasgos de imagem. Cenas de jogo rápidas e complexas são estáveis e sem repetições com AMD FreeSync Premium aumentando sua vantagem competitiva.</t>
-  </si>
-  <si>
-    <t>Monitor Gamer Asus ROG Swift 49' LED, Ultra Wide, 144 Hz, DFHD, FreeSync Premium, HDR 10, 100% sRGB, HDMI/DisplayPort, Som - XG49VQ</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;O XG49VQ &amp;eacute; um monitor gaming super ultra-panor&amp;acirc;mico de 49' com uma velocidade de atualiza&amp;ccedil;&amp;atilde;o suave de 144Hz que oferece a experi&amp;ecirc;ncia gaming mais envolvente. Disp&amp;otilde;e de tecnologias Radeon FreeSync 2 HDR, e High Dynamic Range (HDR) com gama de cores profissional DCI-P3 90% e certifica&amp;ccedil;&amp;atilde;o DisplayHDR 400. O monitor com curvatura 1800R fornece uma experi&amp;ecirc;ncia gaming envolvente e extra-flexibilidade para multitasking. A tela super ultra-panor&amp;acirc;mica fornece a mesma &amp;aacute;rea de visualiza&amp;ccedil;&amp;atilde;o como dois monitores de 27' lado-a-lado, sem o intervalo e a moldura a incomodar. Com uma velocidade de atualiza&amp;ccedil;&amp;atilde;o ultrarr&amp;aacute;pida de 144Hz, garante que at&amp;eacute; os jogos mais r&amp;aacute;pidos sejam jogados com as defini&amp;ccedil;&amp;otilde;es de imagem mais elevadas, permanecendo suaves e sem lentid&amp;atilde;o. As teclas de atalho GamePlus integradas exclusivas da ASUS oferecem melhoramentos que o ajudam a obter mais do seu jogo. Esta fun&amp;ccedil;&amp;atilde;o foi desenvolvida conjuntamente com as opini&amp;otilde;es de jogadores profissionais, permitindo-lhes praticar e melhorar as suas aptid&amp;otilde;es em gaming. Com a tecnologia ASUS Ultra Low Blue Light, certificada pela T&amp;Uuml;V Rheinland, voc&amp;ecirc; protege seus olhos e previne a tens&amp;atilde;o ocular causada pela luz azul prejudicial. O XG49VQ possui um suporte projetado para ser ergon&amp;ocirc;mico. Oferece extensos ajustes de rota&amp;ccedil;&amp;atilde;o, inclina&amp;ccedil;&amp;atilde;o e altura para garantir que seu &amp;acirc;ngulo de vis&amp;atilde;o ideal seja f&amp;aacute;cil de alcan&amp;ccedil;ar.&lt;/p&gt;</t>
+    <t>Monitor Gamer Curvo Concórdia 27 Polegadas LED FULL HD, 200hz, 1ms, HDMI, DP, DVI -  Cz270f200</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;strong&gt;Monitor Conc&amp;oacute;rdia Gamer Curvo CZ270F200&amp;nbsp;27'' Led Full HD 200hz 1ms. &lt;/strong&gt;&lt;/p&gt;&lt;br /&gt;&lt;p&gt;O monitor Conc&amp;oacute;rdia Gamer Curvo 27" 200hz&amp;nbsp;entrega aos gamers uma experi&amp;ecirc;ncia lisa, r&amp;aacute;pida e responsiva em todos os jogos. Experimente uma jogabilidade impec&amp;aacute;vel com a taxa de atualiza&amp;ccedil;&amp;atilde;o de tela 200 Hz que garante imagens r&amp;aacute;pidas, suaves e movimentos n&amp;iacute;tidos, para nenhum detalhe passar despercebido. Com tela de 27", ultrarr&amp;aacute;pido e cheio de &amp;oacute;timos recursos para todos os tipos de jogos, a partir de agora seus momentos ser&amp;atilde;o ainda mais insanos e sua experi&amp;ecirc;ncia, impec&amp;aacute;vel.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Acer Nitro ED320QR S3, 31.5 Curvo LED Full HD, 165Hz, 1ms, DisplayPort e HDMI,  HDR10 AMD FreeSync Premium, Preto - UM.JE0AA.3</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Monitor Gamer Acer Nitro ED320QR S3&lt;/h2&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Tela Curva&lt;/h2&gt;
+&lt;p&gt;A &lt;strong&gt;tela curva 16:9&lt;/strong&gt; envolve voc&amp;ecirc; em um mundo de entretenimento com todos os cantos da tela &amp;agrave; mesma dist&amp;acirc;ncia de seus olhos para uma experi&amp;ecirc;ncia de visualiza&amp;ccedil;&amp;atilde;o uniforme sem pontos cegos.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Taxa de atualiza&amp;ccedil;&amp;atilde;o&lt;/h2&gt;
+&lt;p&gt;A taxa de atualiza&amp;ccedil;&amp;atilde;o de &lt;strong&gt;at&amp;eacute; 165Hz&lt;/strong&gt; acelera os quadros por segundo para fornecer cenas de movimento ultrassuaves. Reduzem o tempo necess&amp;aacute;rio para renderiza&amp;ccedil;&amp;atilde;o de quadros, menor atraso de entrada e proporcionam aos jogadores uma excelente experi&amp;ecirc;ncia no jogo.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Visual Response Boost (VRB)&lt;/h2&gt;
+&lt;p&gt;O &lt;strong&gt;tempo de resposta r&amp;aacute;pido de 1 ms&lt;/strong&gt; melhora a experi&amp;ecirc;ncia do jogador. N&amp;atilde;o importa a a&amp;ccedil;&amp;atilde;o em movimento r&amp;aacute;pido ou quaisquer transi&amp;ccedil;&amp;otilde;es dram&amp;aacute;ticas, tudo ser&amp;aacute; reproduzido suavemente, sem os efeitos irritantes de manchas ou fantasmas.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Zero Frame&lt;/h2&gt;
+&lt;p&gt;Oferece um novo &lt;strong&gt;design de quadro zero&lt;/strong&gt;, remove virtualmente a caixa delimitadora da tela e oferece todas as imagens, prazer visual cont&amp;iacute;nuo.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h3&gt;Compre j&amp;aacute; o seu no KaBuM&lt;/h3&gt;</t>
+  </si>
+  <si>
+    <t>Monitor Gamer LG 29' IPS, Ultra Wide, 75 Hz, Full HD, FreeSync, 99% sRGB, HDMI/DisplayPort, VESA - 29UM69G-B</t>
+  </si>
+  <si>
+    <t>Monitor Gamer LG 29UM69G-BAWZ Pro Gamer - 29” LED Full HD UltraWide IPS HDMI 75kHz 1ms. O monitor gamer UltraWide Pro Gamer LCD LED IPS Full HD da LG não vai te deixar na mão na hora de enfrentar os games mais cascudos. São 29 polegadas e ele te oferece 30% mais tela widescreen para uma incrível imersão visual, dando a vantagem que você precisa para ganhar de seus adversários. O recurso 1ms Motion Blur Reduction permite que você tenha movimentos instantâneos e com a maior precisão através do tempo de resposta de 1ms. Sem falar no AMD FreeSyncTM, que elimina falhas de imagem que surgem da diferença entre a taxa de quadro da placa de vídeo e a taxa de atualização do monitor.Jogar games escuros já não é mais um problema! O Black Stabilizer ajusta o brilho automaticamente e dá aos jogadores visibilidade total. Agora os campers não vão te pegar de surpresa!Ele não para por aí. O Dynamic Action Sync garante um processamento mais rápido, para acompanhar a velocidade das suas habilidades.E tudo isso é completo com o Game Mode, que oferece um ambiente de jogos personalizado. É ou não é um monitor perfeito!</t>
   </si>
   <si>
     <t>Monitor Gamer Samsung Odyssey G5 34' VA, Curvo, Wide, 165 Hz, 2K QHD, 1ms, FreeSync Premium, HDR10, HDMI/DisplayPort - LC34G55TWWLXZD</t>
@@ -435,50 +442,16 @@
 &lt;p&gt;O AMD FreesSync Premium apresenta uma tecnologia de sincroniza&amp;ccedil;&amp;atilde;o adapt&amp;aacute;vel que reduz o travamento de tela, oscila&amp;ccedil;&amp;atilde;o e atrasos. Gr&amp;aacute;ficos inspiradores com HDR10. Um caleidosc&amp;oacute;pio de tonalidades d&amp;aacute; vida &amp;agrave;s cenas dos seus jogos de forma mais vibrante do que nunca. Revele os segredos que se escondem nas sombras com pretos profundamente escuros, brancos luminosos e uma resolu&amp;ccedil;&amp;atilde;o incrivelmente detalhada.&lt;/p&gt;</t>
   </si>
   <si>
-    <t>Monitor Gamer Gigabyte 27 Curvo, Full HD, HDMI/DisplayPort, FreeSync, 165Hz, 1ms, Altura Ajustável - G27FC-A-SA</t>
-  </si>
-  <si>
-    <t>&lt;h2&gt;Monitor Gamer Gigabyte 27 Curvo, Full HD, HDMI/DisplayPort, FreeSync, 165Hz, 1ms, Altura Ajust&amp;aacute;vel&lt;/h2&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h3&gt;A &amp;Uacute;LTIMA MILHA PARA O SEU SISTEMA DE JOGO&lt;/h3&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;Como um jogador invis&amp;iacute;vel, o monitor &amp;eacute; frequentemente subestimado. A verdade &amp;eacute; que os monitores se formam como um efeito sin&amp;eacute;rgico e trazem o melhor desempenho dos componentes do PC.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;Os monitores de jogos GIGABYTE oferecem as &amp;uacute;ltimas especifica&amp;ccedil;&amp;otilde;es e qualidade, os usu&amp;aacute;rios podem realmente desfrutar de um desempenho de alto n&amp;iacute;vel sem a necessidade de extravag&amp;acirc;ncia.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h3&gt;SUA SENSA&amp;Ccedil;&amp;Atilde;O SUPERIMERSIVA NO JOGO!&lt;/h3&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;O painel 1500R VA de 27&amp;rdquo; apresenta uma vis&amp;atilde;o mais pr&amp;oacute;xima do olho humano do que um monitor plano, proporcionando uma sensa&amp;ccedil;&amp;atilde;o mais envolvente.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h3&gt;Tempo de Resposta de 1 ms&lt;/h3&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;Tempo de resposta super r&amp;aacute;pido de 1 ms para a experi&amp;ecirc;ncia de jogo mais suave de todos os tempos!&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h3&gt;Full HD com 165Hz&lt;/h3&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;Alta resolu&amp;ccedil;&amp;atilde;o e taxa de atualiza&amp;ccedil;&amp;atilde;o r&amp;aacute;pida, proporcionando qualidade de exibi&amp;ccedil;&amp;atilde;o detalhada e experi&amp;ecirc;ncia de jogo fluida!&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h3&gt;Cor de 8 bits, 90% DCI-P3&lt;/h3&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;Fant&amp;aacute;stico visor colorido e 90% DCI-P3 de gama super ampla.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h3&gt;SIMPLES MAS ESTILOSO&lt;/h3&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;A apar&amp;ecirc;ncia aerodin&amp;acirc;mica representa a simplicidade da filosofia de design da s&amp;eacute;rie de jogos GIGABYTE, suporte robusto e acabamento fosco constru&amp;iacute;do para caracter&amp;iacute;sticas funcionais e est&amp;eacute;ticas adicionando mais caracter&amp;iacute;sticas.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h3&gt;OSD Sidekick&lt;/h3&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;GIGABYTE OSD Sidekick permite que voc&amp;ecirc; defina as op&amp;ccedil;&amp;otilde;es de exibi&amp;ccedil;&amp;atilde;o com teclado e mouse, oferecendo a maneira mais f&amp;aacute;cil de ajustar as configura&amp;ccedil;&amp;otilde;es do monitor.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h3&gt;&amp;Acirc;NGULO DE VIS&amp;Atilde;O PERFEITO&lt;/h3&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;O monitor de jogos GIGABYTE possui um suporte exclusivo ergonomicamente projetado para oferecer uma ampla gama de ajustes de altura e inclina&amp;ccedil;&amp;atilde;o.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>Monitor Gamer Curvo Concórdia 27 Polegadas LED FULL HD, 200hz, 1ms, HDMI, DP, DVI -  Cz270f200</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;&lt;strong&gt;Monitor Conc&amp;oacute;rdia Gamer Curvo CZ270F200&amp;nbsp;27'' Led Full HD 200hz 1ms. &lt;/strong&gt;&lt;/p&gt;&lt;br /&gt;&lt;p&gt;O monitor Conc&amp;oacute;rdia Gamer Curvo 27" 200hz&amp;nbsp;entrega aos gamers uma experi&amp;ecirc;ncia lisa, r&amp;aacute;pida e responsiva em todos os jogos. Experimente uma jogabilidade impec&amp;aacute;vel com a taxa de atualiza&amp;ccedil;&amp;atilde;o de tela 200 Hz que garante imagens r&amp;aacute;pidas, suaves e movimentos n&amp;iacute;tidos, para nenhum detalhe passar despercebido. Com tela de 27", ultrarr&amp;aacute;pido e cheio de &amp;oacute;timos recursos para todos os tipos de jogos, a partir de agora seus momentos ser&amp;atilde;o ainda mais insanos e sua experi&amp;ecirc;ncia, impec&amp;aacute;vel.&lt;/p&gt;</t>
+    <t>Monitor Gamer Asus ROG Swift 49' LED, Ultra Wide, 144 Hz, DFHD, FreeSync Premium, HDR 10, 100% sRGB, HDMI/DisplayPort, Som - XG49VQ</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;O XG49VQ &amp;eacute; um monitor gaming super ultra-panor&amp;acirc;mico de 49' com uma velocidade de atualiza&amp;ccedil;&amp;atilde;o suave de 144Hz que oferece a experi&amp;ecirc;ncia gaming mais envolvente. Disp&amp;otilde;e de tecnologias Radeon FreeSync 2 HDR, e High Dynamic Range (HDR) com gama de cores profissional DCI-P3 90% e certifica&amp;ccedil;&amp;atilde;o DisplayHDR 400. O monitor com curvatura 1800R fornece uma experi&amp;ecirc;ncia gaming envolvente e extra-flexibilidade para multitasking. A tela super ultra-panor&amp;acirc;mica fornece a mesma &amp;aacute;rea de visualiza&amp;ccedil;&amp;atilde;o como dois monitores de 27' lado-a-lado, sem o intervalo e a moldura a incomodar. Com uma velocidade de atualiza&amp;ccedil;&amp;atilde;o ultrarr&amp;aacute;pida de 144Hz, garante que at&amp;eacute; os jogos mais r&amp;aacute;pidos sejam jogados com as defini&amp;ccedil;&amp;otilde;es de imagem mais elevadas, permanecendo suaves e sem lentid&amp;atilde;o. As teclas de atalho GamePlus integradas exclusivas da ASUS oferecem melhoramentos que o ajudam a obter mais do seu jogo. Esta fun&amp;ccedil;&amp;atilde;o foi desenvolvida conjuntamente com as opini&amp;otilde;es de jogadores profissionais, permitindo-lhes praticar e melhorar as suas aptid&amp;otilde;es em gaming. Com a tecnologia ASUS Ultra Low Blue Light, certificada pela T&amp;Uuml;V Rheinland, voc&amp;ecirc; protege seus olhos e previne a tens&amp;atilde;o ocular causada pela luz azul prejudicial. O XG49VQ possui um suporte projetado para ser ergon&amp;ocirc;mico. Oferece extensos ajustes de rota&amp;ccedil;&amp;atilde;o, inclina&amp;ccedil;&amp;atilde;o e altura para garantir que seu &amp;acirc;ngulo de vis&amp;atilde;o ideal seja f&amp;aacute;cil de alcan&amp;ccedil;ar.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Samsung 27 polegadas FHD, 165hz, 1ms, Com Ajuste De Altura, HDMI, Displayport, Freesync, Preto - Ls27ag320nlxzd</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Samsung Odyssey G32A 27" Preto LS27AG320NLXZD &lt;br /&gt;Resolução FHD e painel IPS. Agora você pode ver os jogos como nunca antes. O painel IPS oferece cores claras e um amplo ângulo de visão de 178º para maior clareza a partir de qualquer posição. Com mais pixels e maior profundidade, os jogos estão mais próximos da realidade do que nunca. Compatível com Nvidia G-Sync. Jogabilidade fácil e sem esforço. A compatibilidade G-Sync mantém a placa de vídeo e o painel sincronizados para eliminar cortes, atraso de tela e rasgos de imagem. Cenas de jogo rápidas e complexas são estáveis e sem repetições com AMD FreeSync Premium aumentando sua vantagem competitiva.</t>
   </si>
   <si>
     <t>Monitor Gamer Concórdia 27 Polegadas, LED Full HD, 165Hz, 1Ms, Freesync - H270F</t>
@@ -487,24 +460,13 @@
     <t>&lt;p&gt;O mais novo membro dos monitores da Conc&amp;oacute;rdia, o&amp;nbsp;&lt;strong&gt;Monitor Gamer H270F&lt;/strong&gt;&amp;nbsp;com painel VA, vem para deixar a nossa gama ainda mais completa, de material leve e super resistente, chega para entregar aos gamers uma experi&amp;ecirc;ncia lisa, r&amp;aacute;pida e responsiva em todos os jogos.&amp;nbsp;&amp;nbsp;&lt;/p&gt;&lt;br /&gt;&lt;p&gt;Experimente uma jogabilidade impec&amp;aacute;vel com a taxa de atualiza&amp;ccedil;&amp;atilde;o de tela &amp;nbsp;165 Hz que garante imagens r&amp;aacute;pidas, suaves e movimentos n&amp;iacute;tidos, para nenhum detalhe passar despercebidos.&amp;nbsp;&lt;/p&gt;</t>
   </si>
   <si>
-    <t>Monitor Gamer Acer Nitro ED320QR S3, 31.5 Curvo LED Full HD, 165Hz, 1ms, DisplayPort e HDMI,  HDR10 AMD FreeSync Premium, Preto - UM.JE0AA.3</t>
-  </si>
-  <si>
-    <t>&lt;h2&gt;Monitor Gamer Acer Nitro ED320QR S3&lt;/h2&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h2&gt;Tela Curva&lt;/h2&gt;
-&lt;p&gt;A &lt;strong&gt;tela curva 16:9&lt;/strong&gt; envolve voc&amp;ecirc; em um mundo de entretenimento com todos os cantos da tela &amp;agrave; mesma dist&amp;acirc;ncia de seus olhos para uma experi&amp;ecirc;ncia de visualiza&amp;ccedil;&amp;atilde;o uniforme sem pontos cegos.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h2&gt;Taxa de atualiza&amp;ccedil;&amp;atilde;o&lt;/h2&gt;
-&lt;p&gt;A taxa de atualiza&amp;ccedil;&amp;atilde;o de &lt;strong&gt;at&amp;eacute; 165Hz&lt;/strong&gt; acelera os quadros por segundo para fornecer cenas de movimento ultrassuaves. Reduzem o tempo necess&amp;aacute;rio para renderiza&amp;ccedil;&amp;atilde;o de quadros, menor atraso de entrada e proporcionam aos jogadores uma excelente experi&amp;ecirc;ncia no jogo.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h2&gt;Visual Response Boost (VRB)&lt;/h2&gt;
-&lt;p&gt;O &lt;strong&gt;tempo de resposta r&amp;aacute;pido de 1 ms&lt;/strong&gt; melhora a experi&amp;ecirc;ncia do jogador. N&amp;atilde;o importa a a&amp;ccedil;&amp;atilde;o em movimento r&amp;aacute;pido ou quaisquer transi&amp;ccedil;&amp;otilde;es dram&amp;aacute;ticas, tudo ser&amp;aacute; reproduzido suavemente, sem os efeitos irritantes de manchas ou fantasmas.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h2&gt;Zero Frame&lt;/h2&gt;
-&lt;p&gt;Oferece um novo &lt;strong&gt;design de quadro zero&lt;/strong&gt;, remove virtualmente a caixa delimitadora da tela e oferece todas as imagens, prazer visual cont&amp;iacute;nuo.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h3&gt;Compre j&amp;aacute; o seu no KaBuM&lt;/h3&gt;</t>
+    <t>Monitor Gamer Samsung Odyssey G4 25 IPS Full HD, 240Hz, 1ms, HDMI e DisplayPort,  99% sRGB, HDR, FreeSync Premium  - LS25BG400ELXZD</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Monitor Gamer Samsung Odyssey G4 25 IPS Full HD&lt;/h2&gt;
+&lt;p&gt;Resolu&amp;ccedil;&amp;atilde;o FHD e painel IPS. Agora voc&amp;ecirc; pode ver os jogos como nunca antes. O painel IPS oferece cores claras e um amplo &amp;acirc;ngulo de vis&amp;atilde;o de 178&amp;ordm; para maior clareza a partir de qualquer posi&amp;ccedil;&amp;atilde;o. Com mais pixels e maior profundidade, os jogos est&amp;atilde;o mais pr&amp;oacute;ximos da realidade do que nunca.&lt;br /&gt;240Hz de taxa de atualiza&amp;ccedil;&amp;atilde;o &amp;amp; 1ms de tempo de resposta. Velocidade nas cenas. A taxa de atualiza&amp;ccedil;&amp;atilde;o de 240Hz elimina o atraso para uma jogabilidade emocionante com a&amp;ccedil;&amp;atilde;o ultra-suave. Ataque os inimigos assim que os v&amp;ecirc;-los com um tempo de resposta de 1ms e quadros sem borr&amp;atilde;o.&lt;/p&gt;
+&lt;h2&gt;&lt;br /&gt;Foco sem nunca quebrar o fluxo&lt;/h2&gt;
+&lt;p&gt;Compat&amp;iacute;vel com Nvidia G-Sync. Jogabilidade f&amp;aacute;cil e sem esfor&amp;ccedil;o. A compatibilidade G-Sync mant&amp;eacute;m a placa de v&amp;iacute;deo e o painel sincronizados para eliminar cortes, atraso de tela e rasgos de imagem. Cenas de jogo r&amp;aacute;pidas e complexas s&amp;atilde;o est&amp;aacute;veis e sem repeti&amp;ccedil;&amp;otilde;es com AMD FreeSync Premium aumentando sua vantagem competitiva.&lt;br /&gt;Auto Source Switch+ Ligue e jogue instantaneamente. Com o Auto Source Switch+, seu monitor detecta quando os dispositivos conectados s&amp;atilde;o ligados e muda instantaneamente para o novo sinal de fonte. Isto o ajuda a chegar mais r&amp;aacute;pido &amp;agrave; a&amp;ccedil;&amp;atilde;o do jogo sem passar por v&amp;aacute;rias fontes de entrada.&lt;/p&gt;</t>
   </si>
   <si>
     <t>Monitor Gamer Gigabyte, 27 Full HD, 180Hz, 1ms, DisplayPort e HDMI, 108% sRGB, HDR, Adaptive-Sync - GS27FC SA</t>
@@ -524,10 +486,99 @@
 &lt;h3&gt;Compre j&amp;aacute; o seu no KaBuM!&lt;/h3&gt;</t>
   </si>
   <si>
-    <t>Monitor Gamer HQ, 24 Polegadas, FULL HD 144HZ A 165HZ 1MS Curvo Led, HDMI Display Port, Alto Falantes Iluminação RGB - Battle 24h165g</t>
-  </si>
-  <si>
-    <t>A Jogatina Perfeita&lt;br /&gt;Com O Monitor Hq Battle, Os Seus Movimentos Serão Instantâneos E O Seu Tempo De Reação Ocorrerá Em Tempo Real Em Qualquer Tipo De Jogo.&lt;br /&gt;Sem Atrasos, Você Jogará Com Desempenho Profissional.&lt;br /&gt;Graças A Combinação De Tempo De Resposta Ultrarápido + Alta Taxa De Atualização, Você Sairá Na Frente Dos Seus Oponentes:&lt;br /&gt;&lt;br /&gt;Tempo De Resposta: 1ms&lt;br /&gt;Desempenho Sem Igual, Imagens Nítidas E Sem Espera. Enxergue Toda A Cena No Milésimo De Segundo Em Que Ela Acontece. Não Desperdice Nenhum Movimento. O Seu Reflexo Convertido Em Vitórias!&lt;br /&gt;&lt;br /&gt;Taxa De Atualização: 165hz&lt;br /&gt;Nada De Rastros Nem Imagens Desfocadas. Tenha Uma Incrível Vantagem Sobre O Seu Adversário, Principalmente Em Cenas Rápidas. A Altíssima Taxa De Atualização Permitirá A Você Perceber Cada Sensível Mudança No Ambiente.&lt;br /&gt;&lt;br /&gt;Amd Freesync E Nvidia G-sync&lt;br /&gt;E Para Completar O Time, O Monitor Hq Battle Conta Com As Tecnologias Amd Freesync E Nvidia G-sync. Incríveis Ferramentas Que Impedem Imagens Serrilhadas E Cortadas.&lt;br /&gt;Elas Apresentam A Tecnologia De Sincronização Adaptável, Que Reduz O Travamento De Tela, Oscilação E Atrasos.&lt;br /&gt;&lt;br /&gt;Enxergue No Escuro&lt;br /&gt;Graças Ao Painel Va Utilizado Nos Monitores Hq Battle, Você Se Dará Bem Em Qualquer Tipo De Ambiente, Mesmo Em Situações De Baixa Luminosidade.&lt;br /&gt;Encontre Seus Inimigos Escondidos Em Qualquer Lugar, Mesmo Os Mais Escuros.&lt;br /&gt;&lt;br /&gt;Mais Sobre O Painel Va&lt;br /&gt;Quando Falamos Em Tipo De Painel Para Monitores Gamer, Existem Três Opções Disponíveis No Mercado.&lt;br /&gt;E Por Que A Hq Escolheu O Tipo Va Para O Monitor Battle?&lt;br /&gt;A Resposta é Simples. Pois Essa Opção Oferece A Maior Gama De Vantagens Para O Jogador:&lt;br /&gt;1- âNgulo De Visão De 178x178 Graus, Enxergue Bem Em Qualquer âNgulo&lt;br /&gt;2- Alto Nível De Contraste, Imagens Nítidas Mesmo Em Cenas Muito Claras Ou Muito Escuras&lt;br /&gt;3- Tempo De Resposta Real De 1ms Mprt&lt;br /&gt;4- Cores Vivas E Nítidas&lt;br /&gt;5- Permite As Mais Altas Taxas De Atualização&lt;br /&gt;&lt;br /&gt;Design úNico&lt;br /&gt;Além De Todos Os Recursos Apresentados, Ainda Temos O Fato Do Monitor Hq Battle Ter Um Visual Sensacional.&lt;br /&gt;Desenvolvido Com Uma Tela Curva, Isso Já Seria O Bastante Para Deixar O Seu Setup Gamer Ainda Mais Moderno. Mas Além Disso, Ele Ainda Possui A Tecnologia ´´Frameless´´, Sem Bordas, Que Garantirão A Você Uma Imersão Total. Aproveite 100% Da Tela.&lt;br /&gt;&lt;br /&gt;Conectividade E Recursos&lt;br /&gt;Para Garantir Uma Experiência Perfeita, Equipamos O Battle Com Tudo O Que Você Precisa.&lt;br /&gt;Dupla Saída De Vídeo Hdmi E Display Port, Além De Uma Conexão Usb.&lt;br /&gt;E Para Deixar Tudo Ainda Melhor, Ele Vem Acompanhado Com Dois Alto Falantes Surround E Iluminação Em Rgb.</t>
+    <t>Monitor Gamer LG 32" UHD 4K, 144Hz, HDMI, DisplayPort, HDR10, AMD FreeSync Premium - 32UQ750-W</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Monitor LG UHD 4K 32UQ750-W&lt;/h2&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;Desfrute de&amp;nbsp;conte&amp;uacute;dos em uma resolu&amp;ccedil;&amp;atilde;o 4 vezes mais alta que o full HD. Gra&amp;ccedil;as ao &lt;strong&gt;DCI-P3 90%&lt;/strong&gt; (CIE1976) e ao espectro de 1 bilh&amp;atilde;o de cores e , voc&amp;ecirc; poder&amp;aacute; desfrutar de imagens muito mais claras e com detalhes impressionantes, proporcionando uma imers&amp;atilde;o visual muito mais v&amp;iacute;vida e realista.&lt;/p&gt;
+&lt;p&gt;Ideal para quem usa aplicativos gr&amp;aacute;ficos 3D ou assistentes financeiros para planilhas, o novo monitor &lt;strong&gt;LG UHD 4K&lt;/strong&gt; possui a combina&amp;ccedil;&amp;atilde;o perfeita para aplicativos profissionais que requerem &lt;strong&gt;precis&amp;atilde;o de cores e brilho&lt;/strong&gt; constante.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Ajustes&lt;/h2&gt;
+&lt;p&gt;S&amp;atilde;o diversos ajustes de posi&amp;ccedil;&amp;atilde;o como&amp;nbsp;&lt;strong&gt;inclina&amp;ccedil;&amp;atilde;o&lt;/strong&gt;,&amp;nbsp;&lt;strong&gt;altura&lt;/strong&gt;&amp;nbsp;e&amp;nbsp;&lt;strong&gt;rota&amp;ccedil;&amp;atilde;o&lt;/strong&gt;&amp;nbsp;oferecem mais conforto e ergonomia, principalmente para quem fica horas na frente do computador.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h3&gt;Compre agora no KaBuM!&lt;/h3&gt;</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Acer Predator 24.5' IPS, 280 Hz, Full HD, 0.5ms, G-Sync, HDR 400, 99% sRGB, HDMI/DisplayPort, VESA, Som Integrado - XB253Q GW</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Monitor Gamer Acer Predator XB253Q. A tecnologia NVIDIA G-SYNC cria uma experi&amp;ecirc;ncia &amp;uacute;nica e suave para jogos, atrav&amp;eacute;s da sincroniza&amp;ccedil;&amp;atilde;o dos frames criados pela GeForce com a taxa de atualiza&amp;ccedil;&amp;atilde;o do monitor. Adeus "screen tearing" e engasgos. O Predator XB253Q conta com alta taxa de atualiza&amp;ccedil;&amp;atilde;o de at&amp;eacute; 280Hz.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Gigabyte 27 Curvo, Full HD, HDMI/DisplayPort, FreeSync, 165Hz, 1ms, Altura Ajustável - G27FC-A-SA</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Monitor Gamer Gigabyte 27 Curvo, Full HD, HDMI/DisplayPort, FreeSync, 165Hz, 1ms, Altura Ajust&amp;aacute;vel&lt;/h2&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h3&gt;A &amp;Uacute;LTIMA MILHA PARA O SEU SISTEMA DE JOGO&lt;/h3&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;Como um jogador invis&amp;iacute;vel, o monitor &amp;eacute; frequentemente subestimado. A verdade &amp;eacute; que os monitores se formam como um efeito sin&amp;eacute;rgico e trazem o melhor desempenho dos componentes do PC.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;Os monitores de jogos GIGABYTE oferecem as &amp;uacute;ltimas especifica&amp;ccedil;&amp;otilde;es e qualidade, os usu&amp;aacute;rios podem realmente desfrutar de um desempenho de alto n&amp;iacute;vel sem a necessidade de extravag&amp;acirc;ncia.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h3&gt;SUA SENSA&amp;Ccedil;&amp;Atilde;O SUPERIMERSIVA NO JOGO!&lt;/h3&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;O painel 1500R VA de 27&amp;rdquo; apresenta uma vis&amp;atilde;o mais pr&amp;oacute;xima do olho humano do que um monitor plano, proporcionando uma sensa&amp;ccedil;&amp;atilde;o mais envolvente.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h3&gt;Tempo de Resposta de 1 ms&lt;/h3&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;Tempo de resposta super r&amp;aacute;pido de 1 ms para a experi&amp;ecirc;ncia de jogo mais suave de todos os tempos!&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h3&gt;Full HD com 165Hz&lt;/h3&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;Alta resolu&amp;ccedil;&amp;atilde;o e taxa de atualiza&amp;ccedil;&amp;atilde;o r&amp;aacute;pida, proporcionando qualidade de exibi&amp;ccedil;&amp;atilde;o detalhada e experi&amp;ecirc;ncia de jogo fluida!&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h3&gt;Cor de 8 bits, 90% DCI-P3&lt;/h3&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;Fant&amp;aacute;stico visor colorido e 90% DCI-P3 de gama super ampla.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h3&gt;SIMPLES MAS ESTILOSO&lt;/h3&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;A apar&amp;ecirc;ncia aerodin&amp;acirc;mica representa a simplicidade da filosofia de design da s&amp;eacute;rie de jogos GIGABYTE, suporte robusto e acabamento fosco constru&amp;iacute;do para caracter&amp;iacute;sticas funcionais e est&amp;eacute;ticas adicionando mais caracter&amp;iacute;sticas.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h3&gt;OSD Sidekick&lt;/h3&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;GIGABYTE OSD Sidekick permite que voc&amp;ecirc; defina as op&amp;ccedil;&amp;otilde;es de exibi&amp;ccedil;&amp;atilde;o com teclado e mouse, oferecendo a maneira mais f&amp;aacute;cil de ajustar as configura&amp;ccedil;&amp;otilde;es do monitor.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h3&gt;&amp;Acirc;NGULO DE VIS&amp;Atilde;O PERFEITO&lt;/h3&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;O monitor de jogos GIGABYTE possui um suporte exclusivo ergonomicamente projetado para oferecer uma ampla gama de ajustes de altura e inclina&amp;ccedil;&amp;atilde;o.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Gigabyte LED 28 4K UHD, 144Hz, 1ms, IPS, HDMI e DisplayPort, 120% sRGB, HDR, FreeSync, Altura Ajustável - M28U-SA</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Monitor Gamer Gigabyte LED 28 4K UHD&lt;/h2&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;A &amp;Uacute;ltima Milha para o seu sistema de Jogo&lt;/h2&gt;
+&lt;p&gt;Como um jogador invis&amp;iacute;vel, o monitor costuma ser subestimado. A verdade &amp;eacute; que os monitores se formam como um efeito sin&amp;eacute;rgico e trazem o melhor desempenho dos componentes do PC. Os monitores de jogos GIGABYTE oferecem as &lt;strong&gt;especifica&amp;ccedil;&amp;otilde;es e qualidade mais recentes,&lt;/strong&gt; os usu&amp;aacute;rios podem realmente desfrutar de um desempenho de alto n&amp;iacute;vel sem a necessidade de extravag&amp;acirc;ncia.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Um por todos&lt;/h2&gt;
+&lt;p&gt;O &lt;strong&gt;recurso KVM&lt;/strong&gt; permite &lt;strong&gt;controlar v&amp;aacute;rios dispositivos&lt;/strong&gt; por meio de um conjunto de teclado, v&amp;iacute;deo e mouse. Com nosso bot&amp;atilde;o KVM exclusivo, voc&amp;ecirc; descobrir&amp;aacute; que a troca de dispositivos n&amp;atilde;o pode ser mais f&amp;aacute;cil! R&amp;aacute;pido como um piscar de olhos!&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Tempo de resposta GTG de 1 ms&lt;/h2&gt;
+&lt;p&gt;A tecnologia &lt;strong&gt;SuperSpeed ??IPS&lt;/strong&gt; reduz o tempo de resposta para &lt;strong&gt;1ms&lt;/strong&gt;; enquanto isso, oferecendo a cor espl&amp;ecirc;ndida de grau &lt;strong&gt;IPS&lt;/strong&gt;!&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;UHD com 144 Hz&lt;/h2&gt;
+&lt;p&gt;&lt;strong&gt;Alta resolu&amp;ccedil;&amp;atilde;o e taxa de atualiza&amp;ccedil;&amp;atilde;o r&amp;aacute;pida&lt;/strong&gt;, oferecendo qualidade de exibi&amp;ccedil;&amp;atilde;o detalhada e experi&amp;ecirc;ncia de jogo fluida!&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Cor de 8 bits, 94% DCI-P3&lt;/h2&gt;
+&lt;p&gt;Fant&amp;aacute;stica tela colorida e &lt;strong&gt;94% DCI-P3&lt;/strong&gt; super &lt;strong&gt;ampla gama de cores&lt;/strong&gt;.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Alta Taxa de Bit 3&lt;/h2&gt;
+&lt;p&gt;O suporte &lt;strong&gt;DisplayPort High Bit Rate 3&lt;/strong&gt; (HBR3) fornece a largura de banda para oferecer a &lt;strong&gt;taxa de atualiza&amp;ccedil;&amp;atilde;o mais r&amp;aacute;pida&lt;/strong&gt; do monitor, profundidade total de cores e efeito HDR ao mesmo tempo!&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Simples e Estiloso&lt;/h2&gt;
+&lt;p&gt;A apar&amp;ecirc;ncia simplificada representa a simplicidade da filosofia de design da s&amp;eacute;rie de jogos GIGABYTE, suporte &lt;strong&gt;robusto&lt;/strong&gt; e &lt;strong&gt;acabamento fosco&lt;/strong&gt; constru&amp;iacute;do para recursos funcionais e est&amp;eacute;ticos adicionando mais &amp;agrave;s caracter&amp;iacute;sticas.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;&amp;Acirc;ngulo de Vis&amp;atilde;o Perfeito&lt;/h2&gt;
+&lt;p&gt;O monitor Gaming GIGABYTE &lt;strong&gt;possui um suporte exclusivo&lt;/strong&gt; projetado ergonomicamente para oferecer ampla gama de &lt;strong&gt;ajustes de altura e inclina&amp;ccedil;&amp;atilde;o&lt;/strong&gt;.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h3&gt;Compre agora no KaBuM!&lt;/h3&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Monitor Gamer LG LED 29&amp;acute; Ultrawide, Full HD, IPS, HDMI/Display Port, FreeSync, Som Integrado, 1ms - 29UM69G-B&lt;/p&gt;</t>
   </si>
   <si>
     <t>Monitor Gamer Curvo Philco 30 LED, Full HD Ultra Wide, 144Hz, 1ms, HDMI e DisplayPort, HDR 10, FreeSync, Ajuste de Ângulo - PMG30C900WFG</t>
@@ -547,102 +598,6 @@
 &lt;p&gt;O monitor conta com o &lt;strong&gt;modo mira&lt;/strong&gt;, onde &amp;eacute; poss&amp;iacute;vel selecionar entre duas cores e formatos de mira, para uma melhor precis&amp;atilde;o durante jogos FPS.&amp;nbsp;&lt;/p&gt;
 &lt;p&gt;&amp;nbsp;&lt;/p&gt;
 &lt;h3&gt;Compre agora no KaBuM!&lt;/h3&gt;</t>
-  </si>
-  <si>
-    <t>Monitor Gamer Husky  23.8' LED, Wide, 165 Hz, Full HD, 1ms, Adaptive Sync, HDMI/DisplayPort, VESA - HGMT003</t>
-  </si>
-  <si>
-    <t>&lt;h2&gt;Monitor Gamer Husky 23.8' LED, Wide, 165 Hz, Full HD, 1ms, Adaptive Sync, HDMI/DisplayPort, VESA - HGMT003&lt;/h2&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;Aproveite ao m&amp;aacute;ximo sua experi&amp;ecirc;ncia de jogos no seu&amp;nbsp; PC ou videogame com o Monitor Gamer Husky Gaming Snow 100.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;Com recursos otimizados para jogos, como taxas de atualiza&amp;ccedil;&amp;atilde;o r&amp;aacute;pidas, baixo atraso de entrada e alta resolu&amp;ccedil;&amp;atilde;o, o Monitor Gamer Husky Gaming Snow 100 &amp;eacute; certo para fazer toda a diferen&amp;ccedil;a em suas partidas.&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h3&gt;TAXA DE ATUALIZA&amp;Ccedil;&amp;Atilde;O&lt;/h3&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;144 Hz com o cabo HDMI ou 165 Hz com o DisplayPort, trazendo a melhor op&amp;ccedil;&amp;atilde;o para sua necessidade. Tudo isso com 1 ms de resposta, que possibilita um tempo de rea&amp;ccedil;&amp;atilde;o mais r&amp;aacute;pido para suas partidas insanas.&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h3&gt;TELA 23.8&amp;rdquo; WIDESCREEN&lt;/h3&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;Tela plana com resolu&amp;ccedil;&amp;atilde;o de 1920 x 1080p Full HD com mais de 16.7 milh&amp;otilde;es de cores (8-bit), Brilho 250 cd/m&amp;sup2;, contraste de 3000:1 e painel IPS, possibilitando uma imagem mais n&amp;iacute;tida e menos perda de detalhes.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h4&gt;Torne os jogos uma experi&amp;ecirc;ncia ainda mais envolvente. Aproveite e garanta j&amp;aacute; o seu Monitor Gamer Husky Gaming Snow 100!&lt;/h4&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;p dir="ltr" style="margin: 0px; padding: 0px; border: none; list-style: none; box-sizing: border-box; font-size: 0.875rem; font-family: Poppins, sans-serif; line-height: 1.125rem; color: #565c69;"&gt;&lt;strong&gt;&lt;span style="margin: 0px; padding: 0px; border: none; list-style: none; box-sizing: border-box; font-size: revert;"&gt;&lt;a style="margin: 0px; padding: 0px; border: none; list-style: none; box-sizing: border-box; font-size: 0.875rem; cursor: pointer; line-height: 1.125rem; font-weight: 400;" href="https://kabum.com.br/hotsite/manuais/227486-Monitor-Gamer-Husky-HGMT003.pdf" target="_blank"&gt;MANUAL DE INSTRU&amp;Ccedil;&amp;Otilde;ES&lt;/a&gt;&lt;/span&gt;&lt;/strong&gt;&lt;/p&gt;
-&lt;p style="margin: 0px; padding: 0px; border: none; list-style: none; box-sizing: border-box; font-size: 0.875rem; font-family: Poppins, sans-serif; line-height: 1.125rem; color: #565c69;"&gt;&amp;nbsp;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>Monitor Gamer Acer Predator 24.5' IPS, 280 Hz, Full HD, 0.5ms, G-Sync, HDR 400, 99% sRGB, HDMI/DisplayPort, VESA, Som Integrado - XB253Q GW</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Monitor Gamer Acer Predator XB253Q. A tecnologia NVIDIA G-SYNC cria uma experi&amp;ecirc;ncia &amp;uacute;nica e suave para jogos, atrav&amp;eacute;s da sincroniza&amp;ccedil;&amp;atilde;o dos frames criados pela GeForce com a taxa de atualiza&amp;ccedil;&amp;atilde;o do monitor. Adeus "screen tearing" e engasgos. O Predator XB253Q conta com alta taxa de atualiza&amp;ccedil;&amp;atilde;o de at&amp;eacute; 280Hz.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>Monitor Gamer Gigabyte LED 28 4K UHD, 144Hz, 1ms, IPS, HDMI e DisplayPort, 120% sRGB, HDR, FreeSync, Altura Ajustável - M28U-SA</t>
-  </si>
-  <si>
-    <t>&lt;h2&gt;Monitor Gamer Gigabyte LED 28 4K UHD&lt;/h2&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h2&gt;A &amp;Uacute;ltima Milha para o seu sistema de Jogo&lt;/h2&gt;
-&lt;p&gt;Como um jogador invis&amp;iacute;vel, o monitor costuma ser subestimado. A verdade &amp;eacute; que os monitores se formam como um efeito sin&amp;eacute;rgico e trazem o melhor desempenho dos componentes do PC. Os monitores de jogos GIGABYTE oferecem as &lt;strong&gt;especifica&amp;ccedil;&amp;otilde;es e qualidade mais recentes,&lt;/strong&gt; os usu&amp;aacute;rios podem realmente desfrutar de um desempenho de alto n&amp;iacute;vel sem a necessidade de extravag&amp;acirc;ncia.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h2&gt;Um por todos&lt;/h2&gt;
-&lt;p&gt;O &lt;strong&gt;recurso KVM&lt;/strong&gt; permite &lt;strong&gt;controlar v&amp;aacute;rios dispositivos&lt;/strong&gt; por meio de um conjunto de teclado, v&amp;iacute;deo e mouse. Com nosso bot&amp;atilde;o KVM exclusivo, voc&amp;ecirc; descobrir&amp;aacute; que a troca de dispositivos n&amp;atilde;o pode ser mais f&amp;aacute;cil! R&amp;aacute;pido como um piscar de olhos!&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h2&gt;Tempo de resposta GTG de 1 ms&lt;/h2&gt;
-&lt;p&gt;A tecnologia &lt;strong&gt;SuperSpeed ??IPS&lt;/strong&gt; reduz o tempo de resposta para &lt;strong&gt;1ms&lt;/strong&gt;; enquanto isso, oferecendo a cor espl&amp;ecirc;ndida de grau &lt;strong&gt;IPS&lt;/strong&gt;!&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h2&gt;UHD com 144 Hz&lt;/h2&gt;
-&lt;p&gt;&lt;strong&gt;Alta resolu&amp;ccedil;&amp;atilde;o e taxa de atualiza&amp;ccedil;&amp;atilde;o r&amp;aacute;pida&lt;/strong&gt;, oferecendo qualidade de exibi&amp;ccedil;&amp;atilde;o detalhada e experi&amp;ecirc;ncia de jogo fluida!&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h2&gt;Cor de 8 bits, 94% DCI-P3&lt;/h2&gt;
-&lt;p&gt;Fant&amp;aacute;stica tela colorida e &lt;strong&gt;94% DCI-P3&lt;/strong&gt; super &lt;strong&gt;ampla gama de cores&lt;/strong&gt;.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h2&gt;Alta Taxa de Bit 3&lt;/h2&gt;
-&lt;p&gt;O suporte &lt;strong&gt;DisplayPort High Bit Rate 3&lt;/strong&gt; (HBR3) fornece a largura de banda para oferecer a &lt;strong&gt;taxa de atualiza&amp;ccedil;&amp;atilde;o mais r&amp;aacute;pida&lt;/strong&gt; do monitor, profundidade total de cores e efeito HDR ao mesmo tempo!&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h2&gt;Simples e Estiloso&lt;/h2&gt;
-&lt;p&gt;A apar&amp;ecirc;ncia simplificada representa a simplicidade da filosofia de design da s&amp;eacute;rie de jogos GIGABYTE, suporte &lt;strong&gt;robusto&lt;/strong&gt; e &lt;strong&gt;acabamento fosco&lt;/strong&gt; constru&amp;iacute;do para recursos funcionais e est&amp;eacute;ticos adicionando mais &amp;agrave;s caracter&amp;iacute;sticas.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h2&gt;&amp;Acirc;ngulo de Vis&amp;atilde;o Perfeito&lt;/h2&gt;
-&lt;p&gt;O monitor Gaming GIGABYTE &lt;strong&gt;possui um suporte exclusivo&lt;/strong&gt; projetado ergonomicamente para oferecer ampla gama de &lt;strong&gt;ajustes de altura e inclina&amp;ccedil;&amp;atilde;o&lt;/strong&gt;.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h3&gt;Compre agora no KaBuM!&lt;/h3&gt;</t>
-  </si>
-  <si>
-    <t>Monitor Gamer Acer Nitro 23.8 LED Full HD, 165Hz, 1ms, HDMI e DisplayPort, HDR, FreeSync Premium, VESA - QG241Y Pbiip</t>
-  </si>
-  <si>
-    <t>&lt;h2&gt;Tela de 23.8&amp;rdquo; com resolu&amp;ccedil;&amp;atilde;o Full HD de 1920 x 1080 com taxa de atualiza&amp;ccedil;&amp;atilde;o de at&amp;eacute; 165 Hz, tempo de resposta 1ms VRB (Visual Response Boost) e tecnologia HDR-10 com Tecnologias Acer VisionCare, tecnologia AMD FreeSync Premium&lt;/h2&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h3&gt;Taxa de atualiza&amp;ccedil;&amp;atilde;o de at&amp;eacute; 165 Hz&lt;/h3&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;A taxa de atualiza&amp;ccedil;&amp;atilde;o de at&amp;eacute; 165Hz acelera os quadros por segundo para fornecer cenas de movimento ultrassuaves. Com uma taxa de atualiza&amp;ccedil;&amp;atilde;o r&amp;aacute;pida de at&amp;eacute; 165Hz, os Monitores Acer reduzem o tempo necess&amp;aacute;rio para renderiza&amp;ccedil;&amp;atilde;o de quadros, menor atraso de entrada e proporcionam aos jogadores uma excelente experi&amp;ecirc;ncia no jogo.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h3&gt;Visual Response Boost (VRB)&lt;/h3&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;O tempo de resposta r&amp;aacute;pido de 1 ms melhora a experi&amp;ecirc;ncia do jogador. N&amp;atilde;o importa a a&amp;ccedil;&amp;atilde;o em movimento r&amp;aacute;pido ou quaisquer transi&amp;ccedil;&amp;otilde;es dram&amp;aacute;ticas, tudo ser&amp;aacute; reproduzido suavemente, sem os efeitos irritantes de manchas ou fantasmas.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h3&gt;Zero Frame&lt;/h3&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;Oferece um novo design de quadro zero, remove virtualmente a caixa delimitadora da tela e oferece todas as imagens, prazer visual cont&amp;iacute;nuo.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h3&gt;TECNOLOGIAS&lt;/h3&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;&lt;strong&gt;AMD FreeSync Premium:&lt;/strong&gt; Com o AMD FreeSync Premium, a taxa de quadros do jogo &amp;eacute; determinada pela sua placa de v&amp;iacute;deo, n&amp;atilde;o pela taxa de atualiza&amp;ccedil;&amp;atilde;o fixa do monitor. Isso significa que os quadros do monitor s&amp;atilde;o sincronizados com os quadros da placa gr&amp;aacute;fica, o que elimina a tela quebrada e oferece experi&amp;ecirc;ncias de jogo muito suave.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;&lt;strong&gt;AcerVisionCare:&lt;/strong&gt; Incorpora v&amp;aacute;rias tecnologias como BlueLight ShieldTM que reduz a exposi&amp;ccedil;&amp;atilde;o a luz Azul, Flickerless ajuda a reduzir a fadiga ocular e tela anti-reflexo Acer Comfyview. Tecnologias que levam em considera&amp;ccedil;&amp;atilde;o o uso prolongado por usu&amp;aacute;rios frequentes, como programadores, escritores e designers gr&amp;aacute;ficos, para reduzir o cansa&amp;ccedil;o visual e fornecer uma experi&amp;ecirc;ncia de visualiza&amp;ccedil;&amp;atilde;o mais confort&amp;aacute;vel.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;&lt;strong&gt;Adaptive Contrast Management:&lt;/strong&gt; Concentre-se com mais nitidez em suas tarefas com a taxa de contraste superior de 100.000.000:1. Desfrute dos brancos mais brilhantes e dos pretos mais profundos para uma defini&amp;ccedil;&amp;atilde;o de visualiza&amp;ccedil;&amp;atilde;o excepcional para todo o seu conte&amp;uacute;do.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;&lt;strong&gt;HDR 10:&lt;/strong&gt; &amp;Eacute; uma tecnologia de exibi&amp;ccedil;&amp;atilde;o que cria n&amp;iacute;veis mais profundos de contraste em preto e branco, proporcionando uma imers&amp;atilde;o de n&amp;iacute;vel maior por meio da recria&amp;ccedil;&amp;atilde;o de imagem realista. Os monitores Acer HDR suportam o formato HDR10.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>Monitor Gamer Acer Nitro Edo, 27 Polegadas, Full HD, 1MS, Curvo, VA, 180Hz, - Ed270r-S3biip</t>
-  </si>
-  <si>
-    <t>Características:&lt;br /&gt;-Marca:ACER&lt;br /&gt;-Modelo:ED270R-S3BIIP&lt;br /&gt;-Gtin:4711121617829&lt;br /&gt;-NCM:85285200&lt;br /&gt;-Filial:DF&lt;br /&gt;&lt;br /&gt; Especificações:&lt;br /&gt;Tamanho da tela:    27"&lt;br /&gt;Panorâmico:    Sim&lt;br /&gt;Tipo de exibição:    HD&lt;br /&gt;Tecnologia de sincronização adaptativa:    FreeSync (AMD Adaptive Sync)&lt;br /&gt;Resolução recomendada:    1920 x 1080&lt;br /&gt;Ângulo de visão:    178° (H) / 178° (V)&lt;br /&gt;Brilho:    250cd/m2&lt;br /&gt;Taxa de contraste:    100.000.000:1 (ACM)&lt;br /&gt;Tempo de resposta:    1 ms&lt;br /&gt;Exibir cores:    16,7 milhões&lt;br /&gt;Taxa de atualização:    180 Hz&lt;br /&gt;Tela de superfície curva:    Curvado&lt;br /&gt;Entradas:    1 x DisplayPort,2 x HDMI&lt;br /&gt;Ajustes de suporte:    Inclinação -5°~ 20°&lt;br /&gt;Alto-falantes integrados:    Não&lt;br /&gt;Compatibilidade VESA:    Montável 75x75mm&lt;br /&gt;Garantia total: 12 meses (contra defeitos de fabricação), 3 meses referentes à garantia legal, nos termos do artigo 26, II, do Código de Defesa do Consumidor + 9 meses de garantia do fabricante.</t>
   </si>
   <si>
     <t>Monitor Gamer AOC 27 2K QHD, 155hz, 1ms, HDMI e DisplayPort, FreeSync Premium, 121.5% sRGB, VESA - Q27G2</t>
@@ -659,6 +614,18 @@
 &lt;h4 style="text-align: justify;"&gt;Compre agora no KaBuM!&lt;/h4&gt;</t>
   </si>
   <si>
+    <t>Monitor Gamer Acer Nitro Edo, 27 Polegadas, Full HD, 1MS, Curvo, VA, 180Hz, - Ed270r-S3biip</t>
+  </si>
+  <si>
+    <t>Características:&lt;br /&gt;-Marca:ACER&lt;br /&gt;-Modelo:ED270R-S3BIIP&lt;br /&gt;-Gtin:4711121617829&lt;br /&gt;-NCM:85285200&lt;br /&gt;-Filial:DF&lt;br /&gt;&lt;br /&gt; Especificações:&lt;br /&gt;Tamanho da tela:    27"&lt;br /&gt;Panorâmico:    Sim&lt;br /&gt;Tipo de exibição:    HD&lt;br /&gt;Tecnologia de sincronização adaptativa:    FreeSync (AMD Adaptive Sync)&lt;br /&gt;Resolução recomendada:    1920 x 1080&lt;br /&gt;Ângulo de visão:    178° (H) / 178° (V)&lt;br /&gt;Brilho:    250cd/m2&lt;br /&gt;Taxa de contraste:    100.000.000:1 (ACM)&lt;br /&gt;Tempo de resposta:    1 ms&lt;br /&gt;Exibir cores:    16,7 milhões&lt;br /&gt;Taxa de atualização:    180 Hz&lt;br /&gt;Tela de superfície curva:    Curvado&lt;br /&gt;Entradas:    1 x DisplayPort,2 x HDMI&lt;br /&gt;Ajustes de suporte:    Inclinação -5°~ 20°&lt;br /&gt;Alto-falantes integrados:    Não&lt;br /&gt;Compatibilidade VESA:    Montável 75x75mm&lt;br /&gt;Garantia total: 12 meses (contra defeitos de fabricação), 3 meses referentes à garantia legal, nos termos do artigo 26, II, do Código de Defesa do Consumidor + 9 meses de garantia do fabricante.</t>
+  </si>
+  <si>
+    <t>Monitor Gamer AOC 27 Polegadas, Full HD, 240hz, 0.5ms, HDMI, DisplayPort, Freesync - C27G2ZE</t>
+  </si>
+  <si>
+    <t>Esteja no Centro da Aventura &lt;br /&gt;O Monitor Legend C27G2ZE tem um painel VA de 27'' e uma curvatura de 1500R. Possui uma taxa de atualização de 240Hz e um incrível tempo de resposta de 0.5ms. Perfeito para ter a máxima emoção em Qualquer tipo de jogo. &lt;br /&gt;&lt;br /&gt;Tela Curva de 1500R &lt;br /&gt;Seja envolvido pelo design curvo que te coloca no centro da ação e fornece uma experiência diferenciada em cada movimento. &lt;br /&gt;&lt;br /&gt;Taxa de Atualização de 240Hz &lt;br /&gt;Aproveite mais fluide na suas imagens. Cada detalhes é colocado em foco de forma nítida e os movimentos são mostrados com clareza, tudo para você sentir suas reações e ações se tornarem uma só e elevar o seu jogo. 0.5Ms de Tempo de Resposta Acabe de vez com os efeitos fantasmas com o tempo de resposta de 0.5ms. Tenha uma experiência aprimorada onde mesmo os movimentos mais rápidos e as trasições mais dramáticas são reproduzidas suavemente.</t>
+  </si>
+  <si>
     <t>Monitor Gamer Curvo Samsung Odyssey 49" OLED WQHD, 240Hz, 0.03ms, DisplayPort e HDMI, HDR, Freesync Premium, prata - LS49CG930SLXZD</t>
   </si>
   <si>
@@ -686,6 +653,34 @@
 &lt;p&gt;Mantenha seu setup livre da confus&amp;atilde;o de fios e caixinhas de som externas. Escute todos os detalhes do seu jogo sem precisar conectar outros equipamentos.&lt;/p&gt;
 &lt;p&gt;&amp;nbsp;&lt;/p&gt;
 &lt;h3&gt;Compre agora no KaBuM!&lt;/h3&gt;</t>
+  </si>
+  <si>
+    <t>Monitor Asus ROG Swift 27, 360Hz, 1ms, HDMI e DisplayPort, 135% sRGB, HDR, G-Sync, Altura Ajustável, VESA - PG27AQN</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;ROG Swift 360Hz PG27AQN NVIDIA G-SYNC esports Gaming Monitor QHD de 27 polegadas (2560 x 1440), NVIDIA Reflex Analyzer, Ultrafast IPS, esports dual-mode, 1 ms (GTG), DisplayHDR 600&lt;/h2&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h3&gt;Principais Recursos&lt;/h3&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;Monitor de jogos IPS ultrarr&amp;aacute;pido QHD (2560 x 1440) de 27 polegadas com taxa de atualiza&amp;ccedil;&amp;atilde;o de 360 ??Hz, projetado para jogadores profissionais.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;O processador NVIDIA G-SYNC oferece jogos suaves e sem falhas em at&amp;eacute; 360 Hz.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;O NVIDIA Reflex Analyzer oferece uma medi&amp;ccedil;&amp;atilde;o precisa da lat&amp;ecirc;ncia do sistema.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;A tecnologia ASUS Ultrafast IPS permite o tempo de resposta mais r&amp;aacute;pido de todos os monitores 1440p.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;O modo duplo Esports permite que o monitor redimensione os visuais para a familiar diagonal de 25 polegadas em 1080p ou 2368 x 1332 mais r&amp;aacute;pido do mundo 1440p Monitor de jogos esports.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;O ROG Swift 360Hz PG27AQN &amp;eacute; o monitor de jogos de esports perfeito para jogos FPS de ritmo acelerado como VALORANT, Fortnite, Apex Legends e CS: GO. Este monitor QHD (2560 x 1440) apresenta tecnologia de painel IPS ultrarr&amp;aacute;pida que suporta imagens de at&amp;eacute; 360 Hz e um processador NVIDIA G-SYNC para jogabilidade suave com realismo incompar&amp;aacute;vel.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h3&gt;Tela QHD de 27 polegadas com 3% de melhor mira&lt;/h3&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;Os pesquisadores da NVIDIA descobriram que, ao atirar em alvos pequenos, usar uma tela de 27 polegadas 1440p pode melhorar a mira em at&amp;eacute; 3% em compara&amp;ccedil;&amp;atilde;o com a reprodu&amp;ccedil;&amp;atilde;o em uma tela tradicional de 25 polegadas 1080p. Para jogadores competitivos, esses 3% podem significar a diferen&amp;ccedil;a entre vit&amp;oacute;ria e derrota.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h3&gt;Tecnologia IPS ultrarr&amp;aacute;pida&lt;/h3&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;Tr&amp;ecirc;s caracter&amp;iacute;sticas principais definem a tecnologia Ultrafast IPS que d&amp;aacute; ao PG27AQN o tempo de resposta mais r&amp;aacute;pido de qualquer monitor ROG j&amp;aacute; feito. Ele foi desenvolvido para acabar com o desfoque de movimento e oferecer aos jogadores uma clareza sem precedentes, mesmo nos campos de batalha din&amp;acirc;micos das competi&amp;ccedil;&amp;otilde;es atuais de e-sports.&lt;/p&gt;</t>
   </si>
   <si>
     <t>Monitor Gamer Acer 27 LED Full HD Curvo, 165 Hz, 5ms, HDMI e DisplayPort, FreeSync Premium, VESA - ED270R</t>
@@ -708,38 +703,32 @@
 &lt;h3&gt;Aproveite essa oportunidade e adquira seu Monitor Gamer Acer no KaBuM!&lt;/h3&gt;</t>
   </si>
   <si>
-    <t>Monitor Gamer LG 29' IPS, Ultra Wide, 75 Hz, Full HD, FreeSync, 99% sRGB, HDMI/DisplayPort, VESA - 29UM69G-B</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Monitor Gamer LG LED 29&amp;acute; Ultrawide, Full HD, IPS, HDMI/Display Port, FreeSync, Som Integrado, 1ms - 29UM69G-B&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>Monitor Asus ROG Swift 27, 360Hz, 1ms, HDMI e DisplayPort, 135% sRGB, HDR, G-Sync, Altura Ajustável, VESA - PG27AQN</t>
-  </si>
-  <si>
-    <t>&lt;h2&gt;ROG Swift 360Hz PG27AQN NVIDIA G-SYNC esports Gaming Monitor QHD de 27 polegadas (2560 x 1440), NVIDIA Reflex Analyzer, Ultrafast IPS, esports dual-mode, 1 ms (GTG), DisplayHDR 600&lt;/h2&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h3&gt;Principais Recursos&lt;/h3&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;Monitor de jogos IPS ultrarr&amp;aacute;pido QHD (2560 x 1440) de 27 polegadas com taxa de atualiza&amp;ccedil;&amp;atilde;o de 360 ??Hz, projetado para jogadores profissionais.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;O processador NVIDIA G-SYNC oferece jogos suaves e sem falhas em at&amp;eacute; 360 Hz.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;O NVIDIA Reflex Analyzer oferece uma medi&amp;ccedil;&amp;atilde;o precisa da lat&amp;ecirc;ncia do sistema.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;A tecnologia ASUS Ultrafast IPS permite o tempo de resposta mais r&amp;aacute;pido de todos os monitores 1440p.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;O modo duplo Esports permite que o monitor redimensione os visuais para a familiar diagonal de 25 polegadas em 1080p ou 2368 x 1332 mais r&amp;aacute;pido do mundo 1440p Monitor de jogos esports.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;O ROG Swift 360Hz PG27AQN &amp;eacute; o monitor de jogos de esports perfeito para jogos FPS de ritmo acelerado como VALORANT, Fortnite, Apex Legends e CS: GO. Este monitor QHD (2560 x 1440) apresenta tecnologia de painel IPS ultrarr&amp;aacute;pida que suporta imagens de at&amp;eacute; 360 Hz e um processador NVIDIA G-SYNC para jogabilidade suave com realismo incompar&amp;aacute;vel.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h3&gt;Tela QHD de 27 polegadas com 3% de melhor mira&lt;/h3&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;Os pesquisadores da NVIDIA descobriram que, ao atirar em alvos pequenos, usar uma tela de 27 polegadas 1440p pode melhorar a mira em at&amp;eacute; 3% em compara&amp;ccedil;&amp;atilde;o com a reprodu&amp;ccedil;&amp;atilde;o em uma tela tradicional de 25 polegadas 1080p. Para jogadores competitivos, esses 3% podem significar a diferen&amp;ccedil;a entre vit&amp;oacute;ria e derrota.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h3&gt;Tecnologia IPS ultrarr&amp;aacute;pida&lt;/h3&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;Tr&amp;ecirc;s caracter&amp;iacute;sticas principais definem a tecnologia Ultrafast IPS que d&amp;aacute; ao PG27AQN o tempo de resposta mais r&amp;aacute;pido de qualquer monitor ROG j&amp;aacute; feito. Ele foi desenvolvido para acabar com o desfoque de movimento e oferecer aos jogadores uma clareza sem precedentes, mesmo nos campos de batalha din&amp;acirc;micos das competi&amp;ccedil;&amp;otilde;es atuais de e-sports.&lt;/p&gt;</t>
+    <t>Monitor Gamer Acer Nitro 23.8 LED Full HD, 165Hz, 1ms, HDMI e DisplayPort, HDR, FreeSync Premium, VESA - QG241Y Pbiip</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Tela de 23.8&amp;rdquo; com resolu&amp;ccedil;&amp;atilde;o Full HD de 1920 x 1080 com taxa de atualiza&amp;ccedil;&amp;atilde;o de at&amp;eacute; 165 Hz, tempo de resposta 1ms VRB (Visual Response Boost) e tecnologia HDR-10 com Tecnologias Acer VisionCare, tecnologia AMD FreeSync Premium&lt;/h2&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h3&gt;Taxa de atualiza&amp;ccedil;&amp;atilde;o de at&amp;eacute; 165 Hz&lt;/h3&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;A taxa de atualiza&amp;ccedil;&amp;atilde;o de at&amp;eacute; 165Hz acelera os quadros por segundo para fornecer cenas de movimento ultrassuaves. Com uma taxa de atualiza&amp;ccedil;&amp;atilde;o r&amp;aacute;pida de at&amp;eacute; 165Hz, os Monitores Acer reduzem o tempo necess&amp;aacute;rio para renderiza&amp;ccedil;&amp;atilde;o de quadros, menor atraso de entrada e proporcionam aos jogadores uma excelente experi&amp;ecirc;ncia no jogo.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h3&gt;Visual Response Boost (VRB)&lt;/h3&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;O tempo de resposta r&amp;aacute;pido de 1 ms melhora a experi&amp;ecirc;ncia do jogador. N&amp;atilde;o importa a a&amp;ccedil;&amp;atilde;o em movimento r&amp;aacute;pido ou quaisquer transi&amp;ccedil;&amp;otilde;es dram&amp;aacute;ticas, tudo ser&amp;aacute; reproduzido suavemente, sem os efeitos irritantes de manchas ou fantasmas.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h3&gt;Zero Frame&lt;/h3&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;Oferece um novo design de quadro zero, remove virtualmente a caixa delimitadora da tela e oferece todas as imagens, prazer visual cont&amp;iacute;nuo.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h3&gt;TECNOLOGIAS&lt;/h3&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;AMD FreeSync Premium:&lt;/strong&gt; Com o AMD FreeSync Premium, a taxa de quadros do jogo &amp;eacute; determinada pela sua placa de v&amp;iacute;deo, n&amp;atilde;o pela taxa de atualiza&amp;ccedil;&amp;atilde;o fixa do monitor. Isso significa que os quadros do monitor s&amp;atilde;o sincronizados com os quadros da placa gr&amp;aacute;fica, o que elimina a tela quebrada e oferece experi&amp;ecirc;ncias de jogo muito suave.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;AcerVisionCare:&lt;/strong&gt; Incorpora v&amp;aacute;rias tecnologias como BlueLight ShieldTM que reduz a exposi&amp;ccedil;&amp;atilde;o a luz Azul, Flickerless ajuda a reduzir a fadiga ocular e tela anti-reflexo Acer Comfyview. Tecnologias que levam em considera&amp;ccedil;&amp;atilde;o o uso prolongado por usu&amp;aacute;rios frequentes, como programadores, escritores e designers gr&amp;aacute;ficos, para reduzir o cansa&amp;ccedil;o visual e fornecer uma experi&amp;ecirc;ncia de visualiza&amp;ccedil;&amp;atilde;o mais confort&amp;aacute;vel.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Adaptive Contrast Management:&lt;/strong&gt; Concentre-se com mais nitidez em suas tarefas com a taxa de contraste superior de 100.000.000:1. Desfrute dos brancos mais brilhantes e dos pretos mais profundos para uma defini&amp;ccedil;&amp;atilde;o de visualiza&amp;ccedil;&amp;atilde;o excepcional para todo o seu conte&amp;uacute;do.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;HDR 10:&lt;/strong&gt; &amp;Eacute; uma tecnologia de exibi&amp;ccedil;&amp;atilde;o que cria n&amp;iacute;veis mais profundos de contraste em preto e branco, proporcionando uma imers&amp;atilde;o de n&amp;iacute;vel maior por meio da recria&amp;ccedil;&amp;atilde;o de imagem realista. Os monitores Acer HDR suportam o formato HDR10.&lt;/p&gt;</t>
   </si>
   <si>
     <t>Monitor Gamer HyperX Armada 25 Full HD, 240 Hz, 1ms, IPS, HDMI e DisplayPort, 99% DCI, HDR, G-Sync, Preto - 64V69AA</t>
@@ -763,10 +752,114 @@
 &lt;h3&gt;Compre agora no KaBuM!&lt;/h3&gt;</t>
   </si>
   <si>
+    <t>Monitor Gamer Husky  23.8' LED, Wide, 165 Hz, Full HD, 1ms, Adaptive Sync, HDMI/DisplayPort, VESA - HGMT003</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Monitor Gamer Husky 23.8' LED, Wide, 165 Hz, Full HD, 1ms, Adaptive Sync, HDMI/DisplayPort, VESA - HGMT003&lt;/h2&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;Aproveite ao m&amp;aacute;ximo sua experi&amp;ecirc;ncia de jogos no seu&amp;nbsp; PC ou videogame com o Monitor Gamer Husky Gaming Snow 100.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;Com recursos otimizados para jogos, como taxas de atualiza&amp;ccedil;&amp;atilde;o r&amp;aacute;pidas, baixo atraso de entrada e alta resolu&amp;ccedil;&amp;atilde;o, o Monitor Gamer Husky Gaming Snow 100 &amp;eacute; certo para fazer toda a diferen&amp;ccedil;a em suas partidas.&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h3&gt;TAXA DE ATUALIZA&amp;Ccedil;&amp;Atilde;O&lt;/h3&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;144 Hz com o cabo HDMI ou 165 Hz com o DisplayPort, trazendo a melhor op&amp;ccedil;&amp;atilde;o para sua necessidade. Tudo isso com 1 ms de resposta, que possibilita um tempo de rea&amp;ccedil;&amp;atilde;o mais r&amp;aacute;pido para suas partidas insanas.&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h3&gt;TELA 23.8&amp;rdquo; WIDESCREEN&lt;/h3&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;Tela plana com resolu&amp;ccedil;&amp;atilde;o de 1920 x 1080p Full HD com mais de 16.7 milh&amp;otilde;es de cores (8-bit), Brilho 250 cd/m&amp;sup2;, contraste de 3000:1 e painel IPS, possibilitando uma imagem mais n&amp;iacute;tida e menos perda de detalhes.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h4&gt;Torne os jogos uma experi&amp;ecirc;ncia ainda mais envolvente. Aproveite e garanta j&amp;aacute; o seu Monitor Gamer Husky Gaming Snow 100!&lt;/h4&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p dir="ltr" style="margin: 0px; padding: 0px; border: none; list-style: none; box-sizing: border-box; font-size: 0.875rem; font-family: Poppins, sans-serif; line-height: 1.125rem; color: #565c69;"&gt;&lt;strong&gt;&lt;span style="margin: 0px; padding: 0px; border: none; list-style: none; box-sizing: border-box; font-size: revert;"&gt;&lt;a style="margin: 0px; padding: 0px; border: none; list-style: none; box-sizing: border-box; font-size: 0.875rem; cursor: pointer; line-height: 1.125rem; font-weight: 400;" href="https://kabum.com.br/hotsite/manuais/227486-Monitor-Gamer-Husky-HGMT003.pdf" target="_blank"&gt;MANUAL DE INSTRU&amp;Ccedil;&amp;Otilde;ES&lt;/a&gt;&lt;/span&gt;&lt;/strong&gt;&lt;/p&gt;
+&lt;p style="margin: 0px; padding: 0px; border: none; list-style: none; box-sizing: border-box; font-size: 0.875rem; font-family: Poppins, sans-serif; line-height: 1.125rem; color: #565c69;"&gt;&amp;nbsp;&lt;/p&gt;</t>
+  </si>
+  <si>
     <t>Monitor Gamer Asus ROG Swift 24.5' IPS, 360 Hz, Full HD, 1ms, G-Sync, Nvidia Reflex, ROG Desk Mount Kit, HDR 10, HDMI/DisplayPort - PG259QNR</t>
   </si>
   <si>
     <t>&lt;p&gt;Monitor de jogos IPS r&amp;aacute;pido FHD (1920 x 1080) de 24,5 polegadas com taxa de atualiza&amp;ccedil;&amp;atilde;o de 360 ??Hz projetado para jogadores de esportes profissionais. O processador NVIDIA&amp;reg; G-SYNC&amp;reg; oferece jogos suaves e sem problemas com taxas de atualiza&amp;ccedil;&amp;atilde;o de at&amp;eacute; 360 Hz. O NVIDIA&amp;reg; Reflex Latency Analyzer oferece aos jogadores competitivos uma medi&amp;ccedil;&amp;atilde;o precisa da lat&amp;ecirc;ncia do sistema pela primeira vez. A tecnologia ASUS Fast IPS permite um tempo de resposta de 1 ms (GTG) para visuais n&amp;iacute;tidos de jogos com altas taxas de quadros. Inclui um kit de montagem em mesa ROG que pode ser preso na borda de qualquer superf&amp;iacute;cie de trabalho plana. Full HD (1920 X 1080) a sa&amp;iacute;da de 120 Hz no PS5 e Xbox Series X / S.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Samsung Odyssey G6 Curvo 27 LED 2K QHD, 240 Hz, 1ms, HDMI e DisplayPort, HDR, FreeSync Premium - LS27BG650ELXZD</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Monitor Gamer Curvo Samsung Odyssey 27", Plataforma Tizen, Resolu&amp;ccedil;&amp;atilde;o QHD e um Display HDR 600, Taxa de atualiza&amp;ccedil;&amp;atilde;o de 240 Hz com tempo de resposta de 1 ms e AMD FreeSync Premium Pro&lt;/h2&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h3&gt;Impulsione sua realidade com a resolu&amp;ccedil;&amp;atilde;o QHD&lt;/h3&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;Seu mundo dos jogos mais realista do que nunca. 1.7 vezes mais pixels do que uma tela Full HD, a resolu&amp;ccedil;&amp;atilde;o QHD apresenta imagens incrivelmente detalhadas. Experimente uma vis&amp;atilde;o mais completa com mais espa&amp;ccedil;o para todos os seus jogos.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h3&gt;Revele todos os detalhes ocultos com display HDR 600&lt;/h3&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;Revele todos os detalhes. DisplayHDR 600 proporciona mais contraste, com pretos mais profundos e brancos mais brilhantes para ajud&amp;aacute;-lo a descobrir inimigos ou segredos escondidos nas sombras. Mesmo em cenas escuras, cada detalhe brilha com clareza.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h3&gt;Reaja em tempo real - Taxa de atualiza&amp;ccedil;&amp;atilde;o de 240 Hz &amp;amp; tempo de resposta de 1ms&lt;/h3&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;Velocidade nas cenas. A taxa de atualiza&amp;ccedil;&amp;atilde;o de 240 Hz elimina o atraso para uma jogabilidade emocionante com a&amp;ccedil;&amp;atilde;o ultra-suave. Ataque os inimigos logo ao v&amp;ecirc;-los com um tempo de resposta de 1ms e quadros sem borr&amp;atilde;o.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h3&gt;Foco sem nunca quebrar o fluxo - FreeSync Premium Pro&lt;/h3&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;Jogabilidade sem esfor&amp;ccedil;o e suave. O AMD FreeSync Premium Pro apresenta tecnologia de sincroniza&amp;ccedil;&amp;atilde;o adaptativa que reduz o rasgo da tela, a quebra de imagem e a lat&amp;ecirc;ncia de entrada. A compensa&amp;ccedil;&amp;atilde;o de baixa taxa de quadros garante que cada cena flua sem problemas.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h3&gt;Onde os jogos se unem no Samsung Gaming Hub&lt;/h3&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;O melhor dos jogos, tudo em um s&amp;oacute; lugar. O Samsung Gaming Hub permite acesso instant&amp;acirc;neo aos melhores servi&amp;ccedil;os de jogos na nuvem, seus consoles favoritos e seu PC. Visuais suaves e jogabilidade responsiva s&amp;atilde;o alimentados pela avan&amp;ccedil;ada tecnologia de streaming de jogos sem downloads ou limites de armazenamento - basta ligar e jogar.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h3&gt;Seus shows favoritos em seu espa&amp;ccedil;o - Experi&amp;ecirc;ncia de Smart TV&lt;/h3&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;Fa&amp;ccedil;a uma pausa nas sess&amp;otilde;es de maratona de jogos e se atualize nas suas s&amp;eacute;ries favoritas, com apenas uma simples conex&amp;atilde;o Wi-Fi. A Samsung TV Plus oferece conte&amp;uacute;do ao vivo gratuito, sem downloads ou inscri&amp;ccedil;&amp;otilde;es, bem como recomenda&amp;ccedil;&amp;otilde;es de conte&amp;uacute;do personalizado do Guia Universal.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h3&gt;Extrapole seus sentidos - Curvatura de 1000R&lt;/h3&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;Seja envolvido pela a&amp;ccedil;&amp;atilde;o. Experimente o pr&amp;oacute;ximo n&amp;iacute;vel de jogo que &amp;eacute; superior a qualquer coisa que voc&amp;ecirc; j&amp;aacute; tenha visto antes. A tela 1000R preenche sua vis&amp;atilde;o perif&amp;eacute;rica e o coloca no lugar do personagem.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Duex 27 Polegadas, FULL HD, 1MS, 240Hz, Curvo, VA, Freesync, HDMI/Display Port, USB - Dx270zg</t>
+  </si>
+  <si>
+    <t>Uma velocidade ultrarrápida de 240Hz e 1ms permite que os jogadores vejam o próximo quadro rapidamente e fazem com que a imagem apareça suavemente. Os jogadores podem responder rapidamente aos oponentes e mirar no alvo facilmente.</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Asus TUF 23.6 Curvo Full HD, 165Hz, 1ms, HDMI e DisplayPort, Adaptive Sync, VESA - VG24VQE</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;O Monitor Gamer Asus 23.6&amp;acute; TUF Gaming VG24VQE &amp;eacute; uma tela curva Full HD (1920x1080) de 23,6 polegadas com uma taxa de atualiza&amp;ccedil;&amp;atilde;o ultrarr&amp;aacute;pida de 165Hz projetada para jogadores profissionais e aqueles que buscam uma jogabilidade envolvente&lt;/h2&gt;
+&lt;p&gt;Seu impressionante display curvo apresenta a &lt;strong&gt;tecnologia Adaptive-Sync (FreeSync Premium)&lt;/strong&gt;, para uma jogabilidade extremamente fluida sem tearing ou imagem tremida. Com Curvatura imersiva de 31.5 polegadas o Monitor &lt;strong&gt;Full HD de 23,6 polegadas (1920 x 1080)&lt;/strong&gt; do TUF Gaming VG24VQE oferece visuais impressionantes de todos os &amp;acirc;ngulos com uma curvatura de 1500R que fornece ao usu&amp;aacute;rio uma experi&amp;ecirc;ncia de jogo envolvente e cativante. Isso contribui para um maior conforto de visualiza&amp;ccedil;&amp;atilde;o, mesmo durante o uso prolongado e permite que voc&amp;ecirc; desfrute de um amplo &amp;acirc;ngulo de visualiza&amp;ccedil;&amp;atilde;o com menos distor&amp;ccedil;&amp;atilde;o e mudan&amp;ccedil;a de cor ao jogar e assistir filmes.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Taxa de Atualiza&amp;ccedil;&amp;atilde;o de 165Hz O Monitor Gamer Asus tem uma taxa de atualiza&amp;ccedil;&amp;atilde;o super-r&amp;aacute;pida de 165Hz, garantindo que mesmo os jogos mais r&amp;aacute;pidos jogados nas configura&amp;ccedil;&amp;otilde;es visuais mais altas tenham uma apar&amp;ecirc;ncia suave e completamente livre de lag&lt;/h2&gt;
+&lt;p&gt;Obtenha a vantagem em jogos de tiro em primeira pessoa, corrida, estrat&amp;eacute;gia em tempo real e t&amp;iacute;tulos de esportes. A mais recente &lt;strong&gt;tecnologia Extreme&lt;/strong&gt; &lt;strong&gt;Low Motion Blur&lt;/strong&gt; exclusiva da ASUS, que atinge 1ms de MPRT para eliminar manchas e borr&amp;otilde;es de movimento, e torna os objetos em movimento mais n&amp;iacute;tidos, para que a jogabilidade seja mais fluida e responsiva. Com a tecnologia &lt;strong&gt;ASUS Shadow Boost&lt;/strong&gt; esclarece as &amp;aacute;reas escuras do jogo sem superexpor as &amp;aacute;reas mais brilhantes, melhorando a visualiza&amp;ccedil;&amp;atilde;o geral enquanto facilita localizar inimigos escondidos em &amp;aacute;reas escuras do mapa.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h3&gt;Garanta j&amp;aacute; seu Monitor Gamer Asus aqui no KaBuM!&lt;/h3&gt;</t>
+  </si>
+  <si>
+    <t>Monitor Asus ROG Strix 29.5, IPS, 220Hz, 1ms, HDMI e DisplayPort, 110% sRGB, HDR, FreeSync Premium, Altura e Ângulo Ajustável, VESA - XG309CM</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Monitor Gaming ROG Strix XG309CM 29.5 polegadas 2560x1080, overclocking 220Hz (Acima de 144Hz), 1ms (GTG), Fast IPS, Extreme Low Motion Blur Sync, USB Type-C, 110% sRGB, compat&amp;iacute;vel com G-Sync, suporte KVM, Trip&amp;eacute; soquete&lt;/h2&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;Monitor de jogos HDR de 2560 x 1080 de 29.5" com taxa de atualiza&amp;ccedil;&amp;atilde;o ultrarr&amp;aacute;pida de 220 Hz (overclocking) projetado para jogadores profissionais e jogabilidade envolvente.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;A tecnologia ASUS Fast IPS permite um tempo de resposta de 1 ms (GTG) para visuais de jogos n&amp;iacute;tidos com altas taxas de quadros.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;A tecnologia ASUS Extreme Low Motion Blur Sync (ELMB SYNC) permite ELMB junto com taxa de atualiza&amp;ccedil;&amp;atilde;o vari&amp;aacute;vel, eliminando fantasmas e rasgos para visuais de jogos n&amp;iacute;tidos com altas taxas de quadros.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;O switch KVM permite controlar os dois dispositivos conectados usando apenas um teclado e mouse.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;Hub USB Type-C suporta transmiss&amp;atilde;o de v&amp;iacute;deo em sinal DisplayPort; pode servir como um hub USB, o que significa que voc&amp;ecirc; pode conectar seu dispositivo a seus perif&amp;eacute;ricos com fio com configura&amp;ccedil;&amp;atilde;o descomplicada.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h3&gt;Experimente a ultralarga&lt;/h3&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;O monitor de jogos ROG Strix XG309CM possui um painel ultra amplo de 29,5 polegadas 2560 x 1080 para que voc&amp;ecirc; desfrute de mais detalhes ao jogar ou assistir a filmes. Seu painel de formato 21:9 ultra amplo oferece mais espa&amp;ccedil;o na &amp;aacute;rea de trabalho na tela do que um monitor 16:9, portanto, h&amp;aacute; ainda mais espa&amp;ccedil;o para as v&amp;aacute;rias janelas de aplicativos na hora de trabalhar.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h3&gt;Tela GTG R&amp;Aacute;PIDA, RESPONSIVA E V&amp;Iacute;VIDA de 1 ms&lt;/h3&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;A tecnologia ASUS Fast IPS permite que o monitor ligue e desligue at&amp;eacute; quatro vezes mais r&amp;aacute;pido do que os pain&amp;eacute;is IPS convencionais, dando ao XG309CM um tempo de resposta GTG de 1 ms e pouca ou nenhuma mancha ou desfoque de movimento.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h3&gt;TAXA DE ATUALIZA&amp;Ccedil;&amp;Atilde;O INCRIVELMENTE R&amp;Aacute;PIDA DE 220 Hz (OC)&lt;/h3&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;Voc&amp;ecirc; experimentar&amp;aacute; visuais de jogo incrivelmente fluidos, dando a voc&amp;ecirc; vantagem em jogos de tiro em primeira pessoa, corrida, estrat&amp;eacute;gia em tempo real e t&amp;iacute;tulos esportivos.&lt;/p&gt;</t>
   </si>
   <si>
     <t>Monitor Gamer Acer 23.8' LED, 75 Hz, Full HD, 1ms, FreeSync, HDMI/VGA, VESA - KA242Y A</t>
@@ -782,68 +875,16 @@
 &lt;h3&gt;Compre seu&amp;nbsp;Monitor Gamer Acer 23.8' LED aqui no KaBuM!&lt;/h3&gt;</t>
   </si>
   <si>
-    <t>Monitor Gamer AOC 27 Polegadas, Full HD, 240hz, 0.5ms, HDMI, DisplayPort, Freesync - C27G2ZE</t>
-  </si>
-  <si>
-    <t>Esteja no Centro da Aventura &lt;br /&gt;O Monitor Legend C27G2ZE tem um painel VA de 27'' e uma curvatura de 1500R. Possui uma taxa de atualização de 240Hz e um incrível tempo de resposta de 0.5ms. Perfeito para ter a máxima emoção em Qualquer tipo de jogo. &lt;br /&gt;&lt;br /&gt;Tela Curva de 1500R &lt;br /&gt;Seja envolvido pelo design curvo que te coloca no centro da ação e fornece uma experiência diferenciada em cada movimento. &lt;br /&gt;&lt;br /&gt;Taxa de Atualização de 240Hz &lt;br /&gt;Aproveite mais fluide na suas imagens. Cada detalhes é colocado em foco de forma nítida e os movimentos são mostrados com clareza, tudo para você sentir suas reações e ações se tornarem uma só e elevar o seu jogo. 0.5Ms de Tempo de Resposta Acabe de vez com os efeitos fantasmas com o tempo de resposta de 0.5ms. Tenha uma experiência aprimorada onde mesmo os movimentos mais rápidos e as trasições mais dramáticas são reproduzidas suavemente.</t>
-  </si>
-  <si>
-    <t>Monitor Gamer Lg Ultragear 27 Polegadas,FULL  HdD144hz 1ms Ips, HDMI e Displayport</t>
-  </si>
-  <si>
-    <t>Monitor gamer lg ultragear, 27 full hd 144hz 1ms ips hdmi e displayport hdr 10 99% srgb, freesync premium vesa - 27gn65r o monitor gamer lg ultragear 27gn65r é uma opção de alta performance desenvolvida para atender às demandas dos jogadores mais exigentes. Com uma tela de 27 polegadas em resolução full hd (1920 x 1080), esse monitor oferece uma experiência visual imersiva com imagens nítidas e detalhadas. A velocidade é uma das principais características desse monitor, com um tempo de resposta ultra-rápido de 1ms (gtg), o que significa que as transições de cores são praticamente instantâneas, eliminando o efeito de arrasto nas imagens durante os jogos mais rápidos e intensos. Além disso, a taxa de atualização de 144hz proporciona uma jogabilidade mais fluida, permitindo que os jogadores vejam o próximo quadro rapidamente e tenham uma experiência de jogo mais suave. O painel ips do monitor garante ângulos de visão amplos e cores vibrantes, com suporte para 99% do espaço de cores srgb e tecnologia hdr10. Isso resulta em imagens mais realistas e ricas em detalhes, criando uma experiência de visualização imersiva para jogos, filmes e conteúdos em geral. O monitor gamer lg ultragear 27gn65r também é compatível com a tecnologia amd freesync premium e nvidia g-sync, que ajudam a eliminar o screen tearing e o stuttering durante os jogos, sincronizando a taxa de atualização do monitor com a taxa de quadros da placa gráfica para uma jogabilidade mais suave e sem interrupções. O design eletrizante e moderno do monitor complementa perfeitamente o setup gamer, enquanto a compatibilidade vesa permite a instalação em suportes ou braços para maior versatilidade. Se você busca uma experiência de jogo de alta performance com imagens fluidas, cores vívidas e tempos de resposta rápidos, o monitor gamer lg ultragear 27gn65r é uma escolha excelente para elevar seu entretenimento e desempenho nos jogos.   especificações: - marca: lg - modelo: 27gn65r     características: tela: - cor: preto - tamanho: 27” - tipo de tela: ips - ângulo de visão: 178º / 178º - resolução máxima: full hd (1920 x 1080) - brilho: 300 cd/m² - contraste: 1000:01 - tempo de resposta: 1ms (gtg) - taxa de atualização: 144hz - gama de cores: srgb 99% (típ.) - profundidade de cores (nº de cores): 16,7m - distância entre pixels: 0,3108 x 0,3108 mm - tratamento de tela: antirreflexivo   entradas e saídas: - hdmi: sim (v2.0) - displayport: sim (v1.4) - saída de fone de ouvido: sim   energia: - consumo de energia: 32w (típ.) - fonte: adaptador externo   ajustes: - ajustes de posição: inclinação, altura, pivô - tamanho da furação: 100 x 100 mm   recursos: - hdr: hdr10 - flicker safe: sim - amd freesync: freesync premium - nvidia g-sync: sim - modo leitura: sim - onscreen control: sim - motion blur reduction: sim - crosshair: sim - dynamic action sync: sim - black stabilizer: sim - plug &amp; play: sim</t>
-  </si>
-  <si>
-    <t>Monitor Gamer Curvo Samsung Odyssey 34 Polegadas ultra WQHD, 165Hz, 1ms, HDMI, DP, Freesync, G5</t>
-  </si>
-  <si>
-    <t>A abrangente tela 1000R preenche toda a sua visão periférica e te coloca no lugar do personagem. A resolução Ultra-WQHD proporciona uma visão vasta e abrangente do mundo dos seus jogos com detalhes verdadeiramente realistas. O amplo tamanho da tela oferece pura imersão - eliminando a distração de bordas no meio e cabos bagunçados de um setup com dois monitores.A taxa de atualização ultra-rápida de 165Hz consegue lidar até mesmo com as cenas mais emocionantes e imagens super rápidas. AMD FreesSync Premium apresenta uma tecnologia de sincronização adaptável que reduz o travamento de tela, oscilação e atrasos. Um caleidoscópio de tonalidades dá vida às cenas dos seus jogos de forma mais vibrante do que nunca. Revele os segredos que se escondem nas sombras com pretos profundamente escuros, brancos luminosos e uma resolução incrivelmente detalhada.</t>
-  </si>
-  <si>
-    <t>Monitor Gamer Asus TUF 23.6 Curvo Full HD, 165Hz, 1ms, HDMI e DisplayPort, Adaptive Sync, VESA - VG24VQE</t>
-  </si>
-  <si>
-    <t>&lt;h2&gt;O Monitor Gamer Asus 23.6&amp;acute; TUF Gaming VG24VQE &amp;eacute; uma tela curva Full HD (1920x1080) de 23,6 polegadas com uma taxa de atualiza&amp;ccedil;&amp;atilde;o ultrarr&amp;aacute;pida de 165Hz projetada para jogadores profissionais e aqueles que buscam uma jogabilidade envolvente&lt;/h2&gt;
-&lt;p&gt;Seu impressionante display curvo apresenta a &lt;strong&gt;tecnologia Adaptive-Sync (FreeSync Premium)&lt;/strong&gt;, para uma jogabilidade extremamente fluida sem tearing ou imagem tremida. Com Curvatura imersiva de 31.5 polegadas o Monitor &lt;strong&gt;Full HD de 23,6 polegadas (1920 x 1080)&lt;/strong&gt; do TUF Gaming VG24VQE oferece visuais impressionantes de todos os &amp;acirc;ngulos com uma curvatura de 1500R que fornece ao usu&amp;aacute;rio uma experi&amp;ecirc;ncia de jogo envolvente e cativante. Isso contribui para um maior conforto de visualiza&amp;ccedil;&amp;atilde;o, mesmo durante o uso prolongado e permite que voc&amp;ecirc; desfrute de um amplo &amp;acirc;ngulo de visualiza&amp;ccedil;&amp;atilde;o com menos distor&amp;ccedil;&amp;atilde;o e mudan&amp;ccedil;a de cor ao jogar e assistir filmes.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h2&gt;Taxa de Atualiza&amp;ccedil;&amp;atilde;o de 165Hz O Monitor Gamer Asus tem uma taxa de atualiza&amp;ccedil;&amp;atilde;o super-r&amp;aacute;pida de 165Hz, garantindo que mesmo os jogos mais r&amp;aacute;pidos jogados nas configura&amp;ccedil;&amp;otilde;es visuais mais altas tenham uma apar&amp;ecirc;ncia suave e completamente livre de lag&lt;/h2&gt;
-&lt;p&gt;Obtenha a vantagem em jogos de tiro em primeira pessoa, corrida, estrat&amp;eacute;gia em tempo real e t&amp;iacute;tulos de esportes. A mais recente &lt;strong&gt;tecnologia Extreme&lt;/strong&gt; &lt;strong&gt;Low Motion Blur&lt;/strong&gt; exclusiva da ASUS, que atinge 1ms de MPRT para eliminar manchas e borr&amp;otilde;es de movimento, e torna os objetos em movimento mais n&amp;iacute;tidos, para que a jogabilidade seja mais fluida e responsiva. Com a tecnologia &lt;strong&gt;ASUS Shadow Boost&lt;/strong&gt; esclarece as &amp;aacute;reas escuras do jogo sem superexpor as &amp;aacute;reas mais brilhantes, melhorando a visualiza&amp;ccedil;&amp;atilde;o geral enquanto facilita localizar inimigos escondidos em &amp;aacute;reas escuras do mapa.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h3&gt;Garanta j&amp;aacute; seu Monitor Gamer Asus aqui no KaBuM!&lt;/h3&gt;</t>
-  </si>
-  <si>
-    <t>Monitor Gamer Duex 27 Polegadas, FULL HD, 1MS, 240Hz, Curvo, VA, Freesync, HDMI/Display Port, USB - Dx270zg</t>
-  </si>
-  <si>
-    <t>Uma velocidade ultrarrápida de 240Hz e 1ms permite que os jogadores vejam o próximo quadro rapidamente e fazem com que a imagem apareça suavemente. Os jogadores podem responder rapidamente aos oponentes e mirar no alvo facilmente.</t>
-  </si>
-  <si>
-    <t>Monitor Asus ROG Strix 29.5, IPS, 220Hz, 1ms, HDMI e DisplayPort, 110% sRGB, HDR, FreeSync Premium, Altura e Ângulo Ajustável, VESA - XG309CM</t>
-  </si>
-  <si>
-    <t>&lt;h2&gt;Monitor Gaming ROG Strix XG309CM 29.5 polegadas 2560x1080, overclocking 220Hz (Acima de 144Hz), 1ms (GTG), Fast IPS, Extreme Low Motion Blur Sync, USB Type-C, 110% sRGB, compat&amp;iacute;vel com G-Sync, suporte KVM, Trip&amp;eacute; soquete&lt;/h2&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;Monitor de jogos HDR de 2560 x 1080 de 29.5" com taxa de atualiza&amp;ccedil;&amp;atilde;o ultrarr&amp;aacute;pida de 220 Hz (overclocking) projetado para jogadores profissionais e jogabilidade envolvente.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;A tecnologia ASUS Fast IPS permite um tempo de resposta de 1 ms (GTG) para visuais de jogos n&amp;iacute;tidos com altas taxas de quadros.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;A tecnologia ASUS Extreme Low Motion Blur Sync (ELMB SYNC) permite ELMB junto com taxa de atualiza&amp;ccedil;&amp;atilde;o vari&amp;aacute;vel, eliminando fantasmas e rasgos para visuais de jogos n&amp;iacute;tidos com altas taxas de quadros.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;O switch KVM permite controlar os dois dispositivos conectados usando apenas um teclado e mouse.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;Hub USB Type-C suporta transmiss&amp;atilde;o de v&amp;iacute;deo em sinal DisplayPort; pode servir como um hub USB, o que significa que voc&amp;ecirc; pode conectar seu dispositivo a seus perif&amp;eacute;ricos com fio com configura&amp;ccedil;&amp;atilde;o descomplicada.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h3&gt;Experimente a ultralarga&lt;/h3&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;O monitor de jogos ROG Strix XG309CM possui um painel ultra amplo de 29,5 polegadas 2560 x 1080 para que voc&amp;ecirc; desfrute de mais detalhes ao jogar ou assistir a filmes. Seu painel de formato 21:9 ultra amplo oferece mais espa&amp;ccedil;o na &amp;aacute;rea de trabalho na tela do que um monitor 16:9, portanto, h&amp;aacute; ainda mais espa&amp;ccedil;o para as v&amp;aacute;rias janelas de aplicativos na hora de trabalhar.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h3&gt;Tela GTG R&amp;Aacute;PIDA, RESPONSIVA E V&amp;Iacute;VIDA de 1 ms&lt;/h3&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;A tecnologia ASUS Fast IPS permite que o monitor ligue e desligue at&amp;eacute; quatro vezes mais r&amp;aacute;pido do que os pain&amp;eacute;is IPS convencionais, dando ao XG309CM um tempo de resposta GTG de 1 ms e pouca ou nenhuma mancha ou desfoque de movimento.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h3&gt;TAXA DE ATUALIZA&amp;Ccedil;&amp;Atilde;O INCRIVELMENTE R&amp;Aacute;PIDA DE 220 Hz (OC)&lt;/h3&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;Voc&amp;ecirc; experimentar&amp;aacute; visuais de jogo incrivelmente fluidos, dando a voc&amp;ecirc; vantagem em jogos de tiro em primeira pessoa, corrida, estrat&amp;eacute;gia em tempo real e t&amp;iacute;tulos esportivos.&lt;/p&gt;</t>
+    <t>Monitor Gamer Dahua Ultrawide 30 Polegadas, WFHD, 1ms, 200HZ,  DCR Inteligente Adaptive-sync, HDMI, Dp, Va, Preto - Dhi-lm30-e330ca</t>
+  </si>
+  <si>
+    <t>Monitor gamer ultrawide 30 wfhd 200hz 1ms dcr inteligente adaptive-sync hdmi dp va preto - dhi-lm30-e330ca&lt;br /&gt;&lt;br /&gt;  &lt;br /&gt;&lt;br /&gt;  curvatura r1500&lt;br /&gt;&lt;br /&gt;  ela oferece benefícios notáveis ao criar uma experiência de visualização mais envolvente para jogos, filmes e outras atividades multimídia. Ao envolver sutilmente o campo de visão do usuário, a curvatura r1500 contribui para uma sensação de profundidade e presença, criando uma experiência visual que vai além das limitações de um monitor plano tradicional.&lt;br /&gt;&lt;br /&gt;   &lt;br /&gt;&lt;br /&gt;  uma visão imersiva e impactante: &lt;br /&gt;&lt;br /&gt;  experimente a diferença com a tela curva r1500 de 30 polegadas, proporcionando uma experiência visual envolvente que eleva o entretenimento a um novo patamar. Cada detalhe ganha vida, tornando cada cena mais real e impactante.&lt;br /&gt;&lt;br /&gt;  &lt;br /&gt;&lt;br /&gt;  alto desempenho para jogos de elite: &lt;br /&gt;&lt;br /&gt;  seja o mestre do seu jogo com uma taxa de atualização incrível de 200hz e um tempo de resposta ultrarrápido de 1ms mprt. Não perca nenhum detalhe, capture cada movimento e aumente suas chances de vitória a cada jogada.&lt;br /&gt;&lt;br /&gt;  &lt;br /&gt;&lt;br /&gt;  chip dcr inteligente&lt;br /&gt;&lt;br /&gt;  o chip dcr inteligente no monitor lm30-e330ca oferece uma experiência visual avançada, ajustando-se dinamicamente para proporcionar contrastes vívidos, cores vibrantes e detalhes aprimorados. Essa tecnologia inovadora coloca a qualidade de imagem em um novo patamar, garantindo uma imersão visual excepcional em todas as suas atividades, desde jogos intensos até a visualização de conteúdo multimídia.&lt;br /&gt;&lt;br /&gt;  &lt;br /&gt;&lt;br /&gt;  tecnologia adaptive-sync&lt;br /&gt;&lt;br /&gt;  suavidade visual sem compromissos: &lt;br /&gt;&lt;br /&gt;  reduza a perda de qualidade de imagem e melhore a fluidez visual com a tecnologia adaptive-sync. Jogue sem interrupções, experimentando transições suaves e uma performance imbatível.&lt;br /&gt;&lt;br /&gt;  &lt;br /&gt;&lt;br /&gt;  proporção de tela 21:9&lt;br /&gt;&lt;br /&gt;  uma experiência imersiva como nunca antes: &lt;br /&gt;&lt;br /&gt;  com uma proporção de tela de 21:9, mergulhe em uma experiência cinematográfica enquanto joga ou assiste aos seus filmes favoritos. Cada momento se desenrola em um panorama espetacular.&lt;br /&gt;&lt;br /&gt;  &lt;br /&gt;&lt;br /&gt;  conectividade versátil para seu setup ideal:&lt;br /&gt;&lt;br /&gt;  equipado com portas displayport 1.2 x2 e hdmi x2, o lm30-e330ca oferece uma conectividade versátil para atender às suas necessidades de entretenimento e produtividade.&lt;br /&gt;&lt;br /&gt;  &lt;br /&gt;&lt;br /&gt;  flexibilidade de visualização &lt;br /&gt;&lt;br /&gt;  ajuste conforme sua preferência: &lt;br /&gt;&lt;br /&gt;  incline o monitor de -5° a +20° para encontrar o ângulo perfeito que se adapte ao seu espaço e estilo de vida. Para maior versatilidade, a furação vesa 75x75mm permite a montagem na parede.&lt;br /&gt;&lt;br /&gt;  &lt;br /&gt;&lt;br /&gt;  &lt;br /&gt;&lt;br /&gt;  &lt;br /&gt;&lt;br /&gt;  especificações:&lt;br /&gt;&lt;br /&gt;  &lt;br /&gt;&lt;br /&gt;  resolução&lt;br /&gt;&lt;br /&gt;  30  2560x1080 va&lt;br /&gt;&lt;br /&gt;  &lt;br /&gt;&lt;br /&gt;  curvatura&lt;br /&gt;&lt;br /&gt;  1500r&lt;br /&gt;&lt;br /&gt;  &lt;br /&gt;&lt;br /&gt;  taxa de atualização&lt;br /&gt;&lt;br /&gt;  200hz&lt;br /&gt;&lt;br /&gt;  &lt;br /&gt;&lt;br /&gt;  recursos&lt;br /&gt;&lt;br /&gt;  adaptive-sync&lt;br /&gt;&lt;br /&gt;  &lt;br /&gt;&lt;br /&gt;  interfaces/portas&lt;br /&gt;&lt;br /&gt;  displayport 1.2 x2, hdmi x2&lt;br /&gt;&lt;br /&gt;  &lt;br /&gt;&lt;br /&gt;  inclinação&lt;br /&gt;&lt;br /&gt;  -5°+/-2° - 20°+/-2&lt;br /&gt;&lt;br /&gt;  &lt;br /&gt;&lt;br /&gt;  ângulo de visão&lt;br /&gt;&lt;br /&gt;  178°(h)/178°(v)&lt;br /&gt;&lt;br /&gt;  &lt;br /&gt;&lt;br /&gt;  brilho&lt;br /&gt;&lt;br /&gt;  250 nits&lt;br /&gt;&lt;br /&gt;  &lt;br /&gt;&lt;br /&gt;  backlight&lt;br /&gt;&lt;br /&gt;  led&lt;br /&gt;&lt;br /&gt;  &lt;br /&gt;&lt;br /&gt;  tempo de resposta&lt;br /&gt;&lt;br /&gt;  mprt 1ms&lt;br /&gt;&lt;br /&gt;  &lt;br /&gt;&lt;br /&gt;  furação vesa&lt;br /&gt;&lt;br /&gt;  75x75mm&lt;br /&gt;&lt;br /&gt;  &lt;br /&gt;&lt;br /&gt;  imagens de caráter ilustrativo&lt;br /&gt;&lt;br /&gt;  &lt;br /&gt;&lt;br /&gt;  informações divulgadas de acordo com o manual do fabricante&lt;br /&gt;&lt;br /&gt;  &lt;br /&gt;&lt;br /&gt;  produto novo na caixa, lacrado com nf e garantia do fabricante de 3 anos.&lt;br /&gt;&lt;br /&gt;  &lt;br /&gt;&lt;br /&gt;  em caso de dúvidas sobre informações técnicas, utilização, limitações e manuseio do produto, verifique o manual do fabricante.&lt;br /&gt;&lt;br /&gt;  &lt;br /&gt;&lt;br /&gt;  nac012091&lt;br /&gt;&lt;br /&gt;  ean6923172579119</t>
+  </si>
+  <si>
+    <t>Monitor Gamer AOC Speed 23.8' IPS, Wide, 75 Hz, Full HD, 1ms, Adaptive Sync, VESA, HDMI/VGA - 24G2HE5</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Monitor Gamer AOC Speed 23,8&amp;acute; Monitor Gamer te d&amp;aacute; detalhes Jogue para valer com o monitor Speed 24, com uma taxa de atualiza&amp;ccedil;&amp;atilde;o que elimina a possibilidade de borr&amp;otilde;es na tela e Painel IPS que oferece cores mais fi&amp;eacute;is e &amp;oacute;timo &amp;acirc;ngulo de vis&amp;atilde;o. Desenvolvido para suportar todas as emo&amp;ccedil;&amp;otilde;es dos seus jogos, o incr&amp;iacute;vel tempo de resposta de 1ms oferece alta velocidade, defini&amp;ccedil;&amp;atilde;o e muita suavidade em todos os seus movimentos. Elimine a possibilidade de borr&amp;otilde;es e lags na tela e atinja todo o potencial em seus jogos com uma taxa de atualiza&amp;ccedil;&amp;atilde;o de 75Hz. Suas maratonas ser&amp;atilde;o livres de tremores, com uma suavidade surpreendente. Recursos centrados nos jogadores A tecnologia Adaptive Sync reduz cortes e repeti&amp;ccedil;&amp;otilde;es de imagens, que ocorrem devido a diferen&amp;ccedil;a entre quadros gr&amp;aacute;ficos e a taxa de atualiza&amp;ccedil;&amp;atilde;o do monitor. Assim, voc&amp;ecirc; vai experimentar movimentos fluidos e enxergar&amp;aacute; as cenas de uma forma muito mais pura. Aproveite as vantagens de ter um Painel IPS em seu monitor gamer e enxergue os inimigos mesmo em cenas com pouca ilumina&amp;ccedil;&amp;atilde;o. Essa avan&amp;ccedil;ada tecnologia oferece as melhores cores sem comprometer a velocidade, al&amp;eacute;m de entregar um &amp;oacute;timo &amp;acirc;ngulo de vis&amp;atilde;o para voc&amp;ecirc; curtir ainda mais seus jogos. Este diferencial controla os n&amp;iacute;veis de cinza no menu do monitor para melhorar a rela&amp;ccedil;&amp;atilde;o de contraste em telas escuras e proporcionar as melhores cenas, sempre. Melhore a precis&amp;atilde;o e a velocidade das suas jogadas com o recurso modo mira: uma mira vermelha posicionada no centro da tela para voc&amp;ecirc; se tornar o melhor atirador da partida. Garanta j&amp;aacute; seu Monitor Gamer AOC aqui no KaBuM!&lt;/p&gt;</t>
   </si>
   <si>
     <t>Monitor Acer 23.8 LED Full HD, 75Hz, 1ms, HDMI e VGA, Ajuste de Ângulo, FreeSync, VESA - CB242Y</t>
@@ -866,50 +907,30 @@
 &lt;h3&gt;Aproveite essa oportunidade e adquira seu Monitor Acer no KaBuM!&lt;/h3&gt;</t>
   </si>
   <si>
-    <t>Monitor Gamer Dahua Ultrawide 30 Polegadas, WFHD, 1ms, 200HZ,  DCR Inteligente Adaptive-sync, HDMI, Dp, Va, Preto - Dhi-lm30-e330ca</t>
-  </si>
-  <si>
-    <t>Monitor gamer ultrawide 30 wfhd 200hz 1ms dcr inteligente adaptive-sync hdmi dp va preto - dhi-lm30-e330ca&lt;br /&gt;&lt;br /&gt;  &lt;br /&gt;&lt;br /&gt;  curvatura r1500&lt;br /&gt;&lt;br /&gt;  ela oferece benefícios notáveis ao criar uma experiência de visualização mais envolvente para jogos, filmes e outras atividades multimídia. Ao envolver sutilmente o campo de visão do usuário, a curvatura r1500 contribui para uma sensação de profundidade e presença, criando uma experiência visual que vai além das limitações de um monitor plano tradicional.&lt;br /&gt;&lt;br /&gt;   &lt;br /&gt;&lt;br /&gt;  uma visão imersiva e impactante: &lt;br /&gt;&lt;br /&gt;  experimente a diferença com a tela curva r1500 de 30 polegadas, proporcionando uma experiência visual envolvente que eleva o entretenimento a um novo patamar. Cada detalhe ganha vida, tornando cada cena mais real e impactante.&lt;br /&gt;&lt;br /&gt;  &lt;br /&gt;&lt;br /&gt;  alto desempenho para jogos de elite: &lt;br /&gt;&lt;br /&gt;  seja o mestre do seu jogo com uma taxa de atualização incrível de 200hz e um tempo de resposta ultrarrápido de 1ms mprt. Não perca nenhum detalhe, capture cada movimento e aumente suas chances de vitória a cada jogada.&lt;br /&gt;&lt;br /&gt;  &lt;br /&gt;&lt;br /&gt;  chip dcr inteligente&lt;br /&gt;&lt;br /&gt;  o chip dcr inteligente no monitor lm30-e330ca oferece uma experiência visual avançada, ajustando-se dinamicamente para proporcionar contrastes vívidos, cores vibrantes e detalhes aprimorados. Essa tecnologia inovadora coloca a qualidade de imagem em um novo patamar, garantindo uma imersão visual excepcional em todas as suas atividades, desde jogos intensos até a visualização de conteúdo multimídia.&lt;br /&gt;&lt;br /&gt;  &lt;br /&gt;&lt;br /&gt;  tecnologia adaptive-sync&lt;br /&gt;&lt;br /&gt;  suavidade visual sem compromissos: &lt;br /&gt;&lt;br /&gt;  reduza a perda de qualidade de imagem e melhore a fluidez visual com a tecnologia adaptive-sync. Jogue sem interrupções, experimentando transições suaves e uma performance imbatível.&lt;br /&gt;&lt;br /&gt;  &lt;br /&gt;&lt;br /&gt;  proporção de tela 21:9&lt;br /&gt;&lt;br /&gt;  uma experiência imersiva como nunca antes: &lt;br /&gt;&lt;br /&gt;  com uma proporção de tela de 21:9, mergulhe em uma experiência cinematográfica enquanto joga ou assiste aos seus filmes favoritos. Cada momento se desenrola em um panorama espetacular.&lt;br /&gt;&lt;br /&gt;  &lt;br /&gt;&lt;br /&gt;  conectividade versátil para seu setup ideal:&lt;br /&gt;&lt;br /&gt;  equipado com portas displayport 1.2 x2 e hdmi x2, o lm30-e330ca oferece uma conectividade versátil para atender às suas necessidades de entretenimento e produtividade.&lt;br /&gt;&lt;br /&gt;  &lt;br /&gt;&lt;br /&gt;  flexibilidade de visualização &lt;br /&gt;&lt;br /&gt;  ajuste conforme sua preferência: &lt;br /&gt;&lt;br /&gt;  incline o monitor de -5° a +20° para encontrar o ângulo perfeito que se adapte ao seu espaço e estilo de vida. Para maior versatilidade, a furação vesa 75x75mm permite a montagem na parede.&lt;br /&gt;&lt;br /&gt;  &lt;br /&gt;&lt;br /&gt;  &lt;br /&gt;&lt;br /&gt;  &lt;br /&gt;&lt;br /&gt;  especificações:&lt;br /&gt;&lt;br /&gt;  &lt;br /&gt;&lt;br /&gt;  resolução&lt;br /&gt;&lt;br /&gt;  30  2560x1080 va&lt;br /&gt;&lt;br /&gt;  &lt;br /&gt;&lt;br /&gt;  curvatura&lt;br /&gt;&lt;br /&gt;  1500r&lt;br /&gt;&lt;br /&gt;  &lt;br /&gt;&lt;br /&gt;  taxa de atualização&lt;br /&gt;&lt;br /&gt;  200hz&lt;br /&gt;&lt;br /&gt;  &lt;br /&gt;&lt;br /&gt;  recursos&lt;br /&gt;&lt;br /&gt;  adaptive-sync&lt;br /&gt;&lt;br /&gt;  &lt;br /&gt;&lt;br /&gt;  interfaces/portas&lt;br /&gt;&lt;br /&gt;  displayport 1.2 x2, hdmi x2&lt;br /&gt;&lt;br /&gt;  &lt;br /&gt;&lt;br /&gt;  inclinação&lt;br /&gt;&lt;br /&gt;  -5°+/-2° - 20°+/-2&lt;br /&gt;&lt;br /&gt;  &lt;br /&gt;&lt;br /&gt;  ângulo de visão&lt;br /&gt;&lt;br /&gt;  178°(h)/178°(v)&lt;br /&gt;&lt;br /&gt;  &lt;br /&gt;&lt;br /&gt;  brilho&lt;br /&gt;&lt;br /&gt;  250 nits&lt;br /&gt;&lt;br /&gt;  &lt;br /&gt;&lt;br /&gt;  backlight&lt;br /&gt;&lt;br /&gt;  led&lt;br /&gt;&lt;br /&gt;  &lt;br /&gt;&lt;br /&gt;  tempo de resposta&lt;br /&gt;&lt;br /&gt;  mprt 1ms&lt;br /&gt;&lt;br /&gt;  &lt;br /&gt;&lt;br /&gt;  furação vesa&lt;br /&gt;&lt;br /&gt;  75x75mm&lt;br /&gt;&lt;br /&gt;  &lt;br /&gt;&lt;br /&gt;  imagens de caráter ilustrativo&lt;br /&gt;&lt;br /&gt;  &lt;br /&gt;&lt;br /&gt;  informações divulgadas de acordo com o manual do fabricante&lt;br /&gt;&lt;br /&gt;  &lt;br /&gt;&lt;br /&gt;  produto novo na caixa, lacrado com nf e garantia do fabricante de 3 anos.&lt;br /&gt;&lt;br /&gt;  &lt;br /&gt;&lt;br /&gt;  em caso de dúvidas sobre informações técnicas, utilização, limitações e manuseio do produto, verifique o manual do fabricante.&lt;br /&gt;&lt;br /&gt;  &lt;br /&gt;&lt;br /&gt;  nac012091&lt;br /&gt;&lt;br /&gt;  ean6923172579119</t>
-  </si>
-  <si>
-    <t>Monitor Gamer AOC Speed 23.8' IPS, Wide, 75 Hz, Full HD, 1ms, Adaptive Sync, VESA, HDMI/VGA - 24G2HE5</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Monitor Gamer AOC Speed 23,8&amp;acute; Monitor Gamer te d&amp;aacute; detalhes Jogue para valer com o monitor Speed 24, com uma taxa de atualiza&amp;ccedil;&amp;atilde;o que elimina a possibilidade de borr&amp;otilde;es na tela e Painel IPS que oferece cores mais fi&amp;eacute;is e &amp;oacute;timo &amp;acirc;ngulo de vis&amp;atilde;o. Desenvolvido para suportar todas as emo&amp;ccedil;&amp;otilde;es dos seus jogos, o incr&amp;iacute;vel tempo de resposta de 1ms oferece alta velocidade, defini&amp;ccedil;&amp;atilde;o e muita suavidade em todos os seus movimentos. Elimine a possibilidade de borr&amp;otilde;es e lags na tela e atinja todo o potencial em seus jogos com uma taxa de atualiza&amp;ccedil;&amp;atilde;o de 75Hz. Suas maratonas ser&amp;atilde;o livres de tremores, com uma suavidade surpreendente. Recursos centrados nos jogadores A tecnologia Adaptive Sync reduz cortes e repeti&amp;ccedil;&amp;otilde;es de imagens, que ocorrem devido a diferen&amp;ccedil;a entre quadros gr&amp;aacute;ficos e a taxa de atualiza&amp;ccedil;&amp;atilde;o do monitor. Assim, voc&amp;ecirc; vai experimentar movimentos fluidos e enxergar&amp;aacute; as cenas de uma forma muito mais pura. Aproveite as vantagens de ter um Painel IPS em seu monitor gamer e enxergue os inimigos mesmo em cenas com pouca ilumina&amp;ccedil;&amp;atilde;o. Essa avan&amp;ccedil;ada tecnologia oferece as melhores cores sem comprometer a velocidade, al&amp;eacute;m de entregar um &amp;oacute;timo &amp;acirc;ngulo de vis&amp;atilde;o para voc&amp;ecirc; curtir ainda mais seus jogos. Este diferencial controla os n&amp;iacute;veis de cinza no menu do monitor para melhorar a rela&amp;ccedil;&amp;atilde;o de contraste em telas escuras e proporcionar as melhores cenas, sempre. Melhore a precis&amp;atilde;o e a velocidade das suas jogadas com o recurso modo mira: uma mira vermelha posicionada no centro da tela para voc&amp;ecirc; se tornar o melhor atirador da partida. Garanta j&amp;aacute; seu Monitor Gamer AOC aqui no KaBuM!&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>Monitor Gamer Samsung Odyssey G6 Curvo 27 LED 2K QHD, 240 Hz, 1ms, HDMI e DisplayPort, HDR, FreeSync Premium - LS27BG650ELXZD</t>
-  </si>
-  <si>
-    <t>&lt;h2&gt;Monitor Gamer Curvo Samsung Odyssey 27", Plataforma Tizen, Resolu&amp;ccedil;&amp;atilde;o QHD e um Display HDR 600, Taxa de atualiza&amp;ccedil;&amp;atilde;o de 240 Hz com tempo de resposta de 1 ms e AMD FreeSync Premium Pro&lt;/h2&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h3&gt;Impulsione sua realidade com a resolu&amp;ccedil;&amp;atilde;o QHD&lt;/h3&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;Seu mundo dos jogos mais realista do que nunca. 1.7 vezes mais pixels do que uma tela Full HD, a resolu&amp;ccedil;&amp;atilde;o QHD apresenta imagens incrivelmente detalhadas. Experimente uma vis&amp;atilde;o mais completa com mais espa&amp;ccedil;o para todos os seus jogos.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h3&gt;Revele todos os detalhes ocultos com display HDR 600&lt;/h3&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;Revele todos os detalhes. DisplayHDR 600 proporciona mais contraste, com pretos mais profundos e brancos mais brilhantes para ajud&amp;aacute;-lo a descobrir inimigos ou segredos escondidos nas sombras. Mesmo em cenas escuras, cada detalhe brilha com clareza.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h3&gt;Reaja em tempo real - Taxa de atualiza&amp;ccedil;&amp;atilde;o de 240 Hz &amp;amp; tempo de resposta de 1ms&lt;/h3&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;Velocidade nas cenas. A taxa de atualiza&amp;ccedil;&amp;atilde;o de 240 Hz elimina o atraso para uma jogabilidade emocionante com a&amp;ccedil;&amp;atilde;o ultra-suave. Ataque os inimigos logo ao v&amp;ecirc;-los com um tempo de resposta de 1ms e quadros sem borr&amp;atilde;o.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h3&gt;Foco sem nunca quebrar o fluxo - FreeSync Premium Pro&lt;/h3&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;Jogabilidade sem esfor&amp;ccedil;o e suave. O AMD FreeSync Premium Pro apresenta tecnologia de sincroniza&amp;ccedil;&amp;atilde;o adaptativa que reduz o rasgo da tela, a quebra de imagem e a lat&amp;ecirc;ncia de entrada. A compensa&amp;ccedil;&amp;atilde;o de baixa taxa de quadros garante que cada cena flua sem problemas.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h3&gt;Onde os jogos se unem no Samsung Gaming Hub&lt;/h3&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;O melhor dos jogos, tudo em um s&amp;oacute; lugar. O Samsung Gaming Hub permite acesso instant&amp;acirc;neo aos melhores servi&amp;ccedil;os de jogos na nuvem, seus consoles favoritos e seu PC. Visuais suaves e jogabilidade responsiva s&amp;atilde;o alimentados pela avan&amp;ccedil;ada tecnologia de streaming de jogos sem downloads ou limites de armazenamento - basta ligar e jogar.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h3&gt;Seus shows favoritos em seu espa&amp;ccedil;o - Experi&amp;ecirc;ncia de Smart TV&lt;/h3&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;Fa&amp;ccedil;a uma pausa nas sess&amp;otilde;es de maratona de jogos e se atualize nas suas s&amp;eacute;ries favoritas, com apenas uma simples conex&amp;atilde;o Wi-Fi. A Samsung TV Plus oferece conte&amp;uacute;do ao vivo gratuito, sem downloads ou inscri&amp;ccedil;&amp;otilde;es, bem como recomenda&amp;ccedil;&amp;otilde;es de conte&amp;uacute;do personalizado do Guia Universal.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h3&gt;Extrapole seus sentidos - Curvatura de 1000R&lt;/h3&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;Seja envolvido pela a&amp;ccedil;&amp;atilde;o. Experimente o pr&amp;oacute;ximo n&amp;iacute;vel de jogo que &amp;eacute; superior a qualquer coisa que voc&amp;ecirc; j&amp;aacute; tenha visto antes. A tela 1000R preenche sua vis&amp;atilde;o perif&amp;eacute;rica e o coloca no lugar do personagem.&lt;/p&gt;</t>
+    <t>Monitor Gamer Lg Ultragear 27 Polegadas,FULL  HdD144hz 1ms Ips, HDMI e Displayport</t>
+  </si>
+  <si>
+    <t>Monitor gamer lg ultragear, 27 full hd 144hz 1ms ips hdmi e displayport hdr 10 99% srgb, freesync premium vesa - 27gn65r o monitor gamer lg ultragear 27gn65r é uma opção de alta performance desenvolvida para atender às demandas dos jogadores mais exigentes. Com uma tela de 27 polegadas em resolução full hd (1920 x 1080), esse monitor oferece uma experiência visual imersiva com imagens nítidas e detalhadas. A velocidade é uma das principais características desse monitor, com um tempo de resposta ultra-rápido de 1ms (gtg), o que significa que as transições de cores são praticamente instantâneas, eliminando o efeito de arrasto nas imagens durante os jogos mais rápidos e intensos. Além disso, a taxa de atualização de 144hz proporciona uma jogabilidade mais fluida, permitindo que os jogadores vejam o próximo quadro rapidamente e tenham uma experiência de jogo mais suave. O painel ips do monitor garante ângulos de visão amplos e cores vibrantes, com suporte para 99% do espaço de cores srgb e tecnologia hdr10. Isso resulta em imagens mais realistas e ricas em detalhes, criando uma experiência de visualização imersiva para jogos, filmes e conteúdos em geral. O monitor gamer lg ultragear 27gn65r também é compatível com a tecnologia amd freesync premium e nvidia g-sync, que ajudam a eliminar o screen tearing e o stuttering durante os jogos, sincronizando a taxa de atualização do monitor com a taxa de quadros da placa gráfica para uma jogabilidade mais suave e sem interrupções. O design eletrizante e moderno do monitor complementa perfeitamente o setup gamer, enquanto a compatibilidade vesa permite a instalação em suportes ou braços para maior versatilidade. Se você busca uma experiência de jogo de alta performance com imagens fluidas, cores vívidas e tempos de resposta rápidos, o monitor gamer lg ultragear 27gn65r é uma escolha excelente para elevar seu entretenimento e desempenho nos jogos.   especificações: - marca: lg - modelo: 27gn65r     características: tela: - cor: preto - tamanho: 27” - tipo de tela: ips - ângulo de visão: 178º / 178º - resolução máxima: full hd (1920 x 1080) - brilho: 300 cd/m² - contraste: 1000:01 - tempo de resposta: 1ms (gtg) - taxa de atualização: 144hz - gama de cores: srgb 99% (típ.) - profundidade de cores (nº de cores): 16,7m - distância entre pixels: 0,3108 x 0,3108 mm - tratamento de tela: antirreflexivo   entradas e saídas: - hdmi: sim (v2.0) - displayport: sim (v1.4) - saída de fone de ouvido: sim   energia: - consumo de energia: 32w (típ.) - fonte: adaptador externo   ajustes: - ajustes de posição: inclinação, altura, pivô - tamanho da furação: 100 x 100 mm   recursos: - hdr: hdr10 - flicker safe: sim - amd freesync: freesync premium - nvidia g-sync: sim - modo leitura: sim - onscreen control: sim - motion blur reduction: sim - crosshair: sim - dynamic action sync: sim - black stabilizer: sim - plug &amp; play: sim</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Acer Nitro, 34 curva Quad HD, 165Hz, 1ms, DisplayPort e HDMI, HDR400, FreeSync - XZ342CU</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Monitor Gamer Curvo Acer Nitro, 34"&lt;/h2&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;Tempo de resposta &lt;strong&gt;1ms&lt;/strong&gt; VRB Visual Response Boost com baixa lat&amp;ecirc;ncia 1 ms VRB com &lt;strong&gt;baixa lat&amp;ecirc;ncia sem ru&amp;iacute;dos&lt;/strong&gt; no tempo de resposta das imagens, melhora a experi&amp;ecirc;ncia do jogador. N&amp;atilde;o importa a a&amp;ccedil;&amp;atilde;o em movimento r&amp;aacute;pido ou quaisquer transi&amp;ccedil;&amp;otilde;es dram&amp;aacute;ticas, tudo ser&amp;aacute; reproduzido suavemente, sem os efeitos irritantes de manchas ou fantasmas.&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Tela Curva&lt;/h2&gt;
+&lt;p&gt;A&lt;strong&gt; tela curva 21:9&lt;/strong&gt; envolve voc&amp;ecirc; em um mundo de entretenimento com todos os cantos da tela &amp;agrave; mesma dist&amp;acirc;ncia de seus olhos para uma experi&amp;ecirc;ncia de visualiza&amp;ccedil;&amp;atilde;o uniforme sem pontos cegos.&lt;/p&gt;
+&lt;p&gt;Taxa de atualiza&amp;ccedil;&amp;atilde;o de at&amp;eacute; &lt;strong&gt;165 Hz&lt;/strong&gt; (modo overclock utilizando DisplayPort) A taxa de atualiza&amp;ccedil;&amp;atilde;o de at&amp;eacute; 165Hz acelera os quadros por segundo para fornecer cenas de movimento ultrassuaves. Com uma taxa de atualiza&amp;ccedil;&amp;atilde;o r&amp;aacute;pida de at&amp;eacute; 165Hz, os Monitores Acer reduzem o tempo necess&amp;aacute;rio para renderiza&amp;ccedil;&amp;atilde;o de quadros, menor atraso de entrada e proporcionam aos jogadores uma excelente experi&amp;ecirc;ncia no jogo.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Tela Curva&lt;/h2&gt;
+&lt;p&gt;A tela curva 21:9 envolve voc&amp;ecirc; em um mundo de entretenimento com todos os cantos da tela &amp;agrave; mesma dist&amp;acirc;ncia de seus olhos para uma experi&amp;ecirc;ncia de visualiza&amp;ccedil;&amp;atilde;o uniforme sem pontos cegos.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Picture in Picture&lt;/h2&gt;
+&lt;p&gt;A&lt;strong&gt; fun&amp;ccedil;&amp;atilde;o PIP (Picture in Picture)&lt;/strong&gt; separa a tela em duas partes, mostrando dois conte&amp;uacute;dos distintos, por&amp;eacute;m vindos de um &amp;uacute;nico dispositivo de origem.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h3&gt;Compre agora no KaBuM!&lt;/h3&gt;</t>
   </si>
   <si>
     <t>Monitor LG Ergo DualUp 28 SDQHD, 60Hz, Nano IPS, HDMI e USB-C, HDR 10, Ajuste de Altura, Som Integrado, VESA, PBP  - 28MQ780</t>
@@ -932,6 +953,45 @@
 &lt;h3&gt;Compre agora no KaBuM!&lt;/h3&gt;</t>
   </si>
   <si>
+    <t>Monitor Gamer Concordia PCFort 27 LED Full HD, 165Hz, 1ms, HDMI e DisplayPort, DVI, FreeSync, Ajuste de Ângulo - T2701</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Monitor Gamer Concordia PCFort 27 LED Full HD&lt;/h2&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;O mais novo Monitor Gamer PCFort T2701-165 &amp;eacute; a melhor escolha para seus games!&lt;/h2&gt;
+&lt;p&gt;Com taxa de atualiza&amp;ccedil;&amp;atilde;o de &lt;strong&gt;165Hz&lt;/strong&gt; e tempo de resposta de 1ms, tudo isso em uma incr&amp;iacute;vel tela de &lt;strong&gt;27&amp;rdquo;&lt;/strong&gt;, resolu&amp;ccedil;&amp;atilde;o &lt;strong&gt;FullHD de 1920x1080&lt;/strong&gt;, com painel VA e &lt;strong&gt;tecnologia FreeSync&lt;/strong&gt; para entregar imagens sincronizadas e com excelente qualidade.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;O Monitor Gamer PCFort T2701-165 &amp;eacute; preparado para atender todas as suas necessidades, podendo ser utilizado com sua base ou em suportes devido a possuir &lt;strong&gt;VESA 75mm&lt;/strong&gt;, al&amp;eacute;m disto para tornar o monitor ainda mais completo, o mesmo possui conex&amp;atilde;o &lt;strong&gt;HDMI, DISPLAYPORT, DVI&lt;/strong&gt; e conex&amp;atilde;o para fones.&lt;/p&gt;
+&lt;p&gt;Com a sua sa&amp;iacute;da de &amp;aacute;udio o monitor se torna perfeito para uso em video-games al&amp;eacute;m de facilitar o uso em desktops.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h3&gt;Compre agora no KaBuM!&lt;/h3&gt;</t>
+  </si>
+  <si>
+    <t>Monitor Gamer BenQ Zowie XL2566K 24.5 Full HD, 360Hz, 1ms, HDMI e DisplayPort, Tecnologia DyAc - 9H.LKRLB.QBL</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Monitor Gamer BenQ Zowie XL2566K 24.5&lt;/h2&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;O XL2566K &amp;eacute; o modelo topo de linha que oferece aos jogadores competitivos uma &lt;strong&gt;suavidade otimizada&lt;/strong&gt; e uma &lt;strong&gt;resposta r&amp;aacute;pida&lt;/strong&gt;, bem como muitos recursos personaliz&amp;aacute;veis que ajudar&amp;atilde;o f&amp;atilde;s e profissionais a atingir o m&amp;aacute;ximo de suas capacidades. Com a &lt;strong&gt;tecnologia exclusiva DyAc&lt;/strong&gt;, al&amp;eacute;m de uma taxa de atualiza&amp;ccedil;&amp;atilde;o de &lt;strong&gt;360 Hz&lt;/strong&gt; em um painel TN, o XL2566K oferece uma clareza de movimento geral mais clara do que as ofertas de mercado em sua classe.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Claridade de Movimento&lt;/h2&gt;
+&lt;p&gt;O DyAc no XL2566K torna as a&amp;ccedil;&amp;otilde;es vigorosas no jogo, como movimenta&amp;ccedil;&amp;atilde;o mais claras. A clareza ajuda os jogadores a ver a posi&amp;ccedil;&amp;atilde;o do inimigo durante os movimentos r&amp;aacute;pidos ou objetivos que se movem rapidamente com mais facilidade e a notar a trajet&amp;oacute;ria da bala com melhor clareza, o que pode ajudar com o controle do recuo e da mira.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h3&gt;Compre agora no KaBuM!&lt;/h3&gt;</t>
+  </si>
+  <si>
+    <t>Monitor Gamer LG 27 polegadas Full HD, 240Hz, 1ms, IPS, DisplayPort, HDMI, USB, HDR10, Freesync, sRGB - 27GN750-B.AWZ</t>
+  </si>
+  <si>
+    <t>Monitor Gamer LG 27 UltraGear Full HD 240Hz 1ms HDMI DP IPS HDR10 Freesync - 27GN750-B.AWZ&lt;br /&gt;&lt;br /&gt;  ATENÇÃO: o produto não se trata de um monitor curvo e sim, de um monitor plano, com as mesmas especificações.&lt;br /&gt;&lt;br /&gt;Garanta a vitória com o novo Monitor Gamer LG UltraGear 27GN750. Tenha uma imersão de tirar o fôlego em uma tela IPS com tempo de resposta de 1ms única e 240Hz de frequência.  &lt;br /&gt;&lt;br /&gt;TEMPO DE RESPOSTA SURPREENDENTE&lt;br /&gt;Conheça a supreendente tela IPS com 1ms (GTG), com a velocidade máxima do monitor vença seus inimigos facilmente.  &lt;br /&gt;&lt;br /&gt;SEUS JOGOS COM MOVIMENTAÇÃO FLUIDA&lt;br /&gt;Os frames são renderizados perfeitamente, permitindo a jogabilidade suave e fluidez visual surreal. Os jogadores conseguem ver até mesmo os objetos com movimento nitidamente no meio da ação, garantido a ação perfeita e na hora exata.&lt;br /&gt;&lt;br /&gt;ALTA PERFOMANCE E QUALIDADE DE CORES SUPERIOR&lt;br /&gt;A tela IPS com 99 de gama de cores sRGB proporciona uma incrível precisão de cores e um ângulo de visualização muito mais amplo, criando cores com alta fidelidade e cenas mais realistas no campo de batalha e em seus filmes.  &lt;br /&gt;&lt;br /&gt;COMPATÍVEL COM NVIDIA G-SYNC&lt;br /&gt;O monitor LG UltraGear 27GN750 foi testado pela NVIDIA e recebe a compatibilidae com G-Sync, que permite uma jogabilidade mais rápida e suave, balanceada com o processamento da sua placa de vídeo NVIDIA, acabando com as imagens embaçadas e frames travados.&lt;br /&gt;  &lt;br /&gt;BLACK STABILIZER&lt;br /&gt;Com o Black Stabilizer, ataque ou se defenda dos seus inimigos nos esconderijos escuros. Ele permite uma experiência de jogo com nitidez melhorada nos locais escuros e também em situações com alta luminosidade como uma flashbang.</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Curvo Samsung Odyssey 34 Polegadas ultra WQHD, 165Hz, 1ms, HDMI, DP, Freesync, G5</t>
+  </si>
+  <si>
+    <t>A abrangente tela 1000R preenche toda a sua visão periférica e te coloca no lugar do personagem. A resolução Ultra-WQHD proporciona uma visão vasta e abrangente do mundo dos seus jogos com detalhes verdadeiramente realistas. O amplo tamanho da tela oferece pura imersão - eliminando a distração de bordas no meio e cabos bagunçados de um setup com dois monitores.A taxa de atualização ultra-rápida de 165Hz consegue lidar até mesmo com as cenas mais emocionantes e imagens super rápidas. AMD FreesSync Premium apresenta uma tecnologia de sincronização adaptável que reduz o travamento de tela, oscilação e atrasos. Um caleidoscópio de tonalidades dá vida às cenas dos seus jogos de forma mais vibrante do que nunca. Revele os segredos que se escondem nas sombras com pretos profundamente escuros, brancos luminosos e uma resolução incrivelmente detalhada.</t>
+  </si>
+  <si>
     <t>Monitor Gamer Samsung Odyssey 49 QLED, 120 Hz, Ultra Wide, DQHD, HDMI/DisplayPort, 125% sRGB, HDR 1000, Ajuste de Ângulo - LC49RG90SSLXZD</t>
   </si>
   <si>
@@ -944,6 +1004,38 @@
 &lt;p&gt;Jogabilidade f&amp;aacute;cil e sem esfor&amp;ccedil;o. AMD FreeSync Premium apresenta tecnologia de sincroniza&amp;ccedil;&amp;atilde;o adaptativa que reduz atraso da tela, rasgos de imagem e a lat&amp;ecirc;ncia de entrada, assegurando assim que cada cena flua sem interrup&amp;ccedil;&amp;otilde;es. A r&amp;aacute;pida taxa de atualiza&amp;ccedil;&amp;atilde;o da tela de 120Hz minimiza o atraso da imagem e o desfoque do movimento para um jogo mais suave. As configura&amp;ccedil;&amp;otilde;es de 60 Hz de f&amp;aacute;cil utiliza&amp;ccedil;&amp;atilde;o permitem otimizar rapidamente o desempenho atrav&amp;eacute;s do display na tela sem ter que acessar o menu de configura&amp;ccedil;&amp;atilde;o do display.&lt;/p&gt;
 &lt;p&gt;&amp;nbsp;&lt;/p&gt;
 &lt;p&gt;O monitor otimizado para jogos &amp;eacute; projetado para permitir que voc&amp;ecirc; jogue para vencer. Ative o Modo de Jogo para ajustar instantaneamente as configura&amp;ccedil;&amp;otilde;es de contraste e cor para qualquer g&amp;ecirc;nero de jogo, mude para o Modo Low Input Lag para tempos de resposta ainda mais r&amp;aacute;pidos e mire seus inimigos com mais precis&amp;atilde;o com o Virtual Aim Point na mira da tela.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Acer Nitro 31.5p Curvo, Full HD, 165Hz - Ed320qr S3biipx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;b&gt;Monitor Gamer Acer Nitro Ed0 31,5" Led 165hz 1ms Hdmi Vesa Displayport Preto - Um.Je0aa.302&lt;/b&gt;  &lt;br /&gt;&lt;br /&gt;O monitor gamer acer 31,5" led é uma escolha excepcional para entusiastas de jogos que buscam uma experiência imersiva e reativa. Com um tamanho generoso de 31,5 polegadas e um raio de visualização de 1500mm, este monitor curvo da série nitro ed320qr s3biipx oferece uma tela envolvente, proporcionando uma verdadeira sensação de imersão em seus jogos favoritos. Com uma resolução máxima de full hd 1920 x 1080 e uma taxa de atualização de impressionantes 165hz, este monitor garante uma reprodução de imagem suave e sem interrupções, permitindo que você aproveite jogos intensos com movimentos rápidos. O tempo de resposta de 1 ms vrb (visual response boost) elimina o desfoque de movimento, garantindo que cada ação seja representada com precisão na tela. Além de seu desempenho impressionante, o monitor apresenta um design elegante com uma moldura zero frame, proporcionando uma experiência de visualização sem distrações. Com uma tela antirreflexa e um amplo ângulo de visão de 178° tanto na horizontal quanto na vertical, você pode desfrutar de imagens nítidas e claras de praticamente qualquer posição. Este monitor é equipado com várias opções de conectividade, incluindo 2x portas hdmi (2.0), 1x porta displayport (1.2), além de uma saída de áudio e entrada de alimentação. A montagem vesa de 100 x 100 mm oferece a flexibilidade de montar o monitor na parede, liberando espaço em sua mesa. Embora não tenha ajuste de altura, pivô ou rotação, o monitor pode ser inclinado de -5° a aproximadamente 20° para encontrar o ângulo de visão ideal para sua configuração. Com seu desempenho robusto, taxa de atualização incrivelmente rápida e design elegante, o monitor gamer acer 31,5" led é uma escolha excelente para gamers que buscam qualidade e inclusão em um único pacote.       </t>
+  </si>
+  <si>
+    <t>Monitor Gamer Gigabyte 31.5 LED 4K UHD Curvo, 144Hz, 1ms, HDR, HDMI e DisplayPort, 123% sRGB, FreeSync Premium, VESA - M32UC-SA</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Monitor Gamer Gigabyte 31.5&lt;/h2&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;UHD com 144Hz (OC 160HZ - DP)&lt;/h2&gt;
+&lt;p&gt;Alta resolu&amp;ccedil;&amp;atilde;o e &lt;strong&gt;taxa&lt;/strong&gt; &lt;strong&gt;de atualiza&amp;ccedil;&amp;atilde;o r&amp;aacute;pida&lt;/strong&gt;, oferecendo qualidade de exibi&amp;ccedil;&amp;atilde;o detalhada e experi&amp;ecirc;ncia de jogo fluida!&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Tempo de resposta de 1ms&lt;/h2&gt;
+&lt;p&gt;A tecnologia &lt;strong&gt;SuperSpeed&lt;/strong&gt; &lt;strong&gt;VA&lt;/strong&gt; reduz o tempo de resposta para 1ms MPRT/2ms GTG para a experi&amp;ecirc;ncia de jogo mais suave de sempre!&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Aim Stabilizer&lt;/h2&gt;
+&lt;p&gt;Esse recurso reduzir&amp;aacute; o desfoque de movimento para que voc&amp;ecirc; tenha uma melhor &lt;strong&gt;clareza&lt;/strong&gt; &lt;strong&gt;visual&lt;/strong&gt;.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h3&gt;Compre agora no KaBuM!&lt;/h3&gt;</t>
+  </si>
+  <si>
+    <t>Monitor Gamer 34 Polegadas, 180hz Curvo, Wqhd HDMI/dp</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Samsung Odyssey G40 25” Preto Ls25bg400elxzd, FHD, 240 Hz, 1ms, Com Ajuste De Altura, Hdmi, Dp, Gsync, Freesync</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Samsung Odyssey G40 25´´ Preto LS25BG400ELXZD&lt;br /&gt;Agora você pode ver os jogos como nunca antes. O painel IPS oferece cores claras e um amplo ângulo de visão de 178º para maior clareza a partir de qualquer posição. Com mais pixels e maior profundidade, os jogos estão mais próximos da realidade do que nunca. 240Hz de taxa de atualização &amp; 1ms de tempo de resposta. Velocidade nas cenas. A taxa de atualização de 240Hz elimina o atraso para uma jogabilidade emocionante com ação ultra-suave. Ataque os inimigos assim que os vê-los com um tempo de resposta de 1ms e quadros sem borrão.</t>
   </si>
   <si>
     <t>Monitor Gamer Asus TUF 23.8 LED Full HD, 1ms, 165 Hz, FreeSync Premium, HDMI/DisplayPort, Som Integrado, Extreme Low Motion Blue - VG247Q1A</t>
@@ -967,77 +1059,6 @@
 &lt;h3&gt;&lt;br /&gt;&lt;a href="https://www.kabum.com.br/computadores/monitores/gamers"&gt;Monitor Gamer&lt;/a&gt;&amp;nbsp;&amp;eacute; no KaBuM!&lt;/h3&gt;</t>
   </si>
   <si>
-    <t>Monitor Gamer Acer Nitro 31.5p Curvo, Full HD, 165Hz - Ed320qr S3biipx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;b&gt;Monitor Gamer Acer Nitro Ed0 31,5" Led 165hz 1ms Hdmi Vesa Displayport Preto - Um.Je0aa.302&lt;/b&gt;  &lt;br /&gt;&lt;br /&gt;O monitor gamer acer 31,5" led é uma escolha excepcional para entusiastas de jogos que buscam uma experiência imersiva e reativa. Com um tamanho generoso de 31,5 polegadas e um raio de visualização de 1500mm, este monitor curvo da série nitro ed320qr s3biipx oferece uma tela envolvente, proporcionando uma verdadeira sensação de imersão em seus jogos favoritos. Com uma resolução máxima de full hd 1920 x 1080 e uma taxa de atualização de impressionantes 165hz, este monitor garante uma reprodução de imagem suave e sem interrupções, permitindo que você aproveite jogos intensos com movimentos rápidos. O tempo de resposta de 1 ms vrb (visual response boost) elimina o desfoque de movimento, garantindo que cada ação seja representada com precisão na tela. Além de seu desempenho impressionante, o monitor apresenta um design elegante com uma moldura zero frame, proporcionando uma experiência de visualização sem distrações. Com uma tela antirreflexa e um amplo ângulo de visão de 178° tanto na horizontal quanto na vertical, você pode desfrutar de imagens nítidas e claras de praticamente qualquer posição. Este monitor é equipado com várias opções de conectividade, incluindo 2x portas hdmi (2.0), 1x porta displayport (1.2), além de uma saída de áudio e entrada de alimentação. A montagem vesa de 100 x 100 mm oferece a flexibilidade de montar o monitor na parede, liberando espaço em sua mesa. Embora não tenha ajuste de altura, pivô ou rotação, o monitor pode ser inclinado de -5° a aproximadamente 20° para encontrar o ângulo de visão ideal para sua configuração. Com seu desempenho robusto, taxa de atualização incrivelmente rápida e design elegante, o monitor gamer acer 31,5" led é uma escolha excelente para gamers que buscam qualidade e inclusão em um único pacote.       </t>
-  </si>
-  <si>
-    <t>Monitor Gamer Acer Nitro, 34 curva Quad HD, 165Hz, 1ms, DisplayPort e HDMI, HDR400, FreeSync - XZ342CU</t>
-  </si>
-  <si>
-    <t>&lt;h2&gt;Monitor Gamer Curvo Acer Nitro, 34"&lt;/h2&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;Tempo de resposta &lt;strong&gt;1ms&lt;/strong&gt; VRB Visual Response Boost com baixa lat&amp;ecirc;ncia 1 ms VRB com &lt;strong&gt;baixa lat&amp;ecirc;ncia sem ru&amp;iacute;dos&lt;/strong&gt; no tempo de resposta das imagens, melhora a experi&amp;ecirc;ncia do jogador. N&amp;atilde;o importa a a&amp;ccedil;&amp;atilde;o em movimento r&amp;aacute;pido ou quaisquer transi&amp;ccedil;&amp;otilde;es dram&amp;aacute;ticas, tudo ser&amp;aacute; reproduzido suavemente, sem os efeitos irritantes de manchas ou fantasmas.&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h2&gt;Tela Curva&lt;/h2&gt;
-&lt;p&gt;A&lt;strong&gt; tela curva 21:9&lt;/strong&gt; envolve voc&amp;ecirc; em um mundo de entretenimento com todos os cantos da tela &amp;agrave; mesma dist&amp;acirc;ncia de seus olhos para uma experi&amp;ecirc;ncia de visualiza&amp;ccedil;&amp;atilde;o uniforme sem pontos cegos.&lt;/p&gt;
-&lt;p&gt;Taxa de atualiza&amp;ccedil;&amp;atilde;o de at&amp;eacute; &lt;strong&gt;165 Hz&lt;/strong&gt; (modo overclock utilizando DisplayPort) A taxa de atualiza&amp;ccedil;&amp;atilde;o de at&amp;eacute; 165Hz acelera os quadros por segundo para fornecer cenas de movimento ultrassuaves. Com uma taxa de atualiza&amp;ccedil;&amp;atilde;o r&amp;aacute;pida de at&amp;eacute; 165Hz, os Monitores Acer reduzem o tempo necess&amp;aacute;rio para renderiza&amp;ccedil;&amp;atilde;o de quadros, menor atraso de entrada e proporcionam aos jogadores uma excelente experi&amp;ecirc;ncia no jogo.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h2&gt;Tela Curva&lt;/h2&gt;
-&lt;p&gt;A tela curva 21:9 envolve voc&amp;ecirc; em um mundo de entretenimento com todos os cantos da tela &amp;agrave; mesma dist&amp;acirc;ncia de seus olhos para uma experi&amp;ecirc;ncia de visualiza&amp;ccedil;&amp;atilde;o uniforme sem pontos cegos.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h2&gt;Picture in Picture&lt;/h2&gt;
-&lt;p&gt;A&lt;strong&gt; fun&amp;ccedil;&amp;atilde;o PIP (Picture in Picture)&lt;/strong&gt; separa a tela em duas partes, mostrando dois conte&amp;uacute;dos distintos, por&amp;eacute;m vindos de um &amp;uacute;nico dispositivo de origem.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h3&gt;Compre agora no KaBuM!&lt;/h3&gt;</t>
-  </si>
-  <si>
-    <t>Monitor Gamer Concordia PCFort 27 LED Full HD, 165Hz, 1ms, HDMI e DisplayPort, DVI, FreeSync, Ajuste de Ângulo - T2701</t>
-  </si>
-  <si>
-    <t>&lt;h2&gt;Monitor Gamer Concordia PCFort 27 LED Full HD&lt;/h2&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h2&gt;O mais novo Monitor Gamer PCFort T2701-165 &amp;eacute; a melhor escolha para seus games!&lt;/h2&gt;
-&lt;p&gt;Com taxa de atualiza&amp;ccedil;&amp;atilde;o de &lt;strong&gt;165Hz&lt;/strong&gt; e tempo de resposta de 1ms, tudo isso em uma incr&amp;iacute;vel tela de &lt;strong&gt;27&amp;rdquo;&lt;/strong&gt;, resolu&amp;ccedil;&amp;atilde;o &lt;strong&gt;FullHD de 1920x1080&lt;/strong&gt;, com painel VA e &lt;strong&gt;tecnologia FreeSync&lt;/strong&gt; para entregar imagens sincronizadas e com excelente qualidade.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;O Monitor Gamer PCFort T2701-165 &amp;eacute; preparado para atender todas as suas necessidades, podendo ser utilizado com sua base ou em suportes devido a possuir &lt;strong&gt;VESA 75mm&lt;/strong&gt;, al&amp;eacute;m disto para tornar o monitor ainda mais completo, o mesmo possui conex&amp;atilde;o &lt;strong&gt;HDMI, DISPLAYPORT, DVI&lt;/strong&gt; e conex&amp;atilde;o para fones.&lt;/p&gt;
-&lt;p&gt;Com a sua sa&amp;iacute;da de &amp;aacute;udio o monitor se torna perfeito para uso em video-games al&amp;eacute;m de facilitar o uso em desktops.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h3&gt;Compre agora no KaBuM!&lt;/h3&gt;</t>
-  </si>
-  <si>
-    <t>Monitor Gamer BenQ Zowie XL2566K 24.5 Full HD, 360Hz, 1ms, HDMI e DisplayPort, Tecnologia DyAc - 9H.LKRLB.QBL</t>
-  </si>
-  <si>
-    <t>&lt;h2&gt;Monitor Gamer BenQ Zowie XL2566K 24.5&lt;/h2&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;O XL2566K &amp;eacute; o modelo topo de linha que oferece aos jogadores competitivos uma &lt;strong&gt;suavidade otimizada&lt;/strong&gt; e uma &lt;strong&gt;resposta r&amp;aacute;pida&lt;/strong&gt;, bem como muitos recursos personaliz&amp;aacute;veis que ajudar&amp;atilde;o f&amp;atilde;s e profissionais a atingir o m&amp;aacute;ximo de suas capacidades. Com a &lt;strong&gt;tecnologia exclusiva DyAc&lt;/strong&gt;, al&amp;eacute;m de uma taxa de atualiza&amp;ccedil;&amp;atilde;o de &lt;strong&gt;360 Hz&lt;/strong&gt; em um painel TN, o XL2566K oferece uma clareza de movimento geral mais clara do que as ofertas de mercado em sua classe.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h2&gt;Claridade de Movimento&lt;/h2&gt;
-&lt;p&gt;O DyAc no XL2566K torna as a&amp;ccedil;&amp;otilde;es vigorosas no jogo, como movimenta&amp;ccedil;&amp;atilde;o mais claras. A clareza ajuda os jogadores a ver a posi&amp;ccedil;&amp;atilde;o do inimigo durante os movimentos r&amp;aacute;pidos ou objetivos que se movem rapidamente com mais facilidade e a notar a trajet&amp;oacute;ria da bala com melhor clareza, o que pode ajudar com o controle do recuo e da mira.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h3&gt;Compre agora no KaBuM!&lt;/h3&gt;</t>
-  </si>
-  <si>
-    <t>Monitor Gamer LG 27 polegadas Full HD, 240Hz, 1ms, IPS, DisplayPort, HDMI, USB, HDR10, Freesync, sRGB - 27GN750-B.AWZ</t>
-  </si>
-  <si>
-    <t>Monitor Gamer LG 27 UltraGear Full HD 240Hz 1ms HDMI DP IPS HDR10 Freesync - 27GN750-B.AWZ&lt;br /&gt;&lt;br /&gt;  ATENÇÃO: o produto não se trata de um monitor curvo e sim, de um monitor plano, com as mesmas especificações.&lt;br /&gt;&lt;br /&gt;Garanta a vitória com o novo Monitor Gamer LG UltraGear 27GN750. Tenha uma imersão de tirar o fôlego em uma tela IPS com tempo de resposta de 1ms única e 240Hz de frequência.  &lt;br /&gt;&lt;br /&gt;TEMPO DE RESPOSTA SURPREENDENTE&lt;br /&gt;Conheça a supreendente tela IPS com 1ms (GTG), com a velocidade máxima do monitor vença seus inimigos facilmente.  &lt;br /&gt;&lt;br /&gt;SEUS JOGOS COM MOVIMENTAÇÃO FLUIDA&lt;br /&gt;Os frames são renderizados perfeitamente, permitindo a jogabilidade suave e fluidez visual surreal. Os jogadores conseguem ver até mesmo os objetos com movimento nitidamente no meio da ação, garantido a ação perfeita e na hora exata.&lt;br /&gt;&lt;br /&gt;ALTA PERFOMANCE E QUALIDADE DE CORES SUPERIOR&lt;br /&gt;A tela IPS com 99 de gama de cores sRGB proporciona uma incrível precisão de cores e um ângulo de visualização muito mais amplo, criando cores com alta fidelidade e cenas mais realistas no campo de batalha e em seus filmes.  &lt;br /&gt;&lt;br /&gt;COMPATÍVEL COM NVIDIA G-SYNC&lt;br /&gt;O monitor LG UltraGear 27GN750 foi testado pela NVIDIA e recebe a compatibilidae com G-Sync, que permite uma jogabilidade mais rápida e suave, balanceada com o processamento da sua placa de vídeo NVIDIA, acabando com as imagens embaçadas e frames travados.&lt;br /&gt;  &lt;br /&gt;BLACK STABILIZER&lt;br /&gt;Com o Black Stabilizer, ataque ou se defenda dos seus inimigos nos esconderijos escuros. Ele permite uma experiência de jogo com nitidez melhorada nos locais escuros e também em situações com alta luminosidade como uma flashbang.</t>
-  </si>
-  <si>
-    <t>Monitor Gamer Redragon Aquamarine 27 Polegadas, Full HD, 165hz, 1ms, HDMI e DisplayPort, FreeSync - GM27H2G</t>
-  </si>
-  <si>
-    <t>Monitor Gamer Redragon Aquamarine Full HD 27" 165Hz 1ms - GM27H2G&lt;br /&gt;&lt;br /&gt;Características:&lt;br /&gt;- Marca: Redragon&lt;br /&gt;- Modelo: GM27H2G&lt;br /&gt;&lt;br /&gt;Especificações:&lt;br /&gt;- Tamanho da Tela: 27"&lt;br /&gt;- Tipo de Tela: VA &lt;br /&gt;- Contraste: 4000:1&lt;br /&gt;- Resolução: Full HD 1920 x 1080&lt;br /&gt;- Proporção da Tela: 16:9 (Widescreen)&lt;br /&gt;- Tempo de Resposta: 1ms&lt;br /&gt;- Taxa de Atualização: 165Hz&lt;br /&gt;- Voltagem: Bivolt Automático&lt;br /&gt;- Ângulo de Visão Horizontal: 178°&lt;br /&gt;- Ângulo de Visão Vertical: 178°&lt;br /&gt;&lt;br /&gt;Entradas:&lt;br /&gt;- HDMI&lt;br /&gt;- Display Port&lt;br /&gt;- Audio&lt;br /&gt;- USB&lt;br /&gt;&lt;br /&gt;Informações Ambientais:&lt;br /&gt;- Temperatura de Operação: 0°C ~ 40°C&lt;br /&gt;- Umidade Relativa de Operação: 10% ~ 90% (Não condensado)&lt;br /&gt;&lt;br /&gt;Informações Adicionais:&lt;br /&gt;- Adaptive-SYNC09:59 13/10/2022&lt;br /&gt;- Modo Game&lt;br /&gt;- EyeSaver&lt;br /&gt;- Luz Ambiente&lt;br /&gt;&lt;br /&gt;Conteúdo da Embalagem:&lt;br /&gt;- Monitor Gamer Redragon Aquamarine 27" 165Hz - GM27H2G&lt;br /&gt;- Fonte de Alimentação Bivolt&lt;br /&gt;- Cabo Display Port&lt;br /&gt;- Manual&lt;br /&gt;&lt;br /&gt;Obs: Não possuí alto-falantes</t>
-  </si>
-  <si>
-    <t>Monitor Gamer Samsung With Quantum, DqHD Mini-led, 49 Polegadas - ls49ag950nlxzd</t>
-  </si>
-  <si>
-    <t>Aclamado pela crítica gamer“o visor quantum mini led no Samsung odyssey neo g9 é de longe um dos melhores que eu já vi em um monitor de jogos até hoje” - techaeris.aclamado pela crítica. Premiado. Reconhecido mundialmente. Inovação mundial em jogos aperfeiçoada pelo Samsung odyssey neo g9. Veja do que se trata o burburinho.uma nova era de imersão. Tecnologia quantum matrixuma experiência visual inigualável. a revolucionária tecnologia quantum matrix com quantum mini leds cria um brilho controlado e contraste perfeito para uma definição refinada. As zonas locais de escurecimento foram aumentadas para 2.048 e combinadas com os mais altos níveis de preto de 12 bits para criar uma qualidade de imagem única. Veja os detalhes, derrote seus inimigos quantum HDR 2000veja cada detalhe em toda a sua glória. De sombras a cenas esculpidas pelo sol, 2.000 nits de brilho e relação de contraste de 1.000.000:1 permitem uma melhor expressão de cores e profundidade. Obtenha uma vantagem competitiva enquanto joga jogos de Ray Tracing ao detectar inimigos ocultos usando seus reflexos. Double qhdo mundo do jogo de sua imaginação se tornou real. A tela de 49 polegadas com resolução dqHD traz uma tela tão ampla quanto dois monitores qHD lado a lado, com imagens incrivelmente detalhadas. Experimente uma visão abrangente com o máximo de espaço para realizar toda a ação.</t>
-  </si>
-  <si>
     <t>Monitor Gamer Philco 27 LED, Curvo R1800, 165 Hz, Full HD, 1ms, FreeSync, HDR 10, HDMI/DisplayPort - PMG27C900FG</t>
   </si>
   <si>
@@ -1061,10 +1082,58 @@
 &lt;h3&gt;Aproveite essa oportunidade e adquira seu Monitor Gamer Curvo no KaBuM!&lt;/h3&gt;</t>
   </si>
   <si>
-    <t>Monitor Gamer Samsung Odyssey G40 25” Preto Ls25bg400elxzd, FHD, 240 Hz, 1ms, Com Ajuste De Altura, Hdmi, Dp, Gsync, Freesync</t>
-  </si>
-  <si>
-    <t>Monitor Gamer Samsung Odyssey G40 25´´ Preto LS25BG400ELXZD&lt;br /&gt;Agora você pode ver os jogos como nunca antes. O painel IPS oferece cores claras e um amplo ângulo de visão de 178º para maior clareza a partir de qualquer posição. Com mais pixels e maior profundidade, os jogos estão mais próximos da realidade do que nunca. 240Hz de taxa de atualização &amp; 1ms de tempo de resposta. Velocidade nas cenas. A taxa de atualização de 240Hz elimina o atraso para uma jogabilidade emocionante com ação ultra-suave. Ataque os inimigos assim que os vê-los com um tempo de resposta de 1ms e quadros sem borrão.</t>
+    <t>Monitor gamer Corsair Xeneon 32" UHD IPS, 144Hz, 1ms, DisplayPort e HDMI, HDR, FreeSync Premium, Sincronização adaptável - CM-902003-NA</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Monitor gamer Corsair Xeneon&lt;/h2&gt;
+&lt;p&gt;O CORSAIR XENEON 32UHD144 d&amp;aacute; vida aos seus jogos e multim&amp;eacute;dia no seu vibrante e ultrafino monitor 4K UHD de 32 pol. (&lt;strong&gt;3840 x 2160&lt;/strong&gt;) com tecnologia &lt;strong&gt;LED IPS.&lt;/strong&gt; A taxa de atualiza&amp;ccedil;&amp;atilde;o de &lt;strong&gt;144 Hz&lt;/strong&gt; diminui a desfocagem de movimentos e assegura que &amp;eacute; poss&amp;iacute;vel visualizar cada fotograma produzido pelo PC. Al&amp;eacute;m disso, a compatibilidade com as tecnologias &lt;strong&gt;NVIDIA G-SYNC e o AMD FreeSync Premium&lt;/strong&gt; fornecem imagens suaves e sem artefactos. Desfrute de colorimetrias sRGB e Adobe RGB de 100% e com alto contraste, gra&amp;ccedil;as &amp;agrave; tecnologia Quantum Dot e ao suporte para HDR600. Com um suporte premium em alum&amp;iacute;nio fundido e v&amp;aacute;rias op&amp;ccedil;&amp;otilde;es de conex&amp;atilde;o que incluem &lt;strong&gt;USB Tipo C&lt;/strong&gt;, 2&lt;strong&gt;x HDMI 2.1&lt;/strong&gt;, &lt;strong&gt;1x DisplayPort 1.4&lt;/strong&gt; e um concentrador integrado com portas USB Tipo C e Tipo A, o CORSAIR XENEON 32UHD144 proporciona uma visualiza&amp;ccedil;&amp;atilde;o verdadeiramente impressionante.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Exibi&amp;ccedil;&amp;atilde;o IPS r&amp;aacute;pida de pontos qu&amp;acirc;nticos:&lt;/h2&gt;
+&lt;p&gt;A tecnologia de pontos qu&amp;acirc;nticos e um painel Fast IPS fornecem ao monitor XENEON cobertura de gama de cores &lt;strong&gt;100% sRGB&lt;/strong&gt;, &lt;strong&gt;100% Adobe RGB&lt;/strong&gt; e &lt;strong&gt;98% DCI-P3&lt;/strong&gt; para cores mais vivas e naturais e um realismo surpreendente.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Tecnologias avan&amp;ccedil;adas:&lt;/h2&gt;
+&lt;p&gt;Esteja voc&amp;ecirc; assistindo a um lindo conte&amp;uacute;do HDR, fazendo um trabalho de produ&amp;ccedil;&amp;atilde;o com cores precisas ou jogando jogos em ritmo acelerado, voc&amp;ecirc; precisa de um monitor que possa acompanhar. O XENEON re&amp;uacute;ne toda a tecnologia que voc&amp;ecirc; precisa para estar na vanguarda de tudo o que faz.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h3&gt;Compre j&amp;aacute; o seu no KaBuM!&lt;/h3&gt;</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Aorus 31.5 IPS, 144 Hz, 4K UHD, 1ms, HDMI/DisplayPort/USB-C, HDR 400, 123% sRGB, Som Integrado by SABRE Hi-Fi - FI32U</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Monitor Gamer Aorus 31.5 IPS, 144 Hz, 4K UHD, 1ms, HDMI/DisplayPort/USB-C, HDR 400, 123% sRGB, Som Integrado by SABRE Hi-Fi - FI32U&lt;/h2&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h3&gt;4 K Transformando sua experi&amp;ecirc;ncia de jogo!&lt;/h3&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;AORUS FI32U, resolu&amp;ccedil;&amp;atilde;o UHD de 31,5 polegadas e equipado com o mais recente HDMI 2.1, taxa de atualiza&amp;ccedil;&amp;atilde;o de 144 Hz e 1 ms GTG para a experi&amp;ecirc;ncia de jogo mais fluida e qualidade de imagem incr&amp;iacute;vel.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;A cor de 10 bits e a gama de cores super ampla de 90% DCI-P3 / 123% sRGB oferecem excelente precis&amp;atilde;o e consist&amp;ecirc;ncia de cores. &amp;Eacute; certificado DisplayHDR400 para garantir uma qualidade de exibi&amp;ccedil;&amp;atilde;o espetacular, a melhor experi&amp;ecirc;ncia em jogos e entretenimento.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h3&gt;A Experi&amp;ecirc;ncia 4K&lt;/h3&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;Com mais conte&amp;uacute;do de jogo de resolu&amp;ccedil;&amp;atilde;o mais alta criado para ter a melhor experi&amp;ecirc;ncia visual, &amp;eacute; hora de voc&amp;ecirc; investir em uma tela 4K! Os monitores AORUS 4K oferecem um visual n&amp;iacute;tido e detalhado e oferece uma experi&amp;ecirc;ncia de visualiza&amp;ccedil;&amp;atilde;o mais realista!&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h3&gt;SS IPS com 1ms GTG&lt;/h3&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;O painel Super Speed ??IPS fornece cores espl&amp;ecirc;ndidas, enquanto os cristais reduzem o tempo de resposta para chegar a 1ms GTG.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h3&gt;Tela de 31,5&amp;rdquo;&lt;/h3&gt;
+&lt;p&gt;Painel UHD de 31,5 &amp;rdquo;(resolu&amp;ccedil;&amp;atilde;o de 3840 x 2160) em uma propor&amp;ccedil;&amp;atilde;o de 16: 9 com uma taxa de atualiza&amp;ccedil;&amp;atilde;o de 144 Hz para jogos fluidos.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h3&gt;HDMI 2.1&lt;/h3&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;O mais recente HDMI 2.1 pode melhorar sua experi&amp;ecirc;ncia de jogo, fornecendo uma largura de banda maior de 4K @ 144 Hz, oferecendo uma vantagem competitiva em uma variedade de jogos de aventura a atiradores. O novo padr&amp;atilde;o tamb&amp;eacute;m suporta os consoles de &amp;uacute;ltima gera&amp;ccedil;&amp;atilde;o.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h3&gt;10 bits com 90% DCI P3&lt;/h3&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;O AORUS FI32U &amp;eacute; um display de 10 bits (8 bits + FRC) com 90% do espa&amp;ccedil;o de cores DCI-P3, oferecendo uma variedade mais rica de gradua&amp;ccedil;&amp;otilde;es de cores e maior precis&amp;atilde;o.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h3&gt;VESA DisplayHDR 400&lt;/h3&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;High Dynamic Range (HDR) expande a faixa de luz de uma tela, o que &amp;eacute; melhor &amp;eacute; que voc&amp;ecirc; pode desfrutar dos modos HDR exclusivos que oferecemos para aumentar o n&amp;iacute;vel de sua experi&amp;ecirc;ncia de jogo e entretenimento!&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h3&gt;Som audi&amp;oacute;filo&lt;/h3&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;AORUS adota o conceito de um design de sistema de som audi&amp;oacute;filo de ponta em um micro sistema no monitor. O chip ESS SABRE integrado fornece um som puro, mas poderoso, ressonando sons orquestrais cl&amp;aacute;ssicos ou explos&amp;otilde;es em sua zona de guerra virtual. Desfrute da profundidade da m&amp;uacute;sica e do perfil de som envolvente.&lt;/p&gt;</t>
   </si>
   <si>
     <t>Monitor Gamer Asus TUF 31.5 LED 2K QHD, Curvo, 144Hz, 1ms, HDMI e DisplayPort, FreeSync, HDR, 92% sRGB, Ajuste de Altura, Som, VESA - VG32VQ</t>
@@ -1089,89 +1158,6 @@
 &lt;h3&gt;Garanta j&amp;aacute; seu Monitor Asus aqui no KaBuM!&lt;/h3&gt;</t>
   </si>
   <si>
-    <t>Monitor Gamer 34 Polegadas, 180hz Curvo, Wqhd HDMI/dp</t>
-  </si>
-  <si>
-    <t>Caracteristicas:  - marca: primetek  - modelo: 34gsr  se você está procurando um monitor para jogos, nossas ofertas primetek te oferece uma ótima opção de modelo e um bom preço. Monitor gamer 34curvo 180hz dp/hdmi wqhd primetek 34gsr que entrega imagens mais nítidas, levando sua experiência visual e seu foco no jogo para um novo nível.  especificações técnicas:  - tamanho do painel (diagonal) 34  - tipo de painel va rápido  - fonte do painel csot curva plana/ curva raio de curvatura r1500  - suporte hdr hdr ready resolução 3440x1440  - tipo de moldura moldura sem moldura 3  - distância do pixel (h)*(v) (mm) 0,2318*0,2318mm brilho (cd/m2 )(typ.) 350nits(typ), 300nits (min) taxa de contraste (típico) 4000:1 (típico) relação de contraste dinâmico milhões  - ângulo de visão (h/v) 178°(h)/178°(v) profundidade de bits do painel 8 bits + frc cores de exibição 1.07b (8 bits + frc) tempo de resposta do painel sem od od 1 ms tempo de resposta mprt 1ms  - taxa de atualização (máx.) 180 hz hdmi 2.0 2  - faixa freesync 48 - 100 hz (3440*1440 máximo 100 hz, fhd qhd máximo 120 hz) freesync 48-180 hz  - saída de áudio 1  - suporte ajustável de design de suporte de exibição inclinação (ângulo) -5°—20°?2  - ajuste de altura 100mm,5mm montagem vesa 75x75 com montagem vesa  - botão liga/desliga cinco botões botão osd cinco botões contracapa rgb design (vermelho)  - consumo de energia tipo.64w,máx.78w modo de economia de energia ?0,5w modo de desligamento ?0,3w tipo de energia psu integrado  - acessorios: cabo de alimentação (1,5m) sim (1pcs)cabo dp versão 1,4 cabo dp qtd.(1,5m/1,8m) 1(1,5m)  - temperatura da cor (frio, quente, usuário), (frio, quente, usuário, natural) controle de baixa luz azul modo de configuração (6 modos) 6 modos dcr menu 23 idiomas  - dimensão com suporte(lxaxp)(mm) 808,7x513,5x245,6mm  - dimensão sem suporte (lxaxp)(mm) 808,7x363,3x129,6mm  - dimensão da caixa (lxaxp)(mm) 916x230x466mm  - peso líquido (kg) 7,6kg  - peso bruto (kg) 10,63kg  - garantia 1 ano &lt;br&gt;&lt;br&gt;&lt;strong&gt;especificações técnicas&lt;/strong&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;marca:&lt;/strong&gt; primetek&lt;br&gt;&lt;strong&gt;modelo:&lt;/strong&gt; 34gsr&lt;br&gt;&lt;strong&gt;tamanho da tela:&lt;/strong&gt; 34</t>
-  </si>
-  <si>
-    <t>Monitor gamer Corsair Xeneon 32" UHD IPS, 144Hz, 1ms, DisplayPort e HDMI, HDR, FreeSync Premium, Sincronização adaptável - CM-902003-NA</t>
-  </si>
-  <si>
-    <t>&lt;h2&gt;Monitor gamer Corsair Xeneon&lt;/h2&gt;
-&lt;p&gt;O CORSAIR XENEON 32UHD144 d&amp;aacute; vida aos seus jogos e multim&amp;eacute;dia no seu vibrante e ultrafino monitor 4K UHD de 32 pol. (&lt;strong&gt;3840 x 2160&lt;/strong&gt;) com tecnologia &lt;strong&gt;LED IPS.&lt;/strong&gt; A taxa de atualiza&amp;ccedil;&amp;atilde;o de &lt;strong&gt;144 Hz&lt;/strong&gt; diminui a desfocagem de movimentos e assegura que &amp;eacute; poss&amp;iacute;vel visualizar cada fotograma produzido pelo PC. Al&amp;eacute;m disso, a compatibilidade com as tecnologias &lt;strong&gt;NVIDIA G-SYNC e o AMD FreeSync Premium&lt;/strong&gt; fornecem imagens suaves e sem artefactos. Desfrute de colorimetrias sRGB e Adobe RGB de 100% e com alto contraste, gra&amp;ccedil;as &amp;agrave; tecnologia Quantum Dot e ao suporte para HDR600. Com um suporte premium em alum&amp;iacute;nio fundido e v&amp;aacute;rias op&amp;ccedil;&amp;otilde;es de conex&amp;atilde;o que incluem &lt;strong&gt;USB Tipo C&lt;/strong&gt;, 2&lt;strong&gt;x HDMI 2.1&lt;/strong&gt;, &lt;strong&gt;1x DisplayPort 1.4&lt;/strong&gt; e um concentrador integrado com portas USB Tipo C e Tipo A, o CORSAIR XENEON 32UHD144 proporciona uma visualiza&amp;ccedil;&amp;atilde;o verdadeiramente impressionante.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h2&gt;Exibi&amp;ccedil;&amp;atilde;o IPS r&amp;aacute;pida de pontos qu&amp;acirc;nticos:&lt;/h2&gt;
-&lt;p&gt;A tecnologia de pontos qu&amp;acirc;nticos e um painel Fast IPS fornecem ao monitor XENEON cobertura de gama de cores &lt;strong&gt;100% sRGB&lt;/strong&gt;, &lt;strong&gt;100% Adobe RGB&lt;/strong&gt; e &lt;strong&gt;98% DCI-P3&lt;/strong&gt; para cores mais vivas e naturais e um realismo surpreendente.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h2&gt;Tecnologias avan&amp;ccedil;adas:&lt;/h2&gt;
-&lt;p&gt;Esteja voc&amp;ecirc; assistindo a um lindo conte&amp;uacute;do HDR, fazendo um trabalho de produ&amp;ccedil;&amp;atilde;o com cores precisas ou jogando jogos em ritmo acelerado, voc&amp;ecirc; precisa de um monitor que possa acompanhar. O XENEON re&amp;uacute;ne toda a tecnologia que voc&amp;ecirc; precisa para estar na vanguarda de tudo o que faz.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h3&gt;Compre j&amp;aacute; o seu no KaBuM!&lt;/h3&gt;</t>
-  </si>
-  <si>
-    <t>Monitor Gamer Gigabyte 31.5 LED 4K UHD Curvo, 144Hz, 1ms, HDR, HDMI e DisplayPort, 123% sRGB, FreeSync Premium, VESA - M32UC-SA</t>
-  </si>
-  <si>
-    <t>&lt;h2&gt;Monitor Gamer Gigabyte 31.5&lt;/h2&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h2&gt;UHD com 144Hz (OC 160HZ - DP)&lt;/h2&gt;
-&lt;p&gt;Alta resolu&amp;ccedil;&amp;atilde;o e &lt;strong&gt;taxa&lt;/strong&gt; &lt;strong&gt;de atualiza&amp;ccedil;&amp;atilde;o r&amp;aacute;pida&lt;/strong&gt;, oferecendo qualidade de exibi&amp;ccedil;&amp;atilde;o detalhada e experi&amp;ecirc;ncia de jogo fluida!&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h2&gt;Tempo de resposta de 1ms&lt;/h2&gt;
-&lt;p&gt;A tecnologia &lt;strong&gt;SuperSpeed&lt;/strong&gt; &lt;strong&gt;VA&lt;/strong&gt; reduz o tempo de resposta para 1ms MPRT/2ms GTG para a experi&amp;ecirc;ncia de jogo mais suave de sempre!&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h2&gt;Aim Stabilizer&lt;/h2&gt;
-&lt;p&gt;Esse recurso reduzir&amp;aacute; o desfoque de movimento para que voc&amp;ecirc; tenha uma melhor &lt;strong&gt;clareza&lt;/strong&gt; &lt;strong&gt;visual&lt;/strong&gt;.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h3&gt;Compre agora no KaBuM!&lt;/h3&gt;</t>
-  </si>
-  <si>
-    <t>Monitor 24.5" Gamer Benq Zowie Xl2546k - Full HD - 240hz - 1ms - Tecnologia Dyac - HDMI/Displayport</t>
-  </si>
-  <si>
-    <t>Uma nova geração da série XL de monitores gamers para PC, com ajustes aprimorados para maior flexibilidade, conforto e conveniência aos jogadores, permitindo foco e desempenho durante o game. &lt;br /&gt;Base Reduzida – Mais Espaço para Jogar Nova base desenvolvida com o objetivo de liberar mais espaço ao jogador, sem perder a estabilidade do monitor. Isso permite espaço para mais movimento durante o jogo e ficar confortável com mais flexibilidade.&lt;br /&gt;&lt;br /&gt;Ajustes Flexíveis – Mais Conforto Durante os Jogos Entendemos que cada jogador(a) tem suas configurações preferidas. Uma combinação única da altura e do ângulo do monitor. Com ajuste de altura e inclinação livre, os players podem configurar rapidamente de acordo com suas necessidades para um resultado melhor, jogando de uma forma mais confortável. &lt;br /&gt;&lt;br /&gt;Configurações Compartilhadas do XL-K Compartilhe suas configurações com seu time, seus amigos ou fãs. Salve perfis de vídeo rapidamente e compartilhe de forma conveniente a partir da própria interface do usuário. &lt;br /&gt;&lt;br /&gt;Acesso Rápido às Configurações A alteração na interface do usuário e no S-Switch é muito mais do que apenas estético. Foram redesenhados com o objetivo de oferecer a capacidade de personalizar as configurações que preferir para FPS, acessando-as rapidamente, por meio de um menu, com apenas um toque. As configurações passam a ser muito mais convenientes.&lt;br /&gt;&lt;br /&gt;Tecnologia DyAc? – Uma Sensação de Spray Diferente O DyAc™ / DyAc? ajuda a não perder o foco durante o spray. Possibilita aos jogadores ver as posições da mira e pontos de impacto com mais clareza, ajudando a embaçar menos a imagem durante o recuo da arma. O DyAc+ é baseado na mesma tecnologia e, através da otimização da tela, oferece aos jogadores uma opção mais atualizada para melhores ações, como o controle do spray. Faça Ajustes Visuais com Base em Suas Necessidades de Jogo O Black eQualizer aumenta a visibilidade de cenas escuras, sem superexpor as áreas claras. Já o Color Vibrance ajusta as configurações e o tom das cores para diferenciar alvos inimigos no jogo, e por fim, o modo Game alterna entre as pré configurações para o jogo, de acordo com título do mesmo. Os três tipos de ajuste mencionados permitem que jogares usem suas configurações visuais favoritas para jogar com melhor desempenho.</t>
-  </si>
-  <si>
-    <t>Monitor Gamer Aorus 31.5 IPS, 144 Hz, 4K UHD, 1ms, HDMI/DisplayPort/USB-C, HDR 400, 123% sRGB, Som Integrado by SABRE Hi-Fi - FI32U</t>
-  </si>
-  <si>
-    <t>&lt;h2&gt;Monitor Gamer Aorus 31.5 IPS, 144 Hz, 4K UHD, 1ms, HDMI/DisplayPort/USB-C, HDR 400, 123% sRGB, Som Integrado by SABRE Hi-Fi - FI32U&lt;/h2&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h3&gt;4 K Transformando sua experi&amp;ecirc;ncia de jogo!&lt;/h3&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;AORUS FI32U, resolu&amp;ccedil;&amp;atilde;o UHD de 31,5 polegadas e equipado com o mais recente HDMI 2.1, taxa de atualiza&amp;ccedil;&amp;atilde;o de 144 Hz e 1 ms GTG para a experi&amp;ecirc;ncia de jogo mais fluida e qualidade de imagem incr&amp;iacute;vel.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;A cor de 10 bits e a gama de cores super ampla de 90% DCI-P3 / 123% sRGB oferecem excelente precis&amp;atilde;o e consist&amp;ecirc;ncia de cores. &amp;Eacute; certificado DisplayHDR400 para garantir uma qualidade de exibi&amp;ccedil;&amp;atilde;o espetacular, a melhor experi&amp;ecirc;ncia em jogos e entretenimento.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h3&gt;A Experi&amp;ecirc;ncia 4K&lt;/h3&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;Com mais conte&amp;uacute;do de jogo de resolu&amp;ccedil;&amp;atilde;o mais alta criado para ter a melhor experi&amp;ecirc;ncia visual, &amp;eacute; hora de voc&amp;ecirc; investir em uma tela 4K! Os monitores AORUS 4K oferecem um visual n&amp;iacute;tido e detalhado e oferece uma experi&amp;ecirc;ncia de visualiza&amp;ccedil;&amp;atilde;o mais realista!&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h3&gt;SS IPS com 1ms GTG&lt;/h3&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;O painel Super Speed ??IPS fornece cores espl&amp;ecirc;ndidas, enquanto os cristais reduzem o tempo de resposta para chegar a 1ms GTG.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h3&gt;Tela de 31,5&amp;rdquo;&lt;/h3&gt;
-&lt;p&gt;Painel UHD de 31,5 &amp;rdquo;(resolu&amp;ccedil;&amp;atilde;o de 3840 x 2160) em uma propor&amp;ccedil;&amp;atilde;o de 16: 9 com uma taxa de atualiza&amp;ccedil;&amp;atilde;o de 144 Hz para jogos fluidos.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h3&gt;HDMI 2.1&lt;/h3&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;O mais recente HDMI 2.1 pode melhorar sua experi&amp;ecirc;ncia de jogo, fornecendo uma largura de banda maior de 4K @ 144 Hz, oferecendo uma vantagem competitiva em uma variedade de jogos de aventura a atiradores. O novo padr&amp;atilde;o tamb&amp;eacute;m suporta os consoles de &amp;uacute;ltima gera&amp;ccedil;&amp;atilde;o.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h3&gt;10 bits com 90% DCI P3&lt;/h3&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;O AORUS FI32U &amp;eacute; um display de 10 bits (8 bits + FRC) com 90% do espa&amp;ccedil;o de cores DCI-P3, oferecendo uma variedade mais rica de gradua&amp;ccedil;&amp;otilde;es de cores e maior precis&amp;atilde;o.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h3&gt;VESA DisplayHDR 400&lt;/h3&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;High Dynamic Range (HDR) expande a faixa de luz de uma tela, o que &amp;eacute; melhor &amp;eacute; que voc&amp;ecirc; pode desfrutar dos modos HDR exclusivos que oferecemos para aumentar o n&amp;iacute;vel de sua experi&amp;ecirc;ncia de jogo e entretenimento!&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h3&gt;Som audi&amp;oacute;filo&lt;/h3&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;AORUS adota o conceito de um design de sistema de som audi&amp;oacute;filo de ponta em um micro sistema no monitor. O chip ESS SABRE integrado fornece um som puro, mas poderoso, ressonando sons orquestrais cl&amp;aacute;ssicos ou explos&amp;otilde;es em sua zona de guerra virtual. Desfrute da profundidade da m&amp;uacute;sica e do perfil de som envolvente.&lt;/p&gt;</t>
-  </si>
-  <si>
     <t>Monitor Asus Rog Swift 41.5 OLED, 138Hz, 0,1ms, HDMI e DisplayPort, 133% sRGB, HDR, G-Sync, VESA - PG42UQ</t>
   </si>
   <si>
@@ -1208,51 +1194,16 @@
 &lt;p&gt;Um revestimento fosco especial de microtextura na superf&amp;iacute;cie da tela reduz significativamente o brilho. Isso permite que o PG42UQ exiba cores mais precisas sem o brilho da tela que distrai.&lt;/p&gt;</t>
   </si>
   <si>
-    <t>Monitor Gamer Curvo Samsung Odyssey 49" DQHD, Série G9, 240Hz, 1Ms, HDMI + DP, G-sync, Freesync - Lc49g95tsslxzd</t>
-  </si>
-  <si>
-    <t>A revolução da curva 1000R, o novo ápice da tecnologia de tela curva, se ajusta ao campo de visão humano para um realismo inimaginável.&lt;br /&gt;&lt;br /&gt;Imagens fascinantes. Painel QLED, HDR1000 e uma resolução DQHD se reúnem trazendo cores espetaculares com total profundidade e detalhamento.&lt;br /&gt;O exterior branco brilhante se junta ao núcleo de iluminação infinito. Os dois se reúnem para criar um efeito futurista e trazer inspiração para que você brilhe junto!&lt;br /&gt;&lt;br /&gt;Com 240Hz de taxa de atualização, tempo de resposta de 1ms e compatibilidade com G-Sync elevam você ao topo do seu jogo.&lt;br /&gt;A proporção de 32:9 do painel curvo super ultrawide de 49 polegadas mantém os jogos vivos mesmo quando você precisa pausar o jogo. Abra várias janelas ao mesmo tempo e alterne entre tarefas diárias de computação e diferentes mundos. Jogue, assista, converse - tudo ao mesmo tempo. Com o PBP, visualize a entrada de duas fontes simultaneamente em sua resolução nativa. Use o PIP para redimensionar a segunda fonte em até 25 da tela. Coloque as janelas em qualquer lugar usando a função Easy Settting Box da Samsung. Encontre a sua posição vencedora. Gire, incline e ajuste a altura até estar preparado para a vitória. Totalmente compatível com suportes padrão VESA, a tela pode ser movida sem esforço para a sua posição ideal.</t>
-  </si>
-  <si>
-    <t>Monitor Gamer KBM! GAMING MG320 27' Led, Curvo, 180 Hz, Full Hd, 1ms, Adaptive Sync, Hdmi/Displayport, Ajuste De Ângulo - KGMG32027PT</t>
-  </si>
-  <si>
-    <t>&lt;h2&gt;Monitor Gamer KBM! GAMING MG320: O melhor desempenho para suas gameplays&lt;/h2&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h2&gt;Resposta r&amp;aacute;pida e taxa de atualiza&amp;ccedil;&amp;atilde;o de 165Hz para uma jogabilidade fluida e sem lag.&lt;/h2&gt;
-&lt;p&gt;O Monitor Gamer KBM! GAMING MG320 oferece uma resposta r&amp;aacute;pida de &lt;strong&gt;1ms&lt;/strong&gt; e taxa de atualiza&amp;ccedil;&amp;atilde;o de &lt;strong&gt;165Hz&lt;/strong&gt;, garantindo uma jogabilidade fluida e sem lag. Isso significa que voc&amp;ecirc; poder&amp;aacute; reagir rapidamente aos movimentos dos seus advers&amp;aacute;rios, sem perder nenhum detalhe da a&amp;ccedil;&amp;atilde;o.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h2&gt;Curvatura de 1500R para uma imers&amp;atilde;o mais realista&lt;/h2&gt;
-&lt;p&gt;A curvatura de &lt;strong&gt;1500R&lt;/strong&gt; do Monitor Gamer KBM! GAMING MG320 proporciona uma imers&amp;atilde;o mais realista, concentrando toda a a&amp;ccedil;&amp;atilde;o ao alcance dos seus olhos. Voc&amp;ecirc; poder&amp;aacute; se sentir dentro do jogo, como se estivesse participando da a&amp;ccedil;&amp;atilde;o.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h2&gt;Compatibilidade com Adaptive Sync para eliminar tearing e input lag&lt;/h2&gt;
-&lt;p&gt;O Monitor Gamer KBM! GAMING MG320 &amp;eacute; compat&amp;iacute;vel com a tecnologia Adaptive Sync, que elimina tearing e input lag. Isso significa que voc&amp;ecirc; poder&amp;aacute; jogar sem problemas de sincroniza&amp;ccedil;&amp;atilde;o entre a placa de v&amp;iacute;deo e o monitor, garantindo uma experi&amp;ecirc;ncia de jogo mais suave e envolvente.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h2&gt;Ajuste de inclina&amp;ccedil;&amp;atilde;o para maior conforto&lt;/h2&gt;
-&lt;p&gt;O Monitor Gamer KBM! GAMING MG320 possui ajuste de inclina&amp;ccedil;&amp;atilde;o &lt;strong&gt;de 5&amp;deg; a 15&amp;deg;&lt;/strong&gt;, permitindo que voc&amp;ecirc; encontre o &amp;acirc;ngulo ideal para sua vis&amp;atilde;o. Isso garante maior conforto e desempenho durante as suas gameplays.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;O Monitor Gamer KBM! GAMING MG320 &amp;eacute; &lt;strong&gt;a melhor op&amp;ccedil;&amp;atilde;o&lt;/strong&gt; para quem busca o melhor desempenho para suas gameplays. Com uma resposta r&amp;aacute;pida, taxa de atualiza&amp;ccedil;&amp;atilde;o de 165Hz, curvatura de 1500R e compatibilidade com &lt;strong&gt;Adaptive Sync&lt;/strong&gt;, este monitor oferece uma experi&amp;ecirc;ncia de jogo fluida, imersiva e sem problemas.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>Monitor Gamer BenQ 24.5 Mobiuz EX2510S, 1ms, IPS, 165Hz, sRGB, HDR10, FreeSync Premium, Eye Care, Alto-Falante Duplo, Preto - 9H.LKELA.TBL</t>
-  </si>
-  <si>
-    <t>&lt;h2&gt;Monitor Gamer BenQ 24.5 Mobiuz EX2510S&lt;/h2&gt;
-&lt;h3&gt;&amp;nbsp;&lt;/h3&gt;
-&lt;h3&gt;Explore as possibilidades&lt;/h3&gt;
-&lt;p&gt;Explore novos mundos e supere aventuras desafiadoras. Gr&amp;aacute;ficos deslumbrantes, &amp;aacute;udio incr&amp;iacute;vel e desempenho impec&amp;aacute;vel preparam voc&amp;ecirc; para emo&amp;ccedil;&amp;otilde;es ilimitadas.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h3&gt;Descubra os detalhes&lt;/h3&gt;
-&lt;p&gt;Explore o horizonte em busca de perigos futuros e recompensas ocultas, experimente a exibi&amp;ccedil;&amp;atilde;o clara e detalhada do EX2510S e as imagens suaves e sem rasgos.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h3&gt;Chamadas de aventura&lt;/h3&gt;
-&lt;p&gt;Fique alerta! Um &amp;aacute;udio excepcional avisa sobre a aproxima&amp;ccedil;&amp;atilde;o de inimigos e alerta sobre as pr&amp;oacute;ximas provas. A m&amp;uacute;sica de fundo flui claramente &amp;agrave; medida que sua aventura avan&amp;ccedil;a.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h3&gt;Preparado para jogos&lt;/h3&gt;
-&lt;p&gt;MOBIUZ foi projetado para coloc&amp;aacute;-lo no comando de seu jogo. Assuma o controle de sua experi&amp;ecirc;ncia de jogo ideal com configura&amp;ccedil;&amp;otilde;es intuitivas e selecion&amp;aacute;veis.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h3&gt;Eye-Care, jogue com seguran&amp;ccedil;a&lt;/h3&gt;
-&lt;p&gt;A tecnologia Eye-Care da BenQ cuida dos seus olhos enquanto eles est&amp;atilde;o focados na a&amp;ccedil;&amp;atilde;o. Pronto para outra rodada? Vamos l&amp;aacute;!&lt;/p&gt;</t>
+    <t>Monitor Gamer AOC Agon Curved, 31.5 Polegadas, LED, 165hz, 1MS, Widescreen - AG323FCXE</t>
+  </si>
+  <si>
+    <t>Com tela de alta qualidade, amplo ângulo de visão e comando em tempo real, prepare-se para obter uma experiência muito mais imersiva em todos os gêneros de jogos.  Destaques   Projetado para Gamers. O monitor Agon permite movimentos muito mais fluídos nos jogos devido à altíssima taxa de atualização de 165Hz. A Jogada Perfeita para a Vitória. O tempo de resposta de 1 ms proporciona movimentos instantâneos e naturais para você ser o melhor em qualquer tipo de jogo.   Veja Muito Veja Mais Com o Painel VA, você tem mais brilho e contraste para enxergar onde os seus inimigos estão, mesmo em cenas com pouca iluminação.   Para Onde Você Olha, Tem Jogo A curvatura da tela de 1500R expande o campo de visão para uma visualização muito mais ampla dos cenários, oferecendo mais imersão e profundidade em todos os seus jogos.</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Acer Nitro Qg270, 27 Polegadas, Full Hd, 180hz, 1ms Freesync</t>
+  </si>
+  <si>
+    <t>Monitor gamer acer nitro qg270 27 polegadas full hd 180hz 1ms freesync  &lt;br /&gt;&lt;br /&gt;  &lt;br /&gt;&lt;br /&gt;  com o monitor gamer nitro qg270 27 polegadas da acer você conseguirá jogar com muito mais clareza e foco! Ele conta com uma alta taxa de atualização de até 180hz e visual response boost (vrb) de até 1 ms. Além disso, o design zeroframe praticamente elimina as bordas e garante a sua imersão no jogo.&lt;br /&gt;&lt;br /&gt;  &lt;br /&gt;&lt;br /&gt;  confira as principais características do nitro qg270 27 polegadas:&lt;br /&gt;&lt;br /&gt;  tela de 27 polegadas full hd: o nitro qg270 entrega imagens mais nítidas, levando sua experiência visual e seu foco no jogo para um novo nível.&lt;br /&gt;&lt;br /&gt;  design zeroframe: monitor com tela led va e design zeroframe, que praticamente elimina as bordas para que você tenha uma verdadeira imersão no jogo.&lt;br /&gt;&lt;br /&gt;  taxa de atualização de até 180hz: esse monitor conta com uma alta taxa de atualização de até 180hz. Prepare-se para ver imagens mais suaves, sem rastros e sem rasgos.&lt;br /&gt;&lt;br /&gt;  tecnologia hdr10: a tela cria níveis mais profundos de contraste preto e branco. Conte com mais imersão no jogo por meio da recriação de imagens realistas.&lt;br /&gt;&lt;br /&gt;  visual response boost (vrb) de até 1 ms: o monitor reduz borrões, efeitos fantasmas e manchas nas imagens. Além disso, elimina o desfoque em objetos em movimento rápido.&lt;br /&gt;&lt;br /&gt;  &lt;br /&gt;&lt;br /&gt;  características:&lt;br /&gt;&lt;br /&gt;  marca: acer&lt;br /&gt;&lt;br /&gt;  modelo: nitro qg270&lt;br /&gt;&lt;br /&gt;  tecnologias: hdr10, md freesync premium, acervision care, flicker-less, low dimming, bluelightshield, acer display widget, game mode, adaptative contrast management&lt;br /&gt;&lt;br /&gt;  cor: preto&lt;br /&gt;&lt;br /&gt;  resolução de tela: full hd 1920 x 1080 180 hz&lt;br /&gt;&lt;br /&gt;  conexão: 1x hdmi (2.0) e 1x displayport(1.4)&lt;br /&gt;&lt;br /&gt;  brilho: 300 nits&lt;br /&gt;&lt;br /&gt;  tempo de resposta: 1 ms vrb visual response boost&lt;br /&gt;&lt;br /&gt;  contraste: 3000:1&lt;br /&gt;&lt;br /&gt;  atualização: até 180 hz&lt;br /&gt;&lt;br /&gt;  interfaces/portas: 1x hdmi(2.0), 1x displayport(1.4), 1x saída de áudio e entrada de alimentação&lt;br /&gt;&lt;br /&gt;  inclinação: -5 graus a 15 graus (aproximadamente)&lt;br /&gt;&lt;br /&gt;  cores: 16.7 milhões&lt;br /&gt;&lt;br /&gt;  ângulo de visão: 178 graus esquerda / direita e 178 graus cima / baixo&lt;br /&gt;&lt;br /&gt;  &lt;br /&gt;&lt;br /&gt;  itens inclusos:&lt;br /&gt;&lt;br /&gt;  monitor&lt;br /&gt;&lt;br /&gt;  suportes&lt;br /&gt;&lt;br /&gt;  manual em português&lt;br /&gt;&lt;br /&gt;  termo de garantia&lt;br /&gt;&lt;br /&gt;  1x cabo de energia&lt;br /&gt;&lt;br /&gt;  1x cabo hdmi&lt;br /&gt;&lt;br /&gt;  &lt;br /&gt;&lt;br /&gt;  garantia: 12 meses (diretamente com a fabricante)</t>
   </si>
   <si>
     <t>Monitor Gamer Gigabyte, 27 Full HD, 170Hz, 1ms, IPS, DisplayPort e HDMI, 105% sRGB, HDR, Adaptive-Sync - GS27F SA</t>
@@ -1271,6 +1222,59 @@
 &lt;p&gt;&amp;nbsp;&lt;/p&gt;</t>
   </si>
   <si>
+    <t>Monitor Gamer Alienware, 27 Polegadas QHD - Aw2724dm</t>
+  </si>
+  <si>
+    <t>&lt;br&gt;monitor de 27" otimizado para os jogos diários. Apresenta uma tela qhd com uma jogabilidade que parece real.&lt;/br&gt;&lt;br&gt;detalhes vibrantes: veja mais nos universos de todos os jogos em uma tela qhd de 27" que oferece imagens nítidas e detalhadas em ângulos de visão ampliados.&lt;/br&gt;&lt;br&gt;games realistas: não perca nenhum detalhe realista graças aos avançados recursos visuais de alto contraste da certificação vesa displayhdr™ 600 e à cinematográfica cobertura de cores com 95% dci-p3, tudo calibrado com precisão de delta e inferior a 2.&lt;/br&gt;&lt;br&gt;experiência de jogo mais tranquila: as tecnologias nvidia® g-sync®, amd freesync™ premium pro e vesa adaptivesync proporcionam uma experiência gamer sem interrupções nem complicações, mesmo durante os momentos épicos nos games.&lt;/br&gt;&lt;br&gt;pronto para a ação: visualize gráficos acelerados e sem desfoques com incrível suavidade graças às taxas de atualização de até 180 hz e ao tempo de resposta gtg (cinza a cinza) de 1 ms em um rápido painel ips.&lt;/br&gt;&lt;br&gt;conforto ocular certificado: com o comfortview plus, você pode jogar por mais tempo, graças a uma tecnologia de tela sempre ativa e integrada que reduz as emissões de luz azul sem afetar a precisão das cores.&lt;/br&gt;&lt;br&gt;design reformulado: com o mais recente id legend 2.0, este monitor foi cuidadosamente projetado com detalhes como a base hexagonal, o suporte totalmente ajustável e a iluminação personalizável alienfx, que proporcionam uma experiência gamer confortável.&lt;/br&gt;&lt;br&gt;tranquilidade incluida: este produto conta com 3 anos de garantia.&lt;/br&gt;&lt;br&gt;a dell reserva-se o direito de não concluir ou cancelar a venda se o(s) produto(s) for(em) adquirido(s) para revenda.&lt;/br&gt;&lt;br&gt;eventual desconto devido a forma de pagamento é fornecido pela(o) plataforma e não pela dell. A nota fiscal do produto adquirido será emitida sem considerar tal desconto.&lt;/br&gt;&lt;br&gt;&lt;br&gt;especificações tecnicas&lt;/br&gt;&lt;br&gt;tamanho da tela: 27”&lt;/br&gt;&lt;br&gt;conectividade: 1. Conector de alimentação | 2. Slot de trava de segurança (com base no kensington security slot) | 3. Joystick | 4. Porta usb superspeed type-a de 5 gbps para downstream (usb 3.2 de 1ª geração) com battery charging 1.2 | 5. Porta usb superspeed type-b de 5 gbps para downstream (usb 3.2 de 1ª geração) | 6. Porta usb superspeed type-b upstream de 5 gbit/s (usb 3.2 de 1ª geração) | 7. Porta hdmi | 8. Displayport (dp1) | 9. Displayport (dp2)&lt;/br&gt;&lt;br&gt;compatibilidade vesa: sim, 100x100mm&lt;/br&gt;&lt;br&gt;tipo de painel: ips&lt;/br&gt;&lt;br&gt;revestimento da tela: antirreflexo&lt;/br&gt;&lt;br&gt;resolução: 2560 x 1440 180hz (com overclock) / 165hz (nativo)&lt;/br&gt;&lt;br&gt;ângulo de visão: 178º/178º&lt;/br&gt;&lt;br&gt;distância entre pixels: 0,2331mm&lt;/br&gt;&lt;br&gt;pixels por polegada: 108,97&lt;/br&gt;&lt;br&gt;contraste: 1000:1 (típico)&lt;/br&gt;&lt;br&gt;taxa de proporção: 16:9&lt;/br&gt;&lt;br&gt;iluminação: led&lt;/br&gt;&lt;br&gt;brilho: 600 cd/m2 (hdr) e 400 cd/m2 (típico)&lt;/br&gt;&lt;br&gt;amd freesync: sim, suporta amd freesync premium pro com taxa de atualização até 165hz e rápido tempo de resposta de 1ms gray-to-gray em modo extremo&lt;/br&gt;&lt;br&gt;nvidia g-sync: sim, suporta nvidia g-sync compatível&lt;/br&gt;&lt;br&gt;ergonomia: altura (110mm), inclinação (-5º a 21º), giro (-20º a 20º), paisagem/retrato (-90º a 90º) e gerenciamento de cabos&lt;/br&gt;&lt;br&gt;dell display manager: sim&lt;/br&gt;&lt;br&gt;low blue light: sim, comfortview plus (hardware)&lt;/br&gt;&lt;br&gt;flicker-free: sim&lt;/br&gt;&lt;br&gt;garantia: 3 anos de serviço de troca avançada e troca de painel premium&lt;/br&gt;&lt;br&gt;suporte de cores:&lt;br&gt;       color gamut (típico): dci-p3 95%; 100% srgb&lt;/br&gt;&lt;br&gt;       color depth (típico): 1.07 bilhões de cores(true 10 bit)&lt;/br&gt;&lt;br&gt;dimensões: 408,68 x 611,44 x 243,71 mm&lt;/br&gt;&lt;br&gt;peso: 4.38 kg&lt;/br&gt;&lt;br&gt;o que vem na caixa: monitor, suporte e base, cabo de energia, 1x  cabo dp(1.8m), 1x cabo usb-c para dp1.4  (1m), 1x cabo usb3.2 gen 1 (5 gbps) upstream (1.8m), guia de início rápido, informações de segurança e adeviso aliewnare&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Redragon Aquamarine 27 Polegadas, Full HD, 165hz, 1ms, HDMI e DisplayPort, FreeSync - GM27H2G</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Redragon Aquamarine Full HD 27" 165Hz 1ms - GM27H2G&lt;br /&gt;&lt;br /&gt;Características:&lt;br /&gt;- Marca: Redragon&lt;br /&gt;- Modelo: GM27H2G&lt;br /&gt;&lt;br /&gt;Especificações:&lt;br /&gt;- Tamanho da Tela: 27"&lt;br /&gt;- Tipo de Tela: VA &lt;br /&gt;- Contraste: 4000:1&lt;br /&gt;- Resolução: Full HD 1920 x 1080&lt;br /&gt;- Proporção da Tela: 16:9 (Widescreen)&lt;br /&gt;- Tempo de Resposta: 1ms&lt;br /&gt;- Taxa de Atualização: 165Hz&lt;br /&gt;- Voltagem: Bivolt Automático&lt;br /&gt;- Ângulo de Visão Horizontal: 178°&lt;br /&gt;- Ângulo de Visão Vertical: 178°&lt;br /&gt;&lt;br /&gt;Entradas:&lt;br /&gt;- HDMI&lt;br /&gt;- Display Port&lt;br /&gt;- Audio&lt;br /&gt;- USB&lt;br /&gt;&lt;br /&gt;Informações Ambientais:&lt;br /&gt;- Temperatura de Operação: 0°C ~ 40°C&lt;br /&gt;- Umidade Relativa de Operação: 10% ~ 90% (Não condensado)&lt;br /&gt;&lt;br /&gt;Informações Adicionais:&lt;br /&gt;- Adaptive-SYNC09:59 13/10/2022&lt;br /&gt;- Modo Game&lt;br /&gt;- EyeSaver&lt;br /&gt;- Luz Ambiente&lt;br /&gt;&lt;br /&gt;Conteúdo da Embalagem:&lt;br /&gt;- Monitor Gamer Redragon Aquamarine 27" 165Hz - GM27H2G&lt;br /&gt;- Fonte de Alimentação Bivolt&lt;br /&gt;- Cabo Display Port&lt;br /&gt;- Manual&lt;br /&gt;&lt;br /&gt;Obs: Não possuí alto-falantes</t>
+  </si>
+  <si>
+    <t>Monitor Gamer BenQ 24.5 Mobiuz EX2510S, 1ms, IPS, 165Hz, sRGB, HDR10, FreeSync Premium, Eye Care, Alto-Falante Duplo, Preto - 9H.LKELA.TBL</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Monitor Gamer BenQ 24.5 Mobiuz EX2510S&lt;/h2&gt;
+&lt;h3&gt;&amp;nbsp;&lt;/h3&gt;
+&lt;h3&gt;Explore as possibilidades&lt;/h3&gt;
+&lt;p&gt;Explore novos mundos e supere aventuras desafiadoras. Gr&amp;aacute;ficos deslumbrantes, &amp;aacute;udio incr&amp;iacute;vel e desempenho impec&amp;aacute;vel preparam voc&amp;ecirc; para emo&amp;ccedil;&amp;otilde;es ilimitadas.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h3&gt;Descubra os detalhes&lt;/h3&gt;
+&lt;p&gt;Explore o horizonte em busca de perigos futuros e recompensas ocultas, experimente a exibi&amp;ccedil;&amp;atilde;o clara e detalhada do EX2510S e as imagens suaves e sem rasgos.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h3&gt;Chamadas de aventura&lt;/h3&gt;
+&lt;p&gt;Fique alerta! Um &amp;aacute;udio excepcional avisa sobre a aproxima&amp;ccedil;&amp;atilde;o de inimigos e alerta sobre as pr&amp;oacute;ximas provas. A m&amp;uacute;sica de fundo flui claramente &amp;agrave; medida que sua aventura avan&amp;ccedil;a.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h3&gt;Preparado para jogos&lt;/h3&gt;
+&lt;p&gt;MOBIUZ foi projetado para coloc&amp;aacute;-lo no comando de seu jogo. Assuma o controle de sua experi&amp;ecirc;ncia de jogo ideal com configura&amp;ccedil;&amp;otilde;es intuitivas e selecion&amp;aacute;veis.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h3&gt;Eye-Care, jogue com seguran&amp;ccedil;a&lt;/h3&gt;
+&lt;p&gt;A tecnologia Eye-Care da BenQ cuida dos seus olhos enquanto eles est&amp;atilde;o focados na a&amp;ccedil;&amp;atilde;o. Pronto para outra rodada? Vamos l&amp;aacute;!&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Monitor Gamer KBM! GAMING MG320 27' Led, Curvo, 180 Hz, Full Hd, 1ms, Adaptive Sync, Hdmi/Displayport, Ajuste De Ângulo - KGMG32027PT</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Monitor Gamer KBM! GAMING MG320: O melhor desempenho para suas gameplays&lt;/h2&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Resposta r&amp;aacute;pida e taxa de atualiza&amp;ccedil;&amp;atilde;o de 165Hz para uma jogabilidade fluida e sem lag.&lt;/h2&gt;
+&lt;p&gt;O Monitor Gamer KBM! GAMING MG320 oferece uma resposta r&amp;aacute;pida de &lt;strong&gt;1ms&lt;/strong&gt; e taxa de atualiza&amp;ccedil;&amp;atilde;o de &lt;strong&gt;165Hz&lt;/strong&gt;, garantindo uma jogabilidade fluida e sem lag. Isso significa que voc&amp;ecirc; poder&amp;aacute; reagir rapidamente aos movimentos dos seus advers&amp;aacute;rios, sem perder nenhum detalhe da a&amp;ccedil;&amp;atilde;o.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Curvatura de 1500R para uma imers&amp;atilde;o mais realista&lt;/h2&gt;
+&lt;p&gt;A curvatura de &lt;strong&gt;1500R&lt;/strong&gt; do Monitor Gamer KBM! GAMING MG320 proporciona uma imers&amp;atilde;o mais realista, concentrando toda a a&amp;ccedil;&amp;atilde;o ao alcance dos seus olhos. Voc&amp;ecirc; poder&amp;aacute; se sentir dentro do jogo, como se estivesse participando da a&amp;ccedil;&amp;atilde;o.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Compatibilidade com Adaptive Sync para eliminar tearing e input lag&lt;/h2&gt;
+&lt;p&gt;O Monitor Gamer KBM! GAMING MG320 &amp;eacute; compat&amp;iacute;vel com a tecnologia Adaptive Sync, que elimina tearing e input lag. Isso significa que voc&amp;ecirc; poder&amp;aacute; jogar sem problemas de sincroniza&amp;ccedil;&amp;atilde;o entre a placa de v&amp;iacute;deo e o monitor, garantindo uma experi&amp;ecirc;ncia de jogo mais suave e envolvente.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Ajuste de inclina&amp;ccedil;&amp;atilde;o para maior conforto&lt;/h2&gt;
+&lt;p&gt;O Monitor Gamer KBM! GAMING MG320 possui ajuste de inclina&amp;ccedil;&amp;atilde;o &lt;strong&gt;de 5&amp;deg; a 15&amp;deg;&lt;/strong&gt;, permitindo que voc&amp;ecirc; encontre o &amp;acirc;ngulo ideal para sua vis&amp;atilde;o. Isso garante maior conforto e desempenho durante as suas gameplays.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;O Monitor Gamer KBM! GAMING MG320 &amp;eacute; &lt;strong&gt;a melhor op&amp;ccedil;&amp;atilde;o&lt;/strong&gt; para quem busca o melhor desempenho para suas gameplays. Com uma resposta r&amp;aacute;pida, taxa de atualiza&amp;ccedil;&amp;atilde;o de 165Hz, curvatura de 1500R e compatibilidade com &lt;strong&gt;Adaptive Sync&lt;/strong&gt;, este monitor oferece uma experi&amp;ecirc;ncia de jogo fluida, imersiva e sem problemas.&lt;/p&gt;</t>
+  </si>
+  <si>
     <t>Monitor Gamer Cooler Master 27 LED Full HD, 240 Hz, 0.5ms, HDMI e DisplayPort, 98% DCI-P3, HDR, Adaptive Sync - CMI-GM27-CFX-BR</t>
   </si>
   <si>
@@ -1306,22 +1310,13 @@
 &lt;h3&gt;Compre agora no KaBuM!&lt;/h3&gt;</t>
   </si>
   <si>
-    <t>Monitor Gamer AOC Agon Curved, 31.5 Polegadas, LED, 165hz, 1MS, Widescreen - AG323FCXE</t>
-  </si>
-  <si>
-    <t>Com tela de alta qualidade, amplo ângulo de visão e comando em tempo real, prepare-se para obter uma experiência muito mais imersiva em todos os gêneros de jogos.  Destaques   Projetado para Gamers. O monitor Agon permite movimentos muito mais fluídos nos jogos devido à altíssima taxa de atualização de 165Hz. A Jogada Perfeita para a Vitória. O tempo de resposta de 1 ms proporciona movimentos instantâneos e naturais para você ser o melhor em qualquer tipo de jogo.   Veja Muito Veja Mais Com o Painel VA, você tem mais brilho e contraste para enxergar onde os seus inimigos estão, mesmo em cenas com pouca iluminação.   Para Onde Você Olha, Tem Jogo A curvatura da tela de 1500R expande o campo de visão para uma visualização muito mais ampla dos cenários, oferecendo mais imersão e profundidade em todos os seus jogos.</t>
-  </si>
-  <si>
-    <t>Monitor Gamer Acer Nitro Qg270, 27 Polegadas, Full Hd, 180hz, 1ms Freesync</t>
-  </si>
-  <si>
-    <t>Monitor gamer acer nitro qg270 27 polegadas full hd 180hz 1ms freesync  &lt;br /&gt;&lt;br /&gt;  &lt;br /&gt;&lt;br /&gt;  com o monitor gamer nitro qg270 27 polegadas da acer você conseguirá jogar com muito mais clareza e foco! Ele conta com uma alta taxa de atualização de até 180hz e visual response boost (vrb) de até 1 ms. Além disso, o design zeroframe praticamente elimina as bordas e garante a sua imersão no jogo.&lt;br /&gt;&lt;br /&gt;  &lt;br /&gt;&lt;br /&gt;  confira as principais características do nitro qg270 27 polegadas:&lt;br /&gt;&lt;br /&gt;  tela de 27 polegadas full hd: o nitro qg270 entrega imagens mais nítidas, levando sua experiência visual e seu foco no jogo para um novo nível.&lt;br /&gt;&lt;br /&gt;  design zeroframe: monitor com tela led va e design zeroframe, que praticamente elimina as bordas para que você tenha uma verdadeira imersão no jogo.&lt;br /&gt;&lt;br /&gt;  taxa de atualização de até 180hz: esse monitor conta com uma alta taxa de atualização de até 180hz. Prepare-se para ver imagens mais suaves, sem rastros e sem rasgos.&lt;br /&gt;&lt;br /&gt;  tecnologia hdr10: a tela cria níveis mais profundos de contraste preto e branco. Conte com mais imersão no jogo por meio da recriação de imagens realistas.&lt;br /&gt;&lt;br /&gt;  visual response boost (vrb) de até 1 ms: o monitor reduz borrões, efeitos fantasmas e manchas nas imagens. Além disso, elimina o desfoque em objetos em movimento rápido.&lt;br /&gt;&lt;br /&gt;  &lt;br /&gt;&lt;br /&gt;  características:&lt;br /&gt;&lt;br /&gt;  marca: acer&lt;br /&gt;&lt;br /&gt;  modelo: nitro qg270&lt;br /&gt;&lt;br /&gt;  tecnologias: hdr10, md freesync premium, acervision care, flicker-less, low dimming, bluelightshield, acer display widget, game mode, adaptative contrast management&lt;br /&gt;&lt;br /&gt;  cor: preto&lt;br /&gt;&lt;br /&gt;  resolução de tela: full hd 1920 x 1080 180 hz&lt;br /&gt;&lt;br /&gt;  conexão: 1x hdmi (2.0) e 1x displayport(1.4)&lt;br /&gt;&lt;br /&gt;  brilho: 300 nits&lt;br /&gt;&lt;br /&gt;  tempo de resposta: 1 ms vrb visual response boost&lt;br /&gt;&lt;br /&gt;  contraste: 3000:1&lt;br /&gt;&lt;br /&gt;  atualização: até 180 hz&lt;br /&gt;&lt;br /&gt;  interfaces/portas: 1x hdmi(2.0), 1x displayport(1.4), 1x saída de áudio e entrada de alimentação&lt;br /&gt;&lt;br /&gt;  inclinação: -5 graus a 15 graus (aproximadamente)&lt;br /&gt;&lt;br /&gt;  cores: 16.7 milhões&lt;br /&gt;&lt;br /&gt;  ângulo de visão: 178 graus esquerda / direita e 178 graus cima / baixo&lt;br /&gt;&lt;br /&gt;  &lt;br /&gt;&lt;br /&gt;  itens inclusos:&lt;br /&gt;&lt;br /&gt;  monitor&lt;br /&gt;&lt;br /&gt;  suportes&lt;br /&gt;&lt;br /&gt;  manual em português&lt;br /&gt;&lt;br /&gt;  termo de garantia&lt;br /&gt;&lt;br /&gt;  1x cabo de energia&lt;br /&gt;&lt;br /&gt;  1x cabo hdmi&lt;br /&gt;&lt;br /&gt;  &lt;br /&gt;&lt;br /&gt;  garantia: 12 meses (diretamente com a fabricante)</t>
-  </si>
-  <si>
-    <t>Monitor Gamer Alienware, 27 Polegadas QHD - Aw2724dm</t>
-  </si>
-  <si>
-    <t>&lt;br&gt;monitor de 27" otimizado para os jogos diários. Apresenta uma tela qhd com uma jogabilidade que parece real.&lt;/br&gt;&lt;br&gt;detalhes vibrantes: veja mais nos universos de todos os jogos em uma tela qhd de 27" que oferece imagens nítidas e detalhadas em ângulos de visão ampliados.&lt;/br&gt;&lt;br&gt;games realistas: não perca nenhum detalhe realista graças aos avançados recursos visuais de alto contraste da certificação vesa displayhdr™ 600 e à cinematográfica cobertura de cores com 95% dci-p3, tudo calibrado com precisão de delta e inferior a 2.&lt;/br&gt;&lt;br&gt;experiência de jogo mais tranquila: as tecnologias nvidia® g-sync®, amd freesync™ premium pro e vesa adaptivesync proporcionam uma experiência gamer sem interrupções nem complicações, mesmo durante os momentos épicos nos games.&lt;/br&gt;&lt;br&gt;pronto para a ação: visualize gráficos acelerados e sem desfoques com incrível suavidade graças às taxas de atualização de até 180 hz e ao tempo de resposta gtg (cinza a cinza) de 1 ms em um rápido painel ips.&lt;/br&gt;&lt;br&gt;conforto ocular certificado: com o comfortview plus, você pode jogar por mais tempo, graças a uma tecnologia de tela sempre ativa e integrada que reduz as emissões de luz azul sem afetar a precisão das cores.&lt;/br&gt;&lt;br&gt;design reformulado: com o mais recente id legend 2.0, este monitor foi cuidadosamente projetado com detalhes como a base hexagonal, o suporte totalmente ajustável e a iluminação personalizável alienfx, que proporcionam uma experiência gamer confortável.&lt;/br&gt;&lt;br&gt;tranquilidade incluida: este produto conta com 3 anos de garantia.&lt;/br&gt;&lt;br&gt;a dell reserva-se o direito de não concluir ou cancelar a venda se o(s) produto(s) for(em) adquirido(s) para revenda.&lt;/br&gt;&lt;br&gt;eventual desconto devido a forma de pagamento é fornecido pela(o) plataforma e não pela dell. A nota fiscal do produto adquirido será emitida sem considerar tal desconto.&lt;/br&gt;&lt;br&gt;&lt;br&gt;especificações tecnicas&lt;/br&gt;&lt;br&gt;tamanho da tela: 27”&lt;/br&gt;&lt;br&gt;conectividade: 1. Conector de alimentação | 2. Slot de trava de segurança (com base no kensington security slot) | 3. Joystick | 4. Porta usb superspeed type-a de 5 gbps para downstream (usb 3.2 de 1ª geração) com battery charging 1.2 | 5. Porta usb superspeed type-b de 5 gbps para downstream (usb 3.2 de 1ª geração) | 6. Porta usb superspeed type-b upstream de 5 gbit/s (usb 3.2 de 1ª geração) | 7. Porta hdmi | 8. Displayport (dp1) | 9. Displayport (dp2)&lt;/br&gt;&lt;br&gt;compatibilidade vesa: sim, 100x100mm&lt;/br&gt;&lt;br&gt;tipo de painel: ips&lt;/br&gt;&lt;br&gt;revestimento da tela: antirreflexo&lt;/br&gt;&lt;br&gt;resolução: 2560 x 1440 180hz (com overclock) / 165hz (nativo)&lt;/br&gt;&lt;br&gt;ângulo de visão: 178º/178º&lt;/br&gt;&lt;br&gt;distância entre pixels: 0,2331mm&lt;/br&gt;&lt;br&gt;pixels por polegada: 108,97&lt;/br&gt;&lt;br&gt;contraste: 1000:1 (típico)&lt;/br&gt;&lt;br&gt;taxa de proporção: 16:9&lt;/br&gt;&lt;br&gt;iluminação: led&lt;/br&gt;&lt;br&gt;brilho: 600 cd/m2 (hdr) e 400 cd/m2 (típico)&lt;/br&gt;&lt;br&gt;amd freesync: sim, suporta amd freesync premium pro com taxa de atualização até 165hz e rápido tempo de resposta de 1ms gray-to-gray em modo extremo&lt;/br&gt;&lt;br&gt;nvidia g-sync: sim, suporta nvidia g-sync compatível&lt;/br&gt;&lt;br&gt;ergonomia: altura (110mm), inclinação (-5º a 21º), giro (-20º a 20º), paisagem/retrato (-90º a 90º) e gerenciamento de cabos&lt;/br&gt;&lt;br&gt;dell display manager: sim&lt;/br&gt;&lt;br&gt;low blue light: sim, comfortview plus (hardware)&lt;/br&gt;&lt;br&gt;flicker-free: sim&lt;/br&gt;&lt;br&gt;garantia: 3 anos de serviço de troca avançada e troca de painel premium&lt;/br&gt;&lt;br&gt;suporte de cores:&lt;br&gt;       color gamut (típico): dci-p3 95%; 100% srgb&lt;/br&gt;&lt;br&gt;       color depth (típico): 1.07 bilhões de cores(true 10 bit)&lt;/br&gt;&lt;br&gt;dimensões: 408,68 x 611,44 x 243,71 mm&lt;/br&gt;&lt;br&gt;peso: 4.38 kg&lt;/br&gt;&lt;br&gt;o que vem na caixa: monitor, suporte e base, cabo de energia, 1x  cabo dp(1.8m), 1x cabo usb-c para dp1.4  (1m), 1x cabo usb3.2 gen 1 (5 gbps) upstream (1.8m), guia de início rápido, informações de segurança e adeviso aliewnare&lt;/br&gt;</t>
+    <t>Monitor 29 Lg 29wk500 - Tela Ips Full Hd Ultrawide Freesync - Modo Gamer - Screen Split 2.0 - 5ms</t>
+  </si>
+  <si>
+    <t>Monitor Cooler Master Ga271, 27 Polegadas, Wqhd, Va, Hdr10, 100hz, 1ms, Srgb</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;strong&gt;mergulhe no mundo dos jogos&lt;/strong&gt;&lt;br /&gt;o ga271 é um monitor wqhd com taxa de atualização de até 100 hz com suporte para adaptive sync. Com todos os recursos e especificações necessários, o ga271 é um monitor orientado para o valor que oferece desempenho excepcional em aplicações de jogos e de trabalho.&lt;/p&gt;&lt;p&gt;&lt;strong&gt;encontre seu equilíbrio&lt;/strong&gt;&lt;br /&gt;o ga271 com um painel de 27" com resolução wqhd oferece visuais impressionantes para seus jogos e aplicativos relacionados ao trabalho. O ga271 pode ser seu monitor principal para lidar com planilhas durante o dia, bem como para jogar e desfrutar de entretenimento durante a noite.&lt;/p&gt;&lt;p&gt;&lt;strong&gt;100hz + 1ms&lt;/strong&gt;&lt;br /&gt;o ga271 oferece uma taxa de atualização fluida de 100 hz com tempo de resposta de 1 ms, proporcionando imagens mais nítidas e responsivas para jogos, bem como para uso geral de produtividade.&lt;/p&gt;&lt;p&gt;&lt;strong&gt;contraste mais profundo&lt;/strong&gt;&lt;br /&gt;o painel va do ga271 produz pretos mais profundos e escuros para um nível de contraste aprimorado, resultando em maior qualidade de imagem. Com uma relação de contraste de 4000:1, o painel va do ga271 é capaz de reproduzir um nível de contraste 4x superior ao de um painel ips padrão.&lt;/p&gt;&lt;p&gt;&lt;strong&gt;sincronização adaptativa&lt;/strong&gt;&lt;br /&gt;ga271 vem com suporte adaptive sync, proporcionando uma experiência extra suave e sem interrupções em seus jogos. Ganhe uma vantagem competitiva sobre seus oponentes com menos manchas de movimento e visuais mais claros nos jogos que você joga.&lt;/p&gt;&lt;p&gt;&lt;strong&gt;luz azul baixa e sem cintilação&lt;/strong&gt;&lt;br /&gt;ga271 não treme e possui um modo de luz azul baixa para proteger ainda mais seus olhos de emissões de luz azul potencialmente prejudiciais.&lt;/p&gt;&lt;p&gt;&lt;strong&gt;pronto para hdr&lt;/strong&gt;&lt;br /&gt;o ga271 não é ótimo apenas para jogos, mas também para desfrutar de entretenimento, pois aceita entrada hdr, permitindo visualizar conteúdo com maiores detalhes e cores em comparação com um monitor tradicional.&lt;/p&gt;&lt;p&gt;&lt;strong&gt;estética minimalista&lt;/strong&gt;&lt;br /&gt;ga271 segue o básico com um design prático com foco em uma estética minimalista. O design limpo certamente se encaixa perfeitamente em sua configuração de trabalho e lazer.&lt;/p&gt;&lt;p&gt;&lt;strong&gt;opções de conectividade&lt;/strong&gt;&lt;br /&gt;conecte seus dispositivos às portas de e/s que consistem em: 1 x porta de exibição,  2 x hdmi 2.0, 1 x conector de fone de ouvido de 3,5 mm&lt;/p&gt;&lt;p&gt; &lt;/p&gt;&lt;p&gt;&lt;strong&gt;especificações:&lt;/strong&gt;&lt;/p&gt;&lt;ul&gt;	&lt;li&gt;marca: cooler master&lt;/li&gt;	&lt;li&gt;modelo: cmi-ga271&lt;/li&gt;	&lt;li&gt;tipo de painel: série plana&lt;/li&gt;	&lt;li&gt;razão: 16:9&lt;/li&gt;	&lt;li&gt;tamanho da tela: 27"&lt;/li&gt;	&lt;li&gt;painel: va 1.07b&lt;/li&gt;	&lt;li&gt;resolução: 2k wqhd 2560x1440&lt;/li&gt;	&lt;li&gt;taxa de quadros: 100hz&lt;/li&gt;	&lt;li&gt;relação de contraste: 4000:1&lt;/li&gt;	&lt;li&gt;visão de angulo: 178°/178°&lt;/li&gt;	&lt;li&gt;brilho: 250 lêndeas&lt;/li&gt;	&lt;li&gt;gama de cores: srgb 95%&lt;/li&gt;	&lt;li&gt;entradas hdmi: 2&lt;/li&gt;	&lt;li&gt;entrada dp: 1&lt;/li&gt;	&lt;li&gt;tecnologia vrr: adaptive sync, faixa freesync: sim, faixa g-sync: sim&lt;/li&gt;	&lt;li&gt;tempo de resposta: 1ms (mprt) &lt;/li&gt;	&lt;li&gt;proteção de luz azul: sim &lt;/li&gt;	&lt;li&gt;consumo: 18w&lt;/li&gt;	&lt;li&gt;ajuste de inclinação: -5°~+20°&lt;/li&gt;&lt;/ul&gt;</t>
   </si>
   <si>
     <t>Monitor Gamer Cooler Master 34 QLED 2K QHD, 165Hz, 1ms, HDMI e DisplayPort, 95% DCI-P3, HDR, FreeSync - CMI-GM34-CW2-BR</t>
@@ -1342,18 +1337,6 @@
 &lt;p&gt;Seus olhos e gestos s&amp;atilde;o levados cuidado pela &lt;strong&gt;prote&amp;ccedil;&amp;atilde;o do baixo azul modo de exibi&amp;ccedil;&amp;atilde;o de luz&lt;/strong&gt; e o benef&amp;iacute;cio de &lt;strong&gt;suporte ajust&amp;aacute;vel em altura&lt;/strong&gt; que lhe d&amp;aacute; sem preocupa&amp;ccedil;&amp;otilde;es, personalizado e jornada confort&amp;aacute;vel para vencer.&lt;/p&gt;
 &lt;p&gt;&amp;nbsp;&lt;/p&gt;
 &lt;h3&gt;Compre agora no KaBuM!&lt;/h3&gt;</t>
-  </si>
-  <si>
-    <t>Monitor Gamer LG 23.8" Full HD, 144Hz, 1Ms, HDMI, DP, IPS, HDR Freesync - 24GN600-B</t>
-  </si>
-  <si>
-    <t>Monitor Gamer LG 23,8 Full HD 144Hz 1MS HDMI DP IPS HDR Freesync 24GN600-B&lt;br /&gt;&lt;br /&gt;PROJETADO PARA VELOCIDADE INCRÍVEL&lt;br /&gt;Com IPS de 1ms comparável à velocidade TN, fornecendo a imagem residual minimizada e um tempo de resposta rápido, permite que você desfrute de um desempenho de jogo totalmente novo.&lt;br /&gt;&lt;br /&gt;MOVIMENTO DE JOGO FLUIDO&lt;br /&gt;Uma velocidade ultra-rápida de 144 Hz permite que os jogadores vejam o próximo quadro rapidamente e faz com que a imagem apareça suavemente. Os jogadores podem responder rapidamente aos oponentes e mirar no alvo facilmente.&lt;br /&gt;&lt;br /&gt;SINTA O COMBATE REAL COM CORES VERDADEIRAS&lt;br /&gt;Este monitor suporta HDR10 com sRGB 99 (Typ.) Permitindo imersão visual realista com cores ricas e contraste. Independentemente do campo de batalha, pode ajudar os jogadores a ver todas as cores dramáticas que os desenvolvedores do jogo pretendiam.&lt;br /&gt;&lt;br /&gt;REAJA MAIS RÁPIDO AOS OPONENTES&lt;br /&gt;Minimize o atraso de entrada com Dynamic Action Sync para que os jogadores possam capturar cada momento em tempo real.&lt;br /&gt;&lt;br /&gt;ATAQUE PRIMEIRO NO ESCURO&lt;br /&gt;Os jogadores podem evitar que os atiradores se escondam nos lugares mais escuros e escapar rapidamente das situações quando o flash explode.</t>
-  </si>
-  <si>
-    <t>Monitor Gamer HQ Premium 25 Pol. Full HD, 1MS, 240Hz, IPS, AMD Freesync, HDMI, DP - Gp25i124</t>
-  </si>
-  <si>
-    <t>&lt;b&gt;::: HQ Premium :::&lt;/b&gt;&lt;br /&gt;&lt;br /&gt;Revolucionário, assim é definido este monitor!&lt;br /&gt;&lt;br /&gt;&lt;b&gt;Última geração:&lt;/b&gt; monitor de ponta, com uma vasta gama de tecnologias embarcadas. A melhor qualidade de imagem com um preço justo.&lt;br /&gt;&lt;br /&gt;&lt;b&gt;Saia na frente: &lt;/b&gt;extraia o máximo de suas habilidades com uma tela pronta para qualquer tipo de desafio.&lt;br /&gt;&lt;br /&gt;&lt;b&gt;Gamer de verdade: &lt;/b&gt;graças ao baixo tempo de resposta de 1ms, a alta taxa de atualização e a tecnologia amd freesync, jogue como um profissional!&lt;br /&gt;&lt;br /&gt;&lt;b&gt;Longas jornadas: &lt;/b&gt;um grande diferencial: com as tecnologias flicker-free e low blue light, você pode encarar horas de jogatina sem cansar a vista.&lt;br /&gt;&lt;br /&gt;&lt;b&gt;Alta resolução com alta definição: &lt;/b&gt;não basta apenas ser full hd. Você, merece mais! Viva momentos únicos com imagens de tirar o fôlego. Além de jogar em 1080p, você, perceberá, cada mínimo detalhe em qualquer tipo de cena. Saia na frente dos seus adversários, mesmo em situações de baixa luminosidade. Sinta-se dentro do jogo, a imersão é, total!&lt;br /&gt;&lt;br /&gt;&lt;b&gt;Aproveitamento total: &lt;/b&gt;com a tela frameless, você, conta com bordas ultrafinas e aproveita todo o espaço da tela.&lt;br /&gt;&lt;br /&gt;&lt;b&gt;Sem reflexos: &lt;/b&gt;com a tela antireflexiva, você, pode embarcar nos seus desafios gamer em qualquer condição de luminosidade.</t>
   </si>
   <si>
     <t>Monitor Gamer Curvo HQ 24 LED, RGB, Full HD, 75 Hz, 1ms, HDMI/VGA, Borda Ultra Fina, Pink - 24GHQ-PINK</t>
@@ -1409,144 +1392,42 @@
 &lt;h3&gt;Compre agora no KaBuM!&lt;/h3&gt;</t>
   </si>
   <si>
+    <t>Monitor Gamer Lenovo Y25-30, 24.5", FullHD, 240Hz, 0.5ms, HDMI, DP, FreeSync</t>
+  </si>
+  <si>
+    <t>Suave, rápido e dinâmico, o monitor Lenovo Legion Y25-30 tem energia para elevar sua experiência de jogos a um nível totalmente novo. Mantendo o conforto de todos em mente, esta tela FHD (1920 x 1080) de 24,5", foi cuidadosamente projetada com o tamanho perfeito que aumenta visualmente cada detalhe do quadro e também é, confortável acompanhar a ação na tela de ponta a ponta. Esta arquitetura brilhante é, complementada por um painel de alta taxa de atualização de 240 Hz, proporcionando uma experiência de jogos fluida. O tempo de resposta extremamente rápido da tecnologia VRR (AMD FreeSync, Premium) de 0,5 ms MPRT elimina tremulações e ghosting, tornando cada momento uma oportunidade de vencer. Com um painel de chaveamento para uso em aeronaves, espaço de cores 120% sRGB e suporte a HDR, experimente imagens reais com cores vivas, precisas e dinâmicas de todos os ângulos. A tecnologia de luz azul baixa natural permite que você, aproveite confortavelmente jogos de longa duração reduzindo automaticamente a luz azul de alta frequência do painel de vídeo sem nenhuma distorção de cores. Com o software Lenovo Artery, este monitor permite que você, assuma o controle. O software não apenas ajuda você, a gerenciar melhor o desempenho da tela e de outros dispositivos, mas também oferece ",ferramentas para jogos",, como Mostrar taxa de quadros, Mostrar timer, Mostrar ponto de vista e Configurações de teclas de atalho. Com recursos de ponta e redução da tensão ocular, o Legion Y25-30 é, agradável aos olhos de todas as maneiras possíveis.</t>
+  </si>
+  <si>
+    <t>Monitor Gamer KBM! GAMING MG330 31.5' Led, Curvo, 165 Hz, Full Hd, 1ms, Adaptive Sync, Hdmi/Displayport, Ajuste De Ângulo - KGMG33031PT</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Monitor Gamer KBM! GAMING MG330 31.5' LED, Curvo, 165 Hz, Full HD, 1ms, Adaptive Sync, HDMI/DisplayPort, Ajuste de&amp;nbsp; ngulo - KGMG330&lt;/h2&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Esteja um passo &amp;agrave; frente!&lt;/h2&gt;
+&lt;p&gt;O Monitor Gamer KBM! GAMING MG330 conta com resposta de &lt;strong&gt;1ms&lt;/strong&gt; e taxa de atualiza&amp;ccedil;&amp;atilde;o de &lt;strong&gt;165Hz&lt;/strong&gt;, permitindo a mais alta performance durante suas gameplays. Sua curvatura amplia o campo de vis&amp;atilde;o relativo, concentrando toda a a&amp;ccedil;&amp;atilde;o ao alcance dos olhos do usu&amp;aacute;rio, sem perder resolu&amp;ccedil;&amp;atilde;o.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Melhor Entrega de Imagens para sua Gameplay&lt;/h2&gt;
+&lt;p&gt;Compat&amp;iacute;vel com a tecnologia &lt;strong&gt;Adaptive Sync&lt;/strong&gt;, permite a sincroniza&amp;ccedil;&amp;atilde;o dos frames da placa de v&amp;iacute;deo, decretando o fim do input lag, bem como do tearing.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Conectividade&lt;/h2&gt;
+&lt;p&gt;O Monitor Gamer KBM! GAMING MG330 acompanha um cabo &lt;strong&gt;DisplayPort&lt;/strong&gt; que garante a melhor qualidade de imagem para seu jogo. Al&amp;eacute;m da conex&amp;atilde;o DP, o monitor ainda possui duas conex&amp;otilde;es &lt;strong&gt;HDMI&lt;/strong&gt; e uma conex&amp;atilde;o &lt;strong&gt;P2&lt;/strong&gt; para ouvir seu jogo diretamente do seu monitor.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Maior Ergonomia e Conforto para Uso Prolongado&lt;/h2&gt;
+&lt;p&gt;O Monitor Gamer KBM! GAMING MG330 possui ajuste de inclina&amp;ccedil;&amp;atilde;o &lt;strong&gt;de 5&amp;deg; a 15&amp;deg;&lt;/strong&gt; que se ajusta ergonomicamente para o seu uso. O monitor tamb&amp;eacute;m conta com &lt;strong&gt;Redu&amp;ccedil;&amp;atilde;o de Luz Azul&lt;/strong&gt;, se tornando uma &amp;oacute;tima op&amp;ccedil;&amp;atilde;o para Gameplays prolongadas.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h3&gt;Seu Monitor KBM! GAMING voc&amp;ecirc; encontra aqui no KaBuM!&lt;/h3&gt;</t>
+  </si>
+  <si>
     <t>Monitor Gamer Lg 24'', Hdmi/displayport, Led Full Hd, 144hz, 1ms Mbr, Freesync, Ajuste De Inclinação</t>
   </si>
   <si>
     <t>Desfrute de uma incrível qualidade de imagem com o monitor LG e se surpreenda com o HDR10. A alta gama de cores e com resolução 4k é facilmente superior quando comparado a monitores convencionais. Com a tecnologia AMD Radeon FreeSync você aproveitará ainda mais das imagens do Monitor LG, eliminando os cortes e repetições de imagem..</t>
   </si>
   <si>
-    <t>Monitor Gamer Lenovo Y25-30, 24.5", FullHD, 240Hz, 0.5ms, HDMI, DP, FreeSync</t>
-  </si>
-  <si>
-    <t>Suave, rápido e dinâmico, o monitor Lenovo Legion Y25-30 tem energia para elevar sua experiência de jogos a um nível totalmente novo. Mantendo o conforto de todos em mente, esta tela FHD (1920 x 1080) de 24,5", foi cuidadosamente projetada com o tamanho perfeito que aumenta visualmente cada detalhe do quadro e também é, confortável acompanhar a ação na tela de ponta a ponta. Esta arquitetura brilhante é, complementada por um painel de alta taxa de atualização de 240 Hz, proporcionando uma experiência de jogos fluida. O tempo de resposta extremamente rápido da tecnologia VRR (AMD FreeSync, Premium) de 0,5 ms MPRT elimina tremulações e ghosting, tornando cada momento uma oportunidade de vencer. Com um painel de chaveamento para uso em aeronaves, espaço de cores 120% sRGB e suporte a HDR, experimente imagens reais com cores vivas, precisas e dinâmicas de todos os ângulos. A tecnologia de luz azul baixa natural permite que você, aproveite confortavelmente jogos de longa duração reduzindo automaticamente a luz azul de alta frequência do painel de vídeo sem nenhuma distorção de cores. Com o software Lenovo Artery, este monitor permite que você, assuma o controle. O software não apenas ajuda você, a gerenciar melhor o desempenho da tela e de outros dispositivos, mas também oferece ",ferramentas para jogos",, como Mostrar taxa de quadros, Mostrar timer, Mostrar ponto de vista e Configurações de teclas de atalho. Com recursos de ponta e redução da tensão ocular, o Legion Y25-30 é, agradável aos olhos de todas as maneiras possíveis.</t>
-  </si>
-  <si>
-    <t>Monitor Gamer Asus TUF 27 LED Full HD, 1ms, 165 Hz, FreeSync Premium, 120% sRGB, HDMI, Som Integrado, ELMB - VG27VH1B</t>
-  </si>
-  <si>
-    <t>&lt;h2&gt;Monitor gaming TUF Gaming VG27VH1B 27 polegadas Full HD (1920x1080), 165 Hz (acima de 144 Hz), Extreme Low Motion Blur, Adaptive-sync, FreeSync Premium, 1ms (MPRT), Curvo&lt;/h2&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;Monitor gaming 1500R Full HD (1920x1080) de 27 polegadas com taxa de atualiza&amp;ccedil;&amp;atilde;o ultrarr&amp;aacute;pida de 165 Hz projetado para jogadores profissionais e jogabilidade envolvente.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;A tecnologia ASUS Extreme Low Motion Blur (ELMB&amp;trade;) permite um tempo de resposta de 1 ms (MPRT) junto com a sincroniza&amp;ccedil;&amp;atilde;o adaptativa, eliminando fantasmas e tearing para visuais n&amp;iacute;tidos de jogos com altas taxas de quadros.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;Tecnologia FreeSync premium para eliminar tearing da tela e taxas de quadros inst&amp;aacute;veis.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;O Shadow Boost aprimora os detalhes da imagem em &amp;aacute;reas escuras, iluminando as cenas sem expor demais as &amp;aacute;reas claras.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;Full HD(1920 X 1080)@120Hz output on PS5 &amp;amp; Xbox Series X/S.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>Monitor Gamer Asus TUF 24.5 Full HD, 165Hz, 1ms, IPS, HDMI e DisplayPort, Adaptive Sync, Ajuste de Altura, Som Integrado, VESA - VG259QR</t>
-  </si>
-  <si>
-    <t>&lt;h2&gt;Monitor Gamer Asus TUF 24.5' IPS, 165 Hz, Full HD, 1ms, Adaptive Sync, HDMI/DisplayPort, Ajuste de Altura, Vesa, Som Integrado - VG259QR&lt;/h2&gt;
-&lt;p&gt;&lt;strong&gt;Monitor&amp;nbsp;gamer Full HD&lt;/strong&gt; (1920 x 1080) de&lt;strong&gt; 24,5 polegadas&lt;/strong&gt; com &lt;strong&gt;taxa de atualiza&amp;ccedil;&amp;atilde;o ultrarr&amp;aacute;pida&lt;/strong&gt; de &lt;strong&gt;165 Hz&lt;/strong&gt; projetado para jogadores profissionais e jogabilidade envolvente. A tecnologia&lt;strong&gt; ASUS Extreme Low Motion Blur&lt;/strong&gt; (ELMB) permite um &lt;strong&gt;tempo de resposta de 1 ms&lt;/strong&gt; (MPRT), eliminando fantasmas para visuais n&amp;iacute;tidos de jogos. O &lt;strong&gt;Shadow Boost&lt;/strong&gt; aprimora os detalhes da imagem em &amp;aacute;reas escuras, iluminando cenas sem expor demais as &amp;aacute;reas claras.&lt;/p&gt;
-&lt;p&gt;&lt;br /&gt;Processamento &lt;strong&gt;compat&amp;iacute;vel com G-SYNC&lt;/strong&gt;, proporcionando uma experi&amp;ecirc;ncia de jogo perfeita e sem problemas ao habilitar &lt;strong&gt;VRR&lt;/strong&gt; (taxa de atualiza&amp;ccedil;&amp;atilde;o vari&amp;aacute;vel) por padr&amp;atilde;o. Apresenta um suporte ergonomicamente projetado para oferecer extensos&lt;strong&gt; ajustes de rota&amp;ccedil;&amp;atilde;o, inclina&amp;ccedil;&amp;atilde;o, rota&amp;ccedil;&amp;atilde;o e altura.&lt;/strong&gt;&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;div&gt;
-&lt;h2&gt;Taxa de atualiza&amp;ccedil;&amp;atilde;o de 165Hz&lt;/h2&gt;
-&lt;/div&gt;
-&lt;p&gt;O &lt;strong&gt;TUF G259 GamingR&lt;/strong&gt; tem uma &lt;strong&gt;taxa de atualiza&amp;ccedil;&amp;atilde;o ultrarr&amp;aacute;pida de 165Hz&lt;/strong&gt;, que mesmo os jogos mais r&amp;aacute;pidos foram criados, apresentando nas configura&amp;ccedil;&amp;otilde;es mais altas, uma apar&amp;ecirc;ncia e quase livre de&lt;strong&gt; 165Hz&lt;/strong&gt;.&amp;nbsp;Ganhe a vantagem em jogos de tiro em primeira pessoa, corrida, estrat&amp;eacute;gia em tempo real e t&amp;iacute;tulos de esportes.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;div&gt;
-&lt;h2&gt;Conectividade variada&lt;/h2&gt;
-&lt;/div&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;Extensas op&amp;ccedil;&amp;otilde;es de conectividade, incluindo &lt;strong&gt;1 DisplayPort 1.2, 2 HDMI&lt;/strong&gt; (v1.4) e &lt;strong&gt;fone de ouvido&lt;/strong&gt;, oferece suporte a uma ampla variedade de dispositivos multim&amp;iacute;dia.&lt;/p&gt;
-&lt;h3&gt;&lt;br /&gt;Garanta seu Monitor Gamer no KaBuM!&lt;/h3&gt;</t>
-  </si>
-  <si>
-    <t>Monitor Asus Rog Swift 47.5 OLED, 138Hz, 0,1ms, HDMI e DisplayPort, 133% sRGB, HDR, G-Sync, Som Integrado, VESA - PG48UQ</t>
-  </si>
-  <si>
-    <t>&lt;h2&gt;Monitor de jogos ROG Swift OLED 4K de 47.5", OLED, 138 Hz (overclocked), 0,1 ms (GTG), compat&amp;iacute;vel com G-SYNC, revestimento de microtextura antirreflexo, dissipador de calor personalizado, brilho uniforme, 98% DCI-P3, true 10 bits, HDMI 2.1, DisplayPort 1.4&lt;/h2&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;- Monitor de jogos &lt;strong&gt;OLED 4K&lt;/strong&gt; (3840 x 2160) de 47,5" com taxa de atualiza&amp;ccedil;&amp;atilde;o de 138Hz (overclock), projetado para jogos imersivos&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;- Apresenta pretos extremos, alto brilho perceptivo e tempo de resposta ultrarr&amp;aacute;pido de &lt;strong&gt;0,1 ms&lt;/strong&gt;, com gama de cores &lt;strong&gt;DCI-P3 de 98%&lt;/strong&gt; e diferen&amp;ccedil;a de cor Delta E &amp;lt;2 para desempenho &lt;strong&gt;HDR&lt;/strong&gt; surpreendente.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;- O dissipador de calor personalizado permite temperaturas at&amp;eacute; 8% mais baixas para melhor desempenho &lt;strong&gt;OLED&lt;/strong&gt; de longo prazo.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;- Configura&amp;ccedil;&amp;atilde;o de &lt;strong&gt;brilho uniforme&lt;/strong&gt; opcional amig&amp;aacute;vel ao jogador para n&amp;iacute;veis de brilho uniformes.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;- O &lt;strong&gt;revestimento de microtextura antirreflexo&lt;/strong&gt; reduz os reflexos para cores precisas e melhores experi&amp;ecirc;ncias de visualiza&amp;ccedil;&amp;atilde;o.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;- Extensas op&amp;ccedil;&amp;otilde;es de conectividade, incluindo &lt;strong&gt;DisplayPort 1.4 com Display Stream Compression&lt;/strong&gt; &lt;strong&gt;(DSC), HDMI 2.1, hub USB&lt;/strong&gt; e um soquete de trip&amp;eacute; na parte superior do monitor.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h3&gt;CONSTRU&amp;Iacute;DO PARA JOGOS. &amp;Oacute;TIMO PARA TUDO&lt;/h3&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;O ROG Swift OLED PG48UQ &amp;eacute; um monitor de jogos OLED 4K de 47,5 polegadas que apresenta um revestimento de microtextura antirreflexo para reduzir os reflexos e garantir que voc&amp;ecirc; veja as cores na tela com mais precis&amp;atilde;o. Sua taxa de atualiza&amp;ccedil;&amp;atilde;o super r&amp;aacute;pida de 138 Hz (com overclock) e tempo de resposta incr&amp;iacute;vel de 0,1 ms oferece jogos incrivelmente envolventes em uma escala maior. Al&amp;eacute;m disso, a gama DCI-P3 de 98%, cores verdadeiras de 10 bits e Delta E &amp;lt; 2 garantem cores realistas e os tons de preto mais escuros poss&amp;iacute;veis.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h3&gt;VISUAIS DETALHADOS E TEXTO CLARAMENTE DEFINIDO&lt;/h3&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;Os monitores de jogos ROG Swift OLED apresentam pain&amp;eacute;is OLED de &amp;uacute;ltima gera&amp;ccedil;&amp;atilde;o projetados para maior efici&amp;ecirc;ncia e brilho. O layout de subpixel fornece visuais extremamente detalhados e texto claramente definido para atualizar a experi&amp;ecirc;ncia de visualiza&amp;ccedil;&amp;atilde;o.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h3&gt;CORES ULTRA-REALISTAS&lt;/h3&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;O monitor de jogos PG48UQ apresenta verdadeira profundidade de cor de 10 bits e uma gama de 98% DCI-P3 com qualidade de cinema para oferecer realismo incompar&amp;aacute;vel. Cada monitor &amp;eacute; pr&amp;eacute;-calibrado para Delta E &amp;lt; 2 para garantir a melhor reprodu&amp;ccedil;&amp;atilde;o de cores em seu brilhante painel OLED.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h3&gt;DESIGN DE RESFRIAMENTO INTELIGENTE PARA TEMPERATURAS 8% MAIS BAIXAS&lt;/h3&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;O dissipador de calor personalizado encontrado no PG48UQ oferece mais &amp;aacute;rea de superf&amp;iacute;cie para troca de calor para fornecer desempenho de resfriamento mais eficiente, mesmo em longos per&amp;iacute;odos de jogo. A temperatura mais baixa permite um melhor desempenho do OLED com menor probabilidade de ader&amp;ecirc;ncia da imagem. Este robusto sistema fanless opera silenciosamente para minimizar as distra&amp;ccedil;&amp;otilde;es.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>Monitor Gamer Samsung Odyssey G32a, 24 Pol, Full HD, 165Hz, 1MS, HDMI, DislayPort, Freesync, Com Ajuste De Altura - Ls24ag320nlxzd</t>
-  </si>
-  <si>
-    <t>&lt;b&gt;Monitor Gamer Samsung Odyssey G32A 24" Preto - LS24AG320NLXZD&lt;/b&gt;&lt;br /&gt;&lt;br /&gt;Monitor Gamer Samsung Odyssey G32A 24", FHD, 165Hz, 1ms, com ajuste de altura, HDMI, DP, Freesync, Preto, Série G32. Taxa de atualização de 165Hz. Vença todos os inimigos, mesmo em velocidades altíssimas. A taxa de atualização de 165Hz elimina o atraso e o desfoque do movimento para uma jogabilidade estimulante com ação ultra-suave. 1ms de tempo de resposta (MPRT). Faça com que cada movimento conte com um tempo de resposta de 1ms. Os pixels da tela respondem de maneira quase instantânea, permitindo que a ação rápida flua com precisão do mundo real. Seu desempenho na tela é tão rápido quanto seus próprios reflexos.</t>
-  </si>
-  <si>
-    <t>Monitor Gamer AOC Porsche Design 27 LED QHD, 240Hz, 0.5ms, HDMI/DisplayPort, FreeSync Premium Pro, HDR 400, 119% sRGB, Preto e Prata - PD27</t>
-  </si>
-  <si>
-    <t>&lt;h2&gt;Monitor Gamer AOC Porsche Design 27 LED QHD, 240Hz, 0.5ms, HDMI/DisplayPort, FreeSync Premium Pro, HDR 400, 119% sRGB, Preto e Prata&lt;/h2&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h2&gt;PROJETADO PARA ENFRENTAR QUALQUER DESAFIO&lt;/h2&gt;
-&lt;p&gt;Este incr&amp;iacute;vel monitor de 27&amp;rdquo; com resolu&amp;ccedil;&amp;atilde;o QHD, tela curva de 1000R, taxa de atualiza&amp;ccedil;&amp;atilde;o de 240 Hz e &lt;strong&gt;tempo de resposta de 0,5 m&lt;/strong&gt;s foi criado para oferecer m&amp;aacute;xima &lt;strong&gt;performance&lt;/strong&gt;. Possui assinatura Porsche em um design exclusivo, com um suporte inspirado nas gaiolas de seguran&amp;ccedil;a dos carros de corrida. Impacte qualquer ambiente e destaque-se com o monitor AOC PD27&lt;strong&gt; Porsche Design.&lt;/strong&gt;&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h2&gt;RESOLU&amp;Ccedil;&amp;Atilde;O QHD&lt;/h2&gt;
-&lt;p&gt;Desfrute de uma qualidade de imagem superior e imagens incrivelmente n&amp;iacute;tidas com a resolu&amp;ccedil;&amp;atilde;o &lt;strong&gt;Quad HD de 2560 x 1440&lt;/strong&gt; px. O formato&lt;strong&gt; widescreen 16:9&lt;/strong&gt; tamb&amp;eacute;m oferece a possibilidade de trabalhar com uma tela espa&amp;ccedil;osa ou curtir jogos ou filmes em seu tamanho original.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h2&gt;TELA CURVA DE 1000R&lt;/h2&gt;
-&lt;p&gt;A incr&amp;iacute;vel curvatura de 1000R proporciona sensa&amp;ccedil;&amp;atilde;o de imers&amp;atilde;o diferenciada, muito superior &amp;agrave; experi&amp;ecirc;ncia de um monitor curvo comum de 1800R. Al&amp;eacute;m de se sentir &lt;strong&gt;muito mais dentro&lt;/strong&gt; do jogo, ela permitir&amp;aacute; que voc&amp;ecirc; enxergue todo o conte&amp;uacute;do do game sem precisar mexer a cabe&amp;ccedil;a.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h2&gt;TECNOLOGIAS 240 HZ, 0,5 MS E AMD FREESYNC PREMIUM PRO&lt;/h2&gt;
-&lt;p&gt;Desenvolvido para entregar as melhores tecnologias, este monitor conta com uma taxa de atualiza&amp;ccedil;&amp;atilde;o de 240 Hz para voc&amp;ecirc; aproveitar mais &lt;strong&gt;fluidez nas suas imagens&lt;/strong&gt; e se sentir numa verdadeira corrida de carros. Ainda, possui um incr&amp;iacute;vel tempo de resposta de 0,5 ms e tecnologia &lt;strong&gt;AMD FreeSync Premium&lt;/strong&gt; Pro. Acabe de vez com os efeitos fantasmas e sincronize as taxas de atualiza&amp;ccedil;&amp;atilde;o do monitor com a GPU para um desempenho sem igual.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h2&gt;PAINEL IPS E DISPLAY HDR 400&lt;/h2&gt;
-&lt;p&gt;O Painel IPS oferece imagens incrivelmente n&amp;iacute;tidas com cores vivas e precisas, em um amplo &lt;strong&gt;&amp;acirc;ngulo de vis&amp;atilde;o de 178&amp;ordm;/178&lt;/strong&gt;&amp;ordm;. J&amp;aacute; o Display HDR 400 garante um pico de lumin&amp;acirc;ncia de 400 cd/m&amp;sup2; e permite imagens ainda mais aprimoradas, garantindo um espectro de cor e contraste diversificado e riqueza de detalhes.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h2&gt;PROJE&amp;Ccedil;&amp;Atilde;O DE LOGO&lt;/h2&gt;
-&lt;p&gt;Com uma proje&amp;ccedil;&amp;atilde;o frontal dos logos AOC ou Porsche Design, uma barra de luz destaca a frente do monitor e muda de cor dependendo da situa&amp;ccedil;&amp;atilde;o do jogo dinamicamente na superf&amp;iacute;cie da mesa.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h2&gt;ALTO-FALANTE EST&amp;Eacute;REO 2X 5W DTS&lt;/h2&gt;
-&lt;p&gt;Com o &lt;strong&gt;som DTS&lt;/strong&gt; integrado em duas sa&amp;iacute;das de alto-falantes est&amp;eacute;reos 5W voc&amp;ecirc; pode ouvir o barulho do motor como se estivesse em um carro esportivo ou desfrutar de um &amp;aacute;udio de qualidade em qualquer atividade.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h2&gt;CONTROLE WIRELESS COM DESIGN PORSCHE&lt;/h2&gt;
-&lt;p&gt;Conte com um teclado de atalho sem fio para jogos desenvolvido com um design chave da Porsche. &lt;strong&gt;Extremamente pr&amp;aacute;tico&lt;/strong&gt;, ele alterna rapidamente as configura&amp;ccedil;&amp;otilde;es de exibi&amp;ccedil;&amp;atilde;o em diferentes g&amp;ecirc;neros de jogos, como corrida, FPS e outros.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>Monitor Gamer Curvo HQ 24 LED, RGB, Full HD, 165 Hz, 1ms, HDMI/DisplayPort, FreeSync, sRGB, Som Integrado, Pink - 24GHQ-PINKsRGB</t>
-  </si>
-  <si>
-    <t>&lt;h2&gt;&lt;span id="docs-internal-guid-434371ff-7fff-8415-2ef8-584db895281a"&gt;Monitor Gamer LED Curvo 24" HQ 24GHQ-White RGB R3000 Display Port HDMI PINK&lt;/span&gt;&lt;/h2&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;p dir="ltr"&gt;A curvatura da tela de R3000 oferece imers&amp;atilde;o total, voc&amp;ecirc; ser&amp;aacute; capaz de apreciar imagens panor&amp;acirc;micas grandes, em alta resolu&amp;ccedil;&amp;atilde;o e com todas as especifica&amp;ccedil;&amp;otilde;es que um monitor Gamer de ponta exige.&lt;/p&gt;
-&lt;p dir="ltr"&gt;&amp;nbsp;&lt;/p&gt;
-&lt;p dir="ltr"&gt;A HQ levou a s&amp;eacute;rio o desenvolvimento desta linha, trazendo ao p&amp;uacute;blico mais exigente um produto completo e de alto n&amp;iacute;vel.&amp;nbsp;&lt;/p&gt;
-&lt;p dir="ltr"&gt;N&amp;atilde;o fique atras, reaja em tempo real e tenha os movimentos do teclado refletidos sem atrasos com o tempo de resposta de 1ms.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;p dir="ltr"&gt;&amp;nbsp;&lt;/p&gt;
-&lt;p dir="ltr"&gt;Sem borr&amp;otilde;es e sem perda de imagem. A INCR&amp;Iacute;VEL taxa de atualiza&amp;ccedil;&amp;atilde;o de 165hz garante que voc&amp;ecirc; tenha uma experi&amp;ecirc;ncia acima dos seus advers&amp;aacute;rios.&lt;/p&gt;
-&lt;p dir="ltr"&gt;&amp;nbsp;&lt;/p&gt;
-&lt;p dir="ltr"&gt;Imagens em alta resolu&amp;ccedil;&amp;atilde;o + Visual incr&amp;iacute;vel. A tela Full HD de alta resolu&amp;ccedil;&amp;atilde;o aliada ao design futurista e moderno do monitor garantem n&amp;atilde;o s&amp;oacute; imagens perfeitas como um visual incr&amp;iacute;vel de todo o seu conjunto.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>Monitor Gamer Samsung 24Pol, Full HD, 144 Hz, 1MS, HDMI, Display Port, VGA, Freesync Premium, Regulagem De Altura - Lf24g35tfwlxzd</t>
-  </si>
-  <si>
-    <t>Monitor 24 Polegadas Samsung Gamer LED Lf24g35tfwlxzd&lt;br /&gt;&lt;br /&gt; Faça cada movimento contar com um tempo de resposta de 1ms. Ataque seus inimigos assim que os vir e fique à frente com movimentos precisos do mouse. Seu desempenho na tela é tão rápido quanto seus próprios reflexos. Jogabilidade suave sem esforço.&lt;br /&gt;&lt;br /&gt; O AMD FreeSync Premium apresenta tecnologia de sincronização adaptável, que reduz o travamento de tela, oscilação e atrasos. Gire, incline e ajuste seu monitor até que todos os inimigos estejam perfeitamente visíveis. Sua tela pode ser movida livremente para que você encontre conforto total no jogo. &lt;br /&gt;&lt;br /&gt;0 design sem borda de 3 lados revela espaço máximo para uma jogabilidade maior e mais ousada. Alinhe dois monitores com precisão em uma configuração de monitor duplo sem que nenhum inimigo fique escondido na junção. Jogue por mais tempo sem incomodo visual. &lt;br /&gt;&lt;br /&gt;O Eye Saver Mode minimiza a emissão de luz azul para manter seus olhos relaxados e confortáveis enquanto joga por muitas horas. A tecnologia Flicker Free remove continuamente a tremulação cansativa e irritante da tela para que você possa jogar por mais tempo sem distrações ou fadiga ocular.</t>
+    <t>Monitor Gamer Redragon Amber, Tela de 27 Polegadas FHD, 165HZ, Curvo, LED, HDMI, Preto - GM27H10C</t>
+  </si>
+  <si>
+    <t>Características:&lt;br /&gt; - marca: redragon&lt;br /&gt; - modelo: gm27h10c&lt;br /&gt; especificações:&lt;br /&gt; - cor: preto&lt;br /&gt; - tamanho: 27”&lt;br /&gt; - resolução: 1920 x 1080 16:9&lt;br /&gt; - tipo de painel: va&lt;br /&gt; - taxa de atualização: 165 hz&lt;br /&gt; - número de cores: 16.7 m&lt;br /&gt; - brilho máximo: 250cd/m2 (typical)&lt;br /&gt; - taxa de contraste: 3000:1&lt;br /&gt; - conectividade: dp x1, hdmi x2, dc in x1&lt;br /&gt; - power range: 100-240v 50/60hz&lt;br /&gt; - tempo de resposta: 1ms&lt;br /&gt; - peso bruto(g): 5960g&lt;br /&gt; - peso liquido(g): 4830g&lt;br /&gt; conteúdo da embalagem:&lt;br /&gt; - monitor gamer redragon</t>
   </si>
   <si>
     <t>Monitor Gamer Gigabyte 27 Full HD, 165Hz, 1ms, IPS, HDMI e DisplayPort, 130% sRGB, HDR, FreeSync, Altura Ajustável - G27F2BR</t>
@@ -1604,17 +1485,144 @@
 &lt;h3&gt;Garanta o seu no KaBuM!&lt;/h3&gt;</t>
   </si>
   <si>
-    <t>Monitor Gamer Curvo Aorus 32 2K QHD, 240Hz, 1ms, IPS, HDMI e DisplayPort, 99% Adobe, HDR 600, FreeSync Premium, VESA - FI32Q-X</t>
-  </si>
-  <si>
-    <t>&lt;h2 style="text-align: justify;"&gt;Monitor Gamer Aorus 32 2K QHD, 240Hz, 1ms, IPS, HDMI e DisplayPort, 150% sRGB, HDR, FreeSync Premium, VESA - FI32Q-X&lt;/h2&gt;
-&lt;p style="text-align: justify;"&gt;&lt;br /&gt;O painel Super Speed ??IPS oferece cores espl&amp;ecirc;ndidas, enquanto os cristais Super Speed ??reduzem o tempo de resposta para 1ms GTG.&amp;nbsp;Super responsivo na tela glamorosa, o que mais voc&amp;ecirc; poderia pedir?&lt;br /&gt;O monitor AORUS Gaming usa os sistemas de LED mais avan&amp;ccedil;ados, combinados com o poder do RGB Fusion, voc&amp;ecirc; ter&amp;aacute; o sistema mais legal que todos invejam.&amp;nbsp;Atrav&amp;eacute;s do aplicativo RGB Fusion, voc&amp;ecirc; pode criar um ambiente de jogo &amp;uacute;nico!&lt;/p&gt;
-&lt;h2 style="text-align: justify;"&gt;&lt;br /&gt;Expanda a Gama de Cores&lt;/h2&gt;
-&lt;p style="text-align: justify;"&gt;High Dynamic Range (HDR) est&amp;aacute; ganhando interesse de uma ampla gama de aplica&amp;ccedil;&amp;otilde;es, incluindo jogos, entretenimento de filmes e cria&amp;ccedil;&amp;atilde;o de conte&amp;uacute;do multim&amp;iacute;dia.&amp;nbsp;Al&amp;eacute;m disso, este modelo suporta HLG (Hybrid Log-Gamma), permitindo que os usu&amp;aacute;rios desfrutem verdadeiramente do conte&amp;uacute;do originalmente criado pela plataforma de transmiss&amp;atilde;o!&lt;/p&gt;
-&lt;p style="text-align: justify;"&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h2 style="text-align: justify;"&gt;N&amp;iacute;vel mais alto de ajuste de cor personalizado&lt;/h2&gt;
-&lt;p style="text-align: justify;"&gt;Com a ajuda do Six Axis Control, voc&amp;ecirc; controla seis cores (vermelho, verde, azul, ciano, magenta e amarelo) individualmente.&amp;nbsp;Voc&amp;ecirc; pode ajustar o monitor para perfis de cores espec&amp;iacute;ficos, o que permite exibir com mais precis&amp;atilde;o a gama de cores no monitor.&lt;br /&gt;O exclusivo AORUS OSD Sidekick permite que voc&amp;ecirc; defina rapidamente as op&amp;ccedil;&amp;otilde;es de exibi&amp;ccedil;&amp;atilde;o com teclado e mouse.&amp;nbsp;&amp;Eacute; ainda melhor agora que voc&amp;ecirc; pode aproveitar a experi&amp;ecirc;ncia de jogo atualizada por meio da mais recente fun&amp;ccedil;&amp;atilde;o exclusiva de atualiza&amp;ccedil;&amp;atilde;o autom&amp;aacute;tica!&lt;/p&gt;
-&lt;h3 style="text-align: justify;"&gt;&lt;br /&gt;Seu Monitor Gamer est&amp;aacute; no KaBuM!&lt;/h3&gt;</t>
+    <t>Monitor Asus Rog Swift 47.5 OLED, 138Hz, 0,1ms, HDMI e DisplayPort, 133% sRGB, HDR, G-Sync, Som Integrado, VESA - PG48UQ</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Monitor de jogos ROG Swift OLED 4K de 47.5", OLED, 138 Hz (overclocked), 0,1 ms (GTG), compat&amp;iacute;vel com G-SYNC, revestimento de microtextura antirreflexo, dissipador de calor personalizado, brilho uniforme, 98% DCI-P3, true 10 bits, HDMI 2.1, DisplayPort 1.4&lt;/h2&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;- Monitor de jogos &lt;strong&gt;OLED 4K&lt;/strong&gt; (3840 x 2160) de 47,5" com taxa de atualiza&amp;ccedil;&amp;atilde;o de 138Hz (overclock), projetado para jogos imersivos&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;- Apresenta pretos extremos, alto brilho perceptivo e tempo de resposta ultrarr&amp;aacute;pido de &lt;strong&gt;0,1 ms&lt;/strong&gt;, com gama de cores &lt;strong&gt;DCI-P3 de 98%&lt;/strong&gt; e diferen&amp;ccedil;a de cor Delta E &amp;lt;2 para desempenho &lt;strong&gt;HDR&lt;/strong&gt; surpreendente.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;- O dissipador de calor personalizado permite temperaturas at&amp;eacute; 8% mais baixas para melhor desempenho &lt;strong&gt;OLED&lt;/strong&gt; de longo prazo.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;- Configura&amp;ccedil;&amp;atilde;o de &lt;strong&gt;brilho uniforme&lt;/strong&gt; opcional amig&amp;aacute;vel ao jogador para n&amp;iacute;veis de brilho uniformes.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;- O &lt;strong&gt;revestimento de microtextura antirreflexo&lt;/strong&gt; reduz os reflexos para cores precisas e melhores experi&amp;ecirc;ncias de visualiza&amp;ccedil;&amp;atilde;o.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;- Extensas op&amp;ccedil;&amp;otilde;es de conectividade, incluindo &lt;strong&gt;DisplayPort 1.4 com Display Stream Compression&lt;/strong&gt; &lt;strong&gt;(DSC), HDMI 2.1, hub USB&lt;/strong&gt; e um soquete de trip&amp;eacute; na parte superior do monitor.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h3&gt;CONSTRU&amp;Iacute;DO PARA JOGOS. &amp;Oacute;TIMO PARA TUDO&lt;/h3&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;O ROG Swift OLED PG48UQ &amp;eacute; um monitor de jogos OLED 4K de 47,5 polegadas que apresenta um revestimento de microtextura antirreflexo para reduzir os reflexos e garantir que voc&amp;ecirc; veja as cores na tela com mais precis&amp;atilde;o. Sua taxa de atualiza&amp;ccedil;&amp;atilde;o super r&amp;aacute;pida de 138 Hz (com overclock) e tempo de resposta incr&amp;iacute;vel de 0,1 ms oferece jogos incrivelmente envolventes em uma escala maior. Al&amp;eacute;m disso, a gama DCI-P3 de 98%, cores verdadeiras de 10 bits e Delta E &amp;lt; 2 garantem cores realistas e os tons de preto mais escuros poss&amp;iacute;veis.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h3&gt;VISUAIS DETALHADOS E TEXTO CLARAMENTE DEFINIDO&lt;/h3&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;Os monitores de jogos ROG Swift OLED apresentam pain&amp;eacute;is OLED de &amp;uacute;ltima gera&amp;ccedil;&amp;atilde;o projetados para maior efici&amp;ecirc;ncia e brilho. O layout de subpixel fornece visuais extremamente detalhados e texto claramente definido para atualizar a experi&amp;ecirc;ncia de visualiza&amp;ccedil;&amp;atilde;o.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h3&gt;CORES ULTRA-REALISTAS&lt;/h3&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;O monitor de jogos PG48UQ apresenta verdadeira profundidade de cor de 10 bits e uma gama de 98% DCI-P3 com qualidade de cinema para oferecer realismo incompar&amp;aacute;vel. Cada monitor &amp;eacute; pr&amp;eacute;-calibrado para Delta E &amp;lt; 2 para garantir a melhor reprodu&amp;ccedil;&amp;atilde;o de cores em seu brilhante painel OLED.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h3&gt;DESIGN DE RESFRIAMENTO INTELIGENTE PARA TEMPERATURAS 8% MAIS BAIXAS&lt;/h3&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;O dissipador de calor personalizado encontrado no PG48UQ oferece mais &amp;aacute;rea de superf&amp;iacute;cie para troca de calor para fornecer desempenho de resfriamento mais eficiente, mesmo em longos per&amp;iacute;odos de jogo. A temperatura mais baixa permite um melhor desempenho do OLED com menor probabilidade de ader&amp;ecirc;ncia da imagem. Este robusto sistema fanless opera silenciosamente para minimizar as distra&amp;ccedil;&amp;otilde;es.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Monitor Gamer AOC Agon 31.5' LED, Curvo, 165 Hz, Full HD, 1ms, FreeSync Premium, HDMI/DisplayPort, RGB Light FX - AG323FCXE</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Com tela de alta qualidade, amplo &amp;acirc;ngulo de vis&amp;atilde;o e comando em tempo real, prepare-se para obter uma experi&amp;ecirc;ncia muito mais imersiva em todos os g&amp;ecirc;neros de jogos. Projetado para gamers, o monitor Agon permite movimentos muito mais flu&amp;iacute;dos nos jogos devido a alt&amp;iacute;ssima taxa de atualiza&amp;ccedil;&amp;atilde;o de 165 Hz. O tempo de resposta de 1 ms proporciona movimentos instant&amp;acirc;neos e naturais para voc&amp;ecirc; ser o melhor, e com o painel VA, voc&amp;ecirc; tem mais brilho e contraste para enxergar onde os seus inimigos est&amp;atilde;o, mesmo em cenas com pouca ilumina&amp;ccedil;&amp;atilde;o. Al&amp;eacute;m disso, o design exclusivo com LEDs em diferentes configura&amp;ccedil;&amp;otilde;es de cores RGB deixam a sua maratona de jogos ainda mais emocionante.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Asus TUF 27 LED Full HD, 1ms, 165 Hz, FreeSync Premium, 120% sRGB, HDMI, Som Integrado, ELMB - VG27VH1B</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Monitor gaming TUF Gaming VG27VH1B 27 polegadas Full HD (1920x1080), 165 Hz (acima de 144 Hz), Extreme Low Motion Blur, Adaptive-sync, FreeSync Premium, 1ms (MPRT), Curvo&lt;/h2&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;Monitor gaming 1500R Full HD (1920x1080) de 27 polegadas com taxa de atualiza&amp;ccedil;&amp;atilde;o ultrarr&amp;aacute;pida de 165 Hz projetado para jogadores profissionais e jogabilidade envolvente.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;A tecnologia ASUS Extreme Low Motion Blur (ELMB&amp;trade;) permite um tempo de resposta de 1 ms (MPRT) junto com a sincroniza&amp;ccedil;&amp;atilde;o adaptativa, eliminando fantasmas e tearing para visuais n&amp;iacute;tidos de jogos com altas taxas de quadros.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;Tecnologia FreeSync premium para eliminar tearing da tela e taxas de quadros inst&amp;aacute;veis.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;O Shadow Boost aprimora os detalhes da imagem em &amp;aacute;reas escuras, iluminando as cenas sem expor demais as &amp;aacute;reas claras.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;Full HD(1920 X 1080)@120Hz output on PS5 &amp;amp; Xbox Series X/S.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Ozone 24 LED, 240 Hz, Full HD, 1ms, FreeSync, HDMI/DisplayPort - OZDSP24FHD240</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Monitor Gamer Ozone 24 LED&lt;/h2&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;Monitor Gamer Ozone 24&amp;acute; Jogos Confort&amp;aacute;veis Um Monitor Gamer projetado ergonomicamente em materiais robustos e de qualidade, possui uma excelente est&amp;eacute;tica, com quadros finos e modernos que atraem voc&amp;ecirc; e dimens&amp;otilde;es compactas que facilitam a configura&amp;ccedil;&amp;atilde;o de v&amp;aacute;rios monitores. Por outro lado, a sua base est&amp;aacute;vel permite inclinar e rodar o monitor, adaptando-o ao &amp;acirc;ngulo ideal, bem como regular a sua altura sem dificuldades, regulando-o para uma melhor visualiza&amp;ccedil;&amp;atilde;o e maior conforto.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;Al&amp;eacute;m disso, o DSP24 &amp;eacute; compat&amp;iacute;vel com o sistema de montagem VESA, permitindo que voc&amp;ecirc; o monte facilmente na parede, liberando a &amp;aacute;rea de trabalho. Taxa de Atualiza&amp;ccedil;&amp;atilde;o de 240Hz Entre no jogo com o monitor LED Ozone DSP24 240 de 24,5 polegadas com alta resolu&amp;ccedil;&amp;atilde;o de 1920 x 1080 pixels FULL HD, que garante a defini&amp;ccedil;&amp;atilde;o de que voc&amp;ecirc; precisa em todos os momentos. Para os jogadores mais exigentes e competitivos, sua taxa de atualiza&amp;ccedil;&amp;atilde;o de 240 Hz permite uma rea&amp;ccedil;&amp;atilde;o r&amp;aacute;pida, gra&amp;ccedil;as &amp;agrave;s imagens perfeitas. Ozone DSP24 240 &amp;eacute; um monitor que permite desfrutar da melhor experi&amp;ecirc;ncia visual poss&amp;iacute;vel, jogando, trabalhando ou assistindo s&amp;eacute;ries ou filmes, focando sua aten&amp;ccedil;&amp;atilde;o no que realmente importa.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;Low Blue Light e Flicker Free Tamb&amp;eacute;m n&amp;atilde;o esquecendo o conforto dos olhos, com as tecnologias Low Blue Light e Flicker Free, que liberam a imagem da cintila&amp;ccedil;&amp;atilde;o e oferecem prote&amp;ccedil;&amp;atilde;o contra a luz azul, reduzindo a fadiga ocular durante jogos longos, e significa que voc&amp;ecirc; pode desfrutar de uma experi&amp;ecirc;ncia de jogo completa na qual nada ir&amp;aacute; parar voc&amp;ecirc;. Entre no jogo com o monitor LED Ozone DSP24 de 24 polegadas com alta resolu&amp;ccedil;&amp;atilde;o de 1920 x 1080 pixels FULL HD, que garante a defini&amp;ccedil;&amp;atilde;o que voc&amp;ecirc; precisa o tempo todo.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h3&gt;Garanta j&amp;aacute; seu Monitor Gamer Ozone aqui no KaBuM!&lt;/h3&gt;</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Gigabyte 27Polegadas, 1ms Gtg 165 Hz Freesync - M27FA</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;monitor gamer 27" gigabyte m27f a 1ms gtg 165 hz freesync&lt;/b&gt;&lt;/p&gt;&lt;p&gt;&lt;br /&gt;mergulhe no mundo dos jogos com qualidade visual e desempenho excepcionais e tenha uma experi&amp;ecirc;ncia de jogo imersiva com o monitor gamer gigabyte m27f a. Com um display de 27 polegadas, tempo de resposta de 1ms gtg e taxa de atualiza&amp;ccedil;&amp;atilde;o de 165 hz, este monitor oferece imagens n&amp;iacute;tidas, suaves e sem atrasos, permitindo que voc&amp;ecirc; reaja rapidamente aos eventos do jogo. A tecnologia freesync garante uma sincroniza&amp;ccedil;&amp;atilde;o perfeita entre a placa de v&amp;iacute;deo e o monitor, eliminando o screen tearing e stuttering. Com resolu&amp;ccedil;&amp;atilde;o full hd e cores vibrantes, cada detalhe ganha vida na tela. A base ajust&amp;aacute;vel e as op&amp;ccedil;&amp;otilde;es de conectividade completas garantem conforto e praticidade. Eleve seu desempenho nos jogos com o monitor gamer gigabyte m27f a.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Samsung Odyssey G32a, 24 Pol, Full HD, 165Hz, 1MS, HDMI, DislayPort, Freesync, Com Ajuste De Altura - Ls24ag320nlxzd</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Monitor Gamer Samsung Odyssey G32A 24" Preto - LS24AG320NLXZD&lt;/b&gt;&lt;br /&gt;&lt;br /&gt;Monitor Gamer Samsung Odyssey G32A 24", FHD, 165Hz, 1ms, com ajuste de altura, HDMI, DP, Freesync, Preto, Série G32. Taxa de atualização de 165Hz. Vença todos os inimigos, mesmo em velocidades altíssimas. A taxa de atualização de 165Hz elimina o atraso e o desfoque do movimento para uma jogabilidade estimulante com ação ultra-suave. 1ms de tempo de resposta (MPRT). Faça com que cada movimento conte com um tempo de resposta de 1ms. Os pixels da tela respondem de maneira quase instantânea, permitindo que a ação rápida flua com precisão do mundo real. Seu desempenho na tela é tão rápido quanto seus próprios reflexos.</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Curvo HQ 24 LED, RGB, Full HD, 165 Hz, 1ms, HDMI/DisplayPort, FreeSync, sRGB, Som Integrado, Pink - 24GHQ-PINKsRGB</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;&lt;span id="docs-internal-guid-434371ff-7fff-8415-2ef8-584db895281a"&gt;Monitor Gamer LED Curvo 24" HQ 24GHQ-White RGB R3000 Display Port HDMI PINK&lt;/span&gt;&lt;/h2&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p dir="ltr"&gt;A curvatura da tela de R3000 oferece imers&amp;atilde;o total, voc&amp;ecirc; ser&amp;aacute; capaz de apreciar imagens panor&amp;acirc;micas grandes, em alta resolu&amp;ccedil;&amp;atilde;o e com todas as especifica&amp;ccedil;&amp;otilde;es que um monitor Gamer de ponta exige.&lt;/p&gt;
+&lt;p dir="ltr"&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p dir="ltr"&gt;A HQ levou a s&amp;eacute;rio o desenvolvimento desta linha, trazendo ao p&amp;uacute;blico mais exigente um produto completo e de alto n&amp;iacute;vel.&amp;nbsp;&lt;/p&gt;
+&lt;p dir="ltr"&gt;N&amp;atilde;o fique atras, reaja em tempo real e tenha os movimentos do teclado refletidos sem atrasos com o tempo de resposta de 1ms.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p dir="ltr"&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p dir="ltr"&gt;Sem borr&amp;otilde;es e sem perda de imagem. A INCR&amp;Iacute;VEL taxa de atualiza&amp;ccedil;&amp;atilde;o de 165hz garante que voc&amp;ecirc; tenha uma experi&amp;ecirc;ncia acima dos seus advers&amp;aacute;rios.&lt;/p&gt;
+&lt;p dir="ltr"&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p dir="ltr"&gt;Imagens em alta resolu&amp;ccedil;&amp;atilde;o + Visual incr&amp;iacute;vel. A tela Full HD de alta resolu&amp;ccedil;&amp;atilde;o aliada ao design futurista e moderno do monitor garantem n&amp;atilde;o s&amp;oacute; imagens perfeitas como um visual incr&amp;iacute;vel de todo o seu conjunto.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Monitor Gamer HQ Premium 25 Pol. Full HD, 1MS, 240Hz, IPS, AMD Freesync, HDMI, DP - Gp25i124</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;::: HQ Premium :::&lt;/b&gt;&lt;br /&gt;&lt;br /&gt;Revolucionário, assim é definido este monitor!&lt;br /&gt;&lt;br /&gt;&lt;b&gt;Última geração:&lt;/b&gt; monitor de ponta, com uma vasta gama de tecnologias embarcadas. A melhor qualidade de imagem com um preço justo.&lt;br /&gt;&lt;br /&gt;&lt;b&gt;Saia na frente: &lt;/b&gt;extraia o máximo de suas habilidades com uma tela pronta para qualquer tipo de desafio.&lt;br /&gt;&lt;br /&gt;&lt;b&gt;Gamer de verdade: &lt;/b&gt;graças ao baixo tempo de resposta de 1ms, a alta taxa de atualização e a tecnologia amd freesync, jogue como um profissional!&lt;br /&gt;&lt;br /&gt;&lt;b&gt;Longas jornadas: &lt;/b&gt;um grande diferencial: com as tecnologias flicker-free e low blue light, você pode encarar horas de jogatina sem cansar a vista.&lt;br /&gt;&lt;br /&gt;&lt;b&gt;Alta resolução com alta definição: &lt;/b&gt;não basta apenas ser full hd. Você, merece mais! Viva momentos únicos com imagens de tirar o fôlego. Além de jogar em 1080p, você, perceberá, cada mínimo detalhe em qualquer tipo de cena. Saia na frente dos seus adversários, mesmo em situações de baixa luminosidade. Sinta-se dentro do jogo, a imersão é, total!&lt;br /&gt;&lt;br /&gt;&lt;b&gt;Aproveitamento total: &lt;/b&gt;com a tela frameless, você, conta com bordas ultrafinas e aproveita todo o espaço da tela.&lt;br /&gt;&lt;br /&gt;&lt;b&gt;Sem reflexos: &lt;/b&gt;com a tela antireflexiva, você, pode embarcar nos seus desafios gamer em qualquer condição de luminosidade.</t>
+  </si>
+  <si>
+    <t>Monitor Gamer AOC Porsche Design 27 LED QHD, 240Hz, 0.5ms, HDMI/DisplayPort, FreeSync Premium Pro, HDR 400, 119% sRGB, Preto e Prata - PD27</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Monitor Gamer AOC Porsche Design 27 LED QHD, 240Hz, 0.5ms, HDMI/DisplayPort, FreeSync Premium Pro, HDR 400, 119% sRGB, Preto e Prata&lt;/h2&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;PROJETADO PARA ENFRENTAR QUALQUER DESAFIO&lt;/h2&gt;
+&lt;p&gt;Este incr&amp;iacute;vel monitor de 27&amp;rdquo; com resolu&amp;ccedil;&amp;atilde;o QHD, tela curva de 1000R, taxa de atualiza&amp;ccedil;&amp;atilde;o de 240 Hz e &lt;strong&gt;tempo de resposta de 0,5 m&lt;/strong&gt;s foi criado para oferecer m&amp;aacute;xima &lt;strong&gt;performance&lt;/strong&gt;. Possui assinatura Porsche em um design exclusivo, com um suporte inspirado nas gaiolas de seguran&amp;ccedil;a dos carros de corrida. Impacte qualquer ambiente e destaque-se com o monitor AOC PD27&lt;strong&gt; Porsche Design.&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;RESOLU&amp;Ccedil;&amp;Atilde;O QHD&lt;/h2&gt;
+&lt;p&gt;Desfrute de uma qualidade de imagem superior e imagens incrivelmente n&amp;iacute;tidas com a resolu&amp;ccedil;&amp;atilde;o &lt;strong&gt;Quad HD de 2560 x 1440&lt;/strong&gt; px. O formato&lt;strong&gt; widescreen 16:9&lt;/strong&gt; tamb&amp;eacute;m oferece a possibilidade de trabalhar com uma tela espa&amp;ccedil;osa ou curtir jogos ou filmes em seu tamanho original.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;TELA CURVA DE 1000R&lt;/h2&gt;
+&lt;p&gt;A incr&amp;iacute;vel curvatura de 1000R proporciona sensa&amp;ccedil;&amp;atilde;o de imers&amp;atilde;o diferenciada, muito superior &amp;agrave; experi&amp;ecirc;ncia de um monitor curvo comum de 1800R. Al&amp;eacute;m de se sentir &lt;strong&gt;muito mais dentro&lt;/strong&gt; do jogo, ela permitir&amp;aacute; que voc&amp;ecirc; enxergue todo o conte&amp;uacute;do do game sem precisar mexer a cabe&amp;ccedil;a.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;TECNOLOGIAS 240 HZ, 0,5 MS E AMD FREESYNC PREMIUM PRO&lt;/h2&gt;
+&lt;p&gt;Desenvolvido para entregar as melhores tecnologias, este monitor conta com uma taxa de atualiza&amp;ccedil;&amp;atilde;o de 240 Hz para voc&amp;ecirc; aproveitar mais &lt;strong&gt;fluidez nas suas imagens&lt;/strong&gt; e se sentir numa verdadeira corrida de carros. Ainda, possui um incr&amp;iacute;vel tempo de resposta de 0,5 ms e tecnologia &lt;strong&gt;AMD FreeSync Premium&lt;/strong&gt; Pro. Acabe de vez com os efeitos fantasmas e sincronize as taxas de atualiza&amp;ccedil;&amp;atilde;o do monitor com a GPU para um desempenho sem igual.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;PAINEL IPS E DISPLAY HDR 400&lt;/h2&gt;
+&lt;p&gt;O Painel IPS oferece imagens incrivelmente n&amp;iacute;tidas com cores vivas e precisas, em um amplo &lt;strong&gt;&amp;acirc;ngulo de vis&amp;atilde;o de 178&amp;ordm;/178&lt;/strong&gt;&amp;ordm;. J&amp;aacute; o Display HDR 400 garante um pico de lumin&amp;acirc;ncia de 400 cd/m&amp;sup2; e permite imagens ainda mais aprimoradas, garantindo um espectro de cor e contraste diversificado e riqueza de detalhes.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;PROJE&amp;Ccedil;&amp;Atilde;O DE LOGO&lt;/h2&gt;
+&lt;p&gt;Com uma proje&amp;ccedil;&amp;atilde;o frontal dos logos AOC ou Porsche Design, uma barra de luz destaca a frente do monitor e muda de cor dependendo da situa&amp;ccedil;&amp;atilde;o do jogo dinamicamente na superf&amp;iacute;cie da mesa.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;ALTO-FALANTE EST&amp;Eacute;REO 2X 5W DTS&lt;/h2&gt;
+&lt;p&gt;Com o &lt;strong&gt;som DTS&lt;/strong&gt; integrado em duas sa&amp;iacute;das de alto-falantes est&amp;eacute;reos 5W voc&amp;ecirc; pode ouvir o barulho do motor como se estivesse em um carro esportivo ou desfrutar de um &amp;aacute;udio de qualidade em qualquer atividade.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;CONTROLE WIRELESS COM DESIGN PORSCHE&lt;/h2&gt;
+&lt;p&gt;Conte com um teclado de atalho sem fio para jogos desenvolvido com um design chave da Porsche. &lt;strong&gt;Extremamente pr&amp;aacute;tico&lt;/strong&gt;, ele alterna rapidamente as configura&amp;ccedil;&amp;otilde;es de exibi&amp;ccedil;&amp;atilde;o em diferentes g&amp;ecirc;neros de jogos, como corrida, FPS e outros.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Benq Mobiuz EX2510S, 24.5 Full HD, 165hz, 1ms, HDMI, USB, DisplayPort, IPS, SRGB, HDR10, Freesync Premium, Eye Care, Som Integrado, Preto - 9H.LKELA.TBL</t>
+  </si>
+  <si>
+    <t>O monitor gamer BenQ Mobiuz EX2510S é o equipamento ideal para gamers que procuram mais qualidade na imagem durante suas gameplays insanas. O EX2510S possui uma tela de 24,5” IPS com taxa de atualização de 165Hz, operando em conjunto com a tecnologia AMD FreeSync Premium, garantindo que cada frame da imagem seja reproduzido com fidelidade e sem qualquer tipo de atraso ou queda.Com o Mobiuz EX2510S encare qualquer desafio e explore qualquer possibilidade, tanto no PC como no console com resolução Full HD de 1920x1080. Explore ao máximo as configurações do monitor, tenha uma exibição mais nítida e com mais detalhes, sendo possível combinar padrões com HDRi. E para maior praticidade, conta com ajustes de inclinação, altura e sistema de áudio integrado para imersão total.</t>
   </si>
   <si>
     <t>Monitor Gamer AOC Agon Pro 24.5 Full HD, 360Hz, IPS, 1ms, HDMI/DisplayPort, G-Sync, HDR 400, 120% sRGB, Som Integrado, Preto - AG254FG</t>
@@ -1650,28 +1658,7 @@
 &lt;p&gt;Com o &lt;strong&gt;som DTS&lt;/strong&gt; integrado em duas sa&amp;iacute;das de alto-falantes est&amp;eacute;reos 5W voc&amp;ecirc; pode ouvir qualquer som e desfrutar de um &lt;strong&gt;&amp;aacute;udio de qualidade&lt;/strong&gt; para suas batalhas &amp;eacute;picas.&lt;/p&gt;</t>
   </si>
   <si>
-    <t>Monitor Gamer Ozone 24.5 IPS, 360 Hz, Full HD, 0.6ms, FreeSync, 100% sRGB, HDMI/DisplayPort/USB, Ajuste de Altura - OZDSP25ULTRA</t>
-  </si>
-  <si>
-    <t>&lt;h2&gt;Monitor Gamer Ozone 24.5 IPS&lt;/h2&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;O Ozone DSP25 Ultra &amp;eacute; o melhor monitor para jogos. Desenvolvido para competi&amp;ccedil;&amp;atilde;o de alto n&amp;iacute;vel, este monitor ir&amp;aacute; ajud&amp;aacute;-lo a desenvolver todo o seu potencial, possui um painel IPS Full HD de 1920x1080 com taxa de atualiza&amp;ccedil;&amp;atilde;o de 360 ??Hz e tempo de resposta de 0,6 milissegundos.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;Seu design praticamente sem bordas o torna perfeito para configura&amp;ccedil;&amp;otilde;es de v&amp;aacute;rios monitores e significa que voc&amp;ecirc; pode desfrutar de uma experi&amp;ecirc;ncia superior. O painel IPS de 24,5 polegadas oferece &amp;acirc;ngulos de vis&amp;atilde;o de at&amp;eacute; 178&amp;ordm;.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>Monitor Gamer KBM! GAMING MG200 23.6 Led Full Hd, Curvo, 180hz, 1ms, Hdmi E Displayport, Adaptive Sync, Ajuste De Ângulo - KGMG20023PT</t>
-  </si>
-  <si>
-    <t>&lt;h3&gt;Monitor Gamer KBM! GAMING MG200: Qualidade e desempenho para seus jogos&lt;/h3&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;O Monitor Gamer KBM! GAMING MG200 &amp;eacute; a escolha perfeita para quem busca qualidade e desempenho nos jogos. Com tela plana de &lt;strong&gt;24 polegadas&lt;/strong&gt;, resolu&amp;ccedil;&amp;atilde;o Full HD e taxa de atualiza&amp;ccedil;&amp;atilde;o de &lt;strong&gt;165 Hz&lt;/strong&gt;, o MG200 oferece uma experi&amp;ecirc;ncia visual incr&amp;iacute;vel.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;O tempo de resposta de &lt;strong&gt;1 ms&lt;/strong&gt; garante que voc&amp;ecirc; n&amp;atilde;o perca nenhum detalhe da a&amp;ccedil;&amp;atilde;o, mesmo nos jogos mais r&amp;aacute;pidos. Al&amp;eacute;m disso, o recurso &lt;strong&gt;AdaptiveSync&lt;/strong&gt; elimina o tearing e o stuttering, garantindo uma imagem suave e fluida.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;Para proteger a sua vis&amp;atilde;o, o MG200 conta com &lt;strong&gt;redu&amp;ccedil;&amp;atilde;o de luz azul&lt;/strong&gt; e &lt;strong&gt;Modo Game Plus&lt;/strong&gt;, que reduzem o cansa&amp;ccedil;o visual. O som integrado &amp;eacute; de alta qualidade, mas voc&amp;ecirc; tamb&amp;eacute;m pode conectar o seu headset atrav&amp;eacute;s das portas plug and play.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;Com o Monitor Gamer KBM! GAMING MG200, voc&amp;ecirc; ter&amp;aacute; tudo o que precisa para jogar seus games favoritos com o m&amp;aacute;ximo de qualidade e desempenho.&lt;/p&gt;</t>
+    <t>Monitor Acer Gamer Predator 27 Pol. IPS, FHD, 280Hz 1Ms, HDMI + DisplayPort, HDR400 G-Sync - Xb273 Gz</t>
   </si>
   <si>
     <t>Monitor Gamer Samsung Odyssey G8 34 OLED QHD, 175Hz, 0.1ms, HDMI e DisplayPort/USB-C, FreeSync Premium, HDR, VESA - LS34BG850SLXZD</t>
@@ -1738,13 +1725,81 @@
     <t>Monitor Gamer Acer Predator 27", Full HD, HDMI/DisplayPort, HDR 400, 1ms, GSync, 240Hz, XB273GX</t>
   </si>
   <si>
+    <t>Monitor Gamer Ozone 24.5 IPS, 360 Hz, Full HD, 0.6ms, FreeSync, 100% sRGB, HDMI/DisplayPort/USB, Ajuste de Altura - OZDSP25ULTRA</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Monitor Gamer Ozone 24.5 IPS&lt;/h2&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;O Ozone DSP25 Ultra &amp;eacute; o melhor monitor para jogos. Desenvolvido para competi&amp;ccedil;&amp;atilde;o de alto n&amp;iacute;vel, este monitor ir&amp;aacute; ajud&amp;aacute;-lo a desenvolver todo o seu potencial, possui um painel IPS Full HD de 1920x1080 com taxa de atualiza&amp;ccedil;&amp;atilde;o de 360 ??Hz e tempo de resposta de 0,6 milissegundos.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;Seu design praticamente sem bordas o torna perfeito para configura&amp;ccedil;&amp;otilde;es de v&amp;aacute;rios monitores e significa que voc&amp;ecirc; pode desfrutar de uma experi&amp;ecirc;ncia superior. O painel IPS de 24,5 polegadas oferece &amp;acirc;ngulos de vis&amp;atilde;o de at&amp;eacute; 178&amp;ordm;.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Husky 34 Polegadas QHD Ultrawide  3440x1440, 144Hz, Tempest Curvo - Adaptive Sync - Hgmt005</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Husky 34 Polegadas QHD Ultrawide 3440x1440, 144Hz, Tempest Curvo - Adaptive Sync - Hgmt005</t>
+  </si>
+  <si>
     <t>Monitor Gamer Acer 23.8 Polegadas Full HD, 165Hz, 1ms, HDR, FreeSync, HDMI e DisplayPort - QG241Y</t>
   </si>
   <si>
-    <t>Monitor Gamer Redragon Tassos, 32 170hz, Curvo Led 2k HDMI - Gm32h2q</t>
-  </si>
-  <si>
-    <t>Características:&lt;br /&gt; - marca: redragon&lt;br /&gt; - modelo: gm32h2q&lt;br /&gt; especificações:&lt;br /&gt; - cor: preto&lt;br /&gt; - alta taxa de atualização até 170hz auxiliando na fluidez da gameplay.&lt;br /&gt; - painel com resolução quad hd que garante uma imagem mais definida&lt;br /&gt; - tecnologia g-sync e freesync integrada para eliminação de quebras de imagem.&lt;br /&gt; - diversas opções de conexões de vídeo para maior praticidade e versatilidade.&lt;br /&gt; - tamanho: 32”&lt;br /&gt; - resolução: 2560 x 1440 16:9&lt;br /&gt; - tipo de painel: va&lt;br /&gt; - taxa de atualização: 170 hz&lt;br /&gt; - número de cores: 16.7 m&lt;br /&gt; - brilho máximo: 400 nits&lt;br /&gt; - gama de cores: 90% dci-p3&lt;br /&gt; - taxa de contraste: 3000:1&lt;br /&gt; - suporte vesa: 75x75mm&lt;br /&gt; - conectividade: dp 1.4 x1, hdmi 2.0 x2, dc in x1, saída de audio p2 x1&lt;br /&gt; - power range: 100-240v 50/60hz&lt;br /&gt; - tempo de resposta: 1ms (mrpr) / 4ms (gtg)&lt;br /&gt; - backlight: sim: azul, vermelho, rgb ou desligado&lt;br /&gt; - ajuste de altura: 110 ± 5mm&lt;br /&gt; - ajuste giratório: -20°(+/-2°) ~ +20°(+/-2°)&lt;br /&gt; - ajuste de ângulo: -90°(+/-2°) ~ +90°(+/-2°)&lt;br /&gt; conteúdo da embalagem:&lt;br /&gt; - monitor gamer redragon</t>
+    <t>Monitor Gamer ViewSonic Omni 27 LED Full HD, Curvo, 165 Hz, 1ms, HDMI e DisplayPort, 102% sRGB, FreeSync Premium, Som Integrado - VX2718</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Monitor Gamer ViewSonic Omni 27 LED Full HD, Curvo, 165 Hz, 1ms, HDMI e DisplayPort, 102% sRGB, FreeSync Premium, Som Integrado&lt;/h2&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Jogabilidade perfeita&lt;/h2&gt;
+&lt;p&gt;Elimine o atraso e o desfoque de movimento com uma taxa de atualiza&amp;ccedil;&amp;atilde;o de&lt;strong&gt; 165Hz hiperresponsiva.&lt;/strong&gt; Experimente uma jogabilidade perfeita em uma variedade de g&amp;ecirc;neros, como jogos de tiro em primeira pessoa, corridas e estrat&amp;eacute;gia em tempo real. &lt;strong&gt;Jogabilidade fluida&lt;/strong&gt; e gr&amp;aacute;ficos perfeitos d&amp;atilde;o a voc&amp;ecirc; uma vantagem, n&amp;atilde;o importa a situa&amp;ccedil;&amp;atilde;o.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Experi&amp;ecirc;ncia de jogo imersiva final&lt;/h2&gt;
+&lt;p&gt;Com uma curvatura de t&lt;strong&gt;ela de 1500R&lt;/strong&gt;, o VX2718-PC-MHDJ oferece uma experi&amp;ecirc;ncia de visualiza&amp;ccedil;&amp;atilde;o &lt;strong&gt;verdadeiramente imersiva&lt;/strong&gt; que permite que voc&amp;ecirc; desfrute de vistas panor&amp;acirc;micas grandes, arrojadas e impressionantes.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Reaja instantaneamente&lt;/h2&gt;
+&lt;p&gt;Com um tempo de resposta r&amp;aacute;pido de&lt;strong&gt; 1 ms&lt;/strong&gt; (MPRT), voc&amp;ecirc; pode reagir t&amp;atilde;o r&amp;aacute;pido quanto a a&amp;ccedil;&amp;atilde;o se desenrola na tela. Desvie pelos cantos com facilidade e mire com &lt;strong&gt;precis&amp;atilde;o de n&amp;iacute;vel superior.&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Prevenir o rasgo da tela&lt;/h2&gt;
+&lt;p&gt;O &lt;strong&gt;AMD FreeSync Premium&lt;/strong&gt; sincroniza seu monitor com a taxa de quadros do conte&amp;uacute;do, permitindo uma jogabilidade suave ao eliminar o rasgo da tela.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h3&gt;Aproveite essa oportunidade e adquira seu Monitor Gamer ViewSonic Omni no KaBuM!&lt;/h3&gt;</t>
+  </si>
+  <si>
+    <t>Monitor Gamer BenQ 24 Polegadas, Full HD, 144Hz, 1Ms, DisplayPort e HDMI, Altura Ajustável - XL2411K</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Benq Zowie 24 HD HDMI DP TN DyAc 144Hz 1ms Altura Ajustável - XL2411K&lt;br /&gt;&lt;br /&gt;Uma nova geração da série XL de monitores gamers para PC, com ajustes aprimorados para maior flexibilidade, conforto e conveniência aos jogadores, permitindo foco e desempenho durante o game.&lt;br /&gt;&lt;br /&gt;BASE REDUZIDA - MAIS ESPAÇO PRA JOGAR&lt;br /&gt;Nova base desenvolvida com o objetivo de liberar mais espaço ao jogador, sem perder a estabilidade do monitor. Isso permite espaço para mais movimento durante o jogo e ficar confortável com mais flexibilidade.&lt;br /&gt;&lt;br /&gt;AJUSTES FLEXÍVEIS - MAIS CONFORTO DURANTE OS JOGOS&lt;br /&gt;Entendemos que cada jogador(a) tem suas configurações preferidas. Uma combinação única da altura e do ângulo do monitor. Com ajuste de altura e inclinação livre, os players podem configurar rapidamente de acordo com suas necessidades para um resultado melhor, jogando de uma forma mais confortável.&lt;br /&gt;&lt;br /&gt;ACESSO RÁPIDO ÀS CONFIGURAÇÕES&lt;br /&gt;A alteração na interface do usuário e no S-Switch é muito mais do que apenas estético. Foram redesenhados com o objetivo de oferecer a capacidade de personalizar as configurações que preferir para FPS, acessando-as rapidamente, por meio de um menu, com apenas um toque. As configurações passam a ser muito mais convenientes.&lt;br /&gt;&lt;br /&gt;TECNOLOGIA DYAX - UMA SENSAÇÃO DE SPAY DIFERENTE&lt;br /&gt;O DyAc ajuda a não perder o foco durante o spray. Possibilita aos jogadores ver as posições da mira e pontos de impacto com mais clareza, ajudando a embaçar menos a imagem durante  o recuo da arma. &lt;br /&gt;&lt;br /&gt;FAÇA AJUSTES VISUAIS COM BASE EM SUAS NECESSIDADES DE JOGO&lt;br /&gt;O Black eQualizer aumenta a visibilidade de cenas escuras, sem superexpor as áreas claras. Já o Color Vibrance ajusta as configurações e o tom das cores para diferenciar alvos inimigos no jogo, e por fim, o modo Game alterna entre as pré configurações para o jogo, de acordo com título do mesmo.</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Zowie XL2411K 24, 144Hz, 1ms, HDMI, Tecnologia DyAc Ajuste de Altura - 9H.LJPLB.QBL</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Monitor Gamer Zowie XL2411K&lt;/h2&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Compat&amp;iacute;vel com PS5 e Xbox X S&amp;eacute;rie X at&amp;eacute; 120 Hz.&lt;/h2&gt;
+&lt;p&gt;Com a introdu&amp;ccedil;&amp;atilde;o do &lt;strong&gt;PS5 e Xbox Series X&lt;/strong&gt;, os jogadores de console podem finalmente tirar proveito de uma taxa de atualiza&amp;ccedil;&amp;atilde;o de&lt;strong&gt; 120Hz&lt;/strong&gt; (tamb&amp;eacute;m dependente do suporte de &lt;strong&gt;120fps&lt;/strong&gt; por t&amp;iacute;tulo de jogo). Esta &amp;eacute; uma atualiza&amp;ccedil;&amp;atilde;o significativa para jogadores FPS competitivos, pois o aumento da suavidade e clareza pode resultar em&lt;strong&gt; tempos de rea&amp;ccedil;&amp;atilde;o mais r&amp;aacute;pidos&lt;/strong&gt; e um &lt;strong&gt;rastreamento mais f&amp;aacute;cil dos inimigos&lt;/strong&gt;.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;DyAc Tecnologia - Uma sensa&amp;ccedil;&amp;atilde;o de pulveriza&amp;ccedil;&amp;atilde;o diferente&lt;/h2&gt;
+&lt;p&gt;&lt;strong&gt;DyAc&lt;/strong&gt; torna as a&amp;ccedil;&amp;otilde;es vigorosas dentro do jogo, como a pulveriza&amp;ccedil;&amp;atilde;o menos borrada. Isto permite que os jogadores vejam mais claramente a &lt;strong&gt;posi&amp;ccedil;&amp;atilde;o dos pontos de mira e de impacto que podem ajudar no controle de recuo&lt;/strong&gt;.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Diferentes modos de cor dentro do jogo - Jogue ao seu gosto&lt;/h2&gt;
+&lt;p&gt;Estamos lan&amp;ccedil;ando &lt;strong&gt;modos de jogo&lt;/strong&gt; &lt;strong&gt;sob medida&lt;/strong&gt; para atender a diferentes prefer&amp;ecirc;ncias e cen&amp;aacute;rios. Cada configura&amp;ccedil;&amp;atilde;o de cor leva em considera&amp;ccedil;&amp;atilde;o cuidadosamente, jogo por jogo, cena por cena, para garantir que as cores funcionem durante todo o jogo, e n&amp;atilde;o sejam comprometidas em mapas diferentes.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Fa&amp;ccedil;a ajustes visuais com base em suas necessidades dentro do jogo&lt;/h2&gt;
+&lt;p&gt;&lt;strong&gt;Black eQualizer&lt;/strong&gt; para aumentar a visibilidade em cenas escuras sem expor em excesso as &amp;aacute;reas brilhantes, &lt;strong&gt;Color Vibrance&lt;/strong&gt; para ajustar a configura&amp;ccedil;&amp;atilde;o de cores e o tom para diferenciar alvos inimigos no jogo, e &lt;strong&gt;Game modes&lt;/strong&gt; para alternar entre predefini&amp;ccedil;&amp;otilde;es para diferentes t&amp;iacute;tulos de jogo - todos estes s&amp;atilde;o ajustes que permitem que os jogadores joguem com &lt;strong&gt;suas configura&amp;ccedil;&amp;otilde;es visuais preferidas&lt;/strong&gt;.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;XL Setting to Share&lt;/h2&gt;
+&lt;p&gt;Compartilhe suas pr&amp;oacute;prias configura&amp;ccedil;&amp;otilde;es com um colega de equipe, um amigo ou seus f&amp;atilde;s. Salve perfis de v&amp;iacute;deo rapidamente e compartilhe convenientemente atrav&amp;eacute;s de uma &lt;strong&gt;interface de usu&amp;aacute;rio simples&lt;/strong&gt;.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Base menor - Mais espa&amp;ccedil;o para jogar&lt;/h2&gt;
+&lt;p&gt;A nova &lt;strong&gt;base &amp;eacute; projetada para ocupar menos espa&amp;ccedil;o&lt;/strong&gt;, mantendo a mesma estabilidade. Isto permite aos jogadores &lt;strong&gt;mais espa&amp;ccedil;o em sua configura&amp;ccedil;&amp;atilde;o para movimentos dentro do jogo&lt;/strong&gt; e lhes permite a flexibilidade de fazer ajustes e jogar confortavelmente.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h3&gt;Compre agora no KaBuM!&lt;/h3&gt;</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Multi Warrior Kaizen 27 Polegadas, Full HD IPS, 144Hz, 1ms, HDMI e DisplayPort, FreeSync - MN201</t>
+  </si>
+  <si>
+    <t>O Monitor Kaizen traz um novo significado para a palavra imersão, a sua tela IPS Full HD proporciona realismo total para a sua jogatina. Tenha uma jogabilidade fluida com uma taxa de atualização de 144Hz, sem rastros e sem o efeito Ghosting. A tela de 27" FHD do Warrior Kaizen garante uma imersão total em seus games. Aproveite ao máximo a qualidade de imagem em alta resolução. Seu painel IPS garante maior fidelidade de cores e qualidade de imagem em seus jogos. A tecnologia FreeSync sincroniza os quadros gerados pela placa gráfica (GPU) com a taxa de atualização do monitor. Isso garante que eles fiquem sempre alinhados e proporcionem uma imagem fluida e sem cortes. Ele conta com um com tempo de resposta de 1ms, permitindo que você tenha a reação mais rápida para os seus desafios. Com iluminação RGB, seu setup gamer ainda melhor. Conta com base ajustável em altura e rotação com ajustes precisos e tempo de resposta ultra rápido para seus comandos. O monitor Warrior Kayzen se adapta perfeitamente ao seu setup.</t>
   </si>
   <si>
     <t>Monitor Gamer 27" Bluecase, 144Hz, Full HD, HDMI/DP - BM277GW</t>
@@ -1757,20 +1812,6 @@
   </si>
   <si>
     <t>O Caminho para o Game Perfeito! Aperte o cinto de segurança:&lt;br /&gt;&lt;br /&gt;Aperte o cinto de segurança: O monitor Gamemax GMX32C165Q de 31,5 polegadas com 1500R de curvatura e resolução WQHD (2560 * 1440) oferece uma incrível experiência para quem busca uma experiência perfeita de gameplay. Através da tecnologia AMD Radeon FreeSync e nVidia G-SYNC, a taxa de quadros do jogo é determinada pela sua placa gráfica, não pelo taxa de atualização fixa do monitor, proporcionando uma grande vantagem competitiva por lhe oferecer movimentos suaves e ótima fluidez. Imagens nítidas e realistas ganham vida com a incrível resolução de 2560 x 1440p, permitindo que você desfrute do entretenimento de alta definição no conforto da sua casa.</t>
-  </si>
-  <si>
-    <t>Monitor Gamer Ozone 24 LED, 240 Hz, Full HD, 1ms, FreeSync, HDMI/DisplayPort - OZDSP24FHD240</t>
-  </si>
-  <si>
-    <t>&lt;h2&gt;Monitor Gamer Ozone 24 LED&lt;/h2&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;Monitor Gamer Ozone 24&amp;acute; Jogos Confort&amp;aacute;veis Um Monitor Gamer projetado ergonomicamente em materiais robustos e de qualidade, possui uma excelente est&amp;eacute;tica, com quadros finos e modernos que atraem voc&amp;ecirc; e dimens&amp;otilde;es compactas que facilitam a configura&amp;ccedil;&amp;atilde;o de v&amp;aacute;rios monitores. Por outro lado, a sua base est&amp;aacute;vel permite inclinar e rodar o monitor, adaptando-o ao &amp;acirc;ngulo ideal, bem como regular a sua altura sem dificuldades, regulando-o para uma melhor visualiza&amp;ccedil;&amp;atilde;o e maior conforto.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;Al&amp;eacute;m disso, o DSP24 &amp;eacute; compat&amp;iacute;vel com o sistema de montagem VESA, permitindo que voc&amp;ecirc; o monte facilmente na parede, liberando a &amp;aacute;rea de trabalho. Taxa de Atualiza&amp;ccedil;&amp;atilde;o de 240Hz Entre no jogo com o monitor LED Ozone DSP24 240 de 24,5 polegadas com alta resolu&amp;ccedil;&amp;atilde;o de 1920 x 1080 pixels FULL HD, que garante a defini&amp;ccedil;&amp;atilde;o de que voc&amp;ecirc; precisa em todos os momentos. Para os jogadores mais exigentes e competitivos, sua taxa de atualiza&amp;ccedil;&amp;atilde;o de 240 Hz permite uma rea&amp;ccedil;&amp;atilde;o r&amp;aacute;pida, gra&amp;ccedil;as &amp;agrave;s imagens perfeitas. Ozone DSP24 240 &amp;eacute; um monitor que permite desfrutar da melhor experi&amp;ecirc;ncia visual poss&amp;iacute;vel, jogando, trabalhando ou assistindo s&amp;eacute;ries ou filmes, focando sua aten&amp;ccedil;&amp;atilde;o no que realmente importa.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;Low Blue Light e Flicker Free Tamb&amp;eacute;m n&amp;atilde;o esquecendo o conforto dos olhos, com as tecnologias Low Blue Light e Flicker Free, que liberam a imagem da cintila&amp;ccedil;&amp;atilde;o e oferecem prote&amp;ccedil;&amp;atilde;o contra a luz azul, reduzindo a fadiga ocular durante jogos longos, e significa que voc&amp;ecirc; pode desfrutar de uma experi&amp;ecirc;ncia de jogo completa na qual nada ir&amp;aacute; parar voc&amp;ecirc;. Entre no jogo com o monitor LED Ozone DSP24 de 24 polegadas com alta resolu&amp;ccedil;&amp;atilde;o de 1920 x 1080 pixels FULL HD, que garante a defini&amp;ccedil;&amp;atilde;o que voc&amp;ecirc; precisa o tempo todo.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h3&gt;Garanta j&amp;aacute; seu Monitor Gamer Ozone aqui no KaBuM!&lt;/h3&gt;</t>
   </si>
   <si>
     <t>Monitor Samsung Odyssey, 27pol., Full HD, 165Hz, 1MS, HDMI, Display Port, FreeSync</t>
@@ -1787,10 +1828,10 @@
 E ainda, conta com várias características que te ajudam ainda mais como AMD FreeSync Premium que apresenta tecnologia de sincronização adaptativa que reduz atraso de tela, rasgos de imagem e a latência de entrada, assegurando assim que cada cena flua sem interrupções, ajuste de altura, design sem bordas em 3 lados que revela o espaço máximo para uma jogabilidade maior e mais ousada.</t>
   </si>
   <si>
-    <t>Monitor Gamer Curvo Duex Dx 270zg, 27 Polegadas, FULL HD (1920x1080), 240hz, Preto</t>
-  </si>
-  <si>
-    <t>Marca: duex&lt;br /&gt;modelo: dx 270zg &lt;br /&gt;&lt;br /&gt;especificações: &lt;br /&gt;&lt;br /&gt;tamanho da tela: 27" &lt;br /&gt;área de display: 527.4 (h) x 296.4 (v) &lt;br /&gt;resolução: 1920x1080 (240hz) &lt;br /&gt;pixel pitch: 0.27mm &lt;br /&gt;ângulo de visão: h:178 / v:178 &lt;br /&gt;brilho: 250cd/m² &lt;br /&gt;tempo de resposta: 1ms &lt;br /&gt;número de cores: 16.7m &lt;br /&gt;&lt;br /&gt;conectores: &lt;br /&gt;2x hdmi &lt;br /&gt;1x displayport &lt;br /&gt;1x usb &lt;br /&gt;1x áudio &lt;br /&gt;&lt;br /&gt;conteúdo da caixa: &lt;br /&gt;monitor &lt;br /&gt;base&lt;br /&gt;cabo hdmi&lt;br /&gt;fonte de energia&lt;br /&gt;&lt;br /&gt;garantia: 365 dias</t>
+    <t>Monitor Gamer Samsung 24Pol, Full HD, 144 Hz, 1MS, HDMI, Display Port, VGA, Freesync Premium, Regulagem De Altura - Lf24g35tfwlxzd</t>
+  </si>
+  <si>
+    <t>Monitor 24 Polegadas Samsung Gamer LED Lf24g35tfwlxzd&lt;br /&gt;&lt;br /&gt; Faça cada movimento contar com um tempo de resposta de 1ms. Ataque seus inimigos assim que os vir e fique à frente com movimentos precisos do mouse. Seu desempenho na tela é tão rápido quanto seus próprios reflexos. Jogabilidade suave sem esforço.&lt;br /&gt;&lt;br /&gt; O AMD FreeSync Premium apresenta tecnologia de sincronização adaptável, que reduz o travamento de tela, oscilação e atrasos. Gire, incline e ajuste seu monitor até que todos os inimigos estejam perfeitamente visíveis. Sua tela pode ser movida livremente para que você encontre conforto total no jogo. &lt;br /&gt;&lt;br /&gt;0 design sem borda de 3 lados revela espaço máximo para uma jogabilidade maior e mais ousada. Alinhe dois monitores com precisão em uma configuração de monitor duplo sem que nenhum inimigo fique escondido na junção. Jogue por mais tempo sem incomodo visual. &lt;br /&gt;&lt;br /&gt;O Eye Saver Mode minimiza a emissão de luz azul para manter seus olhos relaxados e confortáveis enquanto joga por muitas horas. A tecnologia Flicker Free remove continuamente a tremulação cansativa e irritante da tela para que você possa jogar por mais tempo sem distrações ou fadiga ocular.</t>
   </si>
   <si>
     <t>Monitor Gamer Bluecase, 27", 2.5k, 75hz, 5ms, Preto - BM2716GW</t>
@@ -1814,10 +1855,22 @@
     <t>Tecnologia samsung oled &lt;br /&gt;seu jogo com gráficos ainda mais bonitos! O odyssey oled g9 proporciona imagens com contraste puro e ainda mais brilhantes e coloridas, graças a exclusiva tecnologia de pontos quânticos. &lt;br /&gt;tela curva de 49\" dual qhd &lt;br /&gt;com uma tela super ultra - wide semelhante a dois monitores qhd lado a lado, capte todos os detalhes do seu jogo com a máxima nitidez. A tela curva de 1800r te coloca dentro do game proporcionando uma verdadeira imersão. &lt;br /&gt;veja os detalhes até no escuro &lt;br /&gt;display hdr e true black 400. &lt;br /&gt;o oled g9 gera um preto puro na tela sem a fuga de luz dos pixels, para que você enxergue todos os detalhes do seu game mesmo nas cenas mais escuras. &lt;br /&gt;máxima velocidade &lt;br /&gt;tempo de resposta de 0.03ms e taxa de atualização de 240hz &lt;br /&gt;desvie, ataque e contra-ataque mais rápido! A tecnologia oled oferece um tempo de resposta de 0.03ms para reações quase instantâneas. As conexões hdmi 2.1 e displayport proporcionam maior performance com a taxa de 240hz de atualização. &lt;br /&gt;especificações &lt;br /&gt;tela curva: 1800r; &lt;br /&gt;proporção de tela: 32:9; &lt;br /&gt;brilho (típico): 250 cd; &lt;br /&gt;resolução: 5,120 x 1,440; &lt;br /&gt;tempo de resposta: 0.03ms (gtg); &lt;br /&gt;característica geral &lt;br /&gt;eye saver mode: sim; &lt;br /&gt;flicker free: sim; &lt;br /&gt;picture-in-picture: sim; &lt;br /&gt;picture-by-picture: sim; &lt;br /&gt;quantum dot color: sim; &lt;br /&gt;image size: sim; &lt;br /&gt;certificação windows: windows 10; &lt;br /&gt;freesync: freesync premium pro; &lt;br /&gt;vesa adaptive-sync: sim; &lt;br /&gt;off timer plus: sim; &lt;br /&gt;black equalizer: sim; &lt;br /&gt;low input lag mode: sim; &lt;br /&gt;virtual aim point: sim; &lt;br /&gt;core sync: sim; &lt;br /&gt;super arena gaming ux: sim; &lt;br /&gt;auto source switch: auto source switch+ &lt;br /&gt;tela &lt;br /&gt;tamanho da tela ativa (hxv) (mm) :1,196.7x339.2; &lt;br /&gt;tela curva: 1800r; &lt;br /&gt;proporção de tela: 32:9; &lt;br /&gt;tipo de painel: oled; &lt;br /&gt;hdr10+: hdr10+ gaming; &lt;br /&gt;resolução: 5,120 x 1,440; &lt;br /&gt;ângulo de visão (horizontal / vertical): 178°(h)/178°(v). &lt;br /&gt;entrada de sinal &lt;br /&gt;display port: 1 ea; &lt;br /&gt;hdmi 2.1: 1 ea; &lt;br /&gt;micro hdmi: 1; &lt;br /&gt;display port version: 1.4; &lt;br /&gt;hdmi version: 2.1; &lt;br /&gt;usb ports: 3; &lt;br /&gt;usb hub version: 3.0. &lt;br /&gt;áudio &lt;br /&gt;speaker: sim; &lt;br /&gt;speaker output: 5w x 2ch. &lt;br /&gt;condições de operação &lt;br /&gt;temperatura: 10 ~ 40 graus celsius; &lt;br /&gt;umidade: 10 ~ 80 (non-condensing). &lt;br /&gt;alimentação &lt;br /&gt;consumo de energia (máximo): 220 w; &lt;br /&gt;tipo: external adaptor. &lt;br /&gt;dimensões &lt;br /&gt;produto com base (lxaxp, mm): 1194.7 x 529.3 x 284.1 mm; &lt;br /&gt;produto sem base (lxaxp, mm): 1194.7 x 365 x 180.8 mm. &lt;br /&gt;peso &lt;br /&gt;produto com base (kg): 12.6 kg; &lt;br /&gt;produto sem base (kg): 8.8 kg; &lt;br /&gt;peso bruto (kg): 18.1 kg. &lt;br /&gt;acessórios &lt;br /&gt;power cable length: 1.5 m;</t>
   </si>
   <si>
-    <t>Monitor Gamer Gigabyte 27Polegadas, 1ms Gtg 165 Hz Freesync - M27FA</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;&lt;b&gt;monitor gamer 27" gigabyte m27f a 1ms gtg 165 hz freesync&lt;/b&gt;&lt;/p&gt;&lt;p&gt;&lt;br /&gt;mergulhe no mundo dos jogos com qualidade visual e desempenho excepcionais e tenha uma experi&amp;ecirc;ncia de jogo imersiva com o monitor gamer gigabyte m27f a. Com um display de 27 polegadas, tempo de resposta de 1ms gtg e taxa de atualiza&amp;ccedil;&amp;atilde;o de 165 hz, este monitor oferece imagens n&amp;iacute;tidas, suaves e sem atrasos, permitindo que voc&amp;ecirc; reaja rapidamente aos eventos do jogo. A tecnologia freesync garante uma sincroniza&amp;ccedil;&amp;atilde;o perfeita entre a placa de v&amp;iacute;deo e o monitor, eliminando o screen tearing e stuttering. Com resolu&amp;ccedil;&amp;atilde;o full hd e cores vibrantes, cada detalhe ganha vida na tela. A base ajust&amp;aacute;vel e as op&amp;ccedil;&amp;otilde;es de conectividade completas garantem conforto e praticidade. Eleve seu desempenho nos jogos com o monitor gamer gigabyte m27f a.&lt;/p&gt;</t>
+    <t>Monitor Gamer Asus TUF 23.8' IPS, Wide, 144 Hz, Full HD, 1ms, FreeSync, HDMI/DisplayPort, Ajuste de Altura, Vesa, Som Integrado - VG249Q</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Monitor Gaming TUF Gaming VG249Q 23,8 polegadas Full HD (1920x1080), 144Hz, IPS, Extreme Low Motion Blur, Adaptive-sync, FreeSync, 1ms (MPRT)&lt;/h2&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;TUF Gaming VG249Q &amp;eacute; um monitor IPS de 23,8 polegadas,&lt;strong&gt; Full HD (1920x1080)&lt;/strong&gt;, com taxa de atualiza&amp;ccedil;&amp;atilde;o r&amp;aacute;pida de 144Hz projetada para jogadores profissionais e jogabilidade r&amp;aacute;pida. Tamb&amp;eacute;m possui &lt;strong&gt;tempo de resposta de 1ms MPRT&lt;/strong&gt; e &lt;strong&gt;tecnologia Adaptive-Sync&lt;/strong&gt;, para jogabilidade extremamente fluida sem tearing e stuttering.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Tela IPS de 23,8 polegadas para amplo &amp;acirc;ngulo de visualiza&amp;ccedil;&amp;atilde;o e melhor reprodu&amp;ccedil;&amp;atilde;o de cores com tempo de Resposta de 144Hz&lt;/h2&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;O &lt;strong&gt;painel IPS&lt;/strong&gt; de 23,8 polegadas Full HD (1920 x 1080) do TUF Gaming VG249Q oferece visuais impressionantes em amplos &lt;strong&gt;&amp;acirc;ngulos de vis&amp;atilde;o de 178&amp;ordm;&lt;/strong&gt;, impedindo muitas distor&amp;ccedil;&amp;otilde;es e mudan&amp;ccedil;a de cor, mesmo quando voc&amp;ecirc; est&amp;aacute; visualizando de posi&amp;ccedil;&amp;otilde;es nas extremidades. O TUF Gaming VG249Q possui uma &lt;strong&gt;taxa de atualiza&amp;ccedil;&amp;atilde;o ultra-r&amp;aacute;pida de 144Hz&lt;/strong&gt;, garantindo que mesmos jogos em ritmo acelerado, reproduzidos nas mais altas configura&amp;ccedil;&amp;otilde;es visuais, pare&amp;ccedil;am suaves e completamente livres de lags. Obtenha vantagem em jogos de tiro em primeira pessoa, corridas, estrat&amp;eacute;gia em tempo real e esportes.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Tecnologia Extreme Low Motion Blur e Shadow Boost&lt;/h2&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;Apresenta a mais recente &lt;strong&gt;tecnologia Extreme Low Motion Blur&lt;/strong&gt; exclusiva da ASUS, que atinge 1ms MPRT para eliminar manchas e desfoque de movimento e faz com que os objetos em movimento pare&amp;ccedil;am mais n&amp;iacute;tidos, para que a jogabilidade seja mais fluida e responsiva. A &lt;strong&gt;tecnologia ASUS Shadow Boost&lt;/strong&gt; clareia &amp;aacute;reas escuras do jogo sem superexpor &amp;aacute;reas mais brilhantes, melhorando a visualiza&amp;ccedil;&amp;atilde;o geral, al&amp;eacute;m de facilitar a localiza&amp;ccedil;&amp;atilde;o de inimigos escondidos em &amp;aacute;reas escuras do mapa.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h3&gt;Adquira agora o seu monitor gamer da ASUS no KaBuM!.&lt;/h3&gt;</t>
   </si>
   <si>
     <t>Para você que é fanático por games, precisa ter equipamentos que te impulsione aos mais altos níveis de jogabilidade.
@@ -1832,6 +1885,12 @@
     <t>Monitor Gamer Curvo Samsung Odyssey Rg90 49´´ Preto DqHD, Tela Super Ultrawide, 120hz, Hdmi, Dp, Usb, Freesync Com Ajuste De Altura</t>
   </si>
   <si>
+    <t>Monitor Gamer Curvo Duex Dx 270zg, 27 Polegadas, FULL HD (1920x1080), 240hz, Preto</t>
+  </si>
+  <si>
+    <t>Marca: duex&lt;br /&gt;modelo: dx 270zg &lt;br /&gt;&lt;br /&gt;especificações: &lt;br /&gt;&lt;br /&gt;tamanho da tela: 27" &lt;br /&gt;área de display: 527.4 (h) x 296.4 (v) &lt;br /&gt;resolução: 1920x1080 (240hz) &lt;br /&gt;pixel pitch: 0.27mm &lt;br /&gt;ângulo de visão: h:178 / v:178 &lt;br /&gt;brilho: 250cd/m² &lt;br /&gt;tempo de resposta: 1ms &lt;br /&gt;número de cores: 16.7m &lt;br /&gt;&lt;br /&gt;conectores: &lt;br /&gt;2x hdmi &lt;br /&gt;1x displayport &lt;br /&gt;1x usb &lt;br /&gt;1x áudio &lt;br /&gt;&lt;br /&gt;conteúdo da caixa: &lt;br /&gt;monitor &lt;br /&gt;base&lt;br /&gt;cabo hdmi&lt;br /&gt;fonte de energia&lt;br /&gt;&lt;br /&gt;garantia: 365 dias</t>
+  </si>
+  <si>
     <t>Monitor Gamer Cooler Master 34 Pol. Curvo, Uwqhd (3440x1440), 0.5MS, 144Hz, Hdr400, Vesa - Gm34-Cwqa</t>
   </si>
   <si>
@@ -1842,6 +1901,124 @@
   </si>
   <si>
     <t>Monitor Gamer AOC. Desenvolvidos para suportar todas as emoções dos jogos, o tempo de resposta de 1ms oferece alta velocidade, definição e muita suavidade em todos os movimentos. A avançada tecnologia Painel IPS esclarece automaticamente as áreas escuras do mundo do jogo, entregando mais cor, brilho e contraste, melhorando a visualização com amplos ângulos de visão. Game Mode, Esta função possui predefinições de fábrica para otimizar cada tipo de jogo. Assim, os níveis de gama preto, proporções de contraste e nitidez são instantaneamente calibrados</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Asus TUF 24.5 Full HD, 165Hz, 1ms, IPS, HDMI e DisplayPort, Adaptive Sync, Ajuste de Altura, Som Integrado, VESA - VG259QR</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Monitor Gamer Asus TUF 24.5' IPS, 165 Hz, Full HD, 1ms, Adaptive Sync, HDMI/DisplayPort, Ajuste de Altura, Vesa, Som Integrado - VG259QR&lt;/h2&gt;
+&lt;p&gt;&lt;strong&gt;Monitor&amp;nbsp;gamer Full HD&lt;/strong&gt; (1920 x 1080) de&lt;strong&gt; 24,5 polegadas&lt;/strong&gt; com &lt;strong&gt;taxa de atualiza&amp;ccedil;&amp;atilde;o ultrarr&amp;aacute;pida&lt;/strong&gt; de &lt;strong&gt;165 Hz&lt;/strong&gt; projetado para jogadores profissionais e jogabilidade envolvente. A tecnologia&lt;strong&gt; ASUS Extreme Low Motion Blur&lt;/strong&gt; (ELMB) permite um &lt;strong&gt;tempo de resposta de 1 ms&lt;/strong&gt; (MPRT), eliminando fantasmas para visuais n&amp;iacute;tidos de jogos. O &lt;strong&gt;Shadow Boost&lt;/strong&gt; aprimora os detalhes da imagem em &amp;aacute;reas escuras, iluminando cenas sem expor demais as &amp;aacute;reas claras.&lt;/p&gt;
+&lt;p&gt;&lt;br /&gt;Processamento &lt;strong&gt;compat&amp;iacute;vel com G-SYNC&lt;/strong&gt;, proporcionando uma experi&amp;ecirc;ncia de jogo perfeita e sem problemas ao habilitar &lt;strong&gt;VRR&lt;/strong&gt; (taxa de atualiza&amp;ccedil;&amp;atilde;o vari&amp;aacute;vel) por padr&amp;atilde;o. Apresenta um suporte ergonomicamente projetado para oferecer extensos&lt;strong&gt; ajustes de rota&amp;ccedil;&amp;atilde;o, inclina&amp;ccedil;&amp;atilde;o, rota&amp;ccedil;&amp;atilde;o e altura.&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;div&gt;
+&lt;h2&gt;Taxa de atualiza&amp;ccedil;&amp;atilde;o de 165Hz&lt;/h2&gt;
+&lt;/div&gt;
+&lt;p&gt;O &lt;strong&gt;TUF G259 GamingR&lt;/strong&gt; tem uma &lt;strong&gt;taxa de atualiza&amp;ccedil;&amp;atilde;o ultrarr&amp;aacute;pida de 165Hz&lt;/strong&gt;, que mesmo os jogos mais r&amp;aacute;pidos foram criados, apresentando nas configura&amp;ccedil;&amp;otilde;es mais altas, uma apar&amp;ecirc;ncia e quase livre de&lt;strong&gt; 165Hz&lt;/strong&gt;.&amp;nbsp;Ganhe a vantagem em jogos de tiro em primeira pessoa, corrida, estrat&amp;eacute;gia em tempo real e t&amp;iacute;tulos de esportes.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;div&gt;
+&lt;h2&gt;Conectividade variada&lt;/h2&gt;
+&lt;/div&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;Extensas op&amp;ccedil;&amp;otilde;es de conectividade, incluindo &lt;strong&gt;1 DisplayPort 1.2, 2 HDMI&lt;/strong&gt; (v1.4) e &lt;strong&gt;fone de ouvido&lt;/strong&gt;, oferece suporte a uma ampla variedade de dispositivos multim&amp;iacute;dia.&lt;/p&gt;
+&lt;h3&gt;&lt;br /&gt;Garanta seu Monitor Gamer no KaBuM!&lt;/h3&gt;</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Samsung Odyssey G40 27 polegadas FHD, 240 Hz, 1ms, IPS, HDMI, Displayport, Com Ajuste De Altura, Gsync, Freesync, Hdr10 - Ls27bg400elxzd</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Samsung Odyssey G40 27´´ Preto LS27BG400ELXZD PRINCIPAIS &lt;br /&gt;Impulsione sua realidade: Resolução FHD e painel IPS.Reaja em tempo real: 240Hz de taxa de atualização &amp; 1ms de tempo de resposta.Foco sem nunca quebrar o fluxo: Compatível com Nvidia G-Sync. Jogabilidade fácil e sem esforço. Revele os lados ocultos do jogo: Ultrawide Game View. Foco na vitória. Ajuste sua tela para 21:9 para descobrir áreas escondidas em cenas de jogo com a Vista de Jogo Ultrawide.&lt;br /&gt;Conecte-se automaticamente em um instante: Auto Source Switch+ Ligue e jogue instantaneamente. Veja seu jogo do seu jeito: Suporte Ergonômico. Atinja o auge da vitória.</t>
+  </si>
+  <si>
+    <t>Monitor Acer Gamer Nitro 27" Zeroframe, IPS, FHD, 165hz 0.5MS, 2x HDMI, AMD Freesync, Vg272 S</t>
+  </si>
+  <si>
+    <t>Monitor Acer Gamer Nitro 27" Zeroframe IPS FHD 165hz 0.5MS 2x HDMI AMD Freesync Vg272 S</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Benq Zowie 24.5 Polegadas FHD, HDMI, DP, TN Dyac, 240 Hz, 1ms, Altura Ajustável - XL2546</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Benq Zowie 24.5 FHD HDMI DP TN DyAc 240Hz 1ms Altura Ajustável - XL2546&lt;br /&gt;&lt;br /&gt;Tecnologia DyAc - Uma sensação diferente de spray&lt;br /&gt;A tecnologia exclusiva do ZOWIE - Dynamic Accuracy (DyAc) torna as ações vigorosas do jogo, como borrifar menos desfoque. Isso permite que os jogadores vejam a posição da mira e dos pontos de impacto com mais clareza, o que pode ajudar no controle do recuo.&lt;br /&gt;&lt;br /&gt;Taxa de atualização nativa de 240 Hz - Experiência de suavidade&lt;br /&gt;Capture cada detalhe do movimento e aproveite a jogabilidade fluida do monitor de taxa de atualização de 240 Hz nativo ZOWIE, que garante uma visualização suave de movimentos rápidos e transições dramáticas de forma consistente em todos os momentos. (Certifique-se de que o desempenho do PC está dentro do par para ativar totalmente 240 Hz)&lt;br /&gt;&lt;br /&gt;Requisito de placa de vídeo recomendado:&lt;br /&gt;NVIDIA GeForce GTX 980 ou melhor&lt;br /&gt;AMD Radeon RX 480 ou melhor&lt;br /&gt;&lt;br /&gt;Shield - Ajude você a se concentrar no jogo&lt;br /&gt;Escudo - revela a maneira de se concentrar nos jogos. O ângulo ajustável e o design removível permitem que o Shield adote vários ambientes de acordo com a preferência. Apenas se concentre em vencer o jogo.&lt;br /&gt;&lt;br /&gt;Acesse facilmente as configurações para diferentes cenários&lt;br /&gt;Para personalizar o XL com diferentes cenários de uso, o S-Switch foi projetado para facilitar o acesso ao menu do monitor, alternar entre os modos salvos e alternar rapidamente entre os dispositivos conectados. Para seguir suas configurações de exibição preferidas com modelos selecionados, o S-Switch permite salvar e transferir 3 perfis com design sem driver dentro do mesmo modelo.</t>
+  </si>
+  <si>
+    <t>Monitor Gamer 27'', Gigabyte G27fc-a-sa, Curvo, Full HD, 165hz, 1ms, Freesync - Hdmi/displayport</t>
+  </si>
+  <si>
+    <t>Monitor Gamer 27 Gigabyte G27fc-a-sa</t>
+  </si>
+  <si>
+    <t>Monitor 27" LED/IPS Acer Gamer Ultra Fino, 75Hz, 1Ms, HDMI + VGA - SA270</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Monitor Gamer Acer LCD 27 SA270 Bbix Full HD 75Hz 1ms IPS FreeSync HDMI Preto UM.HS0AA.B02&lt;/b&gt;&lt;br /&gt;&lt;br /&gt;NÃO PERCA NENHUM DETALHE DO SEU JOGO&lt;br /&gt;Veja tudo em alta definição com a resolução de 1920 x 1080 Full HD.&lt;br /&gt;E com as 27 da tela, seus jogos terão um campo de visão privilegiado.&lt;br /&gt;&lt;br /&gt;ENTRE NO UNIVERSO GAMER&lt;br /&gt;Garanta uma ótima performance de cor em seus jogos favoritos. O painel In Plane Switching (IPS) promove cores mais vibrantes e nítidas de qualquer ângulo, sem deixar rastros.&lt;br /&gt;&lt;br /&gt;ESTEJA PRONTO PARA JOGAR&lt;br /&gt;A taxa de atualização de 75Hz leva a renderização dos seus jogos a outro nível.&lt;br /&gt;E o tempo de resposta de 1ms acelera as transições e não trava durante a ação.</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Bluecase 24 Polegadas Full HD,  144HZ, 1ms, HDMI e DisplayPort, FreeSync - BM242GW</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Full HD 144Hz de atualização para melhores gráficos. Com 1 conector DisplayPort e 1 conector HDMI. &lt;br /&gt;&lt;br /&gt;TAXA DE ATUALIZAÇÃO   &lt;br /&gt;Uma taxa de atualização de 144Hz deixa a sua tela sem nenhum borrão, serrilhado ou "ghosting". FLICKER-FREE   A função Flicker-Free regula o brilho para diminuir o cansaço dos olhos durante os jogos. &lt;br /&gt;&lt;br /&gt;APENAS 1MS TEMPO DE RESPOSTA (GTG)   &lt;br /&gt;Melhor desempenho e experiência de jogo nas ações de rápido movimento. &lt;br /&gt;&lt;br /&gt;TECNOLOGIA AMD FREESYNC   &lt;br /&gt;O AMD FREESYNC faz a sincronização entre a taxa de atualização de seu monitor e a taxa de quadros de sua placa de vídeo eliminando imagens quebradas.</t>
+  </si>
+  <si>
+    <t>Monitor Gamer 27" 144Hz, 1Ms, Bluecase, Full HD, Freesync, Borda Ultra Fina - BM2710GW</t>
+  </si>
+  <si>
+    <t>O Monitor Gamer BM2710GW entrega aos gamers uma experiência lisa, rápida e responsiva em todos os jogos. Experimente uma jogabilidade impecável com a taxa de atualização de tela 144 Hz que garante imagens rápidas, suaves e movimentos nítidos, para nenhum detalhe passar despercebido.</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Bluecase 23.6 Polegadas, Curvo, LED FULL HD, 180Hz, HDMI,VGA, Preto - Bm24ffd1gc</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;monitor gamer full hd curvo led 23,6" bluecase 180hz hdmi vga preto - bm24ffd1gc&lt;/b&gt;&lt;/p&gt;&lt;p&gt;&lt;br /&gt;o monitor gamer bm24ffd1gc possui um tamanho de 23,6", proporcionando uma resolu&amp;ccedil;&amp;atilde;o m&amp;aacute;xima de 1920x1080 pixels full hd. Sua taxa de atualiza&amp;ccedil;&amp;atilde;o m&amp;aacute;xima &amp;eacute; de 180 hz atrav&amp;eacute;s das conex&amp;otilde;es hdmi e dp, oferece imagens mais suaves e fluidas.&amp;nbsp;equipado com ilumina&amp;ccedil;&amp;atilde;o led, o monitor possui um brilho de 300 cd/m&amp;sup2; e um contraste t&amp;iacute;pico de 4.000:1, resultando em cores vibrantes e imagens detalhadas. O monitor gamer bm24ffd1gc &amp;eacute; uma &amp;oacute;tima escolha para jogos, trabalho e entretenimento, proporcionando uma experi&amp;ecirc;ncia visual envolvente e de alta qualidade.&lt;/p&gt;&lt;p&gt;&lt;br /&gt;&lt;b&gt;caracter&amp;iacute;sticas monitor gamer led full hd bluecase 23,6" 180hz - preto&lt;/b&gt;&lt;br /&gt;- marca: bluecase&lt;br /&gt;- modelo: bm24ffd1gcbx&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Draxen 23.8'' resolução de 1920 x 1080 tempo de resposta de 1 MS 165HZ Full HD, Sem Borda</t>
+  </si>
+  <si>
+    <t>o monitor gamer draxen 165hz full hd é tudo o que você precisa para completar o seu setup. desenvolvido pensando no seu estilo de vida, oferecendo qualidade, desempenho e um design mais moderno do que nunca. a sua tela 23.8 lhe dará comodidade para estudar, trabalhar ou assistir sua série ou filme favoritos no seu tempo de lazer. além disso, sua alta resolução de 1920 x 1080 permite que você desfrute de momentos únicos graças a uma imagem nítida, cores realistas e contraste incrível. exibição de vídeo perfeita com tempo de resposta de 1 ms e mais de 16,7 milhões de cores que transformam as imagens em uma experiência muito fiel à realidade.&lt;br&gt;aprimore sua configuração com estilo. a furação padrão vesa 75x75 permite que você fixe o monitor em uma parede ou em um suporte.</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Ultrawide Curvo Multi, 34 Polegadas, Wqhd, 165hz, 1ms, 1dp, 2 HDMI, 1 USB 1p2 - Mn301</t>
+  </si>
+  <si>
+    <t>Monitor gamer ultrawide curvo warrior 34 pol. Wqhd 165hz 1ms 1dp 2hdmi 1usb 1p2 - mn301&lt;br /&gt;&lt;br /&gt;  &lt;br /&gt;&lt;br /&gt;  cansado de perder ação nos seus jogos por causa de uma tela comum? Se você é um gamer ávido em busca de emoções intensas, sabe o quanto é frustrante perder um combate por um milissegundo de atraso na resposta do monitor. A warrior tem a solução definitiva para você! Apresentamos o monitor gamer ultrawide curvo de 34 polegadas, o produto premium e exclusivo que elevará sua experiência de jogo a um novo patamar.&lt;br /&gt;&lt;br /&gt;  &lt;br /&gt;&lt;br /&gt;  experiência imersiva total: com uma tela curva ampla de 34 polegadas, você sentirá como se estivesse dentro do jogo, cercado por ação em todos os lados. A imersão total irá transportá-lo para o centro da ação, tornando cada partida uma aventura única.&lt;br /&gt;&lt;br /&gt;  &lt;br /&gt;&lt;br /&gt;  taxa de atualização incrível: a taxa de atualização de 165hz garante movimentos suaves e imagens nítidas, eliminando qualquer borrão ou arrasto na tela. Seja qual for o jogo que você está jogando, terá uma experiência fluida e sem interrupções.&lt;br /&gt;&lt;br /&gt;  &lt;br /&gt;&lt;br /&gt;  desempenho inigualável: o tempo de resposta de 1ms é um verdadeiro trunfo competitivo. Você terá a rapidez necessária para reagir a cada movimento do jogo, o que é essencial para alcançar a vitória em jogos de alta intensidade.&lt;br /&gt;&lt;br /&gt;  &lt;br /&gt;&lt;br /&gt;  painel antirreflexo: nada mais frustrante do que lidar com reflexos na tela que atrapalham a visão do jogo. Com o painel antirreflexo do monitor gamer ultrawide curvo warrior, você terá uma visão clara e sem distrações, permitindo que se concentre totalmente na ação.&lt;br /&gt;&lt;br /&gt;  &lt;br /&gt;&lt;br /&gt;  design premium e moderno: além de todas as especificações técnicas impressionantes, o monitor gamer ultrawide curvo da warrior possui um design elegante e moderno que vai destacar-se em qualquer ambiente. Com iluminação rgb na traseira, o monitor acrescenta um toque de estilo ao seu setup gamer.&lt;br /&gt;&lt;br /&gt;  &lt;br /&gt;&lt;br /&gt;  não deixe essa oportunidade escapar! Adquira agora o monitor gamer ultrawide curvo 34 da warrior e mergulhe em uma jornada de jogos épica e envolvente. Garanta sua vantagem competitiva e experimente o poder da verdadeira imersão gamer!&lt;br /&gt;&lt;br /&gt;  &lt;br /&gt;&lt;br /&gt;  ficha técnica&lt;br /&gt;&lt;br /&gt;  &lt;br /&gt;&lt;br /&gt;  marca: warrior&lt;br /&gt;&lt;br /&gt;  modelo: monitor gamer ultrawide curvo warrior 34 pol. Wqhd 165hz 1ms 1dp 2hdmi 1usb 1p2 - mn301&lt;br /&gt;&lt;br /&gt;  cor: preto&lt;br /&gt;&lt;br /&gt;  tensão: bivolt&lt;br /&gt;&lt;br /&gt;  potência: 65w&lt;br /&gt;&lt;br /&gt;  brilho: 300 cd/m2&lt;br /&gt;&lt;br /&gt;  lan ethernet: não&lt;br /&gt;&lt;br /&gt;  resolução da tela: wqhd 3440x1440&lt;br /&gt;&lt;br /&gt;  frequência do painel: 165hz&lt;br /&gt;&lt;br /&gt;  ângulo de visão: v: 178° / h: 178°&lt;br /&gt;&lt;br /&gt;  quantidade de cores: 16.7m&lt;br /&gt;&lt;br /&gt;  contraste: 3000:1&lt;br /&gt;&lt;br /&gt;  consumo stand by: 0.5w&lt;br /&gt;&lt;br /&gt;  tratamento do painel: anti reflexo, 3h&lt;br /&gt;&lt;br /&gt;  modo de imagem: srgb, reading darkroom, user, standard, eco, graphics, movie&lt;br /&gt;&lt;br /&gt;  ajuste de atura: sim&lt;br /&gt;&lt;br /&gt;  modo contraste dinâmico: sim&lt;br /&gt;&lt;br /&gt;  vesa: 100x100mm&lt;br /&gt;&lt;br /&gt;  áudio: 2x2 wrms&lt;br /&gt;&lt;br /&gt;  entradas e saídas: 1x dp 1.4, 2x hdmi 2.0, 1x usb, 1x p2 2.5mm&lt;br /&gt;&lt;br /&gt;  dimensão com base: 80,77x45,46x22,89cm&lt;br /&gt;&lt;br /&gt;  dimensão sem base: 80,77x36,18x11,75cm&lt;br /&gt;&lt;br /&gt;  peso: 4600g&lt;br /&gt;&lt;br /&gt;  &lt;br /&gt;&lt;br /&gt;  imagens meramente ilustrativas.</t>
+  </si>
+  <si>
+    <t>Monitor Gamer KBM! GAMING MG200 23.6 Led Full Hd, Curvo, 180hz, 1ms, Hdmi E Displayport, Adaptive Sync, Ajuste De Ângulo - KGMG20023PT</t>
+  </si>
+  <si>
+    <t>&lt;h3&gt;Monitor Gamer KBM! GAMING MG200: Qualidade e desempenho para seus jogos&lt;/h3&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;O Monitor Gamer KBM! GAMING MG200 &amp;eacute; a escolha perfeita para quem busca qualidade e desempenho nos jogos. Com tela plana de &lt;strong&gt;24 polegadas&lt;/strong&gt;, resolu&amp;ccedil;&amp;atilde;o Full HD e taxa de atualiza&amp;ccedil;&amp;atilde;o de &lt;strong&gt;165 Hz&lt;/strong&gt;, o MG200 oferece uma experi&amp;ecirc;ncia visual incr&amp;iacute;vel.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;O tempo de resposta de &lt;strong&gt;1 ms&lt;/strong&gt; garante que voc&amp;ecirc; n&amp;atilde;o perca nenhum detalhe da a&amp;ccedil;&amp;atilde;o, mesmo nos jogos mais r&amp;aacute;pidos. Al&amp;eacute;m disso, o recurso &lt;strong&gt;AdaptiveSync&lt;/strong&gt; elimina o tearing e o stuttering, garantindo uma imagem suave e fluida.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;Para proteger a sua vis&amp;atilde;o, o MG200 conta com &lt;strong&gt;redu&amp;ccedil;&amp;atilde;o de luz azul&lt;/strong&gt; e &lt;strong&gt;Modo Game Plus&lt;/strong&gt;, que reduzem o cansa&amp;ccedil;o visual. O som integrado &amp;eacute; de alta qualidade, mas voc&amp;ecirc; tamb&amp;eacute;m pode conectar o seu headset atrav&amp;eacute;s das portas plug and play.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;Com o Monitor Gamer KBM! GAMING MG200, voc&amp;ecirc; ter&amp;aacute; tudo o que precisa para jogar seus games favoritos com o m&amp;aacute;ximo de qualidade e desempenho.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Monitor Acer 27 Polegada, 165 HZ, IPS, Led Gamer Predator, WQHD, HDMI, USB, Display Port G-Sync - Xb271hu</t>
+  </si>
+  <si>
+    <t>O primeiro monitor IPS a atingir taxas de atualização acima de 144Hz, eleito pelo site PCGamer.com como o melhor monitor para jogos.&lt;br /&gt;&lt;br /&gt;Os Cheaters vão dar rage quit&lt;br /&gt;Nunca mais perca um frag: seu reflexo e sua performance vão ficar ainda melhores com as incríveis taxas de atualização, que oferecem imagens sem rastros e engasgos. Não vai sobrar um cheater pra contar história.&lt;br /&gt;&lt;br /&gt;SUAVE NA NAVE&lt;br /&gt;Destrua sem perder a suavidade. &lt;br /&gt;A tecnologia NVIDIA G-SYNC elimina os problemas de screen tearing para uma experiência ainda mais perfeita</t>
+  </si>
+  <si>
+    <t>Monitor Gamer HQ 27 Polegadas, FULL HD 144HZ A 240HZ 1MS HDMI Display Port, Curvo LED, Alto Falantes Iluminação RGB - Battle 27h240g</t>
+  </si>
+  <si>
+    <t>Monitor gamer hq battle&lt;br /&gt;&lt;br /&gt;A jogatina perfeita&lt;br /&gt;Com o monitor hq battle, os seus movimentos serão instantâneos e o seu tempo de reação ocorrerá em tempo real em qualquer tipo de jogo.&lt;br /&gt;Sem atrasos, você jogará com desempenho profissional.&lt;br /&gt;Graças a combinação de tempo de resposta ultrarápido + alta taxa de atualização, você sairá na frente dos seus oponentes:&lt;br /&gt;&lt;br /&gt;Tempo de resposta: 1ms&lt;br /&gt;Desempenho sem igual, imagens nítidas e sem espera. Enxergue toda a cena no milésimo de segundo em que ela acontece. Não desperdice nenhum movimento. O seu reflexo convertido em vitórias!&lt;br /&gt;&lt;br /&gt;Taxa de atualização: 240hz&lt;br /&gt;Nada de rastros nem imagens desfocadas. Tenha uma incrível vantagem sobre o seu adversário, principalmente em cenas rápidas. A altíssima taxa de atualização permitirá a você perceber cada sensível mudança no ambiente. E diferente dos demais modelos da linha battle, o 27h240g possui incríveis 240hz. É a garantia de uma experiência sublime.&lt;br /&gt;&lt;br /&gt;Amd freesync e nvidia g-sync&lt;br /&gt;E para completar o time, o monitor hq battle conta com as tecnologias amd freesync e nvidia g-sync. Incríveis ferramentas que impedem imagens serrilhadas e cortadas.&lt;br /&gt;Elas apresentam a tecnologia de sincronização adaptável, que reduz o travamento de tela, oscilação e atrasos.&lt;br /&gt;&lt;br /&gt;Enxergue no escuro&lt;br /&gt;Graças ao painel va utilizado nos monitores hq battle, você se dará bem em qualquer tipo de ambiente, mesmo em situações de baixa luminosidade.&lt;br /&gt;Encontre seus inimigos escondidos em qualquer lugar, mesmo os mais escuros.&lt;br /&gt;&lt;br /&gt;Mais sobre o painel va&lt;br /&gt;Quando falamos em tipo de painel para monitores gamer, existem três opções disponíveis no mercado.&lt;br /&gt;E por que a hq escolheu o tipo va para o monitor battle?&lt;br /&gt;A resposta é simples. Pois essa opção oferece a maior gama de vantagens para o jogador:&lt;br /&gt;1- ângulo de visão de 178x178 graus, enxergue bem em qualquer ângulo&lt;br /&gt;2- alto nível de contraste, imagens nítidas mesmo em cenas muito claras ou muito escuras&lt;br /&gt;3- tempo de resposta real de 1ms mprt&lt;br /&gt;4- cores vivas e nítidas&lt;br /&gt;5- permite as mais altas taxas de atualização&lt;br /&gt;&lt;br /&gt;Design único&lt;br /&gt;Além de todos os recursos apresentados, ainda temos o fato do monitor hq battle ter um visual sensacional.&lt;br /&gt;Desenvolvido com uma tela curva, isso já seria o bastante para deixar o seu setup gamer ainda mais moderno. Mas além disso, ele ainda possui a tecnologia ´´frameless´´, sem bordas, que garantirão a você uma imersão total. Aproveite 100% da tela.&lt;br /&gt;&lt;br /&gt;Conectividade e recursos&lt;br /&gt;Para garantir uma experiência perfeita, equipamos o battle com tudo o que você precisa.&lt;br /&gt;Dupla saída de vídeo hdmi e display port, além de uma conexão usb.&lt;br /&gt;E para deixar tudo ainda melhor, ele vem acompanhado com dois alto falantes surround e iluminação em rgb.</t>
+  </si>
+  <si>
+    <t>Monitor Gamer, E-sports Benq Xl2546k - 24.5 Polegadas 240hz, Dyac+</t>
+  </si>
+  <si>
+    <t>Monitor ZOWIE e-Sports XL2546K 240Hz DyAc? 24.5 polegadas</t>
+  </si>
+  <si>
+    <t>USADO: Monitor Gamer LG, Tela 29 Polegadas, 75Hz, 1ms, Dynamic Action Sync, AMD FreeSync - 29UM69G-B.AWZM - Bronze Recer</t>
+  </si>
+  <si>
+    <t>ATENÇÃO: VOCÊ ESTÁ ADQUIRINDO UM PRODUTO RECERTIFICADO!!!! &lt;br /&gt;&lt;br /&gt;O produto acompanha a caixa original de fábrica, não acompanha manual de instruções ou qualquer outro.&lt;br /&gt;&lt;br /&gt;Entenda o que é um produto recertificado:&lt;br /&gt;&lt;br /&gt;É um produto que volta do mercado disponível para venda nas mesmas condições de um produto novo, com suas funcionalidades e características originais. O produto passa por um rigoroso processo de análise onde todas as suas funcionalidades são testadas e o produto liberado para venda. &lt;br /&gt;O produto recertificado é classificado em medalhas de acordo com o estado estético e superficial do produto, sendo: OURO, PRATA E BRONZE.&lt;br /&gt;&lt;br /&gt;Recertificado Ouro: Produto está em ótimas condições estéticas, similar a um produto novo.&lt;br /&gt; &lt;br /&gt;Recertificado Prata: Produto tem características similares ao Ouro, pode apresentar mínimos riscos quase imperceptíveis. &lt;br /&gt;&lt;br /&gt;Recertificado Bronze: Produto possuí riscos visíveis (nenhum risco apresentado é na tela do produto). Estes riscos não alteram o funcionamento do equipamento.&lt;br /&gt;&lt;br /&gt;Atenção: O Saldão da Informática não enviará fotos reais dos produtos para os clientes, como também não reservaremos produtos. As imagens exibidas são meramente ilustrativas.&lt;br /&gt;&lt;br /&gt;Monitor Gamer LG 29UM69G-B.AWZM, com tela de 29? polegadas com resolução Full HD (2560 x 1080), uma taxa de atualização de 75Hz, e um tempo de resposta de 1ms com tecnologia que todo gamer precisa como Dynamic action Sync e AMD FreeSync&lt;br /&gt;&lt;br /&gt;FICHA TÉCNICA&lt;br /&gt;&lt;br /&gt;Modelo/Referencia: 9UM69G-B.AWZM&lt;br /&gt;&lt;br /&gt;Certificação: Recertificado&lt;br /&gt;&lt;br /&gt;Medalha: Prata&lt;br /&gt;&lt;br /&gt;FICHA TÉCNICA:&lt;br /&gt;&lt;br /&gt;Tela: 29&lt;br /&gt;&lt;br /&gt;Taxa de atualização de 75Hz&lt;br /&gt;&lt;br /&gt;Tempo de resposta 1ms&lt;br /&gt;&lt;br /&gt;Tecnologia Dynamic action Sync e AMD FreeSync&lt;br /&gt;&lt;br /&gt;&lt;br /&gt;Conteúdo da embalagem: Monitor e fonte carregadora&lt;br /&gt;&lt;br /&gt;Observação: O produto não acompanha manual de instruções&lt;br /&gt;&lt;br /&gt;Garantia: 3 meses</t>
   </si>
   <si>
     <t>Monitor Gamer BenQ MOBIUZ EX2710S, 27 Full HD, 165Hz, 1ms, IPS, HDMI e DisplayPort, FreeSync Premium, HDRi, Color Vibrance,  Black eQualizer</t>
@@ -1859,139 +2036,6 @@
 &lt;p style="text-align: justify;"&gt;Compre agora no KaBuM!&lt;/p&gt;</t>
   </si>
   <si>
-    <t>Monitor Gamer Benq Zowie 24.5 Polegadas FHD, HDMI, DP, TN Dyac, 240 Hz, 1ms, Altura Ajustável - XL2546</t>
-  </si>
-  <si>
-    <t>Monitor Gamer Benq Zowie 24.5 FHD HDMI DP TN DyAc 240Hz 1ms Altura Ajustável - XL2546&lt;br /&gt;&lt;br /&gt;Tecnologia DyAc - Uma sensação diferente de spray&lt;br /&gt;A tecnologia exclusiva do ZOWIE - Dynamic Accuracy (DyAc) torna as ações vigorosas do jogo, como borrifar menos desfoque. Isso permite que os jogadores vejam a posição da mira e dos pontos de impacto com mais clareza, o que pode ajudar no controle do recuo.&lt;br /&gt;&lt;br /&gt;Taxa de atualização nativa de 240 Hz - Experiência de suavidade&lt;br /&gt;Capture cada detalhe do movimento e aproveite a jogabilidade fluida do monitor de taxa de atualização de 240 Hz nativo ZOWIE, que garante uma visualização suave de movimentos rápidos e transições dramáticas de forma consistente em todos os momentos. (Certifique-se de que o desempenho do PC está dentro do par para ativar totalmente 240 Hz)&lt;br /&gt;&lt;br /&gt;Requisito de placa de vídeo recomendado:&lt;br /&gt;NVIDIA GeForce GTX 980 ou melhor&lt;br /&gt;AMD Radeon RX 480 ou melhor&lt;br /&gt;&lt;br /&gt;Shield - Ajude você a se concentrar no jogo&lt;br /&gt;Escudo - revela a maneira de se concentrar nos jogos. O ângulo ajustável e o design removível permitem que o Shield adote vários ambientes de acordo com a preferência. Apenas se concentre em vencer o jogo.&lt;br /&gt;&lt;br /&gt;Acesse facilmente as configurações para diferentes cenários&lt;br /&gt;Para personalizar o XL com diferentes cenários de uso, o S-Switch foi projetado para facilitar o acesso ao menu do monitor, alternar entre os modos salvos e alternar rapidamente entre os dispositivos conectados. Para seguir suas configurações de exibição preferidas com modelos selecionados, o S-Switch permite salvar e transferir 3 perfis com design sem driver dentro do mesmo modelo.</t>
-  </si>
-  <si>
-    <t>Monitor Gamer 27'', Gigabyte G27fc-a-sa, Curvo, Full HD, 165hz, 1ms, Freesync - Hdmi/displayport</t>
-  </si>
-  <si>
-    <t>Monitor Gamer 27 Gigabyte G27fc-a-sa</t>
-  </si>
-  <si>
-    <t>Monitor 27" LED/IPS Acer Gamer Ultra Fino, 75Hz, 1Ms, HDMI + VGA - SA270</t>
-  </si>
-  <si>
-    <t>&lt;b&gt;Monitor Gamer Acer LCD 27 SA270 Bbix Full HD 75Hz 1ms IPS FreeSync HDMI Preto UM.HS0AA.B02&lt;/b&gt;&lt;br /&gt;&lt;br /&gt;NÃO PERCA NENHUM DETALHE DO SEU JOGO&lt;br /&gt;Veja tudo em alta definição com a resolução de 1920 x 1080 Full HD.&lt;br /&gt;E com as 27 da tela, seus jogos terão um campo de visão privilegiado.&lt;br /&gt;&lt;br /&gt;ENTRE NO UNIVERSO GAMER&lt;br /&gt;Garanta uma ótima performance de cor em seus jogos favoritos. O painel In Plane Switching (IPS) promove cores mais vibrantes e nítidas de qualquer ângulo, sem deixar rastros.&lt;br /&gt;&lt;br /&gt;ESTEJA PRONTO PARA JOGAR&lt;br /&gt;A taxa de atualização de 75Hz leva a renderização dos seus jogos a outro nível.&lt;br /&gt;E o tempo de resposta de 1ms acelera as transições e não trava durante a ação.</t>
-  </si>
-  <si>
-    <t>Monitor Gamer Bluecase 24 Polegadas Full HD,  144HZ, 1ms, HDMI e DisplayPort, FreeSync - BM242GW</t>
-  </si>
-  <si>
-    <t>Monitor Gamer Full HD 144Hz de atualização para melhores gráficos. Com 1 conector DisplayPort e 1 conector HDMI. &lt;br /&gt;&lt;br /&gt;TAXA DE ATUALIZAÇÃO   &lt;br /&gt;Uma taxa de atualização de 144Hz deixa a sua tela sem nenhum borrão, serrilhado ou "ghosting". FLICKER-FREE   A função Flicker-Free regula o brilho para diminuir o cansaço dos olhos durante os jogos. &lt;br /&gt;&lt;br /&gt;APENAS 1MS TEMPO DE RESPOSTA (GTG)   &lt;br /&gt;Melhor desempenho e experiência de jogo nas ações de rápido movimento. &lt;br /&gt;&lt;br /&gt;TECNOLOGIA AMD FREESYNC   &lt;br /&gt;O AMD FREESYNC faz a sincronização entre a taxa de atualização de seu monitor e a taxa de quadros de sua placa de vídeo eliminando imagens quebradas.</t>
-  </si>
-  <si>
-    <t>Monitor Gamer AOC Agon 31.5' LED, Curvo, 165 Hz, Full HD, 1ms, FreeSync Premium, HDMI/DisplayPort, RGB Light FX - AG323FCXE</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Com tela de alta qualidade, amplo &amp;acirc;ngulo de vis&amp;atilde;o e comando em tempo real, prepare-se para obter uma experi&amp;ecirc;ncia muito mais imersiva em todos os g&amp;ecirc;neros de jogos. Projetado para gamers, o monitor Agon permite movimentos muito mais flu&amp;iacute;dos nos jogos devido a alt&amp;iacute;ssima taxa de atualiza&amp;ccedil;&amp;atilde;o de 165 Hz. O tempo de resposta de 1 ms proporciona movimentos instant&amp;acirc;neos e naturais para voc&amp;ecirc; ser o melhor, e com o painel VA, voc&amp;ecirc; tem mais brilho e contraste para enxergar onde os seus inimigos est&amp;atilde;o, mesmo em cenas com pouca ilumina&amp;ccedil;&amp;atilde;o. Al&amp;eacute;m disso, o design exclusivo com LEDs em diferentes configura&amp;ccedil;&amp;otilde;es de cores RGB deixam a sua maratona de jogos ainda mais emocionante.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>Monitor Gamer 27" 144Hz, 1Ms, Bluecase, Full HD, Freesync, Borda Ultra Fina - BM2710GW</t>
-  </si>
-  <si>
-    <t>O Monitor Gamer BM2710GW entrega aos gamers uma experiência lisa, rápida e responsiva em todos os jogos. Experimente uma jogabilidade impecável com a taxa de atualização de tela 144 Hz que garante imagens rápidas, suaves e movimentos nítidos, para nenhum detalhe passar despercebido.</t>
-  </si>
-  <si>
-    <t>Monitor Gamer BenQ 24 Polegadas, Full HD, 144Hz, 1Ms, DisplayPort e HDMI, Altura Ajustável - XL2411K</t>
-  </si>
-  <si>
-    <t>Monitor Gamer Benq Zowie 24 HD HDMI DP TN DyAc 144Hz 1ms Altura Ajustável - XL2411K&lt;br /&gt;&lt;br /&gt;Uma nova geração da série XL de monitores gamers para PC, com ajustes aprimorados para maior flexibilidade, conforto e conveniência aos jogadores, permitindo foco e desempenho durante o game.&lt;br /&gt;&lt;br /&gt;BASE REDUZIDA - MAIS ESPAÇO PRA JOGAR&lt;br /&gt;Nova base desenvolvida com o objetivo de liberar mais espaço ao jogador, sem perder a estabilidade do monitor. Isso permite espaço para mais movimento durante o jogo e ficar confortável com mais flexibilidade.&lt;br /&gt;&lt;br /&gt;AJUSTES FLEXÍVEIS - MAIS CONFORTO DURANTE OS JOGOS&lt;br /&gt;Entendemos que cada jogador(a) tem suas configurações preferidas. Uma combinação única da altura e do ângulo do monitor. Com ajuste de altura e inclinação livre, os players podem configurar rapidamente de acordo com suas necessidades para um resultado melhor, jogando de uma forma mais confortável.&lt;br /&gt;&lt;br /&gt;ACESSO RÁPIDO ÀS CONFIGURAÇÕES&lt;br /&gt;A alteração na interface do usuário e no S-Switch é muito mais do que apenas estético. Foram redesenhados com o objetivo de oferecer a capacidade de personalizar as configurações que preferir para FPS, acessando-as rapidamente, por meio de um menu, com apenas um toque. As configurações passam a ser muito mais convenientes.&lt;br /&gt;&lt;br /&gt;TECNOLOGIA DYAX - UMA SENSAÇÃO DE SPAY DIFERENTE&lt;br /&gt;O DyAc ajuda a não perder o foco durante o spray. Possibilita aos jogadores ver as posições da mira e pontos de impacto com mais clareza, ajudando a embaçar menos a imagem durante  o recuo da arma. &lt;br /&gt;&lt;br /&gt;FAÇA AJUSTES VISUAIS COM BASE EM SUAS NECESSIDADES DE JOGO&lt;br /&gt;O Black eQualizer aumenta a visibilidade de cenas escuras, sem superexpor as áreas claras. Já o Color Vibrance ajusta as configurações e o tom das cores para diferenciar alvos inimigos no jogo, e por fim, o modo Game alterna entre as pré configurações para o jogo, de acordo com título do mesmo.</t>
-  </si>
-  <si>
-    <t>Monitor Gamer Bluecase 23.6 Polegadas, Curvo, LED FULL HD, 180Hz, HDMI,VGA, Preto - Bm24ffd1gc</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;&lt;b&gt;monitor gamer full hd curvo led 23,6" bluecase 180hz hdmi vga preto - bm24ffd1gc&lt;/b&gt;&lt;/p&gt;&lt;p&gt;&lt;br /&gt;o monitor gamer bm24ffd1gc possui um tamanho de 23,6", proporcionando uma resolu&amp;ccedil;&amp;atilde;o m&amp;aacute;xima de 1920x1080 pixels full hd. Sua taxa de atualiza&amp;ccedil;&amp;atilde;o m&amp;aacute;xima &amp;eacute; de 180 hz atrav&amp;eacute;s das conex&amp;otilde;es hdmi e dp, oferece imagens mais suaves e fluidas.&amp;nbsp;equipado com ilumina&amp;ccedil;&amp;atilde;o led, o monitor possui um brilho de 300 cd/m&amp;sup2; e um contraste t&amp;iacute;pico de 4.000:1, resultando em cores vibrantes e imagens detalhadas. O monitor gamer bm24ffd1gc &amp;eacute; uma &amp;oacute;tima escolha para jogos, trabalho e entretenimento, proporcionando uma experi&amp;ecirc;ncia visual envolvente e de alta qualidade.&lt;/p&gt;&lt;p&gt;&lt;br /&gt;&lt;b&gt;caracter&amp;iacute;sticas monitor gamer led full hd bluecase 23,6" 180hz - preto&lt;/b&gt;&lt;br /&gt;- marca: bluecase&lt;br /&gt;- modelo: bm24ffd1gcbx&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>Monitor 29 Lg 29wk500 - Tela Ips Full Hd Ultrawide Freesync - Modo Gamer - Screen Split 2.0 - 5ms</t>
-  </si>
-  <si>
-    <t>Monitor Gamer Multi Warrior Kaizen 27 Polegadas, Full HD IPS, 144Hz, 1ms, HDMI e DisplayPort, FreeSync - MN201</t>
-  </si>
-  <si>
-    <t>O Monitor Kaizen traz um novo significado para a palavra imersão, a sua tela IPS Full HD proporciona realismo total para a sua jogatina. Tenha uma jogabilidade fluida com uma taxa de atualização de 144Hz, sem rastros e sem o efeito Ghosting. A tela de 27" FHD do Warrior Kaizen garante uma imersão total em seus games. Aproveite ao máximo a qualidade de imagem em alta resolução. Seu painel IPS garante maior fidelidade de cores e qualidade de imagem em seus jogos. A tecnologia FreeSync sincroniza os quadros gerados pela placa gráfica (GPU) com a taxa de atualização do monitor. Isso garante que eles fiquem sempre alinhados e proporcionem uma imagem fluida e sem cortes. Ele conta com um com tempo de resposta de 1ms, permitindo que você tenha a reação mais rápida para os seus desafios. Com iluminação RGB, seu setup gamer ainda melhor. Conta com base ajustável em altura e rotação com ajustes precisos e tempo de resposta ultra rápido para seus comandos. O monitor Warrior Kayzen se adapta perfeitamente ao seu setup.</t>
-  </si>
-  <si>
-    <t>Monitor Acer 27 Polegada, 165 HZ, IPS, Led Gamer Predator, WQHD, HDMI, USB, Display Port G-Sync - Xb271hu</t>
-  </si>
-  <si>
-    <t>O primeiro monitor IPS a atingir taxas de atualização acima de 144Hz, eleito pelo site PCGamer.com como o melhor monitor para jogos.&lt;br /&gt;&lt;br /&gt;Os Cheaters vão dar rage quit&lt;br /&gt;Nunca mais perca um frag: seu reflexo e sua performance vão ficar ainda melhores com as incríveis taxas de atualização, que oferecem imagens sem rastros e engasgos. Não vai sobrar um cheater pra contar história.&lt;br /&gt;&lt;br /&gt;SUAVE NA NAVE&lt;br /&gt;Destrua sem perder a suavidade. &lt;br /&gt;A tecnologia NVIDIA G-SYNC elimina os problemas de screen tearing para uma experiência ainda mais perfeita</t>
-  </si>
-  <si>
-    <t>Monitor Gamer HQ 27 Polegadas, FULL HD 144HZ A 240HZ 1MS HDMI Display Port, Curvo LED, Alto Falantes Iluminação RGB - Battle 27h240g</t>
-  </si>
-  <si>
-    <t>Monitor gamer hq battle&lt;br /&gt;&lt;br /&gt;A jogatina perfeita&lt;br /&gt;Com o monitor hq battle, os seus movimentos serão instantâneos e o seu tempo de reação ocorrerá em tempo real em qualquer tipo de jogo.&lt;br /&gt;Sem atrasos, você jogará com desempenho profissional.&lt;br /&gt;Graças a combinação de tempo de resposta ultrarápido + alta taxa de atualização, você sairá na frente dos seus oponentes:&lt;br /&gt;&lt;br /&gt;Tempo de resposta: 1ms&lt;br /&gt;Desempenho sem igual, imagens nítidas e sem espera. Enxergue toda a cena no milésimo de segundo em que ela acontece. Não desperdice nenhum movimento. O seu reflexo convertido em vitórias!&lt;br /&gt;&lt;br /&gt;Taxa de atualização: 240hz&lt;br /&gt;Nada de rastros nem imagens desfocadas. Tenha uma incrível vantagem sobre o seu adversário, principalmente em cenas rápidas. A altíssima taxa de atualização permitirá a você perceber cada sensível mudança no ambiente. E diferente dos demais modelos da linha battle, o 27h240g possui incríveis 240hz. É a garantia de uma experiência sublime.&lt;br /&gt;&lt;br /&gt;Amd freesync e nvidia g-sync&lt;br /&gt;E para completar o time, o monitor hq battle conta com as tecnologias amd freesync e nvidia g-sync. Incríveis ferramentas que impedem imagens serrilhadas e cortadas.&lt;br /&gt;Elas apresentam a tecnologia de sincronização adaptável, que reduz o travamento de tela, oscilação e atrasos.&lt;br /&gt;&lt;br /&gt;Enxergue no escuro&lt;br /&gt;Graças ao painel va utilizado nos monitores hq battle, você se dará bem em qualquer tipo de ambiente, mesmo em situações de baixa luminosidade.&lt;br /&gt;Encontre seus inimigos escondidos em qualquer lugar, mesmo os mais escuros.&lt;br /&gt;&lt;br /&gt;Mais sobre o painel va&lt;br /&gt;Quando falamos em tipo de painel para monitores gamer, existem três opções disponíveis no mercado.&lt;br /&gt;E por que a hq escolheu o tipo va para o monitor battle?&lt;br /&gt;A resposta é simples. Pois essa opção oferece a maior gama de vantagens para o jogador:&lt;br /&gt;1- ângulo de visão de 178x178 graus, enxergue bem em qualquer ângulo&lt;br /&gt;2- alto nível de contraste, imagens nítidas mesmo em cenas muito claras ou muito escuras&lt;br /&gt;3- tempo de resposta real de 1ms mprt&lt;br /&gt;4- cores vivas e nítidas&lt;br /&gt;5- permite as mais altas taxas de atualização&lt;br /&gt;&lt;br /&gt;Design único&lt;br /&gt;Além de todos os recursos apresentados, ainda temos o fato do monitor hq battle ter um visual sensacional.&lt;br /&gt;Desenvolvido com uma tela curva, isso já seria o bastante para deixar o seu setup gamer ainda mais moderno. Mas além disso, ele ainda possui a tecnologia ´´frameless´´, sem bordas, que garantirão a você uma imersão total. Aproveite 100% da tela.&lt;br /&gt;&lt;br /&gt;Conectividade e recursos&lt;br /&gt;Para garantir uma experiência perfeita, equipamos o battle com tudo o que você precisa.&lt;br /&gt;Dupla saída de vídeo hdmi e display port, além de uma conexão usb.&lt;br /&gt;E para deixar tudo ainda melhor, ele vem acompanhado com dois alto falantes surround e iluminação em rgb.</t>
-  </si>
-  <si>
-    <t>Monitor Gamer Zowie XL2411K 24, 144Hz, 1ms, HDMI, Tecnologia DyAc Ajuste de Altura - 9H.LJPLB.QBL</t>
-  </si>
-  <si>
-    <t>&lt;h2&gt;Monitor Gamer Zowie XL2411K&lt;/h2&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h2&gt;Compat&amp;iacute;vel com PS5 e Xbox X S&amp;eacute;rie X at&amp;eacute; 120 Hz.&lt;/h2&gt;
-&lt;p&gt;Com a introdu&amp;ccedil;&amp;atilde;o do &lt;strong&gt;PS5 e Xbox Series X&lt;/strong&gt;, os jogadores de console podem finalmente tirar proveito de uma taxa de atualiza&amp;ccedil;&amp;atilde;o de&lt;strong&gt; 120Hz&lt;/strong&gt; (tamb&amp;eacute;m dependente do suporte de &lt;strong&gt;120fps&lt;/strong&gt; por t&amp;iacute;tulo de jogo). Esta &amp;eacute; uma atualiza&amp;ccedil;&amp;atilde;o significativa para jogadores FPS competitivos, pois o aumento da suavidade e clareza pode resultar em&lt;strong&gt; tempos de rea&amp;ccedil;&amp;atilde;o mais r&amp;aacute;pidos&lt;/strong&gt; e um &lt;strong&gt;rastreamento mais f&amp;aacute;cil dos inimigos&lt;/strong&gt;.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h2&gt;DyAc Tecnologia - Uma sensa&amp;ccedil;&amp;atilde;o de pulveriza&amp;ccedil;&amp;atilde;o diferente&lt;/h2&gt;
-&lt;p&gt;&lt;strong&gt;DyAc&lt;/strong&gt; torna as a&amp;ccedil;&amp;otilde;es vigorosas dentro do jogo, como a pulveriza&amp;ccedil;&amp;atilde;o menos borrada. Isto permite que os jogadores vejam mais claramente a &lt;strong&gt;posi&amp;ccedil;&amp;atilde;o dos pontos de mira e de impacto que podem ajudar no controle de recuo&lt;/strong&gt;.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h2&gt;Diferentes modos de cor dentro do jogo - Jogue ao seu gosto&lt;/h2&gt;
-&lt;p&gt;Estamos lan&amp;ccedil;ando &lt;strong&gt;modos de jogo&lt;/strong&gt; &lt;strong&gt;sob medida&lt;/strong&gt; para atender a diferentes prefer&amp;ecirc;ncias e cen&amp;aacute;rios. Cada configura&amp;ccedil;&amp;atilde;o de cor leva em considera&amp;ccedil;&amp;atilde;o cuidadosamente, jogo por jogo, cena por cena, para garantir que as cores funcionem durante todo o jogo, e n&amp;atilde;o sejam comprometidas em mapas diferentes.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h2&gt;Fa&amp;ccedil;a ajustes visuais com base em suas necessidades dentro do jogo&lt;/h2&gt;
-&lt;p&gt;&lt;strong&gt;Black eQualizer&lt;/strong&gt; para aumentar a visibilidade em cenas escuras sem expor em excesso as &amp;aacute;reas brilhantes, &lt;strong&gt;Color Vibrance&lt;/strong&gt; para ajustar a configura&amp;ccedil;&amp;atilde;o de cores e o tom para diferenciar alvos inimigos no jogo, e &lt;strong&gt;Game modes&lt;/strong&gt; para alternar entre predefini&amp;ccedil;&amp;otilde;es para diferentes t&amp;iacute;tulos de jogo - todos estes s&amp;atilde;o ajustes que permitem que os jogadores joguem com &lt;strong&gt;suas configura&amp;ccedil;&amp;otilde;es visuais preferidas&lt;/strong&gt;.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h2&gt;XL Setting to Share&lt;/h2&gt;
-&lt;p&gt;Compartilhe suas pr&amp;oacute;prias configura&amp;ccedil;&amp;otilde;es com um colega de equipe, um amigo ou seus f&amp;atilde;s. Salve perfis de v&amp;iacute;deo rapidamente e compartilhe convenientemente atrav&amp;eacute;s de uma &lt;strong&gt;interface de usu&amp;aacute;rio simples&lt;/strong&gt;.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h2&gt;Base menor - Mais espa&amp;ccedil;o para jogar&lt;/h2&gt;
-&lt;p&gt;A nova &lt;strong&gt;base &amp;eacute; projetada para ocupar menos espa&amp;ccedil;o&lt;/strong&gt;, mantendo a mesma estabilidade. Isto permite aos jogadores &lt;strong&gt;mais espa&amp;ccedil;o em sua configura&amp;ccedil;&amp;atilde;o para movimentos dentro do jogo&lt;/strong&gt; e lhes permite a flexibilidade de fazer ajustes e jogar confortavelmente.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h3&gt;Compre agora no KaBuM!&lt;/h3&gt;</t>
-  </si>
-  <si>
-    <t>Monitor Gamer, E-sports Benq Xl2546k - 24.5 Polegadas 240hz, Dyac+</t>
-  </si>
-  <si>
-    <t>Monitor ZOWIE e-Sports XL2546K 240Hz DyAc? 24.5 polegadas</t>
-  </si>
-  <si>
-    <t>USADO: Monitor Gamer LG, Tela 29 Polegadas, 75Hz, 1ms, Dynamic Action Sync, AMD FreeSync - 29UM69G-B.AWZM - Bronze Recer</t>
-  </si>
-  <si>
-    <t>ATENÇÃO: VOCÊ ESTÁ ADQUIRINDO UM PRODUTO RECERTIFICADO!!!! &lt;br /&gt;&lt;br /&gt;O produto acompanha a caixa original de fábrica, não acompanha manual de instruções ou qualquer outro.&lt;br /&gt;&lt;br /&gt;Entenda o que é um produto recertificado:&lt;br /&gt;&lt;br /&gt;É um produto que volta do mercado disponível para venda nas mesmas condições de um produto novo, com suas funcionalidades e características originais. O produto passa por um rigoroso processo de análise onde todas as suas funcionalidades são testadas e o produto liberado para venda. &lt;br /&gt;O produto recertificado é classificado em medalhas de acordo com o estado estético e superficial do produto, sendo: OURO, PRATA E BRONZE.&lt;br /&gt;&lt;br /&gt;Recertificado Ouro: Produto está em ótimas condições estéticas, similar a um produto novo.&lt;br /&gt; &lt;br /&gt;Recertificado Prata: Produto tem características similares ao Ouro, pode apresentar mínimos riscos quase imperceptíveis. &lt;br /&gt;&lt;br /&gt;Recertificado Bronze: Produto possuí riscos visíveis (nenhum risco apresentado é na tela do produto). Estes riscos não alteram o funcionamento do equipamento.&lt;br /&gt;&lt;br /&gt;Atenção: O Saldão da Informática não enviará fotos reais dos produtos para os clientes, como também não reservaremos produtos. As imagens exibidas são meramente ilustrativas.&lt;br /&gt;&lt;br /&gt;Monitor Gamer LG 29UM69G-B.AWZM, com tela de 29? polegadas com resolução Full HD (2560 x 1080), uma taxa de atualização de 75Hz, e um tempo de resposta de 1ms com tecnologia que todo gamer precisa como Dynamic action Sync e AMD FreeSync&lt;br /&gt;&lt;br /&gt;FICHA TÉCNICA&lt;br /&gt;&lt;br /&gt;Modelo/Referencia: 9UM69G-B.AWZM&lt;br /&gt;&lt;br /&gt;Certificação: Recertificado&lt;br /&gt;&lt;br /&gt;Medalha: Prata&lt;br /&gt;&lt;br /&gt;FICHA TÉCNICA:&lt;br /&gt;&lt;br /&gt;Tela: 29&lt;br /&gt;&lt;br /&gt;Taxa de atualização de 75Hz&lt;br /&gt;&lt;br /&gt;Tempo de resposta 1ms&lt;br /&gt;&lt;br /&gt;Tecnologia Dynamic action Sync e AMD FreeSync&lt;br /&gt;&lt;br /&gt;&lt;br /&gt;Conteúdo da embalagem: Monitor e fonte carregadora&lt;br /&gt;&lt;br /&gt;Observação: O produto não acompanha manual de instruções&lt;br /&gt;&lt;br /&gt;Garantia: 3 meses</t>
-  </si>
-  <si>
-    <t>Monitor Gamer Redragon Amber, Tela de 27 Polegadas FHD, 165HZ, Curvo, LED, HDMI, Preto - GM27H10C</t>
-  </si>
-  <si>
-    <t>Características:&lt;br /&gt; - marca: redragon&lt;br /&gt; - modelo: gm27h10c&lt;br /&gt; especificações:&lt;br /&gt; - cor: preto&lt;br /&gt; - tamanho: 27”&lt;br /&gt; - resolução: 1920 x 1080 16:9&lt;br /&gt; - tipo de painel: va&lt;br /&gt; - taxa de atualização: 165 hz&lt;br /&gt; - número de cores: 16.7 m&lt;br /&gt; - brilho máximo: 250cd/m2 (typical)&lt;br /&gt; - taxa de contraste: 3000:1&lt;br /&gt; - conectividade: dp x1, hdmi x2, dc in x1&lt;br /&gt; - power range: 100-240v 50/60hz&lt;br /&gt; - tempo de resposta: 1ms&lt;br /&gt; - peso bruto(g): 5960g&lt;br /&gt; - peso liquido(g): 4830g&lt;br /&gt; conteúdo da embalagem:&lt;br /&gt; - monitor gamer redragon</t>
-  </si>
-  <si>
-    <t>Monitor Gamer KBM! GAMING MG330 31.5' Led, Curvo, 165 Hz, Full Hd, 1ms, Adaptive Sync, Hdmi/Displayport, Ajuste De Ângulo - KGMG33031PT</t>
-  </si>
-  <si>
-    <t>&lt;h2&gt;Monitor Gamer KBM! GAMING MG330 31.5' LED, Curvo, 165 Hz, Full HD, 1ms, Adaptive Sync, HDMI/DisplayPort, Ajuste de&amp;nbsp; ngulo - KGMG330&lt;/h2&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h2&gt;Esteja um passo &amp;agrave; frente!&lt;/h2&gt;
-&lt;p&gt;O Monitor Gamer KBM! GAMING MG330 conta com resposta de &lt;strong&gt;1ms&lt;/strong&gt; e taxa de atualiza&amp;ccedil;&amp;atilde;o de &lt;strong&gt;165Hz&lt;/strong&gt;, permitindo a mais alta performance durante suas gameplays. Sua curvatura amplia o campo de vis&amp;atilde;o relativo, concentrando toda a a&amp;ccedil;&amp;atilde;o ao alcance dos olhos do usu&amp;aacute;rio, sem perder resolu&amp;ccedil;&amp;atilde;o.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h2&gt;Melhor Entrega de Imagens para sua Gameplay&lt;/h2&gt;
-&lt;p&gt;Compat&amp;iacute;vel com a tecnologia &lt;strong&gt;Adaptive Sync&lt;/strong&gt;, permite a sincroniza&amp;ccedil;&amp;atilde;o dos frames da placa de v&amp;iacute;deo, decretando o fim do input lag, bem como do tearing.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h2&gt;Conectividade&lt;/h2&gt;
-&lt;p&gt;O Monitor Gamer KBM! GAMING MG330 acompanha um cabo &lt;strong&gt;DisplayPort&lt;/strong&gt; que garante a melhor qualidade de imagem para seu jogo. Al&amp;eacute;m da conex&amp;atilde;o DP, o monitor ainda possui duas conex&amp;otilde;es &lt;strong&gt;HDMI&lt;/strong&gt; e uma conex&amp;atilde;o &lt;strong&gt;P2&lt;/strong&gt; para ouvir seu jogo diretamente do seu monitor.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h2&gt;Maior Ergonomia e Conforto para Uso Prolongado&lt;/h2&gt;
-&lt;p&gt;O Monitor Gamer KBM! GAMING MG330 possui ajuste de inclina&amp;ccedil;&amp;atilde;o &lt;strong&gt;de 5&amp;deg; a 15&amp;deg;&lt;/strong&gt; que se ajusta ergonomicamente para o seu uso. O monitor tamb&amp;eacute;m conta com &lt;strong&gt;Redu&amp;ccedil;&amp;atilde;o de Luz Azul&lt;/strong&gt;, se tornando uma &amp;oacute;tima op&amp;ccedil;&amp;atilde;o para Gameplays prolongadas.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h3&gt;Seu Monitor KBM! GAMING voc&amp;ecirc; encontra aqui no KaBuM!&lt;/h3&gt;</t>
-  </si>
-  <si>
     <t>Monitor Gamer Gigabyte 24 Full HD, 165Hz, 1ms, IPS, HDMI e DisplayPort, 125% sRGB, HDR, FreeSync, Altura Ajustável - G24F2BR</t>
   </si>
   <si>
@@ -2031,60 +2075,16 @@
 &lt;h3&gt;Compre agora no KaBuM!&lt;/h3&gt;</t>
   </si>
   <si>
-    <t>Monitor Cooler Master Ga271, 27 Polegadas, Wqhd, Va, Hdr10, 100hz, 1ms, Srgb</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;&lt;strong&gt;mergulhe no mundo dos jogos&lt;/strong&gt;&lt;br /&gt;o ga271 é um monitor wqhd com taxa de atualização de até 100 hz com suporte para adaptive sync. Com todos os recursos e especificações necessários, o ga271 é um monitor orientado para o valor que oferece desempenho excepcional em aplicações de jogos e de trabalho.&lt;/p&gt;&lt;p&gt;&lt;strong&gt;encontre seu equilíbrio&lt;/strong&gt;&lt;br /&gt;o ga271 com um painel de 27" com resolução wqhd oferece visuais impressionantes para seus jogos e aplicativos relacionados ao trabalho. O ga271 pode ser seu monitor principal para lidar com planilhas durante o dia, bem como para jogar e desfrutar de entretenimento durante a noite.&lt;/p&gt;&lt;p&gt;&lt;strong&gt;100hz + 1ms&lt;/strong&gt;&lt;br /&gt;o ga271 oferece uma taxa de atualização fluida de 100 hz com tempo de resposta de 1 ms, proporcionando imagens mais nítidas e responsivas para jogos, bem como para uso geral de produtividade.&lt;/p&gt;&lt;p&gt;&lt;strong&gt;contraste mais profundo&lt;/strong&gt;&lt;br /&gt;o painel va do ga271 produz pretos mais profundos e escuros para um nível de contraste aprimorado, resultando em maior qualidade de imagem. Com uma relação de contraste de 4000:1, o painel va do ga271 é capaz de reproduzir um nível de contraste 4x superior ao de um painel ips padrão.&lt;/p&gt;&lt;p&gt;&lt;strong&gt;sincronização adaptativa&lt;/strong&gt;&lt;br /&gt;ga271 vem com suporte adaptive sync, proporcionando uma experiência extra suave e sem interrupções em seus jogos. Ganhe uma vantagem competitiva sobre seus oponentes com menos manchas de movimento e visuais mais claros nos jogos que você joga.&lt;/p&gt;&lt;p&gt;&lt;strong&gt;luz azul baixa e sem cintilação&lt;/strong&gt;&lt;br /&gt;ga271 não treme e possui um modo de luz azul baixa para proteger ainda mais seus olhos de emissões de luz azul potencialmente prejudiciais.&lt;/p&gt;&lt;p&gt;&lt;strong&gt;pronto para hdr&lt;/strong&gt;&lt;br /&gt;o ga271 não é ótimo apenas para jogos, mas também para desfrutar de entretenimento, pois aceita entrada hdr, permitindo visualizar conteúdo com maiores detalhes e cores em comparação com um monitor tradicional.&lt;/p&gt;&lt;p&gt;&lt;strong&gt;estética minimalista&lt;/strong&gt;&lt;br /&gt;ga271 segue o básico com um design prático com foco em uma estética minimalista. O design limpo certamente se encaixa perfeitamente em sua configuração de trabalho e lazer.&lt;/p&gt;&lt;p&gt;&lt;strong&gt;opções de conectividade&lt;/strong&gt;&lt;br /&gt;conecte seus dispositivos às portas de e/s que consistem em: 1 x porta de exibição,  2 x hdmi 2.0, 1 x conector de fone de ouvido de 3,5 mm&lt;/p&gt;&lt;p&gt; &lt;/p&gt;&lt;p&gt;&lt;strong&gt;especificações:&lt;/strong&gt;&lt;/p&gt;&lt;ul&gt;	&lt;li&gt;marca: cooler master&lt;/li&gt;	&lt;li&gt;modelo: cmi-ga271&lt;/li&gt;	&lt;li&gt;tipo de painel: série plana&lt;/li&gt;	&lt;li&gt;razão: 16:9&lt;/li&gt;	&lt;li&gt;tamanho da tela: 27"&lt;/li&gt;	&lt;li&gt;painel: va 1.07b&lt;/li&gt;	&lt;li&gt;resolução: 2k wqhd 2560x1440&lt;/li&gt;	&lt;li&gt;taxa de quadros: 100hz&lt;/li&gt;	&lt;li&gt;relação de contraste: 4000:1&lt;/li&gt;	&lt;li&gt;visão de angulo: 178°/178°&lt;/li&gt;	&lt;li&gt;brilho: 250 lêndeas&lt;/li&gt;	&lt;li&gt;gama de cores: srgb 95%&lt;/li&gt;	&lt;li&gt;entradas hdmi: 2&lt;/li&gt;	&lt;li&gt;entrada dp: 1&lt;/li&gt;	&lt;li&gt;tecnologia vrr: adaptive sync, faixa freesync: sim, faixa g-sync: sim&lt;/li&gt;	&lt;li&gt;tempo de resposta: 1ms (mprt) &lt;/li&gt;	&lt;li&gt;proteção de luz azul: sim &lt;/li&gt;	&lt;li&gt;consumo: 18w&lt;/li&gt;	&lt;li&gt;ajuste de inclinação: -5°~+20°&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
     <t>Monitor Gamer Cooler Master 27", LCD Curvo, Widescreen, Full HD, HDMI, 165Hz, 3ms, FreeSync - GM27-CF</t>
   </si>
   <si>
     <t>Com o Monitor Gamer Cooler Master GM27-CF você poderá usufruir de uma experiência de imersão e alta tecnologia nunca antes vista no mercado. Poderoso e revolucionário, ele conta com uma tela curva widescreen LCD de 27" capaz de surpreender até os jogadores mais exigentes, aproximando você da ação e garantindo um ponto de vista verdadeiramente envolvente. Tudo isso com uma resolução full HD, painel VA e alta taxa de contraste estática, que entregam imagens incrivelmente detalhadas e nítidas, além de níveis de pretos profundos e brancos brilhantes. O tempo de resposta de 3ms proporciona movimentos mais precisos sem quadros desfocados, enquanto que a frequência de atualização de 165Hz elimina o lag para uma jogabilidade emocionante com condições visuais ideais.Com os ajustes de inclinação, rotação e altura você poderá encontrar o posicionamento ideal do seu monitor e ter muito mais conforto mesmo em longos períodos de uso. A tecnologia AMD FreeSync Premium sincroniza os frames por segundo com a taxa de atualização do monitor, reproduzindo imagens mais fiéis e proporcionando uma jogabilidade mais fluída. Na parte das conexões estão disponíveis entradas DisplayPort e HDMI de fácil acesso. Além disso, o GM27-CF traz um design moderno com molduras super finas e suporte de alumínio fundido.</t>
   </si>
   <si>
-    <t>Monitor Gamer Benq Mobiuz EX2510S, 24.5 Full HD, 165hz, 1ms, HDMI, USB, DisplayPort, IPS, SRGB, HDR10, Freesync Premium, Eye Care, Som Integrado, Preto - 9H.LKELA.TBL</t>
-  </si>
-  <si>
-    <t>O monitor gamer BenQ Mobiuz EX2510S é o equipamento ideal para gamers que procuram mais qualidade na imagem durante suas gameplays insanas. O EX2510S possui uma tela de 24,5” IPS com taxa de atualização de 165Hz, operando em conjunto com a tecnologia AMD FreeSync Premium, garantindo que cada frame da imagem seja reproduzido com fidelidade e sem qualquer tipo de atraso ou queda.Com o Mobiuz EX2510S encare qualquer desafio e explore qualquer possibilidade, tanto no PC como no console com resolução Full HD de 1920x1080. Explore ao máximo as configurações do monitor, tenha uma exibição mais nítida e com mais detalhes, sendo possível combinar padrões com HDRi. E para maior praticidade, conta com ajustes de inclinação, altura e sistema de áudio integrado para imersão total.</t>
-  </si>
-  <si>
-    <t>Monitor Gamer Samsung Odyssey G40 27 polegadas FHD, 240 Hz, 1ms, IPS, HDMI, Displayport, Com Ajuste De Altura, Gsync, Freesync, Hdr10 - Ls27bg400elxzd</t>
-  </si>
-  <si>
-    <t>Monitor Gamer Samsung Odyssey G40 27´´ Preto LS27BG400ELXZD PRINCIPAIS &lt;br /&gt;Impulsione sua realidade: Resolução FHD e painel IPS.Reaja em tempo real: 240Hz de taxa de atualização &amp; 1ms de tempo de resposta.Foco sem nunca quebrar o fluxo: Compatível com Nvidia G-Sync. Jogabilidade fácil e sem esforço. Revele os lados ocultos do jogo: Ultrawide Game View. Foco na vitória. Ajuste sua tela para 21:9 para descobrir áreas escondidas em cenas de jogo com a Vista de Jogo Ultrawide.&lt;br /&gt;Conecte-se automaticamente em um instante: Auto Source Switch+ Ligue e jogue instantaneamente. Veja seu jogo do seu jeito: Suporte Ergonômico. Atinja o auge da vitória.</t>
-  </si>
-  <si>
     <t>Monitor Gamer LG, 32 Polegadas, QHD, 165Hz, 1ms, VA, HDMI x2, DisplayPort, G-Sync, SRGB 95, Antirreflexo - 32GN600-B</t>
   </si>
   <si>
     <t>Monitor gamer lg ultragear 32 led qhd 165hz preto 32gn600-b uma velocidade ultrarrápida de 165hz permite que os jogadores vejam o próximo quadro rapidamente e fazem com que a imagem apareça suavemente. Os jogadores podem responder rapidamente aos oponentes e mirar no alvo facilmente. Projetado para velocidade incrível reimagine cada cena com imagem vívida e responsiva. Com proporção de tela de 32" e 16:9 (2560 x 1440), a tela ultragear qhd nano da lg apresenta cores realistas e verdadeiras, contraste aprimorado, clareza e detalhes, enquanto oferece taxas de resposta ultrarrápidas de 1 ms. É o melhor dos dois mundos. Compatível com nvidia g-sync o monitor lg 32gp850-b é um monitor compatível com g-sync testado e oficialmente verificado pela nvidia, reduzindo o rasgo da tela e minimizando a gagueira para uma experiência de jogo mais suave e rápida.   características: - marca: lg - modelo: 32gn600-b   especificações: - consumo de energia 60w (típ.) - fonte adaptador externo - ajustes de posição inclinação - tamanho furação vesa sim (100 x 100 mm) - dimensões sem embalagem (sem base) -lxaxp 714,7 x 428 x 77,5 mm - dimensões sem embalagem (com base) - lxaxp 714,7 x 515,1 x 224,8 mm - tamanho: 32" - tipo de tela:  va - ângulo de visão: 178o / 178o - resolução máxima qhd (2560 x 1440) - brilho 350 cd/m2 - contraste 3000:1 (típ). - tempo de resposta 1ms (mbr) - taxa de atualização 165hz - gama de cores (típ.) srgb 95% - profundidade de cores (no de cores) 16,7 milhões - distância entre pixels 0,274 x 0,274 mm - tratamento de tela: antirreflexo - hdmi sim (x2) - displayport sim (x1)</t>
-  </si>
-  <si>
-    <t>Monitor Gamer Samsung  27Pol, Full HD, 144Hz, 1MS, HDMI, Displayport, VGA, Freesync, Ajuste De Altura - Lf27g35tfwl</t>
-  </si>
-  <si>
-    <t>Domine todos os inimigos, mesmo em cenas muito rápidas. A taxa de atualização de 144Hz elimina atrasos e desfoque de movimento para uma jogabilidade emocionante com ação ultra suave.&lt;br /&gt;  &lt;br /&gt;Tempo de resposta de 1ms&lt;br /&gt;Faça cada movimento contar com um tempo de resposta de 1ms. Ataque seus inimigos assim que os vir e fique à frente com movimentos precisos do mouse. Seu desempenho na tela é tão rápido quanto seus próprios reflexos.&lt;br /&gt;  &lt;br /&gt;AMD FreeSync Premium&lt;br /&gt;Jogabilidade suave sem esforço. O AMD FreeSync Premium apresenta tecnologia de sincronização adaptável, que reduz o travamento de tela, oscilação e atrasos. Veja o jogo do seu jeito Gire, incline e ajuste seu monitor até que todos os inimigos estejam perfeitamente visíveis. Sua tela pode ser movida livremente para que você encontre conforto total no jogo. Design de tela cheia O design sem borda de 3 lados revela espaço máximo para uma jogabilidade maior e mais ousada.&lt;br /&gt;  &lt;br /&gt;Jogue por mais tempo&lt;br /&gt;Alinhe dois monitores com precisão em uma configuração de monitor duplo sem que nenhum inimigo fique escondido na junção. Mais conforto para os olhos Jogue por mais tempo sem incomodo visual. O Eye Saver Mode minimiza a emissão de luz azul para manter seus olhos relaxados e confortáveis enquanto joga por muitas horas.&lt;br /&gt;  &lt;br /&gt;Tecnologia Flicker Free&lt;br /&gt;A tecnologia Flicker Free remove continuamente a tremulação cansativa e irritante da tela para que você possa jogar por mais tempo sem distrações ou fadiga ocular.</t>
-  </si>
-  <si>
-    <t>Monitor Gamer ViewSonic Omni 27 LED Full HD, Curvo, 165 Hz, 1ms, HDMI e DisplayPort, 102% sRGB, FreeSync Premium, Som Integrado - VX2718</t>
-  </si>
-  <si>
-    <t>&lt;h2&gt;Monitor Gamer ViewSonic Omni 27 LED Full HD, Curvo, 165 Hz, 1ms, HDMI e DisplayPort, 102% sRGB, FreeSync Premium, Som Integrado&lt;/h2&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h2&gt;Jogabilidade perfeita&lt;/h2&gt;
-&lt;p&gt;Elimine o atraso e o desfoque de movimento com uma taxa de atualiza&amp;ccedil;&amp;atilde;o de&lt;strong&gt; 165Hz hiperresponsiva.&lt;/strong&gt; Experimente uma jogabilidade perfeita em uma variedade de g&amp;ecirc;neros, como jogos de tiro em primeira pessoa, corridas e estrat&amp;eacute;gia em tempo real. &lt;strong&gt;Jogabilidade fluida&lt;/strong&gt; e gr&amp;aacute;ficos perfeitos d&amp;atilde;o a voc&amp;ecirc; uma vantagem, n&amp;atilde;o importa a situa&amp;ccedil;&amp;atilde;o.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h2&gt;Experi&amp;ecirc;ncia de jogo imersiva final&lt;/h2&gt;
-&lt;p&gt;Com uma curvatura de t&lt;strong&gt;ela de 1500R&lt;/strong&gt;, o VX2718-PC-MHDJ oferece uma experi&amp;ecirc;ncia de visualiza&amp;ccedil;&amp;atilde;o &lt;strong&gt;verdadeiramente imersiva&lt;/strong&gt; que permite que voc&amp;ecirc; desfrute de vistas panor&amp;acirc;micas grandes, arrojadas e impressionantes.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h2&gt;Reaja instantaneamente&lt;/h2&gt;
-&lt;p&gt;Com um tempo de resposta r&amp;aacute;pido de&lt;strong&gt; 1 ms&lt;/strong&gt; (MPRT), voc&amp;ecirc; pode reagir t&amp;atilde;o r&amp;aacute;pido quanto a a&amp;ccedil;&amp;atilde;o se desenrola na tela. Desvie pelos cantos com facilidade e mire com &lt;strong&gt;precis&amp;atilde;o de n&amp;iacute;vel superior.&lt;/strong&gt;&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h2&gt;Prevenir o rasgo da tela&lt;/h2&gt;
-&lt;p&gt;O &lt;strong&gt;AMD FreeSync Premium&lt;/strong&gt; sincroniza seu monitor com a taxa de quadros do conte&amp;uacute;do, permitindo uma jogabilidade suave ao eliminar o rasgo da tela.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h3&gt;Aproveite essa oportunidade e adquira seu Monitor Gamer ViewSonic Omni no KaBuM!&lt;/h3&gt;</t>
   </si>
   <si>
     <t>Monitor Msi, Optix, Curved 31.5", Fhd 165hz - G32c4w</t>
@@ -2113,15 +2113,21 @@
 &lt;p&gt;Ideal para jogos de console 4K a 120Hz e os recursos - Taxa de Atualiza&amp;ccedil;&amp;atilde;o Vari&amp;aacute;vel e Modo Autom&amp;aacute;tico de Baixa Lat&amp;ecirc;ncia, proporcionando aos jogadores uma experi&amp;ecirc;ncia mais imersiva sem distra&amp;ccedil;&amp;otilde;es. Al&amp;eacute;m disso, a fun&amp;ccedil;&amp;atilde;o eARC simplifica a conectividade e oferece maior facilidade de uso para descoberta de v&amp;aacute;rios componentes e otimiza&amp;ccedil;&amp;atilde;o de &amp;aacute;udio.&lt;/p&gt;</t>
   </si>
   <si>
-    <t>Monitor Gamer Draxen 23.8'' resolução de 1920 x 1080 tempo de resposta de 1 MS 165HZ Full HD, Sem Borda</t>
-  </si>
-  <si>
-    <t>o monitor gamer draxen 165hz full hd é tudo o que você precisa para completar o seu setup. desenvolvido pensando no seu estilo de vida, oferecendo qualidade, desempenho e um design mais moderno do que nunca. a sua tela 23.8 lhe dará comodidade para estudar, trabalhar ou assistir sua série ou filme favoritos no seu tempo de lazer. além disso, sua alta resolução de 1920 x 1080 permite que você desfrute de momentos únicos graças a uma imagem nítida, cores realistas e contraste incrível. exibição de vídeo perfeita com tempo de resposta de 1 ms e mais de 16,7 milhões de cores que transformam as imagens em uma experiência muito fiel à realidade.&lt;br&gt;aprimore sua configuração com estilo. a furação padrão vesa 75x75 permite que você fixe o monitor em uma parede ou em um suporte.</t>
-  </si>
-  <si>
     <t>Monitor 27" LED, Gt Gamer, FHD, HDMI, 75hz - Goldentec</t>
   </si>
   <si>
+    <t>Monitor Gamer Redragon Tassos, 32 170hz, Curvo Led 2k HDMI - Gm32h2q</t>
+  </si>
+  <si>
+    <t>Características:&lt;br /&gt; - marca: redragon&lt;br /&gt; - modelo: gm32h2q&lt;br /&gt; especificações:&lt;br /&gt; - cor: preto&lt;br /&gt; - alta taxa de atualização até 170hz auxiliando na fluidez da gameplay.&lt;br /&gt; - painel com resolução quad hd que garante uma imagem mais definida&lt;br /&gt; - tecnologia g-sync e freesync integrada para eliminação de quebras de imagem.&lt;br /&gt; - diversas opções de conexões de vídeo para maior praticidade e versatilidade.&lt;br /&gt; - tamanho: 32”&lt;br /&gt; - resolução: 2560 x 1440 16:9&lt;br /&gt; - tipo de painel: va&lt;br /&gt; - taxa de atualização: 170 hz&lt;br /&gt; - número de cores: 16.7 m&lt;br /&gt; - brilho máximo: 400 nits&lt;br /&gt; - gama de cores: 90% dci-p3&lt;br /&gt; - taxa de contraste: 3000:1&lt;br /&gt; - suporte vesa: 75x75mm&lt;br /&gt; - conectividade: dp 1.4 x1, hdmi 2.0 x2, dc in x1, saída de audio p2 x1&lt;br /&gt; - power range: 100-240v 50/60hz&lt;br /&gt; - tempo de resposta: 1ms (mrpr) / 4ms (gtg)&lt;br /&gt; - backlight: sim: azul, vermelho, rgb ou desligado&lt;br /&gt; - ajuste de altura: 110 ± 5mm&lt;br /&gt; - ajuste giratório: -20°(+/-2°) ~ +20°(+/-2°)&lt;br /&gt; - ajuste de ângulo: -90°(+/-2°) ~ +90°(+/-2°)&lt;br /&gt; conteúdo da embalagem:&lt;br /&gt; - monitor gamer redragon</t>
+  </si>
+  <si>
+    <t>Monitor 24.5" Gamer Benq Zowie Xl2546k - Full HD - 240hz - 1ms - Tecnologia Dyac - HDMI/Displayport</t>
+  </si>
+  <si>
+    <t>Uma nova geração da série XL de monitores gamers para PC, com ajustes aprimorados para maior flexibilidade, conforto e conveniência aos jogadores, permitindo foco e desempenho durante o game. &lt;br /&gt;Base Reduzida – Mais Espaço para Jogar Nova base desenvolvida com o objetivo de liberar mais espaço ao jogador, sem perder a estabilidade do monitor. Isso permite espaço para mais movimento durante o jogo e ficar confortável com mais flexibilidade.&lt;br /&gt;&lt;br /&gt;Ajustes Flexíveis – Mais Conforto Durante os Jogos Entendemos que cada jogador(a) tem suas configurações preferidas. Uma combinação única da altura e do ângulo do monitor. Com ajuste de altura e inclinação livre, os players podem configurar rapidamente de acordo com suas necessidades para um resultado melhor, jogando de uma forma mais confortável. &lt;br /&gt;&lt;br /&gt;Configurações Compartilhadas do XL-K Compartilhe suas configurações com seu time, seus amigos ou fãs. Salve perfis de vídeo rapidamente e compartilhe de forma conveniente a partir da própria interface do usuário. &lt;br /&gt;&lt;br /&gt;Acesso Rápido às Configurações A alteração na interface do usuário e no S-Switch é muito mais do que apenas estético. Foram redesenhados com o objetivo de oferecer a capacidade de personalizar as configurações que preferir para FPS, acessando-as rapidamente, por meio de um menu, com apenas um toque. As configurações passam a ser muito mais convenientes.&lt;br /&gt;&lt;br /&gt;Tecnologia DyAc? – Uma Sensação de Spray Diferente O DyAc™ / DyAc? ajuda a não perder o foco durante o spray. Possibilita aos jogadores ver as posições da mira e pontos de impacto com mais clareza, ajudando a embaçar menos a imagem durante o recuo da arma. O DyAc+ é baseado na mesma tecnologia e, através da otimização da tela, oferece aos jogadores uma opção mais atualizada para melhores ações, como o controle do spray. Faça Ajustes Visuais com Base em Suas Necessidades de Jogo O Black eQualizer aumenta a visibilidade de cenas escuras, sem superexpor as áreas claras. Já o Color Vibrance ajusta as configurações e o tom das cores para diferenciar alvos inimigos no jogo, e por fim, o modo Game alterna entre as pré configurações para o jogo, de acordo com título do mesmo. Os três tipos de ajuste mencionados permitem que jogares usem suas configurações visuais favoritas para jogar com melhor desempenho.</t>
+  </si>
+  <si>
     <t>Monitor Gamer Gigabyte 27 Polegadas, Curvo, Qhd, 165hz, 1ms, HDMI E Displayport - G27qc-a-sa</t>
   </si>
   <si>
@@ -2134,40 +2140,35 @@
     <t>Marca: duex&lt;br /&gt;modelo: dx 240zg &lt;br /&gt;&lt;br /&gt;especificações: &lt;br /&gt;&lt;br /&gt;tamanho da tela: 24" &lt;br /&gt;área de display: 527.4 (h) x 296.4 (v) &lt;br /&gt;resolução: 1920x1080 (144hz) &lt;br /&gt;pixel pitch: 0.27mm &lt;br /&gt;ângulo de visão: h:178 / v:178 &lt;br /&gt;brilho: 250cd/m² &lt;br /&gt;tempo de resposta: 1ms &lt;br /&gt;número de cores: 16.7m &lt;br /&gt;&lt;br /&gt;conectores: &lt;br /&gt;1x hdmi &lt;br /&gt;1x displayport &lt;br /&gt;1x usb &lt;br /&gt;1x saída de áudio &lt;br /&gt;&lt;br /&gt;conteúdo da caixa: &lt;br /&gt;monitor &lt;br /&gt;base &lt;br /&gt;cabo hdmi &lt;br /&gt;cabo displayport &lt;br /&gt;fonte de energia &lt;br /&gt;guia do usuário&lt;br /&gt;&lt;br /&gt;garantia: 365 dias</t>
   </si>
   <si>
-    <t>Monitor Gamer Asus TUF 23.8' IPS, Wide, 144 Hz, Full HD, 1ms, FreeSync, HDMI/DisplayPort, Ajuste de Altura, Vesa, Som Integrado - VG249Q</t>
-  </si>
-  <si>
-    <t>&lt;h2&gt;Monitor Gaming TUF Gaming VG249Q 23,8 polegadas Full HD (1920x1080), 144Hz, IPS, Extreme Low Motion Blur, Adaptive-sync, FreeSync, 1ms (MPRT)&lt;/h2&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;TUF Gaming VG249Q &amp;eacute; um monitor IPS de 23,8 polegadas,&lt;strong&gt; Full HD (1920x1080)&lt;/strong&gt;, com taxa de atualiza&amp;ccedil;&amp;atilde;o r&amp;aacute;pida de 144Hz projetada para jogadores profissionais e jogabilidade r&amp;aacute;pida. Tamb&amp;eacute;m possui &lt;strong&gt;tempo de resposta de 1ms MPRT&lt;/strong&gt; e &lt;strong&gt;tecnologia Adaptive-Sync&lt;/strong&gt;, para jogabilidade extremamente fluida sem tearing e stuttering.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h2&gt;Tela IPS de 23,8 polegadas para amplo &amp;acirc;ngulo de visualiza&amp;ccedil;&amp;atilde;o e melhor reprodu&amp;ccedil;&amp;atilde;o de cores com tempo de Resposta de 144Hz&lt;/h2&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;O &lt;strong&gt;painel IPS&lt;/strong&gt; de 23,8 polegadas Full HD (1920 x 1080) do TUF Gaming VG249Q oferece visuais impressionantes em amplos &lt;strong&gt;&amp;acirc;ngulos de vis&amp;atilde;o de 178&amp;ordm;&lt;/strong&gt;, impedindo muitas distor&amp;ccedil;&amp;otilde;es e mudan&amp;ccedil;a de cor, mesmo quando voc&amp;ecirc; est&amp;aacute; visualizando de posi&amp;ccedil;&amp;otilde;es nas extremidades. O TUF Gaming VG249Q possui uma &lt;strong&gt;taxa de atualiza&amp;ccedil;&amp;atilde;o ultra-r&amp;aacute;pida de 144Hz&lt;/strong&gt;, garantindo que mesmos jogos em ritmo acelerado, reproduzidos nas mais altas configura&amp;ccedil;&amp;otilde;es visuais, pare&amp;ccedil;am suaves e completamente livres de lags. Obtenha vantagem em jogos de tiro em primeira pessoa, corridas, estrat&amp;eacute;gia em tempo real e esportes.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h2&gt;Tecnologia Extreme Low Motion Blur e Shadow Boost&lt;/h2&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;Apresenta a mais recente &lt;strong&gt;tecnologia Extreme Low Motion Blur&lt;/strong&gt; exclusiva da ASUS, que atinge 1ms MPRT para eliminar manchas e desfoque de movimento e faz com que os objetos em movimento pare&amp;ccedil;am mais n&amp;iacute;tidos, para que a jogabilidade seja mais fluida e responsiva. A &lt;strong&gt;tecnologia ASUS Shadow Boost&lt;/strong&gt; clareia &amp;aacute;reas escuras do jogo sem superexpor &amp;aacute;reas mais brilhantes, melhorando a visualiza&amp;ccedil;&amp;atilde;o geral, al&amp;eacute;m de facilitar a localiza&amp;ccedil;&amp;atilde;o de inimigos escondidos em &amp;aacute;reas escuras do mapa.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h3&gt;Adquira agora o seu monitor gamer da ASUS no KaBuM!.&lt;/h3&gt;</t>
-  </si>
-  <si>
-    <t>Monitor Gamer Ultrawide Curvo Multi, 34 Polegadas, Wqhd, 165hz, 1ms, 1dp, 2 HDMI, 1 USB 1p2 - Mn301</t>
-  </si>
-  <si>
-    <t>Monitor gamer ultrawide curvo warrior 34 pol. Wqhd 165hz 1ms 1dp 2hdmi 1usb 1p2 - mn301&lt;br /&gt;&lt;br /&gt;  &lt;br /&gt;&lt;br /&gt;  cansado de perder ação nos seus jogos por causa de uma tela comum? Se você é um gamer ávido em busca de emoções intensas, sabe o quanto é frustrante perder um combate por um milissegundo de atraso na resposta do monitor. A warrior tem a solução definitiva para você! Apresentamos o monitor gamer ultrawide curvo de 34 polegadas, o produto premium e exclusivo que elevará sua experiência de jogo a um novo patamar.&lt;br /&gt;&lt;br /&gt;  &lt;br /&gt;&lt;br /&gt;  experiência imersiva total: com uma tela curva ampla de 34 polegadas, você sentirá como se estivesse dentro do jogo, cercado por ação em todos os lados. A imersão total irá transportá-lo para o centro da ação, tornando cada partida uma aventura única.&lt;br /&gt;&lt;br /&gt;  &lt;br /&gt;&lt;br /&gt;  taxa de atualização incrível: a taxa de atualização de 165hz garante movimentos suaves e imagens nítidas, eliminando qualquer borrão ou arrasto na tela. Seja qual for o jogo que você está jogando, terá uma experiência fluida e sem interrupções.&lt;br /&gt;&lt;br /&gt;  &lt;br /&gt;&lt;br /&gt;  desempenho inigualável: o tempo de resposta de 1ms é um verdadeiro trunfo competitivo. Você terá a rapidez necessária para reagir a cada movimento do jogo, o que é essencial para alcançar a vitória em jogos de alta intensidade.&lt;br /&gt;&lt;br /&gt;  &lt;br /&gt;&lt;br /&gt;  painel antirreflexo: nada mais frustrante do que lidar com reflexos na tela que atrapalham a visão do jogo. Com o painel antirreflexo do monitor gamer ultrawide curvo warrior, você terá uma visão clara e sem distrações, permitindo que se concentre totalmente na ação.&lt;br /&gt;&lt;br /&gt;  &lt;br /&gt;&lt;br /&gt;  design premium e moderno: além de todas as especificações técnicas impressionantes, o monitor gamer ultrawide curvo da warrior possui um design elegante e moderno que vai destacar-se em qualquer ambiente. Com iluminação rgb na traseira, o monitor acrescenta um toque de estilo ao seu setup gamer.&lt;br /&gt;&lt;br /&gt;  &lt;br /&gt;&lt;br /&gt;  não deixe essa oportunidade escapar! Adquira agora o monitor gamer ultrawide curvo 34 da warrior e mergulhe em uma jornada de jogos épica e envolvente. Garanta sua vantagem competitiva e experimente o poder da verdadeira imersão gamer!&lt;br /&gt;&lt;br /&gt;  &lt;br /&gt;&lt;br /&gt;  ficha técnica&lt;br /&gt;&lt;br /&gt;  &lt;br /&gt;&lt;br /&gt;  marca: warrior&lt;br /&gt;&lt;br /&gt;  modelo: monitor gamer ultrawide curvo warrior 34 pol. Wqhd 165hz 1ms 1dp 2hdmi 1usb 1p2 - mn301&lt;br /&gt;&lt;br /&gt;  cor: preto&lt;br /&gt;&lt;br /&gt;  tensão: bivolt&lt;br /&gt;&lt;br /&gt;  potência: 65w&lt;br /&gt;&lt;br /&gt;  brilho: 300 cd/m2&lt;br /&gt;&lt;br /&gt;  lan ethernet: não&lt;br /&gt;&lt;br /&gt;  resolução da tela: wqhd 3440x1440&lt;br /&gt;&lt;br /&gt;  frequência do painel: 165hz&lt;br /&gt;&lt;br /&gt;  ângulo de visão: v: 178° / h: 178°&lt;br /&gt;&lt;br /&gt;  quantidade de cores: 16.7m&lt;br /&gt;&lt;br /&gt;  contraste: 3000:1&lt;br /&gt;&lt;br /&gt;  consumo stand by: 0.5w&lt;br /&gt;&lt;br /&gt;  tratamento do painel: anti reflexo, 3h&lt;br /&gt;&lt;br /&gt;  modo de imagem: srgb, reading darkroom, user, standard, eco, graphics, movie&lt;br /&gt;&lt;br /&gt;  ajuste de atura: sim&lt;br /&gt;&lt;br /&gt;  modo contraste dinâmico: sim&lt;br /&gt;&lt;br /&gt;  vesa: 100x100mm&lt;br /&gt;&lt;br /&gt;  áudio: 2x2 wrms&lt;br /&gt;&lt;br /&gt;  entradas e saídas: 1x dp 1.4, 2x hdmi 2.0, 1x usb, 1x p2 2.5mm&lt;br /&gt;&lt;br /&gt;  dimensão com base: 80,77x45,46x22,89cm&lt;br /&gt;&lt;br /&gt;  dimensão sem base: 80,77x36,18x11,75cm&lt;br /&gt;&lt;br /&gt;  peso: 4600g&lt;br /&gt;&lt;br /&gt;  &lt;br /&gt;&lt;br /&gt;  imagens meramente ilustrativas.</t>
-  </si>
-  <si>
     <t>Monitor Gamer Asus 27 Polegadas, Vg279q1a Tuf Gaming, FULL HD, IPS, Freesync Premium, 165HZ, 1ms, Vesa, HDMI/dp</t>
   </si>
   <si>
     <t>&lt;br&gt;&lt;br&gt; marca: asus&lt;br&gt; modelo: vg279q1a &lt;br&gt; cor: preto&lt;br&gt;&lt;br&gt;tela&lt;br&gt; - tamanho do painel (polegadas): 27&lt;br&gt; - proporção: 16:9&lt;br&gt; - área de visualização da tela (a x v): 597,888 x 336,312 mm&lt;br&gt; - superfície da tela: antirreflexo&lt;br&gt; - tipo de retroiluminação: led&lt;br&gt; - tipo de painel: ips&lt;br&gt; - ângulo de visão (cr?10, h/v): 178°/ 178°&lt;br&gt; - passo do pixel: 0,311 mm&lt;br&gt; - resolução: 1920x1080&lt;br&gt; - brilho (típico): 250cd/?&lt;br&gt; - taxa de contraste (típico): 1000:1&lt;br&gt; - cores da tela: 16,7m&lt;br&gt; - tempo de resposta: 1ms mprt&lt;br&gt; - taxa de atualização (máx.): 165 hz&lt;br&gt; - flicker-free: sim&lt;br&gt;&lt;br&gt;recurso de vídeo&lt;br&gt; - tecnologia livre de rastreamento: sim&lt;br&gt; - gamevisual: sim&lt;br&gt; - temperatura de cor seleção: sim (4 modos)&lt;br&gt; - gameplus: sim&lt;br&gt; - hdcp: sim&lt;br&gt; - desfoque de movimento extremamente baixo: sim&lt;br&gt; - tecnologia vrr: sim (adaptive-sync)&lt;br&gt; - tecnologia gamefast input: sim&lt;br&gt; - aumento de sombra: sim&lt;br&gt; - luz azul baixa: sim&lt;br&gt;&lt;br&gt;recurso de áudio&lt;br&gt; - alto-falante: sim (2wx2)&lt;br&gt;&lt;br&gt;portas i/o&lt;br&gt; - 1x displayport 1.2&lt;br&gt; - 2x hdmi(v2.0)&lt;br&gt; - saída para fone de ouvido&lt;br&gt;&lt;br&gt;frequencia de sinal&lt;br&gt; - frequência de sinal digital: displayport: 52~184khz (h) / 48~165 hz (v)&lt;br&gt; - hdmi: 52~184 khz (h) / 48~144hz (v)&lt;br&gt;&lt;br&gt;consumo de energia&lt;br&gt; - consumo de energia: &amp;lt,16w*&lt;br&gt; - modo power saving: &amp;lt,0.5w&lt;br&gt; - modo power off: &amp;lt,0.3w&lt;br&gt; - voltagem: 100-240v, 50/60hz&lt;br&gt;&lt;br&gt;design mecânico&lt;br&gt; - inclinação: sim (+20° ~ -5°)&lt;br&gt; - giro: sim (+16° ~ -16°)&lt;br&gt; - ajuste de altura: não&lt;br&gt; - montagem na parede vesa: 100x100mm&lt;br&gt; - trava kensington: sim&lt;br&gt;&lt;br&gt;dimensões&lt;br&gt; - física dimensão com suporte (l x a x p): 614,09 x 454,34 x 213,79 mm&lt;br&gt; - física dimensão sem suporte (l x a x p): 614,09 x 364 x 56,95 mm&lt;br&gt; - dimensão da caixa (l x a x p): 680 x 525 x 171 mm&lt;br&gt;&lt;br&gt;peso (esti.)&lt;br&gt; - peso líquido com suporte: 4.4 kg&lt;br&gt; - peso líquido sem suporte: 3.4 kg&lt;br&gt; - peso bruto: 7.4 kg&lt;br&gt;&lt;br&gt;acessórios (variam por região)&lt;br&gt; - cabo displayport&lt;br&gt; - cabo hdmi&lt;br&gt; - cabo de alimentação&lt;br&gt; - guia rápido&lt;br&gt; - cartão de garantia&lt;br&gt;&lt;br&gt;certificado&lt;br&gt; - tüv flicker-free&lt;br&gt; - tüv low blue light&lt;br&gt; - amd freesync premium&lt;br&gt;&lt;br&gt;&lt;strong&gt;especificações técnicas&lt;/strong&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;tamanho da tela:&lt;/strong&gt; 27</t>
   </si>
   <si>
+    <t>Monitor Gamer Curvo Samsung Odyssey 49" DQHD, Série G9, 240Hz, 1Ms, HDMI + DP, G-sync, Freesync - Lc49g95tsslxzd</t>
+  </si>
+  <si>
+    <t>A revolução da curva 1000R, o novo ápice da tecnologia de tela curva, se ajusta ao campo de visão humano para um realismo inimaginável.&lt;br /&gt;&lt;br /&gt;Imagens fascinantes. Painel QLED, HDR1000 e uma resolução DQHD se reúnem trazendo cores espetaculares com total profundidade e detalhamento.&lt;br /&gt;O exterior branco brilhante se junta ao núcleo de iluminação infinito. Os dois se reúnem para criar um efeito futurista e trazer inspiração para que você brilhe junto!&lt;br /&gt;&lt;br /&gt;Com 240Hz de taxa de atualização, tempo de resposta de 1ms e compatibilidade com G-Sync elevam você ao topo do seu jogo.&lt;br /&gt;A proporção de 32:9 do painel curvo super ultrawide de 49 polegadas mantém os jogos vivos mesmo quando você precisa pausar o jogo. Abra várias janelas ao mesmo tempo e alterne entre tarefas diárias de computação e diferentes mundos. Jogue, assista, converse - tudo ao mesmo tempo. Com o PBP, visualize a entrada de duas fontes simultaneamente em sua resolução nativa. Use o PIP para redimensionar a segunda fonte em até 25 da tela. Coloque as janelas em qualquer lugar usando a função Easy Settting Box da Samsung. Encontre a sua posição vencedora. Gire, incline e ajuste a altura até estar preparado para a vitória. Totalmente compatível com suportes padrão VESA, a tela pode ser movida sem esforço para a sua posição ideal.</t>
+  </si>
+  <si>
     <t>Monitor Gamer 28 4K Acer Nitro, 60Hz, 4ms, IPS, HDMI, DisplayPort, FreeSync - KG282K</t>
   </si>
   <si>
     <t>Conforto protetor para os olhos   &lt;br /&gt;Ampla gama de cores O DCI-P3 permite uma faixa de cores mais ampla do que o sRGB, resultando em uma reprodução de cores mais realista. Este recurso foi desenvolvido para profissionais e entusiastas da fotografia, que buscam uma correspondência de cores precisa entre as impressões e o monitor.   &lt;br /&gt;&lt;br /&gt;Tecnologia HDR &lt;br /&gt;HDR é uma tecnologia de exibição que cria níveis mais profundos de contraste preto e branco, proporcionando um nível maior de imersão por meio da recriação de imagens realistas. Os monitores Acer HDR suportam o formato HDR10.   &lt;br /&gt;&lt;br /&gt;AMD FreeSync &lt;br /&gt;Com o AMD FreeSync, a taxa de quadros do jogo é determinada pela sua placa de vídeo, não pela taxa de atualização fixa do monitor. Isso significa que os quadros do monitor são sincronizados com os quadros da placa gráfica, o que elimina a tela quebrada e oferece experiências de jogo muito suaves.   &lt;br /&gt;&lt;br /&gt;Resolução 4K UHD &lt;br /&gt;A nítida tela 4K UHD é 16:9 em alta resolução 3840X2160, o que é quatro vezes maior do que as telas Full HD. A nitidez aprimorada agora pode ser facilmente vista e leva sua experiência visual a um novo nível.   &lt;br /&gt;&lt;br /&gt;*** As taxas de atualização reais podem variar dependendo do modelo</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Curvo Aorus 32 2K QHD, 240Hz, 1ms, IPS, HDMI e DisplayPort, 99% Adobe, HDR 600, FreeSync Premium, VESA - FI32Q-X</t>
+  </si>
+  <si>
+    <t>&lt;h2 style="text-align: justify;"&gt;Monitor Gamer Aorus 32 2K QHD, 240Hz, 1ms, IPS, HDMI e DisplayPort, 150% sRGB, HDR, FreeSync Premium, VESA - FI32Q-X&lt;/h2&gt;
+&lt;p style="text-align: justify;"&gt;&lt;br /&gt;O painel Super Speed ??IPS oferece cores espl&amp;ecirc;ndidas, enquanto os cristais Super Speed ??reduzem o tempo de resposta para 1ms GTG.&amp;nbsp;Super responsivo na tela glamorosa, o que mais voc&amp;ecirc; poderia pedir?&lt;br /&gt;O monitor AORUS Gaming usa os sistemas de LED mais avan&amp;ccedil;ados, combinados com o poder do RGB Fusion, voc&amp;ecirc; ter&amp;aacute; o sistema mais legal que todos invejam.&amp;nbsp;Atrav&amp;eacute;s do aplicativo RGB Fusion, voc&amp;ecirc; pode criar um ambiente de jogo &amp;uacute;nico!&lt;/p&gt;
+&lt;h2 style="text-align: justify;"&gt;&lt;br /&gt;Expanda a Gama de Cores&lt;/h2&gt;
+&lt;p style="text-align: justify;"&gt;High Dynamic Range (HDR) est&amp;aacute; ganhando interesse de uma ampla gama de aplica&amp;ccedil;&amp;otilde;es, incluindo jogos, entretenimento de filmes e cria&amp;ccedil;&amp;atilde;o de conte&amp;uacute;do multim&amp;iacute;dia.&amp;nbsp;Al&amp;eacute;m disso, este modelo suporta HLG (Hybrid Log-Gamma), permitindo que os usu&amp;aacute;rios desfrutem verdadeiramente do conte&amp;uacute;do originalmente criado pela plataforma de transmiss&amp;atilde;o!&lt;/p&gt;
+&lt;p style="text-align: justify;"&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2 style="text-align: justify;"&gt;N&amp;iacute;vel mais alto de ajuste de cor personalizado&lt;/h2&gt;
+&lt;p style="text-align: justify;"&gt;Com a ajuda do Six Axis Control, voc&amp;ecirc; controla seis cores (vermelho, verde, azul, ciano, magenta e amarelo) individualmente.&amp;nbsp;Voc&amp;ecirc; pode ajustar o monitor para perfis de cores espec&amp;iacute;ficos, o que permite exibir com mais precis&amp;atilde;o a gama de cores no monitor.&lt;br /&gt;O exclusivo AORUS OSD Sidekick permite que voc&amp;ecirc; defina rapidamente as op&amp;ccedil;&amp;otilde;es de exibi&amp;ccedil;&amp;atilde;o com teclado e mouse.&amp;nbsp;&amp;Eacute; ainda melhor agora que voc&amp;ecirc; pode aproveitar a experi&amp;ecirc;ncia de jogo atualizada por meio da mais recente fun&amp;ccedil;&amp;atilde;o exclusiva de atualiza&amp;ccedil;&amp;atilde;o autom&amp;aacute;tica!&lt;/p&gt;
+&lt;h3 style="text-align: justify;"&gt;&lt;br /&gt;Seu Monitor Gamer est&amp;aacute; no KaBuM!&lt;/h3&gt;</t>
   </si>
   <si>
     <t>Monitor Gamer Gigabyte, 28 Polegadas, Full HD, 144hz, HDMI e DisplayPort - M28u</t>
@@ -2218,26 +2219,6 @@
     <t>Para compor a sua mesa e computador, precisa de um monitor de linha, não acha? Com o Monitor Gamer T350 Samsung você terá uma ótima visualização de tudo que fizer! Com a tela IPS, LED, em formato plano e de 27'' na horizontal, resolução Full HD 1920x1080. Possui conexões HDMI e VGA e tecnologia FreeSync da AMD, assim você pode assistir filmes e jogar tranquilamente sem interrupções na sua imagem. Além disso, possui o Game Mode, que ajusta qualquer jogo para preencher sua tela visualizando todos os detalhes, sendo possível detectar inimigos escondidos nas sombras através do contraste ideal, mais nitidez e cenas com cores mais vivas. Agora, a imagem é reproduzida sem falhas. A taxa de atualização de 75Hz oferece cenas mais fluidas. Seu momento de diversão não tem lag ou efeito fantasma, quer você esteja assistindo a um vídeo ou jogando um jogo. Vai deixar essa beleza passar? Garanta já seu Monitor Gamer T350 Samsung e aproveite com a melhor imagem!</t>
   </si>
   <si>
-    <t>Monitor Gamer Curvo HQ 24 LED Full HD, 165 Hz, 1ms, HDMI, DisplayPort, FreeSync, Som Integrado, Preto - 24GHQ-Black</t>
-  </si>
-  <si>
-    <t>&lt;h2&gt;Monitor Gamer Curvo HQ 24 LED Full HD, 165 Hz, 1ms, HDMI, DisplayPort, FreeSync, Som Integrado, Preto&lt;/h2&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h2&gt;Tela Curva&lt;/h2&gt;
-&lt;p&gt;A curvatura da tela de R3000 oferece imers&amp;atilde;o total, voc&amp;ecirc; ser&amp;aacute; capaz de apreciar imagens panor&amp;acirc;micas grandes, em alta resolu&amp;ccedil;&amp;atilde;o e com todas as especifica&amp;ccedil;&amp;otilde;es que um monitor Gamer de ponta exige.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h2&gt;Baixo tempo de Resposta&lt;/h2&gt;
-&lt;p&gt;A HQ levou a s&amp;eacute;rio o desenvolvimento desta linha, trazendo ao p&amp;uacute;blico mais exigente um produto completo e de alto n&amp;iacute;vel. N&amp;atilde;o fique atras, reaja em tempo real e tenha os movimentos do teclado refletidos sem atrasos com o tempo de resposta de 1ms.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h2&gt;Atualiza&amp;ccedil;&amp;atilde;o de 165Hz&lt;/h2&gt;
-&lt;p&gt;Sem borr&amp;otilde;es e sem perda de imagem. A INCR&amp;Iacute;VEL taxa de atualiza&amp;ccedil;&amp;atilde;o de 165hz garante que voc&amp;ecirc; tenha uma experi&amp;ecirc;ncia acima dos seus advers&amp;aacute;rios.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h2&gt;Imagens em alta resolu&amp;ccedil;&amp;atilde;o + Visual incr&amp;iacute;vel&lt;/h2&gt;
-&lt;p&gt;A tela Full HD de alta resolu&amp;ccedil;&amp;atilde;o aliada ao design futurista e moderno do monitor garantem n&amp;atilde;o s&amp;oacute; imagens perfeitas como um visual incr&amp;iacute;vel de todo o seu conjunto.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h3&gt;Aproveite essa oportunidade e adquira seu Monitor Gamer Curvo no KaBuM!&lt;/h3&gt;</t>
-  </si>
-  <si>
     <t>Monitor Gamer Gigabyte, 34 Polegadas, 144HZ, 1MS, FULL HD, HDMI/displayport, Curvo 1500r, Flicker Free, Vesa - G34wqc-sa</t>
   </si>
   <si>
@@ -2262,6 +2243,83 @@
     <t>Monitor Gamer LG LED 23.8 FHD IPS 60Hz 5ms VGA HDMI DP Pivot - 24BL550J CONTE COM SUA MELHOR EXIBIÇÃO A qualidade de imagem do LG 24BL550J é a melhor possível para um monitor Full HD, já que usa a elogiada tela IPS. Suas cores são vibrantes e nítidas, sem qualquer problema em replicar as cores reais em software e jogos. Sua tela de 23.9 faz com que ele esteja no tamanho ideal para a resolução Full HD (1920x1080p), apresentando ótimo nível de densidade de pixel (PPI 0,27 mm). Com isso, você não terá a impressão de imagem borrada ou com serrilhados, principalmente em jogos, vídeos e fotos. FLUIDEZ Tem baixo input lag e tempo de resposta de 5ms, suficiente para eliminar rastros. A taxa de atualização de 75hz da boa fluência aos jogos, ajudando ainda no conforto ocular. MELHOR RESOLUÇÃO Sua incrível tela em Full HD com tecnologia IPS e seu tratamento anti reflexivo conta com a exibição de imagens excepcionais cores mais realistas de qualquer ângulo, sem a interferência de qualquer luz. MODELO PIVOTANTE Permite ajuste de altura, inclinação, rotação e pivô. Esse monitor apresenta um design moderno, com bordas mais finas e base retangular com ótima estabilidade. Porém, seu grande trunfo é o ajuste de altura e giro em 90º (pivô), o que o torna ideal para trabalhar com o monitor na vertical (em pé)..</t>
   </si>
   <si>
+    <t>USADO: Monitor Gamer 24 Polegadas Acer Nitro, 165Hz, 0.5ms, Freesync, HDMI, DisplayPort, Preto, Recertificado Prata - VG252Q</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Acer Nitro Vg252q, na cor preta com detalhes em vermelho, tela de 24 polegadas, taxa de atualização de 165hz, tempo de resposta de 0.5ms, amd freesync premium, 1 entrada hdmi e 1 entrada display port&lt;br /&gt;&lt;br /&gt;Atenção: este produto é recertificado.&lt;br /&gt;Os eletrônicos são originais e acompanham nota fiscal. Os produtos passam por uma avaliação de qualidade rigorosa, que certifica as condições técnicas e estéticas do aparelho, categorizadas de acordo com os selos ouro, prata ou bronze. Você ainda conta com garantia de três meses contra problemas e pode fazer a devolução do produto em até sete dias.</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Gigabyte 28 Polegadas, Uhd, M28u Ae Sa Pivot, Vesa, 144HZ, HDMI, DP, USB Tipo-c</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;monitor gamer m28u ae sa gigabyte 28" uhd vesa 144hz hdmi dp usb tipo-c&lt;/b&gt;&lt;/p&gt;&lt;p&gt;&lt;br /&gt;o monitor gamer m28u redefine a experi&amp;ecirc;ncia de jogo em 4k com um bra&amp;ccedil;o de monitor ergon&amp;ocirc;mico que se adapta a v&amp;aacute;rias configura&amp;ccedil;&amp;otilde;es de desktop. &amp;eacute; adequado para jogos de pc, consoles e streaming de m&amp;iacute;dia. Com um painel superspeed ips, oferece uma taxa de quadros de 144 hz, um tempo de resposta de 1 ms e excelente precis&amp;atilde;o de cores com profundidade de 8 bits, al&amp;eacute;m de ampla gama de cores dci-p3 de 94%. A tecnologia superspeed ips proporciona uma experi&amp;ecirc;ncia de entretenimento 4k de alta qualidade, combinando alta resolu&amp;ccedil;&amp;atilde;o e uma taxa de atualiza&amp;ccedil;&amp;atilde;o r&amp;aacute;pida para uma exibi&amp;ccedil;&amp;atilde;o detalhada e jogabilidade suave.&lt;/p&gt;&lt;p&gt;&lt;br /&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Gigabyte, 32 Polegadas, Curvo, FULL HD, HDMI, DP, USB - M32qc-sa</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;monitor gamer gigabyte 32" curvo full hd m32qc-sa ajuste de altura e inclina&amp;ccedil;&amp;atilde;o vesa 1ms 165hz hdmi dp usb&lt;/b&gt;&lt;br /&gt;&lt;br /&gt;esteja pronto para mergulhar em seus jogos favoritos como nunca antes com o monitor gamer gigabyte 32" curvo m32qc-sa. Om uma tela grande e curva, resolu&amp;ccedil;&amp;atilde;o qhd, taxa de atualiza&amp;ccedil;&amp;atilde;o ultra r&amp;aacute;pida e uma s&amp;eacute;rie de recursos de jogos avan&amp;ccedil;ados, este monitor foi projetado para elevar seus jogos a um n&amp;iacute;vel totalmente novo. Com uma tela va curva de 31,5 polegadas e uma curvatura de 1500r, este monitor envolve seu campo de vis&amp;atilde;o, proporcionando uma experi&amp;ecirc;ncia de jogo envolvente. A resolu&amp;ccedil;&amp;atilde;o de 2560 x 1440 pixels oferece imagens n&amp;iacute;tidas e detalhadas, permitindo que voc&amp;ecirc; veja cada detalhe de seus jogos favoritos. Om uma taxa de atualiza&amp;ccedil;&amp;atilde;o de 165hz (overclockable para 170hz), este monitor oferece imagens incrivelmente suaves, tornando-o ideal para jogos de alta a&amp;ccedil;&amp;atilde;o.&lt;/p&gt;&lt;p&gt;&lt;b&gt;caracter&amp;iacute;sticas monitor gamer 32" gigabyte curvo full hd m32qc-sa&lt;/b&gt;&lt;br /&gt;- marca: gigabyte&lt;br /&gt;- modelo: m32qc-sa&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Curvo Bright 27p, Full HD, 165Hz, 1Ms, HDMI/VGA, Preto</t>
+  </si>
+  <si>
+    <t>Monitor gamer curvo 27" polegadas 165hz full hd lcd/led preto mt007 bright&lt;br /&gt;  &lt;br /&gt; mergulhe no mundo dos games com estilo e velocidade!&lt;br /&gt;  &lt;br /&gt; ei, camarada gamer, já sentiu como se estivesse preso no passado com um monitor lento e sem graça? Deixe-me apresentar uma passagem direta para o futuro dos jogos: o monitor gamer curvo 27 polegadas 165 hz dp hdmi usb preto bright. Prepare-se para uma experiência visual de tirar o fôlego!&lt;br /&gt;  &lt;br /&gt; este monitor é como uma viagem ao paraíso dos gamers. Com suas 27 polegadas de tela imersiva e curva, ele envolve você em um abraço eletrizante de jogabilidade. E a taxa de atualização de 165 hz? É praticamente uma máquina do tempo para o futuro dos jogos!&lt;br /&gt;  &lt;br /&gt; e como se isso não fosse suficiente, este monitor oferece conectividade versátil com dp, hdmi e usb. Você pode se conectar facilmente aos seus dispositivos e mergulhar diretamente na ação. Sem complicações, apenas jogos de alta qualidade.&lt;br /&gt;  &lt;br /&gt; mas aqui está a cereja no topo do bolo: a resolução deslumbrante e as cores vibrantes. Este monitor faz com que cada detalhe dos seus jogos ganhe vida. Adeus a imagens borradas e cores apagadas. Prepare-se para gráficos que vão explodir sua mente!&lt;br /&gt;  &lt;br /&gt; ao comprar este monitor gamer curvo, você não está apenas adquirindo um pedaço de tecnologia. Você está se dando o presente de uma experiência de jogo que vai te levar a novos patamares de diversão e desempenho. É a sua passagem para o futuro dos jogos - uma jornada sem volta para a vitória!&lt;br /&gt;  &lt;br /&gt; então, o que você está esperando? Pegue seu ingresso para o futuro e adquira o monitor gamer curvo 27 polegadas 165 hz dp hdmi usb preto bright hoje. Jogue com estilo, velocidade e vitória garantida! Sua jornada começa agora!&lt;br /&gt;  &lt;br /&gt; especificações:&lt;br /&gt; dimensões(axlxp): 615 x 453 x 79 mm &lt;br /&gt; peso: 3,9&lt;br /&gt; área de visualização 683 × 128 × 445(mm2)&lt;br /&gt; ângulo de visão h:178°v:178°&lt;br /&gt; resolução(tip.) 1920x1080 60hz&lt;br /&gt; cores 16,7m&lt;br /&gt; brilho (tip.) 250cd/m2&lt;br /&gt; tela curva: 2800r&lt;br /&gt; frequência de resposta: 165 hz&lt;br /&gt; relação de contraste (tip.) 1000:1&lt;br /&gt; conector dp + hdmi + usb&lt;br /&gt;  &lt;br /&gt; conteúdo da embalagem: &lt;br /&gt; 01 monitor bright &lt;br /&gt; 01 cabo hdmi&lt;br /&gt; 01 manual&lt;br /&gt;  &lt;br /&gt; modelo:&lt;br /&gt; mt007&lt;br /&gt;  &lt;br /&gt; marca:&lt;br /&gt; bright&lt;br /&gt;  &lt;br /&gt; garantia 1 ano bright</t>
+  </si>
+  <si>
+    <t>Monitor Samsung Odyssey Crg9, 49 Polegadas, Dual QHD, Curvo, 120Hz, 4Ms - LC49RG90SSLXZD</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Tela de resolução DQHD super ultra-wide de 49" para uma bela imagem&lt;/b&gt;&lt;br /&gt;&lt;br /&gt;O grande display curvo 32:9 super ultra-amplo de 49´´ com alta resolução dual qhd (5120x1440) oferece imagens nítidas e detalhadas e oferece todo o espaço que você precisa para realizar multitarefas com eficiência, sem a necessidade de configurações inconvenientes de dois monitores. Tela ultracurva com taxa de contraste de 3.000:1&lt;br /&gt;&lt;br /&gt;O painel va supercurvo da samsung foi projetado para proporcionar conforto, produtividade e estilo. Com um raio de 1800mm, a distância da tela ao olho é uma distância mais uniforme, resultando em menos fadiga ocular ao trabalhar longas horas. Ângulos de visão amplos ajudam a garantir que a imagem não seja degradada em ângulos desfavoráveis. E uma taxa de contraste excepcional de 3000:1 permite que você veja detalhes e contraste incríveis, mesmo quando cores brilhantes aparecem junto com sombras e silhuetas profundas. Cor brilhante com qled.&lt;br /&gt;&lt;br /&gt;Este monitor suporta até 125% do espaço de cores srgb, 95% dci e 1,07 bilhão de cores graças à tecnologia quantum dot (qled). Assim, você obtém vermelhos e verdes excepcionalmente brilhantes, nítidos e naturais, além de transições de cores suaves e perfeitas. Além disso, cada monitor é calibrado de fábrica para consistência de cores. Hdr 1000.&lt;br /&gt;&lt;br /&gt;O hdr fornece um nível mais alto de contraste entre imagens claras e escuras na tela para criar uma imagem muito mais realista. O suporte a hdr significa que o conteúdo será reproduzido com precisão ao exibir jogos ou fotografias em hdr.</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Gigabyte, 31.5 QHD, 170Hz, 1ms, DisplayPort, HDMI e USB, 123% sRGB, FreeSync - M32QC</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Monitor Gamer Gigabyte M32QC 31.5&lt;/h2&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Um por Todos&lt;/h2&gt;
+&lt;p&gt;O &lt;strong&gt;recurso KVM&lt;/strong&gt; permite controlar v&amp;aacute;rios dispositivos por meio de um conjunto de teclado, v&amp;iacute;deo e mouse. Com nosso bot&amp;atilde;o KVM exclusivo, voc&amp;ecirc; descobrir&amp;aacute; que a comuta&amp;ccedil;&amp;atilde;o de dispositivos n&amp;atilde;o pode ser mais f&amp;aacute;cil! R&amp;aacute;pido como um piscar de olhos!&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Tempo de Resposta MPRT de 1 ms&lt;/h2&gt;
+&lt;p&gt;Tempo de resposta super r&amp;aacute;pido de &lt;strong&gt;1 ms&lt;/strong&gt; para a experi&amp;ecirc;ncia de jogo mais suave de todos os tempos!&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;QHD com 165 Hz (OC 170 Hz)&lt;/h2&gt;
+&lt;p&gt;Alta resolu&amp;ccedil;&amp;atilde;o e taxa de atualiza&amp;ccedil;&amp;atilde;o r&amp;aacute;pida, proporcionando qualidade de exibi&amp;ccedil;&amp;atilde;o detalhada e experi&amp;ecirc;ncia de jogo fluida!&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Design Elegante&lt;/h2&gt;
+&lt;p&gt;A apar&amp;ecirc;ncia simplificada representa a simplicidade da filosofia de design da s&amp;eacute;rie de jogos GIGABYTE, suporte robusto e acabamento fosco constru&amp;iacute;do para recursos funcionais e est&amp;eacute;ticos adicionando mais caracter&amp;iacute;sticas.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h3&gt;Compre j&amp;aacute; o seu no KaBuM!&lt;/h3&gt;</t>
+  </si>
+  <si>
+    <t>Monitor Gigabyte M28u, 28 Polegadas, UHD 4k, Ips, 144hz, 1ms, Srgb</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;strong&gt;a última milha para o seu sistema de jogos&lt;/strong&gt;&lt;br /&gt;como jogador invisível, o monitor geralmente está sendo subestimado. A verdade é que os monitores se formam como um efeito sinérgico e trazem o melhor desempenho dos componentes do pc. Os monitores de jogos de gigabyte oferecem as especificações e a qualidade definitivas, os usuários podem realmente desfrutar de um desempenho de luxo sem a necessidade de extravagância.&lt;/p&gt;&lt;p&gt;&lt;strong&gt;tempo de resposta de 1ms gtg&lt;/strong&gt;&lt;br /&gt;a tecnologia ips superspeed reduz o tempo de resposta a 1ms enquanto isso, oferecendo a cor esplêndida de grau ips!&lt;/p&gt;&lt;p&gt;&lt;strong&gt;uhd com 144hz&lt;/strong&gt;&lt;br /&gt;alta resolução e taxa de atualização rápida, oferecendo a qualidade detalhada da exibição e a experiência de jogos fluidos!&lt;/p&gt;&lt;p&gt;&lt;strong&gt;cor de 8 bits, 94% dci-p3&lt;/strong&gt;&lt;br /&gt;exibição de cores fantásticas e 94% de cor super gamut.&lt;/p&gt;&lt;p&gt;&lt;strong&gt;high bit rate 3&lt;/strong&gt;&lt;br /&gt;o suporte da taxa de bits displayport high bit 3 (hbr3) fornece a largura de banda para oferecer a taxa de atualização mais rápida do monitor, profundidade de cor e efeito hdr ao mesmo tempo!&lt;/p&gt;&lt;p&gt;&lt;strong&gt;simples, mas elegante&lt;/strong&gt;&lt;br /&gt;a aparência do streamline representa a simplicidade da filosofia de design da série gigabyte gaming, suporte resistente e acabamento fosco construído para características funcionais e estéticas, adicionando mais às características.&lt;/p&gt;&lt;p&gt; &lt;/p&gt;&lt;p&gt;&lt;strong&gt;especificações:&lt;/strong&gt;&lt;/p&gt;&lt;ul&gt;	&lt;li&gt;tamanho do painel (diagonal): 28" ss ips&lt;/li&gt;	&lt;li&gt;área de visualização de exibição (hxv): 631.928 x 359,78 (mm)&lt;/li&gt;	&lt;li&gt;saturação de cores: 94% dci-p3/ 120% srgb&lt;/li&gt;	&lt;li&gt;resolução: 3840 x 2160 (uhd)&lt;/li&gt;	&lt;li&gt;pitch de pixel: 0,16 (h) x 0,16 (v)&lt;/li&gt;	&lt;li&gt;brilho: 300 cd/m2 (typ)&lt;/li&gt;	&lt;li&gt;taxa de contraste: 1000: 1&lt;/li&gt;	&lt;li&gt;ângulo de visão: 178 ° (h)/178 ° (v)&lt;/li&gt;	&lt;li&gt;8 bits&lt;/li&gt;	&lt;li&gt;tempo de resposta: 1ms gtg / 2ms mprt&lt;/li&gt;	&lt;li&gt;taxa de atualização: 144hz&lt;/li&gt;	&lt;li&gt;hdr&lt;/li&gt;	&lt;li&gt;vesa exibir hdr400&lt;/li&gt;	&lt;li&gt;hbr3&lt;/li&gt;	&lt;li&gt;entrada ca máx: 115w&lt;/li&gt;	&lt;li&gt;modo de economia de energia: 0,5w&lt;/li&gt;	&lt;li&gt;modo de desligamento de energia: 0,3w&lt;/li&gt;	&lt;li&gt;tensão: ac 100-240v ~ 50/60hz&lt;/li&gt;	&lt;li&gt;ângulo de inclinaçao): -5 ° ~ +20 °&lt;/li&gt;	&lt;li&gt;ajuste da altura (mm): 130mm&lt;/li&gt;	&lt;li&gt;montagem da parede vesa (mm): 100 x 100mm&lt;/li&gt;	&lt;li&gt;kensington lock: sim&lt;/li&gt;	&lt;li&gt;dimensão com stand (wxhxd): 636,5*534.2*193.6&lt;/li&gt;	&lt;li&gt;dimensão sem suporte (wxhxd): 636,5*372.3*63.1&lt;/li&gt;	&lt;li&gt;dimensão da caixa (wxhxd): 890*510*148&lt;/li&gt;	&lt;li&gt;peso líquido com suporte (esti.): 6.93 (kg)&lt;/li&gt;	&lt;li&gt;peso líquido sem suporte (esti.): 5.18 (kg)&lt;/li&gt;	&lt;li&gt;peso bruto (esti.): 9.7 (kg)&lt;/li&gt;&lt;/ul&gt;&lt;p&gt;&lt;strong&gt;conectividade&lt;/strong&gt;&lt;/p&gt;&lt;ul&gt;	&lt;li&gt;hdmi 2.1 (suporte 4k 144hz 4: 4: 4 a dsc ativado ou 4k 144hz 4: 2: 0) x2&lt;/li&gt;	&lt;li&gt;porta de exibição 1.4 (dsc) x1&lt;/li&gt;	&lt;li&gt;usb tipo c x1&lt;/li&gt;	&lt;li&gt;jack de fone de ouvido&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Cooler Master 23.8 Pol. Full HD (1920x1080), 0.5MS, 144Hz, IPS, HDMI, Hdr10, Vesa - Gm238-Ffs</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;monitor gamer gm238-ffs cooler master full hd hdmi 1920x1080 vesa 144hz 23,8"&lt;/b&gt;&lt;/p&gt;&lt;p&gt;&lt;br /&gt;o monitor gamer gm238-ffs possui tela full hd de 144 hz e 23,8" combinada com uma ampla gama de cores dci-p3 de 90% oferece versatilidade not&amp;aacute;vel. Com recursos essenciais para jogos e produtividade, permite uma experi&amp;ecirc;ncia de jogo suave ou foco no trabalho diurno. A densidade de pixels de 92,6 por polegada (ppi) em um monitor de 23,8 polegadas e resolu&amp;ccedil;&amp;atilde;o full hd, o gm238-ffs equilibra de forma excelente a fidelidade visual e o desempenho. O monitor gamer fornece um display fhd de 23,8" com um painel ultraspeed ips de 144 hz, com recursos como dynamic overdrive, adaptive sync e uma cobertura dci-p3 de 90%, atende a todas as suas necessidades. &amp;eacute; ideal tanto para jogos quanto para produtividade, tornando-o uma adi&amp;ccedil;&amp;atilde;o valiosa &amp;agrave; sua configura&amp;ccedil;&amp;atilde;o de trabalho e entretenimento.&lt;/p&gt;&lt;p&gt;&lt;br /&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Redragon Azur, 23.8 Polegadas, 165hz, LED, FHD, HDMI - Gm24x5ips</t>
+  </si>
+  <si>
+    <t>Características:&lt;br /&gt; - marca: redragon&lt;br /&gt; - modelo: gm24x5ips&lt;br /&gt; especificações:&lt;br /&gt; - cor: preto&lt;br /&gt; - alta taxa de atualização até 165hz auxiliando na fluidez da gameplay.&lt;br /&gt; - design elegante e minimalista para se integrar a qualquer setup.&lt;br /&gt; - tecnologia freesync integrada para eliminar as quebras de imagem.&lt;br /&gt; - diversas opções de conexões de vídeo para maior praticidade e versatilidade.&lt;br /&gt; - tamanho: 23,8”&lt;br /&gt; - resolução: 1920 x 1080&lt;br /&gt; - tipo de painel: ips&lt;br /&gt; - taxa de atualização: 165 hz&lt;br /&gt; - número de cores: 16.7 m&lt;br /&gt; - brilho máximo: 250cd/m2 (typical)&lt;br /&gt; - taxa de contraste: 1000:1&lt;br /&gt; - conectividade: hdmi 1.4 x 2, dp 1.2  x1, dc x 1, 1x 3.5mm áudio.&lt;br /&gt; - power range: 100-240v 50/60hz&lt;br /&gt; - peso bruto(g): 4728&lt;br /&gt; - peso líquido(g): 3520&lt;br /&gt; conteúdo da embalagem:&lt;br /&gt; - monitor gamer redragon</t>
+  </si>
+  <si>
+    <t>Monitor Benq Pd2705q, 27 Polegadas, Ips, QHD, SrGB, HDR, USB-C, Ajuste De Ângulo E Altura, Para Edição De Vídeos E Imagens</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;O monitor BenQ PD2700Q é um equipamento moderno com uma tela IPS ampla de 27 polegadas, resolução de 2K QHD em até 2560x1440 combinado com HDR10, que oferece uma extraordinária clareza nos detalhes finos e profundidade de texturas otimizadas para trabalhos visualmente intensivos em animação, efeitos visuais, gráficos e fotos.&lt;/p&gt;&lt;br /&gt;&lt;br /&gt;&lt;p&gt;O PD2705Q está equipado com exclusiva e inovadora tecnologia AQCOLOR que se dedica a atender um padrão de cores profissionais. Este é o monitor ideal para produção de conteúdo como ilustrações, tratamento de imagens e até mesmo vídeos se beneficiando do modo CAD/CAM que acentua os detalhes mais finos para produzir um incrível desempenho de exibição em Pro/E, SOLIDWORKS, AutoCAD, CATIA ou outro software de design.&lt;/p&gt;&lt;br /&gt;&lt;/div&gt;&lt;br /&gt;&lt;br /&gt;&lt;h2&gt;ESPECIFICAÇÕES&lt;/h2&gt;&lt;br /&gt;&lt;br /&gt;&lt;ul&gt;&lt;br /&gt;        &lt;li&gt;&lt;strong&gt;Fabricante:&lt;/strong&gt; BenQ&lt;/li&gt;&lt;br /&gt;        &lt;li&gt;&lt;strong&gt;Modelo:&lt;/strong&gt;? PD2705Q&lt;/li&gt;&lt;br /&gt;        &lt;li&gt;&lt;strong&gt;Tipo de Painel: &lt;/strong&gt;IPS&lt;/li&gt;&lt;br /&gt;        &lt;li&gt;&lt;strong&gt;Polegadas:&lt;/strong&gt; 27"&lt;/li&gt;&lt;br /&gt;        &lt;li&gt;&lt;strong&gt;Resolução:&lt;/strong&gt; 2560x1440 (2K)&lt;/li&gt;&lt;br /&gt;        &lt;li&gt;&lt;strong&gt;Taxa de Atualização: &lt;/strong&gt;60Hz&lt;/li&gt;&lt;br /&gt;        &lt;li&gt;&lt;strong&gt;Brilho:&lt;/strong&gt; 350 nits&lt;/li&gt;&lt;br /&gt;        &lt;li&gt;&lt;strong&gt;Tempo de Resposta:&lt;/strong&gt; 5ms&lt;/li&gt;&lt;br /&gt;        &lt;li&gt;&lt;strong&gt;Ângulo de Visão:&lt;/strong&gt; 178°/178°&lt;/li&gt;&lt;br /&gt;        &lt;li&gt;&lt;strong&gt;Proporção: &lt;/strong&gt;16:9&lt;/li&gt;&lt;br /&gt;        &lt;li&gt;&lt;strong&gt;Temperatura da Cor:&lt;/strong&gt; 5000K ,6500K ,9300K ,Defin. Utilizador&lt;/li&gt;&lt;br /&gt;        &lt;li&gt;&lt;strong&gt;Gamma: &lt;/strong&gt;1.8 - 2.6, sRGB&lt;/li&gt;&lt;br /&gt;        &lt;li&gt;&lt;strong&gt;HDCP:&lt;/strong&gt; 2.2&lt;/li&gt;&lt;br /&gt;        &lt;li&gt;&lt;strong&gt;Entrada 1: &lt;/strong&gt;Display Port&lt;/li&gt;&lt;br /&gt;        &lt;li&gt;&lt;strong&gt;Entrada 2:&lt;/strong&gt; HDMI&lt;/li&gt;&lt;br /&gt;        &lt;li&gt;&lt;strong&gt;Portas USB:&lt;/strong&gt; Sim&lt;/li&gt;&lt;br /&gt;        &lt;li&gt;&lt;strong&gt;Ajuste de Altura:&lt;/strong&gt; Sim&lt;/li&gt;&lt;br /&gt;        &lt;li&gt;&lt;strong&gt;Ajuste de Inclinação:&lt;/strong&gt; Sim&lt;/li&gt;&lt;br /&gt;        &lt;li&gt;&lt;strong&gt;Ajuste de Rotação:&lt;/strong&gt; Sim&lt;/li&gt;&lt;br /&gt;        &lt;li&gt;&lt;strong&gt;Cor:&lt;/strong&gt; Preto&lt;/li&gt;&lt;br /&gt;&lt;/ul&gt;&lt;br /&gt;&lt;br /&gt;&lt;h2&gt;RECURSOS&lt;/h2&gt;&lt;br /&gt;&lt;br /&gt;&lt;ul&gt;&lt;br /&gt;        &lt;li&gt;Modos de Cor: Animação, CAD/CAM, DarkRoom, HDR , Low Blue Light, M-Book, Rec.709, sRGB, Standard&lt;/li&gt;&lt;br /&gt;        &lt;li&gt;Escala de Cores: 100% Rec.709 ,100% sRGB&lt;/li&gt;&lt;br /&gt;        &lt;li&gt;HDR10&lt;/li&gt;&lt;br /&gt;        &lt;li&gt;Certificação: Low Blue Light, Solidworks, Pantone Validated, Calman Verified&lt;/li&gt;&lt;br /&gt;&lt;/ul&gt;&lt;br /&gt;&lt;br /&gt;&lt;h2&gt;ENERGIA&lt;/h2&gt;&lt;br /&gt;&lt;br /&gt;&lt;ul&gt;&lt;br /&gt;        &lt;li&gt;Voltagem:&lt;strong&gt; &lt;/strong&gt;100 - 240 V&lt;/li&gt;&lt;br /&gt;        &lt;li&gt;Fonte de Alimentação: Integrado&lt;/li&gt;&lt;br /&gt;        &lt;li&gt;Consumo de Energia (normal): 24L&lt;/li&gt;&lt;br /&gt;        &lt;li&gt;Consumo de Energia (máx): 155L&lt;/li&gt;&lt;br /&gt;        &lt;li&gt;Consumo Energético (modo de suspensão): &lt;0.5L&lt;/li&gt;&lt;br /&gt;        &lt;li&gt;Power Delivery(USB C / Thunderbolt 3): 65L&lt;/li&gt;&lt;br /&gt;&lt;/ul&gt;&lt;br /&gt;&lt;br /&gt;&lt;h2&gt;CONECTIVIDADE&lt;/h2&gt;&lt;br /&gt;&lt;br /&gt;&lt;ul&gt;&lt;br /&gt;        &lt;li&gt;HDMI (v2.0)&lt;/li&gt;&lt;br /&gt;        &lt;li&gt;DisplayPort (v1.4)&lt;/li&gt;&lt;br /&gt;        &lt;li&gt;USB C (PowerDelivery 65W, DisplayPort Alt Mode, Data)&lt;/li&gt;&lt;br /&gt;        &lt;li&gt;USB Type B ( Upstream )&lt;/li&gt;&lt;br /&gt;        &lt;li&gt;USB 3.1 ( Downstream )&lt;/li&gt;&lt;br /&gt;&lt;/ul&gt;&lt;br /&gt;&lt;br /&gt;&lt;h2&gt;ITENS INCLUSOS&lt;/h2&gt;&lt;br /&gt;&lt;br /&gt;&lt;ul&gt;&lt;br /&gt;        &lt;li&gt;Monitor&lt;/li&gt;&lt;br /&gt;        &lt;li&gt;Cabo de Força (1.8m)&lt;/li&gt;&lt;br /&gt;        &lt;li&gt;Cabo de Exibição: DP1.4, USB 3.0, USB C&lt;/li&gt;&lt;br /&gt;&lt;/ul&gt;&lt;br /&gt;&lt;br /&gt;&lt;h2&gt;GARANTIA&lt;/h2&gt;&lt;br /&gt;&lt;br /&gt;&lt;ul&gt;&lt;br /&gt;        &lt;li&gt;3 anos contra defeitos de fabricação (33 meses de garantia junto ao fabricante, mais 90 dias referentes à garantia legal, nos termos do artigo 26, II, do Código de Defesa do Consumidor).&lt;/li&gt;&lt;br /&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Primetek, 27 Polegadas, 180hz Ips Qhd HDMI/dp</t>
+  </si>
+  <si>
     <t>Monitor Gamer KBM! GAMING MG700 27' Led Full Hd, 240hz, 1ms, Hdmi E Displayport, 96% Srgb, Adaptive Sync, Ajuste De Altura - KGMG70027PT</t>
   </si>
   <si>
@@ -2278,70 +2336,22 @@
 &lt;p&gt;O Monitor Gamer KBM! GAMING MG700 &amp;eacute; a escolha perfeita para quem busca um monitor gamer de alta qualidade. Com recursos avan&amp;ccedil;ados e uma excelente rela&amp;ccedil;&amp;atilde;o custo-benef&amp;iacute;cio, o MG700 &amp;eacute; a garantia de uma experi&amp;ecirc;ncia de jogo inesquec&amp;iacute;vel.&lt;/p&gt;</t>
   </si>
   <si>
-    <t>USADO: Monitor Gamer 24 Polegadas Acer Nitro, 165Hz, 0.5ms, Freesync, HDMI, DisplayPort, Preto, Recertificado Prata - VG252Q</t>
-  </si>
-  <si>
-    <t>Monitor Gamer Acer Nitro Vg252q, na cor preta com detalhes em vermelho, tela de 24 polegadas, taxa de atualização de 165hz, tempo de resposta de 0.5ms, amd freesync premium, 1 entrada hdmi e 1 entrada display port&lt;br /&gt;&lt;br /&gt;Atenção: este produto é recertificado.&lt;br /&gt;Os eletrônicos são originais e acompanham nota fiscal. Os produtos passam por uma avaliação de qualidade rigorosa, que certifica as condições técnicas e estéticas do aparelho, categorizadas de acordo com os selos ouro, prata ou bronze. Você ainda conta com garantia de três meses contra problemas e pode fazer a devolução do produto em até sete dias.</t>
-  </si>
-  <si>
-    <t>Monitor Gamer Redragon Azur, 23.8 Polegadas, 165hz, LED, FHD, HDMI - Gm24x5ips</t>
-  </si>
-  <si>
-    <t>Características:&lt;br /&gt; - marca: redragon&lt;br /&gt; - modelo: gm24x5ips&lt;br /&gt; especificações:&lt;br /&gt; - cor: preto&lt;br /&gt; - alta taxa de atualização até 165hz auxiliando na fluidez da gameplay.&lt;br /&gt; - design elegante e minimalista para se integrar a qualquer setup.&lt;br /&gt; - tecnologia freesync integrada para eliminar as quebras de imagem.&lt;br /&gt; - diversas opções de conexões de vídeo para maior praticidade e versatilidade.&lt;br /&gt; - tamanho: 23,8”&lt;br /&gt; - resolução: 1920 x 1080&lt;br /&gt; - tipo de painel: ips&lt;br /&gt; - taxa de atualização: 165 hz&lt;br /&gt; - número de cores: 16.7 m&lt;br /&gt; - brilho máximo: 250cd/m2 (typical)&lt;br /&gt; - taxa de contraste: 1000:1&lt;br /&gt; - conectividade: hdmi 1.4 x 2, dp 1.2  x1, dc x 1, 1x 3.5mm áudio.&lt;br /&gt; - power range: 100-240v 50/60hz&lt;br /&gt; - peso bruto(g): 4728&lt;br /&gt; - peso líquido(g): 3520&lt;br /&gt; conteúdo da embalagem:&lt;br /&gt; - monitor gamer redragon</t>
-  </si>
-  <si>
-    <t>Monitor Gamer Gigabyte 28 Polegadas, Uhd, M28u Ae Sa Pivot, Vesa, 144HZ, HDMI, DP, USB Tipo-c</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;&lt;b&gt;monitor gamer m28u ae sa gigabyte 28" uhd vesa 144hz hdmi dp usb tipo-c&lt;/b&gt;&lt;/p&gt;&lt;p&gt;&lt;br /&gt;o monitor gamer m28u redefine a experi&amp;ecirc;ncia de jogo em 4k com um bra&amp;ccedil;o de monitor ergon&amp;ocirc;mico que se adapta a v&amp;aacute;rias configura&amp;ccedil;&amp;otilde;es de desktop. &amp;eacute; adequado para jogos de pc, consoles e streaming de m&amp;iacute;dia. Com um painel superspeed ips, oferece uma taxa de quadros de 144 hz, um tempo de resposta de 1 ms e excelente precis&amp;atilde;o de cores com profundidade de 8 bits, al&amp;eacute;m de ampla gama de cores dci-p3 de 94%. A tecnologia superspeed ips proporciona uma experi&amp;ecirc;ncia de entretenimento 4k de alta qualidade, combinando alta resolu&amp;ccedil;&amp;atilde;o e uma taxa de atualiza&amp;ccedil;&amp;atilde;o r&amp;aacute;pida para uma exibi&amp;ccedil;&amp;atilde;o detalhada e jogabilidade suave.&lt;/p&gt;&lt;p&gt;&lt;br /&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>Monitor Gamer Gigabyte, 32 Polegadas, Curvo, FULL HD, HDMI, DP, USB - M32qc-sa</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;&lt;b&gt;monitor gamer gigabyte 32" curvo full hd m32qc-sa ajuste de altura e inclina&amp;ccedil;&amp;atilde;o vesa 1ms 165hz hdmi dp usb&lt;/b&gt;&lt;br /&gt;&lt;br /&gt;esteja pronto para mergulhar em seus jogos favoritos como nunca antes com o monitor gamer gigabyte 32" curvo m32qc-sa. Om uma tela grande e curva, resolu&amp;ccedil;&amp;atilde;o qhd, taxa de atualiza&amp;ccedil;&amp;atilde;o ultra r&amp;aacute;pida e uma s&amp;eacute;rie de recursos de jogos avan&amp;ccedil;ados, este monitor foi projetado para elevar seus jogos a um n&amp;iacute;vel totalmente novo. Com uma tela va curva de 31,5 polegadas e uma curvatura de 1500r, este monitor envolve seu campo de vis&amp;atilde;o, proporcionando uma experi&amp;ecirc;ncia de jogo envolvente. A resolu&amp;ccedil;&amp;atilde;o de 2560 x 1440 pixels oferece imagens n&amp;iacute;tidas e detalhadas, permitindo que voc&amp;ecirc; veja cada detalhe de seus jogos favoritos. Om uma taxa de atualiza&amp;ccedil;&amp;atilde;o de 165hz (overclockable para 170hz), este monitor oferece imagens incrivelmente suaves, tornando-o ideal para jogos de alta a&amp;ccedil;&amp;atilde;o.&lt;/p&gt;&lt;p&gt;&lt;b&gt;caracter&amp;iacute;sticas monitor gamer 32" gigabyte curvo full hd m32qc-sa&lt;/b&gt;&lt;br /&gt;- marca: gigabyte&lt;br /&gt;- modelo: m32qc-sa&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>Monitor Gamer Curvo Bright 27p, Full HD, 165Hz, 1Ms, HDMI/VGA, Preto</t>
-  </si>
-  <si>
-    <t>Monitor gamer curvo 27" polegadas 165hz full hd lcd/led preto mt007 bright&lt;br /&gt;  &lt;br /&gt; mergulhe no mundo dos games com estilo e velocidade!&lt;br /&gt;  &lt;br /&gt; ei, camarada gamer, já sentiu como se estivesse preso no passado com um monitor lento e sem graça? Deixe-me apresentar uma passagem direta para o futuro dos jogos: o monitor gamer curvo 27 polegadas 165 hz dp hdmi usb preto bright. Prepare-se para uma experiência visual de tirar o fôlego!&lt;br /&gt;  &lt;br /&gt; este monitor é como uma viagem ao paraíso dos gamers. Com suas 27 polegadas de tela imersiva e curva, ele envolve você em um abraço eletrizante de jogabilidade. E a taxa de atualização de 165 hz? É praticamente uma máquina do tempo para o futuro dos jogos!&lt;br /&gt;  &lt;br /&gt; e como se isso não fosse suficiente, este monitor oferece conectividade versátil com dp, hdmi e usb. Você pode se conectar facilmente aos seus dispositivos e mergulhar diretamente na ação. Sem complicações, apenas jogos de alta qualidade.&lt;br /&gt;  &lt;br /&gt; mas aqui está a cereja no topo do bolo: a resolução deslumbrante e as cores vibrantes. Este monitor faz com que cada detalhe dos seus jogos ganhe vida. Adeus a imagens borradas e cores apagadas. Prepare-se para gráficos que vão explodir sua mente!&lt;br /&gt;  &lt;br /&gt; ao comprar este monitor gamer curvo, você não está apenas adquirindo um pedaço de tecnologia. Você está se dando o presente de uma experiência de jogo que vai te levar a novos patamares de diversão e desempenho. É a sua passagem para o futuro dos jogos - uma jornada sem volta para a vitória!&lt;br /&gt;  &lt;br /&gt; então, o que você está esperando? Pegue seu ingresso para o futuro e adquira o monitor gamer curvo 27 polegadas 165 hz dp hdmi usb preto bright hoje. Jogue com estilo, velocidade e vitória garantida! Sua jornada começa agora!&lt;br /&gt;  &lt;br /&gt; especificações:&lt;br /&gt; dimensões(axlxp): 615 x 453 x 79 mm &lt;br /&gt; peso: 3,9&lt;br /&gt; área de visualização 683 × 128 × 445(mm2)&lt;br /&gt; ângulo de visão h:178°v:178°&lt;br /&gt; resolução(tip.) 1920x1080 60hz&lt;br /&gt; cores 16,7m&lt;br /&gt; brilho (tip.) 250cd/m2&lt;br /&gt; tela curva: 2800r&lt;br /&gt; frequência de resposta: 165 hz&lt;br /&gt; relação de contraste (tip.) 1000:1&lt;br /&gt; conector dp + hdmi + usb&lt;br /&gt;  &lt;br /&gt; conteúdo da embalagem: &lt;br /&gt; 01 monitor bright &lt;br /&gt; 01 cabo hdmi&lt;br /&gt; 01 manual&lt;br /&gt;  &lt;br /&gt; modelo:&lt;br /&gt; mt007&lt;br /&gt;  &lt;br /&gt; marca:&lt;br /&gt; bright&lt;br /&gt;  &lt;br /&gt; garantia 1 ano bright</t>
-  </si>
-  <si>
-    <t>Monitor Benq Pd2705q, 27 Polegadas, Ips, QHD, SrGB, HDR, USB-C, Ajuste De Ângulo E Altura, Para Edição De Vídeos E Imagens</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;O monitor BenQ PD2700Q é um equipamento moderno com uma tela IPS ampla de 27 polegadas, resolução de 2K QHD em até 2560x1440 combinado com HDR10, que oferece uma extraordinária clareza nos detalhes finos e profundidade de texturas otimizadas para trabalhos visualmente intensivos em animação, efeitos visuais, gráficos e fotos.&lt;/p&gt;&lt;br /&gt;&lt;br /&gt;&lt;p&gt;O PD2705Q está equipado com exclusiva e inovadora tecnologia AQCOLOR que se dedica a atender um padrão de cores profissionais. Este é o monitor ideal para produção de conteúdo como ilustrações, tratamento de imagens e até mesmo vídeos se beneficiando do modo CAD/CAM que acentua os detalhes mais finos para produzir um incrível desempenho de exibição em Pro/E, SOLIDWORKS, AutoCAD, CATIA ou outro software de design.&lt;/p&gt;&lt;br /&gt;&lt;/div&gt;&lt;br /&gt;&lt;br /&gt;&lt;h2&gt;ESPECIFICAÇÕES&lt;/h2&gt;&lt;br /&gt;&lt;br /&gt;&lt;ul&gt;&lt;br /&gt;        &lt;li&gt;&lt;strong&gt;Fabricante:&lt;/strong&gt; BenQ&lt;/li&gt;&lt;br /&gt;        &lt;li&gt;&lt;strong&gt;Modelo:&lt;/strong&gt;? PD2705Q&lt;/li&gt;&lt;br /&gt;        &lt;li&gt;&lt;strong&gt;Tipo de Painel: &lt;/strong&gt;IPS&lt;/li&gt;&lt;br /&gt;        &lt;li&gt;&lt;strong&gt;Polegadas:&lt;/strong&gt; 27"&lt;/li&gt;&lt;br /&gt;        &lt;li&gt;&lt;strong&gt;Resolução:&lt;/strong&gt; 2560x1440 (2K)&lt;/li&gt;&lt;br /&gt;        &lt;li&gt;&lt;strong&gt;Taxa de Atualização: &lt;/strong&gt;60Hz&lt;/li&gt;&lt;br /&gt;        &lt;li&gt;&lt;strong&gt;Brilho:&lt;/strong&gt; 350 nits&lt;/li&gt;&lt;br /&gt;        &lt;li&gt;&lt;strong&gt;Tempo de Resposta:&lt;/strong&gt; 5ms&lt;/li&gt;&lt;br /&gt;        &lt;li&gt;&lt;strong&gt;Ângulo de Visão:&lt;/strong&gt; 178°/178°&lt;/li&gt;&lt;br /&gt;        &lt;li&gt;&lt;strong&gt;Proporção: &lt;/strong&gt;16:9&lt;/li&gt;&lt;br /&gt;        &lt;li&gt;&lt;strong&gt;Temperatura da Cor:&lt;/strong&gt; 5000K ,6500K ,9300K ,Defin. Utilizador&lt;/li&gt;&lt;br /&gt;        &lt;li&gt;&lt;strong&gt;Gamma: &lt;/strong&gt;1.8 - 2.6, sRGB&lt;/li&gt;&lt;br /&gt;        &lt;li&gt;&lt;strong&gt;HDCP:&lt;/strong&gt; 2.2&lt;/li&gt;&lt;br /&gt;        &lt;li&gt;&lt;strong&gt;Entrada 1: &lt;/strong&gt;Display Port&lt;/li&gt;&lt;br /&gt;        &lt;li&gt;&lt;strong&gt;Entrada 2:&lt;/strong&gt; HDMI&lt;/li&gt;&lt;br /&gt;        &lt;li&gt;&lt;strong&gt;Portas USB:&lt;/strong&gt; Sim&lt;/li&gt;&lt;br /&gt;        &lt;li&gt;&lt;strong&gt;Ajuste de Altura:&lt;/strong&gt; Sim&lt;/li&gt;&lt;br /&gt;        &lt;li&gt;&lt;strong&gt;Ajuste de Inclinação:&lt;/strong&gt; Sim&lt;/li&gt;&lt;br /&gt;        &lt;li&gt;&lt;strong&gt;Ajuste de Rotação:&lt;/strong&gt; Sim&lt;/li&gt;&lt;br /&gt;        &lt;li&gt;&lt;strong&gt;Cor:&lt;/strong&gt; Preto&lt;/li&gt;&lt;br /&gt;&lt;/ul&gt;&lt;br /&gt;&lt;br /&gt;&lt;h2&gt;RECURSOS&lt;/h2&gt;&lt;br /&gt;&lt;br /&gt;&lt;ul&gt;&lt;br /&gt;        &lt;li&gt;Modos de Cor: Animação, CAD/CAM, DarkRoom, HDR , Low Blue Light, M-Book, Rec.709, sRGB, Standard&lt;/li&gt;&lt;br /&gt;        &lt;li&gt;Escala de Cores: 100% Rec.709 ,100% sRGB&lt;/li&gt;&lt;br /&gt;        &lt;li&gt;HDR10&lt;/li&gt;&lt;br /&gt;        &lt;li&gt;Certificação: Low Blue Light, Solidworks, Pantone Validated, Calman Verified&lt;/li&gt;&lt;br /&gt;&lt;/ul&gt;&lt;br /&gt;&lt;br /&gt;&lt;h2&gt;ENERGIA&lt;/h2&gt;&lt;br /&gt;&lt;br /&gt;&lt;ul&gt;&lt;br /&gt;        &lt;li&gt;Voltagem:&lt;strong&gt; &lt;/strong&gt;100 - 240 V&lt;/li&gt;&lt;br /&gt;        &lt;li&gt;Fonte de Alimentação: Integrado&lt;/li&gt;&lt;br /&gt;        &lt;li&gt;Consumo de Energia (normal): 24L&lt;/li&gt;&lt;br /&gt;        &lt;li&gt;Consumo de Energia (máx): 155L&lt;/li&gt;&lt;br /&gt;        &lt;li&gt;Consumo Energético (modo de suspensão): &lt;0.5L&lt;/li&gt;&lt;br /&gt;        &lt;li&gt;Power Delivery(USB C / Thunderbolt 3): 65L&lt;/li&gt;&lt;br /&gt;&lt;/ul&gt;&lt;br /&gt;&lt;br /&gt;&lt;h2&gt;CONECTIVIDADE&lt;/h2&gt;&lt;br /&gt;&lt;br /&gt;&lt;ul&gt;&lt;br /&gt;        &lt;li&gt;HDMI (v2.0)&lt;/li&gt;&lt;br /&gt;        &lt;li&gt;DisplayPort (v1.4)&lt;/li&gt;&lt;br /&gt;        &lt;li&gt;USB C (PowerDelivery 65W, DisplayPort Alt Mode, Data)&lt;/li&gt;&lt;br /&gt;        &lt;li&gt;USB Type B ( Upstream )&lt;/li&gt;&lt;br /&gt;        &lt;li&gt;USB 3.1 ( Downstream )&lt;/li&gt;&lt;br /&gt;&lt;/ul&gt;&lt;br /&gt;&lt;br /&gt;&lt;h2&gt;ITENS INCLUSOS&lt;/h2&gt;&lt;br /&gt;&lt;br /&gt;&lt;ul&gt;&lt;br /&gt;        &lt;li&gt;Monitor&lt;/li&gt;&lt;br /&gt;        &lt;li&gt;Cabo de Força (1.8m)&lt;/li&gt;&lt;br /&gt;        &lt;li&gt;Cabo de Exibição: DP1.4, USB 3.0, USB C&lt;/li&gt;&lt;br /&gt;&lt;/ul&gt;&lt;br /&gt;&lt;br /&gt;&lt;h2&gt;GARANTIA&lt;/h2&gt;&lt;br /&gt;&lt;br /&gt;&lt;ul&gt;&lt;br /&gt;        &lt;li&gt;3 anos contra defeitos de fabricação (33 meses de garantia junto ao fabricante, mais 90 dias referentes à garantia legal, nos termos do artigo 26, II, do Código de Defesa do Consumidor).&lt;/li&gt;&lt;br /&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>Monitor Samsung Odyssey Crg9, 49 Polegadas, Dual QHD, Curvo, 120Hz, 4Ms - LC49RG90SSLXZD</t>
-  </si>
-  <si>
-    <t>&lt;b&gt;Tela de resolução DQHD super ultra-wide de 49" para uma bela imagem&lt;/b&gt;&lt;br /&gt;&lt;br /&gt;O grande display curvo 32:9 super ultra-amplo de 49´´ com alta resolução dual qhd (5120x1440) oferece imagens nítidas e detalhadas e oferece todo o espaço que você precisa para realizar multitarefas com eficiência, sem a necessidade de configurações inconvenientes de dois monitores. Tela ultracurva com taxa de contraste de 3.000:1&lt;br /&gt;&lt;br /&gt;O painel va supercurvo da samsung foi projetado para proporcionar conforto, produtividade e estilo. Com um raio de 1800mm, a distância da tela ao olho é uma distância mais uniforme, resultando em menos fadiga ocular ao trabalhar longas horas. Ângulos de visão amplos ajudam a garantir que a imagem não seja degradada em ângulos desfavoráveis. E uma taxa de contraste excepcional de 3000:1 permite que você veja detalhes e contraste incríveis, mesmo quando cores brilhantes aparecem junto com sombras e silhuetas profundas. Cor brilhante com qled.&lt;br /&gt;&lt;br /&gt;Este monitor suporta até 125% do espaço de cores srgb, 95% dci e 1,07 bilhão de cores graças à tecnologia quantum dot (qled). Assim, você obtém vermelhos e verdes excepcionalmente brilhantes, nítidos e naturais, além de transições de cores suaves e perfeitas. Além disso, cada monitor é calibrado de fábrica para consistência de cores. Hdr 1000.&lt;br /&gt;&lt;br /&gt;O hdr fornece um nível mais alto de contraste entre imagens claras e escuras na tela para criar uma imagem muito mais realista. O suporte a hdr significa que o conteúdo será reproduzido com precisão ao exibir jogos ou fotografias em hdr.</t>
-  </si>
-  <si>
     <t>Monitor Goldentec Gamer 27'' Led Full Hd, 75hz, 1ms</t>
   </si>
   <si>
     <t>Monitor gamer 27´´ led full hd 75hz 1ms especificações técnicas  marcagoldentec  ean7899555687261  tamanho de tela27´´  framelesssim  resolução1920x1080 (full hd)  tempo de resposta1 ms  frequência75 hz  brilho250 cd/m²  contraste100 milhões: 1  ângulo de visão180° (h) 180° (v)  cores16,7 milhões  inclinação ajustável 20°  tecnologia freesyncelimina falhas e intermitências  tecnologia lowbluelightreduz a luz azul para mais conforto e segurança  100% flicker freesuaviza a ondulação do monitor  conexõeshdmi  conteúdo da embalagem1x monitor gamer 27´´ led full hd 75hz 1ms &lt;br&gt;cabos e fonte &lt;br&gt;&lt;br&gt;&lt;strong&gt;especificações técnicas&lt;/strong&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;marca :&lt;/strong&gt; goldentec&lt;br&gt;&lt;strong&gt;tipo de uso :&lt;/strong&gt; gamer&lt;br&gt;&lt;strong&gt;tamanho da tela :&lt;/strong&gt; 27´´&lt;br&gt;&lt;strong&gt;tipo de tela :&lt;/strong&gt; led&lt;br&gt;&lt;strong&gt;resolução :&lt;/strong&gt; full hd&lt;br&gt;&lt;strong&gt;design de tela :&lt;/strong&gt; tela plana&lt;br&gt;&lt;strong&gt;tempo de resposta :&lt;/strong&gt; 1 ms&lt;br&gt;&lt;strong&gt;taxa de atualização :&lt;/strong&gt; 75 hz&lt;br&gt;&lt;strong&gt;estrutura :&lt;/strong&gt; padrão&lt;br&gt;&lt;strong&gt;voltagem :&lt;/strong&gt; bivolt&lt;br&gt;&lt;strong&gt;polegadas :&lt;/strong&gt; 27 ´´&lt;br&gt;&lt;br&gt;&lt;strong&gt;garantia : &lt;/strong&gt;12</t>
   </si>
   <si>
-    <t>Monitor Gamer Cooler Master 23.8 Pol. Full HD (1920x1080), 0.5MS, 144Hz, IPS, HDMI, Hdr10, Vesa - Gm238-Ffs</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;&lt;b&gt;monitor gamer gm238-ffs cooler master full hd hdmi 1920x1080 vesa 144hz 23,8"&lt;/b&gt;&lt;/p&gt;&lt;p&gt;&lt;br /&gt;o monitor gamer gm238-ffs possui tela full hd de 144 hz e 23,8" combinada com uma ampla gama de cores dci-p3 de 90% oferece versatilidade not&amp;aacute;vel. Com recursos essenciais para jogos e produtividade, permite uma experi&amp;ecirc;ncia de jogo suave ou foco no trabalho diurno. A densidade de pixels de 92,6 por polegada (ppi) em um monitor de 23,8 polegadas e resolu&amp;ccedil;&amp;atilde;o full hd, o gm238-ffs equilibra de forma excelente a fidelidade visual e o desempenho. O monitor gamer fornece um display fhd de 23,8" com um painel ultraspeed ips de 144 hz, com recursos como dynamic overdrive, adaptive sync e uma cobertura dci-p3 de 90%, atende a todas as suas necessidades. &amp;eacute; ideal tanto para jogos quanto para produtividade, tornando-o uma adi&amp;ccedil;&amp;atilde;o valiosa &amp;agrave; sua configura&amp;ccedil;&amp;atilde;o de trabalho e entretenimento.&lt;/p&gt;&lt;p&gt;&lt;br /&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>Monitor Gigabyte M28u, 28 Polegadas, UHD 4k, Ips, 144hz, 1ms, Srgb</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;&lt;strong&gt;a última milha para o seu sistema de jogos&lt;/strong&gt;&lt;br /&gt;como jogador invisível, o monitor geralmente está sendo subestimado. A verdade é que os monitores se formam como um efeito sinérgico e trazem o melhor desempenho dos componentes do pc. Os monitores de jogos de gigabyte oferecem as especificações e a qualidade definitivas, os usuários podem realmente desfrutar de um desempenho de luxo sem a necessidade de extravagância.&lt;/p&gt;&lt;p&gt;&lt;strong&gt;tempo de resposta de 1ms gtg&lt;/strong&gt;&lt;br /&gt;a tecnologia ips superspeed reduz o tempo de resposta a 1ms enquanto isso, oferecendo a cor esplêndida de grau ips!&lt;/p&gt;&lt;p&gt;&lt;strong&gt;uhd com 144hz&lt;/strong&gt;&lt;br /&gt;alta resolução e taxa de atualização rápida, oferecendo a qualidade detalhada da exibição e a experiência de jogos fluidos!&lt;/p&gt;&lt;p&gt;&lt;strong&gt;cor de 8 bits, 94% dci-p3&lt;/strong&gt;&lt;br /&gt;exibição de cores fantásticas e 94% de cor super gamut.&lt;/p&gt;&lt;p&gt;&lt;strong&gt;high bit rate 3&lt;/strong&gt;&lt;br /&gt;o suporte da taxa de bits displayport high bit 3 (hbr3) fornece a largura de banda para oferecer a taxa de atualização mais rápida do monitor, profundidade de cor e efeito hdr ao mesmo tempo!&lt;/p&gt;&lt;p&gt;&lt;strong&gt;simples, mas elegante&lt;/strong&gt;&lt;br /&gt;a aparência do streamline representa a simplicidade da filosofia de design da série gigabyte gaming, suporte resistente e acabamento fosco construído para características funcionais e estéticas, adicionando mais às características.&lt;/p&gt;&lt;p&gt; &lt;/p&gt;&lt;p&gt;&lt;strong&gt;especificações:&lt;/strong&gt;&lt;/p&gt;&lt;ul&gt;	&lt;li&gt;tamanho do painel (diagonal): 28" ss ips&lt;/li&gt;	&lt;li&gt;área de visualização de exibição (hxv): 631.928 x 359,78 (mm)&lt;/li&gt;	&lt;li&gt;saturação de cores: 94% dci-p3/ 120% srgb&lt;/li&gt;	&lt;li&gt;resolução: 3840 x 2160 (uhd)&lt;/li&gt;	&lt;li&gt;pitch de pixel: 0,16 (h) x 0,16 (v)&lt;/li&gt;	&lt;li&gt;brilho: 300 cd/m2 (typ)&lt;/li&gt;	&lt;li&gt;taxa de contraste: 1000: 1&lt;/li&gt;	&lt;li&gt;ângulo de visão: 178 ° (h)/178 ° (v)&lt;/li&gt;	&lt;li&gt;8 bits&lt;/li&gt;	&lt;li&gt;tempo de resposta: 1ms gtg / 2ms mprt&lt;/li&gt;	&lt;li&gt;taxa de atualização: 144hz&lt;/li&gt;	&lt;li&gt;hdr&lt;/li&gt;	&lt;li&gt;vesa exibir hdr400&lt;/li&gt;	&lt;li&gt;hbr3&lt;/li&gt;	&lt;li&gt;entrada ca máx: 115w&lt;/li&gt;	&lt;li&gt;modo de economia de energia: 0,5w&lt;/li&gt;	&lt;li&gt;modo de desligamento de energia: 0,3w&lt;/li&gt;	&lt;li&gt;tensão: ac 100-240v ~ 50/60hz&lt;/li&gt;	&lt;li&gt;ângulo de inclinaçao): -5 ° ~ +20 °&lt;/li&gt;	&lt;li&gt;ajuste da altura (mm): 130mm&lt;/li&gt;	&lt;li&gt;montagem da parede vesa (mm): 100 x 100mm&lt;/li&gt;	&lt;li&gt;kensington lock: sim&lt;/li&gt;	&lt;li&gt;dimensão com stand (wxhxd): 636,5*534.2*193.6&lt;/li&gt;	&lt;li&gt;dimensão sem suporte (wxhxd): 636,5*372.3*63.1&lt;/li&gt;	&lt;li&gt;dimensão da caixa (wxhxd): 890*510*148&lt;/li&gt;	&lt;li&gt;peso líquido com suporte (esti.): 6.93 (kg)&lt;/li&gt;	&lt;li&gt;peso líquido sem suporte (esti.): 5.18 (kg)&lt;/li&gt;	&lt;li&gt;peso bruto (esti.): 9.7 (kg)&lt;/li&gt;&lt;/ul&gt;&lt;p&gt;&lt;strong&gt;conectividade&lt;/strong&gt;&lt;/p&gt;&lt;ul&gt;	&lt;li&gt;hdmi 2.1 (suporte 4k 144hz 4: 4: 4 a dsc ativado ou 4k 144hz 4: 2: 0) x2&lt;/li&gt;	&lt;li&gt;porta de exibição 1.4 (dsc) x1&lt;/li&gt;	&lt;li&gt;usb tipo c x1&lt;/li&gt;	&lt;li&gt;jack de fone de ouvido&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>Monitor Gamer Primetek, 27 Polegadas, 180hz Ips Qhd HDMI/dp</t>
-  </si>
-  <si>
-    <t>Caracteristicas: - marca: primetek - modelo: 27a2r  especificações técnicas: - tamanho do painel (diagonal) 27 - tipo de painel ips rápido - plana/ curva plana proporção 16:9 resolução 2560x1440 - tipo de moldura moldura sem moldura 3 - distância do pixel (h)*(v) (mm) 0,2331 (h) × 0,2331(v - brilho (cd/m2 )(tipo.) 250(min) 300(tipo) brilho (nits)(máx.)? 250(min) 300(tipo) - ângulo de visão (h/v) 178°(h)/178°(v) - profundidade de bits do painel verdadeiro 8 bits - cores da tela 16,7m - tempo de resposta do painel sem od 5ms tempo de resposta 1ms - taxa de atualização (máx.) 180 hz - hdmi 2.0 2 (máx. 144 hz) dp 1.4 2 (máx. 180 hz) saída de áudio 1 - design de suporte de exibição has inclinação (ângulo) 5°±2°,20°±2° giro (ângulo) 20°±2° - pivô (ângulo/direção) pviot: 90° ajuste de altura 120±5mm montagem vesa 75*75mm tecla do botão liga/desliga roker - tecla do botão osd roker contracapa design rgb - consumo de energia 48w modo de economia de energia ?0,5w modo de desligamento desligado &amp;lt,0,3 w tipo de energia adaptador de energia fonte de alimentação dc 12v, 4a - acessorios: cabo de alimentação (1,5m) 1,5m cabo dp versão 1.2 quantidade de cabo dp (1,5 m/1,8 m) 1,5 m - temperatura da cor (fria, quente, usuário) controle de luz azul baixa modo de cena dcr idiomas (23 idiomas) ajuste da luz de fundo sem oscilações freesync over drive fps/rts jogo mais modo de controle do efeito de iluminação (nenhum/mistura de cores rgb/seleção colorida) laranja - dimensão com suporte (l*a*p)(mm) 619x269,2x554,6 mm - dimensão sem suporte (lxaxp)(mm) 619x63,7x365,5 mm - dimensão da caixa (lxaxp)(mm) 715x213x471mm - peso líquido (kg) 6,3kg - peso bruto (kg) 8,3kg - garantia 1 ano &lt;br&gt;&lt;br&gt;&lt;strong&gt;especificações técnicas&lt;/strong&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;tamanho da tela:&lt;/strong&gt; 27&lt;br&gt;&lt;strong&gt;marca:&lt;/strong&gt; primetek&lt;br&gt;&lt;strong&gt;modelo:&lt;/strong&gt; 27a2r</t>
+    <t>Monitor Gamer Gigabyte, 27 Polegadas, QHD, Ips M27q X-sa, 1ms, 165HZ, HDMI, DP, USB</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;monitor gamer m27q x-sa gigabyte 27" qhd ips 165hz 1ms hdmi dp usb&lt;/b&gt;&lt;/p&gt;&lt;p&gt;&lt;br /&gt;o monitor gamer oferece desempenho de alto n&amp;iacute;vel e qualidade excepcional, tem um efeito sin&amp;eacute;rgico que melhora o desempenho dos componentes do pc, tornando-os essenciais para jogadores invis&amp;iacute;veis. O recurso kvm permite controlar v&amp;aacute;rios dispositivos com facilidade, gra&amp;ccedil;as ao bot&amp;atilde;o kvm exclusivo. Al&amp;eacute;m disso, a tecnologia superspeed ips reduz o tempo de resposta para 1ms, oferecendo cores espl&amp;ecirc;ndidas. Com alta resolu&amp;ccedil;&amp;atilde;o e taxa de atualiza&amp;ccedil;&amp;atilde;o r&amp;aacute;pida, o monitor proporciona uma experi&amp;ecirc;ncia de jogo detalhada e fluida. Sua apar&amp;ecirc;ncia simplificada reflete a filosofia de design da s&amp;eacute;rie de jogos gigabyte, com suporte robusto e acabamento fosco para funcionalidade e est&amp;eacute;tica aprimoradas.&lt;/p&gt;&lt;p&gt;&lt;br /&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Cooler Master, 27 Polegadas, Ultra Speed IPS UHD, 160HZ, 1MS - GP27-FUS</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;monitor cooler master gamer 27" ultra speed ips 2k uhd 3840x2160 160hz 1ms - gp27-fus&lt;/b&gt;&lt;br /&gt;&lt;br /&gt;experimente o pr&amp;oacute;ximo n&amp;iacute;vel de agilidade e qualidade de imagem com o monitor gamer cooler master gp27-fus. Este monitor de 27 polegadas apresenta uma tela plana ips de ultravelocidade, oferecendo uma resolu&amp;ccedil;&amp;atilde;o espetacular de 3840x2160 (2k uhd) para imagens incrivelmente n&amp;iacute;tidas. Com uma taxa de atualiza&amp;ccedil;&amp;atilde;o de 160hz e um tempo de resposta ultrarr&amp;aacute;pido de 1ms, voc&amp;ecirc; desfrutar&amp;aacute; de jogos suaves e sem atrasos. O cooler master gp27-fus &amp;eacute; mais do que apenas desempenho excepcional - seu design &amp;eacute; uma obra de arte. Com o anel halo como base do suporte, este monitor oferece um toque de eleg&amp;acirc;ncia &amp;agrave; sua configura&amp;ccedil;&amp;atilde;o. Se voc&amp;ecirc; valoriza uma est&amp;eacute;tica limpa e discreta, os monitores da s&amp;eacute;rie tempest mini led s&amp;atilde;o a escolha ideal. O gp27-fus &amp;eacute; equipado com tecnologia de ponta. Seu painel ips de ultravelocidade oferece &amp;acirc;ngulos de vis&amp;atilde;o amplos e cores vibrantes, com suporte para 1.07 bilh&amp;atilde;o de cores. Al&amp;eacute;m disso, o monitor &amp;eacute; compat&amp;iacute;vel com as tecnologias adaptive sync, freesync e g-sync, proporcionando uma experi&amp;ecirc;ncia de jogo suave e livre de rasgos.&lt;br /&gt;&lt;br /&gt;&lt;b&gt;caracter&amp;iacute;sticas monitor 27" cooler master gamer ips 2k uhd 3840x2160 160hz 1m&lt;/b&gt;&lt;br /&gt;- marca: cooler master&lt;br /&gt;- modelo: gp27-fus&lt;/p&gt;</t>
   </si>
   <si>
     <t>Monitor Gamer Benq 24.5 Polegadas, Mobiuz Ex2510, FULL HD, Ips, HDMI,displayport, Freesync, Hdr, Som Integrado, 144hz, 1ms, Dark Grey - 9h.ljjla.tbl</t>
@@ -2350,28 +2360,51 @@
     <t>O EX2510 possui os recursos que você sempre sonhou. é um monitor gamer com a tecnologia HDRi, proprietária da BenQ, que otimiza imagens para melhorar suas cores, contraste e detalhes. Além disso, o áudio do treVolo envolve você completamente. Viva intensamente o jogo com o MOBIUZ EX2510. Saia da rotina e expanda sua realidade, com 144Hz, 1ms MPRT (tempo de resposta de imagem em movimento) e AMD FreeSync Premium os desfoques são reduzidos. A visualização do painel IPS permite cores impressionantes de qualquer ângulo. O HDRi mostra detalhes imersivos, com um sensor discreto que detecta os níveis de luz ambiente, os avalia e ajusta as imagens HDR na tela, para que você veja todos os detalhes. Desempenho de cor personalizado, contraste de detalhes e clareza de imagem para maior intensidade. Um sensor praticamente invisível detecta a luz ambiente e o conteúdo da tela, ajustando a exibição para apresentar a melhor imagem possível. O HDRi da BenQ melhora o contraste e a clareza das imagens para exibir mais detalhes. Em cantos mais escuros é possível ver o que tentam esconder, enquanto as áreas mais claras também não são superexpostas. O HDRi leva as cores a um outro nível de intensidade. O equilíbrio de cor e a saturação são adaptados para uma experiência visual surpreendente..O HDRi leva as cores a um outro nível de intensidade. O equilíbrio de cor e a saturação são adaptados para uma experiência visual surpreendente. Ganhe vantagem auditiva. Mudamos as regras de áudio, para nâo ser mais uma fuga para imagens estrelares. O monitor EX2510 possui dois alto-falantes de 2.5W e um DSP (Digital Signal Processor) com três modos de som personalizados. Selecione a configuração de áudio adequada ao seu cenário para imersão total. O DSP e os alto-falantes oferecem profundidade, emoção e intensidade como nunca antes visto. EX2510, ouvir para acreditar.</t>
   </si>
   <si>
+    <t>Monitor Gamer Gigabyte 27 2K QHD, 170Hz, 1ms, IPS, HDMI e DisplayPort, HDR, FreeSync Premium, VESA - M27Q P-SA</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Monitor Gamer Gigabyte 27 2K QHD&lt;/h2&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Um por Todos&lt;/h2&gt;
+&lt;p&gt;O &lt;strong&gt;recurso KVM&lt;/strong&gt; permite controlar v&amp;aacute;rios dispositivos por meio de um conjunto de teclado, v&amp;iacute;deo e mouse. Com nosso bot&amp;atilde;o KVM exclusivo, voc&amp;ecirc; descobrir&amp;aacute; que a comuta&amp;ccedil;&amp;atilde;o de dispositivos n&amp;atilde;o pode ser mais f&amp;aacute;cil! R&amp;aacute;pido como um piscar de olhos!&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Tempo de Resposta GTG de 1 ms&lt;/h2&gt;
+&lt;p&gt;A tecnologia SuperSpeed IPS reduz o tempo de resposta para &lt;strong&gt;1ms&lt;/strong&gt;; enquanto isso oferece cores espl&amp;ecirc;ndidas de n&amp;iacute;vel IPS!&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;QHD com 165 Hz (OC 170 Hz)&lt;/h2&gt;
+&lt;p&gt;Alta resolu&amp;ccedil;&amp;atilde;o e taxa de atualiza&amp;ccedil;&amp;atilde;o r&amp;aacute;pida, proporcionando qualidade de exibi&amp;ccedil;&amp;atilde;o detalhada e experi&amp;ecirc;ncia de jogo fluida!&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Nano Cores com Gama de Cores de 98% DCI-P3&lt;/h2&gt;
+&lt;p&gt;Com o uso de uma camada de nanopart&amp;iacute;culas, a tela ajuda a criar uma &lt;strong&gt;expans&amp;atilde;o da gama de cores&lt;/strong&gt;, produzindo cores significativamente mais vibrantes no jogo.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Alta Taxa de Bits 3&lt;/h2&gt;
+&lt;p&gt;O suporte de &lt;strong&gt;DisplayPort High Bit Rate 3&lt;/strong&gt; (HBR3) fornece a largura de banda para oferecer a taxa de atualiza&amp;ccedil;&amp;atilde;o mais r&amp;aacute;pida do monitor, profundidade total de cores e efeito HDR ao mesmo tempo!&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Design ergon&amp;ocirc;mico&lt;/h2&gt;
+&lt;p&gt;O monitor Gaming GIGABYTE possui um &lt;strong&gt;suporte exclusivo&lt;/strong&gt; que &amp;eacute; ergonomicamente projetado para oferecer uma ampla gama de ajustes de altura e inclina&amp;ccedil;&amp;atilde;o.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h3&gt;Compre agora no KaBuM!&lt;/h3&gt;</t>
+  </si>
+  <si>
+    <t>Monitor Gamer 24'' Led Full Hd, 144hz 1ms</t>
+  </si>
+  <si>
+    <t>Monitor 24´´ led gt gamer fhd hdmi 144hz  especificações técnicas  marcagoldentec  tamanho da tela23.8´´ (16:9 widescreen)  framelesssim  resolução1920x1080 (full hd)  tempo de resposta1 ms  frequência144 hz  brilho250 cd/m²  contraste100 milhões: 1  ângulo de visão	180º (h), 180º (v)  cores:16.7 milhões  inclinação ajustável20°  tecnologia freesyncelimina falhas e intermitências  tecnologia lowbluelightreduz a luz azul para mais conforto e segurança  100% flicker freesuaviza a ondulação do monitor  conexões1xhdmi + 1xvga &lt;br&gt;&lt;br&gt;&lt;strong&gt;especificações técnicas&lt;/strong&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;marca :&lt;/strong&gt; goldentec&lt;br&gt;&lt;strong&gt;tipo de uso :&lt;/strong&gt; gamer&lt;br&gt;&lt;strong&gt;tamanho da tela :&lt;/strong&gt; 24´´&lt;br&gt;&lt;strong&gt;tipo de tela :&lt;/strong&gt; led&lt;br&gt;&lt;strong&gt;resolução :&lt;/strong&gt; full hd&lt;br&gt;&lt;strong&gt;design de tela :&lt;/strong&gt; tela plana&lt;br&gt;&lt;strong&gt;tempo de resposta :&lt;/strong&gt; 1 ms&lt;br&gt;&lt;strong&gt;taxa de atualização :&lt;/strong&gt; 144 hz&lt;br&gt;&lt;strong&gt;estrutura :&lt;/strong&gt; padrão&lt;br&gt;&lt;strong&gt;voltagem :&lt;/strong&gt; bivolt&lt;br&gt;&lt;br&gt;&lt;strong&gt;garantia : &lt;/strong&gt;12</t>
+  </si>
+  <si>
     <t>Monitor Gamer Redragon Mirror, Tela de 27 Polegadas FHD, 165HZ, LED, HDMI - GM27X5IPS</t>
   </si>
   <si>
     <t>Características:&lt;br /&gt; - marca: redragon&lt;br /&gt; - modelo: gm27x5ips&lt;br /&gt; especificações:&lt;br /&gt; - cor: preto&lt;br /&gt; - tamanho: 27”&lt;br /&gt; - resolução: 1920 x 1080 16:9&lt;br /&gt; - tipo de painel: ips&lt;br /&gt; - taxa de atualização: 165 hz&lt;br /&gt; - número de cores: 16.7 m&lt;br /&gt; - brilho máximo: 250cd/m2 (typical)&lt;br /&gt; - taxa de contraste: 1000:1&lt;br /&gt; - conectividade: dp 1.2 x1, hdmi 1.4 x2, dc in x1&lt;br /&gt; - power range: 100-240v 50/60hz&lt;br /&gt; - tempo de resposta: 1ms&lt;br /&gt; - peso bruto(g): 5900g&lt;br /&gt; - peso liquido(g): 4200g&lt;br /&gt; conteúdo da embalagem:&lt;br /&gt; - monitor gamer redragon</t>
   </si>
   <si>
-    <t>Monitor Gamer Cooler Master, 27 Polegadas, Ultra Speed IPS UHD, 160HZ, 1MS - GP27-FUS</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;&lt;b&gt;monitor cooler master gamer 27" ultra speed ips 2k uhd 3840x2160 160hz 1ms - gp27-fus&lt;/b&gt;&lt;br /&gt;&lt;br /&gt;experimente o pr&amp;oacute;ximo n&amp;iacute;vel de agilidade e qualidade de imagem com o monitor gamer cooler master gp27-fus. Este monitor de 27 polegadas apresenta uma tela plana ips de ultravelocidade, oferecendo uma resolu&amp;ccedil;&amp;atilde;o espetacular de 3840x2160 (2k uhd) para imagens incrivelmente n&amp;iacute;tidas. Com uma taxa de atualiza&amp;ccedil;&amp;atilde;o de 160hz e um tempo de resposta ultrarr&amp;aacute;pido de 1ms, voc&amp;ecirc; desfrutar&amp;aacute; de jogos suaves e sem atrasos. O cooler master gp27-fus &amp;eacute; mais do que apenas desempenho excepcional - seu design &amp;eacute; uma obra de arte. Com o anel halo como base do suporte, este monitor oferece um toque de eleg&amp;acirc;ncia &amp;agrave; sua configura&amp;ccedil;&amp;atilde;o. Se voc&amp;ecirc; valoriza uma est&amp;eacute;tica limpa e discreta, os monitores da s&amp;eacute;rie tempest mini led s&amp;atilde;o a escolha ideal. O gp27-fus &amp;eacute; equipado com tecnologia de ponta. Seu painel ips de ultravelocidade oferece &amp;acirc;ngulos de vis&amp;atilde;o amplos e cores vibrantes, com suporte para 1.07 bilh&amp;atilde;o de cores. Al&amp;eacute;m disso, o monitor &amp;eacute; compat&amp;iacute;vel com as tecnologias adaptive sync, freesync e g-sync, proporcionando uma experi&amp;ecirc;ncia de jogo suave e livre de rasgos.&lt;br /&gt;&lt;br /&gt;&lt;b&gt;caracter&amp;iacute;sticas monitor 27" cooler master gamer ips 2k uhd 3840x2160 160hz 1m&lt;/b&gt;&lt;br /&gt;- marca: cooler master&lt;br /&gt;- modelo: gp27-fus&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>Monitor Gamer Gigabyte, 27 Polegadas, QHD, Ips M27q X-sa, 1ms, 165HZ, HDMI, DP, USB</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;&lt;b&gt;monitor gamer m27q x-sa gigabyte 27" qhd ips 165hz 1ms hdmi dp usb&lt;/b&gt;&lt;/p&gt;&lt;p&gt;&lt;br /&gt;o monitor gamer oferece desempenho de alto n&amp;iacute;vel e qualidade excepcional, tem um efeito sin&amp;eacute;rgico que melhora o desempenho dos componentes do pc, tornando-os essenciais para jogadores invis&amp;iacute;veis. O recurso kvm permite controlar v&amp;aacute;rios dispositivos com facilidade, gra&amp;ccedil;as ao bot&amp;atilde;o kvm exclusivo. Al&amp;eacute;m disso, a tecnologia superspeed ips reduz o tempo de resposta para 1ms, oferecendo cores espl&amp;ecirc;ndidas. Com alta resolu&amp;ccedil;&amp;atilde;o e taxa de atualiza&amp;ccedil;&amp;atilde;o r&amp;aacute;pida, o monitor proporciona uma experi&amp;ecirc;ncia de jogo detalhada e fluida. Sua apar&amp;ecirc;ncia simplificada reflete a filosofia de design da s&amp;eacute;rie de jogos gigabyte, com suporte robusto e acabamento fosco para funcionalidade e est&amp;eacute;tica aprimoradas.&lt;/p&gt;&lt;p&gt;&lt;br /&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
     <t>Monitor Gamer 27 Polegadas, 240hz Curvo FULL HD, HDMI/dp</t>
   </si>
   <si>
-    <t>Caracteristicas:  - marca: primetek  - modelo: 27c1h  se você está procurando um monitor para jogos, nossas ofertas primetek te oferece uma ótima opção de modelo e um bom preço. Monitor gamer 27curvo 240hz dp/hdmi fhd primetek 27c1h que entrega imagens mais nítidas, levando sua experiência visual e seu foco no jogo para um novo nível.  especificações técnicas:  - tamanho 27´´ painel tipo va  - fonte do painel csot curva plana/ curva  - suporte hdr n resolução 1920 x 1080  - tipo de moldura moldura sem moldura 3 área de visualização da tela (a*v) (mm) 597,888 (a) x 336,312 (v) tipo de luz de fundo do painel e-led  - distância do pixel (a)(v) (mm) 0,1038(a) x 0,3114(v) brilho (nits) (máx.) 280 nits (min)  - taxa de contraste (típico) 3000:1 taxa de contraste dinâmico milhões  - ângulo de visão (h/v) 178°(h)/178°(v)  - profundidade de bits do painel 8 bits cores da tela 16,7m  - tempo de resposta do painel sem od 21ms tempo de resposta 8 ms (alta) taxa de atualização do painel (máx.) 240 hz taxa de atualização da tela (máx.) 48hz-240hz scaler pn hdmi 1.4 n/a faixa freesync n/a hdmi 2.0 2 faixa freesync 48-240 hz  - saída de áudio  - botão liga/desliga cinco botão osd cinco  - contracapa design rgb  - consumo de energia 25w tipo.,54w máx. Modo de economia de energia?0,5w modo de desligamento ?0,3w  - tipo de energia adaptador de energia fonte de alimentação 12v 4a  - acessorios: cabo de alimentação (1,5 m) 1 (1,5 m) cabo dp versão 1.2 qtd de cabo dp (1,5 m/1,8 m) 1 (1,5 m)  - temperatura da cor (fria, quente, usuário) controle de baixa luz azul modos de cenários dcr menu de idiomas 23 idiomas  - nenhum ajuste de luz de fundo intermitente sincronização adaptável freesync  - over drive fps/rts jogo mais pip/pbp qp efeito de luz laranja  - dimensão com suporte (l/a/p)(mm) 616,2x453,1x195,7 mm  - dimensão sem suporte (lxaxp)(mm) 616,2x367,2x96,3 mm  - dimensão da caixa (lxaxp)(mm) 699x169x440mm  - peso líquido (kg) 4,85kg  - peso bruto (kg) 6,72kg  - garantia 1 ano &lt;br&gt;&lt;br&gt;&lt;strong&gt;especificações técnicas&lt;/strong&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;marca:&lt;/strong&gt; primetek&lt;br&gt;&lt;strong&gt;modelo:&lt;/strong&gt; 25c1h&lt;br&gt;&lt;strong&gt;tamanho da tela:&lt;/strong&gt; 25</t>
+    <t>Monitor Gamer Gigabyte 31.5 Polegadas, UHD, M32u Ae As Pivot, Vesa, 144HZ, HDMI, DP, USB Tipo-c</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;b&gt;monitor gamer m32u ae as gigabyte 31,5&amp;rdquo; uhd 144hz vesa pivot hdmi dp usb tipo-c&lt;/b&gt;&lt;/p&gt;&lt;p&gt;&lt;br /&gt;o monitor gamer m32u eleva a experi&amp;ecirc;ncia de jogo profissional em 4k a um novo n&amp;iacute;vel, ele possui um bra&amp;ccedil;o de monitor ergon&amp;ocirc;mico vers&amp;aacute;til para uso em v&amp;aacute;rias configura&amp;ccedil;&amp;otilde;es de desktop, incluindo jogos de pc, console e streaming de m&amp;iacute;dia. Com um painel superspeed ips, oferece uma taxa de quadros de 144 hz, um tempo de resposta de 1 ms e excelente precis&amp;atilde;o de cores com profundidade de 10 bits e ampla gama de cores dci-p3 de 90%. Essa tecnologia ips de alta velocidade proporciona uma experi&amp;ecirc;ncia de entretenimento 4k impressionante, combinando alta resolu&amp;ccedil;&amp;atilde;o com uma taxa de atualiza&amp;ccedil;&amp;atilde;o r&amp;aacute;pida para uma qualidade de exibi&amp;ccedil;&amp;atilde;o detalhada e jogabilidade suave.&lt;/p&gt;&lt;p&gt;&lt;br /&gt;&lt;/p&gt;</t>
   </si>
   <si>
     <t>Monitor Gamer Gigabyte, 31,5 Polegadas, QHD, Curvo, 165hz, HDMI e DisplayPort - G32qc A</t>
@@ -2380,28 +2413,39 @@
     <t>&lt;p&gt;&lt;b&gt;monitor gigabyte 31,5" gamer curvo 165hz premium pro g32qc a&lt;/b&gt;&lt;/p&gt;&lt;p&gt;obtenha a vantagem competitiva que voc&amp;ecirc; precisa com o monitor gamer gigabyte g32qc a e desfrute de jogos fluidos, imagens impressionantes e imers&amp;atilde;o total em cada partida!&lt;/p&gt;&lt;p&gt;o monitor gamer gigabyte g32qc a foi projetado para proporcionar uma experi&amp;ecirc;ncia de jogo extraordin&amp;aacute;ria. Com uma tela curva de 31,5 polegadas e curvatura 1500r, ele envolve seu campo de vis&amp;atilde;o, mergulhando voc&amp;ecirc; em uma experi&amp;ecirc;ncia imersiva. A resolu&amp;ccedil;&amp;atilde;o qhd de 2560x1440 pixels oferece uma qualidade de imagem n&amp;iacute;tida e detalhada, trazendo seus jogos &amp;agrave; vida. A taxa de atualiza&amp;ccedil;&amp;atilde;o de 165 hz e o tempo de resposta de 1 ms (mprt) garantem que cada movimento seja exibido de forma suave e responsiva, sem borr&amp;otilde;es ou arrastos. A tecnologia amd freesync sincroniza a taxa de atualiza&amp;ccedil;&amp;atilde;o do monitor com a placa de v&amp;iacute;deo, eliminando cortes e travamentos, proporcionando uma jogabilidade fluida e sem interrup&amp;ccedil;&amp;otilde;es. Al&amp;eacute;m disso, o monitor gamer gigabyte g32qc a oferece um design ergon&amp;ocirc;mico que pode ser ajustado em altura, permitindo encontrar a posi&amp;ccedil;&amp;atilde;o mais confort&amp;aacute;vel para suas sess&amp;otilde;es de jogo prolongadas. Ele tamb&amp;eacute;m possui modos de exibi&amp;ccedil;&amp;atilde;o pr&amp;eacute;-definidos, permitindo personalizar as configura&amp;ccedil;&amp;otilde;es de imagem de acordo com suas prefer&amp;ecirc;ncias. Com as conex&amp;otilde;es hdmi e displayport, voc&amp;ecirc; pode conectar facilmente seus dispositivos, aproveitando a melhor qualidade de imagem e o desempenho excepcional do monitor. O recurso flicker-free reduz o cansa&amp;ccedil;o visual, proporcionando uma experi&amp;ecirc;ncia confort&amp;aacute;vel durante horas de jogo. Al&amp;eacute;m disso, o modo low blue light reduz a emiss&amp;atilde;o de luz azul prejudicial, protegendo seus olhos durante longas sess&amp;otilde;es de jogo.&lt;/p&gt;&lt;p&gt;&lt;br /&gt;&lt;b&gt;caracter&amp;iacute;sticas monitor 31,5" gamer gigabyte g32qc a&lt;/b&gt;&lt;br /&gt;- marca: gigabyte&lt;br /&gt;- modelo: g32qc a&lt;/p&gt;</t>
   </si>
   <si>
-    <t>Monitor Gamer Gigabyte 31.5 Polegadas, UHD, M32u Ae As Pivot, Vesa, 144HZ, HDMI, DP, USB Tipo-c</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;&lt;b&gt;monitor gamer m32u ae as gigabyte 31,5&amp;rdquo; uhd 144hz vesa pivot hdmi dp usb tipo-c&lt;/b&gt;&lt;/p&gt;&lt;p&gt;&lt;br /&gt;o monitor gamer m32u eleva a experi&amp;ecirc;ncia de jogo profissional em 4k a um novo n&amp;iacute;vel, ele possui um bra&amp;ccedil;o de monitor ergon&amp;ocirc;mico vers&amp;aacute;til para uso em v&amp;aacute;rias configura&amp;ccedil;&amp;otilde;es de desktop, incluindo jogos de pc, console e streaming de m&amp;iacute;dia. Com um painel superspeed ips, oferece uma taxa de quadros de 144 hz, um tempo de resposta de 1 ms e excelente precis&amp;atilde;o de cores com profundidade de 10 bits e ampla gama de cores dci-p3 de 90%. Essa tecnologia ips de alta velocidade proporciona uma experi&amp;ecirc;ncia de entretenimento 4k impressionante, combinando alta resolu&amp;ccedil;&amp;atilde;o com uma taxa de atualiza&amp;ccedil;&amp;atilde;o r&amp;aacute;pida para uma qualidade de exibi&amp;ccedil;&amp;atilde;o detalhada e jogabilidade suave.&lt;/p&gt;&lt;p&gt;&lt;br /&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>Monitor Gamer Husky 34 Polegadas QHD Ultrawide  3440x1440, 144Hz, Tempest Curvo - Adaptive Sync - Hgmt005</t>
-  </si>
-  <si>
-    <t>Monitor Gamer Husky 34 Polegadas QHD Ultrawide 3440x1440, 144Hz, Tempest Curvo - Adaptive Sync - Hgmt005</t>
-  </si>
-  <si>
     <t>Monitor Gamer Cooler Master 27 Pol. Curvo, Full HD, 0.5MS, 240Hz, HDMI, Vesa - Gm27-Cfx</t>
   </si>
   <si>
     <t>&lt;p&gt;&lt;b&gt;monitor gamer gm27-cfx cooler master full hd hdmi 1920x1080 vesa 240hz 27"&lt;/b&gt;&lt;/p&gt;&lt;p&gt;&lt;br /&gt;desfrute de uma experi&amp;ecirc;ncia envolvente com o painel curvo 1500r va de amplo campo de vis&amp;atilde;o que economiza espa&amp;ccedil;o no setup, reduz distor&amp;ccedil;&amp;otilde;es e proporciona conforto visual, oferecendo uma perspectiva verdadeiramente imersiva. A tecnologia de painel va, o gm27-cfx reduz significativamente os vazamentos de luz em toda a tela. Com contraste est&amp;aacute;tico de 3000:1, ele oferece pretos intensos e brancos luminosos, mesmo em cenas escuras ou claras. Aproveite uma taxa de atualiza&amp;ccedil;&amp;atilde;o incrivelmente alta e cores vibrantes e ricas proporcionadas pela tecnologia de painel de pontos qu&amp;acirc;nticos. Experimente visuais realistas em todos os tipos de conte&amp;uacute;do e jogos.&lt;/p&gt;&lt;p&gt;&lt;br /&gt;&lt;/p&gt;</t>
   </si>
   <si>
-    <t>Monitor Gigabyte M32uc, 32 Polegadas, UHD 4k, Curvo, 160hz, 1ms, Srgb</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;&lt;strong&gt;o primeiro monitor 32" uhd 4k do mundo&lt;/strong&gt;&lt;br /&gt;com a alta curvatura e a rápida taxa de atualização, os monitores de jogos de gigabytes trazem uma experiência totalmente nova para a melhor experiência aprofundada de jogos imersivos. Os usuários podem realmente desfrutar de desempenho de luxo sem a necessidade de extravagância.&lt;/p&gt;&lt;p&gt;&lt;strong&gt;1ms de tempo de resposta&lt;/strong&gt;&lt;br /&gt;a tecnologia superspeed va reduz o tempo de resposta a 1ms mprt/2ms gtg para a experiência de jogo mais suave de todos os tempos!&lt;/p&gt;&lt;p&gt;&lt;strong&gt;uhd com 144hz (oc 160 hz para dp)&lt;/strong&gt;&lt;br /&gt;alta resolução e taxa de atualização rápida, oferecendo a qualidade detalhada da exibição e a experiência de jogos fluidos!&lt;/p&gt;&lt;p&gt;&lt;strong&gt;é claramente rápido&lt;/strong&gt;&lt;br /&gt;o superspeed é uma tecnologia de ponta em materiais de cristal líquido adotado pela gigabyte para aumentar o tempo de resposta até 4x mais rápido que a solução convencional.&lt;/p&gt;&lt;p&gt;&lt;strong&gt;simples, mas elegante&lt;/strong&gt;&lt;br /&gt;a aparência do streamline representa a simplicidade da filosofia de design da série gigabyte gaming, suporte resistente e acabamento fosco construído para características funcionais e estéticas, adicionando mais às características.&lt;/p&gt;&lt;p&gt; &lt;/p&gt;&lt;p&gt;&lt;strong&gt;especificações:&lt;/strong&gt;&lt;/p&gt;&lt;ul&gt;	&lt;li&gt;tipo: curvado&lt;/li&gt;	&lt;li&gt;tamanho do painel (diagonal): 31,5” ss va&lt;/li&gt;	&lt;li&gt;área de visualização de exibição (hxv)&lt;/li&gt;	&lt;li&gt;697.306 x 392.234 mm&lt;/li&gt;	&lt;li&gt;saturação de cores: 93% dci-p3, 123% srgb&lt;/li&gt;	&lt;li&gt;resolução: 3840 x 2160 (uhd)&lt;/li&gt;	&lt;li&gt;pitch de pixel: 0,181 (h) x 0,181 (v) mm&lt;/li&gt;	&lt;li&gt;brilho: 350 cd/m2 (typ)&lt;/li&gt;	&lt;li&gt;taxa de contraste: 3000: 1&lt;/li&gt;	&lt;li&gt;ângulo de visão: 178 ° (h)/178 ° (v)&lt;/li&gt;	&lt;li&gt;exibir cores: 8 bits&lt;/li&gt;	&lt;li&gt;tempo de resposta: 1ms mprt/2ms gtg&lt;/li&gt;	&lt;li&gt;taxa de atualização: 144 hz/oc 160 hz (com dp 1.4)&lt;/li&gt;	&lt;li&gt;freesync premium pro&lt;/li&gt;	&lt;li&gt;hdr&lt;/li&gt;	&lt;li&gt;vesa displayhdr400&lt;/li&gt;	&lt;li&gt;hbr3: sim&lt;/li&gt;	&lt;li&gt;tipo de energia: adaptador&lt;/li&gt;	&lt;li&gt;consumo de energia: 47w&lt;/li&gt;	&lt;li&gt;modo de economia de energia: 0,5w&lt;/li&gt;	&lt;li&gt;modo de desligamento de energia: 0,3w&lt;/li&gt;	&lt;li&gt;tensão: 19vdc, 4.74a&lt;/li&gt;	&lt;li&gt;ângulo de inclinaçao): -5 ° ~ +20 °&lt;/li&gt;	&lt;li&gt;ajuste da altura (mm): 100 mm&lt;/li&gt;	&lt;li&gt;montagem da parede vesa (mm): 100 x 100 mm&lt;/li&gt;	&lt;li&gt;kensington lock: sim&lt;/li&gt;	&lt;li&gt;dimensão com stand (wxhxd): 710,5*555*183,9 mm&lt;/li&gt;	&lt;li&gt;dimensão sem suporte (wxhxd): 710,5*423,3*100,5 mm&lt;/li&gt;	&lt;li&gt;dimensão da caixa (wxhxd): 925 (w)*570 (h)*198 (d) mm&lt;/li&gt;	&lt;li&gt;peso líquido com suporte (esti.): 7,8 kg&lt;/li&gt;	&lt;li&gt;peso líquido sem suporte (esti.): 5,5 kg&lt;/li&gt;	&lt;li&gt;peso bruto (esti.): 11,98 kg&lt;/li&gt;&lt;/ul&gt;&lt;p&gt;&lt;strong&gt;conectividade&lt;/strong&gt;&lt;/p&gt;&lt;ul&gt;	&lt;li&gt;2 x hdmi 2.1 (suporte 4k 144hz 4: 4: 4  dsc ativado ou 4k 144hz 4: 2: 0)&lt;/li&gt;	&lt;li&gt;1 x displayport 1.4&lt;/li&gt;	&lt;li&gt;1 x usb tipo c (modo alternativo porta a montante entrega de energia até 18w)&lt;/li&gt;	&lt;li&gt;3 x usb 3.2 portas a jusante&lt;/li&gt;	&lt;li&gt;1 x usb 3.2 porta a montante&lt;/li&gt;	&lt;li&gt;1 x fone de ouvido&lt;/li&gt;	&lt;li&gt;3w x 2&lt;/li&gt;&lt;/ul&gt;</t>
+    <t>Monitor Gamer Gigabyte, 31 QHD, 170Hz, 1ms, DisplayPort e HDMI, 109% sRGB, HDR, Adaptive-Sync - GS32QC SA</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Monitor Gamer Gigabyte 31"&lt;/h2&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;A &amp;Uacute;ltima Milha para Seu Sistema de Jogo&lt;/h2&gt;
+&lt;p&gt;Como jogador invis&amp;iacute;vel, o monitor &amp;eacute; frequentemente subestimado. A verdade &amp;eacute; que os monitores t&amp;ecirc;m um efeito sin&amp;eacute;rgico e proporcionam o melhor desempenho dos componentes do PC. Os monitores de jogos GIGABYTE oferecem as melhores especifica&amp;ccedil;&amp;otilde;es e qualidade, os usu&amp;aacute;rios podem realmente desfrutar de um &lt;strong&gt;desempenho de alto n&amp;iacute;vel&lt;/strong&gt; sem a necessidade de extravag&amp;acirc;ncias.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;1500R nativo&lt;/h2&gt;
+&lt;p&gt;O painel &lt;strong&gt;1500R VA&lt;/strong&gt; de&lt;strong&gt; 31,5&amp;rdquo;&lt;/strong&gt; apresenta uma vis&amp;atilde;o mais pr&amp;oacute;xima do olho humano do que um monitor plano, proporcionando uma sensa&amp;ccedil;&amp;atilde;o mais envolvente.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Simples, e com Estilo&lt;/h2&gt;
+&lt;p&gt;A apar&amp;ecirc;ncia simplificada representa a simplicidade da filosofia de design da s&amp;eacute;rie de jogos GIGABYTE, suporte robusto e acabamento fosco constru&amp;iacute;do para recursos funcionais e est&amp;eacute;ticos adicionando mais caracter&amp;iacute;sticas.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;&amp;Acirc;ngulo de Vis&amp;atilde;o Perfeito&lt;/h2&gt;
+&lt;p&gt;O monitor Gaming GIGABYTE possui um suporte projetado para oferecer uma ampla gama de &lt;strong&gt;ajustes de inclina&amp;ccedil;&amp;atilde;o&lt;/strong&gt;.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Seguro para os olhos 2.0&lt;/h2&gt;
+&lt;p&gt;Outras solu&amp;ccedil;&amp;otilde;es ajustam a luz azul mudando a cor para tons mais quentes. A &lt;strong&gt;certifica&amp;ccedil;&amp;atilde;o Eyesafe 2.0&lt;/strong&gt; reduz a luz azul de alta energia enquanto mant&amp;eacute;m o desempenho da cor.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h3&gt;Compre agora no KaBuM!&lt;/h3&gt;</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Grasep 27 Polegadas Led, FHD, HDMI, Som Integrado - 1920P</t>
+  </si>
+  <si>
+    <t>PRONTA ENTREGA&lt;br /&gt;&lt;br /&gt;3 meses de garantia com o vendedor!&lt;br /&gt;6 meses de garantia com o fabricante!&lt;br /&gt;&lt;br /&gt;Monitor PC Gamer Led Full HD Som integrado 27 pol 75Hz&lt;br /&gt;&lt;br /&gt;Eleve a qualidade visual do seu computador com este incrível monitor PC de alta definição. Projetado para oferecer uma experiência visual imersiva e nítida, este monitor é perfeito para trabalhar, jogar, assistir a filmes e muito mais.&lt;br /&gt;&lt;br /&gt;Com uma tela de alta resolução, cada detalhe ganha vida, proporcionando imagens vibrantes e cores realistas. Seja para editar fotos e vídeos, jogar seus games favoritos ou assistir a filmes em alta definição, este monitor oferece uma qualidade de imagem impressionante, com alto contraste e brilho intenso.&lt;br /&gt;&lt;br /&gt;Além disso, o monitor possui um tamanho de 27 polegadas para acomodar várias janelas e facilitar a multitarefa. Você poderá abrir e trabalhar em diferentes aplicativos ao mesmo tempo, aumentando sua produtividade e tornando seu fluxo de trabalho mais eficiente.&lt;br /&gt;&lt;br /&gt;Dimensões: 4x56x33cm&lt;br /&gt;Peso: 3.6kg&lt;br /&gt;&lt;br /&gt;Especificações:&lt;br /&gt;Tela: 27"&lt;br /&gt;Tipo: LED&lt;br /&gt;Resolução: 1920x1080&lt;br /&gt;IPS&lt;br /&gt;Tempo de resposta: 1ms&lt;br /&gt;Brilho máxima: 250cd/m&lt;br /&gt;Interfaces: HDMI/VGA/AUDIO IN&lt;br /&gt;Frequência horizontal: 67.200KHz&lt;br /&gt;Frequência vertical: 75Hz&lt;br /&gt;Consumo de potência: 35W&lt;br /&gt;Consumo Potência em Standby: 0,5&lt;br /&gt;Não possui som integrado&lt;br /&gt;Visão expansiva&lt;br /&gt;&lt;br /&gt;Itens Inclusos:&lt;br /&gt;1 Monitor 27&lt;br /&gt;1 Cabo DisplayPort&lt;br /&gt;1 Fonte AC/DC&lt;br /&gt;1 Manual</t>
   </si>
   <si>
     <t>Monitor Gamer Goldentec, 24 Polegadas, LED, Full HD, 144hz, 1ms</t>
@@ -2410,12 +2454,6 @@
     <t>Monitor gamer goldentec 24´´ led full hd 144hz 1ms | gt gamer conta com tecnologia freesync, capaz de eliminar falhas e intermitências. Além disso, possui tecnologia lowbluelight, capaz de reduzir a luz azul do monitor proporcionando mais conforto e segurança. Conta também com 100% flicker free, suavizando a ondulação do monitor.   especificações técnicas  marcagoldentec  tamanho de tela24´´  framelesssim  resolução1920x1080 (full hd)  tempo de resposta 1ms  frequência 144hz  brilho250 cd/m²  contraste 100 milhões: 1  ângulo de visão180° (h) 180° (v)  cores16,7 milhões  inclinação ajustavel15°  tecnologia freesyncsim, elimina falhas e intermitências  tecnlogia lowbluelightsim, reduz a luz azul para mais conforto e segurança  100% flicker freesim, suaviza a ondulação do monitor  conexõeshdmi + vga  conteúdo da embalagemmonitor 24´´&lt;br&gt;fonte adaptadora&lt;br&gt;cabo hdmi&lt;br&gt;manual de instruções   &lt;br&gt;&lt;br&gt;&lt;strong&gt;especificações técnicas&lt;/strong&gt;&lt;br&gt;&lt;br&gt;&lt;strong&gt;marca :&lt;/strong&gt; goldentec&lt;br&gt;&lt;strong&gt;tipo :&lt;/strong&gt; gamer&lt;br&gt;&lt;strong&gt;polegadas :&lt;/strong&gt; 24 ´´&lt;br&gt;&lt;br&gt;&lt;strong&gt;garantia : &lt;/strong&gt;12</t>
   </si>
   <si>
-    <t>Monitor Gamer Grasep 27 Polegadas Led, FHD, HDMI, Som Integrado - 1920P</t>
-  </si>
-  <si>
-    <t>PRONTA ENTREGA&lt;br /&gt;&lt;br /&gt;3 meses de garantia com o vendedor!&lt;br /&gt;6 meses de garantia com o fabricante!&lt;br /&gt;&lt;br /&gt;Monitor PC Gamer Led Full HD Som integrado 27 pol 75Hz&lt;br /&gt;&lt;br /&gt;Eleve a qualidade visual do seu computador com este incrível monitor PC de alta definição. Projetado para oferecer uma experiência visual imersiva e nítida, este monitor é perfeito para trabalhar, jogar, assistir a filmes e muito mais.&lt;br /&gt;&lt;br /&gt;Com uma tela de alta resolução, cada detalhe ganha vida, proporcionando imagens vibrantes e cores realistas. Seja para editar fotos e vídeos, jogar seus games favoritos ou assistir a filmes em alta definição, este monitor oferece uma qualidade de imagem impressionante, com alto contraste e brilho intenso.&lt;br /&gt;&lt;br /&gt;Além disso, o monitor possui um tamanho de 27 polegadas para acomodar várias janelas e facilitar a multitarefa. Você poderá abrir e trabalhar em diferentes aplicativos ao mesmo tempo, aumentando sua produtividade e tornando seu fluxo de trabalho mais eficiente.&lt;br /&gt;&lt;br /&gt;Dimensões: 4x56x33cm&lt;br /&gt;Peso: 3.6kg&lt;br /&gt;&lt;br /&gt;Especificações:&lt;br /&gt;Tela: 27"&lt;br /&gt;Tipo: LED&lt;br /&gt;Resolução: 1920x1080&lt;br /&gt;IPS&lt;br /&gt;Tempo de resposta: 1ms&lt;br /&gt;Brilho máxima: 250cd/m&lt;br /&gt;Interfaces: HDMI/VGA/AUDIO IN&lt;br /&gt;Frequência horizontal: 67.200KHz&lt;br /&gt;Frequência vertical: 75Hz&lt;br /&gt;Consumo de potência: 35W&lt;br /&gt;Consumo Potência em Standby: 0,5&lt;br /&gt;Não possui som integrado&lt;br /&gt;Visão expansiva&lt;br /&gt;&lt;br /&gt;Itens Inclusos:&lt;br /&gt;1 Monitor 27&lt;br /&gt;1 Cabo DisplayPort&lt;br /&gt;1 Fonte AC/DC&lt;br /&gt;1 Manual</t>
-  </si>
-  <si>
     <t>Monitor Gamer Acer VG240Y FHD 165hz FreeSync ZeroFrame 0,5ms.</t>
   </si>
   <si>
@@ -2453,22 +2491,6 @@
   </si>
   <si>
     <t>JUNTE-SE À LUTA Com o Monitor Gamer G24F da Gigabyte com 1ms de tempo de resposta, freesync premium, 165 Hz (170 Hz OC) e com uma taxa de cor de 8 bits, 90% DCI-P3 A ÚLTIMA MILHA PARA O SEU SISTEMA DE JOGO! Como um jogador invisível, o monitor é frequentemente subestimado. A verdade é que os monitores se formam como um efeito sinérgico e trazem o melhor desempenho dos componentes do PC. Os monitores de jogos GIGABYTE oferecem as últimas especificações e qualidade, os usuários podem realmente desfrutar de um desempenho de alto nível sem a necessidade de extravagância. Tempo de resposta super rápido de 1 ms para a experiência de jogo mais suave de todos os tempos! FHD com 165 Hz (OC 170 Hz) Alta resolução e taxa de atualização rápida, proporcionando qualidade de exibição detalhada e experiência de jogo fluida! Cor de 8 bits, 90% DCI-P3 Fantástico visor a cores e 90% de cores DCI-P3 de gama super ampla. SIMPLES MAS ESTILOSO A aparência aerodinâmica, representa a simplicidade da filosofia de design da série de jogos GIGABYTE. Suporte robusto e acabamento fosco construído para características funcionais e estéticas adicionando mais características. OSD Sidekick GIGABYTE permite que você defina as opções de exibição com teclado e mouse, oferecendo a maneira mais fácil de ajustar as configurações do monitor. ÂNGULO DE VISÃO PERFEITO O monitor de jogos GIGABYTE possui um suporte exclusivo ergonomicamente projetado para oferecer uma ampla gama de ajustes de altura e inclinação.</t>
-  </si>
-  <si>
-    <t>Monitor Gamer LG UltraGear LG 34" Curvo LED WQHD, UltraWide, 160Hz, 1ms, DisplayPort e HDMI, AMD FreeSync Premium, HDR10, 99% sRGB - 34GP63A-B</t>
-  </si>
-  <si>
-    <t>&lt;h2&gt;Monitor Gamer LG 34&lt;/h2&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;Se voc&amp;ecirc; est&amp;aacute; buscando uma experi&amp;ecirc;ncia imersiva nos mais variados tipos de jogos como estrat&amp;eacute;gia, &lt;strong&gt;RPS&lt;/strong&gt;, corrida, esse monitor &amp;eacute; ideal para voc&amp;ecirc;. Com a tela em resolu&amp;ccedil;&amp;atilde;o &lt;strong&gt;QHD UltraWide (resolu&amp;ccedil;&amp;atilde;o 3440x1440)&lt;/strong&gt;, voc&amp;ecirc; ganha 30% a mais de &amp;aacute;rea de tela e assim n&amp;atilde;o perde nenhum detalhe do jogo. E mais, o modelo ainda conta com o som est&amp;eacute;reo 7W com &lt;strong&gt;MaxxAudio&lt;/strong&gt;. Al&amp;eacute;m disso, com a tela na propor&amp;ccedil;&amp;atilde;o 21:9 voc&amp;ecirc; tamb&amp;eacute;m ganha mais produtividade, j&amp;aacute; que pode acessar dois conte&amp;uacute;dos simultaneamente na mesma tela, podendo assim jogar e stremar ou trabalhar ao mesmo tempo.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h2&gt;Taxa de Atualiza&amp;ccedil;&amp;atilde;o&lt;/h2&gt;
-&lt;p&gt;O monitor possui &lt;strong&gt;160Hz&lt;/strong&gt; o que garante uma jogabilidade incr&amp;iacute;vel durante a transi&amp;ccedil;&amp;atilde;o de quadros dos jogos. Com o&lt;strong&gt; tempo de resposta de 1ms&lt;/strong&gt; (MBR), voc&amp;ecirc; ir&amp;aacute; notar como o seu monitor se torna mais responsivo aos seus comandos.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h2&gt;Recursos&lt;/h2&gt;
-&lt;p&gt;Gamer para te dar ainda mais vantagem enquanto joga como o &lt;strong&gt;AMD FreeSync Premium&lt;/strong&gt;, Black Stabilizer, Crosshair, Dynamic Action Sync e &lt;strong&gt;Motion Blur Reduction&lt;/strong&gt;.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h3&gt;Compre agora no KaBuM!&lt;/h3&gt;</t>
   </si>
   <si>
     <t>Monitor Gamer Husky Storm 27' LED, Curvo, 165 Hz, Full HD, 1ms, Adaptive Sync, HDMI/DisplayPort, Ajuste de Ângulo - HGMT001</t>
@@ -2493,6 +2515,42 @@
 &lt;p&gt;&lt;strong&gt;&lt;a href="https://kabum.com.br/hotsite/manuais/115384-Monitor-Gamer-Husky-Storm-HGMT001.pdf" target="_blank"&gt;MANUAL DE INSTRU&amp;Ccedil;&amp;Otilde;ES&lt;/a&gt;&lt;/strong&gt;&lt;/p&gt;</t>
   </si>
   <si>
+    <t>Monitor Gamer HyperX Armada 27 2K QHD, 165 Hz, 1ms, IPS, HDMI e DisplayPort, 95% DCI, HDR, FreeSync, Preto - 64V69AA</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Monitor Gamer HyperX Armada 27 2K QHD&lt;/h2&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Suporte de mesa incluso&lt;/h2&gt;
+&lt;p&gt;N&amp;atilde;o passe seus dias procurando por um suporte compat&amp;iacute;vel! O Armada cuida disso com seu &lt;strong&gt;bra&amp;ccedil;o ergon&amp;ocirc;mico&lt;/strong&gt; e &lt;strong&gt;suporte de mesa resistentes&lt;/strong&gt;. Basta tocar na parte traseira e elevar seu monitor para liberar espa&amp;ccedil;o na mesa!&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Maior resolu&amp;ccedil;&amp;atilde;o para uma experi&amp;ecirc;ncia de jogos imersiva&lt;/h2&gt;
+&lt;p&gt;O Armada 27 pode exibir com &lt;strong&gt;resolu&amp;ccedil;&amp;otilde;es Quad HD (QHD)&lt;/strong&gt;, oferecendo gr&amp;aacute;ficos incr&amp;iacute;veis para &lt;strong&gt;maior imers&amp;atilde;o em seus jogos&lt;/strong&gt;, filmes e v&amp;iacute;deos.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Qualidade de imagem mais n&amp;iacute;tida para uma experi&amp;ecirc;ncia fascinante&lt;/h2&gt;
+&lt;p&gt;Explorar esses mundos de jogos com clareza impec&amp;aacute;vel de elementos visuais e &lt;strong&gt;texturas detalhados&lt;/strong&gt; vira uma grande aventura!&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Taxa de atualiza&amp;ccedil;&amp;atilde;o de 165 Hz e tempo de resposta de 1 ms&lt;/h2&gt;
+&lt;p&gt;Desfrute de elementos visuais cristalinos com a &lt;strong&gt;taxa de atualiza&amp;ccedil;&amp;atilde;o de 165 Hz&lt;/strong&gt; e &lt;strong&gt;tempo de resposta de&lt;/strong&gt; &lt;strong&gt;1 ms&lt;/strong&gt; do HyperX Armada 27.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;VESA DisplayHDR 400&lt;/h2&gt;
+&lt;p&gt;O contraste de cores de tirar o f&amp;ocirc;lego do &lt;strong&gt;DisplayHDR 400&lt;/strong&gt; combinado com a &lt;strong&gt;brilhante luminosidade&lt;/strong&gt; do Armada 27 oferecem detalhes claros em diversos ambientes de ilumina&amp;ccedil;&amp;atilde;o.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Compat&amp;iacute;vel com NVIDIA G-SYNC&lt;/h2&gt;
+&lt;p&gt;Livre-se dos irritantes rasgos de tela e mantenha a lat&amp;ecirc;ncia de entrada e intermit&amp;ecirc;ncia baixa gra&amp;ccedil;as &amp;agrave; &lt;strong&gt;NVIDIA G-SYNC&lt;/strong&gt; e sua taxa de atualiza&amp;ccedil;&amp;atilde;o vari&amp;aacute;vel.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h3&gt;Compre agora no KaBuM!&lt;/h3&gt;</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Duex 27 Full HD Curvo, 240Hz, 1ms, IPS, HDMI e DisplayPort, 99% sRGB, VESA - 270ZG</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Monitor Gamer Duex 27 Full HD&lt;/h2&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;Uma velocidade ultrarr&amp;aacute;pida de&amp;nbsp;&lt;strong&gt;240Hz e 1ms&lt;/strong&gt;&amp;nbsp;permite que os jogadores vejam o pr&amp;oacute;ximo quadro rapidamente e fazem com que a imagem apare&amp;ccedil;a suavemente. Os jogadores podem responder rapidamente aos oponentes e mirar no alvo facilmente.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h3&gt;Compre agora no KaBuM!&lt;/h3&gt;</t>
+  </si>
+  <si>
     <t>Monitor Asus TUF Gaming 27 Full HD, 165Hz, 1ms, IPS, HDMI e DisplayPort, FreeSync Premium, VESA - VG279Q1A</t>
   </si>
   <si>
@@ -2527,30 +2585,6 @@
 &lt;h3&gt;Desfrute de uma jogabilidade super suave&lt;/h3&gt;
 &lt;p&gt;&amp;nbsp;&lt;/p&gt;
 &lt;p&gt;Apresenta a mais recente tecnologia Extreme Low Motion Blur exclusiva da ASUS, que atinge 1ms MPRT para eliminar manchas e desfoque de movimento, e torna os objetos em movimento mais n&amp;iacute;tidos, para que a jogabilidade seja mais fluida e responsiva.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>Monitor Gamer Duex 27 Full HD Curvo, 240Hz, 1ms, IPS, HDMI e DisplayPort, 99% sRGB, VESA - 270ZG</t>
-  </si>
-  <si>
-    <t>&lt;h2&gt;Monitor Gamer Duex 27 Full HD&lt;/h2&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;Uma velocidade ultrarr&amp;aacute;pida de&amp;nbsp;&lt;strong&gt;240Hz e 1ms&lt;/strong&gt;&amp;nbsp;permite que os jogadores vejam o pr&amp;oacute;ximo quadro rapidamente e fazem com que a imagem apare&amp;ccedil;a suavemente. Os jogadores podem responder rapidamente aos oponentes e mirar no alvo facilmente.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h3&gt;Compre agora no KaBuM!&lt;/h3&gt;</t>
-  </si>
-  <si>
-    <t>Monitor Gamer LG 32" UHD 4K, 144Hz, HDMI, DisplayPort, HDR10, AMD FreeSync Premium - 32UQ750-W</t>
-  </si>
-  <si>
-    <t>&lt;h2&gt;Monitor LG UHD 4K 32UQ750-W&lt;/h2&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;Desfrute de&amp;nbsp;conte&amp;uacute;dos em uma resolu&amp;ccedil;&amp;atilde;o 4 vezes mais alta que o full HD. Gra&amp;ccedil;as ao &lt;strong&gt;DCI-P3 90%&lt;/strong&gt; (CIE1976) e ao espectro de 1 bilh&amp;atilde;o de cores e , voc&amp;ecirc; poder&amp;aacute; desfrutar de imagens muito mais claras e com detalhes impressionantes, proporcionando uma imers&amp;atilde;o visual muito mais v&amp;iacute;vida e realista.&lt;/p&gt;
-&lt;p&gt;Ideal para quem usa aplicativos gr&amp;aacute;ficos 3D ou assistentes financeiros para planilhas, o novo monitor &lt;strong&gt;LG UHD 4K&lt;/strong&gt; possui a combina&amp;ccedil;&amp;atilde;o perfeita para aplicativos profissionais que requerem &lt;strong&gt;precis&amp;atilde;o de cores e brilho&lt;/strong&gt; constante.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h2&gt;Ajustes&lt;/h2&gt;
-&lt;p&gt;S&amp;atilde;o diversos ajustes de posi&amp;ccedil;&amp;atilde;o como&amp;nbsp;&lt;strong&gt;inclina&amp;ccedil;&amp;atilde;o&lt;/strong&gt;,&amp;nbsp;&lt;strong&gt;altura&lt;/strong&gt;&amp;nbsp;e&amp;nbsp;&lt;strong&gt;rota&amp;ccedil;&amp;atilde;o&lt;/strong&gt;&amp;nbsp;oferecem mais conforto e ergonomia, principalmente para quem fica horas na frente do computador.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h3&gt;Compre agora no KaBuM!&lt;/h3&gt;</t>
   </si>
   <si>
     <t>Monitor Gamer Asus TUF 27' IPS, 280 Hz, Full HD, 1ms, G-Sync, HDR 400, 99% sRGB, HDMI/DisplayPort, Ajuste de Altura, Vesa, Som - VG279QM</t>
@@ -2614,6 +2648,12 @@
 &lt;h3&gt;Seu Monitor Husky voc&amp;ecirc; encontra aqui no KaBuM!&lt;/h3&gt;</t>
   </si>
   <si>
+    <t>Monitor Gamer Gigabyte 27 IPS, QHD , 144Hz, 1ms, 120% sRGB, HDR 400, FreeSync Premium, Altura Ajustável - G27Q-SA</t>
+  </si>
+  <si>
+    <t>JUNTE-SE À LUTA com o Monitor Gamer de 27" G27Q-SA da Gigabyte com 1ms de tempo de resposta, freesync premium, 144 Hz e com uma taxa de cor de 8 bits, 92% DCI-P3 A ÚLTIMA MILHA PARA O SEU SISTEMA DE JOGO Como um jogador invisível, o monitor é frequentemente subestimado. A verdade é que os monitores se formam como um efeito sinérgico e trazem o melhor desempenho dos componentes do PC. Os monitores de jogos GIGABYTE oferecem as últimas especificações e qualidade, os usuários podem realmente desfrutar de um desempenho de alto nível sem a necessidade de extravagância. Tempo de Resposta de 1 ms Tempo de resposta super rápido de 1 ms para a experiência de jogo mais suave de todos os tempos! QHD e 144Hz Alta resolução e taxa de atualização rápida, proporcionando qualidade de exibição detalhada e experiência de jogo fluida! Cor de 8 bits, 92% DCI-P3 Fantástico visor colorido e 92% de cores DCI-P3 de gama super ampla. SIMPLES MAS ESTILOSO A aparência aerodinâmica representa a simplicidade da filosofia de design da série de jogos GIGABYTE, suporte robusto e acabamento fosco construído para características funcionais e estéticas adicionando mais características. ÂNGULO DE VISÃO PERFEITO O monitor de jogos GIGABYTE possui um suporte exclusivo ergonomicamente projetado para oferecer uma ampla gama de ajustes de altura e inclinação.</t>
+  </si>
+  <si>
     <t>Monitor Gamer Acer Predator 27 Full HD, 280 Hz, 1ms, IPS, HDMI e DisplayPort, HDR, Ajuste de Altura, VESA, Som Integrado, G-Sync - XB273</t>
   </si>
   <si>
@@ -2646,12 +2686,6 @@
 &lt;p&gt;Sua&lt;strong&gt; tela curva Quad HD de 27"&lt;/strong&gt;, com&lt;strong&gt; resolu&amp;ccedil;&amp;atilde;o de 2560 x 1440P&lt;/strong&gt; que garante imagem mais n&amp;iacute;tida e detalhada. Proporcionando&lt;strong&gt; jogabilidade fluida&lt;/strong&gt;, &lt;strong&gt;sem distor&amp;ccedil;&amp;otilde;es&lt;/strong&gt; e uma &lt;strong&gt;experi&amp;ecirc;ncia mais imersiva&lt;/strong&gt; para voc&amp;ecirc; n&amp;atilde;o perder nenhum detalhe importante, do seu programa de esporte, filme, s&amp;eacute;rie ou jogo preferido.&lt;/p&gt;
 &lt;p&gt;&amp;nbsp;&lt;/p&gt;
 &lt;h3&gt;Aproveite e garanta j&amp;aacute; o seu Monitor Gamer Husky Gaming Storm 700! no KaBuM!&lt;/h3&gt;</t>
-  </si>
-  <si>
-    <t>Monitor Gamer Gigabyte 27 IPS, QHD , 144Hz, 1ms, 120% sRGB, HDR 400, FreeSync Premium, Altura Ajustável - G27Q-SA</t>
-  </si>
-  <si>
-    <t>JUNTE-SE À LUTA com o Monitor Gamer de 27" G27Q-SA da Gigabyte com 1ms de tempo de resposta, freesync premium, 144 Hz e com uma taxa de cor de 8 bits, 92% DCI-P3 A ÚLTIMA MILHA PARA O SEU SISTEMA DE JOGO Como um jogador invisível, o monitor é frequentemente subestimado. A verdade é que os monitores se formam como um efeito sinérgico e trazem o melhor desempenho dos componentes do PC. Os monitores de jogos GIGABYTE oferecem as últimas especificações e qualidade, os usuários podem realmente desfrutar de um desempenho de alto nível sem a necessidade de extravagância. Tempo de Resposta de 1 ms Tempo de resposta super rápido de 1 ms para a experiência de jogo mais suave de todos os tempos! QHD e 144Hz Alta resolução e taxa de atualização rápida, proporcionando qualidade de exibição detalhada e experiência de jogo fluida! Cor de 8 bits, 92% DCI-P3 Fantástico visor colorido e 92% de cores DCI-P3 de gama super ampla. SIMPLES MAS ESTILOSO A aparência aerodinâmica representa a simplicidade da filosofia de design da série de jogos GIGABYTE, suporte robusto e acabamento fosco construído para características funcionais e estéticas adicionando mais características. ÂNGULO DE VISÃO PERFEITO O monitor de jogos GIGABYTE possui um suporte exclusivo ergonomicamente projetado para oferecer uma ampla gama de ajustes de altura e inclinação.</t>
   </si>
   <si>
     <t>Monitor Gamer Gigabyte 27 Curvo QHD, 165Hz, 1ms, HDMI e DisplayPort, FreeSync, Altura Ajustável - G27QC-A</t>
@@ -2729,6 +2763,27 @@
 &lt;h3 style="text-align: justify;"&gt;Compre agora no KaBuM!&amp;nbsp;&lt;/h3&gt;</t>
   </si>
   <si>
+    <t>Monitor Gamer Gigabyte LED 31.5, QHD, Curvo, HDMI/DisplayPort, FreeSync, G-Sync, 165Hz, 1ms, HDR400, Altura Ajustável - G32QC-SA</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;JUNTE-SE &amp;Agrave; LUTA com o Monitor Gamer de 31,5" G32QC-SA da Gigabyte com 1ms de tempo de resposta, freesync premium, 165 Hz e com uma taxa de cor de 8 bits, 94% DCI-P3 A &amp;Uacute;LTIMA MILHA PARA O SEU SISTEMA DE JOGO Como um jogador invis&amp;iacute;vel, o monitor &amp;eacute; frequentemente subestimado. A verdade &amp;eacute; que os monitores se formam como um efeito sin&amp;eacute;rgico e trazem o melhor desempenho dos componentes do PC. Os monitores de jogos GIGABYTE oferecem as &amp;uacute;ltimas especifica&amp;ccedil;&amp;otilde;es e qualidade, os usu&amp;aacute;rios podem realmente desfrutar de um desempenho de alto n&amp;iacute;vel sem a necessidade de extravag&amp;acirc;ncia. SUA SENSA&amp;Ccedil;&amp;Atilde;O SUPERIMERSIVA NO JOGO! O painel 1500R VA de 31,5&amp;rdquo; apresenta uma vis&amp;atilde;o mais pr&amp;oacute;xima do olho humano do que um monitor plano, proporcionando uma sensa&amp;ccedil;&amp;atilde;o mais envolvente. Tempo de Resposta de 1 ms Tempo de resposta super r&amp;aacute;pido de 1 ms para a experi&amp;ecirc;ncia de jogo mais suave de todos os tempos! QHD com 165Hz Alta resolu&amp;ccedil;&amp;atilde;o e taxa de atualiza&amp;ccedil;&amp;atilde;o r&amp;aacute;pida, proporcionando qualidade de exibi&amp;ccedil;&amp;atilde;o detalhada e experi&amp;ecirc;ncia de jogo fluida! Cor de 8 bits, 94% DCI-P3 Fant&amp;aacute;stico visor colorido e 94% DCI-P3 de super ampla gama de cores. SIMPLES MAS ESTILOSO A apar&amp;ecirc;ncia aerodin&amp;acirc;mica representa a simplicidade da filosofia de design da s&amp;eacute;rie de jogos GIGABYTE, suporte robusto e acabamento fosco constru&amp;iacute;do para caracter&amp;iacute;sticas funcionais e est&amp;eacute;ticas adicionando mais caracter&amp;iacute;sticas. &amp;Acirc;NGULO DE VIS&amp;Atilde;O PERFEITO O monitor de jogos GIGABYTE possui um suporte exclusivo ergonomicamente projetado para oferecer uma ampla gama de ajustes de altura e inclina&amp;ccedil;&amp;atilde;o.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Curvo Concórdia 31.5" QHD R1500, 165Hz, 1ms, HDMI/DisplayPort, FreeSync, Ajuste de Altura, Som Integrado, Preto - C315Q</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Monitor Conc&amp;oacute;rdia Gamer Curvo C315Q 31,5'' ,2K, WQHD, 165hz, 1ms, 2 HDMI, DP, Ajuste de Altura e Rota&amp;ccedil;&amp;atilde;o&lt;/h2&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Curvatura Imersiva de 31,5 Polegadas&lt;/h2&gt;
+&lt;p&gt;O painel WQHD (2560 X 1440) de 31,5 polegadas do Monitor Conc&amp;oacute;rdia Gamer Curvo C315Q oferece visuais impressionantes de todos os &amp;acirc;ngulos com uma curvatura de 1500R que garante que cada ponto seja igualmente visto aos seus olhos. Isso contribui para um maior conforto de visualiza&amp;ccedil;&amp;atilde;o - mesmo durante o uso prolongado - e permite que voc&amp;ecirc; aproveite um amplo &amp;acirc;ngulo de visualiza&amp;ccedil;&amp;atilde;o com menos distor&amp;ccedil;&amp;atilde;o e mudan&amp;ccedil;a de cor ao jogar e assistir filmes.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Taxa de Atualiza&amp;ccedil;&amp;atilde;o de 165Hz&lt;/h2&gt;
+&lt;p&gt;A taxa de atualiza&amp;ccedil;&amp;atilde;o do Monitor Conc&amp;oacute;rdia Gamer Curvo C315Q diminui o atraso e o desfoque de movimento para dar a voc&amp;ecirc; vantagem todos os tipos de jogos.&amp;nbsp; Essa taxa de atualiza&amp;ccedil;&amp;atilde;o ultrarr&amp;aacute;pida permite que voc&amp;ecirc; jogue com as configura&amp;ccedil;&amp;otilde;es visuais mais altas e reaja instantaneamente ao que est&amp;aacute; na tela - para que voc&amp;ecirc; obtenha o primeiro ataque.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Design Ergon&amp;ocirc;mico&lt;/h2&gt;
+&lt;p&gt;Com um suporte ergonomicamente projetado, o Monitor Conc&amp;oacute;rdia Gamer Curvo C315Q oferece inclina&amp;ccedil;&amp;atilde;o, rota&amp;ccedil;&amp;atilde;o e giro da tela de 180&amp;deg; para que voc&amp;ecirc; possa encontrar facilmente sua posi&amp;ccedil;&amp;atilde;o de visualiza&amp;ccedil;&amp;atilde;o ideal.&lt;/p&gt;</t>
+  </si>
+  <si>
     <t>Monitor Gamer Gigabyte 32' IPS, 144 Hz, 4K UHD, 1ms, FreeSync Premium, HDR 400, 123% sRGB, HDMI/DisplayPort, Ajuste de Altura - M32U-SA</t>
   </si>
   <si>
@@ -2749,31 +2804,10 @@
 &lt;h3&gt;Aproveite essa oportunidade e adquira seu Monitor Gamer Gigabyte no KaBuM!&lt;/h3&gt;</t>
   </si>
   <si>
-    <t>Monitor Gamer Gigabyte LED 31.5, QHD, Curvo, HDMI/DisplayPort, FreeSync, G-Sync, 165Hz, 1ms, HDR400, Altura Ajustável - G32QC-SA</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;JUNTE-SE &amp;Agrave; LUTA com o Monitor Gamer de 31,5" G32QC-SA da Gigabyte com 1ms de tempo de resposta, freesync premium, 165 Hz e com uma taxa de cor de 8 bits, 94% DCI-P3 A &amp;Uacute;LTIMA MILHA PARA O SEU SISTEMA DE JOGO Como um jogador invis&amp;iacute;vel, o monitor &amp;eacute; frequentemente subestimado. A verdade &amp;eacute; que os monitores se formam como um efeito sin&amp;eacute;rgico e trazem o melhor desempenho dos componentes do PC. Os monitores de jogos GIGABYTE oferecem as &amp;uacute;ltimas especifica&amp;ccedil;&amp;otilde;es e qualidade, os usu&amp;aacute;rios podem realmente desfrutar de um desempenho de alto n&amp;iacute;vel sem a necessidade de extravag&amp;acirc;ncia. SUA SENSA&amp;Ccedil;&amp;Atilde;O SUPERIMERSIVA NO JOGO! O painel 1500R VA de 31,5&amp;rdquo; apresenta uma vis&amp;atilde;o mais pr&amp;oacute;xima do olho humano do que um monitor plano, proporcionando uma sensa&amp;ccedil;&amp;atilde;o mais envolvente. Tempo de Resposta de 1 ms Tempo de resposta super r&amp;aacute;pido de 1 ms para a experi&amp;ecirc;ncia de jogo mais suave de todos os tempos! QHD com 165Hz Alta resolu&amp;ccedil;&amp;atilde;o e taxa de atualiza&amp;ccedil;&amp;atilde;o r&amp;aacute;pida, proporcionando qualidade de exibi&amp;ccedil;&amp;atilde;o detalhada e experi&amp;ecirc;ncia de jogo fluida! Cor de 8 bits, 94% DCI-P3 Fant&amp;aacute;stico visor colorido e 94% DCI-P3 de super ampla gama de cores. SIMPLES MAS ESTILOSO A apar&amp;ecirc;ncia aerodin&amp;acirc;mica representa a simplicidade da filosofia de design da s&amp;eacute;rie de jogos GIGABYTE, suporte robusto e acabamento fosco constru&amp;iacute;do para caracter&amp;iacute;sticas funcionais e est&amp;eacute;ticas adicionando mais caracter&amp;iacute;sticas. &amp;Acirc;NGULO DE VIS&amp;Atilde;O PERFEITO O monitor de jogos GIGABYTE possui um suporte exclusivo ergonomicamente projetado para oferecer uma ampla gama de ajustes de altura e inclina&amp;ccedil;&amp;atilde;o.&lt;/p&gt;</t>
-  </si>
-  <si>
     <t>Monitor Gamer Samsung Odyssey G9 49 Curvo DQHD, 240Hz, 1ms, HDMI e DisplayPort, FreeSync Premium, Ajuste de Altura - LC49G95TSSLXZD</t>
   </si>
   <si>
     <t>&lt;p&gt;Odyssey G9 com HDR1000: imagens impressionantes e brilho consistente para explorar os jogos com os melhores gr&amp;aacute;ficos. Uma experi&amp;ecirc;ncia de gameplay perfeita e suave com at&amp;eacute; quatro vezes mais frames por segundo que uma tela tradicional. Velocidade que faz a diferen&amp;ccedil;a entre a sua destrui&amp;ccedil;&amp;atilde;o ou a do seu inimigo no jogo. Design futurista e ilumina&amp;ccedil;&amp;atilde;o Infinity Core com mais de 50 combina&amp;ccedil;&amp;otilde;es de cores.Tudo pra deixar seu setup no maior estilo&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>Monitor Gamer Curvo Concórdia 31.5" QHD R1500, 165Hz, 1ms, HDMI/DisplayPort, FreeSync, Ajuste de Altura, Som Integrado, Preto - C315Q</t>
-  </si>
-  <si>
-    <t>&lt;h2&gt;Monitor Conc&amp;oacute;rdia Gamer Curvo C315Q 31,5'' ,2K, WQHD, 165hz, 1ms, 2 HDMI, DP, Ajuste de Altura e Rota&amp;ccedil;&amp;atilde;o&lt;/h2&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h2&gt;Curvatura Imersiva de 31,5 Polegadas&lt;/h2&gt;
-&lt;p&gt;O painel WQHD (2560 X 1440) de 31,5 polegadas do Monitor Conc&amp;oacute;rdia Gamer Curvo C315Q oferece visuais impressionantes de todos os &amp;acirc;ngulos com uma curvatura de 1500R que garante que cada ponto seja igualmente visto aos seus olhos. Isso contribui para um maior conforto de visualiza&amp;ccedil;&amp;atilde;o - mesmo durante o uso prolongado - e permite que voc&amp;ecirc; aproveite um amplo &amp;acirc;ngulo de visualiza&amp;ccedil;&amp;atilde;o com menos distor&amp;ccedil;&amp;atilde;o e mudan&amp;ccedil;a de cor ao jogar e assistir filmes.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h2&gt;Taxa de Atualiza&amp;ccedil;&amp;atilde;o de 165Hz&lt;/h2&gt;
-&lt;p&gt;A taxa de atualiza&amp;ccedil;&amp;atilde;o do Monitor Conc&amp;oacute;rdia Gamer Curvo C315Q diminui o atraso e o desfoque de movimento para dar a voc&amp;ecirc; vantagem todos os tipos de jogos.&amp;nbsp; Essa taxa de atualiza&amp;ccedil;&amp;atilde;o ultrarr&amp;aacute;pida permite que voc&amp;ecirc; jogue com as configura&amp;ccedil;&amp;otilde;es visuais mais altas e reaja instantaneamente ao que est&amp;aacute; na tela - para que voc&amp;ecirc; obtenha o primeiro ataque.&lt;/p&gt;
-&lt;p&gt;&amp;nbsp;&lt;/p&gt;
-&lt;h2&gt;Design Ergon&amp;ocirc;mico&lt;/h2&gt;
-&lt;p&gt;Com um suporte ergonomicamente projetado, o Monitor Conc&amp;oacute;rdia Gamer Curvo C315Q oferece inclina&amp;ccedil;&amp;atilde;o, rota&amp;ccedil;&amp;atilde;o e giro da tela de 180&amp;deg; para que voc&amp;ecirc; possa encontrar facilmente sua posi&amp;ccedil;&amp;atilde;o de visualiza&amp;ccedil;&amp;atilde;o ideal.&lt;/p&gt;</t>
   </si>
   <si>
     <t>Monitor Gamer Gigabyte 27´, QHD, HDMI/Displayport, 170Hz, 0.5 ms, Altura e Angula Ajustável -  KVM - M27Q-SA.</t>
@@ -2789,6 +2823,24 @@
 &lt;p&gt;&lt;strong&gt;GIGABYTE OSD Sidekick&lt;/strong&gt; permite que voc&amp;ecirc; defina as op&amp;ccedil;&amp;otilde;es de exibi&amp;ccedil;&amp;atilde;o com teclado e mouse, oferecendo a maneira mais f&amp;aacute;cil de &lt;strong&gt;ajustar as configura&amp;ccedil;&amp;otilde;es do monitor.&lt;/strong&gt; GIGABYTE OSD Sidekick permite que voc&amp;ecirc; defina as op&amp;ccedil;&amp;otilde;es de exibi&amp;ccedil;&amp;atilde;o com teclado e mouse, oferecendo a maneira mais f&amp;aacute;cil de ajustar as configura&amp;ccedil;&amp;otilde;es do monitor. O painel revela suas &lt;strong&gt;informa&amp;ccedil;&amp;otilde;es de hardware em tempo real&lt;/strong&gt;, incluindo voltagens da CPU, velocidade do clock, temperaturas, etc. A melhor parte &amp;eacute; que ele n&amp;atilde;o ser&amp;aacute; bloqueado por nenhum jogo. O painel revela suas informa&amp;ccedil;&amp;otilde;es de hardware em tempo real, incluindo voltagens da CPU, velocidade do clock, temperaturas, etc.&lt;/p&gt;
 &lt;h3&gt;&amp;nbsp;&lt;/h3&gt;
 &lt;h3&gt;Garanta j&amp;aacute; seu Monitor Gamer Gigabyte aqui no KaBuM!&lt;/h3&gt;</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Asus TUF 31.5 Curvo LED Full HD, 165 Hz, 1ms, HDMI, 120% sRGB, VESA, FreeSync Premium, Som Integrado - VG328H1B</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Monitor Gamer Asus TUF 31.5' LED, 165 Hz, Full HD, 1ms&lt;/h2&gt;
+&lt;p&gt;O TUF Gaming VG328H1B &amp;eacute; um &lt;strong&gt;monitor curvo de 31,5 polegadas&lt;/strong&gt;, Full HD (1920x1080), com uma taxa de atualiza&amp;ccedil;&amp;atilde;o ultra-r&amp;aacute;pida de 165Hz, projetado para jogadores profissionais e todos que buscam jogabilidade imersiva. S&amp;atilde;o especifica&amp;ccedil;&amp;otilde;es respeit&amp;aacute;veis, mas nem de longe o mais emocionante que o VG328H1B tem a oferecer.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Curvatura imersiva de 31.5 polegadas&lt;/h2&gt;
+&lt;p&gt;O painel&lt;strong&gt; Full HD (1920 x 1080)&lt;/strong&gt; de 31,5 polegadas do TUF Gaming VG328H1B proporciona visuais impressionantes por todos os &amp;acirc;ngulos com uma &lt;strong&gt;curvatura de 1500R&lt;/strong&gt; que garante que cada ponto seja equidistante aos seus olhos. Isso contribui para maior conforto de visualiza&amp;ccedil;&amp;atilde;o - mesmo durante o uso prolongado - e permite que voc&amp;ecirc; desfrute de um amplo &amp;acirc;ngulo de vis&amp;atilde;o com menos distor&amp;ccedil;&amp;atilde;o e mudan&amp;ccedil;a de cor ao jogar e assistir a filmes.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Taxa de atualiza&amp;ccedil;&amp;atilde;o de 165Hz&lt;/h2&gt;
+&lt;p&gt;A taxa de atualiza&amp;ccedil;&amp;atilde;o de &lt;strong&gt;TUF Gaming 165Hz*&lt;/strong&gt; do VG328H1B dizima o lag e o desfoque em movimento para te dar a vantagem em jogos de tiro em primeira pessoa, estrat&amp;eacute;gia em tempo real e esportes.&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Conectividade avan&amp;ccedil;ada&lt;/h2&gt;
+&lt;p&gt;Extensas op&amp;ccedil;&amp;otilde;es de conectividade, incluindo&lt;strong&gt; HDMI (v2.0&lt;/strong&gt;&lt;strong&gt;),&lt;/strong&gt;&amp;nbsp;D&lt;strong&gt;-sub e fone de ouvido&lt;/strong&gt;, suportam uma ampla variedade de dispositivos multim&amp;iacute;dia.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h3&gt;Aproveite essa oportunidade e adquira seu Monitor Gamer no KaBuM!&lt;/h3&gt;</t>
   </si>
   <si>
     <t>Monitor Gamer Samsung 22' IPS, 75 Hz, Full HD, FreeSync, HDMI/VGA, VESA -  LF22T350FHLMZD</t>
@@ -3292,6 +3344,30 @@
 &lt;h3&gt;Compre agora no KaBuM!&lt;/h3&gt;</t>
   </si>
   <si>
+    <t>Monitor Gamer Cooler Master 31.5 2K QHD, 165 Hz, 1ms, HDMI e DisplayPort, 95% DCI-P3, HDR, FreeSync Premium - CMI-GM32-FQ-BR</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Monitor Gamer Cooler Master 31.5 2K QHD&lt;/h2&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;O GM32-FQ &amp;eacute; projetado para todos e oferece excelente valor e compet&amp;ecirc;ncia com &lt;strong&gt;2K resolu&amp;ccedil;&amp;atilde;o&lt;/strong&gt; que potencializa seu trabalho/jogo experi&amp;ecirc;ncia com uma alta imagem incrivelmente fluida qualidade e &lt;strong&gt;ampla gama de DCI-P3 95%&lt;/strong&gt; a &lt;strong&gt;165 Hz.&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;Oferecemos aos jogadores e criativos um tempo de qualidade para jogos, entretenimento e poderosa ferramenta de trabalho, tudo em um pacote elegante e acess&amp;iacute;vel.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Calibra&amp;ccedil;&amp;atilde;o Perfeita:&lt;/h2&gt;
+&lt;p&gt;Por overdrive meticulosamente calibrado desempenho, minimiza o efeito colateral com &lt;strong&gt;taxa de atualiza&amp;ccedil;&amp;atilde;o ultra alta de at&amp;eacute; 165 Hz, 1 ms (MPRT)&lt;/strong&gt; o tempo de resposta com vit&amp;oacute;ria est&amp;aacute; dentro seu alcance enquanto trabalha ou sess&amp;otilde;es de cinema ter&amp;aacute; menos desfoque de movimento e manchas.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Sua Solu&amp;ccedil;&amp;atilde;o Play-Work-Movie&lt;/h2&gt;
+&lt;p&gt;GM32-FQ &amp;eacute; uma ferramenta de grampo de alta pot&amp;ecirc;ncia em sua vida di&amp;aacute;ria para jogos, trabalho e divertido. Oferece imagens superiores e cores precisas com uma resposta mais Experi&amp;ecirc;ncia geral. Acesse o &lt;strong&gt;modo de jogo&lt;/strong&gt; por ativando o&lt;strong&gt; FreeSync Premium&lt;/strong&gt; para suave e visual impec&amp;aacute;vel.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Qualidade de Imagem Impressionante&lt;/h2&gt;
+&lt;p&gt;Experimente cores vivas e marcantes com ampla gama de cores de DCI-P3 95%, &lt;strong&gt;400 brilho nits&lt;/strong&gt; e &lt;strong&gt;QHD&lt;/strong&gt; &lt;strong&gt;surpreendente Resolu&amp;ccedil;&amp;atilde;o de 2560*1440&lt;/strong&gt; no ultra estreito painel plano de bisel.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Ganhe com Conforto&lt;/h2&gt;
+&lt;p&gt;O &lt;strong&gt;modo de exibi&amp;ccedil;&amp;atilde;o de luz azul baixa&lt;/strong&gt; reduz a quantidade de luz azul potencialmente prejudicial e faz voc&amp;ecirc; se sentir &amp;agrave; vontade durante longos sess&amp;otilde;es de trabalho/jogo.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h3&gt;Compre agora no KaBuM!&lt;/h3&gt;</t>
+  </si>
+  <si>
     <t>Monitor Gamer Samsung Odyssey Neo G9 49 MiniLED, 240Hz, 1ms, HDMI e DisplayPort, HDR, DQHD, FreeSync Premium PRO, Preto - LS49AG950NLXZD</t>
   </si>
   <si>
@@ -3389,6 +3465,12 @@
 &lt;h3 style="text-align: justify;"&gt;Compre agora no KaBuM!&lt;/h3&gt;</t>
   </si>
   <si>
+    <t>Monitor Gamer Samsung  27Pol, Full HD, 144Hz, 1MS, HDMI, Displayport, VGA, Freesync, Ajuste De Altura - Lf27g35tfwl</t>
+  </si>
+  <si>
+    <t>Domine todos os inimigos, mesmo em cenas muito rápidas. A taxa de atualização de 144Hz elimina atrasos e desfoque de movimento para uma jogabilidade emocionante com ação ultra suave.&lt;br /&gt;  &lt;br /&gt;Tempo de resposta de 1ms&lt;br /&gt;Faça cada movimento contar com um tempo de resposta de 1ms. Ataque seus inimigos assim que os vir e fique à frente com movimentos precisos do mouse. Seu desempenho na tela é tão rápido quanto seus próprios reflexos.&lt;br /&gt;  &lt;br /&gt;AMD FreeSync Premium&lt;br /&gt;Jogabilidade suave sem esforço. O AMD FreeSync Premium apresenta tecnologia de sincronização adaptável, que reduz o travamento de tela, oscilação e atrasos. Veja o jogo do seu jeito Gire, incline e ajuste seu monitor até que todos os inimigos estejam perfeitamente visíveis. Sua tela pode ser movida livremente para que você encontre conforto total no jogo. Design de tela cheia O design sem borda de 3 lados revela espaço máximo para uma jogabilidade maior e mais ousada.&lt;br /&gt;  &lt;br /&gt;Jogue por mais tempo&lt;br /&gt;Alinhe dois monitores com precisão em uma configuração de monitor duplo sem que nenhum inimigo fique escondido na junção. Mais conforto para os olhos Jogue por mais tempo sem incomodo visual. O Eye Saver Mode minimiza a emissão de luz azul para manter seus olhos relaxados e confortáveis enquanto joga por muitas horas.&lt;br /&gt;  &lt;br /&gt;Tecnologia Flicker Free&lt;br /&gt;A tecnologia Flicker Free remove continuamente a tremulação cansativa e irritante da tela para que você possa jogar por mais tempo sem distrações ou fadiga ocular.</t>
+  </si>
+  <si>
     <t>Monitor Gamer Asus ROG Swift 43' LED, 144 Hz, 4K UHD, Adaptive Sync, HDR 1000, 90%  DCI-P3, HDMI/DisplayPort, VESA, Som Integrado - PG43UQ</t>
   </si>
   <si>
@@ -3476,6 +3558,26 @@
 &lt;h2&gt;&lt;br /&gt;Vis&amp;atilde;o expansiva&lt;/h2&gt;
 &lt;p&gt;Desenho sem bordas em 3 lados. Seu legado n&amp;atilde;o tem limites. O design sem bordas em 3 lados revela o espa&amp;ccedil;o m&amp;aacute;ximo para uma jogabilidade maior e mais ousada. Alinhe duas telas precisamente em uma configura&amp;ccedil;&amp;atilde;o de dois monitores e n&amp;atilde;o perca nenhum inimigo de vista mesmo nas jun&amp;ccedil;&amp;otilde;es.&amp;nbsp;&lt;br /&gt;Modo Eye Saver &amp;amp; Flicker Free. Jogue por ainda mais tempo. O Eye Saver Mode minimiza a luz azul o suficiente para manter os olhos relaxados e confort&amp;aacute;veis para quando se joga por longos per&amp;iacute;odos. A tecnologia Flicker FreePlay remove continuamente a cansativa e irritante oscila&amp;ccedil;&amp;atilde;o da tela para que voc&amp;ecirc; possa se concentrar por mais tempo com menos distra&amp;ccedil;&amp;atilde;o e tens&amp;atilde;o ocular.&lt;/p&gt;
 &lt;h3&gt;&lt;br /&gt;&lt;a href="https://www.kabum.com.br/computadores/monitores/monitor-gamer" target="_blank"&gt;Monitor Gamer&lt;/a&gt;&amp;nbsp;Samsung &amp;eacute; no KaBuM!&amp;nbsp;&lt;/h3&gt;</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Curvo HQ 24 LED Full HD, 165 Hz, 1ms, HDMI, DisplayPort, FreeSync, Som Integrado, Preto - 24GHQ-Black</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Monitor Gamer Curvo HQ 24 LED Full HD, 165 Hz, 1ms, HDMI, DisplayPort, FreeSync, Som Integrado, Preto&lt;/h2&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Tela Curva&lt;/h2&gt;
+&lt;p&gt;A curvatura da tela de R3000 oferece imers&amp;atilde;o total, voc&amp;ecirc; ser&amp;aacute; capaz de apreciar imagens panor&amp;acirc;micas grandes, em alta resolu&amp;ccedil;&amp;atilde;o e com todas as especifica&amp;ccedil;&amp;otilde;es que um monitor Gamer de ponta exige.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Baixo tempo de Resposta&lt;/h2&gt;
+&lt;p&gt;A HQ levou a s&amp;eacute;rio o desenvolvimento desta linha, trazendo ao p&amp;uacute;blico mais exigente um produto completo e de alto n&amp;iacute;vel. N&amp;atilde;o fique atras, reaja em tempo real e tenha os movimentos do teclado refletidos sem atrasos com o tempo de resposta de 1ms.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Atualiza&amp;ccedil;&amp;atilde;o de 165Hz&lt;/h2&gt;
+&lt;p&gt;Sem borr&amp;otilde;es e sem perda de imagem. A INCR&amp;Iacute;VEL taxa de atualiza&amp;ccedil;&amp;atilde;o de 165hz garante que voc&amp;ecirc; tenha uma experi&amp;ecirc;ncia acima dos seus advers&amp;aacute;rios.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Imagens em alta resolu&amp;ccedil;&amp;atilde;o + Visual incr&amp;iacute;vel&lt;/h2&gt;
+&lt;p&gt;A tela Full HD de alta resolu&amp;ccedil;&amp;atilde;o aliada ao design futurista e moderno do monitor garantem n&amp;atilde;o s&amp;oacute; imagens perfeitas como um visual incr&amp;iacute;vel de todo o seu conjunto.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h3&gt;Aproveite essa oportunidade e adquira seu Monitor Gamer Curvo no KaBuM!&lt;/h3&gt;</t>
   </si>
   <si>
     <t>Monitor Gamer Gigabyte 34 4K WQHD, 144Hz, 1ms, IPS, HDMI e DisplayPort,HDR, 117% sRGB, FreeSync Premium, VESA, DCI-P 91%, HDR 400 - M34WQ-SA</t>
@@ -3950,6 +4052,78 @@
   </si>
   <si>
     <t>Liderança em monitores curvos. A Samsung lidera o mercado de monitores curvos por ser a primeira a apresentar os displays inovadores ao mundo em 2015. Com tecnologia líder do setor em uma linha completa, os monitores curvos da Samsung são consistentemente o número um em participação de mercado e escolha do consumidor. A curva do vencedor. Tenha uma experiência completamente imersiva em todos os jogos com uma tela curva arredondada de 1800 R. Vença mais com o foco nítido da tela que permite maior concentração. Jogue por mais tempo com menos cansaço visual. Movimentos suaves e nítidos. A taxa de atualização de até 144 Hz lhe garante vantagens, mesmo nos jogos mais exigentes. Encontre o inimigo instantaneamente e perceba alterações minúsculas e essenciais em todas as cenas. Você pode alterá-la facilmente para 60 Hz, 100 Hz ou 120 Hz. Tenha as configurações ideais para seu jogo. O Game Mode otimiza os níveis de gama de preto, contraste, nitidez e cor de qualquer gênero de jogo. O Low Input Lag Mode minimiza os atrasos entre os dispositivos de entrada e o display. O Virtual Aim Point centraliza o alvo na tela para ataques mais precisos ao inimigo. Chega de jogos com atrasos. O AMD Radeon FreeSync elimina atrasos nas imagens para oferecer jogos suaves e rápidos. Com uma taxa de atualização do display adaptada dinamicamente, até as cenas mais complexas do jogo são perfeitas e praticamente sem atrasos. Jogue por ainda mais tempo. O Eye Saver Mode minimiza a luz azul o suficiente para manter os olhos relaxados e confortáveis ao jogar por longos períodos. A tecnologia Flicker Free remove continuamente a cintilação cansativa e irritante da tela para você focar durante mais tempo com menos distração ou cansaço visual.</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Acer 27' LED, 165 Hz, Full HD, 1ms, FreeSync, HDMI/DisplayPort, VESA - KG271 Pbmidpx</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Tela de 27" FHD (1920 x 1080), Design ZeroFrame, 1ms / 0.7ms de tempo de resposta, Taxa de atualiza&amp;ccedil;&amp;atilde;o de @165Hz, AMD Free Sync, Tecnologias Blue Light Filter &amp;amp; Flicker-less para a redu&amp;ccedil;&amp;atilde;o de cansa&amp;ccedil;o na vista.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Acer Nitro 28' IPS, 60 Hz, 4K UHD, FreeSync, HDR 10, sRGB, HDMI/DisplayPort, VESA, Som Integrado - XV280K B</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Bluecase LED 24´, Full HD, HDMI, Branco - BM244GWW</t>
+  </si>
+  <si>
+    <t>Monitor Gamer 24,5´ BM251GW Bluecase, FULL HD / 75HZ / HDMI / VGA - 05683-IVB</t>
+  </si>
+  <si>
+    <t>Monitor Gamer 24,5´ BM251GW Bluecase, FULL HD / 75HZ / HDMI / VGA - 05683-IVB.</t>
+  </si>
+  <si>
+    <t>Monitor Gamer 24,5´ BM252GW Bluecase, FULL HD / 165HZ / HDMI / DP - 05684-IVB</t>
+  </si>
+  <si>
+    <t>Monitor Gamer 24,5´ BM252GW Bluecase, FULL HD / 165HZ / HDMI / DP - 05684-IVB.</t>
+  </si>
+  <si>
+    <t>Monitor Gamer 27´ BM2710GW Bluecase, 144HZ / Full HD / HDMI / DP - 05638-IVB</t>
+  </si>
+  <si>
+    <t>Monitor Gamer 27´ BM2710GW Bluecase, 144HZ / Full HD / HDMI / DP - 05638-IVB.</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Acer Nitro 27' IPS, 165 Hz, Full HD, 1ms, FreeSync Premium, HDR 10, 98% sRGB, HDMI/DisplayPort, VESA, Som Integrado -  VG270 S</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Monitor Gamer Acer Nitro 27' IPS&lt;/h2&gt;
+&lt;p&gt;A &lt;strong&gt;tecnologia AMD FreeSync Premium&lt;/strong&gt; elimina as rupturas e atrasos da tela durante os jogos, apresentando uma sincroniza&amp;ccedil;&amp;atilde;o dos quadros do monitor muito mais eficiente. Sua experi&amp;ecirc;ncia visual ser&amp;aacute; mais suave, fluida e responsiva. O &lt;strong&gt;Nitro VG270&lt;/strong&gt; conta com uma &lt;strong&gt;alta taxa de atualiza&amp;ccedil;&amp;atilde;o de at&amp;eacute; 165Hz&lt;/strong&gt;. Prepare-se para ver imagens mais suaves, sem rastros e sem rasgos.&amp;nbsp;&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h2&gt;Design ZeroFrame. Taxa de 165 Hz e 1ms&lt;/h2&gt;
+&lt;p&gt;Monitor &amp;eacute; igual exp: quanto mais, melhor. Jogue com m&amp;uacute;ltiplos monitores sem problemas, o &lt;strong&gt;design ZeroFrame&lt;/strong&gt; praticamente elimina as bordas para que voc&amp;ecirc; tenha uma verdadeira imers&amp;atilde;o no jogo. Com &lt;strong&gt;tecnologia HDR10&lt;/strong&gt;, a tela cria n&amp;iacute;veis mais profundos de contraste preto e branco. Conte com mais imers&amp;atilde;o no jogo por meio da recria&amp;ccedil;&amp;atilde;o de imagens realistas. A &lt;strong&gt;tela de 27 Full HD&lt;/strong&gt; potencializa seu poder de imers&amp;atilde;o nas batalhas.&lt;/p&gt;
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;
+&lt;h3&gt;Garanta j&amp;aacute; seu Monitor Gamer Acer aqui no KaBuM!&lt;/h3&gt;</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Bluecase R3000 24´, Curvo, Full HD, HDMI/Display Port, 165Hz 1ms, FreeSync - Branco - BM244GCWCASE</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Full HD 165Hz de atualização para melhores gráficos. Curvatura R3000 para maior imersão. Com 1 conector DisplayPort e 1 conector HDMI. Monitor na cor branca para combinar com o estilo do seu setup.</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Acer Nitro 34' LED, Curvo, 144 Hz, 2K QHD, 1ms, FreeSync Premium, HDR 400, HDMI/DisplayPort, VESA, Som Integrado - XZ342CK P</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;span style="font-family: docs-Roboto; font-size: 13px; white-space: pre-wrap; background-color: #f3f3f3;"&gt;Monitor Gamer Acer Nitro 34' LED, Curvo, 144 Hz, 2K QHD, 1ms, FreeSync Premium, HDR 400, HDMI/DisplayPort, VESA, Som Integrado - XZ342CK P&lt;/span&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Bluecase 27 Full HD, 165Hz, 1ms, HDMI/Display Port/HDR, Vesa, Free Sync, Flicker Free, HDR, Curvo - BM2712GC</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Bluecase 27´ Full HD, 165Hz, 1ms, HDMI/Display Port/HDR, Vesa, Free Sync, Flicker Free, HDR, Curvo - BM2712GC</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Acer Aopen 25MH1Q, 24,5´, 144Hz, 1ms, Full HD, HDMI/ Display Port, AMD Radeon Freesync, Anti Reflexo, Preto - UM.KM1AA.P02</t>
+  </si>
+  <si>
+    <t>Embarque em uma nova realidade de visualização! O Monitor AOPEN 25MH1Q é ideal para jogos de tiros e aventuras, proporcionando imagens mais realistas e limpas. Sinta-se dentro do jogo!</t>
+  </si>
+  <si>
+    <t>Monitor Gamer Acer Nitro 27' LED, Curvo, 240 Hz, Full HD, 1ms, Adaptive Sync, HDMI/DisplayPort, VESA, Som Integrado - XZ270 X</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Acer ComfyView Reduz a quantidade de luz refletida na tela, para uma visualiza&amp;ccedil;&amp;atilde;o mais confort&amp;aacute;vel em v&amp;aacute;rias configura&amp;ccedil;&amp;otilde;es. Acer Blue Light Shield Prote&amp;ccedil;&amp;atilde;o que reduz a quantidade de exposi&amp;ccedil;&amp;atilde;o da luz azul prejudicial aos olhos. Acer Flicker-less: Elimina a cintila&amp;ccedil;&amp;atilde;o prejudicial da tela e proporciona uma experi&amp;ecirc;ncia de visualiza&amp;ccedil;&amp;atilde;o confort&amp;aacute;vel. Acer Display Widget: Software usa um m&amp;eacute;todo mais intuitivo para configurar seu monitor. Low dimming: Permite n&amp;iacute;veis de brilho at&amp;eacute; 15% mais escuros, atrav&amp;eacute;s de ajustes.&lt;/p&gt;</t>
   </si>
 </sst>
 </file>
@@ -4296,7 +4470,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F316"/>
+  <dimension ref="A1:F334"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4350,16 +4524,16 @@
         <v>9</v>
       </c>
       <c r="C3">
-        <v>1263</v>
+        <v>2315</v>
       </c>
       <c r="D3">
-        <v>930</v>
+        <v>1994</v>
       </c>
       <c r="E3">
-        <v>1031</v>
+        <v>2210</v>
       </c>
       <c r="F3">
-        <v>979</v>
+        <v>2099</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -4370,16 +4544,16 @@
         <v>11</v>
       </c>
       <c r="C4">
-        <v>2105</v>
+        <v>1263</v>
       </c>
       <c r="D4">
-        <v>1614</v>
+        <v>930</v>
       </c>
       <c r="E4">
-        <v>1789</v>
+        <v>1031</v>
       </c>
       <c r="F4">
-        <v>1699</v>
+        <v>979</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -4390,7 +4564,16 @@
         <v>13</v>
       </c>
       <c r="C5">
-        <v>1599</v>
+        <v>2105</v>
+      </c>
+      <c r="D5">
+        <v>1614</v>
+      </c>
+      <c r="E5">
+        <v>1789</v>
+      </c>
+      <c r="F5">
+        <v>1699</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4435,10 +4618,7 @@
         <v>19</v>
       </c>
       <c r="C8">
-        <v>1947</v>
-      </c>
-      <c r="D8">
-        <v>1757</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -4469,16 +4649,10 @@
         <v>23</v>
       </c>
       <c r="C10">
-        <v>2526</v>
+        <v>1210</v>
       </c>
       <c r="D10">
-        <v>1804</v>
-      </c>
-      <c r="E10">
-        <v>1999</v>
-      </c>
-      <c r="F10">
-        <v>1899</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -4489,16 +4663,10 @@
         <v>25</v>
       </c>
       <c r="C11">
-        <v>1052</v>
+        <v>1947</v>
       </c>
       <c r="D11">
-        <v>824</v>
-      </c>
-      <c r="E11">
-        <v>894</v>
-      </c>
-      <c r="F11">
-        <v>849</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -4509,16 +4677,16 @@
         <v>27</v>
       </c>
       <c r="C12">
-        <v>1789</v>
+        <v>1052</v>
       </c>
       <c r="D12">
-        <v>1519</v>
+        <v>824</v>
       </c>
       <c r="E12">
-        <v>1684</v>
+        <v>894</v>
       </c>
       <c r="F12">
-        <v>1599</v>
+        <v>849</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -4529,16 +4697,16 @@
         <v>29</v>
       </c>
       <c r="C13">
-        <v>1210</v>
+        <v>2526</v>
       </c>
       <c r="D13">
-        <v>816</v>
+        <v>1709</v>
       </c>
       <c r="E13">
-        <v>905</v>
+        <v>1894</v>
       </c>
       <c r="F13">
-        <v>859</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -4549,16 +4717,10 @@
         <v>31</v>
       </c>
       <c r="C14">
-        <v>1221</v>
+        <v>1789</v>
       </c>
       <c r="D14">
-        <v>1073</v>
-      </c>
-      <c r="E14">
-        <v>1189</v>
-      </c>
-      <c r="F14">
-        <v>1129</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -4569,10 +4731,16 @@
         <v>33</v>
       </c>
       <c r="C15">
-        <v>1263</v>
+        <v>1221</v>
       </c>
       <c r="D15">
-        <v>1139</v>
+        <v>1073</v>
+      </c>
+      <c r="E15">
+        <v>1189</v>
+      </c>
+      <c r="F15">
+        <v>1129</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -4583,10 +4751,10 @@
         <v>35</v>
       </c>
       <c r="C16">
-        <v>1157</v>
+        <v>1263</v>
       </c>
       <c r="D16">
-        <v>1044</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -4597,16 +4765,10 @@
         <v>37</v>
       </c>
       <c r="C17">
-        <v>1177</v>
+        <v>1157</v>
       </c>
       <c r="D17">
-        <v>950</v>
-      </c>
-      <c r="E17">
-        <v>1088</v>
-      </c>
-      <c r="F17">
-        <v>979</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -4617,16 +4779,16 @@
         <v>39</v>
       </c>
       <c r="C18">
-        <v>1684</v>
+        <v>1177</v>
       </c>
       <c r="D18">
-        <v>1329</v>
+        <v>872</v>
       </c>
       <c r="E18">
-        <v>1473</v>
+        <v>999</v>
       </c>
       <c r="F18">
-        <v>1399</v>
+        <v>899</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -4637,16 +4799,16 @@
         <v>41</v>
       </c>
       <c r="C19">
-        <v>1578</v>
+        <v>1684</v>
       </c>
       <c r="D19">
-        <v>1234</v>
+        <v>1329</v>
       </c>
       <c r="E19">
-        <v>1368</v>
+        <v>1473</v>
       </c>
       <c r="F19">
-        <v>1299</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -4657,10 +4819,16 @@
         <v>43</v>
       </c>
       <c r="C20">
-        <v>2631</v>
+        <v>1578</v>
       </c>
       <c r="D20">
-        <v>2374</v>
+        <v>1073</v>
+      </c>
+      <c r="E20">
+        <v>1189</v>
+      </c>
+      <c r="F20">
+        <v>1129</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -4711,7 +4879,13 @@
         <v>2181</v>
       </c>
       <c r="D23">
-        <v>1968</v>
+        <v>1709</v>
+      </c>
+      <c r="E23">
+        <v>1894</v>
+      </c>
+      <c r="F23">
+        <v>1799</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -4722,10 +4896,13 @@
         <v>51</v>
       </c>
       <c r="C24">
-        <v>2842</v>
-      </c>
-      <c r="D24">
-        <v>2564</v>
+        <v>1463</v>
+      </c>
+      <c r="E24">
+        <v>916</v>
+      </c>
+      <c r="F24">
+        <v>779</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -4736,7 +4913,10 @@
         <v>53</v>
       </c>
       <c r="C25">
-        <v>1840</v>
+        <v>2842</v>
+      </c>
+      <c r="D25">
+        <v>2564</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -4758,10 +4938,7 @@
         <v>57</v>
       </c>
       <c r="C27">
-        <v>1974</v>
-      </c>
-      <c r="D27">
-        <v>1782</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -4772,16 +4949,10 @@
         <v>59</v>
       </c>
       <c r="C28">
-        <v>1066</v>
+        <v>1974</v>
       </c>
       <c r="D28">
-        <v>760</v>
-      </c>
-      <c r="E28">
-        <v>888</v>
-      </c>
-      <c r="F28">
-        <v>799</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -4792,7 +4963,16 @@
         <v>61</v>
       </c>
       <c r="C29">
-        <v>1199</v>
+        <v>1066</v>
+      </c>
+      <c r="D29">
+        <v>760</v>
+      </c>
+      <c r="E29">
+        <v>888</v>
+      </c>
+      <c r="F29">
+        <v>799</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -4803,10 +4983,7 @@
         <v>63</v>
       </c>
       <c r="C30">
-        <v>2105</v>
-      </c>
-      <c r="D30">
-        <v>1939</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -4817,7 +4994,13 @@
         <v>65</v>
       </c>
       <c r="C31">
-        <v>1249</v>
+        <v>1079</v>
+      </c>
+      <c r="E31">
+        <v>998</v>
+      </c>
+      <c r="F31">
+        <v>899</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -4828,10 +5011,16 @@
         <v>67</v>
       </c>
       <c r="C32">
-        <v>5947</v>
+        <v>1424</v>
       </c>
       <c r="D32">
-        <v>5367</v>
+        <v>1260</v>
+      </c>
+      <c r="E32">
+        <v>1368</v>
+      </c>
+      <c r="F32">
+        <v>1299</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -4842,16 +5031,7 @@
         <v>69</v>
       </c>
       <c r="C33">
-        <v>3578</v>
-      </c>
-      <c r="D33">
-        <v>2849</v>
-      </c>
-      <c r="E33">
-        <v>3157</v>
-      </c>
-      <c r="F33">
-        <v>2999</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -4862,10 +5042,16 @@
         <v>71</v>
       </c>
       <c r="C34">
-        <v>1601</v>
+        <v>3578</v>
       </c>
       <c r="D34">
-        <v>1444</v>
+        <v>2849</v>
+      </c>
+      <c r="E34">
+        <v>3157</v>
+      </c>
+      <c r="F34">
+        <v>2999</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -4876,13 +5062,10 @@
         <v>73</v>
       </c>
       <c r="C35">
-        <v>1079</v>
-      </c>
-      <c r="E35">
-        <v>998</v>
-      </c>
-      <c r="F35">
-        <v>899</v>
+        <v>5947</v>
+      </c>
+      <c r="D35">
+        <v>5367</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -4893,13 +5076,7 @@
         <v>75</v>
       </c>
       <c r="C36">
-        <v>1045</v>
-      </c>
-      <c r="E36">
-        <v>887</v>
-      </c>
-      <c r="F36">
-        <v>799</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -4910,10 +5087,13 @@
         <v>77</v>
       </c>
       <c r="C37">
-        <v>1424</v>
-      </c>
-      <c r="D37">
-        <v>1312</v>
+        <v>1045</v>
+      </c>
+      <c r="E37">
+        <v>887</v>
+      </c>
+      <c r="F37">
+        <v>799</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -4924,16 +5104,10 @@
         <v>79</v>
       </c>
       <c r="C38">
-        <v>1157</v>
+        <v>2105</v>
       </c>
       <c r="D38">
-        <v>949</v>
-      </c>
-      <c r="E38">
-        <v>1052</v>
-      </c>
-      <c r="F38">
-        <v>999</v>
+        <v>1939</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -4944,7 +5118,16 @@
         <v>81</v>
       </c>
       <c r="C39">
-        <v>1099</v>
+        <v>1157</v>
+      </c>
+      <c r="D39">
+        <v>949</v>
+      </c>
+      <c r="E39">
+        <v>1052</v>
+      </c>
+      <c r="F39">
+        <v>999</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -4955,10 +5138,10 @@
         <v>83</v>
       </c>
       <c r="C40">
-        <v>2085</v>
+        <v>2526</v>
       </c>
       <c r="D40">
-        <v>1881</v>
+        <v>2327</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -4969,10 +5152,16 @@
         <v>85</v>
       </c>
       <c r="C41">
-        <v>1136</v>
+        <v>2273</v>
       </c>
       <c r="D41">
-        <v>1047</v>
+        <v>1918</v>
+      </c>
+      <c r="E41">
+        <v>2126</v>
+      </c>
+      <c r="F41">
+        <v>2019</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -4983,16 +5172,10 @@
         <v>87</v>
       </c>
       <c r="C42">
-        <v>2273</v>
+        <v>1601</v>
       </c>
       <c r="D42">
-        <v>1918</v>
-      </c>
-      <c r="E42">
-        <v>2126</v>
-      </c>
-      <c r="F42">
-        <v>2019</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -5011,35 +5194,38 @@
     </row>
     <row r="44" spans="1:6">
       <c r="A44" t="s">
+        <v>68</v>
+      </c>
+      <c r="B44" t="s">
         <v>90</v>
       </c>
-      <c r="B44" t="s">
-        <v>91</v>
-      </c>
       <c r="C44">
-        <v>1349</v>
+        <v>1155</v>
       </c>
       <c r="D44">
-        <v>1243</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" t="s">
+        <v>91</v>
+      </c>
+      <c r="B45" t="s">
         <v>92</v>
       </c>
-      <c r="B45" t="s">
-        <v>93</v>
-      </c>
       <c r="C45">
-        <v>1054</v>
+        <v>2085</v>
+      </c>
+      <c r="D45">
+        <v>1881</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" t="s">
+        <v>93</v>
+      </c>
+      <c r="B46" t="s">
         <v>94</v>
-      </c>
-      <c r="B46" t="s">
-        <v>95</v>
       </c>
       <c r="C46">
         <v>1894</v>
@@ -5050,52 +5236,46 @@
     </row>
     <row r="47" spans="1:6">
       <c r="A47" t="s">
+        <v>95</v>
+      </c>
+      <c r="B47" t="s">
         <v>96</v>
       </c>
-      <c r="B47" t="s">
-        <v>97</v>
-      </c>
       <c r="C47">
-        <v>11578</v>
-      </c>
-      <c r="D47">
-        <v>10449</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" t="s">
+        <v>97</v>
+      </c>
+      <c r="B48" t="s">
         <v>98</v>
       </c>
-      <c r="B48" t="s">
-        <v>99</v>
-      </c>
       <c r="C48">
-        <v>1678</v>
-      </c>
-      <c r="D48">
-        <v>1547</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" t="s">
+        <v>99</v>
+      </c>
+      <c r="B49" t="s">
         <v>100</v>
       </c>
-      <c r="B49" t="s">
-        <v>101</v>
-      </c>
       <c r="C49">
-        <v>1155</v>
+        <v>11578</v>
       </c>
       <c r="D49">
-        <v>1065</v>
+        <v>10449</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" t="s">
+        <v>101</v>
+      </c>
+      <c r="B50" t="s">
         <v>102</v>
-      </c>
-      <c r="B50" t="s">
-        <v>103</v>
       </c>
       <c r="C50">
         <v>8156</v>
@@ -5106,116 +5286,149 @@
     </row>
     <row r="51" spans="1:6">
       <c r="A51" t="s">
+        <v>103</v>
+      </c>
+      <c r="B51" t="s">
         <v>104</v>
       </c>
-      <c r="B51" t="s">
-        <v>105</v>
-      </c>
       <c r="C51">
-        <v>2105</v>
+        <v>1678</v>
       </c>
       <c r="D51">
-        <v>1804</v>
+        <v>1222</v>
       </c>
       <c r="E51">
-        <v>1999</v>
+        <v>1326</v>
       </c>
       <c r="F51">
-        <v>1899</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" t="s">
+        <v>105</v>
+      </c>
+      <c r="B52" t="s">
         <v>106</v>
       </c>
-      <c r="B52" t="s">
-        <v>107</v>
-      </c>
       <c r="C52">
-        <v>6219</v>
+        <v>1349</v>
       </c>
       <c r="D52">
-        <v>5613</v>
+        <v>872</v>
+      </c>
+      <c r="E52">
+        <v>947</v>
+      </c>
+      <c r="F52">
+        <v>899</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" t="s">
+        <v>107</v>
+      </c>
+      <c r="B53" t="s">
         <v>108</v>
       </c>
-      <c r="B53" t="s">
-        <v>109</v>
-      </c>
       <c r="C53">
-        <v>1193</v>
+        <v>2105</v>
       </c>
       <c r="D53">
-        <v>1099</v>
+        <v>1700</v>
+      </c>
+      <c r="E53">
+        <v>1884</v>
+      </c>
+      <c r="F53">
+        <v>1789</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" t="s">
+        <v>109</v>
+      </c>
+      <c r="B54" t="s">
         <v>110</v>
       </c>
-      <c r="B54" t="s">
-        <v>111</v>
-      </c>
       <c r="C54">
-        <v>1899</v>
+        <v>1136</v>
+      </c>
+      <c r="D54">
+        <v>969</v>
+      </c>
+      <c r="E54">
+        <v>1052</v>
+      </c>
+      <c r="F54">
+        <v>999</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" t="s">
+        <v>111</v>
+      </c>
+      <c r="B55" t="s">
         <v>112</v>
       </c>
-      <c r="B55" t="s">
-        <v>113</v>
-      </c>
       <c r="C55">
-        <v>1233</v>
+        <v>6219</v>
+      </c>
+      <c r="D55">
+        <v>5613</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" t="s">
+        <v>113</v>
+      </c>
+      <c r="B56" t="s">
         <v>114</v>
       </c>
-      <c r="B56" t="s">
-        <v>115</v>
-      </c>
       <c r="C56">
-        <v>3367</v>
+        <v>4210</v>
+      </c>
+      <c r="D56">
+        <v>3514</v>
+      </c>
+      <c r="E56">
+        <v>3894</v>
+      </c>
+      <c r="F56">
+        <v>3699</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" t="s">
+        <v>115</v>
+      </c>
+      <c r="B57" t="s">
         <v>116</v>
       </c>
-      <c r="B57" t="s">
-        <v>117</v>
-      </c>
       <c r="C57">
-        <v>2202</v>
-      </c>
-      <c r="D57">
-        <v>1987</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" t="s">
+        <v>117</v>
+      </c>
+      <c r="B58" t="s">
         <v>118</v>
       </c>
-      <c r="B58" t="s">
-        <v>119</v>
-      </c>
       <c r="C58">
-        <v>1322</v>
+        <v>2199</v>
+      </c>
+      <c r="D58">
+        <v>1985</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59" t="s">
+        <v>119</v>
+      </c>
+      <c r="B59" t="s">
         <v>120</v>
-      </c>
-      <c r="B59" t="s">
-        <v>121</v>
       </c>
       <c r="C59">
         <v>3485</v>
@@ -5226,30 +5439,30 @@
     </row>
     <row r="60" spans="1:6">
       <c r="A60" t="s">
+        <v>121</v>
+      </c>
+      <c r="B60" t="s">
         <v>122</v>
       </c>
-      <c r="B60" t="s">
-        <v>123</v>
-      </c>
       <c r="C60">
-        <v>1055</v>
+        <v>1193</v>
       </c>
       <c r="D60">
-        <v>769</v>
+        <v>795</v>
       </c>
       <c r="E60">
-        <v>899</v>
+        <v>863</v>
       </c>
       <c r="F60">
-        <v>809</v>
+        <v>819</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" t="s">
+        <v>123</v>
+      </c>
+      <c r="B61" t="s">
         <v>124</v>
-      </c>
-      <c r="B61" t="s">
-        <v>125</v>
       </c>
       <c r="C61">
         <v>1666</v>
@@ -5257,10 +5470,10 @@
     </row>
     <row r="62" spans="1:6">
       <c r="A62" t="s">
+        <v>125</v>
+      </c>
+      <c r="B62" t="s">
         <v>126</v>
-      </c>
-      <c r="B62" t="s">
-        <v>127</v>
       </c>
       <c r="C62">
         <v>1111</v>
@@ -5277,172 +5490,181 @@
     </row>
     <row r="63" spans="1:6">
       <c r="A63" t="s">
+        <v>127</v>
+      </c>
+      <c r="B63" t="s">
         <v>128</v>
       </c>
-      <c r="B63" t="s">
-        <v>129</v>
-      </c>
       <c r="C63">
-        <v>4210</v>
+        <v>1055</v>
       </c>
       <c r="D63">
-        <v>3514</v>
+        <v>769</v>
       </c>
       <c r="E63">
-        <v>3894</v>
+        <v>899</v>
       </c>
       <c r="F63">
-        <v>3699</v>
+        <v>809</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64" t="s">
+        <v>129</v>
+      </c>
+      <c r="B64" t="s">
         <v>130</v>
       </c>
-      <c r="B64" t="s">
-        <v>131</v>
-      </c>
       <c r="C64">
-        <v>4748</v>
-      </c>
-      <c r="D64">
-        <v>4375</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65" t="s">
+        <v>131</v>
+      </c>
+      <c r="B65" t="s">
         <v>132</v>
       </c>
-      <c r="B65" t="s">
-        <v>133</v>
-      </c>
       <c r="C65">
-        <v>8421</v>
+        <v>2736</v>
       </c>
       <c r="D65">
-        <v>7599</v>
+        <v>2469</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66" t="s">
+        <v>133</v>
+      </c>
+      <c r="B66" t="s">
         <v>134</v>
       </c>
-      <c r="B66" t="s">
-        <v>135</v>
-      </c>
       <c r="C66">
-        <v>2074</v>
+        <v>4378</v>
       </c>
       <c r="D66">
-        <v>1872</v>
+        <v>3491</v>
+      </c>
+      <c r="E66">
+        <v>3789</v>
+      </c>
+      <c r="F66">
+        <v>3599</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67" t="s">
+        <v>135</v>
+      </c>
+      <c r="B67" t="s">
         <v>136</v>
       </c>
-      <c r="B67" t="s">
-        <v>137</v>
-      </c>
       <c r="C67">
-        <v>1548</v>
+        <v>1031</v>
+      </c>
+      <c r="D67">
+        <v>930</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68" t="s">
+        <v>137</v>
+      </c>
+      <c r="B68" t="s">
         <v>138</v>
       </c>
-      <c r="B68" t="s">
-        <v>139</v>
-      </c>
       <c r="C68">
-        <v>2736</v>
+        <v>7946</v>
       </c>
       <c r="D68">
-        <v>2469</v>
+        <v>7171</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69" t="s">
+        <v>139</v>
+      </c>
+      <c r="B69" t="s">
         <v>140</v>
       </c>
-      <c r="B69" t="s">
-        <v>141</v>
-      </c>
       <c r="C69">
-        <v>1031</v>
-      </c>
-      <c r="D69">
-        <v>930</v>
+        <v>2999</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70" t="s">
+        <v>141</v>
+      </c>
+      <c r="B70" t="s">
         <v>142</v>
       </c>
-      <c r="B70" t="s">
-        <v>143</v>
-      </c>
       <c r="C70">
-        <v>7946</v>
-      </c>
-      <c r="D70">
-        <v>7171</v>
+        <v>3367</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" t="s">
+        <v>143</v>
+      </c>
+      <c r="B71" t="s">
         <v>144</v>
       </c>
-      <c r="B71" t="s">
-        <v>145</v>
-      </c>
       <c r="C71">
-        <v>2999</v>
+        <v>8421</v>
+      </c>
+      <c r="D71">
+        <v>7219</v>
+      </c>
+      <c r="E71">
+        <v>7999</v>
+      </c>
+      <c r="F71">
+        <v>7599</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72" t="s">
+        <v>145</v>
+      </c>
+      <c r="B72" t="s">
         <v>146</v>
       </c>
-      <c r="B72" t="s">
-        <v>147</v>
-      </c>
       <c r="C72">
-        <v>1052</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73" t="s">
+        <v>147</v>
+      </c>
+      <c r="B73" t="s">
         <v>148</v>
       </c>
-      <c r="B73" t="s">
-        <v>149</v>
-      </c>
       <c r="C73">
-        <v>8799</v>
+        <v>5263</v>
+      </c>
+      <c r="D73">
+        <v>4749</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B74" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C74">
-        <v>1771</v>
-      </c>
-      <c r="D74">
-        <v>1598</v>
+        <v>2364</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B75" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C75">
         <v>2167</v>
@@ -5450,41 +5672,44 @@
     </row>
     <row r="76" spans="1:6">
       <c r="A76" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B76" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C76">
-        <v>4842</v>
+        <v>2074</v>
       </c>
       <c r="D76">
-        <v>4018</v>
+        <v>1671</v>
       </c>
       <c r="E76">
-        <v>4452</v>
+        <v>1852</v>
       </c>
       <c r="F76">
-        <v>4229</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B77" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C77">
-        <v>2364</v>
+        <v>1771</v>
+      </c>
+      <c r="D77">
+        <v>1598</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B78" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C78">
         <v>8631</v>
@@ -5501,993 +5726,1023 @@
     </row>
     <row r="79" spans="1:6">
       <c r="A79" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B79" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C79">
-        <v>5263</v>
+        <v>9310</v>
       </c>
       <c r="D79">
-        <v>4749</v>
+        <v>8402</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B80" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C80">
-        <v>4899</v>
+        <v>4842</v>
+      </c>
+      <c r="D80">
+        <v>4018</v>
+      </c>
+      <c r="E80">
+        <v>4452</v>
+      </c>
+      <c r="F80">
+        <v>4229</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B81" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C81">
-        <v>9310</v>
+        <v>11421</v>
       </c>
       <c r="D81">
-        <v>8402</v>
+        <v>10307</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B82" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C82">
-        <v>11421</v>
-      </c>
-      <c r="D82">
-        <v>10307</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B83" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C83">
-        <v>13807</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B84" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C84">
-        <v>1210</v>
+        <v>1311</v>
+      </c>
+      <c r="D84">
+        <v>1183</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B85" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C85">
-        <v>3509</v>
-      </c>
-      <c r="D85">
-        <v>3167</v>
+        <v>3469</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B86" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C86">
-        <v>1311</v>
-      </c>
-      <c r="D86">
-        <v>1183</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B87" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C87">
-        <v>3021</v>
+        <v>3509</v>
       </c>
       <c r="D87">
-        <v>2726</v>
+        <v>3167</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B88" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C88">
-        <v>1699</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B89" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C89">
-        <v>1149</v>
+        <v>3021</v>
+      </c>
+      <c r="D89">
+        <v>2726</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B90" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C90">
-        <v>3269</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B91" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C91">
-        <v>4982</v>
-      </c>
-      <c r="D91">
-        <v>4496</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B92" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C92">
-        <v>1075</v>
+        <v>4982</v>
+      </c>
+      <c r="D92">
+        <v>4496</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B93" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C93">
-        <v>1399</v>
+        <v>1305</v>
+      </c>
+      <c r="D93">
+        <v>1177</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B94" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C94">
-        <v>1305</v>
+        <v>1669</v>
       </c>
       <c r="D94">
-        <v>1177</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B95" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C95">
-        <v>1669</v>
-      </c>
-      <c r="D95">
-        <v>1506</v>
+        <v>2599</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" t="s">
+        <v>191</v>
+      </c>
+      <c r="B96" t="s">
+        <v>192</v>
+      </c>
+      <c r="C96">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97" t="s">
+        <v>193</v>
+      </c>
+      <c r="B97" t="s">
         <v>194</v>
       </c>
-      <c r="B96" t="s">
+      <c r="C97">
+        <v>1349</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98" t="s">
         <v>195</v>
       </c>
-      <c r="C96">
-        <v>1349</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
-      <c r="A97" t="s">
+      <c r="B98" t="s">
         <v>196</v>
       </c>
-      <c r="B97" t="s">
+      <c r="C98">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99" t="s">
         <v>197</v>
       </c>
-      <c r="C97">
-        <v>2599</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
-      <c r="A98" t="s">
+      <c r="B99" t="s">
         <v>198</v>
       </c>
-      <c r="B98" t="s">
+      <c r="C99">
+        <v>2063</v>
+      </c>
+      <c r="D99">
+        <v>1861</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100" t="s">
         <v>199</v>
       </c>
-      <c r="C98">
+      <c r="B100" t="s">
+        <v>200</v>
+      </c>
+      <c r="C100">
         <v>2631</v>
       </c>
-      <c r="D98">
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101" t="s">
+        <v>201</v>
+      </c>
+      <c r="B101" t="s">
+        <v>202</v>
+      </c>
+      <c r="C101">
+        <v>12569</v>
+      </c>
+      <c r="D101">
+        <v>11343</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="A102" t="s">
+        <v>203</v>
+      </c>
+      <c r="B102" t="s">
+        <v>204</v>
+      </c>
+      <c r="C102">
+        <v>1831</v>
+      </c>
+      <c r="D102">
+        <v>1687</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="A103" t="s">
+        <v>205</v>
+      </c>
+      <c r="B103" t="s">
+        <v>206</v>
+      </c>
+      <c r="C103">
+        <v>2631</v>
+      </c>
+      <c r="D103">
         <v>2424</v>
       </c>
     </row>
-    <row r="99" spans="1:4">
-      <c r="A99" t="s">
-        <v>200</v>
-      </c>
-      <c r="B99" t="s">
-        <v>201</v>
-      </c>
-      <c r="C99">
+    <row r="104" spans="1:6">
+      <c r="A104" t="s">
+        <v>207</v>
+      </c>
+      <c r="B104" t="s">
+        <v>208</v>
+      </c>
+      <c r="C104">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
+      <c r="A105" t="s">
+        <v>209</v>
+      </c>
+      <c r="B105" t="s">
+        <v>210</v>
+      </c>
+      <c r="C105">
+        <v>2205</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
+      <c r="A106" t="s">
+        <v>211</v>
+      </c>
+      <c r="B106" t="s">
+        <v>212</v>
+      </c>
+      <c r="C106">
+        <v>2159</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
+      <c r="A107" t="s">
+        <v>213</v>
+      </c>
+      <c r="B107" t="s">
+        <v>214</v>
+      </c>
+      <c r="C107">
+        <v>1594</v>
+      </c>
+      <c r="D107">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="A108" t="s">
+        <v>215</v>
+      </c>
+      <c r="B108" t="s">
+        <v>216</v>
+      </c>
+      <c r="C108">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
+      <c r="A109" t="s">
+        <v>217</v>
+      </c>
+      <c r="B109" t="s">
+        <v>218</v>
+      </c>
+      <c r="C109">
+        <v>6541</v>
+      </c>
+      <c r="D109">
+        <v>6027</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
+      <c r="A110" t="s">
+        <v>219</v>
+      </c>
+      <c r="B110" t="s">
+        <v>220</v>
+      </c>
+      <c r="C110">
+        <v>3605</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
+      <c r="A111" t="s">
+        <v>221</v>
+      </c>
+      <c r="B111" t="s">
+        <v>222</v>
+      </c>
+      <c r="C111">
+        <v>7263</v>
+      </c>
+      <c r="D111">
+        <v>6401</v>
+      </c>
+      <c r="E111">
+        <v>6947</v>
+      </c>
+      <c r="F111">
+        <v>6599</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
+      <c r="A112" t="s">
+        <v>223</v>
+      </c>
+      <c r="B112" t="s">
+        <v>223</v>
+      </c>
+      <c r="C112">
+        <v>3599</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
+      <c r="A113" t="s">
+        <v>224</v>
+      </c>
+      <c r="B113" t="s">
+        <v>225</v>
+      </c>
+      <c r="C113">
+        <v>11578</v>
+      </c>
+      <c r="D113">
+        <v>9699</v>
+      </c>
+      <c r="E113">
+        <v>10526</v>
+      </c>
+      <c r="F113">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
+      <c r="A114" t="s">
+        <v>226</v>
+      </c>
+      <c r="B114" t="s">
+        <v>227</v>
+      </c>
+      <c r="C114">
+        <v>1987</v>
+      </c>
+      <c r="D114">
+        <v>1793</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
+      <c r="A115" t="s">
+        <v>228</v>
+      </c>
+      <c r="B115" t="s">
+        <v>229</v>
+      </c>
+      <c r="C115">
+        <v>2793</v>
+      </c>
+      <c r="D115">
+        <v>2521</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6">
+      <c r="A116" t="s">
+        <v>230</v>
+      </c>
+      <c r="B116" t="s">
+        <v>231</v>
+      </c>
+      <c r="C116">
+        <v>3999</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
+      <c r="A117" t="s">
+        <v>232</v>
+      </c>
+      <c r="B117" t="s">
+        <v>233</v>
+      </c>
+      <c r="C117">
+        <v>2947</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
+      <c r="A118" t="s">
+        <v>234</v>
+      </c>
+      <c r="B118" t="s">
+        <v>235</v>
+      </c>
+      <c r="C118">
+        <v>4319</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6">
+      <c r="A119" t="s">
+        <v>236</v>
+      </c>
+      <c r="B119" t="s">
+        <v>236</v>
+      </c>
+      <c r="C119">
+        <v>1969</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6">
+      <c r="A120" t="s">
+        <v>237</v>
+      </c>
+      <c r="B120" t="s">
+        <v>238</v>
+      </c>
+      <c r="C120">
+        <v>2385</v>
+      </c>
+      <c r="D120">
+        <v>2152</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6">
+      <c r="A121" t="s">
+        <v>239</v>
+      </c>
+      <c r="B121" t="s">
+        <v>240</v>
+      </c>
+      <c r="C121">
+        <v>2399</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6">
+      <c r="A122" t="s">
+        <v>241</v>
+      </c>
+      <c r="B122" t="s">
+        <v>242</v>
+      </c>
+      <c r="C122">
+        <v>2522</v>
+      </c>
+      <c r="D122">
+        <v>2276</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6">
+      <c r="A123" t="s">
+        <v>243</v>
+      </c>
+      <c r="B123" t="s">
+        <v>244</v>
+      </c>
+      <c r="C123">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6">
+      <c r="A124" t="s">
+        <v>245</v>
+      </c>
+      <c r="B124" t="s">
+        <v>246</v>
+      </c>
+      <c r="C124">
+        <v>1404</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6">
+      <c r="A125" t="s">
+        <v>247</v>
+      </c>
+      <c r="B125" t="s">
+        <v>248</v>
+      </c>
+      <c r="C125">
+        <v>5166</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6">
+      <c r="A126" t="s">
+        <v>249</v>
+      </c>
+      <c r="B126" t="s">
+        <v>250</v>
+      </c>
+      <c r="C126">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6">
+      <c r="A127" t="s">
+        <v>251</v>
+      </c>
+      <c r="B127" t="s">
+        <v>252</v>
+      </c>
+      <c r="C127">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6">
+      <c r="A128" t="s">
+        <v>253</v>
+      </c>
+      <c r="B128" t="s">
+        <v>254</v>
+      </c>
+      <c r="C128">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6">
+      <c r="A129" t="s">
+        <v>255</v>
+      </c>
+      <c r="B129" t="s">
+        <v>255</v>
+      </c>
+      <c r="C129">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6">
+      <c r="A130" t="s">
+        <v>256</v>
+      </c>
+      <c r="B130" t="s">
+        <v>257</v>
+      </c>
+      <c r="C130">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6">
+      <c r="A131" t="s">
+        <v>258</v>
+      </c>
+      <c r="B131" t="s">
+        <v>259</v>
+      </c>
+      <c r="C131">
+        <v>2532</v>
+      </c>
+      <c r="D131">
+        <v>2285</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6">
+      <c r="A132" t="s">
+        <v>260</v>
+      </c>
+      <c r="B132" t="s">
+        <v>261</v>
+      </c>
+      <c r="C132">
+        <v>11051</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6">
+      <c r="A133" t="s">
+        <v>262</v>
+      </c>
+      <c r="B133" t="s">
+        <v>263</v>
+      </c>
+      <c r="C133">
+        <v>2736</v>
+      </c>
+      <c r="D133">
+        <v>2469</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6">
+      <c r="A134" t="s">
+        <v>22</v>
+      </c>
+      <c r="B134" t="s">
+        <v>264</v>
+      </c>
+      <c r="C134">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6">
+      <c r="A135" t="s">
+        <v>265</v>
+      </c>
+      <c r="B135" t="s">
+        <v>266</v>
+      </c>
+      <c r="C135">
+        <v>7777</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6">
+      <c r="A136" t="s">
+        <v>267</v>
+      </c>
+      <c r="B136" t="s">
+        <v>268</v>
+      </c>
+      <c r="C136">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6">
+      <c r="A137" t="s">
+        <v>269</v>
+      </c>
+      <c r="B137" t="s">
+        <v>270</v>
+      </c>
+      <c r="C137">
+        <v>6219</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6">
+      <c r="A138" t="s">
+        <v>271</v>
+      </c>
+      <c r="B138" t="s">
+        <v>272</v>
+      </c>
+      <c r="C138">
+        <v>1799</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6">
+      <c r="A139" t="s">
+        <v>273</v>
+      </c>
+      <c r="B139" t="s">
+        <v>274</v>
+      </c>
+      <c r="C139">
         <v>2924</v>
       </c>
-      <c r="D99">
-        <v>2639</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
-      <c r="A100" t="s">
-        <v>202</v>
-      </c>
-      <c r="B100" t="s">
-        <v>203</v>
-      </c>
-      <c r="C100">
-        <v>12569</v>
-      </c>
-      <c r="D100">
-        <v>11343</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
-      <c r="A101" t="s">
-        <v>204</v>
-      </c>
-      <c r="B101" t="s">
-        <v>205</v>
-      </c>
-      <c r="C101">
-        <v>2159</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
-      <c r="A102" t="s">
-        <v>206</v>
-      </c>
-      <c r="B102" t="s">
-        <v>207</v>
-      </c>
-      <c r="C102">
-        <v>6541</v>
-      </c>
-      <c r="D102">
-        <v>6027</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
-      <c r="A103" t="s">
-        <v>208</v>
-      </c>
-      <c r="B103" t="s">
-        <v>209</v>
-      </c>
-      <c r="C103">
-        <v>1594</v>
-      </c>
-      <c r="D103">
-        <v>1439</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4">
-      <c r="A104" t="s">
-        <v>210</v>
-      </c>
-      <c r="B104" t="s">
-        <v>211</v>
-      </c>
-      <c r="C104">
+      <c r="D139">
+        <v>2374</v>
+      </c>
+      <c r="E139">
+        <v>2631</v>
+      </c>
+      <c r="F139">
+        <v>2499</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6">
+      <c r="A140" t="s">
+        <v>275</v>
+      </c>
+      <c r="B140" t="s">
+        <v>276</v>
+      </c>
+      <c r="C140">
+        <v>3859</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6">
+      <c r="A141" t="s">
+        <v>277</v>
+      </c>
+      <c r="B141" t="s">
+        <v>278</v>
+      </c>
+      <c r="C141">
+        <v>3509</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6">
+      <c r="A142" t="s">
+        <v>279</v>
+      </c>
+      <c r="B142" t="s">
+        <v>280</v>
+      </c>
+      <c r="C142">
+        <v>6599</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6">
+      <c r="A143" t="s">
+        <v>281</v>
+      </c>
+      <c r="B143" t="s">
+        <v>282</v>
+      </c>
+      <c r="C143">
+        <v>2458</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6">
+      <c r="A144" t="s">
+        <v>283</v>
+      </c>
+      <c r="B144" t="s">
+        <v>284</v>
+      </c>
+      <c r="C144">
+        <v>1649</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6">
+      <c r="A145" t="s">
+        <v>285</v>
+      </c>
+      <c r="B145" t="s">
+        <v>286</v>
+      </c>
+      <c r="C145">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6">
+      <c r="A146" t="s">
+        <v>287</v>
+      </c>
+      <c r="B146" t="s">
+        <v>288</v>
+      </c>
+      <c r="C146">
         <v>1333</v>
       </c>
     </row>
-    <row r="105" spans="1:4">
-      <c r="A105" t="s">
-        <v>212</v>
-      </c>
-      <c r="B105" t="s">
-        <v>213</v>
-      </c>
-      <c r="C105">
-        <v>2063</v>
-      </c>
-      <c r="D105">
-        <v>1861</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4">
-      <c r="A106" t="s">
-        <v>214</v>
-      </c>
-      <c r="B106" t="s">
-        <v>215</v>
-      </c>
-      <c r="C106">
-        <v>2631</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4">
-      <c r="A107" t="s">
-        <v>216</v>
-      </c>
-      <c r="B107" t="s">
-        <v>217</v>
-      </c>
-      <c r="C107">
-        <v>6315</v>
-      </c>
-      <c r="D107">
-        <v>5699</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4">
-      <c r="A108" t="s">
-        <v>218</v>
-      </c>
-      <c r="B108" t="s">
-        <v>219</v>
-      </c>
-      <c r="C108">
-        <v>7263</v>
-      </c>
-      <c r="D108">
-        <v>6693</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4">
-      <c r="A109" t="s">
-        <v>220</v>
-      </c>
-      <c r="B109" t="s">
-        <v>221</v>
-      </c>
-      <c r="C109">
-        <v>2736</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4">
-      <c r="A110" t="s">
-        <v>222</v>
-      </c>
-      <c r="B110" t="s">
-        <v>223</v>
-      </c>
-      <c r="C110">
+    <row r="147" spans="1:6">
+      <c r="A147" t="s">
+        <v>289</v>
+      </c>
+      <c r="B147" t="s">
+        <v>290</v>
+      </c>
+      <c r="C147">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6">
+      <c r="A148" t="s">
+        <v>291</v>
+      </c>
+      <c r="B148" t="s">
+        <v>292</v>
+      </c>
+      <c r="C148">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6">
+      <c r="A149" t="s">
+        <v>293</v>
+      </c>
+      <c r="B149" t="s">
+        <v>294</v>
+      </c>
+      <c r="C149">
+        <v>2460</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6">
+      <c r="A150" t="s">
+        <v>295</v>
+      </c>
+      <c r="B150" t="s">
+        <v>296</v>
+      </c>
+      <c r="C150">
         <v>1111</v>
       </c>
     </row>
-    <row r="111" spans="1:4">
-      <c r="A111" t="s">
-        <v>224</v>
-      </c>
-      <c r="B111" t="s">
-        <v>225</v>
-      </c>
-      <c r="C111">
-        <v>11578</v>
-      </c>
-      <c r="D111">
-        <v>10669</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4">
-      <c r="A112" t="s">
-        <v>226</v>
-      </c>
-      <c r="B112" t="s">
-        <v>227</v>
-      </c>
-      <c r="C112">
-        <v>1987</v>
-      </c>
-      <c r="D112">
-        <v>1793</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4">
-      <c r="A113" t="s">
-        <v>228</v>
-      </c>
-      <c r="B113" t="s">
-        <v>229</v>
-      </c>
-      <c r="C113">
-        <v>2793</v>
-      </c>
-      <c r="D113">
-        <v>2521</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4">
-      <c r="A114" t="s">
-        <v>230</v>
-      </c>
-      <c r="B114" t="s">
-        <v>231</v>
-      </c>
-      <c r="C114">
-        <v>3999</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4">
-      <c r="A115" t="s">
-        <v>232</v>
-      </c>
-      <c r="B115" t="s">
-        <v>232</v>
-      </c>
-      <c r="C115">
-        <v>1969</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4">
-      <c r="A116" t="s">
-        <v>233</v>
-      </c>
-      <c r="B116" t="s">
-        <v>234</v>
-      </c>
-      <c r="C116">
-        <v>2432</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4">
-      <c r="A117" t="s">
-        <v>235</v>
-      </c>
-      <c r="B117" t="s">
-        <v>236</v>
-      </c>
-      <c r="C117">
-        <v>1404</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4">
-      <c r="A118" t="s">
-        <v>237</v>
-      </c>
-      <c r="B118" t="s">
-        <v>238</v>
-      </c>
-      <c r="C118">
-        <v>5166</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4">
-      <c r="A119" t="s">
-        <v>239</v>
-      </c>
-      <c r="B119" t="s">
-        <v>240</v>
-      </c>
-      <c r="C119">
-        <v>1115</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4">
-      <c r="A120" t="s">
-        <v>241</v>
-      </c>
-      <c r="B120" t="s">
-        <v>242</v>
-      </c>
-      <c r="C120">
-        <v>1279</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4">
-      <c r="A121" t="s">
-        <v>243</v>
-      </c>
-      <c r="B121" t="s">
-        <v>244</v>
-      </c>
-      <c r="C121">
-        <v>1599</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4">
-      <c r="A122" t="s">
-        <v>245</v>
-      </c>
-      <c r="B122" t="s">
-        <v>246</v>
-      </c>
-      <c r="C122">
-        <v>1616</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4">
-      <c r="A123" t="s">
-        <v>247</v>
-      </c>
-      <c r="B123" t="s">
-        <v>247</v>
-      </c>
-      <c r="C123">
-        <v>1149</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4">
-      <c r="A124" t="s">
-        <v>248</v>
-      </c>
-      <c r="B124" t="s">
-        <v>249</v>
-      </c>
-      <c r="C124">
-        <v>1083</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4">
-      <c r="A125" t="s">
-        <v>250</v>
-      </c>
-      <c r="B125" t="s">
-        <v>251</v>
-      </c>
-      <c r="C125">
-        <v>2532</v>
-      </c>
-      <c r="D125">
-        <v>2285</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4">
-      <c r="A126" t="s">
-        <v>252</v>
-      </c>
-      <c r="B126" t="s">
-        <v>253</v>
-      </c>
-      <c r="C126">
-        <v>11577</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4">
-      <c r="A127" t="s">
-        <v>254</v>
-      </c>
-      <c r="B127" t="s">
-        <v>255</v>
-      </c>
-      <c r="C127">
-        <v>2205</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4">
-      <c r="A128" t="s">
-        <v>28</v>
-      </c>
-      <c r="B128" t="s">
-        <v>256</v>
-      </c>
-      <c r="C128">
-        <v>1439</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4">
-      <c r="A129" t="s">
-        <v>257</v>
-      </c>
-      <c r="B129" t="s">
-        <v>258</v>
-      </c>
-      <c r="C129">
-        <v>7777</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4">
-      <c r="A130" t="s">
-        <v>259</v>
-      </c>
-      <c r="B130" t="s">
-        <v>260</v>
-      </c>
-      <c r="C130">
-        <v>6219</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4">
-      <c r="A131" t="s">
-        <v>261</v>
-      </c>
-      <c r="B131" t="s">
-        <v>262</v>
-      </c>
-      <c r="C131">
-        <v>1799</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4">
-      <c r="A132" t="s">
-        <v>263</v>
-      </c>
-      <c r="B132" t="s">
-        <v>264</v>
-      </c>
-      <c r="C132">
+    <row r="151" spans="1:6">
+      <c r="A151" t="s">
+        <v>297</v>
+      </c>
+      <c r="B151" t="s">
+        <v>298</v>
+      </c>
+      <c r="C151">
+        <v>4029</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6">
+      <c r="A152" t="s">
+        <v>299</v>
+      </c>
+      <c r="B152" t="s">
+        <v>300</v>
+      </c>
+      <c r="C152">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6">
+      <c r="A153" t="s">
+        <v>301</v>
+      </c>
+      <c r="B153" t="s">
+        <v>302</v>
+      </c>
+      <c r="C153">
+        <v>7299</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6">
+      <c r="A154" t="s">
+        <v>303</v>
+      </c>
+      <c r="B154" t="s">
+        <v>304</v>
+      </c>
+      <c r="C154">
+        <v>1311</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6">
+      <c r="A155" t="s">
+        <v>305</v>
+      </c>
+      <c r="B155" t="s">
+        <v>306</v>
+      </c>
+      <c r="C155">
         <v>3707</v>
       </c>
-      <c r="D132">
+      <c r="D155">
         <v>3345</v>
       </c>
     </row>
-    <row r="133" spans="1:4">
-      <c r="A133" t="s">
-        <v>265</v>
-      </c>
-      <c r="B133" t="s">
-        <v>266</v>
-      </c>
-      <c r="C133">
-        <v>6599</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4">
-      <c r="A134" t="s">
-        <v>267</v>
-      </c>
-      <c r="B134" t="s">
-        <v>268</v>
-      </c>
-      <c r="C134">
-        <v>2458</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4">
-      <c r="A135" t="s">
-        <v>269</v>
-      </c>
-      <c r="B135" t="s">
-        <v>270</v>
-      </c>
-      <c r="C135">
-        <v>1649</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4">
-      <c r="A136" t="s">
-        <v>271</v>
-      </c>
-      <c r="B136" t="s">
-        <v>272</v>
-      </c>
-      <c r="C136">
-        <v>1129</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4">
-      <c r="A137" t="s">
-        <v>273</v>
-      </c>
-      <c r="B137" t="s">
-        <v>274</v>
-      </c>
-      <c r="C137">
-        <v>1831</v>
-      </c>
-      <c r="D137">
-        <v>1687</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4">
-      <c r="A138" t="s">
-        <v>275</v>
-      </c>
-      <c r="B138" t="s">
-        <v>276</v>
-      </c>
-      <c r="C138">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4">
-      <c r="A139" t="s">
-        <v>277</v>
-      </c>
-      <c r="B139" t="s">
-        <v>278</v>
-      </c>
-      <c r="C139">
-        <v>2399</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4">
-      <c r="A140" t="s">
-        <v>279</v>
-      </c>
-      <c r="B140" t="s">
-        <v>280</v>
-      </c>
-      <c r="C140">
-        <v>1035</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4">
-      <c r="A141" t="s">
-        <v>281</v>
-      </c>
-      <c r="B141" t="s">
-        <v>281</v>
-      </c>
-      <c r="C141">
-        <v>1524</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4">
-      <c r="A142" t="s">
-        <v>282</v>
-      </c>
-      <c r="B142" t="s">
-        <v>283</v>
-      </c>
-      <c r="C142">
-        <v>1205</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4">
-      <c r="A143" t="s">
-        <v>284</v>
-      </c>
-      <c r="B143" t="s">
-        <v>285</v>
-      </c>
-      <c r="C143">
-        <v>4029</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4">
-      <c r="A144" t="s">
-        <v>286</v>
-      </c>
-      <c r="B144" t="s">
-        <v>287</v>
-      </c>
-      <c r="C144">
+    <row r="156" spans="1:6">
+      <c r="A156" t="s">
+        <v>307</v>
+      </c>
+      <c r="B156" t="s">
+        <v>308</v>
+      </c>
+      <c r="C156">
+        <v>1684</v>
+      </c>
+      <c r="D156">
+        <v>1263</v>
+      </c>
+      <c r="E156">
         <v>1399</v>
       </c>
-    </row>
-    <row r="145" spans="1:4">
-      <c r="A145" t="s">
-        <v>288</v>
-      </c>
-      <c r="B145" t="s">
-        <v>289</v>
-      </c>
-      <c r="C145">
-        <v>2522</v>
-      </c>
-      <c r="D145">
-        <v>2276</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4">
-      <c r="A146" t="s">
-        <v>290</v>
-      </c>
-      <c r="B146" t="s">
-        <v>291</v>
-      </c>
-      <c r="C146">
-        <v>7299</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4">
-      <c r="A147" t="s">
-        <v>292</v>
-      </c>
-      <c r="B147" t="s">
-        <v>293</v>
-      </c>
-      <c r="C147">
-        <v>1311</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4">
-      <c r="A148" t="s">
-        <v>294</v>
-      </c>
-      <c r="B148" t="s">
-        <v>295</v>
-      </c>
-      <c r="C148">
-        <v>1275</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4">
-      <c r="A149" t="s">
-        <v>296</v>
-      </c>
-      <c r="B149" t="s">
-        <v>297</v>
-      </c>
-      <c r="C149">
-        <v>1578</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4">
-      <c r="A150" t="s">
-        <v>298</v>
-      </c>
-      <c r="B150" t="s">
-        <v>299</v>
-      </c>
-      <c r="C150">
-        <v>1684</v>
-      </c>
-      <c r="D150">
-        <v>1519</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4">
-      <c r="A151" t="s">
-        <v>300</v>
-      </c>
-      <c r="B151" t="s">
-        <v>301</v>
-      </c>
-      <c r="C151">
-        <v>1217</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4">
-      <c r="A152" t="s">
-        <v>302</v>
-      </c>
-      <c r="B152" t="s">
-        <v>303</v>
-      </c>
-      <c r="C152">
+      <c r="F156">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6">
+      <c r="A157" t="s">
+        <v>309</v>
+      </c>
+      <c r="B157" t="s">
+        <v>310</v>
+      </c>
+      <c r="C157">
         <v>3190</v>
       </c>
     </row>
-    <row r="153" spans="1:4">
-      <c r="A153" t="s">
-        <v>304</v>
-      </c>
-      <c r="B153" t="s">
-        <v>305</v>
-      </c>
-      <c r="C153">
-        <v>3605</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4">
-      <c r="A154" t="s">
-        <v>306</v>
-      </c>
-      <c r="B154" t="s">
-        <v>307</v>
-      </c>
-      <c r="C154">
-        <v>3859</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4">
-      <c r="A155" t="s">
-        <v>308</v>
-      </c>
-      <c r="B155" t="s">
-        <v>309</v>
-      </c>
-      <c r="C155">
+    <row r="158" spans="1:6">
+      <c r="A158" t="s">
+        <v>311</v>
+      </c>
+      <c r="B158" t="s">
+        <v>312</v>
+      </c>
+      <c r="C158">
         <v>2299</v>
       </c>
     </row>
-    <row r="156" spans="1:4">
-      <c r="A156" t="s">
-        <v>310</v>
-      </c>
-      <c r="B156" t="s">
-        <v>311</v>
-      </c>
-      <c r="C156">
-        <v>2855</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4">
-      <c r="A157" t="s">
-        <v>312</v>
-      </c>
-      <c r="B157" t="s">
+    <row r="159" spans="1:6">
+      <c r="A159" t="s">
         <v>313</v>
       </c>
-      <c r="C157">
-        <v>2385</v>
-      </c>
-      <c r="D157">
-        <v>2152</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4">
-      <c r="A158" t="s">
+      <c r="B159" t="s">
         <v>314</v>
       </c>
-      <c r="B158" t="s">
+      <c r="C159">
+        <v>2999</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6">
+      <c r="A160" t="s">
         <v>315</v>
       </c>
-      <c r="C158">
-        <v>2999</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4">
-      <c r="A159" t="s">
+      <c r="B160" t="s">
         <v>316</v>
       </c>
-      <c r="B159" t="s">
-        <v>317</v>
-      </c>
-      <c r="C159">
+      <c r="C160">
         <v>10333</v>
       </c>
-      <c r="D159">
+      <c r="D160">
         <v>9326</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4">
-      <c r="A160" t="s">
-        <v>318</v>
-      </c>
-      <c r="B160" t="s">
-        <v>319</v>
-      </c>
-      <c r="C160">
-        <v>1199</v>
       </c>
     </row>
     <row r="161" spans="1:4">
       <c r="A161" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="B161" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C161">
         <v>2199</v>
@@ -6495,57 +6750,54 @@
     </row>
     <row r="162" spans="1:4">
       <c r="A162" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="B162" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C162">
-        <v>3375</v>
+        <v>2432</v>
       </c>
     </row>
     <row r="163" spans="1:4">
       <c r="A163" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B163" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C163">
-        <v>1196</v>
+        <v>4899</v>
       </c>
     </row>
     <row r="164" spans="1:4">
       <c r="A164" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="B164" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="C164">
-        <v>2816</v>
-      </c>
-      <c r="D164">
-        <v>2542</v>
+        <v>3375</v>
       </c>
     </row>
     <row r="165" spans="1:4">
       <c r="A165" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="B165" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="C165">
-        <v>2460</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="166" spans="1:4">
       <c r="A166" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="B166" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C166">
         <v>2239</v>
@@ -6553,618 +6805,615 @@
     </row>
     <row r="167" spans="1:4">
       <c r="A167" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B167" t="s">
-        <v>332</v>
+        <v>329</v>
  